--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361DA589-DF0E-4CAC-9851-15C01B184296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072667CB-1FF9-4477-91CF-1E8A52D47FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="351">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -1016,13 +1016,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>機密情報を含まないため。</t>
-    <rPh sb="5" eb="6">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>WebサーバアプリケーションやProxyサーバにキャッシュされている場合があるため、アプリケーションのブラウザキャッシュ制御に加えて</t>
     <rPh sb="34" eb="36">
       <t>バアイ</t>
@@ -1162,16 +1155,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン画面への遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>上記以外の画面遷移</t>
     <rPh sb="0" eb="2">
       <t>ジョウキ</t>
@@ -1316,49 +1299,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>機密情報がGETリクエストのパラメータに含まれてしまい、履歴から当該情報が</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>漏洩することを防止するため。</t>
-  </si>
-  <si>
-    <t>上記以外の遷移</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キャンペーン等のURLからの遷移を特定するため。</t>
-    <rPh sb="6" eb="7">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トクテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パラメータ付きURLからの遷移</t>
-    <rPh sb="5" eb="6">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コンテンツが存在しない場合、コンテンツの表示領域を詰めて表示する。</t>
     <rPh sb="6" eb="8">
       <t>ソンザイ</t>
@@ -3044,6 +2984,77 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTTPメソッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>POSTメソッドを使用する条件に該当しない場合</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・情報の登録、更新、削除</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・リクエストに機密情報を含む場合</t>
+    <rPh sb="7" eb="9">
+      <t>キミツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・GETで送信した場合にブラウザのURL制限を超える場合</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3349,7 +3360,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3751,6 +3762,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4813,7 +4833,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="115" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F1" s="116"/>
       <c r="G1" s="116"/>
@@ -4830,7 +4850,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="118" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="S1" s="119"/>
       <c r="T1" s="119"/>
@@ -5087,191 +5107,184 @@
       <c r="AI13" s="27"/>
     </row>
     <row r="14" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>23</v>
+        <v>346</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="134" t="s">
+        <v>264</v>
+      </c>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
     </row>
     <row r="15" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="94" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="26" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="95" t="s">
-        <v>168</v>
-      </c>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="96"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
     </row>
     <row r="16" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="97" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
-      <c r="AE16" s="70"/>
-      <c r="AF16" s="70"/>
-      <c r="AG16" s="70"/>
-      <c r="AH16" s="98"/>
-    </row>
-    <row r="17" spans="3:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="99" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="100" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="100" t="s">
-        <v>189</v>
-      </c>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="101"/>
-      <c r="AE17" s="101"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="101"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="44"/>
-    </row>
-    <row r="18" spans="3:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="104"/>
-      <c r="AF18" s="104"/>
-      <c r="AG18" s="104"/>
-      <c r="AH18" s="105"/>
-    </row>
-    <row r="19" spans="3:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+    </row>
+    <row r="17" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+    </row>
+    <row r="18" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+    </row>
+    <row r="19" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="42"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
@@ -5304,8 +5317,8 @@
       <c r="AH19" s="27"/>
       <c r="AI19" s="27"/>
     </row>
-    <row r="20" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="28" t="str">
         <f>$C$7&amp;"3."</f>
         <v>3.1.3.</v>
@@ -5314,7 +5327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="28"/>
       <c r="E22" s="28" t="str">
         <f>$D$21&amp;"1."</f>
@@ -5325,28 +5338,28 @@
         <v>ブラウザキャッシュ制御機能概要</v>
       </c>
     </row>
-    <row r="23" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="3:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="36" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="36" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E28" s="28" t="str">
         <f>$D$21&amp;"2."</f>
         <v>3.1.3.2.</v>
@@ -5356,7 +5369,7 @@
         <v>ブラウザキャッシュ制御手段</v>
       </c>
     </row>
-    <row r="29" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="16" t="s">
         <v>71</v>
       </c>
@@ -5393,7 +5406,7 @@
       <c r="AG29" s="17"/>
       <c r="AH29" s="18"/>
     </row>
-    <row r="30" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="56" t="s">
         <v>70</v>
       </c>
@@ -5431,7 +5444,7 @@
       <c r="AG30" s="70"/>
       <c r="AH30" s="98"/>
     </row>
-    <row r="31" spans="3:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="55"/>
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
@@ -5462,7 +5475,7 @@
       <c r="AG31" s="55"/>
       <c r="AH31" s="55"/>
     </row>
-    <row r="32" spans="3:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E32" s="24" t="str">
         <f>$D$21&amp;"3."</f>
         <v>3.1.3.3.</v>
@@ -5483,7 +5496,7 @@
     </row>
     <row r="34" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G34" s="76" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5507,7 +5520,7 @@
     <row r="37" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="79"/>
       <c r="F37" s="29" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
@@ -5521,7 +5534,7 @@
     <row r="38" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="79"/>
       <c r="F38" s="29" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -5570,7 +5583,7 @@
       <c r="I41" s="78"/>
       <c r="J41" s="92"/>
       <c r="K41" s="78" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L41" s="78"/>
       <c r="M41" s="92"/>
@@ -5602,7 +5615,7 @@
     </row>
     <row r="46" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="36" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5618,19 +5631,19 @@
     </row>
     <row r="49" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="36" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="52" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
       <c r="K50" s="53" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
@@ -5667,7 +5680,7 @@
       <c r="I51" s="72"/>
       <c r="J51" s="73"/>
       <c r="K51" s="95" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
@@ -5676,7 +5689,7 @@
       <c r="P51" s="26"/>
       <c r="Q51" s="73"/>
       <c r="R51" s="26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
@@ -5704,7 +5717,7 @@
       <c r="I52" s="70"/>
       <c r="J52" s="74"/>
       <c r="K52" s="95" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L52" s="95"/>
       <c r="M52" s="95"/>
@@ -5713,7 +5726,7 @@
       <c r="P52" s="95"/>
       <c r="Q52" s="74"/>
       <c r="R52" s="97" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="S52" s="95"/>
       <c r="T52" s="95"/>
@@ -5739,52 +5752,52 @@
         <v>3.1.4.3.</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F55" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="G55" s="36" t="s">
         <v>182</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="56" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F56" s="68"/>
       <c r="G56" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F57" s="68"/>
       <c r="G57" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="36" t="s">
         <v>183</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="58" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F58" s="68"/>
       <c r="G58" s="75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G59" s="75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H60" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5811,17 +5824,17 @@
     </row>
     <row r="65" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F65" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F67" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5837,12 +5850,12 @@
     </row>
     <row r="70" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="52" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="53"/>
       <c r="I70" s="16" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -5857,7 +5870,7 @@
       <c r="T70" s="53"/>
       <c r="U70" s="54"/>
       <c r="V70" s="53" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="W70" s="53"/>
       <c r="X70" s="53"/>
@@ -5876,12 +5889,12 @@
     </row>
     <row r="71" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F71" s="99" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G71" s="101"/>
       <c r="H71" s="106"/>
       <c r="I71" s="107" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J71" s="108"/>
       <c r="K71" s="95"/>
@@ -5896,7 +5909,7 @@
       <c r="T71" s="70"/>
       <c r="U71" s="109"/>
       <c r="V71" s="95" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="W71" s="108"/>
       <c r="X71" s="108"/>
@@ -5905,7 +5918,7 @@
       <c r="AA71" s="70"/>
       <c r="AB71" s="74"/>
       <c r="AC71" s="95" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AD71" s="70"/>
       <c r="AE71" s="70"/>
@@ -5918,7 +5931,7 @@
       <c r="G72" s="104"/>
       <c r="H72" s="110"/>
       <c r="I72" s="107" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J72" s="108"/>
       <c r="K72" s="95"/>
@@ -5933,7 +5946,7 @@
       <c r="T72" s="70"/>
       <c r="U72" s="109"/>
       <c r="V72" s="95" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="W72" s="108"/>
       <c r="X72" s="108"/>
@@ -5942,7 +5955,7 @@
       <c r="AA72" s="70"/>
       <c r="AB72" s="74"/>
       <c r="AC72" s="95" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AD72" s="70"/>
       <c r="AE72" s="70"/>
@@ -5952,12 +5965,12 @@
     </row>
     <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F73" s="97" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G73" s="70"/>
       <c r="H73" s="108"/>
       <c r="I73" s="107" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J73" s="108"/>
       <c r="K73" s="95"/>
@@ -5972,7 +5985,7 @@
       <c r="T73" s="70"/>
       <c r="U73" s="109"/>
       <c r="V73" s="95" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="W73" s="108"/>
       <c r="X73" s="108"/>
@@ -5981,7 +5994,7 @@
       <c r="AA73" s="70"/>
       <c r="AB73" s="74"/>
       <c r="AC73" s="95" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AD73" s="70"/>
       <c r="AE73" s="70"/>
@@ -6061,7 +6074,7 @@
     <row r="76" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="42"/>
       <c r="F76" s="44" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
@@ -6095,7 +6108,7 @@
     <row r="77" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="42"/>
       <c r="F77" s="36" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H77" s="44"/>
       <c r="I77" s="44"/>
@@ -6148,7 +6161,7 @@
     </row>
     <row r="81" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F81" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6158,7 +6171,7 @@
     </row>
     <row r="83" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F83" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6174,7 +6187,7 @@
     </row>
     <row r="86" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F86" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6634,7 +6647,7 @@
     </row>
     <row r="106" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F106" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6692,7 +6705,7 @@
       <c r="O108" s="26"/>
       <c r="P108" s="73"/>
       <c r="Q108" s="26" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
@@ -6760,7 +6773,7 @@
       <c r="O110" s="26"/>
       <c r="P110" s="73"/>
       <c r="Q110" s="26" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
@@ -6866,7 +6879,7 @@
       <c r="D115" s="36"/>
       <c r="E115" s="36"/>
       <c r="G115" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AA115" s="41"/>
     </row>
@@ -6922,14 +6935,14 @@
       <c r="I117" s="101"/>
       <c r="J117" s="103"/>
       <c r="K117" s="101" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L117" s="101"/>
       <c r="M117" s="101"/>
       <c r="N117" s="101"/>
       <c r="O117" s="103"/>
       <c r="P117" s="101" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="Q117" s="101"/>
       <c r="R117" s="101"/>
@@ -7002,7 +7015,7 @@
       <c r="N119" s="104"/>
       <c r="O119" s="105"/>
       <c r="P119" s="104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q119" s="104"/>
       <c r="R119" s="104"/>
@@ -7038,7 +7051,7 @@
       <c r="N120" s="72"/>
       <c r="O120" s="96"/>
       <c r="P120" s="72" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Q120" s="72"/>
       <c r="R120" s="72"/>
@@ -7070,7 +7083,7 @@
       <c r="N121" s="104"/>
       <c r="O121" s="105"/>
       <c r="P121" s="104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q121" s="104"/>
       <c r="R121" s="104"/>
@@ -7099,14 +7112,14 @@
       <c r="I122" s="72"/>
       <c r="J122" s="96"/>
       <c r="K122" s="72" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L122" s="72"/>
       <c r="M122" s="72"/>
       <c r="N122" s="72"/>
       <c r="O122" s="96"/>
       <c r="P122" s="26" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Q122" s="72"/>
       <c r="R122" s="72"/>
@@ -7165,7 +7178,7 @@
         <v>76</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7174,7 +7187,7 @@
       <c r="D126" s="36"/>
       <c r="E126" s="36"/>
       <c r="G126" s="41" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7229,14 +7242,14 @@
       <c r="I128" s="101"/>
       <c r="J128" s="103"/>
       <c r="K128" s="101" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L128" s="101"/>
       <c r="M128" s="101"/>
       <c r="N128" s="101"/>
       <c r="O128" s="103"/>
       <c r="P128" s="101" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q128" s="101"/>
       <c r="R128" s="101"/>
@@ -7300,14 +7313,14 @@
       <c r="I130" s="72"/>
       <c r="J130" s="96"/>
       <c r="K130" s="72" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L130" s="72"/>
       <c r="M130" s="72"/>
       <c r="N130" s="72"/>
       <c r="O130" s="96"/>
       <c r="P130" s="72" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="Q130" s="72"/>
       <c r="R130" s="72"/>
@@ -7334,14 +7347,14 @@
       <c r="I131" s="72"/>
       <c r="J131" s="96"/>
       <c r="K131" s="72" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L131" s="72"/>
       <c r="M131" s="72"/>
       <c r="N131" s="72"/>
       <c r="O131" s="96"/>
       <c r="P131" s="72" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q131" s="72"/>
       <c r="R131" s="72"/>
@@ -7656,7 +7669,7 @@
         <v>79</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
@@ -7804,7 +7817,7 @@
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
       <c r="F147" s="62" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
@@ -7812,13 +7825,13 @@
       <c r="J147" s="38"/>
       <c r="K147" s="37"/>
       <c r="L147" s="62" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
       <c r="O147" s="37"/>
       <c r="P147" s="38" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q147" s="38"/>
       <c r="R147" s="38"/>
@@ -7852,13 +7865,13 @@
       <c r="J148" s="100"/>
       <c r="K148" s="100"/>
       <c r="L148" s="99" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M148" s="100"/>
       <c r="N148" s="100"/>
       <c r="O148" s="102"/>
       <c r="P148" s="26" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q148" s="100"/>
       <c r="R148" s="100"/>
@@ -7884,7 +7897,7 @@
       <c r="D149" s="29"/>
       <c r="E149" s="29"/>
       <c r="F149" s="97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G149" s="95"/>
       <c r="H149" s="95"/>
@@ -7892,13 +7905,13 @@
       <c r="J149" s="95"/>
       <c r="K149" s="95"/>
       <c r="L149" s="97" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M149" s="95"/>
       <c r="N149" s="95"/>
       <c r="O149" s="74"/>
       <c r="P149" s="95" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q149" s="95"/>
       <c r="R149" s="95"/>
@@ -8018,7 +8031,7 @@
       <c r="E153" s="79"/>
       <c r="F153" s="24"/>
       <c r="G153" s="29" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
@@ -8048,7 +8061,7 @@
       <c r="E154" s="79"/>
       <c r="F154" s="24"/>
       <c r="G154" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H154" s="29"/>
       <c r="I154" s="29"/>
@@ -8078,7 +8091,7 @@
       <c r="E155" s="79"/>
       <c r="F155" s="24"/>
       <c r="G155" s="65" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
@@ -8108,7 +8121,7 @@
       <c r="E156" s="79"/>
       <c r="F156" s="24"/>
       <c r="G156" s="65" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
@@ -8258,7 +8271,7 @@
       <c r="O160" s="55"/>
       <c r="P160" s="31"/>
       <c r="Q160" s="26" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="R160" s="55"/>
       <c r="S160" s="55"/>
@@ -8300,7 +8313,7 @@
       <c r="O161" s="57"/>
       <c r="P161" s="58"/>
       <c r="Q161" s="57" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="R161" s="57"/>
       <c r="S161" s="57"/>
@@ -8449,7 +8462,7 @@
       <c r="O165" s="33"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="78" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R165" s="33"/>
       <c r="S165" s="33"/>
@@ -8594,7 +8607,7 @@
       <c r="R169" s="39"/>
       <c r="S169" s="40"/>
       <c r="T169" s="35" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="U169" s="39"/>
       <c r="V169" s="39"/>
@@ -8632,7 +8645,7 @@
       <c r="R170" s="55"/>
       <c r="S170" s="31"/>
       <c r="T170" s="30" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="U170" s="55"/>
       <c r="V170" s="55"/>
@@ -8833,7 +8846,7 @@
       <c r="D176" s="29"/>
       <c r="E176" s="76"/>
       <c r="F176" s="24" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G176" s="55" t="str">
         <f>G142</f>
@@ -8873,7 +8886,7 @@
       <c r="E177" s="76"/>
       <c r="F177" s="29"/>
       <c r="G177" s="55" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
@@ -8909,7 +8922,7 @@
       <c r="E178" s="76"/>
       <c r="F178" s="29"/>
       <c r="G178" s="29" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -8939,7 +8952,7 @@
       <c r="E179" s="76"/>
       <c r="F179" s="29"/>
       <c r="G179" s="29" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -9043,7 +9056,7 @@
         <v>3.1.9.1.</v>
       </c>
       <c r="F182" s="76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G182" s="29"/>
       <c r="H182" s="29"/>
@@ -9082,7 +9095,7 @@
       <c r="D183" s="29"/>
       <c r="E183" s="24"/>
       <c r="F183" s="76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G183" s="29"/>
       <c r="H183" s="29"/>
@@ -9278,7 +9291,7 @@
       <c r="E188" s="29"/>
       <c r="F188" s="29"/>
       <c r="G188" s="66" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
@@ -9317,7 +9330,7 @@
       <c r="E189" s="29"/>
       <c r="F189" s="29"/>
       <c r="G189" s="80" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H189" s="29"/>
       <c r="I189" s="29"/>
@@ -9356,7 +9369,7 @@
       <c r="E190" s="29"/>
       <c r="F190" s="29"/>
       <c r="G190" s="80" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
@@ -9799,7 +9812,7 @@
       <c r="O201" s="55"/>
       <c r="P201" s="31"/>
       <c r="Q201" s="55" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="R201" s="55"/>
       <c r="S201" s="55"/>
@@ -9838,7 +9851,7 @@
       <c r="O202" s="55"/>
       <c r="P202" s="31"/>
       <c r="Q202" s="55" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="R202" s="55"/>
       <c r="S202" s="55"/>
@@ -9959,7 +9972,7 @@
       <c r="O205" s="55"/>
       <c r="P205" s="31"/>
       <c r="Q205" s="55" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="R205" s="55"/>
       <c r="S205" s="55"/>
@@ -9998,7 +10011,7 @@
       <c r="O206" s="55"/>
       <c r="P206" s="31"/>
       <c r="Q206" s="55" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="R206" s="55"/>
       <c r="S206" s="55"/>
@@ -10037,7 +10050,7 @@
       <c r="O207" s="33"/>
       <c r="P207" s="34"/>
       <c r="Q207" s="33" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="R207" s="33"/>
       <c r="S207" s="33"/>
@@ -10370,7 +10383,7 @@
       <c r="AA215" s="26"/>
       <c r="AB215" s="73"/>
       <c r="AC215" s="26" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AD215" s="26"/>
       <c r="AE215" s="26"/>
@@ -10532,7 +10545,7 @@
       <c r="AA219" s="26"/>
       <c r="AB219" s="73"/>
       <c r="AC219" s="26" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AD219" s="26"/>
       <c r="AE219" s="26"/>
@@ -10573,7 +10586,7 @@
       <c r="AA220" s="26"/>
       <c r="AB220" s="73"/>
       <c r="AC220" s="26" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AD220" s="26"/>
       <c r="AE220" s="26"/>
@@ -10948,7 +10961,7 @@
       <c r="J230" s="55"/>
       <c r="K230" s="31"/>
       <c r="L230" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M230" s="26"/>
       <c r="N230" s="26"/>
@@ -10987,7 +11000,7 @@
       <c r="J231" s="55"/>
       <c r="K231" s="31"/>
       <c r="L231" s="26" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -11145,7 +11158,7 @@
       <c r="J235" s="55"/>
       <c r="K235" s="31"/>
       <c r="L235" s="26" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -11188,7 +11201,7 @@
       <c r="J236" s="33"/>
       <c r="K236" s="34"/>
       <c r="L236" s="78" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M236" s="78"/>
       <c r="N236" s="78"/>
@@ -11454,10 +11467,10 @@
       <c r="D243" s="29"/>
       <c r="E243" s="36"/>
       <c r="F243" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G243" s="67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H243" s="29"/>
       <c r="I243" s="29"/>
@@ -11667,7 +11680,7 @@
       <c r="P248" s="39"/>
       <c r="Q248" s="40"/>
       <c r="R248" s="35" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="S248" s="39"/>
       <c r="T248" s="39"/>
@@ -11705,7 +11718,7 @@
       <c r="P249" s="33"/>
       <c r="Q249" s="34"/>
       <c r="R249" s="32" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="S249" s="33"/>
       <c r="T249" s="33"/>
@@ -12016,7 +12029,7 @@
       <c r="I257" s="55"/>
       <c r="J257" s="31"/>
       <c r="K257" s="30" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L257" s="55"/>
       <c r="M257" s="55"/>
@@ -12056,7 +12069,7 @@
       <c r="I258" s="55"/>
       <c r="J258" s="31"/>
       <c r="K258" s="30" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L258" s="55"/>
       <c r="M258" s="55"/>
@@ -12065,7 +12078,7 @@
       <c r="P258" s="55"/>
       <c r="Q258" s="31"/>
       <c r="R258" s="55" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="S258" s="55"/>
       <c r="T258" s="55"/>
@@ -12103,7 +12116,7 @@
       <c r="P259" s="55"/>
       <c r="Q259" s="31"/>
       <c r="R259" s="55" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="S259" s="55"/>
       <c r="T259" s="55"/>
@@ -12141,7 +12154,7 @@
       <c r="P260" s="55"/>
       <c r="Q260" s="31"/>
       <c r="R260" s="55" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="S260" s="55"/>
       <c r="T260" s="55"/>
@@ -12179,7 +12192,7 @@
       <c r="P261" s="55"/>
       <c r="Q261" s="31"/>
       <c r="R261" s="55" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="S261" s="55"/>
       <c r="T261" s="55"/>
@@ -12217,7 +12230,7 @@
       <c r="P262" s="33"/>
       <c r="Q262" s="34"/>
       <c r="R262" s="33" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="S262" s="33"/>
       <c r="T262" s="33"/>
@@ -12317,7 +12330,7 @@
         <v>3.1.10.</v>
       </c>
       <c r="E265" s="41" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="266" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12337,16 +12350,16 @@
     <row r="268" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D268" s="42"/>
       <c r="F268" s="41" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="269" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D269" s="42"/>
       <c r="F269" s="41" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G269" s="41" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="270" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12366,13 +12379,13 @@
     <row r="272" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D272" s="42"/>
       <c r="F272" s="41" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="42"/>
       <c r="F273" s="52" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G273" s="53"/>
       <c r="H273" s="53"/>
@@ -12407,7 +12420,7 @@
     <row r="274" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D274" s="42"/>
       <c r="F274" s="71" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G274" s="101"/>
       <c r="H274" s="101"/>
@@ -12415,7 +12428,7 @@
       <c r="J274" s="101"/>
       <c r="K274" s="103"/>
       <c r="L274" s="71" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M274" s="101"/>
       <c r="N274" s="101"/>
@@ -12448,7 +12461,7 @@
       <c r="J275" s="104"/>
       <c r="K275" s="105"/>
       <c r="L275" s="83" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M275" s="104"/>
       <c r="N275" s="104"/>
@@ -12489,7 +12502,7 @@
     <row r="278" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="42"/>
       <c r="F278" s="29" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G278" s="29"/>
       <c r="H278" s="29"/>
@@ -12543,7 +12556,7 @@
       <c r="E288" s="42"/>
       <c r="F288" s="89"/>
       <c r="G288" s="52" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H288" s="53"/>
       <c r="I288" s="53"/>
@@ -12551,13 +12564,13 @@
       <c r="K288" s="53"/>
       <c r="L288" s="54"/>
       <c r="M288" s="53" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N288" s="53"/>
       <c r="O288" s="53"/>
       <c r="P288" s="54"/>
       <c r="Q288" s="53" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="R288" s="53"/>
       <c r="S288" s="53"/>
@@ -12578,10 +12591,10 @@
     <row r="289" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E289" s="42"/>
       <c r="F289" s="88" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G289" s="48" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H289" s="49"/>
       <c r="I289" s="49"/>
@@ -12589,13 +12602,13 @@
       <c r="K289" s="49"/>
       <c r="L289" s="50"/>
       <c r="M289" s="49" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N289" s="49"/>
       <c r="O289" s="49"/>
       <c r="P289" s="50"/>
       <c r="Q289" s="48" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="R289" s="49"/>
       <c r="S289" s="49"/>
@@ -12646,10 +12659,10 @@
     <row r="291" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E291" s="42"/>
       <c r="F291" s="88" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G291" s="48" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H291" s="49"/>
       <c r="I291" s="49"/>
@@ -12657,13 +12670,13 @@
       <c r="K291" s="49"/>
       <c r="L291" s="50"/>
       <c r="M291" s="49" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N291" s="49"/>
       <c r="O291" s="49"/>
       <c r="P291" s="50"/>
       <c r="Q291" s="48" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="R291" s="49"/>
       <c r="S291" s="49"/>
@@ -12695,7 +12708,7 @@
       <c r="O292" s="47"/>
       <c r="P292" s="51"/>
       <c r="Q292" s="46" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="R292" s="47"/>
       <c r="S292" s="47"/>
@@ -12716,10 +12729,10 @@
     <row r="293" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E293" s="42"/>
       <c r="F293" s="88" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G293" s="48" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H293" s="49"/>
       <c r="I293" s="49"/>
@@ -12727,13 +12740,13 @@
       <c r="K293" s="49"/>
       <c r="L293" s="50"/>
       <c r="M293" s="49" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="N293" s="49"/>
       <c r="O293" s="49"/>
       <c r="P293" s="50"/>
       <c r="Q293" s="48" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="R293" s="49"/>
       <c r="S293" s="49"/>
@@ -12784,10 +12797,10 @@
     <row r="295" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E295" s="42"/>
       <c r="F295" s="88" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G295" s="48" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H295" s="49"/>
       <c r="I295" s="49"/>
@@ -12795,13 +12808,13 @@
       <c r="K295" s="49"/>
       <c r="L295" s="50"/>
       <c r="M295" s="49" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N295" s="49"/>
       <c r="O295" s="49"/>
       <c r="P295" s="50"/>
       <c r="Q295" s="48" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="R295" s="49"/>
       <c r="S295" s="49"/>
@@ -12833,7 +12846,7 @@
       <c r="O296" s="44"/>
       <c r="P296" s="45"/>
       <c r="Q296" s="43" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="R296" s="44"/>
       <c r="S296" s="44"/>
@@ -12884,10 +12897,10 @@
     <row r="298" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E298" s="42"/>
       <c r="F298" s="87" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G298" s="48" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H298" s="49"/>
       <c r="I298" s="49"/>
@@ -12895,13 +12908,13 @@
       <c r="K298" s="49"/>
       <c r="L298" s="50"/>
       <c r="M298" s="49" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N298" s="49"/>
       <c r="O298" s="49"/>
       <c r="P298" s="50"/>
       <c r="Q298" s="48" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="R298" s="49"/>
       <c r="S298" s="49"/>
@@ -12959,7 +12972,7 @@
       <c r="D301" s="42"/>
       <c r="E301" s="36"/>
       <c r="F301" s="36" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G301" s="36"/>
     </row>
@@ -12967,7 +12980,7 @@
       <c r="D302" s="42"/>
       <c r="E302" s="36"/>
       <c r="F302" s="36" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G302" s="36"/>
     </row>
@@ -13000,17 +13013,17 @@
       <c r="D308" s="42"/>
       <c r="E308" s="42"/>
       <c r="F308" s="36" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="309" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F309" s="36" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F310" s="36" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="311" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13126,7 +13139,7 @@
     </row>
     <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F315" s="83" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G315" s="95"/>
       <c r="H315" s="95"/>
@@ -13143,7 +13156,7 @@
       <c r="Q315" s="95"/>
       <c r="R315" s="74"/>
       <c r="S315" s="95" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="T315" s="104"/>
       <c r="U315" s="104"/>
@@ -13198,7 +13211,7 @@
         <v>3.1.11.3.</v>
       </c>
       <c r="F317" s="36" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G317" s="36"/>
       <c r="H317" s="36"/>
@@ -13224,10 +13237,10 @@
     <row r="319" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F319" s="79"/>
       <c r="G319" s="81" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H319" s="76" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I319" s="76"/>
       <c r="J319" s="76"/>
@@ -13241,7 +13254,7 @@
         <v>79</v>
       </c>
       <c r="I320" s="76" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J320" s="76"/>
       <c r="K320" s="76"/>
@@ -13253,7 +13266,7 @@
         <v>79</v>
       </c>
       <c r="H321" s="82" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I321" s="76"/>
       <c r="J321" s="76"/>
@@ -13267,7 +13280,7 @@
         <v>79</v>
       </c>
       <c r="I322" s="76" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J322" s="76"/>
       <c r="K322" s="76"/>
@@ -13277,10 +13290,10 @@
       <c r="F323" s="79"/>
       <c r="G323" s="76"/>
       <c r="H323" s="81" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I323" s="76" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J323" s="76"/>
       <c r="K323" s="76"/>
@@ -13289,10 +13302,10 @@
     <row r="324" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F324" s="76"/>
       <c r="G324" s="81" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H324" s="76" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I324" s="76"/>
       <c r="J324" s="76"/>
@@ -13303,10 +13316,10 @@
       <c r="F325" s="36"/>
       <c r="G325" s="36"/>
       <c r="H325" s="84" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I325" s="36" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J325" s="36"/>
       <c r="K325" s="36"/>
@@ -13316,10 +13329,10 @@
       <c r="F326" s="36"/>
       <c r="G326" s="85"/>
       <c r="H326" s="75" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I326" s="36" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J326" s="36"/>
       <c r="K326" s="36"/>
@@ -13352,7 +13365,7 @@
     <row r="330" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D330" s="42"/>
       <c r="E330" s="61" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="331" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13392,24 +13405,24 @@
         <v>3.1.13.</v>
       </c>
       <c r="E332" s="41" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="333" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D333" s="42"/>
       <c r="E333" s="41" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="334" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D334" s="42"/>
       <c r="E334" s="61" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="335" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E335" s="41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F335" s="44"/>
       <c r="G335" s="44"/>
@@ -13443,7 +13456,7 @@
     </row>
     <row r="336" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E336" s="41" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F336" s="44"/>
       <c r="G336" s="44"/>
@@ -13508,7 +13521,7 @@
     </row>
     <row r="338" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E338" s="41" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F338" s="44"/>
       <c r="G338" s="44"/>
@@ -13542,7 +13555,7 @@
     </row>
     <row r="339" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E339" s="41" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F339" s="44"/>
       <c r="G339" s="44"/>
@@ -13579,7 +13592,7 @@
     </row>
     <row r="341" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E341" s="41" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="343" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13588,13 +13601,13 @@
         <v>3.1.14.</v>
       </c>
       <c r="E343" s="41" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="344" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D344" s="42"/>
       <c r="E344" s="41" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="345" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13608,7 +13621,7 @@
       <c r="J345" s="53"/>
       <c r="K345" s="54"/>
       <c r="L345" s="53" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M345" s="53"/>
       <c r="N345" s="53"/>
@@ -13637,7 +13650,7 @@
     </row>
     <row r="346" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E346" s="111" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F346" s="100"/>
       <c r="G346" s="100"/>
@@ -13646,13 +13659,13 @@
       <c r="J346" s="72"/>
       <c r="K346" s="102"/>
       <c r="L346" s="100" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M346" s="72"/>
       <c r="N346" s="72"/>
       <c r="O346" s="102"/>
       <c r="P346" s="100" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="Q346" s="72"/>
       <c r="R346" s="72"/>
@@ -13675,7 +13688,7 @@
     </row>
     <row r="347" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E347" s="111" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F347" s="26"/>
       <c r="G347" s="26"/>
@@ -13688,7 +13701,7 @@
       <c r="N347" s="72"/>
       <c r="O347" s="73"/>
       <c r="P347" s="26" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q347" s="72"/>
       <c r="R347" s="72"/>
@@ -13722,7 +13735,7 @@
       <c r="N348" s="104"/>
       <c r="O348" s="92"/>
       <c r="P348" s="78" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="Q348" s="104"/>
       <c r="R348" s="104"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072667CB-1FF9-4477-91CF-1E8A52D47FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AF308B-85DE-4412-ABE1-A8F117B5193D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>トークンをチェックすることにより、二重サブミットを防止する。</t>
   </si>
   <si>
-    <t>二重サブミット防止の対象は、登録・更新・削除など、DBに対する更新処理を伴うリクエストとする。</t>
-  </si>
-  <si>
     <t>サーバ側詳細</t>
     <rPh sb="3" eb="4">
       <t>ガワ</t>
@@ -2434,16 +2431,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>よって、二重サブミット発生による重複処理が発生する可能性のあるリクエストについては、二重サブミット防止の対象とすること。</t>
-    <rPh sb="16" eb="18">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力～確認～完了画面間で入力情報を保持するため。</t>
     <rPh sb="17" eb="19">
       <t>ホジ</t>
@@ -2806,22 +2793,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>同じリクエストが複数回処理されることによるデータ登録や更新の重複処理を防止する。</t>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>会員機能のTOP・検索・一覧・詳細画面間の画面遷移</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -3055,6 +3026,63 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザが同一の処理を複数回行ってしまい、同じリクエストが処理されることによるデータ登録や更新が重複して行われることを防止する。</t>
+    <rPh sb="4" eb="6">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>フクスウカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この対策を二重サブミット防止と呼び、対象とするのは登録・更新・削除など、DBに対する更新処理を伴うリクエストとする。</t>
+    <rPh sb="2" eb="4">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>よって、重複処理が発生する可能性のあるリクエストについては、二重サブミット防止の対象とすること。</t>
+    <rPh sb="4" eb="6">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3697,6 +3725,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3762,15 +3799,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4832,45 +4860,45 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="115" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="117"/>
+      <c r="E1" s="118" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="118" t="s">
-        <v>238</v>
-      </c>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="120"/>
+      <c r="R1" s="121" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="123"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="122"/>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="114"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="116"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="117"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4879,43 +4907,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="126"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="127" t="s">
+      <c r="R2" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="129"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132"/>
       <c r="Y2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="114"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="117"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -4924,39 +4952,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="131"/>
-      <c r="X3" s="132"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="135"/>
       <c r="Y3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="114"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="117"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5033,7 +5061,7 @@
         <v>3.1.2.</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -5110,27 +5138,27 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="54"/>
-      <c r="J14" s="134" t="s">
-        <v>264</v>
-      </c>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="136"/>
+      <c r="J14" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="114"/>
       <c r="X14" s="29"/>
       <c r="Y14" s="29"/>
       <c r="Z14" s="29"/>
@@ -5148,13 +5176,13 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="56" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -5186,13 +5214,13 @@
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="35" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -5228,7 +5256,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="30" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -5256,7 +5284,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="32" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -5324,7 +5352,7 @@
         <v>3.1.3.</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5340,22 +5368,22 @@
     </row>
     <row r="23" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5371,7 +5399,7 @@
     </row>
     <row r="29" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -5379,7 +5407,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
       <c r="L29" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M29" s="17"/>
       <c r="N29" s="18"/>
@@ -5408,7 +5436,7 @@
     </row>
     <row r="30" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="57"/>
@@ -5416,7 +5444,7 @@
       <c r="J30" s="57"/>
       <c r="K30" s="58"/>
       <c r="L30" s="95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M30" s="95"/>
       <c r="N30" s="74"/>
@@ -5487,7 +5515,7 @@
     </row>
     <row r="33" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="29" t="str">
         <f>L30</f>
@@ -5496,7 +5524,7 @@
     </row>
     <row r="34" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G34" s="76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5520,7 +5548,7 @@
     <row r="37" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="79"/>
       <c r="F37" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
@@ -5534,7 +5562,7 @@
     <row r="38" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="79"/>
       <c r="F38" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -5576,14 +5604,14 @@
     <row r="41" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E41" s="76"/>
       <c r="F41" s="77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" s="78"/>
       <c r="H41" s="78"/>
       <c r="I41" s="78"/>
       <c r="J41" s="92"/>
       <c r="K41" s="78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L41" s="78"/>
       <c r="M41" s="92"/>
@@ -5599,7 +5627,7 @@
         <v>3.1.4.</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5615,7 +5643,7 @@
     </row>
     <row r="46" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5631,19 +5659,19 @@
     </row>
     <row r="49" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
       <c r="K50" s="53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
@@ -5680,7 +5708,7 @@
       <c r="I51" s="72"/>
       <c r="J51" s="73"/>
       <c r="K51" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
@@ -5689,7 +5717,7 @@
       <c r="P51" s="26"/>
       <c r="Q51" s="73"/>
       <c r="R51" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
@@ -5717,7 +5745,7 @@
       <c r="I52" s="70"/>
       <c r="J52" s="74"/>
       <c r="K52" s="95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L52" s="95"/>
       <c r="M52" s="95"/>
@@ -5726,7 +5754,7 @@
       <c r="P52" s="95"/>
       <c r="Q52" s="74"/>
       <c r="R52" s="97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S52" s="95"/>
       <c r="T52" s="95"/>
@@ -5752,52 +5780,52 @@
         <v>3.1.4.3.</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F55" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F56" s="68"/>
       <c r="G56" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F57" s="68"/>
       <c r="G57" s="75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F58" s="68"/>
       <c r="G58" s="75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G59" s="75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H60" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5808,7 +5836,7 @@
         <v>3.1.5.</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5824,17 +5852,17 @@
     </row>
     <row r="65" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F65" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F67" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5850,12 +5878,12 @@
     </row>
     <row r="70" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="53"/>
       <c r="I70" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -5870,7 +5898,7 @@
       <c r="T70" s="53"/>
       <c r="U70" s="54"/>
       <c r="V70" s="53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W70" s="53"/>
       <c r="X70" s="53"/>
@@ -5889,12 +5917,12 @@
     </row>
     <row r="71" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F71" s="99" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G71" s="101"/>
       <c r="H71" s="106"/>
       <c r="I71" s="107" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J71" s="108"/>
       <c r="K71" s="95"/>
@@ -5909,7 +5937,7 @@
       <c r="T71" s="70"/>
       <c r="U71" s="109"/>
       <c r="V71" s="95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W71" s="108"/>
       <c r="X71" s="108"/>
@@ -5918,7 +5946,7 @@
       <c r="AA71" s="70"/>
       <c r="AB71" s="74"/>
       <c r="AC71" s="95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AD71" s="70"/>
       <c r="AE71" s="70"/>
@@ -5931,7 +5959,7 @@
       <c r="G72" s="104"/>
       <c r="H72" s="110"/>
       <c r="I72" s="107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J72" s="108"/>
       <c r="K72" s="95"/>
@@ -5946,7 +5974,7 @@
       <c r="T72" s="70"/>
       <c r="U72" s="109"/>
       <c r="V72" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W72" s="108"/>
       <c r="X72" s="108"/>
@@ -5955,7 +5983,7 @@
       <c r="AA72" s="70"/>
       <c r="AB72" s="74"/>
       <c r="AC72" s="95" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD72" s="70"/>
       <c r="AE72" s="70"/>
@@ -5965,12 +5993,12 @@
     </row>
     <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F73" s="97" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G73" s="70"/>
       <c r="H73" s="108"/>
       <c r="I73" s="107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J73" s="108"/>
       <c r="K73" s="95"/>
@@ -5985,7 +6013,7 @@
       <c r="T73" s="70"/>
       <c r="U73" s="109"/>
       <c r="V73" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W73" s="108"/>
       <c r="X73" s="108"/>
@@ -5994,7 +6022,7 @@
       <c r="AA73" s="70"/>
       <c r="AB73" s="74"/>
       <c r="AC73" s="95" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD73" s="70"/>
       <c r="AE73" s="70"/>
@@ -6074,7 +6102,7 @@
     <row r="76" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="42"/>
       <c r="F76" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
@@ -6108,7 +6136,7 @@
     <row r="77" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="42"/>
       <c r="F77" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H77" s="44"/>
       <c r="I77" s="44"/>
@@ -6159,23 +6187,68 @@
         <v>二重サブミット防止機能概要</v>
       </c>
     </row>
-    <row r="81" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F81" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="82" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F82" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F83" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="84" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D81" s="29"/>
+      <c r="F81" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="V81" s="29"/>
+      <c r="W81" s="29"/>
+      <c r="X81" s="29"/>
+      <c r="Y81" s="29"/>
+      <c r="Z81" s="29"/>
+      <c r="AA81" s="29"/>
+      <c r="AB81" s="29"/>
+      <c r="AC81" s="29"/>
+      <c r="AD81" s="29"/>
+      <c r="AE81" s="29"/>
+      <c r="AF81" s="29"/>
+      <c r="AG81" s="29"/>
+      <c r="AH81" s="29"/>
+      <c r="AI81" s="29"/>
+    </row>
+    <row r="82" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D82" s="29"/>
+      <c r="F82" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
+      <c r="X82" s="29"/>
+      <c r="Y82" s="29"/>
+      <c r="Z82" s="29"/>
+      <c r="AA82" s="29"/>
+      <c r="AB82" s="29"/>
+      <c r="AC82" s="29"/>
+      <c r="AD82" s="29"/>
+      <c r="AE82" s="29"/>
+      <c r="AF82" s="29"/>
+      <c r="AG82" s="29"/>
+      <c r="AH82" s="29"/>
+      <c r="AI82" s="29"/>
+    </row>
+    <row r="83" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D83" s="29"/>
+      <c r="F83" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="V83" s="29"/>
+      <c r="W83" s="29"/>
+      <c r="X83" s="29"/>
+      <c r="Y83" s="29"/>
+      <c r="Z83" s="29"/>
+      <c r="AA83" s="29"/>
+      <c r="AB83" s="29"/>
+      <c r="AC83" s="29"/>
+      <c r="AD83" s="29"/>
+      <c r="AE83" s="29"/>
+      <c r="AF83" s="29"/>
+      <c r="AG83" s="29"/>
+      <c r="AH83" s="29"/>
+      <c r="AI83" s="29"/>
+    </row>
+    <row r="84" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="28" t="str">
         <f>D79&amp;"2."</f>
         <v>3.1.6.2.</v>
@@ -6185,12 +6258,12 @@
         <v>二重サブミット防止方法</v>
       </c>
     </row>
-    <row r="86" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F86" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="87" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F87" s="16" t="s">
         <v>23</v>
       </c>
@@ -6227,7 +6300,7 @@
       <c r="AG87" s="17"/>
       <c r="AH87" s="18"/>
     </row>
-    <row r="88" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
@@ -6243,7 +6316,7 @@
       <c r="K88" s="26"/>
       <c r="L88" s="73"/>
       <c r="M88" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N88" s="26"/>
       <c r="O88" s="26"/>
@@ -6267,7 +6340,7 @@
       <c r="AG88" s="72"/>
       <c r="AH88" s="96"/>
     </row>
-    <row r="89" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
@@ -6283,7 +6356,7 @@
       <c r="K89" s="95"/>
       <c r="L89" s="74"/>
       <c r="M89" s="95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N89" s="95"/>
       <c r="O89" s="95"/>
@@ -6307,7 +6380,7 @@
       <c r="AG89" s="70"/>
       <c r="AH89" s="98"/>
     </row>
-    <row r="90" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
@@ -6341,7 +6414,7 @@
       <c r="AG90" s="19"/>
       <c r="AH90" s="19"/>
     </row>
-    <row r="91" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
       <c r="E91" s="24" t="str">
@@ -6374,12 +6447,12 @@
       <c r="Z91" s="29"/>
       <c r="AA91" s="29"/>
     </row>
-    <row r="92" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="29"/>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G92" s="29" t="s">
         <v>10</v>
@@ -6405,7 +6478,7 @@
       <c r="Z92" s="29"/>
       <c r="AA92" s="29"/>
     </row>
-    <row r="93" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="29"/>
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
@@ -6434,7 +6507,7 @@
       <c r="Z93" s="29"/>
       <c r="AA93" s="29"/>
     </row>
-    <row r="94" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="29"/>
       <c r="D94" s="29"/>
       <c r="E94" s="29"/>
@@ -6461,12 +6534,12 @@
       <c r="Z94" s="29"/>
       <c r="AA94" s="29"/>
     </row>
-    <row r="95" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="29"/>
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
       <c r="F95" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G95" s="29" t="s">
         <v>26</v>
@@ -6492,7 +6565,7 @@
       <c r="Z95" s="29"/>
       <c r="AA95" s="29"/>
     </row>
-    <row r="96" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="29"/>
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
@@ -6553,10 +6626,10 @@
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
       <c r="F98" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G98" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
@@ -6615,7 +6688,7 @@
         <v>3.1.7.</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6631,7 +6704,7 @@
     </row>
     <row r="103" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F103" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6647,7 +6720,7 @@
     </row>
     <row r="106" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F106" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6690,7 +6763,7 @@
     </row>
     <row r="108" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G108" s="72"/>
       <c r="H108" s="72"/>
@@ -6705,7 +6778,7 @@
       <c r="O108" s="26"/>
       <c r="P108" s="73"/>
       <c r="Q108" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
@@ -6758,7 +6831,7 @@
     </row>
     <row r="110" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F110" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G110" s="72"/>
       <c r="H110" s="72"/>
@@ -6773,7 +6846,7 @@
       <c r="O110" s="26"/>
       <c r="P110" s="73"/>
       <c r="Q110" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
@@ -6867,10 +6940,10 @@
     </row>
     <row r="114" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F114" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G114" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="115" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6879,7 +6952,7 @@
       <c r="D115" s="36"/>
       <c r="E115" s="36"/>
       <c r="G115" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA115" s="41"/>
     </row>
@@ -6889,7 +6962,7 @@
       <c r="D116" s="36"/>
       <c r="E116" s="36"/>
       <c r="G116" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
@@ -6902,7 +6975,7 @@
       <c r="N116" s="17"/>
       <c r="O116" s="18"/>
       <c r="P116" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q116" s="17"/>
       <c r="R116" s="17"/>
@@ -6929,20 +7002,20 @@
       <c r="D117" s="36"/>
       <c r="E117" s="36"/>
       <c r="G117" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H117" s="101"/>
       <c r="I117" s="101"/>
       <c r="J117" s="103"/>
       <c r="K117" s="101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L117" s="101"/>
       <c r="M117" s="101"/>
       <c r="N117" s="101"/>
       <c r="O117" s="103"/>
       <c r="P117" s="101" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q117" s="101"/>
       <c r="R117" s="101"/>
@@ -6979,7 +7052,7 @@
       <c r="N118" s="72"/>
       <c r="O118" s="96"/>
       <c r="P118" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q118" s="72"/>
       <c r="R118" s="72"/>
@@ -7015,7 +7088,7 @@
       <c r="N119" s="104"/>
       <c r="O119" s="105"/>
       <c r="P119" s="104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q119" s="104"/>
       <c r="R119" s="104"/>
@@ -7038,20 +7111,20 @@
     </row>
     <row r="120" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G120" s="111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H120" s="72"/>
       <c r="I120" s="72"/>
       <c r="J120" s="96"/>
       <c r="K120" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L120" s="72"/>
       <c r="M120" s="72"/>
       <c r="N120" s="72"/>
       <c r="O120" s="96"/>
       <c r="P120" s="72" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q120" s="72"/>
       <c r="R120" s="72"/>
@@ -7083,7 +7156,7 @@
       <c r="N121" s="104"/>
       <c r="O121" s="105"/>
       <c r="P121" s="104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q121" s="104"/>
       <c r="R121" s="104"/>
@@ -7106,20 +7179,20 @@
     </row>
     <row r="122" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G122" s="111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H122" s="72"/>
       <c r="I122" s="72"/>
       <c r="J122" s="96"/>
       <c r="K122" s="72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L122" s="72"/>
       <c r="M122" s="72"/>
       <c r="N122" s="72"/>
       <c r="O122" s="96"/>
       <c r="P122" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q122" s="72"/>
       <c r="R122" s="72"/>
@@ -7142,7 +7215,7 @@
     </row>
     <row r="123" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G123" s="83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H123" s="104"/>
       <c r="I123" s="104"/>
@@ -7175,10 +7248,10 @@
     <row r="124" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="125" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F125" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="126" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7187,7 +7260,7 @@
       <c r="D126" s="36"/>
       <c r="E126" s="36"/>
       <c r="G126" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7196,7 +7269,7 @@
       <c r="D127" s="36"/>
       <c r="E127" s="36"/>
       <c r="G127" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H127" s="53"/>
       <c r="I127" s="53"/>
@@ -7209,7 +7282,7 @@
       <c r="N127" s="53"/>
       <c r="O127" s="54"/>
       <c r="P127" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q127" s="53"/>
       <c r="R127" s="53"/>
@@ -7236,20 +7309,20 @@
       <c r="D128" s="36"/>
       <c r="E128" s="36"/>
       <c r="G128" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H128" s="101"/>
       <c r="I128" s="101"/>
       <c r="J128" s="103"/>
       <c r="K128" s="101" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L128" s="101"/>
       <c r="M128" s="101"/>
       <c r="N128" s="101"/>
       <c r="O128" s="103"/>
       <c r="P128" s="101" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q128" s="101"/>
       <c r="R128" s="101"/>
@@ -7307,20 +7380,20 @@
     </row>
     <row r="130" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G130" s="111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H130" s="72"/>
       <c r="I130" s="72"/>
       <c r="J130" s="96"/>
       <c r="K130" s="72" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L130" s="72"/>
       <c r="M130" s="72"/>
       <c r="N130" s="72"/>
       <c r="O130" s="96"/>
       <c r="P130" s="72" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q130" s="72"/>
       <c r="R130" s="72"/>
@@ -7347,14 +7420,14 @@
       <c r="I131" s="72"/>
       <c r="J131" s="96"/>
       <c r="K131" s="72" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L131" s="72"/>
       <c r="M131" s="72"/>
       <c r="N131" s="72"/>
       <c r="O131" s="96"/>
       <c r="P131" s="72" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q131" s="72"/>
       <c r="R131" s="72"/>
@@ -7413,7 +7486,7 @@
         <v>3.1.8.</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F134" s="29"/>
       <c r="G134" s="29"/>
@@ -7478,7 +7551,7 @@
       <c r="D136" s="29"/>
       <c r="E136" s="29"/>
       <c r="F136" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G136" s="29"/>
       <c r="H136" s="29"/>
@@ -7508,7 +7581,7 @@
       <c r="D137" s="29"/>
       <c r="E137" s="29"/>
       <c r="F137" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G137" s="29"/>
       <c r="H137" s="29"/>
@@ -7538,10 +7611,10 @@
       <c r="D138" s="29"/>
       <c r="E138" s="29"/>
       <c r="F138" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G138" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H138" s="29"/>
       <c r="I138" s="29"/>
@@ -7570,10 +7643,10 @@
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
       <c r="F139" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G139" s="29" t="s">
         <v>79</v>
-      </c>
-      <c r="G139" s="29" t="s">
-        <v>80</v>
       </c>
       <c r="H139" s="29"/>
       <c r="I139" s="29"/>
@@ -7602,10 +7675,10 @@
       <c r="D140" s="29"/>
       <c r="E140" s="29"/>
       <c r="F140" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G140" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H140" s="29"/>
       <c r="I140" s="29"/>
@@ -7634,10 +7707,10 @@
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
       <c r="F141" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G141" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H141" s="29"/>
       <c r="I141" s="29"/>
@@ -7666,10 +7739,10 @@
       <c r="D142" s="29"/>
       <c r="E142" s="29"/>
       <c r="F142" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
@@ -7729,7 +7802,7 @@
         <v>3.1.8.2.</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G144" s="29"/>
       <c r="H144" s="29"/>
@@ -7759,7 +7832,7 @@
       <c r="D145" s="29"/>
       <c r="E145" s="29"/>
       <c r="F145" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G145" s="29"/>
       <c r="H145" s="29"/>
@@ -7817,7 +7890,7 @@
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
       <c r="F147" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
@@ -7825,13 +7898,13 @@
       <c r="J147" s="38"/>
       <c r="K147" s="37"/>
       <c r="L147" s="62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
       <c r="O147" s="37"/>
       <c r="P147" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q147" s="38"/>
       <c r="R147" s="38"/>
@@ -7857,7 +7930,7 @@
       <c r="D148" s="29"/>
       <c r="E148" s="29"/>
       <c r="F148" s="99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G148" s="100"/>
       <c r="H148" s="100"/>
@@ -7865,13 +7938,13 @@
       <c r="J148" s="100"/>
       <c r="K148" s="100"/>
       <c r="L148" s="99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M148" s="100"/>
       <c r="N148" s="100"/>
       <c r="O148" s="102"/>
       <c r="P148" s="26" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q148" s="100"/>
       <c r="R148" s="100"/>
@@ -7897,7 +7970,7 @@
       <c r="D149" s="29"/>
       <c r="E149" s="29"/>
       <c r="F149" s="97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G149" s="95"/>
       <c r="H149" s="95"/>
@@ -7905,13 +7978,13 @@
       <c r="J149" s="95"/>
       <c r="K149" s="95"/>
       <c r="L149" s="97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M149" s="95"/>
       <c r="N149" s="95"/>
       <c r="O149" s="74"/>
       <c r="P149" s="95" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q149" s="95"/>
       <c r="R149" s="95"/>
@@ -7998,10 +8071,10 @@
       <c r="D152" s="29"/>
       <c r="E152" s="79"/>
       <c r="F152" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G152" s="76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
@@ -8031,7 +8104,7 @@
       <c r="E153" s="79"/>
       <c r="F153" s="24"/>
       <c r="G153" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
@@ -8061,7 +8134,7 @@
       <c r="E154" s="79"/>
       <c r="F154" s="24"/>
       <c r="G154" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H154" s="29"/>
       <c r="I154" s="29"/>
@@ -8091,7 +8164,7 @@
       <c r="E155" s="79"/>
       <c r="F155" s="24"/>
       <c r="G155" s="65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
@@ -8121,7 +8194,7 @@
       <c r="E156" s="79"/>
       <c r="F156" s="24"/>
       <c r="G156" s="65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
@@ -8179,7 +8252,7 @@
       <c r="D158" s="29"/>
       <c r="E158" s="76"/>
       <c r="F158" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G158" s="66" t="str">
         <f>G138</f>
@@ -8265,13 +8338,13 @@
       <c r="K160" s="55"/>
       <c r="L160" s="31"/>
       <c r="M160" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N160" s="55"/>
       <c r="O160" s="55"/>
       <c r="P160" s="31"/>
       <c r="Q160" s="26" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R160" s="55"/>
       <c r="S160" s="55"/>
@@ -8313,7 +8386,7 @@
       <c r="O161" s="57"/>
       <c r="P161" s="58"/>
       <c r="Q161" s="57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R161" s="57"/>
       <c r="S161" s="57"/>
@@ -8373,7 +8446,7 @@
       <c r="D163" s="29"/>
       <c r="E163" s="76"/>
       <c r="F163" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G163" s="29" t="str">
         <f>G139</f>
@@ -8414,14 +8487,14 @@
       <c r="J164" s="38"/>
       <c r="K164" s="37"/>
       <c r="L164" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M164" s="38"/>
       <c r="N164" s="38"/>
       <c r="O164" s="38"/>
       <c r="P164" s="37"/>
       <c r="Q164" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R164" s="38"/>
       <c r="S164" s="38"/>
@@ -8455,14 +8528,14 @@
       <c r="J165" s="33"/>
       <c r="K165" s="34"/>
       <c r="L165" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M165" s="33"/>
       <c r="N165" s="33"/>
       <c r="O165" s="33"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="78" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R165" s="33"/>
       <c r="S165" s="33"/>
@@ -8515,7 +8588,7 @@
       <c r="D167" s="29"/>
       <c r="E167" s="76"/>
       <c r="F167" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G167" s="29" t="str">
         <f>G140</f>
@@ -8556,7 +8629,7 @@
       <c r="J168" s="38"/>
       <c r="K168" s="37"/>
       <c r="L168" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
@@ -8566,7 +8639,7 @@
       <c r="R168" s="38"/>
       <c r="S168" s="37"/>
       <c r="T168" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U168" s="38"/>
       <c r="V168" s="38"/>
@@ -8597,7 +8670,7 @@
       <c r="J169" s="39"/>
       <c r="K169" s="40"/>
       <c r="L169" s="55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M169" s="39"/>
       <c r="N169" s="39"/>
@@ -8607,7 +8680,7 @@
       <c r="R169" s="39"/>
       <c r="S169" s="40"/>
       <c r="T169" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U169" s="39"/>
       <c r="V169" s="39"/>
@@ -8635,7 +8708,7 @@
       <c r="J170" s="55"/>
       <c r="K170" s="31"/>
       <c r="L170" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M170" s="55"/>
       <c r="N170" s="55"/>
@@ -8645,7 +8718,7 @@
       <c r="R170" s="55"/>
       <c r="S170" s="31"/>
       <c r="T170" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U170" s="55"/>
       <c r="V170" s="55"/>
@@ -8681,7 +8754,7 @@
       <c r="R171" s="33"/>
       <c r="S171" s="34"/>
       <c r="T171" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U171" s="33"/>
       <c r="V171" s="33"/>
@@ -8737,7 +8810,7 @@
       <c r="D173" s="29"/>
       <c r="E173" s="76"/>
       <c r="F173" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G173" s="55" t="str">
         <f>G141</f>
@@ -8777,7 +8850,7 @@
       <c r="E174" s="76"/>
       <c r="F174" s="29"/>
       <c r="G174" s="55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H174" s="55"/>
       <c r="I174" s="55"/>
@@ -8846,7 +8919,7 @@
       <c r="D176" s="29"/>
       <c r="E176" s="76"/>
       <c r="F176" s="24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G176" s="55" t="str">
         <f>G142</f>
@@ -8886,7 +8959,7 @@
       <c r="E177" s="76"/>
       <c r="F177" s="29"/>
       <c r="G177" s="55" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
@@ -8922,7 +8995,7 @@
       <c r="E178" s="76"/>
       <c r="F178" s="29"/>
       <c r="G178" s="29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -8952,7 +9025,7 @@
       <c r="E179" s="76"/>
       <c r="F179" s="29"/>
       <c r="G179" s="29" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -9013,7 +9086,7 @@
         <v>3.1.9.</v>
       </c>
       <c r="E181" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F181" s="29"/>
       <c r="G181" s="29"/>
@@ -9056,7 +9129,7 @@
         <v>3.1.9.1.</v>
       </c>
       <c r="F182" s="76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G182" s="29"/>
       <c r="H182" s="29"/>
@@ -9095,7 +9168,7 @@
       <c r="D183" s="29"/>
       <c r="E183" s="24"/>
       <c r="F183" s="76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G183" s="29"/>
       <c r="H183" s="29"/>
@@ -9171,10 +9244,10 @@
       <c r="D185" s="29"/>
       <c r="E185" s="29"/>
       <c r="F185" s="79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G185" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H185" s="29"/>
       <c r="I185" s="29"/>
@@ -9213,7 +9286,7 @@
       <c r="E186" s="29"/>
       <c r="F186" s="29"/>
       <c r="G186" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H186" s="29"/>
       <c r="I186" s="29"/>
@@ -9252,7 +9325,7 @@
       <c r="E187" s="29"/>
       <c r="F187" s="29"/>
       <c r="G187" s="66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H187" s="29"/>
       <c r="I187" s="29"/>
@@ -9291,7 +9364,7 @@
       <c r="E188" s="29"/>
       <c r="F188" s="29"/>
       <c r="G188" s="66" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
@@ -9330,7 +9403,7 @@
       <c r="E189" s="29"/>
       <c r="F189" s="29"/>
       <c r="G189" s="80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H189" s="29"/>
       <c r="I189" s="29"/>
@@ -9369,7 +9442,7 @@
       <c r="E190" s="29"/>
       <c r="F190" s="29"/>
       <c r="G190" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
@@ -9444,10 +9517,10 @@
       <c r="D192" s="29"/>
       <c r="E192" s="29"/>
       <c r="F192" s="79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G192" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H192" s="29"/>
       <c r="I192" s="29"/>
@@ -9486,7 +9559,7 @@
       <c r="E193" s="29"/>
       <c r="F193" s="29"/>
       <c r="G193" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H193" s="29"/>
       <c r="I193" s="29"/>
@@ -9525,7 +9598,7 @@
       <c r="E194" s="29"/>
       <c r="F194" s="29"/>
       <c r="G194" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H194" s="29"/>
       <c r="I194" s="29"/>
@@ -9564,7 +9637,7 @@
       <c r="E195" s="29"/>
       <c r="F195" s="29"/>
       <c r="G195" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H195" s="29"/>
       <c r="I195" s="29"/>
@@ -9640,7 +9713,7 @@
       <c r="E197" s="29"/>
       <c r="F197" s="29"/>
       <c r="G197" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H197" s="29"/>
       <c r="I197" s="29"/>
@@ -9679,7 +9752,7 @@
       <c r="E198" s="29"/>
       <c r="F198" s="29"/>
       <c r="G198" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H198" s="38"/>
       <c r="I198" s="38"/>
@@ -9691,7 +9764,7 @@
       <c r="O198" s="38"/>
       <c r="P198" s="37"/>
       <c r="Q198" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R198" s="38"/>
       <c r="S198" s="38"/>
@@ -9720,7 +9793,7 @@
       <c r="E199" s="29"/>
       <c r="F199" s="29"/>
       <c r="G199" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H199" s="55"/>
       <c r="I199" s="55"/>
@@ -9732,7 +9805,7 @@
       <c r="O199" s="55"/>
       <c r="P199" s="31"/>
       <c r="Q199" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R199" s="55"/>
       <c r="S199" s="55"/>
@@ -9771,7 +9844,7 @@
       <c r="O200" s="33"/>
       <c r="P200" s="34"/>
       <c r="Q200" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R200" s="33"/>
       <c r="S200" s="33"/>
@@ -9800,7 +9873,7 @@
       <c r="E201" s="29"/>
       <c r="F201" s="29"/>
       <c r="G201" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H201" s="55"/>
       <c r="I201" s="55"/>
@@ -9812,7 +9885,7 @@
       <c r="O201" s="55"/>
       <c r="P201" s="31"/>
       <c r="Q201" s="55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R201" s="55"/>
       <c r="S201" s="55"/>
@@ -9851,7 +9924,7 @@
       <c r="O202" s="55"/>
       <c r="P202" s="31"/>
       <c r="Q202" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R202" s="55"/>
       <c r="S202" s="55"/>
@@ -9890,7 +9963,7 @@
       <c r="O203" s="33"/>
       <c r="P203" s="34"/>
       <c r="Q203" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R203" s="33"/>
       <c r="S203" s="33"/>
@@ -9919,7 +9992,7 @@
       <c r="E204" s="29"/>
       <c r="F204" s="29"/>
       <c r="G204" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H204" s="33"/>
       <c r="I204" s="33"/>
@@ -9931,7 +10004,7 @@
       <c r="O204" s="33"/>
       <c r="P204" s="34"/>
       <c r="Q204" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R204" s="33"/>
       <c r="S204" s="33"/>
@@ -9960,7 +10033,7 @@
       <c r="E205" s="29"/>
       <c r="F205" s="29"/>
       <c r="G205" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H205" s="55"/>
       <c r="I205" s="55"/>
@@ -9972,7 +10045,7 @@
       <c r="O205" s="55"/>
       <c r="P205" s="31"/>
       <c r="Q205" s="55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R205" s="55"/>
       <c r="S205" s="55"/>
@@ -10011,7 +10084,7 @@
       <c r="O206" s="55"/>
       <c r="P206" s="31"/>
       <c r="Q206" s="55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R206" s="55"/>
       <c r="S206" s="55"/>
@@ -10050,7 +10123,7 @@
       <c r="O207" s="33"/>
       <c r="P207" s="34"/>
       <c r="Q207" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R207" s="33"/>
       <c r="S207" s="33"/>
@@ -10118,7 +10191,7 @@
         <v>3.1.9.2.</v>
       </c>
       <c r="F209" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G209" s="29"/>
       <c r="H209" s="29"/>
@@ -10157,7 +10230,7 @@
       <c r="D210" s="29"/>
       <c r="E210" s="24"/>
       <c r="F210" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G210" s="29"/>
       <c r="H210" s="29"/>
@@ -10233,10 +10306,10 @@
       <c r="D212" s="29"/>
       <c r="E212" s="29"/>
       <c r="F212" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G212" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H212" s="29"/>
       <c r="I212" s="29"/>
@@ -10275,7 +10348,7 @@
       <c r="E213" s="29"/>
       <c r="F213" s="24"/>
       <c r="G213" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H213" s="29"/>
       <c r="I213" s="29"/>
@@ -10314,14 +10387,14 @@
       <c r="E214" s="29"/>
       <c r="F214" s="24"/>
       <c r="G214" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H214" s="38"/>
       <c r="I214" s="38"/>
       <c r="J214" s="38"/>
       <c r="K214" s="37"/>
       <c r="L214" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M214" s="38"/>
       <c r="N214" s="38"/>
@@ -10340,7 +10413,7 @@
       <c r="AA214" s="38"/>
       <c r="AB214" s="37"/>
       <c r="AC214" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD214" s="38"/>
       <c r="AE214" s="38"/>
@@ -10357,14 +10430,14 @@
       <c r="E215" s="29"/>
       <c r="F215" s="24"/>
       <c r="G215" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H215" s="55"/>
       <c r="I215" s="55"/>
       <c r="J215" s="55"/>
       <c r="K215" s="31"/>
       <c r="L215" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M215" s="26"/>
       <c r="N215" s="26"/>
@@ -10383,7 +10456,7 @@
       <c r="AA215" s="26"/>
       <c r="AB215" s="73"/>
       <c r="AC215" s="26" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AD215" s="26"/>
       <c r="AE215" s="26"/>
@@ -10400,14 +10473,14 @@
       <c r="E216" s="29"/>
       <c r="F216" s="24"/>
       <c r="G216" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H216" s="57"/>
       <c r="I216" s="57"/>
       <c r="J216" s="57"/>
       <c r="K216" s="58"/>
       <c r="L216" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M216" s="26"/>
       <c r="N216" s="26"/>
@@ -10441,7 +10514,7 @@
       <c r="E217" s="29"/>
       <c r="F217" s="24"/>
       <c r="G217" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H217" s="55"/>
       <c r="I217" s="55"/>
@@ -10480,7 +10553,7 @@
       <c r="E218" s="29"/>
       <c r="F218" s="24"/>
       <c r="G218" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H218" s="33"/>
       <c r="I218" s="33"/>
@@ -10519,14 +10592,14 @@
       <c r="E219" s="29"/>
       <c r="F219" s="24"/>
       <c r="G219" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H219" s="55"/>
       <c r="I219" s="55"/>
       <c r="J219" s="55"/>
       <c r="K219" s="31"/>
       <c r="L219" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M219" s="26"/>
       <c r="N219" s="26"/>
@@ -10545,7 +10618,7 @@
       <c r="AA219" s="26"/>
       <c r="AB219" s="73"/>
       <c r="AC219" s="26" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AD219" s="26"/>
       <c r="AE219" s="26"/>
@@ -10567,7 +10640,7 @@
       <c r="J220" s="55"/>
       <c r="K220" s="31"/>
       <c r="L220" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M220" s="26"/>
       <c r="N220" s="26"/>
@@ -10586,7 +10659,7 @@
       <c r="AA220" s="26"/>
       <c r="AB220" s="73"/>
       <c r="AC220" s="26" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AD220" s="26"/>
       <c r="AE220" s="26"/>
@@ -10608,7 +10681,7 @@
       <c r="J221" s="55"/>
       <c r="K221" s="31"/>
       <c r="L221" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M221" s="26"/>
       <c r="N221" s="26"/>
@@ -10679,14 +10752,14 @@
       <c r="E223" s="29"/>
       <c r="F223" s="24"/>
       <c r="G223" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H223" s="55"/>
       <c r="I223" s="55"/>
       <c r="J223" s="55"/>
       <c r="K223" s="31"/>
       <c r="L223" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M223" s="26"/>
       <c r="N223" s="26"/>
@@ -10705,7 +10778,7 @@
       <c r="AA223" s="26"/>
       <c r="AB223" s="73"/>
       <c r="AC223" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD223" s="26"/>
       <c r="AE223" s="26"/>
@@ -10722,14 +10795,14 @@
       <c r="E224" s="29"/>
       <c r="F224" s="24"/>
       <c r="G224" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H224" s="55"/>
       <c r="I224" s="55"/>
       <c r="J224" s="55"/>
       <c r="K224" s="31"/>
       <c r="L224" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M224" s="26"/>
       <c r="N224" s="26"/>
@@ -10768,7 +10841,7 @@
       <c r="J225" s="55"/>
       <c r="K225" s="31"/>
       <c r="L225" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M225" s="26"/>
       <c r="N225" s="26"/>
@@ -10807,7 +10880,7 @@
       <c r="J226" s="55"/>
       <c r="K226" s="31"/>
       <c r="L226" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M226" s="26"/>
       <c r="N226" s="26"/>
@@ -10883,7 +10956,7 @@
       <c r="J228" s="55"/>
       <c r="K228" s="31"/>
       <c r="L228" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M228" s="26"/>
       <c r="N228" s="26"/>
@@ -10922,7 +10995,7 @@
       <c r="J229" s="55"/>
       <c r="K229" s="31"/>
       <c r="L229" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M229" s="26"/>
       <c r="N229" s="26"/>
@@ -10961,7 +11034,7 @@
       <c r="J230" s="55"/>
       <c r="K230" s="31"/>
       <c r="L230" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M230" s="26"/>
       <c r="N230" s="26"/>
@@ -11000,7 +11073,7 @@
       <c r="J231" s="55"/>
       <c r="K231" s="31"/>
       <c r="L231" s="26" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -11039,7 +11112,7 @@
       <c r="J232" s="55"/>
       <c r="K232" s="31"/>
       <c r="L232" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M232" s="26"/>
       <c r="N232" s="26"/>
@@ -11078,7 +11151,7 @@
       <c r="J233" s="55"/>
       <c r="K233" s="31"/>
       <c r="L233" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M233" s="26"/>
       <c r="N233" s="26"/>
@@ -11117,7 +11190,7 @@
       <c r="J234" s="33"/>
       <c r="K234" s="34"/>
       <c r="L234" s="78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M234" s="78"/>
       <c r="N234" s="78"/>
@@ -11151,14 +11224,14 @@
       <c r="E235" s="29"/>
       <c r="F235" s="24"/>
       <c r="G235" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H235" s="55"/>
       <c r="I235" s="55"/>
       <c r="J235" s="55"/>
       <c r="K235" s="31"/>
       <c r="L235" s="26" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -11177,7 +11250,7 @@
       <c r="AA235" s="26"/>
       <c r="AB235" s="73"/>
       <c r="AC235" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD235" s="26"/>
       <c r="AE235" s="26"/>
@@ -11194,14 +11267,14 @@
       <c r="E236" s="29"/>
       <c r="F236" s="24"/>
       <c r="G236" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H236" s="33"/>
       <c r="I236" s="33"/>
       <c r="J236" s="33"/>
       <c r="K236" s="34"/>
       <c r="L236" s="78" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M236" s="78"/>
       <c r="N236" s="78"/>
@@ -11271,10 +11344,10 @@
       <c r="D238" s="29"/>
       <c r="E238" s="24"/>
       <c r="F238" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G238" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H238" s="29"/>
       <c r="I238" s="29"/>
@@ -11313,7 +11386,7 @@
       <c r="E239" s="24"/>
       <c r="F239" s="29"/>
       <c r="G239" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H239" s="29"/>
       <c r="I239" s="29"/>
@@ -11467,10 +11540,10 @@
       <c r="D243" s="29"/>
       <c r="E243" s="36"/>
       <c r="F243" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G243" s="67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H243" s="29"/>
       <c r="I243" s="29"/>
@@ -11545,13 +11618,13 @@
       <c r="D245" s="29"/>
       <c r="E245" s="76"/>
       <c r="G245" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H245" s="38"/>
       <c r="I245" s="38"/>
       <c r="J245" s="37"/>
       <c r="K245" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L245" s="38"/>
       <c r="M245" s="38"/>
@@ -11560,7 +11633,7 @@
       <c r="P245" s="38"/>
       <c r="Q245" s="37"/>
       <c r="R245" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S245" s="38"/>
       <c r="T245" s="38"/>
@@ -11587,13 +11660,13 @@
       <c r="D246" s="29"/>
       <c r="E246" s="76"/>
       <c r="G246" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H246" s="39"/>
       <c r="I246" s="39"/>
       <c r="J246" s="40"/>
       <c r="K246" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L246" s="39"/>
       <c r="M246" s="39"/>
@@ -11602,7 +11675,7 @@
       <c r="P246" s="39"/>
       <c r="Q246" s="40"/>
       <c r="R246" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S246" s="39"/>
       <c r="T246" s="39"/>
@@ -11640,7 +11713,7 @@
       <c r="P247" s="33"/>
       <c r="Q247" s="34"/>
       <c r="R247" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S247" s="33"/>
       <c r="T247" s="33"/>
@@ -11671,7 +11744,7 @@
       <c r="I248" s="55"/>
       <c r="J248" s="31"/>
       <c r="K248" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L248" s="39"/>
       <c r="M248" s="39"/>
@@ -11680,7 +11753,7 @@
       <c r="P248" s="39"/>
       <c r="Q248" s="40"/>
       <c r="R248" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S248" s="39"/>
       <c r="T248" s="39"/>
@@ -11718,7 +11791,7 @@
       <c r="P249" s="33"/>
       <c r="Q249" s="34"/>
       <c r="R249" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S249" s="33"/>
       <c r="T249" s="33"/>
@@ -11749,7 +11822,7 @@
       <c r="I250" s="55"/>
       <c r="J250" s="31"/>
       <c r="K250" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L250" s="33"/>
       <c r="M250" s="33"/>
@@ -11758,7 +11831,7 @@
       <c r="P250" s="33"/>
       <c r="Q250" s="34"/>
       <c r="R250" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S250" s="33"/>
       <c r="T250" s="33"/>
@@ -11789,7 +11862,7 @@
       <c r="I251" s="55"/>
       <c r="J251" s="31"/>
       <c r="K251" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L251" s="33"/>
       <c r="M251" s="33"/>
@@ -11798,7 +11871,7 @@
       <c r="P251" s="33"/>
       <c r="Q251" s="34"/>
       <c r="R251" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S251" s="33"/>
       <c r="T251" s="33"/>
@@ -11829,7 +11902,7 @@
       <c r="I252" s="55"/>
       <c r="J252" s="31"/>
       <c r="K252" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L252" s="33"/>
       <c r="M252" s="33"/>
@@ -11838,7 +11911,7 @@
       <c r="P252" s="33"/>
       <c r="Q252" s="34"/>
       <c r="R252" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S252" s="33"/>
       <c r="T252" s="33"/>
@@ -11869,7 +11942,7 @@
       <c r="I253" s="55"/>
       <c r="J253" s="31"/>
       <c r="K253" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L253" s="33"/>
       <c r="M253" s="33"/>
@@ -11878,7 +11951,7 @@
       <c r="P253" s="33"/>
       <c r="Q253" s="34"/>
       <c r="R253" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S253" s="33"/>
       <c r="T253" s="33"/>
@@ -11909,7 +11982,7 @@
       <c r="I254" s="33"/>
       <c r="J254" s="34"/>
       <c r="K254" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L254" s="33"/>
       <c r="M254" s="33"/>
@@ -11918,7 +11991,7 @@
       <c r="P254" s="33"/>
       <c r="Q254" s="34"/>
       <c r="R254" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S254" s="33"/>
       <c r="T254" s="33"/>
@@ -11945,13 +12018,13 @@
       <c r="D255" s="55"/>
       <c r="E255" s="26"/>
       <c r="G255" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H255" s="55"/>
       <c r="I255" s="55"/>
       <c r="J255" s="31"/>
       <c r="K255" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L255" s="55"/>
       <c r="M255" s="55"/>
@@ -11960,7 +12033,7 @@
       <c r="P255" s="55"/>
       <c r="Q255" s="31"/>
       <c r="R255" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S255" s="55"/>
       <c r="T255" s="55"/>
@@ -11998,7 +12071,7 @@
       <c r="P256" s="33"/>
       <c r="Q256" s="34"/>
       <c r="R256" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S256" s="33"/>
       <c r="T256" s="33"/>
@@ -12029,7 +12102,7 @@
       <c r="I257" s="55"/>
       <c r="J257" s="31"/>
       <c r="K257" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L257" s="55"/>
       <c r="M257" s="55"/>
@@ -12038,7 +12111,7 @@
       <c r="P257" s="55"/>
       <c r="Q257" s="31"/>
       <c r="R257" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S257" s="55"/>
       <c r="T257" s="55"/>
@@ -12069,7 +12142,7 @@
       <c r="I258" s="55"/>
       <c r="J258" s="31"/>
       <c r="K258" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L258" s="55"/>
       <c r="M258" s="55"/>
@@ -12078,7 +12151,7 @@
       <c r="P258" s="55"/>
       <c r="Q258" s="31"/>
       <c r="R258" s="55" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="S258" s="55"/>
       <c r="T258" s="55"/>
@@ -12116,7 +12189,7 @@
       <c r="P259" s="55"/>
       <c r="Q259" s="31"/>
       <c r="R259" s="55" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="S259" s="55"/>
       <c r="T259" s="55"/>
@@ -12154,7 +12227,7 @@
       <c r="P260" s="55"/>
       <c r="Q260" s="31"/>
       <c r="R260" s="55" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="S260" s="55"/>
       <c r="T260" s="55"/>
@@ -12192,7 +12265,7 @@
       <c r="P261" s="55"/>
       <c r="Q261" s="31"/>
       <c r="R261" s="55" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S261" s="55"/>
       <c r="T261" s="55"/>
@@ -12230,7 +12303,7 @@
       <c r="P262" s="33"/>
       <c r="Q262" s="34"/>
       <c r="R262" s="33" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="S262" s="33"/>
       <c r="T262" s="33"/>
@@ -12330,7 +12403,7 @@
         <v>3.1.10.</v>
       </c>
       <c r="E265" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="266" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12350,16 +12423,16 @@
     <row r="268" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D268" s="42"/>
       <c r="F268" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="269" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D269" s="42"/>
       <c r="F269" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G269" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="270" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12379,13 +12452,13 @@
     <row r="272" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D272" s="42"/>
       <c r="F272" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="273" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="42"/>
       <c r="F273" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G273" s="53"/>
       <c r="H273" s="53"/>
@@ -12420,7 +12493,7 @@
     <row r="274" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D274" s="42"/>
       <c r="F274" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G274" s="101"/>
       <c r="H274" s="101"/>
@@ -12428,7 +12501,7 @@
       <c r="J274" s="101"/>
       <c r="K274" s="103"/>
       <c r="L274" s="71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M274" s="101"/>
       <c r="N274" s="101"/>
@@ -12461,7 +12534,7 @@
       <c r="J275" s="104"/>
       <c r="K275" s="105"/>
       <c r="L275" s="83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M275" s="104"/>
       <c r="N275" s="104"/>
@@ -12502,7 +12575,7 @@
     <row r="278" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="42"/>
       <c r="F278" s="29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G278" s="29"/>
       <c r="H278" s="29"/>
@@ -12556,7 +12629,7 @@
       <c r="E288" s="42"/>
       <c r="F288" s="89"/>
       <c r="G288" s="52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H288" s="53"/>
       <c r="I288" s="53"/>
@@ -12564,13 +12637,13 @@
       <c r="K288" s="53"/>
       <c r="L288" s="54"/>
       <c r="M288" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N288" s="53"/>
       <c r="O288" s="53"/>
       <c r="P288" s="54"/>
       <c r="Q288" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R288" s="53"/>
       <c r="S288" s="53"/>
@@ -12591,10 +12664,10 @@
     <row r="289" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E289" s="42"/>
       <c r="F289" s="88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G289" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H289" s="49"/>
       <c r="I289" s="49"/>
@@ -12602,13 +12675,13 @@
       <c r="K289" s="49"/>
       <c r="L289" s="50"/>
       <c r="M289" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N289" s="49"/>
       <c r="O289" s="49"/>
       <c r="P289" s="50"/>
       <c r="Q289" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R289" s="49"/>
       <c r="S289" s="49"/>
@@ -12659,10 +12732,10 @@
     <row r="291" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E291" s="42"/>
       <c r="F291" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G291" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H291" s="49"/>
       <c r="I291" s="49"/>
@@ -12670,13 +12743,13 @@
       <c r="K291" s="49"/>
       <c r="L291" s="50"/>
       <c r="M291" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N291" s="49"/>
       <c r="O291" s="49"/>
       <c r="P291" s="50"/>
       <c r="Q291" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R291" s="49"/>
       <c r="S291" s="49"/>
@@ -12708,7 +12781,7 @@
       <c r="O292" s="47"/>
       <c r="P292" s="51"/>
       <c r="Q292" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R292" s="47"/>
       <c r="S292" s="47"/>
@@ -12729,10 +12802,10 @@
     <row r="293" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E293" s="42"/>
       <c r="F293" s="88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G293" s="48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H293" s="49"/>
       <c r="I293" s="49"/>
@@ -12740,13 +12813,13 @@
       <c r="K293" s="49"/>
       <c r="L293" s="50"/>
       <c r="M293" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N293" s="49"/>
       <c r="O293" s="49"/>
       <c r="P293" s="50"/>
       <c r="Q293" s="48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R293" s="49"/>
       <c r="S293" s="49"/>
@@ -12797,10 +12870,10 @@
     <row r="295" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E295" s="42"/>
       <c r="F295" s="88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G295" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H295" s="49"/>
       <c r="I295" s="49"/>
@@ -12808,13 +12881,13 @@
       <c r="K295" s="49"/>
       <c r="L295" s="50"/>
       <c r="M295" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N295" s="49"/>
       <c r="O295" s="49"/>
       <c r="P295" s="50"/>
       <c r="Q295" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R295" s="49"/>
       <c r="S295" s="49"/>
@@ -12846,7 +12919,7 @@
       <c r="O296" s="44"/>
       <c r="P296" s="45"/>
       <c r="Q296" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R296" s="44"/>
       <c r="S296" s="44"/>
@@ -12897,10 +12970,10 @@
     <row r="298" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E298" s="42"/>
       <c r="F298" s="87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G298" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H298" s="49"/>
       <c r="I298" s="49"/>
@@ -12908,13 +12981,13 @@
       <c r="K298" s="49"/>
       <c r="L298" s="50"/>
       <c r="M298" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N298" s="49"/>
       <c r="O298" s="49"/>
       <c r="P298" s="50"/>
       <c r="Q298" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R298" s="49"/>
       <c r="S298" s="49"/>
@@ -12972,7 +13045,7 @@
       <c r="D301" s="42"/>
       <c r="E301" s="36"/>
       <c r="F301" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G301" s="36"/>
     </row>
@@ -12980,7 +13053,7 @@
       <c r="D302" s="42"/>
       <c r="E302" s="36"/>
       <c r="F302" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G302" s="36"/>
     </row>
@@ -12995,7 +13068,7 @@
         <v>3.1.11.</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="307" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13013,17 +13086,17 @@
       <c r="D308" s="42"/>
       <c r="E308" s="42"/>
       <c r="F308" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="309" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F309" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F310" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="311" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13102,7 +13175,7 @@
     </row>
     <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F314" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G314" s="53"/>
       <c r="H314" s="53"/>
@@ -13110,7 +13183,7 @@
       <c r="J314" s="53"/>
       <c r="K314" s="54"/>
       <c r="L314" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M314" s="53"/>
       <c r="N314" s="53"/>
@@ -13139,7 +13212,7 @@
     </row>
     <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F315" s="83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G315" s="95"/>
       <c r="H315" s="95"/>
@@ -13147,7 +13220,7 @@
       <c r="J315" s="104"/>
       <c r="K315" s="105"/>
       <c r="L315" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M315" s="70"/>
       <c r="N315" s="70"/>
@@ -13156,7 +13229,7 @@
       <c r="Q315" s="95"/>
       <c r="R315" s="74"/>
       <c r="S315" s="95" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T315" s="104"/>
       <c r="U315" s="104"/>
@@ -13211,7 +13284,7 @@
         <v>3.1.11.3.</v>
       </c>
       <c r="F317" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G317" s="36"/>
       <c r="H317" s="36"/>
@@ -13222,7 +13295,7 @@
     </row>
     <row r="318" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F318" s="79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G318" s="76" t="str">
         <f>E306&amp;"方法詳細"</f>
@@ -13237,10 +13310,10 @@
     <row r="319" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F319" s="79"/>
       <c r="G319" s="81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H319" s="76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I319" s="76"/>
       <c r="J319" s="76"/>
@@ -13251,10 +13324,10 @@
       <c r="F320" s="79"/>
       <c r="G320" s="81"/>
       <c r="H320" s="81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I320" s="76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J320" s="76"/>
       <c r="K320" s="76"/>
@@ -13263,10 +13336,10 @@
     <row r="321" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F321" s="79"/>
       <c r="G321" s="81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H321" s="82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I321" s="76"/>
       <c r="J321" s="76"/>
@@ -13277,10 +13350,10 @@
       <c r="F322" s="79"/>
       <c r="G322" s="76"/>
       <c r="H322" s="81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I322" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J322" s="76"/>
       <c r="K322" s="76"/>
@@ -13290,10 +13363,10 @@
       <c r="F323" s="79"/>
       <c r="G323" s="76"/>
       <c r="H323" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="I323" s="76" t="s">
         <v>196</v>
-      </c>
-      <c r="I323" s="76" t="s">
-        <v>197</v>
       </c>
       <c r="J323" s="76"/>
       <c r="K323" s="76"/>
@@ -13302,10 +13375,10 @@
     <row r="324" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F324" s="76"/>
       <c r="G324" s="81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H324" s="76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I324" s="76"/>
       <c r="J324" s="76"/>
@@ -13316,10 +13389,10 @@
       <c r="F325" s="36"/>
       <c r="G325" s="36"/>
       <c r="H325" s="84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I325" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J325" s="36"/>
       <c r="K325" s="36"/>
@@ -13329,10 +13402,10 @@
       <c r="F326" s="36"/>
       <c r="G326" s="85"/>
       <c r="H326" s="75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I326" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J326" s="36"/>
       <c r="K326" s="36"/>
@@ -13353,19 +13426,19 @@
         <v>3.1.12.</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="329" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D329" s="28"/>
       <c r="E329" s="61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="330" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D330" s="42"/>
       <c r="E330" s="61" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="331" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13405,24 +13478,24 @@
         <v>3.1.13.</v>
       </c>
       <c r="E332" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="333" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D333" s="42"/>
       <c r="E333" s="41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="334" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D334" s="42"/>
       <c r="E334" s="61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="335" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E335" s="41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F335" s="44"/>
       <c r="G335" s="44"/>
@@ -13456,7 +13529,7 @@
     </row>
     <row r="336" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E336" s="41" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F336" s="44"/>
       <c r="G336" s="44"/>
@@ -13521,7 +13594,7 @@
     </row>
     <row r="338" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E338" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F338" s="44"/>
       <c r="G338" s="44"/>
@@ -13555,7 +13628,7 @@
     </row>
     <row r="339" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E339" s="41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F339" s="44"/>
       <c r="G339" s="44"/>
@@ -13592,7 +13665,7 @@
     </row>
     <row r="341" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E341" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="343" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13601,18 +13674,18 @@
         <v>3.1.14.</v>
       </c>
       <c r="E343" s="41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="344" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D344" s="42"/>
       <c r="E344" s="41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="345" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E345" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F345" s="53"/>
       <c r="G345" s="53"/>
@@ -13621,7 +13694,7 @@
       <c r="J345" s="53"/>
       <c r="K345" s="54"/>
       <c r="L345" s="53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M345" s="53"/>
       <c r="N345" s="53"/>
@@ -13650,7 +13723,7 @@
     </row>
     <row r="346" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E346" s="111" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F346" s="100"/>
       <c r="G346" s="100"/>
@@ -13659,13 +13732,13 @@
       <c r="J346" s="72"/>
       <c r="K346" s="102"/>
       <c r="L346" s="100" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M346" s="72"/>
       <c r="N346" s="72"/>
       <c r="O346" s="102"/>
       <c r="P346" s="100" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q346" s="72"/>
       <c r="R346" s="72"/>
@@ -13688,7 +13761,7 @@
     </row>
     <row r="347" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E347" s="111" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F347" s="26"/>
       <c r="G347" s="26"/>
@@ -13701,7 +13774,7 @@
       <c r="N347" s="72"/>
       <c r="O347" s="73"/>
       <c r="P347" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q347" s="72"/>
       <c r="R347" s="72"/>
@@ -13735,7 +13808,7 @@
       <c r="N348" s="104"/>
       <c r="O348" s="92"/>
       <c r="P348" s="78" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q348" s="104"/>
       <c r="R348" s="104"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AF308B-85DE-4412-ABE1-A8F117B5193D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCDCE6F-BC39-49F9-AF45-CF0FBE53B94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1740,59 +1740,6 @@
     <t>URL設計</t>
   </si>
   <si>
-    <t>入力フォーム等の入力値・画面表示メッセージ・画面制御値を次画面に引き継ぐため。</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>ジガメン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>認証情報等の保持のため。</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>使用する</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3083,6 +3030,62 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力情報・画面表示メッセージ・画面制御値を次画面に引き継ぐため。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ジガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力情報や認証情報等を、複数のリクエストをまたいで保持するため。</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4861,7 +4864,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="118" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F1" s="119"/>
       <c r="G1" s="119"/>
@@ -4878,7 +4881,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S1" s="122"/>
       <c r="T1" s="122"/>
@@ -5138,13 +5141,13 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="54"/>
       <c r="J14" s="112" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K14" s="113"/>
       <c r="L14" s="113"/>
@@ -5182,7 +5185,7 @@
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="56" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -5220,7 +5223,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="35" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -5256,7 +5259,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -5284,7 +5287,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -5383,7 +5386,7 @@
     </row>
     <row r="26" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5548,7 +5551,7 @@
     <row r="37" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="79"/>
       <c r="F37" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
@@ -5562,7 +5565,7 @@
     <row r="38" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="79"/>
       <c r="F38" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -5611,7 +5614,7 @@
       <c r="I41" s="78"/>
       <c r="J41" s="92"/>
       <c r="K41" s="78" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L41" s="78"/>
       <c r="M41" s="92"/>
@@ -5643,7 +5646,7 @@
     </row>
     <row r="46" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5659,19 +5662,19 @@
     </row>
     <row r="49" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="52" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
       <c r="K50" s="53" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
@@ -5708,7 +5711,7 @@
       <c r="I51" s="72"/>
       <c r="J51" s="73"/>
       <c r="K51" s="95" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
@@ -5717,7 +5720,7 @@
       <c r="P51" s="26"/>
       <c r="Q51" s="73"/>
       <c r="R51" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
@@ -5745,7 +5748,7 @@
       <c r="I52" s="70"/>
       <c r="J52" s="74"/>
       <c r="K52" s="95" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L52" s="95"/>
       <c r="M52" s="95"/>
@@ -5754,7 +5757,7 @@
       <c r="P52" s="95"/>
       <c r="Q52" s="74"/>
       <c r="R52" s="97" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="S52" s="95"/>
       <c r="T52" s="95"/>
@@ -5794,7 +5797,7 @@
     <row r="56" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F56" s="68"/>
       <c r="G56" s="36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5852,17 +5855,17 @@
     </row>
     <row r="65" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F65" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F67" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5878,12 +5881,12 @@
     </row>
     <row r="70" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="53"/>
       <c r="I70" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -5898,7 +5901,7 @@
       <c r="T70" s="53"/>
       <c r="U70" s="54"/>
       <c r="V70" s="53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="W70" s="53"/>
       <c r="X70" s="53"/>
@@ -5922,7 +5925,7 @@
       <c r="G71" s="101"/>
       <c r="H71" s="106"/>
       <c r="I71" s="107" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J71" s="108"/>
       <c r="K71" s="95"/>
@@ -5937,7 +5940,7 @@
       <c r="T71" s="70"/>
       <c r="U71" s="109"/>
       <c r="V71" s="95" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="W71" s="108"/>
       <c r="X71" s="108"/>
@@ -5946,7 +5949,7 @@
       <c r="AA71" s="70"/>
       <c r="AB71" s="74"/>
       <c r="AC71" s="95" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AD71" s="70"/>
       <c r="AE71" s="70"/>
@@ -5974,7 +5977,7 @@
       <c r="T72" s="70"/>
       <c r="U72" s="109"/>
       <c r="V72" s="95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W72" s="108"/>
       <c r="X72" s="108"/>
@@ -5983,7 +5986,7 @@
       <c r="AA72" s="70"/>
       <c r="AB72" s="74"/>
       <c r="AC72" s="95" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AD72" s="70"/>
       <c r="AE72" s="70"/>
@@ -5993,7 +5996,7 @@
     </row>
     <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F73" s="97" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G73" s="70"/>
       <c r="H73" s="108"/>
@@ -6013,7 +6016,7 @@
       <c r="T73" s="70"/>
       <c r="U73" s="109"/>
       <c r="V73" s="95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W73" s="108"/>
       <c r="X73" s="108"/>
@@ -6022,7 +6025,7 @@
       <c r="AA73" s="70"/>
       <c r="AB73" s="74"/>
       <c r="AC73" s="95" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AD73" s="70"/>
       <c r="AE73" s="70"/>
@@ -6102,7 +6105,7 @@
     <row r="76" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="42"/>
       <c r="F76" s="44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
@@ -6136,7 +6139,7 @@
     <row r="77" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="42"/>
       <c r="F77" s="36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H77" s="44"/>
       <c r="I77" s="44"/>
@@ -6190,7 +6193,7 @@
     <row r="81" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D81" s="29"/>
       <c r="F81" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
@@ -6210,7 +6213,7 @@
     <row r="82" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D82" s="29"/>
       <c r="F82" s="41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
@@ -6230,7 +6233,7 @@
     <row r="83" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D83" s="29"/>
       <c r="F83" s="41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
@@ -6260,7 +6263,7 @@
     </row>
     <row r="86" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F86" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6720,7 +6723,7 @@
     </row>
     <row r="106" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F106" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6778,7 +6781,7 @@
       <c r="O108" s="26"/>
       <c r="P108" s="73"/>
       <c r="Q108" s="26" t="s">
-        <v>231</v>
+        <v>349</v>
       </c>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
@@ -6846,7 +6849,7 @@
       <c r="O110" s="26"/>
       <c r="P110" s="73"/>
       <c r="Q110" s="26" t="s">
-        <v>232</v>
+        <v>350</v>
       </c>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
@@ -6952,7 +6955,7 @@
       <c r="D115" s="36"/>
       <c r="E115" s="36"/>
       <c r="G115" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AA115" s="41"/>
     </row>
@@ -7008,14 +7011,14 @@
       <c r="I117" s="101"/>
       <c r="J117" s="103"/>
       <c r="K117" s="101" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L117" s="101"/>
       <c r="M117" s="101"/>
       <c r="N117" s="101"/>
       <c r="O117" s="103"/>
       <c r="P117" s="101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q117" s="101"/>
       <c r="R117" s="101"/>
@@ -7124,7 +7127,7 @@
       <c r="N120" s="72"/>
       <c r="O120" s="96"/>
       <c r="P120" s="72" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q120" s="72"/>
       <c r="R120" s="72"/>
@@ -7185,14 +7188,14 @@
       <c r="I122" s="72"/>
       <c r="J122" s="96"/>
       <c r="K122" s="72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L122" s="72"/>
       <c r="M122" s="72"/>
       <c r="N122" s="72"/>
       <c r="O122" s="96"/>
       <c r="P122" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q122" s="72"/>
       <c r="R122" s="72"/>
@@ -7251,7 +7254,7 @@
         <v>75</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7260,7 +7263,7 @@
       <c r="D126" s="36"/>
       <c r="E126" s="36"/>
       <c r="G126" s="41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7315,14 +7318,14 @@
       <c r="I128" s="101"/>
       <c r="J128" s="103"/>
       <c r="K128" s="101" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L128" s="101"/>
       <c r="M128" s="101"/>
       <c r="N128" s="101"/>
       <c r="O128" s="103"/>
       <c r="P128" s="101" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q128" s="101"/>
       <c r="R128" s="101"/>
@@ -7386,14 +7389,14 @@
       <c r="I130" s="72"/>
       <c r="J130" s="96"/>
       <c r="K130" s="72" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L130" s="72"/>
       <c r="M130" s="72"/>
       <c r="N130" s="72"/>
       <c r="O130" s="96"/>
       <c r="P130" s="72" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q130" s="72"/>
       <c r="R130" s="72"/>
@@ -7420,14 +7423,14 @@
       <c r="I131" s="72"/>
       <c r="J131" s="96"/>
       <c r="K131" s="72" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L131" s="72"/>
       <c r="M131" s="72"/>
       <c r="N131" s="72"/>
       <c r="O131" s="96"/>
       <c r="P131" s="72" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q131" s="72"/>
       <c r="R131" s="72"/>
@@ -7742,7 +7745,7 @@
         <v>78</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
@@ -7890,7 +7893,7 @@
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
       <c r="F147" s="62" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
@@ -7898,13 +7901,13 @@
       <c r="J147" s="38"/>
       <c r="K147" s="37"/>
       <c r="L147" s="62" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
       <c r="O147" s="37"/>
       <c r="P147" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q147" s="38"/>
       <c r="R147" s="38"/>
@@ -7938,13 +7941,13 @@
       <c r="J148" s="100"/>
       <c r="K148" s="100"/>
       <c r="L148" s="99" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M148" s="100"/>
       <c r="N148" s="100"/>
       <c r="O148" s="102"/>
       <c r="P148" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q148" s="100"/>
       <c r="R148" s="100"/>
@@ -7978,13 +7981,13 @@
       <c r="J149" s="95"/>
       <c r="K149" s="95"/>
       <c r="L149" s="97" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M149" s="95"/>
       <c r="N149" s="95"/>
       <c r="O149" s="74"/>
       <c r="P149" s="95" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q149" s="95"/>
       <c r="R149" s="95"/>
@@ -8104,7 +8107,7 @@
       <c r="E153" s="79"/>
       <c r="F153" s="24"/>
       <c r="G153" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
@@ -8164,7 +8167,7 @@
       <c r="E155" s="79"/>
       <c r="F155" s="24"/>
       <c r="G155" s="65" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
@@ -8194,7 +8197,7 @@
       <c r="E156" s="79"/>
       <c r="F156" s="24"/>
       <c r="G156" s="65" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
@@ -8344,7 +8347,7 @@
       <c r="O160" s="55"/>
       <c r="P160" s="31"/>
       <c r="Q160" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R160" s="55"/>
       <c r="S160" s="55"/>
@@ -8386,7 +8389,7 @@
       <c r="O161" s="57"/>
       <c r="P161" s="58"/>
       <c r="Q161" s="57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R161" s="57"/>
       <c r="S161" s="57"/>
@@ -8535,7 +8538,7 @@
       <c r="O165" s="33"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R165" s="33"/>
       <c r="S165" s="33"/>
@@ -8680,7 +8683,7 @@
       <c r="R169" s="39"/>
       <c r="S169" s="40"/>
       <c r="T169" s="35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="U169" s="39"/>
       <c r="V169" s="39"/>
@@ -8718,7 +8721,7 @@
       <c r="R170" s="55"/>
       <c r="S170" s="31"/>
       <c r="T170" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="U170" s="55"/>
       <c r="V170" s="55"/>
@@ -8919,7 +8922,7 @@
       <c r="D176" s="29"/>
       <c r="E176" s="76"/>
       <c r="F176" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G176" s="55" t="str">
         <f>G142</f>
@@ -8959,7 +8962,7 @@
       <c r="E177" s="76"/>
       <c r="F177" s="29"/>
       <c r="G177" s="55" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
@@ -8995,7 +8998,7 @@
       <c r="E178" s="76"/>
       <c r="F178" s="29"/>
       <c r="G178" s="29" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -9025,7 +9028,7 @@
       <c r="E179" s="76"/>
       <c r="F179" s="29"/>
       <c r="G179" s="29" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -9364,7 +9367,7 @@
       <c r="E188" s="29"/>
       <c r="F188" s="29"/>
       <c r="G188" s="66" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
@@ -9403,7 +9406,7 @@
       <c r="E189" s="29"/>
       <c r="F189" s="29"/>
       <c r="G189" s="80" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H189" s="29"/>
       <c r="I189" s="29"/>
@@ -9442,7 +9445,7 @@
       <c r="E190" s="29"/>
       <c r="F190" s="29"/>
       <c r="G190" s="80" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
@@ -9885,7 +9888,7 @@
       <c r="O201" s="55"/>
       <c r="P201" s="31"/>
       <c r="Q201" s="55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="R201" s="55"/>
       <c r="S201" s="55"/>
@@ -9924,7 +9927,7 @@
       <c r="O202" s="55"/>
       <c r="P202" s="31"/>
       <c r="Q202" s="55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="R202" s="55"/>
       <c r="S202" s="55"/>
@@ -10045,7 +10048,7 @@
       <c r="O205" s="55"/>
       <c r="P205" s="31"/>
       <c r="Q205" s="55" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="R205" s="55"/>
       <c r="S205" s="55"/>
@@ -10084,7 +10087,7 @@
       <c r="O206" s="55"/>
       <c r="P206" s="31"/>
       <c r="Q206" s="55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="R206" s="55"/>
       <c r="S206" s="55"/>
@@ -10123,7 +10126,7 @@
       <c r="O207" s="33"/>
       <c r="P207" s="34"/>
       <c r="Q207" s="33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R207" s="33"/>
       <c r="S207" s="33"/>
@@ -10456,7 +10459,7 @@
       <c r="AA215" s="26"/>
       <c r="AB215" s="73"/>
       <c r="AC215" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AD215" s="26"/>
       <c r="AE215" s="26"/>
@@ -10618,7 +10621,7 @@
       <c r="AA219" s="26"/>
       <c r="AB219" s="73"/>
       <c r="AC219" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AD219" s="26"/>
       <c r="AE219" s="26"/>
@@ -10659,7 +10662,7 @@
       <c r="AA220" s="26"/>
       <c r="AB220" s="73"/>
       <c r="AC220" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AD220" s="26"/>
       <c r="AE220" s="26"/>
@@ -11073,7 +11076,7 @@
       <c r="J231" s="55"/>
       <c r="K231" s="31"/>
       <c r="L231" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -11231,7 +11234,7 @@
       <c r="J235" s="55"/>
       <c r="K235" s="31"/>
       <c r="L235" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -11274,7 +11277,7 @@
       <c r="J236" s="33"/>
       <c r="K236" s="34"/>
       <c r="L236" s="78" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M236" s="78"/>
       <c r="N236" s="78"/>
@@ -11753,7 +11756,7 @@
       <c r="P248" s="39"/>
       <c r="Q248" s="40"/>
       <c r="R248" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S248" s="39"/>
       <c r="T248" s="39"/>
@@ -11791,7 +11794,7 @@
       <c r="P249" s="33"/>
       <c r="Q249" s="34"/>
       <c r="R249" s="32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S249" s="33"/>
       <c r="T249" s="33"/>
@@ -12102,7 +12105,7 @@
       <c r="I257" s="55"/>
       <c r="J257" s="31"/>
       <c r="K257" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L257" s="55"/>
       <c r="M257" s="55"/>
@@ -12142,7 +12145,7 @@
       <c r="I258" s="55"/>
       <c r="J258" s="31"/>
       <c r="K258" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L258" s="55"/>
       <c r="M258" s="55"/>
@@ -12151,7 +12154,7 @@
       <c r="P258" s="55"/>
       <c r="Q258" s="31"/>
       <c r="R258" s="55" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="S258" s="55"/>
       <c r="T258" s="55"/>
@@ -12189,7 +12192,7 @@
       <c r="P259" s="55"/>
       <c r="Q259" s="31"/>
       <c r="R259" s="55" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S259" s="55"/>
       <c r="T259" s="55"/>
@@ -12227,7 +12230,7 @@
       <c r="P260" s="55"/>
       <c r="Q260" s="31"/>
       <c r="R260" s="55" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="S260" s="55"/>
       <c r="T260" s="55"/>
@@ -12265,7 +12268,7 @@
       <c r="P261" s="55"/>
       <c r="Q261" s="31"/>
       <c r="R261" s="55" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S261" s="55"/>
       <c r="T261" s="55"/>
@@ -12303,7 +12306,7 @@
       <c r="P262" s="33"/>
       <c r="Q262" s="34"/>
       <c r="R262" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="S262" s="33"/>
       <c r="T262" s="33"/>
@@ -12452,7 +12455,7 @@
     <row r="272" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D272" s="42"/>
       <c r="F272" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="273" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12501,7 +12504,7 @@
       <c r="J274" s="101"/>
       <c r="K274" s="103"/>
       <c r="L274" s="71" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M274" s="101"/>
       <c r="N274" s="101"/>
@@ -12534,7 +12537,7 @@
       <c r="J275" s="104"/>
       <c r="K275" s="105"/>
       <c r="L275" s="83" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M275" s="104"/>
       <c r="N275" s="104"/>
@@ -12575,7 +12578,7 @@
     <row r="278" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="42"/>
       <c r="F278" s="29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G278" s="29"/>
       <c r="H278" s="29"/>
@@ -12749,7 +12752,7 @@
       <c r="O291" s="49"/>
       <c r="P291" s="50"/>
       <c r="Q291" s="48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R291" s="49"/>
       <c r="S291" s="49"/>
@@ -12781,7 +12784,7 @@
       <c r="O292" s="47"/>
       <c r="P292" s="51"/>
       <c r="Q292" s="46" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R292" s="47"/>
       <c r="S292" s="47"/>
@@ -13212,7 +13215,7 @@
     </row>
     <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F315" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G315" s="95"/>
       <c r="H315" s="95"/>
@@ -13229,7 +13232,7 @@
       <c r="Q315" s="95"/>
       <c r="R315" s="74"/>
       <c r="S315" s="95" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T315" s="104"/>
       <c r="U315" s="104"/>
@@ -13284,7 +13287,7 @@
         <v>3.1.11.3.</v>
       </c>
       <c r="F317" s="36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G317" s="36"/>
       <c r="H317" s="36"/>
@@ -13438,7 +13441,7 @@
     <row r="330" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D330" s="42"/>
       <c r="E330" s="61" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="331" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13478,24 +13481,24 @@
         <v>3.1.13.</v>
       </c>
       <c r="E332" s="41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="333" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D333" s="42"/>
       <c r="E333" s="41" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="334" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D334" s="42"/>
       <c r="E334" s="61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="335" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E335" s="41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F335" s="44"/>
       <c r="G335" s="44"/>
@@ -13529,7 +13532,7 @@
     </row>
     <row r="336" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E336" s="41" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F336" s="44"/>
       <c r="G336" s="44"/>
@@ -13594,7 +13597,7 @@
     </row>
     <row r="338" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E338" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F338" s="44"/>
       <c r="G338" s="44"/>
@@ -13628,7 +13631,7 @@
     </row>
     <row r="339" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E339" s="41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F339" s="44"/>
       <c r="G339" s="44"/>
@@ -13665,7 +13668,7 @@
     </row>
     <row r="341" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E341" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="343" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13674,13 +13677,13 @@
         <v>3.1.14.</v>
       </c>
       <c r="E343" s="41" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="344" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D344" s="42"/>
       <c r="E344" s="41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="345" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13694,7 +13697,7 @@
       <c r="J345" s="53"/>
       <c r="K345" s="54"/>
       <c r="L345" s="53" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M345" s="53"/>
       <c r="N345" s="53"/>
@@ -13723,7 +13726,7 @@
     </row>
     <row r="346" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E346" s="111" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F346" s="100"/>
       <c r="G346" s="100"/>
@@ -13732,13 +13735,13 @@
       <c r="J346" s="72"/>
       <c r="K346" s="102"/>
       <c r="L346" s="100" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M346" s="72"/>
       <c r="N346" s="72"/>
       <c r="O346" s="102"/>
       <c r="P346" s="100" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q346" s="72"/>
       <c r="R346" s="72"/>
@@ -13761,7 +13764,7 @@
     </row>
     <row r="347" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E347" s="111" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F347" s="26"/>
       <c r="G347" s="26"/>
@@ -13774,7 +13777,7 @@
       <c r="N347" s="72"/>
       <c r="O347" s="73"/>
       <c r="P347" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q347" s="72"/>
       <c r="R347" s="72"/>
@@ -13808,7 +13811,7 @@
       <c r="N348" s="104"/>
       <c r="O348" s="92"/>
       <c r="P348" s="78" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q348" s="104"/>
       <c r="R348" s="104"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCDCE6F-BC39-49F9-AF45-CF0FBE53B94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF80FFF-1A51-4835-B62F-7260AD45E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,10 +11,10 @@
     <sheet name="3.1.同期処理方式" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.1.同期処理方式'!$D$333:$E$340</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$349</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$264</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.1.同期処理方式'!$D$310:$E$317</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$326</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$241</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$241</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="319">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -412,13 +412,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラーの種類</t>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(1)</t>
   </si>
   <si>
@@ -748,103 +741,10 @@
     <t>エラーの種類</t>
   </si>
   <si>
-    <t>業務エラー</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システムエラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アプリケーションエラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>排他エラー</t>
   </si>
   <si>
-    <t>排他エラー</t>
-    <rPh sb="0" eb="2">
-      <t>ハイタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>認証エラー</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開閉局エラー</t>
-    <rPh sb="0" eb="2">
-      <t>カイヘイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>認可エラー</t>
-    <rPh sb="0" eb="2">
-      <t>ニンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>URL不正エラー</t>
-    <rPh sb="3" eb="5">
-      <t>フセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（入力値精査、業務ロジック内での精査にて発生する）</t>
-  </si>
-  <si>
-    <t>ユーザの認証に失敗した場合に発生するエラー</t>
-  </si>
-  <si>
-    <t>開局／閉局状態チェックに失敗した場合に発生するエラー</t>
-  </si>
-  <si>
-    <t>ユーザが実行権限のないリクエストを実行した場合に発生するエラー</t>
-  </si>
-  <si>
-    <t>リクエストURLのフォーマットが不正な場合に発生するエラー</t>
-  </si>
-  <si>
-    <t>リソース未検出エラー</t>
-  </si>
-  <si>
-    <t>リクエストURLに相当するリソースが存在しない場合に発生するエラー</t>
-  </si>
-  <si>
     <t>JVM内部エラー</t>
-  </si>
-  <si>
-    <t>JSPにフォワードできるエラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システムエラーの中で、エラー画面のJSPへのフォワードが可能な例外</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（プログラムバグに起因するnull参照や、スタックオーバーフロー等。）</t>
-  </si>
-  <si>
-    <t>業務コンポーネントで発生する業務的なエラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システムエラーの中で、エラー画面のJSPへのフォワードができない可能性の</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>エラー画面の表示は、Nablarchが提供する例外をハンドリングする機能が実現する。</t>
@@ -1120,14 +1020,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラーの種類</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(1)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>よって、業務コンポーネントで特別な対処は行わない。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2304,22 +2196,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>JSPにフォワードできない</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>致命的なエラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>発生するエラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DBの更新対象レコードが更新処理中に別のユーザに更新されていた場合に</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>業務画面なら「action」、WEB-APIなら「api」のように</t>
     <rPh sb="0" eb="2">
       <t>ギョウム</t>
@@ -2768,26 +2644,6 @@
     <rPh sb="23" eb="25">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ある致命的な例外。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・サーブレットフォワード中に発生した想定外エラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・JVM内部エラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・Out of Memory例外</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・その他、通常起こりえない位置で発生した例外</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3391,7 +3247,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3592,9 +3448,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3838,13 +3691,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3860,7 +3713,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1350479" y="39516326"/>
+          <a:off x="1350479" y="36277826"/>
           <a:ext cx="7726431" cy="775252"/>
           <a:chOff x="1362075" y="5760869"/>
           <a:chExt cx="7810499" cy="820906"/>
@@ -4847,7 +4700,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI350"/>
+  <dimension ref="A1:AI327"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
@@ -4863,45 +4716,45 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="118" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
+      <c r="E1" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="119"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="123"/>
+      <c r="R1" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="122"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="116"/>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="117"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="115"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="116"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4910,43 +4763,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="130" t="s">
+      <c r="R2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="132"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="131"/>
       <c r="Y2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="117"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="116"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -4955,39 +4808,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="135"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="134"/>
       <c r="Y3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="117"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="116"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5141,27 +4994,27 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="54"/>
-      <c r="J14" s="112" t="s">
-        <v>261</v>
-      </c>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="114"/>
+      <c r="J14" s="111" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="112"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
+      <c r="W14" s="113"/>
       <c r="X14" s="29"/>
       <c r="Y14" s="29"/>
       <c r="Z14" s="29"/>
@@ -5179,13 +5032,13 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="56" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="56" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -5217,13 +5070,13 @@
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="35" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -5259,7 +5112,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="30" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -5287,7 +5140,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="32" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -5371,22 +5224,22 @@
     </row>
     <row r="23" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="36" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="36" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5402,7 +5255,7 @@
     </row>
     <row r="29" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -5410,7 +5263,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
       <c r="L29" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M29" s="17"/>
       <c r="N29" s="18"/>
@@ -5439,41 +5292,41 @@
     </row>
     <row r="30" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
       <c r="K30" s="58"/>
-      <c r="L30" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="M30" s="95"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="95" t="str">
-        <f>$D$306&amp;$E$306&amp;"機能があり、キャッシュに有効期限を設ける必要があるため"</f>
+      <c r="L30" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" s="94"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="94" t="str">
+        <f>$D$283&amp;$E$283&amp;"機能があり、キャッシュに有効期限を設ける必要があるため"</f>
         <v>3.1.11.コンテンツ更新機能があり、キャッシュに有効期限を設ける必要があるため</v>
       </c>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="70"/>
-      <c r="AD30" s="70"/>
-      <c r="AE30" s="70"/>
-      <c r="AF30" s="70"/>
-      <c r="AG30" s="70"/>
-      <c r="AH30" s="98"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
+      <c r="AC30" s="69"/>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="69"/>
+      <c r="AF30" s="69"/>
+      <c r="AG30" s="69"/>
+      <c r="AH30" s="97"/>
     </row>
     <row r="31" spans="4:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="55"/>
@@ -5518,7 +5371,7 @@
     </row>
     <row r="33" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="29" t="str">
         <f>L30</f>
@@ -5526,8 +5379,8 @@
       </c>
     </row>
     <row r="34" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G34" s="76" t="s">
-        <v>190</v>
+      <c r="G34" s="75" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5549,9 +5402,9 @@
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="79"/>
+      <c r="E37" s="78"/>
       <c r="F37" s="29" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
@@ -5563,9 +5416,9 @@
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="79"/>
+      <c r="E38" s="78"/>
       <c r="F38" s="29" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -5577,7 +5430,7 @@
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="79"/>
+      <c r="E39" s="78"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
@@ -5589,7 +5442,7 @@
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="76"/>
+      <c r="E40" s="75"/>
       <c r="F40" s="62" t="s">
         <v>12</v>
       </c>
@@ -5605,19 +5458,19 @@
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="76"/>
-      <c r="F41" s="77" t="s">
+      <c r="E41" s="75"/>
+      <c r="F41" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="L41" s="78"/>
-      <c r="M41" s="92"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="L41" s="77"/>
+      <c r="M41" s="91"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5625,7 +5478,7 @@
     </row>
     <row r="43" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="68" t="str">
+      <c r="D44" s="67" t="str">
         <f>$C$7&amp;"4."</f>
         <v>3.1.4.</v>
       </c>
@@ -5634,8 +5487,8 @@
       </c>
     </row>
     <row r="45" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="68"/>
-      <c r="E45" s="68" t="str">
+      <c r="D45" s="67"/>
+      <c r="E45" s="67" t="str">
         <f>D44&amp;"1."</f>
         <v>3.1.4.1.</v>
       </c>
@@ -5646,12 +5499,12 @@
     </row>
     <row r="46" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="36" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="68" t="str">
+      <c r="E48" s="67" t="str">
         <f>D44&amp;"2."</f>
         <v>3.1.4.2.</v>
       </c>
@@ -5662,19 +5515,19 @@
     </row>
     <row r="49" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="36" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="52" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
       <c r="K50" s="53" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
@@ -5703,132 +5556,132 @@
       <c r="AH50" s="54"/>
     </row>
     <row r="51" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F51" s="71" t="s">
+      <c r="F51" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="95" t="s">
-        <v>253</v>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="94" t="s">
+        <v>230</v>
       </c>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
       <c r="P51" s="26"/>
-      <c r="Q51" s="73"/>
+      <c r="Q51" s="72"/>
       <c r="R51" s="26" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
       <c r="V51" s="26"/>
-      <c r="W51" s="72"/>
-      <c r="X51" s="72"/>
-      <c r="Y51" s="72"/>
-      <c r="Z51" s="72"/>
-      <c r="AA51" s="72"/>
-      <c r="AB51" s="72"/>
-      <c r="AC51" s="72"/>
-      <c r="AD51" s="72"/>
-      <c r="AE51" s="72"/>
-      <c r="AF51" s="72"/>
-      <c r="AG51" s="72"/>
-      <c r="AH51" s="96"/>
+      <c r="W51" s="71"/>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
+      <c r="Z51" s="71"/>
+      <c r="AA51" s="71"/>
+      <c r="AB51" s="71"/>
+      <c r="AC51" s="71"/>
+      <c r="AD51" s="71"/>
+      <c r="AE51" s="71"/>
+      <c r="AF51" s="71"/>
+      <c r="AG51" s="71"/>
+      <c r="AH51" s="95"/>
     </row>
     <row r="52" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="69" t="s">
+      <c r="F52" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95"/>
-      <c r="Q52" s="74"/>
-      <c r="R52" s="97" t="s">
-        <v>247</v>
-      </c>
-      <c r="S52" s="95"/>
-      <c r="T52" s="95"/>
-      <c r="U52" s="95"/>
-      <c r="V52" s="95"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="70"/>
-      <c r="Y52" s="70"/>
-      <c r="Z52" s="70"/>
-      <c r="AA52" s="70"/>
-      <c r="AB52" s="70"/>
-      <c r="AC52" s="70"/>
-      <c r="AD52" s="70"/>
-      <c r="AE52" s="70"/>
-      <c r="AF52" s="70"/>
-      <c r="AG52" s="70"/>
-      <c r="AH52" s="98"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="L52" s="94"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="94"/>
+      <c r="O52" s="94"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="S52" s="94"/>
+      <c r="T52" s="94"/>
+      <c r="U52" s="94"/>
+      <c r="V52" s="94"/>
+      <c r="W52" s="69"/>
+      <c r="X52" s="69"/>
+      <c r="Y52" s="69"/>
+      <c r="Z52" s="69"/>
+      <c r="AA52" s="69"/>
+      <c r="AB52" s="69"/>
+      <c r="AC52" s="69"/>
+      <c r="AD52" s="69"/>
+      <c r="AE52" s="69"/>
+      <c r="AF52" s="69"/>
+      <c r="AG52" s="69"/>
+      <c r="AH52" s="97"/>
     </row>
     <row r="53" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="68" t="str">
+      <c r="E54" s="67" t="str">
         <f>D44&amp;"3."</f>
         <v>3.1.4.3.</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="68" t="s">
-        <v>179</v>
+      <c r="F55" s="67" t="s">
+        <v>156</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F56" s="68"/>
+      <c r="F56" s="67"/>
       <c r="G56" s="36" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F57" s="68"/>
-      <c r="G57" s="75" t="s">
-        <v>180</v>
+      <c r="F57" s="67"/>
+      <c r="G57" s="74" t="s">
+        <v>157</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F58" s="68"/>
-      <c r="G58" s="75" t="s">
-        <v>180</v>
+      <c r="F58" s="67"/>
+      <c r="G58" s="74" t="s">
+        <v>157</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G59" s="75" t="s">
-        <v>180</v>
+      <c r="G59" s="74" t="s">
+        <v>157</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H60" s="36" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5855,17 +5708,17 @@
     </row>
     <row r="65" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F65" s="4" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="4" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F67" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5881,12 +5734,12 @@
     </row>
     <row r="70" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="52" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="53"/>
       <c r="I70" s="16" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -5901,7 +5754,7 @@
       <c r="T70" s="53"/>
       <c r="U70" s="54"/>
       <c r="V70" s="53" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="W70" s="53"/>
       <c r="X70" s="53"/>
@@ -5919,119 +5772,119 @@
       <c r="AH70" s="18"/>
     </row>
     <row r="71" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F71" s="99" t="s">
-        <v>201</v>
-      </c>
-      <c r="G71" s="101"/>
-      <c r="H71" s="106"/>
-      <c r="I71" s="107" t="s">
-        <v>325</v>
-      </c>
-      <c r="J71" s="108"/>
-      <c r="K71" s="95"/>
-      <c r="L71" s="70"/>
-      <c r="M71" s="70"/>
-      <c r="N71" s="70"/>
-      <c r="O71" s="70"/>
-      <c r="P71" s="70"/>
-      <c r="Q71" s="70"/>
-      <c r="R71" s="70"/>
-      <c r="S71" s="70"/>
-      <c r="T71" s="70"/>
-      <c r="U71" s="109"/>
-      <c r="V71" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="W71" s="108"/>
-      <c r="X71" s="108"/>
-      <c r="Y71" s="95"/>
-      <c r="Z71" s="70"/>
-      <c r="AA71" s="70"/>
-      <c r="AB71" s="74"/>
-      <c r="AC71" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD71" s="70"/>
-      <c r="AE71" s="70"/>
-      <c r="AF71" s="70"/>
-      <c r="AG71" s="70"/>
-      <c r="AH71" s="98"/>
+      <c r="F71" s="98" t="s">
+        <v>178</v>
+      </c>
+      <c r="G71" s="100"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="106" t="s">
+        <v>298</v>
+      </c>
+      <c r="J71" s="107"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="69"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="69"/>
+      <c r="P71" s="69"/>
+      <c r="Q71" s="69"/>
+      <c r="R71" s="69"/>
+      <c r="S71" s="69"/>
+      <c r="T71" s="69"/>
+      <c r="U71" s="108"/>
+      <c r="V71" s="94" t="s">
+        <v>222</v>
+      </c>
+      <c r="W71" s="107"/>
+      <c r="X71" s="107"/>
+      <c r="Y71" s="94"/>
+      <c r="Z71" s="69"/>
+      <c r="AA71" s="69"/>
+      <c r="AB71" s="73"/>
+      <c r="AC71" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD71" s="69"/>
+      <c r="AE71" s="69"/>
+      <c r="AF71" s="69"/>
+      <c r="AG71" s="69"/>
+      <c r="AH71" s="97"/>
     </row>
     <row r="72" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F72" s="77"/>
-      <c r="G72" s="104"/>
-      <c r="H72" s="110"/>
-      <c r="I72" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="J72" s="108"/>
-      <c r="K72" s="95"/>
-      <c r="L72" s="70"/>
-      <c r="M72" s="70"/>
-      <c r="N72" s="70"/>
-      <c r="O72" s="70"/>
-      <c r="P72" s="70"/>
-      <c r="Q72" s="70"/>
-      <c r="R72" s="70"/>
-      <c r="S72" s="70"/>
-      <c r="T72" s="70"/>
-      <c r="U72" s="109"/>
-      <c r="V72" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="W72" s="108"/>
-      <c r="X72" s="108"/>
-      <c r="Y72" s="95"/>
-      <c r="Z72" s="70"/>
-      <c r="AA72" s="70"/>
-      <c r="AB72" s="74"/>
-      <c r="AC72" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD72" s="70"/>
-      <c r="AE72" s="70"/>
-      <c r="AF72" s="70"/>
-      <c r="AG72" s="70"/>
-      <c r="AH72" s="98"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="103"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="J72" s="107"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="69"/>
+      <c r="O72" s="69"/>
+      <c r="P72" s="69"/>
+      <c r="Q72" s="69"/>
+      <c r="R72" s="69"/>
+      <c r="S72" s="69"/>
+      <c r="T72" s="69"/>
+      <c r="U72" s="108"/>
+      <c r="V72" s="94" t="s">
+        <v>223</v>
+      </c>
+      <c r="W72" s="107"/>
+      <c r="X72" s="107"/>
+      <c r="Y72" s="94"/>
+      <c r="Z72" s="69"/>
+      <c r="AA72" s="69"/>
+      <c r="AB72" s="73"/>
+      <c r="AC72" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD72" s="69"/>
+      <c r="AE72" s="69"/>
+      <c r="AF72" s="69"/>
+      <c r="AG72" s="69"/>
+      <c r="AH72" s="97"/>
     </row>
     <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F73" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="G73" s="70"/>
-      <c r="H73" s="108"/>
-      <c r="I73" s="107" t="s">
-        <v>202</v>
-      </c>
-      <c r="J73" s="108"/>
-      <c r="K73" s="95"/>
-      <c r="L73" s="70"/>
-      <c r="M73" s="70"/>
-      <c r="N73" s="70"/>
-      <c r="O73" s="70"/>
-      <c r="P73" s="70"/>
-      <c r="Q73" s="70"/>
-      <c r="R73" s="70"/>
-      <c r="S73" s="70"/>
-      <c r="T73" s="70"/>
-      <c r="U73" s="109"/>
-      <c r="V73" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="W73" s="108"/>
-      <c r="X73" s="108"/>
-      <c r="Y73" s="95"/>
-      <c r="Z73" s="70"/>
-      <c r="AA73" s="70"/>
-      <c r="AB73" s="74"/>
-      <c r="AC73" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD73" s="70"/>
-      <c r="AE73" s="70"/>
-      <c r="AF73" s="70"/>
-      <c r="AG73" s="70"/>
-      <c r="AH73" s="98"/>
+      <c r="F73" s="96" t="s">
+        <v>218</v>
+      </c>
+      <c r="G73" s="69"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="J73" s="107"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="69"/>
+      <c r="Q73" s="69"/>
+      <c r="R73" s="69"/>
+      <c r="S73" s="69"/>
+      <c r="T73" s="69"/>
+      <c r="U73" s="108"/>
+      <c r="V73" s="94" t="s">
+        <v>223</v>
+      </c>
+      <c r="W73" s="107"/>
+      <c r="X73" s="107"/>
+      <c r="Y73" s="94"/>
+      <c r="Z73" s="69"/>
+      <c r="AA73" s="69"/>
+      <c r="AB73" s="73"/>
+      <c r="AC73" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD73" s="69"/>
+      <c r="AE73" s="69"/>
+      <c r="AF73" s="69"/>
+      <c r="AG73" s="69"/>
+      <c r="AH73" s="97"/>
     </row>
     <row r="74" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F74" s="19"/>
@@ -6105,7 +5958,7 @@
     <row r="76" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="42"/>
       <c r="F76" s="44" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
@@ -6139,7 +5992,7 @@
     <row r="77" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="42"/>
       <c r="F77" s="36" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="H77" s="44"/>
       <c r="I77" s="44"/>
@@ -6193,7 +6046,7 @@
     <row r="81" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D81" s="29"/>
       <c r="F81" s="41" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
@@ -6213,7 +6066,7 @@
     <row r="82" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D82" s="29"/>
       <c r="F82" s="41" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
@@ -6233,7 +6086,7 @@
     <row r="83" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D83" s="29"/>
       <c r="F83" s="41" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
@@ -6263,7 +6116,7 @@
     </row>
     <row r="86" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F86" s="4" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6307,19 +6160,19 @@
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
-      <c r="F88" s="94" t="s">
+      <c r="F88" s="93" t="s">
         <v>21</v>
       </c>
       <c r="G88" s="26"/>
       <c r="H88" s="26"/>
-      <c r="I88" s="73"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="26" t="s">
         <v>25</v>
       </c>
       <c r="K88" s="26"/>
-      <c r="L88" s="73"/>
+      <c r="L88" s="72"/>
       <c r="M88" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N88" s="26"/>
       <c r="O88" s="26"/>
@@ -6335,53 +6188,53 @@
       <c r="Y88" s="26"/>
       <c r="Z88" s="26"/>
       <c r="AA88" s="26"/>
-      <c r="AB88" s="72"/>
-      <c r="AC88" s="72"/>
-      <c r="AD88" s="72"/>
-      <c r="AE88" s="72"/>
-      <c r="AF88" s="72"/>
-      <c r="AG88" s="72"/>
-      <c r="AH88" s="96"/>
+      <c r="AB88" s="71"/>
+      <c r="AC88" s="71"/>
+      <c r="AD88" s="71"/>
+      <c r="AE88" s="71"/>
+      <c r="AF88" s="71"/>
+      <c r="AG88" s="71"/>
+      <c r="AH88" s="95"/>
     </row>
     <row r="89" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
-      <c r="F89" s="97" t="s">
+      <c r="F89" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="95"/>
-      <c r="H89" s="95"/>
-      <c r="I89" s="74"/>
-      <c r="J89" s="95" t="s">
+      <c r="G89" s="94"/>
+      <c r="H89" s="94"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="K89" s="95"/>
-      <c r="L89" s="74"/>
-      <c r="M89" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="N89" s="95"/>
-      <c r="O89" s="95"/>
-      <c r="P89" s="95"/>
-      <c r="Q89" s="95"/>
-      <c r="R89" s="95"/>
-      <c r="S89" s="95"/>
-      <c r="T89" s="95"/>
-      <c r="U89" s="95"/>
-      <c r="V89" s="95"/>
-      <c r="W89" s="95"/>
-      <c r="X89" s="95"/>
-      <c r="Y89" s="95"/>
-      <c r="Z89" s="95"/>
-      <c r="AA89" s="95"/>
-      <c r="AB89" s="70"/>
-      <c r="AC89" s="70"/>
-      <c r="AD89" s="70"/>
-      <c r="AE89" s="70"/>
-      <c r="AF89" s="70"/>
-      <c r="AG89" s="70"/>
-      <c r="AH89" s="98"/>
+      <c r="K89" s="94"/>
+      <c r="L89" s="73"/>
+      <c r="M89" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="N89" s="94"/>
+      <c r="O89" s="94"/>
+      <c r="P89" s="94"/>
+      <c r="Q89" s="94"/>
+      <c r="R89" s="94"/>
+      <c r="S89" s="94"/>
+      <c r="T89" s="94"/>
+      <c r="U89" s="94"/>
+      <c r="V89" s="94"/>
+      <c r="W89" s="94"/>
+      <c r="X89" s="94"/>
+      <c r="Y89" s="94"/>
+      <c r="Z89" s="94"/>
+      <c r="AA89" s="94"/>
+      <c r="AB89" s="69"/>
+      <c r="AC89" s="69"/>
+      <c r="AD89" s="69"/>
+      <c r="AE89" s="69"/>
+      <c r="AF89" s="69"/>
+      <c r="AG89" s="69"/>
+      <c r="AH89" s="97"/>
     </row>
     <row r="90" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="29"/>
@@ -6455,7 +6308,7 @@
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G92" s="29" t="s">
         <v>10</v>
@@ -6542,7 +6395,7 @@
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
       <c r="F95" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G95" s="29" t="s">
         <v>26</v>
@@ -6629,7 +6482,7 @@
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
       <c r="F98" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G98" s="29" t="s">
         <v>30</v>
@@ -6723,7 +6576,7 @@
     </row>
     <row r="106" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F106" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6765,13 +6618,13 @@
       <c r="AH107" s="18"/>
     </row>
     <row r="108" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F108" s="71" t="s">
+      <c r="F108" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="G108" s="72"/>
-      <c r="H108" s="72"/>
-      <c r="I108" s="72"/>
-      <c r="J108" s="73"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="72"/>
       <c r="K108" s="26" t="s">
         <v>25</v>
       </c>
@@ -6779,9 +6632,9 @@
       <c r="M108" s="26"/>
       <c r="N108" s="26"/>
       <c r="O108" s="26"/>
-      <c r="P108" s="73"/>
+      <c r="P108" s="72"/>
       <c r="Q108" s="26" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
@@ -6792,54 +6645,54 @@
       <c r="X108" s="26"/>
       <c r="Y108" s="26"/>
       <c r="Z108" s="26"/>
-      <c r="AA108" s="72"/>
-      <c r="AB108" s="72"/>
-      <c r="AC108" s="72"/>
-      <c r="AD108" s="72"/>
-      <c r="AE108" s="72"/>
-      <c r="AF108" s="72"/>
-      <c r="AG108" s="72"/>
-      <c r="AH108" s="96"/>
+      <c r="AA108" s="71"/>
+      <c r="AB108" s="71"/>
+      <c r="AC108" s="71"/>
+      <c r="AD108" s="71"/>
+      <c r="AE108" s="71"/>
+      <c r="AF108" s="71"/>
+      <c r="AG108" s="71"/>
+      <c r="AH108" s="95"/>
     </row>
     <row r="109" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F109" s="111"/>
-      <c r="G109" s="104"/>
-      <c r="H109" s="104"/>
-      <c r="I109" s="104"/>
-      <c r="J109" s="92"/>
-      <c r="K109" s="78"/>
-      <c r="L109" s="78"/>
-      <c r="M109" s="78"/>
-      <c r="N109" s="78"/>
-      <c r="O109" s="78"/>
-      <c r="P109" s="92"/>
-      <c r="Q109" s="78"/>
-      <c r="R109" s="78"/>
-      <c r="S109" s="78"/>
-      <c r="T109" s="78"/>
-      <c r="U109" s="78"/>
-      <c r="V109" s="78"/>
-      <c r="W109" s="78"/>
-      <c r="X109" s="78"/>
-      <c r="Y109" s="78"/>
-      <c r="Z109" s="78"/>
-      <c r="AA109" s="104"/>
-      <c r="AB109" s="104"/>
-      <c r="AC109" s="104"/>
-      <c r="AD109" s="104"/>
-      <c r="AE109" s="104"/>
-      <c r="AF109" s="104"/>
-      <c r="AG109" s="104"/>
-      <c r="AH109" s="105"/>
+      <c r="F109" s="110"/>
+      <c r="G109" s="103"/>
+      <c r="H109" s="103"/>
+      <c r="I109" s="103"/>
+      <c r="J109" s="91"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="77"/>
+      <c r="N109" s="77"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="91"/>
+      <c r="Q109" s="77"/>
+      <c r="R109" s="77"/>
+      <c r="S109" s="77"/>
+      <c r="T109" s="77"/>
+      <c r="U109" s="77"/>
+      <c r="V109" s="77"/>
+      <c r="W109" s="77"/>
+      <c r="X109" s="77"/>
+      <c r="Y109" s="77"/>
+      <c r="Z109" s="77"/>
+      <c r="AA109" s="103"/>
+      <c r="AB109" s="103"/>
+      <c r="AC109" s="103"/>
+      <c r="AD109" s="103"/>
+      <c r="AE109" s="103"/>
+      <c r="AF109" s="103"/>
+      <c r="AG109" s="103"/>
+      <c r="AH109" s="104"/>
     </row>
     <row r="110" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F110" s="71" t="s">
+      <c r="F110" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="G110" s="72"/>
-      <c r="H110" s="72"/>
-      <c r="I110" s="72"/>
-      <c r="J110" s="73"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="71"/>
+      <c r="J110" s="72"/>
       <c r="K110" s="26" t="s">
         <v>25</v>
       </c>
@@ -6847,9 +6700,9 @@
       <c r="M110" s="26"/>
       <c r="N110" s="26"/>
       <c r="O110" s="26"/>
-      <c r="P110" s="73"/>
+      <c r="P110" s="72"/>
       <c r="Q110" s="26" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
@@ -6860,45 +6713,45 @@
       <c r="X110" s="26"/>
       <c r="Y110" s="26"/>
       <c r="Z110" s="26"/>
-      <c r="AA110" s="72"/>
-      <c r="AB110" s="72"/>
-      <c r="AC110" s="72"/>
-      <c r="AD110" s="72"/>
-      <c r="AE110" s="72"/>
-      <c r="AF110" s="72"/>
-      <c r="AG110" s="72"/>
-      <c r="AH110" s="96"/>
+      <c r="AA110" s="71"/>
+      <c r="AB110" s="71"/>
+      <c r="AC110" s="71"/>
+      <c r="AD110" s="71"/>
+      <c r="AE110" s="71"/>
+      <c r="AF110" s="71"/>
+      <c r="AG110" s="71"/>
+      <c r="AH110" s="95"/>
     </row>
     <row r="111" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F111" s="83"/>
-      <c r="G111" s="104"/>
-      <c r="H111" s="104"/>
-      <c r="I111" s="104"/>
-      <c r="J111" s="92"/>
-      <c r="K111" s="78"/>
-      <c r="L111" s="78"/>
-      <c r="M111" s="78"/>
-      <c r="N111" s="78"/>
-      <c r="O111" s="78"/>
-      <c r="P111" s="92"/>
-      <c r="Q111" s="78"/>
-      <c r="R111" s="78"/>
-      <c r="S111" s="78"/>
-      <c r="T111" s="78"/>
-      <c r="U111" s="78"/>
-      <c r="V111" s="78"/>
-      <c r="W111" s="78"/>
-      <c r="X111" s="78"/>
-      <c r="Y111" s="78"/>
-      <c r="Z111" s="78"/>
-      <c r="AA111" s="104"/>
-      <c r="AB111" s="104"/>
-      <c r="AC111" s="104"/>
-      <c r="AD111" s="104"/>
-      <c r="AE111" s="104"/>
-      <c r="AF111" s="104"/>
-      <c r="AG111" s="104"/>
-      <c r="AH111" s="105"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="103"/>
+      <c r="H111" s="103"/>
+      <c r="I111" s="103"/>
+      <c r="J111" s="91"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="77"/>
+      <c r="M111" s="77"/>
+      <c r="N111" s="77"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="91"/>
+      <c r="Q111" s="77"/>
+      <c r="R111" s="77"/>
+      <c r="S111" s="77"/>
+      <c r="T111" s="77"/>
+      <c r="U111" s="77"/>
+      <c r="V111" s="77"/>
+      <c r="W111" s="77"/>
+      <c r="X111" s="77"/>
+      <c r="Y111" s="77"/>
+      <c r="Z111" s="77"/>
+      <c r="AA111" s="103"/>
+      <c r="AB111" s="103"/>
+      <c r="AC111" s="103"/>
+      <c r="AD111" s="103"/>
+      <c r="AE111" s="103"/>
+      <c r="AF111" s="103"/>
+      <c r="AG111" s="103"/>
+      <c r="AH111" s="104"/>
     </row>
     <row r="112" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="19"/>
@@ -6943,10 +6796,10 @@
     </row>
     <row r="114" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F114" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G114" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="115" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6955,7 +6808,7 @@
       <c r="D115" s="36"/>
       <c r="E115" s="36"/>
       <c r="G115" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="AA115" s="41"/>
     </row>
@@ -7004,40 +6857,40 @@
       <c r="C117" s="36"/>
       <c r="D117" s="36"/>
       <c r="E117" s="36"/>
-      <c r="G117" s="71" t="s">
+      <c r="G117" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H117" s="101"/>
-      <c r="I117" s="101"/>
-      <c r="J117" s="103"/>
-      <c r="K117" s="101" t="s">
-        <v>231</v>
-      </c>
-      <c r="L117" s="101"/>
-      <c r="M117" s="101"/>
-      <c r="N117" s="101"/>
-      <c r="O117" s="103"/>
-      <c r="P117" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q117" s="101"/>
-      <c r="R117" s="101"/>
-      <c r="S117" s="101"/>
-      <c r="T117" s="101"/>
-      <c r="U117" s="101"/>
-      <c r="V117" s="101"/>
-      <c r="W117" s="101"/>
-      <c r="X117" s="101"/>
-      <c r="Y117" s="101"/>
-      <c r="Z117" s="101"/>
-      <c r="AA117" s="101"/>
-      <c r="AB117" s="101"/>
-      <c r="AC117" s="101"/>
-      <c r="AD117" s="101"/>
-      <c r="AE117" s="101"/>
-      <c r="AF117" s="101"/>
-      <c r="AG117" s="101"/>
-      <c r="AH117" s="103"/>
+      <c r="H117" s="100"/>
+      <c r="I117" s="100"/>
+      <c r="J117" s="102"/>
+      <c r="K117" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="L117" s="100"/>
+      <c r="M117" s="100"/>
+      <c r="N117" s="100"/>
+      <c r="O117" s="102"/>
+      <c r="P117" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q117" s="100"/>
+      <c r="R117" s="100"/>
+      <c r="S117" s="100"/>
+      <c r="T117" s="100"/>
+      <c r="U117" s="100"/>
+      <c r="V117" s="100"/>
+      <c r="W117" s="100"/>
+      <c r="X117" s="100"/>
+      <c r="Y117" s="100"/>
+      <c r="Z117" s="100"/>
+      <c r="AA117" s="100"/>
+      <c r="AB117" s="100"/>
+      <c r="AC117" s="100"/>
+      <c r="AD117" s="100"/>
+      <c r="AE117" s="100"/>
+      <c r="AF117" s="100"/>
+      <c r="AG117" s="100"/>
+      <c r="AH117" s="102"/>
       <c r="AI117" s="44"/>
     </row>
     <row r="118" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7045,216 +6898,216 @@
       <c r="C118" s="36"/>
       <c r="D118" s="36"/>
       <c r="E118" s="36"/>
-      <c r="G118" s="111"/>
-      <c r="H118" s="72"/>
-      <c r="I118" s="72"/>
-      <c r="J118" s="96"/>
-      <c r="K118" s="72"/>
-      <c r="L118" s="72"/>
-      <c r="M118" s="72"/>
-      <c r="N118" s="72"/>
-      <c r="O118" s="96"/>
+      <c r="G118" s="110"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71"/>
+      <c r="J118" s="95"/>
+      <c r="K118" s="71"/>
+      <c r="L118" s="71"/>
+      <c r="M118" s="71"/>
+      <c r="N118" s="71"/>
+      <c r="O118" s="95"/>
       <c r="P118" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="Q118" s="72"/>
-      <c r="R118" s="72"/>
-      <c r="S118" s="72"/>
-      <c r="T118" s="72"/>
-      <c r="U118" s="72"/>
-      <c r="V118" s="72"/>
-      <c r="W118" s="72"/>
-      <c r="X118" s="72"/>
-      <c r="Y118" s="72"/>
-      <c r="Z118" s="72"/>
-      <c r="AA118" s="72"/>
-      <c r="AB118" s="72"/>
-      <c r="AC118" s="72"/>
-      <c r="AD118" s="72"/>
-      <c r="AE118" s="72"/>
-      <c r="AF118" s="72"/>
-      <c r="AG118" s="72"/>
-      <c r="AH118" s="96"/>
+      <c r="Q118" s="71"/>
+      <c r="R118" s="71"/>
+      <c r="S118" s="71"/>
+      <c r="T118" s="71"/>
+      <c r="U118" s="71"/>
+      <c r="V118" s="71"/>
+      <c r="W118" s="71"/>
+      <c r="X118" s="71"/>
+      <c r="Y118" s="71"/>
+      <c r="Z118" s="71"/>
+      <c r="AA118" s="71"/>
+      <c r="AB118" s="71"/>
+      <c r="AC118" s="71"/>
+      <c r="AD118" s="71"/>
+      <c r="AE118" s="71"/>
+      <c r="AF118" s="71"/>
+      <c r="AG118" s="71"/>
+      <c r="AH118" s="95"/>
     </row>
     <row r="119" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
       <c r="D119" s="36"/>
       <c r="E119" s="36"/>
-      <c r="G119" s="83"/>
-      <c r="H119" s="104"/>
-      <c r="I119" s="104"/>
-      <c r="J119" s="105"/>
-      <c r="K119" s="104"/>
-      <c r="L119" s="104"/>
-      <c r="M119" s="104"/>
-      <c r="N119" s="104"/>
-      <c r="O119" s="105"/>
-      <c r="P119" s="104" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q119" s="104"/>
-      <c r="R119" s="104"/>
-      <c r="S119" s="104"/>
-      <c r="T119" s="104"/>
-      <c r="U119" s="104"/>
-      <c r="V119" s="104"/>
-      <c r="W119" s="104"/>
-      <c r="X119" s="104"/>
-      <c r="Y119" s="104"/>
-      <c r="Z119" s="104"/>
-      <c r="AA119" s="104"/>
-      <c r="AB119" s="104"/>
-      <c r="AC119" s="104"/>
-      <c r="AD119" s="104"/>
-      <c r="AE119" s="104"/>
-      <c r="AF119" s="104"/>
-      <c r="AG119" s="104"/>
-      <c r="AH119" s="105"/>
+      <c r="G119" s="82"/>
+      <c r="H119" s="103"/>
+      <c r="I119" s="103"/>
+      <c r="J119" s="104"/>
+      <c r="K119" s="103"/>
+      <c r="L119" s="103"/>
+      <c r="M119" s="103"/>
+      <c r="N119" s="103"/>
+      <c r="O119" s="104"/>
+      <c r="P119" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q119" s="103"/>
+      <c r="R119" s="103"/>
+      <c r="S119" s="103"/>
+      <c r="T119" s="103"/>
+      <c r="U119" s="103"/>
+      <c r="V119" s="103"/>
+      <c r="W119" s="103"/>
+      <c r="X119" s="103"/>
+      <c r="Y119" s="103"/>
+      <c r="Z119" s="103"/>
+      <c r="AA119" s="103"/>
+      <c r="AB119" s="103"/>
+      <c r="AC119" s="103"/>
+      <c r="AD119" s="103"/>
+      <c r="AE119" s="103"/>
+      <c r="AF119" s="103"/>
+      <c r="AG119" s="103"/>
+      <c r="AH119" s="104"/>
     </row>
     <row r="120" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G120" s="111" t="s">
+      <c r="G120" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="H120" s="72"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="96"/>
-      <c r="K120" s="72" t="s">
+      <c r="H120" s="71"/>
+      <c r="I120" s="71"/>
+      <c r="J120" s="95"/>
+      <c r="K120" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="L120" s="72"/>
-      <c r="M120" s="72"/>
-      <c r="N120" s="72"/>
-      <c r="O120" s="96"/>
-      <c r="P120" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q120" s="72"/>
-      <c r="R120" s="72"/>
-      <c r="S120" s="72"/>
-      <c r="T120" s="72"/>
-      <c r="U120" s="72"/>
-      <c r="V120" s="72"/>
-      <c r="W120" s="72"/>
-      <c r="X120" s="72"/>
-      <c r="Y120" s="72"/>
-      <c r="Z120" s="72"/>
-      <c r="AA120" s="72"/>
-      <c r="AB120" s="72"/>
-      <c r="AC120" s="72"/>
-      <c r="AD120" s="72"/>
-      <c r="AE120" s="72"/>
-      <c r="AF120" s="72"/>
-      <c r="AG120" s="72"/>
-      <c r="AH120" s="96"/>
+      <c r="L120" s="71"/>
+      <c r="M120" s="71"/>
+      <c r="N120" s="71"/>
+      <c r="O120" s="95"/>
+      <c r="P120" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q120" s="71"/>
+      <c r="R120" s="71"/>
+      <c r="S120" s="71"/>
+      <c r="T120" s="71"/>
+      <c r="U120" s="71"/>
+      <c r="V120" s="71"/>
+      <c r="W120" s="71"/>
+      <c r="X120" s="71"/>
+      <c r="Y120" s="71"/>
+      <c r="Z120" s="71"/>
+      <c r="AA120" s="71"/>
+      <c r="AB120" s="71"/>
+      <c r="AC120" s="71"/>
+      <c r="AD120" s="71"/>
+      <c r="AE120" s="71"/>
+      <c r="AF120" s="71"/>
+      <c r="AG120" s="71"/>
+      <c r="AH120" s="95"/>
     </row>
     <row r="121" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G121" s="83"/>
-      <c r="H121" s="104"/>
-      <c r="I121" s="104"/>
-      <c r="J121" s="105"/>
-      <c r="K121" s="104"/>
-      <c r="L121" s="104"/>
-      <c r="M121" s="104"/>
-      <c r="N121" s="104"/>
-      <c r="O121" s="105"/>
-      <c r="P121" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q121" s="104"/>
-      <c r="R121" s="104"/>
-      <c r="S121" s="104"/>
-      <c r="T121" s="104"/>
-      <c r="U121" s="104"/>
-      <c r="V121" s="104"/>
-      <c r="W121" s="104"/>
-      <c r="X121" s="104"/>
-      <c r="Y121" s="104"/>
-      <c r="Z121" s="104"/>
-      <c r="AA121" s="104"/>
-      <c r="AB121" s="104"/>
-      <c r="AC121" s="104"/>
-      <c r="AD121" s="104"/>
-      <c r="AE121" s="104"/>
-      <c r="AF121" s="104"/>
-      <c r="AG121" s="104"/>
-      <c r="AH121" s="105"/>
+      <c r="G121" s="82"/>
+      <c r="H121" s="103"/>
+      <c r="I121" s="103"/>
+      <c r="J121" s="104"/>
+      <c r="K121" s="103"/>
+      <c r="L121" s="103"/>
+      <c r="M121" s="103"/>
+      <c r="N121" s="103"/>
+      <c r="O121" s="104"/>
+      <c r="P121" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q121" s="103"/>
+      <c r="R121" s="103"/>
+      <c r="S121" s="103"/>
+      <c r="T121" s="103"/>
+      <c r="U121" s="103"/>
+      <c r="V121" s="103"/>
+      <c r="W121" s="103"/>
+      <c r="X121" s="103"/>
+      <c r="Y121" s="103"/>
+      <c r="Z121" s="103"/>
+      <c r="AA121" s="103"/>
+      <c r="AB121" s="103"/>
+      <c r="AC121" s="103"/>
+      <c r="AD121" s="103"/>
+      <c r="AE121" s="103"/>
+      <c r="AF121" s="103"/>
+      <c r="AG121" s="103"/>
+      <c r="AH121" s="104"/>
     </row>
     <row r="122" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G122" s="111" t="s">
+      <c r="G122" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H122" s="72"/>
-      <c r="I122" s="72"/>
-      <c r="J122" s="96"/>
-      <c r="K122" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="L122" s="72"/>
-      <c r="M122" s="72"/>
-      <c r="N122" s="72"/>
-      <c r="O122" s="96"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="71"/>
+      <c r="J122" s="95"/>
+      <c r="K122" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="L122" s="71"/>
+      <c r="M122" s="71"/>
+      <c r="N122" s="71"/>
+      <c r="O122" s="95"/>
       <c r="P122" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q122" s="72"/>
-      <c r="R122" s="72"/>
-      <c r="S122" s="72"/>
-      <c r="T122" s="72"/>
-      <c r="U122" s="72"/>
-      <c r="V122" s="72"/>
-      <c r="W122" s="72"/>
-      <c r="X122" s="72"/>
-      <c r="Y122" s="72"/>
-      <c r="Z122" s="72"/>
-      <c r="AA122" s="72"/>
-      <c r="AB122" s="72"/>
-      <c r="AC122" s="72"/>
-      <c r="AD122" s="72"/>
-      <c r="AE122" s="72"/>
-      <c r="AF122" s="72"/>
-      <c r="AG122" s="72"/>
-      <c r="AH122" s="96"/>
+        <v>211</v>
+      </c>
+      <c r="Q122" s="71"/>
+      <c r="R122" s="71"/>
+      <c r="S122" s="71"/>
+      <c r="T122" s="71"/>
+      <c r="U122" s="71"/>
+      <c r="V122" s="71"/>
+      <c r="W122" s="71"/>
+      <c r="X122" s="71"/>
+      <c r="Y122" s="71"/>
+      <c r="Z122" s="71"/>
+      <c r="AA122" s="71"/>
+      <c r="AB122" s="71"/>
+      <c r="AC122" s="71"/>
+      <c r="AD122" s="71"/>
+      <c r="AE122" s="71"/>
+      <c r="AF122" s="71"/>
+      <c r="AG122" s="71"/>
+      <c r="AH122" s="95"/>
     </row>
     <row r="123" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G123" s="83" t="s">
+      <c r="G123" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="H123" s="104"/>
-      <c r="I123" s="104"/>
-      <c r="J123" s="105"/>
-      <c r="K123" s="104"/>
-      <c r="L123" s="104"/>
-      <c r="M123" s="104"/>
-      <c r="N123" s="104"/>
-      <c r="O123" s="105"/>
-      <c r="P123" s="104"/>
-      <c r="Q123" s="104"/>
-      <c r="R123" s="104"/>
-      <c r="S123" s="104"/>
-      <c r="T123" s="104"/>
-      <c r="U123" s="104"/>
-      <c r="V123" s="104"/>
-      <c r="W123" s="104"/>
-      <c r="X123" s="104"/>
-      <c r="Y123" s="104"/>
-      <c r="Z123" s="104"/>
-      <c r="AA123" s="104"/>
-      <c r="AB123" s="104"/>
-      <c r="AC123" s="104"/>
-      <c r="AD123" s="104"/>
-      <c r="AE123" s="104"/>
-      <c r="AF123" s="104"/>
-      <c r="AG123" s="104"/>
-      <c r="AH123" s="105"/>
+      <c r="H123" s="103"/>
+      <c r="I123" s="103"/>
+      <c r="J123" s="104"/>
+      <c r="K123" s="103"/>
+      <c r="L123" s="103"/>
+      <c r="M123" s="103"/>
+      <c r="N123" s="103"/>
+      <c r="O123" s="104"/>
+      <c r="P123" s="103"/>
+      <c r="Q123" s="103"/>
+      <c r="R123" s="103"/>
+      <c r="S123" s="103"/>
+      <c r="T123" s="103"/>
+      <c r="U123" s="103"/>
+      <c r="V123" s="103"/>
+      <c r="W123" s="103"/>
+      <c r="X123" s="103"/>
+      <c r="Y123" s="103"/>
+      <c r="Z123" s="103"/>
+      <c r="AA123" s="103"/>
+      <c r="AB123" s="103"/>
+      <c r="AC123" s="103"/>
+      <c r="AD123" s="103"/>
+      <c r="AE123" s="103"/>
+      <c r="AF123" s="103"/>
+      <c r="AG123" s="103"/>
+      <c r="AH123" s="104"/>
     </row>
     <row r="124" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="125" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F125" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7263,7 +7116,7 @@
       <c r="D126" s="36"/>
       <c r="E126" s="36"/>
       <c r="G126" s="41" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7311,40 +7164,40 @@
       <c r="C128" s="36"/>
       <c r="D128" s="36"/>
       <c r="E128" s="36"/>
-      <c r="G128" s="71" t="s">
+      <c r="G128" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H128" s="101"/>
-      <c r="I128" s="101"/>
-      <c r="J128" s="103"/>
-      <c r="K128" s="101" t="s">
-        <v>297</v>
-      </c>
-      <c r="L128" s="101"/>
-      <c r="M128" s="101"/>
-      <c r="N128" s="101"/>
-      <c r="O128" s="103"/>
-      <c r="P128" s="101" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q128" s="101"/>
-      <c r="R128" s="101"/>
-      <c r="S128" s="101"/>
-      <c r="T128" s="101"/>
-      <c r="U128" s="101"/>
-      <c r="V128" s="101"/>
-      <c r="W128" s="101"/>
-      <c r="X128" s="101"/>
-      <c r="Y128" s="101"/>
-      <c r="Z128" s="101"/>
-      <c r="AA128" s="101"/>
-      <c r="AB128" s="101"/>
-      <c r="AC128" s="101"/>
-      <c r="AD128" s="101"/>
-      <c r="AE128" s="101"/>
-      <c r="AF128" s="101"/>
-      <c r="AG128" s="101"/>
-      <c r="AH128" s="103"/>
+      <c r="H128" s="100"/>
+      <c r="I128" s="100"/>
+      <c r="J128" s="102"/>
+      <c r="K128" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="L128" s="100"/>
+      <c r="M128" s="100"/>
+      <c r="N128" s="100"/>
+      <c r="O128" s="102"/>
+      <c r="P128" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q128" s="100"/>
+      <c r="R128" s="100"/>
+      <c r="S128" s="100"/>
+      <c r="T128" s="100"/>
+      <c r="U128" s="100"/>
+      <c r="V128" s="100"/>
+      <c r="W128" s="100"/>
+      <c r="X128" s="100"/>
+      <c r="Y128" s="100"/>
+      <c r="Z128" s="100"/>
+      <c r="AA128" s="100"/>
+      <c r="AB128" s="100"/>
+      <c r="AC128" s="100"/>
+      <c r="AD128" s="100"/>
+      <c r="AE128" s="100"/>
+      <c r="AF128" s="100"/>
+      <c r="AG128" s="100"/>
+      <c r="AH128" s="102"/>
       <c r="AI128" s="44"/>
     </row>
     <row r="129" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7352,134 +7205,134 @@
       <c r="C129" s="36"/>
       <c r="D129" s="36"/>
       <c r="E129" s="36"/>
-      <c r="G129" s="83"/>
-      <c r="H129" s="104"/>
-      <c r="I129" s="104"/>
-      <c r="J129" s="105"/>
-      <c r="K129" s="104"/>
-      <c r="L129" s="104"/>
-      <c r="M129" s="104"/>
-      <c r="N129" s="104"/>
-      <c r="O129" s="105"/>
-      <c r="P129" s="104"/>
-      <c r="Q129" s="104"/>
-      <c r="R129" s="104"/>
-      <c r="S129" s="104"/>
-      <c r="T129" s="104"/>
-      <c r="U129" s="104"/>
-      <c r="V129" s="104"/>
-      <c r="W129" s="104"/>
-      <c r="X129" s="104"/>
-      <c r="Y129" s="104"/>
-      <c r="Z129" s="104"/>
-      <c r="AA129" s="104"/>
-      <c r="AB129" s="104"/>
-      <c r="AC129" s="104"/>
-      <c r="AD129" s="104"/>
-      <c r="AE129" s="104"/>
-      <c r="AF129" s="104"/>
-      <c r="AG129" s="104"/>
-      <c r="AH129" s="105"/>
+      <c r="G129" s="82"/>
+      <c r="H129" s="103"/>
+      <c r="I129" s="103"/>
+      <c r="J129" s="104"/>
+      <c r="K129" s="103"/>
+      <c r="L129" s="103"/>
+      <c r="M129" s="103"/>
+      <c r="N129" s="103"/>
+      <c r="O129" s="104"/>
+      <c r="P129" s="103"/>
+      <c r="Q129" s="103"/>
+      <c r="R129" s="103"/>
+      <c r="S129" s="103"/>
+      <c r="T129" s="103"/>
+      <c r="U129" s="103"/>
+      <c r="V129" s="103"/>
+      <c r="W129" s="103"/>
+      <c r="X129" s="103"/>
+      <c r="Y129" s="103"/>
+      <c r="Z129" s="103"/>
+      <c r="AA129" s="103"/>
+      <c r="AB129" s="103"/>
+      <c r="AC129" s="103"/>
+      <c r="AD129" s="103"/>
+      <c r="AE129" s="103"/>
+      <c r="AF129" s="103"/>
+      <c r="AG129" s="103"/>
+      <c r="AH129" s="104"/>
     </row>
     <row r="130" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G130" s="111" t="s">
+      <c r="G130" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="H130" s="72"/>
-      <c r="I130" s="72"/>
-      <c r="J130" s="96"/>
-      <c r="K130" s="72" t="s">
-        <v>299</v>
-      </c>
-      <c r="L130" s="72"/>
-      <c r="M130" s="72"/>
-      <c r="N130" s="72"/>
-      <c r="O130" s="96"/>
-      <c r="P130" s="72" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q130" s="72"/>
-      <c r="R130" s="72"/>
-      <c r="S130" s="72"/>
-      <c r="T130" s="72"/>
-      <c r="U130" s="72"/>
-      <c r="V130" s="72"/>
-      <c r="W130" s="72"/>
-      <c r="X130" s="72"/>
-      <c r="Y130" s="72"/>
-      <c r="Z130" s="72"/>
-      <c r="AA130" s="72"/>
-      <c r="AB130" s="72"/>
-      <c r="AC130" s="72"/>
-      <c r="AD130" s="72"/>
-      <c r="AE130" s="72"/>
-      <c r="AF130" s="72"/>
-      <c r="AG130" s="72"/>
-      <c r="AH130" s="96"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="71"/>
+      <c r="J130" s="95"/>
+      <c r="K130" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="L130" s="71"/>
+      <c r="M130" s="71"/>
+      <c r="N130" s="71"/>
+      <c r="O130" s="95"/>
+      <c r="P130" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q130" s="71"/>
+      <c r="R130" s="71"/>
+      <c r="S130" s="71"/>
+      <c r="T130" s="71"/>
+      <c r="U130" s="71"/>
+      <c r="V130" s="71"/>
+      <c r="W130" s="71"/>
+      <c r="X130" s="71"/>
+      <c r="Y130" s="71"/>
+      <c r="Z130" s="71"/>
+      <c r="AA130" s="71"/>
+      <c r="AB130" s="71"/>
+      <c r="AC130" s="71"/>
+      <c r="AD130" s="71"/>
+      <c r="AE130" s="71"/>
+      <c r="AF130" s="71"/>
+      <c r="AG130" s="71"/>
+      <c r="AH130" s="95"/>
     </row>
     <row r="131" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G131" s="111"/>
-      <c r="H131" s="72"/>
-      <c r="I131" s="72"/>
-      <c r="J131" s="96"/>
-      <c r="K131" s="72" t="s">
-        <v>300</v>
-      </c>
-      <c r="L131" s="72"/>
-      <c r="M131" s="72"/>
-      <c r="N131" s="72"/>
-      <c r="O131" s="96"/>
-      <c r="P131" s="72" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q131" s="72"/>
-      <c r="R131" s="72"/>
-      <c r="S131" s="72"/>
-      <c r="T131" s="72"/>
-      <c r="U131" s="72"/>
-      <c r="V131" s="72"/>
-      <c r="W131" s="72"/>
-      <c r="X131" s="72"/>
-      <c r="Y131" s="72"/>
-      <c r="Z131" s="72"/>
-      <c r="AA131" s="72"/>
-      <c r="AB131" s="72"/>
-      <c r="AC131" s="72"/>
-      <c r="AD131" s="72"/>
-      <c r="AE131" s="72"/>
-      <c r="AF131" s="72"/>
-      <c r="AG131" s="72"/>
-      <c r="AH131" s="96"/>
+      <c r="G131" s="110"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="71"/>
+      <c r="J131" s="95"/>
+      <c r="K131" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="L131" s="71"/>
+      <c r="M131" s="71"/>
+      <c r="N131" s="71"/>
+      <c r="O131" s="95"/>
+      <c r="P131" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q131" s="71"/>
+      <c r="R131" s="71"/>
+      <c r="S131" s="71"/>
+      <c r="T131" s="71"/>
+      <c r="U131" s="71"/>
+      <c r="V131" s="71"/>
+      <c r="W131" s="71"/>
+      <c r="X131" s="71"/>
+      <c r="Y131" s="71"/>
+      <c r="Z131" s="71"/>
+      <c r="AA131" s="71"/>
+      <c r="AB131" s="71"/>
+      <c r="AC131" s="71"/>
+      <c r="AD131" s="71"/>
+      <c r="AE131" s="71"/>
+      <c r="AF131" s="71"/>
+      <c r="AG131" s="71"/>
+      <c r="AH131" s="95"/>
     </row>
     <row r="132" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G132" s="83"/>
-      <c r="H132" s="104"/>
-      <c r="I132" s="104"/>
-      <c r="J132" s="105"/>
-      <c r="K132" s="104"/>
-      <c r="L132" s="104"/>
-      <c r="M132" s="104"/>
-      <c r="N132" s="104"/>
-      <c r="O132" s="105"/>
-      <c r="P132" s="104"/>
-      <c r="Q132" s="104"/>
-      <c r="R132" s="104"/>
-      <c r="S132" s="104"/>
-      <c r="T132" s="104"/>
-      <c r="U132" s="104"/>
-      <c r="V132" s="104"/>
-      <c r="W132" s="104"/>
-      <c r="X132" s="104"/>
-      <c r="Y132" s="104"/>
-      <c r="Z132" s="104"/>
-      <c r="AA132" s="104"/>
-      <c r="AB132" s="104"/>
-      <c r="AC132" s="104"/>
-      <c r="AD132" s="104"/>
-      <c r="AE132" s="104"/>
-      <c r="AF132" s="104"/>
-      <c r="AG132" s="104"/>
-      <c r="AH132" s="105"/>
+      <c r="G132" s="82"/>
+      <c r="H132" s="103"/>
+      <c r="I132" s="103"/>
+      <c r="J132" s="104"/>
+      <c r="K132" s="103"/>
+      <c r="L132" s="103"/>
+      <c r="M132" s="103"/>
+      <c r="N132" s="103"/>
+      <c r="O132" s="104"/>
+      <c r="P132" s="103"/>
+      <c r="Q132" s="103"/>
+      <c r="R132" s="103"/>
+      <c r="S132" s="103"/>
+      <c r="T132" s="103"/>
+      <c r="U132" s="103"/>
+      <c r="V132" s="103"/>
+      <c r="W132" s="103"/>
+      <c r="X132" s="103"/>
+      <c r="Y132" s="103"/>
+      <c r="Z132" s="103"/>
+      <c r="AA132" s="103"/>
+      <c r="AB132" s="103"/>
+      <c r="AC132" s="103"/>
+      <c r="AD132" s="103"/>
+      <c r="AE132" s="103"/>
+      <c r="AF132" s="103"/>
+      <c r="AG132" s="103"/>
+      <c r="AH132" s="104"/>
     </row>
     <row r="133" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="134" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7554,7 +7407,7 @@
       <c r="D136" s="29"/>
       <c r="E136" s="29"/>
       <c r="F136" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G136" s="29"/>
       <c r="H136" s="29"/>
@@ -7584,7 +7437,7 @@
       <c r="D137" s="29"/>
       <c r="E137" s="29"/>
       <c r="F137" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G137" s="29"/>
       <c r="H137" s="29"/>
@@ -7614,10 +7467,10 @@
       <c r="D138" s="29"/>
       <c r="E138" s="29"/>
       <c r="F138" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G138" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H138" s="29"/>
       <c r="I138" s="29"/>
@@ -7646,10 +7499,10 @@
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
       <c r="F139" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="G139" s="29" t="s">
         <v>78</v>
-      </c>
-      <c r="G139" s="29" t="s">
-        <v>79</v>
       </c>
       <c r="H139" s="29"/>
       <c r="I139" s="29"/>
@@ -7678,10 +7531,10 @@
       <c r="D140" s="29"/>
       <c r="E140" s="29"/>
       <c r="F140" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G140" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H140" s="29"/>
       <c r="I140" s="29"/>
@@ -7710,10 +7563,10 @@
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
       <c r="F141" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G141" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H141" s="29"/>
       <c r="I141" s="29"/>
@@ -7742,10 +7595,10 @@
       <c r="D142" s="29"/>
       <c r="E142" s="29"/>
       <c r="F142" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
@@ -7805,7 +7658,7 @@
         <v>3.1.8.2.</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G144" s="29"/>
       <c r="H144" s="29"/>
@@ -7835,7 +7688,7 @@
       <c r="D145" s="29"/>
       <c r="E145" s="29"/>
       <c r="F145" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G145" s="29"/>
       <c r="H145" s="29"/>
@@ -7893,7 +7746,7 @@
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
       <c r="F147" s="62" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
@@ -7901,13 +7754,13 @@
       <c r="J147" s="38"/>
       <c r="K147" s="37"/>
       <c r="L147" s="62" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
       <c r="O147" s="37"/>
       <c r="P147" s="38" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="Q147" s="38"/>
       <c r="R147" s="38"/>
@@ -7932,81 +7785,81 @@
       <c r="C148" s="29"/>
       <c r="D148" s="29"/>
       <c r="E148" s="29"/>
-      <c r="F148" s="99" t="s">
+      <c r="F148" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="G148" s="100"/>
-      <c r="H148" s="100"/>
-      <c r="I148" s="100"/>
-      <c r="J148" s="100"/>
-      <c r="K148" s="100"/>
-      <c r="L148" s="99" t="s">
-        <v>262</v>
-      </c>
-      <c r="M148" s="100"/>
-      <c r="N148" s="100"/>
-      <c r="O148" s="102"/>
+      <c r="G148" s="99"/>
+      <c r="H148" s="99"/>
+      <c r="I148" s="99"/>
+      <c r="J148" s="99"/>
+      <c r="K148" s="99"/>
+      <c r="L148" s="98" t="s">
+        <v>239</v>
+      </c>
+      <c r="M148" s="99"/>
+      <c r="N148" s="99"/>
+      <c r="O148" s="101"/>
       <c r="P148" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q148" s="100"/>
-      <c r="R148" s="100"/>
-      <c r="S148" s="100"/>
-      <c r="T148" s="100"/>
-      <c r="U148" s="100"/>
-      <c r="V148" s="100"/>
-      <c r="W148" s="100"/>
-      <c r="X148" s="100"/>
-      <c r="Y148" s="100"/>
-      <c r="Z148" s="100"/>
-      <c r="AA148" s="100"/>
-      <c r="AB148" s="100"/>
-      <c r="AC148" s="101"/>
-      <c r="AD148" s="101"/>
-      <c r="AE148" s="101"/>
-      <c r="AF148" s="101"/>
-      <c r="AG148" s="101"/>
-      <c r="AH148" s="103"/>
+        <v>306</v>
+      </c>
+      <c r="Q148" s="99"/>
+      <c r="R148" s="99"/>
+      <c r="S148" s="99"/>
+      <c r="T148" s="99"/>
+      <c r="U148" s="99"/>
+      <c r="V148" s="99"/>
+      <c r="W148" s="99"/>
+      <c r="X148" s="99"/>
+      <c r="Y148" s="99"/>
+      <c r="Z148" s="99"/>
+      <c r="AA148" s="99"/>
+      <c r="AB148" s="99"/>
+      <c r="AC148" s="100"/>
+      <c r="AD148" s="100"/>
+      <c r="AE148" s="100"/>
+      <c r="AF148" s="100"/>
+      <c r="AG148" s="100"/>
+      <c r="AH148" s="102"/>
     </row>
     <row r="149" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="29"/>
       <c r="D149" s="29"/>
       <c r="E149" s="29"/>
-      <c r="F149" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="G149" s="95"/>
-      <c r="H149" s="95"/>
-      <c r="I149" s="95"/>
-      <c r="J149" s="95"/>
-      <c r="K149" s="95"/>
-      <c r="L149" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="M149" s="95"/>
-      <c r="N149" s="95"/>
-      <c r="O149" s="74"/>
-      <c r="P149" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q149" s="95"/>
-      <c r="R149" s="95"/>
-      <c r="S149" s="95"/>
-      <c r="T149" s="95"/>
-      <c r="U149" s="95"/>
-      <c r="V149" s="95"/>
-      <c r="W149" s="95"/>
-      <c r="X149" s="95"/>
-      <c r="Y149" s="95"/>
-      <c r="Z149" s="95"/>
-      <c r="AA149" s="95"/>
-      <c r="AB149" s="95"/>
-      <c r="AC149" s="70"/>
-      <c r="AD149" s="70"/>
-      <c r="AE149" s="70"/>
-      <c r="AF149" s="70"/>
-      <c r="AG149" s="70"/>
-      <c r="AH149" s="98"/>
+      <c r="F149" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="G149" s="94"/>
+      <c r="H149" s="94"/>
+      <c r="I149" s="94"/>
+      <c r="J149" s="94"/>
+      <c r="K149" s="94"/>
+      <c r="L149" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="M149" s="94"/>
+      <c r="N149" s="94"/>
+      <c r="O149" s="73"/>
+      <c r="P149" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q149" s="94"/>
+      <c r="R149" s="94"/>
+      <c r="S149" s="94"/>
+      <c r="T149" s="94"/>
+      <c r="U149" s="94"/>
+      <c r="V149" s="94"/>
+      <c r="W149" s="94"/>
+      <c r="X149" s="94"/>
+      <c r="Y149" s="94"/>
+      <c r="Z149" s="94"/>
+      <c r="AA149" s="94"/>
+      <c r="AB149" s="94"/>
+      <c r="AC149" s="69"/>
+      <c r="AD149" s="69"/>
+      <c r="AE149" s="69"/>
+      <c r="AF149" s="69"/>
+      <c r="AG149" s="69"/>
+      <c r="AH149" s="97"/>
     </row>
     <row r="150" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="29"/>
@@ -8072,12 +7925,12 @@
     <row r="152" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C152" s="29"/>
       <c r="D152" s="29"/>
-      <c r="E152" s="79"/>
+      <c r="E152" s="78"/>
       <c r="F152" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G152" s="76" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="G152" s="75" t="s">
+        <v>82</v>
       </c>
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
@@ -8104,10 +7957,10 @@
     <row r="153" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C153" s="29"/>
       <c r="D153" s="29"/>
-      <c r="E153" s="79"/>
+      <c r="E153" s="78"/>
       <c r="F153" s="24"/>
       <c r="G153" s="29" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
@@ -8134,10 +7987,10 @@
     <row r="154" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C154" s="29"/>
       <c r="D154" s="29"/>
-      <c r="E154" s="79"/>
+      <c r="E154" s="78"/>
       <c r="F154" s="24"/>
       <c r="G154" s="29" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="H154" s="29"/>
       <c r="I154" s="29"/>
@@ -8164,10 +8017,10 @@
     <row r="155" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C155" s="29"/>
       <c r="D155" s="29"/>
-      <c r="E155" s="79"/>
+      <c r="E155" s="78"/>
       <c r="F155" s="24"/>
       <c r="G155" s="65" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
@@ -8194,10 +8047,10 @@
     <row r="156" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C156" s="29"/>
       <c r="D156" s="29"/>
-      <c r="E156" s="79"/>
+      <c r="E156" s="78"/>
       <c r="F156" s="24"/>
       <c r="G156" s="65" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
@@ -8224,7 +8077,7 @@
     <row r="157" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C157" s="29"/>
       <c r="D157" s="29"/>
-      <c r="E157" s="79"/>
+      <c r="E157" s="78"/>
       <c r="F157" s="24"/>
       <c r="G157" s="65"/>
       <c r="H157" s="29"/>
@@ -8253,9 +8106,9 @@
       <c r="A158" s="41"/>
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
-      <c r="E158" s="76"/>
+      <c r="E158" s="75"/>
       <c r="F158" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G158" s="66" t="str">
         <f>G138</f>
@@ -8287,7 +8140,7 @@
       <c r="A159" s="41"/>
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
-      <c r="E159" s="76"/>
+      <c r="E159" s="75"/>
       <c r="F159" s="29"/>
       <c r="G159" s="62" t="str">
         <f>G158</f>
@@ -8329,7 +8182,7 @@
       <c r="A160" s="41"/>
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
-      <c r="E160" s="76"/>
+      <c r="E160" s="75"/>
       <c r="F160" s="29"/>
       <c r="G160" s="30" t="str">
         <f>F148</f>
@@ -8347,7 +8200,7 @@
       <c r="O160" s="55"/>
       <c r="P160" s="31"/>
       <c r="Q160" s="26" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="R160" s="55"/>
       <c r="S160" s="55"/>
@@ -8371,7 +8224,7 @@
       <c r="A161" s="41"/>
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
-      <c r="E161" s="76"/>
+      <c r="E161" s="75"/>
       <c r="F161" s="29"/>
       <c r="G161" s="56" t="str">
         <f>F149</f>
@@ -8389,7 +8242,7 @@
       <c r="O161" s="57"/>
       <c r="P161" s="58"/>
       <c r="Q161" s="57" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="R161" s="57"/>
       <c r="S161" s="57"/>
@@ -8413,7 +8266,7 @@
       <c r="A162" s="41"/>
       <c r="C162" s="29"/>
       <c r="D162" s="29"/>
-      <c r="E162" s="76"/>
+      <c r="E162" s="75"/>
       <c r="F162" s="29"/>
       <c r="G162" s="55"/>
       <c r="H162" s="55"/>
@@ -8447,9 +8300,9 @@
     <row r="163" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C163" s="29"/>
       <c r="D163" s="29"/>
-      <c r="E163" s="76"/>
+      <c r="E163" s="75"/>
       <c r="F163" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G163" s="29" t="str">
         <f>G139</f>
@@ -8480,7 +8333,7 @@
     <row r="164" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
-      <c r="E164" s="76"/>
+      <c r="E164" s="75"/>
       <c r="F164" s="29"/>
       <c r="G164" s="62" t="s">
         <v>23</v>
@@ -8520,7 +8373,7 @@
     <row r="165" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C165" s="29"/>
       <c r="D165" s="29"/>
-      <c r="E165" s="76"/>
+      <c r="E165" s="75"/>
       <c r="F165" s="29"/>
       <c r="G165" s="32" t="str">
         <f>F149</f>
@@ -8537,8 +8390,8 @@
       <c r="N165" s="33"/>
       <c r="O165" s="33"/>
       <c r="P165" s="34"/>
-      <c r="Q165" s="78" t="s">
-        <v>287</v>
+      <c r="Q165" s="77" t="s">
+        <v>264</v>
       </c>
       <c r="R165" s="33"/>
       <c r="S165" s="33"/>
@@ -8561,7 +8414,7 @@
     <row r="166" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C166" s="29"/>
       <c r="D166" s="29"/>
-      <c r="E166" s="76"/>
+      <c r="E166" s="75"/>
       <c r="F166" s="29"/>
       <c r="G166" s="29"/>
       <c r="H166" s="29"/>
@@ -8589,9 +8442,9 @@
     <row r="167" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C167" s="29"/>
       <c r="D167" s="29"/>
-      <c r="E167" s="76"/>
+      <c r="E167" s="75"/>
       <c r="F167" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G167" s="29" t="str">
         <f>G140</f>
@@ -8622,7 +8475,7 @@
     <row r="168" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C168" s="29"/>
       <c r="D168" s="29"/>
-      <c r="E168" s="76"/>
+      <c r="E168" s="75"/>
       <c r="F168" s="29"/>
       <c r="G168" s="62" t="s">
         <v>23</v>
@@ -8673,7 +8526,7 @@
       <c r="J169" s="39"/>
       <c r="K169" s="40"/>
       <c r="L169" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M169" s="39"/>
       <c r="N169" s="39"/>
@@ -8683,7 +8536,7 @@
       <c r="R169" s="39"/>
       <c r="S169" s="40"/>
       <c r="T169" s="35" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="U169" s="39"/>
       <c r="V169" s="39"/>
@@ -8703,7 +8556,7 @@
     <row r="170" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C170" s="29"/>
       <c r="D170" s="29"/>
-      <c r="E170" s="76"/>
+      <c r="E170" s="75"/>
       <c r="F170" s="29"/>
       <c r="G170" s="30"/>
       <c r="H170" s="55"/>
@@ -8711,7 +8564,7 @@
       <c r="J170" s="55"/>
       <c r="K170" s="31"/>
       <c r="L170" s="55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M170" s="55"/>
       <c r="N170" s="55"/>
@@ -8721,7 +8574,7 @@
       <c r="R170" s="55"/>
       <c r="S170" s="31"/>
       <c r="T170" s="30" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="U170" s="55"/>
       <c r="V170" s="55"/>
@@ -8741,7 +8594,7 @@
     <row r="171" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C171" s="29"/>
       <c r="D171" s="29"/>
-      <c r="E171" s="76"/>
+      <c r="E171" s="75"/>
       <c r="F171" s="29"/>
       <c r="G171" s="32"/>
       <c r="H171" s="33"/>
@@ -8757,7 +8610,7 @@
       <c r="R171" s="33"/>
       <c r="S171" s="34"/>
       <c r="T171" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U171" s="33"/>
       <c r="V171" s="33"/>
@@ -8777,7 +8630,7 @@
     <row r="172" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C172" s="29"/>
       <c r="D172" s="29"/>
-      <c r="E172" s="76"/>
+      <c r="E172" s="75"/>
       <c r="F172" s="29"/>
       <c r="G172" s="55"/>
       <c r="H172" s="55"/>
@@ -8811,9 +8664,9 @@
     <row r="173" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C173" s="29"/>
       <c r="D173" s="29"/>
-      <c r="E173" s="76"/>
+      <c r="E173" s="75"/>
       <c r="F173" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G173" s="55" t="str">
         <f>G141</f>
@@ -8850,10 +8703,10 @@
     <row r="174" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C174" s="29"/>
       <c r="D174" s="29"/>
-      <c r="E174" s="76"/>
+      <c r="E174" s="75"/>
       <c r="F174" s="29"/>
       <c r="G174" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H174" s="55"/>
       <c r="I174" s="55"/>
@@ -8886,7 +8739,7 @@
     <row r="175" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C175" s="29"/>
       <c r="D175" s="29"/>
-      <c r="E175" s="76"/>
+      <c r="E175" s="75"/>
       <c r="F175" s="29"/>
       <c r="G175" s="55"/>
       <c r="H175" s="55"/>
@@ -8920,9 +8773,9 @@
     <row r="176" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C176" s="29"/>
       <c r="D176" s="29"/>
-      <c r="E176" s="76"/>
+      <c r="E176" s="75"/>
       <c r="F176" s="24" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="G176" s="55" t="str">
         <f>G142</f>
@@ -8959,10 +8812,10 @@
     <row r="177" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C177" s="29"/>
       <c r="D177" s="29"/>
-      <c r="E177" s="76"/>
+      <c r="E177" s="75"/>
       <c r="F177" s="29"/>
       <c r="G177" s="55" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
@@ -8995,10 +8848,10 @@
     <row r="178" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C178" s="29"/>
       <c r="D178" s="29"/>
-      <c r="E178" s="76"/>
+      <c r="E178" s="75"/>
       <c r="F178" s="29"/>
       <c r="G178" s="29" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -9025,10 +8878,10 @@
     <row r="179" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C179" s="29"/>
       <c r="D179" s="29"/>
-      <c r="E179" s="76"/>
+      <c r="E179" s="75"/>
       <c r="F179" s="29"/>
       <c r="G179" s="29" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -9084,7 +8937,7 @@
       <c r="A181" s="29"/>
       <c r="B181" s="29"/>
       <c r="C181" s="29"/>
-      <c r="D181" s="79" t="str">
+      <c r="D181" s="78" t="str">
         <f>$C$7&amp;"9."</f>
         <v>3.1.9.</v>
       </c>
@@ -9131,8 +8984,8 @@
         <f>D181&amp;"1."</f>
         <v>3.1.9.1.</v>
       </c>
-      <c r="F182" s="76" t="s">
-        <v>175</v>
+      <c r="F182" s="75" t="s">
+        <v>152</v>
       </c>
       <c r="G182" s="29"/>
       <c r="H182" s="29"/>
@@ -9170,8 +9023,8 @@
       <c r="C183" s="29"/>
       <c r="D183" s="29"/>
       <c r="E183" s="24"/>
-      <c r="F183" s="76" t="s">
-        <v>176</v>
+      <c r="F183" s="75" t="s">
+        <v>153</v>
       </c>
       <c r="G183" s="29"/>
       <c r="H183" s="29"/>
@@ -9246,11 +9099,11 @@
       <c r="C185" s="29"/>
       <c r="D185" s="29"/>
       <c r="E185" s="29"/>
-      <c r="F185" s="79" t="s">
-        <v>120</v>
+      <c r="F185" s="78" t="s">
+        <v>99</v>
       </c>
       <c r="G185" s="66" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="H185" s="29"/>
       <c r="I185" s="29"/>
@@ -9289,7 +9142,7 @@
       <c r="E186" s="29"/>
       <c r="F186" s="29"/>
       <c r="G186" s="66" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="H186" s="29"/>
       <c r="I186" s="29"/>
@@ -9328,7 +9181,7 @@
       <c r="E187" s="29"/>
       <c r="F187" s="29"/>
       <c r="G187" s="66" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H187" s="29"/>
       <c r="I187" s="29"/>
@@ -9367,7 +9220,7 @@
       <c r="E188" s="29"/>
       <c r="F188" s="29"/>
       <c r="G188" s="66" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
@@ -9405,8 +9258,8 @@
       <c r="D189" s="29"/>
       <c r="E189" s="29"/>
       <c r="F189" s="29"/>
-      <c r="G189" s="80" t="s">
-        <v>280</v>
+      <c r="G189" s="79" t="s">
+        <v>257</v>
       </c>
       <c r="H189" s="29"/>
       <c r="I189" s="29"/>
@@ -9444,8 +9297,8 @@
       <c r="D190" s="29"/>
       <c r="E190" s="29"/>
       <c r="F190" s="29"/>
-      <c r="G190" s="80" t="s">
-        <v>281</v>
+      <c r="G190" s="79" t="s">
+        <v>258</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
@@ -9519,11 +9372,11 @@
       <c r="C192" s="29"/>
       <c r="D192" s="29"/>
       <c r="E192" s="29"/>
-      <c r="F192" s="79" t="s">
-        <v>59</v>
+      <c r="F192" s="78" t="s">
+        <v>58</v>
       </c>
       <c r="G192" s="29" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H192" s="29"/>
       <c r="I192" s="29"/>
@@ -9562,7 +9415,7 @@
       <c r="E193" s="29"/>
       <c r="F193" s="29"/>
       <c r="G193" s="29" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H193" s="29"/>
       <c r="I193" s="29"/>
@@ -9601,7 +9454,7 @@
       <c r="E194" s="29"/>
       <c r="F194" s="29"/>
       <c r="G194" s="29" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="H194" s="29"/>
       <c r="I194" s="29"/>
@@ -9640,7 +9493,7 @@
       <c r="E195" s="29"/>
       <c r="F195" s="29"/>
       <c r="G195" s="29" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H195" s="29"/>
       <c r="I195" s="29"/>
@@ -9716,7 +9569,7 @@
       <c r="E197" s="29"/>
       <c r="F197" s="29"/>
       <c r="G197" s="29" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H197" s="29"/>
       <c r="I197" s="29"/>
@@ -9755,7 +9608,7 @@
       <c r="E198" s="29"/>
       <c r="F198" s="29"/>
       <c r="G198" s="62" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H198" s="38"/>
       <c r="I198" s="38"/>
@@ -9767,7 +9620,7 @@
       <c r="O198" s="38"/>
       <c r="P198" s="37"/>
       <c r="Q198" s="38" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="R198" s="38"/>
       <c r="S198" s="38"/>
@@ -9796,7 +9649,7 @@
       <c r="E199" s="29"/>
       <c r="F199" s="29"/>
       <c r="G199" s="30" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H199" s="55"/>
       <c r="I199" s="55"/>
@@ -9808,7 +9661,7 @@
       <c r="O199" s="55"/>
       <c r="P199" s="31"/>
       <c r="Q199" s="55" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="R199" s="55"/>
       <c r="S199" s="55"/>
@@ -9847,7 +9700,7 @@
       <c r="O200" s="33"/>
       <c r="P200" s="34"/>
       <c r="Q200" s="33" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="R200" s="33"/>
       <c r="S200" s="33"/>
@@ -9876,7 +9729,7 @@
       <c r="E201" s="29"/>
       <c r="F201" s="29"/>
       <c r="G201" s="30" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H201" s="55"/>
       <c r="I201" s="55"/>
@@ -9888,7 +9741,7 @@
       <c r="O201" s="55"/>
       <c r="P201" s="31"/>
       <c r="Q201" s="55" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="R201" s="55"/>
       <c r="S201" s="55"/>
@@ -9927,7 +9780,7 @@
       <c r="O202" s="55"/>
       <c r="P202" s="31"/>
       <c r="Q202" s="55" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="R202" s="55"/>
       <c r="S202" s="55"/>
@@ -9966,7 +9819,7 @@
       <c r="O203" s="33"/>
       <c r="P203" s="34"/>
       <c r="Q203" s="33" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="R203" s="33"/>
       <c r="S203" s="33"/>
@@ -9995,7 +9848,7 @@
       <c r="E204" s="29"/>
       <c r="F204" s="29"/>
       <c r="G204" s="32" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H204" s="33"/>
       <c r="I204" s="33"/>
@@ -10007,7 +9860,7 @@
       <c r="O204" s="33"/>
       <c r="P204" s="34"/>
       <c r="Q204" s="33" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="R204" s="33"/>
       <c r="S204" s="33"/>
@@ -10036,7 +9889,7 @@
       <c r="E205" s="29"/>
       <c r="F205" s="29"/>
       <c r="G205" s="30" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H205" s="55"/>
       <c r="I205" s="55"/>
@@ -10048,7 +9901,7 @@
       <c r="O205" s="55"/>
       <c r="P205" s="31"/>
       <c r="Q205" s="55" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="R205" s="55"/>
       <c r="S205" s="55"/>
@@ -10087,7 +9940,7 @@
       <c r="O206" s="55"/>
       <c r="P206" s="31"/>
       <c r="Q206" s="55" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="R206" s="55"/>
       <c r="S206" s="55"/>
@@ -10126,7 +9979,7 @@
       <c r="O207" s="33"/>
       <c r="P207" s="34"/>
       <c r="Q207" s="33" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="R207" s="33"/>
       <c r="S207" s="33"/>
@@ -10194,7 +10047,7 @@
         <v>3.1.9.2.</v>
       </c>
       <c r="F209" s="29" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="G209" s="29"/>
       <c r="H209" s="29"/>
@@ -10233,7 +10086,7 @@
       <c r="D210" s="29"/>
       <c r="E210" s="24"/>
       <c r="F210" s="29" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G210" s="29"/>
       <c r="H210" s="29"/>
@@ -10309,10 +10162,10 @@
       <c r="D212" s="29"/>
       <c r="E212" s="29"/>
       <c r="F212" s="24" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G212" s="29" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="H212" s="29"/>
       <c r="I212" s="29"/>
@@ -10351,7 +10204,7 @@
       <c r="E213" s="29"/>
       <c r="F213" s="24"/>
       <c r="G213" s="29" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="H213" s="29"/>
       <c r="I213" s="29"/>
@@ -10390,14 +10243,14 @@
       <c r="E214" s="29"/>
       <c r="F214" s="24"/>
       <c r="G214" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H214" s="38"/>
       <c r="I214" s="38"/>
       <c r="J214" s="38"/>
       <c r="K214" s="37"/>
       <c r="L214" s="38" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="M214" s="38"/>
       <c r="N214" s="38"/>
@@ -10416,7 +10269,7 @@
       <c r="AA214" s="38"/>
       <c r="AB214" s="37"/>
       <c r="AC214" s="38" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="AD214" s="38"/>
       <c r="AE214" s="38"/>
@@ -10433,14 +10286,14 @@
       <c r="E215" s="29"/>
       <c r="F215" s="24"/>
       <c r="G215" s="30" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="H215" s="55"/>
       <c r="I215" s="55"/>
       <c r="J215" s="55"/>
       <c r="K215" s="31"/>
       <c r="L215" s="26" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="M215" s="26"/>
       <c r="N215" s="26"/>
@@ -10457,15 +10310,15 @@
       <c r="Y215" s="26"/>
       <c r="Z215" s="26"/>
       <c r="AA215" s="26"/>
-      <c r="AB215" s="73"/>
+      <c r="AB215" s="72"/>
       <c r="AC215" s="26" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="AD215" s="26"/>
       <c r="AE215" s="26"/>
       <c r="AF215" s="26"/>
       <c r="AG215" s="26"/>
-      <c r="AH215" s="73"/>
+      <c r="AH215" s="72"/>
       <c r="AI215" s="29"/>
     </row>
     <row r="216" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10476,14 +10329,14 @@
       <c r="E216" s="29"/>
       <c r="F216" s="24"/>
       <c r="G216" s="56" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="H216" s="57"/>
       <c r="I216" s="57"/>
       <c r="J216" s="57"/>
       <c r="K216" s="58"/>
       <c r="L216" s="26" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="M216" s="26"/>
       <c r="N216" s="26"/>
@@ -10500,13 +10353,13 @@
       <c r="Y216" s="26"/>
       <c r="Z216" s="26"/>
       <c r="AA216" s="26"/>
-      <c r="AB216" s="73"/>
+      <c r="AB216" s="72"/>
       <c r="AC216" s="26"/>
       <c r="AD216" s="26"/>
       <c r="AE216" s="26"/>
       <c r="AF216" s="26"/>
       <c r="AG216" s="26"/>
-      <c r="AH216" s="73"/>
+      <c r="AH216" s="72"/>
       <c r="AI216" s="29"/>
     </row>
     <row r="217" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10517,13 +10370,13 @@
       <c r="E217" s="29"/>
       <c r="F217" s="24"/>
       <c r="G217" s="30" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H217" s="55"/>
       <c r="I217" s="55"/>
       <c r="J217" s="55"/>
       <c r="K217" s="31"/>
-      <c r="L217" s="94"/>
+      <c r="L217" s="93"/>
       <c r="M217" s="26"/>
       <c r="N217" s="26"/>
       <c r="O217" s="26"/>
@@ -10539,13 +10392,13 @@
       <c r="Y217" s="26"/>
       <c r="Z217" s="26"/>
       <c r="AA217" s="26"/>
-      <c r="AB217" s="73"/>
+      <c r="AB217" s="72"/>
       <c r="AC217" s="26"/>
       <c r="AD217" s="26"/>
       <c r="AE217" s="26"/>
       <c r="AF217" s="26"/>
       <c r="AG217" s="26"/>
-      <c r="AH217" s="73"/>
+      <c r="AH217" s="72"/>
       <c r="AI217" s="29"/>
     </row>
     <row r="218" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10556,35 +10409,35 @@
       <c r="E218" s="29"/>
       <c r="F218" s="24"/>
       <c r="G218" s="32" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H218" s="33"/>
       <c r="I218" s="33"/>
       <c r="J218" s="33"/>
       <c r="K218" s="34"/>
-      <c r="L218" s="78"/>
-      <c r="M218" s="78"/>
-      <c r="N218" s="78"/>
-      <c r="O218" s="78"/>
-      <c r="P218" s="78"/>
-      <c r="Q218" s="78"/>
-      <c r="R218" s="78"/>
-      <c r="S218" s="78"/>
-      <c r="T218" s="78"/>
-      <c r="U218" s="78"/>
-      <c r="V218" s="78"/>
-      <c r="W218" s="78"/>
-      <c r="X218" s="78"/>
-      <c r="Y218" s="78"/>
-      <c r="Z218" s="78"/>
-      <c r="AA218" s="78"/>
-      <c r="AB218" s="92"/>
-      <c r="AC218" s="78"/>
-      <c r="AD218" s="78"/>
-      <c r="AE218" s="78"/>
-      <c r="AF218" s="78"/>
-      <c r="AG218" s="78"/>
-      <c r="AH218" s="92"/>
+      <c r="L218" s="77"/>
+      <c r="M218" s="77"/>
+      <c r="N218" s="77"/>
+      <c r="O218" s="77"/>
+      <c r="P218" s="77"/>
+      <c r="Q218" s="77"/>
+      <c r="R218" s="77"/>
+      <c r="S218" s="77"/>
+      <c r="T218" s="77"/>
+      <c r="U218" s="77"/>
+      <c r="V218" s="77"/>
+      <c r="W218" s="77"/>
+      <c r="X218" s="77"/>
+      <c r="Y218" s="77"/>
+      <c r="Z218" s="77"/>
+      <c r="AA218" s="77"/>
+      <c r="AB218" s="91"/>
+      <c r="AC218" s="77"/>
+      <c r="AD218" s="77"/>
+      <c r="AE218" s="77"/>
+      <c r="AF218" s="77"/>
+      <c r="AG218" s="77"/>
+      <c r="AH218" s="91"/>
       <c r="AI218" s="29"/>
     </row>
     <row r="219" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10595,14 +10448,14 @@
       <c r="E219" s="29"/>
       <c r="F219" s="24"/>
       <c r="G219" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H219" s="55"/>
       <c r="I219" s="55"/>
       <c r="J219" s="55"/>
       <c r="K219" s="31"/>
       <c r="L219" s="26" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="M219" s="26"/>
       <c r="N219" s="26"/>
@@ -10619,15 +10472,15 @@
       <c r="Y219" s="26"/>
       <c r="Z219" s="26"/>
       <c r="AA219" s="26"/>
-      <c r="AB219" s="73"/>
+      <c r="AB219" s="72"/>
       <c r="AC219" s="26" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="AD219" s="26"/>
       <c r="AE219" s="26"/>
       <c r="AF219" s="26"/>
       <c r="AG219" s="26"/>
-      <c r="AH219" s="73"/>
+      <c r="AH219" s="72"/>
       <c r="AI219" s="29"/>
     </row>
     <row r="220" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10643,7 +10496,7 @@
       <c r="J220" s="55"/>
       <c r="K220" s="31"/>
       <c r="L220" s="26" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M220" s="26"/>
       <c r="N220" s="26"/>
@@ -10660,15 +10513,15 @@
       <c r="Y220" s="26"/>
       <c r="Z220" s="26"/>
       <c r="AA220" s="26"/>
-      <c r="AB220" s="73"/>
+      <c r="AB220" s="72"/>
       <c r="AC220" s="26" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="AD220" s="26"/>
       <c r="AE220" s="26"/>
       <c r="AF220" s="26"/>
       <c r="AG220" s="26"/>
-      <c r="AH220" s="73"/>
+      <c r="AH220" s="72"/>
       <c r="AI220" s="29"/>
     </row>
     <row r="221" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10684,7 +10537,7 @@
       <c r="J221" s="55"/>
       <c r="K221" s="31"/>
       <c r="L221" s="26" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="M221" s="26"/>
       <c r="N221" s="26"/>
@@ -10701,13 +10554,13 @@
       <c r="Y221" s="26"/>
       <c r="Z221" s="26"/>
       <c r="AA221" s="26"/>
-      <c r="AB221" s="73"/>
+      <c r="AB221" s="72"/>
       <c r="AC221" s="26"/>
       <c r="AD221" s="26"/>
       <c r="AE221" s="26"/>
       <c r="AF221" s="26"/>
       <c r="AG221" s="26"/>
-      <c r="AH221" s="73"/>
+      <c r="AH221" s="72"/>
       <c r="AI221" s="29"/>
     </row>
     <row r="222" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10722,29 +10575,29 @@
       <c r="I222" s="33"/>
       <c r="J222" s="33"/>
       <c r="K222" s="34"/>
-      <c r="L222" s="78"/>
-      <c r="M222" s="78"/>
-      <c r="N222" s="78"/>
-      <c r="O222" s="78"/>
-      <c r="P222" s="78"/>
-      <c r="Q222" s="78"/>
-      <c r="R222" s="78"/>
-      <c r="S222" s="78"/>
-      <c r="T222" s="78"/>
-      <c r="U222" s="78"/>
-      <c r="V222" s="78"/>
-      <c r="W222" s="78"/>
-      <c r="X222" s="78"/>
-      <c r="Y222" s="78"/>
-      <c r="Z222" s="78"/>
-      <c r="AA222" s="78"/>
-      <c r="AB222" s="92"/>
-      <c r="AC222" s="78"/>
-      <c r="AD222" s="78"/>
-      <c r="AE222" s="78"/>
-      <c r="AF222" s="78"/>
-      <c r="AG222" s="78"/>
-      <c r="AH222" s="92"/>
+      <c r="L222" s="77"/>
+      <c r="M222" s="77"/>
+      <c r="N222" s="77"/>
+      <c r="O222" s="77"/>
+      <c r="P222" s="77"/>
+      <c r="Q222" s="77"/>
+      <c r="R222" s="77"/>
+      <c r="S222" s="77"/>
+      <c r="T222" s="77"/>
+      <c r="U222" s="77"/>
+      <c r="V222" s="77"/>
+      <c r="W222" s="77"/>
+      <c r="X222" s="77"/>
+      <c r="Y222" s="77"/>
+      <c r="Z222" s="77"/>
+      <c r="AA222" s="77"/>
+      <c r="AB222" s="91"/>
+      <c r="AC222" s="77"/>
+      <c r="AD222" s="77"/>
+      <c r="AE222" s="77"/>
+      <c r="AF222" s="77"/>
+      <c r="AG222" s="77"/>
+      <c r="AH222" s="91"/>
       <c r="AI222" s="29"/>
     </row>
     <row r="223" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10755,14 +10608,14 @@
       <c r="E223" s="29"/>
       <c r="F223" s="24"/>
       <c r="G223" s="30" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="H223" s="55"/>
       <c r="I223" s="55"/>
       <c r="J223" s="55"/>
       <c r="K223" s="31"/>
       <c r="L223" s="26" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="M223" s="26"/>
       <c r="N223" s="26"/>
@@ -10779,15 +10632,15 @@
       <c r="Y223" s="26"/>
       <c r="Z223" s="26"/>
       <c r="AA223" s="26"/>
-      <c r="AB223" s="73"/>
+      <c r="AB223" s="72"/>
       <c r="AC223" s="26" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="AD223" s="26"/>
       <c r="AE223" s="26"/>
       <c r="AF223" s="26"/>
       <c r="AG223" s="26"/>
-      <c r="AH223" s="73"/>
+      <c r="AH223" s="72"/>
       <c r="AI223" s="29"/>
     </row>
     <row r="224" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10798,14 +10651,14 @@
       <c r="E224" s="29"/>
       <c r="F224" s="24"/>
       <c r="G224" s="30" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="H224" s="55"/>
       <c r="I224" s="55"/>
       <c r="J224" s="55"/>
       <c r="K224" s="31"/>
       <c r="L224" s="26" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="M224" s="26"/>
       <c r="N224" s="26"/>
@@ -10822,13 +10675,13 @@
       <c r="Y224" s="26"/>
       <c r="Z224" s="26"/>
       <c r="AA224" s="26"/>
-      <c r="AB224" s="73"/>
+      <c r="AB224" s="72"/>
       <c r="AC224" s="26"/>
       <c r="AD224" s="26"/>
       <c r="AE224" s="26"/>
       <c r="AF224" s="26"/>
       <c r="AG224" s="26"/>
-      <c r="AH224" s="73"/>
+      <c r="AH224" s="72"/>
       <c r="AI224" s="29"/>
     </row>
     <row r="225" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10844,7 +10697,7 @@
       <c r="J225" s="55"/>
       <c r="K225" s="31"/>
       <c r="L225" s="26" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="M225" s="26"/>
       <c r="N225" s="26"/>
@@ -10861,13 +10714,13 @@
       <c r="Y225" s="26"/>
       <c r="Z225" s="26"/>
       <c r="AA225" s="26"/>
-      <c r="AB225" s="73"/>
+      <c r="AB225" s="72"/>
       <c r="AC225" s="26"/>
       <c r="AD225" s="26"/>
       <c r="AE225" s="26"/>
       <c r="AF225" s="26"/>
       <c r="AG225" s="26"/>
-      <c r="AH225" s="73"/>
+      <c r="AH225" s="72"/>
       <c r="AI225" s="29"/>
     </row>
     <row r="226" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10883,7 +10736,7 @@
       <c r="J226" s="55"/>
       <c r="K226" s="31"/>
       <c r="L226" s="26" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="M226" s="26"/>
       <c r="N226" s="26"/>
@@ -10900,13 +10753,13 @@
       <c r="Y226" s="26"/>
       <c r="Z226" s="26"/>
       <c r="AA226" s="26"/>
-      <c r="AB226" s="73"/>
+      <c r="AB226" s="72"/>
       <c r="AC226" s="26"/>
       <c r="AD226" s="26"/>
       <c r="AE226" s="26"/>
       <c r="AF226" s="26"/>
       <c r="AG226" s="26"/>
-      <c r="AH226" s="73"/>
+      <c r="AH226" s="72"/>
       <c r="AI226" s="29"/>
     </row>
     <row r="227" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10937,13 +10790,13 @@
       <c r="Y227" s="26"/>
       <c r="Z227" s="26"/>
       <c r="AA227" s="26"/>
-      <c r="AB227" s="73"/>
+      <c r="AB227" s="72"/>
       <c r="AC227" s="26"/>
       <c r="AD227" s="26"/>
       <c r="AE227" s="26"/>
       <c r="AF227" s="26"/>
       <c r="AG227" s="26"/>
-      <c r="AH227" s="73"/>
+      <c r="AH227" s="72"/>
       <c r="AI227" s="29"/>
     </row>
     <row r="228" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10959,7 +10812,7 @@
       <c r="J228" s="55"/>
       <c r="K228" s="31"/>
       <c r="L228" s="26" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="M228" s="26"/>
       <c r="N228" s="26"/>
@@ -10976,13 +10829,13 @@
       <c r="Y228" s="26"/>
       <c r="Z228" s="26"/>
       <c r="AA228" s="26"/>
-      <c r="AB228" s="73"/>
+      <c r="AB228" s="72"/>
       <c r="AC228" s="26"/>
       <c r="AD228" s="26"/>
       <c r="AE228" s="26"/>
       <c r="AF228" s="26"/>
       <c r="AG228" s="26"/>
-      <c r="AH228" s="73"/>
+      <c r="AH228" s="72"/>
       <c r="AI228" s="29"/>
     </row>
     <row r="229" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10998,7 +10851,7 @@
       <c r="J229" s="55"/>
       <c r="K229" s="31"/>
       <c r="L229" s="26" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="M229" s="26"/>
       <c r="N229" s="26"/>
@@ -11015,13 +10868,13 @@
       <c r="Y229" s="26"/>
       <c r="Z229" s="26"/>
       <c r="AA229" s="26"/>
-      <c r="AB229" s="73"/>
+      <c r="AB229" s="72"/>
       <c r="AC229" s="26"/>
       <c r="AD229" s="26"/>
       <c r="AE229" s="26"/>
       <c r="AF229" s="26"/>
       <c r="AG229" s="26"/>
-      <c r="AH229" s="73"/>
+      <c r="AH229" s="72"/>
       <c r="AI229" s="29"/>
     </row>
     <row r="230" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11037,7 +10890,7 @@
       <c r="J230" s="55"/>
       <c r="K230" s="31"/>
       <c r="L230" s="26" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="M230" s="26"/>
       <c r="N230" s="26"/>
@@ -11054,13 +10907,13 @@
       <c r="Y230" s="26"/>
       <c r="Z230" s="26"/>
       <c r="AA230" s="26"/>
-      <c r="AB230" s="73"/>
+      <c r="AB230" s="72"/>
       <c r="AC230" s="26"/>
       <c r="AD230" s="26"/>
       <c r="AE230" s="26"/>
       <c r="AF230" s="26"/>
       <c r="AG230" s="26"/>
-      <c r="AH230" s="73"/>
+      <c r="AH230" s="72"/>
       <c r="AI230" s="29"/>
     </row>
     <row r="231" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11076,7 +10929,7 @@
       <c r="J231" s="55"/>
       <c r="K231" s="31"/>
       <c r="L231" s="26" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -11093,13 +10946,13 @@
       <c r="Y231" s="26"/>
       <c r="Z231" s="26"/>
       <c r="AA231" s="26"/>
-      <c r="AB231" s="73"/>
+      <c r="AB231" s="72"/>
       <c r="AC231" s="26"/>
       <c r="AD231" s="26"/>
       <c r="AE231" s="26"/>
       <c r="AF231" s="26"/>
       <c r="AG231" s="26"/>
-      <c r="AH231" s="73"/>
+      <c r="AH231" s="72"/>
       <c r="AI231" s="29"/>
     </row>
     <row r="232" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11115,7 +10968,7 @@
       <c r="J232" s="55"/>
       <c r="K232" s="31"/>
       <c r="L232" s="26" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="M232" s="26"/>
       <c r="N232" s="26"/>
@@ -11132,13 +10985,13 @@
       <c r="Y232" s="26"/>
       <c r="Z232" s="26"/>
       <c r="AA232" s="26"/>
-      <c r="AB232" s="73"/>
+      <c r="AB232" s="72"/>
       <c r="AC232" s="26"/>
       <c r="AD232" s="26"/>
       <c r="AE232" s="26"/>
       <c r="AF232" s="26"/>
       <c r="AG232" s="26"/>
-      <c r="AH232" s="73"/>
+      <c r="AH232" s="72"/>
       <c r="AI232" s="29"/>
     </row>
     <row r="233" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11154,7 +11007,7 @@
       <c r="J233" s="55"/>
       <c r="K233" s="31"/>
       <c r="L233" s="26" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="M233" s="26"/>
       <c r="N233" s="26"/>
@@ -11171,13 +11024,13 @@
       <c r="Y233" s="26"/>
       <c r="Z233" s="26"/>
       <c r="AA233" s="26"/>
-      <c r="AB233" s="73"/>
+      <c r="AB233" s="72"/>
       <c r="AC233" s="26"/>
       <c r="AD233" s="26"/>
       <c r="AE233" s="26"/>
       <c r="AF233" s="26"/>
       <c r="AG233" s="26"/>
-      <c r="AH233" s="73"/>
+      <c r="AH233" s="72"/>
       <c r="AI233" s="29"/>
     </row>
     <row r="234" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11192,31 +11045,31 @@
       <c r="I234" s="33"/>
       <c r="J234" s="33"/>
       <c r="K234" s="34"/>
-      <c r="L234" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="M234" s="78"/>
-      <c r="N234" s="78"/>
-      <c r="O234" s="78"/>
-      <c r="P234" s="78"/>
-      <c r="Q234" s="78"/>
-      <c r="R234" s="78"/>
-      <c r="S234" s="78"/>
-      <c r="T234" s="78"/>
-      <c r="U234" s="78"/>
-      <c r="V234" s="78"/>
-      <c r="W234" s="78"/>
-      <c r="X234" s="78"/>
-      <c r="Y234" s="78"/>
-      <c r="Z234" s="78"/>
-      <c r="AA234" s="78"/>
-      <c r="AB234" s="92"/>
-      <c r="AC234" s="78"/>
-      <c r="AD234" s="78"/>
-      <c r="AE234" s="78"/>
-      <c r="AF234" s="78"/>
-      <c r="AG234" s="78"/>
-      <c r="AH234" s="92"/>
+      <c r="L234" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="M234" s="77"/>
+      <c r="N234" s="77"/>
+      <c r="O234" s="77"/>
+      <c r="P234" s="77"/>
+      <c r="Q234" s="77"/>
+      <c r="R234" s="77"/>
+      <c r="S234" s="77"/>
+      <c r="T234" s="77"/>
+      <c r="U234" s="77"/>
+      <c r="V234" s="77"/>
+      <c r="W234" s="77"/>
+      <c r="X234" s="77"/>
+      <c r="Y234" s="77"/>
+      <c r="Z234" s="77"/>
+      <c r="AA234" s="77"/>
+      <c r="AB234" s="91"/>
+      <c r="AC234" s="77"/>
+      <c r="AD234" s="77"/>
+      <c r="AE234" s="77"/>
+      <c r="AF234" s="77"/>
+      <c r="AG234" s="77"/>
+      <c r="AH234" s="91"/>
       <c r="AI234" s="29"/>
     </row>
     <row r="235" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11227,14 +11080,14 @@
       <c r="E235" s="29"/>
       <c r="F235" s="24"/>
       <c r="G235" s="30" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="H235" s="55"/>
       <c r="I235" s="55"/>
       <c r="J235" s="55"/>
       <c r="K235" s="31"/>
       <c r="L235" s="26" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -11251,15 +11104,15 @@
       <c r="Y235" s="26"/>
       <c r="Z235" s="26"/>
       <c r="AA235" s="26"/>
-      <c r="AB235" s="73"/>
+      <c r="AB235" s="72"/>
       <c r="AC235" s="26" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="AD235" s="26"/>
       <c r="AE235" s="26"/>
       <c r="AF235" s="26"/>
       <c r="AG235" s="26"/>
-      <c r="AH235" s="73"/>
+      <c r="AH235" s="72"/>
       <c r="AI235" s="29"/>
     </row>
     <row r="236" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11270,37 +11123,37 @@
       <c r="E236" s="29"/>
       <c r="F236" s="24"/>
       <c r="G236" s="32" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="H236" s="33"/>
       <c r="I236" s="33"/>
       <c r="J236" s="33"/>
       <c r="K236" s="34"/>
-      <c r="L236" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="M236" s="78"/>
-      <c r="N236" s="78"/>
-      <c r="O236" s="78"/>
-      <c r="P236" s="78"/>
-      <c r="Q236" s="78"/>
-      <c r="R236" s="78"/>
-      <c r="S236" s="78"/>
-      <c r="T236" s="78"/>
-      <c r="U236" s="78"/>
-      <c r="V236" s="78"/>
-      <c r="W236" s="78"/>
-      <c r="X236" s="78"/>
-      <c r="Y236" s="78"/>
-      <c r="Z236" s="78"/>
-      <c r="AA236" s="78"/>
-      <c r="AB236" s="92"/>
-      <c r="AC236" s="78"/>
-      <c r="AD236" s="78"/>
-      <c r="AE236" s="78"/>
-      <c r="AF236" s="78"/>
-      <c r="AG236" s="78"/>
-      <c r="AH236" s="92"/>
+      <c r="L236" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="M236" s="77"/>
+      <c r="N236" s="77"/>
+      <c r="O236" s="77"/>
+      <c r="P236" s="77"/>
+      <c r="Q236" s="77"/>
+      <c r="R236" s="77"/>
+      <c r="S236" s="77"/>
+      <c r="T236" s="77"/>
+      <c r="U236" s="77"/>
+      <c r="V236" s="77"/>
+      <c r="W236" s="77"/>
+      <c r="X236" s="77"/>
+      <c r="Y236" s="77"/>
+      <c r="Z236" s="77"/>
+      <c r="AA236" s="77"/>
+      <c r="AB236" s="91"/>
+      <c r="AC236" s="77"/>
+      <c r="AD236" s="77"/>
+      <c r="AE236" s="77"/>
+      <c r="AF236" s="77"/>
+      <c r="AG236" s="77"/>
+      <c r="AH236" s="91"/>
       <c r="AI236" s="29"/>
     </row>
     <row r="237" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11347,10 +11200,10 @@
       <c r="D238" s="29"/>
       <c r="E238" s="24"/>
       <c r="F238" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G238" s="29" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H238" s="29"/>
       <c r="I238" s="29"/>
@@ -11389,7 +11242,7 @@
       <c r="E239" s="24"/>
       <c r="F239" s="29"/>
       <c r="G239" s="29" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H239" s="29"/>
       <c r="I239" s="29"/>
@@ -11427,7 +11280,7 @@
       <c r="D240" s="29"/>
       <c r="E240" s="29"/>
       <c r="F240" s="29"/>
-      <c r="G240" s="64"/>
+      <c r="G240" s="29"/>
       <c r="H240" s="29"/>
       <c r="I240" s="29"/>
       <c r="J240" s="29"/>
@@ -11494,1654 +11347,1107 @@
       <c r="AH241" s="29"/>
       <c r="AI241" s="29"/>
     </row>
-    <row r="242" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="29"/>
-      <c r="B242" s="29"/>
-      <c r="C242" s="29"/>
-      <c r="D242" s="29"/>
-      <c r="E242" s="24" t="str">
-        <f>D181&amp;"3."</f>
-        <v>3.1.9.3.</v>
-      </c>
-      <c r="F242" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G242" s="29"/>
-      <c r="H242" s="29"/>
-      <c r="I242" s="29"/>
-      <c r="J242" s="29"/>
-      <c r="K242" s="29"/>
-      <c r="L242" s="29"/>
-      <c r="M242" s="29"/>
-      <c r="N242" s="29"/>
-      <c r="O242" s="29"/>
-      <c r="P242" s="29"/>
-      <c r="Q242" s="29"/>
-      <c r="R242" s="29"/>
-      <c r="S242" s="29"/>
-      <c r="T242" s="29"/>
-      <c r="U242" s="29"/>
-      <c r="V242" s="29"/>
-      <c r="W242" s="29"/>
-      <c r="X242" s="29"/>
-      <c r="Y242" s="29"/>
-      <c r="Z242" s="29"/>
-      <c r="AA242" s="29"/>
-      <c r="AB242" s="29"/>
-      <c r="AC242" s="29"/>
-      <c r="AD242" s="29"/>
-      <c r="AE242" s="29"/>
-      <c r="AF242" s="29"/>
-      <c r="AG242" s="29"/>
-      <c r="AH242" s="29"/>
-      <c r="AI242" s="29"/>
-    </row>
-    <row r="243" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="29"/>
-      <c r="B243" s="29"/>
-      <c r="C243" s="29"/>
-      <c r="D243" s="29"/>
-      <c r="E243" s="36"/>
-      <c r="F243" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="G243" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="H243" s="29"/>
-      <c r="I243" s="29"/>
-      <c r="J243" s="29"/>
-      <c r="K243" s="29"/>
-      <c r="L243" s="29"/>
-      <c r="M243" s="29"/>
-      <c r="N243" s="29"/>
-      <c r="O243" s="29"/>
-      <c r="P243" s="29"/>
-      <c r="Q243" s="29"/>
-      <c r="R243" s="29"/>
-      <c r="S243" s="29"/>
-      <c r="T243" s="29"/>
-      <c r="U243" s="29"/>
-      <c r="V243" s="29"/>
-      <c r="W243" s="29"/>
-      <c r="X243" s="29"/>
-      <c r="Y243" s="29"/>
-      <c r="Z243" s="29"/>
-      <c r="AA243" s="29"/>
-      <c r="AB243" s="29"/>
-      <c r="AC243" s="29"/>
-      <c r="AD243" s="29"/>
-      <c r="AE243" s="29"/>
-      <c r="AF243" s="29"/>
-      <c r="AG243" s="29"/>
-      <c r="AH243" s="29"/>
-      <c r="AI243" s="29"/>
-    </row>
-    <row r="244" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="29"/>
-      <c r="B244" s="29"/>
-      <c r="C244" s="29"/>
-      <c r="D244" s="29"/>
-      <c r="E244" s="79"/>
-      <c r="F244" s="29"/>
-      <c r="G244" s="29"/>
-      <c r="H244" s="29"/>
-      <c r="I244" s="29"/>
-      <c r="J244" s="29"/>
-      <c r="K244" s="29"/>
-      <c r="L244" s="29"/>
-      <c r="M244" s="29"/>
-      <c r="N244" s="29"/>
-      <c r="O244" s="29"/>
-      <c r="P244" s="29"/>
-      <c r="Q244" s="29"/>
-      <c r="R244" s="29"/>
-      <c r="S244" s="29"/>
-      <c r="T244" s="29"/>
-      <c r="U244" s="29"/>
-      <c r="V244" s="29"/>
-      <c r="W244" s="29"/>
-      <c r="X244" s="29"/>
-      <c r="Y244" s="29"/>
-      <c r="Z244" s="29"/>
-      <c r="AA244" s="29"/>
-      <c r="AB244" s="29"/>
-      <c r="AC244" s="29"/>
-      <c r="AD244" s="29"/>
-      <c r="AE244" s="29"/>
-      <c r="AF244" s="29"/>
-      <c r="AG244" s="29"/>
-      <c r="AH244" s="29"/>
-      <c r="AI244" s="29"/>
-    </row>
-    <row r="245" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="29"/>
-      <c r="B245" s="29"/>
-      <c r="C245" s="29"/>
-      <c r="D245" s="29"/>
-      <c r="E245" s="76"/>
-      <c r="G245" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H245" s="38"/>
-      <c r="I245" s="38"/>
-      <c r="J245" s="37"/>
-      <c r="K245" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="L245" s="38"/>
-      <c r="M245" s="38"/>
-      <c r="N245" s="38"/>
-      <c r="O245" s="38"/>
-      <c r="P245" s="38"/>
-      <c r="Q245" s="37"/>
-      <c r="R245" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S245" s="38"/>
-      <c r="T245" s="38"/>
-      <c r="U245" s="38"/>
-      <c r="V245" s="38"/>
-      <c r="W245" s="38"/>
-      <c r="X245" s="38"/>
-      <c r="Y245" s="38"/>
-      <c r="Z245" s="38"/>
-      <c r="AA245" s="38"/>
-      <c r="AB245" s="38"/>
-      <c r="AC245" s="38"/>
-      <c r="AD245" s="38"/>
-      <c r="AE245" s="38"/>
-      <c r="AF245" s="38"/>
-      <c r="AG245" s="38"/>
-      <c r="AH245" s="37"/>
-      <c r="AI245" s="29"/>
-    </row>
-    <row r="246" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="29"/>
-      <c r="B246" s="29"/>
-      <c r="C246" s="29"/>
-      <c r="D246" s="29"/>
-      <c r="E246" s="76"/>
-      <c r="G246" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="H246" s="39"/>
-      <c r="I246" s="39"/>
-      <c r="J246" s="40"/>
-      <c r="K246" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="L246" s="39"/>
-      <c r="M246" s="39"/>
-      <c r="N246" s="39"/>
-      <c r="O246" s="39"/>
-      <c r="P246" s="39"/>
-      <c r="Q246" s="40"/>
-      <c r="R246" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="S246" s="39"/>
-      <c r="T246" s="39"/>
-      <c r="U246" s="39"/>
-      <c r="V246" s="39"/>
-      <c r="W246" s="39"/>
-      <c r="X246" s="39"/>
-      <c r="Y246" s="39"/>
-      <c r="Z246" s="39"/>
-      <c r="AA246" s="39"/>
-      <c r="AB246" s="39"/>
-      <c r="AC246" s="39"/>
-      <c r="AD246" s="39"/>
-      <c r="AE246" s="39"/>
-      <c r="AF246" s="39"/>
-      <c r="AG246" s="39"/>
-      <c r="AH246" s="40"/>
-      <c r="AI246" s="29"/>
-    </row>
-    <row r="247" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="29"/>
-      <c r="B247" s="29"/>
-      <c r="C247" s="55"/>
-      <c r="D247" s="55"/>
-      <c r="E247" s="26"/>
-      <c r="G247" s="30"/>
-      <c r="H247" s="55"/>
-      <c r="I247" s="55"/>
-      <c r="J247" s="31"/>
-      <c r="K247" s="32"/>
-      <c r="L247" s="33"/>
-      <c r="M247" s="33"/>
-      <c r="N247" s="33"/>
-      <c r="O247" s="33"/>
-      <c r="P247" s="33"/>
-      <c r="Q247" s="34"/>
-      <c r="R247" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="S247" s="33"/>
-      <c r="T247" s="33"/>
-      <c r="U247" s="33"/>
-      <c r="V247" s="33"/>
-      <c r="W247" s="33"/>
-      <c r="X247" s="33"/>
-      <c r="Y247" s="33"/>
-      <c r="Z247" s="33"/>
-      <c r="AA247" s="33"/>
-      <c r="AB247" s="33"/>
-      <c r="AC247" s="33"/>
-      <c r="AD247" s="33"/>
-      <c r="AE247" s="33"/>
-      <c r="AF247" s="33"/>
-      <c r="AG247" s="33"/>
-      <c r="AH247" s="34"/>
-      <c r="AI247" s="55"/>
-    </row>
-    <row r="248" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="29"/>
-      <c r="B248" s="29"/>
-      <c r="C248" s="55"/>
-      <c r="D248" s="55"/>
-      <c r="E248" s="26"/>
-      <c r="G248" s="30"/>
-      <c r="H248" s="55"/>
-      <c r="I248" s="55"/>
-      <c r="J248" s="31"/>
-      <c r="K248" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="L248" s="39"/>
-      <c r="M248" s="39"/>
-      <c r="N248" s="39"/>
-      <c r="O248" s="39"/>
-      <c r="P248" s="39"/>
-      <c r="Q248" s="40"/>
-      <c r="R248" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="S248" s="39"/>
-      <c r="T248" s="39"/>
-      <c r="U248" s="39"/>
-      <c r="V248" s="39"/>
-      <c r="W248" s="39"/>
-      <c r="X248" s="39"/>
-      <c r="Y248" s="39"/>
-      <c r="Z248" s="39"/>
-      <c r="AA248" s="39"/>
-      <c r="AB248" s="39"/>
-      <c r="AC248" s="39"/>
-      <c r="AD248" s="39"/>
-      <c r="AE248" s="39"/>
-      <c r="AF248" s="39"/>
-      <c r="AG248" s="39"/>
-      <c r="AH248" s="40"/>
-      <c r="AI248" s="55"/>
-    </row>
-    <row r="249" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="29"/>
-      <c r="B249" s="29"/>
-      <c r="C249" s="55"/>
-      <c r="D249" s="55"/>
-      <c r="E249" s="26"/>
-      <c r="G249" s="30"/>
-      <c r="H249" s="55"/>
-      <c r="I249" s="55"/>
-      <c r="J249" s="31"/>
-      <c r="K249" s="32"/>
-      <c r="L249" s="33"/>
-      <c r="M249" s="33"/>
-      <c r="N249" s="33"/>
-      <c r="O249" s="33"/>
-      <c r="P249" s="33"/>
-      <c r="Q249" s="34"/>
-      <c r="R249" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="S249" s="33"/>
-      <c r="T249" s="33"/>
-      <c r="U249" s="33"/>
-      <c r="V249" s="33"/>
-      <c r="W249" s="33"/>
-      <c r="X249" s="33"/>
-      <c r="Y249" s="33"/>
-      <c r="Z249" s="33"/>
-      <c r="AA249" s="33"/>
-      <c r="AB249" s="33"/>
-      <c r="AC249" s="33"/>
-      <c r="AD249" s="33"/>
-      <c r="AE249" s="33"/>
-      <c r="AF249" s="33"/>
-      <c r="AG249" s="33"/>
-      <c r="AH249" s="34"/>
-      <c r="AI249" s="55"/>
-    </row>
-    <row r="250" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="29"/>
-      <c r="B250" s="29"/>
-      <c r="C250" s="55"/>
-      <c r="D250" s="55"/>
-      <c r="E250" s="26"/>
-      <c r="G250" s="30"/>
-      <c r="H250" s="55"/>
-      <c r="I250" s="55"/>
-      <c r="J250" s="31"/>
-      <c r="K250" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="L250" s="33"/>
-      <c r="M250" s="33"/>
-      <c r="N250" s="33"/>
-      <c r="O250" s="33"/>
-      <c r="P250" s="33"/>
-      <c r="Q250" s="34"/>
-      <c r="R250" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="S250" s="33"/>
-      <c r="T250" s="33"/>
-      <c r="U250" s="33"/>
-      <c r="V250" s="33"/>
-      <c r="W250" s="33"/>
-      <c r="X250" s="33"/>
-      <c r="Y250" s="33"/>
-      <c r="Z250" s="33"/>
-      <c r="AA250" s="33"/>
-      <c r="AB250" s="33"/>
-      <c r="AC250" s="33"/>
-      <c r="AD250" s="33"/>
-      <c r="AE250" s="33"/>
-      <c r="AF250" s="33"/>
-      <c r="AG250" s="33"/>
-      <c r="AH250" s="34"/>
-      <c r="AI250" s="55"/>
-    </row>
-    <row r="251" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="29"/>
-      <c r="B251" s="29"/>
-      <c r="C251" s="55"/>
-      <c r="D251" s="55"/>
-      <c r="E251" s="26"/>
-      <c r="G251" s="30"/>
-      <c r="H251" s="55"/>
-      <c r="I251" s="55"/>
-      <c r="J251" s="31"/>
-      <c r="K251" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="L251" s="33"/>
-      <c r="M251" s="33"/>
-      <c r="N251" s="33"/>
-      <c r="O251" s="33"/>
-      <c r="P251" s="33"/>
-      <c r="Q251" s="34"/>
-      <c r="R251" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="S251" s="33"/>
-      <c r="T251" s="33"/>
-      <c r="U251" s="33"/>
-      <c r="V251" s="33"/>
-      <c r="W251" s="33"/>
-      <c r="X251" s="33"/>
-      <c r="Y251" s="33"/>
-      <c r="Z251" s="33"/>
-      <c r="AA251" s="33"/>
-      <c r="AB251" s="33"/>
-      <c r="AC251" s="33"/>
-      <c r="AD251" s="33"/>
-      <c r="AE251" s="33"/>
-      <c r="AF251" s="33"/>
-      <c r="AG251" s="33"/>
-      <c r="AH251" s="34"/>
-      <c r="AI251" s="55"/>
-    </row>
-    <row r="252" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="29"/>
-      <c r="B252" s="29"/>
-      <c r="C252" s="55"/>
-      <c r="D252" s="55"/>
-      <c r="E252" s="26"/>
-      <c r="G252" s="30"/>
-      <c r="H252" s="55"/>
-      <c r="I252" s="55"/>
-      <c r="J252" s="31"/>
-      <c r="K252" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="L252" s="33"/>
-      <c r="M252" s="33"/>
-      <c r="N252" s="33"/>
-      <c r="O252" s="33"/>
-      <c r="P252" s="33"/>
-      <c r="Q252" s="34"/>
-      <c r="R252" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="S252" s="33"/>
-      <c r="T252" s="33"/>
-      <c r="U252" s="33"/>
-      <c r="V252" s="33"/>
-      <c r="W252" s="33"/>
-      <c r="X252" s="33"/>
-      <c r="Y252" s="33"/>
-      <c r="Z252" s="33"/>
-      <c r="AA252" s="33"/>
-      <c r="AB252" s="33"/>
-      <c r="AC252" s="33"/>
-      <c r="AD252" s="33"/>
-      <c r="AE252" s="33"/>
-      <c r="AF252" s="33"/>
-      <c r="AG252" s="33"/>
-      <c r="AH252" s="34"/>
-      <c r="AI252" s="55"/>
-    </row>
-    <row r="253" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="29"/>
-      <c r="B253" s="29"/>
-      <c r="C253" s="55"/>
-      <c r="D253" s="55"/>
-      <c r="E253" s="26"/>
-      <c r="G253" s="30"/>
-      <c r="H253" s="55"/>
-      <c r="I253" s="55"/>
-      <c r="J253" s="31"/>
-      <c r="K253" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="L253" s="33"/>
-      <c r="M253" s="33"/>
-      <c r="N253" s="33"/>
-      <c r="O253" s="33"/>
-      <c r="P253" s="33"/>
-      <c r="Q253" s="34"/>
-      <c r="R253" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="S253" s="33"/>
-      <c r="T253" s="33"/>
-      <c r="U253" s="33"/>
-      <c r="V253" s="33"/>
-      <c r="W253" s="33"/>
-      <c r="X253" s="33"/>
-      <c r="Y253" s="33"/>
-      <c r="Z253" s="33"/>
-      <c r="AA253" s="33"/>
-      <c r="AB253" s="33"/>
-      <c r="AC253" s="33"/>
-      <c r="AD253" s="33"/>
-      <c r="AE253" s="33"/>
-      <c r="AF253" s="33"/>
-      <c r="AG253" s="33"/>
-      <c r="AH253" s="34"/>
-      <c r="AI253" s="55"/>
-    </row>
-    <row r="254" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="29"/>
-      <c r="B254" s="29"/>
-      <c r="C254" s="55"/>
-      <c r="D254" s="55"/>
-      <c r="E254" s="26"/>
-      <c r="G254" s="32"/>
-      <c r="H254" s="33"/>
-      <c r="I254" s="33"/>
-      <c r="J254" s="34"/>
-      <c r="K254" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="L254" s="33"/>
-      <c r="M254" s="33"/>
-      <c r="N254" s="33"/>
-      <c r="O254" s="33"/>
-      <c r="P254" s="33"/>
-      <c r="Q254" s="34"/>
-      <c r="R254" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="S254" s="33"/>
-      <c r="T254" s="33"/>
-      <c r="U254" s="33"/>
-      <c r="V254" s="33"/>
-      <c r="W254" s="33"/>
-      <c r="X254" s="33"/>
-      <c r="Y254" s="33"/>
-      <c r="Z254" s="33"/>
-      <c r="AA254" s="33"/>
-      <c r="AB254" s="33"/>
-      <c r="AC254" s="33"/>
-      <c r="AD254" s="33"/>
-      <c r="AE254" s="33"/>
-      <c r="AF254" s="33"/>
-      <c r="AG254" s="33"/>
-      <c r="AH254" s="34"/>
-      <c r="AI254" s="55"/>
-    </row>
-    <row r="255" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="29"/>
-      <c r="B255" s="29"/>
-      <c r="C255" s="55"/>
-      <c r="D255" s="55"/>
-      <c r="E255" s="26"/>
-      <c r="G255" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H255" s="55"/>
-      <c r="I255" s="55"/>
-      <c r="J255" s="31"/>
-      <c r="K255" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="L255" s="55"/>
-      <c r="M255" s="55"/>
-      <c r="N255" s="55"/>
-      <c r="O255" s="55"/>
-      <c r="P255" s="55"/>
-      <c r="Q255" s="31"/>
-      <c r="R255" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="S255" s="55"/>
-      <c r="T255" s="55"/>
-      <c r="U255" s="55"/>
-      <c r="V255" s="55"/>
-      <c r="W255" s="55"/>
-      <c r="X255" s="55"/>
-      <c r="Y255" s="55"/>
-      <c r="Z255" s="55"/>
-      <c r="AA255" s="55"/>
-      <c r="AB255" s="55"/>
-      <c r="AC255" s="55"/>
-      <c r="AD255" s="55"/>
-      <c r="AE255" s="55"/>
-      <c r="AF255" s="55"/>
-      <c r="AG255" s="55"/>
-      <c r="AH255" s="31"/>
-      <c r="AI255" s="55"/>
-    </row>
-    <row r="256" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="29"/>
-      <c r="B256" s="29"/>
-      <c r="C256" s="55"/>
-      <c r="D256" s="55"/>
-      <c r="E256" s="26"/>
-      <c r="G256" s="30"/>
-      <c r="H256" s="55"/>
-      <c r="I256" s="55"/>
-      <c r="J256" s="31"/>
-      <c r="K256" s="32"/>
-      <c r="L256" s="33"/>
-      <c r="M256" s="33"/>
-      <c r="N256" s="33"/>
-      <c r="O256" s="33"/>
-      <c r="P256" s="33"/>
-      <c r="Q256" s="34"/>
-      <c r="R256" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="S256" s="33"/>
-      <c r="T256" s="33"/>
-      <c r="U256" s="33"/>
-      <c r="V256" s="33"/>
-      <c r="W256" s="33"/>
-      <c r="X256" s="33"/>
-      <c r="Y256" s="33"/>
-      <c r="Z256" s="33"/>
-      <c r="AA256" s="33"/>
-      <c r="AB256" s="33"/>
-      <c r="AC256" s="33"/>
-      <c r="AD256" s="33"/>
-      <c r="AE256" s="33"/>
-      <c r="AF256" s="33"/>
-      <c r="AG256" s="33"/>
-      <c r="AH256" s="34"/>
-      <c r="AI256" s="55"/>
-    </row>
-    <row r="257" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="29"/>
-      <c r="B257" s="29"/>
-      <c r="C257" s="55"/>
-      <c r="D257" s="55"/>
-      <c r="E257" s="26"/>
-      <c r="G257" s="30"/>
-      <c r="H257" s="55"/>
-      <c r="I257" s="55"/>
-      <c r="J257" s="31"/>
-      <c r="K257" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="L257" s="55"/>
-      <c r="M257" s="55"/>
-      <c r="N257" s="55"/>
-      <c r="O257" s="55"/>
-      <c r="P257" s="55"/>
-      <c r="Q257" s="31"/>
-      <c r="R257" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="S257" s="55"/>
-      <c r="T257" s="55"/>
-      <c r="U257" s="55"/>
-      <c r="V257" s="55"/>
-      <c r="W257" s="55"/>
-      <c r="X257" s="55"/>
-      <c r="Y257" s="55"/>
-      <c r="Z257" s="55"/>
-      <c r="AA257" s="55"/>
-      <c r="AB257" s="55"/>
-      <c r="AC257" s="55"/>
-      <c r="AD257" s="55"/>
-      <c r="AE257" s="55"/>
-      <c r="AF257" s="55"/>
-      <c r="AG257" s="55"/>
-      <c r="AH257" s="31"/>
-      <c r="AI257" s="55"/>
-    </row>
-    <row r="258" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="29"/>
-      <c r="B258" s="29"/>
-      <c r="C258" s="55"/>
-      <c r="D258" s="55"/>
-      <c r="E258" s="26"/>
-      <c r="G258" s="30"/>
-      <c r="H258" s="55"/>
-      <c r="I258" s="55"/>
-      <c r="J258" s="31"/>
-      <c r="K258" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="L258" s="55"/>
-      <c r="M258" s="55"/>
-      <c r="N258" s="55"/>
-      <c r="O258" s="55"/>
-      <c r="P258" s="55"/>
-      <c r="Q258" s="31"/>
-      <c r="R258" s="55" t="s">
-        <v>326</v>
-      </c>
-      <c r="S258" s="55"/>
-      <c r="T258" s="55"/>
-      <c r="U258" s="55"/>
-      <c r="V258" s="55"/>
-      <c r="W258" s="55"/>
-      <c r="X258" s="55"/>
-      <c r="Y258" s="55"/>
-      <c r="Z258" s="55"/>
-      <c r="AA258" s="55"/>
-      <c r="AB258" s="55"/>
-      <c r="AC258" s="55"/>
-      <c r="AD258" s="55"/>
-      <c r="AE258" s="55"/>
-      <c r="AF258" s="55"/>
-      <c r="AG258" s="55"/>
-      <c r="AH258" s="31"/>
-      <c r="AI258" s="55"/>
-    </row>
-    <row r="259" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="29"/>
-      <c r="B259" s="29"/>
-      <c r="C259" s="55"/>
-      <c r="D259" s="55"/>
-      <c r="E259" s="26"/>
-      <c r="G259" s="30"/>
-      <c r="H259" s="55"/>
-      <c r="I259" s="55"/>
-      <c r="J259" s="31"/>
-      <c r="K259" s="30"/>
-      <c r="L259" s="55"/>
-      <c r="M259" s="55"/>
-      <c r="N259" s="55"/>
-      <c r="O259" s="55"/>
-      <c r="P259" s="55"/>
-      <c r="Q259" s="31"/>
-      <c r="R259" s="55" t="s">
-        <v>327</v>
-      </c>
-      <c r="S259" s="55"/>
-      <c r="T259" s="55"/>
-      <c r="U259" s="55"/>
-      <c r="V259" s="55"/>
-      <c r="W259" s="55"/>
-      <c r="X259" s="55"/>
-      <c r="Y259" s="55"/>
-      <c r="Z259" s="55"/>
-      <c r="AA259" s="55"/>
-      <c r="AB259" s="55"/>
-      <c r="AC259" s="55"/>
-      <c r="AD259" s="55"/>
-      <c r="AE259" s="55"/>
-      <c r="AF259" s="55"/>
-      <c r="AG259" s="55"/>
-      <c r="AH259" s="31"/>
-      <c r="AI259" s="55"/>
-    </row>
-    <row r="260" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="29"/>
-      <c r="B260" s="29"/>
-      <c r="C260" s="55"/>
-      <c r="D260" s="55"/>
-      <c r="E260" s="26"/>
-      <c r="G260" s="30"/>
-      <c r="H260" s="55"/>
-      <c r="I260" s="55"/>
-      <c r="J260" s="31"/>
-      <c r="K260" s="30"/>
-      <c r="L260" s="55"/>
-      <c r="M260" s="55"/>
-      <c r="N260" s="55"/>
-      <c r="O260" s="55"/>
-      <c r="P260" s="55"/>
-      <c r="Q260" s="31"/>
-      <c r="R260" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="S260" s="55"/>
-      <c r="T260" s="55"/>
-      <c r="U260" s="55"/>
-      <c r="V260" s="55"/>
-      <c r="W260" s="55"/>
-      <c r="X260" s="55"/>
-      <c r="Y260" s="55"/>
-      <c r="Z260" s="55"/>
-      <c r="AA260" s="55"/>
-      <c r="AB260" s="55"/>
-      <c r="AC260" s="55"/>
-      <c r="AD260" s="55"/>
-      <c r="AE260" s="55"/>
-      <c r="AF260" s="55"/>
-      <c r="AG260" s="55"/>
-      <c r="AH260" s="31"/>
-      <c r="AI260" s="55"/>
-    </row>
-    <row r="261" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="29"/>
-      <c r="B261" s="29"/>
-      <c r="C261" s="55"/>
-      <c r="D261" s="55"/>
-      <c r="E261" s="26"/>
-      <c r="G261" s="30"/>
-      <c r="H261" s="55"/>
-      <c r="I261" s="55"/>
-      <c r="J261" s="31"/>
-      <c r="K261" s="30"/>
-      <c r="L261" s="55"/>
-      <c r="M261" s="55"/>
-      <c r="N261" s="55"/>
-      <c r="O261" s="55"/>
-      <c r="P261" s="55"/>
-      <c r="Q261" s="31"/>
-      <c r="R261" s="55" t="s">
-        <v>329</v>
-      </c>
-      <c r="S261" s="55"/>
-      <c r="T261" s="55"/>
-      <c r="U261" s="55"/>
-      <c r="V261" s="55"/>
-      <c r="W261" s="55"/>
-      <c r="X261" s="55"/>
-      <c r="Y261" s="55"/>
-      <c r="Z261" s="55"/>
-      <c r="AA261" s="55"/>
-      <c r="AB261" s="55"/>
-      <c r="AC261" s="55"/>
-      <c r="AD261" s="55"/>
-      <c r="AE261" s="55"/>
-      <c r="AF261" s="55"/>
-      <c r="AG261" s="55"/>
-      <c r="AH261" s="31"/>
-      <c r="AI261" s="55"/>
-    </row>
-    <row r="262" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="29"/>
-      <c r="B262" s="29"/>
-      <c r="C262" s="29"/>
-      <c r="D262" s="29"/>
-      <c r="E262" s="76"/>
-      <c r="G262" s="32"/>
-      <c r="H262" s="33"/>
-      <c r="I262" s="33"/>
-      <c r="J262" s="34"/>
-      <c r="K262" s="32"/>
-      <c r="L262" s="33"/>
-      <c r="M262" s="33"/>
-      <c r="N262" s="33"/>
-      <c r="O262" s="33"/>
-      <c r="P262" s="33"/>
-      <c r="Q262" s="34"/>
-      <c r="R262" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="S262" s="33"/>
-      <c r="T262" s="33"/>
-      <c r="U262" s="33"/>
-      <c r="V262" s="33"/>
-      <c r="W262" s="33"/>
-      <c r="X262" s="33"/>
-      <c r="Y262" s="33"/>
-      <c r="Z262" s="33"/>
-      <c r="AA262" s="33"/>
-      <c r="AB262" s="33"/>
-      <c r="AC262" s="33"/>
-      <c r="AD262" s="33"/>
-      <c r="AE262" s="33"/>
-      <c r="AF262" s="33"/>
-      <c r="AG262" s="33"/>
-      <c r="AH262" s="34"/>
-      <c r="AI262" s="29"/>
-    </row>
-    <row r="263" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="29"/>
-      <c r="B263" s="29"/>
-      <c r="C263" s="29"/>
-      <c r="D263" s="29"/>
-      <c r="E263" s="29"/>
-      <c r="F263" s="29"/>
-      <c r="G263" s="29"/>
-      <c r="H263" s="29"/>
-      <c r="I263" s="29"/>
-      <c r="J263" s="29"/>
-      <c r="K263" s="29"/>
-      <c r="L263" s="29"/>
-      <c r="M263" s="29"/>
-      <c r="N263" s="29"/>
-      <c r="O263" s="29"/>
-      <c r="P263" s="29"/>
-      <c r="Q263" s="29"/>
-      <c r="R263" s="29"/>
-      <c r="S263" s="29"/>
-      <c r="T263" s="29"/>
-      <c r="U263" s="29"/>
-      <c r="V263" s="29"/>
-      <c r="W263" s="29"/>
-      <c r="X263" s="29"/>
-      <c r="Y263" s="29"/>
-      <c r="Z263" s="29"/>
-      <c r="AA263" s="29"/>
-      <c r="AB263" s="29"/>
-      <c r="AC263" s="29"/>
-      <c r="AD263" s="29"/>
-      <c r="AE263" s="29"/>
-      <c r="AF263" s="29"/>
-      <c r="AG263" s="29"/>
-      <c r="AH263" s="29"/>
-      <c r="AI263" s="29"/>
-    </row>
-    <row r="264" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="29"/>
-      <c r="B264" s="29"/>
-      <c r="C264" s="29"/>
-      <c r="D264" s="29"/>
-      <c r="E264" s="29"/>
-      <c r="F264" s="29"/>
-      <c r="G264" s="29"/>
-      <c r="H264" s="29"/>
-      <c r="I264" s="29"/>
-      <c r="J264" s="29"/>
-      <c r="K264" s="29"/>
-      <c r="L264" s="29"/>
-      <c r="M264" s="29"/>
-      <c r="N264" s="29"/>
-      <c r="O264" s="29"/>
-      <c r="P264" s="29"/>
-      <c r="Q264" s="29"/>
-      <c r="R264" s="29"/>
-      <c r="S264" s="29"/>
-      <c r="T264" s="29"/>
-      <c r="U264" s="29"/>
-      <c r="V264" s="29"/>
-      <c r="W264" s="29"/>
-      <c r="X264" s="29"/>
-      <c r="Y264" s="29"/>
-      <c r="Z264" s="29"/>
-      <c r="AA264" s="29"/>
-      <c r="AB264" s="29"/>
-      <c r="AC264" s="29"/>
-      <c r="AD264" s="29"/>
-      <c r="AE264" s="29"/>
-      <c r="AF264" s="29"/>
-      <c r="AG264" s="29"/>
-      <c r="AH264" s="29"/>
-      <c r="AI264" s="29"/>
-    </row>
-    <row r="265" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D265" s="42" t="str">
+    <row r="242" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D242" s="42" t="str">
         <f>$C$7&amp;"10."</f>
         <v>3.1.10.</v>
       </c>
-      <c r="E265" s="41" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="266" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D266" s="42"/>
-    </row>
-    <row r="267" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D267" s="42"/>
-      <c r="E267" s="42" t="str">
-        <f>$D$265&amp;"1."</f>
+      <c r="E242" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="243" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D243" s="42"/>
+    </row>
+    <row r="244" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D244" s="42"/>
+      <c r="E244" s="42" t="str">
+        <f>$D$242&amp;"1."</f>
         <v>3.1.10.1.</v>
       </c>
-      <c r="F267" s="41" t="str">
-        <f>$E$265&amp;"概要"</f>
+      <c r="F244" s="41" t="str">
+        <f>$E$242&amp;"概要"</f>
         <v>URL設計概要</v>
       </c>
     </row>
-    <row r="268" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D268" s="42"/>
-      <c r="F268" s="41" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="269" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D269" s="42"/>
-      <c r="F269" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="G269" s="41" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="270" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D270" s="42"/>
-    </row>
-    <row r="271" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D271" s="42"/>
-      <c r="E271" s="42" t="str">
-        <f>$D$265&amp;"2."</f>
+    <row r="245" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D245" s="42"/>
+      <c r="F245" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="246" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D246" s="42"/>
+      <c r="F246" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="G246" s="41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="247" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D247" s="42"/>
+    </row>
+    <row r="248" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D248" s="42"/>
+      <c r="E248" s="42" t="str">
+        <f>$D$242&amp;"2."</f>
         <v>3.1.10.2.</v>
       </c>
-      <c r="F271" s="41" t="str">
-        <f>$E$265&amp;"方針"</f>
+      <c r="F248" s="41" t="str">
+        <f>$E$242&amp;"方針"</f>
         <v>URL設計方針</v>
       </c>
     </row>
-    <row r="272" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D272" s="42"/>
-      <c r="F272" s="41" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="273" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D273" s="42"/>
-      <c r="F273" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="G273" s="53"/>
-      <c r="H273" s="53"/>
-      <c r="I273" s="53"/>
-      <c r="J273" s="53"/>
-      <c r="K273" s="54"/>
-      <c r="L273" s="52" t="s">
+    <row r="249" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D249" s="42"/>
+      <c r="F249" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="250" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D250" s="42"/>
+      <c r="F250" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="G250" s="53"/>
+      <c r="H250" s="53"/>
+      <c r="I250" s="53"/>
+      <c r="J250" s="53"/>
+      <c r="K250" s="54"/>
+      <c r="L250" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="M273" s="53"/>
-      <c r="N273" s="53"/>
-      <c r="O273" s="53"/>
-      <c r="P273" s="53"/>
-      <c r="Q273" s="53"/>
-      <c r="R273" s="53"/>
-      <c r="S273" s="53"/>
-      <c r="T273" s="53"/>
-      <c r="U273" s="53"/>
-      <c r="V273" s="53"/>
-      <c r="W273" s="53"/>
-      <c r="X273" s="53"/>
-      <c r="Y273" s="53"/>
-      <c r="Z273" s="53"/>
-      <c r="AA273" s="53"/>
-      <c r="AB273" s="53"/>
-      <c r="AC273" s="53"/>
-      <c r="AD273" s="53"/>
-      <c r="AE273" s="53"/>
-      <c r="AF273" s="53"/>
-      <c r="AG273" s="54"/>
-    </row>
-    <row r="274" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D274" s="42"/>
-      <c r="F274" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="G274" s="101"/>
-      <c r="H274" s="101"/>
-      <c r="I274" s="101"/>
-      <c r="J274" s="101"/>
-      <c r="K274" s="103"/>
-      <c r="L274" s="71" t="s">
-        <v>270</v>
-      </c>
-      <c r="M274" s="101"/>
-      <c r="N274" s="101"/>
-      <c r="O274" s="101"/>
-      <c r="P274" s="101"/>
-      <c r="Q274" s="101"/>
-      <c r="R274" s="101"/>
-      <c r="S274" s="101"/>
-      <c r="T274" s="101"/>
-      <c r="U274" s="101"/>
-      <c r="V274" s="101"/>
-      <c r="W274" s="101"/>
-      <c r="X274" s="101"/>
-      <c r="Y274" s="101"/>
-      <c r="Z274" s="101"/>
-      <c r="AA274" s="101"/>
-      <c r="AB274" s="101"/>
-      <c r="AC274" s="101"/>
-      <c r="AD274" s="101"/>
-      <c r="AE274" s="101"/>
-      <c r="AF274" s="101"/>
-      <c r="AG274" s="103"/>
-    </row>
-    <row r="275" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D275" s="42"/>
-      <c r="F275" s="83"/>
-      <c r="G275" s="104"/>
-      <c r="H275" s="104"/>
-      <c r="I275" s="104"/>
-      <c r="J275" s="104"/>
-      <c r="K275" s="105"/>
-      <c r="L275" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="M275" s="104"/>
-      <c r="N275" s="104"/>
-      <c r="O275" s="104"/>
-      <c r="P275" s="104"/>
-      <c r="Q275" s="104"/>
-      <c r="R275" s="104"/>
-      <c r="S275" s="104"/>
-      <c r="T275" s="104"/>
-      <c r="U275" s="104"/>
-      <c r="V275" s="104"/>
-      <c r="W275" s="104"/>
-      <c r="X275" s="104"/>
-      <c r="Y275" s="104"/>
-      <c r="Z275" s="104"/>
-      <c r="AA275" s="104"/>
-      <c r="AB275" s="104"/>
-      <c r="AC275" s="104"/>
-      <c r="AD275" s="104"/>
-      <c r="AE275" s="104"/>
-      <c r="AF275" s="104"/>
-      <c r="AG275" s="105"/>
-    </row>
-    <row r="276" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D276" s="42"/>
-    </row>
-    <row r="277" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M250" s="53"/>
+      <c r="N250" s="53"/>
+      <c r="O250" s="53"/>
+      <c r="P250" s="53"/>
+      <c r="Q250" s="53"/>
+      <c r="R250" s="53"/>
+      <c r="S250" s="53"/>
+      <c r="T250" s="53"/>
+      <c r="U250" s="53"/>
+      <c r="V250" s="53"/>
+      <c r="W250" s="53"/>
+      <c r="X250" s="53"/>
+      <c r="Y250" s="53"/>
+      <c r="Z250" s="53"/>
+      <c r="AA250" s="53"/>
+      <c r="AB250" s="53"/>
+      <c r="AC250" s="53"/>
+      <c r="AD250" s="53"/>
+      <c r="AE250" s="53"/>
+      <c r="AF250" s="53"/>
+      <c r="AG250" s="54"/>
+    </row>
+    <row r="251" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D251" s="42"/>
+      <c r="F251" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="G251" s="100"/>
+      <c r="H251" s="100"/>
+      <c r="I251" s="100"/>
+      <c r="J251" s="100"/>
+      <c r="K251" s="102"/>
+      <c r="L251" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="M251" s="100"/>
+      <c r="N251" s="100"/>
+      <c r="O251" s="100"/>
+      <c r="P251" s="100"/>
+      <c r="Q251" s="100"/>
+      <c r="R251" s="100"/>
+      <c r="S251" s="100"/>
+      <c r="T251" s="100"/>
+      <c r="U251" s="100"/>
+      <c r="V251" s="100"/>
+      <c r="W251" s="100"/>
+      <c r="X251" s="100"/>
+      <c r="Y251" s="100"/>
+      <c r="Z251" s="100"/>
+      <c r="AA251" s="100"/>
+      <c r="AB251" s="100"/>
+      <c r="AC251" s="100"/>
+      <c r="AD251" s="100"/>
+      <c r="AE251" s="100"/>
+      <c r="AF251" s="100"/>
+      <c r="AG251" s="102"/>
+    </row>
+    <row r="252" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D252" s="42"/>
+      <c r="F252" s="82"/>
+      <c r="G252" s="103"/>
+      <c r="H252" s="103"/>
+      <c r="I252" s="103"/>
+      <c r="J252" s="103"/>
+      <c r="K252" s="104"/>
+      <c r="L252" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="M252" s="103"/>
+      <c r="N252" s="103"/>
+      <c r="O252" s="103"/>
+      <c r="P252" s="103"/>
+      <c r="Q252" s="103"/>
+      <c r="R252" s="103"/>
+      <c r="S252" s="103"/>
+      <c r="T252" s="103"/>
+      <c r="U252" s="103"/>
+      <c r="V252" s="103"/>
+      <c r="W252" s="103"/>
+      <c r="X252" s="103"/>
+      <c r="Y252" s="103"/>
+      <c r="Z252" s="103"/>
+      <c r="AA252" s="103"/>
+      <c r="AB252" s="103"/>
+      <c r="AC252" s="103"/>
+      <c r="AD252" s="103"/>
+      <c r="AE252" s="103"/>
+      <c r="AF252" s="103"/>
+      <c r="AG252" s="104"/>
+    </row>
+    <row r="253" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D253" s="42"/>
+    </row>
+    <row r="254" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D254" s="42"/>
+      <c r="E254" s="42" t="str">
+        <f>$D$242&amp;"3."</f>
+        <v>3.1.10.3.</v>
+      </c>
+      <c r="F254" s="41" t="str">
+        <f>$E$242&amp;"詳細"</f>
+        <v>URL設計詳細</v>
+      </c>
+    </row>
+    <row r="255" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D255" s="42"/>
+      <c r="F255" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="G255" s="29"/>
+      <c r="H255" s="29"/>
+    </row>
+    <row r="256" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D256" s="42"/>
+      <c r="F256" s="29"/>
+      <c r="G256" s="29"/>
+      <c r="H256" s="29"/>
+    </row>
+    <row r="257" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D257" s="42"/>
+      <c r="F257" s="29"/>
+      <c r="G257" s="29"/>
+      <c r="H257" s="29"/>
+    </row>
+    <row r="258" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D258" s="42"/>
+      <c r="F258" s="29"/>
+      <c r="G258" s="29"/>
+      <c r="H258" s="29"/>
+    </row>
+    <row r="259" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D259" s="42"/>
+      <c r="F259" s="29"/>
+      <c r="G259" s="29"/>
+      <c r="H259" s="29"/>
+    </row>
+    <row r="260" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D260" s="42"/>
+      <c r="F260" s="29"/>
+      <c r="G260" s="29"/>
+      <c r="H260" s="29"/>
+    </row>
+    <row r="261" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D261" s="42"/>
+      <c r="F261" s="29"/>
+      <c r="G261" s="29"/>
+      <c r="H261" s="29"/>
+    </row>
+    <row r="262" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D262" s="42"/>
+    </row>
+    <row r="263" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D263" s="42"/>
+    </row>
+    <row r="264" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D264" s="42"/>
+    </row>
+    <row r="265" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E265" s="42"/>
+      <c r="F265" s="88"/>
+      <c r="G265" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="H265" s="53"/>
+      <c r="I265" s="53"/>
+      <c r="J265" s="53"/>
+      <c r="K265" s="53"/>
+      <c r="L265" s="54"/>
+      <c r="M265" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="N265" s="53"/>
+      <c r="O265" s="53"/>
+      <c r="P265" s="54"/>
+      <c r="Q265" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="R265" s="53"/>
+      <c r="S265" s="53"/>
+      <c r="T265" s="53"/>
+      <c r="U265" s="53"/>
+      <c r="V265" s="53"/>
+      <c r="W265" s="53"/>
+      <c r="X265" s="53"/>
+      <c r="Y265" s="53"/>
+      <c r="Z265" s="53"/>
+      <c r="AA265" s="53"/>
+      <c r="AB265" s="53"/>
+      <c r="AC265" s="53"/>
+      <c r="AD265" s="53"/>
+      <c r="AE265" s="53"/>
+      <c r="AF265" s="54"/>
+    </row>
+    <row r="266" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E266" s="42"/>
+      <c r="F266" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="G266" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="H266" s="49"/>
+      <c r="I266" s="49"/>
+      <c r="J266" s="49"/>
+      <c r="K266" s="49"/>
+      <c r="L266" s="50"/>
+      <c r="M266" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="N266" s="49"/>
+      <c r="O266" s="49"/>
+      <c r="P266" s="50"/>
+      <c r="Q266" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="R266" s="49"/>
+      <c r="S266" s="49"/>
+      <c r="T266" s="49"/>
+      <c r="U266" s="49"/>
+      <c r="V266" s="49"/>
+      <c r="W266" s="49"/>
+      <c r="X266" s="49"/>
+      <c r="Y266" s="49"/>
+      <c r="Z266" s="49"/>
+      <c r="AA266" s="49"/>
+      <c r="AB266" s="49"/>
+      <c r="AC266" s="49"/>
+      <c r="AD266" s="49"/>
+      <c r="AE266" s="49"/>
+      <c r="AF266" s="50"/>
+    </row>
+    <row r="267" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E267" s="42"/>
+      <c r="F267" s="85"/>
+      <c r="G267" s="46"/>
+      <c r="H267" s="47"/>
+      <c r="I267" s="47"/>
+      <c r="J267" s="47"/>
+      <c r="K267" s="47"/>
+      <c r="L267" s="51"/>
+      <c r="M267" s="47"/>
+      <c r="N267" s="47"/>
+      <c r="O267" s="47"/>
+      <c r="P267" s="51"/>
+      <c r="Q267" s="46"/>
+      <c r="R267" s="47"/>
+      <c r="S267" s="47"/>
+      <c r="T267" s="47"/>
+      <c r="U267" s="47"/>
+      <c r="V267" s="47"/>
+      <c r="W267" s="47"/>
+      <c r="X267" s="47"/>
+      <c r="Y267" s="47"/>
+      <c r="Z267" s="47"/>
+      <c r="AA267" s="47"/>
+      <c r="AB267" s="47"/>
+      <c r="AC267" s="47"/>
+      <c r="AD267" s="47"/>
+      <c r="AE267" s="47"/>
+      <c r="AF267" s="51"/>
+    </row>
+    <row r="268" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E268" s="42"/>
+      <c r="F268" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="G268" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="H268" s="49"/>
+      <c r="I268" s="49"/>
+      <c r="J268" s="49"/>
+      <c r="K268" s="49"/>
+      <c r="L268" s="50"/>
+      <c r="M268" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="N268" s="49"/>
+      <c r="O268" s="49"/>
+      <c r="P268" s="50"/>
+      <c r="Q268" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="R268" s="49"/>
+      <c r="S268" s="49"/>
+      <c r="T268" s="49"/>
+      <c r="U268" s="49"/>
+      <c r="V268" s="49"/>
+      <c r="W268" s="49"/>
+      <c r="X268" s="49"/>
+      <c r="Y268" s="49"/>
+      <c r="Z268" s="49"/>
+      <c r="AA268" s="49"/>
+      <c r="AB268" s="49"/>
+      <c r="AC268" s="49"/>
+      <c r="AD268" s="49"/>
+      <c r="AE268" s="49"/>
+      <c r="AF268" s="50"/>
+    </row>
+    <row r="269" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E269" s="42"/>
+      <c r="F269" s="85"/>
+      <c r="G269" s="46"/>
+      <c r="H269" s="47"/>
+      <c r="I269" s="47"/>
+      <c r="J269" s="47"/>
+      <c r="K269" s="47"/>
+      <c r="L269" s="51"/>
+      <c r="M269" s="47"/>
+      <c r="N269" s="47"/>
+      <c r="O269" s="47"/>
+      <c r="P269" s="51"/>
+      <c r="Q269" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="R269" s="47"/>
+      <c r="S269" s="47"/>
+      <c r="T269" s="47"/>
+      <c r="U269" s="47"/>
+      <c r="V269" s="47"/>
+      <c r="W269" s="47"/>
+      <c r="X269" s="47"/>
+      <c r="Y269" s="47"/>
+      <c r="Z269" s="47"/>
+      <c r="AA269" s="47"/>
+      <c r="AB269" s="47"/>
+      <c r="AC269" s="47"/>
+      <c r="AD269" s="47"/>
+      <c r="AE269" s="47"/>
+      <c r="AF269" s="51"/>
+    </row>
+    <row r="270" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E270" s="42"/>
+      <c r="F270" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="G270" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="H270" s="49"/>
+      <c r="I270" s="49"/>
+      <c r="J270" s="49"/>
+      <c r="K270" s="49"/>
+      <c r="L270" s="50"/>
+      <c r="M270" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="N270" s="49"/>
+      <c r="O270" s="49"/>
+      <c r="P270" s="50"/>
+      <c r="Q270" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="R270" s="49"/>
+      <c r="S270" s="49"/>
+      <c r="T270" s="49"/>
+      <c r="U270" s="49"/>
+      <c r="V270" s="49"/>
+      <c r="W270" s="49"/>
+      <c r="X270" s="49"/>
+      <c r="Y270" s="49"/>
+      <c r="Z270" s="49"/>
+      <c r="AA270" s="49"/>
+      <c r="AB270" s="49"/>
+      <c r="AC270" s="49"/>
+      <c r="AD270" s="49"/>
+      <c r="AE270" s="49"/>
+      <c r="AF270" s="50"/>
+    </row>
+    <row r="271" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E271" s="42"/>
+      <c r="F271" s="85"/>
+      <c r="G271" s="46"/>
+      <c r="H271" s="47"/>
+      <c r="I271" s="47"/>
+      <c r="J271" s="47"/>
+      <c r="K271" s="47"/>
+      <c r="L271" s="51"/>
+      <c r="M271" s="47"/>
+      <c r="N271" s="47"/>
+      <c r="O271" s="47"/>
+      <c r="P271" s="51"/>
+      <c r="Q271" s="46"/>
+      <c r="R271" s="47"/>
+      <c r="S271" s="47"/>
+      <c r="T271" s="47"/>
+      <c r="U271" s="47"/>
+      <c r="V271" s="47"/>
+      <c r="W271" s="47"/>
+      <c r="X271" s="47"/>
+      <c r="Y271" s="47"/>
+      <c r="Z271" s="47"/>
+      <c r="AA271" s="47"/>
+      <c r="AB271" s="47"/>
+      <c r="AC271" s="47"/>
+      <c r="AD271" s="47"/>
+      <c r="AE271" s="47"/>
+      <c r="AF271" s="51"/>
+    </row>
+    <row r="272" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E272" s="42"/>
+      <c r="F272" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="G272" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="H272" s="49"/>
+      <c r="I272" s="49"/>
+      <c r="J272" s="49"/>
+      <c r="K272" s="49"/>
+      <c r="L272" s="50"/>
+      <c r="M272" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="N272" s="49"/>
+      <c r="O272" s="49"/>
+      <c r="P272" s="50"/>
+      <c r="Q272" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="R272" s="49"/>
+      <c r="S272" s="49"/>
+      <c r="T272" s="49"/>
+      <c r="U272" s="49"/>
+      <c r="V272" s="49"/>
+      <c r="W272" s="49"/>
+      <c r="X272" s="49"/>
+      <c r="Y272" s="49"/>
+      <c r="Z272" s="49"/>
+      <c r="AA272" s="49"/>
+      <c r="AB272" s="49"/>
+      <c r="AC272" s="49"/>
+      <c r="AD272" s="49"/>
+      <c r="AE272" s="49"/>
+      <c r="AF272" s="50"/>
+    </row>
+    <row r="273" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E273" s="42"/>
+      <c r="F273" s="90"/>
+      <c r="G273" s="43"/>
+      <c r="H273" s="44"/>
+      <c r="I273" s="44"/>
+      <c r="J273" s="44"/>
+      <c r="K273" s="44"/>
+      <c r="L273" s="45"/>
+      <c r="M273" s="44"/>
+      <c r="N273" s="44"/>
+      <c r="O273" s="44"/>
+      <c r="P273" s="45"/>
+      <c r="Q273" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="R273" s="44"/>
+      <c r="S273" s="44"/>
+      <c r="T273" s="44"/>
+      <c r="U273" s="44"/>
+      <c r="V273" s="44"/>
+      <c r="W273" s="44"/>
+      <c r="X273" s="44"/>
+      <c r="Y273" s="44"/>
+      <c r="Z273" s="44"/>
+      <c r="AA273" s="44"/>
+      <c r="AB273" s="44"/>
+      <c r="AC273" s="44"/>
+      <c r="AD273" s="44"/>
+      <c r="AE273" s="44"/>
+      <c r="AF273" s="45"/>
+    </row>
+    <row r="274" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E274" s="42"/>
+      <c r="F274" s="85"/>
+      <c r="G274" s="46"/>
+      <c r="H274" s="47"/>
+      <c r="I274" s="47"/>
+      <c r="J274" s="47"/>
+      <c r="K274" s="47"/>
+      <c r="L274" s="51"/>
+      <c r="M274" s="47"/>
+      <c r="N274" s="47"/>
+      <c r="O274" s="47"/>
+      <c r="P274" s="51"/>
+      <c r="Q274" s="46"/>
+      <c r="R274" s="47"/>
+      <c r="S274" s="47"/>
+      <c r="T274" s="47"/>
+      <c r="U274" s="47"/>
+      <c r="V274" s="47"/>
+      <c r="W274" s="47"/>
+      <c r="X274" s="47"/>
+      <c r="Y274" s="47"/>
+      <c r="Z274" s="47"/>
+      <c r="AA274" s="47"/>
+      <c r="AB274" s="47"/>
+      <c r="AC274" s="47"/>
+      <c r="AD274" s="47"/>
+      <c r="AE274" s="47"/>
+      <c r="AF274" s="51"/>
+    </row>
+    <row r="275" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E275" s="42"/>
+      <c r="F275" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="G275" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="H275" s="49"/>
+      <c r="I275" s="49"/>
+      <c r="J275" s="49"/>
+      <c r="K275" s="49"/>
+      <c r="L275" s="50"/>
+      <c r="M275" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="N275" s="49"/>
+      <c r="O275" s="49"/>
+      <c r="P275" s="50"/>
+      <c r="Q275" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="R275" s="49"/>
+      <c r="S275" s="49"/>
+      <c r="T275" s="49"/>
+      <c r="U275" s="49"/>
+      <c r="V275" s="49"/>
+      <c r="W275" s="49"/>
+      <c r="X275" s="49"/>
+      <c r="Y275" s="49"/>
+      <c r="Z275" s="49"/>
+      <c r="AA275" s="49"/>
+      <c r="AB275" s="49"/>
+      <c r="AC275" s="49"/>
+      <c r="AD275" s="49"/>
+      <c r="AE275" s="49"/>
+      <c r="AF275" s="50"/>
+    </row>
+    <row r="276" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E276" s="67"/>
+      <c r="F276" s="89"/>
+      <c r="G276" s="82"/>
+      <c r="H276" s="47"/>
+      <c r="I276" s="47"/>
+      <c r="J276" s="47"/>
+      <c r="K276" s="47"/>
+      <c r="L276" s="51"/>
+      <c r="M276" s="47"/>
+      <c r="N276" s="47"/>
+      <c r="O276" s="47"/>
+      <c r="P276" s="51"/>
+      <c r="Q276" s="46"/>
+      <c r="R276" s="47"/>
+      <c r="S276" s="47"/>
+      <c r="T276" s="47"/>
+      <c r="U276" s="47"/>
+      <c r="V276" s="47"/>
+      <c r="W276" s="47"/>
+      <c r="X276" s="47"/>
+      <c r="Y276" s="47"/>
+      <c r="Z276" s="47"/>
+      <c r="AA276" s="47"/>
+      <c r="AB276" s="47"/>
+      <c r="AC276" s="47"/>
+      <c r="AD276" s="47"/>
+      <c r="AE276" s="47"/>
+      <c r="AF276" s="51"/>
+    </row>
+    <row r="277" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="42"/>
-      <c r="E277" s="42" t="str">
-        <f>$D$265&amp;"3."</f>
-        <v>3.1.10.3.</v>
-      </c>
-      <c r="F277" s="41" t="str">
-        <f>$E$265&amp;"詳細"</f>
-        <v>URL設計詳細</v>
-      </c>
-    </row>
-    <row r="278" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E277" s="36"/>
+      <c r="F277" s="36"/>
+      <c r="G277" s="36"/>
+    </row>
+    <row r="278" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="42"/>
-      <c r="F278" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="G278" s="29"/>
-      <c r="H278" s="29"/>
-    </row>
-    <row r="279" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E278" s="36"/>
+      <c r="F278" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G278" s="36"/>
+    </row>
+    <row r="279" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="42"/>
-      <c r="F279" s="29"/>
-      <c r="G279" s="29"/>
-      <c r="H279" s="29"/>
-    </row>
-    <row r="280" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E279" s="36"/>
+      <c r="F279" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G279" s="36"/>
+    </row>
+    <row r="280" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="42"/>
-      <c r="F280" s="29"/>
-      <c r="G280" s="29"/>
-      <c r="H280" s="29"/>
-    </row>
-    <row r="281" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D281" s="42"/>
-      <c r="F281" s="29"/>
-      <c r="G281" s="29"/>
-      <c r="H281" s="29"/>
-    </row>
-    <row r="282" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D282" s="42"/>
-      <c r="F282" s="29"/>
-      <c r="G282" s="29"/>
-      <c r="H282" s="29"/>
-    </row>
-    <row r="283" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D283" s="42"/>
-      <c r="F283" s="29"/>
-      <c r="G283" s="29"/>
-      <c r="H283" s="29"/>
-    </row>
-    <row r="284" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D284" s="42"/>
-      <c r="F284" s="29"/>
-      <c r="G284" s="29"/>
-      <c r="H284" s="29"/>
-    </row>
-    <row r="285" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D285" s="42"/>
-    </row>
-    <row r="286" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D286" s="42"/>
-    </row>
-    <row r="287" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D287" s="42"/>
-    </row>
-    <row r="288" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E288" s="42"/>
-      <c r="F288" s="89"/>
-      <c r="G288" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="H288" s="53"/>
-      <c r="I288" s="53"/>
-      <c r="J288" s="53"/>
-      <c r="K288" s="53"/>
-      <c r="L288" s="54"/>
-      <c r="M288" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="N288" s="53"/>
-      <c r="O288" s="53"/>
-      <c r="P288" s="54"/>
-      <c r="Q288" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="R288" s="53"/>
-      <c r="S288" s="53"/>
-      <c r="T288" s="53"/>
-      <c r="U288" s="53"/>
-      <c r="V288" s="53"/>
-      <c r="W288" s="53"/>
-      <c r="X288" s="53"/>
-      <c r="Y288" s="53"/>
-      <c r="Z288" s="53"/>
-      <c r="AA288" s="53"/>
-      <c r="AB288" s="53"/>
-      <c r="AC288" s="53"/>
-      <c r="AD288" s="53"/>
-      <c r="AE288" s="53"/>
-      <c r="AF288" s="54"/>
-    </row>
-    <row r="289" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E289" s="42"/>
-      <c r="F289" s="88" t="s">
-        <v>209</v>
-      </c>
-      <c r="G289" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="H289" s="49"/>
-      <c r="I289" s="49"/>
-      <c r="J289" s="49"/>
-      <c r="K289" s="49"/>
-      <c r="L289" s="50"/>
-      <c r="M289" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="N289" s="49"/>
-      <c r="O289" s="49"/>
-      <c r="P289" s="50"/>
-      <c r="Q289" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="R289" s="49"/>
-      <c r="S289" s="49"/>
-      <c r="T289" s="49"/>
-      <c r="U289" s="49"/>
-      <c r="V289" s="49"/>
-      <c r="W289" s="49"/>
-      <c r="X289" s="49"/>
-      <c r="Y289" s="49"/>
-      <c r="Z289" s="49"/>
-      <c r="AA289" s="49"/>
-      <c r="AB289" s="49"/>
-      <c r="AC289" s="49"/>
-      <c r="AD289" s="49"/>
-      <c r="AE289" s="49"/>
-      <c r="AF289" s="50"/>
-    </row>
-    <row r="290" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E290" s="42"/>
-      <c r="F290" s="86"/>
-      <c r="G290" s="46"/>
-      <c r="H290" s="47"/>
-      <c r="I290" s="47"/>
-      <c r="J290" s="47"/>
-      <c r="K290" s="47"/>
-      <c r="L290" s="51"/>
-      <c r="M290" s="47"/>
-      <c r="N290" s="47"/>
-      <c r="O290" s="47"/>
-      <c r="P290" s="51"/>
-      <c r="Q290" s="46"/>
-      <c r="R290" s="47"/>
-      <c r="S290" s="47"/>
-      <c r="T290" s="47"/>
-      <c r="U290" s="47"/>
-      <c r="V290" s="47"/>
-      <c r="W290" s="47"/>
-      <c r="X290" s="47"/>
-      <c r="Y290" s="47"/>
-      <c r="Z290" s="47"/>
-      <c r="AA290" s="47"/>
-      <c r="AB290" s="47"/>
-      <c r="AC290" s="47"/>
-      <c r="AD290" s="47"/>
-      <c r="AE290" s="47"/>
-      <c r="AF290" s="51"/>
-    </row>
-    <row r="291" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E291" s="42"/>
-      <c r="F291" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="G291" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="H291" s="49"/>
-      <c r="I291" s="49"/>
-      <c r="J291" s="49"/>
-      <c r="K291" s="49"/>
-      <c r="L291" s="50"/>
-      <c r="M291" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="N291" s="49"/>
-      <c r="O291" s="49"/>
-      <c r="P291" s="50"/>
-      <c r="Q291" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="R291" s="49"/>
-      <c r="S291" s="49"/>
-      <c r="T291" s="49"/>
-      <c r="U291" s="49"/>
-      <c r="V291" s="49"/>
-      <c r="W291" s="49"/>
-      <c r="X291" s="49"/>
-      <c r="Y291" s="49"/>
-      <c r="Z291" s="49"/>
-      <c r="AA291" s="49"/>
-      <c r="AB291" s="49"/>
-      <c r="AC291" s="49"/>
-      <c r="AD291" s="49"/>
-      <c r="AE291" s="49"/>
-      <c r="AF291" s="50"/>
-    </row>
-    <row r="292" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E292" s="42"/>
-      <c r="F292" s="86"/>
-      <c r="G292" s="46"/>
-      <c r="H292" s="47"/>
-      <c r="I292" s="47"/>
-      <c r="J292" s="47"/>
-      <c r="K292" s="47"/>
-      <c r="L292" s="51"/>
-      <c r="M292" s="47"/>
-      <c r="N292" s="47"/>
-      <c r="O292" s="47"/>
-      <c r="P292" s="51"/>
-      <c r="Q292" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="R292" s="47"/>
-      <c r="S292" s="47"/>
-      <c r="T292" s="47"/>
-      <c r="U292" s="47"/>
-      <c r="V292" s="47"/>
-      <c r="W292" s="47"/>
-      <c r="X292" s="47"/>
-      <c r="Y292" s="47"/>
-      <c r="Z292" s="47"/>
-      <c r="AA292" s="47"/>
-      <c r="AB292" s="47"/>
-      <c r="AC292" s="47"/>
-      <c r="AD292" s="47"/>
-      <c r="AE292" s="47"/>
-      <c r="AF292" s="51"/>
-    </row>
-    <row r="293" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E293" s="42"/>
-      <c r="F293" s="88" t="s">
-        <v>205</v>
-      </c>
-      <c r="G293" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="H293" s="49"/>
-      <c r="I293" s="49"/>
-      <c r="J293" s="49"/>
-      <c r="K293" s="49"/>
-      <c r="L293" s="50"/>
-      <c r="M293" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="N293" s="49"/>
-      <c r="O293" s="49"/>
-      <c r="P293" s="50"/>
-      <c r="Q293" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="R293" s="49"/>
-      <c r="S293" s="49"/>
-      <c r="T293" s="49"/>
-      <c r="U293" s="49"/>
-      <c r="V293" s="49"/>
-      <c r="W293" s="49"/>
-      <c r="X293" s="49"/>
-      <c r="Y293" s="49"/>
-      <c r="Z293" s="49"/>
-      <c r="AA293" s="49"/>
-      <c r="AB293" s="49"/>
-      <c r="AC293" s="49"/>
-      <c r="AD293" s="49"/>
-      <c r="AE293" s="49"/>
-      <c r="AF293" s="50"/>
-    </row>
-    <row r="294" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E294" s="42"/>
-      <c r="F294" s="86"/>
-      <c r="G294" s="46"/>
-      <c r="H294" s="47"/>
-      <c r="I294" s="47"/>
-      <c r="J294" s="47"/>
-      <c r="K294" s="47"/>
-      <c r="L294" s="51"/>
-      <c r="M294" s="47"/>
-      <c r="N294" s="47"/>
-      <c r="O294" s="47"/>
-      <c r="P294" s="51"/>
-      <c r="Q294" s="46"/>
-      <c r="R294" s="47"/>
-      <c r="S294" s="47"/>
-      <c r="T294" s="47"/>
-      <c r="U294" s="47"/>
-      <c r="V294" s="47"/>
-      <c r="W294" s="47"/>
-      <c r="X294" s="47"/>
-      <c r="Y294" s="47"/>
-      <c r="Z294" s="47"/>
-      <c r="AA294" s="47"/>
-      <c r="AB294" s="47"/>
-      <c r="AC294" s="47"/>
-      <c r="AD294" s="47"/>
-      <c r="AE294" s="47"/>
-      <c r="AF294" s="51"/>
-    </row>
-    <row r="295" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E295" s="42"/>
-      <c r="F295" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="G295" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="H295" s="49"/>
-      <c r="I295" s="49"/>
-      <c r="J295" s="49"/>
-      <c r="K295" s="49"/>
-      <c r="L295" s="50"/>
-      <c r="M295" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="N295" s="49"/>
-      <c r="O295" s="49"/>
-      <c r="P295" s="50"/>
-      <c r="Q295" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="R295" s="49"/>
-      <c r="S295" s="49"/>
-      <c r="T295" s="49"/>
-      <c r="U295" s="49"/>
-      <c r="V295" s="49"/>
-      <c r="W295" s="49"/>
-      <c r="X295" s="49"/>
-      <c r="Y295" s="49"/>
-      <c r="Z295" s="49"/>
-      <c r="AA295" s="49"/>
-      <c r="AB295" s="49"/>
-      <c r="AC295" s="49"/>
-      <c r="AD295" s="49"/>
-      <c r="AE295" s="49"/>
-      <c r="AF295" s="50"/>
-    </row>
-    <row r="296" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E296" s="42"/>
-      <c r="F296" s="91"/>
-      <c r="G296" s="43"/>
-      <c r="H296" s="44"/>
-      <c r="I296" s="44"/>
-      <c r="J296" s="44"/>
-      <c r="K296" s="44"/>
-      <c r="L296" s="45"/>
-      <c r="M296" s="44"/>
-      <c r="N296" s="44"/>
-      <c r="O296" s="44"/>
-      <c r="P296" s="45"/>
-      <c r="Q296" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="R296" s="44"/>
-      <c r="S296" s="44"/>
-      <c r="T296" s="44"/>
-      <c r="U296" s="44"/>
-      <c r="V296" s="44"/>
-      <c r="W296" s="44"/>
-      <c r="X296" s="44"/>
-      <c r="Y296" s="44"/>
-      <c r="Z296" s="44"/>
-      <c r="AA296" s="44"/>
-      <c r="AB296" s="44"/>
-      <c r="AC296" s="44"/>
-      <c r="AD296" s="44"/>
-      <c r="AE296" s="44"/>
-      <c r="AF296" s="45"/>
-    </row>
-    <row r="297" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E297" s="42"/>
-      <c r="F297" s="86"/>
-      <c r="G297" s="46"/>
-      <c r="H297" s="47"/>
-      <c r="I297" s="47"/>
-      <c r="J297" s="47"/>
-      <c r="K297" s="47"/>
-      <c r="L297" s="51"/>
-      <c r="M297" s="47"/>
-      <c r="N297" s="47"/>
-      <c r="O297" s="47"/>
-      <c r="P297" s="51"/>
-      <c r="Q297" s="46"/>
-      <c r="R297" s="47"/>
-      <c r="S297" s="47"/>
-      <c r="T297" s="47"/>
-      <c r="U297" s="47"/>
-      <c r="V297" s="47"/>
-      <c r="W297" s="47"/>
-      <c r="X297" s="47"/>
-      <c r="Y297" s="47"/>
-      <c r="Z297" s="47"/>
-      <c r="AA297" s="47"/>
-      <c r="AB297" s="47"/>
-      <c r="AC297" s="47"/>
-      <c r="AD297" s="47"/>
-      <c r="AE297" s="47"/>
-      <c r="AF297" s="51"/>
-    </row>
-    <row r="298" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E298" s="42"/>
-      <c r="F298" s="87" t="s">
-        <v>216</v>
-      </c>
-      <c r="G298" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="H298" s="49"/>
-      <c r="I298" s="49"/>
-      <c r="J298" s="49"/>
-      <c r="K298" s="49"/>
-      <c r="L298" s="50"/>
-      <c r="M298" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="N298" s="49"/>
-      <c r="O298" s="49"/>
-      <c r="P298" s="50"/>
-      <c r="Q298" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="R298" s="49"/>
-      <c r="S298" s="49"/>
-      <c r="T298" s="49"/>
-      <c r="U298" s="49"/>
-      <c r="V298" s="49"/>
-      <c r="W298" s="49"/>
-      <c r="X298" s="49"/>
-      <c r="Y298" s="49"/>
-      <c r="Z298" s="49"/>
-      <c r="AA298" s="49"/>
-      <c r="AB298" s="49"/>
-      <c r="AC298" s="49"/>
-      <c r="AD298" s="49"/>
-      <c r="AE298" s="49"/>
-      <c r="AF298" s="50"/>
-    </row>
-    <row r="299" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E299" s="68"/>
-      <c r="F299" s="90"/>
-      <c r="G299" s="83"/>
-      <c r="H299" s="47"/>
-      <c r="I299" s="47"/>
-      <c r="J299" s="47"/>
-      <c r="K299" s="47"/>
-      <c r="L299" s="51"/>
-      <c r="M299" s="47"/>
-      <c r="N299" s="47"/>
-      <c r="O299" s="47"/>
-      <c r="P299" s="51"/>
-      <c r="Q299" s="46"/>
-      <c r="R299" s="47"/>
-      <c r="S299" s="47"/>
-      <c r="T299" s="47"/>
-      <c r="U299" s="47"/>
-      <c r="V299" s="47"/>
-      <c r="W299" s="47"/>
-      <c r="X299" s="47"/>
-      <c r="Y299" s="47"/>
-      <c r="Z299" s="47"/>
-      <c r="AA299" s="47"/>
-      <c r="AB299" s="47"/>
-      <c r="AC299" s="47"/>
-      <c r="AD299" s="47"/>
-      <c r="AE299" s="47"/>
-      <c r="AF299" s="51"/>
-    </row>
-    <row r="300" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D300" s="42"/>
-      <c r="E300" s="36"/>
-      <c r="F300" s="36"/>
-      <c r="G300" s="36"/>
-    </row>
-    <row r="301" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D301" s="42"/>
-      <c r="E301" s="36"/>
-      <c r="F301" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="G301" s="36"/>
-    </row>
-    <row r="302" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D302" s="42"/>
-      <c r="E302" s="36"/>
-      <c r="F302" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="G302" s="36"/>
-    </row>
-    <row r="303" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D303" s="42"/>
-    </row>
-    <row r="304" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D306" s="28" t="str">
+    </row>
+    <row r="281" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D283" s="28" t="str">
         <f>$C$7&amp;"11."</f>
         <v>3.1.11.</v>
       </c>
-      <c r="E306" s="4" t="s">
+      <c r="E283" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="307" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D307" s="28"/>
-      <c r="E307" s="28" t="str">
-        <f>D306&amp;"1."</f>
+    <row r="284" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D284" s="28"/>
+      <c r="E284" s="28" t="str">
+        <f>D283&amp;"1."</f>
         <v>3.1.11.1.</v>
       </c>
-      <c r="F307" s="4" t="str">
-        <f>E306&amp;"機能概要"</f>
+      <c r="F284" s="4" t="str">
+        <f>E283&amp;"機能概要"</f>
         <v>コンテンツ更新機能概要</v>
       </c>
     </row>
-    <row r="308" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D308" s="42"/>
-      <c r="E308" s="42"/>
-      <c r="F308" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="309" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F309" s="36" t="s">
-        <v>192</v>
+    <row r="285" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D285" s="42"/>
+      <c r="E285" s="42"/>
+      <c r="F285" s="36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="286" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F286" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="287" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F287" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="288" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F288" s="19"/>
+      <c r="G288" s="19"/>
+      <c r="H288" s="19"/>
+      <c r="I288" s="19"/>
+      <c r="J288" s="19"/>
+      <c r="K288" s="19"/>
+      <c r="L288" s="19"/>
+      <c r="M288" s="19"/>
+      <c r="N288" s="19"/>
+      <c r="O288" s="19"/>
+      <c r="P288" s="19"/>
+      <c r="Q288" s="19"/>
+      <c r="R288" s="19"/>
+      <c r="S288" s="19"/>
+      <c r="T288" s="19"/>
+      <c r="U288" s="19"/>
+      <c r="V288" s="19"/>
+      <c r="W288" s="19"/>
+      <c r="X288" s="19"/>
+      <c r="Y288" s="19"/>
+      <c r="Z288" s="19"/>
+      <c r="AA288" s="19"/>
+      <c r="AB288" s="19"/>
+      <c r="AC288" s="19"/>
+      <c r="AD288" s="19"/>
+      <c r="AE288" s="19"/>
+      <c r="AF288" s="19"/>
+      <c r="AG288" s="19"/>
+      <c r="AH288" s="19"/>
+    </row>
+    <row r="289" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E289" s="42" t="str">
+        <f>D283&amp;"2."</f>
+        <v>3.1.11.2.</v>
+      </c>
+      <c r="F289" s="41" t="str">
+        <f>E283&amp;"方法"</f>
+        <v>コンテンツ更新方法</v>
+      </c>
+      <c r="G289" s="44"/>
+      <c r="H289" s="44"/>
+      <c r="I289" s="44"/>
+      <c r="J289" s="44"/>
+      <c r="K289" s="44"/>
+      <c r="L289" s="44"/>
+      <c r="M289" s="44"/>
+      <c r="N289" s="44"/>
+      <c r="O289" s="44"/>
+      <c r="P289" s="44"/>
+      <c r="Q289" s="44"/>
+      <c r="R289" s="44"/>
+      <c r="S289" s="44"/>
+      <c r="T289" s="44"/>
+      <c r="U289" s="44"/>
+      <c r="V289" s="44"/>
+      <c r="W289" s="44"/>
+      <c r="X289" s="44"/>
+      <c r="Y289" s="44"/>
+      <c r="Z289" s="44"/>
+      <c r="AA289" s="44"/>
+      <c r="AB289" s="44"/>
+      <c r="AC289" s="44"/>
+      <c r="AD289" s="44"/>
+      <c r="AE289" s="44"/>
+      <c r="AF289" s="44"/>
+      <c r="AG289" s="44"/>
+      <c r="AH289" s="44"/>
+    </row>
+    <row r="290" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F290" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F291" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="G291" s="53"/>
+      <c r="H291" s="53"/>
+      <c r="I291" s="53"/>
+      <c r="J291" s="53"/>
+      <c r="K291" s="54"/>
+      <c r="L291" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="M291" s="53"/>
+      <c r="N291" s="53"/>
+      <c r="O291" s="53"/>
+      <c r="P291" s="53"/>
+      <c r="Q291" s="53"/>
+      <c r="R291" s="54"/>
+      <c r="S291" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="T291" s="53"/>
+      <c r="U291" s="53"/>
+      <c r="V291" s="53"/>
+      <c r="W291" s="53"/>
+      <c r="X291" s="53"/>
+      <c r="Y291" s="53"/>
+      <c r="Z291" s="53"/>
+      <c r="AA291" s="53"/>
+      <c r="AB291" s="53"/>
+      <c r="AC291" s="53"/>
+      <c r="AD291" s="53"/>
+      <c r="AE291" s="53"/>
+      <c r="AF291" s="53"/>
+      <c r="AG291" s="53"/>
+      <c r="AH291" s="54"/>
+    </row>
+    <row r="292" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F292" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="G292" s="94"/>
+      <c r="H292" s="94"/>
+      <c r="I292" s="103"/>
+      <c r="J292" s="103"/>
+      <c r="K292" s="104"/>
+      <c r="L292" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="M292" s="69"/>
+      <c r="N292" s="69"/>
+      <c r="O292" s="94"/>
+      <c r="P292" s="94"/>
+      <c r="Q292" s="94"/>
+      <c r="R292" s="73"/>
+      <c r="S292" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="T292" s="103"/>
+      <c r="U292" s="103"/>
+      <c r="V292" s="103"/>
+      <c r="W292" s="103"/>
+      <c r="X292" s="103"/>
+      <c r="Y292" s="103"/>
+      <c r="Z292" s="103"/>
+      <c r="AA292" s="103"/>
+      <c r="AB292" s="103"/>
+      <c r="AC292" s="103"/>
+      <c r="AD292" s="103"/>
+      <c r="AE292" s="103"/>
+      <c r="AF292" s="103"/>
+      <c r="AG292" s="103"/>
+      <c r="AH292" s="104"/>
+    </row>
+    <row r="293" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F293" s="71"/>
+      <c r="G293" s="71"/>
+      <c r="H293" s="71"/>
+      <c r="I293" s="71"/>
+      <c r="J293" s="71"/>
+      <c r="K293" s="71"/>
+      <c r="L293" s="71"/>
+      <c r="M293" s="44"/>
+      <c r="N293" s="44"/>
+      <c r="O293" s="44"/>
+      <c r="P293" s="44"/>
+      <c r="Q293" s="44"/>
+      <c r="R293" s="44"/>
+      <c r="S293" s="44"/>
+      <c r="T293" s="44"/>
+      <c r="U293" s="44"/>
+      <c r="V293" s="44"/>
+      <c r="W293" s="44"/>
+      <c r="X293" s="44"/>
+      <c r="Y293" s="44"/>
+      <c r="Z293" s="44"/>
+      <c r="AA293" s="44"/>
+      <c r="AB293" s="44"/>
+      <c r="AC293" s="44"/>
+      <c r="AD293" s="44"/>
+      <c r="AE293" s="44"/>
+      <c r="AF293" s="44"/>
+      <c r="AG293" s="44"/>
+      <c r="AH293" s="44"/>
+    </row>
+    <row r="294" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E294" s="28" t="str">
+        <f>D283&amp;"3."</f>
+        <v>3.1.11.3.</v>
+      </c>
+      <c r="F294" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G294" s="36"/>
+      <c r="H294" s="36"/>
+      <c r="I294" s="36"/>
+      <c r="J294" s="36"/>
+      <c r="K294" s="36"/>
+      <c r="L294" s="36"/>
+    </row>
+    <row r="295" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F295" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="G295" s="75" t="str">
+        <f>E283&amp;"方法詳細"</f>
+        <v>コンテンツ更新方法詳細</v>
+      </c>
+      <c r="H295" s="75"/>
+      <c r="I295" s="75"/>
+      <c r="J295" s="75"/>
+      <c r="K295" s="75"/>
+      <c r="L295" s="75"/>
+    </row>
+    <row r="296" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F296" s="78"/>
+      <c r="G296" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="H296" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="I296" s="75"/>
+      <c r="J296" s="75"/>
+      <c r="K296" s="75"/>
+      <c r="L296" s="75"/>
+    </row>
+    <row r="297" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F297" s="78"/>
+      <c r="G297" s="80"/>
+      <c r="H297" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I297" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="J297" s="75"/>
+      <c r="K297" s="75"/>
+      <c r="L297" s="75"/>
+    </row>
+    <row r="298" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F298" s="78"/>
+      <c r="G298" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="H298" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="I298" s="75"/>
+      <c r="J298" s="75"/>
+      <c r="K298" s="75"/>
+      <c r="L298" s="75"/>
+    </row>
+    <row r="299" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F299" s="78"/>
+      <c r="G299" s="75"/>
+      <c r="H299" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I299" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="J299" s="75"/>
+      <c r="K299" s="75"/>
+      <c r="L299" s="75"/>
+    </row>
+    <row r="300" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F300" s="78"/>
+      <c r="G300" s="75"/>
+      <c r="H300" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="I300" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="J300" s="75"/>
+      <c r="K300" s="75"/>
+      <c r="L300" s="75"/>
+    </row>
+    <row r="301" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F301" s="75"/>
+      <c r="G301" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="H301" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I301" s="75"/>
+      <c r="J301" s="75"/>
+      <c r="K301" s="75"/>
+      <c r="L301" s="75"/>
+    </row>
+    <row r="302" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F302" s="36"/>
+      <c r="G302" s="36"/>
+      <c r="H302" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="I302" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="J302" s="36"/>
+      <c r="K302" s="36"/>
+      <c r="L302" s="36"/>
+    </row>
+    <row r="303" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F303" s="36"/>
+      <c r="G303" s="84"/>
+      <c r="H303" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="I303" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="J303" s="36"/>
+      <c r="K303" s="36"/>
+      <c r="L303" s="36"/>
+    </row>
+    <row r="304" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F304" s="36"/>
+      <c r="G304" s="84"/>
+      <c r="H304" s="36"/>
+      <c r="I304" s="36"/>
+      <c r="J304" s="36"/>
+      <c r="K304" s="36"/>
+      <c r="L304" s="36"/>
+    </row>
+    <row r="305" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D305" s="28" t="str">
+        <f>$C$7&amp;"12."</f>
+        <v>3.1.12.</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="306" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D306" s="28"/>
+      <c r="E306" s="61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="307" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D307" s="42"/>
+      <c r="E307" s="61" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="308" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F308" s="19"/>
+      <c r="G308" s="19"/>
+      <c r="H308" s="19"/>
+      <c r="I308" s="19"/>
+      <c r="J308" s="19"/>
+      <c r="K308" s="19"/>
+      <c r="L308" s="19"/>
+      <c r="M308" s="19"/>
+      <c r="N308" s="19"/>
+      <c r="O308" s="19"/>
+      <c r="P308" s="19"/>
+      <c r="Q308" s="19"/>
+      <c r="R308" s="19"/>
+      <c r="S308" s="19"/>
+      <c r="T308" s="19"/>
+      <c r="U308" s="19"/>
+      <c r="V308" s="19"/>
+      <c r="W308" s="19"/>
+      <c r="X308" s="19"/>
+      <c r="Y308" s="19"/>
+      <c r="Z308" s="19"/>
+      <c r="AA308" s="19"/>
+      <c r="AB308" s="19"/>
+      <c r="AC308" s="19"/>
+      <c r="AD308" s="19"/>
+      <c r="AE308" s="19"/>
+      <c r="AF308" s="19"/>
+      <c r="AG308" s="19"/>
+      <c r="AH308" s="19"/>
+    </row>
+    <row r="309" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D309" s="42" t="str">
+        <f>$C$7&amp;"13."</f>
+        <v>3.1.13.</v>
+      </c>
+      <c r="E309" s="41" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F310" s="36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="311" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F311" s="19"/>
-      <c r="G311" s="19"/>
-      <c r="H311" s="19"/>
-      <c r="I311" s="19"/>
-      <c r="J311" s="19"/>
-      <c r="K311" s="19"/>
-      <c r="L311" s="19"/>
-      <c r="M311" s="19"/>
-      <c r="N311" s="19"/>
-      <c r="O311" s="19"/>
-      <c r="P311" s="19"/>
-      <c r="Q311" s="19"/>
-      <c r="R311" s="19"/>
-      <c r="S311" s="19"/>
-      <c r="T311" s="19"/>
-      <c r="U311" s="19"/>
-      <c r="V311" s="19"/>
-      <c r="W311" s="19"/>
-      <c r="X311" s="19"/>
-      <c r="Y311" s="19"/>
-      <c r="Z311" s="19"/>
-      <c r="AA311" s="19"/>
-      <c r="AB311" s="19"/>
-      <c r="AC311" s="19"/>
-      <c r="AD311" s="19"/>
-      <c r="AE311" s="19"/>
-      <c r="AF311" s="19"/>
-      <c r="AG311" s="19"/>
-      <c r="AH311" s="19"/>
+      <c r="D310" s="42"/>
+      <c r="E310" s="41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D311" s="42"/>
+      <c r="E311" s="61" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="312" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E312" s="42" t="str">
-        <f>D306&amp;"2."</f>
-        <v>3.1.11.2.</v>
-      </c>
-      <c r="F312" s="41" t="str">
-        <f>E306&amp;"方法"</f>
-        <v>コンテンツ更新方法</v>
-      </c>
+      <c r="E312" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="F312" s="44"/>
       <c r="G312" s="44"/>
       <c r="H312" s="44"/>
       <c r="I312" s="44"/>
@@ -13172,92 +12478,115 @@
       <c r="AH312" s="44"/>
     </row>
     <row r="313" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F313" s="41" t="s">
-        <v>7</v>
-      </c>
+      <c r="E313" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F313" s="44"/>
+      <c r="G313" s="44"/>
+      <c r="H313" s="44"/>
+      <c r="I313" s="44"/>
+      <c r="J313" s="44"/>
+      <c r="K313" s="44"/>
+      <c r="L313" s="44"/>
+      <c r="M313" s="44"/>
+      <c r="N313" s="44"/>
+      <c r="O313" s="44"/>
+      <c r="P313" s="44"/>
+      <c r="Q313" s="44"/>
+      <c r="R313" s="44"/>
+      <c r="S313" s="44"/>
+      <c r="T313" s="44"/>
+      <c r="U313" s="44"/>
+      <c r="V313" s="44"/>
+      <c r="W313" s="44"/>
+      <c r="X313" s="44"/>
+      <c r="Y313" s="44"/>
+      <c r="Z313" s="44"/>
+      <c r="AA313" s="44"/>
+      <c r="AB313" s="44"/>
+      <c r="AC313" s="44"/>
+      <c r="AD313" s="44"/>
+      <c r="AE313" s="44"/>
+      <c r="AF313" s="44"/>
+      <c r="AG313" s="44"/>
+      <c r="AH313" s="44"/>
     </row>
     <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F314" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G314" s="53"/>
-      <c r="H314" s="53"/>
-      <c r="I314" s="53"/>
-      <c r="J314" s="53"/>
-      <c r="K314" s="54"/>
-      <c r="L314" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="M314" s="53"/>
-      <c r="N314" s="53"/>
-      <c r="O314" s="53"/>
-      <c r="P314" s="53"/>
-      <c r="Q314" s="53"/>
-      <c r="R314" s="54"/>
-      <c r="S314" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="T314" s="53"/>
-      <c r="U314" s="53"/>
-      <c r="V314" s="53"/>
-      <c r="W314" s="53"/>
-      <c r="X314" s="53"/>
-      <c r="Y314" s="53"/>
-      <c r="Z314" s="53"/>
-      <c r="AA314" s="53"/>
-      <c r="AB314" s="53"/>
-      <c r="AC314" s="53"/>
-      <c r="AD314" s="53"/>
-      <c r="AE314" s="53"/>
-      <c r="AF314" s="53"/>
-      <c r="AG314" s="53"/>
-      <c r="AH314" s="54"/>
+      <c r="F314" s="44"/>
+      <c r="G314" s="44"/>
+      <c r="H314" s="44"/>
+      <c r="I314" s="44"/>
+      <c r="J314" s="44"/>
+      <c r="K314" s="44"/>
+      <c r="L314" s="44"/>
+      <c r="M314" s="44"/>
+      <c r="N314" s="44"/>
+      <c r="O314" s="44"/>
+      <c r="P314" s="44"/>
+      <c r="Q314" s="44"/>
+      <c r="R314" s="44"/>
+      <c r="S314" s="44"/>
+      <c r="T314" s="44"/>
+      <c r="U314" s="44"/>
+      <c r="V314" s="44"/>
+      <c r="W314" s="44"/>
+      <c r="X314" s="44"/>
+      <c r="Y314" s="44"/>
+      <c r="Z314" s="44"/>
+      <c r="AA314" s="44"/>
+      <c r="AB314" s="44"/>
+      <c r="AC314" s="44"/>
+      <c r="AD314" s="44"/>
+      <c r="AE314" s="44"/>
+      <c r="AF314" s="44"/>
+      <c r="AG314" s="44"/>
+      <c r="AH314" s="44"/>
     </row>
     <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F315" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="G315" s="95"/>
-      <c r="H315" s="95"/>
-      <c r="I315" s="104"/>
-      <c r="J315" s="104"/>
-      <c r="K315" s="105"/>
-      <c r="L315" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="M315" s="70"/>
-      <c r="N315" s="70"/>
-      <c r="O315" s="95"/>
-      <c r="P315" s="95"/>
-      <c r="Q315" s="95"/>
-      <c r="R315" s="74"/>
-      <c r="S315" s="95" t="s">
-        <v>267</v>
-      </c>
-      <c r="T315" s="104"/>
-      <c r="U315" s="104"/>
-      <c r="V315" s="104"/>
-      <c r="W315" s="104"/>
-      <c r="X315" s="104"/>
-      <c r="Y315" s="104"/>
-      <c r="Z315" s="104"/>
-      <c r="AA315" s="104"/>
-      <c r="AB315" s="104"/>
-      <c r="AC315" s="104"/>
-      <c r="AD315" s="104"/>
-      <c r="AE315" s="104"/>
-      <c r="AF315" s="104"/>
-      <c r="AG315" s="104"/>
-      <c r="AH315" s="105"/>
+      <c r="E315" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="F315" s="44"/>
+      <c r="G315" s="44"/>
+      <c r="H315" s="44"/>
+      <c r="I315" s="44"/>
+      <c r="J315" s="44"/>
+      <c r="K315" s="44"/>
+      <c r="L315" s="44"/>
+      <c r="M315" s="44"/>
+      <c r="N315" s="44"/>
+      <c r="O315" s="44"/>
+      <c r="P315" s="44"/>
+      <c r="Q315" s="44"/>
+      <c r="R315" s="44"/>
+      <c r="S315" s="44"/>
+      <c r="T315" s="44"/>
+      <c r="U315" s="44"/>
+      <c r="V315" s="44"/>
+      <c r="W315" s="44"/>
+      <c r="X315" s="44"/>
+      <c r="Y315" s="44"/>
+      <c r="Z315" s="44"/>
+      <c r="AA315" s="44"/>
+      <c r="AB315" s="44"/>
+      <c r="AC315" s="44"/>
+      <c r="AD315" s="44"/>
+      <c r="AE315" s="44"/>
+      <c r="AF315" s="44"/>
+      <c r="AG315" s="44"/>
+      <c r="AH315" s="44"/>
     </row>
     <row r="316" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F316" s="72"/>
-      <c r="G316" s="72"/>
-      <c r="H316" s="72"/>
-      <c r="I316" s="72"/>
-      <c r="J316" s="72"/>
-      <c r="K316" s="72"/>
-      <c r="L316" s="72"/>
+      <c r="E316" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="F316" s="44"/>
+      <c r="G316" s="44"/>
+      <c r="H316" s="44"/>
+      <c r="I316" s="44"/>
+      <c r="J316" s="44"/>
+      <c r="K316" s="44"/>
+      <c r="L316" s="44"/>
       <c r="M316" s="44"/>
       <c r="N316" s="44"/>
       <c r="O316" s="44"/>
@@ -13282,589 +12611,207 @@
       <c r="AH316" s="44"/>
     </row>
     <row r="317" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E317" s="28" t="str">
-        <f>D306&amp;"3."</f>
-        <v>3.1.11.3.</v>
-      </c>
-      <c r="F317" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="G317" s="36"/>
-      <c r="H317" s="36"/>
-      <c r="I317" s="36"/>
-      <c r="J317" s="36"/>
-      <c r="K317" s="36"/>
-      <c r="L317" s="36"/>
-    </row>
-    <row r="318" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F318" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="G318" s="76" t="str">
-        <f>E306&amp;"方法詳細"</f>
-        <v>コンテンツ更新方法詳細</v>
-      </c>
-      <c r="H318" s="76"/>
-      <c r="I318" s="76"/>
-      <c r="J318" s="76"/>
-      <c r="K318" s="76"/>
-      <c r="L318" s="76"/>
-    </row>
-    <row r="319" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F319" s="79"/>
-      <c r="G319" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="H319" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="I319" s="76"/>
-      <c r="J319" s="76"/>
-      <c r="K319" s="76"/>
-      <c r="L319" s="76"/>
-    </row>
-    <row r="320" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F320" s="79"/>
-      <c r="G320" s="81"/>
-      <c r="H320" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="I320" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="J320" s="76"/>
-      <c r="K320" s="76"/>
-      <c r="L320" s="76"/>
-    </row>
-    <row r="321" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F321" s="79"/>
-      <c r="G321" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H321" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="I321" s="76"/>
-      <c r="J321" s="76"/>
-      <c r="K321" s="76"/>
-      <c r="L321" s="76"/>
-    </row>
-    <row r="322" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F322" s="79"/>
-      <c r="G322" s="76"/>
-      <c r="H322" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="I322" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="J322" s="76"/>
-      <c r="K322" s="76"/>
-      <c r="L322" s="76"/>
-    </row>
-    <row r="323" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F323" s="79"/>
-      <c r="G323" s="76"/>
-      <c r="H323" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="I323" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="J323" s="76"/>
-      <c r="K323" s="76"/>
-      <c r="L323" s="76"/>
-    </row>
-    <row r="324" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F324" s="76"/>
-      <c r="G324" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="H324" s="76" t="s">
-        <v>197</v>
-      </c>
-      <c r="I324" s="76"/>
-      <c r="J324" s="76"/>
-      <c r="K324" s="76"/>
-      <c r="L324" s="76"/>
-    </row>
-    <row r="325" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F325" s="36"/>
-      <c r="G325" s="36"/>
-      <c r="H325" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="I325" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="J325" s="36"/>
-      <c r="K325" s="36"/>
-      <c r="L325" s="36"/>
-    </row>
-    <row r="326" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F326" s="36"/>
-      <c r="G326" s="85"/>
-      <c r="H326" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="I326" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="J326" s="36"/>
-      <c r="K326" s="36"/>
-      <c r="L326" s="36"/>
-    </row>
-    <row r="327" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F327" s="36"/>
-      <c r="G327" s="85"/>
-      <c r="H327" s="36"/>
-      <c r="I327" s="36"/>
-      <c r="J327" s="36"/>
-      <c r="K327" s="36"/>
-      <c r="L327" s="36"/>
-    </row>
-    <row r="328" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D328" s="28" t="str">
-        <f>$C$7&amp;"12."</f>
-        <v>3.1.12.</v>
-      </c>
-      <c r="E328" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="329" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D329" s="28"/>
-      <c r="E329" s="61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="330" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D330" s="42"/>
-      <c r="E330" s="61" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="331" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F331" s="19"/>
-      <c r="G331" s="19"/>
-      <c r="H331" s="19"/>
-      <c r="I331" s="19"/>
-      <c r="J331" s="19"/>
-      <c r="K331" s="19"/>
-      <c r="L331" s="19"/>
-      <c r="M331" s="19"/>
-      <c r="N331" s="19"/>
-      <c r="O331" s="19"/>
-      <c r="P331" s="19"/>
-      <c r="Q331" s="19"/>
-      <c r="R331" s="19"/>
-      <c r="S331" s="19"/>
-      <c r="T331" s="19"/>
-      <c r="U331" s="19"/>
-      <c r="V331" s="19"/>
-      <c r="W331" s="19"/>
-      <c r="X331" s="19"/>
-      <c r="Y331" s="19"/>
-      <c r="Z331" s="19"/>
-      <c r="AA331" s="19"/>
-      <c r="AB331" s="19"/>
-      <c r="AC331" s="19"/>
-      <c r="AD331" s="19"/>
-      <c r="AE331" s="19"/>
-      <c r="AF331" s="19"/>
-      <c r="AG331" s="19"/>
-      <c r="AH331" s="19"/>
-    </row>
-    <row r="332" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D332" s="42" t="str">
-        <f>$C$7&amp;"13."</f>
-        <v>3.1.13.</v>
-      </c>
-      <c r="E332" s="41" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="333" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D333" s="42"/>
-      <c r="E333" s="41" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="334" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D334" s="42"/>
-      <c r="E334" s="61" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="335" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E335" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="F335" s="44"/>
-      <c r="G335" s="44"/>
-      <c r="H335" s="44"/>
-      <c r="I335" s="44"/>
-      <c r="J335" s="44"/>
-      <c r="K335" s="44"/>
-      <c r="L335" s="44"/>
-      <c r="M335" s="44"/>
-      <c r="N335" s="44"/>
-      <c r="O335" s="44"/>
-      <c r="P335" s="44"/>
-      <c r="Q335" s="44"/>
-      <c r="R335" s="44"/>
-      <c r="S335" s="44"/>
-      <c r="T335" s="44"/>
-      <c r="U335" s="44"/>
-      <c r="V335" s="44"/>
-      <c r="W335" s="44"/>
-      <c r="X335" s="44"/>
-      <c r="Y335" s="44"/>
-      <c r="Z335" s="44"/>
-      <c r="AA335" s="44"/>
-      <c r="AB335" s="44"/>
-      <c r="AC335" s="44"/>
-      <c r="AD335" s="44"/>
-      <c r="AE335" s="44"/>
-      <c r="AF335" s="44"/>
-      <c r="AG335" s="44"/>
-      <c r="AH335" s="44"/>
-    </row>
-    <row r="336" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E336" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="F336" s="44"/>
-      <c r="G336" s="44"/>
-      <c r="H336" s="44"/>
-      <c r="I336" s="44"/>
-      <c r="J336" s="44"/>
-      <c r="K336" s="44"/>
-      <c r="L336" s="44"/>
-      <c r="M336" s="44"/>
-      <c r="N336" s="44"/>
-      <c r="O336" s="44"/>
-      <c r="P336" s="44"/>
-      <c r="Q336" s="44"/>
-      <c r="R336" s="44"/>
-      <c r="S336" s="44"/>
-      <c r="T336" s="44"/>
-      <c r="U336" s="44"/>
-      <c r="V336" s="44"/>
-      <c r="W336" s="44"/>
-      <c r="X336" s="44"/>
-      <c r="Y336" s="44"/>
-      <c r="Z336" s="44"/>
-      <c r="AA336" s="44"/>
-      <c r="AB336" s="44"/>
-      <c r="AC336" s="44"/>
-      <c r="AD336" s="44"/>
-      <c r="AE336" s="44"/>
-      <c r="AF336" s="44"/>
-      <c r="AG336" s="44"/>
-      <c r="AH336" s="44"/>
-    </row>
-    <row r="337" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F337" s="44"/>
-      <c r="G337" s="44"/>
-      <c r="H337" s="44"/>
-      <c r="I337" s="44"/>
-      <c r="J337" s="44"/>
-      <c r="K337" s="44"/>
-      <c r="L337" s="44"/>
-      <c r="M337" s="44"/>
-      <c r="N337" s="44"/>
-      <c r="O337" s="44"/>
-      <c r="P337" s="44"/>
-      <c r="Q337" s="44"/>
-      <c r="R337" s="44"/>
-      <c r="S337" s="44"/>
-      <c r="T337" s="44"/>
-      <c r="U337" s="44"/>
-      <c r="V337" s="44"/>
-      <c r="W337" s="44"/>
-      <c r="X337" s="44"/>
-      <c r="Y337" s="44"/>
-      <c r="Z337" s="44"/>
-      <c r="AA337" s="44"/>
-      <c r="AB337" s="44"/>
-      <c r="AC337" s="44"/>
-      <c r="AD337" s="44"/>
-      <c r="AE337" s="44"/>
-      <c r="AF337" s="44"/>
-      <c r="AG337" s="44"/>
-      <c r="AH337" s="44"/>
-    </row>
-    <row r="338" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E338" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="F338" s="44"/>
-      <c r="G338" s="44"/>
-      <c r="H338" s="44"/>
-      <c r="I338" s="44"/>
-      <c r="J338" s="44"/>
-      <c r="K338" s="44"/>
-      <c r="L338" s="44"/>
-      <c r="M338" s="44"/>
-      <c r="N338" s="44"/>
-      <c r="O338" s="44"/>
-      <c r="P338" s="44"/>
-      <c r="Q338" s="44"/>
-      <c r="R338" s="44"/>
-      <c r="S338" s="44"/>
-      <c r="T338" s="44"/>
-      <c r="U338" s="44"/>
-      <c r="V338" s="44"/>
-      <c r="W338" s="44"/>
-      <c r="X338" s="44"/>
-      <c r="Y338" s="44"/>
-      <c r="Z338" s="44"/>
-      <c r="AA338" s="44"/>
-      <c r="AB338" s="44"/>
-      <c r="AC338" s="44"/>
-      <c r="AD338" s="44"/>
-      <c r="AE338" s="44"/>
-      <c r="AF338" s="44"/>
-      <c r="AG338" s="44"/>
-      <c r="AH338" s="44"/>
-    </row>
-    <row r="339" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E339" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="F339" s="44"/>
-      <c r="G339" s="44"/>
-      <c r="H339" s="44"/>
-      <c r="I339" s="44"/>
-      <c r="J339" s="44"/>
-      <c r="K339" s="44"/>
-      <c r="L339" s="44"/>
-      <c r="M339" s="44"/>
-      <c r="N339" s="44"/>
-      <c r="O339" s="44"/>
-      <c r="P339" s="44"/>
-      <c r="Q339" s="44"/>
-      <c r="R339" s="44"/>
-      <c r="S339" s="44"/>
-      <c r="T339" s="44"/>
-      <c r="U339" s="44"/>
-      <c r="V339" s="44"/>
-      <c r="W339" s="44"/>
-      <c r="X339" s="44"/>
-      <c r="Y339" s="44"/>
-      <c r="Z339" s="44"/>
-      <c r="AA339" s="44"/>
-      <c r="AB339" s="44"/>
-      <c r="AC339" s="44"/>
-      <c r="AD339" s="44"/>
-      <c r="AE339" s="44"/>
-      <c r="AF339" s="44"/>
-      <c r="AG339" s="44"/>
-      <c r="AH339" s="44"/>
-    </row>
-    <row r="340" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E340" s="41"/>
-    </row>
-    <row r="341" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E341" s="41" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="343" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D343" s="42" t="str">
+      <c r="E317" s="41"/>
+    </row>
+    <row r="318" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E318" s="41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="320" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D320" s="42" t="str">
         <f>$C$7&amp;"14."</f>
         <v>3.1.14.</v>
       </c>
-      <c r="E343" s="41" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="344" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D344" s="42"/>
-      <c r="E344" s="41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="345" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E345" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="F345" s="53"/>
-      <c r="G345" s="53"/>
-      <c r="H345" s="53"/>
-      <c r="I345" s="53"/>
-      <c r="J345" s="53"/>
-      <c r="K345" s="54"/>
-      <c r="L345" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="M345" s="53"/>
-      <c r="N345" s="53"/>
-      <c r="O345" s="54"/>
-      <c r="P345" s="53" t="s">
+      <c r="E320" s="41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="321" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D321" s="42"/>
+      <c r="E321" s="41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="322" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E322" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F322" s="53"/>
+      <c r="G322" s="53"/>
+      <c r="H322" s="53"/>
+      <c r="I322" s="53"/>
+      <c r="J322" s="53"/>
+      <c r="K322" s="54"/>
+      <c r="L322" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="M322" s="53"/>
+      <c r="N322" s="53"/>
+      <c r="O322" s="54"/>
+      <c r="P322" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q345" s="53"/>
-      <c r="R345" s="53"/>
-      <c r="S345" s="53"/>
-      <c r="T345" s="53"/>
-      <c r="U345" s="53"/>
-      <c r="V345" s="53"/>
-      <c r="W345" s="53"/>
-      <c r="X345" s="53"/>
-      <c r="Y345" s="53"/>
-      <c r="Z345" s="53"/>
-      <c r="AA345" s="53"/>
-      <c r="AB345" s="53"/>
-      <c r="AC345" s="53"/>
-      <c r="AD345" s="53"/>
-      <c r="AE345" s="53"/>
-      <c r="AF345" s="53"/>
-      <c r="AG345" s="53"/>
-      <c r="AH345" s="54"/>
-    </row>
-    <row r="346" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E346" s="111" t="s">
-        <v>316</v>
-      </c>
-      <c r="F346" s="100"/>
-      <c r="G346" s="100"/>
-      <c r="H346" s="72"/>
-      <c r="I346" s="72"/>
-      <c r="J346" s="72"/>
-      <c r="K346" s="102"/>
-      <c r="L346" s="100" t="s">
-        <v>318</v>
-      </c>
-      <c r="M346" s="72"/>
-      <c r="N346" s="72"/>
-      <c r="O346" s="102"/>
-      <c r="P346" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q346" s="72"/>
-      <c r="R346" s="72"/>
-      <c r="S346" s="72"/>
-      <c r="T346" s="72"/>
-      <c r="U346" s="72"/>
-      <c r="V346" s="72"/>
-      <c r="W346" s="72"/>
-      <c r="X346" s="72"/>
-      <c r="Y346" s="72"/>
-      <c r="Z346" s="72"/>
-      <c r="AA346" s="72"/>
-      <c r="AB346" s="72"/>
-      <c r="AC346" s="72"/>
-      <c r="AD346" s="72"/>
-      <c r="AE346" s="72"/>
-      <c r="AF346" s="72"/>
-      <c r="AG346" s="72"/>
-      <c r="AH346" s="96"/>
-    </row>
-    <row r="347" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E347" s="111" t="s">
-        <v>317</v>
-      </c>
-      <c r="F347" s="26"/>
-      <c r="G347" s="26"/>
-      <c r="H347" s="72"/>
-      <c r="I347" s="72"/>
-      <c r="J347" s="72"/>
-      <c r="K347" s="73"/>
-      <c r="L347" s="26"/>
-      <c r="M347" s="72"/>
-      <c r="N347" s="72"/>
-      <c r="O347" s="73"/>
-      <c r="P347" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q347" s="72"/>
-      <c r="R347" s="72"/>
-      <c r="S347" s="72"/>
-      <c r="T347" s="72"/>
-      <c r="U347" s="72"/>
-      <c r="V347" s="72"/>
-      <c r="W347" s="72"/>
-      <c r="X347" s="72"/>
-      <c r="Y347" s="72"/>
-      <c r="Z347" s="72"/>
-      <c r="AA347" s="72"/>
-      <c r="AB347" s="72"/>
-      <c r="AC347" s="72"/>
-      <c r="AD347" s="72"/>
-      <c r="AE347" s="72"/>
-      <c r="AF347" s="72"/>
-      <c r="AG347" s="72"/>
-      <c r="AH347" s="96"/>
-    </row>
-    <row r="348" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E348" s="83"/>
-      <c r="F348" s="78"/>
-      <c r="G348" s="78"/>
-      <c r="H348" s="104"/>
-      <c r="I348" s="104"/>
-      <c r="J348" s="104"/>
-      <c r="K348" s="92"/>
-      <c r="L348" s="78"/>
-      <c r="M348" s="104"/>
-      <c r="N348" s="104"/>
-      <c r="O348" s="92"/>
-      <c r="P348" s="78" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q348" s="104"/>
-      <c r="R348" s="104"/>
-      <c r="S348" s="104"/>
-      <c r="T348" s="104"/>
-      <c r="U348" s="104"/>
-      <c r="V348" s="104"/>
-      <c r="W348" s="104"/>
-      <c r="X348" s="104"/>
-      <c r="Y348" s="104"/>
-      <c r="Z348" s="104"/>
-      <c r="AA348" s="104"/>
-      <c r="AB348" s="104"/>
-      <c r="AC348" s="104"/>
-      <c r="AD348" s="104"/>
-      <c r="AE348" s="104"/>
-      <c r="AF348" s="104"/>
-      <c r="AG348" s="104"/>
-      <c r="AH348" s="105"/>
-    </row>
-    <row r="349" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F349" s="72"/>
-      <c r="G349" s="72"/>
-      <c r="H349" s="72"/>
-      <c r="I349" s="72"/>
-      <c r="J349" s="72"/>
-      <c r="K349" s="72"/>
-      <c r="L349" s="72"/>
-      <c r="M349" s="44"/>
-      <c r="N349" s="44"/>
-      <c r="O349" s="44"/>
-      <c r="P349" s="44"/>
-      <c r="Q349" s="44"/>
-      <c r="R349" s="44"/>
-      <c r="S349" s="44"/>
-      <c r="T349" s="44"/>
-      <c r="U349" s="44"/>
-      <c r="V349" s="44"/>
-      <c r="W349" s="44"/>
-      <c r="X349" s="44"/>
-      <c r="Y349" s="44"/>
-      <c r="Z349" s="44"/>
-      <c r="AA349" s="44"/>
-      <c r="AB349" s="44"/>
-      <c r="AC349" s="44"/>
-      <c r="AD349" s="44"/>
-      <c r="AE349" s="44"/>
-      <c r="AF349" s="44"/>
-      <c r="AG349" s="44"/>
-      <c r="AH349" s="44"/>
-    </row>
-    <row r="350" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F350" s="93"/>
+      <c r="Q322" s="53"/>
+      <c r="R322" s="53"/>
+      <c r="S322" s="53"/>
+      <c r="T322" s="53"/>
+      <c r="U322" s="53"/>
+      <c r="V322" s="53"/>
+      <c r="W322" s="53"/>
+      <c r="X322" s="53"/>
+      <c r="Y322" s="53"/>
+      <c r="Z322" s="53"/>
+      <c r="AA322" s="53"/>
+      <c r="AB322" s="53"/>
+      <c r="AC322" s="53"/>
+      <c r="AD322" s="53"/>
+      <c r="AE322" s="53"/>
+      <c r="AF322" s="53"/>
+      <c r="AG322" s="53"/>
+      <c r="AH322" s="54"/>
+    </row>
+    <row r="323" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E323" s="110" t="s">
+        <v>289</v>
+      </c>
+      <c r="F323" s="99"/>
+      <c r="G323" s="99"/>
+      <c r="H323" s="71"/>
+      <c r="I323" s="71"/>
+      <c r="J323" s="71"/>
+      <c r="K323" s="101"/>
+      <c r="L323" s="99" t="s">
+        <v>291</v>
+      </c>
+      <c r="M323" s="71"/>
+      <c r="N323" s="71"/>
+      <c r="O323" s="101"/>
+      <c r="P323" s="99" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q323" s="71"/>
+      <c r="R323" s="71"/>
+      <c r="S323" s="71"/>
+      <c r="T323" s="71"/>
+      <c r="U323" s="71"/>
+      <c r="V323" s="71"/>
+      <c r="W323" s="71"/>
+      <c r="X323" s="71"/>
+      <c r="Y323" s="71"/>
+      <c r="Z323" s="71"/>
+      <c r="AA323" s="71"/>
+      <c r="AB323" s="71"/>
+      <c r="AC323" s="71"/>
+      <c r="AD323" s="71"/>
+      <c r="AE323" s="71"/>
+      <c r="AF323" s="71"/>
+      <c r="AG323" s="71"/>
+      <c r="AH323" s="95"/>
+    </row>
+    <row r="324" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E324" s="110" t="s">
+        <v>290</v>
+      </c>
+      <c r="F324" s="26"/>
+      <c r="G324" s="26"/>
+      <c r="H324" s="71"/>
+      <c r="I324" s="71"/>
+      <c r="J324" s="71"/>
+      <c r="K324" s="72"/>
+      <c r="L324" s="26"/>
+      <c r="M324" s="71"/>
+      <c r="N324" s="71"/>
+      <c r="O324" s="72"/>
+      <c r="P324" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q324" s="71"/>
+      <c r="R324" s="71"/>
+      <c r="S324" s="71"/>
+      <c r="T324" s="71"/>
+      <c r="U324" s="71"/>
+      <c r="V324" s="71"/>
+      <c r="W324" s="71"/>
+      <c r="X324" s="71"/>
+      <c r="Y324" s="71"/>
+      <c r="Z324" s="71"/>
+      <c r="AA324" s="71"/>
+      <c r="AB324" s="71"/>
+      <c r="AC324" s="71"/>
+      <c r="AD324" s="71"/>
+      <c r="AE324" s="71"/>
+      <c r="AF324" s="71"/>
+      <c r="AG324" s="71"/>
+      <c r="AH324" s="95"/>
+    </row>
+    <row r="325" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E325" s="82"/>
+      <c r="F325" s="77"/>
+      <c r="G325" s="77"/>
+      <c r="H325" s="103"/>
+      <c r="I325" s="103"/>
+      <c r="J325" s="103"/>
+      <c r="K325" s="91"/>
+      <c r="L325" s="77"/>
+      <c r="M325" s="103"/>
+      <c r="N325" s="103"/>
+      <c r="O325" s="91"/>
+      <c r="P325" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q325" s="103"/>
+      <c r="R325" s="103"/>
+      <c r="S325" s="103"/>
+      <c r="T325" s="103"/>
+      <c r="U325" s="103"/>
+      <c r="V325" s="103"/>
+      <c r="W325" s="103"/>
+      <c r="X325" s="103"/>
+      <c r="Y325" s="103"/>
+      <c r="Z325" s="103"/>
+      <c r="AA325" s="103"/>
+      <c r="AB325" s="103"/>
+      <c r="AC325" s="103"/>
+      <c r="AD325" s="103"/>
+      <c r="AE325" s="103"/>
+      <c r="AF325" s="103"/>
+      <c r="AG325" s="103"/>
+      <c r="AH325" s="104"/>
+    </row>
+    <row r="326" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F326" s="71"/>
+      <c r="G326" s="71"/>
+      <c r="H326" s="71"/>
+      <c r="I326" s="71"/>
+      <c r="J326" s="71"/>
+      <c r="K326" s="71"/>
+      <c r="L326" s="71"/>
+      <c r="M326" s="44"/>
+      <c r="N326" s="44"/>
+      <c r="O326" s="44"/>
+      <c r="P326" s="44"/>
+      <c r="Q326" s="44"/>
+      <c r="R326" s="44"/>
+      <c r="S326" s="44"/>
+      <c r="T326" s="44"/>
+      <c r="U326" s="44"/>
+      <c r="V326" s="44"/>
+      <c r="W326" s="44"/>
+      <c r="X326" s="44"/>
+      <c r="Y326" s="44"/>
+      <c r="Z326" s="44"/>
+      <c r="AA326" s="44"/>
+      <c r="AB326" s="44"/>
+      <c r="AC326" s="44"/>
+      <c r="AD326" s="44"/>
+      <c r="AE326" s="44"/>
+      <c r="AF326" s="44"/>
+      <c r="AG326" s="44"/>
+      <c r="AH326" s="44"/>
+    </row>
+    <row r="327" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F327" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13883,7 +12830,7 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="10" manualBreakCount="10">
+  <rowBreaks count="9" manualBreakCount="9">
     <brk id="43" max="34" man="1"/>
     <brk id="78" max="34" man="1"/>
     <brk id="100" max="34" man="1"/>
@@ -13891,9 +12838,8 @@
     <brk id="179" max="34" man="1"/>
     <brk id="208" max="34" man="1"/>
     <brk id="241" max="34" man="1"/>
-    <brk id="264" max="34" man="1"/>
+    <brk id="281" max="34" man="1"/>
     <brk id="304" max="34" man="1"/>
-    <brk id="327" max="34" man="1"/>
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="B5" numberStoredAsText="1"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF80FFF-1A51-4835-B62F-7260AD45E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E79AA6-03CC-41E2-B3DB-3680A3008D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2069,10 +2069,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラー時の遷移画面や、エラーメッセージの表示場所については、PJ固有の要件に定めるUI標準を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザがフォームへ入力した値やユーザ情報等を基に、予めフォームへの初期値設定や、テキストボックスに入力候補を表示させる。</t>
     <rPh sb="9" eb="11">
       <t>ニュウリョク</t>
@@ -2943,6 +2939,10 @@
     <rPh sb="25" eb="27">
       <t>ホジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー時の遷移画面や、エラーメッセージの表示場所についてはUI標準を参照。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4994,7 +4994,7 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
@@ -5038,7 +5038,7 @@
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -5076,7 +5076,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -5112,7 +5112,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -5140,7 +5140,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="46" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5778,7 +5778,7 @@
       <c r="G71" s="100"/>
       <c r="H71" s="105"/>
       <c r="I71" s="106" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J71" s="107"/>
       <c r="K71" s="94"/>
@@ -5958,7 +5958,7 @@
     <row r="76" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="42"/>
       <c r="F76" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
@@ -6046,7 +6046,7 @@
     <row r="81" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D81" s="29"/>
       <c r="F81" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
@@ -6066,7 +6066,7 @@
     <row r="82" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D82" s="29"/>
       <c r="F82" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
@@ -6086,7 +6086,7 @@
     <row r="83" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D83" s="29"/>
       <c r="F83" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
@@ -6634,7 +6634,7 @@
       <c r="O108" s="26"/>
       <c r="P108" s="72"/>
       <c r="Q108" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
@@ -6702,7 +6702,7 @@
       <c r="O110" s="26"/>
       <c r="P110" s="72"/>
       <c r="Q110" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
@@ -6980,7 +6980,7 @@
       <c r="N120" s="71"/>
       <c r="O120" s="95"/>
       <c r="P120" s="71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q120" s="71"/>
       <c r="R120" s="71"/>
@@ -7107,7 +7107,7 @@
         <v>74</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7171,14 +7171,14 @@
       <c r="I128" s="100"/>
       <c r="J128" s="102"/>
       <c r="K128" s="100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L128" s="100"/>
       <c r="M128" s="100"/>
       <c r="N128" s="100"/>
       <c r="O128" s="102"/>
       <c r="P128" s="100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q128" s="100"/>
       <c r="R128" s="100"/>
@@ -7242,14 +7242,14 @@
       <c r="I130" s="71"/>
       <c r="J130" s="95"/>
       <c r="K130" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L130" s="71"/>
       <c r="M130" s="71"/>
       <c r="N130" s="71"/>
       <c r="O130" s="95"/>
       <c r="P130" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q130" s="71"/>
       <c r="R130" s="71"/>
@@ -7276,14 +7276,14 @@
       <c r="I131" s="71"/>
       <c r="J131" s="95"/>
       <c r="K131" s="71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L131" s="71"/>
       <c r="M131" s="71"/>
       <c r="N131" s="71"/>
       <c r="O131" s="95"/>
       <c r="P131" s="71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q131" s="71"/>
       <c r="R131" s="71"/>
@@ -7598,7 +7598,7 @@
         <v>77</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
@@ -7800,7 +7800,7 @@
       <c r="N148" s="99"/>
       <c r="O148" s="101"/>
       <c r="P148" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q148" s="99"/>
       <c r="R148" s="99"/>
@@ -7960,7 +7960,7 @@
       <c r="E153" s="78"/>
       <c r="F153" s="24"/>
       <c r="G153" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
@@ -8020,7 +8020,7 @@
       <c r="E155" s="78"/>
       <c r="F155" s="24"/>
       <c r="G155" s="65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
@@ -8050,7 +8050,7 @@
       <c r="E156" s="78"/>
       <c r="F156" s="24"/>
       <c r="G156" s="65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
@@ -8200,7 +8200,7 @@
       <c r="O160" s="55"/>
       <c r="P160" s="31"/>
       <c r="Q160" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R160" s="55"/>
       <c r="S160" s="55"/>
@@ -8242,7 +8242,7 @@
       <c r="O161" s="57"/>
       <c r="P161" s="58"/>
       <c r="Q161" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R161" s="57"/>
       <c r="S161" s="57"/>
@@ -8391,7 +8391,7 @@
       <c r="O165" s="33"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R165" s="33"/>
       <c r="S165" s="33"/>
@@ -8775,7 +8775,7 @@
       <c r="D176" s="29"/>
       <c r="E176" s="75"/>
       <c r="F176" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G176" s="55" t="str">
         <f>G142</f>
@@ -8815,7 +8815,7 @@
       <c r="E177" s="75"/>
       <c r="F177" s="29"/>
       <c r="G177" s="55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
@@ -8851,7 +8851,7 @@
       <c r="E178" s="75"/>
       <c r="F178" s="29"/>
       <c r="G178" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -8881,7 +8881,7 @@
       <c r="E179" s="75"/>
       <c r="F179" s="29"/>
       <c r="G179" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -9220,7 +9220,7 @@
       <c r="E188" s="29"/>
       <c r="F188" s="29"/>
       <c r="G188" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
@@ -9298,7 +9298,7 @@
       <c r="E190" s="29"/>
       <c r="F190" s="29"/>
       <c r="G190" s="79" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
@@ -10312,7 +10312,7 @@
       <c r="AA215" s="26"/>
       <c r="AB215" s="72"/>
       <c r="AC215" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD215" s="26"/>
       <c r="AE215" s="26"/>
@@ -10474,7 +10474,7 @@
       <c r="AA219" s="26"/>
       <c r="AB219" s="72"/>
       <c r="AC219" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD219" s="26"/>
       <c r="AE219" s="26"/>
@@ -10515,7 +10515,7 @@
       <c r="AA220" s="26"/>
       <c r="AB220" s="72"/>
       <c r="AC220" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD220" s="26"/>
       <c r="AE220" s="26"/>
@@ -10929,7 +10929,7 @@
       <c r="J231" s="55"/>
       <c r="K231" s="31"/>
       <c r="L231" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -11087,7 +11087,7 @@
       <c r="J235" s="55"/>
       <c r="K235" s="31"/>
       <c r="L235" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -11130,7 +11130,7 @@
       <c r="J236" s="33"/>
       <c r="K236" s="34"/>
       <c r="L236" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M236" s="77"/>
       <c r="N236" s="77"/>
@@ -11525,7 +11525,7 @@
     <row r="255" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D255" s="42"/>
       <c r="F255" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G255" s="29"/>
       <c r="H255" s="29"/>
@@ -11699,7 +11699,7 @@
       <c r="O268" s="49"/>
       <c r="P268" s="50"/>
       <c r="Q268" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R268" s="49"/>
       <c r="S268" s="49"/>
@@ -11731,7 +11731,7 @@
       <c r="O269" s="47"/>
       <c r="P269" s="51"/>
       <c r="Q269" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R269" s="47"/>
       <c r="S269" s="47"/>
@@ -12388,7 +12388,7 @@
     <row r="307" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="42"/>
       <c r="E307" s="61" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="308" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12428,24 +12428,24 @@
         <v>3.1.13.</v>
       </c>
       <c r="E309" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D310" s="42"/>
       <c r="E310" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D311" s="42"/>
       <c r="E311" s="61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="312" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E312" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F312" s="44"/>
       <c r="G312" s="44"/>
@@ -12479,7 +12479,7 @@
     </row>
     <row r="313" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E313" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F313" s="44"/>
       <c r="G313" s="44"/>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E315" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F315" s="44"/>
       <c r="G315" s="44"/>
@@ -12578,7 +12578,7 @@
     </row>
     <row r="316" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E316" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F316" s="44"/>
       <c r="G316" s="44"/>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="318" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E318" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="320" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12624,13 +12624,13 @@
         <v>3.1.14.</v>
       </c>
       <c r="E320" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="321" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D321" s="42"/>
       <c r="E321" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="322" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12673,7 +12673,7 @@
     </row>
     <row r="323" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E323" s="110" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F323" s="99"/>
       <c r="G323" s="99"/>
@@ -12682,13 +12682,13 @@
       <c r="J323" s="71"/>
       <c r="K323" s="101"/>
       <c r="L323" s="99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M323" s="71"/>
       <c r="N323" s="71"/>
       <c r="O323" s="101"/>
       <c r="P323" s="99" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q323" s="71"/>
       <c r="R323" s="71"/>
@@ -12711,7 +12711,7 @@
     </row>
     <row r="324" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E324" s="110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F324" s="26"/>
       <c r="G324" s="26"/>
@@ -12724,7 +12724,7 @@
       <c r="N324" s="71"/>
       <c r="O324" s="72"/>
       <c r="P324" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q324" s="71"/>
       <c r="R324" s="71"/>
@@ -12758,7 +12758,7 @@
       <c r="N325" s="103"/>
       <c r="O325" s="91"/>
       <c r="P325" s="77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q325" s="103"/>
       <c r="R325" s="103"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E79AA6-03CC-41E2-B3DB-3680A3008D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD9147B-A280-4F98-9194-CEB5BC563AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="315">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -1452,16 +1452,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;プロジェクト固有の補助ID&gt;</t>
-    <rPh sb="7" eb="9">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(3)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1518,13 +1508,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>必須</t>
-    <rPh sb="0" eb="2">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;メソッド&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1551,26 +1534,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サブシステムIDなどのPJ固有のURL要素を定義する。</t>
-    <rPh sb="13" eb="15">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>任意</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プロジェクトパッケージパスの共通部分に対応する要素を定義する。</t>
     <rPh sb="14" eb="16">
       <t>キョウツウ</t>
@@ -1597,16 +1560,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>必須/任意</t>
-    <rPh sb="0" eb="2">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ルーティングアダプタ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2192,20 +2145,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務画面なら「action」、WEB-APIなら「api」のように</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>機能を表すIDを定義する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ただし、画面にレスポンスを出力中にI/O例外が発生した場合は、２重にレスポンスが出力される可能性があるので、</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2943,6 +2882,24 @@
   </si>
   <si>
     <t>エラー時の遷移画面や、エラーメッセージの表示場所についてはUI標準を参照。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;サブシステムID&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務画面なら「action」、WEB-APIなら「api」のように機能を表すIDを定義する。</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能が属するサブシステムのID。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3862,7 +3819,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>プロジェクト固有の補助</a:t>
+              <a:t>サブシステム</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
@@ -3911,7 +3868,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>&gt;/&lt;</a:t>
+              <a:t>&gt; /&lt;</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -3949,9 +3906,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2371725" y="6334125"/>
-            <a:ext cx="1152525" cy="0"/>
+          <a:xfrm flipV="1">
+            <a:off x="2706635" y="6216928"/>
+            <a:ext cx="991014" cy="3184"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -3990,7 +3947,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2800350" y="6334125"/>
+            <a:off x="3051532" y="6246422"/>
             <a:ext cx="371475" cy="238125"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4029,10 +3986,10 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="221" name="直線コネクタ 220">
+          <xdr:cNvPr id="17" name="直線コネクタ 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2041D19-699E-4658-9867-FC36D643AFD5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4040,8 +3997,128 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="3619500" y="6324600"/>
-            <a:ext cx="1695450" cy="9526"/>
+            <a:off x="3887189" y="6220112"/>
+            <a:ext cx="1627341" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="直線コネクタ 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E480F5-BEF5-42DC-ABB1-806FE449AAE2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5712444" y="6220113"/>
+            <a:ext cx="957522" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="直線コネクタ 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6601E0C2-1F7B-4A94-91A9-AF89E32F2C10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6876253" y="6220115"/>
+            <a:ext cx="907287" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="直線コネクタ 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49B7AB2-259C-48BC-BFDB-5F9A68AF00DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7939589" y="6220116"/>
+            <a:ext cx="572378" cy="1"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -4069,10 +4146,10 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="222" name="テキスト ボックス 221">
+          <xdr:cNvPr id="25" name="テキスト ボックス 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8DA139-3055-48BE-9296-D84BC92ABE3D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4080,7 +4157,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4371975" y="6334125"/>
+            <a:off x="4533505" y="6246422"/>
             <a:ext cx="371475" cy="238125"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4117,52 +4194,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="223" name="直線コネクタ 222">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="テキスト ボックス 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DF000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="5381625" y="6323614"/>
-            <a:ext cx="1694793" cy="987"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="224" name="テキスト ボックス 223">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E0000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487D93E0-9880-4C3A-A44F-74B5E072A7C3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4170,7 +4207,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6086475" y="6324600"/>
+            <a:off x="6040595" y="6246422"/>
             <a:ext cx="371475" cy="238125"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4207,52 +4244,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="225" name="直線コネクタ 224">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="テキスト ボックス 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E1000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7162800" y="6315075"/>
-            <a:ext cx="1047750" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="226" name="テキスト ボックス 225">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E2000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2A9F72-F966-4169-9260-A20218D4CBC0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4260,7 +4257,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7553325" y="6343650"/>
+            <a:off x="7187658" y="6246422"/>
             <a:ext cx="371475" cy="238125"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4297,52 +4294,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="227" name="直線コネクタ 226">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="テキスト ボックス 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8277225" y="6305550"/>
-            <a:ext cx="638175" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="228" name="テキスト ボックス 227">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E4000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F93D924-2EAB-48EC-B96F-8E3AA95D1A19}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4350,7 +4307,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8401050" y="6343650"/>
+            <a:off x="8075168" y="6246422"/>
             <a:ext cx="371475" cy="238125"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4717,7 +4674,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="117" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F1" s="118"/>
       <c r="G1" s="118"/>
@@ -4734,7 +4691,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="120" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="S1" s="121"/>
       <c r="T1" s="121"/>
@@ -4994,13 +4951,13 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="54"/>
       <c r="J14" s="111" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K14" s="112"/>
       <c r="L14" s="112"/>
@@ -5038,7 +4995,7 @@
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="56" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -5076,7 +5033,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="35" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -5112,7 +5069,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="30" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -5140,7 +5097,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="32" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -5239,7 +5196,7 @@
     </row>
     <row r="26" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5404,7 +5361,7 @@
     <row r="37" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="78"/>
       <c r="F37" s="29" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
@@ -5418,7 +5375,7 @@
     <row r="38" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="78"/>
       <c r="F38" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -5467,7 +5424,7 @@
       <c r="I41" s="77"/>
       <c r="J41" s="91"/>
       <c r="K41" s="77" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L41" s="77"/>
       <c r="M41" s="91"/>
@@ -5499,7 +5456,7 @@
     </row>
     <row r="46" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="36" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5515,19 +5472,19 @@
     </row>
     <row r="49" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="36" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="52" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
       <c r="K50" s="53" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
@@ -5564,7 +5521,7 @@
       <c r="I51" s="71"/>
       <c r="J51" s="72"/>
       <c r="K51" s="94" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
@@ -5573,7 +5530,7 @@
       <c r="P51" s="26"/>
       <c r="Q51" s="72"/>
       <c r="R51" s="26" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
@@ -5601,7 +5558,7 @@
       <c r="I52" s="69"/>
       <c r="J52" s="73"/>
       <c r="K52" s="94" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L52" s="94"/>
       <c r="M52" s="94"/>
@@ -5610,7 +5567,7 @@
       <c r="P52" s="94"/>
       <c r="Q52" s="73"/>
       <c r="R52" s="96" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S52" s="94"/>
       <c r="T52" s="94"/>
@@ -5650,7 +5607,7 @@
     <row r="56" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F56" s="67"/>
       <c r="G56" s="36" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5708,17 +5665,17 @@
     </row>
     <row r="65" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F65" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F67" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5734,12 +5691,12 @@
     </row>
     <row r="70" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="52" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="53"/>
       <c r="I70" s="16" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -5754,7 +5711,7 @@
       <c r="T70" s="53"/>
       <c r="U70" s="54"/>
       <c r="V70" s="53" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="W70" s="53"/>
       <c r="X70" s="53"/>
@@ -5778,7 +5735,7 @@
       <c r="G71" s="100"/>
       <c r="H71" s="105"/>
       <c r="I71" s="106" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J71" s="107"/>
       <c r="K71" s="94"/>
@@ -5793,7 +5750,7 @@
       <c r="T71" s="69"/>
       <c r="U71" s="108"/>
       <c r="V71" s="94" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="W71" s="107"/>
       <c r="X71" s="107"/>
@@ -5802,7 +5759,7 @@
       <c r="AA71" s="69"/>
       <c r="AB71" s="73"/>
       <c r="AC71" s="94" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AD71" s="69"/>
       <c r="AE71" s="69"/>
@@ -5830,7 +5787,7 @@
       <c r="T72" s="69"/>
       <c r="U72" s="108"/>
       <c r="V72" s="94" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="W72" s="107"/>
       <c r="X72" s="107"/>
@@ -5839,7 +5796,7 @@
       <c r="AA72" s="69"/>
       <c r="AB72" s="73"/>
       <c r="AC72" s="94" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AD72" s="69"/>
       <c r="AE72" s="69"/>
@@ -5849,7 +5806,7 @@
     </row>
     <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F73" s="96" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G73" s="69"/>
       <c r="H73" s="107"/>
@@ -5869,7 +5826,7 @@
       <c r="T73" s="69"/>
       <c r="U73" s="108"/>
       <c r="V73" s="94" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="W73" s="107"/>
       <c r="X73" s="107"/>
@@ -5878,7 +5835,7 @@
       <c r="AA73" s="69"/>
       <c r="AB73" s="73"/>
       <c r="AC73" s="94" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AD73" s="69"/>
       <c r="AE73" s="69"/>
@@ -5958,7 +5915,7 @@
     <row r="76" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="42"/>
       <c r="F76" s="44" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
@@ -5992,7 +5949,7 @@
     <row r="77" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="42"/>
       <c r="F77" s="36" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H77" s="44"/>
       <c r="I77" s="44"/>
@@ -6046,7 +6003,7 @@
     <row r="81" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D81" s="29"/>
       <c r="F81" s="41" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
@@ -6066,7 +6023,7 @@
     <row r="82" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D82" s="29"/>
       <c r="F82" s="41" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
@@ -6086,7 +6043,7 @@
     <row r="83" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D83" s="29"/>
       <c r="F83" s="41" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
@@ -6116,7 +6073,7 @@
     </row>
     <row r="86" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F86" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6576,7 +6533,7 @@
     </row>
     <row r="106" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F106" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6634,7 +6591,7 @@
       <c r="O108" s="26"/>
       <c r="P108" s="72"/>
       <c r="Q108" s="26" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
@@ -6702,7 +6659,7 @@
       <c r="O110" s="26"/>
       <c r="P110" s="72"/>
       <c r="Q110" s="26" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
@@ -6808,7 +6765,7 @@
       <c r="D115" s="36"/>
       <c r="E115" s="36"/>
       <c r="G115" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AA115" s="41"/>
     </row>
@@ -6864,14 +6821,14 @@
       <c r="I117" s="100"/>
       <c r="J117" s="102"/>
       <c r="K117" s="100" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L117" s="100"/>
       <c r="M117" s="100"/>
       <c r="N117" s="100"/>
       <c r="O117" s="102"/>
       <c r="P117" s="100" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q117" s="100"/>
       <c r="R117" s="100"/>
@@ -6980,7 +6937,7 @@
       <c r="N120" s="71"/>
       <c r="O120" s="95"/>
       <c r="P120" s="71" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Q120" s="71"/>
       <c r="R120" s="71"/>
@@ -7041,14 +6998,14 @@
       <c r="I122" s="71"/>
       <c r="J122" s="95"/>
       <c r="K122" s="71" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L122" s="71"/>
       <c r="M122" s="71"/>
       <c r="N122" s="71"/>
       <c r="O122" s="95"/>
       <c r="P122" s="26" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q122" s="71"/>
       <c r="R122" s="71"/>
@@ -7107,7 +7064,7 @@
         <v>74</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7116,7 +7073,7 @@
       <c r="D126" s="36"/>
       <c r="E126" s="36"/>
       <c r="G126" s="41" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7171,14 +7128,14 @@
       <c r="I128" s="100"/>
       <c r="J128" s="102"/>
       <c r="K128" s="100" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L128" s="100"/>
       <c r="M128" s="100"/>
       <c r="N128" s="100"/>
       <c r="O128" s="102"/>
       <c r="P128" s="100" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Q128" s="100"/>
       <c r="R128" s="100"/>
@@ -7242,14 +7199,14 @@
       <c r="I130" s="71"/>
       <c r="J130" s="95"/>
       <c r="K130" s="71" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L130" s="71"/>
       <c r="M130" s="71"/>
       <c r="N130" s="71"/>
       <c r="O130" s="95"/>
       <c r="P130" s="71" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q130" s="71"/>
       <c r="R130" s="71"/>
@@ -7276,14 +7233,14 @@
       <c r="I131" s="71"/>
       <c r="J131" s="95"/>
       <c r="K131" s="71" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L131" s="71"/>
       <c r="M131" s="71"/>
       <c r="N131" s="71"/>
       <c r="O131" s="95"/>
       <c r="P131" s="71" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q131" s="71"/>
       <c r="R131" s="71"/>
@@ -7598,7 +7555,7 @@
         <v>77</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
@@ -7746,7 +7703,7 @@
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
       <c r="F147" s="62" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
@@ -7754,13 +7711,13 @@
       <c r="J147" s="38"/>
       <c r="K147" s="37"/>
       <c r="L147" s="62" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
       <c r="O147" s="37"/>
       <c r="P147" s="38" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q147" s="38"/>
       <c r="R147" s="38"/>
@@ -7794,13 +7751,13 @@
       <c r="J148" s="99"/>
       <c r="K148" s="99"/>
       <c r="L148" s="98" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M148" s="99"/>
       <c r="N148" s="99"/>
       <c r="O148" s="101"/>
       <c r="P148" s="26" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="Q148" s="99"/>
       <c r="R148" s="99"/>
@@ -7834,13 +7791,13 @@
       <c r="J149" s="94"/>
       <c r="K149" s="94"/>
       <c r="L149" s="96" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M149" s="94"/>
       <c r="N149" s="94"/>
       <c r="O149" s="73"/>
       <c r="P149" s="94" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q149" s="94"/>
       <c r="R149" s="94"/>
@@ -7960,7 +7917,7 @@
       <c r="E153" s="78"/>
       <c r="F153" s="24"/>
       <c r="G153" s="29" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
@@ -8020,7 +7977,7 @@
       <c r="E155" s="78"/>
       <c r="F155" s="24"/>
       <c r="G155" s="65" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
@@ -8050,7 +8007,7 @@
       <c r="E156" s="78"/>
       <c r="F156" s="24"/>
       <c r="G156" s="65" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
@@ -8200,7 +8157,7 @@
       <c r="O160" s="55"/>
       <c r="P160" s="31"/>
       <c r="Q160" s="26" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="R160" s="55"/>
       <c r="S160" s="55"/>
@@ -8242,7 +8199,7 @@
       <c r="O161" s="57"/>
       <c r="P161" s="58"/>
       <c r="Q161" s="57" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="R161" s="57"/>
       <c r="S161" s="57"/>
@@ -8391,7 +8348,7 @@
       <c r="O165" s="33"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="77" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R165" s="33"/>
       <c r="S165" s="33"/>
@@ -8536,7 +8493,7 @@
       <c r="R169" s="39"/>
       <c r="S169" s="40"/>
       <c r="T169" s="35" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="U169" s="39"/>
       <c r="V169" s="39"/>
@@ -8574,7 +8531,7 @@
       <c r="R170" s="55"/>
       <c r="S170" s="31"/>
       <c r="T170" s="30" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="U170" s="55"/>
       <c r="V170" s="55"/>
@@ -8775,7 +8732,7 @@
       <c r="D176" s="29"/>
       <c r="E176" s="75"/>
       <c r="F176" s="24" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G176" s="55" t="str">
         <f>G142</f>
@@ -8815,7 +8772,7 @@
       <c r="E177" s="75"/>
       <c r="F177" s="29"/>
       <c r="G177" s="55" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
@@ -8851,7 +8808,7 @@
       <c r="E178" s="75"/>
       <c r="F178" s="29"/>
       <c r="G178" s="29" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -8881,7 +8838,7 @@
       <c r="E179" s="75"/>
       <c r="F179" s="29"/>
       <c r="G179" s="29" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -9220,7 +9177,7 @@
       <c r="E188" s="29"/>
       <c r="F188" s="29"/>
       <c r="G188" s="66" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
@@ -9259,7 +9216,7 @@
       <c r="E189" s="29"/>
       <c r="F189" s="29"/>
       <c r="G189" s="79" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H189" s="29"/>
       <c r="I189" s="29"/>
@@ -9298,7 +9255,7 @@
       <c r="E190" s="29"/>
       <c r="F190" s="29"/>
       <c r="G190" s="79" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
@@ -9741,7 +9698,7 @@
       <c r="O201" s="55"/>
       <c r="P201" s="31"/>
       <c r="Q201" s="55" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="R201" s="55"/>
       <c r="S201" s="55"/>
@@ -9780,7 +9737,7 @@
       <c r="O202" s="55"/>
       <c r="P202" s="31"/>
       <c r="Q202" s="55" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="R202" s="55"/>
       <c r="S202" s="55"/>
@@ -9901,7 +9858,7 @@
       <c r="O205" s="55"/>
       <c r="P205" s="31"/>
       <c r="Q205" s="55" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="R205" s="55"/>
       <c r="S205" s="55"/>
@@ -9940,7 +9897,7 @@
       <c r="O206" s="55"/>
       <c r="P206" s="31"/>
       <c r="Q206" s="55" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="R206" s="55"/>
       <c r="S206" s="55"/>
@@ -9979,7 +9936,7 @@
       <c r="O207" s="33"/>
       <c r="P207" s="34"/>
       <c r="Q207" s="33" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="R207" s="33"/>
       <c r="S207" s="33"/>
@@ -10312,7 +10269,7 @@
       <c r="AA215" s="26"/>
       <c r="AB215" s="72"/>
       <c r="AC215" s="26" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AD215" s="26"/>
       <c r="AE215" s="26"/>
@@ -10474,7 +10431,7 @@
       <c r="AA219" s="26"/>
       <c r="AB219" s="72"/>
       <c r="AC219" s="26" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AD219" s="26"/>
       <c r="AE219" s="26"/>
@@ -10515,7 +10472,7 @@
       <c r="AA220" s="26"/>
       <c r="AB220" s="72"/>
       <c r="AC220" s="26" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AD220" s="26"/>
       <c r="AE220" s="26"/>
@@ -10929,7 +10886,7 @@
       <c r="J231" s="55"/>
       <c r="K231" s="31"/>
       <c r="L231" s="26" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -11087,7 +11044,7 @@
       <c r="J235" s="55"/>
       <c r="K235" s="31"/>
       <c r="L235" s="26" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -11130,7 +11087,7 @@
       <c r="J236" s="33"/>
       <c r="K236" s="34"/>
       <c r="L236" s="77" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M236" s="77"/>
       <c r="N236" s="77"/>
@@ -11353,7 +11310,7 @@
         <v>3.1.10.</v>
       </c>
       <c r="E242" s="41" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="243" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11373,16 +11330,16 @@
     <row r="245" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D245" s="42"/>
       <c r="F245" s="41" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="246" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D246" s="42"/>
       <c r="F246" s="41" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G246" s="41" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="247" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11402,13 +11359,13 @@
     <row r="249" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D249" s="42"/>
       <c r="F249" s="41" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D250" s="42"/>
       <c r="F250" s="52" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G250" s="53"/>
       <c r="H250" s="53"/>
@@ -11443,7 +11400,7 @@
     <row r="251" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D251" s="42"/>
       <c r="F251" s="70" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G251" s="100"/>
       <c r="H251" s="100"/>
@@ -11451,7 +11408,7 @@
       <c r="J251" s="100"/>
       <c r="K251" s="102"/>
       <c r="L251" s="70" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M251" s="100"/>
       <c r="N251" s="100"/>
@@ -11484,7 +11441,7 @@
       <c r="J252" s="103"/>
       <c r="K252" s="104"/>
       <c r="L252" s="82" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M252" s="103"/>
       <c r="N252" s="103"/>
@@ -11525,7 +11482,7 @@
     <row r="255" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D255" s="42"/>
       <c r="F255" s="29" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G255" s="29"/>
       <c r="H255" s="29"/>
@@ -11579,7 +11536,7 @@
       <c r="E265" s="42"/>
       <c r="F265" s="88"/>
       <c r="G265" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H265" s="53"/>
       <c r="I265" s="53"/>
@@ -11587,14 +11544,12 @@
       <c r="K265" s="53"/>
       <c r="L265" s="54"/>
       <c r="M265" s="53" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N265" s="53"/>
       <c r="O265" s="53"/>
-      <c r="P265" s="54"/>
-      <c r="Q265" s="53" t="s">
-        <v>200</v>
-      </c>
+      <c r="P265" s="53"/>
+      <c r="Q265" s="53"/>
       <c r="R265" s="53"/>
       <c r="S265" s="53"/>
       <c r="T265" s="53"/>
@@ -11614,25 +11569,23 @@
     <row r="266" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E266" s="42"/>
       <c r="F266" s="87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G266" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H266" s="49"/>
       <c r="I266" s="49"/>
       <c r="J266" s="49"/>
       <c r="K266" s="49"/>
       <c r="L266" s="50"/>
-      <c r="M266" s="49" t="s">
-        <v>191</v>
+      <c r="M266" s="48" t="s">
+        <v>195</v>
       </c>
       <c r="N266" s="49"/>
       <c r="O266" s="49"/>
-      <c r="P266" s="50"/>
-      <c r="Q266" s="48" t="s">
-        <v>199</v>
-      </c>
+      <c r="P266" s="49"/>
+      <c r="Q266" s="49"/>
       <c r="R266" s="49"/>
       <c r="S266" s="49"/>
       <c r="T266" s="49"/>
@@ -11658,11 +11611,11 @@
       <c r="J267" s="47"/>
       <c r="K267" s="47"/>
       <c r="L267" s="51"/>
-      <c r="M267" s="47"/>
+      <c r="M267" s="46"/>
       <c r="N267" s="47"/>
       <c r="O267" s="47"/>
-      <c r="P267" s="51"/>
-      <c r="Q267" s="46"/>
+      <c r="P267" s="47"/>
+      <c r="Q267" s="47"/>
       <c r="R267" s="47"/>
       <c r="S267" s="47"/>
       <c r="T267" s="47"/>
@@ -11682,25 +11635,23 @@
     <row r="268" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E268" s="42"/>
       <c r="F268" s="87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G268" s="48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H268" s="49"/>
       <c r="I268" s="49"/>
       <c r="J268" s="49"/>
       <c r="K268" s="49"/>
       <c r="L268" s="50"/>
-      <c r="M268" s="49" t="s">
-        <v>191</v>
+      <c r="M268" s="48" t="s">
+        <v>313</v>
       </c>
       <c r="N268" s="49"/>
       <c r="O268" s="49"/>
-      <c r="P268" s="50"/>
-      <c r="Q268" s="48" t="s">
-        <v>264</v>
-      </c>
+      <c r="P268" s="49"/>
+      <c r="Q268" s="49"/>
       <c r="R268" s="49"/>
       <c r="S268" s="49"/>
       <c r="T268" s="49"/>
@@ -11726,13 +11677,11 @@
       <c r="J269" s="47"/>
       <c r="K269" s="47"/>
       <c r="L269" s="51"/>
-      <c r="M269" s="47"/>
+      <c r="M269" s="46"/>
       <c r="N269" s="47"/>
       <c r="O269" s="47"/>
-      <c r="P269" s="51"/>
-      <c r="Q269" s="46" t="s">
-        <v>265</v>
-      </c>
+      <c r="P269" s="47"/>
+      <c r="Q269" s="47"/>
       <c r="R269" s="47"/>
       <c r="S269" s="47"/>
       <c r="T269" s="47"/>
@@ -11752,25 +11701,23 @@
     <row r="270" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E270" s="42"/>
       <c r="F270" s="87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G270" s="48" t="s">
-        <v>181</v>
+        <v>312</v>
       </c>
       <c r="H270" s="49"/>
       <c r="I270" s="49"/>
       <c r="J270" s="49"/>
       <c r="K270" s="49"/>
       <c r="L270" s="50"/>
-      <c r="M270" s="49" t="s">
-        <v>198</v>
+      <c r="M270" s="48" t="s">
+        <v>314</v>
       </c>
       <c r="N270" s="49"/>
       <c r="O270" s="49"/>
-      <c r="P270" s="50"/>
-      <c r="Q270" s="48" t="s">
-        <v>197</v>
-      </c>
+      <c r="P270" s="49"/>
+      <c r="Q270" s="49"/>
       <c r="R270" s="49"/>
       <c r="S270" s="49"/>
       <c r="T270" s="49"/>
@@ -11796,11 +11743,11 @@
       <c r="J271" s="47"/>
       <c r="K271" s="47"/>
       <c r="L271" s="51"/>
-      <c r="M271" s="47"/>
+      <c r="M271" s="46"/>
       <c r="N271" s="47"/>
       <c r="O271" s="47"/>
-      <c r="P271" s="51"/>
-      <c r="Q271" s="46"/>
+      <c r="P271" s="47"/>
+      <c r="Q271" s="47"/>
       <c r="R271" s="47"/>
       <c r="S271" s="47"/>
       <c r="T271" s="47"/>
@@ -11823,22 +11770,20 @@
         <v>180</v>
       </c>
       <c r="G272" s="48" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H272" s="49"/>
       <c r="I272" s="49"/>
       <c r="J272" s="49"/>
       <c r="K272" s="49"/>
       <c r="L272" s="50"/>
-      <c r="M272" s="49" t="s">
-        <v>191</v>
+      <c r="M272" s="48" t="s">
+        <v>193</v>
       </c>
       <c r="N272" s="49"/>
       <c r="O272" s="49"/>
-      <c r="P272" s="50"/>
-      <c r="Q272" s="48" t="s">
-        <v>195</v>
-      </c>
+      <c r="P272" s="49"/>
+      <c r="Q272" s="49"/>
       <c r="R272" s="49"/>
       <c r="S272" s="49"/>
       <c r="T272" s="49"/>
@@ -11864,13 +11809,13 @@
       <c r="J273" s="44"/>
       <c r="K273" s="44"/>
       <c r="L273" s="45"/>
-      <c r="M273" s="44"/>
+      <c r="M273" s="43" t="s">
+        <v>192</v>
+      </c>
       <c r="N273" s="44"/>
       <c r="O273" s="44"/>
-      <c r="P273" s="45"/>
-      <c r="Q273" s="43" t="s">
-        <v>194</v>
-      </c>
+      <c r="P273" s="44"/>
+      <c r="Q273" s="44"/>
       <c r="R273" s="44"/>
       <c r="S273" s="44"/>
       <c r="T273" s="44"/>
@@ -11896,11 +11841,11 @@
       <c r="J274" s="47"/>
       <c r="K274" s="47"/>
       <c r="L274" s="51"/>
-      <c r="M274" s="47"/>
+      <c r="M274" s="46"/>
       <c r="N274" s="47"/>
       <c r="O274" s="47"/>
-      <c r="P274" s="51"/>
-      <c r="Q274" s="46"/>
+      <c r="P274" s="47"/>
+      <c r="Q274" s="47"/>
       <c r="R274" s="47"/>
       <c r="S274" s="47"/>
       <c r="T274" s="47"/>
@@ -11920,25 +11865,23 @@
     <row r="275" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E275" s="42"/>
       <c r="F275" s="86" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G275" s="48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H275" s="49"/>
       <c r="I275" s="49"/>
       <c r="J275" s="49"/>
       <c r="K275" s="49"/>
       <c r="L275" s="50"/>
-      <c r="M275" s="49" t="s">
-        <v>191</v>
+      <c r="M275" s="48" t="s">
+        <v>189</v>
       </c>
       <c r="N275" s="49"/>
       <c r="O275" s="49"/>
-      <c r="P275" s="50"/>
-      <c r="Q275" s="48" t="s">
-        <v>190</v>
-      </c>
+      <c r="P275" s="49"/>
+      <c r="Q275" s="49"/>
       <c r="R275" s="49"/>
       <c r="S275" s="49"/>
       <c r="T275" s="49"/>
@@ -11964,11 +11907,11 @@
       <c r="J276" s="47"/>
       <c r="K276" s="47"/>
       <c r="L276" s="51"/>
-      <c r="M276" s="47"/>
+      <c r="M276" s="46"/>
       <c r="N276" s="47"/>
       <c r="O276" s="47"/>
-      <c r="P276" s="51"/>
-      <c r="Q276" s="46"/>
+      <c r="P276" s="47"/>
+      <c r="Q276" s="47"/>
       <c r="R276" s="47"/>
       <c r="S276" s="47"/>
       <c r="T276" s="47"/>
@@ -11995,7 +11938,7 @@
       <c r="D278" s="42"/>
       <c r="E278" s="36"/>
       <c r="F278" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G278" s="36"/>
     </row>
@@ -12003,7 +11946,7 @@
       <c r="D279" s="42"/>
       <c r="E279" s="36"/>
       <c r="F279" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G279" s="36"/>
     </row>
@@ -12162,7 +12105,7 @@
     </row>
     <row r="292" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F292" s="82" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G292" s="94"/>
       <c r="H292" s="94"/>
@@ -12179,7 +12122,7 @@
       <c r="Q292" s="94"/>
       <c r="R292" s="73"/>
       <c r="S292" s="94" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="T292" s="103"/>
       <c r="U292" s="103"/>
@@ -12234,7 +12177,7 @@
         <v>3.1.11.3.</v>
       </c>
       <c r="F294" s="36" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G294" s="36"/>
       <c r="H294" s="36"/>
@@ -12388,7 +12331,7 @@
     <row r="307" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="42"/>
       <c r="E307" s="61" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="308" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12428,24 +12371,24 @@
         <v>3.1.13.</v>
       </c>
       <c r="E309" s="41" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D310" s="42"/>
       <c r="E310" s="41" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D311" s="42"/>
       <c r="E311" s="61" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="312" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E312" s="41" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F312" s="44"/>
       <c r="G312" s="44"/>
@@ -12479,7 +12422,7 @@
     </row>
     <row r="313" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E313" s="41" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F313" s="44"/>
       <c r="G313" s="44"/>
@@ -12544,7 +12487,7 @@
     </row>
     <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E315" s="41" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F315" s="44"/>
       <c r="G315" s="44"/>
@@ -12578,7 +12521,7 @@
     </row>
     <row r="316" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E316" s="41" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F316" s="44"/>
       <c r="G316" s="44"/>
@@ -12615,7 +12558,7 @@
     </row>
     <row r="318" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E318" s="41" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="320" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12624,13 +12567,13 @@
         <v>3.1.14.</v>
       </c>
       <c r="E320" s="41" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="321" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D321" s="42"/>
       <c r="E321" s="41" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="322" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12644,7 +12587,7 @@
       <c r="J322" s="53"/>
       <c r="K322" s="54"/>
       <c r="L322" s="53" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M322" s="53"/>
       <c r="N322" s="53"/>
@@ -12673,7 +12616,7 @@
     </row>
     <row r="323" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E323" s="110" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F323" s="99"/>
       <c r="G323" s="99"/>
@@ -12682,13 +12625,13 @@
       <c r="J323" s="71"/>
       <c r="K323" s="101"/>
       <c r="L323" s="99" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M323" s="71"/>
       <c r="N323" s="71"/>
       <c r="O323" s="101"/>
       <c r="P323" s="99" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Q323" s="71"/>
       <c r="R323" s="71"/>
@@ -12711,7 +12654,7 @@
     </row>
     <row r="324" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E324" s="110" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F324" s="26"/>
       <c r="G324" s="26"/>
@@ -12724,7 +12667,7 @@
       <c r="N324" s="71"/>
       <c r="O324" s="72"/>
       <c r="P324" s="26" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Q324" s="71"/>
       <c r="R324" s="71"/>
@@ -12758,7 +12701,7 @@
       <c r="N325" s="103"/>
       <c r="O325" s="91"/>
       <c r="P325" s="77" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="Q325" s="103"/>
       <c r="R325" s="103"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD9147B-A280-4F98-9194-CEB5BC563AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17B8CD8-345D-4E28-B436-B760C81DF266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,8 +11,8 @@
     <sheet name="3.1.同期処理方式" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.1.同期処理方式'!$D$310:$E$317</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.1.同期処理方式'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$315</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$241</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$241</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="307">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -2257,59 +2257,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>動作保証対象とするWebブラウザかどうか、バージョンも含めてチェックを行う。</t>
-    <rPh sb="35" eb="36">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>なお、動作保証対象とする Web ブラウザやプラットフォームについては、開発標準のUI標準に記載。</t>
-    <rPh sb="36" eb="38">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>動作保証対象のブラウザおよびバージョンの設定はコンフィグファイルに設定する方式とする。</t>
-    <rPh sb="19" eb="21">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>詳細は、Nablarch解説書のUserAgent情報取得機能サンプルを参照。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>カイセツショ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://nablarch.github.io/docs/LATEST/doc/examples/07/index.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面処理方式にはファイルアップロードがないため、本アプリケーションではウィルス対策ソフトの影響は無い前提。</t>
     <rPh sb="0" eb="1">
       <t>ガメン</t>
@@ -2331,66 +2278,6 @@
     </rPh>
     <rPh sb="50" eb="52">
       <t>ゼンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、透過的にすべてのリクエストに対してUserAgent情報をもとに動作保証対象かどうかのチェックを実施し、</t>
-    <rPh sb="3" eb="6">
-      <t>トウカテキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ホショウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>動作保証対象外の場合には、エラー画面に遷移する。</t>
-    <rPh sb="0" eb="2">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホショウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>タイショウガイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>動作保証対象ブラウザチェック</t>
-    <rPh sb="0" eb="2">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4657,7 +4544,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI327"/>
+  <dimension ref="A1:AI316"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
@@ -4951,7 +4838,7 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
@@ -4995,7 +4882,7 @@
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -5033,7 +4920,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="35" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -5069,7 +4956,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="30" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -5097,7 +4984,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="32" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -5735,7 +5622,7 @@
       <c r="G71" s="100"/>
       <c r="H71" s="105"/>
       <c r="I71" s="106" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J71" s="107"/>
       <c r="K71" s="94"/>
@@ -6003,7 +5890,7 @@
     <row r="81" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D81" s="29"/>
       <c r="F81" s="41" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
@@ -6023,7 +5910,7 @@
     <row r="82" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D82" s="29"/>
       <c r="F82" s="41" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
@@ -6043,7 +5930,7 @@
     <row r="83" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D83" s="29"/>
       <c r="F83" s="41" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
@@ -6591,7 +6478,7 @@
       <c r="O108" s="26"/>
       <c r="P108" s="72"/>
       <c r="Q108" s="26" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
@@ -6659,7 +6546,7 @@
       <c r="O110" s="26"/>
       <c r="P110" s="72"/>
       <c r="Q110" s="26" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
@@ -7555,7 +7442,7 @@
         <v>77</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
@@ -7757,7 +7644,7 @@
       <c r="N148" s="99"/>
       <c r="O148" s="101"/>
       <c r="P148" s="26" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q148" s="99"/>
       <c r="R148" s="99"/>
@@ -8157,7 +8044,7 @@
       <c r="O160" s="55"/>
       <c r="P160" s="31"/>
       <c r="Q160" s="26" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="R160" s="55"/>
       <c r="S160" s="55"/>
@@ -8732,7 +8619,7 @@
       <c r="D176" s="29"/>
       <c r="E176" s="75"/>
       <c r="F176" s="24" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G176" s="55" t="str">
         <f>G142</f>
@@ -8772,7 +8659,7 @@
       <c r="E177" s="75"/>
       <c r="F177" s="29"/>
       <c r="G177" s="55" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
@@ -8808,7 +8695,7 @@
       <c r="E178" s="75"/>
       <c r="F178" s="29"/>
       <c r="G178" s="29" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -8838,7 +8725,7 @@
       <c r="E179" s="75"/>
       <c r="F179" s="29"/>
       <c r="G179" s="29" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -9255,7 +9142,7 @@
       <c r="E190" s="29"/>
       <c r="F190" s="29"/>
       <c r="G190" s="79" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
@@ -10269,7 +10156,7 @@
       <c r="AA215" s="26"/>
       <c r="AB215" s="72"/>
       <c r="AC215" s="26" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AD215" s="26"/>
       <c r="AE215" s="26"/>
@@ -10431,7 +10318,7 @@
       <c r="AA219" s="26"/>
       <c r="AB219" s="72"/>
       <c r="AC219" s="26" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AD219" s="26"/>
       <c r="AE219" s="26"/>
@@ -10472,7 +10359,7 @@
       <c r="AA220" s="26"/>
       <c r="AB220" s="72"/>
       <c r="AC220" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AD220" s="26"/>
       <c r="AE220" s="26"/>
@@ -10886,7 +10773,7 @@
       <c r="J231" s="55"/>
       <c r="K231" s="31"/>
       <c r="L231" s="26" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -11044,7 +10931,7 @@
       <c r="J235" s="55"/>
       <c r="K235" s="31"/>
       <c r="L235" s="26" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -11087,7 +10974,7 @@
       <c r="J236" s="33"/>
       <c r="K236" s="34"/>
       <c r="L236" s="77" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M236" s="77"/>
       <c r="N236" s="77"/>
@@ -11482,7 +11369,7 @@
     <row r="255" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D255" s="42"/>
       <c r="F255" s="29" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G255" s="29"/>
       <c r="H255" s="29"/>
@@ -11646,7 +11533,7 @@
       <c r="K268" s="49"/>
       <c r="L268" s="50"/>
       <c r="M268" s="48" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N268" s="49"/>
       <c r="O268" s="49"/>
@@ -11704,7 +11591,7 @@
         <v>181</v>
       </c>
       <c r="G270" s="48" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H270" s="49"/>
       <c r="I270" s="49"/>
@@ -11712,7 +11599,7 @@
       <c r="K270" s="49"/>
       <c r="L270" s="50"/>
       <c r="M270" s="48" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="N270" s="49"/>
       <c r="O270" s="49"/>
@@ -12331,7 +12218,7 @@
     <row r="307" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="42"/>
       <c r="E307" s="61" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="308" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12371,131 +12258,169 @@
         <v>3.1.13.</v>
       </c>
       <c r="E309" s="41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D310" s="42"/>
       <c r="E310" s="41" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D311" s="42"/>
-      <c r="E311" s="61" t="s">
-        <v>271</v>
-      </c>
+      <c r="E311" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F311" s="53"/>
+      <c r="G311" s="53"/>
+      <c r="H311" s="53"/>
+      <c r="I311" s="53"/>
+      <c r="J311" s="53"/>
+      <c r="K311" s="54"/>
+      <c r="L311" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="M311" s="53"/>
+      <c r="N311" s="53"/>
+      <c r="O311" s="54"/>
+      <c r="P311" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q311" s="53"/>
+      <c r="R311" s="53"/>
+      <c r="S311" s="53"/>
+      <c r="T311" s="53"/>
+      <c r="U311" s="53"/>
+      <c r="V311" s="53"/>
+      <c r="W311" s="53"/>
+      <c r="X311" s="53"/>
+      <c r="Y311" s="53"/>
+      <c r="Z311" s="53"/>
+      <c r="AA311" s="53"/>
+      <c r="AB311" s="53"/>
+      <c r="AC311" s="53"/>
+      <c r="AD311" s="53"/>
+      <c r="AE311" s="53"/>
+      <c r="AF311" s="53"/>
+      <c r="AG311" s="53"/>
+      <c r="AH311" s="54"/>
     </row>
     <row r="312" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E312" s="41" t="s">
+      <c r="E312" s="110" t="s">
+        <v>273</v>
+      </c>
+      <c r="F312" s="99"/>
+      <c r="G312" s="99"/>
+      <c r="H312" s="71"/>
+      <c r="I312" s="71"/>
+      <c r="J312" s="71"/>
+      <c r="K312" s="101"/>
+      <c r="L312" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="F312" s="44"/>
-      <c r="G312" s="44"/>
-      <c r="H312" s="44"/>
-      <c r="I312" s="44"/>
-      <c r="J312" s="44"/>
-      <c r="K312" s="44"/>
-      <c r="L312" s="44"/>
-      <c r="M312" s="44"/>
-      <c r="N312" s="44"/>
-      <c r="O312" s="44"/>
-      <c r="P312" s="44"/>
-      <c r="Q312" s="44"/>
-      <c r="R312" s="44"/>
-      <c r="S312" s="44"/>
-      <c r="T312" s="44"/>
-      <c r="U312" s="44"/>
-      <c r="V312" s="44"/>
-      <c r="W312" s="44"/>
-      <c r="X312" s="44"/>
-      <c r="Y312" s="44"/>
-      <c r="Z312" s="44"/>
-      <c r="AA312" s="44"/>
-      <c r="AB312" s="44"/>
-      <c r="AC312" s="44"/>
-      <c r="AD312" s="44"/>
-      <c r="AE312" s="44"/>
-      <c r="AF312" s="44"/>
-      <c r="AG312" s="44"/>
-      <c r="AH312" s="44"/>
+      <c r="M312" s="71"/>
+      <c r="N312" s="71"/>
+      <c r="O312" s="101"/>
+      <c r="P312" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q312" s="71"/>
+      <c r="R312" s="71"/>
+      <c r="S312" s="71"/>
+      <c r="T312" s="71"/>
+      <c r="U312" s="71"/>
+      <c r="V312" s="71"/>
+      <c r="W312" s="71"/>
+      <c r="X312" s="71"/>
+      <c r="Y312" s="71"/>
+      <c r="Z312" s="71"/>
+      <c r="AA312" s="71"/>
+      <c r="AB312" s="71"/>
+      <c r="AC312" s="71"/>
+      <c r="AD312" s="71"/>
+      <c r="AE312" s="71"/>
+      <c r="AF312" s="71"/>
+      <c r="AG312" s="71"/>
+      <c r="AH312" s="95"/>
     </row>
     <row r="313" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E313" s="41" t="s">
+      <c r="E313" s="110" t="s">
+        <v>274</v>
+      </c>
+      <c r="F313" s="26"/>
+      <c r="G313" s="26"/>
+      <c r="H313" s="71"/>
+      <c r="I313" s="71"/>
+      <c r="J313" s="71"/>
+      <c r="K313" s="72"/>
+      <c r="L313" s="26"/>
+      <c r="M313" s="71"/>
+      <c r="N313" s="71"/>
+      <c r="O313" s="72"/>
+      <c r="P313" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q313" s="71"/>
+      <c r="R313" s="71"/>
+      <c r="S313" s="71"/>
+      <c r="T313" s="71"/>
+      <c r="U313" s="71"/>
+      <c r="V313" s="71"/>
+      <c r="W313" s="71"/>
+      <c r="X313" s="71"/>
+      <c r="Y313" s="71"/>
+      <c r="Z313" s="71"/>
+      <c r="AA313" s="71"/>
+      <c r="AB313" s="71"/>
+      <c r="AC313" s="71"/>
+      <c r="AD313" s="71"/>
+      <c r="AE313" s="71"/>
+      <c r="AF313" s="71"/>
+      <c r="AG313" s="71"/>
+      <c r="AH313" s="95"/>
+    </row>
+    <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E314" s="82"/>
+      <c r="F314" s="77"/>
+      <c r="G314" s="77"/>
+      <c r="H314" s="103"/>
+      <c r="I314" s="103"/>
+      <c r="J314" s="103"/>
+      <c r="K314" s="91"/>
+      <c r="L314" s="77"/>
+      <c r="M314" s="103"/>
+      <c r="N314" s="103"/>
+      <c r="O314" s="91"/>
+      <c r="P314" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="F313" s="44"/>
-      <c r="G313" s="44"/>
-      <c r="H313" s="44"/>
-      <c r="I313" s="44"/>
-      <c r="J313" s="44"/>
-      <c r="K313" s="44"/>
-      <c r="L313" s="44"/>
-      <c r="M313" s="44"/>
-      <c r="N313" s="44"/>
-      <c r="O313" s="44"/>
-      <c r="P313" s="44"/>
-      <c r="Q313" s="44"/>
-      <c r="R313" s="44"/>
-      <c r="S313" s="44"/>
-      <c r="T313" s="44"/>
-      <c r="U313" s="44"/>
-      <c r="V313" s="44"/>
-      <c r="W313" s="44"/>
-      <c r="X313" s="44"/>
-      <c r="Y313" s="44"/>
-      <c r="Z313" s="44"/>
-      <c r="AA313" s="44"/>
-      <c r="AB313" s="44"/>
-      <c r="AC313" s="44"/>
-      <c r="AD313" s="44"/>
-      <c r="AE313" s="44"/>
-      <c r="AF313" s="44"/>
-      <c r="AG313" s="44"/>
-      <c r="AH313" s="44"/>
-    </row>
-    <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F314" s="44"/>
-      <c r="G314" s="44"/>
-      <c r="H314" s="44"/>
-      <c r="I314" s="44"/>
-      <c r="J314" s="44"/>
-      <c r="K314" s="44"/>
-      <c r="L314" s="44"/>
-      <c r="M314" s="44"/>
-      <c r="N314" s="44"/>
-      <c r="O314" s="44"/>
-      <c r="P314" s="44"/>
-      <c r="Q314" s="44"/>
-      <c r="R314" s="44"/>
-      <c r="S314" s="44"/>
-      <c r="T314" s="44"/>
-      <c r="U314" s="44"/>
-      <c r="V314" s="44"/>
-      <c r="W314" s="44"/>
-      <c r="X314" s="44"/>
-      <c r="Y314" s="44"/>
-      <c r="Z314" s="44"/>
-      <c r="AA314" s="44"/>
-      <c r="AB314" s="44"/>
-      <c r="AC314" s="44"/>
-      <c r="AD314" s="44"/>
-      <c r="AE314" s="44"/>
-      <c r="AF314" s="44"/>
-      <c r="AG314" s="44"/>
-      <c r="AH314" s="44"/>
+      <c r="Q314" s="103"/>
+      <c r="R314" s="103"/>
+      <c r="S314" s="103"/>
+      <c r="T314" s="103"/>
+      <c r="U314" s="103"/>
+      <c r="V314" s="103"/>
+      <c r="W314" s="103"/>
+      <c r="X314" s="103"/>
+      <c r="Y314" s="103"/>
+      <c r="Z314" s="103"/>
+      <c r="AA314" s="103"/>
+      <c r="AB314" s="103"/>
+      <c r="AC314" s="103"/>
+      <c r="AD314" s="103"/>
+      <c r="AE314" s="103"/>
+      <c r="AF314" s="103"/>
+      <c r="AG314" s="103"/>
+      <c r="AH314" s="104"/>
     </row>
     <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E315" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="F315" s="44"/>
-      <c r="G315" s="44"/>
-      <c r="H315" s="44"/>
-      <c r="I315" s="44"/>
-      <c r="J315" s="44"/>
-      <c r="K315" s="44"/>
-      <c r="L315" s="44"/>
+      <c r="F315" s="71"/>
+      <c r="G315" s="71"/>
+      <c r="H315" s="71"/>
+      <c r="I315" s="71"/>
+      <c r="J315" s="71"/>
+      <c r="K315" s="71"/>
+      <c r="L315" s="71"/>
       <c r="M315" s="44"/>
       <c r="N315" s="44"/>
       <c r="O315" s="44"/>
@@ -12519,242 +12444,8 @@
       <c r="AG315" s="44"/>
       <c r="AH315" s="44"/>
     </row>
-    <row r="316" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E316" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="F316" s="44"/>
-      <c r="G316" s="44"/>
-      <c r="H316" s="44"/>
-      <c r="I316" s="44"/>
-      <c r="J316" s="44"/>
-      <c r="K316" s="44"/>
-      <c r="L316" s="44"/>
-      <c r="M316" s="44"/>
-      <c r="N316" s="44"/>
-      <c r="O316" s="44"/>
-      <c r="P316" s="44"/>
-      <c r="Q316" s="44"/>
-      <c r="R316" s="44"/>
-      <c r="S316" s="44"/>
-      <c r="T316" s="44"/>
-      <c r="U316" s="44"/>
-      <c r="V316" s="44"/>
-      <c r="W316" s="44"/>
-      <c r="X316" s="44"/>
-      <c r="Y316" s="44"/>
-      <c r="Z316" s="44"/>
-      <c r="AA316" s="44"/>
-      <c r="AB316" s="44"/>
-      <c r="AC316" s="44"/>
-      <c r="AD316" s="44"/>
-      <c r="AE316" s="44"/>
-      <c r="AF316" s="44"/>
-      <c r="AG316" s="44"/>
-      <c r="AH316" s="44"/>
-    </row>
-    <row r="317" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E317" s="41"/>
-    </row>
-    <row r="318" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E318" s="41" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="320" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D320" s="42" t="str">
-        <f>$C$7&amp;"14."</f>
-        <v>3.1.14.</v>
-      </c>
-      <c r="E320" s="41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="321" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D321" s="42"/>
-      <c r="E321" s="41" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="322" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E322" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="F322" s="53"/>
-      <c r="G322" s="53"/>
-      <c r="H322" s="53"/>
-      <c r="I322" s="53"/>
-      <c r="J322" s="53"/>
-      <c r="K322" s="54"/>
-      <c r="L322" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="M322" s="53"/>
-      <c r="N322" s="53"/>
-      <c r="O322" s="54"/>
-      <c r="P322" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q322" s="53"/>
-      <c r="R322" s="53"/>
-      <c r="S322" s="53"/>
-      <c r="T322" s="53"/>
-      <c r="U322" s="53"/>
-      <c r="V322" s="53"/>
-      <c r="W322" s="53"/>
-      <c r="X322" s="53"/>
-      <c r="Y322" s="53"/>
-      <c r="Z322" s="53"/>
-      <c r="AA322" s="53"/>
-      <c r="AB322" s="53"/>
-      <c r="AC322" s="53"/>
-      <c r="AD322" s="53"/>
-      <c r="AE322" s="53"/>
-      <c r="AF322" s="53"/>
-      <c r="AG322" s="53"/>
-      <c r="AH322" s="54"/>
-    </row>
-    <row r="323" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E323" s="110" t="s">
-        <v>281</v>
-      </c>
-      <c r="F323" s="99"/>
-      <c r="G323" s="99"/>
-      <c r="H323" s="71"/>
-      <c r="I323" s="71"/>
-      <c r="J323" s="71"/>
-      <c r="K323" s="101"/>
-      <c r="L323" s="99" t="s">
-        <v>283</v>
-      </c>
-      <c r="M323" s="71"/>
-      <c r="N323" s="71"/>
-      <c r="O323" s="101"/>
-      <c r="P323" s="99" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q323" s="71"/>
-      <c r="R323" s="71"/>
-      <c r="S323" s="71"/>
-      <c r="T323" s="71"/>
-      <c r="U323" s="71"/>
-      <c r="V323" s="71"/>
-      <c r="W323" s="71"/>
-      <c r="X323" s="71"/>
-      <c r="Y323" s="71"/>
-      <c r="Z323" s="71"/>
-      <c r="AA323" s="71"/>
-      <c r="AB323" s="71"/>
-      <c r="AC323" s="71"/>
-      <c r="AD323" s="71"/>
-      <c r="AE323" s="71"/>
-      <c r="AF323" s="71"/>
-      <c r="AG323" s="71"/>
-      <c r="AH323" s="95"/>
-    </row>
-    <row r="324" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E324" s="110" t="s">
-        <v>282</v>
-      </c>
-      <c r="F324" s="26"/>
-      <c r="G324" s="26"/>
-      <c r="H324" s="71"/>
-      <c r="I324" s="71"/>
-      <c r="J324" s="71"/>
-      <c r="K324" s="72"/>
-      <c r="L324" s="26"/>
-      <c r="M324" s="71"/>
-      <c r="N324" s="71"/>
-      <c r="O324" s="72"/>
-      <c r="P324" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q324" s="71"/>
-      <c r="R324" s="71"/>
-      <c r="S324" s="71"/>
-      <c r="T324" s="71"/>
-      <c r="U324" s="71"/>
-      <c r="V324" s="71"/>
-      <c r="W324" s="71"/>
-      <c r="X324" s="71"/>
-      <c r="Y324" s="71"/>
-      <c r="Z324" s="71"/>
-      <c r="AA324" s="71"/>
-      <c r="AB324" s="71"/>
-      <c r="AC324" s="71"/>
-      <c r="AD324" s="71"/>
-      <c r="AE324" s="71"/>
-      <c r="AF324" s="71"/>
-      <c r="AG324" s="71"/>
-      <c r="AH324" s="95"/>
-    </row>
-    <row r="325" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E325" s="82"/>
-      <c r="F325" s="77"/>
-      <c r="G325" s="77"/>
-      <c r="H325" s="103"/>
-      <c r="I325" s="103"/>
-      <c r="J325" s="103"/>
-      <c r="K325" s="91"/>
-      <c r="L325" s="77"/>
-      <c r="M325" s="103"/>
-      <c r="N325" s="103"/>
-      <c r="O325" s="91"/>
-      <c r="P325" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q325" s="103"/>
-      <c r="R325" s="103"/>
-      <c r="S325" s="103"/>
-      <c r="T325" s="103"/>
-      <c r="U325" s="103"/>
-      <c r="V325" s="103"/>
-      <c r="W325" s="103"/>
-      <c r="X325" s="103"/>
-      <c r="Y325" s="103"/>
-      <c r="Z325" s="103"/>
-      <c r="AA325" s="103"/>
-      <c r="AB325" s="103"/>
-      <c r="AC325" s="103"/>
-      <c r="AD325" s="103"/>
-      <c r="AE325" s="103"/>
-      <c r="AF325" s="103"/>
-      <c r="AG325" s="103"/>
-      <c r="AH325" s="104"/>
-    </row>
-    <row r="326" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F326" s="71"/>
-      <c r="G326" s="71"/>
-      <c r="H326" s="71"/>
-      <c r="I326" s="71"/>
-      <c r="J326" s="71"/>
-      <c r="K326" s="71"/>
-      <c r="L326" s="71"/>
-      <c r="M326" s="44"/>
-      <c r="N326" s="44"/>
-      <c r="O326" s="44"/>
-      <c r="P326" s="44"/>
-      <c r="Q326" s="44"/>
-      <c r="R326" s="44"/>
-      <c r="S326" s="44"/>
-      <c r="T326" s="44"/>
-      <c r="U326" s="44"/>
-      <c r="V326" s="44"/>
-      <c r="W326" s="44"/>
-      <c r="X326" s="44"/>
-      <c r="Y326" s="44"/>
-      <c r="Z326" s="44"/>
-      <c r="AA326" s="44"/>
-      <c r="AB326" s="44"/>
-      <c r="AC326" s="44"/>
-      <c r="AD326" s="44"/>
-      <c r="AE326" s="44"/>
-      <c r="AF326" s="44"/>
-      <c r="AG326" s="44"/>
-      <c r="AH326" s="44"/>
-    </row>
-    <row r="327" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F327" s="92"/>
+    <row r="316" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F316" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17B8CD8-345D-4E28-B436-B760C81DF266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7568AD-A10D-4C0B-940F-2CCFA15C13E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.1.同期処理方式'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$315</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$318</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$241</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$241</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="310">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -2333,16 +2333,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>複数ウィンドウ/複数タブを</t>
-    <rPh sb="0" eb="2">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>フクスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>同時起動して並列に操作</t>
     <rPh sb="9" eb="11">
       <t>ソウサ</t>
@@ -2350,54 +2340,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>許容しない</t>
-    <rPh sb="0" eb="2">
-      <t>キョヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>並列操作した場合には後勝ちの挙動となる。</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイレツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ガ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キョドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務要件として必須ではないため許容しない方針とする。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>複数ウィンドウ/タブの同時操作時の挙動</t>
     <rPh sb="0" eb="2">
       <t>フクスウ</t>
@@ -2568,22 +2510,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ローリングメンテナンスを行うためにデータ保持方式としてDBストアを利用するため、</t>
-    <rPh sb="12" eb="13">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>HTTPメソッド</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2787,6 +2713,98 @@
   </si>
   <si>
     <t>機能が属するサブシステムのID。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面設計によって異なる。</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBストアに保存しているデータは後勝ちとなる。</t>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アトガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務要件として複数ウィンドウ/タブの同時操作による対策は必須ではないので、</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数ウィンドウ/タブを</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HIDDENストアを使用している画面ではウィンドウ/タブごとにデータが保持されるが、</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数ウィンドウ/タブで操作された場合にセッションストアのデータがどう保持されるかは、</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特に対策はしない方針とする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対策しない</t>
+    <rPh sb="0" eb="2">
+      <t>タイサク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4544,7 +4562,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI316"/>
+  <dimension ref="A1:AI319"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
@@ -4838,7 +4856,7 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
@@ -4882,7 +4900,7 @@
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="56" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -4920,7 +4938,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="35" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -4956,7 +4974,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="30" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -4984,7 +5002,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="32" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -5622,7 +5640,7 @@
       <c r="G71" s="100"/>
       <c r="H71" s="105"/>
       <c r="I71" s="106" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J71" s="107"/>
       <c r="K71" s="94"/>
@@ -5890,7 +5908,7 @@
     <row r="81" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D81" s="29"/>
       <c r="F81" s="41" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
@@ -5910,7 +5928,7 @@
     <row r="82" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D82" s="29"/>
       <c r="F82" s="41" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
@@ -5930,7 +5948,7 @@
     <row r="83" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D83" s="29"/>
       <c r="F83" s="41" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
@@ -6478,7 +6496,7 @@
       <c r="O108" s="26"/>
       <c r="P108" s="72"/>
       <c r="Q108" s="26" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
@@ -6546,7 +6564,7 @@
       <c r="O110" s="26"/>
       <c r="P110" s="72"/>
       <c r="Q110" s="26" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
@@ -7644,7 +7662,7 @@
       <c r="N148" s="99"/>
       <c r="O148" s="101"/>
       <c r="P148" s="26" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q148" s="99"/>
       <c r="R148" s="99"/>
@@ -8044,7 +8062,7 @@
       <c r="O160" s="55"/>
       <c r="P160" s="31"/>
       <c r="Q160" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="R160" s="55"/>
       <c r="S160" s="55"/>
@@ -8695,7 +8713,7 @@
       <c r="E178" s="75"/>
       <c r="F178" s="29"/>
       <c r="G178" s="29" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -8725,7 +8743,7 @@
       <c r="E179" s="75"/>
       <c r="F179" s="29"/>
       <c r="G179" s="29" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -9142,7 +9160,7 @@
       <c r="E190" s="29"/>
       <c r="F190" s="29"/>
       <c r="G190" s="79" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
@@ -10156,7 +10174,7 @@
       <c r="AA215" s="26"/>
       <c r="AB215" s="72"/>
       <c r="AC215" s="26" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AD215" s="26"/>
       <c r="AE215" s="26"/>
@@ -10318,7 +10336,7 @@
       <c r="AA219" s="26"/>
       <c r="AB219" s="72"/>
       <c r="AC219" s="26" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AD219" s="26"/>
       <c r="AE219" s="26"/>
@@ -10359,7 +10377,7 @@
       <c r="AA220" s="26"/>
       <c r="AB220" s="72"/>
       <c r="AC220" s="26" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AD220" s="26"/>
       <c r="AE220" s="26"/>
@@ -10773,7 +10791,7 @@
       <c r="J231" s="55"/>
       <c r="K231" s="31"/>
       <c r="L231" s="26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -10931,7 +10949,7 @@
       <c r="J235" s="55"/>
       <c r="K235" s="31"/>
       <c r="L235" s="26" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -10974,7 +10992,7 @@
       <c r="J236" s="33"/>
       <c r="K236" s="34"/>
       <c r="L236" s="77" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M236" s="77"/>
       <c r="N236" s="77"/>
@@ -11369,7 +11387,7 @@
     <row r="255" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D255" s="42"/>
       <c r="F255" s="29" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G255" s="29"/>
       <c r="H255" s="29"/>
@@ -11533,7 +11551,7 @@
       <c r="K268" s="49"/>
       <c r="L268" s="50"/>
       <c r="M268" s="48" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="N268" s="49"/>
       <c r="O268" s="49"/>
@@ -11591,7 +11609,7 @@
         <v>181</v>
       </c>
       <c r="G270" s="48" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H270" s="49"/>
       <c r="I270" s="49"/>
@@ -11599,7 +11617,7 @@
       <c r="K270" s="49"/>
       <c r="L270" s="50"/>
       <c r="M270" s="48" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="N270" s="49"/>
       <c r="O270" s="49"/>
@@ -12258,13 +12276,13 @@
         <v>3.1.13.</v>
       </c>
       <c r="E309" s="41" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D310" s="42"/>
       <c r="E310" s="41" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12307,7 +12325,7 @@
     </row>
     <row r="312" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E312" s="110" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="F312" s="99"/>
       <c r="G312" s="99"/>
@@ -12316,13 +12334,13 @@
       <c r="J312" s="71"/>
       <c r="K312" s="101"/>
       <c r="L312" s="99" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="M312" s="71"/>
       <c r="N312" s="71"/>
       <c r="O312" s="101"/>
       <c r="P312" s="99" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="Q312" s="71"/>
       <c r="R312" s="71"/>
@@ -12345,7 +12363,7 @@
     </row>
     <row r="313" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E313" s="110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F313" s="26"/>
       <c r="G313" s="26"/>
@@ -12358,7 +12376,7 @@
       <c r="N313" s="71"/>
       <c r="O313" s="72"/>
       <c r="P313" s="26" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="Q313" s="71"/>
       <c r="R313" s="71"/>
@@ -12380,72 +12398,174 @@
       <c r="AH313" s="95"/>
     </row>
     <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E314" s="82"/>
-      <c r="F314" s="77"/>
-      <c r="G314" s="77"/>
-      <c r="H314" s="103"/>
-      <c r="I314" s="103"/>
-      <c r="J314" s="103"/>
-      <c r="K314" s="91"/>
-      <c r="L314" s="77"/>
-      <c r="M314" s="103"/>
-      <c r="N314" s="103"/>
-      <c r="O314" s="91"/>
-      <c r="P314" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q314" s="103"/>
-      <c r="R314" s="103"/>
-      <c r="S314" s="103"/>
-      <c r="T314" s="103"/>
-      <c r="U314" s="103"/>
-      <c r="V314" s="103"/>
-      <c r="W314" s="103"/>
-      <c r="X314" s="103"/>
-      <c r="Y314" s="103"/>
-      <c r="Z314" s="103"/>
-      <c r="AA314" s="103"/>
-      <c r="AB314" s="103"/>
-      <c r="AC314" s="103"/>
-      <c r="AD314" s="103"/>
-      <c r="AE314" s="103"/>
-      <c r="AF314" s="103"/>
-      <c r="AG314" s="103"/>
-      <c r="AH314" s="104"/>
+      <c r="E314" s="110"/>
+      <c r="F314" s="26"/>
+      <c r="G314" s="26"/>
+      <c r="H314" s="71"/>
+      <c r="I314" s="71"/>
+      <c r="J314" s="71"/>
+      <c r="K314" s="72"/>
+      <c r="L314" s="26"/>
+      <c r="M314" s="71"/>
+      <c r="N314" s="71"/>
+      <c r="O314" s="72"/>
+      <c r="P314" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q314" s="71"/>
+      <c r="R314" s="71"/>
+      <c r="S314" s="71"/>
+      <c r="T314" s="71"/>
+      <c r="U314" s="71"/>
+      <c r="V314" s="71"/>
+      <c r="W314" s="71"/>
+      <c r="X314" s="71"/>
+      <c r="Y314" s="71"/>
+      <c r="Z314" s="71"/>
+      <c r="AA314" s="71"/>
+      <c r="AB314" s="71"/>
+      <c r="AC314" s="71"/>
+      <c r="AD314" s="71"/>
+      <c r="AE314" s="71"/>
+      <c r="AF314" s="71"/>
+      <c r="AG314" s="71"/>
+      <c r="AH314" s="95"/>
     </row>
     <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F315" s="71"/>
-      <c r="G315" s="71"/>
+      <c r="E315" s="110"/>
+      <c r="F315" s="26"/>
+      <c r="G315" s="26"/>
       <c r="H315" s="71"/>
       <c r="I315" s="71"/>
       <c r="J315" s="71"/>
-      <c r="K315" s="71"/>
-      <c r="L315" s="71"/>
-      <c r="M315" s="44"/>
-      <c r="N315" s="44"/>
-      <c r="O315" s="44"/>
-      <c r="P315" s="44"/>
-      <c r="Q315" s="44"/>
-      <c r="R315" s="44"/>
-      <c r="S315" s="44"/>
-      <c r="T315" s="44"/>
-      <c r="U315" s="44"/>
-      <c r="V315" s="44"/>
-      <c r="W315" s="44"/>
-      <c r="X315" s="44"/>
-      <c r="Y315" s="44"/>
-      <c r="Z315" s="44"/>
-      <c r="AA315" s="44"/>
-      <c r="AB315" s="44"/>
-      <c r="AC315" s="44"/>
-      <c r="AD315" s="44"/>
-      <c r="AE315" s="44"/>
-      <c r="AF315" s="44"/>
-      <c r="AG315" s="44"/>
-      <c r="AH315" s="44"/>
-    </row>
-    <row r="316" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F316" s="92"/>
+      <c r="K315" s="72"/>
+      <c r="L315" s="26"/>
+      <c r="M315" s="71"/>
+      <c r="N315" s="71"/>
+      <c r="O315" s="72"/>
+      <c r="P315" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q315" s="71"/>
+      <c r="R315" s="71"/>
+      <c r="S315" s="71"/>
+      <c r="T315" s="71"/>
+      <c r="U315" s="71"/>
+      <c r="V315" s="71"/>
+      <c r="W315" s="71"/>
+      <c r="X315" s="71"/>
+      <c r="Y315" s="71"/>
+      <c r="Z315" s="71"/>
+      <c r="AA315" s="71"/>
+      <c r="AB315" s="71"/>
+      <c r="AC315" s="71"/>
+      <c r="AD315" s="71"/>
+      <c r="AE315" s="71"/>
+      <c r="AF315" s="71"/>
+      <c r="AG315" s="71"/>
+      <c r="AH315" s="95"/>
+    </row>
+    <row r="316" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E316" s="110"/>
+      <c r="F316" s="26"/>
+      <c r="G316" s="26"/>
+      <c r="H316" s="71"/>
+      <c r="I316" s="71"/>
+      <c r="J316" s="71"/>
+      <c r="K316" s="72"/>
+      <c r="L316" s="26"/>
+      <c r="M316" s="71"/>
+      <c r="N316" s="71"/>
+      <c r="O316" s="72"/>
+      <c r="P316" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q316" s="71"/>
+      <c r="R316" s="71"/>
+      <c r="S316" s="71"/>
+      <c r="T316" s="71"/>
+      <c r="U316" s="71"/>
+      <c r="V316" s="71"/>
+      <c r="W316" s="71"/>
+      <c r="X316" s="71"/>
+      <c r="Y316" s="71"/>
+      <c r="Z316" s="71"/>
+      <c r="AA316" s="71"/>
+      <c r="AB316" s="71"/>
+      <c r="AC316" s="71"/>
+      <c r="AD316" s="71"/>
+      <c r="AE316" s="71"/>
+      <c r="AF316" s="71"/>
+      <c r="AG316" s="71"/>
+      <c r="AH316" s="95"/>
+    </row>
+    <row r="317" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E317" s="82"/>
+      <c r="F317" s="77"/>
+      <c r="G317" s="77"/>
+      <c r="H317" s="103"/>
+      <c r="I317" s="103"/>
+      <c r="J317" s="103"/>
+      <c r="K317" s="91"/>
+      <c r="L317" s="77"/>
+      <c r="M317" s="103"/>
+      <c r="N317" s="103"/>
+      <c r="O317" s="91"/>
+      <c r="P317" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q317" s="103"/>
+      <c r="R317" s="103"/>
+      <c r="S317" s="103"/>
+      <c r="T317" s="103"/>
+      <c r="U317" s="103"/>
+      <c r="V317" s="103"/>
+      <c r="W317" s="103"/>
+      <c r="X317" s="103"/>
+      <c r="Y317" s="103"/>
+      <c r="Z317" s="103"/>
+      <c r="AA317" s="103"/>
+      <c r="AB317" s="103"/>
+      <c r="AC317" s="103"/>
+      <c r="AD317" s="103"/>
+      <c r="AE317" s="103"/>
+      <c r="AF317" s="103"/>
+      <c r="AG317" s="103"/>
+      <c r="AH317" s="104"/>
+    </row>
+    <row r="318" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F318" s="71"/>
+      <c r="G318" s="71"/>
+      <c r="H318" s="71"/>
+      <c r="I318" s="71"/>
+      <c r="J318" s="71"/>
+      <c r="K318" s="71"/>
+      <c r="L318" s="71"/>
+      <c r="M318" s="44"/>
+      <c r="N318" s="44"/>
+      <c r="O318" s="44"/>
+      <c r="P318" s="44"/>
+      <c r="Q318" s="44"/>
+      <c r="R318" s="44"/>
+      <c r="S318" s="44"/>
+      <c r="T318" s="44"/>
+      <c r="U318" s="44"/>
+      <c r="V318" s="44"/>
+      <c r="W318" s="44"/>
+      <c r="X318" s="44"/>
+      <c r="Y318" s="44"/>
+      <c r="Z318" s="44"/>
+      <c r="AA318" s="44"/>
+      <c r="AB318" s="44"/>
+      <c r="AC318" s="44"/>
+      <c r="AD318" s="44"/>
+      <c r="AE318" s="44"/>
+      <c r="AF318" s="44"/>
+      <c r="AG318" s="44"/>
+      <c r="AH318" s="44"/>
+    </row>
+    <row r="319" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F319" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7568AD-A10D-4C0B-940F-2CCFA15C13E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D8AA4-4F75-41DA-810A-6D645CBFE0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.1.同期処理方式'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$318</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$322</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$241</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$241</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="313">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -476,25 +476,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>専用のウィルス対策用ソフトウェアを導入してウィルス対策を行う。</t>
-    <rPh sb="5" eb="7">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ドウニュウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ブラウザキャッシュ制御</t>
     <rPh sb="9" eb="11">
       <t>セイギョ</t>
@@ -2257,31 +2238,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面処理方式にはファイルアップロードがないため、本アプリケーションではウィルス対策ソフトの影響は無い前提。</t>
-    <rPh sb="0" eb="1">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="1" eb="5">
-      <t>ショリホウシキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ゼンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(6)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2804,6 +2760,35 @@
     <t>対策しない</t>
     <rPh sb="0" eb="2">
       <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィルス対策概要</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィルス対策対応方針</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルアップロード機能を含むシステムでは、ウィルス対策ソフトウェアを導入してアップロードされたファイルに対して</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィルスチェックを実行することで、セキュリティリスクを軽減することができる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムにはファイルアップロード機能がないので、ウィルス対策ソフトウェアを用いた対策は行わないこととする。</t>
+    <rPh sb="38" eb="39">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3109,7 +3094,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3292,9 +3277,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4562,7 +4544,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI319"/>
+  <dimension ref="A1:AI323"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
@@ -4578,45 +4560,45 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="117" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="119"/>
+      <c r="E1" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="118"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="122"/>
+      <c r="R1" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="121"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="116"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="115"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4625,43 +4607,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="128"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="127"/>
       <c r="P2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="129" t="s">
+      <c r="R2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="131"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="130"/>
       <c r="Y2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="116"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="115"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -4670,39 +4652,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="134"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="133"/>
       <c r="Y3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="116"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="115"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4856,27 +4838,27 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="54"/>
-      <c r="J14" s="111" t="s">
-        <v>233</v>
-      </c>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="113"/>
+      <c r="J14" s="110" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="112"/>
       <c r="X14" s="29"/>
       <c r="Y14" s="29"/>
       <c r="Z14" s="29"/>
@@ -4894,13 +4876,13 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="56" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -4938,7 +4920,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -4974,7 +4956,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -5002,7 +4984,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -5096,12 +5078,12 @@
     </row>
     <row r="25" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5117,7 +5099,7 @@
     </row>
     <row r="29" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -5125,7 +5107,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
       <c r="L29" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M29" s="17"/>
       <c r="N29" s="18"/>
@@ -5154,41 +5136,41 @@
     </row>
     <row r="30" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
       <c r="K30" s="58"/>
-      <c r="L30" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="M30" s="94"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="94" t="str">
+      <c r="L30" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" s="93"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="93" t="str">
         <f>$D$283&amp;$E$283&amp;"機能があり、キャッシュに有効期限を設ける必要があるため"</f>
         <v>3.1.11.コンテンツ更新機能があり、キャッシュに有効期限を設ける必要があるため</v>
       </c>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="69"/>
-      <c r="AG30" s="69"/>
-      <c r="AH30" s="97"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="68"/>
+      <c r="AD30" s="68"/>
+      <c r="AE30" s="68"/>
+      <c r="AF30" s="68"/>
+      <c r="AG30" s="68"/>
+      <c r="AH30" s="96"/>
     </row>
     <row r="31" spans="4:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="55"/>
@@ -5241,8 +5223,8 @@
       </c>
     </row>
     <row r="34" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G34" s="75" t="s">
-        <v>167</v>
+      <c r="G34" s="74" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5264,9 +5246,9 @@
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="78"/>
+      <c r="E37" s="77"/>
       <c r="F37" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
@@ -5278,9 +5260,9 @@
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="78"/>
+      <c r="E38" s="77"/>
       <c r="F38" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -5292,7 +5274,7 @@
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="78"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
@@ -5304,8 +5286,8 @@
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="75"/>
-      <c r="F40" s="62" t="s">
+      <c r="E40" s="74"/>
+      <c r="F40" s="61" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="38"/>
@@ -5320,19 +5302,19 @@
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="75"/>
-      <c r="F41" s="76" t="s">
+      <c r="E41" s="74"/>
+      <c r="F41" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="77" t="s">
-        <v>210</v>
-      </c>
-      <c r="L41" s="77"/>
-      <c r="M41" s="91"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="L41" s="76"/>
+      <c r="M41" s="90"/>
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5340,7 +5322,7 @@
     </row>
     <row r="43" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="67" t="str">
+      <c r="D44" s="66" t="str">
         <f>$C$7&amp;"4."</f>
         <v>3.1.4.</v>
       </c>
@@ -5349,8 +5331,8 @@
       </c>
     </row>
     <row r="45" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="67"/>
-      <c r="E45" s="67" t="str">
+      <c r="D45" s="66"/>
+      <c r="E45" s="66" t="str">
         <f>D44&amp;"1."</f>
         <v>3.1.4.1.</v>
       </c>
@@ -5361,12 +5343,12 @@
     </row>
     <row r="46" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="67" t="str">
+      <c r="E48" s="66" t="str">
         <f>D44&amp;"2."</f>
         <v>3.1.4.2.</v>
       </c>
@@ -5377,19 +5359,19 @@
     </row>
     <row r="49" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
       <c r="K50" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
@@ -5418,132 +5400,132 @@
       <c r="AH50" s="54"/>
     </row>
     <row r="51" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F51" s="70" t="s">
+      <c r="F51" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="94" t="s">
-        <v>225</v>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="93" t="s">
+        <v>224</v>
       </c>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
       <c r="P51" s="26"/>
-      <c r="Q51" s="72"/>
+      <c r="Q51" s="71"/>
       <c r="R51" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
       <c r="V51" s="26"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="71"/>
-      <c r="Y51" s="71"/>
-      <c r="Z51" s="71"/>
-      <c r="AA51" s="71"/>
-      <c r="AB51" s="71"/>
-      <c r="AC51" s="71"/>
-      <c r="AD51" s="71"/>
-      <c r="AE51" s="71"/>
-      <c r="AF51" s="71"/>
-      <c r="AG51" s="71"/>
-      <c r="AH51" s="95"/>
+      <c r="W51" s="70"/>
+      <c r="X51" s="70"/>
+      <c r="Y51" s="70"/>
+      <c r="Z51" s="70"/>
+      <c r="AA51" s="70"/>
+      <c r="AB51" s="70"/>
+      <c r="AC51" s="70"/>
+      <c r="AD51" s="70"/>
+      <c r="AE51" s="70"/>
+      <c r="AF51" s="70"/>
+      <c r="AG51" s="70"/>
+      <c r="AH51" s="94"/>
     </row>
     <row r="52" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="68" t="s">
+      <c r="F52" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="96" t="s">
-        <v>219</v>
-      </c>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="69"/>
-      <c r="X52" s="69"/>
-      <c r="Y52" s="69"/>
-      <c r="Z52" s="69"/>
-      <c r="AA52" s="69"/>
-      <c r="AB52" s="69"/>
-      <c r="AC52" s="69"/>
-      <c r="AD52" s="69"/>
-      <c r="AE52" s="69"/>
-      <c r="AF52" s="69"/>
-      <c r="AG52" s="69"/>
-      <c r="AH52" s="97"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="L52" s="93"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="S52" s="93"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="93"/>
+      <c r="V52" s="93"/>
+      <c r="W52" s="68"/>
+      <c r="X52" s="68"/>
+      <c r="Y52" s="68"/>
+      <c r="Z52" s="68"/>
+      <c r="AA52" s="68"/>
+      <c r="AB52" s="68"/>
+      <c r="AC52" s="68"/>
+      <c r="AD52" s="68"/>
+      <c r="AE52" s="68"/>
+      <c r="AF52" s="68"/>
+      <c r="AG52" s="68"/>
+      <c r="AH52" s="96"/>
     </row>
     <row r="53" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="67" t="str">
+      <c r="E54" s="66" t="str">
         <f>D44&amp;"3."</f>
         <v>3.1.4.3.</v>
       </c>
       <c r="F54" s="36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="66" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="55" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="67" t="s">
+      <c r="G55" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="66"/>
+      <c r="G56" s="36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F57" s="66"/>
+      <c r="G57" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="G55" s="36" t="s">
+      <c r="H57" s="36" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F56" s="67"/>
-      <c r="G56" s="36" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F57" s="67"/>
-      <c r="G57" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="H57" s="36" t="s">
+    <row r="58" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="66"/>
+      <c r="G58" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G59" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="36" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F58" s="67"/>
-      <c r="G58" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="H58" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G59" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="H59" s="36" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="60" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H60" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5570,17 +5552,17 @@
     </row>
     <row r="65" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F65" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F67" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5596,12 +5578,12 @@
     </row>
     <row r="70" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="53"/>
       <c r="I70" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -5616,7 +5598,7 @@
       <c r="T70" s="53"/>
       <c r="U70" s="54"/>
       <c r="V70" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W70" s="53"/>
       <c r="X70" s="53"/>
@@ -5634,119 +5616,119 @@
       <c r="AH70" s="18"/>
     </row>
     <row r="71" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F71" s="98" t="s">
+      <c r="F71" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="G71" s="99"/>
+      <c r="H71" s="104"/>
+      <c r="I71" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="J71" s="106"/>
+      <c r="K71" s="93"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="68"/>
+      <c r="N71" s="68"/>
+      <c r="O71" s="68"/>
+      <c r="P71" s="68"/>
+      <c r="Q71" s="68"/>
+      <c r="R71" s="68"/>
+      <c r="S71" s="68"/>
+      <c r="T71" s="68"/>
+      <c r="U71" s="107"/>
+      <c r="V71" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="W71" s="106"/>
+      <c r="X71" s="106"/>
+      <c r="Y71" s="93"/>
+      <c r="Z71" s="68"/>
+      <c r="AA71" s="68"/>
+      <c r="AB71" s="72"/>
+      <c r="AC71" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD71" s="68"/>
+      <c r="AE71" s="68"/>
+      <c r="AF71" s="68"/>
+      <c r="AG71" s="68"/>
+      <c r="AH71" s="96"/>
+    </row>
+    <row r="72" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="75"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="J72" s="106"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="68"/>
+      <c r="M72" s="68"/>
+      <c r="N72" s="68"/>
+      <c r="O72" s="68"/>
+      <c r="P72" s="68"/>
+      <c r="Q72" s="68"/>
+      <c r="R72" s="68"/>
+      <c r="S72" s="68"/>
+      <c r="T72" s="68"/>
+      <c r="U72" s="107"/>
+      <c r="V72" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="W72" s="106"/>
+      <c r="X72" s="106"/>
+      <c r="Y72" s="93"/>
+      <c r="Z72" s="68"/>
+      <c r="AA72" s="68"/>
+      <c r="AB72" s="72"/>
+      <c r="AC72" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD72" s="68"/>
+      <c r="AE72" s="68"/>
+      <c r="AF72" s="68"/>
+      <c r="AG72" s="68"/>
+      <c r="AH72" s="96"/>
+    </row>
+    <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="G73" s="68"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="G71" s="100"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="106" t="s">
-        <v>278</v>
-      </c>
-      <c r="J71" s="107"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="69"/>
-      <c r="M71" s="69"/>
-      <c r="N71" s="69"/>
-      <c r="O71" s="69"/>
-      <c r="P71" s="69"/>
-      <c r="Q71" s="69"/>
-      <c r="R71" s="69"/>
-      <c r="S71" s="69"/>
-      <c r="T71" s="69"/>
-      <c r="U71" s="108"/>
-      <c r="V71" s="94" t="s">
+      <c r="J73" s="106"/>
+      <c r="K73" s="93"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="68"/>
+      <c r="N73" s="68"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="68"/>
+      <c r="Q73" s="68"/>
+      <c r="R73" s="68"/>
+      <c r="S73" s="68"/>
+      <c r="T73" s="68"/>
+      <c r="U73" s="107"/>
+      <c r="V73" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="W71" s="107"/>
-      <c r="X71" s="107"/>
-      <c r="Y71" s="94"/>
-      <c r="Z71" s="69"/>
-      <c r="AA71" s="69"/>
-      <c r="AB71" s="73"/>
-      <c r="AC71" s="94" t="s">
+      <c r="W73" s="106"/>
+      <c r="X73" s="106"/>
+      <c r="Y73" s="93"/>
+      <c r="Z73" s="68"/>
+      <c r="AA73" s="68"/>
+      <c r="AB73" s="72"/>
+      <c r="AC73" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="AD71" s="69"/>
-      <c r="AE71" s="69"/>
-      <c r="AF71" s="69"/>
-      <c r="AG71" s="69"/>
-      <c r="AH71" s="97"/>
-    </row>
-    <row r="72" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F72" s="76"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="J72" s="107"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="69"/>
-      <c r="M72" s="69"/>
-      <c r="N72" s="69"/>
-      <c r="O72" s="69"/>
-      <c r="P72" s="69"/>
-      <c r="Q72" s="69"/>
-      <c r="R72" s="69"/>
-      <c r="S72" s="69"/>
-      <c r="T72" s="69"/>
-      <c r="U72" s="108"/>
-      <c r="V72" s="94" t="s">
-        <v>218</v>
-      </c>
-      <c r="W72" s="107"/>
-      <c r="X72" s="107"/>
-      <c r="Y72" s="94"/>
-      <c r="Z72" s="69"/>
-      <c r="AA72" s="69"/>
-      <c r="AB72" s="73"/>
-      <c r="AC72" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD72" s="69"/>
-      <c r="AE72" s="69"/>
-      <c r="AF72" s="69"/>
-      <c r="AG72" s="69"/>
-      <c r="AH72" s="97"/>
-    </row>
-    <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F73" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="G73" s="69"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="106" t="s">
-        <v>179</v>
-      </c>
-      <c r="J73" s="107"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="69"/>
-      <c r="M73" s="69"/>
-      <c r="N73" s="69"/>
-      <c r="O73" s="69"/>
-      <c r="P73" s="69"/>
-      <c r="Q73" s="69"/>
-      <c r="R73" s="69"/>
-      <c r="S73" s="69"/>
-      <c r="T73" s="69"/>
-      <c r="U73" s="108"/>
-      <c r="V73" s="94" t="s">
-        <v>218</v>
-      </c>
-      <c r="W73" s="107"/>
-      <c r="X73" s="107"/>
-      <c r="Y73" s="94"/>
-      <c r="Z73" s="69"/>
-      <c r="AA73" s="69"/>
-      <c r="AB73" s="73"/>
-      <c r="AC73" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD73" s="69"/>
-      <c r="AE73" s="69"/>
-      <c r="AF73" s="69"/>
-      <c r="AG73" s="69"/>
-      <c r="AH73" s="97"/>
+      <c r="AD73" s="68"/>
+      <c r="AE73" s="68"/>
+      <c r="AF73" s="68"/>
+      <c r="AG73" s="68"/>
+      <c r="AH73" s="96"/>
     </row>
     <row r="74" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F74" s="19"/>
@@ -5820,7 +5802,7 @@
     <row r="76" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="42"/>
       <c r="F76" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
@@ -5854,7 +5836,7 @@
     <row r="77" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="42"/>
       <c r="F77" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H77" s="44"/>
       <c r="I77" s="44"/>
@@ -5908,7 +5890,7 @@
     <row r="81" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D81" s="29"/>
       <c r="F81" s="41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
@@ -5928,7 +5910,7 @@
     <row r="82" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D82" s="29"/>
       <c r="F82" s="41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
@@ -5948,7 +5930,7 @@
     <row r="83" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D83" s="29"/>
       <c r="F83" s="41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
@@ -5978,7 +5960,7 @@
     </row>
     <row r="86" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F86" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6022,19 +6004,19 @@
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
-      <c r="F88" s="93" t="s">
+      <c r="F88" s="92" t="s">
         <v>21</v>
       </c>
       <c r="G88" s="26"/>
       <c r="H88" s="26"/>
-      <c r="I88" s="72"/>
+      <c r="I88" s="71"/>
       <c r="J88" s="26" t="s">
         <v>25</v>
       </c>
       <c r="K88" s="26"/>
-      <c r="L88" s="72"/>
+      <c r="L88" s="71"/>
       <c r="M88" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N88" s="26"/>
       <c r="O88" s="26"/>
@@ -6050,53 +6032,53 @@
       <c r="Y88" s="26"/>
       <c r="Z88" s="26"/>
       <c r="AA88" s="26"/>
-      <c r="AB88" s="71"/>
-      <c r="AC88" s="71"/>
-      <c r="AD88" s="71"/>
-      <c r="AE88" s="71"/>
-      <c r="AF88" s="71"/>
-      <c r="AG88" s="71"/>
-      <c r="AH88" s="95"/>
+      <c r="AB88" s="70"/>
+      <c r="AC88" s="70"/>
+      <c r="AD88" s="70"/>
+      <c r="AE88" s="70"/>
+      <c r="AF88" s="70"/>
+      <c r="AG88" s="70"/>
+      <c r="AH88" s="94"/>
     </row>
     <row r="89" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
-      <c r="F89" s="96" t="s">
+      <c r="F89" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="94"/>
-      <c r="H89" s="94"/>
-      <c r="I89" s="73"/>
-      <c r="J89" s="94" t="s">
+      <c r="G89" s="93"/>
+      <c r="H89" s="93"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="K89" s="94"/>
-      <c r="L89" s="73"/>
-      <c r="M89" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="N89" s="94"/>
-      <c r="O89" s="94"/>
-      <c r="P89" s="94"/>
-      <c r="Q89" s="94"/>
-      <c r="R89" s="94"/>
-      <c r="S89" s="94"/>
-      <c r="T89" s="94"/>
-      <c r="U89" s="94"/>
-      <c r="V89" s="94"/>
-      <c r="W89" s="94"/>
-      <c r="X89" s="94"/>
-      <c r="Y89" s="94"/>
-      <c r="Z89" s="94"/>
-      <c r="AA89" s="94"/>
-      <c r="AB89" s="69"/>
-      <c r="AC89" s="69"/>
-      <c r="AD89" s="69"/>
-      <c r="AE89" s="69"/>
-      <c r="AF89" s="69"/>
-      <c r="AG89" s="69"/>
-      <c r="AH89" s="97"/>
+      <c r="K89" s="93"/>
+      <c r="L89" s="72"/>
+      <c r="M89" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="N89" s="93"/>
+      <c r="O89" s="93"/>
+      <c r="P89" s="93"/>
+      <c r="Q89" s="93"/>
+      <c r="R89" s="93"/>
+      <c r="S89" s="93"/>
+      <c r="T89" s="93"/>
+      <c r="U89" s="93"/>
+      <c r="V89" s="93"/>
+      <c r="W89" s="93"/>
+      <c r="X89" s="93"/>
+      <c r="Y89" s="93"/>
+      <c r="Z89" s="93"/>
+      <c r="AA89" s="93"/>
+      <c r="AB89" s="68"/>
+      <c r="AC89" s="68"/>
+      <c r="AD89" s="68"/>
+      <c r="AE89" s="68"/>
+      <c r="AF89" s="68"/>
+      <c r="AG89" s="68"/>
+      <c r="AH89" s="96"/>
     </row>
     <row r="90" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="29"/>
@@ -6438,7 +6420,7 @@
     </row>
     <row r="106" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F106" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6480,13 +6462,13 @@
       <c r="AH107" s="18"/>
     </row>
     <row r="108" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F108" s="70" t="s">
+      <c r="F108" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="71"/>
-      <c r="J108" s="72"/>
+      <c r="G108" s="70"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="70"/>
+      <c r="J108" s="71"/>
       <c r="K108" s="26" t="s">
         <v>25</v>
       </c>
@@ -6494,9 +6476,9 @@
       <c r="M108" s="26"/>
       <c r="N108" s="26"/>
       <c r="O108" s="26"/>
-      <c r="P108" s="72"/>
+      <c r="P108" s="71"/>
       <c r="Q108" s="26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
@@ -6507,54 +6489,54 @@
       <c r="X108" s="26"/>
       <c r="Y108" s="26"/>
       <c r="Z108" s="26"/>
-      <c r="AA108" s="71"/>
-      <c r="AB108" s="71"/>
-      <c r="AC108" s="71"/>
-      <c r="AD108" s="71"/>
-      <c r="AE108" s="71"/>
-      <c r="AF108" s="71"/>
-      <c r="AG108" s="71"/>
-      <c r="AH108" s="95"/>
+      <c r="AA108" s="70"/>
+      <c r="AB108" s="70"/>
+      <c r="AC108" s="70"/>
+      <c r="AD108" s="70"/>
+      <c r="AE108" s="70"/>
+      <c r="AF108" s="70"/>
+      <c r="AG108" s="70"/>
+      <c r="AH108" s="94"/>
     </row>
     <row r="109" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F109" s="110"/>
-      <c r="G109" s="103"/>
-      <c r="H109" s="103"/>
-      <c r="I109" s="103"/>
-      <c r="J109" s="91"/>
-      <c r="K109" s="77"/>
-      <c r="L109" s="77"/>
-      <c r="M109" s="77"/>
-      <c r="N109" s="77"/>
-      <c r="O109" s="77"/>
-      <c r="P109" s="91"/>
-      <c r="Q109" s="77"/>
-      <c r="R109" s="77"/>
-      <c r="S109" s="77"/>
-      <c r="T109" s="77"/>
-      <c r="U109" s="77"/>
-      <c r="V109" s="77"/>
-      <c r="W109" s="77"/>
-      <c r="X109" s="77"/>
-      <c r="Y109" s="77"/>
-      <c r="Z109" s="77"/>
-      <c r="AA109" s="103"/>
-      <c r="AB109" s="103"/>
-      <c r="AC109" s="103"/>
-      <c r="AD109" s="103"/>
-      <c r="AE109" s="103"/>
-      <c r="AF109" s="103"/>
-      <c r="AG109" s="103"/>
-      <c r="AH109" s="104"/>
+      <c r="F109" s="109"/>
+      <c r="G109" s="102"/>
+      <c r="H109" s="102"/>
+      <c r="I109" s="102"/>
+      <c r="J109" s="90"/>
+      <c r="K109" s="76"/>
+      <c r="L109" s="76"/>
+      <c r="M109" s="76"/>
+      <c r="N109" s="76"/>
+      <c r="O109" s="76"/>
+      <c r="P109" s="90"/>
+      <c r="Q109" s="76"/>
+      <c r="R109" s="76"/>
+      <c r="S109" s="76"/>
+      <c r="T109" s="76"/>
+      <c r="U109" s="76"/>
+      <c r="V109" s="76"/>
+      <c r="W109" s="76"/>
+      <c r="X109" s="76"/>
+      <c r="Y109" s="76"/>
+      <c r="Z109" s="76"/>
+      <c r="AA109" s="102"/>
+      <c r="AB109" s="102"/>
+      <c r="AC109" s="102"/>
+      <c r="AD109" s="102"/>
+      <c r="AE109" s="102"/>
+      <c r="AF109" s="102"/>
+      <c r="AG109" s="102"/>
+      <c r="AH109" s="103"/>
     </row>
     <row r="110" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F110" s="70" t="s">
+      <c r="F110" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="71"/>
-      <c r="J110" s="72"/>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="70"/>
+      <c r="J110" s="71"/>
       <c r="K110" s="26" t="s">
         <v>25</v>
       </c>
@@ -6562,9 +6544,9 @@
       <c r="M110" s="26"/>
       <c r="N110" s="26"/>
       <c r="O110" s="26"/>
-      <c r="P110" s="72"/>
+      <c r="P110" s="71"/>
       <c r="Q110" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
@@ -6575,45 +6557,45 @@
       <c r="X110" s="26"/>
       <c r="Y110" s="26"/>
       <c r="Z110" s="26"/>
-      <c r="AA110" s="71"/>
-      <c r="AB110" s="71"/>
-      <c r="AC110" s="71"/>
-      <c r="AD110" s="71"/>
-      <c r="AE110" s="71"/>
-      <c r="AF110" s="71"/>
-      <c r="AG110" s="71"/>
-      <c r="AH110" s="95"/>
+      <c r="AA110" s="70"/>
+      <c r="AB110" s="70"/>
+      <c r="AC110" s="70"/>
+      <c r="AD110" s="70"/>
+      <c r="AE110" s="70"/>
+      <c r="AF110" s="70"/>
+      <c r="AG110" s="70"/>
+      <c r="AH110" s="94"/>
     </row>
     <row r="111" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F111" s="82"/>
-      <c r="G111" s="103"/>
-      <c r="H111" s="103"/>
-      <c r="I111" s="103"/>
-      <c r="J111" s="91"/>
-      <c r="K111" s="77"/>
-      <c r="L111" s="77"/>
-      <c r="M111" s="77"/>
-      <c r="N111" s="77"/>
-      <c r="O111" s="77"/>
-      <c r="P111" s="91"/>
-      <c r="Q111" s="77"/>
-      <c r="R111" s="77"/>
-      <c r="S111" s="77"/>
-      <c r="T111" s="77"/>
-      <c r="U111" s="77"/>
-      <c r="V111" s="77"/>
-      <c r="W111" s="77"/>
-      <c r="X111" s="77"/>
-      <c r="Y111" s="77"/>
-      <c r="Z111" s="77"/>
-      <c r="AA111" s="103"/>
-      <c r="AB111" s="103"/>
-      <c r="AC111" s="103"/>
-      <c r="AD111" s="103"/>
-      <c r="AE111" s="103"/>
-      <c r="AF111" s="103"/>
-      <c r="AG111" s="103"/>
-      <c r="AH111" s="104"/>
+      <c r="F111" s="81"/>
+      <c r="G111" s="102"/>
+      <c r="H111" s="102"/>
+      <c r="I111" s="102"/>
+      <c r="J111" s="90"/>
+      <c r="K111" s="76"/>
+      <c r="L111" s="76"/>
+      <c r="M111" s="76"/>
+      <c r="N111" s="76"/>
+      <c r="O111" s="76"/>
+      <c r="P111" s="90"/>
+      <c r="Q111" s="76"/>
+      <c r="R111" s="76"/>
+      <c r="S111" s="76"/>
+      <c r="T111" s="76"/>
+      <c r="U111" s="76"/>
+      <c r="V111" s="76"/>
+      <c r="W111" s="76"/>
+      <c r="X111" s="76"/>
+      <c r="Y111" s="76"/>
+      <c r="Z111" s="76"/>
+      <c r="AA111" s="102"/>
+      <c r="AB111" s="102"/>
+      <c r="AC111" s="102"/>
+      <c r="AD111" s="102"/>
+      <c r="AE111" s="102"/>
+      <c r="AF111" s="102"/>
+      <c r="AG111" s="102"/>
+      <c r="AH111" s="103"/>
     </row>
     <row r="112" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="19"/>
@@ -6658,10 +6640,10 @@
     </row>
     <row r="114" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F114" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G114" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="115" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6670,7 +6652,7 @@
       <c r="D115" s="36"/>
       <c r="E115" s="36"/>
       <c r="G115" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA115" s="41"/>
     </row>
@@ -6719,40 +6701,40 @@
       <c r="C117" s="36"/>
       <c r="D117" s="36"/>
       <c r="E117" s="36"/>
-      <c r="G117" s="70" t="s">
+      <c r="G117" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H117" s="100"/>
-      <c r="I117" s="100"/>
-      <c r="J117" s="102"/>
-      <c r="K117" s="100" t="s">
+      <c r="H117" s="99"/>
+      <c r="I117" s="99"/>
+      <c r="J117" s="101"/>
+      <c r="K117" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="L117" s="99"/>
+      <c r="M117" s="99"/>
+      <c r="N117" s="99"/>
+      <c r="O117" s="101"/>
+      <c r="P117" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="L117" s="100"/>
-      <c r="M117" s="100"/>
-      <c r="N117" s="100"/>
-      <c r="O117" s="102"/>
-      <c r="P117" s="100" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q117" s="100"/>
-      <c r="R117" s="100"/>
-      <c r="S117" s="100"/>
-      <c r="T117" s="100"/>
-      <c r="U117" s="100"/>
-      <c r="V117" s="100"/>
-      <c r="W117" s="100"/>
-      <c r="X117" s="100"/>
-      <c r="Y117" s="100"/>
-      <c r="Z117" s="100"/>
-      <c r="AA117" s="100"/>
-      <c r="AB117" s="100"/>
-      <c r="AC117" s="100"/>
-      <c r="AD117" s="100"/>
-      <c r="AE117" s="100"/>
-      <c r="AF117" s="100"/>
-      <c r="AG117" s="100"/>
-      <c r="AH117" s="102"/>
+      <c r="Q117" s="99"/>
+      <c r="R117" s="99"/>
+      <c r="S117" s="99"/>
+      <c r="T117" s="99"/>
+      <c r="U117" s="99"/>
+      <c r="V117" s="99"/>
+      <c r="W117" s="99"/>
+      <c r="X117" s="99"/>
+      <c r="Y117" s="99"/>
+      <c r="Z117" s="99"/>
+      <c r="AA117" s="99"/>
+      <c r="AB117" s="99"/>
+      <c r="AC117" s="99"/>
+      <c r="AD117" s="99"/>
+      <c r="AE117" s="99"/>
+      <c r="AF117" s="99"/>
+      <c r="AG117" s="99"/>
+      <c r="AH117" s="101"/>
       <c r="AI117" s="44"/>
     </row>
     <row r="118" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6760,216 +6742,216 @@
       <c r="C118" s="36"/>
       <c r="D118" s="36"/>
       <c r="E118" s="36"/>
-      <c r="G118" s="110"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="71"/>
-      <c r="J118" s="95"/>
-      <c r="K118" s="71"/>
-      <c r="L118" s="71"/>
-      <c r="M118" s="71"/>
-      <c r="N118" s="71"/>
-      <c r="O118" s="95"/>
+      <c r="G118" s="109"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
+      <c r="J118" s="94"/>
+      <c r="K118" s="70"/>
+      <c r="L118" s="70"/>
+      <c r="M118" s="70"/>
+      <c r="N118" s="70"/>
+      <c r="O118" s="94"/>
       <c r="P118" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="Q118" s="71"/>
-      <c r="R118" s="71"/>
-      <c r="S118" s="71"/>
-      <c r="T118" s="71"/>
-      <c r="U118" s="71"/>
-      <c r="V118" s="71"/>
-      <c r="W118" s="71"/>
-      <c r="X118" s="71"/>
-      <c r="Y118" s="71"/>
-      <c r="Z118" s="71"/>
-      <c r="AA118" s="71"/>
-      <c r="AB118" s="71"/>
-      <c r="AC118" s="71"/>
-      <c r="AD118" s="71"/>
-      <c r="AE118" s="71"/>
-      <c r="AF118" s="71"/>
-      <c r="AG118" s="71"/>
-      <c r="AH118" s="95"/>
+      <c r="Q118" s="70"/>
+      <c r="R118" s="70"/>
+      <c r="S118" s="70"/>
+      <c r="T118" s="70"/>
+      <c r="U118" s="70"/>
+      <c r="V118" s="70"/>
+      <c r="W118" s="70"/>
+      <c r="X118" s="70"/>
+      <c r="Y118" s="70"/>
+      <c r="Z118" s="70"/>
+      <c r="AA118" s="70"/>
+      <c r="AB118" s="70"/>
+      <c r="AC118" s="70"/>
+      <c r="AD118" s="70"/>
+      <c r="AE118" s="70"/>
+      <c r="AF118" s="70"/>
+      <c r="AG118" s="70"/>
+      <c r="AH118" s="94"/>
     </row>
     <row r="119" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
       <c r="D119" s="36"/>
       <c r="E119" s="36"/>
-      <c r="G119" s="82"/>
-      <c r="H119" s="103"/>
-      <c r="I119" s="103"/>
-      <c r="J119" s="104"/>
-      <c r="K119" s="103"/>
-      <c r="L119" s="103"/>
-      <c r="M119" s="103"/>
-      <c r="N119" s="103"/>
-      <c r="O119" s="104"/>
-      <c r="P119" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q119" s="103"/>
-      <c r="R119" s="103"/>
-      <c r="S119" s="103"/>
-      <c r="T119" s="103"/>
-      <c r="U119" s="103"/>
-      <c r="V119" s="103"/>
-      <c r="W119" s="103"/>
-      <c r="X119" s="103"/>
-      <c r="Y119" s="103"/>
-      <c r="Z119" s="103"/>
-      <c r="AA119" s="103"/>
-      <c r="AB119" s="103"/>
-      <c r="AC119" s="103"/>
-      <c r="AD119" s="103"/>
-      <c r="AE119" s="103"/>
-      <c r="AF119" s="103"/>
-      <c r="AG119" s="103"/>
-      <c r="AH119" s="104"/>
+      <c r="G119" s="81"/>
+      <c r="H119" s="102"/>
+      <c r="I119" s="102"/>
+      <c r="J119" s="103"/>
+      <c r="K119" s="102"/>
+      <c r="L119" s="102"/>
+      <c r="M119" s="102"/>
+      <c r="N119" s="102"/>
+      <c r="O119" s="103"/>
+      <c r="P119" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q119" s="102"/>
+      <c r="R119" s="102"/>
+      <c r="S119" s="102"/>
+      <c r="T119" s="102"/>
+      <c r="U119" s="102"/>
+      <c r="V119" s="102"/>
+      <c r="W119" s="102"/>
+      <c r="X119" s="102"/>
+      <c r="Y119" s="102"/>
+      <c r="Z119" s="102"/>
+      <c r="AA119" s="102"/>
+      <c r="AB119" s="102"/>
+      <c r="AC119" s="102"/>
+      <c r="AD119" s="102"/>
+      <c r="AE119" s="102"/>
+      <c r="AF119" s="102"/>
+      <c r="AG119" s="102"/>
+      <c r="AH119" s="103"/>
     </row>
     <row r="120" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G120" s="110" t="s">
+      <c r="G120" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="H120" s="71"/>
-      <c r="I120" s="71"/>
-      <c r="J120" s="95"/>
-      <c r="K120" s="71" t="s">
+      <c r="H120" s="70"/>
+      <c r="I120" s="70"/>
+      <c r="J120" s="94"/>
+      <c r="K120" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="L120" s="71"/>
-      <c r="M120" s="71"/>
-      <c r="N120" s="71"/>
-      <c r="O120" s="95"/>
-      <c r="P120" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q120" s="71"/>
-      <c r="R120" s="71"/>
-      <c r="S120" s="71"/>
-      <c r="T120" s="71"/>
-      <c r="U120" s="71"/>
-      <c r="V120" s="71"/>
-      <c r="W120" s="71"/>
-      <c r="X120" s="71"/>
-      <c r="Y120" s="71"/>
-      <c r="Z120" s="71"/>
-      <c r="AA120" s="71"/>
-      <c r="AB120" s="71"/>
-      <c r="AC120" s="71"/>
-      <c r="AD120" s="71"/>
-      <c r="AE120" s="71"/>
-      <c r="AF120" s="71"/>
-      <c r="AG120" s="71"/>
-      <c r="AH120" s="95"/>
+      <c r="L120" s="70"/>
+      <c r="M120" s="70"/>
+      <c r="N120" s="70"/>
+      <c r="O120" s="94"/>
+      <c r="P120" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q120" s="70"/>
+      <c r="R120" s="70"/>
+      <c r="S120" s="70"/>
+      <c r="T120" s="70"/>
+      <c r="U120" s="70"/>
+      <c r="V120" s="70"/>
+      <c r="W120" s="70"/>
+      <c r="X120" s="70"/>
+      <c r="Y120" s="70"/>
+      <c r="Z120" s="70"/>
+      <c r="AA120" s="70"/>
+      <c r="AB120" s="70"/>
+      <c r="AC120" s="70"/>
+      <c r="AD120" s="70"/>
+      <c r="AE120" s="70"/>
+      <c r="AF120" s="70"/>
+      <c r="AG120" s="70"/>
+      <c r="AH120" s="94"/>
     </row>
     <row r="121" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G121" s="82"/>
-      <c r="H121" s="103"/>
-      <c r="I121" s="103"/>
-      <c r="J121" s="104"/>
-      <c r="K121" s="103"/>
-      <c r="L121" s="103"/>
-      <c r="M121" s="103"/>
-      <c r="N121" s="103"/>
-      <c r="O121" s="104"/>
-      <c r="P121" s="103" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q121" s="103"/>
-      <c r="R121" s="103"/>
-      <c r="S121" s="103"/>
-      <c r="T121" s="103"/>
-      <c r="U121" s="103"/>
-      <c r="V121" s="103"/>
-      <c r="W121" s="103"/>
-      <c r="X121" s="103"/>
-      <c r="Y121" s="103"/>
-      <c r="Z121" s="103"/>
-      <c r="AA121" s="103"/>
-      <c r="AB121" s="103"/>
-      <c r="AC121" s="103"/>
-      <c r="AD121" s="103"/>
-      <c r="AE121" s="103"/>
-      <c r="AF121" s="103"/>
-      <c r="AG121" s="103"/>
-      <c r="AH121" s="104"/>
+      <c r="G121" s="81"/>
+      <c r="H121" s="102"/>
+      <c r="I121" s="102"/>
+      <c r="J121" s="103"/>
+      <c r="K121" s="102"/>
+      <c r="L121" s="102"/>
+      <c r="M121" s="102"/>
+      <c r="N121" s="102"/>
+      <c r="O121" s="103"/>
+      <c r="P121" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q121" s="102"/>
+      <c r="R121" s="102"/>
+      <c r="S121" s="102"/>
+      <c r="T121" s="102"/>
+      <c r="U121" s="102"/>
+      <c r="V121" s="102"/>
+      <c r="W121" s="102"/>
+      <c r="X121" s="102"/>
+      <c r="Y121" s="102"/>
+      <c r="Z121" s="102"/>
+      <c r="AA121" s="102"/>
+      <c r="AB121" s="102"/>
+      <c r="AC121" s="102"/>
+      <c r="AD121" s="102"/>
+      <c r="AE121" s="102"/>
+      <c r="AF121" s="102"/>
+      <c r="AG121" s="102"/>
+      <c r="AH121" s="103"/>
     </row>
     <row r="122" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G122" s="110" t="s">
+      <c r="G122" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="H122" s="71"/>
-      <c r="I122" s="71"/>
-      <c r="J122" s="95"/>
-      <c r="K122" s="71" t="s">
+      <c r="H122" s="70"/>
+      <c r="I122" s="70"/>
+      <c r="J122" s="94"/>
+      <c r="K122" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="L122" s="70"/>
+      <c r="M122" s="70"/>
+      <c r="N122" s="70"/>
+      <c r="O122" s="94"/>
+      <c r="P122" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="L122" s="71"/>
-      <c r="M122" s="71"/>
-      <c r="N122" s="71"/>
-      <c r="O122" s="95"/>
-      <c r="P122" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q122" s="71"/>
-      <c r="R122" s="71"/>
-      <c r="S122" s="71"/>
-      <c r="T122" s="71"/>
-      <c r="U122" s="71"/>
-      <c r="V122" s="71"/>
-      <c r="W122" s="71"/>
-      <c r="X122" s="71"/>
-      <c r="Y122" s="71"/>
-      <c r="Z122" s="71"/>
-      <c r="AA122" s="71"/>
-      <c r="AB122" s="71"/>
-      <c r="AC122" s="71"/>
-      <c r="AD122" s="71"/>
-      <c r="AE122" s="71"/>
-      <c r="AF122" s="71"/>
-      <c r="AG122" s="71"/>
-      <c r="AH122" s="95"/>
+      <c r="Q122" s="70"/>
+      <c r="R122" s="70"/>
+      <c r="S122" s="70"/>
+      <c r="T122" s="70"/>
+      <c r="U122" s="70"/>
+      <c r="V122" s="70"/>
+      <c r="W122" s="70"/>
+      <c r="X122" s="70"/>
+      <c r="Y122" s="70"/>
+      <c r="Z122" s="70"/>
+      <c r="AA122" s="70"/>
+      <c r="AB122" s="70"/>
+      <c r="AC122" s="70"/>
+      <c r="AD122" s="70"/>
+      <c r="AE122" s="70"/>
+      <c r="AF122" s="70"/>
+      <c r="AG122" s="70"/>
+      <c r="AH122" s="94"/>
     </row>
     <row r="123" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G123" s="82" t="s">
+      <c r="G123" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="H123" s="103"/>
-      <c r="I123" s="103"/>
-      <c r="J123" s="104"/>
-      <c r="K123" s="103"/>
-      <c r="L123" s="103"/>
-      <c r="M123" s="103"/>
-      <c r="N123" s="103"/>
-      <c r="O123" s="104"/>
-      <c r="P123" s="103"/>
-      <c r="Q123" s="103"/>
-      <c r="R123" s="103"/>
-      <c r="S123" s="103"/>
-      <c r="T123" s="103"/>
-      <c r="U123" s="103"/>
-      <c r="V123" s="103"/>
-      <c r="W123" s="103"/>
-      <c r="X123" s="103"/>
-      <c r="Y123" s="103"/>
-      <c r="Z123" s="103"/>
-      <c r="AA123" s="103"/>
-      <c r="AB123" s="103"/>
-      <c r="AC123" s="103"/>
-      <c r="AD123" s="103"/>
-      <c r="AE123" s="103"/>
-      <c r="AF123" s="103"/>
-      <c r="AG123" s="103"/>
-      <c r="AH123" s="104"/>
+      <c r="H123" s="102"/>
+      <c r="I123" s="102"/>
+      <c r="J123" s="103"/>
+      <c r="K123" s="102"/>
+      <c r="L123" s="102"/>
+      <c r="M123" s="102"/>
+      <c r="N123" s="102"/>
+      <c r="O123" s="103"/>
+      <c r="P123" s="102"/>
+      <c r="Q123" s="102"/>
+      <c r="R123" s="102"/>
+      <c r="S123" s="102"/>
+      <c r="T123" s="102"/>
+      <c r="U123" s="102"/>
+      <c r="V123" s="102"/>
+      <c r="W123" s="102"/>
+      <c r="X123" s="102"/>
+      <c r="Y123" s="102"/>
+      <c r="Z123" s="102"/>
+      <c r="AA123" s="102"/>
+      <c r="AB123" s="102"/>
+      <c r="AC123" s="102"/>
+      <c r="AD123" s="102"/>
+      <c r="AE123" s="102"/>
+      <c r="AF123" s="102"/>
+      <c r="AG123" s="102"/>
+      <c r="AH123" s="103"/>
     </row>
     <row r="124" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="125" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F125" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6978,7 +6960,7 @@
       <c r="D126" s="36"/>
       <c r="E126" s="36"/>
       <c r="G126" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7026,40 +7008,40 @@
       <c r="C128" s="36"/>
       <c r="D128" s="36"/>
       <c r="E128" s="36"/>
-      <c r="G128" s="70" t="s">
+      <c r="G128" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H128" s="100"/>
-      <c r="I128" s="100"/>
-      <c r="J128" s="102"/>
-      <c r="K128" s="100" t="s">
+      <c r="H128" s="99"/>
+      <c r="I128" s="99"/>
+      <c r="J128" s="101"/>
+      <c r="K128" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="L128" s="99"/>
+      <c r="M128" s="99"/>
+      <c r="N128" s="99"/>
+      <c r="O128" s="101"/>
+      <c r="P128" s="99" t="s">
         <v>262</v>
       </c>
-      <c r="L128" s="100"/>
-      <c r="M128" s="100"/>
-      <c r="N128" s="100"/>
-      <c r="O128" s="102"/>
-      <c r="P128" s="100" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q128" s="100"/>
-      <c r="R128" s="100"/>
-      <c r="S128" s="100"/>
-      <c r="T128" s="100"/>
-      <c r="U128" s="100"/>
-      <c r="V128" s="100"/>
-      <c r="W128" s="100"/>
-      <c r="X128" s="100"/>
-      <c r="Y128" s="100"/>
-      <c r="Z128" s="100"/>
-      <c r="AA128" s="100"/>
-      <c r="AB128" s="100"/>
-      <c r="AC128" s="100"/>
-      <c r="AD128" s="100"/>
-      <c r="AE128" s="100"/>
-      <c r="AF128" s="100"/>
-      <c r="AG128" s="100"/>
-      <c r="AH128" s="102"/>
+      <c r="Q128" s="99"/>
+      <c r="R128" s="99"/>
+      <c r="S128" s="99"/>
+      <c r="T128" s="99"/>
+      <c r="U128" s="99"/>
+      <c r="V128" s="99"/>
+      <c r="W128" s="99"/>
+      <c r="X128" s="99"/>
+      <c r="Y128" s="99"/>
+      <c r="Z128" s="99"/>
+      <c r="AA128" s="99"/>
+      <c r="AB128" s="99"/>
+      <c r="AC128" s="99"/>
+      <c r="AD128" s="99"/>
+      <c r="AE128" s="99"/>
+      <c r="AF128" s="99"/>
+      <c r="AG128" s="99"/>
+      <c r="AH128" s="101"/>
       <c r="AI128" s="44"/>
     </row>
     <row r="129" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7067,134 +7049,134 @@
       <c r="C129" s="36"/>
       <c r="D129" s="36"/>
       <c r="E129" s="36"/>
-      <c r="G129" s="82"/>
-      <c r="H129" s="103"/>
-      <c r="I129" s="103"/>
-      <c r="J129" s="104"/>
-      <c r="K129" s="103"/>
-      <c r="L129" s="103"/>
-      <c r="M129" s="103"/>
-      <c r="N129" s="103"/>
-      <c r="O129" s="104"/>
-      <c r="P129" s="103"/>
-      <c r="Q129" s="103"/>
-      <c r="R129" s="103"/>
-      <c r="S129" s="103"/>
-      <c r="T129" s="103"/>
-      <c r="U129" s="103"/>
-      <c r="V129" s="103"/>
-      <c r="W129" s="103"/>
-      <c r="X129" s="103"/>
-      <c r="Y129" s="103"/>
-      <c r="Z129" s="103"/>
-      <c r="AA129" s="103"/>
-      <c r="AB129" s="103"/>
-      <c r="AC129" s="103"/>
-      <c r="AD129" s="103"/>
-      <c r="AE129" s="103"/>
-      <c r="AF129" s="103"/>
-      <c r="AG129" s="103"/>
-      <c r="AH129" s="104"/>
+      <c r="G129" s="81"/>
+      <c r="H129" s="102"/>
+      <c r="I129" s="102"/>
+      <c r="J129" s="103"/>
+      <c r="K129" s="102"/>
+      <c r="L129" s="102"/>
+      <c r="M129" s="102"/>
+      <c r="N129" s="102"/>
+      <c r="O129" s="103"/>
+      <c r="P129" s="102"/>
+      <c r="Q129" s="102"/>
+      <c r="R129" s="102"/>
+      <c r="S129" s="102"/>
+      <c r="T129" s="102"/>
+      <c r="U129" s="102"/>
+      <c r="V129" s="102"/>
+      <c r="W129" s="102"/>
+      <c r="X129" s="102"/>
+      <c r="Y129" s="102"/>
+      <c r="Z129" s="102"/>
+      <c r="AA129" s="102"/>
+      <c r="AB129" s="102"/>
+      <c r="AC129" s="102"/>
+      <c r="AD129" s="102"/>
+      <c r="AE129" s="102"/>
+      <c r="AF129" s="102"/>
+      <c r="AG129" s="102"/>
+      <c r="AH129" s="103"/>
     </row>
     <row r="130" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G130" s="110" t="s">
+      <c r="G130" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="H130" s="71"/>
-      <c r="I130" s="71"/>
-      <c r="J130" s="95"/>
-      <c r="K130" s="71" t="s">
+      <c r="H130" s="70"/>
+      <c r="I130" s="70"/>
+      <c r="J130" s="94"/>
+      <c r="K130" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="L130" s="70"/>
+      <c r="M130" s="70"/>
+      <c r="N130" s="70"/>
+      <c r="O130" s="94"/>
+      <c r="P130" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q130" s="70"/>
+      <c r="R130" s="70"/>
+      <c r="S130" s="70"/>
+      <c r="T130" s="70"/>
+      <c r="U130" s="70"/>
+      <c r="V130" s="70"/>
+      <c r="W130" s="70"/>
+      <c r="X130" s="70"/>
+      <c r="Y130" s="70"/>
+      <c r="Z130" s="70"/>
+      <c r="AA130" s="70"/>
+      <c r="AB130" s="70"/>
+      <c r="AC130" s="70"/>
+      <c r="AD130" s="70"/>
+      <c r="AE130" s="70"/>
+      <c r="AF130" s="70"/>
+      <c r="AG130" s="70"/>
+      <c r="AH130" s="94"/>
+    </row>
+    <row r="131" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G131" s="109"/>
+      <c r="H131" s="70"/>
+      <c r="I131" s="70"/>
+      <c r="J131" s="94"/>
+      <c r="K131" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="L130" s="71"/>
-      <c r="M130" s="71"/>
-      <c r="N130" s="71"/>
-      <c r="O130" s="95"/>
-      <c r="P130" s="71" t="s">
+      <c r="L131" s="70"/>
+      <c r="M131" s="70"/>
+      <c r="N131" s="70"/>
+      <c r="O131" s="94"/>
+      <c r="P131" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="Q130" s="71"/>
-      <c r="R130" s="71"/>
-      <c r="S130" s="71"/>
-      <c r="T130" s="71"/>
-      <c r="U130" s="71"/>
-      <c r="V130" s="71"/>
-      <c r="W130" s="71"/>
-      <c r="X130" s="71"/>
-      <c r="Y130" s="71"/>
-      <c r="Z130" s="71"/>
-      <c r="AA130" s="71"/>
-      <c r="AB130" s="71"/>
-      <c r="AC130" s="71"/>
-      <c r="AD130" s="71"/>
-      <c r="AE130" s="71"/>
-      <c r="AF130" s="71"/>
-      <c r="AG130" s="71"/>
-      <c r="AH130" s="95"/>
-    </row>
-    <row r="131" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G131" s="110"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="71"/>
-      <c r="J131" s="95"/>
-      <c r="K131" s="71" t="s">
-        <v>265</v>
-      </c>
-      <c r="L131" s="71"/>
-      <c r="M131" s="71"/>
-      <c r="N131" s="71"/>
-      <c r="O131" s="95"/>
-      <c r="P131" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q131" s="71"/>
-      <c r="R131" s="71"/>
-      <c r="S131" s="71"/>
-      <c r="T131" s="71"/>
-      <c r="U131" s="71"/>
-      <c r="V131" s="71"/>
-      <c r="W131" s="71"/>
-      <c r="X131" s="71"/>
-      <c r="Y131" s="71"/>
-      <c r="Z131" s="71"/>
-      <c r="AA131" s="71"/>
-      <c r="AB131" s="71"/>
-      <c r="AC131" s="71"/>
-      <c r="AD131" s="71"/>
-      <c r="AE131" s="71"/>
-      <c r="AF131" s="71"/>
-      <c r="AG131" s="71"/>
-      <c r="AH131" s="95"/>
+      <c r="Q131" s="70"/>
+      <c r="R131" s="70"/>
+      <c r="S131" s="70"/>
+      <c r="T131" s="70"/>
+      <c r="U131" s="70"/>
+      <c r="V131" s="70"/>
+      <c r="W131" s="70"/>
+      <c r="X131" s="70"/>
+      <c r="Y131" s="70"/>
+      <c r="Z131" s="70"/>
+      <c r="AA131" s="70"/>
+      <c r="AB131" s="70"/>
+      <c r="AC131" s="70"/>
+      <c r="AD131" s="70"/>
+      <c r="AE131" s="70"/>
+      <c r="AF131" s="70"/>
+      <c r="AG131" s="70"/>
+      <c r="AH131" s="94"/>
     </row>
     <row r="132" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G132" s="82"/>
-      <c r="H132" s="103"/>
-      <c r="I132" s="103"/>
-      <c r="J132" s="104"/>
-      <c r="K132" s="103"/>
-      <c r="L132" s="103"/>
-      <c r="M132" s="103"/>
-      <c r="N132" s="103"/>
-      <c r="O132" s="104"/>
-      <c r="P132" s="103"/>
-      <c r="Q132" s="103"/>
-      <c r="R132" s="103"/>
-      <c r="S132" s="103"/>
-      <c r="T132" s="103"/>
-      <c r="U132" s="103"/>
-      <c r="V132" s="103"/>
-      <c r="W132" s="103"/>
-      <c r="X132" s="103"/>
-      <c r="Y132" s="103"/>
-      <c r="Z132" s="103"/>
-      <c r="AA132" s="103"/>
-      <c r="AB132" s="103"/>
-      <c r="AC132" s="103"/>
-      <c r="AD132" s="103"/>
-      <c r="AE132" s="103"/>
-      <c r="AF132" s="103"/>
-      <c r="AG132" s="103"/>
-      <c r="AH132" s="104"/>
+      <c r="G132" s="81"/>
+      <c r="H132" s="102"/>
+      <c r="I132" s="102"/>
+      <c r="J132" s="103"/>
+      <c r="K132" s="102"/>
+      <c r="L132" s="102"/>
+      <c r="M132" s="102"/>
+      <c r="N132" s="102"/>
+      <c r="O132" s="103"/>
+      <c r="P132" s="102"/>
+      <c r="Q132" s="102"/>
+      <c r="R132" s="102"/>
+      <c r="S132" s="102"/>
+      <c r="T132" s="102"/>
+      <c r="U132" s="102"/>
+      <c r="V132" s="102"/>
+      <c r="W132" s="102"/>
+      <c r="X132" s="102"/>
+      <c r="Y132" s="102"/>
+      <c r="Z132" s="102"/>
+      <c r="AA132" s="102"/>
+      <c r="AB132" s="102"/>
+      <c r="AC132" s="102"/>
+      <c r="AD132" s="102"/>
+      <c r="AE132" s="102"/>
+      <c r="AF132" s="102"/>
+      <c r="AG132" s="102"/>
+      <c r="AH132" s="103"/>
     </row>
     <row r="133" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="134" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7299,7 +7281,7 @@
       <c r="D137" s="29"/>
       <c r="E137" s="29"/>
       <c r="F137" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G137" s="29"/>
       <c r="H137" s="29"/>
@@ -7328,11 +7310,11 @@
       <c r="C138" s="29"/>
       <c r="D138" s="29"/>
       <c r="E138" s="29"/>
-      <c r="F138" s="64" t="s">
-        <v>77</v>
+      <c r="F138" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="G138" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H138" s="29"/>
       <c r="I138" s="29"/>
@@ -7360,11 +7342,11 @@
       <c r="C139" s="29"/>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
-      <c r="F139" s="64" t="s">
+      <c r="F139" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G139" s="29" t="s">
         <v>77</v>
-      </c>
-      <c r="G139" s="29" t="s">
-        <v>78</v>
       </c>
       <c r="H139" s="29"/>
       <c r="I139" s="29"/>
@@ -7392,11 +7374,11 @@
       <c r="C140" s="29"/>
       <c r="D140" s="29"/>
       <c r="E140" s="29"/>
-      <c r="F140" s="64" t="s">
-        <v>77</v>
+      <c r="F140" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="G140" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H140" s="29"/>
       <c r="I140" s="29"/>
@@ -7424,11 +7406,11 @@
       <c r="C141" s="29"/>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
-      <c r="F141" s="64" t="s">
-        <v>77</v>
+      <c r="F141" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="G141" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H141" s="29"/>
       <c r="I141" s="29"/>
@@ -7456,11 +7438,11 @@
       <c r="C142" s="29"/>
       <c r="D142" s="29"/>
       <c r="E142" s="29"/>
-      <c r="F142" s="64" t="s">
-        <v>77</v>
+      <c r="F142" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
@@ -7520,7 +7502,7 @@
         <v>3.1.8.2.</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G144" s="29"/>
       <c r="H144" s="29"/>
@@ -7550,7 +7532,7 @@
       <c r="D145" s="29"/>
       <c r="E145" s="29"/>
       <c r="F145" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G145" s="29"/>
       <c r="H145" s="29"/>
@@ -7607,22 +7589,22 @@
       <c r="C147" s="29"/>
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
-      <c r="F147" s="62" t="s">
-        <v>232</v>
+      <c r="F147" s="61" t="s">
+        <v>231</v>
       </c>
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
       <c r="I147" s="38"/>
       <c r="J147" s="38"/>
       <c r="K147" s="37"/>
-      <c r="L147" s="62" t="s">
-        <v>233</v>
+      <c r="L147" s="61" t="s">
+        <v>232</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
       <c r="O147" s="37"/>
       <c r="P147" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q147" s="38"/>
       <c r="R147" s="38"/>
@@ -7647,81 +7629,81 @@
       <c r="C148" s="29"/>
       <c r="D148" s="29"/>
       <c r="E148" s="29"/>
-      <c r="F148" s="98" t="s">
+      <c r="F148" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="G148" s="99"/>
-      <c r="H148" s="99"/>
-      <c r="I148" s="99"/>
-      <c r="J148" s="99"/>
-      <c r="K148" s="99"/>
-      <c r="L148" s="98" t="s">
-        <v>234</v>
-      </c>
-      <c r="M148" s="99"/>
-      <c r="N148" s="99"/>
-      <c r="O148" s="101"/>
+      <c r="G148" s="98"/>
+      <c r="H148" s="98"/>
+      <c r="I148" s="98"/>
+      <c r="J148" s="98"/>
+      <c r="K148" s="98"/>
+      <c r="L148" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="M148" s="98"/>
+      <c r="N148" s="98"/>
+      <c r="O148" s="100"/>
       <c r="P148" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q148" s="99"/>
-      <c r="R148" s="99"/>
-      <c r="S148" s="99"/>
-      <c r="T148" s="99"/>
-      <c r="U148" s="99"/>
-      <c r="V148" s="99"/>
-      <c r="W148" s="99"/>
-      <c r="X148" s="99"/>
-      <c r="Y148" s="99"/>
-      <c r="Z148" s="99"/>
-      <c r="AA148" s="99"/>
-      <c r="AB148" s="99"/>
-      <c r="AC148" s="100"/>
-      <c r="AD148" s="100"/>
-      <c r="AE148" s="100"/>
-      <c r="AF148" s="100"/>
-      <c r="AG148" s="100"/>
-      <c r="AH148" s="102"/>
+        <v>284</v>
+      </c>
+      <c r="Q148" s="98"/>
+      <c r="R148" s="98"/>
+      <c r="S148" s="98"/>
+      <c r="T148" s="98"/>
+      <c r="U148" s="98"/>
+      <c r="V148" s="98"/>
+      <c r="W148" s="98"/>
+      <c r="X148" s="98"/>
+      <c r="Y148" s="98"/>
+      <c r="Z148" s="98"/>
+      <c r="AA148" s="98"/>
+      <c r="AB148" s="98"/>
+      <c r="AC148" s="99"/>
+      <c r="AD148" s="99"/>
+      <c r="AE148" s="99"/>
+      <c r="AF148" s="99"/>
+      <c r="AG148" s="99"/>
+      <c r="AH148" s="101"/>
     </row>
     <row r="149" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="29"/>
       <c r="D149" s="29"/>
       <c r="E149" s="29"/>
-      <c r="F149" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="G149" s="94"/>
-      <c r="H149" s="94"/>
-      <c r="I149" s="94"/>
-      <c r="J149" s="94"/>
-      <c r="K149" s="94"/>
-      <c r="L149" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="M149" s="94"/>
-      <c r="N149" s="94"/>
-      <c r="O149" s="73"/>
-      <c r="P149" s="94" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q149" s="94"/>
-      <c r="R149" s="94"/>
-      <c r="S149" s="94"/>
-      <c r="T149" s="94"/>
-      <c r="U149" s="94"/>
-      <c r="V149" s="94"/>
-      <c r="W149" s="94"/>
-      <c r="X149" s="94"/>
-      <c r="Y149" s="94"/>
-      <c r="Z149" s="94"/>
-      <c r="AA149" s="94"/>
-      <c r="AB149" s="94"/>
-      <c r="AC149" s="69"/>
-      <c r="AD149" s="69"/>
-      <c r="AE149" s="69"/>
-      <c r="AF149" s="69"/>
-      <c r="AG149" s="69"/>
-      <c r="AH149" s="97"/>
+      <c r="F149" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="G149" s="93"/>
+      <c r="H149" s="93"/>
+      <c r="I149" s="93"/>
+      <c r="J149" s="93"/>
+      <c r="K149" s="93"/>
+      <c r="L149" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="M149" s="93"/>
+      <c r="N149" s="93"/>
+      <c r="O149" s="72"/>
+      <c r="P149" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q149" s="93"/>
+      <c r="R149" s="93"/>
+      <c r="S149" s="93"/>
+      <c r="T149" s="93"/>
+      <c r="U149" s="93"/>
+      <c r="V149" s="93"/>
+      <c r="W149" s="93"/>
+      <c r="X149" s="93"/>
+      <c r="Y149" s="93"/>
+      <c r="Z149" s="93"/>
+      <c r="AA149" s="93"/>
+      <c r="AB149" s="93"/>
+      <c r="AC149" s="68"/>
+      <c r="AD149" s="68"/>
+      <c r="AE149" s="68"/>
+      <c r="AF149" s="68"/>
+      <c r="AG149" s="68"/>
+      <c r="AH149" s="96"/>
     </row>
     <row r="150" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="29"/>
@@ -7787,12 +7769,12 @@
     <row r="152" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C152" s="29"/>
       <c r="D152" s="29"/>
-      <c r="E152" s="78"/>
+      <c r="E152" s="77"/>
       <c r="F152" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G152" s="75" t="s">
-        <v>82</v>
+      <c r="G152" s="74" t="s">
+        <v>81</v>
       </c>
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
@@ -7819,10 +7801,10 @@
     <row r="153" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C153" s="29"/>
       <c r="D153" s="29"/>
-      <c r="E153" s="78"/>
+      <c r="E153" s="77"/>
       <c r="F153" s="24"/>
       <c r="G153" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
@@ -7849,10 +7831,10 @@
     <row r="154" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C154" s="29"/>
       <c r="D154" s="29"/>
-      <c r="E154" s="78"/>
+      <c r="E154" s="77"/>
       <c r="F154" s="24"/>
       <c r="G154" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H154" s="29"/>
       <c r="I154" s="29"/>
@@ -7879,10 +7861,10 @@
     <row r="155" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C155" s="29"/>
       <c r="D155" s="29"/>
-      <c r="E155" s="78"/>
+      <c r="E155" s="77"/>
       <c r="F155" s="24"/>
-      <c r="G155" s="65" t="s">
-        <v>255</v>
+      <c r="G155" s="64" t="s">
+        <v>254</v>
       </c>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
@@ -7909,10 +7891,10 @@
     <row r="156" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C156" s="29"/>
       <c r="D156" s="29"/>
-      <c r="E156" s="78"/>
+      <c r="E156" s="77"/>
       <c r="F156" s="24"/>
-      <c r="G156" s="65" t="s">
-        <v>256</v>
+      <c r="G156" s="64" t="s">
+        <v>255</v>
       </c>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
@@ -7939,9 +7921,9 @@
     <row r="157" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C157" s="29"/>
       <c r="D157" s="29"/>
-      <c r="E157" s="78"/>
+      <c r="E157" s="77"/>
       <c r="F157" s="24"/>
-      <c r="G157" s="65"/>
+      <c r="G157" s="64"/>
       <c r="H157" s="29"/>
       <c r="I157" s="29"/>
       <c r="J157" s="29"/>
@@ -7968,11 +7950,11 @@
       <c r="A158" s="41"/>
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
-      <c r="E158" s="75"/>
+      <c r="E158" s="74"/>
       <c r="F158" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G158" s="66" t="str">
+      <c r="G158" s="65" t="str">
         <f>G138</f>
         <v>開閉局切り替え単位</v>
       </c>
@@ -8002,9 +7984,9 @@
       <c r="A159" s="41"/>
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
-      <c r="E159" s="75"/>
+      <c r="E159" s="74"/>
       <c r="F159" s="29"/>
-      <c r="G159" s="62" t="str">
+      <c r="G159" s="61" t="str">
         <f>G158</f>
         <v>開閉局切り替え単位</v>
       </c>
@@ -8044,7 +8026,7 @@
       <c r="A160" s="41"/>
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
-      <c r="E160" s="75"/>
+      <c r="E160" s="74"/>
       <c r="F160" s="29"/>
       <c r="G160" s="30" t="str">
         <f>F148</f>
@@ -8062,7 +8044,7 @@
       <c r="O160" s="55"/>
       <c r="P160" s="31"/>
       <c r="Q160" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R160" s="55"/>
       <c r="S160" s="55"/>
@@ -8086,7 +8068,7 @@
       <c r="A161" s="41"/>
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
-      <c r="E161" s="75"/>
+      <c r="E161" s="74"/>
       <c r="F161" s="29"/>
       <c r="G161" s="56" t="str">
         <f>F149</f>
@@ -8104,7 +8086,7 @@
       <c r="O161" s="57"/>
       <c r="P161" s="58"/>
       <c r="Q161" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R161" s="57"/>
       <c r="S161" s="57"/>
@@ -8128,7 +8110,7 @@
       <c r="A162" s="41"/>
       <c r="C162" s="29"/>
       <c r="D162" s="29"/>
-      <c r="E162" s="75"/>
+      <c r="E162" s="74"/>
       <c r="F162" s="29"/>
       <c r="G162" s="55"/>
       <c r="H162" s="55"/>
@@ -8162,9 +8144,9 @@
     <row r="163" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C163" s="29"/>
       <c r="D163" s="29"/>
-      <c r="E163" s="75"/>
+      <c r="E163" s="74"/>
       <c r="F163" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G163" s="29" t="str">
         <f>G139</f>
@@ -8195,9 +8177,9 @@
     <row r="164" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
-      <c r="E164" s="75"/>
+      <c r="E164" s="74"/>
       <c r="F164" s="29"/>
-      <c r="G164" s="62" t="s">
+      <c r="G164" s="61" t="s">
         <v>23</v>
       </c>
       <c r="H164" s="38"/>
@@ -8225,17 +8207,17 @@
       <c r="Z164" s="38"/>
       <c r="AA164" s="38"/>
       <c r="AB164" s="38"/>
-      <c r="AC164" s="63"/>
-      <c r="AD164" s="63"/>
-      <c r="AE164" s="63"/>
-      <c r="AF164" s="63"/>
+      <c r="AC164" s="62"/>
+      <c r="AD164" s="62"/>
+      <c r="AE164" s="62"/>
+      <c r="AF164" s="62"/>
       <c r="AG164" s="53"/>
       <c r="AH164" s="54"/>
     </row>
     <row r="165" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C165" s="29"/>
       <c r="D165" s="29"/>
-      <c r="E165" s="75"/>
+      <c r="E165" s="74"/>
       <c r="F165" s="29"/>
       <c r="G165" s="32" t="str">
         <f>F149</f>
@@ -8252,8 +8234,8 @@
       <c r="N165" s="33"/>
       <c r="O165" s="33"/>
       <c r="P165" s="34"/>
-      <c r="Q165" s="77" t="s">
-        <v>258</v>
+      <c r="Q165" s="76" t="s">
+        <v>257</v>
       </c>
       <c r="R165" s="33"/>
       <c r="S165" s="33"/>
@@ -8276,7 +8258,7 @@
     <row r="166" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C166" s="29"/>
       <c r="D166" s="29"/>
-      <c r="E166" s="75"/>
+      <c r="E166" s="74"/>
       <c r="F166" s="29"/>
       <c r="G166" s="29"/>
       <c r="H166" s="29"/>
@@ -8304,9 +8286,9 @@
     <row r="167" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C167" s="29"/>
       <c r="D167" s="29"/>
-      <c r="E167" s="75"/>
+      <c r="E167" s="74"/>
       <c r="F167" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G167" s="29" t="str">
         <f>G140</f>
@@ -8337,9 +8319,9 @@
     <row r="168" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C168" s="29"/>
       <c r="D168" s="29"/>
-      <c r="E168" s="75"/>
+      <c r="E168" s="74"/>
       <c r="F168" s="29"/>
-      <c r="G168" s="62" t="s">
+      <c r="G168" s="61" t="s">
         <v>23</v>
       </c>
       <c r="H168" s="38"/>
@@ -8388,7 +8370,7 @@
       <c r="J169" s="39"/>
       <c r="K169" s="40"/>
       <c r="L169" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M169" s="39"/>
       <c r="N169" s="39"/>
@@ -8398,7 +8380,7 @@
       <c r="R169" s="39"/>
       <c r="S169" s="40"/>
       <c r="T169" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U169" s="39"/>
       <c r="V169" s="39"/>
@@ -8418,7 +8400,7 @@
     <row r="170" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C170" s="29"/>
       <c r="D170" s="29"/>
-      <c r="E170" s="75"/>
+      <c r="E170" s="74"/>
       <c r="F170" s="29"/>
       <c r="G170" s="30"/>
       <c r="H170" s="55"/>
@@ -8426,7 +8408,7 @@
       <c r="J170" s="55"/>
       <c r="K170" s="31"/>
       <c r="L170" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M170" s="55"/>
       <c r="N170" s="55"/>
@@ -8436,7 +8418,7 @@
       <c r="R170" s="55"/>
       <c r="S170" s="31"/>
       <c r="T170" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U170" s="55"/>
       <c r="V170" s="55"/>
@@ -8456,7 +8438,7 @@
     <row r="171" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C171" s="29"/>
       <c r="D171" s="29"/>
-      <c r="E171" s="75"/>
+      <c r="E171" s="74"/>
       <c r="F171" s="29"/>
       <c r="G171" s="32"/>
       <c r="H171" s="33"/>
@@ -8472,7 +8454,7 @@
       <c r="R171" s="33"/>
       <c r="S171" s="34"/>
       <c r="T171" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U171" s="33"/>
       <c r="V171" s="33"/>
@@ -8492,7 +8474,7 @@
     <row r="172" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C172" s="29"/>
       <c r="D172" s="29"/>
-      <c r="E172" s="75"/>
+      <c r="E172" s="74"/>
       <c r="F172" s="29"/>
       <c r="G172" s="55"/>
       <c r="H172" s="55"/>
@@ -8526,9 +8508,9 @@
     <row r="173" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C173" s="29"/>
       <c r="D173" s="29"/>
-      <c r="E173" s="75"/>
+      <c r="E173" s="74"/>
       <c r="F173" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G173" s="55" t="str">
         <f>G141</f>
@@ -8565,10 +8547,10 @@
     <row r="174" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C174" s="29"/>
       <c r="D174" s="29"/>
-      <c r="E174" s="75"/>
+      <c r="E174" s="74"/>
       <c r="F174" s="29"/>
       <c r="G174" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H174" s="55"/>
       <c r="I174" s="55"/>
@@ -8601,7 +8583,7 @@
     <row r="175" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C175" s="29"/>
       <c r="D175" s="29"/>
-      <c r="E175" s="75"/>
+      <c r="E175" s="74"/>
       <c r="F175" s="29"/>
       <c r="G175" s="55"/>
       <c r="H175" s="55"/>
@@ -8635,9 +8617,9 @@
     <row r="176" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C176" s="29"/>
       <c r="D176" s="29"/>
-      <c r="E176" s="75"/>
+      <c r="E176" s="74"/>
       <c r="F176" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G176" s="55" t="str">
         <f>G142</f>
@@ -8674,10 +8656,10 @@
     <row r="177" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C177" s="29"/>
       <c r="D177" s="29"/>
-      <c r="E177" s="75"/>
+      <c r="E177" s="74"/>
       <c r="F177" s="29"/>
       <c r="G177" s="55" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
@@ -8710,10 +8692,10 @@
     <row r="178" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C178" s="29"/>
       <c r="D178" s="29"/>
-      <c r="E178" s="75"/>
+      <c r="E178" s="74"/>
       <c r="F178" s="29"/>
       <c r="G178" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -8740,10 +8722,10 @@
     <row r="179" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C179" s="29"/>
       <c r="D179" s="29"/>
-      <c r="E179" s="75"/>
+      <c r="E179" s="74"/>
       <c r="F179" s="29"/>
       <c r="G179" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -8799,7 +8781,7 @@
       <c r="A181" s="29"/>
       <c r="B181" s="29"/>
       <c r="C181" s="29"/>
-      <c r="D181" s="78" t="str">
+      <c r="D181" s="77" t="str">
         <f>$C$7&amp;"9."</f>
         <v>3.1.9.</v>
       </c>
@@ -8846,8 +8828,8 @@
         <f>D181&amp;"1."</f>
         <v>3.1.9.1.</v>
       </c>
-      <c r="F182" s="75" t="s">
-        <v>152</v>
+      <c r="F182" s="74" t="s">
+        <v>151</v>
       </c>
       <c r="G182" s="29"/>
       <c r="H182" s="29"/>
@@ -8885,8 +8867,8 @@
       <c r="C183" s="29"/>
       <c r="D183" s="29"/>
       <c r="E183" s="24"/>
-      <c r="F183" s="75" t="s">
-        <v>153</v>
+      <c r="F183" s="74" t="s">
+        <v>152</v>
       </c>
       <c r="G183" s="29"/>
       <c r="H183" s="29"/>
@@ -8961,11 +8943,11 @@
       <c r="C185" s="29"/>
       <c r="D185" s="29"/>
       <c r="E185" s="29"/>
-      <c r="F185" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="G185" s="66" t="s">
+      <c r="F185" s="77" t="s">
         <v>98</v>
+      </c>
+      <c r="G185" s="65" t="s">
+        <v>97</v>
       </c>
       <c r="H185" s="29"/>
       <c r="I185" s="29"/>
@@ -9003,8 +8985,8 @@
       <c r="D186" s="29"/>
       <c r="E186" s="29"/>
       <c r="F186" s="29"/>
-      <c r="G186" s="66" t="s">
-        <v>96</v>
+      <c r="G186" s="65" t="s">
+        <v>95</v>
       </c>
       <c r="H186" s="29"/>
       <c r="I186" s="29"/>
@@ -9042,8 +9024,8 @@
       <c r="D187" s="29"/>
       <c r="E187" s="29"/>
       <c r="F187" s="29"/>
-      <c r="G187" s="66" t="s">
-        <v>97</v>
+      <c r="G187" s="65" t="s">
+        <v>96</v>
       </c>
       <c r="H187" s="29"/>
       <c r="I187" s="29"/>
@@ -9081,8 +9063,8 @@
       <c r="D188" s="29"/>
       <c r="E188" s="29"/>
       <c r="F188" s="29"/>
-      <c r="G188" s="66" t="s">
-        <v>259</v>
+      <c r="G188" s="65" t="s">
+        <v>258</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
@@ -9120,8 +9102,8 @@
       <c r="D189" s="29"/>
       <c r="E189" s="29"/>
       <c r="F189" s="29"/>
-      <c r="G189" s="79" t="s">
-        <v>252</v>
+      <c r="G189" s="78" t="s">
+        <v>251</v>
       </c>
       <c r="H189" s="29"/>
       <c r="I189" s="29"/>
@@ -9159,8 +9141,8 @@
       <c r="D190" s="29"/>
       <c r="E190" s="29"/>
       <c r="F190" s="29"/>
-      <c r="G190" s="79" t="s">
-        <v>298</v>
+      <c r="G190" s="78" t="s">
+        <v>296</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
@@ -9234,11 +9216,11 @@
       <c r="C192" s="29"/>
       <c r="D192" s="29"/>
       <c r="E192" s="29"/>
-      <c r="F192" s="78" t="s">
+      <c r="F192" s="77" t="s">
         <v>58</v>
       </c>
       <c r="G192" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H192" s="29"/>
       <c r="I192" s="29"/>
@@ -9277,7 +9259,7 @@
       <c r="E193" s="29"/>
       <c r="F193" s="29"/>
       <c r="G193" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H193" s="29"/>
       <c r="I193" s="29"/>
@@ -9316,7 +9298,7 @@
       <c r="E194" s="29"/>
       <c r="F194" s="29"/>
       <c r="G194" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H194" s="29"/>
       <c r="I194" s="29"/>
@@ -9355,7 +9337,7 @@
       <c r="E195" s="29"/>
       <c r="F195" s="29"/>
       <c r="G195" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H195" s="29"/>
       <c r="I195" s="29"/>
@@ -9431,7 +9413,7 @@
       <c r="E197" s="29"/>
       <c r="F197" s="29"/>
       <c r="G197" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H197" s="29"/>
       <c r="I197" s="29"/>
@@ -9469,8 +9451,8 @@
       <c r="D198" s="29"/>
       <c r="E198" s="29"/>
       <c r="F198" s="29"/>
-      <c r="G198" s="62" t="s">
-        <v>104</v>
+      <c r="G198" s="61" t="s">
+        <v>103</v>
       </c>
       <c r="H198" s="38"/>
       <c r="I198" s="38"/>
@@ -9482,7 +9464,7 @@
       <c r="O198" s="38"/>
       <c r="P198" s="37"/>
       <c r="Q198" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R198" s="38"/>
       <c r="S198" s="38"/>
@@ -9511,7 +9493,7 @@
       <c r="E199" s="29"/>
       <c r="F199" s="29"/>
       <c r="G199" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H199" s="55"/>
       <c r="I199" s="55"/>
@@ -9523,7 +9505,7 @@
       <c r="O199" s="55"/>
       <c r="P199" s="31"/>
       <c r="Q199" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R199" s="55"/>
       <c r="S199" s="55"/>
@@ -9562,7 +9544,7 @@
       <c r="O200" s="33"/>
       <c r="P200" s="34"/>
       <c r="Q200" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R200" s="33"/>
       <c r="S200" s="33"/>
@@ -9591,7 +9573,7 @@
       <c r="E201" s="29"/>
       <c r="F201" s="29"/>
       <c r="G201" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H201" s="55"/>
       <c r="I201" s="55"/>
@@ -9603,7 +9585,7 @@
       <c r="O201" s="55"/>
       <c r="P201" s="31"/>
       <c r="Q201" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R201" s="55"/>
       <c r="S201" s="55"/>
@@ -9642,7 +9624,7 @@
       <c r="O202" s="55"/>
       <c r="P202" s="31"/>
       <c r="Q202" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R202" s="55"/>
       <c r="S202" s="55"/>
@@ -9681,7 +9663,7 @@
       <c r="O203" s="33"/>
       <c r="P203" s="34"/>
       <c r="Q203" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R203" s="33"/>
       <c r="S203" s="33"/>
@@ -9710,7 +9692,7 @@
       <c r="E204" s="29"/>
       <c r="F204" s="29"/>
       <c r="G204" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H204" s="33"/>
       <c r="I204" s="33"/>
@@ -9722,7 +9704,7 @@
       <c r="O204" s="33"/>
       <c r="P204" s="34"/>
       <c r="Q204" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R204" s="33"/>
       <c r="S204" s="33"/>
@@ -9751,7 +9733,7 @@
       <c r="E205" s="29"/>
       <c r="F205" s="29"/>
       <c r="G205" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H205" s="55"/>
       <c r="I205" s="55"/>
@@ -9763,7 +9745,7 @@
       <c r="O205" s="55"/>
       <c r="P205" s="31"/>
       <c r="Q205" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R205" s="55"/>
       <c r="S205" s="55"/>
@@ -9802,7 +9784,7 @@
       <c r="O206" s="55"/>
       <c r="P206" s="31"/>
       <c r="Q206" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R206" s="55"/>
       <c r="S206" s="55"/>
@@ -9841,7 +9823,7 @@
       <c r="O207" s="33"/>
       <c r="P207" s="34"/>
       <c r="Q207" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R207" s="33"/>
       <c r="S207" s="33"/>
@@ -9909,7 +9891,7 @@
         <v>3.1.9.2.</v>
       </c>
       <c r="F209" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G209" s="29"/>
       <c r="H209" s="29"/>
@@ -9948,7 +9930,7 @@
       <c r="D210" s="29"/>
       <c r="E210" s="24"/>
       <c r="F210" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G210" s="29"/>
       <c r="H210" s="29"/>
@@ -10024,10 +10006,10 @@
       <c r="D212" s="29"/>
       <c r="E212" s="29"/>
       <c r="F212" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G212" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H212" s="29"/>
       <c r="I212" s="29"/>
@@ -10066,7 +10048,7 @@
       <c r="E213" s="29"/>
       <c r="F213" s="24"/>
       <c r="G213" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H213" s="29"/>
       <c r="I213" s="29"/>
@@ -10104,15 +10086,15 @@
       <c r="D214" s="29"/>
       <c r="E214" s="29"/>
       <c r="F214" s="24"/>
-      <c r="G214" s="62" t="s">
-        <v>93</v>
+      <c r="G214" s="61" t="s">
+        <v>92</v>
       </c>
       <c r="H214" s="38"/>
       <c r="I214" s="38"/>
       <c r="J214" s="38"/>
       <c r="K214" s="37"/>
       <c r="L214" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M214" s="38"/>
       <c r="N214" s="38"/>
@@ -10131,7 +10113,7 @@
       <c r="AA214" s="38"/>
       <c r="AB214" s="37"/>
       <c r="AC214" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD214" s="38"/>
       <c r="AE214" s="38"/>
@@ -10148,14 +10130,14 @@
       <c r="E215" s="29"/>
       <c r="F215" s="24"/>
       <c r="G215" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H215" s="55"/>
       <c r="I215" s="55"/>
       <c r="J215" s="55"/>
       <c r="K215" s="31"/>
       <c r="L215" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M215" s="26"/>
       <c r="N215" s="26"/>
@@ -10172,15 +10154,15 @@
       <c r="Y215" s="26"/>
       <c r="Z215" s="26"/>
       <c r="AA215" s="26"/>
-      <c r="AB215" s="72"/>
+      <c r="AB215" s="71"/>
       <c r="AC215" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AD215" s="26"/>
       <c r="AE215" s="26"/>
       <c r="AF215" s="26"/>
       <c r="AG215" s="26"/>
-      <c r="AH215" s="72"/>
+      <c r="AH215" s="71"/>
       <c r="AI215" s="29"/>
     </row>
     <row r="216" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10191,14 +10173,14 @@
       <c r="E216" s="29"/>
       <c r="F216" s="24"/>
       <c r="G216" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H216" s="57"/>
       <c r="I216" s="57"/>
       <c r="J216" s="57"/>
       <c r="K216" s="58"/>
       <c r="L216" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M216" s="26"/>
       <c r="N216" s="26"/>
@@ -10215,13 +10197,13 @@
       <c r="Y216" s="26"/>
       <c r="Z216" s="26"/>
       <c r="AA216" s="26"/>
-      <c r="AB216" s="72"/>
+      <c r="AB216" s="71"/>
       <c r="AC216" s="26"/>
       <c r="AD216" s="26"/>
       <c r="AE216" s="26"/>
       <c r="AF216" s="26"/>
       <c r="AG216" s="26"/>
-      <c r="AH216" s="72"/>
+      <c r="AH216" s="71"/>
       <c r="AI216" s="29"/>
     </row>
     <row r="217" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10232,13 +10214,13 @@
       <c r="E217" s="29"/>
       <c r="F217" s="24"/>
       <c r="G217" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H217" s="55"/>
       <c r="I217" s="55"/>
       <c r="J217" s="55"/>
       <c r="K217" s="31"/>
-      <c r="L217" s="93"/>
+      <c r="L217" s="92"/>
       <c r="M217" s="26"/>
       <c r="N217" s="26"/>
       <c r="O217" s="26"/>
@@ -10254,13 +10236,13 @@
       <c r="Y217" s="26"/>
       <c r="Z217" s="26"/>
       <c r="AA217" s="26"/>
-      <c r="AB217" s="72"/>
+      <c r="AB217" s="71"/>
       <c r="AC217" s="26"/>
       <c r="AD217" s="26"/>
       <c r="AE217" s="26"/>
       <c r="AF217" s="26"/>
       <c r="AG217" s="26"/>
-      <c r="AH217" s="72"/>
+      <c r="AH217" s="71"/>
       <c r="AI217" s="29"/>
     </row>
     <row r="218" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10271,35 +10253,35 @@
       <c r="E218" s="29"/>
       <c r="F218" s="24"/>
       <c r="G218" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H218" s="33"/>
       <c r="I218" s="33"/>
       <c r="J218" s="33"/>
       <c r="K218" s="34"/>
-      <c r="L218" s="77"/>
-      <c r="M218" s="77"/>
-      <c r="N218" s="77"/>
-      <c r="O218" s="77"/>
-      <c r="P218" s="77"/>
-      <c r="Q218" s="77"/>
-      <c r="R218" s="77"/>
-      <c r="S218" s="77"/>
-      <c r="T218" s="77"/>
-      <c r="U218" s="77"/>
-      <c r="V218" s="77"/>
-      <c r="W218" s="77"/>
-      <c r="X218" s="77"/>
-      <c r="Y218" s="77"/>
-      <c r="Z218" s="77"/>
-      <c r="AA218" s="77"/>
-      <c r="AB218" s="91"/>
-      <c r="AC218" s="77"/>
-      <c r="AD218" s="77"/>
-      <c r="AE218" s="77"/>
-      <c r="AF218" s="77"/>
-      <c r="AG218" s="77"/>
-      <c r="AH218" s="91"/>
+      <c r="L218" s="76"/>
+      <c r="M218" s="76"/>
+      <c r="N218" s="76"/>
+      <c r="O218" s="76"/>
+      <c r="P218" s="76"/>
+      <c r="Q218" s="76"/>
+      <c r="R218" s="76"/>
+      <c r="S218" s="76"/>
+      <c r="T218" s="76"/>
+      <c r="U218" s="76"/>
+      <c r="V218" s="76"/>
+      <c r="W218" s="76"/>
+      <c r="X218" s="76"/>
+      <c r="Y218" s="76"/>
+      <c r="Z218" s="76"/>
+      <c r="AA218" s="76"/>
+      <c r="AB218" s="90"/>
+      <c r="AC218" s="76"/>
+      <c r="AD218" s="76"/>
+      <c r="AE218" s="76"/>
+      <c r="AF218" s="76"/>
+      <c r="AG218" s="76"/>
+      <c r="AH218" s="90"/>
       <c r="AI218" s="29"/>
     </row>
     <row r="219" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10310,14 +10292,14 @@
       <c r="E219" s="29"/>
       <c r="F219" s="24"/>
       <c r="G219" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H219" s="55"/>
       <c r="I219" s="55"/>
       <c r="J219" s="55"/>
       <c r="K219" s="31"/>
       <c r="L219" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M219" s="26"/>
       <c r="N219" s="26"/>
@@ -10334,15 +10316,15 @@
       <c r="Y219" s="26"/>
       <c r="Z219" s="26"/>
       <c r="AA219" s="26"/>
-      <c r="AB219" s="72"/>
+      <c r="AB219" s="71"/>
       <c r="AC219" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AD219" s="26"/>
       <c r="AE219" s="26"/>
       <c r="AF219" s="26"/>
       <c r="AG219" s="26"/>
-      <c r="AH219" s="72"/>
+      <c r="AH219" s="71"/>
       <c r="AI219" s="29"/>
     </row>
     <row r="220" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10358,7 +10340,7 @@
       <c r="J220" s="55"/>
       <c r="K220" s="31"/>
       <c r="L220" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M220" s="26"/>
       <c r="N220" s="26"/>
@@ -10375,15 +10357,15 @@
       <c r="Y220" s="26"/>
       <c r="Z220" s="26"/>
       <c r="AA220" s="26"/>
-      <c r="AB220" s="72"/>
+      <c r="AB220" s="71"/>
       <c r="AC220" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AD220" s="26"/>
       <c r="AE220" s="26"/>
       <c r="AF220" s="26"/>
       <c r="AG220" s="26"/>
-      <c r="AH220" s="72"/>
+      <c r="AH220" s="71"/>
       <c r="AI220" s="29"/>
     </row>
     <row r="221" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10399,7 +10381,7 @@
       <c r="J221" s="55"/>
       <c r="K221" s="31"/>
       <c r="L221" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M221" s="26"/>
       <c r="N221" s="26"/>
@@ -10416,13 +10398,13 @@
       <c r="Y221" s="26"/>
       <c r="Z221" s="26"/>
       <c r="AA221" s="26"/>
-      <c r="AB221" s="72"/>
+      <c r="AB221" s="71"/>
       <c r="AC221" s="26"/>
       <c r="AD221" s="26"/>
       <c r="AE221" s="26"/>
       <c r="AF221" s="26"/>
       <c r="AG221" s="26"/>
-      <c r="AH221" s="72"/>
+      <c r="AH221" s="71"/>
       <c r="AI221" s="29"/>
     </row>
     <row r="222" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10437,29 +10419,29 @@
       <c r="I222" s="33"/>
       <c r="J222" s="33"/>
       <c r="K222" s="34"/>
-      <c r="L222" s="77"/>
-      <c r="M222" s="77"/>
-      <c r="N222" s="77"/>
-      <c r="O222" s="77"/>
-      <c r="P222" s="77"/>
-      <c r="Q222" s="77"/>
-      <c r="R222" s="77"/>
-      <c r="S222" s="77"/>
-      <c r="T222" s="77"/>
-      <c r="U222" s="77"/>
-      <c r="V222" s="77"/>
-      <c r="W222" s="77"/>
-      <c r="X222" s="77"/>
-      <c r="Y222" s="77"/>
-      <c r="Z222" s="77"/>
-      <c r="AA222" s="77"/>
-      <c r="AB222" s="91"/>
-      <c r="AC222" s="77"/>
-      <c r="AD222" s="77"/>
-      <c r="AE222" s="77"/>
-      <c r="AF222" s="77"/>
-      <c r="AG222" s="77"/>
-      <c r="AH222" s="91"/>
+      <c r="L222" s="76"/>
+      <c r="M222" s="76"/>
+      <c r="N222" s="76"/>
+      <c r="O222" s="76"/>
+      <c r="P222" s="76"/>
+      <c r="Q222" s="76"/>
+      <c r="R222" s="76"/>
+      <c r="S222" s="76"/>
+      <c r="T222" s="76"/>
+      <c r="U222" s="76"/>
+      <c r="V222" s="76"/>
+      <c r="W222" s="76"/>
+      <c r="X222" s="76"/>
+      <c r="Y222" s="76"/>
+      <c r="Z222" s="76"/>
+      <c r="AA222" s="76"/>
+      <c r="AB222" s="90"/>
+      <c r="AC222" s="76"/>
+      <c r="AD222" s="76"/>
+      <c r="AE222" s="76"/>
+      <c r="AF222" s="76"/>
+      <c r="AG222" s="76"/>
+      <c r="AH222" s="90"/>
       <c r="AI222" s="29"/>
     </row>
     <row r="223" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10470,14 +10452,14 @@
       <c r="E223" s="29"/>
       <c r="F223" s="24"/>
       <c r="G223" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H223" s="55"/>
       <c r="I223" s="55"/>
       <c r="J223" s="55"/>
       <c r="K223" s="31"/>
       <c r="L223" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M223" s="26"/>
       <c r="N223" s="26"/>
@@ -10494,15 +10476,15 @@
       <c r="Y223" s="26"/>
       <c r="Z223" s="26"/>
       <c r="AA223" s="26"/>
-      <c r="AB223" s="72"/>
+      <c r="AB223" s="71"/>
       <c r="AC223" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD223" s="26"/>
       <c r="AE223" s="26"/>
       <c r="AF223" s="26"/>
       <c r="AG223" s="26"/>
-      <c r="AH223" s="72"/>
+      <c r="AH223" s="71"/>
       <c r="AI223" s="29"/>
     </row>
     <row r="224" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10513,14 +10495,14 @@
       <c r="E224" s="29"/>
       <c r="F224" s="24"/>
       <c r="G224" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H224" s="55"/>
       <c r="I224" s="55"/>
       <c r="J224" s="55"/>
       <c r="K224" s="31"/>
       <c r="L224" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M224" s="26"/>
       <c r="N224" s="26"/>
@@ -10537,13 +10519,13 @@
       <c r="Y224" s="26"/>
       <c r="Z224" s="26"/>
       <c r="AA224" s="26"/>
-      <c r="AB224" s="72"/>
+      <c r="AB224" s="71"/>
       <c r="AC224" s="26"/>
       <c r="AD224" s="26"/>
       <c r="AE224" s="26"/>
       <c r="AF224" s="26"/>
       <c r="AG224" s="26"/>
-      <c r="AH224" s="72"/>
+      <c r="AH224" s="71"/>
       <c r="AI224" s="29"/>
     </row>
     <row r="225" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10559,7 +10541,7 @@
       <c r="J225" s="55"/>
       <c r="K225" s="31"/>
       <c r="L225" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M225" s="26"/>
       <c r="N225" s="26"/>
@@ -10576,13 +10558,13 @@
       <c r="Y225" s="26"/>
       <c r="Z225" s="26"/>
       <c r="AA225" s="26"/>
-      <c r="AB225" s="72"/>
+      <c r="AB225" s="71"/>
       <c r="AC225" s="26"/>
       <c r="AD225" s="26"/>
       <c r="AE225" s="26"/>
       <c r="AF225" s="26"/>
       <c r="AG225" s="26"/>
-      <c r="AH225" s="72"/>
+      <c r="AH225" s="71"/>
       <c r="AI225" s="29"/>
     </row>
     <row r="226" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10598,7 +10580,7 @@
       <c r="J226" s="55"/>
       <c r="K226" s="31"/>
       <c r="L226" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M226" s="26"/>
       <c r="N226" s="26"/>
@@ -10615,13 +10597,13 @@
       <c r="Y226" s="26"/>
       <c r="Z226" s="26"/>
       <c r="AA226" s="26"/>
-      <c r="AB226" s="72"/>
+      <c r="AB226" s="71"/>
       <c r="AC226" s="26"/>
       <c r="AD226" s="26"/>
       <c r="AE226" s="26"/>
       <c r="AF226" s="26"/>
       <c r="AG226" s="26"/>
-      <c r="AH226" s="72"/>
+      <c r="AH226" s="71"/>
       <c r="AI226" s="29"/>
     </row>
     <row r="227" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10652,13 +10634,13 @@
       <c r="Y227" s="26"/>
       <c r="Z227" s="26"/>
       <c r="AA227" s="26"/>
-      <c r="AB227" s="72"/>
+      <c r="AB227" s="71"/>
       <c r="AC227" s="26"/>
       <c r="AD227" s="26"/>
       <c r="AE227" s="26"/>
       <c r="AF227" s="26"/>
       <c r="AG227" s="26"/>
-      <c r="AH227" s="72"/>
+      <c r="AH227" s="71"/>
       <c r="AI227" s="29"/>
     </row>
     <row r="228" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10674,7 +10656,7 @@
       <c r="J228" s="55"/>
       <c r="K228" s="31"/>
       <c r="L228" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M228" s="26"/>
       <c r="N228" s="26"/>
@@ -10691,13 +10673,13 @@
       <c r="Y228" s="26"/>
       <c r="Z228" s="26"/>
       <c r="AA228" s="26"/>
-      <c r="AB228" s="72"/>
+      <c r="AB228" s="71"/>
       <c r="AC228" s="26"/>
       <c r="AD228" s="26"/>
       <c r="AE228" s="26"/>
       <c r="AF228" s="26"/>
       <c r="AG228" s="26"/>
-      <c r="AH228" s="72"/>
+      <c r="AH228" s="71"/>
       <c r="AI228" s="29"/>
     </row>
     <row r="229" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10713,7 +10695,7 @@
       <c r="J229" s="55"/>
       <c r="K229" s="31"/>
       <c r="L229" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M229" s="26"/>
       <c r="N229" s="26"/>
@@ -10730,13 +10712,13 @@
       <c r="Y229" s="26"/>
       <c r="Z229" s="26"/>
       <c r="AA229" s="26"/>
-      <c r="AB229" s="72"/>
+      <c r="AB229" s="71"/>
       <c r="AC229" s="26"/>
       <c r="AD229" s="26"/>
       <c r="AE229" s="26"/>
       <c r="AF229" s="26"/>
       <c r="AG229" s="26"/>
-      <c r="AH229" s="72"/>
+      <c r="AH229" s="71"/>
       <c r="AI229" s="29"/>
     </row>
     <row r="230" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10752,7 +10734,7 @@
       <c r="J230" s="55"/>
       <c r="K230" s="31"/>
       <c r="L230" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M230" s="26"/>
       <c r="N230" s="26"/>
@@ -10769,13 +10751,13 @@
       <c r="Y230" s="26"/>
       <c r="Z230" s="26"/>
       <c r="AA230" s="26"/>
-      <c r="AB230" s="72"/>
+      <c r="AB230" s="71"/>
       <c r="AC230" s="26"/>
       <c r="AD230" s="26"/>
       <c r="AE230" s="26"/>
       <c r="AF230" s="26"/>
       <c r="AG230" s="26"/>
-      <c r="AH230" s="72"/>
+      <c r="AH230" s="71"/>
       <c r="AI230" s="29"/>
     </row>
     <row r="231" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10791,7 +10773,7 @@
       <c r="J231" s="55"/>
       <c r="K231" s="31"/>
       <c r="L231" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -10808,13 +10790,13 @@
       <c r="Y231" s="26"/>
       <c r="Z231" s="26"/>
       <c r="AA231" s="26"/>
-      <c r="AB231" s="72"/>
+      <c r="AB231" s="71"/>
       <c r="AC231" s="26"/>
       <c r="AD231" s="26"/>
       <c r="AE231" s="26"/>
       <c r="AF231" s="26"/>
       <c r="AG231" s="26"/>
-      <c r="AH231" s="72"/>
+      <c r="AH231" s="71"/>
       <c r="AI231" s="29"/>
     </row>
     <row r="232" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10830,7 +10812,7 @@
       <c r="J232" s="55"/>
       <c r="K232" s="31"/>
       <c r="L232" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M232" s="26"/>
       <c r="N232" s="26"/>
@@ -10847,13 +10829,13 @@
       <c r="Y232" s="26"/>
       <c r="Z232" s="26"/>
       <c r="AA232" s="26"/>
-      <c r="AB232" s="72"/>
+      <c r="AB232" s="71"/>
       <c r="AC232" s="26"/>
       <c r="AD232" s="26"/>
       <c r="AE232" s="26"/>
       <c r="AF232" s="26"/>
       <c r="AG232" s="26"/>
-      <c r="AH232" s="72"/>
+      <c r="AH232" s="71"/>
       <c r="AI232" s="29"/>
     </row>
     <row r="233" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10869,7 +10851,7 @@
       <c r="J233" s="55"/>
       <c r="K233" s="31"/>
       <c r="L233" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M233" s="26"/>
       <c r="N233" s="26"/>
@@ -10886,13 +10868,13 @@
       <c r="Y233" s="26"/>
       <c r="Z233" s="26"/>
       <c r="AA233" s="26"/>
-      <c r="AB233" s="72"/>
+      <c r="AB233" s="71"/>
       <c r="AC233" s="26"/>
       <c r="AD233" s="26"/>
       <c r="AE233" s="26"/>
       <c r="AF233" s="26"/>
       <c r="AG233" s="26"/>
-      <c r="AH233" s="72"/>
+      <c r="AH233" s="71"/>
       <c r="AI233" s="29"/>
     </row>
     <row r="234" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10907,31 +10889,31 @@
       <c r="I234" s="33"/>
       <c r="J234" s="33"/>
       <c r="K234" s="34"/>
-      <c r="L234" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="M234" s="77"/>
-      <c r="N234" s="77"/>
-      <c r="O234" s="77"/>
-      <c r="P234" s="77"/>
-      <c r="Q234" s="77"/>
-      <c r="R234" s="77"/>
-      <c r="S234" s="77"/>
-      <c r="T234" s="77"/>
-      <c r="U234" s="77"/>
-      <c r="V234" s="77"/>
-      <c r="W234" s="77"/>
-      <c r="X234" s="77"/>
-      <c r="Y234" s="77"/>
-      <c r="Z234" s="77"/>
-      <c r="AA234" s="77"/>
-      <c r="AB234" s="91"/>
-      <c r="AC234" s="77"/>
-      <c r="AD234" s="77"/>
-      <c r="AE234" s="77"/>
-      <c r="AF234" s="77"/>
-      <c r="AG234" s="77"/>
-      <c r="AH234" s="91"/>
+      <c r="L234" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="M234" s="76"/>
+      <c r="N234" s="76"/>
+      <c r="O234" s="76"/>
+      <c r="P234" s="76"/>
+      <c r="Q234" s="76"/>
+      <c r="R234" s="76"/>
+      <c r="S234" s="76"/>
+      <c r="T234" s="76"/>
+      <c r="U234" s="76"/>
+      <c r="V234" s="76"/>
+      <c r="W234" s="76"/>
+      <c r="X234" s="76"/>
+      <c r="Y234" s="76"/>
+      <c r="Z234" s="76"/>
+      <c r="AA234" s="76"/>
+      <c r="AB234" s="90"/>
+      <c r="AC234" s="76"/>
+      <c r="AD234" s="76"/>
+      <c r="AE234" s="76"/>
+      <c r="AF234" s="76"/>
+      <c r="AG234" s="76"/>
+      <c r="AH234" s="90"/>
       <c r="AI234" s="29"/>
     </row>
     <row r="235" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10942,14 +10924,14 @@
       <c r="E235" s="29"/>
       <c r="F235" s="24"/>
       <c r="G235" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H235" s="55"/>
       <c r="I235" s="55"/>
       <c r="J235" s="55"/>
       <c r="K235" s="31"/>
       <c r="L235" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -10966,15 +10948,15 @@
       <c r="Y235" s="26"/>
       <c r="Z235" s="26"/>
       <c r="AA235" s="26"/>
-      <c r="AB235" s="72"/>
+      <c r="AB235" s="71"/>
       <c r="AC235" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD235" s="26"/>
       <c r="AE235" s="26"/>
       <c r="AF235" s="26"/>
       <c r="AG235" s="26"/>
-      <c r="AH235" s="72"/>
+      <c r="AH235" s="71"/>
       <c r="AI235" s="29"/>
     </row>
     <row r="236" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10985,37 +10967,37 @@
       <c r="E236" s="29"/>
       <c r="F236" s="24"/>
       <c r="G236" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H236" s="33"/>
       <c r="I236" s="33"/>
       <c r="J236" s="33"/>
       <c r="K236" s="34"/>
-      <c r="L236" s="77" t="s">
-        <v>283</v>
-      </c>
-      <c r="M236" s="77"/>
-      <c r="N236" s="77"/>
-      <c r="O236" s="77"/>
-      <c r="P236" s="77"/>
-      <c r="Q236" s="77"/>
-      <c r="R236" s="77"/>
-      <c r="S236" s="77"/>
-      <c r="T236" s="77"/>
-      <c r="U236" s="77"/>
-      <c r="V236" s="77"/>
-      <c r="W236" s="77"/>
-      <c r="X236" s="77"/>
-      <c r="Y236" s="77"/>
-      <c r="Z236" s="77"/>
-      <c r="AA236" s="77"/>
-      <c r="AB236" s="91"/>
-      <c r="AC236" s="77"/>
-      <c r="AD236" s="77"/>
-      <c r="AE236" s="77"/>
-      <c r="AF236" s="77"/>
-      <c r="AG236" s="77"/>
-      <c r="AH236" s="91"/>
+      <c r="L236" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="M236" s="76"/>
+      <c r="N236" s="76"/>
+      <c r="O236" s="76"/>
+      <c r="P236" s="76"/>
+      <c r="Q236" s="76"/>
+      <c r="R236" s="76"/>
+      <c r="S236" s="76"/>
+      <c r="T236" s="76"/>
+      <c r="U236" s="76"/>
+      <c r="V236" s="76"/>
+      <c r="W236" s="76"/>
+      <c r="X236" s="76"/>
+      <c r="Y236" s="76"/>
+      <c r="Z236" s="76"/>
+      <c r="AA236" s="76"/>
+      <c r="AB236" s="90"/>
+      <c r="AC236" s="76"/>
+      <c r="AD236" s="76"/>
+      <c r="AE236" s="76"/>
+      <c r="AF236" s="76"/>
+      <c r="AG236" s="76"/>
+      <c r="AH236" s="90"/>
       <c r="AI236" s="29"/>
     </row>
     <row r="237" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11062,10 +11044,10 @@
       <c r="D238" s="29"/>
       <c r="E238" s="24"/>
       <c r="F238" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G238" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H238" s="29"/>
       <c r="I238" s="29"/>
@@ -11104,7 +11086,7 @@
       <c r="E239" s="24"/>
       <c r="F239" s="29"/>
       <c r="G239" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H239" s="29"/>
       <c r="I239" s="29"/>
@@ -11215,7 +11197,7 @@
         <v>3.1.10.</v>
       </c>
       <c r="E242" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="243" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11235,16 +11217,16 @@
     <row r="245" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D245" s="42"/>
       <c r="F245" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="246" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D246" s="42"/>
       <c r="F246" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G246" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="247" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11264,13 +11246,13 @@
     <row r="249" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D249" s="42"/>
       <c r="F249" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D250" s="42"/>
       <c r="F250" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G250" s="53"/>
       <c r="H250" s="53"/>
@@ -11304,71 +11286,71 @@
     </row>
     <row r="251" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D251" s="42"/>
-      <c r="F251" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="G251" s="100"/>
-      <c r="H251" s="100"/>
-      <c r="I251" s="100"/>
-      <c r="J251" s="100"/>
-      <c r="K251" s="102"/>
-      <c r="L251" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="M251" s="100"/>
-      <c r="N251" s="100"/>
-      <c r="O251" s="100"/>
-      <c r="P251" s="100"/>
-      <c r="Q251" s="100"/>
-      <c r="R251" s="100"/>
-      <c r="S251" s="100"/>
-      <c r="T251" s="100"/>
-      <c r="U251" s="100"/>
-      <c r="V251" s="100"/>
-      <c r="W251" s="100"/>
-      <c r="X251" s="100"/>
-      <c r="Y251" s="100"/>
-      <c r="Z251" s="100"/>
-      <c r="AA251" s="100"/>
-      <c r="AB251" s="100"/>
-      <c r="AC251" s="100"/>
-      <c r="AD251" s="100"/>
-      <c r="AE251" s="100"/>
-      <c r="AF251" s="100"/>
-      <c r="AG251" s="102"/>
+      <c r="F251" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="G251" s="99"/>
+      <c r="H251" s="99"/>
+      <c r="I251" s="99"/>
+      <c r="J251" s="99"/>
+      <c r="K251" s="101"/>
+      <c r="L251" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="M251" s="99"/>
+      <c r="N251" s="99"/>
+      <c r="O251" s="99"/>
+      <c r="P251" s="99"/>
+      <c r="Q251" s="99"/>
+      <c r="R251" s="99"/>
+      <c r="S251" s="99"/>
+      <c r="T251" s="99"/>
+      <c r="U251" s="99"/>
+      <c r="V251" s="99"/>
+      <c r="W251" s="99"/>
+      <c r="X251" s="99"/>
+      <c r="Y251" s="99"/>
+      <c r="Z251" s="99"/>
+      <c r="AA251" s="99"/>
+      <c r="AB251" s="99"/>
+      <c r="AC251" s="99"/>
+      <c r="AD251" s="99"/>
+      <c r="AE251" s="99"/>
+      <c r="AF251" s="99"/>
+      <c r="AG251" s="101"/>
     </row>
     <row r="252" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D252" s="42"/>
-      <c r="F252" s="82"/>
-      <c r="G252" s="103"/>
-      <c r="H252" s="103"/>
-      <c r="I252" s="103"/>
-      <c r="J252" s="103"/>
-      <c r="K252" s="104"/>
-      <c r="L252" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="M252" s="103"/>
-      <c r="N252" s="103"/>
-      <c r="O252" s="103"/>
-      <c r="P252" s="103"/>
-      <c r="Q252" s="103"/>
-      <c r="R252" s="103"/>
-      <c r="S252" s="103"/>
-      <c r="T252" s="103"/>
-      <c r="U252" s="103"/>
-      <c r="V252" s="103"/>
-      <c r="W252" s="103"/>
-      <c r="X252" s="103"/>
-      <c r="Y252" s="103"/>
-      <c r="Z252" s="103"/>
-      <c r="AA252" s="103"/>
-      <c r="AB252" s="103"/>
-      <c r="AC252" s="103"/>
-      <c r="AD252" s="103"/>
-      <c r="AE252" s="103"/>
-      <c r="AF252" s="103"/>
-      <c r="AG252" s="104"/>
+      <c r="F252" s="81"/>
+      <c r="G252" s="102"/>
+      <c r="H252" s="102"/>
+      <c r="I252" s="102"/>
+      <c r="J252" s="102"/>
+      <c r="K252" s="103"/>
+      <c r="L252" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="M252" s="102"/>
+      <c r="N252" s="102"/>
+      <c r="O252" s="102"/>
+      <c r="P252" s="102"/>
+      <c r="Q252" s="102"/>
+      <c r="R252" s="102"/>
+      <c r="S252" s="102"/>
+      <c r="T252" s="102"/>
+      <c r="U252" s="102"/>
+      <c r="V252" s="102"/>
+      <c r="W252" s="102"/>
+      <c r="X252" s="102"/>
+      <c r="Y252" s="102"/>
+      <c r="Z252" s="102"/>
+      <c r="AA252" s="102"/>
+      <c r="AB252" s="102"/>
+      <c r="AC252" s="102"/>
+      <c r="AD252" s="102"/>
+      <c r="AE252" s="102"/>
+      <c r="AF252" s="102"/>
+      <c r="AG252" s="103"/>
     </row>
     <row r="253" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D253" s="42"/>
@@ -11387,7 +11369,7 @@
     <row r="255" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D255" s="42"/>
       <c r="F255" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G255" s="29"/>
       <c r="H255" s="29"/>
@@ -11439,9 +11421,9 @@
     </row>
     <row r="265" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E265" s="42"/>
-      <c r="F265" s="88"/>
+      <c r="F265" s="87"/>
       <c r="G265" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H265" s="53"/>
       <c r="I265" s="53"/>
@@ -11449,7 +11431,7 @@
       <c r="K265" s="53"/>
       <c r="L265" s="54"/>
       <c r="M265" s="53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N265" s="53"/>
       <c r="O265" s="53"/>
@@ -11473,11 +11455,11 @@
     </row>
     <row r="266" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E266" s="42"/>
-      <c r="F266" s="87" t="s">
-        <v>185</v>
+      <c r="F266" s="86" t="s">
+        <v>184</v>
       </c>
       <c r="G266" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H266" s="49"/>
       <c r="I266" s="49"/>
@@ -11485,7 +11467,7 @@
       <c r="K266" s="49"/>
       <c r="L266" s="50"/>
       <c r="M266" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N266" s="49"/>
       <c r="O266" s="49"/>
@@ -11509,7 +11491,7 @@
     </row>
     <row r="267" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E267" s="42"/>
-      <c r="F267" s="85"/>
+      <c r="F267" s="84"/>
       <c r="G267" s="46"/>
       <c r="H267" s="47"/>
       <c r="I267" s="47"/>
@@ -11539,11 +11521,11 @@
     </row>
     <row r="268" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E268" s="42"/>
-      <c r="F268" s="87" t="s">
-        <v>183</v>
+      <c r="F268" s="86" t="s">
+        <v>182</v>
       </c>
       <c r="G268" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H268" s="49"/>
       <c r="I268" s="49"/>
@@ -11551,7 +11533,7 @@
       <c r="K268" s="49"/>
       <c r="L268" s="50"/>
       <c r="M268" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N268" s="49"/>
       <c r="O268" s="49"/>
@@ -11575,7 +11557,7 @@
     </row>
     <row r="269" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E269" s="42"/>
-      <c r="F269" s="85"/>
+      <c r="F269" s="84"/>
       <c r="G269" s="46"/>
       <c r="H269" s="47"/>
       <c r="I269" s="47"/>
@@ -11605,11 +11587,11 @@
     </row>
     <row r="270" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E270" s="42"/>
-      <c r="F270" s="87" t="s">
-        <v>181</v>
+      <c r="F270" s="86" t="s">
+        <v>180</v>
       </c>
       <c r="G270" s="48" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H270" s="49"/>
       <c r="I270" s="49"/>
@@ -11617,7 +11599,7 @@
       <c r="K270" s="49"/>
       <c r="L270" s="50"/>
       <c r="M270" s="48" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N270" s="49"/>
       <c r="O270" s="49"/>
@@ -11641,7 +11623,7 @@
     </row>
     <row r="271" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E271" s="42"/>
-      <c r="F271" s="85"/>
+      <c r="F271" s="84"/>
       <c r="G271" s="46"/>
       <c r="H271" s="47"/>
       <c r="I271" s="47"/>
@@ -11671,11 +11653,11 @@
     </row>
     <row r="272" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E272" s="42"/>
-      <c r="F272" s="87" t="s">
-        <v>180</v>
+      <c r="F272" s="86" t="s">
+        <v>179</v>
       </c>
       <c r="G272" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H272" s="49"/>
       <c r="I272" s="49"/>
@@ -11683,7 +11665,7 @@
       <c r="K272" s="49"/>
       <c r="L272" s="50"/>
       <c r="M272" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N272" s="49"/>
       <c r="O272" s="49"/>
@@ -11707,7 +11689,7 @@
     </row>
     <row r="273" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E273" s="42"/>
-      <c r="F273" s="90"/>
+      <c r="F273" s="89"/>
       <c r="G273" s="43"/>
       <c r="H273" s="44"/>
       <c r="I273" s="44"/>
@@ -11715,7 +11697,7 @@
       <c r="K273" s="44"/>
       <c r="L273" s="45"/>
       <c r="M273" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N273" s="44"/>
       <c r="O273" s="44"/>
@@ -11739,7 +11721,7 @@
     </row>
     <row r="274" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E274" s="42"/>
-      <c r="F274" s="85"/>
+      <c r="F274" s="84"/>
       <c r="G274" s="46"/>
       <c r="H274" s="47"/>
       <c r="I274" s="47"/>
@@ -11769,11 +11751,11 @@
     </row>
     <row r="275" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E275" s="42"/>
-      <c r="F275" s="86" t="s">
-        <v>191</v>
+      <c r="F275" s="85" t="s">
+        <v>190</v>
       </c>
       <c r="G275" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H275" s="49"/>
       <c r="I275" s="49"/>
@@ -11781,7 +11763,7 @@
       <c r="K275" s="49"/>
       <c r="L275" s="50"/>
       <c r="M275" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N275" s="49"/>
       <c r="O275" s="49"/>
@@ -11804,9 +11786,9 @@
       <c r="AF275" s="50"/>
     </row>
     <row r="276" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E276" s="67"/>
-      <c r="F276" s="89"/>
-      <c r="G276" s="82"/>
+      <c r="E276" s="66"/>
+      <c r="F276" s="88"/>
+      <c r="G276" s="81"/>
       <c r="H276" s="47"/>
       <c r="I276" s="47"/>
       <c r="J276" s="47"/>
@@ -11843,7 +11825,7 @@
       <c r="D278" s="42"/>
       <c r="E278" s="36"/>
       <c r="F278" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G278" s="36"/>
     </row>
@@ -11851,7 +11833,7 @@
       <c r="D279" s="42"/>
       <c r="E279" s="36"/>
       <c r="F279" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G279" s="36"/>
     </row>
@@ -11884,17 +11866,17 @@
       <c r="D285" s="42"/>
       <c r="E285" s="42"/>
       <c r="F285" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="286" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F286" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="287" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F287" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="288" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11973,7 +11955,7 @@
     </row>
     <row r="291" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F291" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G291" s="53"/>
       <c r="H291" s="53"/>
@@ -12009,50 +11991,50 @@
       <c r="AH291" s="54"/>
     </row>
     <row r="292" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F292" s="82" t="s">
+      <c r="F292" s="81" t="s">
+        <v>237</v>
+      </c>
+      <c r="G292" s="93"/>
+      <c r="H292" s="93"/>
+      <c r="I292" s="102"/>
+      <c r="J292" s="102"/>
+      <c r="K292" s="103"/>
+      <c r="L292" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="M292" s="68"/>
+      <c r="N292" s="68"/>
+      <c r="O292" s="93"/>
+      <c r="P292" s="93"/>
+      <c r="Q292" s="93"/>
+      <c r="R292" s="72"/>
+      <c r="S292" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="G292" s="94"/>
-      <c r="H292" s="94"/>
-      <c r="I292" s="103"/>
-      <c r="J292" s="103"/>
-      <c r="K292" s="104"/>
-      <c r="L292" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="M292" s="69"/>
-      <c r="N292" s="69"/>
-      <c r="O292" s="94"/>
-      <c r="P292" s="94"/>
-      <c r="Q292" s="94"/>
-      <c r="R292" s="73"/>
-      <c r="S292" s="94" t="s">
-        <v>239</v>
-      </c>
-      <c r="T292" s="103"/>
-      <c r="U292" s="103"/>
-      <c r="V292" s="103"/>
-      <c r="W292" s="103"/>
-      <c r="X292" s="103"/>
-      <c r="Y292" s="103"/>
-      <c r="Z292" s="103"/>
-      <c r="AA292" s="103"/>
-      <c r="AB292" s="103"/>
-      <c r="AC292" s="103"/>
-      <c r="AD292" s="103"/>
-      <c r="AE292" s="103"/>
-      <c r="AF292" s="103"/>
-      <c r="AG292" s="103"/>
-      <c r="AH292" s="104"/>
+      <c r="T292" s="102"/>
+      <c r="U292" s="102"/>
+      <c r="V292" s="102"/>
+      <c r="W292" s="102"/>
+      <c r="X292" s="102"/>
+      <c r="Y292" s="102"/>
+      <c r="Z292" s="102"/>
+      <c r="AA292" s="102"/>
+      <c r="AB292" s="102"/>
+      <c r="AC292" s="102"/>
+      <c r="AD292" s="102"/>
+      <c r="AE292" s="102"/>
+      <c r="AF292" s="102"/>
+      <c r="AG292" s="102"/>
+      <c r="AH292" s="103"/>
     </row>
     <row r="293" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F293" s="71"/>
-      <c r="G293" s="71"/>
-      <c r="H293" s="71"/>
-      <c r="I293" s="71"/>
-      <c r="J293" s="71"/>
-      <c r="K293" s="71"/>
-      <c r="L293" s="71"/>
+      <c r="F293" s="70"/>
+      <c r="G293" s="70"/>
+      <c r="H293" s="70"/>
+      <c r="I293" s="70"/>
+      <c r="J293" s="70"/>
+      <c r="K293" s="70"/>
+      <c r="L293" s="70"/>
       <c r="M293" s="44"/>
       <c r="N293" s="44"/>
       <c r="O293" s="44"/>
@@ -12082,7 +12064,7 @@
         <v>3.1.11.3.</v>
       </c>
       <c r="F294" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G294" s="36"/>
       <c r="H294" s="36"/>
@@ -12092,105 +12074,105 @@
       <c r="L294" s="36"/>
     </row>
     <row r="295" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F295" s="78" t="s">
+      <c r="F295" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="G295" s="75" t="str">
+      <c r="G295" s="74" t="str">
         <f>E283&amp;"方法詳細"</f>
         <v>コンテンツ更新方法詳細</v>
       </c>
-      <c r="H295" s="75"/>
-      <c r="I295" s="75"/>
-      <c r="J295" s="75"/>
-      <c r="K295" s="75"/>
-      <c r="L295" s="75"/>
+      <c r="H295" s="74"/>
+      <c r="I295" s="74"/>
+      <c r="J295" s="74"/>
+      <c r="K295" s="74"/>
+      <c r="L295" s="74"/>
     </row>
     <row r="296" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F296" s="78"/>
-      <c r="G296" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="H296" s="75" t="s">
+      <c r="F296" s="77"/>
+      <c r="G296" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="H296" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="I296" s="74"/>
+      <c r="J296" s="74"/>
+      <c r="K296" s="74"/>
+      <c r="L296" s="74"/>
+    </row>
+    <row r="297" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F297" s="77"/>
+      <c r="G297" s="79"/>
+      <c r="H297" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="I297" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="I296" s="75"/>
-      <c r="J296" s="75"/>
-      <c r="K296" s="75"/>
-      <c r="L296" s="75"/>
-    </row>
-    <row r="297" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F297" s="78"/>
-      <c r="G297" s="80"/>
-      <c r="H297" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="I297" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="J297" s="75"/>
-      <c r="K297" s="75"/>
-      <c r="L297" s="75"/>
+      <c r="J297" s="74"/>
+      <c r="K297" s="74"/>
+      <c r="L297" s="74"/>
     </row>
     <row r="298" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F298" s="78"/>
-      <c r="G298" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="H298" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="I298" s="75"/>
-      <c r="J298" s="75"/>
-      <c r="K298" s="75"/>
-      <c r="L298" s="75"/>
+      <c r="F298" s="77"/>
+      <c r="G298" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H298" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="I298" s="74"/>
+      <c r="J298" s="74"/>
+      <c r="K298" s="74"/>
+      <c r="L298" s="74"/>
     </row>
     <row r="299" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F299" s="78"/>
-      <c r="G299" s="75"/>
-      <c r="H299" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="I299" s="75" t="s">
+      <c r="F299" s="77"/>
+      <c r="G299" s="74"/>
+      <c r="H299" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="I299" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="J299" s="74"/>
+      <c r="K299" s="74"/>
+      <c r="L299" s="74"/>
+    </row>
+    <row r="300" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F300" s="77"/>
+      <c r="G300" s="74"/>
+      <c r="H300" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="J299" s="75"/>
-      <c r="K299" s="75"/>
-      <c r="L299" s="75"/>
-    </row>
-    <row r="300" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F300" s="78"/>
-      <c r="G300" s="75"/>
-      <c r="H300" s="80" t="s">
+      <c r="I300" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="I300" s="75" t="s">
+      <c r="J300" s="74"/>
+      <c r="K300" s="74"/>
+      <c r="L300" s="74"/>
+    </row>
+    <row r="301" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F301" s="74"/>
+      <c r="G301" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="H301" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="J300" s="75"/>
-      <c r="K300" s="75"/>
-      <c r="L300" s="75"/>
-    </row>
-    <row r="301" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F301" s="75"/>
-      <c r="G301" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="H301" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="I301" s="75"/>
-      <c r="J301" s="75"/>
-      <c r="K301" s="75"/>
-      <c r="L301" s="75"/>
+      <c r="I301" s="74"/>
+      <c r="J301" s="74"/>
+      <c r="K301" s="74"/>
+      <c r="L301" s="74"/>
     </row>
     <row r="302" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F302" s="36"/>
       <c r="G302" s="36"/>
-      <c r="H302" s="83" t="s">
-        <v>165</v>
+      <c r="H302" s="82" t="s">
+        <v>164</v>
       </c>
       <c r="I302" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J302" s="36"/>
       <c r="K302" s="36"/>
@@ -12198,12 +12180,12 @@
     </row>
     <row r="303" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F303" s="36"/>
-      <c r="G303" s="84"/>
-      <c r="H303" s="74" t="s">
-        <v>164</v>
+      <c r="G303" s="83"/>
+      <c r="H303" s="73" t="s">
+        <v>163</v>
       </c>
       <c r="I303" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J303" s="36"/>
       <c r="K303" s="36"/>
@@ -12211,7 +12193,7 @@
     </row>
     <row r="304" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F304" s="36"/>
-      <c r="G304" s="84"/>
+      <c r="G304" s="83"/>
       <c r="H304" s="36"/>
       <c r="I304" s="36"/>
       <c r="J304" s="36"/>
@@ -12227,345 +12209,374 @@
         <v>66</v>
       </c>
     </row>
-    <row r="306" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D306" s="28"/>
-      <c r="E306" s="61" t="s">
-        <v>67</v>
+    <row r="306" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D306" s="42"/>
+      <c r="E306" s="42" t="str">
+        <f>D305&amp;"1."</f>
+        <v>3.1.12.1.</v>
+      </c>
+      <c r="F306" s="41" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="307" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="42"/>
-      <c r="E307" s="61" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="308" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F308" s="19"/>
-      <c r="G308" s="19"/>
-      <c r="H308" s="19"/>
-      <c r="I308" s="19"/>
-      <c r="J308" s="19"/>
-      <c r="K308" s="19"/>
-      <c r="L308" s="19"/>
-      <c r="M308" s="19"/>
-      <c r="N308" s="19"/>
-      <c r="O308" s="19"/>
-      <c r="P308" s="19"/>
-      <c r="Q308" s="19"/>
-      <c r="R308" s="19"/>
-      <c r="S308" s="19"/>
-      <c r="T308" s="19"/>
-      <c r="U308" s="19"/>
-      <c r="V308" s="19"/>
-      <c r="W308" s="19"/>
-      <c r="X308" s="19"/>
-      <c r="Y308" s="19"/>
-      <c r="Z308" s="19"/>
-      <c r="AA308" s="19"/>
-      <c r="AB308" s="19"/>
-      <c r="AC308" s="19"/>
-      <c r="AD308" s="19"/>
-      <c r="AE308" s="19"/>
-      <c r="AF308" s="19"/>
-      <c r="AG308" s="19"/>
-      <c r="AH308" s="19"/>
+      <c r="E307" s="41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="308" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D308" s="42"/>
+      <c r="E308" s="41" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="309" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D309" s="42" t="str">
+      <c r="D309" s="42"/>
+    </row>
+    <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D310" s="42"/>
+      <c r="E310" s="42" t="str">
+        <f>D305&amp;"2."</f>
+        <v>3.1.12.2.</v>
+      </c>
+      <c r="F310" s="41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D311" s="42"/>
+      <c r="E311" s="41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="312" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F312" s="19"/>
+      <c r="G312" s="19"/>
+      <c r="H312" s="19"/>
+      <c r="I312" s="19"/>
+      <c r="J312" s="19"/>
+      <c r="K312" s="19"/>
+      <c r="L312" s="19"/>
+      <c r="M312" s="19"/>
+      <c r="N312" s="19"/>
+      <c r="O312" s="19"/>
+      <c r="P312" s="19"/>
+      <c r="Q312" s="19"/>
+      <c r="R312" s="19"/>
+      <c r="S312" s="19"/>
+      <c r="T312" s="19"/>
+      <c r="U312" s="19"/>
+      <c r="V312" s="19"/>
+      <c r="W312" s="19"/>
+      <c r="X312" s="19"/>
+      <c r="Y312" s="19"/>
+      <c r="Z312" s="19"/>
+      <c r="AA312" s="19"/>
+      <c r="AB312" s="19"/>
+      <c r="AC312" s="19"/>
+      <c r="AD312" s="19"/>
+      <c r="AE312" s="19"/>
+      <c r="AF312" s="19"/>
+      <c r="AG312" s="19"/>
+      <c r="AH312" s="19"/>
+    </row>
+    <row r="313" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D313" s="42" t="str">
         <f>$C$7&amp;"13."</f>
         <v>3.1.13.</v>
       </c>
-      <c r="E309" s="41" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D310" s="42"/>
-      <c r="E310" s="41" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E311" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="F311" s="53"/>
-      <c r="G311" s="53"/>
-      <c r="H311" s="53"/>
-      <c r="I311" s="53"/>
-      <c r="J311" s="53"/>
-      <c r="K311" s="54"/>
-      <c r="L311" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="M311" s="53"/>
-      <c r="N311" s="53"/>
-      <c r="O311" s="54"/>
-      <c r="P311" s="53" t="s">
+      <c r="E313" s="41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D314" s="42"/>
+      <c r="E314" s="41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E315" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F315" s="53"/>
+      <c r="G315" s="53"/>
+      <c r="H315" s="53"/>
+      <c r="I315" s="53"/>
+      <c r="J315" s="53"/>
+      <c r="K315" s="54"/>
+      <c r="L315" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="M315" s="53"/>
+      <c r="N315" s="53"/>
+      <c r="O315" s="54"/>
+      <c r="P315" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q311" s="53"/>
-      <c r="R311" s="53"/>
-      <c r="S311" s="53"/>
-      <c r="T311" s="53"/>
-      <c r="U311" s="53"/>
-      <c r="V311" s="53"/>
-      <c r="W311" s="53"/>
-      <c r="X311" s="53"/>
-      <c r="Y311" s="53"/>
-      <c r="Z311" s="53"/>
-      <c r="AA311" s="53"/>
-      <c r="AB311" s="53"/>
-      <c r="AC311" s="53"/>
-      <c r="AD311" s="53"/>
-      <c r="AE311" s="53"/>
-      <c r="AF311" s="53"/>
-      <c r="AG311" s="53"/>
-      <c r="AH311" s="54"/>
-    </row>
-    <row r="312" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E312" s="110" t="s">
+      <c r="Q315" s="53"/>
+      <c r="R315" s="53"/>
+      <c r="S315" s="53"/>
+      <c r="T315" s="53"/>
+      <c r="U315" s="53"/>
+      <c r="V315" s="53"/>
+      <c r="W315" s="53"/>
+      <c r="X315" s="53"/>
+      <c r="Y315" s="53"/>
+      <c r="Z315" s="53"/>
+      <c r="AA315" s="53"/>
+      <c r="AB315" s="53"/>
+      <c r="AC315" s="53"/>
+      <c r="AD315" s="53"/>
+      <c r="AE315" s="53"/>
+      <c r="AF315" s="53"/>
+      <c r="AG315" s="53"/>
+      <c r="AH315" s="54"/>
+    </row>
+    <row r="316" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E316" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="F316" s="98"/>
+      <c r="G316" s="98"/>
+      <c r="H316" s="70"/>
+      <c r="I316" s="70"/>
+      <c r="J316" s="70"/>
+      <c r="K316" s="100"/>
+      <c r="L316" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="M316" s="70"/>
+      <c r="N316" s="70"/>
+      <c r="O316" s="100"/>
+      <c r="P316" s="98" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q316" s="70"/>
+      <c r="R316" s="70"/>
+      <c r="S316" s="70"/>
+      <c r="T316" s="70"/>
+      <c r="U316" s="70"/>
+      <c r="V316" s="70"/>
+      <c r="W316" s="70"/>
+      <c r="X316" s="70"/>
+      <c r="Y316" s="70"/>
+      <c r="Z316" s="70"/>
+      <c r="AA316" s="70"/>
+      <c r="AB316" s="70"/>
+      <c r="AC316" s="70"/>
+      <c r="AD316" s="70"/>
+      <c r="AE316" s="70"/>
+      <c r="AF316" s="70"/>
+      <c r="AG316" s="70"/>
+      <c r="AH316" s="94"/>
+    </row>
+    <row r="317" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E317" s="109" t="s">
+        <v>271</v>
+      </c>
+      <c r="F317" s="26"/>
+      <c r="G317" s="26"/>
+      <c r="H317" s="70"/>
+      <c r="I317" s="70"/>
+      <c r="J317" s="70"/>
+      <c r="K317" s="71"/>
+      <c r="L317" s="26"/>
+      <c r="M317" s="70"/>
+      <c r="N317" s="70"/>
+      <c r="O317" s="71"/>
+      <c r="P317" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q317" s="70"/>
+      <c r="R317" s="70"/>
+      <c r="S317" s="70"/>
+      <c r="T317" s="70"/>
+      <c r="U317" s="70"/>
+      <c r="V317" s="70"/>
+      <c r="W317" s="70"/>
+      <c r="X317" s="70"/>
+      <c r="Y317" s="70"/>
+      <c r="Z317" s="70"/>
+      <c r="AA317" s="70"/>
+      <c r="AB317" s="70"/>
+      <c r="AC317" s="70"/>
+      <c r="AD317" s="70"/>
+      <c r="AE317" s="70"/>
+      <c r="AF317" s="70"/>
+      <c r="AG317" s="70"/>
+      <c r="AH317" s="94"/>
+    </row>
+    <row r="318" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E318" s="109"/>
+      <c r="F318" s="26"/>
+      <c r="G318" s="26"/>
+      <c r="H318" s="70"/>
+      <c r="I318" s="70"/>
+      <c r="J318" s="70"/>
+      <c r="K318" s="71"/>
+      <c r="L318" s="26"/>
+      <c r="M318" s="70"/>
+      <c r="N318" s="70"/>
+      <c r="O318" s="71"/>
+      <c r="P318" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="F312" s="99"/>
-      <c r="G312" s="99"/>
-      <c r="H312" s="71"/>
-      <c r="I312" s="71"/>
-      <c r="J312" s="71"/>
-      <c r="K312" s="101"/>
-      <c r="L312" s="99" t="s">
-        <v>309</v>
-      </c>
-      <c r="M312" s="71"/>
-      <c r="N312" s="71"/>
-      <c r="O312" s="101"/>
-      <c r="P312" s="99" t="s">
+      <c r="Q318" s="70"/>
+      <c r="R318" s="70"/>
+      <c r="S318" s="70"/>
+      <c r="T318" s="70"/>
+      <c r="U318" s="70"/>
+      <c r="V318" s="70"/>
+      <c r="W318" s="70"/>
+      <c r="X318" s="70"/>
+      <c r="Y318" s="70"/>
+      <c r="Z318" s="70"/>
+      <c r="AA318" s="70"/>
+      <c r="AB318" s="70"/>
+      <c r="AC318" s="70"/>
+      <c r="AD318" s="70"/>
+      <c r="AE318" s="70"/>
+      <c r="AF318" s="70"/>
+      <c r="AG318" s="70"/>
+      <c r="AH318" s="94"/>
+    </row>
+    <row r="319" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E319" s="109"/>
+      <c r="F319" s="26"/>
+      <c r="G319" s="26"/>
+      <c r="H319" s="70"/>
+      <c r="I319" s="70"/>
+      <c r="J319" s="70"/>
+      <c r="K319" s="71"/>
+      <c r="L319" s="26"/>
+      <c r="M319" s="70"/>
+      <c r="N319" s="70"/>
+      <c r="O319" s="71"/>
+      <c r="P319" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q319" s="70"/>
+      <c r="R319" s="70"/>
+      <c r="S319" s="70"/>
+      <c r="T319" s="70"/>
+      <c r="U319" s="70"/>
+      <c r="V319" s="70"/>
+      <c r="W319" s="70"/>
+      <c r="X319" s="70"/>
+      <c r="Y319" s="70"/>
+      <c r="Z319" s="70"/>
+      <c r="AA319" s="70"/>
+      <c r="AB319" s="70"/>
+      <c r="AC319" s="70"/>
+      <c r="AD319" s="70"/>
+      <c r="AE319" s="70"/>
+      <c r="AF319" s="70"/>
+      <c r="AG319" s="70"/>
+      <c r="AH319" s="94"/>
+    </row>
+    <row r="320" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E320" s="109"/>
+      <c r="F320" s="26"/>
+      <c r="G320" s="26"/>
+      <c r="H320" s="70"/>
+      <c r="I320" s="70"/>
+      <c r="J320" s="70"/>
+      <c r="K320" s="71"/>
+      <c r="L320" s="26"/>
+      <c r="M320" s="70"/>
+      <c r="N320" s="70"/>
+      <c r="O320" s="71"/>
+      <c r="P320" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="Q312" s="71"/>
-      <c r="R312" s="71"/>
-      <c r="S312" s="71"/>
-      <c r="T312" s="71"/>
-      <c r="U312" s="71"/>
-      <c r="V312" s="71"/>
-      <c r="W312" s="71"/>
-      <c r="X312" s="71"/>
-      <c r="Y312" s="71"/>
-      <c r="Z312" s="71"/>
-      <c r="AA312" s="71"/>
-      <c r="AB312" s="71"/>
-      <c r="AC312" s="71"/>
-      <c r="AD312" s="71"/>
-      <c r="AE312" s="71"/>
-      <c r="AF312" s="71"/>
-      <c r="AG312" s="71"/>
-      <c r="AH312" s="95"/>
-    </row>
-    <row r="313" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E313" s="110" t="s">
-        <v>273</v>
-      </c>
-      <c r="F313" s="26"/>
-      <c r="G313" s="26"/>
-      <c r="H313" s="71"/>
-      <c r="I313" s="71"/>
-      <c r="J313" s="71"/>
-      <c r="K313" s="72"/>
-      <c r="L313" s="26"/>
-      <c r="M313" s="71"/>
-      <c r="N313" s="71"/>
-      <c r="O313" s="72"/>
-      <c r="P313" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q313" s="71"/>
-      <c r="R313" s="71"/>
-      <c r="S313" s="71"/>
-      <c r="T313" s="71"/>
-      <c r="U313" s="71"/>
-      <c r="V313" s="71"/>
-      <c r="W313" s="71"/>
-      <c r="X313" s="71"/>
-      <c r="Y313" s="71"/>
-      <c r="Z313" s="71"/>
-      <c r="AA313" s="71"/>
-      <c r="AB313" s="71"/>
-      <c r="AC313" s="71"/>
-      <c r="AD313" s="71"/>
-      <c r="AE313" s="71"/>
-      <c r="AF313" s="71"/>
-      <c r="AG313" s="71"/>
-      <c r="AH313" s="95"/>
-    </row>
-    <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E314" s="110"/>
-      <c r="F314" s="26"/>
-      <c r="G314" s="26"/>
-      <c r="H314" s="71"/>
-      <c r="I314" s="71"/>
-      <c r="J314" s="71"/>
-      <c r="K314" s="72"/>
-      <c r="L314" s="26"/>
-      <c r="M314" s="71"/>
-      <c r="N314" s="71"/>
-      <c r="O314" s="72"/>
-      <c r="P314" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q314" s="71"/>
-      <c r="R314" s="71"/>
-      <c r="S314" s="71"/>
-      <c r="T314" s="71"/>
-      <c r="U314" s="71"/>
-      <c r="V314" s="71"/>
-      <c r="W314" s="71"/>
-      <c r="X314" s="71"/>
-      <c r="Y314" s="71"/>
-      <c r="Z314" s="71"/>
-      <c r="AA314" s="71"/>
-      <c r="AB314" s="71"/>
-      <c r="AC314" s="71"/>
-      <c r="AD314" s="71"/>
-      <c r="AE314" s="71"/>
-      <c r="AF314" s="71"/>
-      <c r="AG314" s="71"/>
-      <c r="AH314" s="95"/>
-    </row>
-    <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E315" s="110"/>
-      <c r="F315" s="26"/>
-      <c r="G315" s="26"/>
-      <c r="H315" s="71"/>
-      <c r="I315" s="71"/>
-      <c r="J315" s="71"/>
-      <c r="K315" s="72"/>
-      <c r="L315" s="26"/>
-      <c r="M315" s="71"/>
-      <c r="N315" s="71"/>
-      <c r="O315" s="72"/>
-      <c r="P315" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q315" s="71"/>
-      <c r="R315" s="71"/>
-      <c r="S315" s="71"/>
-      <c r="T315" s="71"/>
-      <c r="U315" s="71"/>
-      <c r="V315" s="71"/>
-      <c r="W315" s="71"/>
-      <c r="X315" s="71"/>
-      <c r="Y315" s="71"/>
-      <c r="Z315" s="71"/>
-      <c r="AA315" s="71"/>
-      <c r="AB315" s="71"/>
-      <c r="AC315" s="71"/>
-      <c r="AD315" s="71"/>
-      <c r="AE315" s="71"/>
-      <c r="AF315" s="71"/>
-      <c r="AG315" s="71"/>
-      <c r="AH315" s="95"/>
-    </row>
-    <row r="316" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E316" s="110"/>
-      <c r="F316" s="26"/>
-      <c r="G316" s="26"/>
-      <c r="H316" s="71"/>
-      <c r="I316" s="71"/>
-      <c r="J316" s="71"/>
-      <c r="K316" s="72"/>
-      <c r="L316" s="26"/>
-      <c r="M316" s="71"/>
-      <c r="N316" s="71"/>
-      <c r="O316" s="72"/>
-      <c r="P316" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q316" s="71"/>
-      <c r="R316" s="71"/>
-      <c r="S316" s="71"/>
-      <c r="T316" s="71"/>
-      <c r="U316" s="71"/>
-      <c r="V316" s="71"/>
-      <c r="W316" s="71"/>
-      <c r="X316" s="71"/>
-      <c r="Y316" s="71"/>
-      <c r="Z316" s="71"/>
-      <c r="AA316" s="71"/>
-      <c r="AB316" s="71"/>
-      <c r="AC316" s="71"/>
-      <c r="AD316" s="71"/>
-      <c r="AE316" s="71"/>
-      <c r="AF316" s="71"/>
-      <c r="AG316" s="71"/>
-      <c r="AH316" s="95"/>
-    </row>
-    <row r="317" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E317" s="82"/>
-      <c r="F317" s="77"/>
-      <c r="G317" s="77"/>
-      <c r="H317" s="103"/>
-      <c r="I317" s="103"/>
-      <c r="J317" s="103"/>
-      <c r="K317" s="91"/>
-      <c r="L317" s="77"/>
-      <c r="M317" s="103"/>
-      <c r="N317" s="103"/>
-      <c r="O317" s="91"/>
-      <c r="P317" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q317" s="103"/>
-      <c r="R317" s="103"/>
-      <c r="S317" s="103"/>
-      <c r="T317" s="103"/>
-      <c r="U317" s="103"/>
-      <c r="V317" s="103"/>
-      <c r="W317" s="103"/>
-      <c r="X317" s="103"/>
-      <c r="Y317" s="103"/>
-      <c r="Z317" s="103"/>
-      <c r="AA317" s="103"/>
-      <c r="AB317" s="103"/>
-      <c r="AC317" s="103"/>
-      <c r="AD317" s="103"/>
-      <c r="AE317" s="103"/>
-      <c r="AF317" s="103"/>
-      <c r="AG317" s="103"/>
-      <c r="AH317" s="104"/>
-    </row>
-    <row r="318" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F318" s="71"/>
-      <c r="G318" s="71"/>
-      <c r="H318" s="71"/>
-      <c r="I318" s="71"/>
-      <c r="J318" s="71"/>
-      <c r="K318" s="71"/>
-      <c r="L318" s="71"/>
-      <c r="M318" s="44"/>
-      <c r="N318" s="44"/>
-      <c r="O318" s="44"/>
-      <c r="P318" s="44"/>
-      <c r="Q318" s="44"/>
-      <c r="R318" s="44"/>
-      <c r="S318" s="44"/>
-      <c r="T318" s="44"/>
-      <c r="U318" s="44"/>
-      <c r="V318" s="44"/>
-      <c r="W318" s="44"/>
-      <c r="X318" s="44"/>
-      <c r="Y318" s="44"/>
-      <c r="Z318" s="44"/>
-      <c r="AA318" s="44"/>
-      <c r="AB318" s="44"/>
-      <c r="AC318" s="44"/>
-      <c r="AD318" s="44"/>
-      <c r="AE318" s="44"/>
-      <c r="AF318" s="44"/>
-      <c r="AG318" s="44"/>
-      <c r="AH318" s="44"/>
-    </row>
-    <row r="319" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F319" s="92"/>
+      <c r="Q320" s="70"/>
+      <c r="R320" s="70"/>
+      <c r="S320" s="70"/>
+      <c r="T320" s="70"/>
+      <c r="U320" s="70"/>
+      <c r="V320" s="70"/>
+      <c r="W320" s="70"/>
+      <c r="X320" s="70"/>
+      <c r="Y320" s="70"/>
+      <c r="Z320" s="70"/>
+      <c r="AA320" s="70"/>
+      <c r="AB320" s="70"/>
+      <c r="AC320" s="70"/>
+      <c r="AD320" s="70"/>
+      <c r="AE320" s="70"/>
+      <c r="AF320" s="70"/>
+      <c r="AG320" s="70"/>
+      <c r="AH320" s="94"/>
+    </row>
+    <row r="321" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E321" s="81"/>
+      <c r="F321" s="76"/>
+      <c r="G321" s="76"/>
+      <c r="H321" s="102"/>
+      <c r="I321" s="102"/>
+      <c r="J321" s="102"/>
+      <c r="K321" s="90"/>
+      <c r="L321" s="76"/>
+      <c r="M321" s="102"/>
+      <c r="N321" s="102"/>
+      <c r="O321" s="90"/>
+      <c r="P321" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q321" s="102"/>
+      <c r="R321" s="102"/>
+      <c r="S321" s="102"/>
+      <c r="T321" s="102"/>
+      <c r="U321" s="102"/>
+      <c r="V321" s="102"/>
+      <c r="W321" s="102"/>
+      <c r="X321" s="102"/>
+      <c r="Y321" s="102"/>
+      <c r="Z321" s="102"/>
+      <c r="AA321" s="102"/>
+      <c r="AB321" s="102"/>
+      <c r="AC321" s="102"/>
+      <c r="AD321" s="102"/>
+      <c r="AE321" s="102"/>
+      <c r="AF321" s="102"/>
+      <c r="AG321" s="102"/>
+      <c r="AH321" s="103"/>
+    </row>
+    <row r="322" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F322" s="70"/>
+      <c r="G322" s="70"/>
+      <c r="H322" s="70"/>
+      <c r="I322" s="70"/>
+      <c r="J322" s="70"/>
+      <c r="K322" s="70"/>
+      <c r="L322" s="70"/>
+      <c r="M322" s="44"/>
+      <c r="N322" s="44"/>
+      <c r="O322" s="44"/>
+      <c r="P322" s="44"/>
+      <c r="Q322" s="44"/>
+      <c r="R322" s="44"/>
+      <c r="S322" s="44"/>
+      <c r="T322" s="44"/>
+      <c r="U322" s="44"/>
+      <c r="V322" s="44"/>
+      <c r="W322" s="44"/>
+      <c r="X322" s="44"/>
+      <c r="Y322" s="44"/>
+      <c r="Z322" s="44"/>
+      <c r="AA322" s="44"/>
+      <c r="AB322" s="44"/>
+      <c r="AC322" s="44"/>
+      <c r="AD322" s="44"/>
+      <c r="AE322" s="44"/>
+      <c r="AF322" s="44"/>
+      <c r="AG322" s="44"/>
+      <c r="AH322" s="44"/>
+    </row>
+    <row r="323" spans="5:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F323" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D8AA4-4F75-41DA-810A-6D645CBFE0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7373F386-2878-42C5-B2BB-609F8129E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,12 +820,6 @@
     <t>項目間精査エラー</t>
   </si>
   <si>
-    <t>データベースを</t>
-  </si>
-  <si>
-    <t>用いた精査エラー</t>
-  </si>
-  <si>
     <t>実装に問題がある場合に発生するエラーとは、以下のようなエラーのことを示す。</t>
   </si>
   <si>
@@ -2789,6 +2783,20 @@
     </rPh>
     <rPh sb="44" eb="45">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formで完結しない</t>
+    <rPh sb="5" eb="7">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精査エラー</t>
+    <rPh sb="0" eb="2">
+      <t>セイサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4561,7 +4569,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="116" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F1" s="117"/>
       <c r="G1" s="117"/>
@@ -4578,7 +4586,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="119" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S1" s="120"/>
       <c r="T1" s="120"/>
@@ -4838,13 +4846,13 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="54"/>
       <c r="J14" s="110" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K14" s="111"/>
       <c r="L14" s="111"/>
@@ -4876,13 +4884,13 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="56" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -4920,7 +4928,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -4956,7 +4964,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -4984,7 +4992,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -5078,12 +5086,12 @@
     </row>
     <row r="25" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5224,7 +5232,7 @@
     </row>
     <row r="34" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G34" s="74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5248,7 +5256,7 @@
     <row r="37" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="77"/>
       <c r="F37" s="29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
@@ -5262,7 +5270,7 @@
     <row r="38" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="77"/>
       <c r="F38" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -5311,7 +5319,7 @@
       <c r="I41" s="76"/>
       <c r="J41" s="90"/>
       <c r="K41" s="76" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L41" s="76"/>
       <c r="M41" s="90"/>
@@ -5343,7 +5351,7 @@
     </row>
     <row r="46" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5359,19 +5367,19 @@
     </row>
     <row r="49" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
       <c r="K50" s="53" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
@@ -5408,7 +5416,7 @@
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
       <c r="K51" s="93" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
@@ -5417,7 +5425,7 @@
       <c r="P51" s="26"/>
       <c r="Q51" s="71"/>
       <c r="R51" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
@@ -5445,7 +5453,7 @@
       <c r="I52" s="68"/>
       <c r="J52" s="72"/>
       <c r="K52" s="93" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L52" s="93"/>
       <c r="M52" s="93"/>
@@ -5454,7 +5462,7 @@
       <c r="P52" s="93"/>
       <c r="Q52" s="72"/>
       <c r="R52" s="95" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="S52" s="93"/>
       <c r="T52" s="93"/>
@@ -5480,52 +5488,52 @@
         <v>3.1.4.3.</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F55" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="36" t="s">
         <v>155</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="56" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F56" s="66"/>
       <c r="G56" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F57" s="66"/>
       <c r="G57" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" s="36" t="s">
         <v>156</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="58" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F58" s="66"/>
       <c r="G58" s="73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G59" s="73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H60" s="36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5552,17 +5560,17 @@
     </row>
     <row r="65" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F65" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F67" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5578,12 +5586,12 @@
     </row>
     <row r="70" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="53"/>
       <c r="I70" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -5598,7 +5606,7 @@
       <c r="T70" s="53"/>
       <c r="U70" s="54"/>
       <c r="V70" s="53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="W70" s="53"/>
       <c r="X70" s="53"/>
@@ -5617,12 +5625,12 @@
     </row>
     <row r="71" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F71" s="97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G71" s="99"/>
       <c r="H71" s="104"/>
       <c r="I71" s="105" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J71" s="106"/>
       <c r="K71" s="93"/>
@@ -5637,7 +5645,7 @@
       <c r="T71" s="68"/>
       <c r="U71" s="107"/>
       <c r="V71" s="93" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W71" s="106"/>
       <c r="X71" s="106"/>
@@ -5646,7 +5654,7 @@
       <c r="AA71" s="68"/>
       <c r="AB71" s="72"/>
       <c r="AC71" s="93" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AD71" s="68"/>
       <c r="AE71" s="68"/>
@@ -5659,7 +5667,7 @@
       <c r="G72" s="102"/>
       <c r="H72" s="108"/>
       <c r="I72" s="105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J72" s="106"/>
       <c r="K72" s="93"/>
@@ -5674,7 +5682,7 @@
       <c r="T72" s="68"/>
       <c r="U72" s="107"/>
       <c r="V72" s="93" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="W72" s="106"/>
       <c r="X72" s="106"/>
@@ -5683,7 +5691,7 @@
       <c r="AA72" s="68"/>
       <c r="AB72" s="72"/>
       <c r="AC72" s="93" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AD72" s="68"/>
       <c r="AE72" s="68"/>
@@ -5693,12 +5701,12 @@
     </row>
     <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F73" s="95" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G73" s="68"/>
       <c r="H73" s="106"/>
       <c r="I73" s="105" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J73" s="106"/>
       <c r="K73" s="93"/>
@@ -5713,7 +5721,7 @@
       <c r="T73" s="68"/>
       <c r="U73" s="107"/>
       <c r="V73" s="93" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="W73" s="106"/>
       <c r="X73" s="106"/>
@@ -5722,7 +5730,7 @@
       <c r="AA73" s="68"/>
       <c r="AB73" s="72"/>
       <c r="AC73" s="93" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AD73" s="68"/>
       <c r="AE73" s="68"/>
@@ -5802,7 +5810,7 @@
     <row r="76" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="42"/>
       <c r="F76" s="44" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
@@ -5836,7 +5844,7 @@
     <row r="77" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="42"/>
       <c r="F77" s="36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H77" s="44"/>
       <c r="I77" s="44"/>
@@ -5890,7 +5898,7 @@
     <row r="81" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D81" s="29"/>
       <c r="F81" s="41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
@@ -5910,7 +5918,7 @@
     <row r="82" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D82" s="29"/>
       <c r="F82" s="41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
@@ -5930,7 +5938,7 @@
     <row r="83" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D83" s="29"/>
       <c r="F83" s="41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
@@ -5960,7 +5968,7 @@
     </row>
     <row r="86" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F86" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6420,7 +6428,7 @@
     </row>
     <row r="106" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F106" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6478,7 +6486,7 @@
       <c r="O108" s="26"/>
       <c r="P108" s="71"/>
       <c r="Q108" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
@@ -6546,7 +6554,7 @@
       <c r="O110" s="26"/>
       <c r="P110" s="71"/>
       <c r="Q110" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
@@ -6652,7 +6660,7 @@
       <c r="D115" s="36"/>
       <c r="E115" s="36"/>
       <c r="G115" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AA115" s="41"/>
     </row>
@@ -6708,14 +6716,14 @@
       <c r="I117" s="99"/>
       <c r="J117" s="101"/>
       <c r="K117" s="99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L117" s="99"/>
       <c r="M117" s="99"/>
       <c r="N117" s="99"/>
       <c r="O117" s="101"/>
       <c r="P117" s="99" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q117" s="99"/>
       <c r="R117" s="99"/>
@@ -6788,7 +6796,7 @@
       <c r="N119" s="102"/>
       <c r="O119" s="103"/>
       <c r="P119" s="102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q119" s="102"/>
       <c r="R119" s="102"/>
@@ -6824,7 +6832,7 @@
       <c r="N120" s="70"/>
       <c r="O120" s="94"/>
       <c r="P120" s="70" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q120" s="70"/>
       <c r="R120" s="70"/>
@@ -6856,7 +6864,7 @@
       <c r="N121" s="102"/>
       <c r="O121" s="103"/>
       <c r="P121" s="102" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q121" s="102"/>
       <c r="R121" s="102"/>
@@ -6885,14 +6893,14 @@
       <c r="I122" s="70"/>
       <c r="J122" s="94"/>
       <c r="K122" s="70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L122" s="70"/>
       <c r="M122" s="70"/>
       <c r="N122" s="70"/>
       <c r="O122" s="94"/>
       <c r="P122" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q122" s="70"/>
       <c r="R122" s="70"/>
@@ -6951,7 +6959,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6960,7 +6968,7 @@
       <c r="D126" s="36"/>
       <c r="E126" s="36"/>
       <c r="G126" s="41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7015,14 +7023,14 @@
       <c r="I128" s="99"/>
       <c r="J128" s="101"/>
       <c r="K128" s="99" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L128" s="99"/>
       <c r="M128" s="99"/>
       <c r="N128" s="99"/>
       <c r="O128" s="101"/>
       <c r="P128" s="99" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q128" s="99"/>
       <c r="R128" s="99"/>
@@ -7086,14 +7094,14 @@
       <c r="I130" s="70"/>
       <c r="J130" s="94"/>
       <c r="K130" s="70" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L130" s="70"/>
       <c r="M130" s="70"/>
       <c r="N130" s="70"/>
       <c r="O130" s="94"/>
       <c r="P130" s="70" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q130" s="70"/>
       <c r="R130" s="70"/>
@@ -7120,14 +7128,14 @@
       <c r="I131" s="70"/>
       <c r="J131" s="94"/>
       <c r="K131" s="70" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L131" s="70"/>
       <c r="M131" s="70"/>
       <c r="N131" s="70"/>
       <c r="O131" s="94"/>
       <c r="P131" s="70" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q131" s="70"/>
       <c r="R131" s="70"/>
@@ -7442,7 +7450,7 @@
         <v>76</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
@@ -7590,7 +7598,7 @@
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
       <c r="F147" s="61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
@@ -7598,13 +7606,13 @@
       <c r="J147" s="38"/>
       <c r="K147" s="37"/>
       <c r="L147" s="61" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
       <c r="O147" s="37"/>
       <c r="P147" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q147" s="38"/>
       <c r="R147" s="38"/>
@@ -7638,13 +7646,13 @@
       <c r="J148" s="98"/>
       <c r="K148" s="98"/>
       <c r="L148" s="97" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M148" s="98"/>
       <c r="N148" s="98"/>
       <c r="O148" s="100"/>
       <c r="P148" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q148" s="98"/>
       <c r="R148" s="98"/>
@@ -7670,7 +7678,7 @@
       <c r="D149" s="29"/>
       <c r="E149" s="29"/>
       <c r="F149" s="95" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G149" s="93"/>
       <c r="H149" s="93"/>
@@ -7678,13 +7686,13 @@
       <c r="J149" s="93"/>
       <c r="K149" s="93"/>
       <c r="L149" s="95" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M149" s="93"/>
       <c r="N149" s="93"/>
       <c r="O149" s="72"/>
       <c r="P149" s="93" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q149" s="93"/>
       <c r="R149" s="93"/>
@@ -7804,7 +7812,7 @@
       <c r="E153" s="77"/>
       <c r="F153" s="24"/>
       <c r="G153" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
@@ -7834,7 +7842,7 @@
       <c r="E154" s="77"/>
       <c r="F154" s="24"/>
       <c r="G154" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H154" s="29"/>
       <c r="I154" s="29"/>
@@ -7864,7 +7872,7 @@
       <c r="E155" s="77"/>
       <c r="F155" s="24"/>
       <c r="G155" s="64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
@@ -7894,7 +7902,7 @@
       <c r="E156" s="77"/>
       <c r="F156" s="24"/>
       <c r="G156" s="64" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
@@ -8044,7 +8052,7 @@
       <c r="O160" s="55"/>
       <c r="P160" s="31"/>
       <c r="Q160" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R160" s="55"/>
       <c r="S160" s="55"/>
@@ -8086,7 +8094,7 @@
       <c r="O161" s="57"/>
       <c r="P161" s="58"/>
       <c r="Q161" s="57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R161" s="57"/>
       <c r="S161" s="57"/>
@@ -8235,7 +8243,7 @@
       <c r="O165" s="33"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="76" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="R165" s="33"/>
       <c r="S165" s="33"/>
@@ -8380,7 +8388,7 @@
       <c r="R169" s="39"/>
       <c r="S169" s="40"/>
       <c r="T169" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U169" s="39"/>
       <c r="V169" s="39"/>
@@ -8418,7 +8426,7 @@
       <c r="R170" s="55"/>
       <c r="S170" s="31"/>
       <c r="T170" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="U170" s="55"/>
       <c r="V170" s="55"/>
@@ -8619,7 +8627,7 @@
       <c r="D176" s="29"/>
       <c r="E176" s="74"/>
       <c r="F176" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G176" s="55" t="str">
         <f>G142</f>
@@ -8659,7 +8667,7 @@
       <c r="E177" s="74"/>
       <c r="F177" s="29"/>
       <c r="G177" s="55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
@@ -8695,7 +8703,7 @@
       <c r="E178" s="74"/>
       <c r="F178" s="29"/>
       <c r="G178" s="29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -8725,7 +8733,7 @@
       <c r="E179" s="74"/>
       <c r="F179" s="29"/>
       <c r="G179" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -8829,7 +8837,7 @@
         <v>3.1.9.1.</v>
       </c>
       <c r="F182" s="74" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G182" s="29"/>
       <c r="H182" s="29"/>
@@ -8868,7 +8876,7 @@
       <c r="D183" s="29"/>
       <c r="E183" s="24"/>
       <c r="F183" s="74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G183" s="29"/>
       <c r="H183" s="29"/>
@@ -9064,7 +9072,7 @@
       <c r="E188" s="29"/>
       <c r="F188" s="29"/>
       <c r="G188" s="65" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
@@ -9103,7 +9111,7 @@
       <c r="E189" s="29"/>
       <c r="F189" s="29"/>
       <c r="G189" s="78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H189" s="29"/>
       <c r="I189" s="29"/>
@@ -9142,7 +9150,7 @@
       <c r="E190" s="29"/>
       <c r="F190" s="29"/>
       <c r="G190" s="78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
@@ -9464,7 +9472,7 @@
       <c r="O198" s="38"/>
       <c r="P198" s="37"/>
       <c r="Q198" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R198" s="38"/>
       <c r="S198" s="38"/>
@@ -9585,7 +9593,7 @@
       <c r="O201" s="55"/>
       <c r="P201" s="31"/>
       <c r="Q201" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R201" s="55"/>
       <c r="S201" s="55"/>
@@ -9624,7 +9632,7 @@
       <c r="O202" s="55"/>
       <c r="P202" s="31"/>
       <c r="Q202" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R202" s="55"/>
       <c r="S202" s="55"/>
@@ -9745,7 +9753,7 @@
       <c r="O205" s="55"/>
       <c r="P205" s="31"/>
       <c r="Q205" s="55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R205" s="55"/>
       <c r="S205" s="55"/>
@@ -9784,7 +9792,7 @@
       <c r="O206" s="55"/>
       <c r="P206" s="31"/>
       <c r="Q206" s="55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R206" s="55"/>
       <c r="S206" s="55"/>
@@ -9823,7 +9831,7 @@
       <c r="O207" s="33"/>
       <c r="P207" s="34"/>
       <c r="Q207" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R207" s="33"/>
       <c r="S207" s="33"/>
@@ -10156,7 +10164,7 @@
       <c r="AA215" s="26"/>
       <c r="AB215" s="71"/>
       <c r="AC215" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AD215" s="26"/>
       <c r="AE215" s="26"/>
@@ -10214,7 +10222,7 @@
       <c r="E217" s="29"/>
       <c r="F217" s="24"/>
       <c r="G217" s="30" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="H217" s="55"/>
       <c r="I217" s="55"/>
@@ -10253,7 +10261,7 @@
       <c r="E218" s="29"/>
       <c r="F218" s="24"/>
       <c r="G218" s="32" t="s">
-        <v>124</v>
+        <v>312</v>
       </c>
       <c r="H218" s="33"/>
       <c r="I218" s="33"/>
@@ -10299,7 +10307,7 @@
       <c r="J219" s="55"/>
       <c r="K219" s="31"/>
       <c r="L219" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M219" s="26"/>
       <c r="N219" s="26"/>
@@ -10318,7 +10326,7 @@
       <c r="AA219" s="26"/>
       <c r="AB219" s="71"/>
       <c r="AC219" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AD219" s="26"/>
       <c r="AE219" s="26"/>
@@ -10340,7 +10348,7 @@
       <c r="J220" s="55"/>
       <c r="K220" s="31"/>
       <c r="L220" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M220" s="26"/>
       <c r="N220" s="26"/>
@@ -10359,7 +10367,7 @@
       <c r="AA220" s="26"/>
       <c r="AB220" s="71"/>
       <c r="AC220" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AD220" s="26"/>
       <c r="AE220" s="26"/>
@@ -10452,14 +10460,14 @@
       <c r="E223" s="29"/>
       <c r="F223" s="24"/>
       <c r="G223" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H223" s="55"/>
       <c r="I223" s="55"/>
       <c r="J223" s="55"/>
       <c r="K223" s="31"/>
       <c r="L223" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M223" s="26"/>
       <c r="N223" s="26"/>
@@ -10478,7 +10486,7 @@
       <c r="AA223" s="26"/>
       <c r="AB223" s="71"/>
       <c r="AC223" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD223" s="26"/>
       <c r="AE223" s="26"/>
@@ -10495,14 +10503,14 @@
       <c r="E224" s="29"/>
       <c r="F224" s="24"/>
       <c r="G224" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H224" s="55"/>
       <c r="I224" s="55"/>
       <c r="J224" s="55"/>
       <c r="K224" s="31"/>
       <c r="L224" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M224" s="26"/>
       <c r="N224" s="26"/>
@@ -10541,7 +10549,7 @@
       <c r="J225" s="55"/>
       <c r="K225" s="31"/>
       <c r="L225" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M225" s="26"/>
       <c r="N225" s="26"/>
@@ -10580,7 +10588,7 @@
       <c r="J226" s="55"/>
       <c r="K226" s="31"/>
       <c r="L226" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M226" s="26"/>
       <c r="N226" s="26"/>
@@ -10656,7 +10664,7 @@
       <c r="J228" s="55"/>
       <c r="K228" s="31"/>
       <c r="L228" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M228" s="26"/>
       <c r="N228" s="26"/>
@@ -10695,7 +10703,7 @@
       <c r="J229" s="55"/>
       <c r="K229" s="31"/>
       <c r="L229" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M229" s="26"/>
       <c r="N229" s="26"/>
@@ -10734,7 +10742,7 @@
       <c r="J230" s="55"/>
       <c r="K230" s="31"/>
       <c r="L230" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M230" s="26"/>
       <c r="N230" s="26"/>
@@ -10773,7 +10781,7 @@
       <c r="J231" s="55"/>
       <c r="K231" s="31"/>
       <c r="L231" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -10812,7 +10820,7 @@
       <c r="J232" s="55"/>
       <c r="K232" s="31"/>
       <c r="L232" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M232" s="26"/>
       <c r="N232" s="26"/>
@@ -10851,7 +10859,7 @@
       <c r="J233" s="55"/>
       <c r="K233" s="31"/>
       <c r="L233" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M233" s="26"/>
       <c r="N233" s="26"/>
@@ -10890,7 +10898,7 @@
       <c r="J234" s="33"/>
       <c r="K234" s="34"/>
       <c r="L234" s="76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M234" s="76"/>
       <c r="N234" s="76"/>
@@ -10924,14 +10932,14 @@
       <c r="E235" s="29"/>
       <c r="F235" s="24"/>
       <c r="G235" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H235" s="55"/>
       <c r="I235" s="55"/>
       <c r="J235" s="55"/>
       <c r="K235" s="31"/>
       <c r="L235" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -10950,7 +10958,7 @@
       <c r="AA235" s="26"/>
       <c r="AB235" s="71"/>
       <c r="AC235" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD235" s="26"/>
       <c r="AE235" s="26"/>
@@ -10967,14 +10975,14 @@
       <c r="E236" s="29"/>
       <c r="F236" s="24"/>
       <c r="G236" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H236" s="33"/>
       <c r="I236" s="33"/>
       <c r="J236" s="33"/>
       <c r="K236" s="34"/>
       <c r="L236" s="76" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M236" s="76"/>
       <c r="N236" s="76"/>
@@ -11047,7 +11055,7 @@
         <v>73</v>
       </c>
       <c r="G238" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H238" s="29"/>
       <c r="I238" s="29"/>
@@ -11086,7 +11094,7 @@
       <c r="E239" s="24"/>
       <c r="F239" s="29"/>
       <c r="G239" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H239" s="29"/>
       <c r="I239" s="29"/>
@@ -11197,7 +11205,7 @@
         <v>3.1.10.</v>
       </c>
       <c r="E242" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="243" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11217,16 +11225,16 @@
     <row r="245" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D245" s="42"/>
       <c r="F245" s="41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="246" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D246" s="42"/>
       <c r="F246" s="41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G246" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="247" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11246,13 +11254,13 @@
     <row r="249" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D249" s="42"/>
       <c r="F249" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="250" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D250" s="42"/>
       <c r="F250" s="52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G250" s="53"/>
       <c r="H250" s="53"/>
@@ -11287,7 +11295,7 @@
     <row r="251" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D251" s="42"/>
       <c r="F251" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G251" s="99"/>
       <c r="H251" s="99"/>
@@ -11295,7 +11303,7 @@
       <c r="J251" s="99"/>
       <c r="K251" s="101"/>
       <c r="L251" s="69" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M251" s="99"/>
       <c r="N251" s="99"/>
@@ -11328,7 +11336,7 @@
       <c r="J252" s="102"/>
       <c r="K252" s="103"/>
       <c r="L252" s="81" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M252" s="102"/>
       <c r="N252" s="102"/>
@@ -11369,7 +11377,7 @@
     <row r="255" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D255" s="42"/>
       <c r="F255" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G255" s="29"/>
       <c r="H255" s="29"/>
@@ -11423,7 +11431,7 @@
       <c r="E265" s="42"/>
       <c r="F265" s="87"/>
       <c r="G265" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H265" s="53"/>
       <c r="I265" s="53"/>
@@ -11431,7 +11439,7 @@
       <c r="K265" s="53"/>
       <c r="L265" s="54"/>
       <c r="M265" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N265" s="53"/>
       <c r="O265" s="53"/>
@@ -11456,10 +11464,10 @@
     <row r="266" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E266" s="42"/>
       <c r="F266" s="86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G266" s="48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H266" s="49"/>
       <c r="I266" s="49"/>
@@ -11467,7 +11475,7 @@
       <c r="K266" s="49"/>
       <c r="L266" s="50"/>
       <c r="M266" s="48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N266" s="49"/>
       <c r="O266" s="49"/>
@@ -11522,10 +11530,10 @@
     <row r="268" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E268" s="42"/>
       <c r="F268" s="86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G268" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H268" s="49"/>
       <c r="I268" s="49"/>
@@ -11533,7 +11541,7 @@
       <c r="K268" s="49"/>
       <c r="L268" s="50"/>
       <c r="M268" s="48" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N268" s="49"/>
       <c r="O268" s="49"/>
@@ -11588,10 +11596,10 @@
     <row r="270" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E270" s="42"/>
       <c r="F270" s="86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G270" s="48" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H270" s="49"/>
       <c r="I270" s="49"/>
@@ -11599,7 +11607,7 @@
       <c r="K270" s="49"/>
       <c r="L270" s="50"/>
       <c r="M270" s="48" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N270" s="49"/>
       <c r="O270" s="49"/>
@@ -11654,10 +11662,10 @@
     <row r="272" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E272" s="42"/>
       <c r="F272" s="86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G272" s="48" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H272" s="49"/>
       <c r="I272" s="49"/>
@@ -11665,7 +11673,7 @@
       <c r="K272" s="49"/>
       <c r="L272" s="50"/>
       <c r="M272" s="48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N272" s="49"/>
       <c r="O272" s="49"/>
@@ -11697,7 +11705,7 @@
       <c r="K273" s="44"/>
       <c r="L273" s="45"/>
       <c r="M273" s="43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N273" s="44"/>
       <c r="O273" s="44"/>
@@ -11752,10 +11760,10 @@
     <row r="275" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E275" s="42"/>
       <c r="F275" s="85" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G275" s="48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H275" s="49"/>
       <c r="I275" s="49"/>
@@ -11763,7 +11771,7 @@
       <c r="K275" s="49"/>
       <c r="L275" s="50"/>
       <c r="M275" s="48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N275" s="49"/>
       <c r="O275" s="49"/>
@@ -11825,7 +11833,7 @@
       <c r="D278" s="42"/>
       <c r="E278" s="36"/>
       <c r="F278" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G278" s="36"/>
     </row>
@@ -11833,7 +11841,7 @@
       <c r="D279" s="42"/>
       <c r="E279" s="36"/>
       <c r="F279" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G279" s="36"/>
     </row>
@@ -11866,17 +11874,17 @@
       <c r="D285" s="42"/>
       <c r="E285" s="42"/>
       <c r="F285" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="286" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F286" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="287" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F287" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="288" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11992,7 +12000,7 @@
     </row>
     <row r="292" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F292" s="81" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G292" s="93"/>
       <c r="H292" s="93"/>
@@ -12009,7 +12017,7 @@
       <c r="Q292" s="93"/>
       <c r="R292" s="72"/>
       <c r="S292" s="93" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T292" s="102"/>
       <c r="U292" s="102"/>
@@ -12064,7 +12072,7 @@
         <v>3.1.11.3.</v>
       </c>
       <c r="F294" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G294" s="36"/>
       <c r="H294" s="36"/>
@@ -12090,10 +12098,10 @@
     <row r="296" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F296" s="77"/>
       <c r="G296" s="79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H296" s="74" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I296" s="74"/>
       <c r="J296" s="74"/>
@@ -12107,7 +12115,7 @@
         <v>76</v>
       </c>
       <c r="I297" s="74" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J297" s="74"/>
       <c r="K297" s="74"/>
@@ -12119,7 +12127,7 @@
         <v>76</v>
       </c>
       <c r="H298" s="80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I298" s="74"/>
       <c r="J298" s="74"/>
@@ -12133,7 +12141,7 @@
         <v>76</v>
       </c>
       <c r="I299" s="74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J299" s="74"/>
       <c r="K299" s="74"/>
@@ -12143,10 +12151,10 @@
       <c r="F300" s="77"/>
       <c r="G300" s="74"/>
       <c r="H300" s="79" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I300" s="74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J300" s="74"/>
       <c r="K300" s="74"/>
@@ -12155,10 +12163,10 @@
     <row r="301" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F301" s="74"/>
       <c r="G301" s="79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H301" s="74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I301" s="74"/>
       <c r="J301" s="74"/>
@@ -12169,10 +12177,10 @@
       <c r="F302" s="36"/>
       <c r="G302" s="36"/>
       <c r="H302" s="82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I302" s="36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J302" s="36"/>
       <c r="K302" s="36"/>
@@ -12182,10 +12190,10 @@
       <c r="F303" s="36"/>
       <c r="G303" s="83"/>
       <c r="H303" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="I303" s="36" t="s">
         <v>163</v>
-      </c>
-      <c r="I303" s="36" t="s">
-        <v>165</v>
       </c>
       <c r="J303" s="36"/>
       <c r="K303" s="36"/>
@@ -12216,19 +12224,19 @@
         <v>3.1.12.1.</v>
       </c>
       <c r="F306" s="41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="307" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="42"/>
       <c r="E307" s="41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="308" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D308" s="42"/>
       <c r="E308" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="309" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12241,13 +12249,13 @@
         <v>3.1.12.2.</v>
       </c>
       <c r="F310" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D311" s="42"/>
       <c r="E311" s="41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12287,13 +12295,13 @@
         <v>3.1.13.</v>
       </c>
       <c r="E313" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D314" s="42"/>
       <c r="E314" s="41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12307,7 +12315,7 @@
       <c r="J315" s="53"/>
       <c r="K315" s="54"/>
       <c r="L315" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M315" s="53"/>
       <c r="N315" s="53"/>
@@ -12336,7 +12344,7 @@
     </row>
     <row r="316" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E316" s="109" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F316" s="98"/>
       <c r="G316" s="98"/>
@@ -12345,13 +12353,13 @@
       <c r="J316" s="70"/>
       <c r="K316" s="100"/>
       <c r="L316" s="98" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M316" s="70"/>
       <c r="N316" s="70"/>
       <c r="O316" s="100"/>
       <c r="P316" s="98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q316" s="70"/>
       <c r="R316" s="70"/>
@@ -12374,7 +12382,7 @@
     </row>
     <row r="317" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E317" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F317" s="26"/>
       <c r="G317" s="26"/>
@@ -12387,7 +12395,7 @@
       <c r="N317" s="70"/>
       <c r="O317" s="71"/>
       <c r="P317" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q317" s="70"/>
       <c r="R317" s="70"/>
@@ -12421,7 +12429,7 @@
       <c r="N318" s="70"/>
       <c r="O318" s="71"/>
       <c r="P318" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q318" s="70"/>
       <c r="R318" s="70"/>
@@ -12455,7 +12463,7 @@
       <c r="N319" s="70"/>
       <c r="O319" s="71"/>
       <c r="P319" s="26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q319" s="70"/>
       <c r="R319" s="70"/>
@@ -12489,7 +12497,7 @@
       <c r="N320" s="70"/>
       <c r="O320" s="71"/>
       <c r="P320" s="26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q320" s="70"/>
       <c r="R320" s="70"/>
@@ -12523,7 +12531,7 @@
       <c r="N321" s="102"/>
       <c r="O321" s="90"/>
       <c r="P321" s="76" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q321" s="102"/>
       <c r="R321" s="102"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7373F386-2878-42C5-B2BB-609F8129E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E3C355-4B0E-41F7-A906-4133796590EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.1.同期処理方式'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$322</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$241</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$241</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$328</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$247</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$247</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="314">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -725,9 +725,6 @@
     <t>排他エラー</t>
   </si>
   <si>
-    <t>JVM内部エラー</t>
-  </si>
-  <si>
     <t>エラー画面の表示は、Nablarchが提供する例外をハンドリングする機能が実現する。</t>
   </si>
   <si>
@@ -761,15 +758,6 @@
     <t>サーブレットフォワード中に発生した例外</t>
   </si>
   <si>
-    <t>スレッド停止エラー</t>
-  </si>
-  <si>
-    <t>スレッド停止命令が送信されているため、フォワードは行わない。</t>
-  </si>
-  <si>
-    <t>通常起こりえない位置で発生した例外</t>
-  </si>
-  <si>
     <t>サーブレットフォワード中に例外が発生した場合、その後もフォワードし続けると</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -779,9 +767,6 @@
   <si>
     <t>固定エラー画面HTML表示</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フォワードは行わない。</t>
   </si>
   <si>
     <t>業務コンポーネントの構成要素である、ActionおよびJSPで発生するエラーの処理方針を示す。</t>
@@ -1973,14 +1958,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>JVMが復旧できない可能性のあるエラーが発生しているためフォワードは行わない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>例えば、Out of Memoryが発生している場合、処理を続行できない可能性が高いので、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>HTTPエラーハンドラで捕捉できない位置で例外が発生することは、</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2797,6 +2774,116 @@
     <t>精査エラー</t>
     <rPh sb="0" eb="2">
       <t>セイサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーブレットフォワード中に例外が発生した場合の固定エラー画面HTML表示は、Nablarchによって自動的に行われる。</t>
+    <rPh sb="11" eb="12">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常起こりえない位置で発生した例外</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常起こりえない位置で発生した例外に関しては、サーブレットコンテナの機能を利用して固定エラー画面を表示させる。</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;error-page&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;exception-type&gt;java.lang.Throwable&lt;/exception-type&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;location&gt;【固定エラー画面HTMLのパス】&lt;/location&gt;</t>
+    <rPh sb="13" eb="15">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;/error-page&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>具体的には、web.xmlで以下のように&lt;error-page&gt;を設定することで実現する。</t>
+    <rPh sb="0" eb="3">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジツゲン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3543,13 +3630,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3565,7 +3652,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1350479" y="36277826"/>
+          <a:off x="1350479" y="37122652"/>
           <a:ext cx="7726431" cy="775252"/>
           <a:chOff x="1362075" y="5760869"/>
           <a:chExt cx="7810499" cy="820906"/>
@@ -4552,7 +4639,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI323"/>
+  <dimension ref="A1:AI329"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
@@ -4569,7 +4656,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="116" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F1" s="117"/>
       <c r="G1" s="117"/>
@@ -4586,7 +4673,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="119" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="S1" s="120"/>
       <c r="T1" s="120"/>
@@ -4846,13 +4933,13 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="54"/>
       <c r="J14" s="110" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K14" s="111"/>
       <c r="L14" s="111"/>
@@ -4884,13 +4971,13 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="56" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="56" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -4928,7 +5015,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="35" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -4964,7 +5051,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="30" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -4992,7 +5079,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="32" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -5086,12 +5173,12 @@
     </row>
     <row r="25" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="36" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5157,7 +5244,7 @@
       <c r="M30" s="93"/>
       <c r="N30" s="72"/>
       <c r="O30" s="93" t="str">
-        <f>$D$283&amp;$E$283&amp;"機能があり、キャッシュに有効期限を設ける必要があるため"</f>
+        <f>$D$289&amp;$E$289&amp;"機能があり、キャッシュに有効期限を設ける必要があるため"</f>
         <v>3.1.11.コンテンツ更新機能があり、キャッシュに有効期限を設ける必要があるため</v>
       </c>
       <c r="P30" s="68"/>
@@ -5232,7 +5319,7 @@
     </row>
     <row r="34" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G34" s="74" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="4:14" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5256,7 +5343,7 @@
     <row r="37" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="77"/>
       <c r="F37" s="29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
@@ -5270,7 +5357,7 @@
     <row r="38" spans="4:14" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="77"/>
       <c r="F38" s="29" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -5319,7 +5406,7 @@
       <c r="I41" s="76"/>
       <c r="J41" s="90"/>
       <c r="K41" s="76" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L41" s="76"/>
       <c r="M41" s="90"/>
@@ -5351,7 +5438,7 @@
     </row>
     <row r="46" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="36" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="4:14" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5367,19 +5454,19 @@
     </row>
     <row r="49" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="52" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
       <c r="K50" s="53" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
@@ -5416,7 +5503,7 @@
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
       <c r="K51" s="93" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
@@ -5425,7 +5512,7 @@
       <c r="P51" s="26"/>
       <c r="Q51" s="71"/>
       <c r="R51" s="26" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
@@ -5453,7 +5540,7 @@
       <c r="I52" s="68"/>
       <c r="J52" s="72"/>
       <c r="K52" s="93" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L52" s="93"/>
       <c r="M52" s="93"/>
@@ -5462,7 +5549,7 @@
       <c r="P52" s="93"/>
       <c r="Q52" s="72"/>
       <c r="R52" s="95" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S52" s="93"/>
       <c r="T52" s="93"/>
@@ -5488,52 +5575,52 @@
         <v>3.1.4.3.</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F55" s="66" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F56" s="66"/>
       <c r="G56" s="36" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F57" s="66"/>
       <c r="G57" s="73" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F58" s="66"/>
       <c r="G58" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="H58" s="36" t="s">
         <v>154</v>
-      </c>
-      <c r="H58" s="36" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="59" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G59" s="73" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H60" s="36" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5560,17 +5647,17 @@
     </row>
     <row r="65" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F65" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F67" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5586,12 +5673,12 @@
     </row>
     <row r="70" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="52" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="53"/>
       <c r="I70" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -5606,7 +5693,7 @@
       <c r="T70" s="53"/>
       <c r="U70" s="54"/>
       <c r="V70" s="53" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="W70" s="53"/>
       <c r="X70" s="53"/>
@@ -5625,12 +5712,12 @@
     </row>
     <row r="71" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F71" s="97" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G71" s="99"/>
       <c r="H71" s="104"/>
       <c r="I71" s="105" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="J71" s="106"/>
       <c r="K71" s="93"/>
@@ -5645,7 +5732,7 @@
       <c r="T71" s="68"/>
       <c r="U71" s="107"/>
       <c r="V71" s="93" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="W71" s="106"/>
       <c r="X71" s="106"/>
@@ -5654,7 +5741,7 @@
       <c r="AA71" s="68"/>
       <c r="AB71" s="72"/>
       <c r="AC71" s="93" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AD71" s="68"/>
       <c r="AE71" s="68"/>
@@ -5667,7 +5754,7 @@
       <c r="G72" s="102"/>
       <c r="H72" s="108"/>
       <c r="I72" s="105" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J72" s="106"/>
       <c r="K72" s="93"/>
@@ -5682,7 +5769,7 @@
       <c r="T72" s="68"/>
       <c r="U72" s="107"/>
       <c r="V72" s="93" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="W72" s="106"/>
       <c r="X72" s="106"/>
@@ -5691,7 +5778,7 @@
       <c r="AA72" s="68"/>
       <c r="AB72" s="72"/>
       <c r="AC72" s="93" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AD72" s="68"/>
       <c r="AE72" s="68"/>
@@ -5701,12 +5788,12 @@
     </row>
     <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F73" s="95" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G73" s="68"/>
       <c r="H73" s="106"/>
       <c r="I73" s="105" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J73" s="106"/>
       <c r="K73" s="93"/>
@@ -5721,7 +5808,7 @@
       <c r="T73" s="68"/>
       <c r="U73" s="107"/>
       <c r="V73" s="93" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="W73" s="106"/>
       <c r="X73" s="106"/>
@@ -5730,7 +5817,7 @@
       <c r="AA73" s="68"/>
       <c r="AB73" s="72"/>
       <c r="AC73" s="93" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AD73" s="68"/>
       <c r="AE73" s="68"/>
@@ -5810,7 +5897,7 @@
     <row r="76" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="42"/>
       <c r="F76" s="44" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
@@ -5844,7 +5931,7 @@
     <row r="77" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="42"/>
       <c r="F77" s="36" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H77" s="44"/>
       <c r="I77" s="44"/>
@@ -5898,7 +5985,7 @@
     <row r="81" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D81" s="29"/>
       <c r="F81" s="41" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
@@ -5918,7 +6005,7 @@
     <row r="82" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D82" s="29"/>
       <c r="F82" s="41" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
@@ -5938,7 +6025,7 @@
     <row r="83" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D83" s="29"/>
       <c r="F83" s="41" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
@@ -5968,7 +6055,7 @@
     </row>
     <row r="86" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F86" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6428,7 +6515,7 @@
     </row>
     <row r="106" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F106" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6486,7 +6573,7 @@
       <c r="O108" s="26"/>
       <c r="P108" s="71"/>
       <c r="Q108" s="26" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
@@ -6554,7 +6641,7 @@
       <c r="O110" s="26"/>
       <c r="P110" s="71"/>
       <c r="Q110" s="26" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
@@ -6660,7 +6747,7 @@
       <c r="D115" s="36"/>
       <c r="E115" s="36"/>
       <c r="G115" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AA115" s="41"/>
     </row>
@@ -6716,14 +6803,14 @@
       <c r="I117" s="99"/>
       <c r="J117" s="101"/>
       <c r="K117" s="99" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L117" s="99"/>
       <c r="M117" s="99"/>
       <c r="N117" s="99"/>
       <c r="O117" s="101"/>
       <c r="P117" s="99" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q117" s="99"/>
       <c r="R117" s="99"/>
@@ -6796,7 +6883,7 @@
       <c r="N119" s="102"/>
       <c r="O119" s="103"/>
       <c r="P119" s="102" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q119" s="102"/>
       <c r="R119" s="102"/>
@@ -6832,7 +6919,7 @@
       <c r="N120" s="70"/>
       <c r="O120" s="94"/>
       <c r="P120" s="70" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Q120" s="70"/>
       <c r="R120" s="70"/>
@@ -6864,7 +6951,7 @@
       <c r="N121" s="102"/>
       <c r="O121" s="103"/>
       <c r="P121" s="102" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q121" s="102"/>
       <c r="R121" s="102"/>
@@ -6893,14 +6980,14 @@
       <c r="I122" s="70"/>
       <c r="J122" s="94"/>
       <c r="K122" s="70" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L122" s="70"/>
       <c r="M122" s="70"/>
       <c r="N122" s="70"/>
       <c r="O122" s="94"/>
       <c r="P122" s="26" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q122" s="70"/>
       <c r="R122" s="70"/>
@@ -6959,7 +7046,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6968,7 +7055,7 @@
       <c r="D126" s="36"/>
       <c r="E126" s="36"/>
       <c r="G126" s="41" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7023,14 +7110,14 @@
       <c r="I128" s="99"/>
       <c r="J128" s="101"/>
       <c r="K128" s="99" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L128" s="99"/>
       <c r="M128" s="99"/>
       <c r="N128" s="99"/>
       <c r="O128" s="101"/>
       <c r="P128" s="99" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Q128" s="99"/>
       <c r="R128" s="99"/>
@@ -7094,14 +7181,14 @@
       <c r="I130" s="70"/>
       <c r="J130" s="94"/>
       <c r="K130" s="70" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L130" s="70"/>
       <c r="M130" s="70"/>
       <c r="N130" s="70"/>
       <c r="O130" s="94"/>
       <c r="P130" s="70" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Q130" s="70"/>
       <c r="R130" s="70"/>
@@ -7128,14 +7215,14 @@
       <c r="I131" s="70"/>
       <c r="J131" s="94"/>
       <c r="K131" s="70" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L131" s="70"/>
       <c r="M131" s="70"/>
       <c r="N131" s="70"/>
       <c r="O131" s="94"/>
       <c r="P131" s="70" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Q131" s="70"/>
       <c r="R131" s="70"/>
@@ -7450,7 +7537,7 @@
         <v>76</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
@@ -7598,7 +7685,7 @@
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
       <c r="F147" s="61" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
@@ -7606,13 +7693,13 @@
       <c r="J147" s="38"/>
       <c r="K147" s="37"/>
       <c r="L147" s="61" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
       <c r="O147" s="37"/>
       <c r="P147" s="38" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q147" s="38"/>
       <c r="R147" s="38"/>
@@ -7646,13 +7733,13 @@
       <c r="J148" s="98"/>
       <c r="K148" s="98"/>
       <c r="L148" s="97" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M148" s="98"/>
       <c r="N148" s="98"/>
       <c r="O148" s="100"/>
       <c r="P148" s="26" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q148" s="98"/>
       <c r="R148" s="98"/>
@@ -7678,7 +7765,7 @@
       <c r="D149" s="29"/>
       <c r="E149" s="29"/>
       <c r="F149" s="95" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G149" s="93"/>
       <c r="H149" s="93"/>
@@ -7686,13 +7773,13 @@
       <c r="J149" s="93"/>
       <c r="K149" s="93"/>
       <c r="L149" s="95" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M149" s="93"/>
       <c r="N149" s="93"/>
       <c r="O149" s="72"/>
       <c r="P149" s="93" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q149" s="93"/>
       <c r="R149" s="93"/>
@@ -7812,7 +7899,7 @@
       <c r="E153" s="77"/>
       <c r="F153" s="24"/>
       <c r="G153" s="29" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
@@ -7842,7 +7929,7 @@
       <c r="E154" s="77"/>
       <c r="F154" s="24"/>
       <c r="G154" s="29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H154" s="29"/>
       <c r="I154" s="29"/>
@@ -7872,7 +7959,7 @@
       <c r="E155" s="77"/>
       <c r="F155" s="24"/>
       <c r="G155" s="64" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
@@ -7902,7 +7989,7 @@
       <c r="E156" s="77"/>
       <c r="F156" s="24"/>
       <c r="G156" s="64" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
@@ -8052,7 +8139,7 @@
       <c r="O160" s="55"/>
       <c r="P160" s="31"/>
       <c r="Q160" s="26" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="R160" s="55"/>
       <c r="S160" s="55"/>
@@ -8094,7 +8181,7 @@
       <c r="O161" s="57"/>
       <c r="P161" s="58"/>
       <c r="Q161" s="57" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="R161" s="57"/>
       <c r="S161" s="57"/>
@@ -8243,7 +8330,7 @@
       <c r="O165" s="33"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="76" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="R165" s="33"/>
       <c r="S165" s="33"/>
@@ -8388,7 +8475,7 @@
       <c r="R169" s="39"/>
       <c r="S169" s="40"/>
       <c r="T169" s="35" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="U169" s="39"/>
       <c r="V169" s="39"/>
@@ -8426,7 +8513,7 @@
       <c r="R170" s="55"/>
       <c r="S170" s="31"/>
       <c r="T170" s="30" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="U170" s="55"/>
       <c r="V170" s="55"/>
@@ -8627,7 +8714,7 @@
       <c r="D176" s="29"/>
       <c r="E176" s="74"/>
       <c r="F176" s="24" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G176" s="55" t="str">
         <f>G142</f>
@@ -8667,7 +8754,7 @@
       <c r="E177" s="74"/>
       <c r="F177" s="29"/>
       <c r="G177" s="55" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
@@ -8703,7 +8790,7 @@
       <c r="E178" s="74"/>
       <c r="F178" s="29"/>
       <c r="G178" s="29" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -8733,7 +8820,7 @@
       <c r="E179" s="74"/>
       <c r="F179" s="29"/>
       <c r="G179" s="29" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -8837,7 +8924,7 @@
         <v>3.1.9.1.</v>
       </c>
       <c r="F182" s="74" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G182" s="29"/>
       <c r="H182" s="29"/>
@@ -8876,7 +8963,7 @@
       <c r="D183" s="29"/>
       <c r="E183" s="24"/>
       <c r="F183" s="74" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G183" s="29"/>
       <c r="H183" s="29"/>
@@ -8952,10 +9039,10 @@
       <c r="D185" s="29"/>
       <c r="E185" s="29"/>
       <c r="F185" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G185" s="65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H185" s="29"/>
       <c r="I185" s="29"/>
@@ -8994,7 +9081,7 @@
       <c r="E186" s="29"/>
       <c r="F186" s="29"/>
       <c r="G186" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H186" s="29"/>
       <c r="I186" s="29"/>
@@ -9033,7 +9120,7 @@
       <c r="E187" s="29"/>
       <c r="F187" s="29"/>
       <c r="G187" s="65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H187" s="29"/>
       <c r="I187" s="29"/>
@@ -9072,7 +9159,7 @@
       <c r="E188" s="29"/>
       <c r="F188" s="29"/>
       <c r="G188" s="65" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
@@ -9111,7 +9198,7 @@
       <c r="E189" s="29"/>
       <c r="F189" s="29"/>
       <c r="G189" s="78" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H189" s="29"/>
       <c r="I189" s="29"/>
@@ -9150,7 +9237,7 @@
       <c r="E190" s="29"/>
       <c r="F190" s="29"/>
       <c r="G190" s="78" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
@@ -9228,7 +9315,7 @@
         <v>58</v>
       </c>
       <c r="G192" s="29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H192" s="29"/>
       <c r="I192" s="29"/>
@@ -9267,7 +9354,7 @@
       <c r="E193" s="29"/>
       <c r="F193" s="29"/>
       <c r="G193" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H193" s="29"/>
       <c r="I193" s="29"/>
@@ -9306,7 +9393,7 @@
       <c r="E194" s="29"/>
       <c r="F194" s="29"/>
       <c r="G194" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H194" s="29"/>
       <c r="I194" s="29"/>
@@ -9345,7 +9432,7 @@
       <c r="E195" s="29"/>
       <c r="F195" s="29"/>
       <c r="G195" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H195" s="29"/>
       <c r="I195" s="29"/>
@@ -9421,7 +9508,7 @@
       <c r="E197" s="29"/>
       <c r="F197" s="29"/>
       <c r="G197" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H197" s="29"/>
       <c r="I197" s="29"/>
@@ -9460,7 +9547,7 @@
       <c r="E198" s="29"/>
       <c r="F198" s="29"/>
       <c r="G198" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H198" s="38"/>
       <c r="I198" s="38"/>
@@ -9472,7 +9559,7 @@
       <c r="O198" s="38"/>
       <c r="P198" s="37"/>
       <c r="Q198" s="38" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R198" s="38"/>
       <c r="S198" s="38"/>
@@ -9501,7 +9588,7 @@
       <c r="E199" s="29"/>
       <c r="F199" s="29"/>
       <c r="G199" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H199" s="55"/>
       <c r="I199" s="55"/>
@@ -9513,7 +9600,7 @@
       <c r="O199" s="55"/>
       <c r="P199" s="31"/>
       <c r="Q199" s="55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R199" s="55"/>
       <c r="S199" s="55"/>
@@ -9552,7 +9639,7 @@
       <c r="O200" s="33"/>
       <c r="P200" s="34"/>
       <c r="Q200" s="33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="R200" s="33"/>
       <c r="S200" s="33"/>
@@ -9581,7 +9668,7 @@
       <c r="E201" s="29"/>
       <c r="F201" s="29"/>
       <c r="G201" s="30" t="s">
-        <v>94</v>
+        <v>307</v>
       </c>
       <c r="H201" s="55"/>
       <c r="I201" s="55"/>
@@ -9593,7 +9680,7 @@
       <c r="O201" s="55"/>
       <c r="P201" s="31"/>
       <c r="Q201" s="55" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="R201" s="55"/>
       <c r="S201" s="55"/>
@@ -9632,7 +9719,7 @@
       <c r="O202" s="55"/>
       <c r="P202" s="31"/>
       <c r="Q202" s="55" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="R202" s="55"/>
       <c r="S202" s="55"/>
@@ -9671,7 +9758,7 @@
       <c r="O203" s="33"/>
       <c r="P203" s="34"/>
       <c r="Q203" s="33" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="R203" s="33"/>
       <c r="S203" s="33"/>
@@ -9699,38 +9786,34 @@
       <c r="D204" s="29"/>
       <c r="E204" s="29"/>
       <c r="F204" s="29"/>
-      <c r="G204" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H204" s="33"/>
-      <c r="I204" s="33"/>
-      <c r="J204" s="33"/>
-      <c r="K204" s="33"/>
-      <c r="L204" s="33"/>
-      <c r="M204" s="33"/>
-      <c r="N204" s="33"/>
-      <c r="O204" s="33"/>
-      <c r="P204" s="34"/>
-      <c r="Q204" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="R204" s="33"/>
-      <c r="S204" s="33"/>
-      <c r="T204" s="33"/>
-      <c r="U204" s="33"/>
-      <c r="V204" s="33"/>
-      <c r="W204" s="33"/>
-      <c r="X204" s="33"/>
-      <c r="Y204" s="33"/>
-      <c r="Z204" s="33"/>
-      <c r="AA204" s="33"/>
-      <c r="AB204" s="33"/>
-      <c r="AC204" s="33"/>
-      <c r="AD204" s="33"/>
-      <c r="AE204" s="33"/>
-      <c r="AF204" s="33"/>
-      <c r="AG204" s="33"/>
-      <c r="AH204" s="34"/>
+      <c r="G204" s="55"/>
+      <c r="H204" s="55"/>
+      <c r="I204" s="55"/>
+      <c r="J204" s="55"/>
+      <c r="K204" s="55"/>
+      <c r="L204" s="55"/>
+      <c r="M204" s="55"/>
+      <c r="N204" s="55"/>
+      <c r="O204" s="55"/>
+      <c r="P204" s="55"/>
+      <c r="Q204" s="55"/>
+      <c r="R204" s="55"/>
+      <c r="S204" s="55"/>
+      <c r="T204" s="55"/>
+      <c r="U204" s="55"/>
+      <c r="V204" s="55"/>
+      <c r="W204" s="55"/>
+      <c r="X204" s="55"/>
+      <c r="Y204" s="55"/>
+      <c r="Z204" s="55"/>
+      <c r="AA204" s="55"/>
+      <c r="AB204" s="55"/>
+      <c r="AC204" s="55"/>
+      <c r="AD204" s="55"/>
+      <c r="AE204" s="55"/>
+      <c r="AF204" s="55"/>
+      <c r="AG204" s="55"/>
+      <c r="AH204" s="55"/>
       <c r="AI204" s="29"/>
     </row>
     <row r="205" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9740,8 +9823,8 @@
       <c r="D205" s="29"/>
       <c r="E205" s="29"/>
       <c r="F205" s="29"/>
-      <c r="G205" s="30" t="s">
-        <v>107</v>
+      <c r="G205" s="55" t="s">
+        <v>306</v>
       </c>
       <c r="H205" s="55"/>
       <c r="I205" s="55"/>
@@ -9751,10 +9834,8 @@
       <c r="M205" s="55"/>
       <c r="N205" s="55"/>
       <c r="O205" s="55"/>
-      <c r="P205" s="31"/>
-      <c r="Q205" s="55" t="s">
-        <v>246</v>
-      </c>
+      <c r="P205" s="55"/>
+      <c r="Q205" s="55"/>
       <c r="R205" s="55"/>
       <c r="S205" s="55"/>
       <c r="T205" s="55"/>
@@ -9771,7 +9852,7 @@
       <c r="AE205" s="55"/>
       <c r="AF205" s="55"/>
       <c r="AG205" s="55"/>
-      <c r="AH205" s="31"/>
+      <c r="AH205" s="55"/>
       <c r="AI205" s="29"/>
     </row>
     <row r="206" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9781,7 +9862,7 @@
       <c r="D206" s="29"/>
       <c r="E206" s="29"/>
       <c r="F206" s="29"/>
-      <c r="G206" s="30"/>
+      <c r="G206" s="55"/>
       <c r="H206" s="55"/>
       <c r="I206" s="55"/>
       <c r="J206" s="55"/>
@@ -9790,10 +9871,8 @@
       <c r="M206" s="55"/>
       <c r="N206" s="55"/>
       <c r="O206" s="55"/>
-      <c r="P206" s="31"/>
-      <c r="Q206" s="55" t="s">
-        <v>248</v>
-      </c>
+      <c r="P206" s="55"/>
+      <c r="Q206" s="55"/>
       <c r="R206" s="55"/>
       <c r="S206" s="55"/>
       <c r="T206" s="55"/>
@@ -9810,7 +9889,7 @@
       <c r="AE206" s="55"/>
       <c r="AF206" s="55"/>
       <c r="AG206" s="55"/>
-      <c r="AH206" s="31"/>
+      <c r="AH206" s="55"/>
       <c r="AI206" s="29"/>
     </row>
     <row r="207" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9820,36 +9899,36 @@
       <c r="D207" s="29"/>
       <c r="E207" s="29"/>
       <c r="F207" s="29"/>
-      <c r="G207" s="32"/>
-      <c r="H207" s="33"/>
-      <c r="I207" s="33"/>
-      <c r="J207" s="33"/>
-      <c r="K207" s="33"/>
-      <c r="L207" s="33"/>
-      <c r="M207" s="33"/>
-      <c r="N207" s="33"/>
-      <c r="O207" s="33"/>
-      <c r="P207" s="34"/>
-      <c r="Q207" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="R207" s="33"/>
-      <c r="S207" s="33"/>
-      <c r="T207" s="33"/>
-      <c r="U207" s="33"/>
-      <c r="V207" s="33"/>
-      <c r="W207" s="33"/>
-      <c r="X207" s="33"/>
-      <c r="Y207" s="33"/>
-      <c r="Z207" s="33"/>
-      <c r="AA207" s="33"/>
-      <c r="AB207" s="33"/>
-      <c r="AC207" s="33"/>
-      <c r="AD207" s="33"/>
-      <c r="AE207" s="33"/>
-      <c r="AF207" s="33"/>
-      <c r="AG207" s="33"/>
-      <c r="AH207" s="34"/>
+      <c r="G207" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="H207" s="55"/>
+      <c r="I207" s="55"/>
+      <c r="J207" s="55"/>
+      <c r="K207" s="55"/>
+      <c r="L207" s="55"/>
+      <c r="M207" s="55"/>
+      <c r="N207" s="55"/>
+      <c r="O207" s="55"/>
+      <c r="P207" s="55"/>
+      <c r="Q207" s="55"/>
+      <c r="R207" s="55"/>
+      <c r="S207" s="55"/>
+      <c r="T207" s="55"/>
+      <c r="U207" s="55"/>
+      <c r="V207" s="55"/>
+      <c r="W207" s="55"/>
+      <c r="X207" s="55"/>
+      <c r="Y207" s="55"/>
+      <c r="Z207" s="55"/>
+      <c r="AA207" s="55"/>
+      <c r="AB207" s="55"/>
+      <c r="AC207" s="55"/>
+      <c r="AD207" s="55"/>
+      <c r="AE207" s="55"/>
+      <c r="AF207" s="55"/>
+      <c r="AG207" s="55"/>
+      <c r="AH207" s="55"/>
       <c r="AI207" s="29"/>
     </row>
     <row r="208" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9859,76 +9938,73 @@
       <c r="D208" s="29"/>
       <c r="E208" s="29"/>
       <c r="F208" s="29"/>
-      <c r="G208" s="29"/>
-      <c r="H208" s="29"/>
-      <c r="I208" s="29"/>
-      <c r="J208" s="29"/>
-      <c r="K208" s="29"/>
-      <c r="L208" s="29"/>
-      <c r="M208" s="29"/>
-      <c r="N208" s="29"/>
-      <c r="O208" s="29"/>
-      <c r="P208" s="29"/>
-      <c r="Q208" s="29"/>
-      <c r="R208" s="29"/>
-      <c r="S208" s="29"/>
-      <c r="T208" s="29"/>
-      <c r="U208" s="29"/>
-      <c r="V208" s="29"/>
-      <c r="W208" s="29"/>
-      <c r="X208" s="29"/>
-      <c r="Y208" s="29"/>
-      <c r="Z208" s="29"/>
-      <c r="AA208" s="29"/>
-      <c r="AB208" s="29"/>
-      <c r="AC208" s="29"/>
-      <c r="AD208" s="29"/>
-      <c r="AE208" s="29"/>
-      <c r="AF208" s="29"/>
-      <c r="AG208" s="29"/>
-      <c r="AH208" s="29"/>
+      <c r="G208" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="H208" s="55"/>
+      <c r="I208" s="55"/>
+      <c r="J208" s="55"/>
+      <c r="K208" s="55"/>
+      <c r="L208" s="55"/>
+      <c r="M208" s="55"/>
+      <c r="N208" s="55"/>
+      <c r="O208" s="55"/>
+      <c r="P208" s="55"/>
+      <c r="Q208" s="55"/>
+      <c r="R208" s="55"/>
+      <c r="S208" s="55"/>
+      <c r="T208" s="55"/>
+      <c r="U208" s="55"/>
+      <c r="V208" s="55"/>
+      <c r="W208" s="55"/>
+      <c r="X208" s="55"/>
+      <c r="Y208" s="55"/>
+      <c r="Z208" s="55"/>
+      <c r="AA208" s="55"/>
+      <c r="AB208" s="55"/>
+      <c r="AC208" s="55"/>
+      <c r="AD208" s="55"/>
+      <c r="AE208" s="55"/>
+      <c r="AF208" s="55"/>
+      <c r="AG208" s="55"/>
+      <c r="AH208" s="55"/>
       <c r="AI208" s="29"/>
     </row>
-    <row r="209" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="29"/>
       <c r="B209" s="29"/>
       <c r="C209" s="29"/>
       <c r="D209" s="29"/>
-      <c r="E209" s="24" t="str">
-        <f>D181&amp;"2."</f>
-        <v>3.1.9.2.</v>
-      </c>
-      <c r="F209" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G209" s="29"/>
-      <c r="H209" s="29"/>
-      <c r="I209" s="29"/>
-      <c r="J209" s="29"/>
-      <c r="K209" s="29"/>
-      <c r="L209" s="29"/>
-      <c r="M209" s="29"/>
-      <c r="N209" s="29"/>
-      <c r="O209" s="29"/>
-      <c r="P209" s="29"/>
-      <c r="Q209" s="29"/>
-      <c r="R209" s="29"/>
-      <c r="S209" s="29"/>
-      <c r="T209" s="29"/>
-      <c r="U209" s="29"/>
-      <c r="V209" s="29"/>
-      <c r="W209" s="29"/>
-      <c r="X209" s="29"/>
-      <c r="Y209" s="29"/>
-      <c r="Z209" s="29"/>
-      <c r="AA209" s="29"/>
-      <c r="AB209" s="29"/>
-      <c r="AC209" s="29"/>
-      <c r="AD209" s="29"/>
-      <c r="AE209" s="29"/>
-      <c r="AF209" s="29"/>
-      <c r="AG209" s="29"/>
-      <c r="AH209" s="29"/>
+      <c r="E209" s="29"/>
+      <c r="F209" s="29"/>
+      <c r="G209" s="55"/>
+      <c r="H209" s="55"/>
+      <c r="I209" s="55"/>
+      <c r="J209" s="55"/>
+      <c r="K209" s="55"/>
+      <c r="L209" s="55"/>
+      <c r="M209" s="55"/>
+      <c r="N209" s="55"/>
+      <c r="O209" s="55"/>
+      <c r="P209" s="55"/>
+      <c r="Q209" s="55"/>
+      <c r="R209" s="55"/>
+      <c r="S209" s="55"/>
+      <c r="T209" s="55"/>
+      <c r="U209" s="55"/>
+      <c r="V209" s="55"/>
+      <c r="W209" s="55"/>
+      <c r="X209" s="55"/>
+      <c r="Y209" s="55"/>
+      <c r="Z209" s="55"/>
+      <c r="AA209" s="55"/>
+      <c r="AB209" s="55"/>
+      <c r="AC209" s="55"/>
+      <c r="AD209" s="55"/>
+      <c r="AE209" s="55"/>
+      <c r="AF209" s="55"/>
+      <c r="AG209" s="55"/>
+      <c r="AH209" s="55"/>
       <c r="AI209" s="29"/>
     </row>
     <row r="210" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9936,38 +10012,38 @@
       <c r="B210" s="29"/>
       <c r="C210" s="29"/>
       <c r="D210" s="29"/>
-      <c r="E210" s="24"/>
-      <c r="F210" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="G210" s="29"/>
-      <c r="H210" s="29"/>
-      <c r="I210" s="29"/>
-      <c r="J210" s="29"/>
-      <c r="K210" s="29"/>
-      <c r="L210" s="29"/>
-      <c r="M210" s="29"/>
-      <c r="N210" s="29"/>
-      <c r="O210" s="29"/>
-      <c r="P210" s="29"/>
-      <c r="Q210" s="29"/>
-      <c r="R210" s="29"/>
-      <c r="S210" s="29"/>
-      <c r="T210" s="29"/>
-      <c r="U210" s="29"/>
-      <c r="V210" s="29"/>
-      <c r="W210" s="29"/>
-      <c r="X210" s="29"/>
-      <c r="Y210" s="29"/>
-      <c r="Z210" s="29"/>
-      <c r="AA210" s="29"/>
-      <c r="AB210" s="29"/>
-      <c r="AC210" s="29"/>
-      <c r="AD210" s="29"/>
-      <c r="AE210" s="29"/>
-      <c r="AF210" s="29"/>
-      <c r="AG210" s="29"/>
-      <c r="AH210" s="29"/>
+      <c r="E210" s="29"/>
+      <c r="F210" s="29"/>
+      <c r="G210" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="H210" s="55"/>
+      <c r="I210" s="55"/>
+      <c r="J210" s="55"/>
+      <c r="K210" s="55"/>
+      <c r="L210" s="55"/>
+      <c r="M210" s="55"/>
+      <c r="N210" s="55"/>
+      <c r="O210" s="55"/>
+      <c r="P210" s="55"/>
+      <c r="Q210" s="55"/>
+      <c r="R210" s="55"/>
+      <c r="S210" s="55"/>
+      <c r="T210" s="55"/>
+      <c r="U210" s="55"/>
+      <c r="V210" s="55"/>
+      <c r="W210" s="55"/>
+      <c r="X210" s="55"/>
+      <c r="Y210" s="55"/>
+      <c r="Z210" s="55"/>
+      <c r="AA210" s="55"/>
+      <c r="AB210" s="55"/>
+      <c r="AC210" s="55"/>
+      <c r="AD210" s="55"/>
+      <c r="AE210" s="55"/>
+      <c r="AF210" s="55"/>
+      <c r="AG210" s="55"/>
+      <c r="AH210" s="55"/>
       <c r="AI210" s="29"/>
     </row>
     <row r="211" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9975,36 +10051,38 @@
       <c r="B211" s="29"/>
       <c r="C211" s="29"/>
       <c r="D211" s="29"/>
-      <c r="E211" s="24"/>
+      <c r="E211" s="29"/>
       <c r="F211" s="29"/>
-      <c r="G211" s="29"/>
-      <c r="H211" s="29"/>
-      <c r="I211" s="29"/>
-      <c r="J211" s="29"/>
-      <c r="K211" s="29"/>
-      <c r="L211" s="29"/>
-      <c r="M211" s="29"/>
-      <c r="N211" s="29"/>
-      <c r="O211" s="29"/>
-      <c r="P211" s="29"/>
-      <c r="Q211" s="29"/>
-      <c r="R211" s="29"/>
-      <c r="S211" s="29"/>
-      <c r="T211" s="29"/>
-      <c r="U211" s="29"/>
-      <c r="V211" s="29"/>
-      <c r="W211" s="29"/>
-      <c r="X211" s="29"/>
-      <c r="Y211" s="29"/>
-      <c r="Z211" s="29"/>
-      <c r="AA211" s="29"/>
-      <c r="AB211" s="29"/>
-      <c r="AC211" s="29"/>
-      <c r="AD211" s="29"/>
-      <c r="AE211" s="29"/>
-      <c r="AF211" s="29"/>
-      <c r="AG211" s="29"/>
-      <c r="AH211" s="29"/>
+      <c r="G211" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="H211" s="55"/>
+      <c r="I211" s="55"/>
+      <c r="J211" s="55"/>
+      <c r="K211" s="55"/>
+      <c r="L211" s="55"/>
+      <c r="M211" s="55"/>
+      <c r="N211" s="55"/>
+      <c r="O211" s="55"/>
+      <c r="P211" s="55"/>
+      <c r="Q211" s="55"/>
+      <c r="R211" s="55"/>
+      <c r="S211" s="55"/>
+      <c r="T211" s="55"/>
+      <c r="U211" s="55"/>
+      <c r="V211" s="55"/>
+      <c r="W211" s="55"/>
+      <c r="X211" s="55"/>
+      <c r="Y211" s="55"/>
+      <c r="Z211" s="55"/>
+      <c r="AA211" s="55"/>
+      <c r="AB211" s="55"/>
+      <c r="AC211" s="55"/>
+      <c r="AD211" s="55"/>
+      <c r="AE211" s="55"/>
+      <c r="AF211" s="55"/>
+      <c r="AG211" s="55"/>
+      <c r="AH211" s="55"/>
       <c r="AI211" s="29"/>
     </row>
     <row r="212" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10013,39 +10091,37 @@
       <c r="C212" s="29"/>
       <c r="D212" s="29"/>
       <c r="E212" s="29"/>
-      <c r="F212" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G212" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="H212" s="29"/>
-      <c r="I212" s="29"/>
-      <c r="J212" s="29"/>
-      <c r="K212" s="29"/>
-      <c r="L212" s="29"/>
-      <c r="M212" s="29"/>
-      <c r="N212" s="29"/>
-      <c r="O212" s="29"/>
-      <c r="P212" s="29"/>
-      <c r="Q212" s="29"/>
-      <c r="R212" s="29"/>
-      <c r="S212" s="29"/>
-      <c r="T212" s="29"/>
-      <c r="U212" s="29"/>
-      <c r="V212" s="29"/>
-      <c r="W212" s="29"/>
-      <c r="X212" s="29"/>
-      <c r="Y212" s="29"/>
-      <c r="Z212" s="29"/>
-      <c r="AA212" s="29"/>
-      <c r="AB212" s="29"/>
-      <c r="AC212" s="29"/>
-      <c r="AD212" s="29"/>
-      <c r="AE212" s="29"/>
-      <c r="AF212" s="29"/>
-      <c r="AG212" s="29"/>
-      <c r="AH212" s="29"/>
+      <c r="F212" s="29"/>
+      <c r="G212" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="H212" s="55"/>
+      <c r="I212" s="55"/>
+      <c r="J212" s="55"/>
+      <c r="K212" s="55"/>
+      <c r="L212" s="55"/>
+      <c r="M212" s="55"/>
+      <c r="N212" s="55"/>
+      <c r="O212" s="55"/>
+      <c r="P212" s="55"/>
+      <c r="Q212" s="55"/>
+      <c r="R212" s="55"/>
+      <c r="S212" s="55"/>
+      <c r="T212" s="55"/>
+      <c r="U212" s="55"/>
+      <c r="V212" s="55"/>
+      <c r="W212" s="55"/>
+      <c r="X212" s="55"/>
+      <c r="Y212" s="55"/>
+      <c r="Z212" s="55"/>
+      <c r="AA212" s="55"/>
+      <c r="AB212" s="55"/>
+      <c r="AC212" s="55"/>
+      <c r="AD212" s="55"/>
+      <c r="AE212" s="55"/>
+      <c r="AF212" s="55"/>
+      <c r="AG212" s="55"/>
+      <c r="AH212" s="55"/>
       <c r="AI212" s="29"/>
     </row>
     <row r="213" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10054,37 +10130,37 @@
       <c r="C213" s="29"/>
       <c r="D213" s="29"/>
       <c r="E213" s="29"/>
-      <c r="F213" s="24"/>
-      <c r="G213" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H213" s="29"/>
-      <c r="I213" s="29"/>
-      <c r="J213" s="29"/>
-      <c r="K213" s="29"/>
-      <c r="L213" s="29"/>
-      <c r="M213" s="29"/>
-      <c r="N213" s="29"/>
-      <c r="O213" s="29"/>
-      <c r="P213" s="29"/>
-      <c r="Q213" s="29"/>
-      <c r="R213" s="29"/>
-      <c r="S213" s="29"/>
-      <c r="T213" s="29"/>
-      <c r="U213" s="29"/>
-      <c r="V213" s="29"/>
-      <c r="W213" s="29"/>
-      <c r="X213" s="29"/>
-      <c r="Y213" s="29"/>
-      <c r="Z213" s="29"/>
-      <c r="AA213" s="29"/>
-      <c r="AB213" s="29"/>
-      <c r="AC213" s="29"/>
-      <c r="AD213" s="29"/>
-      <c r="AE213" s="29"/>
-      <c r="AF213" s="29"/>
-      <c r="AG213" s="29"/>
-      <c r="AH213" s="29"/>
+      <c r="F213" s="29"/>
+      <c r="G213" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="H213" s="55"/>
+      <c r="I213" s="55"/>
+      <c r="J213" s="55"/>
+      <c r="K213" s="55"/>
+      <c r="L213" s="55"/>
+      <c r="M213" s="55"/>
+      <c r="N213" s="55"/>
+      <c r="O213" s="55"/>
+      <c r="P213" s="55"/>
+      <c r="Q213" s="55"/>
+      <c r="R213" s="55"/>
+      <c r="S213" s="55"/>
+      <c r="T213" s="55"/>
+      <c r="U213" s="55"/>
+      <c r="V213" s="55"/>
+      <c r="W213" s="55"/>
+      <c r="X213" s="55"/>
+      <c r="Y213" s="55"/>
+      <c r="Z213" s="55"/>
+      <c r="AA213" s="55"/>
+      <c r="AB213" s="55"/>
+      <c r="AC213" s="55"/>
+      <c r="AD213" s="55"/>
+      <c r="AE213" s="55"/>
+      <c r="AF213" s="55"/>
+      <c r="AG213" s="55"/>
+      <c r="AH213" s="55"/>
       <c r="AI213" s="29"/>
     </row>
     <row r="214" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10093,84 +10169,77 @@
       <c r="C214" s="29"/>
       <c r="D214" s="29"/>
       <c r="E214" s="29"/>
-      <c r="F214" s="24"/>
-      <c r="G214" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="H214" s="38"/>
-      <c r="I214" s="38"/>
-      <c r="J214" s="38"/>
-      <c r="K214" s="37"/>
-      <c r="L214" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="M214" s="38"/>
-      <c r="N214" s="38"/>
-      <c r="O214" s="38"/>
-      <c r="P214" s="38"/>
-      <c r="Q214" s="38"/>
-      <c r="R214" s="38"/>
-      <c r="S214" s="38"/>
-      <c r="T214" s="38"/>
-      <c r="U214" s="38"/>
-      <c r="V214" s="38"/>
-      <c r="W214" s="38"/>
-      <c r="X214" s="38"/>
-      <c r="Y214" s="38"/>
-      <c r="Z214" s="38"/>
-      <c r="AA214" s="38"/>
-      <c r="AB214" s="37"/>
-      <c r="AC214" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD214" s="38"/>
-      <c r="AE214" s="38"/>
-      <c r="AF214" s="38"/>
-      <c r="AG214" s="38"/>
-      <c r="AH214" s="37"/>
+      <c r="F214" s="29"/>
+      <c r="G214" s="29"/>
+      <c r="H214" s="29"/>
+      <c r="I214" s="29"/>
+      <c r="J214" s="29"/>
+      <c r="K214" s="29"/>
+      <c r="L214" s="29"/>
+      <c r="M214" s="29"/>
+      <c r="N214" s="29"/>
+      <c r="O214" s="29"/>
+      <c r="P214" s="29"/>
+      <c r="Q214" s="29"/>
+      <c r="R214" s="29"/>
+      <c r="S214" s="29"/>
+      <c r="T214" s="29"/>
+      <c r="U214" s="29"/>
+      <c r="V214" s="29"/>
+      <c r="W214" s="29"/>
+      <c r="X214" s="29"/>
+      <c r="Y214" s="29"/>
+      <c r="Z214" s="29"/>
+      <c r="AA214" s="29"/>
+      <c r="AB214" s="29"/>
+      <c r="AC214" s="29"/>
+      <c r="AD214" s="29"/>
+      <c r="AE214" s="29"/>
+      <c r="AF214" s="29"/>
+      <c r="AG214" s="29"/>
+      <c r="AH214" s="29"/>
       <c r="AI214" s="29"/>
     </row>
-    <row r="215" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="29"/>
       <c r="B215" s="29"/>
       <c r="C215" s="29"/>
       <c r="D215" s="29"/>
-      <c r="E215" s="29"/>
-      <c r="F215" s="24"/>
-      <c r="G215" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="H215" s="55"/>
-      <c r="I215" s="55"/>
-      <c r="J215" s="55"/>
-      <c r="K215" s="31"/>
-      <c r="L215" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="M215" s="26"/>
-      <c r="N215" s="26"/>
-      <c r="O215" s="26"/>
-      <c r="P215" s="26"/>
-      <c r="Q215" s="26"/>
-      <c r="R215" s="26"/>
-      <c r="S215" s="26"/>
-      <c r="T215" s="26"/>
-      <c r="U215" s="26"/>
-      <c r="V215" s="26"/>
-      <c r="W215" s="26"/>
-      <c r="X215" s="26"/>
-      <c r="Y215" s="26"/>
-      <c r="Z215" s="26"/>
-      <c r="AA215" s="26"/>
-      <c r="AB215" s="71"/>
-      <c r="AC215" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD215" s="26"/>
-      <c r="AE215" s="26"/>
-      <c r="AF215" s="26"/>
-      <c r="AG215" s="26"/>
-      <c r="AH215" s="71"/>
+      <c r="E215" s="24" t="str">
+        <f>D181&amp;"2."</f>
+        <v>3.1.9.2.</v>
+      </c>
+      <c r="F215" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G215" s="29"/>
+      <c r="H215" s="29"/>
+      <c r="I215" s="29"/>
+      <c r="J215" s="29"/>
+      <c r="K215" s="29"/>
+      <c r="L215" s="29"/>
+      <c r="M215" s="29"/>
+      <c r="N215" s="29"/>
+      <c r="O215" s="29"/>
+      <c r="P215" s="29"/>
+      <c r="Q215" s="29"/>
+      <c r="R215" s="29"/>
+      <c r="S215" s="29"/>
+      <c r="T215" s="29"/>
+      <c r="U215" s="29"/>
+      <c r="V215" s="29"/>
+      <c r="W215" s="29"/>
+      <c r="X215" s="29"/>
+      <c r="Y215" s="29"/>
+      <c r="Z215" s="29"/>
+      <c r="AA215" s="29"/>
+      <c r="AB215" s="29"/>
+      <c r="AC215" s="29"/>
+      <c r="AD215" s="29"/>
+      <c r="AE215" s="29"/>
+      <c r="AF215" s="29"/>
+      <c r="AG215" s="29"/>
+      <c r="AH215" s="29"/>
       <c r="AI215" s="29"/>
     </row>
     <row r="216" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10178,40 +10247,38 @@
       <c r="B216" s="29"/>
       <c r="C216" s="29"/>
       <c r="D216" s="29"/>
-      <c r="E216" s="29"/>
-      <c r="F216" s="24"/>
-      <c r="G216" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="H216" s="57"/>
-      <c r="I216" s="57"/>
-      <c r="J216" s="57"/>
-      <c r="K216" s="58"/>
-      <c r="L216" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="M216" s="26"/>
-      <c r="N216" s="26"/>
-      <c r="O216" s="26"/>
-      <c r="P216" s="26"/>
-      <c r="Q216" s="26"/>
-      <c r="R216" s="26"/>
-      <c r="S216" s="26"/>
-      <c r="T216" s="26"/>
-      <c r="U216" s="26"/>
-      <c r="V216" s="26"/>
-      <c r="W216" s="26"/>
-      <c r="X216" s="26"/>
-      <c r="Y216" s="26"/>
-      <c r="Z216" s="26"/>
-      <c r="AA216" s="26"/>
-      <c r="AB216" s="71"/>
-      <c r="AC216" s="26"/>
-      <c r="AD216" s="26"/>
-      <c r="AE216" s="26"/>
-      <c r="AF216" s="26"/>
-      <c r="AG216" s="26"/>
-      <c r="AH216" s="71"/>
+      <c r="E216" s="24"/>
+      <c r="F216" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G216" s="29"/>
+      <c r="H216" s="29"/>
+      <c r="I216" s="29"/>
+      <c r="J216" s="29"/>
+      <c r="K216" s="29"/>
+      <c r="L216" s="29"/>
+      <c r="M216" s="29"/>
+      <c r="N216" s="29"/>
+      <c r="O216" s="29"/>
+      <c r="P216" s="29"/>
+      <c r="Q216" s="29"/>
+      <c r="R216" s="29"/>
+      <c r="S216" s="29"/>
+      <c r="T216" s="29"/>
+      <c r="U216" s="29"/>
+      <c r="V216" s="29"/>
+      <c r="W216" s="29"/>
+      <c r="X216" s="29"/>
+      <c r="Y216" s="29"/>
+      <c r="Z216" s="29"/>
+      <c r="AA216" s="29"/>
+      <c r="AB216" s="29"/>
+      <c r="AC216" s="29"/>
+      <c r="AD216" s="29"/>
+      <c r="AE216" s="29"/>
+      <c r="AF216" s="29"/>
+      <c r="AG216" s="29"/>
+      <c r="AH216" s="29"/>
       <c r="AI216" s="29"/>
     </row>
     <row r="217" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10219,38 +10286,36 @@
       <c r="B217" s="29"/>
       <c r="C217" s="29"/>
       <c r="D217" s="29"/>
-      <c r="E217" s="29"/>
-      <c r="F217" s="24"/>
-      <c r="G217" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="H217" s="55"/>
-      <c r="I217" s="55"/>
-      <c r="J217" s="55"/>
-      <c r="K217" s="31"/>
-      <c r="L217" s="92"/>
-      <c r="M217" s="26"/>
-      <c r="N217" s="26"/>
-      <c r="O217" s="26"/>
-      <c r="P217" s="26"/>
-      <c r="Q217" s="26"/>
-      <c r="R217" s="26"/>
-      <c r="S217" s="26"/>
-      <c r="T217" s="26"/>
-      <c r="U217" s="26"/>
-      <c r="V217" s="26"/>
-      <c r="W217" s="26"/>
-      <c r="X217" s="26"/>
-      <c r="Y217" s="26"/>
-      <c r="Z217" s="26"/>
-      <c r="AA217" s="26"/>
-      <c r="AB217" s="71"/>
-      <c r="AC217" s="26"/>
-      <c r="AD217" s="26"/>
-      <c r="AE217" s="26"/>
-      <c r="AF217" s="26"/>
-      <c r="AG217" s="26"/>
-      <c r="AH217" s="71"/>
+      <c r="E217" s="24"/>
+      <c r="F217" s="29"/>
+      <c r="G217" s="29"/>
+      <c r="H217" s="29"/>
+      <c r="I217" s="29"/>
+      <c r="J217" s="29"/>
+      <c r="K217" s="29"/>
+      <c r="L217" s="29"/>
+      <c r="M217" s="29"/>
+      <c r="N217" s="29"/>
+      <c r="O217" s="29"/>
+      <c r="P217" s="29"/>
+      <c r="Q217" s="29"/>
+      <c r="R217" s="29"/>
+      <c r="S217" s="29"/>
+      <c r="T217" s="29"/>
+      <c r="U217" s="29"/>
+      <c r="V217" s="29"/>
+      <c r="W217" s="29"/>
+      <c r="X217" s="29"/>
+      <c r="Y217" s="29"/>
+      <c r="Z217" s="29"/>
+      <c r="AA217" s="29"/>
+      <c r="AB217" s="29"/>
+      <c r="AC217" s="29"/>
+      <c r="AD217" s="29"/>
+      <c r="AE217" s="29"/>
+      <c r="AF217" s="29"/>
+      <c r="AG217" s="29"/>
+      <c r="AH217" s="29"/>
       <c r="AI217" s="29"/>
     </row>
     <row r="218" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10259,37 +10324,39 @@
       <c r="C218" s="29"/>
       <c r="D218" s="29"/>
       <c r="E218" s="29"/>
-      <c r="F218" s="24"/>
-      <c r="G218" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="H218" s="33"/>
-      <c r="I218" s="33"/>
-      <c r="J218" s="33"/>
-      <c r="K218" s="34"/>
-      <c r="L218" s="76"/>
-      <c r="M218" s="76"/>
-      <c r="N218" s="76"/>
-      <c r="O218" s="76"/>
-      <c r="P218" s="76"/>
-      <c r="Q218" s="76"/>
-      <c r="R218" s="76"/>
-      <c r="S218" s="76"/>
-      <c r="T218" s="76"/>
-      <c r="U218" s="76"/>
-      <c r="V218" s="76"/>
-      <c r="W218" s="76"/>
-      <c r="X218" s="76"/>
-      <c r="Y218" s="76"/>
-      <c r="Z218" s="76"/>
-      <c r="AA218" s="76"/>
-      <c r="AB218" s="90"/>
-      <c r="AC218" s="76"/>
-      <c r="AD218" s="76"/>
-      <c r="AE218" s="76"/>
-      <c r="AF218" s="76"/>
-      <c r="AG218" s="76"/>
-      <c r="AH218" s="90"/>
+      <c r="F218" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G218" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H218" s="29"/>
+      <c r="I218" s="29"/>
+      <c r="J218" s="29"/>
+      <c r="K218" s="29"/>
+      <c r="L218" s="29"/>
+      <c r="M218" s="29"/>
+      <c r="N218" s="29"/>
+      <c r="O218" s="29"/>
+      <c r="P218" s="29"/>
+      <c r="Q218" s="29"/>
+      <c r="R218" s="29"/>
+      <c r="S218" s="29"/>
+      <c r="T218" s="29"/>
+      <c r="U218" s="29"/>
+      <c r="V218" s="29"/>
+      <c r="W218" s="29"/>
+      <c r="X218" s="29"/>
+      <c r="Y218" s="29"/>
+      <c r="Z218" s="29"/>
+      <c r="AA218" s="29"/>
+      <c r="AB218" s="29"/>
+      <c r="AC218" s="29"/>
+      <c r="AD218" s="29"/>
+      <c r="AE218" s="29"/>
+      <c r="AF218" s="29"/>
+      <c r="AG218" s="29"/>
+      <c r="AH218" s="29"/>
       <c r="AI218" s="29"/>
     </row>
     <row r="219" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10299,40 +10366,36 @@
       <c r="D219" s="29"/>
       <c r="E219" s="29"/>
       <c r="F219" s="24"/>
-      <c r="G219" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H219" s="55"/>
-      <c r="I219" s="55"/>
-      <c r="J219" s="55"/>
-      <c r="K219" s="31"/>
-      <c r="L219" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="M219" s="26"/>
-      <c r="N219" s="26"/>
-      <c r="O219" s="26"/>
-      <c r="P219" s="26"/>
-      <c r="Q219" s="26"/>
-      <c r="R219" s="26"/>
-      <c r="S219" s="26"/>
-      <c r="T219" s="26"/>
-      <c r="U219" s="26"/>
-      <c r="V219" s="26"/>
-      <c r="W219" s="26"/>
-      <c r="X219" s="26"/>
-      <c r="Y219" s="26"/>
-      <c r="Z219" s="26"/>
-      <c r="AA219" s="26"/>
-      <c r="AB219" s="71"/>
-      <c r="AC219" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD219" s="26"/>
-      <c r="AE219" s="26"/>
-      <c r="AF219" s="26"/>
-      <c r="AG219" s="26"/>
-      <c r="AH219" s="71"/>
+      <c r="G219" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H219" s="29"/>
+      <c r="I219" s="29"/>
+      <c r="J219" s="29"/>
+      <c r="K219" s="29"/>
+      <c r="L219" s="29"/>
+      <c r="M219" s="29"/>
+      <c r="N219" s="29"/>
+      <c r="O219" s="29"/>
+      <c r="P219" s="29"/>
+      <c r="Q219" s="29"/>
+      <c r="R219" s="29"/>
+      <c r="S219" s="29"/>
+      <c r="T219" s="29"/>
+      <c r="U219" s="29"/>
+      <c r="V219" s="29"/>
+      <c r="W219" s="29"/>
+      <c r="X219" s="29"/>
+      <c r="Y219" s="29"/>
+      <c r="Z219" s="29"/>
+      <c r="AA219" s="29"/>
+      <c r="AB219" s="29"/>
+      <c r="AC219" s="29"/>
+      <c r="AD219" s="29"/>
+      <c r="AE219" s="29"/>
+      <c r="AF219" s="29"/>
+      <c r="AG219" s="29"/>
+      <c r="AH219" s="29"/>
       <c r="AI219" s="29"/>
     </row>
     <row r="220" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10342,38 +10405,40 @@
       <c r="D220" s="29"/>
       <c r="E220" s="29"/>
       <c r="F220" s="24"/>
-      <c r="G220" s="30"/>
-      <c r="H220" s="55"/>
-      <c r="I220" s="55"/>
-      <c r="J220" s="55"/>
-      <c r="K220" s="31"/>
-      <c r="L220" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="M220" s="26"/>
-      <c r="N220" s="26"/>
-      <c r="O220" s="26"/>
-      <c r="P220" s="26"/>
-      <c r="Q220" s="26"/>
-      <c r="R220" s="26"/>
-      <c r="S220" s="26"/>
-      <c r="T220" s="26"/>
-      <c r="U220" s="26"/>
-      <c r="V220" s="26"/>
-      <c r="W220" s="26"/>
-      <c r="X220" s="26"/>
-      <c r="Y220" s="26"/>
-      <c r="Z220" s="26"/>
-      <c r="AA220" s="26"/>
-      <c r="AB220" s="71"/>
-      <c r="AC220" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD220" s="26"/>
-      <c r="AE220" s="26"/>
-      <c r="AF220" s="26"/>
-      <c r="AG220" s="26"/>
-      <c r="AH220" s="71"/>
+      <c r="G220" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H220" s="38"/>
+      <c r="I220" s="38"/>
+      <c r="J220" s="38"/>
+      <c r="K220" s="37"/>
+      <c r="L220" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="M220" s="38"/>
+      <c r="N220" s="38"/>
+      <c r="O220" s="38"/>
+      <c r="P220" s="38"/>
+      <c r="Q220" s="38"/>
+      <c r="R220" s="38"/>
+      <c r="S220" s="38"/>
+      <c r="T220" s="38"/>
+      <c r="U220" s="38"/>
+      <c r="V220" s="38"/>
+      <c r="W220" s="38"/>
+      <c r="X220" s="38"/>
+      <c r="Y220" s="38"/>
+      <c r="Z220" s="38"/>
+      <c r="AA220" s="38"/>
+      <c r="AB220" s="37"/>
+      <c r="AC220" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD220" s="38"/>
+      <c r="AE220" s="38"/>
+      <c r="AF220" s="38"/>
+      <c r="AG220" s="38"/>
+      <c r="AH220" s="37"/>
       <c r="AI220" s="29"/>
     </row>
     <row r="221" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10383,13 +10448,15 @@
       <c r="D221" s="29"/>
       <c r="E221" s="29"/>
       <c r="F221" s="24"/>
-      <c r="G221" s="30"/>
+      <c r="G221" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="H221" s="55"/>
       <c r="I221" s="55"/>
       <c r="J221" s="55"/>
       <c r="K221" s="31"/>
       <c r="L221" s="26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M221" s="26"/>
       <c r="N221" s="26"/>
@@ -10407,7 +10474,9 @@
       <c r="Z221" s="26"/>
       <c r="AA221" s="26"/>
       <c r="AB221" s="71"/>
-      <c r="AC221" s="26"/>
+      <c r="AC221" s="26" t="s">
+        <v>268</v>
+      </c>
       <c r="AD221" s="26"/>
       <c r="AE221" s="26"/>
       <c r="AF221" s="26"/>
@@ -10422,34 +10491,38 @@
       <c r="D222" s="29"/>
       <c r="E222" s="29"/>
       <c r="F222" s="24"/>
-      <c r="G222" s="32"/>
-      <c r="H222" s="33"/>
-      <c r="I222" s="33"/>
-      <c r="J222" s="33"/>
-      <c r="K222" s="34"/>
-      <c r="L222" s="76"/>
-      <c r="M222" s="76"/>
-      <c r="N222" s="76"/>
-      <c r="O222" s="76"/>
-      <c r="P222" s="76"/>
-      <c r="Q222" s="76"/>
-      <c r="R222" s="76"/>
-      <c r="S222" s="76"/>
-      <c r="T222" s="76"/>
-      <c r="U222" s="76"/>
-      <c r="V222" s="76"/>
-      <c r="W222" s="76"/>
-      <c r="X222" s="76"/>
-      <c r="Y222" s="76"/>
-      <c r="Z222" s="76"/>
-      <c r="AA222" s="76"/>
-      <c r="AB222" s="90"/>
-      <c r="AC222" s="76"/>
-      <c r="AD222" s="76"/>
-      <c r="AE222" s="76"/>
-      <c r="AF222" s="76"/>
-      <c r="AG222" s="76"/>
-      <c r="AH222" s="90"/>
+      <c r="G222" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="H222" s="57"/>
+      <c r="I222" s="57"/>
+      <c r="J222" s="57"/>
+      <c r="K222" s="58"/>
+      <c r="L222" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="M222" s="26"/>
+      <c r="N222" s="26"/>
+      <c r="O222" s="26"/>
+      <c r="P222" s="26"/>
+      <c r="Q222" s="26"/>
+      <c r="R222" s="26"/>
+      <c r="S222" s="26"/>
+      <c r="T222" s="26"/>
+      <c r="U222" s="26"/>
+      <c r="V222" s="26"/>
+      <c r="W222" s="26"/>
+      <c r="X222" s="26"/>
+      <c r="Y222" s="26"/>
+      <c r="Z222" s="26"/>
+      <c r="AA222" s="26"/>
+      <c r="AB222" s="71"/>
+      <c r="AC222" s="26"/>
+      <c r="AD222" s="26"/>
+      <c r="AE222" s="26"/>
+      <c r="AF222" s="26"/>
+      <c r="AG222" s="26"/>
+      <c r="AH222" s="71"/>
       <c r="AI222" s="29"/>
     </row>
     <row r="223" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10460,15 +10533,13 @@
       <c r="E223" s="29"/>
       <c r="F223" s="24"/>
       <c r="G223" s="30" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="H223" s="55"/>
       <c r="I223" s="55"/>
       <c r="J223" s="55"/>
       <c r="K223" s="31"/>
-      <c r="L223" s="26" t="s">
-        <v>123</v>
-      </c>
+      <c r="L223" s="92"/>
       <c r="M223" s="26"/>
       <c r="N223" s="26"/>
       <c r="O223" s="26"/>
@@ -10485,9 +10556,7 @@
       <c r="Z223" s="26"/>
       <c r="AA223" s="26"/>
       <c r="AB223" s="71"/>
-      <c r="AC223" s="26" t="s">
-        <v>127</v>
-      </c>
+      <c r="AC223" s="26"/>
       <c r="AD223" s="26"/>
       <c r="AE223" s="26"/>
       <c r="AF223" s="26"/>
@@ -10502,38 +10571,36 @@
       <c r="D224" s="29"/>
       <c r="E224" s="29"/>
       <c r="F224" s="24"/>
-      <c r="G224" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="H224" s="55"/>
-      <c r="I224" s="55"/>
-      <c r="J224" s="55"/>
-      <c r="K224" s="31"/>
-      <c r="L224" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="M224" s="26"/>
-      <c r="N224" s="26"/>
-      <c r="O224" s="26"/>
-      <c r="P224" s="26"/>
-      <c r="Q224" s="26"/>
-      <c r="R224" s="26"/>
-      <c r="S224" s="26"/>
-      <c r="T224" s="26"/>
-      <c r="U224" s="26"/>
-      <c r="V224" s="26"/>
-      <c r="W224" s="26"/>
-      <c r="X224" s="26"/>
-      <c r="Y224" s="26"/>
-      <c r="Z224" s="26"/>
-      <c r="AA224" s="26"/>
-      <c r="AB224" s="71"/>
-      <c r="AC224" s="26"/>
-      <c r="AD224" s="26"/>
-      <c r="AE224" s="26"/>
-      <c r="AF224" s="26"/>
-      <c r="AG224" s="26"/>
-      <c r="AH224" s="71"/>
+      <c r="G224" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="H224" s="33"/>
+      <c r="I224" s="33"/>
+      <c r="J224" s="33"/>
+      <c r="K224" s="34"/>
+      <c r="L224" s="76"/>
+      <c r="M224" s="76"/>
+      <c r="N224" s="76"/>
+      <c r="O224" s="76"/>
+      <c r="P224" s="76"/>
+      <c r="Q224" s="76"/>
+      <c r="R224" s="76"/>
+      <c r="S224" s="76"/>
+      <c r="T224" s="76"/>
+      <c r="U224" s="76"/>
+      <c r="V224" s="76"/>
+      <c r="W224" s="76"/>
+      <c r="X224" s="76"/>
+      <c r="Y224" s="76"/>
+      <c r="Z224" s="76"/>
+      <c r="AA224" s="76"/>
+      <c r="AB224" s="90"/>
+      <c r="AC224" s="76"/>
+      <c r="AD224" s="76"/>
+      <c r="AE224" s="76"/>
+      <c r="AF224" s="76"/>
+      <c r="AG224" s="76"/>
+      <c r="AH224" s="90"/>
       <c r="AI224" s="29"/>
     </row>
     <row r="225" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10543,13 +10610,15 @@
       <c r="D225" s="29"/>
       <c r="E225" s="29"/>
       <c r="F225" s="24"/>
-      <c r="G225" s="30"/>
+      <c r="G225" s="30" t="s">
+        <v>93</v>
+      </c>
       <c r="H225" s="55"/>
       <c r="I225" s="55"/>
       <c r="J225" s="55"/>
       <c r="K225" s="31"/>
       <c r="L225" s="26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M225" s="26"/>
       <c r="N225" s="26"/>
@@ -10567,7 +10636,9 @@
       <c r="Z225" s="26"/>
       <c r="AA225" s="26"/>
       <c r="AB225" s="71"/>
-      <c r="AC225" s="26"/>
+      <c r="AC225" s="26" t="s">
+        <v>269</v>
+      </c>
       <c r="AD225" s="26"/>
       <c r="AE225" s="26"/>
       <c r="AF225" s="26"/>
@@ -10588,7 +10659,7 @@
       <c r="J226" s="55"/>
       <c r="K226" s="31"/>
       <c r="L226" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M226" s="26"/>
       <c r="N226" s="26"/>
@@ -10606,7 +10677,9 @@
       <c r="Z226" s="26"/>
       <c r="AA226" s="26"/>
       <c r="AB226" s="71"/>
-      <c r="AC226" s="26"/>
+      <c r="AC226" s="26" t="s">
+        <v>270</v>
+      </c>
       <c r="AD226" s="26"/>
       <c r="AE226" s="26"/>
       <c r="AF226" s="26"/>
@@ -10626,7 +10699,9 @@
       <c r="I227" s="55"/>
       <c r="J227" s="55"/>
       <c r="K227" s="31"/>
-      <c r="L227" s="26"/>
+      <c r="L227" s="26" t="s">
+        <v>116</v>
+      </c>
       <c r="M227" s="26"/>
       <c r="N227" s="26"/>
       <c r="O227" s="26"/>
@@ -10658,36 +10733,34 @@
       <c r="D228" s="29"/>
       <c r="E228" s="29"/>
       <c r="F228" s="24"/>
-      <c r="G228" s="30"/>
-      <c r="H228" s="55"/>
-      <c r="I228" s="55"/>
-      <c r="J228" s="55"/>
-      <c r="K228" s="31"/>
-      <c r="L228" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="M228" s="26"/>
-      <c r="N228" s="26"/>
-      <c r="O228" s="26"/>
-      <c r="P228" s="26"/>
-      <c r="Q228" s="26"/>
-      <c r="R228" s="26"/>
-      <c r="S228" s="26"/>
-      <c r="T228" s="26"/>
-      <c r="U228" s="26"/>
-      <c r="V228" s="26"/>
-      <c r="W228" s="26"/>
-      <c r="X228" s="26"/>
-      <c r="Y228" s="26"/>
-      <c r="Z228" s="26"/>
-      <c r="AA228" s="26"/>
-      <c r="AB228" s="71"/>
-      <c r="AC228" s="26"/>
-      <c r="AD228" s="26"/>
-      <c r="AE228" s="26"/>
-      <c r="AF228" s="26"/>
-      <c r="AG228" s="26"/>
-      <c r="AH228" s="71"/>
+      <c r="G228" s="32"/>
+      <c r="H228" s="33"/>
+      <c r="I228" s="33"/>
+      <c r="J228" s="33"/>
+      <c r="K228" s="34"/>
+      <c r="L228" s="76"/>
+      <c r="M228" s="76"/>
+      <c r="N228" s="76"/>
+      <c r="O228" s="76"/>
+      <c r="P228" s="76"/>
+      <c r="Q228" s="76"/>
+      <c r="R228" s="76"/>
+      <c r="S228" s="76"/>
+      <c r="T228" s="76"/>
+      <c r="U228" s="76"/>
+      <c r="V228" s="76"/>
+      <c r="W228" s="76"/>
+      <c r="X228" s="76"/>
+      <c r="Y228" s="76"/>
+      <c r="Z228" s="76"/>
+      <c r="AA228" s="76"/>
+      <c r="AB228" s="90"/>
+      <c r="AC228" s="76"/>
+      <c r="AD228" s="76"/>
+      <c r="AE228" s="76"/>
+      <c r="AF228" s="76"/>
+      <c r="AG228" s="76"/>
+      <c r="AH228" s="90"/>
       <c r="AI228" s="29"/>
     </row>
     <row r="229" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10697,13 +10770,15 @@
       <c r="D229" s="29"/>
       <c r="E229" s="29"/>
       <c r="F229" s="24"/>
-      <c r="G229" s="30"/>
+      <c r="G229" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="H229" s="55"/>
       <c r="I229" s="55"/>
       <c r="J229" s="55"/>
       <c r="K229" s="31"/>
       <c r="L229" s="26" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="M229" s="26"/>
       <c r="N229" s="26"/>
@@ -10721,7 +10796,9 @@
       <c r="Z229" s="26"/>
       <c r="AA229" s="26"/>
       <c r="AB229" s="71"/>
-      <c r="AC229" s="26"/>
+      <c r="AC229" s="26" t="s">
+        <v>122</v>
+      </c>
       <c r="AD229" s="26"/>
       <c r="AE229" s="26"/>
       <c r="AF229" s="26"/>
@@ -10736,13 +10813,15 @@
       <c r="D230" s="29"/>
       <c r="E230" s="29"/>
       <c r="F230" s="24"/>
-      <c r="G230" s="30"/>
+      <c r="G230" s="30" t="s">
+        <v>124</v>
+      </c>
       <c r="H230" s="55"/>
       <c r="I230" s="55"/>
       <c r="J230" s="55"/>
       <c r="K230" s="31"/>
       <c r="L230" s="26" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="M230" s="26"/>
       <c r="N230" s="26"/>
@@ -10781,7 +10860,7 @@
       <c r="J231" s="55"/>
       <c r="K231" s="31"/>
       <c r="L231" s="26" t="s">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -10820,7 +10899,7 @@
       <c r="J232" s="55"/>
       <c r="K232" s="31"/>
       <c r="L232" s="26" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="M232" s="26"/>
       <c r="N232" s="26"/>
@@ -10858,9 +10937,7 @@
       <c r="I233" s="55"/>
       <c r="J233" s="55"/>
       <c r="K233" s="31"/>
-      <c r="L233" s="26" t="s">
-        <v>137</v>
-      </c>
+      <c r="L233" s="26"/>
       <c r="M233" s="26"/>
       <c r="N233" s="26"/>
       <c r="O233" s="26"/>
@@ -10892,36 +10969,36 @@
       <c r="D234" s="29"/>
       <c r="E234" s="29"/>
       <c r="F234" s="24"/>
-      <c r="G234" s="32"/>
-      <c r="H234" s="33"/>
-      <c r="I234" s="33"/>
-      <c r="J234" s="33"/>
-      <c r="K234" s="34"/>
-      <c r="L234" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="M234" s="76"/>
-      <c r="N234" s="76"/>
-      <c r="O234" s="76"/>
-      <c r="P234" s="76"/>
-      <c r="Q234" s="76"/>
-      <c r="R234" s="76"/>
-      <c r="S234" s="76"/>
-      <c r="T234" s="76"/>
-      <c r="U234" s="76"/>
-      <c r="V234" s="76"/>
-      <c r="W234" s="76"/>
-      <c r="X234" s="76"/>
-      <c r="Y234" s="76"/>
-      <c r="Z234" s="76"/>
-      <c r="AA234" s="76"/>
-      <c r="AB234" s="90"/>
-      <c r="AC234" s="76"/>
-      <c r="AD234" s="76"/>
-      <c r="AE234" s="76"/>
-      <c r="AF234" s="76"/>
-      <c r="AG234" s="76"/>
-      <c r="AH234" s="90"/>
+      <c r="G234" s="30"/>
+      <c r="H234" s="55"/>
+      <c r="I234" s="55"/>
+      <c r="J234" s="55"/>
+      <c r="K234" s="31"/>
+      <c r="L234" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="M234" s="26"/>
+      <c r="N234" s="26"/>
+      <c r="O234" s="26"/>
+      <c r="P234" s="26"/>
+      <c r="Q234" s="26"/>
+      <c r="R234" s="26"/>
+      <c r="S234" s="26"/>
+      <c r="T234" s="26"/>
+      <c r="U234" s="26"/>
+      <c r="V234" s="26"/>
+      <c r="W234" s="26"/>
+      <c r="X234" s="26"/>
+      <c r="Y234" s="26"/>
+      <c r="Z234" s="26"/>
+      <c r="AA234" s="26"/>
+      <c r="AB234" s="71"/>
+      <c r="AC234" s="26"/>
+      <c r="AD234" s="26"/>
+      <c r="AE234" s="26"/>
+      <c r="AF234" s="26"/>
+      <c r="AG234" s="26"/>
+      <c r="AH234" s="71"/>
       <c r="AI234" s="29"/>
     </row>
     <row r="235" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10931,15 +11008,13 @@
       <c r="D235" s="29"/>
       <c r="E235" s="29"/>
       <c r="F235" s="24"/>
-      <c r="G235" s="30" t="s">
-        <v>130</v>
-      </c>
+      <c r="G235" s="30"/>
       <c r="H235" s="55"/>
       <c r="I235" s="55"/>
       <c r="J235" s="55"/>
       <c r="K235" s="31"/>
       <c r="L235" s="26" t="s">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -10957,9 +11032,7 @@
       <c r="Z235" s="26"/>
       <c r="AA235" s="26"/>
       <c r="AB235" s="71"/>
-      <c r="AC235" s="26" t="s">
-        <v>127</v>
-      </c>
+      <c r="AC235" s="26"/>
       <c r="AD235" s="26"/>
       <c r="AE235" s="26"/>
       <c r="AF235" s="26"/>
@@ -10974,38 +11047,36 @@
       <c r="D236" s="29"/>
       <c r="E236" s="29"/>
       <c r="F236" s="24"/>
-      <c r="G236" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="H236" s="33"/>
-      <c r="I236" s="33"/>
-      <c r="J236" s="33"/>
-      <c r="K236" s="34"/>
-      <c r="L236" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="M236" s="76"/>
-      <c r="N236" s="76"/>
-      <c r="O236" s="76"/>
-      <c r="P236" s="76"/>
-      <c r="Q236" s="76"/>
-      <c r="R236" s="76"/>
-      <c r="S236" s="76"/>
-      <c r="T236" s="76"/>
-      <c r="U236" s="76"/>
-      <c r="V236" s="76"/>
-      <c r="W236" s="76"/>
-      <c r="X236" s="76"/>
-      <c r="Y236" s="76"/>
-      <c r="Z236" s="76"/>
-      <c r="AA236" s="76"/>
-      <c r="AB236" s="90"/>
-      <c r="AC236" s="76"/>
-      <c r="AD236" s="76"/>
-      <c r="AE236" s="76"/>
-      <c r="AF236" s="76"/>
-      <c r="AG236" s="76"/>
-      <c r="AH236" s="90"/>
+      <c r="G236" s="30"/>
+      <c r="H236" s="55"/>
+      <c r="I236" s="55"/>
+      <c r="J236" s="55"/>
+      <c r="K236" s="31"/>
+      <c r="L236" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="M236" s="26"/>
+      <c r="N236" s="26"/>
+      <c r="O236" s="26"/>
+      <c r="P236" s="26"/>
+      <c r="Q236" s="26"/>
+      <c r="R236" s="26"/>
+      <c r="S236" s="26"/>
+      <c r="T236" s="26"/>
+      <c r="U236" s="26"/>
+      <c r="V236" s="26"/>
+      <c r="W236" s="26"/>
+      <c r="X236" s="26"/>
+      <c r="Y236" s="26"/>
+      <c r="Z236" s="26"/>
+      <c r="AA236" s="26"/>
+      <c r="AB236" s="71"/>
+      <c r="AC236" s="26"/>
+      <c r="AD236" s="26"/>
+      <c r="AE236" s="26"/>
+      <c r="AF236" s="26"/>
+      <c r="AG236" s="26"/>
+      <c r="AH236" s="71"/>
       <c r="AI236" s="29"/>
     </row>
     <row r="237" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11013,36 +11084,38 @@
       <c r="B237" s="29"/>
       <c r="C237" s="29"/>
       <c r="D237" s="29"/>
-      <c r="E237" s="24"/>
-      <c r="F237" s="29"/>
-      <c r="G237" s="29"/>
-      <c r="H237" s="29"/>
-      <c r="I237" s="29"/>
-      <c r="J237" s="29"/>
-      <c r="K237" s="29"/>
-      <c r="L237" s="29"/>
-      <c r="M237" s="29"/>
-      <c r="N237" s="29"/>
-      <c r="O237" s="29"/>
-      <c r="P237" s="29"/>
-      <c r="Q237" s="29"/>
-      <c r="R237" s="29"/>
-      <c r="S237" s="29"/>
-      <c r="T237" s="29"/>
-      <c r="U237" s="29"/>
-      <c r="V237" s="29"/>
-      <c r="W237" s="29"/>
-      <c r="X237" s="29"/>
-      <c r="Y237" s="29"/>
-      <c r="Z237" s="29"/>
-      <c r="AA237" s="29"/>
-      <c r="AB237" s="29"/>
-      <c r="AC237" s="29"/>
-      <c r="AD237" s="29"/>
-      <c r="AE237" s="29"/>
-      <c r="AF237" s="29"/>
-      <c r="AG237" s="29"/>
-      <c r="AH237" s="29"/>
+      <c r="E237" s="29"/>
+      <c r="F237" s="24"/>
+      <c r="G237" s="30"/>
+      <c r="H237" s="55"/>
+      <c r="I237" s="55"/>
+      <c r="J237" s="55"/>
+      <c r="K237" s="31"/>
+      <c r="L237" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="M237" s="26"/>
+      <c r="N237" s="26"/>
+      <c r="O237" s="26"/>
+      <c r="P237" s="26"/>
+      <c r="Q237" s="26"/>
+      <c r="R237" s="26"/>
+      <c r="S237" s="26"/>
+      <c r="T237" s="26"/>
+      <c r="U237" s="26"/>
+      <c r="V237" s="26"/>
+      <c r="W237" s="26"/>
+      <c r="X237" s="26"/>
+      <c r="Y237" s="26"/>
+      <c r="Z237" s="26"/>
+      <c r="AA237" s="26"/>
+      <c r="AB237" s="71"/>
+      <c r="AC237" s="26"/>
+      <c r="AD237" s="26"/>
+      <c r="AE237" s="26"/>
+      <c r="AF237" s="26"/>
+      <c r="AG237" s="26"/>
+      <c r="AH237" s="71"/>
       <c r="AI237" s="29"/>
     </row>
     <row r="238" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11050,40 +11123,38 @@
       <c r="B238" s="29"/>
       <c r="C238" s="29"/>
       <c r="D238" s="29"/>
-      <c r="E238" s="24"/>
-      <c r="F238" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G238" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="H238" s="29"/>
-      <c r="I238" s="29"/>
-      <c r="J238" s="29"/>
-      <c r="K238" s="29"/>
-      <c r="L238" s="29"/>
-      <c r="M238" s="29"/>
-      <c r="N238" s="29"/>
-      <c r="O238" s="29"/>
-      <c r="P238" s="29"/>
-      <c r="Q238" s="29"/>
-      <c r="R238" s="29"/>
-      <c r="S238" s="29"/>
-      <c r="T238" s="29"/>
-      <c r="U238" s="29"/>
-      <c r="V238" s="29"/>
-      <c r="W238" s="29"/>
-      <c r="X238" s="29"/>
-      <c r="Y238" s="29"/>
-      <c r="Z238" s="29"/>
-      <c r="AA238" s="29"/>
-      <c r="AB238" s="29"/>
-      <c r="AC238" s="29"/>
-      <c r="AD238" s="29"/>
-      <c r="AE238" s="29"/>
-      <c r="AF238" s="29"/>
-      <c r="AG238" s="29"/>
-      <c r="AH238" s="29"/>
+      <c r="E238" s="29"/>
+      <c r="F238" s="24"/>
+      <c r="G238" s="30"/>
+      <c r="H238" s="55"/>
+      <c r="I238" s="55"/>
+      <c r="J238" s="55"/>
+      <c r="K238" s="31"/>
+      <c r="L238" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="M238" s="26"/>
+      <c r="N238" s="26"/>
+      <c r="O238" s="26"/>
+      <c r="P238" s="26"/>
+      <c r="Q238" s="26"/>
+      <c r="R238" s="26"/>
+      <c r="S238" s="26"/>
+      <c r="T238" s="26"/>
+      <c r="U238" s="26"/>
+      <c r="V238" s="26"/>
+      <c r="W238" s="26"/>
+      <c r="X238" s="26"/>
+      <c r="Y238" s="26"/>
+      <c r="Z238" s="26"/>
+      <c r="AA238" s="26"/>
+      <c r="AB238" s="71"/>
+      <c r="AC238" s="26"/>
+      <c r="AD238" s="26"/>
+      <c r="AE238" s="26"/>
+      <c r="AF238" s="26"/>
+      <c r="AG238" s="26"/>
+      <c r="AH238" s="71"/>
       <c r="AI238" s="29"/>
     </row>
     <row r="239" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11091,274 +11162,391 @@
       <c r="B239" s="29"/>
       <c r="C239" s="29"/>
       <c r="D239" s="29"/>
-      <c r="E239" s="24"/>
-      <c r="F239" s="29"/>
-      <c r="G239" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="H239" s="29"/>
-      <c r="I239" s="29"/>
-      <c r="J239" s="29"/>
-      <c r="K239" s="29"/>
-      <c r="L239" s="29"/>
-      <c r="M239" s="29"/>
-      <c r="N239" s="29"/>
-      <c r="O239" s="29"/>
-      <c r="P239" s="29"/>
-      <c r="Q239" s="29"/>
-      <c r="R239" s="29"/>
-      <c r="S239" s="29"/>
-      <c r="T239" s="29"/>
-      <c r="U239" s="29"/>
-      <c r="V239" s="29"/>
-      <c r="W239" s="29"/>
-      <c r="X239" s="29"/>
-      <c r="Y239" s="29"/>
-      <c r="Z239" s="29"/>
-      <c r="AA239" s="29"/>
-      <c r="AB239" s="29"/>
-      <c r="AC239" s="29"/>
-      <c r="AD239" s="29"/>
-      <c r="AE239" s="29"/>
-      <c r="AF239" s="29"/>
-      <c r="AG239" s="29"/>
-      <c r="AH239" s="29"/>
+      <c r="E239" s="29"/>
+      <c r="F239" s="24"/>
+      <c r="G239" s="30"/>
+      <c r="H239" s="55"/>
+      <c r="I239" s="55"/>
+      <c r="J239" s="55"/>
+      <c r="K239" s="31"/>
+      <c r="L239" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="M239" s="26"/>
+      <c r="N239" s="26"/>
+      <c r="O239" s="26"/>
+      <c r="P239" s="26"/>
+      <c r="Q239" s="26"/>
+      <c r="R239" s="26"/>
+      <c r="S239" s="26"/>
+      <c r="T239" s="26"/>
+      <c r="U239" s="26"/>
+      <c r="V239" s="26"/>
+      <c r="W239" s="26"/>
+      <c r="X239" s="26"/>
+      <c r="Y239" s="26"/>
+      <c r="Z239" s="26"/>
+      <c r="AA239" s="26"/>
+      <c r="AB239" s="71"/>
+      <c r="AC239" s="26"/>
+      <c r="AD239" s="26"/>
+      <c r="AE239" s="26"/>
+      <c r="AF239" s="26"/>
+      <c r="AG239" s="26"/>
+      <c r="AH239" s="71"/>
       <c r="AI239" s="29"/>
     </row>
-    <row r="240" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="29"/>
       <c r="B240" s="29"/>
       <c r="C240" s="29"/>
       <c r="D240" s="29"/>
       <c r="E240" s="29"/>
-      <c r="F240" s="29"/>
-      <c r="G240" s="29"/>
-      <c r="H240" s="29"/>
-      <c r="I240" s="29"/>
-      <c r="J240" s="29"/>
-      <c r="K240" s="29"/>
-      <c r="L240" s="29"/>
-      <c r="M240" s="29"/>
-      <c r="N240" s="29"/>
-      <c r="O240" s="29"/>
-      <c r="P240" s="29"/>
-      <c r="Q240" s="29"/>
-      <c r="R240" s="29"/>
-      <c r="S240" s="29"/>
-      <c r="T240" s="29"/>
-      <c r="U240" s="29"/>
-      <c r="V240" s="29"/>
-      <c r="W240" s="29"/>
-      <c r="X240" s="29"/>
-      <c r="Y240" s="29"/>
-      <c r="Z240" s="29"/>
-      <c r="AA240" s="29"/>
-      <c r="AB240" s="29"/>
-      <c r="AC240" s="29"/>
-      <c r="AD240" s="29"/>
-      <c r="AE240" s="29"/>
-      <c r="AF240" s="29"/>
-      <c r="AG240" s="29"/>
-      <c r="AH240" s="29"/>
+      <c r="F240" s="24"/>
+      <c r="G240" s="32"/>
+      <c r="H240" s="33"/>
+      <c r="I240" s="33"/>
+      <c r="J240" s="33"/>
+      <c r="K240" s="34"/>
+      <c r="L240" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="M240" s="76"/>
+      <c r="N240" s="76"/>
+      <c r="O240" s="76"/>
+      <c r="P240" s="76"/>
+      <c r="Q240" s="76"/>
+      <c r="R240" s="76"/>
+      <c r="S240" s="76"/>
+      <c r="T240" s="76"/>
+      <c r="U240" s="76"/>
+      <c r="V240" s="76"/>
+      <c r="W240" s="76"/>
+      <c r="X240" s="76"/>
+      <c r="Y240" s="76"/>
+      <c r="Z240" s="76"/>
+      <c r="AA240" s="76"/>
+      <c r="AB240" s="90"/>
+      <c r="AC240" s="76"/>
+      <c r="AD240" s="76"/>
+      <c r="AE240" s="76"/>
+      <c r="AF240" s="76"/>
+      <c r="AG240" s="76"/>
+      <c r="AH240" s="90"/>
       <c r="AI240" s="29"/>
     </row>
-    <row r="241" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
       <c r="C241" s="29"/>
       <c r="D241" s="29"/>
       <c r="E241" s="29"/>
-      <c r="F241" s="29"/>
-      <c r="G241" s="29"/>
-      <c r="H241" s="29"/>
-      <c r="I241" s="29"/>
-      <c r="J241" s="29"/>
-      <c r="K241" s="29"/>
-      <c r="L241" s="29"/>
-      <c r="M241" s="29"/>
-      <c r="N241" s="29"/>
-      <c r="O241" s="29"/>
-      <c r="P241" s="29"/>
-      <c r="Q241" s="29"/>
-      <c r="R241" s="29"/>
-      <c r="S241" s="29"/>
-      <c r="T241" s="29"/>
-      <c r="U241" s="29"/>
-      <c r="V241" s="29"/>
-      <c r="W241" s="29"/>
-      <c r="X241" s="29"/>
-      <c r="Y241" s="29"/>
-      <c r="Z241" s="29"/>
-      <c r="AA241" s="29"/>
-      <c r="AB241" s="29"/>
-      <c r="AC241" s="29"/>
-      <c r="AD241" s="29"/>
-      <c r="AE241" s="29"/>
-      <c r="AF241" s="29"/>
-      <c r="AG241" s="29"/>
-      <c r="AH241" s="29"/>
+      <c r="F241" s="24"/>
+      <c r="G241" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H241" s="55"/>
+      <c r="I241" s="55"/>
+      <c r="J241" s="55"/>
+      <c r="K241" s="31"/>
+      <c r="L241" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="M241" s="26"/>
+      <c r="N241" s="26"/>
+      <c r="O241" s="26"/>
+      <c r="P241" s="26"/>
+      <c r="Q241" s="26"/>
+      <c r="R241" s="26"/>
+      <c r="S241" s="26"/>
+      <c r="T241" s="26"/>
+      <c r="U241" s="26"/>
+      <c r="V241" s="26"/>
+      <c r="W241" s="26"/>
+      <c r="X241" s="26"/>
+      <c r="Y241" s="26"/>
+      <c r="Z241" s="26"/>
+      <c r="AA241" s="26"/>
+      <c r="AB241" s="71"/>
+      <c r="AC241" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD241" s="26"/>
+      <c r="AE241" s="26"/>
+      <c r="AF241" s="26"/>
+      <c r="AG241" s="26"/>
+      <c r="AH241" s="71"/>
       <c r="AI241" s="29"/>
     </row>
     <row r="242" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D242" s="42" t="str">
+      <c r="A242" s="29"/>
+      <c r="B242" s="29"/>
+      <c r="C242" s="29"/>
+      <c r="D242" s="29"/>
+      <c r="E242" s="29"/>
+      <c r="F242" s="24"/>
+      <c r="G242" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H242" s="33"/>
+      <c r="I242" s="33"/>
+      <c r="J242" s="33"/>
+      <c r="K242" s="34"/>
+      <c r="L242" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="M242" s="76"/>
+      <c r="N242" s="76"/>
+      <c r="O242" s="76"/>
+      <c r="P242" s="76"/>
+      <c r="Q242" s="76"/>
+      <c r="R242" s="76"/>
+      <c r="S242" s="76"/>
+      <c r="T242" s="76"/>
+      <c r="U242" s="76"/>
+      <c r="V242" s="76"/>
+      <c r="W242" s="76"/>
+      <c r="X242" s="76"/>
+      <c r="Y242" s="76"/>
+      <c r="Z242" s="76"/>
+      <c r="AA242" s="76"/>
+      <c r="AB242" s="90"/>
+      <c r="AC242" s="76"/>
+      <c r="AD242" s="76"/>
+      <c r="AE242" s="76"/>
+      <c r="AF242" s="76"/>
+      <c r="AG242" s="76"/>
+      <c r="AH242" s="90"/>
+      <c r="AI242" s="29"/>
+    </row>
+    <row r="243" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="29"/>
+      <c r="B243" s="29"/>
+      <c r="C243" s="29"/>
+      <c r="D243" s="29"/>
+      <c r="E243" s="24"/>
+      <c r="F243" s="29"/>
+      <c r="G243" s="29"/>
+      <c r="H243" s="29"/>
+      <c r="I243" s="29"/>
+      <c r="J243" s="29"/>
+      <c r="K243" s="29"/>
+      <c r="L243" s="29"/>
+      <c r="M243" s="29"/>
+      <c r="N243" s="29"/>
+      <c r="O243" s="29"/>
+      <c r="P243" s="29"/>
+      <c r="Q243" s="29"/>
+      <c r="R243" s="29"/>
+      <c r="S243" s="29"/>
+      <c r="T243" s="29"/>
+      <c r="U243" s="29"/>
+      <c r="V243" s="29"/>
+      <c r="W243" s="29"/>
+      <c r="X243" s="29"/>
+      <c r="Y243" s="29"/>
+      <c r="Z243" s="29"/>
+      <c r="AA243" s="29"/>
+      <c r="AB243" s="29"/>
+      <c r="AC243" s="29"/>
+      <c r="AD243" s="29"/>
+      <c r="AE243" s="29"/>
+      <c r="AF243" s="29"/>
+      <c r="AG243" s="29"/>
+      <c r="AH243" s="29"/>
+      <c r="AI243" s="29"/>
+    </row>
+    <row r="244" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="29"/>
+      <c r="B244" s="29"/>
+      <c r="C244" s="29"/>
+      <c r="D244" s="29"/>
+      <c r="E244" s="24"/>
+      <c r="F244" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G244" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H244" s="29"/>
+      <c r="I244" s="29"/>
+      <c r="J244" s="29"/>
+      <c r="K244" s="29"/>
+      <c r="L244" s="29"/>
+      <c r="M244" s="29"/>
+      <c r="N244" s="29"/>
+      <c r="O244" s="29"/>
+      <c r="P244" s="29"/>
+      <c r="Q244" s="29"/>
+      <c r="R244" s="29"/>
+      <c r="S244" s="29"/>
+      <c r="T244" s="29"/>
+      <c r="U244" s="29"/>
+      <c r="V244" s="29"/>
+      <c r="W244" s="29"/>
+      <c r="X244" s="29"/>
+      <c r="Y244" s="29"/>
+      <c r="Z244" s="29"/>
+      <c r="AA244" s="29"/>
+      <c r="AB244" s="29"/>
+      <c r="AC244" s="29"/>
+      <c r="AD244" s="29"/>
+      <c r="AE244" s="29"/>
+      <c r="AF244" s="29"/>
+      <c r="AG244" s="29"/>
+      <c r="AH244" s="29"/>
+      <c r="AI244" s="29"/>
+    </row>
+    <row r="245" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="29"/>
+      <c r="B245" s="29"/>
+      <c r="C245" s="29"/>
+      <c r="D245" s="29"/>
+      <c r="E245" s="24"/>
+      <c r="F245" s="29"/>
+      <c r="G245" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H245" s="29"/>
+      <c r="I245" s="29"/>
+      <c r="J245" s="29"/>
+      <c r="K245" s="29"/>
+      <c r="L245" s="29"/>
+      <c r="M245" s="29"/>
+      <c r="N245" s="29"/>
+      <c r="O245" s="29"/>
+      <c r="P245" s="29"/>
+      <c r="Q245" s="29"/>
+      <c r="R245" s="29"/>
+      <c r="S245" s="29"/>
+      <c r="T245" s="29"/>
+      <c r="U245" s="29"/>
+      <c r="V245" s="29"/>
+      <c r="W245" s="29"/>
+      <c r="X245" s="29"/>
+      <c r="Y245" s="29"/>
+      <c r="Z245" s="29"/>
+      <c r="AA245" s="29"/>
+      <c r="AB245" s="29"/>
+      <c r="AC245" s="29"/>
+      <c r="AD245" s="29"/>
+      <c r="AE245" s="29"/>
+      <c r="AF245" s="29"/>
+      <c r="AG245" s="29"/>
+      <c r="AH245" s="29"/>
+      <c r="AI245" s="29"/>
+    </row>
+    <row r="246" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="29"/>
+      <c r="B246" s="29"/>
+      <c r="C246" s="29"/>
+      <c r="D246" s="29"/>
+      <c r="E246" s="29"/>
+      <c r="F246" s="29"/>
+      <c r="G246" s="29"/>
+      <c r="H246" s="29"/>
+      <c r="I246" s="29"/>
+      <c r="J246" s="29"/>
+      <c r="K246" s="29"/>
+      <c r="L246" s="29"/>
+      <c r="M246" s="29"/>
+      <c r="N246" s="29"/>
+      <c r="O246" s="29"/>
+      <c r="P246" s="29"/>
+      <c r="Q246" s="29"/>
+      <c r="R246" s="29"/>
+      <c r="S246" s="29"/>
+      <c r="T246" s="29"/>
+      <c r="U246" s="29"/>
+      <c r="V246" s="29"/>
+      <c r="W246" s="29"/>
+      <c r="X246" s="29"/>
+      <c r="Y246" s="29"/>
+      <c r="Z246" s="29"/>
+      <c r="AA246" s="29"/>
+      <c r="AB246" s="29"/>
+      <c r="AC246" s="29"/>
+      <c r="AD246" s="29"/>
+      <c r="AE246" s="29"/>
+      <c r="AF246" s="29"/>
+      <c r="AG246" s="29"/>
+      <c r="AH246" s="29"/>
+      <c r="AI246" s="29"/>
+    </row>
+    <row r="247" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="29"/>
+      <c r="B247" s="29"/>
+      <c r="C247" s="29"/>
+      <c r="D247" s="29"/>
+      <c r="E247" s="29"/>
+      <c r="F247" s="29"/>
+      <c r="G247" s="29"/>
+      <c r="H247" s="29"/>
+      <c r="I247" s="29"/>
+      <c r="J247" s="29"/>
+      <c r="K247" s="29"/>
+      <c r="L247" s="29"/>
+      <c r="M247" s="29"/>
+      <c r="N247" s="29"/>
+      <c r="O247" s="29"/>
+      <c r="P247" s="29"/>
+      <c r="Q247" s="29"/>
+      <c r="R247" s="29"/>
+      <c r="S247" s="29"/>
+      <c r="T247" s="29"/>
+      <c r="U247" s="29"/>
+      <c r="V247" s="29"/>
+      <c r="W247" s="29"/>
+      <c r="X247" s="29"/>
+      <c r="Y247" s="29"/>
+      <c r="Z247" s="29"/>
+      <c r="AA247" s="29"/>
+      <c r="AB247" s="29"/>
+      <c r="AC247" s="29"/>
+      <c r="AD247" s="29"/>
+      <c r="AE247" s="29"/>
+      <c r="AF247" s="29"/>
+      <c r="AG247" s="29"/>
+      <c r="AH247" s="29"/>
+      <c r="AI247" s="29"/>
+    </row>
+    <row r="248" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D248" s="42" t="str">
         <f>$C$7&amp;"10."</f>
         <v>3.1.10.</v>
       </c>
-      <c r="E242" s="41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="243" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D243" s="42"/>
-    </row>
-    <row r="244" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D244" s="42"/>
-      <c r="E244" s="42" t="str">
-        <f>$D$242&amp;"1."</f>
-        <v>3.1.10.1.</v>
-      </c>
-      <c r="F244" s="41" t="str">
-        <f>$E$242&amp;"概要"</f>
-        <v>URL設計概要</v>
-      </c>
-    </row>
-    <row r="245" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D245" s="42"/>
-      <c r="F245" s="41" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="246" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D246" s="42"/>
-      <c r="F246" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="G246" s="41" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="247" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D247" s="42"/>
-    </row>
-    <row r="248" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D248" s="42"/>
-      <c r="E248" s="42" t="str">
-        <f>$D$242&amp;"2."</f>
-        <v>3.1.10.2.</v>
-      </c>
-      <c r="F248" s="41" t="str">
-        <f>$E$242&amp;"方針"</f>
-        <v>URL設計方針</v>
+      <c r="E248" s="41" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="249" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D249" s="42"/>
-      <c r="F249" s="41" t="s">
-        <v>237</v>
-      </c>
     </row>
     <row r="250" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D250" s="42"/>
-      <c r="F250" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="G250" s="53"/>
-      <c r="H250" s="53"/>
-      <c r="I250" s="53"/>
-      <c r="J250" s="53"/>
-      <c r="K250" s="54"/>
-      <c r="L250" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="M250" s="53"/>
-      <c r="N250" s="53"/>
-      <c r="O250" s="53"/>
-      <c r="P250" s="53"/>
-      <c r="Q250" s="53"/>
-      <c r="R250" s="53"/>
-      <c r="S250" s="53"/>
-      <c r="T250" s="53"/>
-      <c r="U250" s="53"/>
-      <c r="V250" s="53"/>
-      <c r="W250" s="53"/>
-      <c r="X250" s="53"/>
-      <c r="Y250" s="53"/>
-      <c r="Z250" s="53"/>
-      <c r="AA250" s="53"/>
-      <c r="AB250" s="53"/>
-      <c r="AC250" s="53"/>
-      <c r="AD250" s="53"/>
-      <c r="AE250" s="53"/>
-      <c r="AF250" s="53"/>
-      <c r="AG250" s="54"/>
+      <c r="E250" s="42" t="str">
+        <f>$D$248&amp;"1."</f>
+        <v>3.1.10.1.</v>
+      </c>
+      <c r="F250" s="41" t="str">
+        <f>$E$248&amp;"概要"</f>
+        <v>URL設計概要</v>
+      </c>
     </row>
     <row r="251" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D251" s="42"/>
-      <c r="F251" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="G251" s="99"/>
-      <c r="H251" s="99"/>
-      <c r="I251" s="99"/>
-      <c r="J251" s="99"/>
-      <c r="K251" s="101"/>
-      <c r="L251" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="M251" s="99"/>
-      <c r="N251" s="99"/>
-      <c r="O251" s="99"/>
-      <c r="P251" s="99"/>
-      <c r="Q251" s="99"/>
-      <c r="R251" s="99"/>
-      <c r="S251" s="99"/>
-      <c r="T251" s="99"/>
-      <c r="U251" s="99"/>
-      <c r="V251" s="99"/>
-      <c r="W251" s="99"/>
-      <c r="X251" s="99"/>
-      <c r="Y251" s="99"/>
-      <c r="Z251" s="99"/>
-      <c r="AA251" s="99"/>
-      <c r="AB251" s="99"/>
-      <c r="AC251" s="99"/>
-      <c r="AD251" s="99"/>
-      <c r="AE251" s="99"/>
-      <c r="AF251" s="99"/>
-      <c r="AG251" s="101"/>
+      <c r="F251" s="41" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="252" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D252" s="42"/>
-      <c r="F252" s="81"/>
-      <c r="G252" s="102"/>
-      <c r="H252" s="102"/>
-      <c r="I252" s="102"/>
-      <c r="J252" s="102"/>
-      <c r="K252" s="103"/>
-      <c r="L252" s="81" t="s">
-        <v>238</v>
-      </c>
-      <c r="M252" s="102"/>
-      <c r="N252" s="102"/>
-      <c r="O252" s="102"/>
-      <c r="P252" s="102"/>
-      <c r="Q252" s="102"/>
-      <c r="R252" s="102"/>
-      <c r="S252" s="102"/>
-      <c r="T252" s="102"/>
-      <c r="U252" s="102"/>
-      <c r="V252" s="102"/>
-      <c r="W252" s="102"/>
-      <c r="X252" s="102"/>
-      <c r="Y252" s="102"/>
-      <c r="Z252" s="102"/>
-      <c r="AA252" s="102"/>
-      <c r="AB252" s="102"/>
-      <c r="AC252" s="102"/>
-      <c r="AD252" s="102"/>
-      <c r="AE252" s="102"/>
-      <c r="AF252" s="102"/>
-      <c r="AG252" s="103"/>
+      <c r="F252" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="G252" s="41" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="253" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D253" s="42"/>
@@ -11366,306 +11554,231 @@
     <row r="254" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D254" s="42"/>
       <c r="E254" s="42" t="str">
-        <f>$D$242&amp;"3."</f>
-        <v>3.1.10.3.</v>
+        <f>$D$248&amp;"2."</f>
+        <v>3.1.10.2.</v>
       </c>
       <c r="F254" s="41" t="str">
-        <f>$E$242&amp;"詳細"</f>
-        <v>URL設計詳細</v>
+        <f>$E$248&amp;"方針"</f>
+        <v>URL設計方針</v>
       </c>
     </row>
     <row r="255" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D255" s="42"/>
-      <c r="F255" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="G255" s="29"/>
-      <c r="H255" s="29"/>
+      <c r="F255" s="41" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="256" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D256" s="42"/>
-      <c r="F256" s="29"/>
-      <c r="G256" s="29"/>
-      <c r="H256" s="29"/>
-    </row>
-    <row r="257" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F256" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="G256" s="53"/>
+      <c r="H256" s="53"/>
+      <c r="I256" s="53"/>
+      <c r="J256" s="53"/>
+      <c r="K256" s="54"/>
+      <c r="L256" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="M256" s="53"/>
+      <c r="N256" s="53"/>
+      <c r="O256" s="53"/>
+      <c r="P256" s="53"/>
+      <c r="Q256" s="53"/>
+      <c r="R256" s="53"/>
+      <c r="S256" s="53"/>
+      <c r="T256" s="53"/>
+      <c r="U256" s="53"/>
+      <c r="V256" s="53"/>
+      <c r="W256" s="53"/>
+      <c r="X256" s="53"/>
+      <c r="Y256" s="53"/>
+      <c r="Z256" s="53"/>
+      <c r="AA256" s="53"/>
+      <c r="AB256" s="53"/>
+      <c r="AC256" s="53"/>
+      <c r="AD256" s="53"/>
+      <c r="AE256" s="53"/>
+      <c r="AF256" s="53"/>
+      <c r="AG256" s="54"/>
+    </row>
+    <row r="257" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D257" s="42"/>
-      <c r="F257" s="29"/>
-      <c r="G257" s="29"/>
-      <c r="H257" s="29"/>
-    </row>
-    <row r="258" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F257" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="G257" s="99"/>
+      <c r="H257" s="99"/>
+      <c r="I257" s="99"/>
+      <c r="J257" s="99"/>
+      <c r="K257" s="101"/>
+      <c r="L257" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="M257" s="99"/>
+      <c r="N257" s="99"/>
+      <c r="O257" s="99"/>
+      <c r="P257" s="99"/>
+      <c r="Q257" s="99"/>
+      <c r="R257" s="99"/>
+      <c r="S257" s="99"/>
+      <c r="T257" s="99"/>
+      <c r="U257" s="99"/>
+      <c r="V257" s="99"/>
+      <c r="W257" s="99"/>
+      <c r="X257" s="99"/>
+      <c r="Y257" s="99"/>
+      <c r="Z257" s="99"/>
+      <c r="AA257" s="99"/>
+      <c r="AB257" s="99"/>
+      <c r="AC257" s="99"/>
+      <c r="AD257" s="99"/>
+      <c r="AE257" s="99"/>
+      <c r="AF257" s="99"/>
+      <c r="AG257" s="101"/>
+    </row>
+    <row r="258" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D258" s="42"/>
-      <c r="F258" s="29"/>
-      <c r="G258" s="29"/>
-      <c r="H258" s="29"/>
-    </row>
-    <row r="259" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F258" s="81"/>
+      <c r="G258" s="102"/>
+      <c r="H258" s="102"/>
+      <c r="I258" s="102"/>
+      <c r="J258" s="102"/>
+      <c r="K258" s="103"/>
+      <c r="L258" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="M258" s="102"/>
+      <c r="N258" s="102"/>
+      <c r="O258" s="102"/>
+      <c r="P258" s="102"/>
+      <c r="Q258" s="102"/>
+      <c r="R258" s="102"/>
+      <c r="S258" s="102"/>
+      <c r="T258" s="102"/>
+      <c r="U258" s="102"/>
+      <c r="V258" s="102"/>
+      <c r="W258" s="102"/>
+      <c r="X258" s="102"/>
+      <c r="Y258" s="102"/>
+      <c r="Z258" s="102"/>
+      <c r="AA258" s="102"/>
+      <c r="AB258" s="102"/>
+      <c r="AC258" s="102"/>
+      <c r="AD258" s="102"/>
+      <c r="AE258" s="102"/>
+      <c r="AF258" s="102"/>
+      <c r="AG258" s="103"/>
+    </row>
+    <row r="259" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D259" s="42"/>
-      <c r="F259" s="29"/>
-      <c r="G259" s="29"/>
-      <c r="H259" s="29"/>
-    </row>
-    <row r="260" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="260" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D260" s="42"/>
-      <c r="F260" s="29"/>
-      <c r="G260" s="29"/>
-      <c r="H260" s="29"/>
-    </row>
-    <row r="261" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E260" s="42" t="str">
+        <f>$D$248&amp;"3."</f>
+        <v>3.1.10.3.</v>
+      </c>
+      <c r="F260" s="41" t="str">
+        <f>$E$248&amp;"詳細"</f>
+        <v>URL設計詳細</v>
+      </c>
+    </row>
+    <row r="261" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D261" s="42"/>
-      <c r="F261" s="29"/>
+      <c r="F261" s="29" t="s">
+        <v>274</v>
+      </c>
       <c r="G261" s="29"/>
       <c r="H261" s="29"/>
     </row>
-    <row r="262" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D262" s="42"/>
-    </row>
-    <row r="263" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F262" s="29"/>
+      <c r="G262" s="29"/>
+      <c r="H262" s="29"/>
+    </row>
+    <row r="263" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D263" s="42"/>
-    </row>
-    <row r="264" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F263" s="29"/>
+      <c r="G263" s="29"/>
+      <c r="H263" s="29"/>
+    </row>
+    <row r="264" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D264" s="42"/>
-    </row>
-    <row r="265" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E265" s="42"/>
-      <c r="F265" s="87"/>
-      <c r="G265" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="H265" s="53"/>
-      <c r="I265" s="53"/>
-      <c r="J265" s="53"/>
-      <c r="K265" s="53"/>
-      <c r="L265" s="54"/>
-      <c r="M265" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="N265" s="53"/>
-      <c r="O265" s="53"/>
-      <c r="P265" s="53"/>
-      <c r="Q265" s="53"/>
-      <c r="R265" s="53"/>
-      <c r="S265" s="53"/>
-      <c r="T265" s="53"/>
-      <c r="U265" s="53"/>
-      <c r="V265" s="53"/>
-      <c r="W265" s="53"/>
-      <c r="X265" s="53"/>
-      <c r="Y265" s="53"/>
-      <c r="Z265" s="53"/>
-      <c r="AA265" s="53"/>
-      <c r="AB265" s="53"/>
-      <c r="AC265" s="53"/>
-      <c r="AD265" s="53"/>
-      <c r="AE265" s="53"/>
-      <c r="AF265" s="54"/>
-    </row>
-    <row r="266" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E266" s="42"/>
-      <c r="F266" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="G266" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="H266" s="49"/>
-      <c r="I266" s="49"/>
-      <c r="J266" s="49"/>
-      <c r="K266" s="49"/>
-      <c r="L266" s="50"/>
-      <c r="M266" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="N266" s="49"/>
-      <c r="O266" s="49"/>
-      <c r="P266" s="49"/>
-      <c r="Q266" s="49"/>
-      <c r="R266" s="49"/>
-      <c r="S266" s="49"/>
-      <c r="T266" s="49"/>
-      <c r="U266" s="49"/>
-      <c r="V266" s="49"/>
-      <c r="W266" s="49"/>
-      <c r="X266" s="49"/>
-      <c r="Y266" s="49"/>
-      <c r="Z266" s="49"/>
-      <c r="AA266" s="49"/>
-      <c r="AB266" s="49"/>
-      <c r="AC266" s="49"/>
-      <c r="AD266" s="49"/>
-      <c r="AE266" s="49"/>
-      <c r="AF266" s="50"/>
-    </row>
-    <row r="267" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E267" s="42"/>
-      <c r="F267" s="84"/>
-      <c r="G267" s="46"/>
-      <c r="H267" s="47"/>
-      <c r="I267" s="47"/>
-      <c r="J267" s="47"/>
-      <c r="K267" s="47"/>
-      <c r="L267" s="51"/>
-      <c r="M267" s="46"/>
-      <c r="N267" s="47"/>
-      <c r="O267" s="47"/>
-      <c r="P267" s="47"/>
-      <c r="Q267" s="47"/>
-      <c r="R267" s="47"/>
-      <c r="S267" s="47"/>
-      <c r="T267" s="47"/>
-      <c r="U267" s="47"/>
-      <c r="V267" s="47"/>
-      <c r="W267" s="47"/>
-      <c r="X267" s="47"/>
-      <c r="Y267" s="47"/>
-      <c r="Z267" s="47"/>
-      <c r="AA267" s="47"/>
-      <c r="AB267" s="47"/>
-      <c r="AC267" s="47"/>
-      <c r="AD267" s="47"/>
-      <c r="AE267" s="47"/>
-      <c r="AF267" s="51"/>
-    </row>
-    <row r="268" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E268" s="42"/>
-      <c r="F268" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="G268" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="H268" s="49"/>
-      <c r="I268" s="49"/>
-      <c r="J268" s="49"/>
-      <c r="K268" s="49"/>
-      <c r="L268" s="50"/>
-      <c r="M268" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="N268" s="49"/>
-      <c r="O268" s="49"/>
-      <c r="P268" s="49"/>
-      <c r="Q268" s="49"/>
-      <c r="R268" s="49"/>
-      <c r="S268" s="49"/>
-      <c r="T268" s="49"/>
-      <c r="U268" s="49"/>
-      <c r="V268" s="49"/>
-      <c r="W268" s="49"/>
-      <c r="X268" s="49"/>
-      <c r="Y268" s="49"/>
-      <c r="Z268" s="49"/>
-      <c r="AA268" s="49"/>
-      <c r="AB268" s="49"/>
-      <c r="AC268" s="49"/>
-      <c r="AD268" s="49"/>
-      <c r="AE268" s="49"/>
-      <c r="AF268" s="50"/>
-    </row>
-    <row r="269" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E269" s="42"/>
-      <c r="F269" s="84"/>
-      <c r="G269" s="46"/>
-      <c r="H269" s="47"/>
-      <c r="I269" s="47"/>
-      <c r="J269" s="47"/>
-      <c r="K269" s="47"/>
-      <c r="L269" s="51"/>
-      <c r="M269" s="46"/>
-      <c r="N269" s="47"/>
-      <c r="O269" s="47"/>
-      <c r="P269" s="47"/>
-      <c r="Q269" s="47"/>
-      <c r="R269" s="47"/>
-      <c r="S269" s="47"/>
-      <c r="T269" s="47"/>
-      <c r="U269" s="47"/>
-      <c r="V269" s="47"/>
-      <c r="W269" s="47"/>
-      <c r="X269" s="47"/>
-      <c r="Y269" s="47"/>
-      <c r="Z269" s="47"/>
-      <c r="AA269" s="47"/>
-      <c r="AB269" s="47"/>
-      <c r="AC269" s="47"/>
-      <c r="AD269" s="47"/>
-      <c r="AE269" s="47"/>
-      <c r="AF269" s="51"/>
-    </row>
-    <row r="270" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E270" s="42"/>
-      <c r="F270" s="86" t="s">
+      <c r="F264" s="29"/>
+      <c r="G264" s="29"/>
+      <c r="H264" s="29"/>
+    </row>
+    <row r="265" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D265" s="42"/>
+      <c r="F265" s="29"/>
+      <c r="G265" s="29"/>
+      <c r="H265" s="29"/>
+    </row>
+    <row r="266" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D266" s="42"/>
+      <c r="F266" s="29"/>
+      <c r="G266" s="29"/>
+      <c r="H266" s="29"/>
+    </row>
+    <row r="267" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D267" s="42"/>
+      <c r="F267" s="29"/>
+      <c r="G267" s="29"/>
+      <c r="H267" s="29"/>
+    </row>
+    <row r="268" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D268" s="42"/>
+    </row>
+    <row r="269" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D269" s="42"/>
+    </row>
+    <row r="270" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D270" s="42"/>
+    </row>
+    <row r="271" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E271" s="42"/>
+      <c r="F271" s="87"/>
+      <c r="G271" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="G270" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="H270" s="49"/>
-      <c r="I270" s="49"/>
-      <c r="J270" s="49"/>
-      <c r="K270" s="49"/>
-      <c r="L270" s="50"/>
-      <c r="M270" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="N270" s="49"/>
-      <c r="O270" s="49"/>
-      <c r="P270" s="49"/>
-      <c r="Q270" s="49"/>
-      <c r="R270" s="49"/>
-      <c r="S270" s="49"/>
-      <c r="T270" s="49"/>
-      <c r="U270" s="49"/>
-      <c r="V270" s="49"/>
-      <c r="W270" s="49"/>
-      <c r="X270" s="49"/>
-      <c r="Y270" s="49"/>
-      <c r="Z270" s="49"/>
-      <c r="AA270" s="49"/>
-      <c r="AB270" s="49"/>
-      <c r="AC270" s="49"/>
-      <c r="AD270" s="49"/>
-      <c r="AE270" s="49"/>
-      <c r="AF270" s="50"/>
-    </row>
-    <row r="271" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E271" s="42"/>
-      <c r="F271" s="84"/>
-      <c r="G271" s="46"/>
-      <c r="H271" s="47"/>
-      <c r="I271" s="47"/>
-      <c r="J271" s="47"/>
-      <c r="K271" s="47"/>
-      <c r="L271" s="51"/>
-      <c r="M271" s="46"/>
-      <c r="N271" s="47"/>
-      <c r="O271" s="47"/>
-      <c r="P271" s="47"/>
-      <c r="Q271" s="47"/>
-      <c r="R271" s="47"/>
-      <c r="S271" s="47"/>
-      <c r="T271" s="47"/>
-      <c r="U271" s="47"/>
-      <c r="V271" s="47"/>
-      <c r="W271" s="47"/>
-      <c r="X271" s="47"/>
-      <c r="Y271" s="47"/>
-      <c r="Z271" s="47"/>
-      <c r="AA271" s="47"/>
-      <c r="AB271" s="47"/>
-      <c r="AC271" s="47"/>
-      <c r="AD271" s="47"/>
-      <c r="AE271" s="47"/>
-      <c r="AF271" s="51"/>
-    </row>
-    <row r="272" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H271" s="53"/>
+      <c r="I271" s="53"/>
+      <c r="J271" s="53"/>
+      <c r="K271" s="53"/>
+      <c r="L271" s="54"/>
+      <c r="M271" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="N271" s="53"/>
+      <c r="O271" s="53"/>
+      <c r="P271" s="53"/>
+      <c r="Q271" s="53"/>
+      <c r="R271" s="53"/>
+      <c r="S271" s="53"/>
+      <c r="T271" s="53"/>
+      <c r="U271" s="53"/>
+      <c r="V271" s="53"/>
+      <c r="W271" s="53"/>
+      <c r="X271" s="53"/>
+      <c r="Y271" s="53"/>
+      <c r="Z271" s="53"/>
+      <c r="AA271" s="53"/>
+      <c r="AB271" s="53"/>
+      <c r="AC271" s="53"/>
+      <c r="AD271" s="53"/>
+      <c r="AE271" s="53"/>
+      <c r="AF271" s="54"/>
+    </row>
+    <row r="272" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E272" s="42"/>
       <c r="F272" s="86" t="s">
         <v>177</v>
       </c>
       <c r="G272" s="48" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="H272" s="49"/>
       <c r="I272" s="49"/>
@@ -11673,7 +11786,7 @@
       <c r="K272" s="49"/>
       <c r="L272" s="50"/>
       <c r="M272" s="48" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N272" s="49"/>
       <c r="O272" s="49"/>
@@ -11695,896 +11808,1094 @@
       <c r="AE272" s="49"/>
       <c r="AF272" s="50"/>
     </row>
-    <row r="273" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E273" s="42"/>
-      <c r="F273" s="89"/>
-      <c r="G273" s="43"/>
-      <c r="H273" s="44"/>
-      <c r="I273" s="44"/>
-      <c r="J273" s="44"/>
-      <c r="K273" s="44"/>
-      <c r="L273" s="45"/>
-      <c r="M273" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="N273" s="44"/>
-      <c r="O273" s="44"/>
-      <c r="P273" s="44"/>
-      <c r="Q273" s="44"/>
-      <c r="R273" s="44"/>
-      <c r="S273" s="44"/>
-      <c r="T273" s="44"/>
-      <c r="U273" s="44"/>
-      <c r="V273" s="44"/>
-      <c r="W273" s="44"/>
-      <c r="X273" s="44"/>
-      <c r="Y273" s="44"/>
-      <c r="Z273" s="44"/>
-      <c r="AA273" s="44"/>
-      <c r="AB273" s="44"/>
-      <c r="AC273" s="44"/>
-      <c r="AD273" s="44"/>
-      <c r="AE273" s="44"/>
-      <c r="AF273" s="45"/>
-    </row>
-    <row r="274" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F273" s="84"/>
+      <c r="G273" s="46"/>
+      <c r="H273" s="47"/>
+      <c r="I273" s="47"/>
+      <c r="J273" s="47"/>
+      <c r="K273" s="47"/>
+      <c r="L273" s="51"/>
+      <c r="M273" s="46"/>
+      <c r="N273" s="47"/>
+      <c r="O273" s="47"/>
+      <c r="P273" s="47"/>
+      <c r="Q273" s="47"/>
+      <c r="R273" s="47"/>
+      <c r="S273" s="47"/>
+      <c r="T273" s="47"/>
+      <c r="U273" s="47"/>
+      <c r="V273" s="47"/>
+      <c r="W273" s="47"/>
+      <c r="X273" s="47"/>
+      <c r="Y273" s="47"/>
+      <c r="Z273" s="47"/>
+      <c r="AA273" s="47"/>
+      <c r="AB273" s="47"/>
+      <c r="AC273" s="47"/>
+      <c r="AD273" s="47"/>
+      <c r="AE273" s="47"/>
+      <c r="AF273" s="51"/>
+    </row>
+    <row r="274" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E274" s="42"/>
-      <c r="F274" s="84"/>
-      <c r="G274" s="46"/>
-      <c r="H274" s="47"/>
-      <c r="I274" s="47"/>
-      <c r="J274" s="47"/>
-      <c r="K274" s="47"/>
-      <c r="L274" s="51"/>
-      <c r="M274" s="46"/>
-      <c r="N274" s="47"/>
-      <c r="O274" s="47"/>
-      <c r="P274" s="47"/>
-      <c r="Q274" s="47"/>
-      <c r="R274" s="47"/>
-      <c r="S274" s="47"/>
-      <c r="T274" s="47"/>
-      <c r="U274" s="47"/>
-      <c r="V274" s="47"/>
-      <c r="W274" s="47"/>
-      <c r="X274" s="47"/>
-      <c r="Y274" s="47"/>
-      <c r="Z274" s="47"/>
-      <c r="AA274" s="47"/>
-      <c r="AB274" s="47"/>
-      <c r="AC274" s="47"/>
-      <c r="AD274" s="47"/>
-      <c r="AE274" s="47"/>
-      <c r="AF274" s="51"/>
-    </row>
-    <row r="275" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F274" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="G274" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="H274" s="49"/>
+      <c r="I274" s="49"/>
+      <c r="J274" s="49"/>
+      <c r="K274" s="49"/>
+      <c r="L274" s="50"/>
+      <c r="M274" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="N274" s="49"/>
+      <c r="O274" s="49"/>
+      <c r="P274" s="49"/>
+      <c r="Q274" s="49"/>
+      <c r="R274" s="49"/>
+      <c r="S274" s="49"/>
+      <c r="T274" s="49"/>
+      <c r="U274" s="49"/>
+      <c r="V274" s="49"/>
+      <c r="W274" s="49"/>
+      <c r="X274" s="49"/>
+      <c r="Y274" s="49"/>
+      <c r="Z274" s="49"/>
+      <c r="AA274" s="49"/>
+      <c r="AB274" s="49"/>
+      <c r="AC274" s="49"/>
+      <c r="AD274" s="49"/>
+      <c r="AE274" s="49"/>
+      <c r="AF274" s="50"/>
+    </row>
+    <row r="275" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E275" s="42"/>
-      <c r="F275" s="85" t="s">
-        <v>188</v>
-      </c>
-      <c r="G275" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="H275" s="49"/>
-      <c r="I275" s="49"/>
-      <c r="J275" s="49"/>
-      <c r="K275" s="49"/>
-      <c r="L275" s="50"/>
-      <c r="M275" s="48" t="s">
+      <c r="F275" s="84"/>
+      <c r="G275" s="46"/>
+      <c r="H275" s="47"/>
+      <c r="I275" s="47"/>
+      <c r="J275" s="47"/>
+      <c r="K275" s="47"/>
+      <c r="L275" s="51"/>
+      <c r="M275" s="46"/>
+      <c r="N275" s="47"/>
+      <c r="O275" s="47"/>
+      <c r="P275" s="47"/>
+      <c r="Q275" s="47"/>
+      <c r="R275" s="47"/>
+      <c r="S275" s="47"/>
+      <c r="T275" s="47"/>
+      <c r="U275" s="47"/>
+      <c r="V275" s="47"/>
+      <c r="W275" s="47"/>
+      <c r="X275" s="47"/>
+      <c r="Y275" s="47"/>
+      <c r="Z275" s="47"/>
+      <c r="AA275" s="47"/>
+      <c r="AB275" s="47"/>
+      <c r="AC275" s="47"/>
+      <c r="AD275" s="47"/>
+      <c r="AE275" s="47"/>
+      <c r="AF275" s="51"/>
+    </row>
+    <row r="276" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E276" s="42"/>
+      <c r="F276" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="G276" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="H276" s="49"/>
+      <c r="I276" s="49"/>
+      <c r="J276" s="49"/>
+      <c r="K276" s="49"/>
+      <c r="L276" s="50"/>
+      <c r="M276" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N276" s="49"/>
+      <c r="O276" s="49"/>
+      <c r="P276" s="49"/>
+      <c r="Q276" s="49"/>
+      <c r="R276" s="49"/>
+      <c r="S276" s="49"/>
+      <c r="T276" s="49"/>
+      <c r="U276" s="49"/>
+      <c r="V276" s="49"/>
+      <c r="W276" s="49"/>
+      <c r="X276" s="49"/>
+      <c r="Y276" s="49"/>
+      <c r="Z276" s="49"/>
+      <c r="AA276" s="49"/>
+      <c r="AB276" s="49"/>
+      <c r="AC276" s="49"/>
+      <c r="AD276" s="49"/>
+      <c r="AE276" s="49"/>
+      <c r="AF276" s="50"/>
+    </row>
+    <row r="277" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E277" s="42"/>
+      <c r="F277" s="84"/>
+      <c r="G277" s="46"/>
+      <c r="H277" s="47"/>
+      <c r="I277" s="47"/>
+      <c r="J277" s="47"/>
+      <c r="K277" s="47"/>
+      <c r="L277" s="51"/>
+      <c r="M277" s="46"/>
+      <c r="N277" s="47"/>
+      <c r="O277" s="47"/>
+      <c r="P277" s="47"/>
+      <c r="Q277" s="47"/>
+      <c r="R277" s="47"/>
+      <c r="S277" s="47"/>
+      <c r="T277" s="47"/>
+      <c r="U277" s="47"/>
+      <c r="V277" s="47"/>
+      <c r="W277" s="47"/>
+      <c r="X277" s="47"/>
+      <c r="Y277" s="47"/>
+      <c r="Z277" s="47"/>
+      <c r="AA277" s="47"/>
+      <c r="AB277" s="47"/>
+      <c r="AC277" s="47"/>
+      <c r="AD277" s="47"/>
+      <c r="AE277" s="47"/>
+      <c r="AF277" s="51"/>
+    </row>
+    <row r="278" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E278" s="42"/>
+      <c r="F278" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="G278" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="N275" s="49"/>
-      <c r="O275" s="49"/>
-      <c r="P275" s="49"/>
-      <c r="Q275" s="49"/>
-      <c r="R275" s="49"/>
-      <c r="S275" s="49"/>
-      <c r="T275" s="49"/>
-      <c r="U275" s="49"/>
-      <c r="V275" s="49"/>
-      <c r="W275" s="49"/>
-      <c r="X275" s="49"/>
-      <c r="Y275" s="49"/>
-      <c r="Z275" s="49"/>
-      <c r="AA275" s="49"/>
-      <c r="AB275" s="49"/>
-      <c r="AC275" s="49"/>
-      <c r="AD275" s="49"/>
-      <c r="AE275" s="49"/>
-      <c r="AF275" s="50"/>
-    </row>
-    <row r="276" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E276" s="66"/>
-      <c r="F276" s="88"/>
-      <c r="G276" s="81"/>
-      <c r="H276" s="47"/>
-      <c r="I276" s="47"/>
-      <c r="J276" s="47"/>
-      <c r="K276" s="47"/>
-      <c r="L276" s="51"/>
-      <c r="M276" s="46"/>
-      <c r="N276" s="47"/>
-      <c r="O276" s="47"/>
-      <c r="P276" s="47"/>
-      <c r="Q276" s="47"/>
-      <c r="R276" s="47"/>
-      <c r="S276" s="47"/>
-      <c r="T276" s="47"/>
-      <c r="U276" s="47"/>
-      <c r="V276" s="47"/>
-      <c r="W276" s="47"/>
-      <c r="X276" s="47"/>
-      <c r="Y276" s="47"/>
-      <c r="Z276" s="47"/>
-      <c r="AA276" s="47"/>
-      <c r="AB276" s="47"/>
-      <c r="AC276" s="47"/>
-      <c r="AD276" s="47"/>
-      <c r="AE276" s="47"/>
-      <c r="AF276" s="51"/>
-    </row>
-    <row r="277" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D277" s="42"/>
-      <c r="E277" s="36"/>
-      <c r="F277" s="36"/>
-      <c r="G277" s="36"/>
-    </row>
-    <row r="278" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D278" s="42"/>
-      <c r="E278" s="36"/>
-      <c r="F278" s="36" t="s">
+      <c r="H278" s="49"/>
+      <c r="I278" s="49"/>
+      <c r="J278" s="49"/>
+      <c r="K278" s="49"/>
+      <c r="L278" s="50"/>
+      <c r="M278" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="G278" s="36"/>
-    </row>
-    <row r="279" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D279" s="42"/>
-      <c r="E279" s="36"/>
-      <c r="F279" s="36" t="s">
+      <c r="N278" s="49"/>
+      <c r="O278" s="49"/>
+      <c r="P278" s="49"/>
+      <c r="Q278" s="49"/>
+      <c r="R278" s="49"/>
+      <c r="S278" s="49"/>
+      <c r="T278" s="49"/>
+      <c r="U278" s="49"/>
+      <c r="V278" s="49"/>
+      <c r="W278" s="49"/>
+      <c r="X278" s="49"/>
+      <c r="Y278" s="49"/>
+      <c r="Z278" s="49"/>
+      <c r="AA278" s="49"/>
+      <c r="AB278" s="49"/>
+      <c r="AC278" s="49"/>
+      <c r="AD278" s="49"/>
+      <c r="AE278" s="49"/>
+      <c r="AF278" s="50"/>
+    </row>
+    <row r="279" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E279" s="42"/>
+      <c r="F279" s="89"/>
+      <c r="G279" s="43"/>
+      <c r="H279" s="44"/>
+      <c r="I279" s="44"/>
+      <c r="J279" s="44"/>
+      <c r="K279" s="44"/>
+      <c r="L279" s="45"/>
+      <c r="M279" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="G279" s="36"/>
-    </row>
-    <row r="280" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D280" s="42"/>
-    </row>
-    <row r="281" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D283" s="28" t="str">
+      <c r="N279" s="44"/>
+      <c r="O279" s="44"/>
+      <c r="P279" s="44"/>
+      <c r="Q279" s="44"/>
+      <c r="R279" s="44"/>
+      <c r="S279" s="44"/>
+      <c r="T279" s="44"/>
+      <c r="U279" s="44"/>
+      <c r="V279" s="44"/>
+      <c r="W279" s="44"/>
+      <c r="X279" s="44"/>
+      <c r="Y279" s="44"/>
+      <c r="Z279" s="44"/>
+      <c r="AA279" s="44"/>
+      <c r="AB279" s="44"/>
+      <c r="AC279" s="44"/>
+      <c r="AD279" s="44"/>
+      <c r="AE279" s="44"/>
+      <c r="AF279" s="45"/>
+    </row>
+    <row r="280" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E280" s="42"/>
+      <c r="F280" s="84"/>
+      <c r="G280" s="46"/>
+      <c r="H280" s="47"/>
+      <c r="I280" s="47"/>
+      <c r="J280" s="47"/>
+      <c r="K280" s="47"/>
+      <c r="L280" s="51"/>
+      <c r="M280" s="46"/>
+      <c r="N280" s="47"/>
+      <c r="O280" s="47"/>
+      <c r="P280" s="47"/>
+      <c r="Q280" s="47"/>
+      <c r="R280" s="47"/>
+      <c r="S280" s="47"/>
+      <c r="T280" s="47"/>
+      <c r="U280" s="47"/>
+      <c r="V280" s="47"/>
+      <c r="W280" s="47"/>
+      <c r="X280" s="47"/>
+      <c r="Y280" s="47"/>
+      <c r="Z280" s="47"/>
+      <c r="AA280" s="47"/>
+      <c r="AB280" s="47"/>
+      <c r="AC280" s="47"/>
+      <c r="AD280" s="47"/>
+      <c r="AE280" s="47"/>
+      <c r="AF280" s="51"/>
+    </row>
+    <row r="281" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E281" s="42"/>
+      <c r="F281" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="G281" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="H281" s="49"/>
+      <c r="I281" s="49"/>
+      <c r="J281" s="49"/>
+      <c r="K281" s="49"/>
+      <c r="L281" s="50"/>
+      <c r="M281" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="N281" s="49"/>
+      <c r="O281" s="49"/>
+      <c r="P281" s="49"/>
+      <c r="Q281" s="49"/>
+      <c r="R281" s="49"/>
+      <c r="S281" s="49"/>
+      <c r="T281" s="49"/>
+      <c r="U281" s="49"/>
+      <c r="V281" s="49"/>
+      <c r="W281" s="49"/>
+      <c r="X281" s="49"/>
+      <c r="Y281" s="49"/>
+      <c r="Z281" s="49"/>
+      <c r="AA281" s="49"/>
+      <c r="AB281" s="49"/>
+      <c r="AC281" s="49"/>
+      <c r="AD281" s="49"/>
+      <c r="AE281" s="49"/>
+      <c r="AF281" s="50"/>
+    </row>
+    <row r="282" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E282" s="66"/>
+      <c r="F282" s="88"/>
+      <c r="G282" s="81"/>
+      <c r="H282" s="47"/>
+      <c r="I282" s="47"/>
+      <c r="J282" s="47"/>
+      <c r="K282" s="47"/>
+      <c r="L282" s="51"/>
+      <c r="M282" s="46"/>
+      <c r="N282" s="47"/>
+      <c r="O282" s="47"/>
+      <c r="P282" s="47"/>
+      <c r="Q282" s="47"/>
+      <c r="R282" s="47"/>
+      <c r="S282" s="47"/>
+      <c r="T282" s="47"/>
+      <c r="U282" s="47"/>
+      <c r="V282" s="47"/>
+      <c r="W282" s="47"/>
+      <c r="X282" s="47"/>
+      <c r="Y282" s="47"/>
+      <c r="Z282" s="47"/>
+      <c r="AA282" s="47"/>
+      <c r="AB282" s="47"/>
+      <c r="AC282" s="47"/>
+      <c r="AD282" s="47"/>
+      <c r="AE282" s="47"/>
+      <c r="AF282" s="51"/>
+    </row>
+    <row r="283" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D283" s="42"/>
+      <c r="E283" s="36"/>
+      <c r="F283" s="36"/>
+      <c r="G283" s="36"/>
+    </row>
+    <row r="284" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D284" s="42"/>
+      <c r="E284" s="36"/>
+      <c r="F284" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="G284" s="36"/>
+    </row>
+    <row r="285" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D285" s="42"/>
+      <c r="E285" s="36"/>
+      <c r="F285" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G285" s="36"/>
+    </row>
+    <row r="286" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D286" s="42"/>
+    </row>
+    <row r="287" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D289" s="28" t="str">
         <f>$C$7&amp;"11."</f>
         <v>3.1.11.</v>
       </c>
-      <c r="E283" s="4" t="s">
+      <c r="E289" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="284" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D284" s="28"/>
-      <c r="E284" s="28" t="str">
-        <f>D283&amp;"1."</f>
+    <row r="290" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D290" s="28"/>
+      <c r="E290" s="28" t="str">
+        <f>D289&amp;"1."</f>
         <v>3.1.11.1.</v>
       </c>
-      <c r="F284" s="4" t="str">
-        <f>E283&amp;"機能概要"</f>
+      <c r="F290" s="4" t="str">
+        <f>E289&amp;"機能概要"</f>
         <v>コンテンツ更新機能概要</v>
       </c>
     </row>
-    <row r="285" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D285" s="42"/>
-      <c r="E285" s="42"/>
-      <c r="F285" s="36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="286" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F286" s="36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="287" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F287" s="36" t="s">
+    <row r="291" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D291" s="42"/>
+      <c r="E291" s="42"/>
+      <c r="F291" s="36" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="288" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F288" s="19"/>
-      <c r="G288" s="19"/>
-      <c r="H288" s="19"/>
-      <c r="I288" s="19"/>
-      <c r="J288" s="19"/>
-      <c r="K288" s="19"/>
-      <c r="L288" s="19"/>
-      <c r="M288" s="19"/>
-      <c r="N288" s="19"/>
-      <c r="O288" s="19"/>
-      <c r="P288" s="19"/>
-      <c r="Q288" s="19"/>
-      <c r="R288" s="19"/>
-      <c r="S288" s="19"/>
-      <c r="T288" s="19"/>
-      <c r="U288" s="19"/>
-      <c r="V288" s="19"/>
-      <c r="W288" s="19"/>
-      <c r="X288" s="19"/>
-      <c r="Y288" s="19"/>
-      <c r="Z288" s="19"/>
-      <c r="AA288" s="19"/>
-      <c r="AB288" s="19"/>
-      <c r="AC288" s="19"/>
-      <c r="AD288" s="19"/>
-      <c r="AE288" s="19"/>
-      <c r="AF288" s="19"/>
-      <c r="AG288" s="19"/>
-      <c r="AH288" s="19"/>
-    </row>
-    <row r="289" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E289" s="42" t="str">
-        <f>D283&amp;"2."</f>
+    <row r="292" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F292" s="36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="293" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F293" s="36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="294" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F294" s="19"/>
+      <c r="G294" s="19"/>
+      <c r="H294" s="19"/>
+      <c r="I294" s="19"/>
+      <c r="J294" s="19"/>
+      <c r="K294" s="19"/>
+      <c r="L294" s="19"/>
+      <c r="M294" s="19"/>
+      <c r="N294" s="19"/>
+      <c r="O294" s="19"/>
+      <c r="P294" s="19"/>
+      <c r="Q294" s="19"/>
+      <c r="R294" s="19"/>
+      <c r="S294" s="19"/>
+      <c r="T294" s="19"/>
+      <c r="U294" s="19"/>
+      <c r="V294" s="19"/>
+      <c r="W294" s="19"/>
+      <c r="X294" s="19"/>
+      <c r="Y294" s="19"/>
+      <c r="Z294" s="19"/>
+      <c r="AA294" s="19"/>
+      <c r="AB294" s="19"/>
+      <c r="AC294" s="19"/>
+      <c r="AD294" s="19"/>
+      <c r="AE294" s="19"/>
+      <c r="AF294" s="19"/>
+      <c r="AG294" s="19"/>
+      <c r="AH294" s="19"/>
+    </row>
+    <row r="295" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E295" s="42" t="str">
+        <f>D289&amp;"2."</f>
         <v>3.1.11.2.</v>
       </c>
-      <c r="F289" s="41" t="str">
-        <f>E283&amp;"方法"</f>
+      <c r="F295" s="41" t="str">
+        <f>E289&amp;"方法"</f>
         <v>コンテンツ更新方法</v>
       </c>
-      <c r="G289" s="44"/>
-      <c r="H289" s="44"/>
-      <c r="I289" s="44"/>
-      <c r="J289" s="44"/>
-      <c r="K289" s="44"/>
-      <c r="L289" s="44"/>
-      <c r="M289" s="44"/>
-      <c r="N289" s="44"/>
-      <c r="O289" s="44"/>
-      <c r="P289" s="44"/>
-      <c r="Q289" s="44"/>
-      <c r="R289" s="44"/>
-      <c r="S289" s="44"/>
-      <c r="T289" s="44"/>
-      <c r="U289" s="44"/>
-      <c r="V289" s="44"/>
-      <c r="W289" s="44"/>
-      <c r="X289" s="44"/>
-      <c r="Y289" s="44"/>
-      <c r="Z289" s="44"/>
-      <c r="AA289" s="44"/>
-      <c r="AB289" s="44"/>
-      <c r="AC289" s="44"/>
-      <c r="AD289" s="44"/>
-      <c r="AE289" s="44"/>
-      <c r="AF289" s="44"/>
-      <c r="AG289" s="44"/>
-      <c r="AH289" s="44"/>
-    </row>
-    <row r="290" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F290" s="41" t="s">
+      <c r="G295" s="44"/>
+      <c r="H295" s="44"/>
+      <c r="I295" s="44"/>
+      <c r="J295" s="44"/>
+      <c r="K295" s="44"/>
+      <c r="L295" s="44"/>
+      <c r="M295" s="44"/>
+      <c r="N295" s="44"/>
+      <c r="O295" s="44"/>
+      <c r="P295" s="44"/>
+      <c r="Q295" s="44"/>
+      <c r="R295" s="44"/>
+      <c r="S295" s="44"/>
+      <c r="T295" s="44"/>
+      <c r="U295" s="44"/>
+      <c r="V295" s="44"/>
+      <c r="W295" s="44"/>
+      <c r="X295" s="44"/>
+      <c r="Y295" s="44"/>
+      <c r="Z295" s="44"/>
+      <c r="AA295" s="44"/>
+      <c r="AB295" s="44"/>
+      <c r="AC295" s="44"/>
+      <c r="AD295" s="44"/>
+      <c r="AE295" s="44"/>
+      <c r="AF295" s="44"/>
+      <c r="AG295" s="44"/>
+      <c r="AH295" s="44"/>
+    </row>
+    <row r="296" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F296" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F291" s="52" t="s">
+    <row r="297" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F297" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="G291" s="53"/>
-      <c r="H291" s="53"/>
-      <c r="I291" s="53"/>
-      <c r="J291" s="53"/>
-      <c r="K291" s="54"/>
-      <c r="L291" s="53" t="s">
+      <c r="G297" s="53"/>
+      <c r="H297" s="53"/>
+      <c r="I297" s="53"/>
+      <c r="J297" s="53"/>
+      <c r="K297" s="54"/>
+      <c r="L297" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="M291" s="53"/>
-      <c r="N291" s="53"/>
-      <c r="O291" s="53"/>
-      <c r="P291" s="53"/>
-      <c r="Q291" s="53"/>
-      <c r="R291" s="54"/>
-      <c r="S291" s="53" t="s">
+      <c r="M297" s="53"/>
+      <c r="N297" s="53"/>
+      <c r="O297" s="53"/>
+      <c r="P297" s="53"/>
+      <c r="Q297" s="53"/>
+      <c r="R297" s="54"/>
+      <c r="S297" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="T291" s="53"/>
-      <c r="U291" s="53"/>
-      <c r="V291" s="53"/>
-      <c r="W291" s="53"/>
-      <c r="X291" s="53"/>
-      <c r="Y291" s="53"/>
-      <c r="Z291" s="53"/>
-      <c r="AA291" s="53"/>
-      <c r="AB291" s="53"/>
-      <c r="AC291" s="53"/>
-      <c r="AD291" s="53"/>
-      <c r="AE291" s="53"/>
-      <c r="AF291" s="53"/>
-      <c r="AG291" s="53"/>
-      <c r="AH291" s="54"/>
-    </row>
-    <row r="292" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F292" s="81" t="s">
-        <v>235</v>
-      </c>
-      <c r="G292" s="93"/>
-      <c r="H292" s="93"/>
-      <c r="I292" s="102"/>
-      <c r="J292" s="102"/>
-      <c r="K292" s="103"/>
-      <c r="L292" s="67" t="s">
+      <c r="T297" s="53"/>
+      <c r="U297" s="53"/>
+      <c r="V297" s="53"/>
+      <c r="W297" s="53"/>
+      <c r="X297" s="53"/>
+      <c r="Y297" s="53"/>
+      <c r="Z297" s="53"/>
+      <c r="AA297" s="53"/>
+      <c r="AB297" s="53"/>
+      <c r="AC297" s="53"/>
+      <c r="AD297" s="53"/>
+      <c r="AE297" s="53"/>
+      <c r="AF297" s="53"/>
+      <c r="AG297" s="53"/>
+      <c r="AH297" s="54"/>
+    </row>
+    <row r="298" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F298" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="G298" s="93"/>
+      <c r="H298" s="93"/>
+      <c r="I298" s="102"/>
+      <c r="J298" s="102"/>
+      <c r="K298" s="103"/>
+      <c r="L298" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="M292" s="68"/>
-      <c r="N292" s="68"/>
-      <c r="O292" s="93"/>
-      <c r="P292" s="93"/>
-      <c r="Q292" s="93"/>
-      <c r="R292" s="72"/>
-      <c r="S292" s="93" t="s">
-        <v>236</v>
-      </c>
-      <c r="T292" s="102"/>
-      <c r="U292" s="102"/>
-      <c r="V292" s="102"/>
-      <c r="W292" s="102"/>
-      <c r="X292" s="102"/>
-      <c r="Y292" s="102"/>
-      <c r="Z292" s="102"/>
-      <c r="AA292" s="102"/>
-      <c r="AB292" s="102"/>
-      <c r="AC292" s="102"/>
-      <c r="AD292" s="102"/>
-      <c r="AE292" s="102"/>
-      <c r="AF292" s="102"/>
-      <c r="AG292" s="102"/>
-      <c r="AH292" s="103"/>
-    </row>
-    <row r="293" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F293" s="70"/>
-      <c r="G293" s="70"/>
-      <c r="H293" s="70"/>
-      <c r="I293" s="70"/>
-      <c r="J293" s="70"/>
-      <c r="K293" s="70"/>
-      <c r="L293" s="70"/>
-      <c r="M293" s="44"/>
-      <c r="N293" s="44"/>
-      <c r="O293" s="44"/>
-      <c r="P293" s="44"/>
-      <c r="Q293" s="44"/>
-      <c r="R293" s="44"/>
-      <c r="S293" s="44"/>
-      <c r="T293" s="44"/>
-      <c r="U293" s="44"/>
-      <c r="V293" s="44"/>
-      <c r="W293" s="44"/>
-      <c r="X293" s="44"/>
-      <c r="Y293" s="44"/>
-      <c r="Z293" s="44"/>
-      <c r="AA293" s="44"/>
-      <c r="AB293" s="44"/>
-      <c r="AC293" s="44"/>
-      <c r="AD293" s="44"/>
-      <c r="AE293" s="44"/>
-      <c r="AF293" s="44"/>
-      <c r="AG293" s="44"/>
-      <c r="AH293" s="44"/>
-    </row>
-    <row r="294" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E294" s="28" t="str">
-        <f>D283&amp;"3."</f>
+      <c r="M298" s="68"/>
+      <c r="N298" s="68"/>
+      <c r="O298" s="93"/>
+      <c r="P298" s="93"/>
+      <c r="Q298" s="93"/>
+      <c r="R298" s="72"/>
+      <c r="S298" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="T298" s="102"/>
+      <c r="U298" s="102"/>
+      <c r="V298" s="102"/>
+      <c r="W298" s="102"/>
+      <c r="X298" s="102"/>
+      <c r="Y298" s="102"/>
+      <c r="Z298" s="102"/>
+      <c r="AA298" s="102"/>
+      <c r="AB298" s="102"/>
+      <c r="AC298" s="102"/>
+      <c r="AD298" s="102"/>
+      <c r="AE298" s="102"/>
+      <c r="AF298" s="102"/>
+      <c r="AG298" s="102"/>
+      <c r="AH298" s="103"/>
+    </row>
+    <row r="299" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F299" s="70"/>
+      <c r="G299" s="70"/>
+      <c r="H299" s="70"/>
+      <c r="I299" s="70"/>
+      <c r="J299" s="70"/>
+      <c r="K299" s="70"/>
+      <c r="L299" s="70"/>
+      <c r="M299" s="44"/>
+      <c r="N299" s="44"/>
+      <c r="O299" s="44"/>
+      <c r="P299" s="44"/>
+      <c r="Q299" s="44"/>
+      <c r="R299" s="44"/>
+      <c r="S299" s="44"/>
+      <c r="T299" s="44"/>
+      <c r="U299" s="44"/>
+      <c r="V299" s="44"/>
+      <c r="W299" s="44"/>
+      <c r="X299" s="44"/>
+      <c r="Y299" s="44"/>
+      <c r="Z299" s="44"/>
+      <c r="AA299" s="44"/>
+      <c r="AB299" s="44"/>
+      <c r="AC299" s="44"/>
+      <c r="AD299" s="44"/>
+      <c r="AE299" s="44"/>
+      <c r="AF299" s="44"/>
+      <c r="AG299" s="44"/>
+      <c r="AH299" s="44"/>
+    </row>
+    <row r="300" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E300" s="28" t="str">
+        <f>D289&amp;"3."</f>
         <v>3.1.11.3.</v>
       </c>
-      <c r="F294" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="G294" s="36"/>
-      <c r="H294" s="36"/>
-      <c r="I294" s="36"/>
-      <c r="J294" s="36"/>
-      <c r="K294" s="36"/>
-      <c r="L294" s="36"/>
-    </row>
-    <row r="295" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F295" s="77" t="s">
+      <c r="F300" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="G300" s="36"/>
+      <c r="H300" s="36"/>
+      <c r="I300" s="36"/>
+      <c r="J300" s="36"/>
+      <c r="K300" s="36"/>
+      <c r="L300" s="36"/>
+    </row>
+    <row r="301" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F301" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="G295" s="74" t="str">
-        <f>E283&amp;"方法詳細"</f>
+      <c r="G301" s="74" t="str">
+        <f>E289&amp;"方法詳細"</f>
         <v>コンテンツ更新方法詳細</v>
       </c>
-      <c r="H295" s="74"/>
-      <c r="I295" s="74"/>
-      <c r="J295" s="74"/>
-      <c r="K295" s="74"/>
-      <c r="L295" s="74"/>
-    </row>
-    <row r="296" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F296" s="77"/>
-      <c r="G296" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="H296" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="I296" s="74"/>
-      <c r="J296" s="74"/>
-      <c r="K296" s="74"/>
-      <c r="L296" s="74"/>
-    </row>
-    <row r="297" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F297" s="77"/>
-      <c r="G297" s="79"/>
-      <c r="H297" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="I297" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="J297" s="74"/>
-      <c r="K297" s="74"/>
-      <c r="L297" s="74"/>
-    </row>
-    <row r="298" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F298" s="77"/>
-      <c r="G298" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="H298" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="I298" s="74"/>
-      <c r="J298" s="74"/>
-      <c r="K298" s="74"/>
-      <c r="L298" s="74"/>
-    </row>
-    <row r="299" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F299" s="77"/>
-      <c r="G299" s="74"/>
-      <c r="H299" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="I299" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="J299" s="74"/>
-      <c r="K299" s="74"/>
-      <c r="L299" s="74"/>
-    </row>
-    <row r="300" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F300" s="77"/>
-      <c r="G300" s="74"/>
-      <c r="H300" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="I300" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="J300" s="74"/>
-      <c r="K300" s="74"/>
-      <c r="L300" s="74"/>
-    </row>
-    <row r="301" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F301" s="74"/>
-      <c r="G301" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="H301" s="74" t="s">
-        <v>171</v>
-      </c>
+      <c r="H301" s="74"/>
       <c r="I301" s="74"/>
       <c r="J301" s="74"/>
       <c r="K301" s="74"/>
       <c r="L301" s="74"/>
     </row>
-    <row r="302" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F302" s="36"/>
-      <c r="G302" s="36"/>
-      <c r="H302" s="82" t="s">
+    <row r="302" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F302" s="77"/>
+      <c r="G302" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="H302" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="I302" s="74"/>
+      <c r="J302" s="74"/>
+      <c r="K302" s="74"/>
+      <c r="L302" s="74"/>
+    </row>
+    <row r="303" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F303" s="77"/>
+      <c r="G303" s="79"/>
+      <c r="H303" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="I303" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="J303" s="74"/>
+      <c r="K303" s="74"/>
+      <c r="L303" s="74"/>
+    </row>
+    <row r="304" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F304" s="77"/>
+      <c r="G304" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H304" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="I304" s="74"/>
+      <c r="J304" s="74"/>
+      <c r="K304" s="74"/>
+      <c r="L304" s="74"/>
+    </row>
+    <row r="305" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F305" s="77"/>
+      <c r="G305" s="74"/>
+      <c r="H305" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="I305" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="J305" s="74"/>
+      <c r="K305" s="74"/>
+      <c r="L305" s="74"/>
+    </row>
+    <row r="306" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F306" s="77"/>
+      <c r="G306" s="74"/>
+      <c r="H306" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="I306" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="J306" s="74"/>
+      <c r="K306" s="74"/>
+      <c r="L306" s="74"/>
+    </row>
+    <row r="307" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F307" s="74"/>
+      <c r="G307" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="H307" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="I307" s="74"/>
+      <c r="J307" s="74"/>
+      <c r="K307" s="74"/>
+      <c r="L307" s="74"/>
+    </row>
+    <row r="308" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F308" s="36"/>
+      <c r="G308" s="36"/>
+      <c r="H308" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="I308" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="I302" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="J302" s="36"/>
-      <c r="K302" s="36"/>
-      <c r="L302" s="36"/>
-    </row>
-    <row r="303" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F303" s="36"/>
-      <c r="G303" s="83"/>
-      <c r="H303" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="I303" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="J303" s="36"/>
-      <c r="K303" s="36"/>
-      <c r="L303" s="36"/>
-    </row>
-    <row r="304" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F304" s="36"/>
-      <c r="G304" s="83"/>
-      <c r="H304" s="36"/>
-      <c r="I304" s="36"/>
-      <c r="J304" s="36"/>
-      <c r="K304" s="36"/>
-      <c r="L304" s="36"/>
-    </row>
-    <row r="305" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D305" s="28" t="str">
+      <c r="J308" s="36"/>
+      <c r="K308" s="36"/>
+      <c r="L308" s="36"/>
+    </row>
+    <row r="309" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F309" s="36"/>
+      <c r="G309" s="83"/>
+      <c r="H309" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="I309" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="J309" s="36"/>
+      <c r="K309" s="36"/>
+      <c r="L309" s="36"/>
+    </row>
+    <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F310" s="36"/>
+      <c r="G310" s="83"/>
+      <c r="H310" s="36"/>
+      <c r="I310" s="36"/>
+      <c r="J310" s="36"/>
+      <c r="K310" s="36"/>
+      <c r="L310" s="36"/>
+    </row>
+    <row r="311" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D311" s="28" t="str">
         <f>$C$7&amp;"12."</f>
         <v>3.1.12.</v>
       </c>
-      <c r="E305" s="4" t="s">
+      <c r="E311" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="306" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D306" s="42"/>
-      <c r="E306" s="42" t="str">
-        <f>D305&amp;"1."</f>
+    <row r="312" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D312" s="42"/>
+      <c r="E312" s="42" t="str">
+        <f>D311&amp;"1."</f>
         <v>3.1.12.1.</v>
       </c>
-      <c r="F306" s="41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="307" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D307" s="42"/>
-      <c r="E307" s="41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="308" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D308" s="42"/>
-      <c r="E308" s="41" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="309" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D309" s="42"/>
-    </row>
-    <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D310" s="42"/>
-      <c r="E310" s="42" t="str">
-        <f>D305&amp;"2."</f>
-        <v>3.1.12.2.</v>
-      </c>
-      <c r="F310" s="41" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D311" s="42"/>
-      <c r="E311" s="41" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="312" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F312" s="19"/>
-      <c r="G312" s="19"/>
-      <c r="H312" s="19"/>
-      <c r="I312" s="19"/>
-      <c r="J312" s="19"/>
-      <c r="K312" s="19"/>
-      <c r="L312" s="19"/>
-      <c r="M312" s="19"/>
-      <c r="N312" s="19"/>
-      <c r="O312" s="19"/>
-      <c r="P312" s="19"/>
-      <c r="Q312" s="19"/>
-      <c r="R312" s="19"/>
-      <c r="S312" s="19"/>
-      <c r="T312" s="19"/>
-      <c r="U312" s="19"/>
-      <c r="V312" s="19"/>
-      <c r="W312" s="19"/>
-      <c r="X312" s="19"/>
-      <c r="Y312" s="19"/>
-      <c r="Z312" s="19"/>
-      <c r="AA312" s="19"/>
-      <c r="AB312" s="19"/>
-      <c r="AC312" s="19"/>
-      <c r="AD312" s="19"/>
-      <c r="AE312" s="19"/>
-      <c r="AF312" s="19"/>
-      <c r="AG312" s="19"/>
-      <c r="AH312" s="19"/>
+      <c r="F312" s="41" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="313" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D313" s="42" t="str">
-        <f>$C$7&amp;"13."</f>
-        <v>3.1.13.</v>
-      </c>
+      <c r="D313" s="42"/>
       <c r="E313" s="41" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D314" s="42"/>
       <c r="E314" s="41" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E315" s="52" t="s">
+      <c r="D315" s="42"/>
+    </row>
+    <row r="316" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D316" s="42"/>
+      <c r="E316" s="42" t="str">
+        <f>D311&amp;"2."</f>
+        <v>3.1.12.2.</v>
+      </c>
+      <c r="F316" s="41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="317" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D317" s="42"/>
+      <c r="E317" s="41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="318" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F318" s="19"/>
+      <c r="G318" s="19"/>
+      <c r="H318" s="19"/>
+      <c r="I318" s="19"/>
+      <c r="J318" s="19"/>
+      <c r="K318" s="19"/>
+      <c r="L318" s="19"/>
+      <c r="M318" s="19"/>
+      <c r="N318" s="19"/>
+      <c r="O318" s="19"/>
+      <c r="P318" s="19"/>
+      <c r="Q318" s="19"/>
+      <c r="R318" s="19"/>
+      <c r="S318" s="19"/>
+      <c r="T318" s="19"/>
+      <c r="U318" s="19"/>
+      <c r="V318" s="19"/>
+      <c r="W318" s="19"/>
+      <c r="X318" s="19"/>
+      <c r="Y318" s="19"/>
+      <c r="Z318" s="19"/>
+      <c r="AA318" s="19"/>
+      <c r="AB318" s="19"/>
+      <c r="AC318" s="19"/>
+      <c r="AD318" s="19"/>
+      <c r="AE318" s="19"/>
+      <c r="AF318" s="19"/>
+      <c r="AG318" s="19"/>
+      <c r="AH318" s="19"/>
+    </row>
+    <row r="319" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D319" s="42" t="str">
+        <f>$C$7&amp;"13."</f>
+        <v>3.1.13.</v>
+      </c>
+      <c r="E319" s="41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="320" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D320" s="42"/>
+      <c r="E320" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="321" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E321" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F315" s="53"/>
-      <c r="G315" s="53"/>
-      <c r="H315" s="53"/>
-      <c r="I315" s="53"/>
-      <c r="J315" s="53"/>
-      <c r="K315" s="54"/>
-      <c r="L315" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="M315" s="53"/>
-      <c r="N315" s="53"/>
-      <c r="O315" s="54"/>
-      <c r="P315" s="53" t="s">
+      <c r="F321" s="53"/>
+      <c r="G321" s="53"/>
+      <c r="H321" s="53"/>
+      <c r="I321" s="53"/>
+      <c r="J321" s="53"/>
+      <c r="K321" s="54"/>
+      <c r="L321" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M321" s="53"/>
+      <c r="N321" s="53"/>
+      <c r="O321" s="54"/>
+      <c r="P321" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q315" s="53"/>
-      <c r="R315" s="53"/>
-      <c r="S315" s="53"/>
-      <c r="T315" s="53"/>
-      <c r="U315" s="53"/>
-      <c r="V315" s="53"/>
-      <c r="W315" s="53"/>
-      <c r="X315" s="53"/>
-      <c r="Y315" s="53"/>
-      <c r="Z315" s="53"/>
-      <c r="AA315" s="53"/>
-      <c r="AB315" s="53"/>
-      <c r="AC315" s="53"/>
-      <c r="AD315" s="53"/>
-      <c r="AE315" s="53"/>
-      <c r="AF315" s="53"/>
-      <c r="AG315" s="53"/>
-      <c r="AH315" s="54"/>
-    </row>
-    <row r="316" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E316" s="109" t="s">
-        <v>301</v>
-      </c>
-      <c r="F316" s="98"/>
-      <c r="G316" s="98"/>
-      <c r="H316" s="70"/>
-      <c r="I316" s="70"/>
-      <c r="J316" s="70"/>
-      <c r="K316" s="100"/>
-      <c r="L316" s="98" t="s">
-        <v>305</v>
-      </c>
-      <c r="M316" s="70"/>
-      <c r="N316" s="70"/>
-      <c r="O316" s="100"/>
-      <c r="P316" s="98" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q316" s="70"/>
-      <c r="R316" s="70"/>
-      <c r="S316" s="70"/>
-      <c r="T316" s="70"/>
-      <c r="U316" s="70"/>
-      <c r="V316" s="70"/>
-      <c r="W316" s="70"/>
-      <c r="X316" s="70"/>
-      <c r="Y316" s="70"/>
-      <c r="Z316" s="70"/>
-      <c r="AA316" s="70"/>
-      <c r="AB316" s="70"/>
-      <c r="AC316" s="70"/>
-      <c r="AD316" s="70"/>
-      <c r="AE316" s="70"/>
-      <c r="AF316" s="70"/>
-      <c r="AG316" s="70"/>
-      <c r="AH316" s="94"/>
-    </row>
-    <row r="317" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E317" s="109" t="s">
-        <v>269</v>
-      </c>
-      <c r="F317" s="26"/>
-      <c r="G317" s="26"/>
-      <c r="H317" s="70"/>
-      <c r="I317" s="70"/>
-      <c r="J317" s="70"/>
-      <c r="K317" s="71"/>
-      <c r="L317" s="26"/>
-      <c r="M317" s="70"/>
-      <c r="N317" s="70"/>
-      <c r="O317" s="71"/>
-      <c r="P317" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q317" s="70"/>
-      <c r="R317" s="70"/>
-      <c r="S317" s="70"/>
-      <c r="T317" s="70"/>
-      <c r="U317" s="70"/>
-      <c r="V317" s="70"/>
-      <c r="W317" s="70"/>
-      <c r="X317" s="70"/>
-      <c r="Y317" s="70"/>
-      <c r="Z317" s="70"/>
-      <c r="AA317" s="70"/>
-      <c r="AB317" s="70"/>
-      <c r="AC317" s="70"/>
-      <c r="AD317" s="70"/>
-      <c r="AE317" s="70"/>
-      <c r="AF317" s="70"/>
-      <c r="AG317" s="70"/>
-      <c r="AH317" s="94"/>
-    </row>
-    <row r="318" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E318" s="109"/>
-      <c r="F318" s="26"/>
-      <c r="G318" s="26"/>
-      <c r="H318" s="70"/>
-      <c r="I318" s="70"/>
-      <c r="J318" s="70"/>
-      <c r="K318" s="71"/>
-      <c r="L318" s="26"/>
-      <c r="M318" s="70"/>
-      <c r="N318" s="70"/>
-      <c r="O318" s="71"/>
-      <c r="P318" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q318" s="70"/>
-      <c r="R318" s="70"/>
-      <c r="S318" s="70"/>
-      <c r="T318" s="70"/>
-      <c r="U318" s="70"/>
-      <c r="V318" s="70"/>
-      <c r="W318" s="70"/>
-      <c r="X318" s="70"/>
-      <c r="Y318" s="70"/>
-      <c r="Z318" s="70"/>
-      <c r="AA318" s="70"/>
-      <c r="AB318" s="70"/>
-      <c r="AC318" s="70"/>
-      <c r="AD318" s="70"/>
-      <c r="AE318" s="70"/>
-      <c r="AF318" s="70"/>
-      <c r="AG318" s="70"/>
-      <c r="AH318" s="94"/>
-    </row>
-    <row r="319" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E319" s="109"/>
-      <c r="F319" s="26"/>
-      <c r="G319" s="26"/>
-      <c r="H319" s="70"/>
-      <c r="I319" s="70"/>
-      <c r="J319" s="70"/>
-      <c r="K319" s="71"/>
-      <c r="L319" s="26"/>
-      <c r="M319" s="70"/>
-      <c r="N319" s="70"/>
-      <c r="O319" s="71"/>
-      <c r="P319" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q319" s="70"/>
-      <c r="R319" s="70"/>
-      <c r="S319" s="70"/>
-      <c r="T319" s="70"/>
-      <c r="U319" s="70"/>
-      <c r="V319" s="70"/>
-      <c r="W319" s="70"/>
-      <c r="X319" s="70"/>
-      <c r="Y319" s="70"/>
-      <c r="Z319" s="70"/>
-      <c r="AA319" s="70"/>
-      <c r="AB319" s="70"/>
-      <c r="AC319" s="70"/>
-      <c r="AD319" s="70"/>
-      <c r="AE319" s="70"/>
-      <c r="AF319" s="70"/>
-      <c r="AG319" s="70"/>
-      <c r="AH319" s="94"/>
-    </row>
-    <row r="320" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E320" s="109"/>
-      <c r="F320" s="26"/>
-      <c r="G320" s="26"/>
-      <c r="H320" s="70"/>
-      <c r="I320" s="70"/>
-      <c r="J320" s="70"/>
-      <c r="K320" s="71"/>
-      <c r="L320" s="26"/>
-      <c r="M320" s="70"/>
-      <c r="N320" s="70"/>
-      <c r="O320" s="71"/>
-      <c r="P320" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q320" s="70"/>
-      <c r="R320" s="70"/>
-      <c r="S320" s="70"/>
-      <c r="T320" s="70"/>
-      <c r="U320" s="70"/>
-      <c r="V320" s="70"/>
-      <c r="W320" s="70"/>
-      <c r="X320" s="70"/>
-      <c r="Y320" s="70"/>
-      <c r="Z320" s="70"/>
-      <c r="AA320" s="70"/>
-      <c r="AB320" s="70"/>
-      <c r="AC320" s="70"/>
-      <c r="AD320" s="70"/>
-      <c r="AE320" s="70"/>
-      <c r="AF320" s="70"/>
-      <c r="AG320" s="70"/>
-      <c r="AH320" s="94"/>
-    </row>
-    <row r="321" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E321" s="81"/>
-      <c r="F321" s="76"/>
-      <c r="G321" s="76"/>
-      <c r="H321" s="102"/>
-      <c r="I321" s="102"/>
-      <c r="J321" s="102"/>
-      <c r="K321" s="90"/>
-      <c r="L321" s="76"/>
-      <c r="M321" s="102"/>
-      <c r="N321" s="102"/>
-      <c r="O321" s="90"/>
-      <c r="P321" s="76" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q321" s="102"/>
-      <c r="R321" s="102"/>
-      <c r="S321" s="102"/>
-      <c r="T321" s="102"/>
-      <c r="U321" s="102"/>
-      <c r="V321" s="102"/>
-      <c r="W321" s="102"/>
-      <c r="X321" s="102"/>
-      <c r="Y321" s="102"/>
-      <c r="Z321" s="102"/>
-      <c r="AA321" s="102"/>
-      <c r="AB321" s="102"/>
-      <c r="AC321" s="102"/>
-      <c r="AD321" s="102"/>
-      <c r="AE321" s="102"/>
-      <c r="AF321" s="102"/>
-      <c r="AG321" s="102"/>
-      <c r="AH321" s="103"/>
+      <c r="Q321" s="53"/>
+      <c r="R321" s="53"/>
+      <c r="S321" s="53"/>
+      <c r="T321" s="53"/>
+      <c r="U321" s="53"/>
+      <c r="V321" s="53"/>
+      <c r="W321" s="53"/>
+      <c r="X321" s="53"/>
+      <c r="Y321" s="53"/>
+      <c r="Z321" s="53"/>
+      <c r="AA321" s="53"/>
+      <c r="AB321" s="53"/>
+      <c r="AC321" s="53"/>
+      <c r="AD321" s="53"/>
+      <c r="AE321" s="53"/>
+      <c r="AF321" s="53"/>
+      <c r="AG321" s="53"/>
+      <c r="AH321" s="54"/>
     </row>
     <row r="322" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F322" s="70"/>
-      <c r="G322" s="70"/>
+      <c r="E322" s="109" t="s">
+        <v>294</v>
+      </c>
+      <c r="F322" s="98"/>
+      <c r="G322" s="98"/>
       <c r="H322" s="70"/>
       <c r="I322" s="70"/>
       <c r="J322" s="70"/>
-      <c r="K322" s="70"/>
-      <c r="L322" s="70"/>
-      <c r="M322" s="44"/>
-      <c r="N322" s="44"/>
-      <c r="O322" s="44"/>
-      <c r="P322" s="44"/>
-      <c r="Q322" s="44"/>
-      <c r="R322" s="44"/>
-      <c r="S322" s="44"/>
-      <c r="T322" s="44"/>
-      <c r="U322" s="44"/>
-      <c r="V322" s="44"/>
-      <c r="W322" s="44"/>
-      <c r="X322" s="44"/>
-      <c r="Y322" s="44"/>
-      <c r="Z322" s="44"/>
-      <c r="AA322" s="44"/>
-      <c r="AB322" s="44"/>
-      <c r="AC322" s="44"/>
-      <c r="AD322" s="44"/>
-      <c r="AE322" s="44"/>
-      <c r="AF322" s="44"/>
-      <c r="AG322" s="44"/>
-      <c r="AH322" s="44"/>
-    </row>
-    <row r="323" spans="5:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F323" s="91"/>
+      <c r="K322" s="100"/>
+      <c r="L322" s="98" t="s">
+        <v>298</v>
+      </c>
+      <c r="M322" s="70"/>
+      <c r="N322" s="70"/>
+      <c r="O322" s="100"/>
+      <c r="P322" s="98" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q322" s="70"/>
+      <c r="R322" s="70"/>
+      <c r="S322" s="70"/>
+      <c r="T322" s="70"/>
+      <c r="U322" s="70"/>
+      <c r="V322" s="70"/>
+      <c r="W322" s="70"/>
+      <c r="X322" s="70"/>
+      <c r="Y322" s="70"/>
+      <c r="Z322" s="70"/>
+      <c r="AA322" s="70"/>
+      <c r="AB322" s="70"/>
+      <c r="AC322" s="70"/>
+      <c r="AD322" s="70"/>
+      <c r="AE322" s="70"/>
+      <c r="AF322" s="70"/>
+      <c r="AG322" s="70"/>
+      <c r="AH322" s="94"/>
+    </row>
+    <row r="323" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E323" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="F323" s="26"/>
+      <c r="G323" s="26"/>
+      <c r="H323" s="70"/>
+      <c r="I323" s="70"/>
+      <c r="J323" s="70"/>
+      <c r="K323" s="71"/>
+      <c r="L323" s="26"/>
+      <c r="M323" s="70"/>
+      <c r="N323" s="70"/>
+      <c r="O323" s="71"/>
+      <c r="P323" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q323" s="70"/>
+      <c r="R323" s="70"/>
+      <c r="S323" s="70"/>
+      <c r="T323" s="70"/>
+      <c r="U323" s="70"/>
+      <c r="V323" s="70"/>
+      <c r="W323" s="70"/>
+      <c r="X323" s="70"/>
+      <c r="Y323" s="70"/>
+      <c r="Z323" s="70"/>
+      <c r="AA323" s="70"/>
+      <c r="AB323" s="70"/>
+      <c r="AC323" s="70"/>
+      <c r="AD323" s="70"/>
+      <c r="AE323" s="70"/>
+      <c r="AF323" s="70"/>
+      <c r="AG323" s="70"/>
+      <c r="AH323" s="94"/>
+    </row>
+    <row r="324" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E324" s="109"/>
+      <c r="F324" s="26"/>
+      <c r="G324" s="26"/>
+      <c r="H324" s="70"/>
+      <c r="I324" s="70"/>
+      <c r="J324" s="70"/>
+      <c r="K324" s="71"/>
+      <c r="L324" s="26"/>
+      <c r="M324" s="70"/>
+      <c r="N324" s="70"/>
+      <c r="O324" s="71"/>
+      <c r="P324" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q324" s="70"/>
+      <c r="R324" s="70"/>
+      <c r="S324" s="70"/>
+      <c r="T324" s="70"/>
+      <c r="U324" s="70"/>
+      <c r="V324" s="70"/>
+      <c r="W324" s="70"/>
+      <c r="X324" s="70"/>
+      <c r="Y324" s="70"/>
+      <c r="Z324" s="70"/>
+      <c r="AA324" s="70"/>
+      <c r="AB324" s="70"/>
+      <c r="AC324" s="70"/>
+      <c r="AD324" s="70"/>
+      <c r="AE324" s="70"/>
+      <c r="AF324" s="70"/>
+      <c r="AG324" s="70"/>
+      <c r="AH324" s="94"/>
+    </row>
+    <row r="325" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E325" s="109"/>
+      <c r="F325" s="26"/>
+      <c r="G325" s="26"/>
+      <c r="H325" s="70"/>
+      <c r="I325" s="70"/>
+      <c r="J325" s="70"/>
+      <c r="K325" s="71"/>
+      <c r="L325" s="26"/>
+      <c r="M325" s="70"/>
+      <c r="N325" s="70"/>
+      <c r="O325" s="71"/>
+      <c r="P325" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q325" s="70"/>
+      <c r="R325" s="70"/>
+      <c r="S325" s="70"/>
+      <c r="T325" s="70"/>
+      <c r="U325" s="70"/>
+      <c r="V325" s="70"/>
+      <c r="W325" s="70"/>
+      <c r="X325" s="70"/>
+      <c r="Y325" s="70"/>
+      <c r="Z325" s="70"/>
+      <c r="AA325" s="70"/>
+      <c r="AB325" s="70"/>
+      <c r="AC325" s="70"/>
+      <c r="AD325" s="70"/>
+      <c r="AE325" s="70"/>
+      <c r="AF325" s="70"/>
+      <c r="AG325" s="70"/>
+      <c r="AH325" s="94"/>
+    </row>
+    <row r="326" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E326" s="109"/>
+      <c r="F326" s="26"/>
+      <c r="G326" s="26"/>
+      <c r="H326" s="70"/>
+      <c r="I326" s="70"/>
+      <c r="J326" s="70"/>
+      <c r="K326" s="71"/>
+      <c r="L326" s="26"/>
+      <c r="M326" s="70"/>
+      <c r="N326" s="70"/>
+      <c r="O326" s="71"/>
+      <c r="P326" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q326" s="70"/>
+      <c r="R326" s="70"/>
+      <c r="S326" s="70"/>
+      <c r="T326" s="70"/>
+      <c r="U326" s="70"/>
+      <c r="V326" s="70"/>
+      <c r="W326" s="70"/>
+      <c r="X326" s="70"/>
+      <c r="Y326" s="70"/>
+      <c r="Z326" s="70"/>
+      <c r="AA326" s="70"/>
+      <c r="AB326" s="70"/>
+      <c r="AC326" s="70"/>
+      <c r="AD326" s="70"/>
+      <c r="AE326" s="70"/>
+      <c r="AF326" s="70"/>
+      <c r="AG326" s="70"/>
+      <c r="AH326" s="94"/>
+    </row>
+    <row r="327" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E327" s="81"/>
+      <c r="F327" s="76"/>
+      <c r="G327" s="76"/>
+      <c r="H327" s="102"/>
+      <c r="I327" s="102"/>
+      <c r="J327" s="102"/>
+      <c r="K327" s="90"/>
+      <c r="L327" s="76"/>
+      <c r="M327" s="102"/>
+      <c r="N327" s="102"/>
+      <c r="O327" s="90"/>
+      <c r="P327" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q327" s="102"/>
+      <c r="R327" s="102"/>
+      <c r="S327" s="102"/>
+      <c r="T327" s="102"/>
+      <c r="U327" s="102"/>
+      <c r="V327" s="102"/>
+      <c r="W327" s="102"/>
+      <c r="X327" s="102"/>
+      <c r="Y327" s="102"/>
+      <c r="Z327" s="102"/>
+      <c r="AA327" s="102"/>
+      <c r="AB327" s="102"/>
+      <c r="AC327" s="102"/>
+      <c r="AD327" s="102"/>
+      <c r="AE327" s="102"/>
+      <c r="AF327" s="102"/>
+      <c r="AG327" s="102"/>
+      <c r="AH327" s="103"/>
+    </row>
+    <row r="328" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F328" s="70"/>
+      <c r="G328" s="70"/>
+      <c r="H328" s="70"/>
+      <c r="I328" s="70"/>
+      <c r="J328" s="70"/>
+      <c r="K328" s="70"/>
+      <c r="L328" s="70"/>
+      <c r="M328" s="44"/>
+      <c r="N328" s="44"/>
+      <c r="O328" s="44"/>
+      <c r="P328" s="44"/>
+      <c r="Q328" s="44"/>
+      <c r="R328" s="44"/>
+      <c r="S328" s="44"/>
+      <c r="T328" s="44"/>
+      <c r="U328" s="44"/>
+      <c r="V328" s="44"/>
+      <c r="W328" s="44"/>
+      <c r="X328" s="44"/>
+      <c r="Y328" s="44"/>
+      <c r="Z328" s="44"/>
+      <c r="AA328" s="44"/>
+      <c r="AB328" s="44"/>
+      <c r="AC328" s="44"/>
+      <c r="AD328" s="44"/>
+      <c r="AE328" s="44"/>
+      <c r="AF328" s="44"/>
+      <c r="AG328" s="44"/>
+      <c r="AH328" s="44"/>
+    </row>
+    <row r="329" spans="5:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F329" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12609,10 +12920,10 @@
     <brk id="100" max="34" man="1"/>
     <brk id="133" max="34" man="1"/>
     <brk id="179" max="34" man="1"/>
-    <brk id="208" max="34" man="1"/>
-    <brk id="241" max="34" man="1"/>
-    <brk id="281" max="34" man="1"/>
-    <brk id="304" max="34" man="1"/>
+    <brk id="214" max="34" man="1"/>
+    <brk id="247" max="34" man="1"/>
+    <brk id="287" max="34" man="1"/>
+    <brk id="310" max="34" man="1"/>
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="B5" numberStoredAsText="1"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F58032-21E9-4560-9EB4-E21773F4A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E25E851-AA26-4FF5-97D4-5C138C197B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,8 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.1.同期処理方式'!#REF!</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$262</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$262</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$338</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$258</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$258</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="315">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -255,9 +256,6 @@
     <t>ストア</t>
   </si>
   <si>
-    <t>使用する</t>
-  </si>
-  <si>
     <t>ログイン中の認証情報の保持。</t>
   </si>
   <si>
@@ -751,31 +749,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>例）検索画面や、登録画面で入力したForm情報</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>例）ログインユーザのユーザID、氏名</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
@@ -1691,13 +1664,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力～確認～完了画面間で入力情報を保持するため。</t>
-    <rPh sb="17" eb="19">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>実施不要</t>
     <rPh sb="0" eb="2">
       <t>ジッシ</t>
@@ -1724,28 +1690,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>実施する</t>
-    <rPh sb="0" eb="2">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（AES暗号化）</t>
-    <rPh sb="4" eb="7">
-      <t>アンゴウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HIDDENストアを使用した場合、クライアントからセッション変数を改竄したリクエストが</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>送信される可能性があるため</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セッション変数の改ざん防止</t>
     <rPh sb="5" eb="7">
       <t>ヘンスウ</t>
@@ -2099,26 +2043,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面設計によって異なる。</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンセッケイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DBストアに保存しているデータは後勝ちとなる。</t>
-    <rPh sb="6" eb="8">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>アトガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>業務要件として複数ウィンドウ/タブの同時操作による対策は必須ではないので、</t>
     <rPh sb="0" eb="2">
       <t>ギョウム</t>
@@ -2151,35 +2075,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>HIDDENストアを使用している画面ではウィンドウ/タブごとにデータが保持されるが、</t>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>複数ウィンドウ/タブで操作された場合にセッションストアのデータがどう保持されるかは、</t>
-    <rPh sb="0" eb="2">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>特に対策はしない方針とする。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3219,16 +3114,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>また、セッションスコープの保存先としては、DBストアとHIDDENストアの2つを使用する。</t>
-    <rPh sb="13" eb="16">
-      <t>ホゾンサキ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>以下で、それぞれについて理由を説明する。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
@@ -3242,19 +3127,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>情報の保持に利用できる。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>それぞれのセッションの保存先に対して改ざん防止の対応を実施するかどうか、以下に方針を記載する。</t>
     <rPh sb="11" eb="14">
       <t>ホゾンサキ</t>
@@ -3293,34 +3165,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力画面の入力情報を完了画面まで引き継ぐような、DBに保存するほどではないがリクエストをまたいで保持したい</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクガメン</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ニュウリョクジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ブラウザ側でJavaScriptによる実装が必要になるが、ユーザの利便性は高まる。</t>
     <rPh sb="4" eb="5">
       <t>ガワ</t>
@@ -3336,6 +3180,87 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数ウィンドウ/タブで別々にセッション情報を管理したい場合に使用する。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数ウィンドウ/タブの同時操作は業務要件にないため。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、セッションスコープの保存先としては、DBストアを使用する。</t>
+    <rPh sb="13" eb="16">
+      <t>ホゾンサキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムではセッションストアにHIDDENストアは使用せずDBストアのみを使用する</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方針としているため、複数ウィンドウ/タブで操作された場合、セッションストアに</t>
+    <rPh sb="10" eb="12">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存しているデータは後勝ちとなる。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アトガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4088,13 +4013,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4110,8 +4035,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1350479" y="39234717"/>
-          <a:ext cx="7726431" cy="775253"/>
+          <a:off x="1350479" y="38671500"/>
+          <a:ext cx="7726431" cy="775252"/>
           <a:chOff x="1362075" y="5760869"/>
           <a:chExt cx="7810499" cy="820906"/>
         </a:xfrm>
@@ -5097,7 +5022,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI344"/>
+  <dimension ref="A1:AI339"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
@@ -5114,7 +5039,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="118" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F1" s="119"/>
       <c r="G1" s="119"/>
@@ -5131,7 +5056,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="121" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S1" s="122"/>
       <c r="T1" s="122"/>
@@ -5391,13 +5316,13 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="54"/>
       <c r="J14" s="110" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K14" s="111"/>
       <c r="L14" s="111"/>
@@ -5429,13 +5354,13 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="56" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -5467,13 +5392,13 @@
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="35" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -5509,7 +5434,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="30" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -5537,7 +5462,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="32" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -5621,22 +5546,22 @@
     </row>
     <row r="23" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5652,13 +5577,13 @@
     </row>
     <row r="29" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K29" s="53"/>
       <c r="L29" s="53"/>
@@ -5687,13 +5612,13 @@
     </row>
     <row r="30" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="56" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="K30" s="57"/>
       <c r="L30" s="93"/>
@@ -5722,13 +5647,13 @@
     </row>
     <row r="31" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="35" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
       <c r="J31" s="35" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="98"/>
@@ -5761,7 +5686,7 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="J32" s="32" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="K32" s="33"/>
       <c r="L32" s="76"/>
@@ -5825,19 +5750,19 @@
         <v>3.1.3.3.</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="24"/>
       <c r="F35" s="74" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E36" s="24"/>
       <c r="F36" s="29" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5866,7 +5791,7 @@
     </row>
     <row r="41" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F41" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5882,7 +5807,7 @@
     </row>
     <row r="44" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="36" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5894,7 +5819,7 @@
       <c r="I45" s="53"/>
       <c r="J45" s="54"/>
       <c r="K45" s="53" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="L45" s="53"/>
       <c r="M45" s="53"/>
@@ -5929,7 +5854,7 @@
       <c r="I46" s="99"/>
       <c r="J46" s="100"/>
       <c r="K46" s="98" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L46" s="98"/>
       <c r="M46" s="98"/>
@@ -5962,7 +5887,7 @@
       <c r="I47" s="102"/>
       <c r="J47" s="90"/>
       <c r="K47" s="76" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="L47" s="76"/>
       <c r="M47" s="76"/>
@@ -5997,7 +5922,7 @@
       <c r="I48" s="70"/>
       <c r="J48" s="71"/>
       <c r="K48" s="26" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="L48" s="26"/>
       <c r="M48" s="26"/>
@@ -6030,7 +5955,7 @@
       <c r="I49" s="70"/>
       <c r="J49" s="71"/>
       <c r="K49" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="L49" s="26"/>
       <c r="M49" s="26"/>
@@ -6063,7 +5988,7 @@
       <c r="I50" s="102"/>
       <c r="J50" s="90"/>
       <c r="K50" s="76" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="L50" s="76"/>
       <c r="M50" s="76"/>
@@ -6096,19 +6021,19 @@
         <v>3.1.4.3.</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="66"/>
       <c r="F53" s="36" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" s="66"/>
       <c r="F54" s="36" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6134,17 +6059,17 @@
     </row>
     <row r="58" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F58" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F59" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F60" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6160,12 +6085,12 @@
     </row>
     <row r="63" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="53"/>
       <c r="I63" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -6180,7 +6105,7 @@
       <c r="T63" s="53"/>
       <c r="U63" s="54"/>
       <c r="V63" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="W63" s="53"/>
       <c r="X63" s="53"/>
@@ -6199,12 +6124,12 @@
     </row>
     <row r="64" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F64" s="97" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G64" s="99"/>
       <c r="H64" s="104"/>
       <c r="I64" s="105" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J64" s="106"/>
       <c r="K64" s="93"/>
@@ -6219,7 +6144,7 @@
       <c r="T64" s="68"/>
       <c r="U64" s="107"/>
       <c r="V64" s="93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W64" s="106"/>
       <c r="X64" s="106"/>
@@ -6228,7 +6153,7 @@
       <c r="AA64" s="68"/>
       <c r="AB64" s="72"/>
       <c r="AC64" s="93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AD64" s="68"/>
       <c r="AE64" s="68"/>
@@ -6241,7 +6166,7 @@
       <c r="G65" s="102"/>
       <c r="H65" s="108"/>
       <c r="I65" s="105" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J65" s="106"/>
       <c r="K65" s="93"/>
@@ -6256,7 +6181,7 @@
       <c r="T65" s="68"/>
       <c r="U65" s="107"/>
       <c r="V65" s="93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W65" s="106"/>
       <c r="X65" s="106"/>
@@ -6265,7 +6190,7 @@
       <c r="AA65" s="68"/>
       <c r="AB65" s="72"/>
       <c r="AC65" s="93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD65" s="68"/>
       <c r="AE65" s="68"/>
@@ -6275,12 +6200,12 @@
     </row>
     <row r="66" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G66" s="68"/>
       <c r="H66" s="106"/>
       <c r="I66" s="105" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J66" s="106"/>
       <c r="K66" s="93"/>
@@ -6295,7 +6220,7 @@
       <c r="T66" s="68"/>
       <c r="U66" s="107"/>
       <c r="V66" s="93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W66" s="106"/>
       <c r="X66" s="106"/>
@@ -6304,7 +6229,7 @@
       <c r="AA66" s="68"/>
       <c r="AB66" s="72"/>
       <c r="AC66" s="93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD66" s="68"/>
       <c r="AE66" s="68"/>
@@ -6384,7 +6309,7 @@
     <row r="69" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="42"/>
       <c r="F69" s="44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G69" s="44"/>
       <c r="H69" s="44"/>
@@ -6418,7 +6343,7 @@
     <row r="70" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="42"/>
       <c r="F70" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H70" s="44"/>
       <c r="I70" s="44"/>
@@ -6472,7 +6397,7 @@
     <row r="74" spans="4:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D74" s="29"/>
       <c r="F74" s="41" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="V74" s="29"/>
       <c r="W74" s="29"/>
@@ -6492,7 +6417,7 @@
     <row r="75" spans="4:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D75" s="29"/>
       <c r="F75" s="41" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="V75" s="29"/>
       <c r="W75" s="29"/>
@@ -6512,7 +6437,7 @@
     <row r="76" spans="4:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D76" s="29"/>
       <c r="F76" s="41" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="V76" s="29"/>
       <c r="W76" s="29"/>
@@ -6542,7 +6467,7 @@
     </row>
     <row r="79" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F79" s="36" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6553,7 +6478,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="18"/>
       <c r="J80" s="17" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K80" s="17"/>
       <c r="L80" s="53"/>
@@ -6591,7 +6516,7 @@
       <c r="H81" s="26"/>
       <c r="I81" s="71"/>
       <c r="J81" s="26" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="K81" s="26"/>
       <c r="L81" s="26"/>
@@ -6627,7 +6552,7 @@
       <c r="H82" s="26"/>
       <c r="I82" s="71"/>
       <c r="J82" s="26" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K82" s="26"/>
       <c r="L82" s="26"/>
@@ -6663,7 +6588,7 @@
       <c r="H83" s="26"/>
       <c r="I83" s="71"/>
       <c r="J83" s="26" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="K83" s="26"/>
       <c r="L83" s="26"/>
@@ -6699,7 +6624,7 @@
       <c r="H84" s="26"/>
       <c r="I84" s="71"/>
       <c r="J84" s="26" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="K84" s="26"/>
       <c r="L84" s="26"/>
@@ -6737,7 +6662,7 @@
       <c r="H85" s="98"/>
       <c r="I85" s="98"/>
       <c r="J85" s="97" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="K85" s="98"/>
       <c r="L85" s="98"/>
@@ -6773,7 +6698,7 @@
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
       <c r="J86" s="92" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="K86" s="26"/>
       <c r="L86" s="26"/>
@@ -6809,7 +6734,7 @@
       <c r="H87" s="26"/>
       <c r="I87" s="26"/>
       <c r="J87" s="92" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="K87" s="26"/>
       <c r="L87" s="26"/>
@@ -6845,7 +6770,7 @@
       <c r="H88" s="76"/>
       <c r="I88" s="76"/>
       <c r="J88" s="75" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="K88" s="76"/>
       <c r="L88" s="76"/>
@@ -6914,7 +6839,7 @@
         <v>3.1.6.3.</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
@@ -6943,7 +6868,7 @@
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
       <c r="F91" s="65" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
@@ -6972,7 +6897,7 @@
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="65" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
@@ -7028,7 +6953,7 @@
       <c r="D94" s="29"/>
       <c r="E94" s="29"/>
       <c r="F94" s="113" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
@@ -7091,7 +7016,7 @@
     </row>
     <row r="101" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="4" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7104,7 +7029,7 @@
       <c r="I102" s="17"/>
       <c r="J102" s="37"/>
       <c r="K102" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L102" s="38"/>
       <c r="M102" s="38"/>
@@ -7132,14 +7057,14 @@
     </row>
     <row r="103" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F103" s="69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G103" s="70"/>
       <c r="H103" s="70"/>
       <c r="I103" s="70"/>
       <c r="J103" s="71"/>
       <c r="K103" s="26" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="L103" s="26"/>
       <c r="M103" s="26"/>
@@ -7172,7 +7097,7 @@
       <c r="I104" s="102"/>
       <c r="J104" s="90"/>
       <c r="K104" s="76" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="L104" s="76"/>
       <c r="M104" s="76"/>
@@ -7200,14 +7125,14 @@
     </row>
     <row r="105" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G105" s="70"/>
       <c r="H105" s="70"/>
       <c r="I105" s="70"/>
       <c r="J105" s="71"/>
       <c r="K105" s="26" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="L105" s="26"/>
       <c r="M105" s="26"/>
@@ -7240,7 +7165,7 @@
       <c r="I106" s="102"/>
       <c r="J106" s="90"/>
       <c r="K106" s="76" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="L106" s="76"/>
       <c r="M106" s="76"/>
@@ -7299,7 +7224,7 @@
     </row>
     <row r="108" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="70" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G108" s="70"/>
       <c r="H108" s="70"/>
@@ -7369,7 +7294,7 @@
       <c r="H110" s="53"/>
       <c r="I110" s="54"/>
       <c r="J110" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K110" s="53"/>
       <c r="L110" s="53"/>
@@ -7404,7 +7329,7 @@
       <c r="H111" s="99"/>
       <c r="I111" s="101"/>
       <c r="J111" s="99" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="K111" s="99"/>
       <c r="L111" s="99"/>
@@ -7437,7 +7362,7 @@
       <c r="H112" s="70"/>
       <c r="I112" s="94"/>
       <c r="J112" s="70" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="K112" s="70"/>
       <c r="L112" s="70"/>
@@ -7470,7 +7395,7 @@
       <c r="H113" s="102"/>
       <c r="I113" s="103"/>
       <c r="J113" s="102" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="K113" s="102"/>
       <c r="L113" s="102"/>
@@ -7505,7 +7430,7 @@
       <c r="H114" s="70"/>
       <c r="I114" s="94"/>
       <c r="J114" s="70" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="K114" s="70"/>
       <c r="L114" s="70"/>
@@ -7538,7 +7463,7 @@
       <c r="H115" s="70"/>
       <c r="I115" s="94"/>
       <c r="J115" s="70" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="K115" s="70"/>
       <c r="L115" s="70"/>
@@ -7566,519 +7491,493 @@
       <c r="AH115" s="70"/>
     </row>
     <row r="116" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F116" s="81"/>
-      <c r="G116" s="102"/>
-      <c r="H116" s="102"/>
-      <c r="I116" s="103"/>
-      <c r="J116" s="102" t="s">
-        <v>318</v>
-      </c>
-      <c r="K116" s="102"/>
-      <c r="L116" s="102"/>
-      <c r="M116" s="102"/>
-      <c r="N116" s="102"/>
-      <c r="O116" s="102"/>
-      <c r="P116" s="102"/>
-      <c r="Q116" s="102"/>
-      <c r="R116" s="102"/>
-      <c r="S116" s="102"/>
-      <c r="T116" s="102"/>
-      <c r="U116" s="102"/>
-      <c r="V116" s="102"/>
-      <c r="W116" s="102"/>
-      <c r="X116" s="102"/>
-      <c r="Y116" s="102"/>
-      <c r="Z116" s="102"/>
-      <c r="AA116" s="102"/>
-      <c r="AB116" s="102"/>
-      <c r="AC116" s="102"/>
-      <c r="AD116" s="102"/>
-      <c r="AE116" s="102"/>
-      <c r="AF116" s="102"/>
-      <c r="AG116" s="103"/>
+      <c r="F116" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G116" s="99"/>
+      <c r="H116" s="99"/>
+      <c r="I116" s="101"/>
+      <c r="J116" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="K116" s="99"/>
+      <c r="L116" s="99"/>
+      <c r="M116" s="99"/>
+      <c r="N116" s="99"/>
+      <c r="O116" s="98"/>
+      <c r="P116" s="99"/>
+      <c r="Q116" s="99"/>
+      <c r="R116" s="99"/>
+      <c r="S116" s="99"/>
+      <c r="T116" s="99"/>
+      <c r="U116" s="99"/>
+      <c r="V116" s="99"/>
+      <c r="W116" s="99"/>
+      <c r="X116" s="99"/>
+      <c r="Y116" s="99"/>
+      <c r="Z116" s="99"/>
+      <c r="AA116" s="99"/>
+      <c r="AB116" s="99"/>
+      <c r="AC116" s="99"/>
+      <c r="AD116" s="99"/>
+      <c r="AE116" s="99"/>
+      <c r="AF116" s="99"/>
+      <c r="AG116" s="101"/>
       <c r="AH116" s="70"/>
     </row>
     <row r="117" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F117" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G117" s="99"/>
-      <c r="H117" s="99"/>
-      <c r="I117" s="101"/>
-      <c r="J117" s="99" t="s">
-        <v>310</v>
-      </c>
-      <c r="K117" s="99"/>
-      <c r="L117" s="99"/>
-      <c r="M117" s="99"/>
-      <c r="N117" s="99"/>
-      <c r="O117" s="98"/>
-      <c r="P117" s="99"/>
-      <c r="Q117" s="99"/>
-      <c r="R117" s="99"/>
-      <c r="S117" s="99"/>
-      <c r="T117" s="99"/>
-      <c r="U117" s="99"/>
-      <c r="V117" s="99"/>
-      <c r="W117" s="99"/>
-      <c r="X117" s="99"/>
-      <c r="Y117" s="99"/>
-      <c r="Z117" s="99"/>
-      <c r="AA117" s="99"/>
-      <c r="AB117" s="99"/>
-      <c r="AC117" s="99"/>
-      <c r="AD117" s="99"/>
-      <c r="AE117" s="99"/>
-      <c r="AF117" s="99"/>
-      <c r="AG117" s="101"/>
+      <c r="F117" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="70"/>
+      <c r="J117" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="K117" s="70"/>
+      <c r="L117" s="70"/>
+      <c r="M117" s="70"/>
+      <c r="N117" s="70"/>
+      <c r="O117" s="70"/>
+      <c r="P117" s="70"/>
+      <c r="Q117" s="70"/>
+      <c r="R117" s="70"/>
+      <c r="S117" s="70"/>
+      <c r="T117" s="70"/>
+      <c r="U117" s="70"/>
+      <c r="V117" s="70"/>
+      <c r="W117" s="70"/>
+      <c r="X117" s="70"/>
+      <c r="Y117" s="70"/>
+      <c r="Z117" s="70"/>
+      <c r="AA117" s="70"/>
+      <c r="AB117" s="70"/>
+      <c r="AC117" s="70"/>
+      <c r="AD117" s="70"/>
+      <c r="AE117" s="70"/>
+      <c r="AF117" s="70"/>
+      <c r="AG117" s="94"/>
       <c r="AH117" s="70"/>
     </row>
     <row r="118" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F118" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="G118" s="70"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
-      <c r="J118" s="109" t="s">
-        <v>311</v>
-      </c>
-      <c r="K118" s="70"/>
-      <c r="L118" s="70"/>
-      <c r="M118" s="70"/>
-      <c r="N118" s="70"/>
-      <c r="O118" s="70"/>
-      <c r="P118" s="70"/>
-      <c r="Q118" s="70"/>
-      <c r="R118" s="70"/>
-      <c r="S118" s="70"/>
-      <c r="T118" s="70"/>
-      <c r="U118" s="70"/>
-      <c r="V118" s="70"/>
-      <c r="W118" s="70"/>
-      <c r="X118" s="70"/>
-      <c r="Y118" s="70"/>
-      <c r="Z118" s="70"/>
-      <c r="AA118" s="70"/>
-      <c r="AB118" s="70"/>
-      <c r="AC118" s="70"/>
-      <c r="AD118" s="70"/>
-      <c r="AE118" s="70"/>
-      <c r="AF118" s="70"/>
-      <c r="AG118" s="94"/>
+      <c r="F118" s="81"/>
+      <c r="G118" s="102"/>
+      <c r="H118" s="102"/>
+      <c r="I118" s="102"/>
+      <c r="J118" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="K118" s="76"/>
+      <c r="L118" s="76"/>
+      <c r="M118" s="76"/>
+      <c r="N118" s="76"/>
+      <c r="O118" s="76"/>
+      <c r="P118" s="76"/>
+      <c r="Q118" s="76"/>
+      <c r="R118" s="76"/>
+      <c r="S118" s="76"/>
+      <c r="T118" s="76"/>
+      <c r="U118" s="76"/>
+      <c r="V118" s="76"/>
+      <c r="W118" s="76"/>
+      <c r="X118" s="76"/>
+      <c r="Y118" s="76"/>
+      <c r="Z118" s="76"/>
+      <c r="AA118" s="102"/>
+      <c r="AB118" s="102"/>
+      <c r="AC118" s="102"/>
+      <c r="AD118" s="102"/>
+      <c r="AE118" s="102"/>
+      <c r="AF118" s="102"/>
+      <c r="AG118" s="103"/>
       <c r="AH118" s="70"/>
     </row>
-    <row r="119" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F119" s="81"/>
-      <c r="G119" s="102"/>
-      <c r="H119" s="102"/>
-      <c r="I119" s="102"/>
-      <c r="J119" s="75" t="s">
-        <v>312</v>
-      </c>
-      <c r="K119" s="76"/>
-      <c r="L119" s="76"/>
-      <c r="M119" s="76"/>
-      <c r="N119" s="76"/>
-      <c r="O119" s="76"/>
-      <c r="P119" s="76"/>
-      <c r="Q119" s="76"/>
-      <c r="R119" s="76"/>
-      <c r="S119" s="76"/>
-      <c r="T119" s="76"/>
-      <c r="U119" s="76"/>
-      <c r="V119" s="76"/>
-      <c r="W119" s="76"/>
-      <c r="X119" s="76"/>
-      <c r="Y119" s="76"/>
-      <c r="Z119" s="76"/>
-      <c r="AA119" s="102"/>
-      <c r="AB119" s="102"/>
-      <c r="AC119" s="102"/>
-      <c r="AD119" s="102"/>
-      <c r="AE119" s="102"/>
-      <c r="AF119" s="102"/>
-      <c r="AG119" s="103"/>
-      <c r="AH119" s="70"/>
+    <row r="119" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="25"/>
+      <c r="O119" s="25"/>
+      <c r="P119" s="25"/>
+      <c r="Q119" s="25"/>
+      <c r="R119" s="25"/>
+      <c r="S119" s="25"/>
+      <c r="T119" s="25"/>
+      <c r="U119" s="25"/>
+      <c r="V119" s="25"/>
+      <c r="W119" s="25"/>
+      <c r="X119" s="25"/>
+      <c r="Y119" s="25"/>
+      <c r="Z119" s="25"/>
+      <c r="AA119" s="19"/>
+      <c r="AB119" s="19"/>
+      <c r="AC119" s="19"/>
+      <c r="AD119" s="19"/>
+      <c r="AE119" s="19"/>
+      <c r="AF119" s="19"/>
+      <c r="AG119" s="19"/>
+      <c r="AH119" s="19"/>
     </row>
     <row r="120" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="25"/>
-      <c r="L120" s="25"/>
-      <c r="M120" s="25"/>
-      <c r="N120" s="25"/>
-      <c r="O120" s="25"/>
-      <c r="P120" s="25"/>
-      <c r="Q120" s="25"/>
-      <c r="R120" s="25"/>
-      <c r="S120" s="25"/>
-      <c r="T120" s="25"/>
-      <c r="U120" s="25"/>
-      <c r="V120" s="25"/>
-      <c r="W120" s="25"/>
-      <c r="X120" s="25"/>
-      <c r="Y120" s="25"/>
-      <c r="Z120" s="25"/>
-      <c r="AA120" s="19"/>
-      <c r="AB120" s="19"/>
-      <c r="AC120" s="19"/>
-      <c r="AD120" s="19"/>
-      <c r="AE120" s="19"/>
-      <c r="AF120" s="19"/>
-      <c r="AG120" s="19"/>
-      <c r="AH120" s="19"/>
-    </row>
-    <row r="121" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E121" s="28" t="str">
+      <c r="E120" s="28" t="str">
         <f>D96&amp;"3."</f>
         <v>3.1.7.3.</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="122" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F122" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>313</v>
+      <c r="F120" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F122" s="24"/>
+      <c r="G122" s="41" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F123" s="24"/>
       <c r="G123" s="41" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F124" s="24"/>
-      <c r="G124" s="41" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="125" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F125" s="24"/>
+      <c r="G125" s="41" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="126" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F126" s="24"/>
       <c r="G126" s="41" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="127" spans="2:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F127" s="24"/>
-      <c r="G127" s="41" t="s">
-        <v>317</v>
-      </c>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="36"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="AA127" s="41"/>
     </row>
     <row r="128" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
       <c r="D128" s="36"/>
       <c r="E128" s="36"/>
-      <c r="AA128" s="41"/>
-    </row>
-    <row r="129" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G128" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q128" s="17"/>
+      <c r="R128" s="17"/>
+      <c r="S128" s="17"/>
+      <c r="T128" s="17"/>
+      <c r="U128" s="17"/>
+      <c r="V128" s="17"/>
+      <c r="W128" s="17"/>
+      <c r="X128" s="17"/>
+      <c r="Y128" s="17"/>
+      <c r="Z128" s="17"/>
+      <c r="AA128" s="53"/>
+      <c r="AB128" s="17"/>
+      <c r="AC128" s="17"/>
+      <c r="AD128" s="17"/>
+      <c r="AE128" s="17"/>
+      <c r="AF128" s="17"/>
+      <c r="AG128" s="17"/>
+      <c r="AH128" s="18"/>
+    </row>
+    <row r="129" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
       <c r="D129" s="36"/>
       <c r="E129" s="36"/>
-      <c r="G129" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H129" s="17"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="18"/>
-      <c r="K129" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="18"/>
-      <c r="P129" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q129" s="17"/>
-      <c r="R129" s="17"/>
-      <c r="S129" s="17"/>
-      <c r="T129" s="17"/>
-      <c r="U129" s="17"/>
-      <c r="V129" s="17"/>
-      <c r="W129" s="17"/>
-      <c r="X129" s="17"/>
-      <c r="Y129" s="17"/>
-      <c r="Z129" s="17"/>
-      <c r="AA129" s="53"/>
-      <c r="AB129" s="17"/>
-      <c r="AC129" s="17"/>
-      <c r="AD129" s="17"/>
-      <c r="AE129" s="17"/>
-      <c r="AF129" s="17"/>
-      <c r="AG129" s="17"/>
-      <c r="AH129" s="18"/>
+      <c r="G129" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" s="99"/>
+      <c r="I129" s="99"/>
+      <c r="J129" s="101"/>
+      <c r="K129" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="L129" s="99"/>
+      <c r="M129" s="99"/>
+      <c r="N129" s="99"/>
+      <c r="O129" s="101"/>
+      <c r="P129" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q129" s="99"/>
+      <c r="R129" s="99"/>
+      <c r="S129" s="99"/>
+      <c r="T129" s="99"/>
+      <c r="U129" s="99"/>
+      <c r="V129" s="99"/>
+      <c r="W129" s="99"/>
+      <c r="X129" s="99"/>
+      <c r="Y129" s="99"/>
+      <c r="Z129" s="99"/>
+      <c r="AA129" s="99"/>
+      <c r="AB129" s="99"/>
+      <c r="AC129" s="99"/>
+      <c r="AD129" s="99"/>
+      <c r="AE129" s="99"/>
+      <c r="AF129" s="99"/>
+      <c r="AG129" s="99"/>
+      <c r="AH129" s="101"/>
+      <c r="AI129" s="44"/>
     </row>
     <row r="130" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
       <c r="D130" s="36"/>
       <c r="E130" s="36"/>
-      <c r="G130" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="H130" s="99"/>
-      <c r="I130" s="99"/>
-      <c r="J130" s="101"/>
-      <c r="K130" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="L130" s="99"/>
-      <c r="M130" s="99"/>
-      <c r="N130" s="99"/>
-      <c r="O130" s="101"/>
-      <c r="P130" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q130" s="99"/>
-      <c r="R130" s="99"/>
-      <c r="S130" s="99"/>
-      <c r="T130" s="99"/>
-      <c r="U130" s="99"/>
-      <c r="V130" s="99"/>
-      <c r="W130" s="99"/>
-      <c r="X130" s="99"/>
-      <c r="Y130" s="99"/>
-      <c r="Z130" s="99"/>
-      <c r="AA130" s="99"/>
-      <c r="AB130" s="99"/>
-      <c r="AC130" s="99"/>
-      <c r="AD130" s="99"/>
-      <c r="AE130" s="99"/>
-      <c r="AF130" s="99"/>
-      <c r="AG130" s="99"/>
-      <c r="AH130" s="101"/>
-      <c r="AI130" s="44"/>
+      <c r="G130" s="109"/>
+      <c r="H130" s="70"/>
+      <c r="I130" s="70"/>
+      <c r="J130" s="94"/>
+      <c r="K130" s="70"/>
+      <c r="L130" s="70"/>
+      <c r="M130" s="70"/>
+      <c r="N130" s="70"/>
+      <c r="O130" s="94"/>
+      <c r="P130" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q130" s="70"/>
+      <c r="R130" s="70"/>
+      <c r="S130" s="70"/>
+      <c r="T130" s="70"/>
+      <c r="U130" s="70"/>
+      <c r="V130" s="70"/>
+      <c r="W130" s="70"/>
+      <c r="X130" s="70"/>
+      <c r="Y130" s="70"/>
+      <c r="Z130" s="70"/>
+      <c r="AA130" s="70"/>
+      <c r="AB130" s="70"/>
+      <c r="AC130" s="70"/>
+      <c r="AD130" s="70"/>
+      <c r="AE130" s="70"/>
+      <c r="AF130" s="70"/>
+      <c r="AG130" s="70"/>
+      <c r="AH130" s="94"/>
     </row>
     <row r="131" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
       <c r="D131" s="36"/>
       <c r="E131" s="36"/>
-      <c r="G131" s="109"/>
-      <c r="H131" s="70"/>
-      <c r="I131" s="70"/>
-      <c r="J131" s="94"/>
-      <c r="K131" s="70"/>
-      <c r="L131" s="70"/>
-      <c r="M131" s="70"/>
-      <c r="N131" s="70"/>
-      <c r="O131" s="94"/>
-      <c r="P131" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q131" s="70"/>
-      <c r="R131" s="70"/>
-      <c r="S131" s="70"/>
-      <c r="T131" s="70"/>
-      <c r="U131" s="70"/>
-      <c r="V131" s="70"/>
-      <c r="W131" s="70"/>
-      <c r="X131" s="70"/>
-      <c r="Y131" s="70"/>
-      <c r="Z131" s="70"/>
-      <c r="AA131" s="70"/>
-      <c r="AB131" s="70"/>
-      <c r="AC131" s="70"/>
-      <c r="AD131" s="70"/>
-      <c r="AE131" s="70"/>
-      <c r="AF131" s="70"/>
-      <c r="AG131" s="70"/>
-      <c r="AH131" s="94"/>
+      <c r="G131" s="81"/>
+      <c r="H131" s="102"/>
+      <c r="I131" s="102"/>
+      <c r="J131" s="103"/>
+      <c r="K131" s="102"/>
+      <c r="L131" s="102"/>
+      <c r="M131" s="102"/>
+      <c r="N131" s="102"/>
+      <c r="O131" s="103"/>
+      <c r="P131" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q131" s="102"/>
+      <c r="R131" s="102"/>
+      <c r="S131" s="102"/>
+      <c r="T131" s="102"/>
+      <c r="U131" s="102"/>
+      <c r="V131" s="102"/>
+      <c r="W131" s="102"/>
+      <c r="X131" s="102"/>
+      <c r="Y131" s="102"/>
+      <c r="Z131" s="102"/>
+      <c r="AA131" s="102"/>
+      <c r="AB131" s="102"/>
+      <c r="AC131" s="102"/>
+      <c r="AD131" s="102"/>
+      <c r="AE131" s="102"/>
+      <c r="AF131" s="102"/>
+      <c r="AG131" s="102"/>
+      <c r="AH131" s="103"/>
     </row>
     <row r="132" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="36"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
-      <c r="G132" s="81"/>
-      <c r="H132" s="102"/>
-      <c r="I132" s="102"/>
-      <c r="J132" s="103"/>
-      <c r="K132" s="102"/>
-      <c r="L132" s="102"/>
-      <c r="M132" s="102"/>
-      <c r="N132" s="102"/>
-      <c r="O132" s="103"/>
-      <c r="P132" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q132" s="102"/>
-      <c r="R132" s="102"/>
-      <c r="S132" s="102"/>
-      <c r="T132" s="102"/>
-      <c r="U132" s="102"/>
-      <c r="V132" s="102"/>
-      <c r="W132" s="102"/>
-      <c r="X132" s="102"/>
-      <c r="Y132" s="102"/>
-      <c r="Z132" s="102"/>
-      <c r="AA132" s="102"/>
-      <c r="AB132" s="102"/>
-      <c r="AC132" s="102"/>
-      <c r="AD132" s="102"/>
-      <c r="AE132" s="102"/>
-      <c r="AF132" s="102"/>
-      <c r="AG132" s="102"/>
-      <c r="AH132" s="103"/>
+      <c r="G132" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" s="70"/>
+      <c r="I132" s="70"/>
+      <c r="J132" s="94"/>
+      <c r="K132" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="L132" s="70"/>
+      <c r="M132" s="70"/>
+      <c r="N132" s="70"/>
+      <c r="O132" s="94"/>
+      <c r="P132" s="70" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q132" s="70"/>
+      <c r="R132" s="70"/>
+      <c r="S132" s="70"/>
+      <c r="T132" s="70"/>
+      <c r="U132" s="70"/>
+      <c r="V132" s="70"/>
+      <c r="W132" s="70"/>
+      <c r="X132" s="70"/>
+      <c r="Y132" s="70"/>
+      <c r="Z132" s="70"/>
+      <c r="AA132" s="70"/>
+      <c r="AB132" s="70"/>
+      <c r="AC132" s="70"/>
+      <c r="AD132" s="70"/>
+      <c r="AE132" s="70"/>
+      <c r="AF132" s="70"/>
+      <c r="AG132" s="70"/>
+      <c r="AH132" s="94"/>
     </row>
     <row r="133" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G133" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="H133" s="70"/>
-      <c r="I133" s="70"/>
-      <c r="J133" s="94"/>
-      <c r="K133" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="L133" s="70"/>
-      <c r="M133" s="70"/>
-      <c r="N133" s="70"/>
-      <c r="O133" s="94"/>
-      <c r="P133" s="70" t="s">
+      <c r="G133" s="81"/>
+      <c r="H133" s="102"/>
+      <c r="I133" s="102"/>
+      <c r="J133" s="103"/>
+      <c r="K133" s="102"/>
+      <c r="L133" s="102"/>
+      <c r="M133" s="102"/>
+      <c r="N133" s="102"/>
+      <c r="O133" s="103"/>
+      <c r="P133" s="102"/>
+      <c r="Q133" s="102"/>
+      <c r="R133" s="102"/>
+      <c r="S133" s="102"/>
+      <c r="T133" s="102"/>
+      <c r="U133" s="102"/>
+      <c r="V133" s="102"/>
+      <c r="W133" s="102"/>
+      <c r="X133" s="102"/>
+      <c r="Y133" s="102"/>
+      <c r="Z133" s="102"/>
+      <c r="AA133" s="102"/>
+      <c r="AB133" s="102"/>
+      <c r="AC133" s="102"/>
+      <c r="AD133" s="102"/>
+      <c r="AE133" s="102"/>
+      <c r="AF133" s="102"/>
+      <c r="AG133" s="102"/>
+      <c r="AH133" s="103"/>
+    </row>
+    <row r="134" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G134" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="H134" s="70"/>
+      <c r="I134" s="70"/>
+      <c r="J134" s="94"/>
+      <c r="K134" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="L134" s="70"/>
+      <c r="M134" s="70"/>
+      <c r="N134" s="70"/>
+      <c r="O134" s="94"/>
+      <c r="P134" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q134" s="70"/>
+      <c r="R134" s="70"/>
+      <c r="S134" s="70"/>
+      <c r="T134" s="70"/>
+      <c r="U134" s="70"/>
+      <c r="V134" s="70"/>
+      <c r="W134" s="70"/>
+      <c r="X134" s="70"/>
+      <c r="Y134" s="70"/>
+      <c r="Z134" s="70"/>
+      <c r="AA134" s="70"/>
+      <c r="AB134" s="70"/>
+      <c r="AC134" s="70"/>
+      <c r="AD134" s="70"/>
+      <c r="AE134" s="70"/>
+      <c r="AF134" s="70"/>
+      <c r="AG134" s="70"/>
+      <c r="AH134" s="94"/>
+    </row>
+    <row r="135" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G135" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" s="102"/>
+      <c r="I135" s="102"/>
+      <c r="J135" s="103"/>
+      <c r="K135" s="102"/>
+      <c r="L135" s="102"/>
+      <c r="M135" s="102"/>
+      <c r="N135" s="102"/>
+      <c r="O135" s="103"/>
+      <c r="P135" s="102"/>
+      <c r="Q135" s="102"/>
+      <c r="R135" s="102"/>
+      <c r="S135" s="102"/>
+      <c r="T135" s="102"/>
+      <c r="U135" s="102"/>
+      <c r="V135" s="102"/>
+      <c r="W135" s="102"/>
+      <c r="X135" s="102"/>
+      <c r="Y135" s="102"/>
+      <c r="Z135" s="102"/>
+      <c r="AA135" s="102"/>
+      <c r="AB135" s="102"/>
+      <c r="AC135" s="102"/>
+      <c r="AD135" s="102"/>
+      <c r="AE135" s="102"/>
+      <c r="AF135" s="102"/>
+      <c r="AG135" s="102"/>
+      <c r="AH135" s="103"/>
+    </row>
+    <row r="136" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F137" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G137" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="Q133" s="70"/>
-      <c r="R133" s="70"/>
-      <c r="S133" s="70"/>
-      <c r="T133" s="70"/>
-      <c r="U133" s="70"/>
-      <c r="V133" s="70"/>
-      <c r="W133" s="70"/>
-      <c r="X133" s="70"/>
-      <c r="Y133" s="70"/>
-      <c r="Z133" s="70"/>
-      <c r="AA133" s="70"/>
-      <c r="AB133" s="70"/>
-      <c r="AC133" s="70"/>
-      <c r="AD133" s="70"/>
-      <c r="AE133" s="70"/>
-      <c r="AF133" s="70"/>
-      <c r="AG133" s="70"/>
-      <c r="AH133" s="94"/>
-    </row>
-    <row r="134" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G134" s="81"/>
-      <c r="H134" s="102"/>
-      <c r="I134" s="102"/>
-      <c r="J134" s="103"/>
-      <c r="K134" s="102"/>
-      <c r="L134" s="102"/>
-      <c r="M134" s="102"/>
-      <c r="N134" s="102"/>
-      <c r="O134" s="103"/>
-      <c r="P134" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q134" s="102"/>
-      <c r="R134" s="102"/>
-      <c r="S134" s="102"/>
-      <c r="T134" s="102"/>
-      <c r="U134" s="102"/>
-      <c r="V134" s="102"/>
-      <c r="W134" s="102"/>
-      <c r="X134" s="102"/>
-      <c r="Y134" s="102"/>
-      <c r="Z134" s="102"/>
-      <c r="AA134" s="102"/>
-      <c r="AB134" s="102"/>
-      <c r="AC134" s="102"/>
-      <c r="AD134" s="102"/>
-      <c r="AE134" s="102"/>
-      <c r="AF134" s="102"/>
-      <c r="AG134" s="102"/>
-      <c r="AH134" s="103"/>
-    </row>
-    <row r="135" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G135" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="H135" s="70"/>
-      <c r="I135" s="70"/>
-      <c r="J135" s="94"/>
-      <c r="K135" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="L135" s="70"/>
-      <c r="M135" s="70"/>
-      <c r="N135" s="70"/>
-      <c r="O135" s="94"/>
-      <c r="P135" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q135" s="70"/>
-      <c r="R135" s="70"/>
-      <c r="S135" s="70"/>
-      <c r="T135" s="70"/>
-      <c r="U135" s="70"/>
-      <c r="V135" s="70"/>
-      <c r="W135" s="70"/>
-      <c r="X135" s="70"/>
-      <c r="Y135" s="70"/>
-      <c r="Z135" s="70"/>
-      <c r="AA135" s="70"/>
-      <c r="AB135" s="70"/>
-      <c r="AC135" s="70"/>
-      <c r="AD135" s="70"/>
-      <c r="AE135" s="70"/>
-      <c r="AF135" s="70"/>
-      <c r="AG135" s="70"/>
-      <c r="AH135" s="94"/>
-    </row>
-    <row r="136" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G136" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="H136" s="102"/>
-      <c r="I136" s="102"/>
-      <c r="J136" s="103"/>
-      <c r="K136" s="102"/>
-      <c r="L136" s="102"/>
-      <c r="M136" s="102"/>
-      <c r="N136" s="102"/>
-      <c r="O136" s="103"/>
-      <c r="P136" s="102"/>
-      <c r="Q136" s="102"/>
-      <c r="R136" s="102"/>
-      <c r="S136" s="102"/>
-      <c r="T136" s="102"/>
-      <c r="U136" s="102"/>
-      <c r="V136" s="102"/>
-      <c r="W136" s="102"/>
-      <c r="X136" s="102"/>
-      <c r="Y136" s="102"/>
-      <c r="Z136" s="102"/>
-      <c r="AA136" s="102"/>
-      <c r="AB136" s="102"/>
-      <c r="AC136" s="102"/>
-      <c r="AD136" s="102"/>
-      <c r="AE136" s="102"/>
-      <c r="AF136" s="102"/>
-      <c r="AG136" s="102"/>
-      <c r="AH136" s="103"/>
-    </row>
-    <row r="137" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    </row>
     <row r="138" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F138" s="24" t="s">
-        <v>54</v>
-      </c>
+      <c r="B138" s="36"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
       <c r="G138" s="41" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8086,243 +7985,260 @@
       <c r="C139" s="36"/>
       <c r="D139" s="36"/>
       <c r="E139" s="36"/>
-      <c r="G139" s="41" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="140" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
       <c r="D140" s="36"/>
       <c r="E140" s="36"/>
+      <c r="G140" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H140" s="53"/>
+      <c r="I140" s="53"/>
+      <c r="J140" s="54"/>
+      <c r="K140" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="L140" s="53"/>
+      <c r="M140" s="53"/>
+      <c r="N140" s="53"/>
+      <c r="O140" s="54"/>
+      <c r="P140" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q140" s="53"/>
+      <c r="R140" s="53"/>
+      <c r="S140" s="53"/>
+      <c r="T140" s="53"/>
+      <c r="U140" s="53"/>
+      <c r="V140" s="53"/>
+      <c r="W140" s="53"/>
+      <c r="X140" s="53"/>
+      <c r="Y140" s="53"/>
+      <c r="Z140" s="53"/>
+      <c r="AA140" s="53"/>
+      <c r="AB140" s="53"/>
+      <c r="AC140" s="53"/>
+      <c r="AD140" s="53"/>
+      <c r="AE140" s="53"/>
+      <c r="AF140" s="53"/>
+      <c r="AG140" s="53"/>
+      <c r="AH140" s="54"/>
     </row>
     <row r="141" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
       <c r="D141" s="36"/>
       <c r="E141" s="36"/>
-      <c r="G141" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H141" s="53"/>
-      <c r="I141" s="53"/>
-      <c r="J141" s="54"/>
-      <c r="K141" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="L141" s="53"/>
-      <c r="M141" s="53"/>
-      <c r="N141" s="53"/>
-      <c r="O141" s="54"/>
-      <c r="P141" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q141" s="53"/>
-      <c r="R141" s="53"/>
-      <c r="S141" s="53"/>
-      <c r="T141" s="53"/>
-      <c r="U141" s="53"/>
-      <c r="V141" s="53"/>
-      <c r="W141" s="53"/>
-      <c r="X141" s="53"/>
-      <c r="Y141" s="53"/>
-      <c r="Z141" s="53"/>
-      <c r="AA141" s="53"/>
-      <c r="AB141" s="53"/>
-      <c r="AC141" s="53"/>
-      <c r="AD141" s="53"/>
-      <c r="AE141" s="53"/>
-      <c r="AF141" s="53"/>
-      <c r="AG141" s="53"/>
-      <c r="AH141" s="54"/>
+      <c r="G141" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" s="99"/>
+      <c r="I141" s="99"/>
+      <c r="J141" s="101"/>
+      <c r="K141" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="L141" s="99"/>
+      <c r="M141" s="99"/>
+      <c r="N141" s="99"/>
+      <c r="O141" s="101"/>
+      <c r="P141" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q141" s="99"/>
+      <c r="R141" s="99"/>
+      <c r="S141" s="99"/>
+      <c r="T141" s="99"/>
+      <c r="U141" s="99"/>
+      <c r="V141" s="99"/>
+      <c r="W141" s="99"/>
+      <c r="X141" s="99"/>
+      <c r="Y141" s="99"/>
+      <c r="Z141" s="99"/>
+      <c r="AA141" s="99"/>
+      <c r="AB141" s="99"/>
+      <c r="AC141" s="99"/>
+      <c r="AD141" s="99"/>
+      <c r="AE141" s="99"/>
+      <c r="AF141" s="99"/>
+      <c r="AG141" s="99"/>
+      <c r="AH141" s="101"/>
+      <c r="AI141" s="44"/>
     </row>
     <row r="142" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
       <c r="D142" s="36"/>
       <c r="E142" s="36"/>
-      <c r="G142" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="H142" s="99"/>
-      <c r="I142" s="99"/>
-      <c r="J142" s="101"/>
-      <c r="K142" s="99" t="s">
-        <v>208</v>
-      </c>
-      <c r="L142" s="99"/>
-      <c r="M142" s="99"/>
-      <c r="N142" s="99"/>
-      <c r="O142" s="101"/>
-      <c r="P142" s="99" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q142" s="99"/>
-      <c r="R142" s="99"/>
-      <c r="S142" s="99"/>
-      <c r="T142" s="99"/>
-      <c r="U142" s="99"/>
-      <c r="V142" s="99"/>
-      <c r="W142" s="99"/>
-      <c r="X142" s="99"/>
-      <c r="Y142" s="99"/>
-      <c r="Z142" s="99"/>
-      <c r="AA142" s="99"/>
-      <c r="AB142" s="99"/>
-      <c r="AC142" s="99"/>
-      <c r="AD142" s="99"/>
-      <c r="AE142" s="99"/>
-      <c r="AF142" s="99"/>
-      <c r="AG142" s="99"/>
-      <c r="AH142" s="101"/>
-      <c r="AI142" s="44"/>
-    </row>
-    <row r="143" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="36"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
-      <c r="E143" s="36"/>
-      <c r="G143" s="81"/>
-      <c r="H143" s="102"/>
-      <c r="I143" s="102"/>
-      <c r="J143" s="103"/>
-      <c r="K143" s="102"/>
-      <c r="L143" s="102"/>
-      <c r="M143" s="102"/>
-      <c r="N143" s="102"/>
-      <c r="O143" s="103"/>
-      <c r="P143" s="102"/>
-      <c r="Q143" s="102"/>
-      <c r="R143" s="102"/>
-      <c r="S143" s="102"/>
-      <c r="T143" s="102"/>
-      <c r="U143" s="102"/>
-      <c r="V143" s="102"/>
-      <c r="W143" s="102"/>
-      <c r="X143" s="102"/>
-      <c r="Y143" s="102"/>
-      <c r="Z143" s="102"/>
-      <c r="AA143" s="102"/>
-      <c r="AB143" s="102"/>
-      <c r="AC143" s="102"/>
-      <c r="AD143" s="102"/>
-      <c r="AE143" s="102"/>
-      <c r="AF143" s="102"/>
-      <c r="AG143" s="102"/>
-      <c r="AH143" s="103"/>
-    </row>
-    <row r="144" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G144" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="H144" s="70"/>
-      <c r="I144" s="70"/>
-      <c r="J144" s="94"/>
-      <c r="K144" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="L144" s="70"/>
-      <c r="M144" s="70"/>
-      <c r="N144" s="70"/>
-      <c r="O144" s="94"/>
-      <c r="P144" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q144" s="70"/>
-      <c r="R144" s="70"/>
-      <c r="S144" s="70"/>
-      <c r="T144" s="70"/>
-      <c r="U144" s="70"/>
-      <c r="V144" s="70"/>
-      <c r="W144" s="70"/>
-      <c r="X144" s="70"/>
-      <c r="Y144" s="70"/>
-      <c r="Z144" s="70"/>
-      <c r="AA144" s="70"/>
-      <c r="AB144" s="70"/>
-      <c r="AC144" s="70"/>
-      <c r="AD144" s="70"/>
-      <c r="AE144" s="70"/>
-      <c r="AF144" s="70"/>
-      <c r="AG144" s="70"/>
-      <c r="AH144" s="94"/>
-    </row>
-    <row r="145" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G145" s="109"/>
-      <c r="H145" s="70"/>
-      <c r="I145" s="70"/>
-      <c r="J145" s="94"/>
-      <c r="K145" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="L145" s="70"/>
-      <c r="M145" s="70"/>
-      <c r="N145" s="70"/>
-      <c r="O145" s="94"/>
-      <c r="P145" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q145" s="70"/>
-      <c r="R145" s="70"/>
-      <c r="S145" s="70"/>
-      <c r="T145" s="70"/>
-      <c r="U145" s="70"/>
-      <c r="V145" s="70"/>
-      <c r="W145" s="70"/>
-      <c r="X145" s="70"/>
-      <c r="Y145" s="70"/>
-      <c r="Z145" s="70"/>
-      <c r="AA145" s="70"/>
-      <c r="AB145" s="70"/>
-      <c r="AC145" s="70"/>
-      <c r="AD145" s="70"/>
-      <c r="AE145" s="70"/>
-      <c r="AF145" s="70"/>
-      <c r="AG145" s="70"/>
-      <c r="AH145" s="94"/>
-    </row>
-    <row r="146" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G146" s="81"/>
-      <c r="H146" s="102"/>
-      <c r="I146" s="102"/>
-      <c r="J146" s="103"/>
-      <c r="K146" s="102"/>
-      <c r="L146" s="102"/>
-      <c r="M146" s="102"/>
-      <c r="N146" s="102"/>
-      <c r="O146" s="103"/>
-      <c r="P146" s="102"/>
-      <c r="Q146" s="102"/>
-      <c r="R146" s="102"/>
-      <c r="S146" s="102"/>
-      <c r="T146" s="102"/>
-      <c r="U146" s="102"/>
-      <c r="V146" s="102"/>
-      <c r="W146" s="102"/>
-      <c r="X146" s="102"/>
-      <c r="Y146" s="102"/>
-      <c r="Z146" s="102"/>
-      <c r="AA146" s="102"/>
-      <c r="AB146" s="102"/>
-      <c r="AC146" s="102"/>
-      <c r="AD146" s="102"/>
-      <c r="AE146" s="102"/>
-      <c r="AF146" s="102"/>
-      <c r="AG146" s="102"/>
-      <c r="AH146" s="103"/>
-    </row>
-    <row r="147" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="29"/>
-      <c r="D148" s="24" t="str">
+      <c r="G142" s="81"/>
+      <c r="H142" s="102"/>
+      <c r="I142" s="102"/>
+      <c r="J142" s="103"/>
+      <c r="K142" s="102"/>
+      <c r="L142" s="102"/>
+      <c r="M142" s="102"/>
+      <c r="N142" s="102"/>
+      <c r="O142" s="103"/>
+      <c r="P142" s="102"/>
+      <c r="Q142" s="102"/>
+      <c r="R142" s="102"/>
+      <c r="S142" s="102"/>
+      <c r="T142" s="102"/>
+      <c r="U142" s="102"/>
+      <c r="V142" s="102"/>
+      <c r="W142" s="102"/>
+      <c r="X142" s="102"/>
+      <c r="Y142" s="102"/>
+      <c r="Z142" s="102"/>
+      <c r="AA142" s="102"/>
+      <c r="AB142" s="102"/>
+      <c r="AC142" s="102"/>
+      <c r="AD142" s="102"/>
+      <c r="AE142" s="102"/>
+      <c r="AF142" s="102"/>
+      <c r="AG142" s="102"/>
+      <c r="AH142" s="103"/>
+    </row>
+    <row r="143" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="29"/>
+      <c r="D144" s="24" t="str">
         <f>$C$7&amp;"8."</f>
         <v>3.1.8.</v>
       </c>
-      <c r="E148" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
+      <c r="E144" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F144" s="29"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="29"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="29"/>
+      <c r="M144" s="29"/>
+      <c r="N144" s="29"/>
+      <c r="O144" s="29"/>
+      <c r="P144" s="29"/>
+      <c r="Q144" s="29"/>
+      <c r="R144" s="29"/>
+      <c r="S144" s="29"/>
+      <c r="T144" s="29"/>
+      <c r="U144" s="29"/>
+      <c r="V144" s="29"/>
+      <c r="W144" s="29"/>
+      <c r="X144" s="29"/>
+      <c r="Y144" s="29"/>
+      <c r="Z144" s="29"/>
+      <c r="AA144" s="29"/>
+      <c r="AB144" s="29"/>
+    </row>
+    <row r="145" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="29"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24" t="str">
+        <f>D144&amp;"1."</f>
+        <v>3.1.8.1.</v>
+      </c>
+      <c r="F145" s="29" t="str">
+        <f>E144&amp;"機能概要"</f>
+        <v>開閉局機能概要</v>
+      </c>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="29"/>
+      <c r="K145" s="29"/>
+      <c r="L145" s="29"/>
+      <c r="M145" s="29"/>
+      <c r="N145" s="29"/>
+      <c r="O145" s="29"/>
+      <c r="P145" s="29"/>
+      <c r="Q145" s="29"/>
+      <c r="R145" s="29"/>
+      <c r="S145" s="29"/>
+      <c r="T145" s="29"/>
+      <c r="U145" s="29"/>
+      <c r="V145" s="29"/>
+      <c r="W145" s="29"/>
+      <c r="X145" s="29"/>
+      <c r="Y145" s="29"/>
+      <c r="Z145" s="29"/>
+      <c r="AA145" s="29"/>
+      <c r="AB145" s="29"/>
+    </row>
+    <row r="146" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="29"/>
+      <c r="M146" s="29"/>
+      <c r="N146" s="29"/>
+      <c r="O146" s="29"/>
+      <c r="P146" s="29"/>
+      <c r="Q146" s="29"/>
+      <c r="R146" s="29"/>
+      <c r="S146" s="29"/>
+      <c r="T146" s="29"/>
+      <c r="U146" s="29"/>
+      <c r="V146" s="29"/>
+      <c r="W146" s="29"/>
+      <c r="X146" s="29"/>
+      <c r="Y146" s="29"/>
+      <c r="Z146" s="29"/>
+      <c r="AA146" s="29"/>
+      <c r="AB146" s="29"/>
+    </row>
+    <row r="147" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="29"/>
+      <c r="K147" s="29"/>
+      <c r="L147" s="29"/>
+      <c r="M147" s="29"/>
+      <c r="N147" s="29"/>
+      <c r="O147" s="29"/>
+      <c r="P147" s="29"/>
+      <c r="Q147" s="29"/>
+      <c r="R147" s="29"/>
+      <c r="S147" s="29"/>
+      <c r="T147" s="29"/>
+      <c r="U147" s="29"/>
+      <c r="V147" s="29"/>
+      <c r="W147" s="29"/>
+      <c r="X147" s="29"/>
+      <c r="Y147" s="29"/>
+      <c r="Z147" s="29"/>
+      <c r="AA147" s="29"/>
+      <c r="AB147" s="29"/>
+    </row>
+    <row r="148" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G148" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H148" s="29"/>
       <c r="I148" s="29"/>
       <c r="J148" s="29"/>
@@ -8345,18 +8261,16 @@
       <c r="AA148" s="29"/>
       <c r="AB148" s="29"/>
     </row>
-    <row r="149" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="29"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24" t="str">
-        <f>D148&amp;"1."</f>
-        <v>3.1.8.1.</v>
-      </c>
-      <c r="F149" s="29" t="str">
-        <f>E148&amp;"機能概要"</f>
-        <v>開閉局機能概要</v>
-      </c>
-      <c r="G149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G149" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H149" s="29"/>
       <c r="I149" s="29"/>
       <c r="J149" s="29"/>
@@ -8379,14 +8293,16 @@
       <c r="AA149" s="29"/>
       <c r="AB149" s="29"/>
     </row>
-    <row r="150" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="29"/>
       <c r="D150" s="29"/>
       <c r="E150" s="29"/>
-      <c r="F150" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G150" s="29"/>
+      <c r="F150" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G150" s="29" t="s">
+        <v>59</v>
+      </c>
       <c r="H150" s="29"/>
       <c r="I150" s="29"/>
       <c r="J150" s="29"/>
@@ -8413,10 +8329,12 @@
       <c r="C151" s="29"/>
       <c r="D151" s="29"/>
       <c r="E151" s="29"/>
-      <c r="F151" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G151" s="29"/>
+      <c r="F151" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G151" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="H151" s="29"/>
       <c r="I151" s="29"/>
       <c r="J151" s="29"/>
@@ -8444,10 +8362,10 @@
       <c r="D152" s="29"/>
       <c r="E152" s="29"/>
       <c r="F152" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G152" s="29" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
@@ -8471,16 +8389,12 @@
       <c r="AA152" s="29"/>
       <c r="AB152" s="29"/>
     </row>
-    <row r="153" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C153" s="29"/>
       <c r="D153" s="29"/>
       <c r="E153" s="29"/>
-      <c r="F153" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G153" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="F153" s="29"/>
+      <c r="G153" s="29"/>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
       <c r="J153" s="29"/>
@@ -8503,16 +8417,17 @@
       <c r="AA153" s="29"/>
       <c r="AB153" s="29"/>
     </row>
-    <row r="154" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C154" s="29"/>
       <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G154" s="29" t="s">
-        <v>60</v>
-      </c>
+      <c r="E154" s="24" t="str">
+        <f>D144&amp;"2."</f>
+        <v>3.1.8.2.</v>
+      </c>
+      <c r="F154" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G154" s="29"/>
       <c r="H154" s="29"/>
       <c r="I154" s="29"/>
       <c r="J154" s="29"/>
@@ -8535,16 +8450,14 @@
       <c r="AA154" s="29"/>
       <c r="AB154" s="29"/>
     </row>
-    <row r="155" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C155" s="29"/>
       <c r="D155" s="29"/>
       <c r="E155" s="29"/>
-      <c r="F155" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G155" s="29" t="s">
-        <v>71</v>
-      </c>
+      <c r="F155" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G155" s="29"/>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
       <c r="J155" s="29"/>
@@ -8567,16 +8480,12 @@
       <c r="AA155" s="29"/>
       <c r="AB155" s="29"/>
     </row>
-    <row r="156" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C156" s="29"/>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
-      <c r="F156" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G156" s="29" t="s">
-        <v>216</v>
-      </c>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
       <c r="J156" s="29"/>
@@ -8603,277 +8512,283 @@
       <c r="C157" s="29"/>
       <c r="D157" s="29"/>
       <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="29"/>
-      <c r="L157" s="29"/>
-      <c r="M157" s="29"/>
-      <c r="N157" s="29"/>
-      <c r="O157" s="29"/>
-      <c r="P157" s="29"/>
-      <c r="Q157" s="29"/>
-      <c r="R157" s="29"/>
-      <c r="S157" s="29"/>
-      <c r="T157" s="29"/>
-      <c r="U157" s="29"/>
-      <c r="V157" s="29"/>
-      <c r="W157" s="29"/>
-      <c r="X157" s="29"/>
-      <c r="Y157" s="29"/>
-      <c r="Z157" s="29"/>
-      <c r="AA157" s="29"/>
-      <c r="AB157" s="29"/>
+      <c r="F157" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="G157" s="38"/>
+      <c r="H157" s="38"/>
+      <c r="I157" s="38"/>
+      <c r="J157" s="38"/>
+      <c r="K157" s="38"/>
+      <c r="L157" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="M157" s="38"/>
+      <c r="N157" s="38"/>
+      <c r="O157" s="38"/>
+      <c r="P157" s="38"/>
+      <c r="Q157" s="38"/>
+      <c r="R157" s="38"/>
+      <c r="S157" s="38"/>
+      <c r="T157" s="38"/>
+      <c r="U157" s="38"/>
+      <c r="V157" s="38"/>
+      <c r="W157" s="38"/>
+      <c r="X157" s="38"/>
+      <c r="Y157" s="38"/>
+      <c r="Z157" s="38"/>
+      <c r="AA157" s="38"/>
+      <c r="AB157" s="38"/>
+      <c r="AC157" s="53"/>
+      <c r="AD157" s="53"/>
+      <c r="AE157" s="53"/>
+      <c r="AF157" s="53"/>
+      <c r="AG157" s="53"/>
+      <c r="AH157" s="54"/>
     </row>
     <row r="158" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
-      <c r="E158" s="24" t="str">
-        <f>D148&amp;"2."</f>
-        <v>3.1.8.2.</v>
-      </c>
-      <c r="F158" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G158" s="29"/>
-      <c r="H158" s="29"/>
-      <c r="I158" s="29"/>
-      <c r="J158" s="29"/>
-      <c r="K158" s="29"/>
-      <c r="L158" s="29"/>
-      <c r="M158" s="29"/>
-      <c r="N158" s="29"/>
-      <c r="O158" s="29"/>
-      <c r="P158" s="29"/>
-      <c r="Q158" s="29"/>
-      <c r="R158" s="29"/>
-      <c r="S158" s="29"/>
-      <c r="T158" s="29"/>
-      <c r="U158" s="29"/>
-      <c r="V158" s="29"/>
-      <c r="W158" s="29"/>
-      <c r="X158" s="29"/>
-      <c r="Y158" s="29"/>
-      <c r="Z158" s="29"/>
-      <c r="AA158" s="29"/>
-      <c r="AB158" s="29"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="G158" s="98"/>
+      <c r="H158" s="98"/>
+      <c r="I158" s="98"/>
+      <c r="J158" s="98"/>
+      <c r="K158" s="98"/>
+      <c r="L158" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="M158" s="98"/>
+      <c r="N158" s="98"/>
+      <c r="O158" s="98"/>
+      <c r="P158" s="26"/>
+      <c r="Q158" s="98"/>
+      <c r="R158" s="98"/>
+      <c r="S158" s="98"/>
+      <c r="T158" s="98"/>
+      <c r="U158" s="98"/>
+      <c r="V158" s="98"/>
+      <c r="W158" s="98"/>
+      <c r="X158" s="98"/>
+      <c r="Y158" s="98"/>
+      <c r="Z158" s="98"/>
+      <c r="AA158" s="98"/>
+      <c r="AB158" s="98"/>
+      <c r="AC158" s="99"/>
+      <c r="AD158" s="99"/>
+      <c r="AE158" s="99"/>
+      <c r="AF158" s="99"/>
+      <c r="AG158" s="99"/>
+      <c r="AH158" s="101"/>
     </row>
     <row r="159" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="29"/>
-      <c r="F159" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G159" s="29"/>
-      <c r="H159" s="29"/>
-      <c r="I159" s="29"/>
-      <c r="J159" s="29"/>
-      <c r="K159" s="29"/>
-      <c r="L159" s="29"/>
-      <c r="M159" s="29"/>
-      <c r="N159" s="29"/>
-      <c r="O159" s="29"/>
-      <c r="P159" s="29"/>
-      <c r="Q159" s="29"/>
-      <c r="R159" s="29"/>
-      <c r="S159" s="29"/>
-      <c r="T159" s="29"/>
-      <c r="U159" s="29"/>
-      <c r="V159" s="29"/>
-      <c r="W159" s="29"/>
-      <c r="X159" s="29"/>
-      <c r="Y159" s="29"/>
-      <c r="Z159" s="29"/>
-      <c r="AA159" s="29"/>
-      <c r="AB159" s="29"/>
-    </row>
-    <row r="160" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F159" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="G159" s="98"/>
+      <c r="H159" s="98"/>
+      <c r="I159" s="98"/>
+      <c r="J159" s="98"/>
+      <c r="K159" s="98"/>
+      <c r="L159" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="M159" s="98"/>
+      <c r="N159" s="98"/>
+      <c r="O159" s="98"/>
+      <c r="P159" s="98"/>
+      <c r="Q159" s="98"/>
+      <c r="R159" s="98"/>
+      <c r="S159" s="98"/>
+      <c r="T159" s="98"/>
+      <c r="U159" s="98"/>
+      <c r="V159" s="98"/>
+      <c r="W159" s="98"/>
+      <c r="X159" s="98"/>
+      <c r="Y159" s="98"/>
+      <c r="Z159" s="98"/>
+      <c r="AA159" s="98"/>
+      <c r="AB159" s="98"/>
+      <c r="AC159" s="99"/>
+      <c r="AD159" s="99"/>
+      <c r="AE159" s="99"/>
+      <c r="AF159" s="99"/>
+      <c r="AG159" s="99"/>
+      <c r="AH159" s="101"/>
+    </row>
+    <row r="160" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="29"/>
-      <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
-      <c r="M160" s="29"/>
-      <c r="N160" s="29"/>
-      <c r="O160" s="29"/>
-      <c r="P160" s="29"/>
-      <c r="Q160" s="29"/>
-      <c r="R160" s="29"/>
-      <c r="S160" s="29"/>
-      <c r="T160" s="29"/>
-      <c r="U160" s="29"/>
-      <c r="V160" s="29"/>
-      <c r="W160" s="29"/>
-      <c r="X160" s="29"/>
-      <c r="Y160" s="29"/>
-      <c r="Z160" s="29"/>
-      <c r="AA160" s="29"/>
-      <c r="AB160" s="29"/>
+      <c r="F160" s="75"/>
+      <c r="G160" s="76"/>
+      <c r="H160" s="76"/>
+      <c r="I160" s="76"/>
+      <c r="J160" s="76"/>
+      <c r="K160" s="76"/>
+      <c r="L160" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="M160" s="76"/>
+      <c r="N160" s="76"/>
+      <c r="O160" s="76"/>
+      <c r="P160" s="76"/>
+      <c r="Q160" s="76"/>
+      <c r="R160" s="76"/>
+      <c r="S160" s="76"/>
+      <c r="T160" s="76"/>
+      <c r="U160" s="76"/>
+      <c r="V160" s="76"/>
+      <c r="W160" s="76"/>
+      <c r="X160" s="76"/>
+      <c r="Y160" s="76"/>
+      <c r="Z160" s="76"/>
+      <c r="AA160" s="76"/>
+      <c r="AB160" s="76"/>
+      <c r="AC160" s="102"/>
+      <c r="AD160" s="102"/>
+      <c r="AE160" s="102"/>
+      <c r="AF160" s="102"/>
+      <c r="AG160" s="102"/>
+      <c r="AH160" s="103"/>
     </row>
     <row r="161" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
       <c r="E161" s="29"/>
-      <c r="F161" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="G161" s="38"/>
-      <c r="H161" s="38"/>
-      <c r="I161" s="38"/>
-      <c r="J161" s="38"/>
-      <c r="K161" s="38"/>
-      <c r="L161" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="M161" s="38"/>
-      <c r="N161" s="38"/>
-      <c r="O161" s="38"/>
-      <c r="P161" s="38"/>
-      <c r="Q161" s="38"/>
-      <c r="R161" s="38"/>
-      <c r="S161" s="38"/>
-      <c r="T161" s="38"/>
-      <c r="U161" s="38"/>
-      <c r="V161" s="38"/>
-      <c r="W161" s="38"/>
-      <c r="X161" s="38"/>
-      <c r="Y161" s="38"/>
-      <c r="Z161" s="38"/>
-      <c r="AA161" s="38"/>
-      <c r="AB161" s="38"/>
-      <c r="AC161" s="53"/>
-      <c r="AD161" s="53"/>
-      <c r="AE161" s="53"/>
-      <c r="AF161" s="53"/>
-      <c r="AG161" s="53"/>
-      <c r="AH161" s="54"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="29"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="29"/>
+      <c r="O161" s="29"/>
+      <c r="P161" s="29"/>
+      <c r="Q161" s="29"/>
+      <c r="R161" s="29"/>
+      <c r="S161" s="29"/>
+      <c r="T161" s="29"/>
+      <c r="U161" s="29"/>
+      <c r="V161" s="29"/>
+      <c r="W161" s="29"/>
+      <c r="X161" s="29"/>
+      <c r="Y161" s="29"/>
+      <c r="Z161" s="29"/>
+      <c r="AA161" s="29"/>
+      <c r="AB161" s="29"/>
     </row>
     <row r="162" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C162" s="29"/>
       <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="G162" s="98"/>
-      <c r="H162" s="98"/>
-      <c r="I162" s="98"/>
-      <c r="J162" s="98"/>
-      <c r="K162" s="98"/>
-      <c r="L162" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="M162" s="98"/>
-      <c r="N162" s="98"/>
-      <c r="O162" s="98"/>
-      <c r="P162" s="26"/>
-      <c r="Q162" s="98"/>
-      <c r="R162" s="98"/>
-      <c r="S162" s="98"/>
-      <c r="T162" s="98"/>
-      <c r="U162" s="98"/>
-      <c r="V162" s="98"/>
-      <c r="W162" s="98"/>
-      <c r="X162" s="98"/>
-      <c r="Y162" s="98"/>
-      <c r="Z162" s="98"/>
-      <c r="AA162" s="98"/>
-      <c r="AB162" s="98"/>
-      <c r="AC162" s="99"/>
-      <c r="AD162" s="99"/>
-      <c r="AE162" s="99"/>
-      <c r="AF162" s="99"/>
-      <c r="AG162" s="99"/>
-      <c r="AH162" s="101"/>
+      <c r="E162" s="24" t="str">
+        <f>D144&amp;"3."</f>
+        <v>3.1.8.3.</v>
+      </c>
+      <c r="F162" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G162" s="29"/>
+      <c r="H162" s="29"/>
+      <c r="I162" s="29"/>
+      <c r="J162" s="29"/>
+      <c r="K162" s="29"/>
+      <c r="L162" s="29"/>
+      <c r="M162" s="29"/>
+      <c r="N162" s="29"/>
+      <c r="O162" s="29"/>
+      <c r="P162" s="29"/>
+      <c r="Q162" s="29"/>
+      <c r="R162" s="29"/>
+      <c r="S162" s="29"/>
+      <c r="T162" s="29"/>
+      <c r="U162" s="29"/>
+      <c r="V162" s="29"/>
+      <c r="W162" s="29"/>
+      <c r="X162" s="29"/>
+      <c r="Y162" s="29"/>
+      <c r="Z162" s="29"/>
+      <c r="AA162" s="29"/>
+      <c r="AB162" s="29"/>
     </row>
     <row r="163" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C163" s="29"/>
       <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="G163" s="98"/>
-      <c r="H163" s="98"/>
-      <c r="I163" s="98"/>
-      <c r="J163" s="98"/>
-      <c r="K163" s="98"/>
-      <c r="L163" s="97" t="s">
-        <v>288</v>
-      </c>
-      <c r="M163" s="98"/>
-      <c r="N163" s="98"/>
-      <c r="O163" s="98"/>
-      <c r="P163" s="98"/>
-      <c r="Q163" s="98"/>
-      <c r="R163" s="98"/>
-      <c r="S163" s="98"/>
-      <c r="T163" s="98"/>
-      <c r="U163" s="98"/>
-      <c r="V163" s="98"/>
-      <c r="W163" s="98"/>
-      <c r="X163" s="98"/>
-      <c r="Y163" s="98"/>
-      <c r="Z163" s="98"/>
-      <c r="AA163" s="98"/>
-      <c r="AB163" s="98"/>
-      <c r="AC163" s="99"/>
-      <c r="AD163" s="99"/>
-      <c r="AE163" s="99"/>
-      <c r="AF163" s="99"/>
-      <c r="AG163" s="99"/>
-      <c r="AH163" s="101"/>
-    </row>
-    <row r="164" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E163" s="77"/>
+      <c r="F163" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G163" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="H163" s="29"/>
+      <c r="I163" s="29"/>
+      <c r="J163" s="29"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="29"/>
+      <c r="M163" s="29"/>
+      <c r="N163" s="29"/>
+      <c r="O163" s="29"/>
+      <c r="P163" s="29"/>
+      <c r="Q163" s="29"/>
+      <c r="R163" s="29"/>
+      <c r="S163" s="29"/>
+      <c r="T163" s="29"/>
+      <c r="U163" s="29"/>
+      <c r="V163" s="29"/>
+      <c r="W163" s="29"/>
+      <c r="X163" s="29"/>
+      <c r="Y163" s="29"/>
+      <c r="Z163" s="29"/>
+      <c r="AA163" s="29"/>
+      <c r="AB163" s="29"/>
+    </row>
+    <row r="164" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="75"/>
-      <c r="G164" s="76"/>
-      <c r="H164" s="76"/>
-      <c r="I164" s="76"/>
-      <c r="J164" s="76"/>
-      <c r="K164" s="76"/>
-      <c r="L164" s="75" t="s">
-        <v>290</v>
-      </c>
-      <c r="M164" s="76"/>
-      <c r="N164" s="76"/>
-      <c r="O164" s="76"/>
-      <c r="P164" s="76"/>
-      <c r="Q164" s="76"/>
-      <c r="R164" s="76"/>
-      <c r="S164" s="76"/>
-      <c r="T164" s="76"/>
-      <c r="U164" s="76"/>
-      <c r="V164" s="76"/>
-      <c r="W164" s="76"/>
-      <c r="X164" s="76"/>
-      <c r="Y164" s="76"/>
-      <c r="Z164" s="76"/>
-      <c r="AA164" s="76"/>
-      <c r="AB164" s="76"/>
-      <c r="AC164" s="102"/>
-      <c r="AD164" s="102"/>
-      <c r="AE164" s="102"/>
-      <c r="AF164" s="102"/>
-      <c r="AG164" s="102"/>
-      <c r="AH164" s="103"/>
-    </row>
-    <row r="165" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E164" s="77"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="H164" s="29"/>
+      <c r="I164" s="29"/>
+      <c r="J164" s="29"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="29"/>
+      <c r="M164" s="29"/>
+      <c r="N164" s="29"/>
+      <c r="O164" s="29"/>
+      <c r="P164" s="29"/>
+      <c r="Q164" s="29"/>
+      <c r="R164" s="29"/>
+      <c r="S164" s="29"/>
+      <c r="T164" s="29"/>
+      <c r="U164" s="29"/>
+      <c r="V164" s="29"/>
+      <c r="W164" s="29"/>
+      <c r="X164" s="29"/>
+      <c r="Y164" s="29"/>
+      <c r="Z164" s="29"/>
+      <c r="AA164" s="29"/>
+      <c r="AB164" s="29"/>
+    </row>
+    <row r="165" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C165" s="29"/>
       <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
+      <c r="E165" s="77"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="29" t="s">
+        <v>120</v>
+      </c>
       <c r="H165" s="29"/>
       <c r="I165" s="29"/>
       <c r="J165" s="29"/>
@@ -8899,14 +8814,11 @@
     <row r="166" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C166" s="29"/>
       <c r="D166" s="29"/>
-      <c r="E166" s="24" t="str">
-        <f>D148&amp;"3."</f>
-        <v>3.1.8.3.</v>
-      </c>
-      <c r="F166" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G166" s="29"/>
+      <c r="E166" s="77"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="64" t="s">
+        <v>199</v>
+      </c>
       <c r="H166" s="29"/>
       <c r="I166" s="29"/>
       <c r="J166" s="29"/>
@@ -8929,15 +8841,13 @@
       <c r="AA166" s="29"/>
       <c r="AB166" s="29"/>
     </row>
-    <row r="167" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C167" s="29"/>
       <c r="D167" s="29"/>
       <c r="E167" s="77"/>
-      <c r="F167" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G167" s="74" t="s">
-        <v>61</v>
+      <c r="F167" s="24"/>
+      <c r="G167" s="64" t="s">
+        <v>200</v>
       </c>
       <c r="H167" s="29"/>
       <c r="I167" s="29"/>
@@ -8961,14 +8871,12 @@
       <c r="AA167" s="29"/>
       <c r="AB167" s="29"/>
     </row>
-    <row r="168" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C168" s="29"/>
       <c r="D168" s="29"/>
       <c r="E168" s="77"/>
       <c r="F168" s="24"/>
-      <c r="G168" s="29" t="s">
-        <v>200</v>
-      </c>
+      <c r="G168" s="64"/>
       <c r="H168" s="29"/>
       <c r="I168" s="29"/>
       <c r="J168" s="29"/>
@@ -8991,13 +8899,17 @@
       <c r="AA168" s="29"/>
       <c r="AB168" s="29"/>
     </row>
-    <row r="169" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="41"/>
       <c r="C169" s="29"/>
       <c r="D169" s="29"/>
-      <c r="E169" s="77"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="29" t="s">
-        <v>122</v>
+      <c r="E169" s="74"/>
+      <c r="F169" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G169" s="114" t="str">
+        <f>G148&amp;"毎の対応方針"</f>
+        <v>開閉局切り替え単位毎の対応方針</v>
       </c>
       <c r="H169" s="29"/>
       <c r="I169" s="29"/>
@@ -9022,289 +8934,309 @@
       <c r="AB169" s="29"/>
     </row>
     <row r="170" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="41"/>
       <c r="C170" s="29"/>
       <c r="D170" s="29"/>
-      <c r="E170" s="77"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="H170" s="29"/>
-      <c r="I170" s="29"/>
-      <c r="J170" s="29"/>
-      <c r="K170" s="29"/>
-      <c r="L170" s="29"/>
-      <c r="M170" s="29"/>
-      <c r="N170" s="29"/>
-      <c r="O170" s="29"/>
-      <c r="P170" s="29"/>
-      <c r="Q170" s="29"/>
-      <c r="R170" s="29"/>
-      <c r="S170" s="29"/>
-      <c r="T170" s="29"/>
-      <c r="U170" s="29"/>
-      <c r="V170" s="29"/>
-      <c r="W170" s="29"/>
-      <c r="X170" s="29"/>
-      <c r="Y170" s="29"/>
-      <c r="Z170" s="29"/>
-      <c r="AA170" s="29"/>
-      <c r="AB170" s="29"/>
-    </row>
-    <row r="171" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E170" s="74"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="61" t="str">
+        <f>G148</f>
+        <v>開閉局切り替え単位</v>
+      </c>
+      <c r="H170" s="38"/>
+      <c r="I170" s="38"/>
+      <c r="J170" s="38"/>
+      <c r="K170" s="38"/>
+      <c r="L170" s="37"/>
+      <c r="M170" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="N170" s="38"/>
+      <c r="O170" s="38"/>
+      <c r="P170" s="37"/>
+      <c r="Q170" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="R170" s="38"/>
+      <c r="S170" s="38"/>
+      <c r="T170" s="38"/>
+      <c r="U170" s="38"/>
+      <c r="V170" s="38"/>
+      <c r="W170" s="38"/>
+      <c r="X170" s="38"/>
+      <c r="Y170" s="38"/>
+      <c r="Z170" s="38"/>
+      <c r="AA170" s="38"/>
+      <c r="AB170" s="38"/>
+      <c r="AC170" s="17"/>
+      <c r="AD170" s="17"/>
+      <c r="AE170" s="17"/>
+      <c r="AF170" s="17"/>
+      <c r="AG170" s="17"/>
+      <c r="AH170" s="18"/>
+    </row>
+    <row r="171" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="41"/>
       <c r="C171" s="29"/>
       <c r="D171" s="29"/>
-      <c r="E171" s="77"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="H171" s="29"/>
-      <c r="I171" s="29"/>
-      <c r="J171" s="29"/>
-      <c r="K171" s="29"/>
-      <c r="L171" s="29"/>
-      <c r="M171" s="29"/>
-      <c r="N171" s="29"/>
-      <c r="O171" s="29"/>
-      <c r="P171" s="29"/>
-      <c r="Q171" s="29"/>
-      <c r="R171" s="29"/>
-      <c r="S171" s="29"/>
-      <c r="T171" s="29"/>
-      <c r="U171" s="29"/>
-      <c r="V171" s="29"/>
-      <c r="W171" s="29"/>
-      <c r="X171" s="29"/>
-      <c r="Y171" s="29"/>
-      <c r="Z171" s="29"/>
-      <c r="AA171" s="29"/>
-      <c r="AB171" s="29"/>
-    </row>
-    <row r="172" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E171" s="74"/>
+      <c r="F171" s="29"/>
+      <c r="G171" s="30" t="str">
+        <f>F158</f>
+        <v>Webアプリケーション全体</v>
+      </c>
+      <c r="H171" s="55"/>
+      <c r="I171" s="55"/>
+      <c r="J171" s="55"/>
+      <c r="K171" s="55"/>
+      <c r="L171" s="31"/>
+      <c r="M171" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="N171" s="55"/>
+      <c r="O171" s="55"/>
+      <c r="P171" s="31"/>
+      <c r="Q171" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="R171" s="55"/>
+      <c r="S171" s="55"/>
+      <c r="T171" s="55"/>
+      <c r="U171" s="55"/>
+      <c r="V171" s="55"/>
+      <c r="W171" s="55"/>
+      <c r="X171" s="55"/>
+      <c r="Y171" s="55"/>
+      <c r="Z171" s="55"/>
+      <c r="AA171" s="55"/>
+      <c r="AB171" s="55"/>
+      <c r="AC171" s="19"/>
+      <c r="AD171" s="19"/>
+      <c r="AE171" s="19"/>
+      <c r="AF171" s="19"/>
+      <c r="AG171" s="19"/>
+      <c r="AH171" s="20"/>
+    </row>
+    <row r="172" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="41"/>
       <c r="C172" s="29"/>
       <c r="D172" s="29"/>
-      <c r="E172" s="77"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="64"/>
-      <c r="H172" s="29"/>
-      <c r="I172" s="29"/>
-      <c r="J172" s="29"/>
-      <c r="K172" s="29"/>
-      <c r="L172" s="29"/>
-      <c r="M172" s="29"/>
-      <c r="N172" s="29"/>
-      <c r="O172" s="29"/>
-      <c r="P172" s="29"/>
-      <c r="Q172" s="29"/>
-      <c r="R172" s="29"/>
-      <c r="S172" s="29"/>
-      <c r="T172" s="29"/>
-      <c r="U172" s="29"/>
-      <c r="V172" s="29"/>
-      <c r="W172" s="29"/>
-      <c r="X172" s="29"/>
-      <c r="Y172" s="29"/>
-      <c r="Z172" s="29"/>
-      <c r="AA172" s="29"/>
-      <c r="AB172" s="29"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="29"/>
+      <c r="G172" s="56" t="str">
+        <f>F159</f>
+        <v>リクエスト単位</v>
+      </c>
+      <c r="H172" s="57"/>
+      <c r="I172" s="57"/>
+      <c r="J172" s="57"/>
+      <c r="K172" s="57"/>
+      <c r="L172" s="58"/>
+      <c r="M172" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="N172" s="57"/>
+      <c r="O172" s="57"/>
+      <c r="P172" s="58"/>
+      <c r="Q172" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="R172" s="57"/>
+      <c r="S172" s="57"/>
+      <c r="T172" s="57"/>
+      <c r="U172" s="57"/>
+      <c r="V172" s="57"/>
+      <c r="W172" s="57"/>
+      <c r="X172" s="57"/>
+      <c r="Y172" s="57"/>
+      <c r="Z172" s="57"/>
+      <c r="AA172" s="57"/>
+      <c r="AB172" s="57"/>
+      <c r="AC172" s="59"/>
+      <c r="AD172" s="59"/>
+      <c r="AE172" s="59"/>
+      <c r="AF172" s="59"/>
+      <c r="AG172" s="59"/>
+      <c r="AH172" s="60"/>
     </row>
     <row r="173" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="41"/>
       <c r="C173" s="29"/>
       <c r="D173" s="29"/>
       <c r="E173" s="74"/>
-      <c r="F173" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G173" s="114" t="str">
-        <f>G152&amp;"毎の対応方針"</f>
-        <v>開閉局切り替え単位毎の対応方針</v>
-      </c>
-      <c r="H173" s="29"/>
-      <c r="I173" s="29"/>
-      <c r="J173" s="29"/>
-      <c r="K173" s="29"/>
-      <c r="L173" s="29"/>
-      <c r="M173" s="29"/>
-      <c r="N173" s="29"/>
-      <c r="O173" s="29"/>
-      <c r="P173" s="29"/>
-      <c r="Q173" s="29"/>
-      <c r="R173" s="29"/>
-      <c r="S173" s="29"/>
-      <c r="T173" s="29"/>
-      <c r="U173" s="29"/>
-      <c r="V173" s="29"/>
-      <c r="W173" s="29"/>
-      <c r="X173" s="29"/>
-      <c r="Y173" s="29"/>
-      <c r="Z173" s="29"/>
-      <c r="AA173" s="29"/>
-      <c r="AB173" s="29"/>
+      <c r="F173" s="29"/>
+      <c r="G173" s="55"/>
+      <c r="H173" s="55"/>
+      <c r="I173" s="55"/>
+      <c r="J173" s="55"/>
+      <c r="K173" s="55"/>
+      <c r="L173" s="55"/>
+      <c r="M173" s="55"/>
+      <c r="N173" s="55"/>
+      <c r="O173" s="55"/>
+      <c r="P173" s="55"/>
+      <c r="Q173" s="55"/>
+      <c r="R173" s="55"/>
+      <c r="S173" s="55"/>
+      <c r="T173" s="55"/>
+      <c r="U173" s="55"/>
+      <c r="V173" s="55"/>
+      <c r="W173" s="55"/>
+      <c r="X173" s="55"/>
+      <c r="Y173" s="55"/>
+      <c r="Z173" s="55"/>
+      <c r="AA173" s="55"/>
+      <c r="AB173" s="55"/>
+      <c r="AC173" s="19"/>
+      <c r="AD173" s="19"/>
+      <c r="AE173" s="19"/>
+      <c r="AF173" s="19"/>
+      <c r="AG173" s="19"/>
+      <c r="AH173" s="19"/>
     </row>
     <row r="174" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="41"/>
       <c r="C174" s="29"/>
       <c r="D174" s="29"/>
       <c r="E174" s="74"/>
-      <c r="F174" s="29"/>
-      <c r="G174" s="61" t="str">
-        <f>G152</f>
-        <v>開閉局切り替え単位</v>
-      </c>
-      <c r="H174" s="38"/>
-      <c r="I174" s="38"/>
-      <c r="J174" s="38"/>
-      <c r="K174" s="38"/>
-      <c r="L174" s="37"/>
-      <c r="M174" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="N174" s="38"/>
-      <c r="O174" s="38"/>
-      <c r="P174" s="37"/>
-      <c r="Q174" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="R174" s="38"/>
-      <c r="S174" s="38"/>
-      <c r="T174" s="38"/>
-      <c r="U174" s="38"/>
-      <c r="V174" s="38"/>
-      <c r="W174" s="38"/>
-      <c r="X174" s="38"/>
-      <c r="Y174" s="38"/>
-      <c r="Z174" s="38"/>
-      <c r="AA174" s="38"/>
-      <c r="AB174" s="38"/>
-      <c r="AC174" s="17"/>
-      <c r="AD174" s="17"/>
-      <c r="AE174" s="17"/>
-      <c r="AF174" s="17"/>
-      <c r="AG174" s="17"/>
-      <c r="AH174" s="18"/>
+      <c r="F174" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G174" s="29" t="str">
+        <f>G149</f>
+        <v>開閉局切り替え方法</v>
+      </c>
+      <c r="H174" s="29"/>
+      <c r="I174" s="29"/>
+      <c r="J174" s="29"/>
+      <c r="K174" s="29"/>
+      <c r="L174" s="29"/>
+      <c r="M174" s="29"/>
+      <c r="N174" s="29"/>
+      <c r="O174" s="29"/>
+      <c r="P174" s="29"/>
+      <c r="Q174" s="29"/>
+      <c r="R174" s="29"/>
+      <c r="S174" s="29"/>
+      <c r="T174" s="29"/>
+      <c r="U174" s="29"/>
+      <c r="V174" s="29"/>
+      <c r="W174" s="29"/>
+      <c r="X174" s="29"/>
+      <c r="Y174" s="29"/>
+      <c r="Z174" s="29"/>
+      <c r="AA174" s="29"/>
+      <c r="AB174" s="29"/>
     </row>
     <row r="175" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="41"/>
       <c r="C175" s="29"/>
       <c r="D175" s="29"/>
       <c r="E175" s="74"/>
       <c r="F175" s="29"/>
-      <c r="G175" s="30" t="str">
-        <f>F162</f>
-        <v>Webアプリケーション全体</v>
-      </c>
-      <c r="H175" s="55"/>
-      <c r="I175" s="55"/>
-      <c r="J175" s="55"/>
-      <c r="K175" s="55"/>
-      <c r="L175" s="31"/>
-      <c r="M175" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="N175" s="55"/>
-      <c r="O175" s="55"/>
-      <c r="P175" s="31"/>
-      <c r="Q175" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="R175" s="55"/>
-      <c r="S175" s="55"/>
-      <c r="T175" s="55"/>
-      <c r="U175" s="55"/>
-      <c r="V175" s="55"/>
-      <c r="W175" s="55"/>
-      <c r="X175" s="55"/>
-      <c r="Y175" s="55"/>
-      <c r="Z175" s="55"/>
-      <c r="AA175" s="55"/>
-      <c r="AB175" s="55"/>
-      <c r="AC175" s="19"/>
-      <c r="AD175" s="19"/>
-      <c r="AE175" s="19"/>
-      <c r="AF175" s="19"/>
-      <c r="AG175" s="19"/>
-      <c r="AH175" s="20"/>
+      <c r="G175" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" s="38"/>
+      <c r="I175" s="38"/>
+      <c r="J175" s="38"/>
+      <c r="K175" s="37"/>
+      <c r="L175" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M175" s="38"/>
+      <c r="N175" s="38"/>
+      <c r="O175" s="38"/>
+      <c r="P175" s="37"/>
+      <c r="Q175" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="R175" s="38"/>
+      <c r="S175" s="38"/>
+      <c r="T175" s="38"/>
+      <c r="U175" s="38"/>
+      <c r="V175" s="38"/>
+      <c r="W175" s="38"/>
+      <c r="X175" s="38"/>
+      <c r="Y175" s="38"/>
+      <c r="Z175" s="38"/>
+      <c r="AA175" s="38"/>
+      <c r="AB175" s="38"/>
+      <c r="AC175" s="62"/>
+      <c r="AD175" s="62"/>
+      <c r="AE175" s="62"/>
+      <c r="AF175" s="62"/>
+      <c r="AG175" s="53"/>
+      <c r="AH175" s="54"/>
     </row>
     <row r="176" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="41"/>
       <c r="C176" s="29"/>
       <c r="D176" s="29"/>
       <c r="E176" s="74"/>
       <c r="F176" s="29"/>
-      <c r="G176" s="56" t="str">
-        <f>F163</f>
+      <c r="G176" s="32" t="str">
+        <f>F159</f>
         <v>リクエスト単位</v>
       </c>
-      <c r="H176" s="57"/>
-      <c r="I176" s="57"/>
-      <c r="J176" s="57"/>
-      <c r="K176" s="57"/>
-      <c r="L176" s="58"/>
-      <c r="M176" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="N176" s="57"/>
-      <c r="O176" s="57"/>
-      <c r="P176" s="58"/>
-      <c r="Q176" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="R176" s="57"/>
-      <c r="S176" s="57"/>
-      <c r="T176" s="57"/>
-      <c r="U176" s="57"/>
-      <c r="V176" s="57"/>
-      <c r="W176" s="57"/>
-      <c r="X176" s="57"/>
-      <c r="Y176" s="57"/>
-      <c r="Z176" s="57"/>
-      <c r="AA176" s="57"/>
-      <c r="AB176" s="57"/>
-      <c r="AC176" s="59"/>
-      <c r="AD176" s="59"/>
-      <c r="AE176" s="59"/>
-      <c r="AF176" s="59"/>
-      <c r="AG176" s="59"/>
-      <c r="AH176" s="60"/>
-    </row>
-    <row r="177" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="41"/>
+      <c r="H176" s="33"/>
+      <c r="I176" s="33"/>
+      <c r="J176" s="33"/>
+      <c r="K176" s="34"/>
+      <c r="L176" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M176" s="33"/>
+      <c r="N176" s="33"/>
+      <c r="O176" s="33"/>
+      <c r="P176" s="34"/>
+      <c r="Q176" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="R176" s="33"/>
+      <c r="S176" s="33"/>
+      <c r="T176" s="33"/>
+      <c r="U176" s="33"/>
+      <c r="V176" s="33"/>
+      <c r="W176" s="33"/>
+      <c r="X176" s="33"/>
+      <c r="Y176" s="33"/>
+      <c r="Z176" s="33"/>
+      <c r="AA176" s="33"/>
+      <c r="AB176" s="33"/>
+      <c r="AC176" s="23"/>
+      <c r="AD176" s="23"/>
+      <c r="AE176" s="23"/>
+      <c r="AF176" s="23"/>
+      <c r="AG176" s="21"/>
+      <c r="AH176" s="22"/>
+    </row>
+    <row r="177" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C177" s="29"/>
       <c r="D177" s="29"/>
       <c r="E177" s="74"/>
       <c r="F177" s="29"/>
-      <c r="G177" s="55"/>
-      <c r="H177" s="55"/>
-      <c r="I177" s="55"/>
-      <c r="J177" s="55"/>
-      <c r="K177" s="55"/>
-      <c r="L177" s="55"/>
-      <c r="M177" s="55"/>
-      <c r="N177" s="55"/>
-      <c r="O177" s="55"/>
-      <c r="P177" s="55"/>
-      <c r="Q177" s="55"/>
-      <c r="R177" s="55"/>
-      <c r="S177" s="55"/>
-      <c r="T177" s="55"/>
-      <c r="U177" s="55"/>
-      <c r="V177" s="55"/>
-      <c r="W177" s="55"/>
-      <c r="X177" s="55"/>
-      <c r="Y177" s="55"/>
-      <c r="Z177" s="55"/>
-      <c r="AA177" s="55"/>
-      <c r="AB177" s="55"/>
-      <c r="AC177" s="19"/>
-      <c r="AD177" s="19"/>
-      <c r="AE177" s="19"/>
-      <c r="AF177" s="19"/>
-      <c r="AG177" s="19"/>
-      <c r="AH177" s="19"/>
-    </row>
-    <row r="178" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G177" s="29"/>
+      <c r="H177" s="29"/>
+      <c r="I177" s="29"/>
+      <c r="J177" s="29"/>
+      <c r="K177" s="29"/>
+      <c r="L177" s="29"/>
+      <c r="M177" s="29"/>
+      <c r="N177" s="29"/>
+      <c r="O177" s="29"/>
+      <c r="P177" s="29"/>
+      <c r="Q177" s="29"/>
+      <c r="R177" s="29"/>
+      <c r="S177" s="29"/>
+      <c r="T177" s="29"/>
+      <c r="U177" s="29"/>
+      <c r="V177" s="29"/>
+      <c r="W177" s="29"/>
+      <c r="X177" s="29"/>
+      <c r="Y177" s="29"/>
+      <c r="Z177" s="29"/>
+      <c r="AA177" s="29"/>
+      <c r="AB177" s="29"/>
+    </row>
+    <row r="178" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C178" s="29"/>
       <c r="D178" s="29"/>
       <c r="E178" s="74"/>
@@ -9312,8 +9244,8 @@
         <v>63</v>
       </c>
       <c r="G178" s="29" t="str">
-        <f>G153</f>
-        <v>開閉局切り替え方法</v>
+        <f>G150</f>
+        <v>開閉局チェック方法</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -9337,7 +9269,7 @@
       <c r="AA178" s="29"/>
       <c r="AB178" s="29"/>
     </row>
-    <row r="179" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C179" s="29"/>
       <c r="D179" s="29"/>
       <c r="E179" s="74"/>
@@ -9350,18 +9282,18 @@
       <c r="J179" s="38"/>
       <c r="K179" s="37"/>
       <c r="L179" s="38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M179" s="38"/>
       <c r="N179" s="38"/>
       <c r="O179" s="38"/>
-      <c r="P179" s="37"/>
-      <c r="Q179" s="38" t="s">
-        <v>38</v>
-      </c>
+      <c r="P179" s="38"/>
+      <c r="Q179" s="38"/>
       <c r="R179" s="38"/>
-      <c r="S179" s="38"/>
-      <c r="T179" s="38"/>
+      <c r="S179" s="37"/>
+      <c r="T179" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="U179" s="38"/>
       <c r="V179" s="38"/>
       <c r="W179" s="38"/>
@@ -9370,219 +9302,222 @@
       <c r="Z179" s="38"/>
       <c r="AA179" s="38"/>
       <c r="AB179" s="38"/>
-      <c r="AC179" s="62"/>
-      <c r="AD179" s="62"/>
-      <c r="AE179" s="62"/>
-      <c r="AF179" s="62"/>
-      <c r="AG179" s="53"/>
-      <c r="AH179" s="54"/>
-    </row>
-    <row r="180" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC179" s="17"/>
+      <c r="AD179" s="17"/>
+      <c r="AE179" s="17"/>
+      <c r="AF179" s="17"/>
+      <c r="AG179" s="17"/>
+      <c r="AH179" s="18"/>
+    </row>
+    <row r="180" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C180" s="29"/>
       <c r="D180" s="29"/>
-      <c r="E180" s="74"/>
-      <c r="F180" s="29"/>
-      <c r="G180" s="32" t="str">
-        <f>F163</f>
+      <c r="E180" s="26"/>
+      <c r="F180" s="55"/>
+      <c r="G180" s="35" t="str">
+        <f>F159</f>
         <v>リクエスト単位</v>
       </c>
-      <c r="H180" s="33"/>
-      <c r="I180" s="33"/>
-      <c r="J180" s="33"/>
-      <c r="K180" s="34"/>
-      <c r="L180" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="M180" s="33"/>
-      <c r="N180" s="33"/>
-      <c r="O180" s="33"/>
-      <c r="P180" s="34"/>
-      <c r="Q180" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="R180" s="33"/>
-      <c r="S180" s="33"/>
-      <c r="T180" s="33"/>
-      <c r="U180" s="33"/>
-      <c r="V180" s="33"/>
-      <c r="W180" s="33"/>
-      <c r="X180" s="33"/>
-      <c r="Y180" s="33"/>
-      <c r="Z180" s="33"/>
-      <c r="AA180" s="33"/>
-      <c r="AB180" s="33"/>
-      <c r="AC180" s="23"/>
-      <c r="AD180" s="23"/>
-      <c r="AE180" s="23"/>
-      <c r="AF180" s="23"/>
-      <c r="AG180" s="21"/>
-      <c r="AH180" s="22"/>
-    </row>
-    <row r="181" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H180" s="39"/>
+      <c r="I180" s="39"/>
+      <c r="J180" s="39"/>
+      <c r="K180" s="40"/>
+      <c r="L180" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="M180" s="39"/>
+      <c r="N180" s="39"/>
+      <c r="O180" s="39"/>
+      <c r="P180" s="39"/>
+      <c r="Q180" s="39"/>
+      <c r="R180" s="39"/>
+      <c r="S180" s="40"/>
+      <c r="T180" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="U180" s="39"/>
+      <c r="V180" s="39"/>
+      <c r="W180" s="39"/>
+      <c r="X180" s="39"/>
+      <c r="Y180" s="39"/>
+      <c r="Z180" s="39"/>
+      <c r="AA180" s="39"/>
+      <c r="AB180" s="39"/>
+      <c r="AC180" s="49"/>
+      <c r="AD180" s="49"/>
+      <c r="AE180" s="49"/>
+      <c r="AF180" s="49"/>
+      <c r="AG180" s="49"/>
+      <c r="AH180" s="50"/>
+    </row>
+    <row r="181" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C181" s="29"/>
       <c r="D181" s="29"/>
       <c r="E181" s="74"/>
       <c r="F181" s="29"/>
-      <c r="G181" s="29"/>
-      <c r="H181" s="29"/>
-      <c r="I181" s="29"/>
-      <c r="J181" s="29"/>
-      <c r="K181" s="29"/>
-      <c r="L181" s="29"/>
-      <c r="M181" s="29"/>
-      <c r="N181" s="29"/>
-      <c r="O181" s="29"/>
-      <c r="P181" s="29"/>
-      <c r="Q181" s="29"/>
-      <c r="R181" s="29"/>
-      <c r="S181" s="29"/>
-      <c r="T181" s="29"/>
-      <c r="U181" s="29"/>
-      <c r="V181" s="29"/>
-      <c r="W181" s="29"/>
-      <c r="X181" s="29"/>
-      <c r="Y181" s="29"/>
-      <c r="Z181" s="29"/>
-      <c r="AA181" s="29"/>
-      <c r="AB181" s="29"/>
-    </row>
-    <row r="182" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G181" s="30"/>
+      <c r="H181" s="55"/>
+      <c r="I181" s="55"/>
+      <c r="J181" s="55"/>
+      <c r="K181" s="31"/>
+      <c r="L181" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M181" s="55"/>
+      <c r="N181" s="55"/>
+      <c r="O181" s="55"/>
+      <c r="P181" s="55"/>
+      <c r="Q181" s="55"/>
+      <c r="R181" s="55"/>
+      <c r="S181" s="31"/>
+      <c r="T181" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U181" s="55"/>
+      <c r="V181" s="55"/>
+      <c r="W181" s="55"/>
+      <c r="X181" s="55"/>
+      <c r="Y181" s="55"/>
+      <c r="Z181" s="55"/>
+      <c r="AA181" s="55"/>
+      <c r="AB181" s="55"/>
+      <c r="AC181" s="44"/>
+      <c r="AD181" s="44"/>
+      <c r="AE181" s="44"/>
+      <c r="AF181" s="44"/>
+      <c r="AG181" s="44"/>
+      <c r="AH181" s="45"/>
+    </row>
+    <row r="182" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C182" s="29"/>
       <c r="D182" s="29"/>
       <c r="E182" s="74"/>
-      <c r="F182" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G182" s="29" t="str">
-        <f>G154</f>
-        <v>開閉局チェック方法</v>
-      </c>
-      <c r="H182" s="29"/>
-      <c r="I182" s="29"/>
-      <c r="J182" s="29"/>
-      <c r="K182" s="29"/>
-      <c r="L182" s="29"/>
-      <c r="M182" s="29"/>
-      <c r="N182" s="29"/>
-      <c r="O182" s="29"/>
-      <c r="P182" s="29"/>
-      <c r="Q182" s="29"/>
-      <c r="R182" s="29"/>
-      <c r="S182" s="29"/>
-      <c r="T182" s="29"/>
-      <c r="U182" s="29"/>
-      <c r="V182" s="29"/>
-      <c r="W182" s="29"/>
-      <c r="X182" s="29"/>
-      <c r="Y182" s="29"/>
-      <c r="Z182" s="29"/>
-      <c r="AA182" s="29"/>
-      <c r="AB182" s="29"/>
-    </row>
-    <row r="183" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F182" s="29"/>
+      <c r="G182" s="32"/>
+      <c r="H182" s="33"/>
+      <c r="I182" s="33"/>
+      <c r="J182" s="33"/>
+      <c r="K182" s="34"/>
+      <c r="L182" s="33"/>
+      <c r="M182" s="33"/>
+      <c r="N182" s="33"/>
+      <c r="O182" s="33"/>
+      <c r="P182" s="33"/>
+      <c r="Q182" s="33"/>
+      <c r="R182" s="33"/>
+      <c r="S182" s="34"/>
+      <c r="T182" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="U182" s="33"/>
+      <c r="V182" s="33"/>
+      <c r="W182" s="33"/>
+      <c r="X182" s="33"/>
+      <c r="Y182" s="33"/>
+      <c r="Z182" s="33"/>
+      <c r="AA182" s="33"/>
+      <c r="AB182" s="33"/>
+      <c r="AC182" s="47"/>
+      <c r="AD182" s="47"/>
+      <c r="AE182" s="47"/>
+      <c r="AF182" s="47"/>
+      <c r="AG182" s="47"/>
+      <c r="AH182" s="51"/>
+    </row>
+    <row r="183" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C183" s="29"/>
       <c r="D183" s="29"/>
       <c r="E183" s="74"/>
       <c r="F183" s="29"/>
-      <c r="G183" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H183" s="38"/>
-      <c r="I183" s="38"/>
-      <c r="J183" s="38"/>
-      <c r="K183" s="37"/>
-      <c r="L183" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="M183" s="38"/>
-      <c r="N183" s="38"/>
-      <c r="O183" s="38"/>
-      <c r="P183" s="38"/>
-      <c r="Q183" s="38"/>
-      <c r="R183" s="38"/>
-      <c r="S183" s="37"/>
-      <c r="T183" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="U183" s="38"/>
-      <c r="V183" s="38"/>
-      <c r="W183" s="38"/>
-      <c r="X183" s="38"/>
-      <c r="Y183" s="38"/>
-      <c r="Z183" s="38"/>
-      <c r="AA183" s="38"/>
-      <c r="AB183" s="38"/>
-      <c r="AC183" s="17"/>
-      <c r="AD183" s="17"/>
-      <c r="AE183" s="17"/>
-      <c r="AF183" s="17"/>
-      <c r="AG183" s="17"/>
-      <c r="AH183" s="18"/>
-    </row>
-    <row r="184" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G183" s="55"/>
+      <c r="H183" s="55"/>
+      <c r="I183" s="55"/>
+      <c r="J183" s="55"/>
+      <c r="K183" s="55"/>
+      <c r="L183" s="55"/>
+      <c r="M183" s="55"/>
+      <c r="N183" s="55"/>
+      <c r="O183" s="55"/>
+      <c r="P183" s="55"/>
+      <c r="Q183" s="55"/>
+      <c r="R183" s="55"/>
+      <c r="S183" s="55"/>
+      <c r="T183" s="55"/>
+      <c r="U183" s="55"/>
+      <c r="V183" s="55"/>
+      <c r="W183" s="55"/>
+      <c r="X183" s="55"/>
+      <c r="Y183" s="55"/>
+      <c r="Z183" s="55"/>
+      <c r="AA183" s="55"/>
+      <c r="AB183" s="55"/>
+      <c r="AC183" s="44"/>
+      <c r="AD183" s="44"/>
+      <c r="AE183" s="44"/>
+      <c r="AF183" s="44"/>
+      <c r="AG183" s="44"/>
+      <c r="AH183" s="44"/>
+    </row>
+    <row r="184" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C184" s="29"/>
       <c r="D184" s="29"/>
-      <c r="E184" s="26"/>
-      <c r="F184" s="55"/>
-      <c r="G184" s="35" t="str">
-        <f>F163</f>
-        <v>リクエスト単位</v>
-      </c>
-      <c r="H184" s="39"/>
-      <c r="I184" s="39"/>
-      <c r="J184" s="39"/>
-      <c r="K184" s="40"/>
-      <c r="L184" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="M184" s="39"/>
-      <c r="N184" s="39"/>
-      <c r="O184" s="39"/>
-      <c r="P184" s="39"/>
-      <c r="Q184" s="39"/>
-      <c r="R184" s="39"/>
-      <c r="S184" s="40"/>
-      <c r="T184" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="U184" s="39"/>
-      <c r="V184" s="39"/>
-      <c r="W184" s="39"/>
-      <c r="X184" s="39"/>
-      <c r="Y184" s="39"/>
-      <c r="Z184" s="39"/>
-      <c r="AA184" s="39"/>
-      <c r="AB184" s="39"/>
-      <c r="AC184" s="49"/>
-      <c r="AD184" s="49"/>
-      <c r="AE184" s="49"/>
-      <c r="AF184" s="49"/>
-      <c r="AG184" s="49"/>
-      <c r="AH184" s="50"/>
-    </row>
-    <row r="185" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E184" s="74"/>
+      <c r="F184" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G184" s="55" t="str">
+        <f>G151</f>
+        <v>メニュー・ボタン・リンク等の表示制御</v>
+      </c>
+      <c r="H184" s="55"/>
+      <c r="I184" s="55"/>
+      <c r="J184" s="55"/>
+      <c r="K184" s="55"/>
+      <c r="L184" s="55"/>
+      <c r="M184" s="55"/>
+      <c r="N184" s="55"/>
+      <c r="O184" s="55"/>
+      <c r="P184" s="55"/>
+      <c r="Q184" s="55"/>
+      <c r="R184" s="55"/>
+      <c r="S184" s="55"/>
+      <c r="T184" s="55"/>
+      <c r="U184" s="55"/>
+      <c r="V184" s="55"/>
+      <c r="W184" s="55"/>
+      <c r="X184" s="55"/>
+      <c r="Y184" s="55"/>
+      <c r="Z184" s="55"/>
+      <c r="AA184" s="55"/>
+      <c r="AB184" s="55"/>
+      <c r="AC184" s="44"/>
+      <c r="AD184" s="44"/>
+      <c r="AE184" s="44"/>
+      <c r="AF184" s="44"/>
+      <c r="AG184" s="44"/>
+      <c r="AH184" s="44"/>
+    </row>
+    <row r="185" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C185" s="29"/>
       <c r="D185" s="29"/>
       <c r="E185" s="74"/>
       <c r="F185" s="29"/>
-      <c r="G185" s="30"/>
+      <c r="G185" s="55" t="s">
+        <v>69</v>
+      </c>
       <c r="H185" s="55"/>
       <c r="I185" s="55"/>
       <c r="J185" s="55"/>
-      <c r="K185" s="31"/>
-      <c r="L185" s="55" t="s">
-        <v>68</v>
-      </c>
+      <c r="K185" s="55"/>
+      <c r="L185" s="55"/>
       <c r="M185" s="55"/>
       <c r="N185" s="55"/>
       <c r="O185" s="55"/>
       <c r="P185" s="55"/>
       <c r="Q185" s="55"/>
       <c r="R185" s="55"/>
-      <c r="S185" s="31"/>
-      <c r="T185" s="30" t="s">
-        <v>194</v>
-      </c>
+      <c r="S185" s="55"/>
+      <c r="T185" s="55"/>
       <c r="U185" s="55"/>
       <c r="V185" s="55"/>
       <c r="W185" s="55"/>
@@ -9596,50 +9531,53 @@
       <c r="AE185" s="44"/>
       <c r="AF185" s="44"/>
       <c r="AG185" s="44"/>
-      <c r="AH185" s="45"/>
-    </row>
-    <row r="186" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH185" s="44"/>
+    </row>
+    <row r="186" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C186" s="29"/>
       <c r="D186" s="29"/>
       <c r="E186" s="74"/>
       <c r="F186" s="29"/>
-      <c r="G186" s="32"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="33"/>
-      <c r="J186" s="33"/>
-      <c r="K186" s="34"/>
-      <c r="L186" s="33"/>
-      <c r="M186" s="33"/>
-      <c r="N186" s="33"/>
-      <c r="O186" s="33"/>
-      <c r="P186" s="33"/>
-      <c r="Q186" s="33"/>
-      <c r="R186" s="33"/>
-      <c r="S186" s="34"/>
-      <c r="T186" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="U186" s="33"/>
-      <c r="V186" s="33"/>
-      <c r="W186" s="33"/>
-      <c r="X186" s="33"/>
-      <c r="Y186" s="33"/>
-      <c r="Z186" s="33"/>
-      <c r="AA186" s="33"/>
-      <c r="AB186" s="33"/>
-      <c r="AC186" s="47"/>
-      <c r="AD186" s="47"/>
-      <c r="AE186" s="47"/>
-      <c r="AF186" s="47"/>
-      <c r="AG186" s="47"/>
-      <c r="AH186" s="51"/>
-    </row>
-    <row r="187" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G186" s="55"/>
+      <c r="H186" s="55"/>
+      <c r="I186" s="55"/>
+      <c r="J186" s="55"/>
+      <c r="K186" s="55"/>
+      <c r="L186" s="55"/>
+      <c r="M186" s="55"/>
+      <c r="N186" s="55"/>
+      <c r="O186" s="55"/>
+      <c r="P186" s="55"/>
+      <c r="Q186" s="55"/>
+      <c r="R186" s="55"/>
+      <c r="S186" s="55"/>
+      <c r="T186" s="55"/>
+      <c r="U186" s="55"/>
+      <c r="V186" s="55"/>
+      <c r="W186" s="55"/>
+      <c r="X186" s="55"/>
+      <c r="Y186" s="55"/>
+      <c r="Z186" s="55"/>
+      <c r="AA186" s="55"/>
+      <c r="AB186" s="55"/>
+      <c r="AC186" s="44"/>
+      <c r="AD186" s="44"/>
+      <c r="AE186" s="44"/>
+      <c r="AF186" s="44"/>
+      <c r="AG186" s="44"/>
+      <c r="AH186" s="44"/>
+    </row>
+    <row r="187" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C187" s="29"/>
       <c r="D187" s="29"/>
       <c r="E187" s="74"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="55"/>
+      <c r="F187" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G187" s="55" t="str">
+        <f>G152</f>
+        <v>閉局時の制約</v>
+      </c>
       <c r="H187" s="55"/>
       <c r="I187" s="55"/>
       <c r="J187" s="55"/>
@@ -9668,16 +9606,13 @@
       <c r="AG187" s="44"/>
       <c r="AH187" s="44"/>
     </row>
-    <row r="188" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C188" s="29"/>
       <c r="D188" s="29"/>
       <c r="E188" s="74"/>
-      <c r="F188" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G188" s="55" t="str">
-        <f>G155</f>
-        <v>メニュー・ボタン・リンク等の表示制御</v>
+      <c r="F188" s="29"/>
+      <c r="G188" s="55" t="s">
+        <v>210</v>
       </c>
       <c r="H188" s="55"/>
       <c r="I188" s="55"/>
@@ -9707,159 +9642,149 @@
       <c r="AG188" s="44"/>
       <c r="AH188" s="44"/>
     </row>
-    <row r="189" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C189" s="29"/>
       <c r="D189" s="29"/>
       <c r="E189" s="74"/>
       <c r="F189" s="29"/>
-      <c r="G189" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="H189" s="55"/>
-      <c r="I189" s="55"/>
-      <c r="J189" s="55"/>
-      <c r="K189" s="55"/>
-      <c r="L189" s="55"/>
-      <c r="M189" s="55"/>
-      <c r="N189" s="55"/>
-      <c r="O189" s="55"/>
-      <c r="P189" s="55"/>
-      <c r="Q189" s="55"/>
-      <c r="R189" s="55"/>
-      <c r="S189" s="55"/>
-      <c r="T189" s="55"/>
-      <c r="U189" s="55"/>
-      <c r="V189" s="55"/>
-      <c r="W189" s="55"/>
-      <c r="X189" s="55"/>
-      <c r="Y189" s="55"/>
-      <c r="Z189" s="55"/>
-      <c r="AA189" s="55"/>
-      <c r="AB189" s="55"/>
-      <c r="AC189" s="44"/>
-      <c r="AD189" s="44"/>
-      <c r="AE189" s="44"/>
-      <c r="AF189" s="44"/>
-      <c r="AG189" s="44"/>
-      <c r="AH189" s="44"/>
-    </row>
-    <row r="190" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G189" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H189" s="29"/>
+      <c r="I189" s="29"/>
+      <c r="J189" s="29"/>
+      <c r="K189" s="29"/>
+      <c r="L189" s="29"/>
+      <c r="M189" s="29"/>
+      <c r="N189" s="29"/>
+      <c r="O189" s="29"/>
+      <c r="P189" s="29"/>
+      <c r="Q189" s="29"/>
+      <c r="R189" s="29"/>
+      <c r="S189" s="29"/>
+      <c r="T189" s="29"/>
+      <c r="U189" s="29"/>
+      <c r="V189" s="29"/>
+      <c r="W189" s="29"/>
+      <c r="X189" s="29"/>
+      <c r="Y189" s="29"/>
+      <c r="Z189" s="29"/>
+      <c r="AA189" s="29"/>
+      <c r="AB189" s="29"/>
+    </row>
+    <row r="190" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C190" s="29"/>
       <c r="D190" s="29"/>
       <c r="E190" s="74"/>
       <c r="F190" s="29"/>
-      <c r="G190" s="55"/>
-      <c r="H190" s="55"/>
-      <c r="I190" s="55"/>
-      <c r="J190" s="55"/>
-      <c r="K190" s="55"/>
-      <c r="L190" s="55"/>
-      <c r="M190" s="55"/>
-      <c r="N190" s="55"/>
-      <c r="O190" s="55"/>
-      <c r="P190" s="55"/>
-      <c r="Q190" s="55"/>
-      <c r="R190" s="55"/>
-      <c r="S190" s="55"/>
-      <c r="T190" s="55"/>
-      <c r="U190" s="55"/>
-      <c r="V190" s="55"/>
-      <c r="W190" s="55"/>
-      <c r="X190" s="55"/>
-      <c r="Y190" s="55"/>
-      <c r="Z190" s="55"/>
-      <c r="AA190" s="55"/>
-      <c r="AB190" s="55"/>
-      <c r="AC190" s="44"/>
-      <c r="AD190" s="44"/>
-      <c r="AE190" s="44"/>
-      <c r="AF190" s="44"/>
-      <c r="AG190" s="44"/>
-      <c r="AH190" s="44"/>
-    </row>
-    <row r="191" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G190" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="H190" s="29"/>
+      <c r="I190" s="29"/>
+      <c r="J190" s="29"/>
+      <c r="K190" s="29"/>
+      <c r="L190" s="29"/>
+      <c r="M190" s="29"/>
+      <c r="N190" s="29"/>
+      <c r="O190" s="29"/>
+      <c r="P190" s="29"/>
+      <c r="Q190" s="29"/>
+      <c r="R190" s="29"/>
+      <c r="S190" s="29"/>
+      <c r="T190" s="29"/>
+      <c r="U190" s="29"/>
+      <c r="V190" s="29"/>
+      <c r="W190" s="29"/>
+      <c r="X190" s="29"/>
+      <c r="Y190" s="29"/>
+      <c r="Z190" s="29"/>
+      <c r="AA190" s="29"/>
+      <c r="AB190" s="29"/>
+    </row>
+    <row r="191" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C191" s="29"/>
       <c r="D191" s="29"/>
-      <c r="E191" s="74"/>
-      <c r="F191" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="G191" s="55" t="str">
-        <f>G156</f>
-        <v>閉局時の制約</v>
-      </c>
-      <c r="H191" s="55"/>
-      <c r="I191" s="55"/>
-      <c r="J191" s="55"/>
-      <c r="K191" s="55"/>
-      <c r="L191" s="55"/>
-      <c r="M191" s="55"/>
-      <c r="N191" s="55"/>
-      <c r="O191" s="55"/>
-      <c r="P191" s="55"/>
-      <c r="Q191" s="55"/>
-      <c r="R191" s="55"/>
-      <c r="S191" s="55"/>
-      <c r="T191" s="55"/>
-      <c r="U191" s="55"/>
-      <c r="V191" s="55"/>
-      <c r="W191" s="55"/>
-      <c r="X191" s="55"/>
-      <c r="Y191" s="55"/>
-      <c r="Z191" s="55"/>
-      <c r="AA191" s="55"/>
-      <c r="AB191" s="55"/>
-      <c r="AC191" s="44"/>
-      <c r="AD191" s="44"/>
-      <c r="AE191" s="44"/>
-      <c r="AF191" s="44"/>
-      <c r="AG191" s="44"/>
-      <c r="AH191" s="44"/>
-    </row>
-    <row r="192" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E191" s="29"/>
+      <c r="F191" s="29"/>
+      <c r="G191" s="29"/>
+      <c r="H191" s="29"/>
+      <c r="I191" s="29"/>
+      <c r="J191" s="29"/>
+      <c r="K191" s="29"/>
+      <c r="L191" s="29"/>
+      <c r="M191" s="29"/>
+      <c r="N191" s="29"/>
+      <c r="O191" s="29"/>
+      <c r="P191" s="29"/>
+      <c r="Q191" s="29"/>
+      <c r="R191" s="29"/>
+      <c r="S191" s="29"/>
+      <c r="T191" s="29"/>
+      <c r="U191" s="29"/>
+      <c r="V191" s="29"/>
+      <c r="W191" s="29"/>
+      <c r="X191" s="29"/>
+      <c r="Y191" s="29"/>
+      <c r="Z191" s="29"/>
+      <c r="AA191" s="29"/>
+      <c r="AB191" s="29"/>
+    </row>
+    <row r="192" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="29"/>
+      <c r="B192" s="29"/>
       <c r="C192" s="29"/>
-      <c r="D192" s="29"/>
-      <c r="E192" s="74"/>
+      <c r="D192" s="77" t="str">
+        <f>$C$7&amp;"9."</f>
+        <v>3.1.9.</v>
+      </c>
+      <c r="E192" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="F192" s="29"/>
-      <c r="G192" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="H192" s="55"/>
-      <c r="I192" s="55"/>
-      <c r="J192" s="55"/>
-      <c r="K192" s="55"/>
-      <c r="L192" s="55"/>
-      <c r="M192" s="55"/>
-      <c r="N192" s="55"/>
-      <c r="O192" s="55"/>
-      <c r="P192" s="55"/>
-      <c r="Q192" s="55"/>
-      <c r="R192" s="55"/>
-      <c r="S192" s="55"/>
-      <c r="T192" s="55"/>
-      <c r="U192" s="55"/>
-      <c r="V192" s="55"/>
-      <c r="W192" s="55"/>
-      <c r="X192" s="55"/>
-      <c r="Y192" s="55"/>
-      <c r="Z192" s="55"/>
-      <c r="AA192" s="55"/>
-      <c r="AB192" s="55"/>
-      <c r="AC192" s="44"/>
-      <c r="AD192" s="44"/>
-      <c r="AE192" s="44"/>
-      <c r="AF192" s="44"/>
-      <c r="AG192" s="44"/>
-      <c r="AH192" s="44"/>
+      <c r="G192" s="29"/>
+      <c r="H192" s="29"/>
+      <c r="I192" s="29"/>
+      <c r="J192" s="29"/>
+      <c r="K192" s="29"/>
+      <c r="L192" s="29"/>
+      <c r="M192" s="29"/>
+      <c r="N192" s="29"/>
+      <c r="O192" s="29"/>
+      <c r="P192" s="29"/>
+      <c r="Q192" s="29"/>
+      <c r="R192" s="29"/>
+      <c r="S192" s="29"/>
+      <c r="T192" s="29"/>
+      <c r="U192" s="29"/>
+      <c r="V192" s="29"/>
+      <c r="W192" s="29"/>
+      <c r="X192" s="29"/>
+      <c r="Y192" s="29"/>
+      <c r="Z192" s="29"/>
+      <c r="AA192" s="29"/>
+      <c r="AB192" s="29"/>
+      <c r="AC192" s="29"/>
+      <c r="AD192" s="29"/>
+      <c r="AE192" s="29"/>
+      <c r="AF192" s="29"/>
+      <c r="AG192" s="29"/>
+      <c r="AH192" s="29"/>
+      <c r="AI192" s="29"/>
     </row>
     <row r="193" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="29"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="29"/>
       <c r="D193" s="29"/>
-      <c r="E193" s="74"/>
-      <c r="F193" s="29"/>
-      <c r="G193" s="29" t="s">
-        <v>222</v>
-      </c>
+      <c r="E193" s="24" t="str">
+        <f>D192&amp;"1."</f>
+        <v>3.1.9.1.</v>
+      </c>
+      <c r="F193" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="G193" s="29"/>
       <c r="H193" s="29"/>
       <c r="I193" s="29"/>
       <c r="J193" s="29"/>
@@ -9881,15 +9806,24 @@
       <c r="Z193" s="29"/>
       <c r="AA193" s="29"/>
       <c r="AB193" s="29"/>
+      <c r="AC193" s="29"/>
+      <c r="AD193" s="29"/>
+      <c r="AE193" s="29"/>
+      <c r="AF193" s="29"/>
+      <c r="AG193" s="29"/>
+      <c r="AH193" s="29"/>
+      <c r="AI193" s="29"/>
     </row>
     <row r="194" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="29"/>
+      <c r="B194" s="29"/>
       <c r="C194" s="29"/>
       <c r="D194" s="29"/>
-      <c r="E194" s="74"/>
-      <c r="F194" s="29"/>
-      <c r="G194" s="29" t="s">
-        <v>221</v>
-      </c>
+      <c r="E194" s="24"/>
+      <c r="F194" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="G194" s="29"/>
       <c r="H194" s="29"/>
       <c r="I194" s="29"/>
       <c r="J194" s="29"/>
@@ -9911,8 +9845,17 @@
       <c r="Z194" s="29"/>
       <c r="AA194" s="29"/>
       <c r="AB194" s="29"/>
-    </row>
-    <row r="195" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC194" s="29"/>
+      <c r="AD194" s="29"/>
+      <c r="AE194" s="29"/>
+      <c r="AF194" s="29"/>
+      <c r="AG194" s="29"/>
+      <c r="AH194" s="29"/>
+      <c r="AI194" s="29"/>
+    </row>
+    <row r="195" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="29"/>
+      <c r="B195" s="29"/>
       <c r="C195" s="29"/>
       <c r="D195" s="29"/>
       <c r="E195" s="29"/>
@@ -9939,20 +9882,26 @@
       <c r="Z195" s="29"/>
       <c r="AA195" s="29"/>
       <c r="AB195" s="29"/>
-    </row>
-    <row r="196" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC195" s="29"/>
+      <c r="AD195" s="29"/>
+      <c r="AE195" s="29"/>
+      <c r="AF195" s="29"/>
+      <c r="AG195" s="29"/>
+      <c r="AH195" s="29"/>
+      <c r="AI195" s="29"/>
+    </row>
+    <row r="196" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="29"/>
       <c r="B196" s="29"/>
       <c r="C196" s="29"/>
-      <c r="D196" s="77" t="str">
-        <f>$C$7&amp;"9."</f>
-        <v>3.1.9.</v>
-      </c>
-      <c r="E196" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F196" s="29"/>
-      <c r="G196" s="29"/>
+      <c r="D196" s="29"/>
+      <c r="E196" s="29"/>
+      <c r="F196" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="G196" s="65" t="s">
+        <v>75</v>
+      </c>
       <c r="H196" s="29"/>
       <c r="I196" s="29"/>
       <c r="J196" s="29"/>
@@ -9982,19 +9931,16 @@
       <c r="AH196" s="29"/>
       <c r="AI196" s="29"/>
     </row>
-    <row r="197" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="29"/>
       <c r="B197" s="29"/>
       <c r="C197" s="29"/>
       <c r="D197" s="29"/>
-      <c r="E197" s="24" t="str">
-        <f>D196&amp;"1."</f>
-        <v>3.1.9.1.</v>
-      </c>
-      <c r="F197" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="G197" s="29"/>
+      <c r="E197" s="29"/>
+      <c r="F197" s="29"/>
+      <c r="G197" s="65" t="s">
+        <v>73</v>
+      </c>
       <c r="H197" s="29"/>
       <c r="I197" s="29"/>
       <c r="J197" s="29"/>
@@ -10029,11 +9975,11 @@
       <c r="B198" s="29"/>
       <c r="C198" s="29"/>
       <c r="D198" s="29"/>
-      <c r="E198" s="24"/>
-      <c r="F198" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="G198" s="29"/>
+      <c r="E198" s="29"/>
+      <c r="F198" s="29"/>
+      <c r="G198" s="65" t="s">
+        <v>74</v>
+      </c>
       <c r="H198" s="29"/>
       <c r="I198" s="29"/>
       <c r="J198" s="29"/>
@@ -10063,14 +10009,16 @@
       <c r="AH198" s="29"/>
       <c r="AI198" s="29"/>
     </row>
-    <row r="199" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="29"/>
       <c r="B199" s="29"/>
       <c r="C199" s="29"/>
       <c r="D199" s="29"/>
       <c r="E199" s="29"/>
       <c r="F199" s="29"/>
-      <c r="G199" s="29"/>
+      <c r="G199" s="65" t="s">
+        <v>203</v>
+      </c>
       <c r="H199" s="29"/>
       <c r="I199" s="29"/>
       <c r="J199" s="29"/>
@@ -10106,11 +10054,9 @@
       <c r="C200" s="29"/>
       <c r="D200" s="29"/>
       <c r="E200" s="29"/>
-      <c r="F200" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="G200" s="65" t="s">
-        <v>76</v>
+      <c r="F200" s="29"/>
+      <c r="G200" s="78" t="s">
+        <v>196</v>
       </c>
       <c r="H200" s="29"/>
       <c r="I200" s="29"/>
@@ -10148,8 +10094,8 @@
       <c r="D201" s="29"/>
       <c r="E201" s="29"/>
       <c r="F201" s="29"/>
-      <c r="G201" s="65" t="s">
-        <v>74</v>
+      <c r="G201" s="78" t="s">
+        <v>232</v>
       </c>
       <c r="H201" s="29"/>
       <c r="I201" s="29"/>
@@ -10180,16 +10126,14 @@
       <c r="AH201" s="29"/>
       <c r="AI201" s="29"/>
     </row>
-    <row r="202" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="29"/>
       <c r="B202" s="29"/>
       <c r="C202" s="29"/>
       <c r="D202" s="29"/>
       <c r="E202" s="29"/>
       <c r="F202" s="29"/>
-      <c r="G202" s="65" t="s">
-        <v>75</v>
-      </c>
+      <c r="G202" s="29"/>
       <c r="H202" s="29"/>
       <c r="I202" s="29"/>
       <c r="J202" s="29"/>
@@ -10219,15 +10163,17 @@
       <c r="AH202" s="29"/>
       <c r="AI202" s="29"/>
     </row>
-    <row r="203" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="29"/>
       <c r="B203" s="29"/>
       <c r="C203" s="29"/>
       <c r="D203" s="29"/>
       <c r="E203" s="29"/>
-      <c r="F203" s="29"/>
-      <c r="G203" s="65" t="s">
-        <v>205</v>
+      <c r="F203" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="G203" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="H203" s="29"/>
       <c r="I203" s="29"/>
@@ -10258,15 +10204,15 @@
       <c r="AH203" s="29"/>
       <c r="AI203" s="29"/>
     </row>
-    <row r="204" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="29"/>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
       <c r="D204" s="29"/>
       <c r="E204" s="29"/>
       <c r="F204" s="29"/>
-      <c r="G204" s="78" t="s">
-        <v>198</v>
+      <c r="G204" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="H204" s="29"/>
       <c r="I204" s="29"/>
@@ -10297,15 +10243,15 @@
       <c r="AH204" s="29"/>
       <c r="AI204" s="29"/>
     </row>
-    <row r="205" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="29"/>
       <c r="B205" s="29"/>
       <c r="C205" s="29"/>
       <c r="D205" s="29"/>
       <c r="E205" s="29"/>
       <c r="F205" s="29"/>
-      <c r="G205" s="78" t="s">
-        <v>239</v>
+      <c r="G205" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="H205" s="29"/>
       <c r="I205" s="29"/>
@@ -10343,7 +10289,9 @@
       <c r="D206" s="29"/>
       <c r="E206" s="29"/>
       <c r="F206" s="29"/>
-      <c r="G206" s="29"/>
+      <c r="G206" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="H206" s="29"/>
       <c r="I206" s="29"/>
       <c r="J206" s="29"/>
@@ -10379,12 +10327,8 @@
       <c r="C207" s="29"/>
       <c r="D207" s="29"/>
       <c r="E207" s="29"/>
-      <c r="F207" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="G207" s="29" t="s">
-        <v>86</v>
-      </c>
+      <c r="F207" s="29"/>
+      <c r="G207" s="29"/>
       <c r="H207" s="29"/>
       <c r="I207" s="29"/>
       <c r="J207" s="29"/>
@@ -10422,7 +10366,7 @@
       <c r="E208" s="29"/>
       <c r="F208" s="29"/>
       <c r="G208" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H208" s="29"/>
       <c r="I208" s="29"/>
@@ -10453,158 +10397,166 @@
       <c r="AH208" s="29"/>
       <c r="AI208" s="29"/>
     </row>
-    <row r="209" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="29"/>
       <c r="B209" s="29"/>
       <c r="C209" s="29"/>
       <c r="D209" s="29"/>
       <c r="E209" s="29"/>
       <c r="F209" s="29"/>
-      <c r="G209" s="29" t="s">
+      <c r="G209" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="H209" s="29"/>
-      <c r="I209" s="29"/>
-      <c r="J209" s="29"/>
-      <c r="K209" s="29"/>
-      <c r="L209" s="29"/>
-      <c r="M209" s="29"/>
-      <c r="N209" s="29"/>
-      <c r="O209" s="29"/>
-      <c r="P209" s="29"/>
-      <c r="Q209" s="29"/>
-      <c r="R209" s="29"/>
-      <c r="S209" s="29"/>
-      <c r="T209" s="29"/>
-      <c r="U209" s="29"/>
-      <c r="V209" s="29"/>
-      <c r="W209" s="29"/>
-      <c r="X209" s="29"/>
-      <c r="Y209" s="29"/>
-      <c r="Z209" s="29"/>
-      <c r="AA209" s="29"/>
-      <c r="AB209" s="29"/>
-      <c r="AC209" s="29"/>
-      <c r="AD209" s="29"/>
-      <c r="AE209" s="29"/>
-      <c r="AF209" s="29"/>
-      <c r="AG209" s="29"/>
-      <c r="AH209" s="29"/>
+      <c r="H209" s="38"/>
+      <c r="I209" s="38"/>
+      <c r="J209" s="38"/>
+      <c r="K209" s="38"/>
+      <c r="L209" s="38"/>
+      <c r="M209" s="38"/>
+      <c r="N209" s="38"/>
+      <c r="O209" s="38"/>
+      <c r="P209" s="37"/>
+      <c r="Q209" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="R209" s="38"/>
+      <c r="S209" s="38"/>
+      <c r="T209" s="38"/>
+      <c r="U209" s="38"/>
+      <c r="V209" s="38"/>
+      <c r="W209" s="38"/>
+      <c r="X209" s="38"/>
+      <c r="Y209" s="38"/>
+      <c r="Z209" s="38"/>
+      <c r="AA209" s="38"/>
+      <c r="AB209" s="38"/>
+      <c r="AC209" s="38"/>
+      <c r="AD209" s="38"/>
+      <c r="AE209" s="38"/>
+      <c r="AF209" s="38"/>
+      <c r="AG209" s="38"/>
+      <c r="AH209" s="37"/>
       <c r="AI209" s="29"/>
     </row>
-    <row r="210" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="29"/>
       <c r="B210" s="29"/>
       <c r="C210" s="29"/>
       <c r="D210" s="29"/>
       <c r="E210" s="29"/>
       <c r="F210" s="29"/>
-      <c r="G210" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="H210" s="29"/>
-      <c r="I210" s="29"/>
-      <c r="J210" s="29"/>
-      <c r="K210" s="29"/>
-      <c r="L210" s="29"/>
-      <c r="M210" s="29"/>
-      <c r="N210" s="29"/>
-      <c r="O210" s="29"/>
-      <c r="P210" s="29"/>
-      <c r="Q210" s="29"/>
-      <c r="R210" s="29"/>
-      <c r="S210" s="29"/>
-      <c r="T210" s="29"/>
-      <c r="U210" s="29"/>
-      <c r="V210" s="29"/>
-      <c r="W210" s="29"/>
-      <c r="X210" s="29"/>
-      <c r="Y210" s="29"/>
-      <c r="Z210" s="29"/>
-      <c r="AA210" s="29"/>
-      <c r="AB210" s="29"/>
-      <c r="AC210" s="29"/>
-      <c r="AD210" s="29"/>
-      <c r="AE210" s="29"/>
-      <c r="AF210" s="29"/>
-      <c r="AG210" s="29"/>
-      <c r="AH210" s="29"/>
+      <c r="G210" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H210" s="55"/>
+      <c r="I210" s="55"/>
+      <c r="J210" s="55"/>
+      <c r="K210" s="55"/>
+      <c r="L210" s="55"/>
+      <c r="M210" s="55"/>
+      <c r="N210" s="55"/>
+      <c r="O210" s="55"/>
+      <c r="P210" s="31"/>
+      <c r="Q210" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="R210" s="55"/>
+      <c r="S210" s="55"/>
+      <c r="T210" s="55"/>
+      <c r="U210" s="55"/>
+      <c r="V210" s="55"/>
+      <c r="W210" s="55"/>
+      <c r="X210" s="55"/>
+      <c r="Y210" s="55"/>
+      <c r="Z210" s="55"/>
+      <c r="AA210" s="55"/>
+      <c r="AB210" s="55"/>
+      <c r="AC210" s="55"/>
+      <c r="AD210" s="55"/>
+      <c r="AE210" s="55"/>
+      <c r="AF210" s="55"/>
+      <c r="AG210" s="55"/>
+      <c r="AH210" s="31"/>
       <c r="AI210" s="29"/>
     </row>
-    <row r="211" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="29"/>
       <c r="B211" s="29"/>
       <c r="C211" s="29"/>
       <c r="D211" s="29"/>
       <c r="E211" s="29"/>
       <c r="F211" s="29"/>
-      <c r="G211" s="29"/>
-      <c r="H211" s="29"/>
-      <c r="I211" s="29"/>
-      <c r="J211" s="29"/>
-      <c r="K211" s="29"/>
-      <c r="L211" s="29"/>
-      <c r="M211" s="29"/>
-      <c r="N211" s="29"/>
-      <c r="O211" s="29"/>
-      <c r="P211" s="29"/>
-      <c r="Q211" s="29"/>
-      <c r="R211" s="29"/>
-      <c r="S211" s="29"/>
-      <c r="T211" s="29"/>
-      <c r="U211" s="29"/>
-      <c r="V211" s="29"/>
-      <c r="W211" s="29"/>
-      <c r="X211" s="29"/>
-      <c r="Y211" s="29"/>
-      <c r="Z211" s="29"/>
-      <c r="AA211" s="29"/>
-      <c r="AB211" s="29"/>
-      <c r="AC211" s="29"/>
-      <c r="AD211" s="29"/>
-      <c r="AE211" s="29"/>
-      <c r="AF211" s="29"/>
-      <c r="AG211" s="29"/>
-      <c r="AH211" s="29"/>
+      <c r="G211" s="32"/>
+      <c r="H211" s="33"/>
+      <c r="I211" s="33"/>
+      <c r="J211" s="33"/>
+      <c r="K211" s="33"/>
+      <c r="L211" s="33"/>
+      <c r="M211" s="33"/>
+      <c r="N211" s="33"/>
+      <c r="O211" s="33"/>
+      <c r="P211" s="34"/>
+      <c r="Q211" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="R211" s="33"/>
+      <c r="S211" s="33"/>
+      <c r="T211" s="33"/>
+      <c r="U211" s="33"/>
+      <c r="V211" s="33"/>
+      <c r="W211" s="33"/>
+      <c r="X211" s="33"/>
+      <c r="Y211" s="33"/>
+      <c r="Z211" s="33"/>
+      <c r="AA211" s="33"/>
+      <c r="AB211" s="33"/>
+      <c r="AC211" s="33"/>
+      <c r="AD211" s="33"/>
+      <c r="AE211" s="33"/>
+      <c r="AF211" s="33"/>
+      <c r="AG211" s="33"/>
+      <c r="AH211" s="34"/>
       <c r="AI211" s="29"/>
     </row>
-    <row r="212" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="29"/>
       <c r="B212" s="29"/>
       <c r="C212" s="29"/>
       <c r="D212" s="29"/>
       <c r="E212" s="29"/>
       <c r="F212" s="29"/>
-      <c r="G212" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H212" s="29"/>
-      <c r="I212" s="29"/>
-      <c r="J212" s="29"/>
-      <c r="K212" s="29"/>
-      <c r="L212" s="29"/>
-      <c r="M212" s="29"/>
-      <c r="N212" s="29"/>
-      <c r="O212" s="29"/>
-      <c r="P212" s="29"/>
-      <c r="Q212" s="29"/>
-      <c r="R212" s="29"/>
-      <c r="S212" s="29"/>
-      <c r="T212" s="29"/>
-      <c r="U212" s="29"/>
-      <c r="V212" s="29"/>
-      <c r="W212" s="29"/>
-      <c r="X212" s="29"/>
-      <c r="Y212" s="29"/>
-      <c r="Z212" s="29"/>
-      <c r="AA212" s="29"/>
-      <c r="AB212" s="29"/>
-      <c r="AC212" s="29"/>
-      <c r="AD212" s="29"/>
-      <c r="AE212" s="29"/>
-      <c r="AF212" s="29"/>
-      <c r="AG212" s="29"/>
-      <c r="AH212" s="29"/>
+      <c r="G212" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="H212" s="55"/>
+      <c r="I212" s="55"/>
+      <c r="J212" s="55"/>
+      <c r="K212" s="55"/>
+      <c r="L212" s="55"/>
+      <c r="M212" s="55"/>
+      <c r="N212" s="55"/>
+      <c r="O212" s="55"/>
+      <c r="P212" s="31"/>
+      <c r="Q212" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="R212" s="55"/>
+      <c r="S212" s="55"/>
+      <c r="T212" s="55"/>
+      <c r="U212" s="55"/>
+      <c r="V212" s="55"/>
+      <c r="W212" s="55"/>
+      <c r="X212" s="55"/>
+      <c r="Y212" s="55"/>
+      <c r="Z212" s="55"/>
+      <c r="AA212" s="55"/>
+      <c r="AB212" s="55"/>
+      <c r="AC212" s="55"/>
+      <c r="AD212" s="55"/>
+      <c r="AE212" s="55"/>
+      <c r="AF212" s="55"/>
+      <c r="AG212" s="55"/>
+      <c r="AH212" s="31"/>
       <c r="AI212" s="29"/>
     </row>
     <row r="213" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10614,38 +10566,36 @@
       <c r="D213" s="29"/>
       <c r="E213" s="29"/>
       <c r="F213" s="29"/>
-      <c r="G213" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="H213" s="38"/>
-      <c r="I213" s="38"/>
-      <c r="J213" s="38"/>
-      <c r="K213" s="38"/>
-      <c r="L213" s="38"/>
-      <c r="M213" s="38"/>
-      <c r="N213" s="38"/>
-      <c r="O213" s="38"/>
-      <c r="P213" s="37"/>
-      <c r="Q213" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="R213" s="38"/>
-      <c r="S213" s="38"/>
-      <c r="T213" s="38"/>
-      <c r="U213" s="38"/>
-      <c r="V213" s="38"/>
-      <c r="W213" s="38"/>
-      <c r="X213" s="38"/>
-      <c r="Y213" s="38"/>
-      <c r="Z213" s="38"/>
-      <c r="AA213" s="38"/>
-      <c r="AB213" s="38"/>
-      <c r="AC213" s="38"/>
-      <c r="AD213" s="38"/>
-      <c r="AE213" s="38"/>
-      <c r="AF213" s="38"/>
-      <c r="AG213" s="38"/>
-      <c r="AH213" s="37"/>
+      <c r="G213" s="30"/>
+      <c r="H213" s="55"/>
+      <c r="I213" s="55"/>
+      <c r="J213" s="55"/>
+      <c r="K213" s="55"/>
+      <c r="L213" s="55"/>
+      <c r="M213" s="55"/>
+      <c r="N213" s="55"/>
+      <c r="O213" s="55"/>
+      <c r="P213" s="31"/>
+      <c r="Q213" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="R213" s="55"/>
+      <c r="S213" s="55"/>
+      <c r="T213" s="55"/>
+      <c r="U213" s="55"/>
+      <c r="V213" s="55"/>
+      <c r="W213" s="55"/>
+      <c r="X213" s="55"/>
+      <c r="Y213" s="55"/>
+      <c r="Z213" s="55"/>
+      <c r="AA213" s="55"/>
+      <c r="AB213" s="55"/>
+      <c r="AC213" s="55"/>
+      <c r="AD213" s="55"/>
+      <c r="AE213" s="55"/>
+      <c r="AF213" s="55"/>
+      <c r="AG213" s="55"/>
+      <c r="AH213" s="31"/>
       <c r="AI213" s="29"/>
     </row>
     <row r="214" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10655,38 +10605,36 @@
       <c r="D214" s="29"/>
       <c r="E214" s="29"/>
       <c r="F214" s="29"/>
-      <c r="G214" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="H214" s="55"/>
-      <c r="I214" s="55"/>
-      <c r="J214" s="55"/>
-      <c r="K214" s="55"/>
-      <c r="L214" s="55"/>
-      <c r="M214" s="55"/>
-      <c r="N214" s="55"/>
-      <c r="O214" s="55"/>
-      <c r="P214" s="31"/>
-      <c r="Q214" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="R214" s="55"/>
-      <c r="S214" s="55"/>
-      <c r="T214" s="55"/>
-      <c r="U214" s="55"/>
-      <c r="V214" s="55"/>
-      <c r="W214" s="55"/>
-      <c r="X214" s="55"/>
-      <c r="Y214" s="55"/>
-      <c r="Z214" s="55"/>
-      <c r="AA214" s="55"/>
-      <c r="AB214" s="55"/>
-      <c r="AC214" s="55"/>
-      <c r="AD214" s="55"/>
-      <c r="AE214" s="55"/>
-      <c r="AF214" s="55"/>
-      <c r="AG214" s="55"/>
-      <c r="AH214" s="31"/>
+      <c r="G214" s="32"/>
+      <c r="H214" s="33"/>
+      <c r="I214" s="33"/>
+      <c r="J214" s="33"/>
+      <c r="K214" s="33"/>
+      <c r="L214" s="33"/>
+      <c r="M214" s="33"/>
+      <c r="N214" s="33"/>
+      <c r="O214" s="33"/>
+      <c r="P214" s="34"/>
+      <c r="Q214" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="R214" s="33"/>
+      <c r="S214" s="33"/>
+      <c r="T214" s="33"/>
+      <c r="U214" s="33"/>
+      <c r="V214" s="33"/>
+      <c r="W214" s="33"/>
+      <c r="X214" s="33"/>
+      <c r="Y214" s="33"/>
+      <c r="Z214" s="33"/>
+      <c r="AA214" s="33"/>
+      <c r="AB214" s="33"/>
+      <c r="AC214" s="33"/>
+      <c r="AD214" s="33"/>
+      <c r="AE214" s="33"/>
+      <c r="AF214" s="33"/>
+      <c r="AG214" s="33"/>
+      <c r="AH214" s="34"/>
       <c r="AI214" s="29"/>
     </row>
     <row r="215" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10696,36 +10644,34 @@
       <c r="D215" s="29"/>
       <c r="E215" s="29"/>
       <c r="F215" s="29"/>
-      <c r="G215" s="32"/>
-      <c r="H215" s="33"/>
-      <c r="I215" s="33"/>
-      <c r="J215" s="33"/>
-      <c r="K215" s="33"/>
-      <c r="L215" s="33"/>
-      <c r="M215" s="33"/>
-      <c r="N215" s="33"/>
-      <c r="O215" s="33"/>
-      <c r="P215" s="34"/>
-      <c r="Q215" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="R215" s="33"/>
-      <c r="S215" s="33"/>
-      <c r="T215" s="33"/>
-      <c r="U215" s="33"/>
-      <c r="V215" s="33"/>
-      <c r="W215" s="33"/>
-      <c r="X215" s="33"/>
-      <c r="Y215" s="33"/>
-      <c r="Z215" s="33"/>
-      <c r="AA215" s="33"/>
-      <c r="AB215" s="33"/>
-      <c r="AC215" s="33"/>
-      <c r="AD215" s="33"/>
-      <c r="AE215" s="33"/>
-      <c r="AF215" s="33"/>
-      <c r="AG215" s="33"/>
-      <c r="AH215" s="34"/>
+      <c r="G215" s="55"/>
+      <c r="H215" s="55"/>
+      <c r="I215" s="55"/>
+      <c r="J215" s="55"/>
+      <c r="K215" s="55"/>
+      <c r="L215" s="55"/>
+      <c r="M215" s="55"/>
+      <c r="N215" s="55"/>
+      <c r="O215" s="55"/>
+      <c r="P215" s="55"/>
+      <c r="Q215" s="55"/>
+      <c r="R215" s="55"/>
+      <c r="S215" s="55"/>
+      <c r="T215" s="55"/>
+      <c r="U215" s="55"/>
+      <c r="V215" s="55"/>
+      <c r="W215" s="55"/>
+      <c r="X215" s="55"/>
+      <c r="Y215" s="55"/>
+      <c r="Z215" s="55"/>
+      <c r="AA215" s="55"/>
+      <c r="AB215" s="55"/>
+      <c r="AC215" s="55"/>
+      <c r="AD215" s="55"/>
+      <c r="AE215" s="55"/>
+      <c r="AF215" s="55"/>
+      <c r="AG215" s="55"/>
+      <c r="AH215" s="55"/>
       <c r="AI215" s="29"/>
     </row>
     <row r="216" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10735,8 +10681,8 @@
       <c r="D216" s="29"/>
       <c r="E216" s="29"/>
       <c r="F216" s="29"/>
-      <c r="G216" s="30" t="s">
-        <v>259</v>
+      <c r="G216" s="55" t="s">
+        <v>247</v>
       </c>
       <c r="H216" s="55"/>
       <c r="I216" s="55"/>
@@ -10746,10 +10692,8 @@
       <c r="M216" s="55"/>
       <c r="N216" s="55"/>
       <c r="O216" s="55"/>
-      <c r="P216" s="31"/>
-      <c r="Q216" s="55" t="s">
-        <v>195</v>
-      </c>
+      <c r="P216" s="55"/>
+      <c r="Q216" s="55"/>
       <c r="R216" s="55"/>
       <c r="S216" s="55"/>
       <c r="T216" s="55"/>
@@ -10766,7 +10710,7 @@
       <c r="AE216" s="55"/>
       <c r="AF216" s="55"/>
       <c r="AG216" s="55"/>
-      <c r="AH216" s="31"/>
+      <c r="AH216" s="55"/>
       <c r="AI216" s="29"/>
     </row>
     <row r="217" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10776,7 +10720,7 @@
       <c r="D217" s="29"/>
       <c r="E217" s="29"/>
       <c r="F217" s="29"/>
-      <c r="G217" s="30"/>
+      <c r="G217" s="55"/>
       <c r="H217" s="55"/>
       <c r="I217" s="55"/>
       <c r="J217" s="55"/>
@@ -10785,10 +10729,8 @@
       <c r="M217" s="55"/>
       <c r="N217" s="55"/>
       <c r="O217" s="55"/>
-      <c r="P217" s="31"/>
-      <c r="Q217" s="55" t="s">
-        <v>197</v>
-      </c>
+      <c r="P217" s="55"/>
+      <c r="Q217" s="55"/>
       <c r="R217" s="55"/>
       <c r="S217" s="55"/>
       <c r="T217" s="55"/>
@@ -10805,7 +10747,7 @@
       <c r="AE217" s="55"/>
       <c r="AF217" s="55"/>
       <c r="AG217" s="55"/>
-      <c r="AH217" s="31"/>
+      <c r="AH217" s="55"/>
       <c r="AI217" s="29"/>
     </row>
     <row r="218" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10815,36 +10757,36 @@
       <c r="D218" s="29"/>
       <c r="E218" s="29"/>
       <c r="F218" s="29"/>
-      <c r="G218" s="32"/>
-      <c r="H218" s="33"/>
-      <c r="I218" s="33"/>
-      <c r="J218" s="33"/>
-      <c r="K218" s="33"/>
-      <c r="L218" s="33"/>
-      <c r="M218" s="33"/>
-      <c r="N218" s="33"/>
-      <c r="O218" s="33"/>
-      <c r="P218" s="34"/>
-      <c r="Q218" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="R218" s="33"/>
-      <c r="S218" s="33"/>
-      <c r="T218" s="33"/>
-      <c r="U218" s="33"/>
-      <c r="V218" s="33"/>
-      <c r="W218" s="33"/>
-      <c r="X218" s="33"/>
-      <c r="Y218" s="33"/>
-      <c r="Z218" s="33"/>
-      <c r="AA218" s="33"/>
-      <c r="AB218" s="33"/>
-      <c r="AC218" s="33"/>
-      <c r="AD218" s="33"/>
-      <c r="AE218" s="33"/>
-      <c r="AF218" s="33"/>
-      <c r="AG218" s="33"/>
-      <c r="AH218" s="34"/>
+      <c r="G218" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="H218" s="55"/>
+      <c r="I218" s="55"/>
+      <c r="J218" s="55"/>
+      <c r="K218" s="55"/>
+      <c r="L218" s="55"/>
+      <c r="M218" s="55"/>
+      <c r="N218" s="55"/>
+      <c r="O218" s="55"/>
+      <c r="P218" s="55"/>
+      <c r="Q218" s="55"/>
+      <c r="R218" s="55"/>
+      <c r="S218" s="55"/>
+      <c r="T218" s="55"/>
+      <c r="U218" s="55"/>
+      <c r="V218" s="55"/>
+      <c r="W218" s="55"/>
+      <c r="X218" s="55"/>
+      <c r="Y218" s="55"/>
+      <c r="Z218" s="55"/>
+      <c r="AA218" s="55"/>
+      <c r="AB218" s="55"/>
+      <c r="AC218" s="55"/>
+      <c r="AD218" s="55"/>
+      <c r="AE218" s="55"/>
+      <c r="AF218" s="55"/>
+      <c r="AG218" s="55"/>
+      <c r="AH218" s="55"/>
       <c r="AI218" s="29"/>
     </row>
     <row r="219" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10854,7 +10796,9 @@
       <c r="D219" s="29"/>
       <c r="E219" s="29"/>
       <c r="F219" s="29"/>
-      <c r="G219" s="55"/>
+      <c r="G219" s="55" t="s">
+        <v>254</v>
+      </c>
       <c r="H219" s="55"/>
       <c r="I219" s="55"/>
       <c r="J219" s="55"/>
@@ -10891,9 +10835,7 @@
       <c r="D220" s="29"/>
       <c r="E220" s="29"/>
       <c r="F220" s="29"/>
-      <c r="G220" s="55" t="s">
-        <v>258</v>
-      </c>
+      <c r="G220" s="55"/>
       <c r="H220" s="55"/>
       <c r="I220" s="55"/>
       <c r="J220" s="55"/>
@@ -10930,7 +10872,9 @@
       <c r="D221" s="29"/>
       <c r="E221" s="29"/>
       <c r="F221" s="29"/>
-      <c r="G221" s="55"/>
+      <c r="G221" s="55" t="s">
+        <v>250</v>
+      </c>
       <c r="H221" s="55"/>
       <c r="I221" s="55"/>
       <c r="J221" s="55"/>
@@ -10968,7 +10912,7 @@
       <c r="E222" s="29"/>
       <c r="F222" s="29"/>
       <c r="G222" s="55" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H222" s="55"/>
       <c r="I222" s="55"/>
@@ -11007,7 +10951,7 @@
       <c r="E223" s="29"/>
       <c r="F223" s="29"/>
       <c r="G223" s="55" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="H223" s="55"/>
       <c r="I223" s="55"/>
@@ -11045,7 +10989,9 @@
       <c r="D224" s="29"/>
       <c r="E224" s="29"/>
       <c r="F224" s="29"/>
-      <c r="G224" s="55"/>
+      <c r="G224" s="55" t="s">
+        <v>253</v>
+      </c>
       <c r="H224" s="55"/>
       <c r="I224" s="55"/>
       <c r="J224" s="55"/>
@@ -11082,75 +11028,76 @@
       <c r="D225" s="29"/>
       <c r="E225" s="29"/>
       <c r="F225" s="29"/>
-      <c r="G225" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="H225" s="55"/>
-      <c r="I225" s="55"/>
-      <c r="J225" s="55"/>
-      <c r="K225" s="55"/>
-      <c r="L225" s="55"/>
-      <c r="M225" s="55"/>
-      <c r="N225" s="55"/>
-      <c r="O225" s="55"/>
-      <c r="P225" s="55"/>
-      <c r="Q225" s="55"/>
-      <c r="R225" s="55"/>
-      <c r="S225" s="55"/>
-      <c r="T225" s="55"/>
-      <c r="U225" s="55"/>
-      <c r="V225" s="55"/>
-      <c r="W225" s="55"/>
-      <c r="X225" s="55"/>
-      <c r="Y225" s="55"/>
-      <c r="Z225" s="55"/>
-      <c r="AA225" s="55"/>
-      <c r="AB225" s="55"/>
-      <c r="AC225" s="55"/>
-      <c r="AD225" s="55"/>
-      <c r="AE225" s="55"/>
-      <c r="AF225" s="55"/>
-      <c r="AG225" s="55"/>
-      <c r="AH225" s="55"/>
+      <c r="G225" s="29"/>
+      <c r="H225" s="29"/>
+      <c r="I225" s="29"/>
+      <c r="J225" s="29"/>
+      <c r="K225" s="29"/>
+      <c r="L225" s="29"/>
+      <c r="M225" s="29"/>
+      <c r="N225" s="29"/>
+      <c r="O225" s="29"/>
+      <c r="P225" s="29"/>
+      <c r="Q225" s="29"/>
+      <c r="R225" s="29"/>
+      <c r="S225" s="29"/>
+      <c r="T225" s="29"/>
+      <c r="U225" s="29"/>
+      <c r="V225" s="29"/>
+      <c r="W225" s="29"/>
+      <c r="X225" s="29"/>
+      <c r="Y225" s="29"/>
+      <c r="Z225" s="29"/>
+      <c r="AA225" s="29"/>
+      <c r="AB225" s="29"/>
+      <c r="AC225" s="29"/>
+      <c r="AD225" s="29"/>
+      <c r="AE225" s="29"/>
+      <c r="AF225" s="29"/>
+      <c r="AG225" s="29"/>
+      <c r="AH225" s="29"/>
       <c r="AI225" s="29"/>
     </row>
-    <row r="226" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="29"/>
       <c r="B226" s="29"/>
       <c r="C226" s="29"/>
       <c r="D226" s="29"/>
-      <c r="E226" s="29"/>
-      <c r="F226" s="29"/>
-      <c r="G226" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="H226" s="55"/>
-      <c r="I226" s="55"/>
-      <c r="J226" s="55"/>
-      <c r="K226" s="55"/>
-      <c r="L226" s="55"/>
-      <c r="M226" s="55"/>
-      <c r="N226" s="55"/>
-      <c r="O226" s="55"/>
-      <c r="P226" s="55"/>
-      <c r="Q226" s="55"/>
-      <c r="R226" s="55"/>
-      <c r="S226" s="55"/>
-      <c r="T226" s="55"/>
-      <c r="U226" s="55"/>
-      <c r="V226" s="55"/>
-      <c r="W226" s="55"/>
-      <c r="X226" s="55"/>
-      <c r="Y226" s="55"/>
-      <c r="Z226" s="55"/>
-      <c r="AA226" s="55"/>
-      <c r="AB226" s="55"/>
-      <c r="AC226" s="55"/>
-      <c r="AD226" s="55"/>
-      <c r="AE226" s="55"/>
-      <c r="AF226" s="55"/>
-      <c r="AG226" s="55"/>
-      <c r="AH226" s="55"/>
+      <c r="E226" s="24" t="str">
+        <f>D192&amp;"2."</f>
+        <v>3.1.9.2.</v>
+      </c>
+      <c r="F226" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G226" s="29"/>
+      <c r="H226" s="29"/>
+      <c r="I226" s="29"/>
+      <c r="J226" s="29"/>
+      <c r="K226" s="29"/>
+      <c r="L226" s="29"/>
+      <c r="M226" s="29"/>
+      <c r="N226" s="29"/>
+      <c r="O226" s="29"/>
+      <c r="P226" s="29"/>
+      <c r="Q226" s="29"/>
+      <c r="R226" s="29"/>
+      <c r="S226" s="29"/>
+      <c r="T226" s="29"/>
+      <c r="U226" s="29"/>
+      <c r="V226" s="29"/>
+      <c r="W226" s="29"/>
+      <c r="X226" s="29"/>
+      <c r="Y226" s="29"/>
+      <c r="Z226" s="29"/>
+      <c r="AA226" s="29"/>
+      <c r="AB226" s="29"/>
+      <c r="AC226" s="29"/>
+      <c r="AD226" s="29"/>
+      <c r="AE226" s="29"/>
+      <c r="AF226" s="29"/>
+      <c r="AG226" s="29"/>
+      <c r="AH226" s="29"/>
       <c r="AI226" s="29"/>
     </row>
     <row r="227" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11158,38 +11105,38 @@
       <c r="B227" s="29"/>
       <c r="C227" s="29"/>
       <c r="D227" s="29"/>
-      <c r="E227" s="29"/>
-      <c r="F227" s="29"/>
-      <c r="G227" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="H227" s="55"/>
-      <c r="I227" s="55"/>
-      <c r="J227" s="55"/>
-      <c r="K227" s="55"/>
-      <c r="L227" s="55"/>
-      <c r="M227" s="55"/>
-      <c r="N227" s="55"/>
-      <c r="O227" s="55"/>
-      <c r="P227" s="55"/>
-      <c r="Q227" s="55"/>
-      <c r="R227" s="55"/>
-      <c r="S227" s="55"/>
-      <c r="T227" s="55"/>
-      <c r="U227" s="55"/>
-      <c r="V227" s="55"/>
-      <c r="W227" s="55"/>
-      <c r="X227" s="55"/>
-      <c r="Y227" s="55"/>
-      <c r="Z227" s="55"/>
-      <c r="AA227" s="55"/>
-      <c r="AB227" s="55"/>
-      <c r="AC227" s="55"/>
-      <c r="AD227" s="55"/>
-      <c r="AE227" s="55"/>
-      <c r="AF227" s="55"/>
-      <c r="AG227" s="55"/>
-      <c r="AH227" s="55"/>
+      <c r="E227" s="24"/>
+      <c r="F227" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G227" s="29"/>
+      <c r="H227" s="29"/>
+      <c r="I227" s="29"/>
+      <c r="J227" s="29"/>
+      <c r="K227" s="29"/>
+      <c r="L227" s="29"/>
+      <c r="M227" s="29"/>
+      <c r="N227" s="29"/>
+      <c r="O227" s="29"/>
+      <c r="P227" s="29"/>
+      <c r="Q227" s="29"/>
+      <c r="R227" s="29"/>
+      <c r="S227" s="29"/>
+      <c r="T227" s="29"/>
+      <c r="U227" s="29"/>
+      <c r="V227" s="29"/>
+      <c r="W227" s="29"/>
+      <c r="X227" s="29"/>
+      <c r="Y227" s="29"/>
+      <c r="Z227" s="29"/>
+      <c r="AA227" s="29"/>
+      <c r="AB227" s="29"/>
+      <c r="AC227" s="29"/>
+      <c r="AD227" s="29"/>
+      <c r="AE227" s="29"/>
+      <c r="AF227" s="29"/>
+      <c r="AG227" s="29"/>
+      <c r="AH227" s="29"/>
       <c r="AI227" s="29"/>
     </row>
     <row r="228" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11197,38 +11144,36 @@
       <c r="B228" s="29"/>
       <c r="C228" s="29"/>
       <c r="D228" s="29"/>
-      <c r="E228" s="29"/>
+      <c r="E228" s="24"/>
       <c r="F228" s="29"/>
-      <c r="G228" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="H228" s="55"/>
-      <c r="I228" s="55"/>
-      <c r="J228" s="55"/>
-      <c r="K228" s="55"/>
-      <c r="L228" s="55"/>
-      <c r="M228" s="55"/>
-      <c r="N228" s="55"/>
-      <c r="O228" s="55"/>
-      <c r="P228" s="55"/>
-      <c r="Q228" s="55"/>
-      <c r="R228" s="55"/>
-      <c r="S228" s="55"/>
-      <c r="T228" s="55"/>
-      <c r="U228" s="55"/>
-      <c r="V228" s="55"/>
-      <c r="W228" s="55"/>
-      <c r="X228" s="55"/>
-      <c r="Y228" s="55"/>
-      <c r="Z228" s="55"/>
-      <c r="AA228" s="55"/>
-      <c r="AB228" s="55"/>
-      <c r="AC228" s="55"/>
-      <c r="AD228" s="55"/>
-      <c r="AE228" s="55"/>
-      <c r="AF228" s="55"/>
-      <c r="AG228" s="55"/>
-      <c r="AH228" s="55"/>
+      <c r="G228" s="29"/>
+      <c r="H228" s="29"/>
+      <c r="I228" s="29"/>
+      <c r="J228" s="29"/>
+      <c r="K228" s="29"/>
+      <c r="L228" s="29"/>
+      <c r="M228" s="29"/>
+      <c r="N228" s="29"/>
+      <c r="O228" s="29"/>
+      <c r="P228" s="29"/>
+      <c r="Q228" s="29"/>
+      <c r="R228" s="29"/>
+      <c r="S228" s="29"/>
+      <c r="T228" s="29"/>
+      <c r="U228" s="29"/>
+      <c r="V228" s="29"/>
+      <c r="W228" s="29"/>
+      <c r="X228" s="29"/>
+      <c r="Y228" s="29"/>
+      <c r="Z228" s="29"/>
+      <c r="AA228" s="29"/>
+      <c r="AB228" s="29"/>
+      <c r="AC228" s="29"/>
+      <c r="AD228" s="29"/>
+      <c r="AE228" s="29"/>
+      <c r="AF228" s="29"/>
+      <c r="AG228" s="29"/>
+      <c r="AH228" s="29"/>
       <c r="AI228" s="29"/>
     </row>
     <row r="229" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11237,8 +11182,12 @@
       <c r="C229" s="29"/>
       <c r="D229" s="29"/>
       <c r="E229" s="29"/>
-      <c r="F229" s="29"/>
-      <c r="G229" s="29"/>
+      <c r="F229" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G229" s="29" t="s">
+        <v>89</v>
+      </c>
       <c r="H229" s="29"/>
       <c r="I229" s="29"/>
       <c r="J229" s="29"/>
@@ -11268,19 +11217,16 @@
       <c r="AH229" s="29"/>
       <c r="AI229" s="29"/>
     </row>
-    <row r="230" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="29"/>
       <c r="B230" s="29"/>
       <c r="C230" s="29"/>
       <c r="D230" s="29"/>
-      <c r="E230" s="24" t="str">
-        <f>D196&amp;"2."</f>
-        <v>3.1.9.2.</v>
-      </c>
-      <c r="F230" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G230" s="29"/>
+      <c r="E230" s="29"/>
+      <c r="F230" s="24"/>
+      <c r="G230" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="H230" s="29"/>
       <c r="I230" s="29"/>
       <c r="J230" s="29"/>
@@ -11315,38 +11261,42 @@
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
       <c r="D231" s="29"/>
-      <c r="E231" s="24"/>
-      <c r="F231" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G231" s="29"/>
-      <c r="H231" s="29"/>
-      <c r="I231" s="29"/>
-      <c r="J231" s="29"/>
-      <c r="K231" s="29"/>
-      <c r="L231" s="29"/>
-      <c r="M231" s="29"/>
-      <c r="N231" s="29"/>
-      <c r="O231" s="29"/>
-      <c r="P231" s="29"/>
-      <c r="Q231" s="29"/>
-      <c r="R231" s="29"/>
-      <c r="S231" s="29"/>
-      <c r="T231" s="29"/>
-      <c r="U231" s="29"/>
-      <c r="V231" s="29"/>
-      <c r="W231" s="29"/>
-      <c r="X231" s="29"/>
-      <c r="Y231" s="29"/>
-      <c r="Z231" s="29"/>
-      <c r="AA231" s="29"/>
-      <c r="AB231" s="29"/>
-      <c r="AC231" s="29"/>
-      <c r="AD231" s="29"/>
-      <c r="AE231" s="29"/>
-      <c r="AF231" s="29"/>
-      <c r="AG231" s="29"/>
-      <c r="AH231" s="29"/>
+      <c r="E231" s="29"/>
+      <c r="F231" s="24"/>
+      <c r="G231" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H231" s="38"/>
+      <c r="I231" s="38"/>
+      <c r="J231" s="38"/>
+      <c r="K231" s="37"/>
+      <c r="L231" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="M231" s="38"/>
+      <c r="N231" s="38"/>
+      <c r="O231" s="38"/>
+      <c r="P231" s="38"/>
+      <c r="Q231" s="38"/>
+      <c r="R231" s="38"/>
+      <c r="S231" s="38"/>
+      <c r="T231" s="38"/>
+      <c r="U231" s="38"/>
+      <c r="V231" s="38"/>
+      <c r="W231" s="38"/>
+      <c r="X231" s="38"/>
+      <c r="Y231" s="38"/>
+      <c r="Z231" s="38"/>
+      <c r="AA231" s="38"/>
+      <c r="AB231" s="37"/>
+      <c r="AC231" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD231" s="38"/>
+      <c r="AE231" s="38"/>
+      <c r="AF231" s="38"/>
+      <c r="AG231" s="38"/>
+      <c r="AH231" s="37"/>
       <c r="AI231" s="29"/>
     </row>
     <row r="232" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11354,36 +11304,42 @@
       <c r="B232" s="29"/>
       <c r="C232" s="29"/>
       <c r="D232" s="29"/>
-      <c r="E232" s="24"/>
-      <c r="F232" s="29"/>
-      <c r="G232" s="29"/>
-      <c r="H232" s="29"/>
-      <c r="I232" s="29"/>
-      <c r="J232" s="29"/>
-      <c r="K232" s="29"/>
-      <c r="L232" s="29"/>
-      <c r="M232" s="29"/>
-      <c r="N232" s="29"/>
-      <c r="O232" s="29"/>
-      <c r="P232" s="29"/>
-      <c r="Q232" s="29"/>
-      <c r="R232" s="29"/>
-      <c r="S232" s="29"/>
-      <c r="T232" s="29"/>
-      <c r="U232" s="29"/>
-      <c r="V232" s="29"/>
-      <c r="W232" s="29"/>
-      <c r="X232" s="29"/>
-      <c r="Y232" s="29"/>
-      <c r="Z232" s="29"/>
-      <c r="AA232" s="29"/>
-      <c r="AB232" s="29"/>
-      <c r="AC232" s="29"/>
-      <c r="AD232" s="29"/>
-      <c r="AE232" s="29"/>
-      <c r="AF232" s="29"/>
-      <c r="AG232" s="29"/>
-      <c r="AH232" s="29"/>
+      <c r="E232" s="29"/>
+      <c r="F232" s="24"/>
+      <c r="G232" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H232" s="55"/>
+      <c r="I232" s="55"/>
+      <c r="J232" s="55"/>
+      <c r="K232" s="31"/>
+      <c r="L232" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="M232" s="26"/>
+      <c r="N232" s="26"/>
+      <c r="O232" s="26"/>
+      <c r="P232" s="26"/>
+      <c r="Q232" s="26"/>
+      <c r="R232" s="26"/>
+      <c r="S232" s="26"/>
+      <c r="T232" s="26"/>
+      <c r="U232" s="26"/>
+      <c r="V232" s="26"/>
+      <c r="W232" s="26"/>
+      <c r="X232" s="26"/>
+      <c r="Y232" s="26"/>
+      <c r="Z232" s="26"/>
+      <c r="AA232" s="26"/>
+      <c r="AB232" s="71"/>
+      <c r="AC232" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD232" s="26"/>
+      <c r="AE232" s="26"/>
+      <c r="AF232" s="26"/>
+      <c r="AG232" s="26"/>
+      <c r="AH232" s="71"/>
       <c r="AI232" s="29"/>
     </row>
     <row r="233" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11392,39 +11348,39 @@
       <c r="C233" s="29"/>
       <c r="D233" s="29"/>
       <c r="E233" s="29"/>
-      <c r="F233" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G233" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="H233" s="29"/>
-      <c r="I233" s="29"/>
-      <c r="J233" s="29"/>
-      <c r="K233" s="29"/>
-      <c r="L233" s="29"/>
-      <c r="M233" s="29"/>
-      <c r="N233" s="29"/>
-      <c r="O233" s="29"/>
-      <c r="P233" s="29"/>
-      <c r="Q233" s="29"/>
-      <c r="R233" s="29"/>
-      <c r="S233" s="29"/>
-      <c r="T233" s="29"/>
-      <c r="U233" s="29"/>
-      <c r="V233" s="29"/>
-      <c r="W233" s="29"/>
-      <c r="X233" s="29"/>
-      <c r="Y233" s="29"/>
-      <c r="Z233" s="29"/>
-      <c r="AA233" s="29"/>
-      <c r="AB233" s="29"/>
-      <c r="AC233" s="29"/>
-      <c r="AD233" s="29"/>
-      <c r="AE233" s="29"/>
-      <c r="AF233" s="29"/>
-      <c r="AG233" s="29"/>
-      <c r="AH233" s="29"/>
+      <c r="F233" s="24"/>
+      <c r="G233" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H233" s="57"/>
+      <c r="I233" s="57"/>
+      <c r="J233" s="57"/>
+      <c r="K233" s="58"/>
+      <c r="L233" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="M233" s="26"/>
+      <c r="N233" s="26"/>
+      <c r="O233" s="26"/>
+      <c r="P233" s="26"/>
+      <c r="Q233" s="26"/>
+      <c r="R233" s="26"/>
+      <c r="S233" s="26"/>
+      <c r="T233" s="26"/>
+      <c r="U233" s="26"/>
+      <c r="V233" s="26"/>
+      <c r="W233" s="26"/>
+      <c r="X233" s="26"/>
+      <c r="Y233" s="26"/>
+      <c r="Z233" s="26"/>
+      <c r="AA233" s="26"/>
+      <c r="AB233" s="71"/>
+      <c r="AC233" s="26"/>
+      <c r="AD233" s="26"/>
+      <c r="AE233" s="26"/>
+      <c r="AF233" s="26"/>
+      <c r="AG233" s="26"/>
+      <c r="AH233" s="71"/>
       <c r="AI233" s="29"/>
     </row>
     <row r="234" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11434,36 +11390,36 @@
       <c r="D234" s="29"/>
       <c r="E234" s="29"/>
       <c r="F234" s="24"/>
-      <c r="G234" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H234" s="29"/>
-      <c r="I234" s="29"/>
-      <c r="J234" s="29"/>
-      <c r="K234" s="29"/>
-      <c r="L234" s="29"/>
-      <c r="M234" s="29"/>
-      <c r="N234" s="29"/>
-      <c r="O234" s="29"/>
-      <c r="P234" s="29"/>
-      <c r="Q234" s="29"/>
-      <c r="R234" s="29"/>
-      <c r="S234" s="29"/>
-      <c r="T234" s="29"/>
-      <c r="U234" s="29"/>
-      <c r="V234" s="29"/>
-      <c r="W234" s="29"/>
-      <c r="X234" s="29"/>
-      <c r="Y234" s="29"/>
-      <c r="Z234" s="29"/>
-      <c r="AA234" s="29"/>
-      <c r="AB234" s="29"/>
-      <c r="AC234" s="29"/>
-      <c r="AD234" s="29"/>
-      <c r="AE234" s="29"/>
-      <c r="AF234" s="29"/>
-      <c r="AG234" s="29"/>
-      <c r="AH234" s="29"/>
+      <c r="G234" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H234" s="55"/>
+      <c r="I234" s="55"/>
+      <c r="J234" s="55"/>
+      <c r="K234" s="31"/>
+      <c r="L234" s="92"/>
+      <c r="M234" s="26"/>
+      <c r="N234" s="26"/>
+      <c r="O234" s="26"/>
+      <c r="P234" s="26"/>
+      <c r="Q234" s="26"/>
+      <c r="R234" s="26"/>
+      <c r="S234" s="26"/>
+      <c r="T234" s="26"/>
+      <c r="U234" s="26"/>
+      <c r="V234" s="26"/>
+      <c r="W234" s="26"/>
+      <c r="X234" s="26"/>
+      <c r="Y234" s="26"/>
+      <c r="Z234" s="26"/>
+      <c r="AA234" s="26"/>
+      <c r="AB234" s="71"/>
+      <c r="AC234" s="26"/>
+      <c r="AD234" s="26"/>
+      <c r="AE234" s="26"/>
+      <c r="AF234" s="26"/>
+      <c r="AG234" s="26"/>
+      <c r="AH234" s="71"/>
       <c r="AI234" s="29"/>
     </row>
     <row r="235" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11473,40 +11429,36 @@
       <c r="D235" s="29"/>
       <c r="E235" s="29"/>
       <c r="F235" s="24"/>
-      <c r="G235" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="H235" s="38"/>
-      <c r="I235" s="38"/>
-      <c r="J235" s="38"/>
-      <c r="K235" s="37"/>
-      <c r="L235" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="M235" s="38"/>
-      <c r="N235" s="38"/>
-      <c r="O235" s="38"/>
-      <c r="P235" s="38"/>
-      <c r="Q235" s="38"/>
-      <c r="R235" s="38"/>
-      <c r="S235" s="38"/>
-      <c r="T235" s="38"/>
-      <c r="U235" s="38"/>
-      <c r="V235" s="38"/>
-      <c r="W235" s="38"/>
-      <c r="X235" s="38"/>
-      <c r="Y235" s="38"/>
-      <c r="Z235" s="38"/>
-      <c r="AA235" s="38"/>
-      <c r="AB235" s="37"/>
-      <c r="AC235" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD235" s="38"/>
-      <c r="AE235" s="38"/>
-      <c r="AF235" s="38"/>
-      <c r="AG235" s="38"/>
-      <c r="AH235" s="37"/>
+      <c r="G235" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="H235" s="33"/>
+      <c r="I235" s="33"/>
+      <c r="J235" s="33"/>
+      <c r="K235" s="34"/>
+      <c r="L235" s="76"/>
+      <c r="M235" s="76"/>
+      <c r="N235" s="76"/>
+      <c r="O235" s="76"/>
+      <c r="P235" s="76"/>
+      <c r="Q235" s="76"/>
+      <c r="R235" s="76"/>
+      <c r="S235" s="76"/>
+      <c r="T235" s="76"/>
+      <c r="U235" s="76"/>
+      <c r="V235" s="76"/>
+      <c r="W235" s="76"/>
+      <c r="X235" s="76"/>
+      <c r="Y235" s="76"/>
+      <c r="Z235" s="76"/>
+      <c r="AA235" s="76"/>
+      <c r="AB235" s="90"/>
+      <c r="AC235" s="76"/>
+      <c r="AD235" s="76"/>
+      <c r="AE235" s="76"/>
+      <c r="AF235" s="76"/>
+      <c r="AG235" s="76"/>
+      <c r="AH235" s="90"/>
       <c r="AI235" s="29"/>
     </row>
     <row r="236" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11517,14 +11469,14 @@
       <c r="E236" s="29"/>
       <c r="F236" s="24"/>
       <c r="G236" s="30" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H236" s="55"/>
       <c r="I236" s="55"/>
       <c r="J236" s="55"/>
       <c r="K236" s="31"/>
       <c r="L236" s="26" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="M236" s="26"/>
       <c r="N236" s="26"/>
@@ -11543,7 +11495,7 @@
       <c r="AA236" s="26"/>
       <c r="AB236" s="71"/>
       <c r="AC236" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AD236" s="26"/>
       <c r="AE236" s="26"/>
@@ -11559,15 +11511,13 @@
       <c r="D237" s="29"/>
       <c r="E237" s="29"/>
       <c r="F237" s="24"/>
-      <c r="G237" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="H237" s="57"/>
-      <c r="I237" s="57"/>
-      <c r="J237" s="57"/>
-      <c r="K237" s="58"/>
+      <c r="G237" s="30"/>
+      <c r="H237" s="55"/>
+      <c r="I237" s="55"/>
+      <c r="J237" s="55"/>
+      <c r="K237" s="31"/>
       <c r="L237" s="26" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="M237" s="26"/>
       <c r="N237" s="26"/>
@@ -11585,7 +11535,9 @@
       <c r="Z237" s="26"/>
       <c r="AA237" s="26"/>
       <c r="AB237" s="71"/>
-      <c r="AC237" s="26"/>
+      <c r="AC237" s="26" t="s">
+        <v>219</v>
+      </c>
       <c r="AD237" s="26"/>
       <c r="AE237" s="26"/>
       <c r="AF237" s="26"/>
@@ -11600,14 +11552,14 @@
       <c r="D238" s="29"/>
       <c r="E238" s="29"/>
       <c r="F238" s="24"/>
-      <c r="G238" s="30" t="s">
-        <v>256</v>
-      </c>
+      <c r="G238" s="30"/>
       <c r="H238" s="55"/>
       <c r="I238" s="55"/>
       <c r="J238" s="55"/>
       <c r="K238" s="31"/>
-      <c r="L238" s="92"/>
+      <c r="L238" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="M238" s="26"/>
       <c r="N238" s="26"/>
       <c r="O238" s="26"/>
@@ -11639,9 +11591,7 @@
       <c r="D239" s="29"/>
       <c r="E239" s="29"/>
       <c r="F239" s="24"/>
-      <c r="G239" s="32" t="s">
-        <v>257</v>
-      </c>
+      <c r="G239" s="32"/>
       <c r="H239" s="33"/>
       <c r="I239" s="33"/>
       <c r="J239" s="33"/>
@@ -11679,14 +11629,14 @@
       <c r="E240" s="29"/>
       <c r="F240" s="24"/>
       <c r="G240" s="30" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="H240" s="55"/>
       <c r="I240" s="55"/>
       <c r="J240" s="55"/>
       <c r="K240" s="31"/>
       <c r="L240" s="26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M240" s="26"/>
       <c r="N240" s="26"/>
@@ -11705,7 +11655,7 @@
       <c r="AA240" s="26"/>
       <c r="AB240" s="71"/>
       <c r="AC240" s="26" t="s">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="AD240" s="26"/>
       <c r="AE240" s="26"/>
@@ -11721,13 +11671,15 @@
       <c r="D241" s="29"/>
       <c r="E241" s="29"/>
       <c r="F241" s="24"/>
-      <c r="G241" s="30"/>
+      <c r="G241" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="H241" s="55"/>
       <c r="I241" s="55"/>
       <c r="J241" s="55"/>
       <c r="K241" s="31"/>
       <c r="L241" s="26" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M241" s="26"/>
       <c r="N241" s="26"/>
@@ -11745,9 +11697,7 @@
       <c r="Z241" s="26"/>
       <c r="AA241" s="26"/>
       <c r="AB241" s="71"/>
-      <c r="AC241" s="26" t="s">
-        <v>226</v>
-      </c>
+      <c r="AC241" s="26"/>
       <c r="AD241" s="26"/>
       <c r="AE241" s="26"/>
       <c r="AF241" s="26"/>
@@ -11768,7 +11718,7 @@
       <c r="J242" s="55"/>
       <c r="K242" s="31"/>
       <c r="L242" s="26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M242" s="26"/>
       <c r="N242" s="26"/>
@@ -11801,34 +11751,36 @@
       <c r="D243" s="29"/>
       <c r="E243" s="29"/>
       <c r="F243" s="24"/>
-      <c r="G243" s="32"/>
-      <c r="H243" s="33"/>
-      <c r="I243" s="33"/>
-      <c r="J243" s="33"/>
-      <c r="K243" s="34"/>
-      <c r="L243" s="76"/>
-      <c r="M243" s="76"/>
-      <c r="N243" s="76"/>
-      <c r="O243" s="76"/>
-      <c r="P243" s="76"/>
-      <c r="Q243" s="76"/>
-      <c r="R243" s="76"/>
-      <c r="S243" s="76"/>
-      <c r="T243" s="76"/>
-      <c r="U243" s="76"/>
-      <c r="V243" s="76"/>
-      <c r="W243" s="76"/>
-      <c r="X243" s="76"/>
-      <c r="Y243" s="76"/>
-      <c r="Z243" s="76"/>
-      <c r="AA243" s="76"/>
-      <c r="AB243" s="90"/>
-      <c r="AC243" s="76"/>
-      <c r="AD243" s="76"/>
-      <c r="AE243" s="76"/>
-      <c r="AF243" s="76"/>
-      <c r="AG243" s="76"/>
-      <c r="AH243" s="90"/>
+      <c r="G243" s="30"/>
+      <c r="H243" s="55"/>
+      <c r="I243" s="55"/>
+      <c r="J243" s="55"/>
+      <c r="K243" s="31"/>
+      <c r="L243" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M243" s="26"/>
+      <c r="N243" s="26"/>
+      <c r="O243" s="26"/>
+      <c r="P243" s="26"/>
+      <c r="Q243" s="26"/>
+      <c r="R243" s="26"/>
+      <c r="S243" s="26"/>
+      <c r="T243" s="26"/>
+      <c r="U243" s="26"/>
+      <c r="V243" s="26"/>
+      <c r="W243" s="26"/>
+      <c r="X243" s="26"/>
+      <c r="Y243" s="26"/>
+      <c r="Z243" s="26"/>
+      <c r="AA243" s="26"/>
+      <c r="AB243" s="71"/>
+      <c r="AC243" s="26"/>
+      <c r="AD243" s="26"/>
+      <c r="AE243" s="26"/>
+      <c r="AF243" s="26"/>
+      <c r="AG243" s="26"/>
+      <c r="AH243" s="71"/>
       <c r="AI243" s="29"/>
     </row>
     <row r="244" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11838,16 +11790,12 @@
       <c r="D244" s="29"/>
       <c r="E244" s="29"/>
       <c r="F244" s="24"/>
-      <c r="G244" s="30" t="s">
-        <v>103</v>
-      </c>
+      <c r="G244" s="30"/>
       <c r="H244" s="55"/>
       <c r="I244" s="55"/>
       <c r="J244" s="55"/>
       <c r="K244" s="31"/>
-      <c r="L244" s="26" t="s">
-        <v>98</v>
-      </c>
+      <c r="L244" s="26"/>
       <c r="M244" s="26"/>
       <c r="N244" s="26"/>
       <c r="O244" s="26"/>
@@ -11864,9 +11812,7 @@
       <c r="Z244" s="26"/>
       <c r="AA244" s="26"/>
       <c r="AB244" s="71"/>
-      <c r="AC244" s="26" t="s">
-        <v>102</v>
-      </c>
+      <c r="AC244" s="26"/>
       <c r="AD244" s="26"/>
       <c r="AE244" s="26"/>
       <c r="AF244" s="26"/>
@@ -11881,15 +11827,13 @@
       <c r="D245" s="29"/>
       <c r="E245" s="29"/>
       <c r="F245" s="24"/>
-      <c r="G245" s="30" t="s">
-        <v>104</v>
-      </c>
+      <c r="G245" s="30"/>
       <c r="H245" s="55"/>
       <c r="I245" s="55"/>
       <c r="J245" s="55"/>
       <c r="K245" s="31"/>
       <c r="L245" s="26" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M245" s="26"/>
       <c r="N245" s="26"/>
@@ -11928,7 +11872,7 @@
       <c r="J246" s="55"/>
       <c r="K246" s="31"/>
       <c r="L246" s="26" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M246" s="26"/>
       <c r="N246" s="26"/>
@@ -11967,7 +11911,7 @@
       <c r="J247" s="55"/>
       <c r="K247" s="31"/>
       <c r="L247" s="26" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M247" s="26"/>
       <c r="N247" s="26"/>
@@ -12005,7 +11949,9 @@
       <c r="I248" s="55"/>
       <c r="J248" s="55"/>
       <c r="K248" s="31"/>
-      <c r="L248" s="26"/>
+      <c r="L248" s="26" t="s">
+        <v>222</v>
+      </c>
       <c r="M248" s="26"/>
       <c r="N248" s="26"/>
       <c r="O248" s="26"/>
@@ -12043,7 +11989,7 @@
       <c r="J249" s="55"/>
       <c r="K249" s="31"/>
       <c r="L249" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M249" s="26"/>
       <c r="N249" s="26"/>
@@ -12082,7 +12028,7 @@
       <c r="J250" s="55"/>
       <c r="K250" s="31"/>
       <c r="L250" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M250" s="26"/>
       <c r="N250" s="26"/>
@@ -12115,36 +12061,36 @@
       <c r="D251" s="29"/>
       <c r="E251" s="29"/>
       <c r="F251" s="24"/>
-      <c r="G251" s="30"/>
-      <c r="H251" s="55"/>
-      <c r="I251" s="55"/>
-      <c r="J251" s="55"/>
-      <c r="K251" s="31"/>
-      <c r="L251" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="M251" s="26"/>
-      <c r="N251" s="26"/>
-      <c r="O251" s="26"/>
-      <c r="P251" s="26"/>
-      <c r="Q251" s="26"/>
-      <c r="R251" s="26"/>
-      <c r="S251" s="26"/>
-      <c r="T251" s="26"/>
-      <c r="U251" s="26"/>
-      <c r="V251" s="26"/>
-      <c r="W251" s="26"/>
-      <c r="X251" s="26"/>
-      <c r="Y251" s="26"/>
-      <c r="Z251" s="26"/>
-      <c r="AA251" s="26"/>
-      <c r="AB251" s="71"/>
-      <c r="AC251" s="26"/>
-      <c r="AD251" s="26"/>
-      <c r="AE251" s="26"/>
-      <c r="AF251" s="26"/>
-      <c r="AG251" s="26"/>
-      <c r="AH251" s="71"/>
+      <c r="G251" s="32"/>
+      <c r="H251" s="33"/>
+      <c r="I251" s="33"/>
+      <c r="J251" s="33"/>
+      <c r="K251" s="34"/>
+      <c r="L251" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="M251" s="76"/>
+      <c r="N251" s="76"/>
+      <c r="O251" s="76"/>
+      <c r="P251" s="76"/>
+      <c r="Q251" s="76"/>
+      <c r="R251" s="76"/>
+      <c r="S251" s="76"/>
+      <c r="T251" s="76"/>
+      <c r="U251" s="76"/>
+      <c r="V251" s="76"/>
+      <c r="W251" s="76"/>
+      <c r="X251" s="76"/>
+      <c r="Y251" s="76"/>
+      <c r="Z251" s="76"/>
+      <c r="AA251" s="76"/>
+      <c r="AB251" s="90"/>
+      <c r="AC251" s="76"/>
+      <c r="AD251" s="76"/>
+      <c r="AE251" s="76"/>
+      <c r="AF251" s="76"/>
+      <c r="AG251" s="76"/>
+      <c r="AH251" s="90"/>
       <c r="AI251" s="29"/>
     </row>
     <row r="252" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12154,13 +12100,15 @@
       <c r="D252" s="29"/>
       <c r="E252" s="29"/>
       <c r="F252" s="24"/>
-      <c r="G252" s="30"/>
+      <c r="G252" s="30" t="s">
+        <v>104</v>
+      </c>
       <c r="H252" s="55"/>
       <c r="I252" s="55"/>
       <c r="J252" s="55"/>
       <c r="K252" s="31"/>
       <c r="L252" s="26" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M252" s="26"/>
       <c r="N252" s="26"/>
@@ -12178,7 +12126,9 @@
       <c r="Z252" s="26"/>
       <c r="AA252" s="26"/>
       <c r="AB252" s="71"/>
-      <c r="AC252" s="26"/>
+      <c r="AC252" s="26" t="s">
+        <v>101</v>
+      </c>
       <c r="AD252" s="26"/>
       <c r="AE252" s="26"/>
       <c r="AF252" s="26"/>
@@ -12193,36 +12143,38 @@
       <c r="D253" s="29"/>
       <c r="E253" s="29"/>
       <c r="F253" s="24"/>
-      <c r="G253" s="30"/>
-      <c r="H253" s="55"/>
-      <c r="I253" s="55"/>
-      <c r="J253" s="55"/>
-      <c r="K253" s="31"/>
-      <c r="L253" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="M253" s="26"/>
-      <c r="N253" s="26"/>
-      <c r="O253" s="26"/>
-      <c r="P253" s="26"/>
-      <c r="Q253" s="26"/>
-      <c r="R253" s="26"/>
-      <c r="S253" s="26"/>
-      <c r="T253" s="26"/>
-      <c r="U253" s="26"/>
-      <c r="V253" s="26"/>
-      <c r="W253" s="26"/>
-      <c r="X253" s="26"/>
-      <c r="Y253" s="26"/>
-      <c r="Z253" s="26"/>
-      <c r="AA253" s="26"/>
-      <c r="AB253" s="71"/>
-      <c r="AC253" s="26"/>
-      <c r="AD253" s="26"/>
-      <c r="AE253" s="26"/>
-      <c r="AF253" s="26"/>
-      <c r="AG253" s="26"/>
-      <c r="AH253" s="71"/>
+      <c r="G253" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H253" s="33"/>
+      <c r="I253" s="33"/>
+      <c r="J253" s="33"/>
+      <c r="K253" s="34"/>
+      <c r="L253" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="M253" s="76"/>
+      <c r="N253" s="76"/>
+      <c r="O253" s="76"/>
+      <c r="P253" s="76"/>
+      <c r="Q253" s="76"/>
+      <c r="R253" s="76"/>
+      <c r="S253" s="76"/>
+      <c r="T253" s="76"/>
+      <c r="U253" s="76"/>
+      <c r="V253" s="76"/>
+      <c r="W253" s="76"/>
+      <c r="X253" s="76"/>
+      <c r="Y253" s="76"/>
+      <c r="Z253" s="76"/>
+      <c r="AA253" s="76"/>
+      <c r="AB253" s="90"/>
+      <c r="AC253" s="76"/>
+      <c r="AD253" s="76"/>
+      <c r="AE253" s="76"/>
+      <c r="AF253" s="76"/>
+      <c r="AG253" s="76"/>
+      <c r="AH253" s="90"/>
       <c r="AI253" s="29"/>
     </row>
     <row r="254" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12230,38 +12182,36 @@
       <c r="B254" s="29"/>
       <c r="C254" s="29"/>
       <c r="D254" s="29"/>
-      <c r="E254" s="29"/>
-      <c r="F254" s="24"/>
-      <c r="G254" s="30"/>
-      <c r="H254" s="55"/>
-      <c r="I254" s="55"/>
-      <c r="J254" s="55"/>
-      <c r="K254" s="31"/>
-      <c r="L254" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="M254" s="26"/>
-      <c r="N254" s="26"/>
-      <c r="O254" s="26"/>
-      <c r="P254" s="26"/>
-      <c r="Q254" s="26"/>
-      <c r="R254" s="26"/>
-      <c r="S254" s="26"/>
-      <c r="T254" s="26"/>
-      <c r="U254" s="26"/>
-      <c r="V254" s="26"/>
-      <c r="W254" s="26"/>
-      <c r="X254" s="26"/>
-      <c r="Y254" s="26"/>
-      <c r="Z254" s="26"/>
-      <c r="AA254" s="26"/>
-      <c r="AB254" s="71"/>
-      <c r="AC254" s="26"/>
-      <c r="AD254" s="26"/>
-      <c r="AE254" s="26"/>
-      <c r="AF254" s="26"/>
-      <c r="AG254" s="26"/>
-      <c r="AH254" s="71"/>
+      <c r="E254" s="24"/>
+      <c r="F254" s="29"/>
+      <c r="G254" s="29"/>
+      <c r="H254" s="29"/>
+      <c r="I254" s="29"/>
+      <c r="J254" s="29"/>
+      <c r="K254" s="29"/>
+      <c r="L254" s="29"/>
+      <c r="M254" s="29"/>
+      <c r="N254" s="29"/>
+      <c r="O254" s="29"/>
+      <c r="P254" s="29"/>
+      <c r="Q254" s="29"/>
+      <c r="R254" s="29"/>
+      <c r="S254" s="29"/>
+      <c r="T254" s="29"/>
+      <c r="U254" s="29"/>
+      <c r="V254" s="29"/>
+      <c r="W254" s="29"/>
+      <c r="X254" s="29"/>
+      <c r="Y254" s="29"/>
+      <c r="Z254" s="29"/>
+      <c r="AA254" s="29"/>
+      <c r="AB254" s="29"/>
+      <c r="AC254" s="29"/>
+      <c r="AD254" s="29"/>
+      <c r="AE254" s="29"/>
+      <c r="AF254" s="29"/>
+      <c r="AG254" s="29"/>
+      <c r="AH254" s="29"/>
       <c r="AI254" s="29"/>
     </row>
     <row r="255" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12269,38 +12219,40 @@
       <c r="B255" s="29"/>
       <c r="C255" s="29"/>
       <c r="D255" s="29"/>
-      <c r="E255" s="29"/>
-      <c r="F255" s="24"/>
-      <c r="G255" s="32"/>
-      <c r="H255" s="33"/>
-      <c r="I255" s="33"/>
-      <c r="J255" s="33"/>
-      <c r="K255" s="34"/>
-      <c r="L255" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="M255" s="76"/>
-      <c r="N255" s="76"/>
-      <c r="O255" s="76"/>
-      <c r="P255" s="76"/>
-      <c r="Q255" s="76"/>
-      <c r="R255" s="76"/>
-      <c r="S255" s="76"/>
-      <c r="T255" s="76"/>
-      <c r="U255" s="76"/>
-      <c r="V255" s="76"/>
-      <c r="W255" s="76"/>
-      <c r="X255" s="76"/>
-      <c r="Y255" s="76"/>
-      <c r="Z255" s="76"/>
-      <c r="AA255" s="76"/>
-      <c r="AB255" s="90"/>
-      <c r="AC255" s="76"/>
-      <c r="AD255" s="76"/>
-      <c r="AE255" s="76"/>
-      <c r="AF255" s="76"/>
-      <c r="AG255" s="76"/>
-      <c r="AH255" s="90"/>
+      <c r="E255" s="24"/>
+      <c r="F255" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G255" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H255" s="29"/>
+      <c r="I255" s="29"/>
+      <c r="J255" s="29"/>
+      <c r="K255" s="29"/>
+      <c r="L255" s="29"/>
+      <c r="M255" s="29"/>
+      <c r="N255" s="29"/>
+      <c r="O255" s="29"/>
+      <c r="P255" s="29"/>
+      <c r="Q255" s="29"/>
+      <c r="R255" s="29"/>
+      <c r="S255" s="29"/>
+      <c r="T255" s="29"/>
+      <c r="U255" s="29"/>
+      <c r="V255" s="29"/>
+      <c r="W255" s="29"/>
+      <c r="X255" s="29"/>
+      <c r="Y255" s="29"/>
+      <c r="Z255" s="29"/>
+      <c r="AA255" s="29"/>
+      <c r="AB255" s="29"/>
+      <c r="AC255" s="29"/>
+      <c r="AD255" s="29"/>
+      <c r="AE255" s="29"/>
+      <c r="AF255" s="29"/>
+      <c r="AG255" s="29"/>
+      <c r="AH255" s="29"/>
       <c r="AI255" s="29"/>
     </row>
     <row r="256" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12308,91 +12260,83 @@
       <c r="B256" s="29"/>
       <c r="C256" s="29"/>
       <c r="D256" s="29"/>
-      <c r="E256" s="29"/>
-      <c r="F256" s="24"/>
-      <c r="G256" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H256" s="55"/>
-      <c r="I256" s="55"/>
-      <c r="J256" s="55"/>
-      <c r="K256" s="31"/>
-      <c r="L256" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="M256" s="26"/>
-      <c r="N256" s="26"/>
-      <c r="O256" s="26"/>
-      <c r="P256" s="26"/>
-      <c r="Q256" s="26"/>
-      <c r="R256" s="26"/>
-      <c r="S256" s="26"/>
-      <c r="T256" s="26"/>
-      <c r="U256" s="26"/>
-      <c r="V256" s="26"/>
-      <c r="W256" s="26"/>
-      <c r="X256" s="26"/>
-      <c r="Y256" s="26"/>
-      <c r="Z256" s="26"/>
-      <c r="AA256" s="26"/>
-      <c r="AB256" s="71"/>
-      <c r="AC256" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD256" s="26"/>
-      <c r="AE256" s="26"/>
-      <c r="AF256" s="26"/>
-      <c r="AG256" s="26"/>
-      <c r="AH256" s="71"/>
+      <c r="E256" s="24"/>
+      <c r="F256" s="29"/>
+      <c r="G256" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H256" s="29"/>
+      <c r="I256" s="29"/>
+      <c r="J256" s="29"/>
+      <c r="K256" s="29"/>
+      <c r="L256" s="29"/>
+      <c r="M256" s="29"/>
+      <c r="N256" s="29"/>
+      <c r="O256" s="29"/>
+      <c r="P256" s="29"/>
+      <c r="Q256" s="29"/>
+      <c r="R256" s="29"/>
+      <c r="S256" s="29"/>
+      <c r="T256" s="29"/>
+      <c r="U256" s="29"/>
+      <c r="V256" s="29"/>
+      <c r="W256" s="29"/>
+      <c r="X256" s="29"/>
+      <c r="Y256" s="29"/>
+      <c r="Z256" s="29"/>
+      <c r="AA256" s="29"/>
+      <c r="AB256" s="29"/>
+      <c r="AC256" s="29"/>
+      <c r="AD256" s="29"/>
+      <c r="AE256" s="29"/>
+      <c r="AF256" s="29"/>
+      <c r="AG256" s="29"/>
+      <c r="AH256" s="29"/>
       <c r="AI256" s="29"/>
     </row>
-    <row r="257" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="29"/>
       <c r="B257" s="29"/>
       <c r="C257" s="29"/>
       <c r="D257" s="29"/>
       <c r="E257" s="29"/>
-      <c r="F257" s="24"/>
-      <c r="G257" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="H257" s="33"/>
-      <c r="I257" s="33"/>
-      <c r="J257" s="33"/>
-      <c r="K257" s="34"/>
-      <c r="L257" s="76" t="s">
-        <v>228</v>
-      </c>
-      <c r="M257" s="76"/>
-      <c r="N257" s="76"/>
-      <c r="O257" s="76"/>
-      <c r="P257" s="76"/>
-      <c r="Q257" s="76"/>
-      <c r="R257" s="76"/>
-      <c r="S257" s="76"/>
-      <c r="T257" s="76"/>
-      <c r="U257" s="76"/>
-      <c r="V257" s="76"/>
-      <c r="W257" s="76"/>
-      <c r="X257" s="76"/>
-      <c r="Y257" s="76"/>
-      <c r="Z257" s="76"/>
-      <c r="AA257" s="76"/>
-      <c r="AB257" s="90"/>
-      <c r="AC257" s="76"/>
-      <c r="AD257" s="76"/>
-      <c r="AE257" s="76"/>
-      <c r="AF257" s="76"/>
-      <c r="AG257" s="76"/>
-      <c r="AH257" s="90"/>
+      <c r="F257" s="29"/>
+      <c r="G257" s="29"/>
+      <c r="H257" s="29"/>
+      <c r="I257" s="29"/>
+      <c r="J257" s="29"/>
+      <c r="K257" s="29"/>
+      <c r="L257" s="29"/>
+      <c r="M257" s="29"/>
+      <c r="N257" s="29"/>
+      <c r="O257" s="29"/>
+      <c r="P257" s="29"/>
+      <c r="Q257" s="29"/>
+      <c r="R257" s="29"/>
+      <c r="S257" s="29"/>
+      <c r="T257" s="29"/>
+      <c r="U257" s="29"/>
+      <c r="V257" s="29"/>
+      <c r="W257" s="29"/>
+      <c r="X257" s="29"/>
+      <c r="Y257" s="29"/>
+      <c r="Z257" s="29"/>
+      <c r="AA257" s="29"/>
+      <c r="AB257" s="29"/>
+      <c r="AC257" s="29"/>
+      <c r="AD257" s="29"/>
+      <c r="AE257" s="29"/>
+      <c r="AF257" s="29"/>
+      <c r="AG257" s="29"/>
+      <c r="AH257" s="29"/>
       <c r="AI257" s="29"/>
     </row>
-    <row r="258" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="29"/>
       <c r="B258" s="29"/>
       <c r="C258" s="29"/>
       <c r="D258" s="29"/>
-      <c r="E258" s="24"/>
+      <c r="E258" s="29"/>
       <c r="F258" s="29"/>
       <c r="G258" s="29"/>
       <c r="H258" s="29"/>
@@ -12425,166 +12369,41 @@
       <c r="AI258" s="29"/>
     </row>
     <row r="259" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="29"/>
-      <c r="B259" s="29"/>
-      <c r="C259" s="29"/>
-      <c r="D259" s="29"/>
-      <c r="E259" s="24"/>
-      <c r="F259" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G259" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="H259" s="29"/>
-      <c r="I259" s="29"/>
-      <c r="J259" s="29"/>
-      <c r="K259" s="29"/>
-      <c r="L259" s="29"/>
-      <c r="M259" s="29"/>
-      <c r="N259" s="29"/>
-      <c r="O259" s="29"/>
-      <c r="P259" s="29"/>
-      <c r="Q259" s="29"/>
-      <c r="R259" s="29"/>
-      <c r="S259" s="29"/>
-      <c r="T259" s="29"/>
-      <c r="U259" s="29"/>
-      <c r="V259" s="29"/>
-      <c r="W259" s="29"/>
-      <c r="X259" s="29"/>
-      <c r="Y259" s="29"/>
-      <c r="Z259" s="29"/>
-      <c r="AA259" s="29"/>
-      <c r="AB259" s="29"/>
-      <c r="AC259" s="29"/>
-      <c r="AD259" s="29"/>
-      <c r="AE259" s="29"/>
-      <c r="AF259" s="29"/>
-      <c r="AG259" s="29"/>
-      <c r="AH259" s="29"/>
-      <c r="AI259" s="29"/>
-    </row>
-    <row r="260" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="29"/>
-      <c r="B260" s="29"/>
-      <c r="C260" s="29"/>
-      <c r="D260" s="29"/>
-      <c r="E260" s="24"/>
-      <c r="F260" s="29"/>
-      <c r="G260" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="H260" s="29"/>
-      <c r="I260" s="29"/>
-      <c r="J260" s="29"/>
-      <c r="K260" s="29"/>
-      <c r="L260" s="29"/>
-      <c r="M260" s="29"/>
-      <c r="N260" s="29"/>
-      <c r="O260" s="29"/>
-      <c r="P260" s="29"/>
-      <c r="Q260" s="29"/>
-      <c r="R260" s="29"/>
-      <c r="S260" s="29"/>
-      <c r="T260" s="29"/>
-      <c r="U260" s="29"/>
-      <c r="V260" s="29"/>
-      <c r="W260" s="29"/>
-      <c r="X260" s="29"/>
-      <c r="Y260" s="29"/>
-      <c r="Z260" s="29"/>
-      <c r="AA260" s="29"/>
-      <c r="AB260" s="29"/>
-      <c r="AC260" s="29"/>
-      <c r="AD260" s="29"/>
-      <c r="AE260" s="29"/>
-      <c r="AF260" s="29"/>
-      <c r="AG260" s="29"/>
-      <c r="AH260" s="29"/>
-      <c r="AI260" s="29"/>
-    </row>
-    <row r="261" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="29"/>
-      <c r="B261" s="29"/>
-      <c r="C261" s="29"/>
-      <c r="D261" s="29"/>
-      <c r="E261" s="29"/>
-      <c r="F261" s="29"/>
-      <c r="G261" s="29"/>
-      <c r="H261" s="29"/>
-      <c r="I261" s="29"/>
-      <c r="J261" s="29"/>
-      <c r="K261" s="29"/>
-      <c r="L261" s="29"/>
-      <c r="M261" s="29"/>
-      <c r="N261" s="29"/>
-      <c r="O261" s="29"/>
-      <c r="P261" s="29"/>
-      <c r="Q261" s="29"/>
-      <c r="R261" s="29"/>
-      <c r="S261" s="29"/>
-      <c r="T261" s="29"/>
-      <c r="U261" s="29"/>
-      <c r="V261" s="29"/>
-      <c r="W261" s="29"/>
-      <c r="X261" s="29"/>
-      <c r="Y261" s="29"/>
-      <c r="Z261" s="29"/>
-      <c r="AA261" s="29"/>
-      <c r="AB261" s="29"/>
-      <c r="AC261" s="29"/>
-      <c r="AD261" s="29"/>
-      <c r="AE261" s="29"/>
-      <c r="AF261" s="29"/>
-      <c r="AG261" s="29"/>
-      <c r="AH261" s="29"/>
-      <c r="AI261" s="29"/>
-    </row>
-    <row r="262" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="29"/>
-      <c r="B262" s="29"/>
-      <c r="C262" s="29"/>
-      <c r="D262" s="29"/>
-      <c r="E262" s="29"/>
-      <c r="F262" s="29"/>
-      <c r="G262" s="29"/>
-      <c r="H262" s="29"/>
-      <c r="I262" s="29"/>
-      <c r="J262" s="29"/>
-      <c r="K262" s="29"/>
-      <c r="L262" s="29"/>
-      <c r="M262" s="29"/>
-      <c r="N262" s="29"/>
-      <c r="O262" s="29"/>
-      <c r="P262" s="29"/>
-      <c r="Q262" s="29"/>
-      <c r="R262" s="29"/>
-      <c r="S262" s="29"/>
-      <c r="T262" s="29"/>
-      <c r="U262" s="29"/>
-      <c r="V262" s="29"/>
-      <c r="W262" s="29"/>
-      <c r="X262" s="29"/>
-      <c r="Y262" s="29"/>
-      <c r="Z262" s="29"/>
-      <c r="AA262" s="29"/>
-      <c r="AB262" s="29"/>
-      <c r="AC262" s="29"/>
-      <c r="AD262" s="29"/>
-      <c r="AE262" s="29"/>
-      <c r="AF262" s="29"/>
-      <c r="AG262" s="29"/>
-      <c r="AH262" s="29"/>
-      <c r="AI262" s="29"/>
-    </row>
-    <row r="263" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D263" s="42" t="str">
+      <c r="D259" s="42" t="str">
         <f>$C$7&amp;"10."</f>
         <v>3.1.10.</v>
       </c>
-      <c r="E263" s="41" t="s">
-        <v>165</v>
+      <c r="E259" s="41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="260" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D260" s="42"/>
+    </row>
+    <row r="261" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D261" s="42"/>
+      <c r="E261" s="42" t="str">
+        <f>$D$259&amp;"1."</f>
+        <v>3.1.10.1.</v>
+      </c>
+      <c r="F261" s="41" t="str">
+        <f>$E$259&amp;"概要"</f>
+        <v>URL設計概要</v>
+      </c>
+    </row>
+    <row r="262" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D262" s="42"/>
+      <c r="F262" s="41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="263" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D263" s="42"/>
+      <c r="F263" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="G263" s="41" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="264" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12593,260 +12412,363 @@
     <row r="265" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D265" s="42"/>
       <c r="E265" s="42" t="str">
-        <f>$D$263&amp;"1."</f>
-        <v>3.1.10.1.</v>
+        <f>$D$259&amp;"2."</f>
+        <v>3.1.10.2.</v>
       </c>
       <c r="F265" s="41" t="str">
-        <f>$E$263&amp;"概要"</f>
-        <v>URL設計概要</v>
+        <f>$E$259&amp;"方針"</f>
+        <v>URL設計方針</v>
       </c>
     </row>
     <row r="266" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D266" s="42"/>
       <c r="F266" s="41" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="267" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D267" s="42"/>
-      <c r="F267" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="G267" s="41" t="s">
-        <v>162</v>
-      </c>
+      <c r="F267" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="G267" s="53"/>
+      <c r="H267" s="53"/>
+      <c r="I267" s="53"/>
+      <c r="J267" s="53"/>
+      <c r="K267" s="54"/>
+      <c r="L267" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M267" s="53"/>
+      <c r="N267" s="53"/>
+      <c r="O267" s="53"/>
+      <c r="P267" s="53"/>
+      <c r="Q267" s="53"/>
+      <c r="R267" s="53"/>
+      <c r="S267" s="53"/>
+      <c r="T267" s="53"/>
+      <c r="U267" s="53"/>
+      <c r="V267" s="53"/>
+      <c r="W267" s="53"/>
+      <c r="X267" s="53"/>
+      <c r="Y267" s="53"/>
+      <c r="Z267" s="53"/>
+      <c r="AA267" s="53"/>
+      <c r="AB267" s="53"/>
+      <c r="AC267" s="53"/>
+      <c r="AD267" s="53"/>
+      <c r="AE267" s="53"/>
+      <c r="AF267" s="53"/>
+      <c r="AG267" s="54"/>
     </row>
     <row r="268" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D268" s="42"/>
+      <c r="F268" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="G268" s="99"/>
+      <c r="H268" s="99"/>
+      <c r="I268" s="99"/>
+      <c r="J268" s="99"/>
+      <c r="K268" s="101"/>
+      <c r="L268" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="M268" s="99"/>
+      <c r="N268" s="99"/>
+      <c r="O268" s="99"/>
+      <c r="P268" s="99"/>
+      <c r="Q268" s="99"/>
+      <c r="R268" s="99"/>
+      <c r="S268" s="99"/>
+      <c r="T268" s="99"/>
+      <c r="U268" s="99"/>
+      <c r="V268" s="99"/>
+      <c r="W268" s="99"/>
+      <c r="X268" s="99"/>
+      <c r="Y268" s="99"/>
+      <c r="Z268" s="99"/>
+      <c r="AA268" s="99"/>
+      <c r="AB268" s="99"/>
+      <c r="AC268" s="99"/>
+      <c r="AD268" s="99"/>
+      <c r="AE268" s="99"/>
+      <c r="AF268" s="99"/>
+      <c r="AG268" s="101"/>
     </row>
     <row r="269" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D269" s="42"/>
-      <c r="E269" s="42" t="str">
-        <f>$D$263&amp;"2."</f>
-        <v>3.1.10.2.</v>
-      </c>
-      <c r="F269" s="41" t="str">
-        <f>$E$263&amp;"方針"</f>
-        <v>URL設計方針</v>
-      </c>
+      <c r="F269" s="81"/>
+      <c r="G269" s="102"/>
+      <c r="H269" s="102"/>
+      <c r="I269" s="102"/>
+      <c r="J269" s="102"/>
+      <c r="K269" s="103"/>
+      <c r="L269" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="M269" s="102"/>
+      <c r="N269" s="102"/>
+      <c r="O269" s="102"/>
+      <c r="P269" s="102"/>
+      <c r="Q269" s="102"/>
+      <c r="R269" s="102"/>
+      <c r="S269" s="102"/>
+      <c r="T269" s="102"/>
+      <c r="U269" s="102"/>
+      <c r="V269" s="102"/>
+      <c r="W269" s="102"/>
+      <c r="X269" s="102"/>
+      <c r="Y269" s="102"/>
+      <c r="Z269" s="102"/>
+      <c r="AA269" s="102"/>
+      <c r="AB269" s="102"/>
+      <c r="AC269" s="102"/>
+      <c r="AD269" s="102"/>
+      <c r="AE269" s="102"/>
+      <c r="AF269" s="102"/>
+      <c r="AG269" s="103"/>
     </row>
     <row r="270" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D270" s="42"/>
-      <c r="F270" s="41" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="271" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D271" s="42"/>
-      <c r="F271" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="G271" s="53"/>
-      <c r="H271" s="53"/>
-      <c r="I271" s="53"/>
-      <c r="J271" s="53"/>
-      <c r="K271" s="54"/>
-      <c r="L271" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="M271" s="53"/>
-      <c r="N271" s="53"/>
-      <c r="O271" s="53"/>
-      <c r="P271" s="53"/>
-      <c r="Q271" s="53"/>
-      <c r="R271" s="53"/>
-      <c r="S271" s="53"/>
-      <c r="T271" s="53"/>
-      <c r="U271" s="53"/>
-      <c r="V271" s="53"/>
-      <c r="W271" s="53"/>
-      <c r="X271" s="53"/>
-      <c r="Y271" s="53"/>
-      <c r="Z271" s="53"/>
-      <c r="AA271" s="53"/>
-      <c r="AB271" s="53"/>
-      <c r="AC271" s="53"/>
-      <c r="AD271" s="53"/>
-      <c r="AE271" s="53"/>
-      <c r="AF271" s="53"/>
-      <c r="AG271" s="54"/>
+      <c r="E271" s="42" t="str">
+        <f>$D$259&amp;"3."</f>
+        <v>3.1.10.3.</v>
+      </c>
+      <c r="F271" s="41" t="str">
+        <f>$E$259&amp;"詳細"</f>
+        <v>URL設計詳細</v>
+      </c>
     </row>
     <row r="272" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D272" s="42"/>
-      <c r="F272" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="G272" s="99"/>
-      <c r="H272" s="99"/>
-      <c r="I272" s="99"/>
-      <c r="J272" s="99"/>
-      <c r="K272" s="101"/>
-      <c r="L272" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="M272" s="99"/>
-      <c r="N272" s="99"/>
-      <c r="O272" s="99"/>
-      <c r="P272" s="99"/>
-      <c r="Q272" s="99"/>
-      <c r="R272" s="99"/>
-      <c r="S272" s="99"/>
-      <c r="T272" s="99"/>
-      <c r="U272" s="99"/>
-      <c r="V272" s="99"/>
-      <c r="W272" s="99"/>
-      <c r="X272" s="99"/>
-      <c r="Y272" s="99"/>
-      <c r="Z272" s="99"/>
-      <c r="AA272" s="99"/>
-      <c r="AB272" s="99"/>
-      <c r="AC272" s="99"/>
-      <c r="AD272" s="99"/>
-      <c r="AE272" s="99"/>
-      <c r="AF272" s="99"/>
-      <c r="AG272" s="101"/>
-    </row>
-    <row r="273" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F272" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G272" s="29"/>
+      <c r="H272" s="29"/>
+    </row>
+    <row r="273" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="42"/>
-      <c r="F273" s="81"/>
-      <c r="G273" s="102"/>
-      <c r="H273" s="102"/>
-      <c r="I273" s="102"/>
-      <c r="J273" s="102"/>
-      <c r="K273" s="103"/>
-      <c r="L273" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="M273" s="102"/>
-      <c r="N273" s="102"/>
-      <c r="O273" s="102"/>
-      <c r="P273" s="102"/>
-      <c r="Q273" s="102"/>
-      <c r="R273" s="102"/>
-      <c r="S273" s="102"/>
-      <c r="T273" s="102"/>
-      <c r="U273" s="102"/>
-      <c r="V273" s="102"/>
-      <c r="W273" s="102"/>
-      <c r="X273" s="102"/>
-      <c r="Y273" s="102"/>
-      <c r="Z273" s="102"/>
-      <c r="AA273" s="102"/>
-      <c r="AB273" s="102"/>
-      <c r="AC273" s="102"/>
-      <c r="AD273" s="102"/>
-      <c r="AE273" s="102"/>
-      <c r="AF273" s="102"/>
-      <c r="AG273" s="103"/>
-    </row>
-    <row r="274" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F273" s="29"/>
+      <c r="G273" s="29"/>
+      <c r="H273" s="29"/>
+    </row>
+    <row r="274" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D274" s="42"/>
-    </row>
-    <row r="275" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F274" s="29"/>
+      <c r="G274" s="29"/>
+      <c r="H274" s="29"/>
+    </row>
+    <row r="275" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D275" s="42"/>
-      <c r="E275" s="42" t="str">
-        <f>$D$263&amp;"3."</f>
-        <v>3.1.10.3.</v>
-      </c>
-      <c r="F275" s="41" t="str">
-        <f>$E$263&amp;"詳細"</f>
-        <v>URL設計詳細</v>
-      </c>
-    </row>
-    <row r="276" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F275" s="29"/>
+      <c r="G275" s="29"/>
+      <c r="H275" s="29"/>
+    </row>
+    <row r="276" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="42"/>
-      <c r="F276" s="29" t="s">
-        <v>230</v>
-      </c>
+      <c r="F276" s="29"/>
       <c r="G276" s="29"/>
       <c r="H276" s="29"/>
     </row>
-    <row r="277" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="42"/>
       <c r="F277" s="29"/>
       <c r="G277" s="29"/>
       <c r="H277" s="29"/>
     </row>
-    <row r="278" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="42"/>
       <c r="F278" s="29"/>
       <c r="G278" s="29"/>
       <c r="H278" s="29"/>
     </row>
-    <row r="279" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="42"/>
-      <c r="F279" s="29"/>
-      <c r="G279" s="29"/>
-      <c r="H279" s="29"/>
-    </row>
-    <row r="280" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="280" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="42"/>
-      <c r="F280" s="29"/>
-      <c r="G280" s="29"/>
-      <c r="H280" s="29"/>
-    </row>
-    <row r="281" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="281" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="42"/>
-      <c r="F281" s="29"/>
-      <c r="G281" s="29"/>
-      <c r="H281" s="29"/>
-    </row>
-    <row r="282" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D282" s="42"/>
-      <c r="F282" s="29"/>
-      <c r="G282" s="29"/>
-      <c r="H282" s="29"/>
-    </row>
-    <row r="283" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D283" s="42"/>
-    </row>
-    <row r="284" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D284" s="42"/>
-    </row>
-    <row r="285" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D285" s="42"/>
-    </row>
-    <row r="286" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="282" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E282" s="42"/>
+      <c r="F282" s="87"/>
+      <c r="G282" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="H282" s="53"/>
+      <c r="I282" s="53"/>
+      <c r="J282" s="53"/>
+      <c r="K282" s="53"/>
+      <c r="L282" s="54"/>
+      <c r="M282" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="N282" s="53"/>
+      <c r="O282" s="53"/>
+      <c r="P282" s="53"/>
+      <c r="Q282" s="53"/>
+      <c r="R282" s="53"/>
+      <c r="S282" s="53"/>
+      <c r="T282" s="53"/>
+      <c r="U282" s="53"/>
+      <c r="V282" s="53"/>
+      <c r="W282" s="53"/>
+      <c r="X282" s="53"/>
+      <c r="Y282" s="53"/>
+      <c r="Z282" s="53"/>
+      <c r="AA282" s="53"/>
+      <c r="AB282" s="53"/>
+      <c r="AC282" s="53"/>
+      <c r="AD282" s="53"/>
+      <c r="AE282" s="53"/>
+      <c r="AF282" s="54"/>
+    </row>
+    <row r="283" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E283" s="42"/>
+      <c r="F283" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="G283" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="H283" s="49"/>
+      <c r="I283" s="49"/>
+      <c r="J283" s="49"/>
+      <c r="K283" s="49"/>
+      <c r="L283" s="50"/>
+      <c r="M283" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="N283" s="49"/>
+      <c r="O283" s="49"/>
+      <c r="P283" s="49"/>
+      <c r="Q283" s="49"/>
+      <c r="R283" s="49"/>
+      <c r="S283" s="49"/>
+      <c r="T283" s="49"/>
+      <c r="U283" s="49"/>
+      <c r="V283" s="49"/>
+      <c r="W283" s="49"/>
+      <c r="X283" s="49"/>
+      <c r="Y283" s="49"/>
+      <c r="Z283" s="49"/>
+      <c r="AA283" s="49"/>
+      <c r="AB283" s="49"/>
+      <c r="AC283" s="49"/>
+      <c r="AD283" s="49"/>
+      <c r="AE283" s="49"/>
+      <c r="AF283" s="50"/>
+    </row>
+    <row r="284" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E284" s="42"/>
+      <c r="F284" s="84"/>
+      <c r="G284" s="46"/>
+      <c r="H284" s="47"/>
+      <c r="I284" s="47"/>
+      <c r="J284" s="47"/>
+      <c r="K284" s="47"/>
+      <c r="L284" s="51"/>
+      <c r="M284" s="46"/>
+      <c r="N284" s="47"/>
+      <c r="O284" s="47"/>
+      <c r="P284" s="47"/>
+      <c r="Q284" s="47"/>
+      <c r="R284" s="47"/>
+      <c r="S284" s="47"/>
+      <c r="T284" s="47"/>
+      <c r="U284" s="47"/>
+      <c r="V284" s="47"/>
+      <c r="W284" s="47"/>
+      <c r="X284" s="47"/>
+      <c r="Y284" s="47"/>
+      <c r="Z284" s="47"/>
+      <c r="AA284" s="47"/>
+      <c r="AB284" s="47"/>
+      <c r="AC284" s="47"/>
+      <c r="AD284" s="47"/>
+      <c r="AE284" s="47"/>
+      <c r="AF284" s="51"/>
+    </row>
+    <row r="285" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E285" s="42"/>
+      <c r="F285" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="G285" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="H285" s="49"/>
+      <c r="I285" s="49"/>
+      <c r="J285" s="49"/>
+      <c r="K285" s="49"/>
+      <c r="L285" s="50"/>
+      <c r="M285" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="N285" s="49"/>
+      <c r="O285" s="49"/>
+      <c r="P285" s="49"/>
+      <c r="Q285" s="49"/>
+      <c r="R285" s="49"/>
+      <c r="S285" s="49"/>
+      <c r="T285" s="49"/>
+      <c r="U285" s="49"/>
+      <c r="V285" s="49"/>
+      <c r="W285" s="49"/>
+      <c r="X285" s="49"/>
+      <c r="Y285" s="49"/>
+      <c r="Z285" s="49"/>
+      <c r="AA285" s="49"/>
+      <c r="AB285" s="49"/>
+      <c r="AC285" s="49"/>
+      <c r="AD285" s="49"/>
+      <c r="AE285" s="49"/>
+      <c r="AF285" s="50"/>
+    </row>
+    <row r="286" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E286" s="42"/>
-      <c r="F286" s="87"/>
-      <c r="G286" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="H286" s="53"/>
-      <c r="I286" s="53"/>
-      <c r="J286" s="53"/>
-      <c r="K286" s="53"/>
-      <c r="L286" s="54"/>
-      <c r="M286" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="N286" s="53"/>
-      <c r="O286" s="53"/>
-      <c r="P286" s="53"/>
-      <c r="Q286" s="53"/>
-      <c r="R286" s="53"/>
-      <c r="S286" s="53"/>
-      <c r="T286" s="53"/>
-      <c r="U286" s="53"/>
-      <c r="V286" s="53"/>
-      <c r="W286" s="53"/>
-      <c r="X286" s="53"/>
-      <c r="Y286" s="53"/>
-      <c r="Z286" s="53"/>
-      <c r="AA286" s="53"/>
-      <c r="AB286" s="53"/>
-      <c r="AC286" s="53"/>
-      <c r="AD286" s="53"/>
-      <c r="AE286" s="53"/>
-      <c r="AF286" s="54"/>
-    </row>
-    <row r="287" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F286" s="84"/>
+      <c r="G286" s="46"/>
+      <c r="H286" s="47"/>
+      <c r="I286" s="47"/>
+      <c r="J286" s="47"/>
+      <c r="K286" s="47"/>
+      <c r="L286" s="51"/>
+      <c r="M286" s="46"/>
+      <c r="N286" s="47"/>
+      <c r="O286" s="47"/>
+      <c r="P286" s="47"/>
+      <c r="Q286" s="47"/>
+      <c r="R286" s="47"/>
+      <c r="S286" s="47"/>
+      <c r="T286" s="47"/>
+      <c r="U286" s="47"/>
+      <c r="V286" s="47"/>
+      <c r="W286" s="47"/>
+      <c r="X286" s="47"/>
+      <c r="Y286" s="47"/>
+      <c r="Z286" s="47"/>
+      <c r="AA286" s="47"/>
+      <c r="AB286" s="47"/>
+      <c r="AC286" s="47"/>
+      <c r="AD286" s="47"/>
+      <c r="AE286" s="47"/>
+      <c r="AF286" s="51"/>
+    </row>
+    <row r="287" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E287" s="42"/>
       <c r="F287" s="86" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G287" s="48" t="s">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="H287" s="49"/>
       <c r="I287" s="49"/>
@@ -12854,7 +12776,7 @@
       <c r="K287" s="49"/>
       <c r="L287" s="50"/>
       <c r="M287" s="48" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="N287" s="49"/>
       <c r="O287" s="49"/>
@@ -12876,7 +12798,7 @@
       <c r="AE287" s="49"/>
       <c r="AF287" s="50"/>
     </row>
-    <row r="288" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E288" s="42"/>
       <c r="F288" s="84"/>
       <c r="G288" s="46"/>
@@ -12909,10 +12831,10 @@
     <row r="289" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E289" s="42"/>
       <c r="F289" s="86" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G289" s="48" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H289" s="49"/>
       <c r="I289" s="49"/>
@@ -12920,7 +12842,7 @@
       <c r="K289" s="49"/>
       <c r="L289" s="50"/>
       <c r="M289" s="48" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="N289" s="49"/>
       <c r="O289" s="49"/>
@@ -12944,374 +12866,352 @@
     </row>
     <row r="290" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E290" s="42"/>
-      <c r="F290" s="84"/>
-      <c r="G290" s="46"/>
-      <c r="H290" s="47"/>
-      <c r="I290" s="47"/>
-      <c r="J290" s="47"/>
-      <c r="K290" s="47"/>
-      <c r="L290" s="51"/>
-      <c r="M290" s="46"/>
-      <c r="N290" s="47"/>
-      <c r="O290" s="47"/>
-      <c r="P290" s="47"/>
-      <c r="Q290" s="47"/>
-      <c r="R290" s="47"/>
-      <c r="S290" s="47"/>
-      <c r="T290" s="47"/>
-      <c r="U290" s="47"/>
-      <c r="V290" s="47"/>
-      <c r="W290" s="47"/>
-      <c r="X290" s="47"/>
-      <c r="Y290" s="47"/>
-      <c r="Z290" s="47"/>
-      <c r="AA290" s="47"/>
-      <c r="AB290" s="47"/>
-      <c r="AC290" s="47"/>
-      <c r="AD290" s="47"/>
-      <c r="AE290" s="47"/>
-      <c r="AF290" s="51"/>
+      <c r="F290" s="89"/>
+      <c r="G290" s="43"/>
+      <c r="H290" s="44"/>
+      <c r="I290" s="44"/>
+      <c r="J290" s="44"/>
+      <c r="K290" s="44"/>
+      <c r="L290" s="45"/>
+      <c r="M290" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="N290" s="44"/>
+      <c r="O290" s="44"/>
+      <c r="P290" s="44"/>
+      <c r="Q290" s="44"/>
+      <c r="R290" s="44"/>
+      <c r="S290" s="44"/>
+      <c r="T290" s="44"/>
+      <c r="U290" s="44"/>
+      <c r="V290" s="44"/>
+      <c r="W290" s="44"/>
+      <c r="X290" s="44"/>
+      <c r="Y290" s="44"/>
+      <c r="Z290" s="44"/>
+      <c r="AA290" s="44"/>
+      <c r="AB290" s="44"/>
+      <c r="AC290" s="44"/>
+      <c r="AD290" s="44"/>
+      <c r="AE290" s="44"/>
+      <c r="AF290" s="45"/>
     </row>
     <row r="291" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E291" s="42"/>
-      <c r="F291" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="G291" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="H291" s="49"/>
-      <c r="I291" s="49"/>
-      <c r="J291" s="49"/>
-      <c r="K291" s="49"/>
-      <c r="L291" s="50"/>
-      <c r="M291" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="N291" s="49"/>
-      <c r="O291" s="49"/>
-      <c r="P291" s="49"/>
-      <c r="Q291" s="49"/>
-      <c r="R291" s="49"/>
-      <c r="S291" s="49"/>
-      <c r="T291" s="49"/>
-      <c r="U291" s="49"/>
-      <c r="V291" s="49"/>
-      <c r="W291" s="49"/>
-      <c r="X291" s="49"/>
-      <c r="Y291" s="49"/>
-      <c r="Z291" s="49"/>
-      <c r="AA291" s="49"/>
-      <c r="AB291" s="49"/>
-      <c r="AC291" s="49"/>
-      <c r="AD291" s="49"/>
-      <c r="AE291" s="49"/>
-      <c r="AF291" s="50"/>
+      <c r="F291" s="84"/>
+      <c r="G291" s="46"/>
+      <c r="H291" s="47"/>
+      <c r="I291" s="47"/>
+      <c r="J291" s="47"/>
+      <c r="K291" s="47"/>
+      <c r="L291" s="51"/>
+      <c r="M291" s="46"/>
+      <c r="N291" s="47"/>
+      <c r="O291" s="47"/>
+      <c r="P291" s="47"/>
+      <c r="Q291" s="47"/>
+      <c r="R291" s="47"/>
+      <c r="S291" s="47"/>
+      <c r="T291" s="47"/>
+      <c r="U291" s="47"/>
+      <c r="V291" s="47"/>
+      <c r="W291" s="47"/>
+      <c r="X291" s="47"/>
+      <c r="Y291" s="47"/>
+      <c r="Z291" s="47"/>
+      <c r="AA291" s="47"/>
+      <c r="AB291" s="47"/>
+      <c r="AC291" s="47"/>
+      <c r="AD291" s="47"/>
+      <c r="AE291" s="47"/>
+      <c r="AF291" s="51"/>
     </row>
     <row r="292" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E292" s="42"/>
-      <c r="F292" s="84"/>
-      <c r="G292" s="46"/>
-      <c r="H292" s="47"/>
-      <c r="I292" s="47"/>
-      <c r="J292" s="47"/>
-      <c r="K292" s="47"/>
-      <c r="L292" s="51"/>
-      <c r="M292" s="46"/>
-      <c r="N292" s="47"/>
-      <c r="O292" s="47"/>
-      <c r="P292" s="47"/>
-      <c r="Q292" s="47"/>
-      <c r="R292" s="47"/>
-      <c r="S292" s="47"/>
-      <c r="T292" s="47"/>
-      <c r="U292" s="47"/>
-      <c r="V292" s="47"/>
-      <c r="W292" s="47"/>
-      <c r="X292" s="47"/>
-      <c r="Y292" s="47"/>
-      <c r="Z292" s="47"/>
-      <c r="AA292" s="47"/>
-      <c r="AB292" s="47"/>
-      <c r="AC292" s="47"/>
-      <c r="AD292" s="47"/>
-      <c r="AE292" s="47"/>
-      <c r="AF292" s="51"/>
+      <c r="F292" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="G292" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="H292" s="49"/>
+      <c r="I292" s="49"/>
+      <c r="J292" s="49"/>
+      <c r="K292" s="49"/>
+      <c r="L292" s="50"/>
+      <c r="M292" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="N292" s="49"/>
+      <c r="O292" s="49"/>
+      <c r="P292" s="49"/>
+      <c r="Q292" s="49"/>
+      <c r="R292" s="49"/>
+      <c r="S292" s="49"/>
+      <c r="T292" s="49"/>
+      <c r="U292" s="49"/>
+      <c r="V292" s="49"/>
+      <c r="W292" s="49"/>
+      <c r="X292" s="49"/>
+      <c r="Y292" s="49"/>
+      <c r="Z292" s="49"/>
+      <c r="AA292" s="49"/>
+      <c r="AB292" s="49"/>
+      <c r="AC292" s="49"/>
+      <c r="AD292" s="49"/>
+      <c r="AE292" s="49"/>
+      <c r="AF292" s="50"/>
     </row>
     <row r="293" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E293" s="42"/>
-      <c r="F293" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="G293" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="H293" s="49"/>
-      <c r="I293" s="49"/>
-      <c r="J293" s="49"/>
-      <c r="K293" s="49"/>
-      <c r="L293" s="50"/>
-      <c r="M293" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="N293" s="49"/>
-      <c r="O293" s="49"/>
-      <c r="P293" s="49"/>
-      <c r="Q293" s="49"/>
-      <c r="R293" s="49"/>
-      <c r="S293" s="49"/>
-      <c r="T293" s="49"/>
-      <c r="U293" s="49"/>
-      <c r="V293" s="49"/>
-      <c r="W293" s="49"/>
-      <c r="X293" s="49"/>
-      <c r="Y293" s="49"/>
-      <c r="Z293" s="49"/>
-      <c r="AA293" s="49"/>
-      <c r="AB293" s="49"/>
-      <c r="AC293" s="49"/>
-      <c r="AD293" s="49"/>
-      <c r="AE293" s="49"/>
-      <c r="AF293" s="50"/>
+      <c r="E293" s="66"/>
+      <c r="F293" s="88"/>
+      <c r="G293" s="81"/>
+      <c r="H293" s="47"/>
+      <c r="I293" s="47"/>
+      <c r="J293" s="47"/>
+      <c r="K293" s="47"/>
+      <c r="L293" s="51"/>
+      <c r="M293" s="46"/>
+      <c r="N293" s="47"/>
+      <c r="O293" s="47"/>
+      <c r="P293" s="47"/>
+      <c r="Q293" s="47"/>
+      <c r="R293" s="47"/>
+      <c r="S293" s="47"/>
+      <c r="T293" s="47"/>
+      <c r="U293" s="47"/>
+      <c r="V293" s="47"/>
+      <c r="W293" s="47"/>
+      <c r="X293" s="47"/>
+      <c r="Y293" s="47"/>
+      <c r="Z293" s="47"/>
+      <c r="AA293" s="47"/>
+      <c r="AB293" s="47"/>
+      <c r="AC293" s="47"/>
+      <c r="AD293" s="47"/>
+      <c r="AE293" s="47"/>
+      <c r="AF293" s="51"/>
     </row>
     <row r="294" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E294" s="42"/>
-      <c r="F294" s="89"/>
-      <c r="G294" s="43"/>
-      <c r="H294" s="44"/>
-      <c r="I294" s="44"/>
-      <c r="J294" s="44"/>
-      <c r="K294" s="44"/>
-      <c r="L294" s="45"/>
-      <c r="M294" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="N294" s="44"/>
-      <c r="O294" s="44"/>
-      <c r="P294" s="44"/>
-      <c r="Q294" s="44"/>
-      <c r="R294" s="44"/>
-      <c r="S294" s="44"/>
-      <c r="T294" s="44"/>
-      <c r="U294" s="44"/>
-      <c r="V294" s="44"/>
-      <c r="W294" s="44"/>
-      <c r="X294" s="44"/>
-      <c r="Y294" s="44"/>
-      <c r="Z294" s="44"/>
-      <c r="AA294" s="44"/>
-      <c r="AB294" s="44"/>
-      <c r="AC294" s="44"/>
-      <c r="AD294" s="44"/>
-      <c r="AE294" s="44"/>
-      <c r="AF294" s="45"/>
+      <c r="D294" s="42"/>
+      <c r="E294" s="36"/>
+      <c r="F294" s="36"/>
+      <c r="G294" s="36"/>
     </row>
     <row r="295" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E295" s="42"/>
-      <c r="F295" s="84"/>
-      <c r="G295" s="46"/>
-      <c r="H295" s="47"/>
-      <c r="I295" s="47"/>
-      <c r="J295" s="47"/>
-      <c r="K295" s="47"/>
-      <c r="L295" s="51"/>
-      <c r="M295" s="46"/>
-      <c r="N295" s="47"/>
-      <c r="O295" s="47"/>
-      <c r="P295" s="47"/>
-      <c r="Q295" s="47"/>
-      <c r="R295" s="47"/>
-      <c r="S295" s="47"/>
-      <c r="T295" s="47"/>
-      <c r="U295" s="47"/>
-      <c r="V295" s="47"/>
-      <c r="W295" s="47"/>
-      <c r="X295" s="47"/>
-      <c r="Y295" s="47"/>
-      <c r="Z295" s="47"/>
-      <c r="AA295" s="47"/>
-      <c r="AB295" s="47"/>
-      <c r="AC295" s="47"/>
-      <c r="AD295" s="47"/>
-      <c r="AE295" s="47"/>
-      <c r="AF295" s="51"/>
+      <c r="D295" s="42"/>
+      <c r="E295" s="36"/>
+      <c r="F295" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G295" s="36"/>
     </row>
     <row r="296" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E296" s="42"/>
-      <c r="F296" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="G296" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="H296" s="49"/>
-      <c r="I296" s="49"/>
-      <c r="J296" s="49"/>
-      <c r="K296" s="49"/>
-      <c r="L296" s="50"/>
-      <c r="M296" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="N296" s="49"/>
-      <c r="O296" s="49"/>
-      <c r="P296" s="49"/>
-      <c r="Q296" s="49"/>
-      <c r="R296" s="49"/>
-      <c r="S296" s="49"/>
-      <c r="T296" s="49"/>
-      <c r="U296" s="49"/>
-      <c r="V296" s="49"/>
-      <c r="W296" s="49"/>
-      <c r="X296" s="49"/>
-      <c r="Y296" s="49"/>
-      <c r="Z296" s="49"/>
-      <c r="AA296" s="49"/>
-      <c r="AB296" s="49"/>
-      <c r="AC296" s="49"/>
-      <c r="AD296" s="49"/>
-      <c r="AE296" s="49"/>
-      <c r="AF296" s="50"/>
+      <c r="D296" s="42"/>
+      <c r="E296" s="36"/>
+      <c r="F296" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G296" s="36"/>
     </row>
     <row r="297" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E297" s="66"/>
-      <c r="F297" s="88"/>
-      <c r="G297" s="81"/>
-      <c r="H297" s="47"/>
-      <c r="I297" s="47"/>
-      <c r="J297" s="47"/>
-      <c r="K297" s="47"/>
-      <c r="L297" s="51"/>
-      <c r="M297" s="46"/>
-      <c r="N297" s="47"/>
-      <c r="O297" s="47"/>
-      <c r="P297" s="47"/>
-      <c r="Q297" s="47"/>
-      <c r="R297" s="47"/>
-      <c r="S297" s="47"/>
-      <c r="T297" s="47"/>
-      <c r="U297" s="47"/>
-      <c r="V297" s="47"/>
-      <c r="W297" s="47"/>
-      <c r="X297" s="47"/>
-      <c r="Y297" s="47"/>
-      <c r="Z297" s="47"/>
-      <c r="AA297" s="47"/>
-      <c r="AB297" s="47"/>
-      <c r="AC297" s="47"/>
-      <c r="AD297" s="47"/>
-      <c r="AE297" s="47"/>
-      <c r="AF297" s="51"/>
-    </row>
-    <row r="298" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D298" s="42"/>
-      <c r="E298" s="36"/>
-      <c r="F298" s="36"/>
-      <c r="G298" s="36"/>
-    </row>
-    <row r="299" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D299" s="42"/>
-      <c r="E299" s="36"/>
-      <c r="F299" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G299" s="36"/>
-    </row>
-    <row r="300" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D300" s="42"/>
-      <c r="E300" s="36"/>
-      <c r="F300" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G300" s="36"/>
-    </row>
-    <row r="301" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D301" s="42"/>
-    </row>
-    <row r="302" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D304" s="28" t="str">
+      <c r="D297" s="42"/>
+    </row>
+    <row r="298" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D300" s="28" t="str">
         <f>$C$7&amp;"11."</f>
         <v>3.1.11.</v>
       </c>
-      <c r="E304" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="305" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D305" s="28"/>
-      <c r="E305" s="28" t="str">
-        <f>D304&amp;"1."</f>
+      <c r="E300" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="301" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D301" s="28"/>
+      <c r="E301" s="28" t="str">
+        <f>D300&amp;"1."</f>
         <v>3.1.11.1.</v>
       </c>
-      <c r="F305" s="4" t="str">
-        <f>E304&amp;"機能概要"</f>
+      <c r="F301" s="4" t="str">
+        <f>E300&amp;"機能概要"</f>
         <v>コンテンツ更新機能概要</v>
       </c>
     </row>
-    <row r="306" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D306" s="42"/>
-      <c r="E306" s="42"/>
-      <c r="F306" s="36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="307" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F307" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="308" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F308" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="309" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F309" s="19"/>
-      <c r="G309" s="19"/>
-      <c r="H309" s="19"/>
-      <c r="I309" s="19"/>
-      <c r="J309" s="19"/>
-      <c r="K309" s="19"/>
-      <c r="L309" s="19"/>
-      <c r="M309" s="19"/>
-      <c r="N309" s="19"/>
-      <c r="O309" s="19"/>
-      <c r="P309" s="19"/>
-      <c r="Q309" s="19"/>
-      <c r="R309" s="19"/>
-      <c r="S309" s="19"/>
-      <c r="T309" s="19"/>
-      <c r="U309" s="19"/>
-      <c r="V309" s="19"/>
-      <c r="W309" s="19"/>
-      <c r="X309" s="19"/>
-      <c r="Y309" s="19"/>
-      <c r="Z309" s="19"/>
-      <c r="AA309" s="19"/>
-      <c r="AB309" s="19"/>
-      <c r="AC309" s="19"/>
-      <c r="AD309" s="19"/>
-      <c r="AE309" s="19"/>
-      <c r="AF309" s="19"/>
-      <c r="AG309" s="19"/>
-      <c r="AH309" s="19"/>
-    </row>
-    <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E310" s="42" t="str">
-        <f>D304&amp;"2."</f>
+    <row r="302" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D302" s="42"/>
+      <c r="E302" s="42"/>
+      <c r="F302" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="303" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F303" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="304" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F304" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="305" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F305" s="19"/>
+      <c r="G305" s="19"/>
+      <c r="H305" s="19"/>
+      <c r="I305" s="19"/>
+      <c r="J305" s="19"/>
+      <c r="K305" s="19"/>
+      <c r="L305" s="19"/>
+      <c r="M305" s="19"/>
+      <c r="N305" s="19"/>
+      <c r="O305" s="19"/>
+      <c r="P305" s="19"/>
+      <c r="Q305" s="19"/>
+      <c r="R305" s="19"/>
+      <c r="S305" s="19"/>
+      <c r="T305" s="19"/>
+      <c r="U305" s="19"/>
+      <c r="V305" s="19"/>
+      <c r="W305" s="19"/>
+      <c r="X305" s="19"/>
+      <c r="Y305" s="19"/>
+      <c r="Z305" s="19"/>
+      <c r="AA305" s="19"/>
+      <c r="AB305" s="19"/>
+      <c r="AC305" s="19"/>
+      <c r="AD305" s="19"/>
+      <c r="AE305" s="19"/>
+      <c r="AF305" s="19"/>
+      <c r="AG305" s="19"/>
+      <c r="AH305" s="19"/>
+    </row>
+    <row r="306" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E306" s="42" t="str">
+        <f>D300&amp;"2."</f>
         <v>3.1.11.2.</v>
       </c>
-      <c r="F310" s="41" t="str">
-        <f>E304&amp;"方法"</f>
+      <c r="F306" s="41" t="str">
+        <f>E300&amp;"方法"</f>
         <v>コンテンツ更新方法</v>
       </c>
-      <c r="G310" s="44"/>
-      <c r="H310" s="44"/>
-      <c r="I310" s="44"/>
-      <c r="J310" s="44"/>
-      <c r="K310" s="44"/>
-      <c r="L310" s="44"/>
+      <c r="G306" s="44"/>
+      <c r="H306" s="44"/>
+      <c r="I306" s="44"/>
+      <c r="J306" s="44"/>
+      <c r="K306" s="44"/>
+      <c r="L306" s="44"/>
+      <c r="M306" s="44"/>
+      <c r="N306" s="44"/>
+      <c r="O306" s="44"/>
+      <c r="P306" s="44"/>
+      <c r="Q306" s="44"/>
+      <c r="R306" s="44"/>
+      <c r="S306" s="44"/>
+      <c r="T306" s="44"/>
+      <c r="U306" s="44"/>
+      <c r="V306" s="44"/>
+      <c r="W306" s="44"/>
+      <c r="X306" s="44"/>
+      <c r="Y306" s="44"/>
+      <c r="Z306" s="44"/>
+      <c r="AA306" s="44"/>
+      <c r="AB306" s="44"/>
+      <c r="AC306" s="44"/>
+      <c r="AD306" s="44"/>
+      <c r="AE306" s="44"/>
+      <c r="AF306" s="44"/>
+      <c r="AG306" s="44"/>
+      <c r="AH306" s="44"/>
+    </row>
+    <row r="307" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F307" s="41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F308" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G308" s="53"/>
+      <c r="H308" s="53"/>
+      <c r="I308" s="53"/>
+      <c r="J308" s="53"/>
+      <c r="K308" s="54"/>
+      <c r="L308" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M308" s="53"/>
+      <c r="N308" s="53"/>
+      <c r="O308" s="53"/>
+      <c r="P308" s="53"/>
+      <c r="Q308" s="53"/>
+      <c r="R308" s="54"/>
+      <c r="S308" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="T308" s="53"/>
+      <c r="U308" s="53"/>
+      <c r="V308" s="53"/>
+      <c r="W308" s="53"/>
+      <c r="X308" s="53"/>
+      <c r="Y308" s="53"/>
+      <c r="Z308" s="53"/>
+      <c r="AA308" s="53"/>
+      <c r="AB308" s="53"/>
+      <c r="AC308" s="53"/>
+      <c r="AD308" s="53"/>
+      <c r="AE308" s="53"/>
+      <c r="AF308" s="53"/>
+      <c r="AG308" s="53"/>
+      <c r="AH308" s="54"/>
+    </row>
+    <row r="309" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F309" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="G309" s="93"/>
+      <c r="H309" s="93"/>
+      <c r="I309" s="102"/>
+      <c r="J309" s="102"/>
+      <c r="K309" s="103"/>
+      <c r="L309" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="M309" s="68"/>
+      <c r="N309" s="68"/>
+      <c r="O309" s="93"/>
+      <c r="P309" s="93"/>
+      <c r="Q309" s="93"/>
+      <c r="R309" s="72"/>
+      <c r="S309" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="T309" s="102"/>
+      <c r="U309" s="102"/>
+      <c r="V309" s="102"/>
+      <c r="W309" s="102"/>
+      <c r="X309" s="102"/>
+      <c r="Y309" s="102"/>
+      <c r="Z309" s="102"/>
+      <c r="AA309" s="102"/>
+      <c r="AB309" s="102"/>
+      <c r="AC309" s="102"/>
+      <c r="AD309" s="102"/>
+      <c r="AE309" s="102"/>
+      <c r="AF309" s="102"/>
+      <c r="AG309" s="102"/>
+      <c r="AH309" s="103"/>
+    </row>
+    <row r="310" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F310" s="70"/>
+      <c r="G310" s="70"/>
+      <c r="H310" s="70"/>
+      <c r="I310" s="70"/>
+      <c r="J310" s="70"/>
+      <c r="K310" s="70"/>
+      <c r="L310" s="70"/>
       <c r="M310" s="44"/>
       <c r="N310" s="44"/>
       <c r="O310" s="44"/>
@@ -13335,635 +13235,491 @@
       <c r="AG310" s="44"/>
       <c r="AH310" s="44"/>
     </row>
-    <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F311" s="41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="312" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F312" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="G312" s="53"/>
-      <c r="H312" s="53"/>
-      <c r="I312" s="53"/>
-      <c r="J312" s="53"/>
-      <c r="K312" s="54"/>
-      <c r="L312" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="M312" s="53"/>
-      <c r="N312" s="53"/>
-      <c r="O312" s="53"/>
-      <c r="P312" s="53"/>
-      <c r="Q312" s="53"/>
-      <c r="R312" s="54"/>
-      <c r="S312" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="T312" s="53"/>
-      <c r="U312" s="53"/>
-      <c r="V312" s="53"/>
-      <c r="W312" s="53"/>
-      <c r="X312" s="53"/>
-      <c r="Y312" s="53"/>
-      <c r="Z312" s="53"/>
-      <c r="AA312" s="53"/>
-      <c r="AB312" s="53"/>
-      <c r="AC312" s="53"/>
-      <c r="AD312" s="53"/>
-      <c r="AE312" s="53"/>
-      <c r="AF312" s="53"/>
-      <c r="AG312" s="53"/>
-      <c r="AH312" s="54"/>
-    </row>
-    <row r="313" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F313" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="G313" s="93"/>
-      <c r="H313" s="93"/>
-      <c r="I313" s="102"/>
-      <c r="J313" s="102"/>
-      <c r="K313" s="103"/>
-      <c r="L313" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="M313" s="68"/>
-      <c r="N313" s="68"/>
-      <c r="O313" s="93"/>
-      <c r="P313" s="93"/>
-      <c r="Q313" s="93"/>
-      <c r="R313" s="72"/>
-      <c r="S313" s="93" t="s">
-        <v>188</v>
-      </c>
-      <c r="T313" s="102"/>
-      <c r="U313" s="102"/>
-      <c r="V313" s="102"/>
-      <c r="W313" s="102"/>
-      <c r="X313" s="102"/>
-      <c r="Y313" s="102"/>
-      <c r="Z313" s="102"/>
-      <c r="AA313" s="102"/>
-      <c r="AB313" s="102"/>
-      <c r="AC313" s="102"/>
-      <c r="AD313" s="102"/>
-      <c r="AE313" s="102"/>
-      <c r="AF313" s="102"/>
-      <c r="AG313" s="102"/>
-      <c r="AH313" s="103"/>
-    </row>
-    <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F314" s="70"/>
-      <c r="G314" s="70"/>
-      <c r="H314" s="70"/>
-      <c r="I314" s="70"/>
-      <c r="J314" s="70"/>
-      <c r="K314" s="70"/>
-      <c r="L314" s="70"/>
-      <c r="M314" s="44"/>
-      <c r="N314" s="44"/>
-      <c r="O314" s="44"/>
-      <c r="P314" s="44"/>
-      <c r="Q314" s="44"/>
-      <c r="R314" s="44"/>
-      <c r="S314" s="44"/>
-      <c r="T314" s="44"/>
-      <c r="U314" s="44"/>
-      <c r="V314" s="44"/>
-      <c r="W314" s="44"/>
-      <c r="X314" s="44"/>
-      <c r="Y314" s="44"/>
-      <c r="Z314" s="44"/>
-      <c r="AA314" s="44"/>
-      <c r="AB314" s="44"/>
-      <c r="AC314" s="44"/>
-      <c r="AD314" s="44"/>
-      <c r="AE314" s="44"/>
-      <c r="AF314" s="44"/>
-      <c r="AG314" s="44"/>
-      <c r="AH314" s="44"/>
-    </row>
-    <row r="315" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E315" s="28" t="str">
-        <f>D304&amp;"3."</f>
+    <row r="311" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E311" s="28" t="str">
+        <f>D300&amp;"3."</f>
         <v>3.1.11.3.</v>
       </c>
-      <c r="F315" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="G315" s="36"/>
-      <c r="H315" s="36"/>
-      <c r="I315" s="36"/>
-      <c r="J315" s="36"/>
-      <c r="K315" s="36"/>
-      <c r="L315" s="36"/>
-    </row>
-    <row r="316" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F316" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="G316" s="74" t="str">
-        <f>E304&amp;"方法詳細"</f>
+      <c r="F311" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="G311" s="36"/>
+      <c r="H311" s="36"/>
+      <c r="I311" s="36"/>
+      <c r="J311" s="36"/>
+      <c r="K311" s="36"/>
+      <c r="L311" s="36"/>
+    </row>
+    <row r="312" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F312" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G312" s="74" t="str">
+        <f>E300&amp;"方法詳細"</f>
         <v>コンテンツ更新方法詳細</v>
       </c>
-      <c r="H316" s="74"/>
-      <c r="I316" s="74"/>
+      <c r="H312" s="74"/>
+      <c r="I312" s="74"/>
+      <c r="J312" s="74"/>
+      <c r="K312" s="74"/>
+      <c r="L312" s="74"/>
+    </row>
+    <row r="313" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F313" s="77"/>
+      <c r="G313" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="H313" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="I313" s="74"/>
+      <c r="J313" s="74"/>
+      <c r="K313" s="74"/>
+      <c r="L313" s="74"/>
+    </row>
+    <row r="314" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F314" s="77"/>
+      <c r="G314" s="79"/>
+      <c r="H314" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="I314" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="J314" s="74"/>
+      <c r="K314" s="74"/>
+      <c r="L314" s="74"/>
+    </row>
+    <row r="315" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F315" s="77"/>
+      <c r="G315" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="H315" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="I315" s="74"/>
+      <c r="J315" s="74"/>
+      <c r="K315" s="74"/>
+      <c r="L315" s="74"/>
+    </row>
+    <row r="316" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F316" s="77"/>
+      <c r="G316" s="74"/>
+      <c r="H316" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="I316" s="74" t="s">
+        <v>132</v>
+      </c>
       <c r="J316" s="74"/>
       <c r="K316" s="74"/>
       <c r="L316" s="74"/>
     </row>
-    <row r="317" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F317" s="77"/>
-      <c r="G317" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="H317" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="I317" s="74"/>
+      <c r="G317" s="74"/>
+      <c r="H317" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="I317" s="74" t="s">
+        <v>134</v>
+      </c>
       <c r="J317" s="74"/>
       <c r="K317" s="74"/>
       <c r="L317" s="74"/>
     </row>
-    <row r="318" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F318" s="77"/>
-      <c r="G318" s="79"/>
-      <c r="H318" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="I318" s="74" t="s">
-        <v>140</v>
-      </c>
+    <row r="318" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F318" s="74"/>
+      <c r="G318" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="H318" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="I318" s="74"/>
       <c r="J318" s="74"/>
       <c r="K318" s="74"/>
       <c r="L318" s="74"/>
     </row>
-    <row r="319" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F319" s="77"/>
-      <c r="G319" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="H319" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="I319" s="74"/>
-      <c r="J319" s="74"/>
-      <c r="K319" s="74"/>
-      <c r="L319" s="74"/>
-    </row>
-    <row r="320" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F320" s="77"/>
-      <c r="G320" s="74"/>
-      <c r="H320" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="I320" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="J320" s="74"/>
-      <c r="K320" s="74"/>
-      <c r="L320" s="74"/>
-    </row>
-    <row r="321" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F321" s="77"/>
-      <c r="G321" s="74"/>
-      <c r="H321" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="I321" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="J321" s="74"/>
-      <c r="K321" s="74"/>
-      <c r="L321" s="74"/>
-    </row>
-    <row r="322" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F322" s="74"/>
-      <c r="G322" s="79" t="s">
+    <row r="319" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F319" s="36"/>
+      <c r="G319" s="36"/>
+      <c r="H319" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="I319" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J319" s="36"/>
+      <c r="K319" s="36"/>
+      <c r="L319" s="36"/>
+    </row>
+    <row r="320" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F320" s="36"/>
+      <c r="G320" s="83"/>
+      <c r="H320" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="I320" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="H322" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="I322" s="74"/>
-      <c r="J322" s="74"/>
-      <c r="K322" s="74"/>
-      <c r="L322" s="74"/>
-    </row>
-    <row r="323" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F323" s="36"/>
-      <c r="G323" s="36"/>
-      <c r="H323" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="I323" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="J323" s="36"/>
-      <c r="K323" s="36"/>
-      <c r="L323" s="36"/>
-    </row>
-    <row r="324" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F324" s="36"/>
-      <c r="G324" s="83"/>
-      <c r="H324" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="I324" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="J324" s="36"/>
-      <c r="K324" s="36"/>
-      <c r="L324" s="36"/>
-    </row>
-    <row r="325" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F325" s="36"/>
-      <c r="G325" s="83"/>
-      <c r="H325" s="36"/>
-      <c r="I325" s="36"/>
-      <c r="J325" s="36"/>
-      <c r="K325" s="36"/>
-      <c r="L325" s="36"/>
-    </row>
-    <row r="326" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D326" s="28" t="str">
+      <c r="J320" s="36"/>
+      <c r="K320" s="36"/>
+      <c r="L320" s="36"/>
+    </row>
+    <row r="321" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F321" s="36"/>
+      <c r="G321" s="83"/>
+      <c r="H321" s="36"/>
+      <c r="I321" s="36"/>
+      <c r="J321" s="36"/>
+      <c r="K321" s="36"/>
+      <c r="L321" s="36"/>
+    </row>
+    <row r="322" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D322" s="28" t="str">
         <f>$C$7&amp;"12."</f>
         <v>3.1.12.</v>
       </c>
-      <c r="E326" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="E322" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="323" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D323" s="42"/>
+      <c r="E323" s="42" t="str">
+        <f>D322&amp;"1."</f>
+        <v>3.1.12.1.</v>
+      </c>
+      <c r="F323" s="41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="324" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D324" s="42"/>
+      <c r="E324" s="41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="325" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D325" s="42"/>
+      <c r="E325" s="41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="326" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D326" s="42"/>
     </row>
     <row r="327" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D327" s="42"/>
       <c r="E327" s="42" t="str">
-        <f>D326&amp;"1."</f>
-        <v>3.1.12.1.</v>
+        <f>D322&amp;"2."</f>
+        <v>3.1.12.2.</v>
       </c>
       <c r="F327" s="41" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="328" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D328" s="42"/>
       <c r="E328" s="41" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="329" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D329" s="42"/>
-      <c r="E329" s="41" t="s">
-        <v>254</v>
-      </c>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="329" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F329" s="19"/>
+      <c r="G329" s="19"/>
+      <c r="H329" s="19"/>
+      <c r="I329" s="19"/>
+      <c r="J329" s="19"/>
+      <c r="K329" s="19"/>
+      <c r="L329" s="19"/>
+      <c r="M329" s="19"/>
+      <c r="N329" s="19"/>
+      <c r="O329" s="19"/>
+      <c r="P329" s="19"/>
+      <c r="Q329" s="19"/>
+      <c r="R329" s="19"/>
+      <c r="S329" s="19"/>
+      <c r="T329" s="19"/>
+      <c r="U329" s="19"/>
+      <c r="V329" s="19"/>
+      <c r="W329" s="19"/>
+      <c r="X329" s="19"/>
+      <c r="Y329" s="19"/>
+      <c r="Z329" s="19"/>
+      <c r="AA329" s="19"/>
+      <c r="AB329" s="19"/>
+      <c r="AC329" s="19"/>
+      <c r="AD329" s="19"/>
+      <c r="AE329" s="19"/>
+      <c r="AF329" s="19"/>
+      <c r="AG329" s="19"/>
+      <c r="AH329" s="19"/>
     </row>
     <row r="330" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D330" s="42"/>
+      <c r="D330" s="42" t="str">
+        <f>$C$7&amp;"13."</f>
+        <v>3.1.13.</v>
+      </c>
+      <c r="E330" s="41" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="331" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D331" s="42"/>
-      <c r="E331" s="42" t="str">
-        <f>D326&amp;"2."</f>
-        <v>3.1.12.2.</v>
-      </c>
-      <c r="F331" s="41" t="s">
-        <v>252</v>
+      <c r="E331" s="41" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="332" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D332" s="42"/>
-      <c r="E332" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="333" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F333" s="19"/>
-      <c r="G333" s="19"/>
-      <c r="H333" s="19"/>
-      <c r="I333" s="19"/>
-      <c r="J333" s="19"/>
-      <c r="K333" s="19"/>
-      <c r="L333" s="19"/>
-      <c r="M333" s="19"/>
-      <c r="N333" s="19"/>
-      <c r="O333" s="19"/>
-      <c r="P333" s="19"/>
-      <c r="Q333" s="19"/>
-      <c r="R333" s="19"/>
-      <c r="S333" s="19"/>
-      <c r="T333" s="19"/>
-      <c r="U333" s="19"/>
-      <c r="V333" s="19"/>
-      <c r="W333" s="19"/>
-      <c r="X333" s="19"/>
-      <c r="Y333" s="19"/>
-      <c r="Z333" s="19"/>
-      <c r="AA333" s="19"/>
-      <c r="AB333" s="19"/>
-      <c r="AC333" s="19"/>
-      <c r="AD333" s="19"/>
-      <c r="AE333" s="19"/>
-      <c r="AF333" s="19"/>
-      <c r="AG333" s="19"/>
-      <c r="AH333" s="19"/>
+      <c r="E332" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F332" s="53"/>
+      <c r="G332" s="53"/>
+      <c r="H332" s="53"/>
+      <c r="I332" s="53"/>
+      <c r="J332" s="53"/>
+      <c r="K332" s="54"/>
+      <c r="L332" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="M332" s="53"/>
+      <c r="N332" s="53"/>
+      <c r="O332" s="54"/>
+      <c r="P332" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q332" s="53"/>
+      <c r="R332" s="53"/>
+      <c r="S332" s="53"/>
+      <c r="T332" s="53"/>
+      <c r="U332" s="53"/>
+      <c r="V332" s="53"/>
+      <c r="W332" s="53"/>
+      <c r="X332" s="53"/>
+      <c r="Y332" s="53"/>
+      <c r="Z332" s="53"/>
+      <c r="AA332" s="53"/>
+      <c r="AB332" s="53"/>
+      <c r="AC332" s="53"/>
+      <c r="AD332" s="53"/>
+      <c r="AE332" s="53"/>
+      <c r="AF332" s="53"/>
+      <c r="AG332" s="53"/>
+      <c r="AH332" s="54"/>
+    </row>
+    <row r="333" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E333" s="109" t="s">
+        <v>237</v>
+      </c>
+      <c r="F333" s="98"/>
+      <c r="G333" s="98"/>
+      <c r="H333" s="70"/>
+      <c r="I333" s="70"/>
+      <c r="J333" s="70"/>
+      <c r="K333" s="100"/>
+      <c r="L333" s="98" t="s">
+        <v>239</v>
+      </c>
+      <c r="M333" s="70"/>
+      <c r="N333" s="70"/>
+      <c r="O333" s="100"/>
+      <c r="P333" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q333" s="70"/>
+      <c r="R333" s="70"/>
+      <c r="S333" s="70"/>
+      <c r="T333" s="70"/>
+      <c r="U333" s="70"/>
+      <c r="V333" s="70"/>
+      <c r="W333" s="70"/>
+      <c r="X333" s="70"/>
+      <c r="Y333" s="70"/>
+      <c r="Z333" s="70"/>
+      <c r="AA333" s="70"/>
+      <c r="AB333" s="70"/>
+      <c r="AC333" s="70"/>
+      <c r="AD333" s="70"/>
+      <c r="AE333" s="70"/>
+      <c r="AF333" s="70"/>
+      <c r="AG333" s="70"/>
+      <c r="AH333" s="94"/>
     </row>
     <row r="334" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D334" s="42" t="str">
-        <f>$C$7&amp;"13."</f>
-        <v>3.1.13.</v>
-      </c>
-      <c r="E334" s="41" t="s">
-        <v>219</v>
-      </c>
+      <c r="E334" s="109" t="s">
+        <v>211</v>
+      </c>
+      <c r="F334" s="26"/>
+      <c r="G334" s="26"/>
+      <c r="H334" s="70"/>
+      <c r="I334" s="70"/>
+      <c r="J334" s="70"/>
+      <c r="K334" s="71"/>
+      <c r="L334" s="26"/>
+      <c r="M334" s="70"/>
+      <c r="N334" s="70"/>
+      <c r="O334" s="71"/>
+      <c r="P334" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q334" s="70"/>
+      <c r="R334" s="70"/>
+      <c r="S334" s="70"/>
+      <c r="T334" s="70"/>
+      <c r="U334" s="70"/>
+      <c r="V334" s="70"/>
+      <c r="W334" s="70"/>
+      <c r="X334" s="70"/>
+      <c r="Y334" s="70"/>
+      <c r="Z334" s="70"/>
+      <c r="AA334" s="70"/>
+      <c r="AB334" s="70"/>
+      <c r="AC334" s="70"/>
+      <c r="AD334" s="70"/>
+      <c r="AE334" s="70"/>
+      <c r="AF334" s="70"/>
+      <c r="AG334" s="70"/>
+      <c r="AH334" s="94"/>
     </row>
     <row r="335" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D335" s="42"/>
-      <c r="E335" s="41" t="s">
-        <v>220</v>
-      </c>
+      <c r="E335" s="109"/>
+      <c r="F335" s="26"/>
+      <c r="G335" s="26"/>
+      <c r="H335" s="70"/>
+      <c r="I335" s="70"/>
+      <c r="J335" s="70"/>
+      <c r="K335" s="71"/>
+      <c r="L335" s="26"/>
+      <c r="M335" s="70"/>
+      <c r="N335" s="70"/>
+      <c r="O335" s="71"/>
+      <c r="P335" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q335" s="70"/>
+      <c r="R335" s="70"/>
+      <c r="S335" s="70"/>
+      <c r="T335" s="70"/>
+      <c r="U335" s="70"/>
+      <c r="V335" s="70"/>
+      <c r="W335" s="70"/>
+      <c r="X335" s="70"/>
+      <c r="Y335" s="70"/>
+      <c r="Z335" s="70"/>
+      <c r="AA335" s="70"/>
+      <c r="AB335" s="70"/>
+      <c r="AC335" s="70"/>
+      <c r="AD335" s="70"/>
+      <c r="AE335" s="70"/>
+      <c r="AF335" s="70"/>
+      <c r="AG335" s="70"/>
+      <c r="AH335" s="94"/>
     </row>
     <row r="336" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E336" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="F336" s="53"/>
-      <c r="G336" s="53"/>
-      <c r="H336" s="53"/>
-      <c r="I336" s="53"/>
-      <c r="J336" s="53"/>
-      <c r="K336" s="54"/>
-      <c r="L336" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="M336" s="53"/>
-      <c r="N336" s="53"/>
-      <c r="O336" s="54"/>
-      <c r="P336" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q336" s="53"/>
-      <c r="R336" s="53"/>
-      <c r="S336" s="53"/>
-      <c r="T336" s="53"/>
-      <c r="U336" s="53"/>
-      <c r="V336" s="53"/>
-      <c r="W336" s="53"/>
-      <c r="X336" s="53"/>
-      <c r="Y336" s="53"/>
-      <c r="Z336" s="53"/>
-      <c r="AA336" s="53"/>
-      <c r="AB336" s="53"/>
-      <c r="AC336" s="53"/>
-      <c r="AD336" s="53"/>
-      <c r="AE336" s="53"/>
-      <c r="AF336" s="53"/>
-      <c r="AG336" s="53"/>
-      <c r="AH336" s="54"/>
+      <c r="E336" s="109"/>
+      <c r="F336" s="26"/>
+      <c r="G336" s="26"/>
+      <c r="H336" s="70"/>
+      <c r="I336" s="70"/>
+      <c r="J336" s="70"/>
+      <c r="K336" s="71"/>
+      <c r="L336" s="26"/>
+      <c r="M336" s="70"/>
+      <c r="N336" s="70"/>
+      <c r="O336" s="71"/>
+      <c r="P336" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q336" s="70"/>
+      <c r="R336" s="70"/>
+      <c r="S336" s="70"/>
+      <c r="T336" s="70"/>
+      <c r="U336" s="70"/>
+      <c r="V336" s="70"/>
+      <c r="W336" s="70"/>
+      <c r="X336" s="70"/>
+      <c r="Y336" s="70"/>
+      <c r="Z336" s="70"/>
+      <c r="AA336" s="70"/>
+      <c r="AB336" s="70"/>
+      <c r="AC336" s="70"/>
+      <c r="AD336" s="70"/>
+      <c r="AE336" s="70"/>
+      <c r="AF336" s="70"/>
+      <c r="AG336" s="70"/>
+      <c r="AH336" s="94"/>
     </row>
     <row r="337" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E337" s="109" t="s">
-        <v>246</v>
-      </c>
-      <c r="F337" s="98"/>
-      <c r="G337" s="98"/>
-      <c r="H337" s="70"/>
-      <c r="I337" s="70"/>
-      <c r="J337" s="70"/>
-      <c r="K337" s="100"/>
-      <c r="L337" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="M337" s="70"/>
-      <c r="N337" s="70"/>
-      <c r="O337" s="100"/>
-      <c r="P337" s="98" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q337" s="70"/>
-      <c r="R337" s="70"/>
-      <c r="S337" s="70"/>
-      <c r="T337" s="70"/>
-      <c r="U337" s="70"/>
-      <c r="V337" s="70"/>
-      <c r="W337" s="70"/>
-      <c r="X337" s="70"/>
-      <c r="Y337" s="70"/>
-      <c r="Z337" s="70"/>
-      <c r="AA337" s="70"/>
-      <c r="AB337" s="70"/>
-      <c r="AC337" s="70"/>
-      <c r="AD337" s="70"/>
-      <c r="AE337" s="70"/>
-      <c r="AF337" s="70"/>
-      <c r="AG337" s="70"/>
-      <c r="AH337" s="94"/>
+      <c r="E337" s="81"/>
+      <c r="F337" s="76"/>
+      <c r="G337" s="76"/>
+      <c r="H337" s="102"/>
+      <c r="I337" s="102"/>
+      <c r="J337" s="102"/>
+      <c r="K337" s="90"/>
+      <c r="L337" s="76"/>
+      <c r="M337" s="102"/>
+      <c r="N337" s="102"/>
+      <c r="O337" s="90"/>
+      <c r="P337" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q337" s="102"/>
+      <c r="R337" s="102"/>
+      <c r="S337" s="102"/>
+      <c r="T337" s="102"/>
+      <c r="U337" s="102"/>
+      <c r="V337" s="102"/>
+      <c r="W337" s="102"/>
+      <c r="X337" s="102"/>
+      <c r="Y337" s="102"/>
+      <c r="Z337" s="102"/>
+      <c r="AA337" s="102"/>
+      <c r="AB337" s="102"/>
+      <c r="AC337" s="102"/>
+      <c r="AD337" s="102"/>
+      <c r="AE337" s="102"/>
+      <c r="AF337" s="102"/>
+      <c r="AG337" s="102"/>
+      <c r="AH337" s="103"/>
     </row>
     <row r="338" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E338" s="109" t="s">
-        <v>218</v>
-      </c>
-      <c r="F338" s="26"/>
-      <c r="G338" s="26"/>
+      <c r="F338" s="70"/>
+      <c r="G338" s="70"/>
       <c r="H338" s="70"/>
       <c r="I338" s="70"/>
       <c r="J338" s="70"/>
-      <c r="K338" s="71"/>
-      <c r="L338" s="26"/>
-      <c r="M338" s="70"/>
-      <c r="N338" s="70"/>
-      <c r="O338" s="71"/>
-      <c r="P338" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q338" s="70"/>
-      <c r="R338" s="70"/>
-      <c r="S338" s="70"/>
-      <c r="T338" s="70"/>
-      <c r="U338" s="70"/>
-      <c r="V338" s="70"/>
-      <c r="W338" s="70"/>
-      <c r="X338" s="70"/>
-      <c r="Y338" s="70"/>
-      <c r="Z338" s="70"/>
-      <c r="AA338" s="70"/>
-      <c r="AB338" s="70"/>
-      <c r="AC338" s="70"/>
-      <c r="AD338" s="70"/>
-      <c r="AE338" s="70"/>
-      <c r="AF338" s="70"/>
-      <c r="AG338" s="70"/>
-      <c r="AH338" s="94"/>
-    </row>
-    <row r="339" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E339" s="109"/>
-      <c r="F339" s="26"/>
-      <c r="G339" s="26"/>
-      <c r="H339" s="70"/>
-      <c r="I339" s="70"/>
-      <c r="J339" s="70"/>
-      <c r="K339" s="71"/>
-      <c r="L339" s="26"/>
-      <c r="M339" s="70"/>
-      <c r="N339" s="70"/>
-      <c r="O339" s="71"/>
-      <c r="P339" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q339" s="70"/>
-      <c r="R339" s="70"/>
-      <c r="S339" s="70"/>
-      <c r="T339" s="70"/>
-      <c r="U339" s="70"/>
-      <c r="V339" s="70"/>
-      <c r="W339" s="70"/>
-      <c r="X339" s="70"/>
-      <c r="Y339" s="70"/>
-      <c r="Z339" s="70"/>
-      <c r="AA339" s="70"/>
-      <c r="AB339" s="70"/>
-      <c r="AC339" s="70"/>
-      <c r="AD339" s="70"/>
-      <c r="AE339" s="70"/>
-      <c r="AF339" s="70"/>
-      <c r="AG339" s="70"/>
-      <c r="AH339" s="94"/>
-    </row>
-    <row r="340" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E340" s="109"/>
-      <c r="F340" s="26"/>
-      <c r="G340" s="26"/>
-      <c r="H340" s="70"/>
-      <c r="I340" s="70"/>
-      <c r="J340" s="70"/>
-      <c r="K340" s="71"/>
-      <c r="L340" s="26"/>
-      <c r="M340" s="70"/>
-      <c r="N340" s="70"/>
-      <c r="O340" s="71"/>
-      <c r="P340" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q340" s="70"/>
-      <c r="R340" s="70"/>
-      <c r="S340" s="70"/>
-      <c r="T340" s="70"/>
-      <c r="U340" s="70"/>
-      <c r="V340" s="70"/>
-      <c r="W340" s="70"/>
-      <c r="X340" s="70"/>
-      <c r="Y340" s="70"/>
-      <c r="Z340" s="70"/>
-      <c r="AA340" s="70"/>
-      <c r="AB340" s="70"/>
-      <c r="AC340" s="70"/>
-      <c r="AD340" s="70"/>
-      <c r="AE340" s="70"/>
-      <c r="AF340" s="70"/>
-      <c r="AG340" s="70"/>
-      <c r="AH340" s="94"/>
-    </row>
-    <row r="341" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E341" s="109"/>
-      <c r="F341" s="26"/>
-      <c r="G341" s="26"/>
-      <c r="H341" s="70"/>
-      <c r="I341" s="70"/>
-      <c r="J341" s="70"/>
-      <c r="K341" s="71"/>
-      <c r="L341" s="26"/>
-      <c r="M341" s="70"/>
-      <c r="N341" s="70"/>
-      <c r="O341" s="71"/>
-      <c r="P341" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q341" s="70"/>
-      <c r="R341" s="70"/>
-      <c r="S341" s="70"/>
-      <c r="T341" s="70"/>
-      <c r="U341" s="70"/>
-      <c r="V341" s="70"/>
-      <c r="W341" s="70"/>
-      <c r="X341" s="70"/>
-      <c r="Y341" s="70"/>
-      <c r="Z341" s="70"/>
-      <c r="AA341" s="70"/>
-      <c r="AB341" s="70"/>
-      <c r="AC341" s="70"/>
-      <c r="AD341" s="70"/>
-      <c r="AE341" s="70"/>
-      <c r="AF341" s="70"/>
-      <c r="AG341" s="70"/>
-      <c r="AH341" s="94"/>
-    </row>
-    <row r="342" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E342" s="81"/>
-      <c r="F342" s="76"/>
-      <c r="G342" s="76"/>
-      <c r="H342" s="102"/>
-      <c r="I342" s="102"/>
-      <c r="J342" s="102"/>
-      <c r="K342" s="90"/>
-      <c r="L342" s="76"/>
-      <c r="M342" s="102"/>
-      <c r="N342" s="102"/>
-      <c r="O342" s="90"/>
-      <c r="P342" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q342" s="102"/>
-      <c r="R342" s="102"/>
-      <c r="S342" s="102"/>
-      <c r="T342" s="102"/>
-      <c r="U342" s="102"/>
-      <c r="V342" s="102"/>
-      <c r="W342" s="102"/>
-      <c r="X342" s="102"/>
-      <c r="Y342" s="102"/>
-      <c r="Z342" s="102"/>
-      <c r="AA342" s="102"/>
-      <c r="AB342" s="102"/>
-      <c r="AC342" s="102"/>
-      <c r="AD342" s="102"/>
-      <c r="AE342" s="102"/>
-      <c r="AF342" s="102"/>
-      <c r="AG342" s="102"/>
-      <c r="AH342" s="103"/>
-    </row>
-    <row r="343" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F343" s="70"/>
-      <c r="G343" s="70"/>
-      <c r="H343" s="70"/>
-      <c r="I343" s="70"/>
-      <c r="J343" s="70"/>
-      <c r="K343" s="70"/>
-      <c r="L343" s="70"/>
-      <c r="M343" s="44"/>
-      <c r="N343" s="44"/>
-      <c r="O343" s="44"/>
-      <c r="P343" s="44"/>
-      <c r="Q343" s="44"/>
-      <c r="R343" s="44"/>
-      <c r="S343" s="44"/>
-      <c r="T343" s="44"/>
-      <c r="U343" s="44"/>
-      <c r="V343" s="44"/>
-      <c r="W343" s="44"/>
-      <c r="X343" s="44"/>
-      <c r="Y343" s="44"/>
-      <c r="Z343" s="44"/>
-      <c r="AA343" s="44"/>
-      <c r="AB343" s="44"/>
-      <c r="AC343" s="44"/>
-      <c r="AD343" s="44"/>
-      <c r="AE343" s="44"/>
-      <c r="AF343" s="44"/>
-      <c r="AG343" s="44"/>
-      <c r="AH343" s="44"/>
-    </row>
-    <row r="344" spans="5:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F344" s="91"/>
+      <c r="K338" s="70"/>
+      <c r="L338" s="70"/>
+      <c r="M338" s="44"/>
+      <c r="N338" s="44"/>
+      <c r="O338" s="44"/>
+      <c r="P338" s="44"/>
+      <c r="Q338" s="44"/>
+      <c r="R338" s="44"/>
+      <c r="S338" s="44"/>
+      <c r="T338" s="44"/>
+      <c r="U338" s="44"/>
+      <c r="V338" s="44"/>
+      <c r="W338" s="44"/>
+      <c r="X338" s="44"/>
+      <c r="Y338" s="44"/>
+      <c r="Z338" s="44"/>
+      <c r="AA338" s="44"/>
+      <c r="AB338" s="44"/>
+      <c r="AC338" s="44"/>
+      <c r="AD338" s="44"/>
+      <c r="AE338" s="44"/>
+      <c r="AF338" s="44"/>
+      <c r="AG338" s="44"/>
+      <c r="AH338" s="44"/>
+    </row>
+    <row r="339" spans="5:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F339" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13986,13 +13742,13 @@
     <brk id="38" max="16383" man="1"/>
     <brk id="71" max="16383" man="1"/>
     <brk id="95" max="16383" man="1"/>
-    <brk id="120" max="16383" man="1"/>
-    <brk id="147" max="16383" man="1"/>
-    <brk id="194" max="16383" man="1"/>
-    <brk id="229" max="16383" man="1"/>
-    <brk id="262" max="16383" man="1"/>
-    <brk id="302" max="16383" man="1"/>
-    <brk id="325" max="16383" man="1"/>
+    <brk id="119" max="16383" man="1"/>
+    <brk id="143" max="16383" man="1"/>
+    <brk id="190" max="16383" man="1"/>
+    <brk id="225" max="16383" man="1"/>
+    <brk id="258" max="16383" man="1"/>
+    <brk id="298" max="16383" man="1"/>
+    <brk id="321" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="B5" numberStoredAsText="1"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E07E1BA-6A93-4402-B1C8-F793E530CA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22334BB9-965B-44B2-A548-D4DFC0528434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.1.同期処理方式'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$342</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$262</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$262</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$343</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$263</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$263</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="319">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -2602,28 +2602,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サーバ側と比較すると、そもそものリクエスト送信を防止するので、ユーザの利便性は高まる。</t>
-    <rPh sb="3" eb="4">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ボウシ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>リベンセイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>なお、サーバ側のチェックにはNablarchが提供する二重サブミット防止機能を利用する。</t>
     <rPh sb="6" eb="7">
       <t>ガワ</t>
@@ -3295,6 +3273,23 @@
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/handlers/web/secure_handler.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザの利便性向上につながる。</t>
+    <rPh sb="4" eb="7">
+      <t>リベンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバ側と比較すると、すでにリクエストを送信したことが視覚的に分かりやすく、かつ送信自体を防止できるので、</t>
+    <rPh sb="20" eb="22">
+      <t>ソウシン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3957,6 +3952,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4022,9 +4020,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4062,13 +4057,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4084,8 +4079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1350479" y="39234717"/>
-          <a:ext cx="7726431" cy="775253"/>
+          <a:off x="1350479" y="39375522"/>
+          <a:ext cx="7726431" cy="775252"/>
           <a:chOff x="1362075" y="5760869"/>
           <a:chExt cx="7810499" cy="820906"/>
         </a:xfrm>
@@ -5071,7 +5066,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI343"/>
+  <dimension ref="A1:AI344"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
@@ -5087,45 +5082,45 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="121"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="121" t="s">
+      <c r="R1" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="124"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="116"/>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="117"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="116"/>
+      <c r="AG1" s="117"/>
+      <c r="AH1" s="117"/>
+      <c r="AI1" s="118"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -5134,43 +5129,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="130"/>
       <c r="P2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="130" t="s">
+      <c r="R2" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="133"/>
       <c r="Y2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="117"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="118"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -5179,39 +5174,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="135"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="136"/>
       <c r="Y3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="117"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="118"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5667,7 +5662,7 @@
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K30" s="57"/>
       <c r="L30" s="93"/>
@@ -5696,13 +5691,13 @@
     </row>
     <row r="31" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
       <c r="J31" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="98"/>
@@ -5735,7 +5730,7 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="J32" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K32" s="33"/>
       <c r="L32" s="76"/>
@@ -5805,13 +5800,13 @@
     <row r="35" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="24"/>
       <c r="F35" s="74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E36" s="24"/>
       <c r="F36" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5820,13 +5815,13 @@
     <row r="38" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="24"/>
       <c r="F38" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E39" s="24"/>
       <c r="F39" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5834,8 +5829,8 @@
     </row>
     <row r="41" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E41" s="24"/>
-      <c r="F41" s="137" t="s">
-        <v>317</v>
+      <c r="F41" s="115" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6058,7 +6053,7 @@
       <c r="I54" s="102"/>
       <c r="J54" s="90"/>
       <c r="K54" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L54" s="76"/>
       <c r="M54" s="76"/>
@@ -6692,9 +6687,9 @@
       <c r="F88" s="92"/>
       <c r="G88" s="26"/>
       <c r="H88" s="26"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="26" t="s">
-        <v>273</v>
+      <c r="I88" s="26"/>
+      <c r="J88" s="92" t="s">
+        <v>318</v>
       </c>
       <c r="K88" s="26"/>
       <c r="L88" s="26"/>
@@ -6721,79 +6716,79 @@
       <c r="AG88" s="70"/>
       <c r="AH88" s="94"/>
     </row>
-    <row r="89" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
-      <c r="F89" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" s="98"/>
-      <c r="H89" s="98"/>
-      <c r="I89" s="98"/>
-      <c r="J89" s="97" t="s">
-        <v>268</v>
-      </c>
-      <c r="K89" s="98"/>
-      <c r="L89" s="98"/>
-      <c r="M89" s="98"/>
-      <c r="N89" s="98"/>
-      <c r="O89" s="98"/>
-      <c r="P89" s="98"/>
-      <c r="Q89" s="98"/>
-      <c r="R89" s="98"/>
-      <c r="S89" s="98"/>
-      <c r="T89" s="98"/>
-      <c r="U89" s="98"/>
-      <c r="V89" s="98"/>
-      <c r="W89" s="98"/>
-      <c r="X89" s="98"/>
-      <c r="Y89" s="98"/>
-      <c r="Z89" s="98"/>
-      <c r="AA89" s="98"/>
-      <c r="AB89" s="99"/>
-      <c r="AC89" s="99"/>
-      <c r="AD89" s="99"/>
-      <c r="AE89" s="99"/>
-      <c r="AF89" s="99"/>
-      <c r="AG89" s="99"/>
-      <c r="AH89" s="101"/>
-    </row>
-    <row r="90" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F89" s="92"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26"/>
+      <c r="S89" s="26"/>
+      <c r="T89" s="26"/>
+      <c r="U89" s="26"/>
+      <c r="V89" s="26"/>
+      <c r="W89" s="26"/>
+      <c r="X89" s="26"/>
+      <c r="Y89" s="26"/>
+      <c r="Z89" s="26"/>
+      <c r="AA89" s="26"/>
+      <c r="AB89" s="70"/>
+      <c r="AC89" s="70"/>
+      <c r="AD89" s="70"/>
+      <c r="AE89" s="70"/>
+      <c r="AF89" s="70"/>
+      <c r="AG89" s="70"/>
+      <c r="AH89" s="94"/>
+    </row>
+    <row r="90" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
-      <c r="F90" s="92"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="26"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="26"/>
-      <c r="S90" s="26"/>
-      <c r="T90" s="26"/>
-      <c r="U90" s="26"/>
-      <c r="V90" s="26"/>
-      <c r="W90" s="26"/>
-      <c r="X90" s="26"/>
-      <c r="Y90" s="26"/>
-      <c r="Z90" s="26"/>
-      <c r="AA90" s="26"/>
-      <c r="AB90" s="70"/>
-      <c r="AC90" s="70"/>
-      <c r="AD90" s="70"/>
-      <c r="AE90" s="70"/>
-      <c r="AF90" s="70"/>
-      <c r="AG90" s="70"/>
-      <c r="AH90" s="94"/>
+      <c r="F90" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="98"/>
+      <c r="H90" s="98"/>
+      <c r="I90" s="98"/>
+      <c r="J90" s="97" t="s">
+        <v>268</v>
+      </c>
+      <c r="K90" s="98"/>
+      <c r="L90" s="98"/>
+      <c r="M90" s="98"/>
+      <c r="N90" s="98"/>
+      <c r="O90" s="98"/>
+      <c r="P90" s="98"/>
+      <c r="Q90" s="98"/>
+      <c r="R90" s="98"/>
+      <c r="S90" s="98"/>
+      <c r="T90" s="98"/>
+      <c r="U90" s="98"/>
+      <c r="V90" s="98"/>
+      <c r="W90" s="98"/>
+      <c r="X90" s="98"/>
+      <c r="Y90" s="98"/>
+      <c r="Z90" s="98"/>
+      <c r="AA90" s="98"/>
+      <c r="AB90" s="99"/>
+      <c r="AC90" s="99"/>
+      <c r="AD90" s="99"/>
+      <c r="AE90" s="99"/>
+      <c r="AF90" s="99"/>
+      <c r="AG90" s="99"/>
+      <c r="AH90" s="101"/>
     </row>
     <row r="91" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="29"/>
@@ -6804,7 +6799,7 @@
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
       <c r="J91" s="92" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K91" s="26"/>
       <c r="L91" s="26"/>
@@ -6835,110 +6830,117 @@
       <c r="C92" s="29"/>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
-      <c r="F92" s="75"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="76"/>
-      <c r="I92" s="76"/>
-      <c r="J92" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="K92" s="76"/>
-      <c r="L92" s="76"/>
-      <c r="M92" s="76"/>
-      <c r="N92" s="76"/>
-      <c r="O92" s="76"/>
-      <c r="P92" s="76"/>
-      <c r="Q92" s="76"/>
-      <c r="R92" s="76"/>
-      <c r="S92" s="76"/>
-      <c r="T92" s="76"/>
-      <c r="U92" s="76"/>
-      <c r="V92" s="76"/>
-      <c r="W92" s="76"/>
-      <c r="X92" s="76"/>
-      <c r="Y92" s="76"/>
-      <c r="Z92" s="76"/>
-      <c r="AA92" s="76"/>
-      <c r="AB92" s="102"/>
-      <c r="AC92" s="102"/>
-      <c r="AD92" s="102"/>
-      <c r="AE92" s="102"/>
-      <c r="AF92" s="102"/>
-      <c r="AG92" s="102"/>
-      <c r="AH92" s="103"/>
-    </row>
-    <row r="93" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F92" s="92"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="26"/>
+      <c r="W92" s="26"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="26"/>
+      <c r="Z92" s="26"/>
+      <c r="AA92" s="26"/>
+      <c r="AB92" s="70"/>
+      <c r="AC92" s="70"/>
+      <c r="AD92" s="70"/>
+      <c r="AE92" s="70"/>
+      <c r="AF92" s="70"/>
+      <c r="AG92" s="70"/>
+      <c r="AH92" s="94"/>
+    </row>
+    <row r="93" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="29"/>
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="25"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="25"/>
-      <c r="P93" s="25"/>
-      <c r="Q93" s="25"/>
-      <c r="R93" s="25"/>
-      <c r="S93" s="25"/>
-      <c r="T93" s="25"/>
-      <c r="U93" s="25"/>
-      <c r="V93" s="25"/>
-      <c r="W93" s="25"/>
-      <c r="X93" s="25"/>
-      <c r="Y93" s="25"/>
-      <c r="Z93" s="25"/>
-      <c r="AA93" s="25"/>
-      <c r="AB93" s="19"/>
-      <c r="AC93" s="19"/>
-      <c r="AD93" s="19"/>
-      <c r="AE93" s="19"/>
-      <c r="AF93" s="19"/>
-      <c r="AG93" s="19"/>
-      <c r="AH93" s="19"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="76"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="K93" s="76"/>
+      <c r="L93" s="76"/>
+      <c r="M93" s="76"/>
+      <c r="N93" s="76"/>
+      <c r="O93" s="76"/>
+      <c r="P93" s="76"/>
+      <c r="Q93" s="76"/>
+      <c r="R93" s="76"/>
+      <c r="S93" s="76"/>
+      <c r="T93" s="76"/>
+      <c r="U93" s="76"/>
+      <c r="V93" s="76"/>
+      <c r="W93" s="76"/>
+      <c r="X93" s="76"/>
+      <c r="Y93" s="76"/>
+      <c r="Z93" s="76"/>
+      <c r="AA93" s="76"/>
+      <c r="AB93" s="102"/>
+      <c r="AC93" s="102"/>
+      <c r="AD93" s="102"/>
+      <c r="AE93" s="102"/>
+      <c r="AF93" s="102"/>
+      <c r="AG93" s="102"/>
+      <c r="AH93" s="103"/>
     </row>
     <row r="94" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="29"/>
       <c r="D94" s="29"/>
-      <c r="E94" s="24" t="str">
-        <f>D76&amp;"3."</f>
-        <v>3.1.6.3.</v>
-      </c>
-      <c r="F94" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29"/>
-      <c r="T94" s="29"/>
-      <c r="U94" s="29"/>
-      <c r="V94" s="29"/>
-      <c r="W94" s="29"/>
-      <c r="X94" s="29"/>
-      <c r="Y94" s="29"/>
-      <c r="Z94" s="29"/>
-      <c r="AA94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="25"/>
+      <c r="V94" s="25"/>
+      <c r="W94" s="25"/>
+      <c r="X94" s="25"/>
+      <c r="Y94" s="25"/>
+      <c r="Z94" s="25"/>
+      <c r="AA94" s="25"/>
+      <c r="AB94" s="19"/>
+      <c r="AC94" s="19"/>
+      <c r="AD94" s="19"/>
+      <c r="AE94" s="19"/>
+      <c r="AF94" s="19"/>
+      <c r="AG94" s="19"/>
+      <c r="AH94" s="19"/>
     </row>
     <row r="95" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="29"/>
       <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="65" t="s">
-        <v>275</v>
+      <c r="E95" s="24" t="str">
+        <f>D76&amp;"3."</f>
+        <v>3.1.6.3.</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>271</v>
       </c>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
@@ -6967,7 +6969,7 @@
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
       <c r="F96" s="65" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
@@ -6995,7 +6997,9 @@
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
       <c r="E97" s="29"/>
-      <c r="F97" s="65"/>
+      <c r="F97" s="65" t="s">
+        <v>275</v>
+      </c>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
       <c r="I97" s="29"/>
@@ -7022,9 +7026,7 @@
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
-      <c r="F98" s="113" t="s">
-        <v>274</v>
-      </c>
+      <c r="F98" s="65"/>
       <c r="G98" s="29"/>
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
@@ -7047,255 +7049,251 @@
       <c r="Z98" s="29"/>
       <c r="AA98" s="29"/>
     </row>
-    <row r="99" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D100" s="28" t="str">
+    <row r="99" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="113" t="s">
+        <v>273</v>
+      </c>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="29"/>
+      <c r="W99" s="29"/>
+      <c r="X99" s="29"/>
+      <c r="Y99" s="29"/>
+      <c r="Z99" s="29"/>
+      <c r="AA99" s="29"/>
+    </row>
+    <row r="100" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="28" t="str">
         <f>$C$7&amp;"7."</f>
         <v>3.1.7.</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D101" s="28"/>
-      <c r="E101" s="28" t="str">
-        <f>D100&amp;"1."</f>
+    <row r="102" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="28"/>
+      <c r="E102" s="28" t="str">
+        <f>D101&amp;"1."</f>
         <v>3.1.7.1.</v>
       </c>
-      <c r="F101" s="4" t="str">
-        <f>E100&amp;"機能概要"</f>
+      <c r="F102" s="4" t="str">
+        <f>E101&amp;"機能概要"</f>
         <v>データの保持機能概要</v>
       </c>
     </row>
-    <row r="102" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F102" s="4" t="s">
+    <row r="103" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F103" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E104" s="28" t="str">
-        <f>D100&amp;"2."</f>
+    <row r="104" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E105" s="28" t="str">
+        <f>D101&amp;"2."</f>
         <v>3.1.7.2.</v>
       </c>
-      <c r="F104" s="4" t="str">
-        <f>E100&amp;"方法"</f>
+      <c r="F105" s="4" t="str">
+        <f>E101&amp;"方法"</f>
         <v>データの保持方法</v>
       </c>
     </row>
-    <row r="105" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F105" s="4" t="s">
+    <row r="106" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F106" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F107" s="16" t="str">
+        <f>F105</f>
+        <v>データの保持方法</v>
+      </c>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L107" s="38"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="38"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
+      <c r="Q107" s="38"/>
+      <c r="R107" s="38"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="38"/>
+      <c r="U107" s="38"/>
+      <c r="V107" s="38"/>
+      <c r="W107" s="38"/>
+      <c r="X107" s="38"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="38"/>
+      <c r="AA107" s="17"/>
+      <c r="AB107" s="17"/>
+      <c r="AC107" s="17"/>
+      <c r="AD107" s="17"/>
+      <c r="AE107" s="17"/>
+      <c r="AF107" s="17"/>
+      <c r="AG107" s="17"/>
+      <c r="AH107" s="18"/>
+    </row>
+    <row r="108" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F108" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" s="70"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="70"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="26" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="106" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F106" s="16" t="str">
-        <f>F104</f>
-        <v>データの保持方法</v>
-      </c>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="L106" s="38"/>
-      <c r="M106" s="38"/>
-      <c r="N106" s="38"/>
-      <c r="O106" s="38"/>
-      <c r="P106" s="38"/>
-      <c r="Q106" s="38"/>
-      <c r="R106" s="38"/>
-      <c r="S106" s="38"/>
-      <c r="T106" s="38"/>
-      <c r="U106" s="38"/>
-      <c r="V106" s="38"/>
-      <c r="W106" s="38"/>
-      <c r="X106" s="38"/>
-      <c r="Y106" s="38"/>
-      <c r="Z106" s="38"/>
-      <c r="AA106" s="17"/>
-      <c r="AB106" s="17"/>
-      <c r="AC106" s="17"/>
-      <c r="AD106" s="17"/>
-      <c r="AE106" s="17"/>
-      <c r="AF106" s="17"/>
-      <c r="AG106" s="17"/>
-      <c r="AH106" s="18"/>
-    </row>
-    <row r="107" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F107" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="70"/>
-      <c r="J107" s="71"/>
-      <c r="K107" s="26" t="s">
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
+      <c r="S108" s="26"/>
+      <c r="T108" s="26"/>
+      <c r="U108" s="26"/>
+      <c r="V108" s="26"/>
+      <c r="W108" s="26"/>
+      <c r="X108" s="26"/>
+      <c r="Y108" s="26"/>
+      <c r="Z108" s="26"/>
+      <c r="AA108" s="70"/>
+      <c r="AB108" s="70"/>
+      <c r="AC108" s="70"/>
+      <c r="AD108" s="70"/>
+      <c r="AE108" s="70"/>
+      <c r="AF108" s="70"/>
+      <c r="AG108" s="70"/>
+      <c r="AH108" s="94"/>
+    </row>
+    <row r="109" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F109" s="109"/>
+      <c r="G109" s="102"/>
+      <c r="H109" s="102"/>
+      <c r="I109" s="102"/>
+      <c r="J109" s="90"/>
+      <c r="K109" s="76" t="s">
         <v>290</v>
       </c>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="26"/>
-      <c r="T107" s="26"/>
-      <c r="U107" s="26"/>
-      <c r="V107" s="26"/>
-      <c r="W107" s="26"/>
-      <c r="X107" s="26"/>
-      <c r="Y107" s="26"/>
-      <c r="Z107" s="26"/>
-      <c r="AA107" s="70"/>
-      <c r="AB107" s="70"/>
-      <c r="AC107" s="70"/>
-      <c r="AD107" s="70"/>
-      <c r="AE107" s="70"/>
-      <c r="AF107" s="70"/>
-      <c r="AG107" s="70"/>
-      <c r="AH107" s="94"/>
-    </row>
-    <row r="108" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F108" s="109"/>
-      <c r="G108" s="102"/>
-      <c r="H108" s="102"/>
-      <c r="I108" s="102"/>
-      <c r="J108" s="90"/>
-      <c r="K108" s="76" t="s">
+      <c r="L109" s="76"/>
+      <c r="M109" s="76"/>
+      <c r="N109" s="76"/>
+      <c r="O109" s="76"/>
+      <c r="P109" s="76"/>
+      <c r="Q109" s="76"/>
+      <c r="R109" s="76"/>
+      <c r="S109" s="76"/>
+      <c r="T109" s="76"/>
+      <c r="U109" s="76"/>
+      <c r="V109" s="76"/>
+      <c r="W109" s="76"/>
+      <c r="X109" s="76"/>
+      <c r="Y109" s="76"/>
+      <c r="Z109" s="76"/>
+      <c r="AA109" s="102"/>
+      <c r="AB109" s="102"/>
+      <c r="AC109" s="102"/>
+      <c r="AD109" s="102"/>
+      <c r="AE109" s="102"/>
+      <c r="AF109" s="102"/>
+      <c r="AG109" s="102"/>
+      <c r="AH109" s="103"/>
+    </row>
+    <row r="110" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F110" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="70"/>
+      <c r="J110" s="71"/>
+      <c r="K110" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="L108" s="76"/>
-      <c r="M108" s="76"/>
-      <c r="N108" s="76"/>
-      <c r="O108" s="76"/>
-      <c r="P108" s="76"/>
-      <c r="Q108" s="76"/>
-      <c r="R108" s="76"/>
-      <c r="S108" s="76"/>
-      <c r="T108" s="76"/>
-      <c r="U108" s="76"/>
-      <c r="V108" s="76"/>
-      <c r="W108" s="76"/>
-      <c r="X108" s="76"/>
-      <c r="Y108" s="76"/>
-      <c r="Z108" s="76"/>
-      <c r="AA108" s="102"/>
-      <c r="AB108" s="102"/>
-      <c r="AC108" s="102"/>
-      <c r="AD108" s="102"/>
-      <c r="AE108" s="102"/>
-      <c r="AF108" s="102"/>
-      <c r="AG108" s="102"/>
-      <c r="AH108" s="103"/>
-    </row>
-    <row r="109" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F109" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="70"/>
-      <c r="J109" s="71"/>
-      <c r="K109" s="26" t="s">
+      <c r="L110" s="26"/>
+      <c r="M110" s="26"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="26"/>
+      <c r="P110" s="26"/>
+      <c r="Q110" s="26"/>
+      <c r="R110" s="26"/>
+      <c r="S110" s="26"/>
+      <c r="T110" s="26"/>
+      <c r="U110" s="26"/>
+      <c r="V110" s="26"/>
+      <c r="W110" s="26"/>
+      <c r="X110" s="26"/>
+      <c r="Y110" s="26"/>
+      <c r="Z110" s="26"/>
+      <c r="AA110" s="70"/>
+      <c r="AB110" s="70"/>
+      <c r="AC110" s="70"/>
+      <c r="AD110" s="70"/>
+      <c r="AE110" s="70"/>
+      <c r="AF110" s="70"/>
+      <c r="AG110" s="70"/>
+      <c r="AH110" s="94"/>
+    </row>
+    <row r="111" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F111" s="81"/>
+      <c r="G111" s="102"/>
+      <c r="H111" s="102"/>
+      <c r="I111" s="102"/>
+      <c r="J111" s="90"/>
+      <c r="K111" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="L109" s="26"/>
-      <c r="M109" s="26"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="26"/>
-      <c r="T109" s="26"/>
-      <c r="U109" s="26"/>
-      <c r="V109" s="26"/>
-      <c r="W109" s="26"/>
-      <c r="X109" s="26"/>
-      <c r="Y109" s="26"/>
-      <c r="Z109" s="26"/>
-      <c r="AA109" s="70"/>
-      <c r="AB109" s="70"/>
-      <c r="AC109" s="70"/>
-      <c r="AD109" s="70"/>
-      <c r="AE109" s="70"/>
-      <c r="AF109" s="70"/>
-      <c r="AG109" s="70"/>
-      <c r="AH109" s="94"/>
-    </row>
-    <row r="110" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F110" s="81"/>
-      <c r="G110" s="102"/>
-      <c r="H110" s="102"/>
-      <c r="I110" s="102"/>
-      <c r="J110" s="90"/>
-      <c r="K110" s="76" t="s">
-        <v>293</v>
-      </c>
-      <c r="L110" s="76"/>
-      <c r="M110" s="76"/>
-      <c r="N110" s="76"/>
-      <c r="O110" s="76"/>
-      <c r="P110" s="76"/>
-      <c r="Q110" s="76"/>
-      <c r="R110" s="76"/>
-      <c r="S110" s="76"/>
-      <c r="T110" s="76"/>
-      <c r="U110" s="76"/>
-      <c r="V110" s="76"/>
-      <c r="W110" s="76"/>
-      <c r="X110" s="76"/>
-      <c r="Y110" s="76"/>
-      <c r="Z110" s="76"/>
-      <c r="AA110" s="102"/>
-      <c r="AB110" s="102"/>
-      <c r="AC110" s="102"/>
-      <c r="AD110" s="102"/>
-      <c r="AE110" s="102"/>
-      <c r="AF110" s="102"/>
-      <c r="AG110" s="102"/>
-      <c r="AH110" s="103"/>
-    </row>
-    <row r="111" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F111" s="70"/>
-      <c r="G111" s="70"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="70"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="26"/>
-      <c r="L111" s="26"/>
-      <c r="M111" s="26"/>
-      <c r="N111" s="26"/>
-      <c r="O111" s="26"/>
-      <c r="P111" s="26"/>
-      <c r="Q111" s="26"/>
-      <c r="R111" s="26"/>
-      <c r="S111" s="26"/>
-      <c r="T111" s="26"/>
-      <c r="U111" s="26"/>
-      <c r="V111" s="26"/>
-      <c r="W111" s="26"/>
-      <c r="X111" s="26"/>
-      <c r="Y111" s="26"/>
-      <c r="Z111" s="26"/>
-      <c r="AA111" s="70"/>
-      <c r="AB111" s="70"/>
-      <c r="AC111" s="70"/>
-      <c r="AD111" s="70"/>
-      <c r="AE111" s="70"/>
-      <c r="AF111" s="70"/>
-      <c r="AG111" s="70"/>
-      <c r="AH111" s="70"/>
+      <c r="L111" s="76"/>
+      <c r="M111" s="76"/>
+      <c r="N111" s="76"/>
+      <c r="O111" s="76"/>
+      <c r="P111" s="76"/>
+      <c r="Q111" s="76"/>
+      <c r="R111" s="76"/>
+      <c r="S111" s="76"/>
+      <c r="T111" s="76"/>
+      <c r="U111" s="76"/>
+      <c r="V111" s="76"/>
+      <c r="W111" s="76"/>
+      <c r="X111" s="76"/>
+      <c r="Y111" s="76"/>
+      <c r="Z111" s="76"/>
+      <c r="AA111" s="102"/>
+      <c r="AB111" s="102"/>
+      <c r="AC111" s="102"/>
+      <c r="AD111" s="102"/>
+      <c r="AE111" s="102"/>
+      <c r="AF111" s="102"/>
+      <c r="AG111" s="102"/>
+      <c r="AH111" s="103"/>
     </row>
     <row r="112" spans="3:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F112" s="70" t="s">
-        <v>294</v>
-      </c>
+      <c r="F112" s="70"/>
       <c r="G112" s="70"/>
       <c r="H112" s="70"/>
       <c r="I112" s="70"/>
@@ -7326,7 +7324,9 @@
       <c r="AH112" s="70"/>
     </row>
     <row r="113" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F113" s="70"/>
+      <c r="F113" s="70" t="s">
+        <v>293</v>
+      </c>
       <c r="G113" s="70"/>
       <c r="H113" s="70"/>
       <c r="I113" s="70"/>
@@ -7357,183 +7357,181 @@
       <c r="AH113" s="70"/>
     </row>
     <row r="114" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F114" s="52" t="s">
+      <c r="F114" s="70"/>
+      <c r="G114" s="70"/>
+      <c r="H114" s="70"/>
+      <c r="I114" s="70"/>
+      <c r="J114" s="26"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="26"/>
+      <c r="N114" s="26"/>
+      <c r="O114" s="26"/>
+      <c r="P114" s="26"/>
+      <c r="Q114" s="26"/>
+      <c r="R114" s="26"/>
+      <c r="S114" s="26"/>
+      <c r="T114" s="26"/>
+      <c r="U114" s="26"/>
+      <c r="V114" s="26"/>
+      <c r="W114" s="26"/>
+      <c r="X114" s="26"/>
+      <c r="Y114" s="26"/>
+      <c r="Z114" s="26"/>
+      <c r="AA114" s="70"/>
+      <c r="AB114" s="70"/>
+      <c r="AC114" s="70"/>
+      <c r="AD114" s="70"/>
+      <c r="AE114" s="70"/>
+      <c r="AF114" s="70"/>
+      <c r="AG114" s="70"/>
+      <c r="AH114" s="70"/>
+    </row>
+    <row r="115" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F115" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G114" s="53"/>
-      <c r="H114" s="53"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="53" t="s">
+      <c r="G115" s="53"/>
+      <c r="H115" s="53"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="K114" s="53"/>
-      <c r="L114" s="53"/>
-      <c r="M114" s="53"/>
-      <c r="N114" s="53"/>
-      <c r="O114" s="53"/>
-      <c r="P114" s="53"/>
-      <c r="Q114" s="53"/>
-      <c r="R114" s="53"/>
-      <c r="S114" s="53"/>
-      <c r="T114" s="53"/>
-      <c r="U114" s="53"/>
-      <c r="V114" s="53"/>
-      <c r="W114" s="53"/>
-      <c r="X114" s="53"/>
-      <c r="Y114" s="53"/>
-      <c r="Z114" s="53"/>
-      <c r="AA114" s="53"/>
-      <c r="AB114" s="53"/>
-      <c r="AC114" s="53"/>
-      <c r="AD114" s="53"/>
-      <c r="AE114" s="53"/>
-      <c r="AF114" s="53"/>
-      <c r="AG114" s="54"/>
-      <c r="AH114" s="70"/>
-    </row>
-    <row r="115" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F115" s="69" t="s">
+      <c r="K115" s="53"/>
+      <c r="L115" s="53"/>
+      <c r="M115" s="53"/>
+      <c r="N115" s="53"/>
+      <c r="O115" s="53"/>
+      <c r="P115" s="53"/>
+      <c r="Q115" s="53"/>
+      <c r="R115" s="53"/>
+      <c r="S115" s="53"/>
+      <c r="T115" s="53"/>
+      <c r="U115" s="53"/>
+      <c r="V115" s="53"/>
+      <c r="W115" s="53"/>
+      <c r="X115" s="53"/>
+      <c r="Y115" s="53"/>
+      <c r="Z115" s="53"/>
+      <c r="AA115" s="53"/>
+      <c r="AB115" s="53"/>
+      <c r="AC115" s="53"/>
+      <c r="AD115" s="53"/>
+      <c r="AE115" s="53"/>
+      <c r="AF115" s="53"/>
+      <c r="AG115" s="54"/>
+      <c r="AH115" s="70"/>
+    </row>
+    <row r="116" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="G115" s="99"/>
-      <c r="H115" s="99"/>
-      <c r="I115" s="101"/>
-      <c r="J115" s="99" t="s">
+      <c r="G116" s="99"/>
+      <c r="H116" s="99"/>
+      <c r="I116" s="101"/>
+      <c r="J116" s="99" t="s">
+        <v>294</v>
+      </c>
+      <c r="K116" s="99"/>
+      <c r="L116" s="99"/>
+      <c r="M116" s="99"/>
+      <c r="N116" s="99"/>
+      <c r="O116" s="99"/>
+      <c r="P116" s="99"/>
+      <c r="Q116" s="99"/>
+      <c r="R116" s="99"/>
+      <c r="S116" s="99"/>
+      <c r="T116" s="99"/>
+      <c r="U116" s="99"/>
+      <c r="V116" s="99"/>
+      <c r="W116" s="99"/>
+      <c r="X116" s="99"/>
+      <c r="Y116" s="99"/>
+      <c r="Z116" s="99"/>
+      <c r="AA116" s="99"/>
+      <c r="AB116" s="99"/>
+      <c r="AC116" s="99"/>
+      <c r="AD116" s="99"/>
+      <c r="AE116" s="99"/>
+      <c r="AF116" s="99"/>
+      <c r="AG116" s="101"/>
+      <c r="AH116" s="70"/>
+    </row>
+    <row r="117" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F117" s="109"/>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="94"/>
+      <c r="J117" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="K115" s="99"/>
-      <c r="L115" s="99"/>
-      <c r="M115" s="99"/>
-      <c r="N115" s="99"/>
-      <c r="O115" s="99"/>
-      <c r="P115" s="99"/>
-      <c r="Q115" s="99"/>
-      <c r="R115" s="99"/>
-      <c r="S115" s="99"/>
-      <c r="T115" s="99"/>
-      <c r="U115" s="99"/>
-      <c r="V115" s="99"/>
-      <c r="W115" s="99"/>
-      <c r="X115" s="99"/>
-      <c r="Y115" s="99"/>
-      <c r="Z115" s="99"/>
-      <c r="AA115" s="99"/>
-      <c r="AB115" s="99"/>
-      <c r="AC115" s="99"/>
-      <c r="AD115" s="99"/>
-      <c r="AE115" s="99"/>
-      <c r="AF115" s="99"/>
-      <c r="AG115" s="101"/>
-      <c r="AH115" s="70"/>
-    </row>
-    <row r="116" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F116" s="109"/>
-      <c r="G116" s="70"/>
-      <c r="H116" s="70"/>
-      <c r="I116" s="94"/>
-      <c r="J116" s="70" t="s">
+      <c r="K117" s="70"/>
+      <c r="L117" s="70"/>
+      <c r="M117" s="70"/>
+      <c r="N117" s="70"/>
+      <c r="O117" s="26"/>
+      <c r="P117" s="70"/>
+      <c r="Q117" s="70"/>
+      <c r="R117" s="70"/>
+      <c r="S117" s="70"/>
+      <c r="T117" s="70"/>
+      <c r="U117" s="70"/>
+      <c r="V117" s="70"/>
+      <c r="W117" s="70"/>
+      <c r="X117" s="70"/>
+      <c r="Y117" s="70"/>
+      <c r="Z117" s="70"/>
+      <c r="AA117" s="70"/>
+      <c r="AB117" s="70"/>
+      <c r="AC117" s="70"/>
+      <c r="AD117" s="70"/>
+      <c r="AE117" s="70"/>
+      <c r="AF117" s="70"/>
+      <c r="AG117" s="94"/>
+      <c r="AH117" s="70"/>
+    </row>
+    <row r="118" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F118" s="81"/>
+      <c r="G118" s="102"/>
+      <c r="H118" s="102"/>
+      <c r="I118" s="103"/>
+      <c r="J118" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="K116" s="70"/>
-      <c r="L116" s="70"/>
-      <c r="M116" s="70"/>
-      <c r="N116" s="70"/>
-      <c r="O116" s="26"/>
-      <c r="P116" s="70"/>
-      <c r="Q116" s="70"/>
-      <c r="R116" s="70"/>
-      <c r="S116" s="70"/>
-      <c r="T116" s="70"/>
-      <c r="U116" s="70"/>
-      <c r="V116" s="70"/>
-      <c r="W116" s="70"/>
-      <c r="X116" s="70"/>
-      <c r="Y116" s="70"/>
-      <c r="Z116" s="70"/>
-      <c r="AA116" s="70"/>
-      <c r="AB116" s="70"/>
-      <c r="AC116" s="70"/>
-      <c r="AD116" s="70"/>
-      <c r="AE116" s="70"/>
-      <c r="AF116" s="70"/>
-      <c r="AG116" s="94"/>
-      <c r="AH116" s="70"/>
-    </row>
-    <row r="117" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F117" s="81"/>
-      <c r="G117" s="102"/>
-      <c r="H117" s="102"/>
-      <c r="I117" s="103"/>
-      <c r="J117" s="102" t="s">
-        <v>297</v>
-      </c>
-      <c r="K117" s="102"/>
-      <c r="L117" s="102"/>
-      <c r="M117" s="102"/>
-      <c r="N117" s="102"/>
-      <c r="O117" s="102"/>
-      <c r="P117" s="102"/>
-      <c r="Q117" s="102"/>
-      <c r="R117" s="102"/>
-      <c r="S117" s="102"/>
-      <c r="T117" s="102"/>
-      <c r="U117" s="102"/>
-      <c r="V117" s="102"/>
-      <c r="W117" s="102"/>
-      <c r="X117" s="102"/>
-      <c r="Y117" s="102"/>
-      <c r="Z117" s="102"/>
-      <c r="AA117" s="102"/>
-      <c r="AB117" s="102"/>
-      <c r="AC117" s="102"/>
-      <c r="AD117" s="102"/>
-      <c r="AE117" s="102"/>
-      <c r="AF117" s="102"/>
-      <c r="AG117" s="103"/>
-      <c r="AH117" s="70"/>
-    </row>
-    <row r="118" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F118" s="109" t="s">
+      <c r="K118" s="102"/>
+      <c r="L118" s="102"/>
+      <c r="M118" s="102"/>
+      <c r="N118" s="102"/>
+      <c r="O118" s="102"/>
+      <c r="P118" s="102"/>
+      <c r="Q118" s="102"/>
+      <c r="R118" s="102"/>
+      <c r="S118" s="102"/>
+      <c r="T118" s="102"/>
+      <c r="U118" s="102"/>
+      <c r="V118" s="102"/>
+      <c r="W118" s="102"/>
+      <c r="X118" s="102"/>
+      <c r="Y118" s="102"/>
+      <c r="Z118" s="102"/>
+      <c r="AA118" s="102"/>
+      <c r="AB118" s="102"/>
+      <c r="AC118" s="102"/>
+      <c r="AD118" s="102"/>
+      <c r="AE118" s="102"/>
+      <c r="AF118" s="102"/>
+      <c r="AG118" s="103"/>
+      <c r="AH118" s="70"/>
+    </row>
+    <row r="119" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="G118" s="70"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="94"/>
-      <c r="J118" s="70" t="s">
-        <v>298</v>
-      </c>
-      <c r="K118" s="70"/>
-      <c r="L118" s="70"/>
-      <c r="M118" s="70"/>
-      <c r="N118" s="70"/>
-      <c r="O118" s="70"/>
-      <c r="P118" s="70"/>
-      <c r="Q118" s="70"/>
-      <c r="R118" s="70"/>
-      <c r="S118" s="70"/>
-      <c r="T118" s="70"/>
-      <c r="U118" s="70"/>
-      <c r="V118" s="70"/>
-      <c r="W118" s="70"/>
-      <c r="X118" s="70"/>
-      <c r="Y118" s="70"/>
-      <c r="Z118" s="70"/>
-      <c r="AA118" s="70"/>
-      <c r="AB118" s="70"/>
-      <c r="AC118" s="70"/>
-      <c r="AD118" s="70"/>
-      <c r="AE118" s="70"/>
-      <c r="AF118" s="70"/>
-      <c r="AG118" s="94"/>
-      <c r="AH118" s="70"/>
-    </row>
-    <row r="119" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F119" s="109"/>
       <c r="G119" s="70"/>
       <c r="H119" s="70"/>
       <c r="I119" s="94"/>
       <c r="J119" s="70" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="K119" s="70"/>
       <c r="L119" s="70"/>
@@ -7561,493 +7559,517 @@
       <c r="AH119" s="70"/>
     </row>
     <row r="120" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F120" s="69" t="s">
+      <c r="F120" s="109"/>
+      <c r="G120" s="70"/>
+      <c r="H120" s="70"/>
+      <c r="I120" s="94"/>
+      <c r="J120" s="70" t="s">
+        <v>308</v>
+      </c>
+      <c r="K120" s="70"/>
+      <c r="L120" s="70"/>
+      <c r="M120" s="70"/>
+      <c r="N120" s="70"/>
+      <c r="O120" s="70"/>
+      <c r="P120" s="70"/>
+      <c r="Q120" s="70"/>
+      <c r="R120" s="70"/>
+      <c r="S120" s="70"/>
+      <c r="T120" s="70"/>
+      <c r="U120" s="70"/>
+      <c r="V120" s="70"/>
+      <c r="W120" s="70"/>
+      <c r="X120" s="70"/>
+      <c r="Y120" s="70"/>
+      <c r="Z120" s="70"/>
+      <c r="AA120" s="70"/>
+      <c r="AB120" s="70"/>
+      <c r="AC120" s="70"/>
+      <c r="AD120" s="70"/>
+      <c r="AE120" s="70"/>
+      <c r="AF120" s="70"/>
+      <c r="AG120" s="94"/>
+      <c r="AH120" s="70"/>
+    </row>
+    <row r="121" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G120" s="99"/>
-      <c r="H120" s="99"/>
-      <c r="I120" s="101"/>
-      <c r="J120" s="99" t="s">
+      <c r="G121" s="99"/>
+      <c r="H121" s="99"/>
+      <c r="I121" s="101"/>
+      <c r="J121" s="99" t="s">
+        <v>298</v>
+      </c>
+      <c r="K121" s="99"/>
+      <c r="L121" s="99"/>
+      <c r="M121" s="99"/>
+      <c r="N121" s="99"/>
+      <c r="O121" s="98"/>
+      <c r="P121" s="99"/>
+      <c r="Q121" s="99"/>
+      <c r="R121" s="99"/>
+      <c r="S121" s="99"/>
+      <c r="T121" s="99"/>
+      <c r="U121" s="99"/>
+      <c r="V121" s="99"/>
+      <c r="W121" s="99"/>
+      <c r="X121" s="99"/>
+      <c r="Y121" s="99"/>
+      <c r="Z121" s="99"/>
+      <c r="AA121" s="99"/>
+      <c r="AB121" s="99"/>
+      <c r="AC121" s="99"/>
+      <c r="AD121" s="99"/>
+      <c r="AE121" s="99"/>
+      <c r="AF121" s="99"/>
+      <c r="AG121" s="101"/>
+      <c r="AH121" s="70"/>
+    </row>
+    <row r="122" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F122" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="70"/>
+      <c r="H122" s="70"/>
+      <c r="I122" s="70"/>
+      <c r="J122" s="109" t="s">
         <v>299</v>
       </c>
-      <c r="K120" s="99"/>
-      <c r="L120" s="99"/>
-      <c r="M120" s="99"/>
-      <c r="N120" s="99"/>
-      <c r="O120" s="98"/>
-      <c r="P120" s="99"/>
-      <c r="Q120" s="99"/>
-      <c r="R120" s="99"/>
-      <c r="S120" s="99"/>
-      <c r="T120" s="99"/>
-      <c r="U120" s="99"/>
-      <c r="V120" s="99"/>
-      <c r="W120" s="99"/>
-      <c r="X120" s="99"/>
-      <c r="Y120" s="99"/>
-      <c r="Z120" s="99"/>
-      <c r="AA120" s="99"/>
-      <c r="AB120" s="99"/>
-      <c r="AC120" s="99"/>
-      <c r="AD120" s="99"/>
-      <c r="AE120" s="99"/>
-      <c r="AF120" s="99"/>
-      <c r="AG120" s="101"/>
-      <c r="AH120" s="70"/>
-    </row>
-    <row r="121" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F121" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" s="70"/>
-      <c r="H121" s="70"/>
-      <c r="I121" s="70"/>
-      <c r="J121" s="109" t="s">
+      <c r="K122" s="70"/>
+      <c r="L122" s="70"/>
+      <c r="M122" s="70"/>
+      <c r="N122" s="70"/>
+      <c r="O122" s="70"/>
+      <c r="P122" s="70"/>
+      <c r="Q122" s="70"/>
+      <c r="R122" s="70"/>
+      <c r="S122" s="70"/>
+      <c r="T122" s="70"/>
+      <c r="U122" s="70"/>
+      <c r="V122" s="70"/>
+      <c r="W122" s="70"/>
+      <c r="X122" s="70"/>
+      <c r="Y122" s="70"/>
+      <c r="Z122" s="70"/>
+      <c r="AA122" s="70"/>
+      <c r="AB122" s="70"/>
+      <c r="AC122" s="70"/>
+      <c r="AD122" s="70"/>
+      <c r="AE122" s="70"/>
+      <c r="AF122" s="70"/>
+      <c r="AG122" s="94"/>
+      <c r="AH122" s="70"/>
+    </row>
+    <row r="123" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F123" s="81"/>
+      <c r="G123" s="102"/>
+      <c r="H123" s="102"/>
+      <c r="I123" s="102"/>
+      <c r="J123" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="K121" s="70"/>
-      <c r="L121" s="70"/>
-      <c r="M121" s="70"/>
-      <c r="N121" s="70"/>
-      <c r="O121" s="70"/>
-      <c r="P121" s="70"/>
-      <c r="Q121" s="70"/>
-      <c r="R121" s="70"/>
-      <c r="S121" s="70"/>
-      <c r="T121" s="70"/>
-      <c r="U121" s="70"/>
-      <c r="V121" s="70"/>
-      <c r="W121" s="70"/>
-      <c r="X121" s="70"/>
-      <c r="Y121" s="70"/>
-      <c r="Z121" s="70"/>
-      <c r="AA121" s="70"/>
-      <c r="AB121" s="70"/>
-      <c r="AC121" s="70"/>
-      <c r="AD121" s="70"/>
-      <c r="AE121" s="70"/>
-      <c r="AF121" s="70"/>
-      <c r="AG121" s="94"/>
-      <c r="AH121" s="70"/>
-    </row>
-    <row r="122" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F122" s="81"/>
-      <c r="G122" s="102"/>
-      <c r="H122" s="102"/>
-      <c r="I122" s="102"/>
-      <c r="J122" s="75" t="s">
+      <c r="K123" s="76"/>
+      <c r="L123" s="76"/>
+      <c r="M123" s="76"/>
+      <c r="N123" s="76"/>
+      <c r="O123" s="76"/>
+      <c r="P123" s="76"/>
+      <c r="Q123" s="76"/>
+      <c r="R123" s="76"/>
+      <c r="S123" s="76"/>
+      <c r="T123" s="76"/>
+      <c r="U123" s="76"/>
+      <c r="V123" s="76"/>
+      <c r="W123" s="76"/>
+      <c r="X123" s="76"/>
+      <c r="Y123" s="76"/>
+      <c r="Z123" s="76"/>
+      <c r="AA123" s="102"/>
+      <c r="AB123" s="102"/>
+      <c r="AC123" s="102"/>
+      <c r="AD123" s="102"/>
+      <c r="AE123" s="102"/>
+      <c r="AF123" s="102"/>
+      <c r="AG123" s="103"/>
+      <c r="AH123" s="70"/>
+    </row>
+    <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="25"/>
+      <c r="L124" s="25"/>
+      <c r="M124" s="25"/>
+      <c r="N124" s="25"/>
+      <c r="O124" s="25"/>
+      <c r="P124" s="25"/>
+      <c r="Q124" s="25"/>
+      <c r="R124" s="25"/>
+      <c r="S124" s="25"/>
+      <c r="T124" s="25"/>
+      <c r="U124" s="25"/>
+      <c r="V124" s="25"/>
+      <c r="W124" s="25"/>
+      <c r="X124" s="25"/>
+      <c r="Y124" s="25"/>
+      <c r="Z124" s="25"/>
+      <c r="AA124" s="19"/>
+      <c r="AB124" s="19"/>
+      <c r="AC124" s="19"/>
+      <c r="AD124" s="19"/>
+      <c r="AE124" s="19"/>
+      <c r="AF124" s="19"/>
+      <c r="AG124" s="19"/>
+      <c r="AH124" s="19"/>
+    </row>
+    <row r="125" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E125" s="28" t="str">
+        <f>D101&amp;"3."</f>
+        <v>3.1.7.3.</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F126" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G126" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="K122" s="76"/>
-      <c r="L122" s="76"/>
-      <c r="M122" s="76"/>
-      <c r="N122" s="76"/>
-      <c r="O122" s="76"/>
-      <c r="P122" s="76"/>
-      <c r="Q122" s="76"/>
-      <c r="R122" s="76"/>
-      <c r="S122" s="76"/>
-      <c r="T122" s="76"/>
-      <c r="U122" s="76"/>
-      <c r="V122" s="76"/>
-      <c r="W122" s="76"/>
-      <c r="X122" s="76"/>
-      <c r="Y122" s="76"/>
-      <c r="Z122" s="76"/>
-      <c r="AA122" s="102"/>
-      <c r="AB122" s="102"/>
-      <c r="AC122" s="102"/>
-      <c r="AD122" s="102"/>
-      <c r="AE122" s="102"/>
-      <c r="AF122" s="102"/>
-      <c r="AG122" s="103"/>
-      <c r="AH122" s="70"/>
-    </row>
-    <row r="123" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="25"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="25"/>
-      <c r="N123" s="25"/>
-      <c r="O123" s="25"/>
-      <c r="P123" s="25"/>
-      <c r="Q123" s="25"/>
-      <c r="R123" s="25"/>
-      <c r="S123" s="25"/>
-      <c r="T123" s="25"/>
-      <c r="U123" s="25"/>
-      <c r="V123" s="25"/>
-      <c r="W123" s="25"/>
-      <c r="X123" s="25"/>
-      <c r="Y123" s="25"/>
-      <c r="Z123" s="25"/>
-      <c r="AA123" s="19"/>
-      <c r="AB123" s="19"/>
-      <c r="AC123" s="19"/>
-      <c r="AD123" s="19"/>
-      <c r="AE123" s="19"/>
-      <c r="AF123" s="19"/>
-      <c r="AG123" s="19"/>
-      <c r="AH123" s="19"/>
-    </row>
-    <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E124" s="28" t="str">
-        <f>D100&amp;"3."</f>
-        <v>3.1.7.3.</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="125" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F125" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="126" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F126" s="24"/>
-      <c r="G126" s="41" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="127" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F127" s="24"/>
       <c r="G127" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F128" s="24"/>
+      <c r="G128" s="41" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="129" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F129" s="24"/>
-      <c r="G129" s="41" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="130" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F130" s="24"/>
       <c r="G130" s="41" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="131" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="36"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="36"/>
-      <c r="E131" s="36"/>
-      <c r="AA131" s="41"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="131" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F131" s="24"/>
+      <c r="G131" s="41" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="132" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
       <c r="D132" s="36"/>
       <c r="E132" s="36"/>
-      <c r="G132" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H132" s="17"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="18"/>
-      <c r="P132" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q132" s="17"/>
-      <c r="R132" s="17"/>
-      <c r="S132" s="17"/>
-      <c r="T132" s="17"/>
-      <c r="U132" s="17"/>
-      <c r="V132" s="17"/>
-      <c r="W132" s="17"/>
-      <c r="X132" s="17"/>
-      <c r="Y132" s="17"/>
-      <c r="Z132" s="17"/>
-      <c r="AA132" s="53"/>
-      <c r="AB132" s="17"/>
-      <c r="AC132" s="17"/>
-      <c r="AD132" s="17"/>
-      <c r="AE132" s="17"/>
-      <c r="AF132" s="17"/>
-      <c r="AG132" s="17"/>
-      <c r="AH132" s="18"/>
-    </row>
-    <row r="133" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA132" s="41"/>
+    </row>
+    <row r="133" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
       <c r="D133" s="36"/>
       <c r="E133" s="36"/>
-      <c r="G133" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="H133" s="99"/>
-      <c r="I133" s="99"/>
-      <c r="J133" s="101"/>
-      <c r="K133" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="L133" s="99"/>
-      <c r="M133" s="99"/>
-      <c r="N133" s="99"/>
-      <c r="O133" s="101"/>
-      <c r="P133" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q133" s="99"/>
-      <c r="R133" s="99"/>
-      <c r="S133" s="99"/>
-      <c r="T133" s="99"/>
-      <c r="U133" s="99"/>
-      <c r="V133" s="99"/>
-      <c r="W133" s="99"/>
-      <c r="X133" s="99"/>
-      <c r="Y133" s="99"/>
-      <c r="Z133" s="99"/>
-      <c r="AA133" s="99"/>
-      <c r="AB133" s="99"/>
-      <c r="AC133" s="99"/>
-      <c r="AD133" s="99"/>
-      <c r="AE133" s="99"/>
-      <c r="AF133" s="99"/>
-      <c r="AG133" s="99"/>
-      <c r="AH133" s="101"/>
-      <c r="AI133" s="44"/>
+      <c r="G133" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q133" s="17"/>
+      <c r="R133" s="17"/>
+      <c r="S133" s="17"/>
+      <c r="T133" s="17"/>
+      <c r="U133" s="17"/>
+      <c r="V133" s="17"/>
+      <c r="W133" s="17"/>
+      <c r="X133" s="17"/>
+      <c r="Y133" s="17"/>
+      <c r="Z133" s="17"/>
+      <c r="AA133" s="53"/>
+      <c r="AB133" s="17"/>
+      <c r="AC133" s="17"/>
+      <c r="AD133" s="17"/>
+      <c r="AE133" s="17"/>
+      <c r="AF133" s="17"/>
+      <c r="AG133" s="17"/>
+      <c r="AH133" s="18"/>
     </row>
     <row r="134" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
       <c r="D134" s="36"/>
       <c r="E134" s="36"/>
-      <c r="G134" s="109"/>
-      <c r="H134" s="70"/>
-      <c r="I134" s="70"/>
-      <c r="J134" s="94"/>
-      <c r="K134" s="70"/>
-      <c r="L134" s="70"/>
-      <c r="M134" s="70"/>
-      <c r="N134" s="70"/>
-      <c r="O134" s="94"/>
-      <c r="P134" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q134" s="70"/>
-      <c r="R134" s="70"/>
-      <c r="S134" s="70"/>
-      <c r="T134" s="70"/>
-      <c r="U134" s="70"/>
-      <c r="V134" s="70"/>
-      <c r="W134" s="70"/>
-      <c r="X134" s="70"/>
-      <c r="Y134" s="70"/>
-      <c r="Z134" s="70"/>
-      <c r="AA134" s="70"/>
-      <c r="AB134" s="70"/>
-      <c r="AC134" s="70"/>
-      <c r="AD134" s="70"/>
-      <c r="AE134" s="70"/>
-      <c r="AF134" s="70"/>
-      <c r="AG134" s="70"/>
-      <c r="AH134" s="94"/>
+      <c r="G134" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" s="99"/>
+      <c r="I134" s="99"/>
+      <c r="J134" s="101"/>
+      <c r="K134" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="L134" s="99"/>
+      <c r="M134" s="99"/>
+      <c r="N134" s="99"/>
+      <c r="O134" s="101"/>
+      <c r="P134" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q134" s="99"/>
+      <c r="R134" s="99"/>
+      <c r="S134" s="99"/>
+      <c r="T134" s="99"/>
+      <c r="U134" s="99"/>
+      <c r="V134" s="99"/>
+      <c r="W134" s="99"/>
+      <c r="X134" s="99"/>
+      <c r="Y134" s="99"/>
+      <c r="Z134" s="99"/>
+      <c r="AA134" s="99"/>
+      <c r="AB134" s="99"/>
+      <c r="AC134" s="99"/>
+      <c r="AD134" s="99"/>
+      <c r="AE134" s="99"/>
+      <c r="AF134" s="99"/>
+      <c r="AG134" s="99"/>
+      <c r="AH134" s="101"/>
+      <c r="AI134" s="44"/>
     </row>
     <row r="135" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
       <c r="D135" s="36"/>
       <c r="E135" s="36"/>
-      <c r="G135" s="81"/>
-      <c r="H135" s="102"/>
-      <c r="I135" s="102"/>
-      <c r="J135" s="103"/>
-      <c r="K135" s="102"/>
-      <c r="L135" s="102"/>
-      <c r="M135" s="102"/>
-      <c r="N135" s="102"/>
-      <c r="O135" s="103"/>
-      <c r="P135" s="102" t="s">
+      <c r="G135" s="109"/>
+      <c r="H135" s="70"/>
+      <c r="I135" s="70"/>
+      <c r="J135" s="94"/>
+      <c r="K135" s="70"/>
+      <c r="L135" s="70"/>
+      <c r="M135" s="70"/>
+      <c r="N135" s="70"/>
+      <c r="O135" s="94"/>
+      <c r="P135" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q135" s="70"/>
+      <c r="R135" s="70"/>
+      <c r="S135" s="70"/>
+      <c r="T135" s="70"/>
+      <c r="U135" s="70"/>
+      <c r="V135" s="70"/>
+      <c r="W135" s="70"/>
+      <c r="X135" s="70"/>
+      <c r="Y135" s="70"/>
+      <c r="Z135" s="70"/>
+      <c r="AA135" s="70"/>
+      <c r="AB135" s="70"/>
+      <c r="AC135" s="70"/>
+      <c r="AD135" s="70"/>
+      <c r="AE135" s="70"/>
+      <c r="AF135" s="70"/>
+      <c r="AG135" s="70"/>
+      <c r="AH135" s="94"/>
+    </row>
+    <row r="136" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
+      <c r="G136" s="81"/>
+      <c r="H136" s="102"/>
+      <c r="I136" s="102"/>
+      <c r="J136" s="103"/>
+      <c r="K136" s="102"/>
+      <c r="L136" s="102"/>
+      <c r="M136" s="102"/>
+      <c r="N136" s="102"/>
+      <c r="O136" s="103"/>
+      <c r="P136" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="Q135" s="102"/>
-      <c r="R135" s="102"/>
-      <c r="S135" s="102"/>
-      <c r="T135" s="102"/>
-      <c r="U135" s="102"/>
-      <c r="V135" s="102"/>
-      <c r="W135" s="102"/>
-      <c r="X135" s="102"/>
-      <c r="Y135" s="102"/>
-      <c r="Z135" s="102"/>
-      <c r="AA135" s="102"/>
-      <c r="AB135" s="102"/>
-      <c r="AC135" s="102"/>
-      <c r="AD135" s="102"/>
-      <c r="AE135" s="102"/>
-      <c r="AF135" s="102"/>
-      <c r="AG135" s="102"/>
-      <c r="AH135" s="103"/>
-    </row>
-    <row r="136" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G136" s="109" t="s">
+      <c r="Q136" s="102"/>
+      <c r="R136" s="102"/>
+      <c r="S136" s="102"/>
+      <c r="T136" s="102"/>
+      <c r="U136" s="102"/>
+      <c r="V136" s="102"/>
+      <c r="W136" s="102"/>
+      <c r="X136" s="102"/>
+      <c r="Y136" s="102"/>
+      <c r="Z136" s="102"/>
+      <c r="AA136" s="102"/>
+      <c r="AB136" s="102"/>
+      <c r="AC136" s="102"/>
+      <c r="AD136" s="102"/>
+      <c r="AE136" s="102"/>
+      <c r="AF136" s="102"/>
+      <c r="AG136" s="102"/>
+      <c r="AH136" s="103"/>
+    </row>
+    <row r="137" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G137" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="H136" s="70"/>
-      <c r="I136" s="70"/>
-      <c r="J136" s="94"/>
-      <c r="K136" s="70" t="s">
+      <c r="H137" s="70"/>
+      <c r="I137" s="70"/>
+      <c r="J137" s="94"/>
+      <c r="K137" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="L136" s="70"/>
-      <c r="M136" s="70"/>
-      <c r="N136" s="70"/>
-      <c r="O136" s="94"/>
-      <c r="P136" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q136" s="70"/>
-      <c r="R136" s="70"/>
-      <c r="S136" s="70"/>
-      <c r="T136" s="70"/>
-      <c r="U136" s="70"/>
-      <c r="V136" s="70"/>
-      <c r="W136" s="70"/>
-      <c r="X136" s="70"/>
-      <c r="Y136" s="70"/>
-      <c r="Z136" s="70"/>
-      <c r="AA136" s="70"/>
-      <c r="AB136" s="70"/>
-      <c r="AC136" s="70"/>
-      <c r="AD136" s="70"/>
-      <c r="AE136" s="70"/>
-      <c r="AF136" s="70"/>
-      <c r="AG136" s="70"/>
-      <c r="AH136" s="94"/>
-    </row>
-    <row r="137" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G137" s="81"/>
-      <c r="H137" s="102"/>
-      <c r="I137" s="102"/>
-      <c r="J137" s="103"/>
-      <c r="K137" s="102"/>
-      <c r="L137" s="102"/>
-      <c r="M137" s="102"/>
-      <c r="N137" s="102"/>
-      <c r="O137" s="103"/>
-      <c r="P137" s="102"/>
-      <c r="Q137" s="102"/>
-      <c r="R137" s="102"/>
-      <c r="S137" s="102"/>
-      <c r="T137" s="102"/>
-      <c r="U137" s="102"/>
-      <c r="V137" s="102"/>
-      <c r="W137" s="102"/>
-      <c r="X137" s="102"/>
-      <c r="Y137" s="102"/>
-      <c r="Z137" s="102"/>
-      <c r="AA137" s="102"/>
-      <c r="AB137" s="102"/>
-      <c r="AC137" s="102"/>
-      <c r="AD137" s="102"/>
-      <c r="AE137" s="102"/>
-      <c r="AF137" s="102"/>
-      <c r="AG137" s="102"/>
-      <c r="AH137" s="103"/>
+      <c r="L137" s="70"/>
+      <c r="M137" s="70"/>
+      <c r="N137" s="70"/>
+      <c r="O137" s="94"/>
+      <c r="P137" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q137" s="70"/>
+      <c r="R137" s="70"/>
+      <c r="S137" s="70"/>
+      <c r="T137" s="70"/>
+      <c r="U137" s="70"/>
+      <c r="V137" s="70"/>
+      <c r="W137" s="70"/>
+      <c r="X137" s="70"/>
+      <c r="Y137" s="70"/>
+      <c r="Z137" s="70"/>
+      <c r="AA137" s="70"/>
+      <c r="AB137" s="70"/>
+      <c r="AC137" s="70"/>
+      <c r="AD137" s="70"/>
+      <c r="AE137" s="70"/>
+      <c r="AF137" s="70"/>
+      <c r="AG137" s="70"/>
+      <c r="AH137" s="94"/>
     </row>
     <row r="138" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G138" s="109" t="s">
+      <c r="G138" s="81"/>
+      <c r="H138" s="102"/>
+      <c r="I138" s="102"/>
+      <c r="J138" s="103"/>
+      <c r="K138" s="102"/>
+      <c r="L138" s="102"/>
+      <c r="M138" s="102"/>
+      <c r="N138" s="102"/>
+      <c r="O138" s="103"/>
+      <c r="P138" s="102"/>
+      <c r="Q138" s="102"/>
+      <c r="R138" s="102"/>
+      <c r="S138" s="102"/>
+      <c r="T138" s="102"/>
+      <c r="U138" s="102"/>
+      <c r="V138" s="102"/>
+      <c r="W138" s="102"/>
+      <c r="X138" s="102"/>
+      <c r="Y138" s="102"/>
+      <c r="Z138" s="102"/>
+      <c r="AA138" s="102"/>
+      <c r="AB138" s="102"/>
+      <c r="AC138" s="102"/>
+      <c r="AD138" s="102"/>
+      <c r="AE138" s="102"/>
+      <c r="AF138" s="102"/>
+      <c r="AG138" s="102"/>
+      <c r="AH138" s="103"/>
+    </row>
+    <row r="139" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G139" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H138" s="70"/>
-      <c r="I138" s="70"/>
-      <c r="J138" s="94"/>
-      <c r="K138" s="70" t="s">
+      <c r="H139" s="70"/>
+      <c r="I139" s="70"/>
+      <c r="J139" s="94"/>
+      <c r="K139" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="L138" s="70"/>
-      <c r="M138" s="70"/>
-      <c r="N138" s="70"/>
-      <c r="O138" s="94"/>
-      <c r="P138" s="26" t="s">
+      <c r="L139" s="70"/>
+      <c r="M139" s="70"/>
+      <c r="N139" s="70"/>
+      <c r="O139" s="94"/>
+      <c r="P139" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="Q138" s="70"/>
-      <c r="R138" s="70"/>
-      <c r="S138" s="70"/>
-      <c r="T138" s="70"/>
-      <c r="U138" s="70"/>
-      <c r="V138" s="70"/>
-      <c r="W138" s="70"/>
-      <c r="X138" s="70"/>
-      <c r="Y138" s="70"/>
-      <c r="Z138" s="70"/>
-      <c r="AA138" s="70"/>
-      <c r="AB138" s="70"/>
-      <c r="AC138" s="70"/>
-      <c r="AD138" s="70"/>
-      <c r="AE138" s="70"/>
-      <c r="AF138" s="70"/>
-      <c r="AG138" s="70"/>
-      <c r="AH138" s="94"/>
-    </row>
-    <row r="139" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G139" s="81" t="s">
+      <c r="Q139" s="70"/>
+      <c r="R139" s="70"/>
+      <c r="S139" s="70"/>
+      <c r="T139" s="70"/>
+      <c r="U139" s="70"/>
+      <c r="V139" s="70"/>
+      <c r="W139" s="70"/>
+      <c r="X139" s="70"/>
+      <c r="Y139" s="70"/>
+      <c r="Z139" s="70"/>
+      <c r="AA139" s="70"/>
+      <c r="AB139" s="70"/>
+      <c r="AC139" s="70"/>
+      <c r="AD139" s="70"/>
+      <c r="AE139" s="70"/>
+      <c r="AF139" s="70"/>
+      <c r="AG139" s="70"/>
+      <c r="AH139" s="94"/>
+    </row>
+    <row r="140" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G140" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="H139" s="102"/>
-      <c r="I139" s="102"/>
-      <c r="J139" s="103"/>
-      <c r="K139" s="102"/>
-      <c r="L139" s="102"/>
-      <c r="M139" s="102"/>
-      <c r="N139" s="102"/>
-      <c r="O139" s="103"/>
-      <c r="P139" s="102"/>
-      <c r="Q139" s="102"/>
-      <c r="R139" s="102"/>
-      <c r="S139" s="102"/>
-      <c r="T139" s="102"/>
-      <c r="U139" s="102"/>
-      <c r="V139" s="102"/>
-      <c r="W139" s="102"/>
-      <c r="X139" s="102"/>
-      <c r="Y139" s="102"/>
-      <c r="Z139" s="102"/>
-      <c r="AA139" s="102"/>
-      <c r="AB139" s="102"/>
-      <c r="AC139" s="102"/>
-      <c r="AD139" s="102"/>
-      <c r="AE139" s="102"/>
-      <c r="AF139" s="102"/>
-      <c r="AG139" s="102"/>
-      <c r="AH139" s="103"/>
-    </row>
-    <row r="140" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F141" s="24" t="s">
+      <c r="H140" s="102"/>
+      <c r="I140" s="102"/>
+      <c r="J140" s="103"/>
+      <c r="K140" s="102"/>
+      <c r="L140" s="102"/>
+      <c r="M140" s="102"/>
+      <c r="N140" s="102"/>
+      <c r="O140" s="103"/>
+      <c r="P140" s="102"/>
+      <c r="Q140" s="102"/>
+      <c r="R140" s="102"/>
+      <c r="S140" s="102"/>
+      <c r="T140" s="102"/>
+      <c r="U140" s="102"/>
+      <c r="V140" s="102"/>
+      <c r="W140" s="102"/>
+      <c r="X140" s="102"/>
+      <c r="Y140" s="102"/>
+      <c r="Z140" s="102"/>
+      <c r="AA140" s="102"/>
+      <c r="AB140" s="102"/>
+      <c r="AC140" s="102"/>
+      <c r="AD140" s="102"/>
+      <c r="AE140" s="102"/>
+      <c r="AF140" s="102"/>
+      <c r="AG140" s="102"/>
+      <c r="AH140" s="103"/>
+    </row>
+    <row r="141" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F142" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G141" s="41" t="s">
+      <c r="G142" s="41" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="142" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="36"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="36"/>
-      <c r="G142" s="41" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="143" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8055,167 +8077,142 @@
       <c r="C143" s="36"/>
       <c r="D143" s="36"/>
       <c r="E143" s="36"/>
+      <c r="G143" s="41" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="144" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
       <c r="D144" s="36"/>
       <c r="E144" s="36"/>
-      <c r="G144" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H144" s="53"/>
-      <c r="I144" s="53"/>
-      <c r="J144" s="54"/>
-      <c r="K144" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="L144" s="53"/>
-      <c r="M144" s="53"/>
-      <c r="N144" s="53"/>
-      <c r="O144" s="54"/>
-      <c r="P144" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q144" s="53"/>
-      <c r="R144" s="53"/>
-      <c r="S144" s="53"/>
-      <c r="T144" s="53"/>
-      <c r="U144" s="53"/>
-      <c r="V144" s="53"/>
-      <c r="W144" s="53"/>
-      <c r="X144" s="53"/>
-      <c r="Y144" s="53"/>
-      <c r="Z144" s="53"/>
-      <c r="AA144" s="53"/>
-      <c r="AB144" s="53"/>
-      <c r="AC144" s="53"/>
-      <c r="AD144" s="53"/>
-      <c r="AE144" s="53"/>
-      <c r="AF144" s="53"/>
-      <c r="AG144" s="53"/>
-      <c r="AH144" s="54"/>
     </row>
     <row r="145" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
       <c r="D145" s="36"/>
       <c r="E145" s="36"/>
-      <c r="G145" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="H145" s="99"/>
-      <c r="I145" s="99"/>
-      <c r="J145" s="101"/>
-      <c r="K145" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="L145" s="99"/>
-      <c r="M145" s="99"/>
-      <c r="N145" s="99"/>
-      <c r="O145" s="101"/>
-      <c r="P145" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q145" s="99"/>
-      <c r="R145" s="99"/>
-      <c r="S145" s="99"/>
-      <c r="T145" s="99"/>
-      <c r="U145" s="99"/>
-      <c r="V145" s="99"/>
-      <c r="W145" s="99"/>
-      <c r="X145" s="99"/>
-      <c r="Y145" s="99"/>
-      <c r="Z145" s="99"/>
-      <c r="AA145" s="99"/>
-      <c r="AB145" s="99"/>
-      <c r="AC145" s="99"/>
-      <c r="AD145" s="99"/>
-      <c r="AE145" s="99"/>
-      <c r="AF145" s="99"/>
-      <c r="AG145" s="99"/>
-      <c r="AH145" s="101"/>
-      <c r="AI145" s="44"/>
+      <c r="G145" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H145" s="53"/>
+      <c r="I145" s="53"/>
+      <c r="J145" s="54"/>
+      <c r="K145" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="L145" s="53"/>
+      <c r="M145" s="53"/>
+      <c r="N145" s="53"/>
+      <c r="O145" s="54"/>
+      <c r="P145" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q145" s="53"/>
+      <c r="R145" s="53"/>
+      <c r="S145" s="53"/>
+      <c r="T145" s="53"/>
+      <c r="U145" s="53"/>
+      <c r="V145" s="53"/>
+      <c r="W145" s="53"/>
+      <c r="X145" s="53"/>
+      <c r="Y145" s="53"/>
+      <c r="Z145" s="53"/>
+      <c r="AA145" s="53"/>
+      <c r="AB145" s="53"/>
+      <c r="AC145" s="53"/>
+      <c r="AD145" s="53"/>
+      <c r="AE145" s="53"/>
+      <c r="AF145" s="53"/>
+      <c r="AG145" s="53"/>
+      <c r="AH145" s="54"/>
     </row>
     <row r="146" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
       <c r="D146" s="36"/>
       <c r="E146" s="36"/>
-      <c r="G146" s="81"/>
-      <c r="H146" s="102"/>
-      <c r="I146" s="102"/>
-      <c r="J146" s="103"/>
-      <c r="K146" s="102"/>
-      <c r="L146" s="102"/>
-      <c r="M146" s="102"/>
-      <c r="N146" s="102"/>
-      <c r="O146" s="103"/>
-      <c r="P146" s="102"/>
-      <c r="Q146" s="102"/>
-      <c r="R146" s="102"/>
-      <c r="S146" s="102"/>
-      <c r="T146" s="102"/>
-      <c r="U146" s="102"/>
-      <c r="V146" s="102"/>
-      <c r="W146" s="102"/>
-      <c r="X146" s="102"/>
-      <c r="Y146" s="102"/>
-      <c r="Z146" s="102"/>
-      <c r="AA146" s="102"/>
-      <c r="AB146" s="102"/>
-      <c r="AC146" s="102"/>
-      <c r="AD146" s="102"/>
-      <c r="AE146" s="102"/>
-      <c r="AF146" s="102"/>
-      <c r="AG146" s="102"/>
-      <c r="AH146" s="103"/>
-    </row>
-    <row r="147" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="29"/>
-      <c r="D148" s="24" t="str">
+      <c r="G146" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H146" s="99"/>
+      <c r="I146" s="99"/>
+      <c r="J146" s="101"/>
+      <c r="K146" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="L146" s="99"/>
+      <c r="M146" s="99"/>
+      <c r="N146" s="99"/>
+      <c r="O146" s="101"/>
+      <c r="P146" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q146" s="99"/>
+      <c r="R146" s="99"/>
+      <c r="S146" s="99"/>
+      <c r="T146" s="99"/>
+      <c r="U146" s="99"/>
+      <c r="V146" s="99"/>
+      <c r="W146" s="99"/>
+      <c r="X146" s="99"/>
+      <c r="Y146" s="99"/>
+      <c r="Z146" s="99"/>
+      <c r="AA146" s="99"/>
+      <c r="AB146" s="99"/>
+      <c r="AC146" s="99"/>
+      <c r="AD146" s="99"/>
+      <c r="AE146" s="99"/>
+      <c r="AF146" s="99"/>
+      <c r="AG146" s="99"/>
+      <c r="AH146" s="101"/>
+      <c r="AI146" s="44"/>
+    </row>
+    <row r="147" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="36"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="36"/>
+      <c r="G147" s="81"/>
+      <c r="H147" s="102"/>
+      <c r="I147" s="102"/>
+      <c r="J147" s="103"/>
+      <c r="K147" s="102"/>
+      <c r="L147" s="102"/>
+      <c r="M147" s="102"/>
+      <c r="N147" s="102"/>
+      <c r="O147" s="103"/>
+      <c r="P147" s="102"/>
+      <c r="Q147" s="102"/>
+      <c r="R147" s="102"/>
+      <c r="S147" s="102"/>
+      <c r="T147" s="102"/>
+      <c r="U147" s="102"/>
+      <c r="V147" s="102"/>
+      <c r="W147" s="102"/>
+      <c r="X147" s="102"/>
+      <c r="Y147" s="102"/>
+      <c r="Z147" s="102"/>
+      <c r="AA147" s="102"/>
+      <c r="AB147" s="102"/>
+      <c r="AC147" s="102"/>
+      <c r="AD147" s="102"/>
+      <c r="AE147" s="102"/>
+      <c r="AF147" s="102"/>
+      <c r="AG147" s="102"/>
+      <c r="AH147" s="103"/>
+    </row>
+    <row r="148" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="29"/>
+      <c r="D149" s="24" t="str">
         <f>$C$7&amp;"8."</f>
         <v>3.1.8.</v>
       </c>
-      <c r="E148" s="29" t="s">
+      <c r="E149" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="29"/>
-      <c r="I148" s="29"/>
-      <c r="J148" s="29"/>
-      <c r="K148" s="29"/>
-      <c r="L148" s="29"/>
-      <c r="M148" s="29"/>
-      <c r="N148" s="29"/>
-      <c r="O148" s="29"/>
-      <c r="P148" s="29"/>
-      <c r="Q148" s="29"/>
-      <c r="R148" s="29"/>
-      <c r="S148" s="29"/>
-      <c r="T148" s="29"/>
-      <c r="U148" s="29"/>
-      <c r="V148" s="29"/>
-      <c r="W148" s="29"/>
-      <c r="X148" s="29"/>
-      <c r="Y148" s="29"/>
-      <c r="Z148" s="29"/>
-      <c r="AA148" s="29"/>
-      <c r="AB148" s="29"/>
-    </row>
-    <row r="149" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="29"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24" t="str">
-        <f>D148&amp;"1."</f>
-        <v>3.1.8.1.</v>
-      </c>
-      <c r="F149" s="29" t="str">
-        <f>E148&amp;"機能概要"</f>
-        <v>開閉局機能概要</v>
-      </c>
+      <c r="F149" s="29"/>
       <c r="G149" s="29"/>
       <c r="H149" s="29"/>
       <c r="I149" s="29"/>
@@ -8241,10 +8238,14 @@
     </row>
     <row r="150" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="29" t="s">
-        <v>44</v>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24" t="str">
+        <f>D149&amp;"1."</f>
+        <v>3.1.8.1.</v>
+      </c>
+      <c r="F150" s="29" t="str">
+        <f>E149&amp;"機能概要"</f>
+        <v>開閉局機能概要</v>
       </c>
       <c r="G150" s="29"/>
       <c r="H150" s="29"/>
@@ -8269,12 +8270,12 @@
       <c r="AA150" s="29"/>
       <c r="AB150" s="29"/>
     </row>
-    <row r="151" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C151" s="29"/>
       <c r="D151" s="29"/>
       <c r="E151" s="29"/>
       <c r="F151" s="29" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G151" s="29"/>
       <c r="H151" s="29"/>
@@ -8303,12 +8304,10 @@
       <c r="C152" s="29"/>
       <c r="D152" s="29"/>
       <c r="E152" s="29"/>
-      <c r="F152" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="G152" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="F152" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G152" s="29"/>
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
       <c r="J152" s="29"/>
@@ -8339,7 +8338,7 @@
         <v>55</v>
       </c>
       <c r="G153" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
@@ -8371,7 +8370,7 @@
         <v>55</v>
       </c>
       <c r="G154" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H154" s="29"/>
       <c r="I154" s="29"/>
@@ -8403,7 +8402,7 @@
         <v>55</v>
       </c>
       <c r="G155" s="29" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
@@ -8435,7 +8434,7 @@
         <v>55</v>
       </c>
       <c r="G156" s="29" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
@@ -8459,12 +8458,16 @@
       <c r="AA156" s="29"/>
       <c r="AB156" s="29"/>
     </row>
-    <row r="157" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C157" s="29"/>
       <c r="D157" s="29"/>
       <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
+      <c r="F157" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G157" s="29" t="s">
+        <v>209</v>
+      </c>
       <c r="H157" s="29"/>
       <c r="I157" s="29"/>
       <c r="J157" s="29"/>
@@ -8490,13 +8493,8 @@
     <row r="158" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
-      <c r="E158" s="24" t="str">
-        <f>D148&amp;"2."</f>
-        <v>3.1.8.2.</v>
-      </c>
-      <c r="F158" s="29" t="s">
-        <v>64</v>
-      </c>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
       <c r="G158" s="29"/>
       <c r="H158" s="29"/>
       <c r="I158" s="29"/>
@@ -8523,9 +8521,12 @@
     <row r="159" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
+      <c r="E159" s="24" t="str">
+        <f>D149&amp;"2."</f>
+        <v>3.1.8.2.</v>
+      </c>
       <c r="F159" s="29" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G159" s="29"/>
       <c r="H159" s="29"/>
@@ -8554,7 +8555,9 @@
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
+      <c r="F160" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="G160" s="29"/>
       <c r="H160" s="29"/>
       <c r="I160" s="29"/>
@@ -8582,97 +8585,87 @@
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
       <c r="E161" s="29"/>
-      <c r="F161" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="G161" s="38"/>
-      <c r="H161" s="38"/>
-      <c r="I161" s="38"/>
-      <c r="J161" s="38"/>
-      <c r="K161" s="38"/>
-      <c r="L161" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="M161" s="38"/>
-      <c r="N161" s="38"/>
-      <c r="O161" s="38"/>
-      <c r="P161" s="38"/>
-      <c r="Q161" s="38"/>
-      <c r="R161" s="38"/>
-      <c r="S161" s="38"/>
-      <c r="T161" s="38"/>
-      <c r="U161" s="38"/>
-      <c r="V161" s="38"/>
-      <c r="W161" s="38"/>
-      <c r="X161" s="38"/>
-      <c r="Y161" s="38"/>
-      <c r="Z161" s="38"/>
-      <c r="AA161" s="38"/>
-      <c r="AB161" s="38"/>
-      <c r="AC161" s="53"/>
-      <c r="AD161" s="53"/>
-      <c r="AE161" s="53"/>
-      <c r="AF161" s="53"/>
-      <c r="AG161" s="53"/>
-      <c r="AH161" s="54"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="29"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="29"/>
+      <c r="O161" s="29"/>
+      <c r="P161" s="29"/>
+      <c r="Q161" s="29"/>
+      <c r="R161" s="29"/>
+      <c r="S161" s="29"/>
+      <c r="T161" s="29"/>
+      <c r="U161" s="29"/>
+      <c r="V161" s="29"/>
+      <c r="W161" s="29"/>
+      <c r="X161" s="29"/>
+      <c r="Y161" s="29"/>
+      <c r="Z161" s="29"/>
+      <c r="AA161" s="29"/>
+      <c r="AB161" s="29"/>
     </row>
     <row r="162" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C162" s="29"/>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
-      <c r="F162" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="G162" s="98"/>
-      <c r="H162" s="98"/>
-      <c r="I162" s="98"/>
-      <c r="J162" s="98"/>
-      <c r="K162" s="98"/>
-      <c r="L162" s="92" t="s">
-        <v>278</v>
-      </c>
-      <c r="M162" s="98"/>
-      <c r="N162" s="98"/>
-      <c r="O162" s="98"/>
-      <c r="P162" s="26"/>
-      <c r="Q162" s="98"/>
-      <c r="R162" s="98"/>
-      <c r="S162" s="98"/>
-      <c r="T162" s="98"/>
-      <c r="U162" s="98"/>
-      <c r="V162" s="98"/>
-      <c r="W162" s="98"/>
-      <c r="X162" s="98"/>
-      <c r="Y162" s="98"/>
-      <c r="Z162" s="98"/>
-      <c r="AA162" s="98"/>
-      <c r="AB162" s="98"/>
-      <c r="AC162" s="99"/>
-      <c r="AD162" s="99"/>
-      <c r="AE162" s="99"/>
-      <c r="AF162" s="99"/>
-      <c r="AG162" s="99"/>
-      <c r="AH162" s="101"/>
+      <c r="F162" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="G162" s="38"/>
+      <c r="H162" s="38"/>
+      <c r="I162" s="38"/>
+      <c r="J162" s="38"/>
+      <c r="K162" s="38"/>
+      <c r="L162" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="M162" s="38"/>
+      <c r="N162" s="38"/>
+      <c r="O162" s="38"/>
+      <c r="P162" s="38"/>
+      <c r="Q162" s="38"/>
+      <c r="R162" s="38"/>
+      <c r="S162" s="38"/>
+      <c r="T162" s="38"/>
+      <c r="U162" s="38"/>
+      <c r="V162" s="38"/>
+      <c r="W162" s="38"/>
+      <c r="X162" s="38"/>
+      <c r="Y162" s="38"/>
+      <c r="Z162" s="38"/>
+      <c r="AA162" s="38"/>
+      <c r="AB162" s="38"/>
+      <c r="AC162" s="53"/>
+      <c r="AD162" s="53"/>
+      <c r="AE162" s="53"/>
+      <c r="AF162" s="53"/>
+      <c r="AG162" s="53"/>
+      <c r="AH162" s="54"/>
     </row>
     <row r="163" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C163" s="29"/>
       <c r="D163" s="29"/>
       <c r="E163" s="29"/>
       <c r="F163" s="97" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="G163" s="98"/>
       <c r="H163" s="98"/>
       <c r="I163" s="98"/>
       <c r="J163" s="98"/>
       <c r="K163" s="98"/>
-      <c r="L163" s="97" t="s">
+      <c r="L163" s="92" t="s">
         <v>277</v>
       </c>
       <c r="M163" s="98"/>
       <c r="N163" s="98"/>
       <c r="O163" s="98"/>
-      <c r="P163" s="98"/>
+      <c r="P163" s="26"/>
       <c r="Q163" s="98"/>
       <c r="R163" s="98"/>
       <c r="S163" s="98"/>
@@ -8692,80 +8685,85 @@
       <c r="AG163" s="99"/>
       <c r="AH163" s="101"/>
     </row>
-    <row r="164" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
       <c r="E164" s="29"/>
-      <c r="F164" s="75"/>
-      <c r="G164" s="76"/>
-      <c r="H164" s="76"/>
-      <c r="I164" s="76"/>
-      <c r="J164" s="76"/>
-      <c r="K164" s="76"/>
-      <c r="L164" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="M164" s="76"/>
-      <c r="N164" s="76"/>
-      <c r="O164" s="76"/>
-      <c r="P164" s="76"/>
-      <c r="Q164" s="76"/>
-      <c r="R164" s="76"/>
-      <c r="S164" s="76"/>
-      <c r="T164" s="76"/>
-      <c r="U164" s="76"/>
-      <c r="V164" s="76"/>
-      <c r="W164" s="76"/>
-      <c r="X164" s="76"/>
-      <c r="Y164" s="76"/>
-      <c r="Z164" s="76"/>
-      <c r="AA164" s="76"/>
-      <c r="AB164" s="76"/>
-      <c r="AC164" s="102"/>
-      <c r="AD164" s="102"/>
-      <c r="AE164" s="102"/>
-      <c r="AF164" s="102"/>
-      <c r="AG164" s="102"/>
-      <c r="AH164" s="103"/>
-    </row>
-    <row r="165" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F164" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="G164" s="98"/>
+      <c r="H164" s="98"/>
+      <c r="I164" s="98"/>
+      <c r="J164" s="98"/>
+      <c r="K164" s="98"/>
+      <c r="L164" s="97" t="s">
+        <v>276</v>
+      </c>
+      <c r="M164" s="98"/>
+      <c r="N164" s="98"/>
+      <c r="O164" s="98"/>
+      <c r="P164" s="98"/>
+      <c r="Q164" s="98"/>
+      <c r="R164" s="98"/>
+      <c r="S164" s="98"/>
+      <c r="T164" s="98"/>
+      <c r="U164" s="98"/>
+      <c r="V164" s="98"/>
+      <c r="W164" s="98"/>
+      <c r="X164" s="98"/>
+      <c r="Y164" s="98"/>
+      <c r="Z164" s="98"/>
+      <c r="AA164" s="98"/>
+      <c r="AB164" s="98"/>
+      <c r="AC164" s="99"/>
+      <c r="AD164" s="99"/>
+      <c r="AE164" s="99"/>
+      <c r="AF164" s="99"/>
+      <c r="AG164" s="99"/>
+      <c r="AH164" s="101"/>
+    </row>
+    <row r="165" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C165" s="29"/>
       <c r="D165" s="29"/>
       <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
-      <c r="H165" s="29"/>
-      <c r="I165" s="29"/>
-      <c r="J165" s="29"/>
-      <c r="K165" s="29"/>
-      <c r="L165" s="29"/>
-      <c r="M165" s="29"/>
-      <c r="N165" s="29"/>
-      <c r="O165" s="29"/>
-      <c r="P165" s="29"/>
-      <c r="Q165" s="29"/>
-      <c r="R165" s="29"/>
-      <c r="S165" s="29"/>
-      <c r="T165" s="29"/>
-      <c r="U165" s="29"/>
-      <c r="V165" s="29"/>
-      <c r="W165" s="29"/>
-      <c r="X165" s="29"/>
-      <c r="Y165" s="29"/>
-      <c r="Z165" s="29"/>
-      <c r="AA165" s="29"/>
-      <c r="AB165" s="29"/>
+      <c r="F165" s="75"/>
+      <c r="G165" s="76"/>
+      <c r="H165" s="76"/>
+      <c r="I165" s="76"/>
+      <c r="J165" s="76"/>
+      <c r="K165" s="76"/>
+      <c r="L165" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="M165" s="76"/>
+      <c r="N165" s="76"/>
+      <c r="O165" s="76"/>
+      <c r="P165" s="76"/>
+      <c r="Q165" s="76"/>
+      <c r="R165" s="76"/>
+      <c r="S165" s="76"/>
+      <c r="T165" s="76"/>
+      <c r="U165" s="76"/>
+      <c r="V165" s="76"/>
+      <c r="W165" s="76"/>
+      <c r="X165" s="76"/>
+      <c r="Y165" s="76"/>
+      <c r="Z165" s="76"/>
+      <c r="AA165" s="76"/>
+      <c r="AB165" s="76"/>
+      <c r="AC165" s="102"/>
+      <c r="AD165" s="102"/>
+      <c r="AE165" s="102"/>
+      <c r="AF165" s="102"/>
+      <c r="AG165" s="102"/>
+      <c r="AH165" s="103"/>
     </row>
     <row r="166" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C166" s="29"/>
       <c r="D166" s="29"/>
-      <c r="E166" s="24" t="str">
-        <f>D148&amp;"3."</f>
-        <v>3.1.8.3.</v>
-      </c>
-      <c r="F166" s="29" t="s">
-        <v>256</v>
-      </c>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
       <c r="G166" s="29"/>
       <c r="H166" s="29"/>
       <c r="I166" s="29"/>
@@ -8792,13 +8790,14 @@
     <row r="167" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C167" s="29"/>
       <c r="D167" s="29"/>
-      <c r="E167" s="77"/>
-      <c r="F167" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G167" s="74" t="s">
-        <v>60</v>
-      </c>
+      <c r="E167" s="24" t="str">
+        <f>D149&amp;"3."</f>
+        <v>3.1.8.3.</v>
+      </c>
+      <c r="F167" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G167" s="29"/>
       <c r="H167" s="29"/>
       <c r="I167" s="29"/>
       <c r="J167" s="29"/>
@@ -8825,9 +8824,11 @@
       <c r="C168" s="29"/>
       <c r="D168" s="29"/>
       <c r="E168" s="77"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="29" t="s">
-        <v>198</v>
+      <c r="F168" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G168" s="74" t="s">
+        <v>60</v>
       </c>
       <c r="H168" s="29"/>
       <c r="I168" s="29"/>
@@ -8851,13 +8852,13 @@
       <c r="AA168" s="29"/>
       <c r="AB168" s="29"/>
     </row>
-    <row r="169" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C169" s="29"/>
       <c r="D169" s="29"/>
       <c r="E169" s="77"/>
       <c r="F169" s="24"/>
       <c r="G169" s="29" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="H169" s="29"/>
       <c r="I169" s="29"/>
@@ -8881,13 +8882,13 @@
       <c r="AA169" s="29"/>
       <c r="AB169" s="29"/>
     </row>
-    <row r="170" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C170" s="29"/>
       <c r="D170" s="29"/>
       <c r="E170" s="77"/>
       <c r="F170" s="24"/>
-      <c r="G170" s="64" t="s">
-        <v>199</v>
+      <c r="G170" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="H170" s="29"/>
       <c r="I170" s="29"/>
@@ -8911,13 +8912,13 @@
       <c r="AA170" s="29"/>
       <c r="AB170" s="29"/>
     </row>
-    <row r="171" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C171" s="29"/>
       <c r="D171" s="29"/>
       <c r="E171" s="77"/>
       <c r="F171" s="24"/>
       <c r="G171" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H171" s="29"/>
       <c r="I171" s="29"/>
@@ -8946,7 +8947,9 @@
       <c r="D172" s="29"/>
       <c r="E172" s="77"/>
       <c r="F172" s="24"/>
-      <c r="G172" s="64"/>
+      <c r="G172" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="H172" s="29"/>
       <c r="I172" s="29"/>
       <c r="J172" s="29"/>
@@ -8969,18 +8972,12 @@
       <c r="AA172" s="29"/>
       <c r="AB172" s="29"/>
     </row>
-    <row r="173" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="41"/>
+    <row r="173" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C173" s="29"/>
       <c r="D173" s="29"/>
-      <c r="E173" s="74"/>
-      <c r="F173" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G173" s="114" t="str">
-        <f>G152&amp;"毎の対応方針"</f>
-        <v>開閉局切り替え単位毎の対応方針</v>
-      </c>
+      <c r="E173" s="77"/>
+      <c r="F173" s="24"/>
+      <c r="G173" s="64"/>
       <c r="H173" s="29"/>
       <c r="I173" s="29"/>
       <c r="J173" s="29"/>
@@ -9008,42 +9005,34 @@
       <c r="C174" s="29"/>
       <c r="D174" s="29"/>
       <c r="E174" s="74"/>
-      <c r="F174" s="29"/>
-      <c r="G174" s="61" t="str">
-        <f>G152</f>
-        <v>開閉局切り替え単位</v>
-      </c>
-      <c r="H174" s="38"/>
-      <c r="I174" s="38"/>
-      <c r="J174" s="38"/>
-      <c r="K174" s="38"/>
-      <c r="L174" s="37"/>
-      <c r="M174" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="N174" s="38"/>
-      <c r="O174" s="38"/>
-      <c r="P174" s="37"/>
-      <c r="Q174" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="R174" s="38"/>
-      <c r="S174" s="38"/>
-      <c r="T174" s="38"/>
-      <c r="U174" s="38"/>
-      <c r="V174" s="38"/>
-      <c r="W174" s="38"/>
-      <c r="X174" s="38"/>
-      <c r="Y174" s="38"/>
-      <c r="Z174" s="38"/>
-      <c r="AA174" s="38"/>
-      <c r="AB174" s="38"/>
-      <c r="AC174" s="17"/>
-      <c r="AD174" s="17"/>
-      <c r="AE174" s="17"/>
-      <c r="AF174" s="17"/>
-      <c r="AG174" s="17"/>
-      <c r="AH174" s="18"/>
+      <c r="F174" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G174" s="114" t="str">
+        <f>G153&amp;"毎の対応方針"</f>
+        <v>開閉局切り替え単位毎の対応方針</v>
+      </c>
+      <c r="H174" s="29"/>
+      <c r="I174" s="29"/>
+      <c r="J174" s="29"/>
+      <c r="K174" s="29"/>
+      <c r="L174" s="29"/>
+      <c r="M174" s="29"/>
+      <c r="N174" s="29"/>
+      <c r="O174" s="29"/>
+      <c r="P174" s="29"/>
+      <c r="Q174" s="29"/>
+      <c r="R174" s="29"/>
+      <c r="S174" s="29"/>
+      <c r="T174" s="29"/>
+      <c r="U174" s="29"/>
+      <c r="V174" s="29"/>
+      <c r="W174" s="29"/>
+      <c r="X174" s="29"/>
+      <c r="Y174" s="29"/>
+      <c r="Z174" s="29"/>
+      <c r="AA174" s="29"/>
+      <c r="AB174" s="29"/>
     </row>
     <row r="175" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="41"/>
@@ -9051,41 +9040,41 @@
       <c r="D175" s="29"/>
       <c r="E175" s="74"/>
       <c r="F175" s="29"/>
-      <c r="G175" s="30" t="str">
-        <f>F162</f>
-        <v>Webアプリケーション全体</v>
-      </c>
-      <c r="H175" s="55"/>
-      <c r="I175" s="55"/>
-      <c r="J175" s="55"/>
-      <c r="K175" s="55"/>
-      <c r="L175" s="31"/>
-      <c r="M175" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="N175" s="55"/>
-      <c r="O175" s="55"/>
-      <c r="P175" s="31"/>
-      <c r="Q175" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="R175" s="55"/>
-      <c r="S175" s="55"/>
-      <c r="T175" s="55"/>
-      <c r="U175" s="55"/>
-      <c r="V175" s="55"/>
-      <c r="W175" s="55"/>
-      <c r="X175" s="55"/>
-      <c r="Y175" s="55"/>
-      <c r="Z175" s="55"/>
-      <c r="AA175" s="55"/>
-      <c r="AB175" s="55"/>
-      <c r="AC175" s="19"/>
-      <c r="AD175" s="19"/>
-      <c r="AE175" s="19"/>
-      <c r="AF175" s="19"/>
-      <c r="AG175" s="19"/>
-      <c r="AH175" s="20"/>
+      <c r="G175" s="61" t="str">
+        <f>G153</f>
+        <v>開閉局切り替え単位</v>
+      </c>
+      <c r="H175" s="38"/>
+      <c r="I175" s="38"/>
+      <c r="J175" s="38"/>
+      <c r="K175" s="38"/>
+      <c r="L175" s="37"/>
+      <c r="M175" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="N175" s="38"/>
+      <c r="O175" s="38"/>
+      <c r="P175" s="37"/>
+      <c r="Q175" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="R175" s="38"/>
+      <c r="S175" s="38"/>
+      <c r="T175" s="38"/>
+      <c r="U175" s="38"/>
+      <c r="V175" s="38"/>
+      <c r="W175" s="38"/>
+      <c r="X175" s="38"/>
+      <c r="Y175" s="38"/>
+      <c r="Z175" s="38"/>
+      <c r="AA175" s="38"/>
+      <c r="AB175" s="38"/>
+      <c r="AC175" s="17"/>
+      <c r="AD175" s="17"/>
+      <c r="AE175" s="17"/>
+      <c r="AF175" s="17"/>
+      <c r="AG175" s="17"/>
+      <c r="AH175" s="18"/>
     </row>
     <row r="176" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="41"/>
@@ -9093,41 +9082,41 @@
       <c r="D176" s="29"/>
       <c r="E176" s="74"/>
       <c r="F176" s="29"/>
-      <c r="G176" s="56" t="str">
+      <c r="G176" s="30" t="str">
         <f>F163</f>
-        <v>リクエスト単位</v>
-      </c>
-      <c r="H176" s="57"/>
-      <c r="I176" s="57"/>
-      <c r="J176" s="57"/>
-      <c r="K176" s="57"/>
-      <c r="L176" s="58"/>
-      <c r="M176" s="57" t="s">
+        <v>Webアプリケーション全体</v>
+      </c>
+      <c r="H176" s="55"/>
+      <c r="I176" s="55"/>
+      <c r="J176" s="55"/>
+      <c r="K176" s="55"/>
+      <c r="L176" s="31"/>
+      <c r="M176" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="N176" s="55"/>
+      <c r="O176" s="55"/>
+      <c r="P176" s="31"/>
+      <c r="Q176" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="N176" s="57"/>
-      <c r="O176" s="57"/>
-      <c r="P176" s="58"/>
-      <c r="Q176" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="R176" s="57"/>
-      <c r="S176" s="57"/>
-      <c r="T176" s="57"/>
-      <c r="U176" s="57"/>
-      <c r="V176" s="57"/>
-      <c r="W176" s="57"/>
-      <c r="X176" s="57"/>
-      <c r="Y176" s="57"/>
-      <c r="Z176" s="57"/>
-      <c r="AA176" s="57"/>
-      <c r="AB176" s="57"/>
-      <c r="AC176" s="59"/>
-      <c r="AD176" s="59"/>
-      <c r="AE176" s="59"/>
-      <c r="AF176" s="59"/>
-      <c r="AG176" s="59"/>
-      <c r="AH176" s="60"/>
+      <c r="R176" s="55"/>
+      <c r="S176" s="55"/>
+      <c r="T176" s="55"/>
+      <c r="U176" s="55"/>
+      <c r="V176" s="55"/>
+      <c r="W176" s="55"/>
+      <c r="X176" s="55"/>
+      <c r="Y176" s="55"/>
+      <c r="Z176" s="55"/>
+      <c r="AA176" s="55"/>
+      <c r="AB176" s="55"/>
+      <c r="AC176" s="19"/>
+      <c r="AD176" s="19"/>
+      <c r="AE176" s="19"/>
+      <c r="AF176" s="19"/>
+      <c r="AG176" s="19"/>
+      <c r="AH176" s="20"/>
     </row>
     <row r="177" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="41"/>
@@ -9135,188 +9124,197 @@
       <c r="D177" s="29"/>
       <c r="E177" s="74"/>
       <c r="F177" s="29"/>
-      <c r="G177" s="55"/>
-      <c r="H177" s="55"/>
-      <c r="I177" s="55"/>
-      <c r="J177" s="55"/>
-      <c r="K177" s="55"/>
-      <c r="L177" s="55"/>
-      <c r="M177" s="55"/>
-      <c r="N177" s="55"/>
-      <c r="O177" s="55"/>
-      <c r="P177" s="55"/>
-      <c r="Q177" s="55"/>
-      <c r="R177" s="55"/>
-      <c r="S177" s="55"/>
-      <c r="T177" s="55"/>
-      <c r="U177" s="55"/>
-      <c r="V177" s="55"/>
-      <c r="W177" s="55"/>
-      <c r="X177" s="55"/>
-      <c r="Y177" s="55"/>
-      <c r="Z177" s="55"/>
-      <c r="AA177" s="55"/>
-      <c r="AB177" s="55"/>
-      <c r="AC177" s="19"/>
-      <c r="AD177" s="19"/>
-      <c r="AE177" s="19"/>
-      <c r="AF177" s="19"/>
-      <c r="AG177" s="19"/>
-      <c r="AH177" s="19"/>
+      <c r="G177" s="56" t="str">
+        <f>F164</f>
+        <v>リクエスト単位</v>
+      </c>
+      <c r="H177" s="57"/>
+      <c r="I177" s="57"/>
+      <c r="J177" s="57"/>
+      <c r="K177" s="57"/>
+      <c r="L177" s="58"/>
+      <c r="M177" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="N177" s="57"/>
+      <c r="O177" s="57"/>
+      <c r="P177" s="58"/>
+      <c r="Q177" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="R177" s="57"/>
+      <c r="S177" s="57"/>
+      <c r="T177" s="57"/>
+      <c r="U177" s="57"/>
+      <c r="V177" s="57"/>
+      <c r="W177" s="57"/>
+      <c r="X177" s="57"/>
+      <c r="Y177" s="57"/>
+      <c r="Z177" s="57"/>
+      <c r="AA177" s="57"/>
+      <c r="AB177" s="57"/>
+      <c r="AC177" s="59"/>
+      <c r="AD177" s="59"/>
+      <c r="AE177" s="59"/>
+      <c r="AF177" s="59"/>
+      <c r="AG177" s="59"/>
+      <c r="AH177" s="60"/>
     </row>
     <row r="178" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="41"/>
       <c r="C178" s="29"/>
       <c r="D178" s="29"/>
       <c r="E178" s="74"/>
-      <c r="F178" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G178" s="29" t="str">
-        <f>G153</f>
-        <v>開閉局切り替え方法</v>
-      </c>
-      <c r="H178" s="29"/>
-      <c r="I178" s="29"/>
-      <c r="J178" s="29"/>
-      <c r="K178" s="29"/>
-      <c r="L178" s="29"/>
-      <c r="M178" s="29"/>
-      <c r="N178" s="29"/>
-      <c r="O178" s="29"/>
-      <c r="P178" s="29"/>
-      <c r="Q178" s="29"/>
-      <c r="R178" s="29"/>
-      <c r="S178" s="29"/>
-      <c r="T178" s="29"/>
-      <c r="U178" s="29"/>
-      <c r="V178" s="29"/>
-      <c r="W178" s="29"/>
-      <c r="X178" s="29"/>
-      <c r="Y178" s="29"/>
-      <c r="Z178" s="29"/>
-      <c r="AA178" s="29"/>
-      <c r="AB178" s="29"/>
+      <c r="F178" s="29"/>
+      <c r="G178" s="55"/>
+      <c r="H178" s="55"/>
+      <c r="I178" s="55"/>
+      <c r="J178" s="55"/>
+      <c r="K178" s="55"/>
+      <c r="L178" s="55"/>
+      <c r="M178" s="55"/>
+      <c r="N178" s="55"/>
+      <c r="O178" s="55"/>
+      <c r="P178" s="55"/>
+      <c r="Q178" s="55"/>
+      <c r="R178" s="55"/>
+      <c r="S178" s="55"/>
+      <c r="T178" s="55"/>
+      <c r="U178" s="55"/>
+      <c r="V178" s="55"/>
+      <c r="W178" s="55"/>
+      <c r="X178" s="55"/>
+      <c r="Y178" s="55"/>
+      <c r="Z178" s="55"/>
+      <c r="AA178" s="55"/>
+      <c r="AB178" s="55"/>
+      <c r="AC178" s="19"/>
+      <c r="AD178" s="19"/>
+      <c r="AE178" s="19"/>
+      <c r="AF178" s="19"/>
+      <c r="AG178" s="19"/>
+      <c r="AH178" s="19"/>
     </row>
     <row r="179" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C179" s="29"/>
       <c r="D179" s="29"/>
       <c r="E179" s="74"/>
-      <c r="F179" s="29"/>
-      <c r="G179" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H179" s="38"/>
-      <c r="I179" s="38"/>
-      <c r="J179" s="38"/>
-      <c r="K179" s="37"/>
-      <c r="L179" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="M179" s="38"/>
-      <c r="N179" s="38"/>
-      <c r="O179" s="38"/>
-      <c r="P179" s="37"/>
-      <c r="Q179" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="R179" s="38"/>
-      <c r="S179" s="38"/>
-      <c r="T179" s="38"/>
-      <c r="U179" s="38"/>
-      <c r="V179" s="38"/>
-      <c r="W179" s="38"/>
-      <c r="X179" s="38"/>
-      <c r="Y179" s="38"/>
-      <c r="Z179" s="38"/>
-      <c r="AA179" s="38"/>
-      <c r="AB179" s="38"/>
-      <c r="AC179" s="62"/>
-      <c r="AD179" s="62"/>
-      <c r="AE179" s="62"/>
-      <c r="AF179" s="62"/>
-      <c r="AG179" s="53"/>
-      <c r="AH179" s="54"/>
+      <c r="F179" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G179" s="29" t="str">
+        <f>G154</f>
+        <v>開閉局切り替え方法</v>
+      </c>
+      <c r="H179" s="29"/>
+      <c r="I179" s="29"/>
+      <c r="J179" s="29"/>
+      <c r="K179" s="29"/>
+      <c r="L179" s="29"/>
+      <c r="M179" s="29"/>
+      <c r="N179" s="29"/>
+      <c r="O179" s="29"/>
+      <c r="P179" s="29"/>
+      <c r="Q179" s="29"/>
+      <c r="R179" s="29"/>
+      <c r="S179" s="29"/>
+      <c r="T179" s="29"/>
+      <c r="U179" s="29"/>
+      <c r="V179" s="29"/>
+      <c r="W179" s="29"/>
+      <c r="X179" s="29"/>
+      <c r="Y179" s="29"/>
+      <c r="Z179" s="29"/>
+      <c r="AA179" s="29"/>
+      <c r="AB179" s="29"/>
     </row>
     <row r="180" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C180" s="29"/>
       <c r="D180" s="29"/>
       <c r="E180" s="74"/>
       <c r="F180" s="29"/>
-      <c r="G180" s="32" t="str">
-        <f>F163</f>
-        <v>リクエスト単位</v>
-      </c>
-      <c r="H180" s="33"/>
-      <c r="I180" s="33"/>
-      <c r="J180" s="33"/>
-      <c r="K180" s="34"/>
-      <c r="L180" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="M180" s="33"/>
-      <c r="N180" s="33"/>
-      <c r="O180" s="33"/>
-      <c r="P180" s="34"/>
-      <c r="Q180" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="R180" s="33"/>
-      <c r="S180" s="33"/>
-      <c r="T180" s="33"/>
-      <c r="U180" s="33"/>
-      <c r="V180" s="33"/>
-      <c r="W180" s="33"/>
-      <c r="X180" s="33"/>
-      <c r="Y180" s="33"/>
-      <c r="Z180" s="33"/>
-      <c r="AA180" s="33"/>
-      <c r="AB180" s="33"/>
-      <c r="AC180" s="23"/>
-      <c r="AD180" s="23"/>
-      <c r="AE180" s="23"/>
-      <c r="AF180" s="23"/>
-      <c r="AG180" s="21"/>
-      <c r="AH180" s="22"/>
+      <c r="G180" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H180" s="38"/>
+      <c r="I180" s="38"/>
+      <c r="J180" s="38"/>
+      <c r="K180" s="37"/>
+      <c r="L180" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M180" s="38"/>
+      <c r="N180" s="38"/>
+      <c r="O180" s="38"/>
+      <c r="P180" s="37"/>
+      <c r="Q180" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="R180" s="38"/>
+      <c r="S180" s="38"/>
+      <c r="T180" s="38"/>
+      <c r="U180" s="38"/>
+      <c r="V180" s="38"/>
+      <c r="W180" s="38"/>
+      <c r="X180" s="38"/>
+      <c r="Y180" s="38"/>
+      <c r="Z180" s="38"/>
+      <c r="AA180" s="38"/>
+      <c r="AB180" s="38"/>
+      <c r="AC180" s="62"/>
+      <c r="AD180" s="62"/>
+      <c r="AE180" s="62"/>
+      <c r="AF180" s="62"/>
+      <c r="AG180" s="53"/>
+      <c r="AH180" s="54"/>
     </row>
     <row r="181" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C181" s="29"/>
       <c r="D181" s="29"/>
       <c r="E181" s="74"/>
       <c r="F181" s="29"/>
-      <c r="G181" s="29"/>
-      <c r="H181" s="29"/>
-      <c r="I181" s="29"/>
-      <c r="J181" s="29"/>
-      <c r="K181" s="29"/>
-      <c r="L181" s="29"/>
-      <c r="M181" s="29"/>
-      <c r="N181" s="29"/>
-      <c r="O181" s="29"/>
-      <c r="P181" s="29"/>
-      <c r="Q181" s="29"/>
-      <c r="R181" s="29"/>
-      <c r="S181" s="29"/>
-      <c r="T181" s="29"/>
-      <c r="U181" s="29"/>
-      <c r="V181" s="29"/>
-      <c r="W181" s="29"/>
-      <c r="X181" s="29"/>
-      <c r="Y181" s="29"/>
-      <c r="Z181" s="29"/>
-      <c r="AA181" s="29"/>
-      <c r="AB181" s="29"/>
+      <c r="G181" s="32" t="str">
+        <f>F164</f>
+        <v>リクエスト単位</v>
+      </c>
+      <c r="H181" s="33"/>
+      <c r="I181" s="33"/>
+      <c r="J181" s="33"/>
+      <c r="K181" s="34"/>
+      <c r="L181" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M181" s="33"/>
+      <c r="N181" s="33"/>
+      <c r="O181" s="33"/>
+      <c r="P181" s="34"/>
+      <c r="Q181" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="R181" s="33"/>
+      <c r="S181" s="33"/>
+      <c r="T181" s="33"/>
+      <c r="U181" s="33"/>
+      <c r="V181" s="33"/>
+      <c r="W181" s="33"/>
+      <c r="X181" s="33"/>
+      <c r="Y181" s="33"/>
+      <c r="Z181" s="33"/>
+      <c r="AA181" s="33"/>
+      <c r="AB181" s="33"/>
+      <c r="AC181" s="23"/>
+      <c r="AD181" s="23"/>
+      <c r="AE181" s="23"/>
+      <c r="AF181" s="23"/>
+      <c r="AG181" s="21"/>
+      <c r="AH181" s="22"/>
     </row>
     <row r="182" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C182" s="29"/>
       <c r="D182" s="29"/>
       <c r="E182" s="74"/>
-      <c r="F182" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G182" s="29" t="str">
-        <f>G154</f>
-        <v>開閉局チェック方法</v>
-      </c>
+      <c r="F182" s="29"/>
+      <c r="G182" s="29"/>
       <c r="H182" s="29"/>
       <c r="I182" s="29"/>
       <c r="J182" s="29"/>
@@ -9343,202 +9341,196 @@
       <c r="C183" s="29"/>
       <c r="D183" s="29"/>
       <c r="E183" s="74"/>
-      <c r="F183" s="29"/>
-      <c r="G183" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H183" s="38"/>
-      <c r="I183" s="38"/>
-      <c r="J183" s="38"/>
-      <c r="K183" s="37"/>
-      <c r="L183" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M183" s="38"/>
-      <c r="N183" s="38"/>
-      <c r="O183" s="38"/>
-      <c r="P183" s="38"/>
-      <c r="Q183" s="38"/>
-      <c r="R183" s="38"/>
-      <c r="S183" s="37"/>
-      <c r="T183" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="U183" s="38"/>
-      <c r="V183" s="38"/>
-      <c r="W183" s="38"/>
-      <c r="X183" s="38"/>
-      <c r="Y183" s="38"/>
-      <c r="Z183" s="38"/>
-      <c r="AA183" s="38"/>
-      <c r="AB183" s="38"/>
-      <c r="AC183" s="17"/>
-      <c r="AD183" s="17"/>
-      <c r="AE183" s="17"/>
-      <c r="AF183" s="17"/>
-      <c r="AG183" s="17"/>
-      <c r="AH183" s="18"/>
+      <c r="F183" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G183" s="29" t="str">
+        <f>G155</f>
+        <v>開閉局チェック方法</v>
+      </c>
+      <c r="H183" s="29"/>
+      <c r="I183" s="29"/>
+      <c r="J183" s="29"/>
+      <c r="K183" s="29"/>
+      <c r="L183" s="29"/>
+      <c r="M183" s="29"/>
+      <c r="N183" s="29"/>
+      <c r="O183" s="29"/>
+      <c r="P183" s="29"/>
+      <c r="Q183" s="29"/>
+      <c r="R183" s="29"/>
+      <c r="S183" s="29"/>
+      <c r="T183" s="29"/>
+      <c r="U183" s="29"/>
+      <c r="V183" s="29"/>
+      <c r="W183" s="29"/>
+      <c r="X183" s="29"/>
+      <c r="Y183" s="29"/>
+      <c r="Z183" s="29"/>
+      <c r="AA183" s="29"/>
+      <c r="AB183" s="29"/>
     </row>
     <row r="184" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C184" s="29"/>
       <c r="D184" s="29"/>
-      <c r="E184" s="26"/>
-      <c r="F184" s="55"/>
-      <c r="G184" s="35" t="str">
-        <f>F163</f>
-        <v>リクエスト単位</v>
-      </c>
-      <c r="H184" s="39"/>
-      <c r="I184" s="39"/>
-      <c r="J184" s="39"/>
-      <c r="K184" s="40"/>
-      <c r="L184" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="M184" s="39"/>
-      <c r="N184" s="39"/>
-      <c r="O184" s="39"/>
-      <c r="P184" s="39"/>
-      <c r="Q184" s="39"/>
-      <c r="R184" s="39"/>
-      <c r="S184" s="40"/>
-      <c r="T184" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="U184" s="39"/>
-      <c r="V184" s="39"/>
-      <c r="W184" s="39"/>
-      <c r="X184" s="39"/>
-      <c r="Y184" s="39"/>
-      <c r="Z184" s="39"/>
-      <c r="AA184" s="39"/>
-      <c r="AB184" s="39"/>
-      <c r="AC184" s="49"/>
-      <c r="AD184" s="49"/>
-      <c r="AE184" s="49"/>
-      <c r="AF184" s="49"/>
-      <c r="AG184" s="49"/>
-      <c r="AH184" s="50"/>
-    </row>
-    <row r="185" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E184" s="74"/>
+      <c r="F184" s="29"/>
+      <c r="G184" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H184" s="38"/>
+      <c r="I184" s="38"/>
+      <c r="J184" s="38"/>
+      <c r="K184" s="37"/>
+      <c r="L184" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M184" s="38"/>
+      <c r="N184" s="38"/>
+      <c r="O184" s="38"/>
+      <c r="P184" s="38"/>
+      <c r="Q184" s="38"/>
+      <c r="R184" s="38"/>
+      <c r="S184" s="37"/>
+      <c r="T184" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="U184" s="38"/>
+      <c r="V184" s="38"/>
+      <c r="W184" s="38"/>
+      <c r="X184" s="38"/>
+      <c r="Y184" s="38"/>
+      <c r="Z184" s="38"/>
+      <c r="AA184" s="38"/>
+      <c r="AB184" s="38"/>
+      <c r="AC184" s="17"/>
+      <c r="AD184" s="17"/>
+      <c r="AE184" s="17"/>
+      <c r="AF184" s="17"/>
+      <c r="AG184" s="17"/>
+      <c r="AH184" s="18"/>
+    </row>
+    <row r="185" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C185" s="29"/>
       <c r="D185" s="29"/>
-      <c r="E185" s="74"/>
-      <c r="F185" s="29"/>
-      <c r="G185" s="30"/>
-      <c r="H185" s="55"/>
-      <c r="I185" s="55"/>
-      <c r="J185" s="55"/>
-      <c r="K185" s="31"/>
+      <c r="E185" s="26"/>
+      <c r="F185" s="55"/>
+      <c r="G185" s="35" t="str">
+        <f>F164</f>
+        <v>リクエスト単位</v>
+      </c>
+      <c r="H185" s="39"/>
+      <c r="I185" s="39"/>
+      <c r="J185" s="39"/>
+      <c r="K185" s="40"/>
       <c r="L185" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="M185" s="55"/>
-      <c r="N185" s="55"/>
-      <c r="O185" s="55"/>
-      <c r="P185" s="55"/>
-      <c r="Q185" s="55"/>
-      <c r="R185" s="55"/>
-      <c r="S185" s="31"/>
-      <c r="T185" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="U185" s="55"/>
-      <c r="V185" s="55"/>
-      <c r="W185" s="55"/>
-      <c r="X185" s="55"/>
-      <c r="Y185" s="55"/>
-      <c r="Z185" s="55"/>
-      <c r="AA185" s="55"/>
-      <c r="AB185" s="55"/>
-      <c r="AC185" s="44"/>
-      <c r="AD185" s="44"/>
-      <c r="AE185" s="44"/>
-      <c r="AF185" s="44"/>
-      <c r="AG185" s="44"/>
-      <c r="AH185" s="45"/>
+        <v>66</v>
+      </c>
+      <c r="M185" s="39"/>
+      <c r="N185" s="39"/>
+      <c r="O185" s="39"/>
+      <c r="P185" s="39"/>
+      <c r="Q185" s="39"/>
+      <c r="R185" s="39"/>
+      <c r="S185" s="40"/>
+      <c r="T185" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="U185" s="39"/>
+      <c r="V185" s="39"/>
+      <c r="W185" s="39"/>
+      <c r="X185" s="39"/>
+      <c r="Y185" s="39"/>
+      <c r="Z185" s="39"/>
+      <c r="AA185" s="39"/>
+      <c r="AB185" s="39"/>
+      <c r="AC185" s="49"/>
+      <c r="AD185" s="49"/>
+      <c r="AE185" s="49"/>
+      <c r="AF185" s="49"/>
+      <c r="AG185" s="49"/>
+      <c r="AH185" s="50"/>
     </row>
     <row r="186" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C186" s="29"/>
       <c r="D186" s="29"/>
       <c r="E186" s="74"/>
       <c r="F186" s="29"/>
-      <c r="G186" s="32"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="33"/>
-      <c r="J186" s="33"/>
-      <c r="K186" s="34"/>
-      <c r="L186" s="33"/>
-      <c r="M186" s="33"/>
-      <c r="N186" s="33"/>
-      <c r="O186" s="33"/>
-      <c r="P186" s="33"/>
-      <c r="Q186" s="33"/>
-      <c r="R186" s="33"/>
-      <c r="S186" s="34"/>
-      <c r="T186" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="U186" s="33"/>
-      <c r="V186" s="33"/>
-      <c r="W186" s="33"/>
-      <c r="X186" s="33"/>
-      <c r="Y186" s="33"/>
-      <c r="Z186" s="33"/>
-      <c r="AA186" s="33"/>
-      <c r="AB186" s="33"/>
-      <c r="AC186" s="47"/>
-      <c r="AD186" s="47"/>
-      <c r="AE186" s="47"/>
-      <c r="AF186" s="47"/>
-      <c r="AG186" s="47"/>
-      <c r="AH186" s="51"/>
+      <c r="G186" s="30"/>
+      <c r="H186" s="55"/>
+      <c r="I186" s="55"/>
+      <c r="J186" s="55"/>
+      <c r="K186" s="31"/>
+      <c r="L186" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M186" s="55"/>
+      <c r="N186" s="55"/>
+      <c r="O186" s="55"/>
+      <c r="P186" s="55"/>
+      <c r="Q186" s="55"/>
+      <c r="R186" s="55"/>
+      <c r="S186" s="31"/>
+      <c r="T186" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U186" s="55"/>
+      <c r="V186" s="55"/>
+      <c r="W186" s="55"/>
+      <c r="X186" s="55"/>
+      <c r="Y186" s="55"/>
+      <c r="Z186" s="55"/>
+      <c r="AA186" s="55"/>
+      <c r="AB186" s="55"/>
+      <c r="AC186" s="44"/>
+      <c r="AD186" s="44"/>
+      <c r="AE186" s="44"/>
+      <c r="AF186" s="44"/>
+      <c r="AG186" s="44"/>
+      <c r="AH186" s="45"/>
     </row>
     <row r="187" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C187" s="29"/>
       <c r="D187" s="29"/>
       <c r="E187" s="74"/>
       <c r="F187" s="29"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="55"/>
-      <c r="J187" s="55"/>
-      <c r="K187" s="55"/>
-      <c r="L187" s="55"/>
-      <c r="M187" s="55"/>
-      <c r="N187" s="55"/>
-      <c r="O187" s="55"/>
-      <c r="P187" s="55"/>
-      <c r="Q187" s="55"/>
-      <c r="R187" s="55"/>
-      <c r="S187" s="55"/>
-      <c r="T187" s="55"/>
-      <c r="U187" s="55"/>
-      <c r="V187" s="55"/>
-      <c r="W187" s="55"/>
-      <c r="X187" s="55"/>
-      <c r="Y187" s="55"/>
-      <c r="Z187" s="55"/>
-      <c r="AA187" s="55"/>
-      <c r="AB187" s="55"/>
-      <c r="AC187" s="44"/>
-      <c r="AD187" s="44"/>
-      <c r="AE187" s="44"/>
-      <c r="AF187" s="44"/>
-      <c r="AG187" s="44"/>
-      <c r="AH187" s="44"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="33"/>
+      <c r="I187" s="33"/>
+      <c r="J187" s="33"/>
+      <c r="K187" s="34"/>
+      <c r="L187" s="33"/>
+      <c r="M187" s="33"/>
+      <c r="N187" s="33"/>
+      <c r="O187" s="33"/>
+      <c r="P187" s="33"/>
+      <c r="Q187" s="33"/>
+      <c r="R187" s="33"/>
+      <c r="S187" s="34"/>
+      <c r="T187" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="U187" s="33"/>
+      <c r="V187" s="33"/>
+      <c r="W187" s="33"/>
+      <c r="X187" s="33"/>
+      <c r="Y187" s="33"/>
+      <c r="Z187" s="33"/>
+      <c r="AA187" s="33"/>
+      <c r="AB187" s="33"/>
+      <c r="AC187" s="47"/>
+      <c r="AD187" s="47"/>
+      <c r="AE187" s="47"/>
+      <c r="AF187" s="47"/>
+      <c r="AG187" s="47"/>
+      <c r="AH187" s="51"/>
     </row>
     <row r="188" spans="1:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C188" s="29"/>
       <c r="D188" s="29"/>
       <c r="E188" s="74"/>
-      <c r="F188" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G188" s="55" t="str">
-        <f>G155</f>
-        <v>メニュー・ボタン・リンク等の表示制御</v>
-      </c>
+      <c r="F188" s="29"/>
+      <c r="G188" s="55"/>
       <c r="H188" s="55"/>
       <c r="I188" s="55"/>
       <c r="J188" s="55"/>
@@ -9571,9 +9563,12 @@
       <c r="C189" s="29"/>
       <c r="D189" s="29"/>
       <c r="E189" s="74"/>
-      <c r="F189" s="29"/>
-      <c r="G189" s="55" t="s">
-        <v>69</v>
+      <c r="F189" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G189" s="55" t="str">
+        <f>G156</f>
+        <v>メニュー・ボタン・リンク等の表示制御</v>
       </c>
       <c r="H189" s="55"/>
       <c r="I189" s="55"/>
@@ -9608,7 +9603,9 @@
       <c r="D190" s="29"/>
       <c r="E190" s="74"/>
       <c r="F190" s="29"/>
-      <c r="G190" s="55"/>
+      <c r="G190" s="55" t="s">
+        <v>69</v>
+      </c>
       <c r="H190" s="55"/>
       <c r="I190" s="55"/>
       <c r="J190" s="55"/>
@@ -9641,13 +9638,8 @@
       <c r="C191" s="29"/>
       <c r="D191" s="29"/>
       <c r="E191" s="74"/>
-      <c r="F191" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="G191" s="55" t="str">
-        <f>G156</f>
-        <v>閉局時の制約</v>
-      </c>
+      <c r="F191" s="29"/>
+      <c r="G191" s="55"/>
       <c r="H191" s="55"/>
       <c r="I191" s="55"/>
       <c r="J191" s="55"/>
@@ -9680,9 +9672,12 @@
       <c r="C192" s="29"/>
       <c r="D192" s="29"/>
       <c r="E192" s="74"/>
-      <c r="F192" s="29"/>
-      <c r="G192" s="55" t="s">
-        <v>210</v>
+      <c r="F192" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G192" s="55" t="str">
+        <f>G157</f>
+        <v>閉局時の制約</v>
       </c>
       <c r="H192" s="55"/>
       <c r="I192" s="55"/>
@@ -9712,43 +9707,49 @@
       <c r="AG192" s="44"/>
       <c r="AH192" s="44"/>
     </row>
-    <row r="193" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C193" s="29"/>
       <c r="D193" s="29"/>
       <c r="E193" s="74"/>
       <c r="F193" s="29"/>
-      <c r="G193" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="H193" s="29"/>
-      <c r="I193" s="29"/>
-      <c r="J193" s="29"/>
-      <c r="K193" s="29"/>
-      <c r="L193" s="29"/>
-      <c r="M193" s="29"/>
-      <c r="N193" s="29"/>
-      <c r="O193" s="29"/>
-      <c r="P193" s="29"/>
-      <c r="Q193" s="29"/>
-      <c r="R193" s="29"/>
-      <c r="S193" s="29"/>
-      <c r="T193" s="29"/>
-      <c r="U193" s="29"/>
-      <c r="V193" s="29"/>
-      <c r="W193" s="29"/>
-      <c r="X193" s="29"/>
-      <c r="Y193" s="29"/>
-      <c r="Z193" s="29"/>
-      <c r="AA193" s="29"/>
-      <c r="AB193" s="29"/>
-    </row>
-    <row r="194" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G193" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="H193" s="55"/>
+      <c r="I193" s="55"/>
+      <c r="J193" s="55"/>
+      <c r="K193" s="55"/>
+      <c r="L193" s="55"/>
+      <c r="M193" s="55"/>
+      <c r="N193" s="55"/>
+      <c r="O193" s="55"/>
+      <c r="P193" s="55"/>
+      <c r="Q193" s="55"/>
+      <c r="R193" s="55"/>
+      <c r="S193" s="55"/>
+      <c r="T193" s="55"/>
+      <c r="U193" s="55"/>
+      <c r="V193" s="55"/>
+      <c r="W193" s="55"/>
+      <c r="X193" s="55"/>
+      <c r="Y193" s="55"/>
+      <c r="Z193" s="55"/>
+      <c r="AA193" s="55"/>
+      <c r="AB193" s="55"/>
+      <c r="AC193" s="44"/>
+      <c r="AD193" s="44"/>
+      <c r="AE193" s="44"/>
+      <c r="AF193" s="44"/>
+      <c r="AG193" s="44"/>
+      <c r="AH193" s="44"/>
+    </row>
+    <row r="194" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C194" s="29"/>
       <c r="D194" s="29"/>
       <c r="E194" s="74"/>
       <c r="F194" s="29"/>
       <c r="G194" s="29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H194" s="29"/>
       <c r="I194" s="29"/>
@@ -9775,9 +9776,11 @@
     <row r="195" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C195" s="29"/>
       <c r="D195" s="29"/>
-      <c r="E195" s="29"/>
+      <c r="E195" s="74"/>
       <c r="F195" s="29"/>
-      <c r="G195" s="29"/>
+      <c r="G195" s="29" t="s">
+        <v>214</v>
+      </c>
       <c r="H195" s="29"/>
       <c r="I195" s="29"/>
       <c r="J195" s="29"/>
@@ -9800,17 +9803,10 @@
       <c r="AA195" s="29"/>
       <c r="AB195" s="29"/>
     </row>
-    <row r="196" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="29"/>
-      <c r="B196" s="29"/>
+    <row r="196" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C196" s="29"/>
-      <c r="D196" s="77" t="str">
-        <f>$C$7&amp;"9."</f>
-        <v>3.1.9.</v>
-      </c>
-      <c r="E196" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="D196" s="29"/>
+      <c r="E196" s="29"/>
       <c r="F196" s="29"/>
       <c r="G196" s="29"/>
       <c r="H196" s="29"/>
@@ -9834,26 +9830,19 @@
       <c r="Z196" s="29"/>
       <c r="AA196" s="29"/>
       <c r="AB196" s="29"/>
-      <c r="AC196" s="29"/>
-      <c r="AD196" s="29"/>
-      <c r="AE196" s="29"/>
-      <c r="AF196" s="29"/>
-      <c r="AG196" s="29"/>
-      <c r="AH196" s="29"/>
-      <c r="AI196" s="29"/>
     </row>
     <row r="197" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="29"/>
       <c r="B197" s="29"/>
       <c r="C197" s="29"/>
-      <c r="D197" s="29"/>
-      <c r="E197" s="24" t="str">
-        <f>D196&amp;"1."</f>
-        <v>3.1.9.1.</v>
-      </c>
-      <c r="F197" s="74" t="s">
-        <v>122</v>
-      </c>
+      <c r="D197" s="77" t="str">
+        <f>$C$7&amp;"9."</f>
+        <v>3.1.9.</v>
+      </c>
+      <c r="E197" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F197" s="29"/>
       <c r="G197" s="29"/>
       <c r="H197" s="29"/>
       <c r="I197" s="29"/>
@@ -9884,14 +9873,17 @@
       <c r="AH197" s="29"/>
       <c r="AI197" s="29"/>
     </row>
-    <row r="198" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="29"/>
       <c r="B198" s="29"/>
       <c r="C198" s="29"/>
       <c r="D198" s="29"/>
-      <c r="E198" s="24"/>
+      <c r="E198" s="24" t="str">
+        <f>D197&amp;"1."</f>
+        <v>3.1.9.1.</v>
+      </c>
       <c r="F198" s="74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G198" s="29"/>
       <c r="H198" s="29"/>
@@ -9923,13 +9915,15 @@
       <c r="AH198" s="29"/>
       <c r="AI198" s="29"/>
     </row>
-    <row r="199" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="29"/>
       <c r="B199" s="29"/>
       <c r="C199" s="29"/>
       <c r="D199" s="29"/>
-      <c r="E199" s="29"/>
-      <c r="F199" s="29"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="74" t="s">
+        <v>123</v>
+      </c>
       <c r="G199" s="29"/>
       <c r="H199" s="29"/>
       <c r="I199" s="29"/>
@@ -9960,18 +9954,14 @@
       <c r="AH199" s="29"/>
       <c r="AI199" s="29"/>
     </row>
-    <row r="200" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="29"/>
       <c r="B200" s="29"/>
       <c r="C200" s="29"/>
       <c r="D200" s="29"/>
       <c r="E200" s="29"/>
-      <c r="F200" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="G200" s="65" t="s">
-        <v>75</v>
-      </c>
+      <c r="F200" s="29"/>
+      <c r="G200" s="29"/>
       <c r="H200" s="29"/>
       <c r="I200" s="29"/>
       <c r="J200" s="29"/>
@@ -10007,9 +9997,11 @@
       <c r="C201" s="29"/>
       <c r="D201" s="29"/>
       <c r="E201" s="29"/>
-      <c r="F201" s="29"/>
+      <c r="F201" s="77" t="s">
+        <v>76</v>
+      </c>
       <c r="G201" s="65" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H201" s="29"/>
       <c r="I201" s="29"/>
@@ -10048,7 +10040,7 @@
       <c r="E202" s="29"/>
       <c r="F202" s="29"/>
       <c r="G202" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H202" s="29"/>
       <c r="I202" s="29"/>
@@ -10087,7 +10079,7 @@
       <c r="E203" s="29"/>
       <c r="F203" s="29"/>
       <c r="G203" s="65" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="H203" s="29"/>
       <c r="I203" s="29"/>
@@ -10125,8 +10117,8 @@
       <c r="D204" s="29"/>
       <c r="E204" s="29"/>
       <c r="F204" s="29"/>
-      <c r="G204" s="78" t="s">
-        <v>196</v>
+      <c r="G204" s="65" t="s">
+        <v>203</v>
       </c>
       <c r="H204" s="29"/>
       <c r="I204" s="29"/>
@@ -10165,7 +10157,7 @@
       <c r="E205" s="29"/>
       <c r="F205" s="29"/>
       <c r="G205" s="78" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H205" s="29"/>
       <c r="I205" s="29"/>
@@ -10196,14 +10188,16 @@
       <c r="AH205" s="29"/>
       <c r="AI205" s="29"/>
     </row>
-    <row r="206" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="29"/>
       <c r="B206" s="29"/>
       <c r="C206" s="29"/>
       <c r="D206" s="29"/>
       <c r="E206" s="29"/>
       <c r="F206" s="29"/>
-      <c r="G206" s="29"/>
+      <c r="G206" s="78" t="s">
+        <v>232</v>
+      </c>
       <c r="H206" s="29"/>
       <c r="I206" s="29"/>
       <c r="J206" s="29"/>
@@ -10239,12 +10233,8 @@
       <c r="C207" s="29"/>
       <c r="D207" s="29"/>
       <c r="E207" s="29"/>
-      <c r="F207" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="G207" s="29" t="s">
-        <v>85</v>
-      </c>
+      <c r="F207" s="29"/>
+      <c r="G207" s="29"/>
       <c r="H207" s="29"/>
       <c r="I207" s="29"/>
       <c r="J207" s="29"/>
@@ -10280,9 +10270,11 @@
       <c r="C208" s="29"/>
       <c r="D208" s="29"/>
       <c r="E208" s="29"/>
-      <c r="F208" s="29"/>
+      <c r="F208" s="77" t="s">
+        <v>43</v>
+      </c>
       <c r="G208" s="29" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H208" s="29"/>
       <c r="I208" s="29"/>
@@ -10321,7 +10313,7 @@
       <c r="E209" s="29"/>
       <c r="F209" s="29"/>
       <c r="G209" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H209" s="29"/>
       <c r="I209" s="29"/>
@@ -10360,7 +10352,7 @@
       <c r="E210" s="29"/>
       <c r="F210" s="29"/>
       <c r="G210" s="29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H210" s="29"/>
       <c r="I210" s="29"/>
@@ -10398,7 +10390,9 @@
       <c r="D211" s="29"/>
       <c r="E211" s="29"/>
       <c r="F211" s="29"/>
-      <c r="G211" s="29"/>
+      <c r="G211" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="H211" s="29"/>
       <c r="I211" s="29"/>
       <c r="J211" s="29"/>
@@ -10435,9 +10429,7 @@
       <c r="D212" s="29"/>
       <c r="E212" s="29"/>
       <c r="F212" s="29"/>
-      <c r="G212" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="G212" s="29"/>
       <c r="H212" s="29"/>
       <c r="I212" s="29"/>
       <c r="J212" s="29"/>
@@ -10467,45 +10459,43 @@
       <c r="AH212" s="29"/>
       <c r="AI212" s="29"/>
     </row>
-    <row r="213" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="29"/>
       <c r="B213" s="29"/>
       <c r="C213" s="29"/>
       <c r="D213" s="29"/>
       <c r="E213" s="29"/>
       <c r="F213" s="29"/>
-      <c r="G213" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H213" s="38"/>
-      <c r="I213" s="38"/>
-      <c r="J213" s="38"/>
-      <c r="K213" s="38"/>
-      <c r="L213" s="38"/>
-      <c r="M213" s="38"/>
-      <c r="N213" s="38"/>
-      <c r="O213" s="38"/>
-      <c r="P213" s="37"/>
-      <c r="Q213" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="R213" s="38"/>
-      <c r="S213" s="38"/>
-      <c r="T213" s="38"/>
-      <c r="U213" s="38"/>
-      <c r="V213" s="38"/>
-      <c r="W213" s="38"/>
-      <c r="X213" s="38"/>
-      <c r="Y213" s="38"/>
-      <c r="Z213" s="38"/>
-      <c r="AA213" s="38"/>
-      <c r="AB213" s="38"/>
-      <c r="AC213" s="38"/>
-      <c r="AD213" s="38"/>
-      <c r="AE213" s="38"/>
-      <c r="AF213" s="38"/>
-      <c r="AG213" s="38"/>
-      <c r="AH213" s="37"/>
+      <c r="G213" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H213" s="29"/>
+      <c r="I213" s="29"/>
+      <c r="J213" s="29"/>
+      <c r="K213" s="29"/>
+      <c r="L213" s="29"/>
+      <c r="M213" s="29"/>
+      <c r="N213" s="29"/>
+      <c r="O213" s="29"/>
+      <c r="P213" s="29"/>
+      <c r="Q213" s="29"/>
+      <c r="R213" s="29"/>
+      <c r="S213" s="29"/>
+      <c r="T213" s="29"/>
+      <c r="U213" s="29"/>
+      <c r="V213" s="29"/>
+      <c r="W213" s="29"/>
+      <c r="X213" s="29"/>
+      <c r="Y213" s="29"/>
+      <c r="Z213" s="29"/>
+      <c r="AA213" s="29"/>
+      <c r="AB213" s="29"/>
+      <c r="AC213" s="29"/>
+      <c r="AD213" s="29"/>
+      <c r="AE213" s="29"/>
+      <c r="AF213" s="29"/>
+      <c r="AG213" s="29"/>
+      <c r="AH213" s="29"/>
       <c r="AI213" s="29"/>
     </row>
     <row r="214" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10515,38 +10505,38 @@
       <c r="D214" s="29"/>
       <c r="E214" s="29"/>
       <c r="F214" s="29"/>
-      <c r="G214" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="H214" s="55"/>
-      <c r="I214" s="55"/>
-      <c r="J214" s="55"/>
-      <c r="K214" s="55"/>
-      <c r="L214" s="55"/>
-      <c r="M214" s="55"/>
-      <c r="N214" s="55"/>
-      <c r="O214" s="55"/>
-      <c r="P214" s="31"/>
-      <c r="Q214" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="R214" s="55"/>
-      <c r="S214" s="55"/>
-      <c r="T214" s="55"/>
-      <c r="U214" s="55"/>
-      <c r="V214" s="55"/>
-      <c r="W214" s="55"/>
-      <c r="X214" s="55"/>
-      <c r="Y214" s="55"/>
-      <c r="Z214" s="55"/>
-      <c r="AA214" s="55"/>
-      <c r="AB214" s="55"/>
-      <c r="AC214" s="55"/>
-      <c r="AD214" s="55"/>
-      <c r="AE214" s="55"/>
-      <c r="AF214" s="55"/>
-      <c r="AG214" s="55"/>
-      <c r="AH214" s="31"/>
+      <c r="G214" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H214" s="38"/>
+      <c r="I214" s="38"/>
+      <c r="J214" s="38"/>
+      <c r="K214" s="38"/>
+      <c r="L214" s="38"/>
+      <c r="M214" s="38"/>
+      <c r="N214" s="38"/>
+      <c r="O214" s="38"/>
+      <c r="P214" s="37"/>
+      <c r="Q214" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="R214" s="38"/>
+      <c r="S214" s="38"/>
+      <c r="T214" s="38"/>
+      <c r="U214" s="38"/>
+      <c r="V214" s="38"/>
+      <c r="W214" s="38"/>
+      <c r="X214" s="38"/>
+      <c r="Y214" s="38"/>
+      <c r="Z214" s="38"/>
+      <c r="AA214" s="38"/>
+      <c r="AB214" s="38"/>
+      <c r="AC214" s="38"/>
+      <c r="AD214" s="38"/>
+      <c r="AE214" s="38"/>
+      <c r="AF214" s="38"/>
+      <c r="AG214" s="38"/>
+      <c r="AH214" s="37"/>
       <c r="AI214" s="29"/>
     </row>
     <row r="215" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10556,36 +10546,38 @@
       <c r="D215" s="29"/>
       <c r="E215" s="29"/>
       <c r="F215" s="29"/>
-      <c r="G215" s="32"/>
-      <c r="H215" s="33"/>
-      <c r="I215" s="33"/>
-      <c r="J215" s="33"/>
-      <c r="K215" s="33"/>
-      <c r="L215" s="33"/>
-      <c r="M215" s="33"/>
-      <c r="N215" s="33"/>
-      <c r="O215" s="33"/>
-      <c r="P215" s="34"/>
-      <c r="Q215" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="R215" s="33"/>
-      <c r="S215" s="33"/>
-      <c r="T215" s="33"/>
-      <c r="U215" s="33"/>
-      <c r="V215" s="33"/>
-      <c r="W215" s="33"/>
-      <c r="X215" s="33"/>
-      <c r="Y215" s="33"/>
-      <c r="Z215" s="33"/>
-      <c r="AA215" s="33"/>
-      <c r="AB215" s="33"/>
-      <c r="AC215" s="33"/>
-      <c r="AD215" s="33"/>
-      <c r="AE215" s="33"/>
-      <c r="AF215" s="33"/>
-      <c r="AG215" s="33"/>
-      <c r="AH215" s="34"/>
+      <c r="G215" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H215" s="55"/>
+      <c r="I215" s="55"/>
+      <c r="J215" s="55"/>
+      <c r="K215" s="55"/>
+      <c r="L215" s="55"/>
+      <c r="M215" s="55"/>
+      <c r="N215" s="55"/>
+      <c r="O215" s="55"/>
+      <c r="P215" s="31"/>
+      <c r="Q215" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="R215" s="55"/>
+      <c r="S215" s="55"/>
+      <c r="T215" s="55"/>
+      <c r="U215" s="55"/>
+      <c r="V215" s="55"/>
+      <c r="W215" s="55"/>
+      <c r="X215" s="55"/>
+      <c r="Y215" s="55"/>
+      <c r="Z215" s="55"/>
+      <c r="AA215" s="55"/>
+      <c r="AB215" s="55"/>
+      <c r="AC215" s="55"/>
+      <c r="AD215" s="55"/>
+      <c r="AE215" s="55"/>
+      <c r="AF215" s="55"/>
+      <c r="AG215" s="55"/>
+      <c r="AH215" s="31"/>
       <c r="AI215" s="29"/>
     </row>
     <row r="216" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10595,38 +10587,36 @@
       <c r="D216" s="29"/>
       <c r="E216" s="29"/>
       <c r="F216" s="29"/>
-      <c r="G216" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="H216" s="55"/>
-      <c r="I216" s="55"/>
-      <c r="J216" s="55"/>
-      <c r="K216" s="55"/>
-      <c r="L216" s="55"/>
-      <c r="M216" s="55"/>
-      <c r="N216" s="55"/>
-      <c r="O216" s="55"/>
-      <c r="P216" s="31"/>
-      <c r="Q216" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="R216" s="55"/>
-      <c r="S216" s="55"/>
-      <c r="T216" s="55"/>
-      <c r="U216" s="55"/>
-      <c r="V216" s="55"/>
-      <c r="W216" s="55"/>
-      <c r="X216" s="55"/>
-      <c r="Y216" s="55"/>
-      <c r="Z216" s="55"/>
-      <c r="AA216" s="55"/>
-      <c r="AB216" s="55"/>
-      <c r="AC216" s="55"/>
-      <c r="AD216" s="55"/>
-      <c r="AE216" s="55"/>
-      <c r="AF216" s="55"/>
-      <c r="AG216" s="55"/>
-      <c r="AH216" s="31"/>
+      <c r="G216" s="32"/>
+      <c r="H216" s="33"/>
+      <c r="I216" s="33"/>
+      <c r="J216" s="33"/>
+      <c r="K216" s="33"/>
+      <c r="L216" s="33"/>
+      <c r="M216" s="33"/>
+      <c r="N216" s="33"/>
+      <c r="O216" s="33"/>
+      <c r="P216" s="34"/>
+      <c r="Q216" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="R216" s="33"/>
+      <c r="S216" s="33"/>
+      <c r="T216" s="33"/>
+      <c r="U216" s="33"/>
+      <c r="V216" s="33"/>
+      <c r="W216" s="33"/>
+      <c r="X216" s="33"/>
+      <c r="Y216" s="33"/>
+      <c r="Z216" s="33"/>
+      <c r="AA216" s="33"/>
+      <c r="AB216" s="33"/>
+      <c r="AC216" s="33"/>
+      <c r="AD216" s="33"/>
+      <c r="AE216" s="33"/>
+      <c r="AF216" s="33"/>
+      <c r="AG216" s="33"/>
+      <c r="AH216" s="34"/>
       <c r="AI216" s="29"/>
     </row>
     <row r="217" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10636,7 +10626,9 @@
       <c r="D217" s="29"/>
       <c r="E217" s="29"/>
       <c r="F217" s="29"/>
-      <c r="G217" s="30"/>
+      <c r="G217" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="H217" s="55"/>
       <c r="I217" s="55"/>
       <c r="J217" s="55"/>
@@ -10647,7 +10639,7 @@
       <c r="O217" s="55"/>
       <c r="P217" s="31"/>
       <c r="Q217" s="55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R217" s="55"/>
       <c r="S217" s="55"/>
@@ -10675,36 +10667,36 @@
       <c r="D218" s="29"/>
       <c r="E218" s="29"/>
       <c r="F218" s="29"/>
-      <c r="G218" s="32"/>
-      <c r="H218" s="33"/>
-      <c r="I218" s="33"/>
-      <c r="J218" s="33"/>
-      <c r="K218" s="33"/>
-      <c r="L218" s="33"/>
-      <c r="M218" s="33"/>
-      <c r="N218" s="33"/>
-      <c r="O218" s="33"/>
-      <c r="P218" s="34"/>
-      <c r="Q218" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="R218" s="33"/>
-      <c r="S218" s="33"/>
-      <c r="T218" s="33"/>
-      <c r="U218" s="33"/>
-      <c r="V218" s="33"/>
-      <c r="W218" s="33"/>
-      <c r="X218" s="33"/>
-      <c r="Y218" s="33"/>
-      <c r="Z218" s="33"/>
-      <c r="AA218" s="33"/>
-      <c r="AB218" s="33"/>
-      <c r="AC218" s="33"/>
-      <c r="AD218" s="33"/>
-      <c r="AE218" s="33"/>
-      <c r="AF218" s="33"/>
-      <c r="AG218" s="33"/>
-      <c r="AH218" s="34"/>
+      <c r="G218" s="30"/>
+      <c r="H218" s="55"/>
+      <c r="I218" s="55"/>
+      <c r="J218" s="55"/>
+      <c r="K218" s="55"/>
+      <c r="L218" s="55"/>
+      <c r="M218" s="55"/>
+      <c r="N218" s="55"/>
+      <c r="O218" s="55"/>
+      <c r="P218" s="31"/>
+      <c r="Q218" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="R218" s="55"/>
+      <c r="S218" s="55"/>
+      <c r="T218" s="55"/>
+      <c r="U218" s="55"/>
+      <c r="V218" s="55"/>
+      <c r="W218" s="55"/>
+      <c r="X218" s="55"/>
+      <c r="Y218" s="55"/>
+      <c r="Z218" s="55"/>
+      <c r="AA218" s="55"/>
+      <c r="AB218" s="55"/>
+      <c r="AC218" s="55"/>
+      <c r="AD218" s="55"/>
+      <c r="AE218" s="55"/>
+      <c r="AF218" s="55"/>
+      <c r="AG218" s="55"/>
+      <c r="AH218" s="31"/>
       <c r="AI218" s="29"/>
     </row>
     <row r="219" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10714,34 +10706,36 @@
       <c r="D219" s="29"/>
       <c r="E219" s="29"/>
       <c r="F219" s="29"/>
-      <c r="G219" s="55"/>
-      <c r="H219" s="55"/>
-      <c r="I219" s="55"/>
-      <c r="J219" s="55"/>
-      <c r="K219" s="55"/>
-      <c r="L219" s="55"/>
-      <c r="M219" s="55"/>
-      <c r="N219" s="55"/>
-      <c r="O219" s="55"/>
-      <c r="P219" s="55"/>
-      <c r="Q219" s="55"/>
-      <c r="R219" s="55"/>
-      <c r="S219" s="55"/>
-      <c r="T219" s="55"/>
-      <c r="U219" s="55"/>
-      <c r="V219" s="55"/>
-      <c r="W219" s="55"/>
-      <c r="X219" s="55"/>
-      <c r="Y219" s="55"/>
-      <c r="Z219" s="55"/>
-      <c r="AA219" s="55"/>
-      <c r="AB219" s="55"/>
-      <c r="AC219" s="55"/>
-      <c r="AD219" s="55"/>
-      <c r="AE219" s="55"/>
-      <c r="AF219" s="55"/>
-      <c r="AG219" s="55"/>
-      <c r="AH219" s="55"/>
+      <c r="G219" s="32"/>
+      <c r="H219" s="33"/>
+      <c r="I219" s="33"/>
+      <c r="J219" s="33"/>
+      <c r="K219" s="33"/>
+      <c r="L219" s="33"/>
+      <c r="M219" s="33"/>
+      <c r="N219" s="33"/>
+      <c r="O219" s="33"/>
+      <c r="P219" s="34"/>
+      <c r="Q219" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="R219" s="33"/>
+      <c r="S219" s="33"/>
+      <c r="T219" s="33"/>
+      <c r="U219" s="33"/>
+      <c r="V219" s="33"/>
+      <c r="W219" s="33"/>
+      <c r="X219" s="33"/>
+      <c r="Y219" s="33"/>
+      <c r="Z219" s="33"/>
+      <c r="AA219" s="33"/>
+      <c r="AB219" s="33"/>
+      <c r="AC219" s="33"/>
+      <c r="AD219" s="33"/>
+      <c r="AE219" s="33"/>
+      <c r="AF219" s="33"/>
+      <c r="AG219" s="33"/>
+      <c r="AH219" s="34"/>
       <c r="AI219" s="29"/>
     </row>
     <row r="220" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10751,9 +10745,7 @@
       <c r="D220" s="29"/>
       <c r="E220" s="29"/>
       <c r="F220" s="29"/>
-      <c r="G220" s="55" t="s">
-        <v>247</v>
-      </c>
+      <c r="G220" s="55"/>
       <c r="H220" s="55"/>
       <c r="I220" s="55"/>
       <c r="J220" s="55"/>
@@ -10790,7 +10782,9 @@
       <c r="D221" s="29"/>
       <c r="E221" s="29"/>
       <c r="F221" s="29"/>
-      <c r="G221" s="55"/>
+      <c r="G221" s="55" t="s">
+        <v>247</v>
+      </c>
       <c r="H221" s="55"/>
       <c r="I221" s="55"/>
       <c r="J221" s="55"/>
@@ -10827,9 +10821,7 @@
       <c r="D222" s="29"/>
       <c r="E222" s="29"/>
       <c r="F222" s="29"/>
-      <c r="G222" s="55" t="s">
-        <v>249</v>
-      </c>
+      <c r="G222" s="55"/>
       <c r="H222" s="55"/>
       <c r="I222" s="55"/>
       <c r="J222" s="55"/>
@@ -10867,7 +10859,7 @@
       <c r="E223" s="29"/>
       <c r="F223" s="29"/>
       <c r="G223" s="55" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H223" s="55"/>
       <c r="I223" s="55"/>
@@ -10905,7 +10897,9 @@
       <c r="D224" s="29"/>
       <c r="E224" s="29"/>
       <c r="F224" s="29"/>
-      <c r="G224" s="55"/>
+      <c r="G224" s="55" t="s">
+        <v>254</v>
+      </c>
       <c r="H224" s="55"/>
       <c r="I224" s="55"/>
       <c r="J224" s="55"/>
@@ -10942,9 +10936,7 @@
       <c r="D225" s="29"/>
       <c r="E225" s="29"/>
       <c r="F225" s="29"/>
-      <c r="G225" s="55" t="s">
-        <v>250</v>
-      </c>
+      <c r="G225" s="55"/>
       <c r="H225" s="55"/>
       <c r="I225" s="55"/>
       <c r="J225" s="55"/>
@@ -10982,7 +10974,7 @@
       <c r="E226" s="29"/>
       <c r="F226" s="29"/>
       <c r="G226" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H226" s="55"/>
       <c r="I226" s="55"/>
@@ -11021,7 +11013,7 @@
       <c r="E227" s="29"/>
       <c r="F227" s="29"/>
       <c r="G227" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H227" s="55"/>
       <c r="I227" s="55"/>
@@ -11060,7 +11052,7 @@
       <c r="E228" s="29"/>
       <c r="F228" s="29"/>
       <c r="G228" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H228" s="55"/>
       <c r="I228" s="55"/>
@@ -11098,48 +11090,45 @@
       <c r="D229" s="29"/>
       <c r="E229" s="29"/>
       <c r="F229" s="29"/>
-      <c r="G229" s="29"/>
-      <c r="H229" s="29"/>
-      <c r="I229" s="29"/>
-      <c r="J229" s="29"/>
-      <c r="K229" s="29"/>
-      <c r="L229" s="29"/>
-      <c r="M229" s="29"/>
-      <c r="N229" s="29"/>
-      <c r="O229" s="29"/>
-      <c r="P229" s="29"/>
-      <c r="Q229" s="29"/>
-      <c r="R229" s="29"/>
-      <c r="S229" s="29"/>
-      <c r="T229" s="29"/>
-      <c r="U229" s="29"/>
-      <c r="V229" s="29"/>
-      <c r="W229" s="29"/>
-      <c r="X229" s="29"/>
-      <c r="Y229" s="29"/>
-      <c r="Z229" s="29"/>
-      <c r="AA229" s="29"/>
-      <c r="AB229" s="29"/>
-      <c r="AC229" s="29"/>
-      <c r="AD229" s="29"/>
-      <c r="AE229" s="29"/>
-      <c r="AF229" s="29"/>
-      <c r="AG229" s="29"/>
-      <c r="AH229" s="29"/>
+      <c r="G229" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="H229" s="55"/>
+      <c r="I229" s="55"/>
+      <c r="J229" s="55"/>
+      <c r="K229" s="55"/>
+      <c r="L229" s="55"/>
+      <c r="M229" s="55"/>
+      <c r="N229" s="55"/>
+      <c r="O229" s="55"/>
+      <c r="P229" s="55"/>
+      <c r="Q229" s="55"/>
+      <c r="R229" s="55"/>
+      <c r="S229" s="55"/>
+      <c r="T229" s="55"/>
+      <c r="U229" s="55"/>
+      <c r="V229" s="55"/>
+      <c r="W229" s="55"/>
+      <c r="X229" s="55"/>
+      <c r="Y229" s="55"/>
+      <c r="Z229" s="55"/>
+      <c r="AA229" s="55"/>
+      <c r="AB229" s="55"/>
+      <c r="AC229" s="55"/>
+      <c r="AD229" s="55"/>
+      <c r="AE229" s="55"/>
+      <c r="AF229" s="55"/>
+      <c r="AG229" s="55"/>
+      <c r="AH229" s="55"/>
       <c r="AI229" s="29"/>
     </row>
-    <row r="230" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="29"/>
       <c r="B230" s="29"/>
       <c r="C230" s="29"/>
       <c r="D230" s="29"/>
-      <c r="E230" s="24" t="str">
-        <f>D196&amp;"2."</f>
-        <v>3.1.9.2.</v>
-      </c>
-      <c r="F230" s="29" t="s">
-        <v>88</v>
-      </c>
+      <c r="E230" s="29"/>
+      <c r="F230" s="29"/>
       <c r="G230" s="29"/>
       <c r="H230" s="29"/>
       <c r="I230" s="29"/>
@@ -11170,14 +11159,17 @@
       <c r="AH230" s="29"/>
       <c r="AI230" s="29"/>
     </row>
-    <row r="231" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="29"/>
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
       <c r="D231" s="29"/>
-      <c r="E231" s="24"/>
+      <c r="E231" s="24" t="str">
+        <f>D197&amp;"2."</f>
+        <v>3.1.9.2.</v>
+      </c>
       <c r="F231" s="29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G231" s="29"/>
       <c r="H231" s="29"/>
@@ -11215,7 +11207,9 @@
       <c r="C232" s="29"/>
       <c r="D232" s="29"/>
       <c r="E232" s="24"/>
-      <c r="F232" s="29"/>
+      <c r="F232" s="29" t="s">
+        <v>86</v>
+      </c>
       <c r="G232" s="29"/>
       <c r="H232" s="29"/>
       <c r="I232" s="29"/>
@@ -11251,13 +11245,9 @@
       <c r="B233" s="29"/>
       <c r="C233" s="29"/>
       <c r="D233" s="29"/>
-      <c r="E233" s="29"/>
-      <c r="F233" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G233" s="29" t="s">
-        <v>89</v>
-      </c>
+      <c r="E233" s="24"/>
+      <c r="F233" s="29"/>
+      <c r="G233" s="29"/>
       <c r="H233" s="29"/>
       <c r="I233" s="29"/>
       <c r="J233" s="29"/>
@@ -11293,9 +11283,11 @@
       <c r="C234" s="29"/>
       <c r="D234" s="29"/>
       <c r="E234" s="29"/>
-      <c r="F234" s="24"/>
+      <c r="F234" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="G234" s="29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H234" s="29"/>
       <c r="I234" s="29"/>
@@ -11333,40 +11325,36 @@
       <c r="D235" s="29"/>
       <c r="E235" s="29"/>
       <c r="F235" s="24"/>
-      <c r="G235" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="H235" s="38"/>
-      <c r="I235" s="38"/>
-      <c r="J235" s="38"/>
-      <c r="K235" s="37"/>
-      <c r="L235" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="M235" s="38"/>
-      <c r="N235" s="38"/>
-      <c r="O235" s="38"/>
-      <c r="P235" s="38"/>
-      <c r="Q235" s="38"/>
-      <c r="R235" s="38"/>
-      <c r="S235" s="38"/>
-      <c r="T235" s="38"/>
-      <c r="U235" s="38"/>
-      <c r="V235" s="38"/>
-      <c r="W235" s="38"/>
-      <c r="X235" s="38"/>
-      <c r="Y235" s="38"/>
-      <c r="Z235" s="38"/>
-      <c r="AA235" s="38"/>
-      <c r="AB235" s="37"/>
-      <c r="AC235" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD235" s="38"/>
-      <c r="AE235" s="38"/>
-      <c r="AF235" s="38"/>
-      <c r="AG235" s="38"/>
-      <c r="AH235" s="37"/>
+      <c r="G235" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H235" s="29"/>
+      <c r="I235" s="29"/>
+      <c r="J235" s="29"/>
+      <c r="K235" s="29"/>
+      <c r="L235" s="29"/>
+      <c r="M235" s="29"/>
+      <c r="N235" s="29"/>
+      <c r="O235" s="29"/>
+      <c r="P235" s="29"/>
+      <c r="Q235" s="29"/>
+      <c r="R235" s="29"/>
+      <c r="S235" s="29"/>
+      <c r="T235" s="29"/>
+      <c r="U235" s="29"/>
+      <c r="V235" s="29"/>
+      <c r="W235" s="29"/>
+      <c r="X235" s="29"/>
+      <c r="Y235" s="29"/>
+      <c r="Z235" s="29"/>
+      <c r="AA235" s="29"/>
+      <c r="AB235" s="29"/>
+      <c r="AC235" s="29"/>
+      <c r="AD235" s="29"/>
+      <c r="AE235" s="29"/>
+      <c r="AF235" s="29"/>
+      <c r="AG235" s="29"/>
+      <c r="AH235" s="29"/>
       <c r="AI235" s="29"/>
     </row>
     <row r="236" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11376,40 +11364,40 @@
       <c r="D236" s="29"/>
       <c r="E236" s="29"/>
       <c r="F236" s="24"/>
-      <c r="G236" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H236" s="55"/>
-      <c r="I236" s="55"/>
-      <c r="J236" s="55"/>
-      <c r="K236" s="31"/>
-      <c r="L236" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M236" s="26"/>
-      <c r="N236" s="26"/>
-      <c r="O236" s="26"/>
-      <c r="P236" s="26"/>
-      <c r="Q236" s="26"/>
-      <c r="R236" s="26"/>
-      <c r="S236" s="26"/>
-      <c r="T236" s="26"/>
-      <c r="U236" s="26"/>
-      <c r="V236" s="26"/>
-      <c r="W236" s="26"/>
-      <c r="X236" s="26"/>
-      <c r="Y236" s="26"/>
-      <c r="Z236" s="26"/>
-      <c r="AA236" s="26"/>
-      <c r="AB236" s="71"/>
-      <c r="AC236" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD236" s="26"/>
-      <c r="AE236" s="26"/>
-      <c r="AF236" s="26"/>
-      <c r="AG236" s="26"/>
-      <c r="AH236" s="71"/>
+      <c r="G236" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H236" s="38"/>
+      <c r="I236" s="38"/>
+      <c r="J236" s="38"/>
+      <c r="K236" s="37"/>
+      <c r="L236" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="M236" s="38"/>
+      <c r="N236" s="38"/>
+      <c r="O236" s="38"/>
+      <c r="P236" s="38"/>
+      <c r="Q236" s="38"/>
+      <c r="R236" s="38"/>
+      <c r="S236" s="38"/>
+      <c r="T236" s="38"/>
+      <c r="U236" s="38"/>
+      <c r="V236" s="38"/>
+      <c r="W236" s="38"/>
+      <c r="X236" s="38"/>
+      <c r="Y236" s="38"/>
+      <c r="Z236" s="38"/>
+      <c r="AA236" s="38"/>
+      <c r="AB236" s="37"/>
+      <c r="AC236" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD236" s="38"/>
+      <c r="AE236" s="38"/>
+      <c r="AF236" s="38"/>
+      <c r="AG236" s="38"/>
+      <c r="AH236" s="37"/>
       <c r="AI236" s="29"/>
     </row>
     <row r="237" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11419,15 +11407,15 @@
       <c r="D237" s="29"/>
       <c r="E237" s="29"/>
       <c r="F237" s="24"/>
-      <c r="G237" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="H237" s="57"/>
-      <c r="I237" s="57"/>
-      <c r="J237" s="57"/>
-      <c r="K237" s="58"/>
+      <c r="G237" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H237" s="55"/>
+      <c r="I237" s="55"/>
+      <c r="J237" s="55"/>
+      <c r="K237" s="31"/>
       <c r="L237" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M237" s="26"/>
       <c r="N237" s="26"/>
@@ -11445,7 +11433,9 @@
       <c r="Z237" s="26"/>
       <c r="AA237" s="26"/>
       <c r="AB237" s="71"/>
-      <c r="AC237" s="26"/>
+      <c r="AC237" s="26" t="s">
+        <v>217</v>
+      </c>
       <c r="AD237" s="26"/>
       <c r="AE237" s="26"/>
       <c r="AF237" s="26"/>
@@ -11460,14 +11450,16 @@
       <c r="D238" s="29"/>
       <c r="E238" s="29"/>
       <c r="F238" s="24"/>
-      <c r="G238" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="H238" s="55"/>
-      <c r="I238" s="55"/>
-      <c r="J238" s="55"/>
-      <c r="K238" s="31"/>
-      <c r="L238" s="92"/>
+      <c r="G238" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H238" s="57"/>
+      <c r="I238" s="57"/>
+      <c r="J238" s="57"/>
+      <c r="K238" s="58"/>
+      <c r="L238" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="M238" s="26"/>
       <c r="N238" s="26"/>
       <c r="O238" s="26"/>
@@ -11499,36 +11491,36 @@
       <c r="D239" s="29"/>
       <c r="E239" s="29"/>
       <c r="F239" s="24"/>
-      <c r="G239" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="H239" s="33"/>
-      <c r="I239" s="33"/>
-      <c r="J239" s="33"/>
-      <c r="K239" s="34"/>
-      <c r="L239" s="76"/>
-      <c r="M239" s="76"/>
-      <c r="N239" s="76"/>
-      <c r="O239" s="76"/>
-      <c r="P239" s="76"/>
-      <c r="Q239" s="76"/>
-      <c r="R239" s="76"/>
-      <c r="S239" s="76"/>
-      <c r="T239" s="76"/>
-      <c r="U239" s="76"/>
-      <c r="V239" s="76"/>
-      <c r="W239" s="76"/>
-      <c r="X239" s="76"/>
-      <c r="Y239" s="76"/>
-      <c r="Z239" s="76"/>
-      <c r="AA239" s="76"/>
-      <c r="AB239" s="90"/>
-      <c r="AC239" s="76"/>
-      <c r="AD239" s="76"/>
-      <c r="AE239" s="76"/>
-      <c r="AF239" s="76"/>
-      <c r="AG239" s="76"/>
-      <c r="AH239" s="90"/>
+      <c r="G239" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H239" s="55"/>
+      <c r="I239" s="55"/>
+      <c r="J239" s="55"/>
+      <c r="K239" s="31"/>
+      <c r="L239" s="92"/>
+      <c r="M239" s="26"/>
+      <c r="N239" s="26"/>
+      <c r="O239" s="26"/>
+      <c r="P239" s="26"/>
+      <c r="Q239" s="26"/>
+      <c r="R239" s="26"/>
+      <c r="S239" s="26"/>
+      <c r="T239" s="26"/>
+      <c r="U239" s="26"/>
+      <c r="V239" s="26"/>
+      <c r="W239" s="26"/>
+      <c r="X239" s="26"/>
+      <c r="Y239" s="26"/>
+      <c r="Z239" s="26"/>
+      <c r="AA239" s="26"/>
+      <c r="AB239" s="71"/>
+      <c r="AC239" s="26"/>
+      <c r="AD239" s="26"/>
+      <c r="AE239" s="26"/>
+      <c r="AF239" s="26"/>
+      <c r="AG239" s="26"/>
+      <c r="AH239" s="71"/>
       <c r="AI239" s="29"/>
     </row>
     <row r="240" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11538,40 +11530,36 @@
       <c r="D240" s="29"/>
       <c r="E240" s="29"/>
       <c r="F240" s="24"/>
-      <c r="G240" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H240" s="55"/>
-      <c r="I240" s="55"/>
-      <c r="J240" s="55"/>
-      <c r="K240" s="31"/>
-      <c r="L240" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="M240" s="26"/>
-      <c r="N240" s="26"/>
-      <c r="O240" s="26"/>
-      <c r="P240" s="26"/>
-      <c r="Q240" s="26"/>
-      <c r="R240" s="26"/>
-      <c r="S240" s="26"/>
-      <c r="T240" s="26"/>
-      <c r="U240" s="26"/>
-      <c r="V240" s="26"/>
-      <c r="W240" s="26"/>
-      <c r="X240" s="26"/>
-      <c r="Y240" s="26"/>
-      <c r="Z240" s="26"/>
-      <c r="AA240" s="26"/>
-      <c r="AB240" s="71"/>
-      <c r="AC240" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD240" s="26"/>
-      <c r="AE240" s="26"/>
-      <c r="AF240" s="26"/>
-      <c r="AG240" s="26"/>
-      <c r="AH240" s="71"/>
+      <c r="G240" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="H240" s="33"/>
+      <c r="I240" s="33"/>
+      <c r="J240" s="33"/>
+      <c r="K240" s="34"/>
+      <c r="L240" s="76"/>
+      <c r="M240" s="76"/>
+      <c r="N240" s="76"/>
+      <c r="O240" s="76"/>
+      <c r="P240" s="76"/>
+      <c r="Q240" s="76"/>
+      <c r="R240" s="76"/>
+      <c r="S240" s="76"/>
+      <c r="T240" s="76"/>
+      <c r="U240" s="76"/>
+      <c r="V240" s="76"/>
+      <c r="W240" s="76"/>
+      <c r="X240" s="76"/>
+      <c r="Y240" s="76"/>
+      <c r="Z240" s="76"/>
+      <c r="AA240" s="76"/>
+      <c r="AB240" s="90"/>
+      <c r="AC240" s="76"/>
+      <c r="AD240" s="76"/>
+      <c r="AE240" s="76"/>
+      <c r="AF240" s="76"/>
+      <c r="AG240" s="76"/>
+      <c r="AH240" s="90"/>
       <c r="AI240" s="29"/>
     </row>
     <row r="241" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11581,13 +11569,15 @@
       <c r="D241" s="29"/>
       <c r="E241" s="29"/>
       <c r="F241" s="24"/>
-      <c r="G241" s="30"/>
+      <c r="G241" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="H241" s="55"/>
       <c r="I241" s="55"/>
       <c r="J241" s="55"/>
       <c r="K241" s="31"/>
       <c r="L241" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M241" s="26"/>
       <c r="N241" s="26"/>
@@ -11606,7 +11596,7 @@
       <c r="AA241" s="26"/>
       <c r="AB241" s="71"/>
       <c r="AC241" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AD241" s="26"/>
       <c r="AE241" s="26"/>
@@ -11628,7 +11618,7 @@
       <c r="J242" s="55"/>
       <c r="K242" s="31"/>
       <c r="L242" s="26" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="M242" s="26"/>
       <c r="N242" s="26"/>
@@ -11646,7 +11636,9 @@
       <c r="Z242" s="26"/>
       <c r="AA242" s="26"/>
       <c r="AB242" s="71"/>
-      <c r="AC242" s="26"/>
+      <c r="AC242" s="26" t="s">
+        <v>219</v>
+      </c>
       <c r="AD242" s="26"/>
       <c r="AE242" s="26"/>
       <c r="AF242" s="26"/>
@@ -11661,34 +11653,36 @@
       <c r="D243" s="29"/>
       <c r="E243" s="29"/>
       <c r="F243" s="24"/>
-      <c r="G243" s="32"/>
-      <c r="H243" s="33"/>
-      <c r="I243" s="33"/>
-      <c r="J243" s="33"/>
-      <c r="K243" s="34"/>
-      <c r="L243" s="76"/>
-      <c r="M243" s="76"/>
-      <c r="N243" s="76"/>
-      <c r="O243" s="76"/>
-      <c r="P243" s="76"/>
-      <c r="Q243" s="76"/>
-      <c r="R243" s="76"/>
-      <c r="S243" s="76"/>
-      <c r="T243" s="76"/>
-      <c r="U243" s="76"/>
-      <c r="V243" s="76"/>
-      <c r="W243" s="76"/>
-      <c r="X243" s="76"/>
-      <c r="Y243" s="76"/>
-      <c r="Z243" s="76"/>
-      <c r="AA243" s="76"/>
-      <c r="AB243" s="90"/>
-      <c r="AC243" s="76"/>
-      <c r="AD243" s="76"/>
-      <c r="AE243" s="76"/>
-      <c r="AF243" s="76"/>
-      <c r="AG243" s="76"/>
-      <c r="AH243" s="90"/>
+      <c r="G243" s="30"/>
+      <c r="H243" s="55"/>
+      <c r="I243" s="55"/>
+      <c r="J243" s="55"/>
+      <c r="K243" s="31"/>
+      <c r="L243" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="M243" s="26"/>
+      <c r="N243" s="26"/>
+      <c r="O243" s="26"/>
+      <c r="P243" s="26"/>
+      <c r="Q243" s="26"/>
+      <c r="R243" s="26"/>
+      <c r="S243" s="26"/>
+      <c r="T243" s="26"/>
+      <c r="U243" s="26"/>
+      <c r="V243" s="26"/>
+      <c r="W243" s="26"/>
+      <c r="X243" s="26"/>
+      <c r="Y243" s="26"/>
+      <c r="Z243" s="26"/>
+      <c r="AA243" s="26"/>
+      <c r="AB243" s="71"/>
+      <c r="AC243" s="26"/>
+      <c r="AD243" s="26"/>
+      <c r="AE243" s="26"/>
+      <c r="AF243" s="26"/>
+      <c r="AG243" s="26"/>
+      <c r="AH243" s="71"/>
       <c r="AI243" s="29"/>
     </row>
     <row r="244" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11698,40 +11692,34 @@
       <c r="D244" s="29"/>
       <c r="E244" s="29"/>
       <c r="F244" s="24"/>
-      <c r="G244" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H244" s="55"/>
-      <c r="I244" s="55"/>
-      <c r="J244" s="55"/>
-      <c r="K244" s="31"/>
-      <c r="L244" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="M244" s="26"/>
-      <c r="N244" s="26"/>
-      <c r="O244" s="26"/>
-      <c r="P244" s="26"/>
-      <c r="Q244" s="26"/>
-      <c r="R244" s="26"/>
-      <c r="S244" s="26"/>
-      <c r="T244" s="26"/>
-      <c r="U244" s="26"/>
-      <c r="V244" s="26"/>
-      <c r="W244" s="26"/>
-      <c r="X244" s="26"/>
-      <c r="Y244" s="26"/>
-      <c r="Z244" s="26"/>
-      <c r="AA244" s="26"/>
-      <c r="AB244" s="71"/>
-      <c r="AC244" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD244" s="26"/>
-      <c r="AE244" s="26"/>
-      <c r="AF244" s="26"/>
-      <c r="AG244" s="26"/>
-      <c r="AH244" s="71"/>
+      <c r="G244" s="32"/>
+      <c r="H244" s="33"/>
+      <c r="I244" s="33"/>
+      <c r="J244" s="33"/>
+      <c r="K244" s="34"/>
+      <c r="L244" s="76"/>
+      <c r="M244" s="76"/>
+      <c r="N244" s="76"/>
+      <c r="O244" s="76"/>
+      <c r="P244" s="76"/>
+      <c r="Q244" s="76"/>
+      <c r="R244" s="76"/>
+      <c r="S244" s="76"/>
+      <c r="T244" s="76"/>
+      <c r="U244" s="76"/>
+      <c r="V244" s="76"/>
+      <c r="W244" s="76"/>
+      <c r="X244" s="76"/>
+      <c r="Y244" s="76"/>
+      <c r="Z244" s="76"/>
+      <c r="AA244" s="76"/>
+      <c r="AB244" s="90"/>
+      <c r="AC244" s="76"/>
+      <c r="AD244" s="76"/>
+      <c r="AE244" s="76"/>
+      <c r="AF244" s="76"/>
+      <c r="AG244" s="76"/>
+      <c r="AH244" s="90"/>
       <c r="AI244" s="29"/>
     </row>
     <row r="245" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11742,14 +11730,14 @@
       <c r="E245" s="29"/>
       <c r="F245" s="24"/>
       <c r="G245" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H245" s="55"/>
       <c r="I245" s="55"/>
       <c r="J245" s="55"/>
       <c r="K245" s="31"/>
       <c r="L245" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M245" s="26"/>
       <c r="N245" s="26"/>
@@ -11767,7 +11755,9 @@
       <c r="Z245" s="26"/>
       <c r="AA245" s="26"/>
       <c r="AB245" s="71"/>
-      <c r="AC245" s="26"/>
+      <c r="AC245" s="26" t="s">
+        <v>101</v>
+      </c>
       <c r="AD245" s="26"/>
       <c r="AE245" s="26"/>
       <c r="AF245" s="26"/>
@@ -11782,13 +11772,15 @@
       <c r="D246" s="29"/>
       <c r="E246" s="29"/>
       <c r="F246" s="24"/>
-      <c r="G246" s="30"/>
+      <c r="G246" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="H246" s="55"/>
       <c r="I246" s="55"/>
       <c r="J246" s="55"/>
       <c r="K246" s="31"/>
       <c r="L246" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M246" s="26"/>
       <c r="N246" s="26"/>
@@ -11827,7 +11819,7 @@
       <c r="J247" s="55"/>
       <c r="K247" s="31"/>
       <c r="L247" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M247" s="26"/>
       <c r="N247" s="26"/>
@@ -11865,7 +11857,9 @@
       <c r="I248" s="55"/>
       <c r="J248" s="55"/>
       <c r="K248" s="31"/>
-      <c r="L248" s="26"/>
+      <c r="L248" s="26" t="s">
+        <v>100</v>
+      </c>
       <c r="M248" s="26"/>
       <c r="N248" s="26"/>
       <c r="O248" s="26"/>
@@ -11902,9 +11896,7 @@
       <c r="I249" s="55"/>
       <c r="J249" s="55"/>
       <c r="K249" s="31"/>
-      <c r="L249" s="26" t="s">
-        <v>108</v>
-      </c>
+      <c r="L249" s="26"/>
       <c r="M249" s="26"/>
       <c r="N249" s="26"/>
       <c r="O249" s="26"/>
@@ -11942,7 +11934,7 @@
       <c r="J250" s="55"/>
       <c r="K250" s="31"/>
       <c r="L250" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M250" s="26"/>
       <c r="N250" s="26"/>
@@ -11981,7 +11973,7 @@
       <c r="J251" s="55"/>
       <c r="K251" s="31"/>
       <c r="L251" s="26" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="M251" s="26"/>
       <c r="N251" s="26"/>
@@ -12020,7 +12012,7 @@
       <c r="J252" s="55"/>
       <c r="K252" s="31"/>
       <c r="L252" s="26" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="M252" s="26"/>
       <c r="N252" s="26"/>
@@ -12059,7 +12051,7 @@
       <c r="J253" s="55"/>
       <c r="K253" s="31"/>
       <c r="L253" s="26" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="M253" s="26"/>
       <c r="N253" s="26"/>
@@ -12098,7 +12090,7 @@
       <c r="J254" s="55"/>
       <c r="K254" s="31"/>
       <c r="L254" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M254" s="26"/>
       <c r="N254" s="26"/>
@@ -12131,36 +12123,36 @@
       <c r="D255" s="29"/>
       <c r="E255" s="29"/>
       <c r="F255" s="24"/>
-      <c r="G255" s="32"/>
-      <c r="H255" s="33"/>
-      <c r="I255" s="33"/>
-      <c r="J255" s="33"/>
-      <c r="K255" s="34"/>
-      <c r="L255" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="M255" s="76"/>
-      <c r="N255" s="76"/>
-      <c r="O255" s="76"/>
-      <c r="P255" s="76"/>
-      <c r="Q255" s="76"/>
-      <c r="R255" s="76"/>
-      <c r="S255" s="76"/>
-      <c r="T255" s="76"/>
-      <c r="U255" s="76"/>
-      <c r="V255" s="76"/>
-      <c r="W255" s="76"/>
-      <c r="X255" s="76"/>
-      <c r="Y255" s="76"/>
-      <c r="Z255" s="76"/>
-      <c r="AA255" s="76"/>
-      <c r="AB255" s="90"/>
-      <c r="AC255" s="76"/>
-      <c r="AD255" s="76"/>
-      <c r="AE255" s="76"/>
-      <c r="AF255" s="76"/>
-      <c r="AG255" s="76"/>
-      <c r="AH255" s="90"/>
+      <c r="G255" s="30"/>
+      <c r="H255" s="55"/>
+      <c r="I255" s="55"/>
+      <c r="J255" s="55"/>
+      <c r="K255" s="31"/>
+      <c r="L255" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M255" s="26"/>
+      <c r="N255" s="26"/>
+      <c r="O255" s="26"/>
+      <c r="P255" s="26"/>
+      <c r="Q255" s="26"/>
+      <c r="R255" s="26"/>
+      <c r="S255" s="26"/>
+      <c r="T255" s="26"/>
+      <c r="U255" s="26"/>
+      <c r="V255" s="26"/>
+      <c r="W255" s="26"/>
+      <c r="X255" s="26"/>
+      <c r="Y255" s="26"/>
+      <c r="Z255" s="26"/>
+      <c r="AA255" s="26"/>
+      <c r="AB255" s="71"/>
+      <c r="AC255" s="26"/>
+      <c r="AD255" s="26"/>
+      <c r="AE255" s="26"/>
+      <c r="AF255" s="26"/>
+      <c r="AG255" s="26"/>
+      <c r="AH255" s="71"/>
       <c r="AI255" s="29"/>
     </row>
     <row r="256" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12170,40 +12162,36 @@
       <c r="D256" s="29"/>
       <c r="E256" s="29"/>
       <c r="F256" s="24"/>
-      <c r="G256" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H256" s="55"/>
-      <c r="I256" s="55"/>
-      <c r="J256" s="55"/>
-      <c r="K256" s="31"/>
-      <c r="L256" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="M256" s="26"/>
-      <c r="N256" s="26"/>
-      <c r="O256" s="26"/>
-      <c r="P256" s="26"/>
-      <c r="Q256" s="26"/>
-      <c r="R256" s="26"/>
-      <c r="S256" s="26"/>
-      <c r="T256" s="26"/>
-      <c r="U256" s="26"/>
-      <c r="V256" s="26"/>
-      <c r="W256" s="26"/>
-      <c r="X256" s="26"/>
-      <c r="Y256" s="26"/>
-      <c r="Z256" s="26"/>
-      <c r="AA256" s="26"/>
-      <c r="AB256" s="71"/>
-      <c r="AC256" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD256" s="26"/>
-      <c r="AE256" s="26"/>
-      <c r="AF256" s="26"/>
-      <c r="AG256" s="26"/>
-      <c r="AH256" s="71"/>
+      <c r="G256" s="32"/>
+      <c r="H256" s="33"/>
+      <c r="I256" s="33"/>
+      <c r="J256" s="33"/>
+      <c r="K256" s="34"/>
+      <c r="L256" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="M256" s="76"/>
+      <c r="N256" s="76"/>
+      <c r="O256" s="76"/>
+      <c r="P256" s="76"/>
+      <c r="Q256" s="76"/>
+      <c r="R256" s="76"/>
+      <c r="S256" s="76"/>
+      <c r="T256" s="76"/>
+      <c r="U256" s="76"/>
+      <c r="V256" s="76"/>
+      <c r="W256" s="76"/>
+      <c r="X256" s="76"/>
+      <c r="Y256" s="76"/>
+      <c r="Z256" s="76"/>
+      <c r="AA256" s="76"/>
+      <c r="AB256" s="90"/>
+      <c r="AC256" s="76"/>
+      <c r="AD256" s="76"/>
+      <c r="AE256" s="76"/>
+      <c r="AF256" s="76"/>
+      <c r="AG256" s="76"/>
+      <c r="AH256" s="90"/>
       <c r="AI256" s="29"/>
     </row>
     <row r="257" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12213,38 +12201,40 @@
       <c r="D257" s="29"/>
       <c r="E257" s="29"/>
       <c r="F257" s="24"/>
-      <c r="G257" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H257" s="33"/>
-      <c r="I257" s="33"/>
-      <c r="J257" s="33"/>
-      <c r="K257" s="34"/>
-      <c r="L257" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="M257" s="76"/>
-      <c r="N257" s="76"/>
-      <c r="O257" s="76"/>
-      <c r="P257" s="76"/>
-      <c r="Q257" s="76"/>
-      <c r="R257" s="76"/>
-      <c r="S257" s="76"/>
-      <c r="T257" s="76"/>
-      <c r="U257" s="76"/>
-      <c r="V257" s="76"/>
-      <c r="W257" s="76"/>
-      <c r="X257" s="76"/>
-      <c r="Y257" s="76"/>
-      <c r="Z257" s="76"/>
-      <c r="AA257" s="76"/>
-      <c r="AB257" s="90"/>
-      <c r="AC257" s="76"/>
-      <c r="AD257" s="76"/>
-      <c r="AE257" s="76"/>
-      <c r="AF257" s="76"/>
-      <c r="AG257" s="76"/>
-      <c r="AH257" s="90"/>
+      <c r="G257" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H257" s="55"/>
+      <c r="I257" s="55"/>
+      <c r="J257" s="55"/>
+      <c r="K257" s="31"/>
+      <c r="L257" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M257" s="26"/>
+      <c r="N257" s="26"/>
+      <c r="O257" s="26"/>
+      <c r="P257" s="26"/>
+      <c r="Q257" s="26"/>
+      <c r="R257" s="26"/>
+      <c r="S257" s="26"/>
+      <c r="T257" s="26"/>
+      <c r="U257" s="26"/>
+      <c r="V257" s="26"/>
+      <c r="W257" s="26"/>
+      <c r="X257" s="26"/>
+      <c r="Y257" s="26"/>
+      <c r="Z257" s="26"/>
+      <c r="AA257" s="26"/>
+      <c r="AB257" s="71"/>
+      <c r="AC257" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD257" s="26"/>
+      <c r="AE257" s="26"/>
+      <c r="AF257" s="26"/>
+      <c r="AG257" s="26"/>
+      <c r="AH257" s="71"/>
       <c r="AI257" s="29"/>
     </row>
     <row r="258" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12252,36 +12242,40 @@
       <c r="B258" s="29"/>
       <c r="C258" s="29"/>
       <c r="D258" s="29"/>
-      <c r="E258" s="24"/>
-      <c r="F258" s="29"/>
-      <c r="G258" s="29"/>
-      <c r="H258" s="29"/>
-      <c r="I258" s="29"/>
-      <c r="J258" s="29"/>
-      <c r="K258" s="29"/>
-      <c r="L258" s="29"/>
-      <c r="M258" s="29"/>
-      <c r="N258" s="29"/>
-      <c r="O258" s="29"/>
-      <c r="P258" s="29"/>
-      <c r="Q258" s="29"/>
-      <c r="R258" s="29"/>
-      <c r="S258" s="29"/>
-      <c r="T258" s="29"/>
-      <c r="U258" s="29"/>
-      <c r="V258" s="29"/>
-      <c r="W258" s="29"/>
-      <c r="X258" s="29"/>
-      <c r="Y258" s="29"/>
-      <c r="Z258" s="29"/>
-      <c r="AA258" s="29"/>
-      <c r="AB258" s="29"/>
-      <c r="AC258" s="29"/>
-      <c r="AD258" s="29"/>
-      <c r="AE258" s="29"/>
-      <c r="AF258" s="29"/>
-      <c r="AG258" s="29"/>
-      <c r="AH258" s="29"/>
+      <c r="E258" s="29"/>
+      <c r="F258" s="24"/>
+      <c r="G258" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H258" s="33"/>
+      <c r="I258" s="33"/>
+      <c r="J258" s="33"/>
+      <c r="K258" s="34"/>
+      <c r="L258" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="M258" s="76"/>
+      <c r="N258" s="76"/>
+      <c r="O258" s="76"/>
+      <c r="P258" s="76"/>
+      <c r="Q258" s="76"/>
+      <c r="R258" s="76"/>
+      <c r="S258" s="76"/>
+      <c r="T258" s="76"/>
+      <c r="U258" s="76"/>
+      <c r="V258" s="76"/>
+      <c r="W258" s="76"/>
+      <c r="X258" s="76"/>
+      <c r="Y258" s="76"/>
+      <c r="Z258" s="76"/>
+      <c r="AA258" s="76"/>
+      <c r="AB258" s="90"/>
+      <c r="AC258" s="76"/>
+      <c r="AD258" s="76"/>
+      <c r="AE258" s="76"/>
+      <c r="AF258" s="76"/>
+      <c r="AG258" s="76"/>
+      <c r="AH258" s="90"/>
       <c r="AI258" s="29"/>
     </row>
     <row r="259" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12290,12 +12284,8 @@
       <c r="C259" s="29"/>
       <c r="D259" s="29"/>
       <c r="E259" s="24"/>
-      <c r="F259" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G259" s="29" t="s">
-        <v>114</v>
-      </c>
+      <c r="F259" s="29"/>
+      <c r="G259" s="29"/>
       <c r="H259" s="29"/>
       <c r="I259" s="29"/>
       <c r="J259" s="29"/>
@@ -12331,9 +12321,11 @@
       <c r="C260" s="29"/>
       <c r="D260" s="29"/>
       <c r="E260" s="24"/>
-      <c r="F260" s="29"/>
+      <c r="F260" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="G260" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H260" s="29"/>
       <c r="I260" s="29"/>
@@ -12364,14 +12356,16 @@
       <c r="AH260" s="29"/>
       <c r="AI260" s="29"/>
     </row>
-    <row r="261" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="29"/>
       <c r="B261" s="29"/>
       <c r="C261" s="29"/>
       <c r="D261" s="29"/>
-      <c r="E261" s="29"/>
+      <c r="E261" s="24"/>
       <c r="F261" s="29"/>
-      <c r="G261" s="29"/>
+      <c r="G261" s="29" t="s">
+        <v>113</v>
+      </c>
       <c r="H261" s="29"/>
       <c r="I261" s="29"/>
       <c r="J261" s="29"/>
@@ -12438,192 +12432,223 @@
       <c r="AH262" s="29"/>
       <c r="AI262" s="29"/>
     </row>
-    <row r="263" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D263" s="42" t="str">
+    <row r="263" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="29"/>
+      <c r="B263" s="29"/>
+      <c r="C263" s="29"/>
+      <c r="D263" s="29"/>
+      <c r="E263" s="29"/>
+      <c r="F263" s="29"/>
+      <c r="G263" s="29"/>
+      <c r="H263" s="29"/>
+      <c r="I263" s="29"/>
+      <c r="J263" s="29"/>
+      <c r="K263" s="29"/>
+      <c r="L263" s="29"/>
+      <c r="M263" s="29"/>
+      <c r="N263" s="29"/>
+      <c r="O263" s="29"/>
+      <c r="P263" s="29"/>
+      <c r="Q263" s="29"/>
+      <c r="R263" s="29"/>
+      <c r="S263" s="29"/>
+      <c r="T263" s="29"/>
+      <c r="U263" s="29"/>
+      <c r="V263" s="29"/>
+      <c r="W263" s="29"/>
+      <c r="X263" s="29"/>
+      <c r="Y263" s="29"/>
+      <c r="Z263" s="29"/>
+      <c r="AA263" s="29"/>
+      <c r="AB263" s="29"/>
+      <c r="AC263" s="29"/>
+      <c r="AD263" s="29"/>
+      <c r="AE263" s="29"/>
+      <c r="AF263" s="29"/>
+      <c r="AG263" s="29"/>
+      <c r="AH263" s="29"/>
+      <c r="AI263" s="29"/>
+    </row>
+    <row r="264" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D264" s="42" t="str">
         <f>$C$7&amp;"10."</f>
         <v>3.1.10.</v>
       </c>
-      <c r="E263" s="41" t="s">
+      <c r="E264" s="41" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="264" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D264" s="42"/>
     </row>
     <row r="265" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D265" s="42"/>
-      <c r="E265" s="42" t="str">
-        <f>$D$263&amp;"1."</f>
-        <v>3.1.10.1.</v>
-      </c>
-      <c r="F265" s="41" t="str">
-        <f>$E$263&amp;"概要"</f>
-        <v>URL設計概要</v>
-      </c>
     </row>
     <row r="266" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D266" s="42"/>
-      <c r="F266" s="41" t="s">
-        <v>162</v>
+      <c r="E266" s="42" t="str">
+        <f>$D$264&amp;"1."</f>
+        <v>3.1.10.1.</v>
+      </c>
+      <c r="F266" s="41" t="str">
+        <f>$E$264&amp;"概要"</f>
+        <v>URL設計概要</v>
       </c>
     </row>
     <row r="267" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D267" s="42"/>
       <c r="F267" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="G267" s="41" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="268" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D268" s="42"/>
+      <c r="F268" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="G268" s="41" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="269" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D269" s="42"/>
-      <c r="E269" s="42" t="str">
-        <f>$D$263&amp;"2."</f>
-        <v>3.1.10.2.</v>
-      </c>
-      <c r="F269" s="41" t="str">
-        <f>$E$263&amp;"方針"</f>
-        <v>URL設計方針</v>
-      </c>
     </row>
     <row r="270" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D270" s="42"/>
-      <c r="F270" s="41" t="s">
-        <v>187</v>
+      <c r="E270" s="42" t="str">
+        <f>$D$264&amp;"2."</f>
+        <v>3.1.10.2.</v>
+      </c>
+      <c r="F270" s="41" t="str">
+        <f>$E$264&amp;"方針"</f>
+        <v>URL設計方針</v>
       </c>
     </row>
     <row r="271" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D271" s="42"/>
-      <c r="F271" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="G271" s="53"/>
-      <c r="H271" s="53"/>
-      <c r="I271" s="53"/>
-      <c r="J271" s="53"/>
-      <c r="K271" s="54"/>
-      <c r="L271" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="M271" s="53"/>
-      <c r="N271" s="53"/>
-      <c r="O271" s="53"/>
-      <c r="P271" s="53"/>
-      <c r="Q271" s="53"/>
-      <c r="R271" s="53"/>
-      <c r="S271" s="53"/>
-      <c r="T271" s="53"/>
-      <c r="U271" s="53"/>
-      <c r="V271" s="53"/>
-      <c r="W271" s="53"/>
-      <c r="X271" s="53"/>
-      <c r="Y271" s="53"/>
-      <c r="Z271" s="53"/>
-      <c r="AA271" s="53"/>
-      <c r="AB271" s="53"/>
-      <c r="AC271" s="53"/>
-      <c r="AD271" s="53"/>
-      <c r="AE271" s="53"/>
-      <c r="AF271" s="53"/>
-      <c r="AG271" s="54"/>
+      <c r="F271" s="41" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="272" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D272" s="42"/>
-      <c r="F272" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="G272" s="99"/>
-      <c r="H272" s="99"/>
-      <c r="I272" s="99"/>
-      <c r="J272" s="99"/>
-      <c r="K272" s="101"/>
-      <c r="L272" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="M272" s="99"/>
-      <c r="N272" s="99"/>
-      <c r="O272" s="99"/>
-      <c r="P272" s="99"/>
-      <c r="Q272" s="99"/>
-      <c r="R272" s="99"/>
-      <c r="S272" s="99"/>
-      <c r="T272" s="99"/>
-      <c r="U272" s="99"/>
-      <c r="V272" s="99"/>
-      <c r="W272" s="99"/>
-      <c r="X272" s="99"/>
-      <c r="Y272" s="99"/>
-      <c r="Z272" s="99"/>
-      <c r="AA272" s="99"/>
-      <c r="AB272" s="99"/>
-      <c r="AC272" s="99"/>
-      <c r="AD272" s="99"/>
-      <c r="AE272" s="99"/>
-      <c r="AF272" s="99"/>
-      <c r="AG272" s="101"/>
+      <c r="F272" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="G272" s="53"/>
+      <c r="H272" s="53"/>
+      <c r="I272" s="53"/>
+      <c r="J272" s="53"/>
+      <c r="K272" s="54"/>
+      <c r="L272" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M272" s="53"/>
+      <c r="N272" s="53"/>
+      <c r="O272" s="53"/>
+      <c r="P272" s="53"/>
+      <c r="Q272" s="53"/>
+      <c r="R272" s="53"/>
+      <c r="S272" s="53"/>
+      <c r="T272" s="53"/>
+      <c r="U272" s="53"/>
+      <c r="V272" s="53"/>
+      <c r="W272" s="53"/>
+      <c r="X272" s="53"/>
+      <c r="Y272" s="53"/>
+      <c r="Z272" s="53"/>
+      <c r="AA272" s="53"/>
+      <c r="AB272" s="53"/>
+      <c r="AC272" s="53"/>
+      <c r="AD272" s="53"/>
+      <c r="AE272" s="53"/>
+      <c r="AF272" s="53"/>
+      <c r="AG272" s="54"/>
     </row>
     <row r="273" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="42"/>
-      <c r="F273" s="81"/>
-      <c r="G273" s="102"/>
-      <c r="H273" s="102"/>
-      <c r="I273" s="102"/>
-      <c r="J273" s="102"/>
-      <c r="K273" s="103"/>
-      <c r="L273" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="M273" s="102"/>
-      <c r="N273" s="102"/>
-      <c r="O273" s="102"/>
-      <c r="P273" s="102"/>
-      <c r="Q273" s="102"/>
-      <c r="R273" s="102"/>
-      <c r="S273" s="102"/>
-      <c r="T273" s="102"/>
-      <c r="U273" s="102"/>
-      <c r="V273" s="102"/>
-      <c r="W273" s="102"/>
-      <c r="X273" s="102"/>
-      <c r="Y273" s="102"/>
-      <c r="Z273" s="102"/>
-      <c r="AA273" s="102"/>
-      <c r="AB273" s="102"/>
-      <c r="AC273" s="102"/>
-      <c r="AD273" s="102"/>
-      <c r="AE273" s="102"/>
-      <c r="AF273" s="102"/>
-      <c r="AG273" s="103"/>
+      <c r="F273" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="G273" s="99"/>
+      <c r="H273" s="99"/>
+      <c r="I273" s="99"/>
+      <c r="J273" s="99"/>
+      <c r="K273" s="101"/>
+      <c r="L273" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="M273" s="99"/>
+      <c r="N273" s="99"/>
+      <c r="O273" s="99"/>
+      <c r="P273" s="99"/>
+      <c r="Q273" s="99"/>
+      <c r="R273" s="99"/>
+      <c r="S273" s="99"/>
+      <c r="T273" s="99"/>
+      <c r="U273" s="99"/>
+      <c r="V273" s="99"/>
+      <c r="W273" s="99"/>
+      <c r="X273" s="99"/>
+      <c r="Y273" s="99"/>
+      <c r="Z273" s="99"/>
+      <c r="AA273" s="99"/>
+      <c r="AB273" s="99"/>
+      <c r="AC273" s="99"/>
+      <c r="AD273" s="99"/>
+      <c r="AE273" s="99"/>
+      <c r="AF273" s="99"/>
+      <c r="AG273" s="101"/>
     </row>
     <row r="274" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D274" s="42"/>
+      <c r="F274" s="81"/>
+      <c r="G274" s="102"/>
+      <c r="H274" s="102"/>
+      <c r="I274" s="102"/>
+      <c r="J274" s="102"/>
+      <c r="K274" s="103"/>
+      <c r="L274" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="M274" s="102"/>
+      <c r="N274" s="102"/>
+      <c r="O274" s="102"/>
+      <c r="P274" s="102"/>
+      <c r="Q274" s="102"/>
+      <c r="R274" s="102"/>
+      <c r="S274" s="102"/>
+      <c r="T274" s="102"/>
+      <c r="U274" s="102"/>
+      <c r="V274" s="102"/>
+      <c r="W274" s="102"/>
+      <c r="X274" s="102"/>
+      <c r="Y274" s="102"/>
+      <c r="Z274" s="102"/>
+      <c r="AA274" s="102"/>
+      <c r="AB274" s="102"/>
+      <c r="AC274" s="102"/>
+      <c r="AD274" s="102"/>
+      <c r="AE274" s="102"/>
+      <c r="AF274" s="102"/>
+      <c r="AG274" s="103"/>
     </row>
     <row r="275" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D275" s="42"/>
-      <c r="E275" s="42" t="str">
-        <f>$D$263&amp;"3."</f>
-        <v>3.1.10.3.</v>
-      </c>
-      <c r="F275" s="41" t="str">
-        <f>$E$263&amp;"詳細"</f>
-        <v>URL設計詳細</v>
-      </c>
     </row>
     <row r="276" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="42"/>
-      <c r="F276" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G276" s="29"/>
-      <c r="H276" s="29"/>
+      <c r="E276" s="42" t="str">
+        <f>$D$264&amp;"3."</f>
+        <v>3.1.10.3.</v>
+      </c>
+      <c r="F276" s="41" t="str">
+        <f>$E$264&amp;"詳細"</f>
+        <v>URL設計詳細</v>
+      </c>
     </row>
     <row r="277" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="42"/>
-      <c r="F277" s="29"/>
+      <c r="F277" s="29" t="s">
+        <v>223</v>
+      </c>
       <c r="G277" s="29"/>
       <c r="H277" s="29"/>
     </row>
@@ -12659,6 +12684,9 @@
     </row>
     <row r="283" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="42"/>
+      <c r="F283" s="29"/>
+      <c r="G283" s="29"/>
+      <c r="H283" s="29"/>
     </row>
     <row r="284" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D284" s="42"/>
@@ -12667,681 +12695,671 @@
       <c r="D285" s="42"/>
     </row>
     <row r="286" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E286" s="42"/>
-      <c r="F286" s="87"/>
-      <c r="G286" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="H286" s="53"/>
-      <c r="I286" s="53"/>
-      <c r="J286" s="53"/>
-      <c r="K286" s="53"/>
-      <c r="L286" s="54"/>
-      <c r="M286" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="N286" s="53"/>
-      <c r="O286" s="53"/>
-      <c r="P286" s="53"/>
-      <c r="Q286" s="53"/>
-      <c r="R286" s="53"/>
-      <c r="S286" s="53"/>
-      <c r="T286" s="53"/>
-      <c r="U286" s="53"/>
-      <c r="V286" s="53"/>
-      <c r="W286" s="53"/>
-      <c r="X286" s="53"/>
-      <c r="Y286" s="53"/>
-      <c r="Z286" s="53"/>
-      <c r="AA286" s="53"/>
-      <c r="AB286" s="53"/>
-      <c r="AC286" s="53"/>
-      <c r="AD286" s="53"/>
-      <c r="AE286" s="53"/>
-      <c r="AF286" s="54"/>
+      <c r="D286" s="42"/>
     </row>
     <row r="287" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E287" s="42"/>
-      <c r="F287" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="G287" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="H287" s="49"/>
-      <c r="I287" s="49"/>
-      <c r="J287" s="49"/>
-      <c r="K287" s="49"/>
-      <c r="L287" s="50"/>
-      <c r="M287" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="N287" s="49"/>
-      <c r="O287" s="49"/>
-      <c r="P287" s="49"/>
-      <c r="Q287" s="49"/>
-      <c r="R287" s="49"/>
-      <c r="S287" s="49"/>
-      <c r="T287" s="49"/>
-      <c r="U287" s="49"/>
-      <c r="V287" s="49"/>
-      <c r="W287" s="49"/>
-      <c r="X287" s="49"/>
-      <c r="Y287" s="49"/>
-      <c r="Z287" s="49"/>
-      <c r="AA287" s="49"/>
-      <c r="AB287" s="49"/>
-      <c r="AC287" s="49"/>
-      <c r="AD287" s="49"/>
-      <c r="AE287" s="49"/>
-      <c r="AF287" s="50"/>
+      <c r="F287" s="87"/>
+      <c r="G287" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="H287" s="53"/>
+      <c r="I287" s="53"/>
+      <c r="J287" s="53"/>
+      <c r="K287" s="53"/>
+      <c r="L287" s="54"/>
+      <c r="M287" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="N287" s="53"/>
+      <c r="O287" s="53"/>
+      <c r="P287" s="53"/>
+      <c r="Q287" s="53"/>
+      <c r="R287" s="53"/>
+      <c r="S287" s="53"/>
+      <c r="T287" s="53"/>
+      <c r="U287" s="53"/>
+      <c r="V287" s="53"/>
+      <c r="W287" s="53"/>
+      <c r="X287" s="53"/>
+      <c r="Y287" s="53"/>
+      <c r="Z287" s="53"/>
+      <c r="AA287" s="53"/>
+      <c r="AB287" s="53"/>
+      <c r="AC287" s="53"/>
+      <c r="AD287" s="53"/>
+      <c r="AE287" s="53"/>
+      <c r="AF287" s="54"/>
     </row>
     <row r="288" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E288" s="42"/>
-      <c r="F288" s="84"/>
-      <c r="G288" s="46"/>
-      <c r="H288" s="47"/>
-      <c r="I288" s="47"/>
-      <c r="J288" s="47"/>
-      <c r="K288" s="47"/>
-      <c r="L288" s="51"/>
-      <c r="M288" s="46"/>
-      <c r="N288" s="47"/>
-      <c r="O288" s="47"/>
-      <c r="P288" s="47"/>
-      <c r="Q288" s="47"/>
-      <c r="R288" s="47"/>
-      <c r="S288" s="47"/>
-      <c r="T288" s="47"/>
-      <c r="U288" s="47"/>
-      <c r="V288" s="47"/>
-      <c r="W288" s="47"/>
-      <c r="X288" s="47"/>
-      <c r="Y288" s="47"/>
-      <c r="Z288" s="47"/>
-      <c r="AA288" s="47"/>
-      <c r="AB288" s="47"/>
-      <c r="AC288" s="47"/>
-      <c r="AD288" s="47"/>
-      <c r="AE288" s="47"/>
-      <c r="AF288" s="51"/>
+      <c r="F288" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="G288" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="H288" s="49"/>
+      <c r="I288" s="49"/>
+      <c r="J288" s="49"/>
+      <c r="K288" s="49"/>
+      <c r="L288" s="50"/>
+      <c r="M288" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="N288" s="49"/>
+      <c r="O288" s="49"/>
+      <c r="P288" s="49"/>
+      <c r="Q288" s="49"/>
+      <c r="R288" s="49"/>
+      <c r="S288" s="49"/>
+      <c r="T288" s="49"/>
+      <c r="U288" s="49"/>
+      <c r="V288" s="49"/>
+      <c r="W288" s="49"/>
+      <c r="X288" s="49"/>
+      <c r="Y288" s="49"/>
+      <c r="Z288" s="49"/>
+      <c r="AA288" s="49"/>
+      <c r="AB288" s="49"/>
+      <c r="AC288" s="49"/>
+      <c r="AD288" s="49"/>
+      <c r="AE288" s="49"/>
+      <c r="AF288" s="50"/>
     </row>
     <row r="289" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E289" s="42"/>
-      <c r="F289" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="G289" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="H289" s="49"/>
-      <c r="I289" s="49"/>
-      <c r="J289" s="49"/>
-      <c r="K289" s="49"/>
-      <c r="L289" s="50"/>
-      <c r="M289" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="N289" s="49"/>
-      <c r="O289" s="49"/>
-      <c r="P289" s="49"/>
-      <c r="Q289" s="49"/>
-      <c r="R289" s="49"/>
-      <c r="S289" s="49"/>
-      <c r="T289" s="49"/>
-      <c r="U289" s="49"/>
-      <c r="V289" s="49"/>
-      <c r="W289" s="49"/>
-      <c r="X289" s="49"/>
-      <c r="Y289" s="49"/>
-      <c r="Z289" s="49"/>
-      <c r="AA289" s="49"/>
-      <c r="AB289" s="49"/>
-      <c r="AC289" s="49"/>
-      <c r="AD289" s="49"/>
-      <c r="AE289" s="49"/>
-      <c r="AF289" s="50"/>
+      <c r="F289" s="84"/>
+      <c r="G289" s="46"/>
+      <c r="H289" s="47"/>
+      <c r="I289" s="47"/>
+      <c r="J289" s="47"/>
+      <c r="K289" s="47"/>
+      <c r="L289" s="51"/>
+      <c r="M289" s="46"/>
+      <c r="N289" s="47"/>
+      <c r="O289" s="47"/>
+      <c r="P289" s="47"/>
+      <c r="Q289" s="47"/>
+      <c r="R289" s="47"/>
+      <c r="S289" s="47"/>
+      <c r="T289" s="47"/>
+      <c r="U289" s="47"/>
+      <c r="V289" s="47"/>
+      <c r="W289" s="47"/>
+      <c r="X289" s="47"/>
+      <c r="Y289" s="47"/>
+      <c r="Z289" s="47"/>
+      <c r="AA289" s="47"/>
+      <c r="AB289" s="47"/>
+      <c r="AC289" s="47"/>
+      <c r="AD289" s="47"/>
+      <c r="AE289" s="47"/>
+      <c r="AF289" s="51"/>
     </row>
     <row r="290" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E290" s="42"/>
-      <c r="F290" s="84"/>
-      <c r="G290" s="46"/>
-      <c r="H290" s="47"/>
-      <c r="I290" s="47"/>
-      <c r="J290" s="47"/>
-      <c r="K290" s="47"/>
-      <c r="L290" s="51"/>
-      <c r="M290" s="46"/>
-      <c r="N290" s="47"/>
-      <c r="O290" s="47"/>
-      <c r="P290" s="47"/>
-      <c r="Q290" s="47"/>
-      <c r="R290" s="47"/>
-      <c r="S290" s="47"/>
-      <c r="T290" s="47"/>
-      <c r="U290" s="47"/>
-      <c r="V290" s="47"/>
-      <c r="W290" s="47"/>
-      <c r="X290" s="47"/>
-      <c r="Y290" s="47"/>
-      <c r="Z290" s="47"/>
-      <c r="AA290" s="47"/>
-      <c r="AB290" s="47"/>
-      <c r="AC290" s="47"/>
-      <c r="AD290" s="47"/>
-      <c r="AE290" s="47"/>
-      <c r="AF290" s="51"/>
+      <c r="F290" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="G290" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="H290" s="49"/>
+      <c r="I290" s="49"/>
+      <c r="J290" s="49"/>
+      <c r="K290" s="49"/>
+      <c r="L290" s="50"/>
+      <c r="M290" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="N290" s="49"/>
+      <c r="O290" s="49"/>
+      <c r="P290" s="49"/>
+      <c r="Q290" s="49"/>
+      <c r="R290" s="49"/>
+      <c r="S290" s="49"/>
+      <c r="T290" s="49"/>
+      <c r="U290" s="49"/>
+      <c r="V290" s="49"/>
+      <c r="W290" s="49"/>
+      <c r="X290" s="49"/>
+      <c r="Y290" s="49"/>
+      <c r="Z290" s="49"/>
+      <c r="AA290" s="49"/>
+      <c r="AB290" s="49"/>
+      <c r="AC290" s="49"/>
+      <c r="AD290" s="49"/>
+      <c r="AE290" s="49"/>
+      <c r="AF290" s="50"/>
     </row>
     <row r="291" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E291" s="42"/>
-      <c r="F291" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="G291" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="H291" s="49"/>
-      <c r="I291" s="49"/>
-      <c r="J291" s="49"/>
-      <c r="K291" s="49"/>
-      <c r="L291" s="50"/>
-      <c r="M291" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="N291" s="49"/>
-      <c r="O291" s="49"/>
-      <c r="P291" s="49"/>
-      <c r="Q291" s="49"/>
-      <c r="R291" s="49"/>
-      <c r="S291" s="49"/>
-      <c r="T291" s="49"/>
-      <c r="U291" s="49"/>
-      <c r="V291" s="49"/>
-      <c r="W291" s="49"/>
-      <c r="X291" s="49"/>
-      <c r="Y291" s="49"/>
-      <c r="Z291" s="49"/>
-      <c r="AA291" s="49"/>
-      <c r="AB291" s="49"/>
-      <c r="AC291" s="49"/>
-      <c r="AD291" s="49"/>
-      <c r="AE291" s="49"/>
-      <c r="AF291" s="50"/>
+      <c r="F291" s="84"/>
+      <c r="G291" s="46"/>
+      <c r="H291" s="47"/>
+      <c r="I291" s="47"/>
+      <c r="J291" s="47"/>
+      <c r="K291" s="47"/>
+      <c r="L291" s="51"/>
+      <c r="M291" s="46"/>
+      <c r="N291" s="47"/>
+      <c r="O291" s="47"/>
+      <c r="P291" s="47"/>
+      <c r="Q291" s="47"/>
+      <c r="R291" s="47"/>
+      <c r="S291" s="47"/>
+      <c r="T291" s="47"/>
+      <c r="U291" s="47"/>
+      <c r="V291" s="47"/>
+      <c r="W291" s="47"/>
+      <c r="X291" s="47"/>
+      <c r="Y291" s="47"/>
+      <c r="Z291" s="47"/>
+      <c r="AA291" s="47"/>
+      <c r="AB291" s="47"/>
+      <c r="AC291" s="47"/>
+      <c r="AD291" s="47"/>
+      <c r="AE291" s="47"/>
+      <c r="AF291" s="51"/>
     </row>
     <row r="292" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E292" s="42"/>
-      <c r="F292" s="84"/>
-      <c r="G292" s="46"/>
-      <c r="H292" s="47"/>
-      <c r="I292" s="47"/>
-      <c r="J292" s="47"/>
-      <c r="K292" s="47"/>
-      <c r="L292" s="51"/>
-      <c r="M292" s="46"/>
-      <c r="N292" s="47"/>
-      <c r="O292" s="47"/>
-      <c r="P292" s="47"/>
-      <c r="Q292" s="47"/>
-      <c r="R292" s="47"/>
-      <c r="S292" s="47"/>
-      <c r="T292" s="47"/>
-      <c r="U292" s="47"/>
-      <c r="V292" s="47"/>
-      <c r="W292" s="47"/>
-      <c r="X292" s="47"/>
-      <c r="Y292" s="47"/>
-      <c r="Z292" s="47"/>
-      <c r="AA292" s="47"/>
-      <c r="AB292" s="47"/>
-      <c r="AC292" s="47"/>
-      <c r="AD292" s="47"/>
-      <c r="AE292" s="47"/>
-      <c r="AF292" s="51"/>
+      <c r="F292" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="G292" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="H292" s="49"/>
+      <c r="I292" s="49"/>
+      <c r="J292" s="49"/>
+      <c r="K292" s="49"/>
+      <c r="L292" s="50"/>
+      <c r="M292" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="N292" s="49"/>
+      <c r="O292" s="49"/>
+      <c r="P292" s="49"/>
+      <c r="Q292" s="49"/>
+      <c r="R292" s="49"/>
+      <c r="S292" s="49"/>
+      <c r="T292" s="49"/>
+      <c r="U292" s="49"/>
+      <c r="V292" s="49"/>
+      <c r="W292" s="49"/>
+      <c r="X292" s="49"/>
+      <c r="Y292" s="49"/>
+      <c r="Z292" s="49"/>
+      <c r="AA292" s="49"/>
+      <c r="AB292" s="49"/>
+      <c r="AC292" s="49"/>
+      <c r="AD292" s="49"/>
+      <c r="AE292" s="49"/>
+      <c r="AF292" s="50"/>
     </row>
     <row r="293" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E293" s="42"/>
-      <c r="F293" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="G293" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="H293" s="49"/>
-      <c r="I293" s="49"/>
-      <c r="J293" s="49"/>
-      <c r="K293" s="49"/>
-      <c r="L293" s="50"/>
-      <c r="M293" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="N293" s="49"/>
-      <c r="O293" s="49"/>
-      <c r="P293" s="49"/>
-      <c r="Q293" s="49"/>
-      <c r="R293" s="49"/>
-      <c r="S293" s="49"/>
-      <c r="T293" s="49"/>
-      <c r="U293" s="49"/>
-      <c r="V293" s="49"/>
-      <c r="W293" s="49"/>
-      <c r="X293" s="49"/>
-      <c r="Y293" s="49"/>
-      <c r="Z293" s="49"/>
-      <c r="AA293" s="49"/>
-      <c r="AB293" s="49"/>
-      <c r="AC293" s="49"/>
-      <c r="AD293" s="49"/>
-      <c r="AE293" s="49"/>
-      <c r="AF293" s="50"/>
+      <c r="F293" s="84"/>
+      <c r="G293" s="46"/>
+      <c r="H293" s="47"/>
+      <c r="I293" s="47"/>
+      <c r="J293" s="47"/>
+      <c r="K293" s="47"/>
+      <c r="L293" s="51"/>
+      <c r="M293" s="46"/>
+      <c r="N293" s="47"/>
+      <c r="O293" s="47"/>
+      <c r="P293" s="47"/>
+      <c r="Q293" s="47"/>
+      <c r="R293" s="47"/>
+      <c r="S293" s="47"/>
+      <c r="T293" s="47"/>
+      <c r="U293" s="47"/>
+      <c r="V293" s="47"/>
+      <c r="W293" s="47"/>
+      <c r="X293" s="47"/>
+      <c r="Y293" s="47"/>
+      <c r="Z293" s="47"/>
+      <c r="AA293" s="47"/>
+      <c r="AB293" s="47"/>
+      <c r="AC293" s="47"/>
+      <c r="AD293" s="47"/>
+      <c r="AE293" s="47"/>
+      <c r="AF293" s="51"/>
     </row>
     <row r="294" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E294" s="42"/>
-      <c r="F294" s="89"/>
-      <c r="G294" s="43"/>
-      <c r="H294" s="44"/>
-      <c r="I294" s="44"/>
-      <c r="J294" s="44"/>
-      <c r="K294" s="44"/>
-      <c r="L294" s="45"/>
-      <c r="M294" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="N294" s="44"/>
-      <c r="O294" s="44"/>
-      <c r="P294" s="44"/>
-      <c r="Q294" s="44"/>
-      <c r="R294" s="44"/>
-      <c r="S294" s="44"/>
-      <c r="T294" s="44"/>
-      <c r="U294" s="44"/>
-      <c r="V294" s="44"/>
-      <c r="W294" s="44"/>
-      <c r="X294" s="44"/>
-      <c r="Y294" s="44"/>
-      <c r="Z294" s="44"/>
-      <c r="AA294" s="44"/>
-      <c r="AB294" s="44"/>
-      <c r="AC294" s="44"/>
-      <c r="AD294" s="44"/>
-      <c r="AE294" s="44"/>
-      <c r="AF294" s="45"/>
+      <c r="F294" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="G294" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="H294" s="49"/>
+      <c r="I294" s="49"/>
+      <c r="J294" s="49"/>
+      <c r="K294" s="49"/>
+      <c r="L294" s="50"/>
+      <c r="M294" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="N294" s="49"/>
+      <c r="O294" s="49"/>
+      <c r="P294" s="49"/>
+      <c r="Q294" s="49"/>
+      <c r="R294" s="49"/>
+      <c r="S294" s="49"/>
+      <c r="T294" s="49"/>
+      <c r="U294" s="49"/>
+      <c r="V294" s="49"/>
+      <c r="W294" s="49"/>
+      <c r="X294" s="49"/>
+      <c r="Y294" s="49"/>
+      <c r="Z294" s="49"/>
+      <c r="AA294" s="49"/>
+      <c r="AB294" s="49"/>
+      <c r="AC294" s="49"/>
+      <c r="AD294" s="49"/>
+      <c r="AE294" s="49"/>
+      <c r="AF294" s="50"/>
     </row>
     <row r="295" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E295" s="42"/>
-      <c r="F295" s="84"/>
-      <c r="G295" s="46"/>
-      <c r="H295" s="47"/>
-      <c r="I295" s="47"/>
-      <c r="J295" s="47"/>
-      <c r="K295" s="47"/>
-      <c r="L295" s="51"/>
-      <c r="M295" s="46"/>
-      <c r="N295" s="47"/>
-      <c r="O295" s="47"/>
-      <c r="P295" s="47"/>
-      <c r="Q295" s="47"/>
-      <c r="R295" s="47"/>
-      <c r="S295" s="47"/>
-      <c r="T295" s="47"/>
-      <c r="U295" s="47"/>
-      <c r="V295" s="47"/>
-      <c r="W295" s="47"/>
-      <c r="X295" s="47"/>
-      <c r="Y295" s="47"/>
-      <c r="Z295" s="47"/>
-      <c r="AA295" s="47"/>
-      <c r="AB295" s="47"/>
-      <c r="AC295" s="47"/>
-      <c r="AD295" s="47"/>
-      <c r="AE295" s="47"/>
-      <c r="AF295" s="51"/>
+      <c r="F295" s="89"/>
+      <c r="G295" s="43"/>
+      <c r="H295" s="44"/>
+      <c r="I295" s="44"/>
+      <c r="J295" s="44"/>
+      <c r="K295" s="44"/>
+      <c r="L295" s="45"/>
+      <c r="M295" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="N295" s="44"/>
+      <c r="O295" s="44"/>
+      <c r="P295" s="44"/>
+      <c r="Q295" s="44"/>
+      <c r="R295" s="44"/>
+      <c r="S295" s="44"/>
+      <c r="T295" s="44"/>
+      <c r="U295" s="44"/>
+      <c r="V295" s="44"/>
+      <c r="W295" s="44"/>
+      <c r="X295" s="44"/>
+      <c r="Y295" s="44"/>
+      <c r="Z295" s="44"/>
+      <c r="AA295" s="44"/>
+      <c r="AB295" s="44"/>
+      <c r="AC295" s="44"/>
+      <c r="AD295" s="44"/>
+      <c r="AE295" s="44"/>
+      <c r="AF295" s="45"/>
     </row>
     <row r="296" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E296" s="42"/>
-      <c r="F296" s="85" t="s">
+      <c r="F296" s="84"/>
+      <c r="G296" s="46"/>
+      <c r="H296" s="47"/>
+      <c r="I296" s="47"/>
+      <c r="J296" s="47"/>
+      <c r="K296" s="47"/>
+      <c r="L296" s="51"/>
+      <c r="M296" s="46"/>
+      <c r="N296" s="47"/>
+      <c r="O296" s="47"/>
+      <c r="P296" s="47"/>
+      <c r="Q296" s="47"/>
+      <c r="R296" s="47"/>
+      <c r="S296" s="47"/>
+      <c r="T296" s="47"/>
+      <c r="U296" s="47"/>
+      <c r="V296" s="47"/>
+      <c r="W296" s="47"/>
+      <c r="X296" s="47"/>
+      <c r="Y296" s="47"/>
+      <c r="Z296" s="47"/>
+      <c r="AA296" s="47"/>
+      <c r="AB296" s="47"/>
+      <c r="AC296" s="47"/>
+      <c r="AD296" s="47"/>
+      <c r="AE296" s="47"/>
+      <c r="AF296" s="51"/>
+    </row>
+    <row r="297" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E297" s="42"/>
+      <c r="F297" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="G296" s="48" t="s">
+      <c r="G297" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H296" s="49"/>
-      <c r="I296" s="49"/>
-      <c r="J296" s="49"/>
-      <c r="K296" s="49"/>
-      <c r="L296" s="50"/>
-      <c r="M296" s="48" t="s">
+      <c r="H297" s="49"/>
+      <c r="I297" s="49"/>
+      <c r="J297" s="49"/>
+      <c r="K297" s="49"/>
+      <c r="L297" s="50"/>
+      <c r="M297" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="N296" s="49"/>
-      <c r="O296" s="49"/>
-      <c r="P296" s="49"/>
-      <c r="Q296" s="49"/>
-      <c r="R296" s="49"/>
-      <c r="S296" s="49"/>
-      <c r="T296" s="49"/>
-      <c r="U296" s="49"/>
-      <c r="V296" s="49"/>
-      <c r="W296" s="49"/>
-      <c r="X296" s="49"/>
-      <c r="Y296" s="49"/>
-      <c r="Z296" s="49"/>
-      <c r="AA296" s="49"/>
-      <c r="AB296" s="49"/>
-      <c r="AC296" s="49"/>
-      <c r="AD296" s="49"/>
-      <c r="AE296" s="49"/>
-      <c r="AF296" s="50"/>
-    </row>
-    <row r="297" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E297" s="66"/>
-      <c r="F297" s="88"/>
-      <c r="G297" s="81"/>
-      <c r="H297" s="47"/>
-      <c r="I297" s="47"/>
-      <c r="J297" s="47"/>
-      <c r="K297" s="47"/>
-      <c r="L297" s="51"/>
-      <c r="M297" s="46"/>
-      <c r="N297" s="47"/>
-      <c r="O297" s="47"/>
-      <c r="P297" s="47"/>
-      <c r="Q297" s="47"/>
-      <c r="R297" s="47"/>
-      <c r="S297" s="47"/>
-      <c r="T297" s="47"/>
-      <c r="U297" s="47"/>
-      <c r="V297" s="47"/>
-      <c r="W297" s="47"/>
-      <c r="X297" s="47"/>
-      <c r="Y297" s="47"/>
-      <c r="Z297" s="47"/>
-      <c r="AA297" s="47"/>
-      <c r="AB297" s="47"/>
-      <c r="AC297" s="47"/>
-      <c r="AD297" s="47"/>
-      <c r="AE297" s="47"/>
-      <c r="AF297" s="51"/>
+      <c r="N297" s="49"/>
+      <c r="O297" s="49"/>
+      <c r="P297" s="49"/>
+      <c r="Q297" s="49"/>
+      <c r="R297" s="49"/>
+      <c r="S297" s="49"/>
+      <c r="T297" s="49"/>
+      <c r="U297" s="49"/>
+      <c r="V297" s="49"/>
+      <c r="W297" s="49"/>
+      <c r="X297" s="49"/>
+      <c r="Y297" s="49"/>
+      <c r="Z297" s="49"/>
+      <c r="AA297" s="49"/>
+      <c r="AB297" s="49"/>
+      <c r="AC297" s="49"/>
+      <c r="AD297" s="49"/>
+      <c r="AE297" s="49"/>
+      <c r="AF297" s="50"/>
     </row>
     <row r="298" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D298" s="42"/>
-      <c r="E298" s="36"/>
-      <c r="F298" s="36"/>
-      <c r="G298" s="36"/>
+      <c r="E298" s="66"/>
+      <c r="F298" s="88"/>
+      <c r="G298" s="81"/>
+      <c r="H298" s="47"/>
+      <c r="I298" s="47"/>
+      <c r="J298" s="47"/>
+      <c r="K298" s="47"/>
+      <c r="L298" s="51"/>
+      <c r="M298" s="46"/>
+      <c r="N298" s="47"/>
+      <c r="O298" s="47"/>
+      <c r="P298" s="47"/>
+      <c r="Q298" s="47"/>
+      <c r="R298" s="47"/>
+      <c r="S298" s="47"/>
+      <c r="T298" s="47"/>
+      <c r="U298" s="47"/>
+      <c r="V298" s="47"/>
+      <c r="W298" s="47"/>
+      <c r="X298" s="47"/>
+      <c r="Y298" s="47"/>
+      <c r="Z298" s="47"/>
+      <c r="AA298" s="47"/>
+      <c r="AB298" s="47"/>
+      <c r="AC298" s="47"/>
+      <c r="AD298" s="47"/>
+      <c r="AE298" s="47"/>
+      <c r="AF298" s="51"/>
     </row>
     <row r="299" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D299" s="42"/>
       <c r="E299" s="36"/>
-      <c r="F299" s="36" t="s">
-        <v>149</v>
-      </c>
+      <c r="F299" s="36"/>
       <c r="G299" s="36"/>
     </row>
     <row r="300" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D300" s="42"/>
       <c r="E300" s="36"/>
       <c r="F300" s="36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G300" s="36"/>
     </row>
     <row r="301" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D301" s="42"/>
-    </row>
-    <row r="302" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E301" s="36"/>
+      <c r="F301" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G301" s="36"/>
+    </row>
+    <row r="302" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D302" s="42"/>
+    </row>
     <row r="303" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D304" s="28" t="str">
+    <row r="304" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D305" s="28" t="str">
         <f>$C$7&amp;"11."</f>
         <v>3.1.11.</v>
       </c>
-      <c r="E304" s="4" t="s">
+      <c r="E305" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="305" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D305" s="28"/>
-      <c r="E305" s="28" t="str">
-        <f>D304&amp;"1."</f>
+    <row r="306" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D306" s="28"/>
+      <c r="E306" s="28" t="str">
+        <f>D305&amp;"1."</f>
         <v>3.1.11.1.</v>
       </c>
-      <c r="F305" s="4" t="str">
-        <f>E304&amp;"機能概要"</f>
+      <c r="F306" s="4" t="str">
+        <f>E305&amp;"機能概要"</f>
         <v>コンテンツ更新機能概要</v>
       </c>
     </row>
-    <row r="306" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D306" s="42"/>
-      <c r="E306" s="42"/>
-      <c r="F306" s="36" t="s">
+    <row r="307" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D307" s="42"/>
+      <c r="E307" s="42"/>
+      <c r="F307" s="36" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="307" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F307" s="36" t="s">
+    <row r="308" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F308" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="308" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F308" s="36" t="s">
+    <row r="309" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F309" s="36" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="309" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F309" s="19"/>
-      <c r="G309" s="19"/>
-      <c r="H309" s="19"/>
-      <c r="I309" s="19"/>
-      <c r="J309" s="19"/>
-      <c r="K309" s="19"/>
-      <c r="L309" s="19"/>
-      <c r="M309" s="19"/>
-      <c r="N309" s="19"/>
-      <c r="O309" s="19"/>
-      <c r="P309" s="19"/>
-      <c r="Q309" s="19"/>
-      <c r="R309" s="19"/>
-      <c r="S309" s="19"/>
-      <c r="T309" s="19"/>
-      <c r="U309" s="19"/>
-      <c r="V309" s="19"/>
-      <c r="W309" s="19"/>
-      <c r="X309" s="19"/>
-      <c r="Y309" s="19"/>
-      <c r="Z309" s="19"/>
-      <c r="AA309" s="19"/>
-      <c r="AB309" s="19"/>
-      <c r="AC309" s="19"/>
-      <c r="AD309" s="19"/>
-      <c r="AE309" s="19"/>
-      <c r="AF309" s="19"/>
-      <c r="AG309" s="19"/>
-      <c r="AH309" s="19"/>
-    </row>
-    <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E310" s="42" t="str">
-        <f>D304&amp;"2."</f>
+    <row r="310" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F310" s="19"/>
+      <c r="G310" s="19"/>
+      <c r="H310" s="19"/>
+      <c r="I310" s="19"/>
+      <c r="J310" s="19"/>
+      <c r="K310" s="19"/>
+      <c r="L310" s="19"/>
+      <c r="M310" s="19"/>
+      <c r="N310" s="19"/>
+      <c r="O310" s="19"/>
+      <c r="P310" s="19"/>
+      <c r="Q310" s="19"/>
+      <c r="R310" s="19"/>
+      <c r="S310" s="19"/>
+      <c r="T310" s="19"/>
+      <c r="U310" s="19"/>
+      <c r="V310" s="19"/>
+      <c r="W310" s="19"/>
+      <c r="X310" s="19"/>
+      <c r="Y310" s="19"/>
+      <c r="Z310" s="19"/>
+      <c r="AA310" s="19"/>
+      <c r="AB310" s="19"/>
+      <c r="AC310" s="19"/>
+      <c r="AD310" s="19"/>
+      <c r="AE310" s="19"/>
+      <c r="AF310" s="19"/>
+      <c r="AG310" s="19"/>
+      <c r="AH310" s="19"/>
+    </row>
+    <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E311" s="42" t="str">
+        <f>D305&amp;"2."</f>
         <v>3.1.11.2.</v>
       </c>
-      <c r="F310" s="41" t="str">
-        <f>E304&amp;"方法"</f>
+      <c r="F311" s="41" t="str">
+        <f>E305&amp;"方法"</f>
         <v>コンテンツ更新方法</v>
       </c>
-      <c r="G310" s="44"/>
-      <c r="H310" s="44"/>
-      <c r="I310" s="44"/>
-      <c r="J310" s="44"/>
-      <c r="K310" s="44"/>
-      <c r="L310" s="44"/>
-      <c r="M310" s="44"/>
-      <c r="N310" s="44"/>
-      <c r="O310" s="44"/>
-      <c r="P310" s="44"/>
-      <c r="Q310" s="44"/>
-      <c r="R310" s="44"/>
-      <c r="S310" s="44"/>
-      <c r="T310" s="44"/>
-      <c r="U310" s="44"/>
-      <c r="V310" s="44"/>
-      <c r="W310" s="44"/>
-      <c r="X310" s="44"/>
-      <c r="Y310" s="44"/>
-      <c r="Z310" s="44"/>
-      <c r="AA310" s="44"/>
-      <c r="AB310" s="44"/>
-      <c r="AC310" s="44"/>
-      <c r="AD310" s="44"/>
-      <c r="AE310" s="44"/>
-      <c r="AF310" s="44"/>
-      <c r="AG310" s="44"/>
-      <c r="AH310" s="44"/>
-    </row>
-    <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F311" s="41" t="s">
-        <v>307</v>
-      </c>
+      <c r="G311" s="44"/>
+      <c r="H311" s="44"/>
+      <c r="I311" s="44"/>
+      <c r="J311" s="44"/>
+      <c r="K311" s="44"/>
+      <c r="L311" s="44"/>
+      <c r="M311" s="44"/>
+      <c r="N311" s="44"/>
+      <c r="O311" s="44"/>
+      <c r="P311" s="44"/>
+      <c r="Q311" s="44"/>
+      <c r="R311" s="44"/>
+      <c r="S311" s="44"/>
+      <c r="T311" s="44"/>
+      <c r="U311" s="44"/>
+      <c r="V311" s="44"/>
+      <c r="W311" s="44"/>
+      <c r="X311" s="44"/>
+      <c r="Y311" s="44"/>
+      <c r="Z311" s="44"/>
+      <c r="AA311" s="44"/>
+      <c r="AB311" s="44"/>
+      <c r="AC311" s="44"/>
+      <c r="AD311" s="44"/>
+      <c r="AE311" s="44"/>
+      <c r="AF311" s="44"/>
+      <c r="AG311" s="44"/>
+      <c r="AH311" s="44"/>
     </row>
     <row r="312" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F312" s="52" t="s">
+      <c r="F312" s="41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="313" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F313" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G312" s="53"/>
-      <c r="H312" s="53"/>
-      <c r="I312" s="53"/>
-      <c r="J312" s="53"/>
-      <c r="K312" s="54"/>
-      <c r="L312" s="53" t="s">
+      <c r="G313" s="53"/>
+      <c r="H313" s="53"/>
+      <c r="I313" s="53"/>
+      <c r="J313" s="53"/>
+      <c r="K313" s="54"/>
+      <c r="L313" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M312" s="53"/>
-      <c r="N312" s="53"/>
-      <c r="O312" s="53"/>
-      <c r="P312" s="53"/>
-      <c r="Q312" s="53"/>
-      <c r="R312" s="54"/>
-      <c r="S312" s="53" t="s">
+      <c r="M313" s="53"/>
+      <c r="N313" s="53"/>
+      <c r="O313" s="53"/>
+      <c r="P313" s="53"/>
+      <c r="Q313" s="53"/>
+      <c r="R313" s="54"/>
+      <c r="S313" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T312" s="53"/>
-      <c r="U312" s="53"/>
-      <c r="V312" s="53"/>
-      <c r="W312" s="53"/>
-      <c r="X312" s="53"/>
-      <c r="Y312" s="53"/>
-      <c r="Z312" s="53"/>
-      <c r="AA312" s="53"/>
-      <c r="AB312" s="53"/>
-      <c r="AC312" s="53"/>
-      <c r="AD312" s="53"/>
-      <c r="AE312" s="53"/>
-      <c r="AF312" s="53"/>
-      <c r="AG312" s="53"/>
-      <c r="AH312" s="54"/>
-    </row>
-    <row r="313" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F313" s="81" t="s">
+      <c r="T313" s="53"/>
+      <c r="U313" s="53"/>
+      <c r="V313" s="53"/>
+      <c r="W313" s="53"/>
+      <c r="X313" s="53"/>
+      <c r="Y313" s="53"/>
+      <c r="Z313" s="53"/>
+      <c r="AA313" s="53"/>
+      <c r="AB313" s="53"/>
+      <c r="AC313" s="53"/>
+      <c r="AD313" s="53"/>
+      <c r="AE313" s="53"/>
+      <c r="AF313" s="53"/>
+      <c r="AG313" s="53"/>
+      <c r="AH313" s="54"/>
+    </row>
+    <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F314" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="G313" s="93"/>
-      <c r="H313" s="93"/>
-      <c r="I313" s="102"/>
-      <c r="J313" s="102"/>
-      <c r="K313" s="103"/>
-      <c r="L313" s="67" t="s">
+      <c r="G314" s="93"/>
+      <c r="H314" s="93"/>
+      <c r="I314" s="102"/>
+      <c r="J314" s="102"/>
+      <c r="K314" s="103"/>
+      <c r="L314" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="M313" s="68"/>
-      <c r="N313" s="68"/>
-      <c r="O313" s="93"/>
-      <c r="P313" s="93"/>
-      <c r="Q313" s="93"/>
-      <c r="R313" s="72"/>
-      <c r="S313" s="93" t="s">
+      <c r="M314" s="68"/>
+      <c r="N314" s="68"/>
+      <c r="O314" s="93"/>
+      <c r="P314" s="93"/>
+      <c r="Q314" s="93"/>
+      <c r="R314" s="72"/>
+      <c r="S314" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="T313" s="102"/>
-      <c r="U313" s="102"/>
-      <c r="V313" s="102"/>
-      <c r="W313" s="102"/>
-      <c r="X313" s="102"/>
-      <c r="Y313" s="102"/>
-      <c r="Z313" s="102"/>
-      <c r="AA313" s="102"/>
-      <c r="AB313" s="102"/>
-      <c r="AC313" s="102"/>
-      <c r="AD313" s="102"/>
-      <c r="AE313" s="102"/>
-      <c r="AF313" s="102"/>
-      <c r="AG313" s="102"/>
-      <c r="AH313" s="103"/>
-    </row>
-    <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F314" s="70"/>
-      <c r="G314" s="70"/>
-      <c r="H314" s="70"/>
-      <c r="I314" s="70"/>
-      <c r="J314" s="70"/>
-      <c r="K314" s="70"/>
-      <c r="L314" s="70"/>
-      <c r="M314" s="44"/>
-      <c r="N314" s="44"/>
-      <c r="O314" s="44"/>
-      <c r="P314" s="44"/>
-      <c r="Q314" s="44"/>
-      <c r="R314" s="44"/>
-      <c r="S314" s="44"/>
-      <c r="T314" s="44"/>
-      <c r="U314" s="44"/>
-      <c r="V314" s="44"/>
-      <c r="W314" s="44"/>
-      <c r="X314" s="44"/>
-      <c r="Y314" s="44"/>
-      <c r="Z314" s="44"/>
-      <c r="AA314" s="44"/>
-      <c r="AB314" s="44"/>
-      <c r="AC314" s="44"/>
-      <c r="AD314" s="44"/>
-      <c r="AE314" s="44"/>
-      <c r="AF314" s="44"/>
-      <c r="AG314" s="44"/>
-      <c r="AH314" s="44"/>
-    </row>
-    <row r="315" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E315" s="28" t="str">
-        <f>D304&amp;"3."</f>
+      <c r="T314" s="102"/>
+      <c r="U314" s="102"/>
+      <c r="V314" s="102"/>
+      <c r="W314" s="102"/>
+      <c r="X314" s="102"/>
+      <c r="Y314" s="102"/>
+      <c r="Z314" s="102"/>
+      <c r="AA314" s="102"/>
+      <c r="AB314" s="102"/>
+      <c r="AC314" s="102"/>
+      <c r="AD314" s="102"/>
+      <c r="AE314" s="102"/>
+      <c r="AF314" s="102"/>
+      <c r="AG314" s="102"/>
+      <c r="AH314" s="103"/>
+    </row>
+    <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F315" s="70"/>
+      <c r="G315" s="70"/>
+      <c r="H315" s="70"/>
+      <c r="I315" s="70"/>
+      <c r="J315" s="70"/>
+      <c r="K315" s="70"/>
+      <c r="L315" s="70"/>
+      <c r="M315" s="44"/>
+      <c r="N315" s="44"/>
+      <c r="O315" s="44"/>
+      <c r="P315" s="44"/>
+      <c r="Q315" s="44"/>
+      <c r="R315" s="44"/>
+      <c r="S315" s="44"/>
+      <c r="T315" s="44"/>
+      <c r="U315" s="44"/>
+      <c r="V315" s="44"/>
+      <c r="W315" s="44"/>
+      <c r="X315" s="44"/>
+      <c r="Y315" s="44"/>
+      <c r="Z315" s="44"/>
+      <c r="AA315" s="44"/>
+      <c r="AB315" s="44"/>
+      <c r="AC315" s="44"/>
+      <c r="AD315" s="44"/>
+      <c r="AE315" s="44"/>
+      <c r="AF315" s="44"/>
+      <c r="AG315" s="44"/>
+      <c r="AH315" s="44"/>
+    </row>
+    <row r="316" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E316" s="28" t="str">
+        <f>D305&amp;"3."</f>
         <v>3.1.11.3.</v>
       </c>
-      <c r="F315" s="36" t="s">
+      <c r="F316" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="G315" s="36"/>
-      <c r="H315" s="36"/>
-      <c r="I315" s="36"/>
-      <c r="J315" s="36"/>
-      <c r="K315" s="36"/>
-      <c r="L315" s="36"/>
-    </row>
-    <row r="316" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F316" s="77" t="s">
+      <c r="G316" s="36"/>
+      <c r="H316" s="36"/>
+      <c r="I316" s="36"/>
+      <c r="J316" s="36"/>
+      <c r="K316" s="36"/>
+      <c r="L316" s="36"/>
+    </row>
+    <row r="317" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F317" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="G316" s="74" t="str">
-        <f>E304&amp;"方法詳細"</f>
+      <c r="G317" s="74" t="str">
+        <f>E305&amp;"方法詳細"</f>
         <v>コンテンツ更新方法詳細</v>
       </c>
-      <c r="H316" s="74"/>
-      <c r="I316" s="74"/>
-      <c r="J316" s="74"/>
-      <c r="K316" s="74"/>
-      <c r="L316" s="74"/>
-    </row>
-    <row r="317" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F317" s="77"/>
-      <c r="G317" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="H317" s="74" t="s">
-        <v>137</v>
-      </c>
+      <c r="H317" s="74"/>
       <c r="I317" s="74"/>
       <c r="J317" s="74"/>
       <c r="K317" s="74"/>
@@ -13349,39 +13367,39 @@
     </row>
     <row r="318" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F318" s="77"/>
-      <c r="G318" s="79"/>
-      <c r="H318" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="I318" s="74" t="s">
-        <v>138</v>
-      </c>
+      <c r="G318" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="H318" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="I318" s="74"/>
       <c r="J318" s="74"/>
       <c r="K318" s="74"/>
       <c r="L318" s="74"/>
     </row>
     <row r="319" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F319" s="77"/>
-      <c r="G319" s="79" t="s">
+      <c r="G319" s="79"/>
+      <c r="H319" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="H319" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="I319" s="74"/>
+      <c r="I319" s="74" t="s">
+        <v>138</v>
+      </c>
       <c r="J319" s="74"/>
       <c r="K319" s="74"/>
       <c r="L319" s="74"/>
     </row>
     <row r="320" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F320" s="77"/>
-      <c r="G320" s="74"/>
-      <c r="H320" s="79" t="s">
+      <c r="G320" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="I320" s="74" t="s">
-        <v>132</v>
-      </c>
+      <c r="H320" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="I320" s="74"/>
       <c r="J320" s="74"/>
       <c r="K320" s="74"/>
       <c r="L320" s="74"/>
@@ -13390,251 +13408,228 @@
       <c r="F321" s="77"/>
       <c r="G321" s="74"/>
       <c r="H321" s="79" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="I321" s="74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J321" s="74"/>
       <c r="K321" s="74"/>
       <c r="L321" s="74"/>
     </row>
     <row r="322" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F322" s="74"/>
-      <c r="G322" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="H322" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="I322" s="74"/>
+      <c r="F322" s="77"/>
+      <c r="G322" s="74"/>
+      <c r="H322" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="I322" s="74" t="s">
+        <v>134</v>
+      </c>
       <c r="J322" s="74"/>
       <c r="K322" s="74"/>
       <c r="L322" s="74"/>
     </row>
-    <row r="323" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F323" s="36"/>
-      <c r="G323" s="36"/>
-      <c r="H323" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="I323" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="J323" s="36"/>
-      <c r="K323" s="36"/>
-      <c r="L323" s="36"/>
+    <row r="323" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F323" s="74"/>
+      <c r="G323" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="H323" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="I323" s="74"/>
+      <c r="J323" s="74"/>
+      <c r="K323" s="74"/>
+      <c r="L323" s="74"/>
     </row>
     <row r="324" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F324" s="36"/>
-      <c r="G324" s="83"/>
-      <c r="H324" s="73" t="s">
-        <v>126</v>
+      <c r="G324" s="36"/>
+      <c r="H324" s="82" t="s">
+        <v>127</v>
       </c>
       <c r="I324" s="36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J324" s="36"/>
       <c r="K324" s="36"/>
       <c r="L324" s="36"/>
     </row>
-    <row r="325" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F325" s="36"/>
       <c r="G325" s="83"/>
-      <c r="H325" s="36"/>
-      <c r="I325" s="36"/>
+      <c r="H325" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="I325" s="36" t="s">
+        <v>128</v>
+      </c>
       <c r="J325" s="36"/>
       <c r="K325" s="36"/>
       <c r="L325" s="36"/>
     </row>
-    <row r="326" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D326" s="28" t="str">
+    <row r="326" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F326" s="36"/>
+      <c r="G326" s="83"/>
+      <c r="H326" s="36"/>
+      <c r="I326" s="36"/>
+      <c r="J326" s="36"/>
+      <c r="K326" s="36"/>
+      <c r="L326" s="36"/>
+    </row>
+    <row r="327" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D327" s="28" t="str">
         <f>$C$7&amp;"12."</f>
         <v>3.1.12.</v>
       </c>
-      <c r="E326" s="4" t="s">
+      <c r="E327" s="4" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="327" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D327" s="42"/>
-      <c r="E327" s="42" t="str">
-        <f>D326&amp;"1."</f>
-        <v>3.1.12.1.</v>
-      </c>
-      <c r="F327" s="41" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="328" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D328" s="42"/>
-      <c r="E328" s="41" t="s">
-        <v>242</v>
+      <c r="E328" s="42" t="str">
+        <f>D327&amp;"1."</f>
+        <v>3.1.12.1.</v>
+      </c>
+      <c r="F328" s="41" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="329" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D329" s="42"/>
       <c r="E329" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="330" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D330" s="42"/>
+      <c r="E330" s="41" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="331" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D331" s="42"/>
-      <c r="E331" s="42" t="str">
-        <f>D326&amp;"2."</f>
-        <v>3.1.12.2.</v>
-      </c>
-      <c r="F331" s="41" t="s">
-        <v>241</v>
-      </c>
     </row>
     <row r="332" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D332" s="42"/>
-      <c r="E332" s="41" t="s">
+      <c r="E332" s="42" t="str">
+        <f>D327&amp;"2."</f>
+        <v>3.1.12.2.</v>
+      </c>
+      <c r="F332" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="333" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D333" s="42"/>
+      <c r="E333" s="41" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="333" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F333" s="19"/>
-      <c r="G333" s="19"/>
-      <c r="H333" s="19"/>
-      <c r="I333" s="19"/>
-      <c r="J333" s="19"/>
-      <c r="K333" s="19"/>
-      <c r="L333" s="19"/>
-      <c r="M333" s="19"/>
-      <c r="N333" s="19"/>
-      <c r="O333" s="19"/>
-      <c r="P333" s="19"/>
-      <c r="Q333" s="19"/>
-      <c r="R333" s="19"/>
-      <c r="S333" s="19"/>
-      <c r="T333" s="19"/>
-      <c r="U333" s="19"/>
-      <c r="V333" s="19"/>
-      <c r="W333" s="19"/>
-      <c r="X333" s="19"/>
-      <c r="Y333" s="19"/>
-      <c r="Z333" s="19"/>
-      <c r="AA333" s="19"/>
-      <c r="AB333" s="19"/>
-      <c r="AC333" s="19"/>
-      <c r="AD333" s="19"/>
-      <c r="AE333" s="19"/>
-      <c r="AF333" s="19"/>
-      <c r="AG333" s="19"/>
-      <c r="AH333" s="19"/>
-    </row>
-    <row r="334" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D334" s="42" t="str">
+    <row r="334" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F334" s="19"/>
+      <c r="G334" s="19"/>
+      <c r="H334" s="19"/>
+      <c r="I334" s="19"/>
+      <c r="J334" s="19"/>
+      <c r="K334" s="19"/>
+      <c r="L334" s="19"/>
+      <c r="M334" s="19"/>
+      <c r="N334" s="19"/>
+      <c r="O334" s="19"/>
+      <c r="P334" s="19"/>
+      <c r="Q334" s="19"/>
+      <c r="R334" s="19"/>
+      <c r="S334" s="19"/>
+      <c r="T334" s="19"/>
+      <c r="U334" s="19"/>
+      <c r="V334" s="19"/>
+      <c r="W334" s="19"/>
+      <c r="X334" s="19"/>
+      <c r="Y334" s="19"/>
+      <c r="Z334" s="19"/>
+      <c r="AA334" s="19"/>
+      <c r="AB334" s="19"/>
+      <c r="AC334" s="19"/>
+      <c r="AD334" s="19"/>
+      <c r="AE334" s="19"/>
+      <c r="AF334" s="19"/>
+      <c r="AG334" s="19"/>
+      <c r="AH334" s="19"/>
+    </row>
+    <row r="335" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D335" s="42" t="str">
         <f>$C$7&amp;"13."</f>
         <v>3.1.13.</v>
       </c>
-      <c r="E334" s="41" t="s">
+      <c r="E335" s="41" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="335" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D335" s="42"/>
-      <c r="E335" s="41" t="s">
+    <row r="336" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D336" s="42"/>
+      <c r="E336" s="41" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="336" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E336" s="52" t="s">
+    <row r="337" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E337" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F336" s="53"/>
-      <c r="G336" s="53"/>
-      <c r="H336" s="53"/>
-      <c r="I336" s="53"/>
-      <c r="J336" s="53"/>
-      <c r="K336" s="54"/>
-      <c r="L336" s="53" t="s">
+      <c r="F337" s="53"/>
+      <c r="G337" s="53"/>
+      <c r="H337" s="53"/>
+      <c r="I337" s="53"/>
+      <c r="J337" s="53"/>
+      <c r="K337" s="54"/>
+      <c r="L337" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="M336" s="53"/>
-      <c r="N336" s="53"/>
-      <c r="O336" s="54"/>
-      <c r="P336" s="53" t="s">
+      <c r="M337" s="53"/>
+      <c r="N337" s="53"/>
+      <c r="O337" s="54"/>
+      <c r="P337" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Q336" s="53"/>
-      <c r="R336" s="53"/>
-      <c r="S336" s="53"/>
-      <c r="T336" s="53"/>
-      <c r="U336" s="53"/>
-      <c r="V336" s="53"/>
-      <c r="W336" s="53"/>
-      <c r="X336" s="53"/>
-      <c r="Y336" s="53"/>
-      <c r="Z336" s="53"/>
-      <c r="AA336" s="53"/>
-      <c r="AB336" s="53"/>
-      <c r="AC336" s="53"/>
-      <c r="AD336" s="53"/>
-      <c r="AE336" s="53"/>
-      <c r="AF336" s="53"/>
-      <c r="AG336" s="53"/>
-      <c r="AH336" s="54"/>
-    </row>
-    <row r="337" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E337" s="109" t="s">
-        <v>237</v>
-      </c>
-      <c r="F337" s="98"/>
-      <c r="G337" s="98"/>
-      <c r="H337" s="70"/>
-      <c r="I337" s="70"/>
-      <c r="J337" s="70"/>
-      <c r="K337" s="100"/>
-      <c r="L337" s="98" t="s">
-        <v>239</v>
-      </c>
-      <c r="M337" s="70"/>
-      <c r="N337" s="70"/>
-      <c r="O337" s="100"/>
-      <c r="P337" s="98" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q337" s="70"/>
-      <c r="R337" s="70"/>
-      <c r="S337" s="70"/>
-      <c r="T337" s="70"/>
-      <c r="U337" s="70"/>
-      <c r="V337" s="70"/>
-      <c r="W337" s="70"/>
-      <c r="X337" s="70"/>
-      <c r="Y337" s="70"/>
-      <c r="Z337" s="70"/>
-      <c r="AA337" s="70"/>
-      <c r="AB337" s="70"/>
-      <c r="AC337" s="70"/>
-      <c r="AD337" s="70"/>
-      <c r="AE337" s="70"/>
-      <c r="AF337" s="70"/>
-      <c r="AG337" s="70"/>
-      <c r="AH337" s="94"/>
+      <c r="Q337" s="53"/>
+      <c r="R337" s="53"/>
+      <c r="S337" s="53"/>
+      <c r="T337" s="53"/>
+      <c r="U337" s="53"/>
+      <c r="V337" s="53"/>
+      <c r="W337" s="53"/>
+      <c r="X337" s="53"/>
+      <c r="Y337" s="53"/>
+      <c r="Z337" s="53"/>
+      <c r="AA337" s="53"/>
+      <c r="AB337" s="53"/>
+      <c r="AC337" s="53"/>
+      <c r="AD337" s="53"/>
+      <c r="AE337" s="53"/>
+      <c r="AF337" s="53"/>
+      <c r="AG337" s="53"/>
+      <c r="AH337" s="54"/>
     </row>
     <row r="338" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E338" s="109" t="s">
-        <v>211</v>
-      </c>
-      <c r="F338" s="26"/>
-      <c r="G338" s="26"/>
+        <v>237</v>
+      </c>
+      <c r="F338" s="98"/>
+      <c r="G338" s="98"/>
       <c r="H338" s="70"/>
       <c r="I338" s="70"/>
       <c r="J338" s="70"/>
-      <c r="K338" s="71"/>
-      <c r="L338" s="26"/>
+      <c r="K338" s="100"/>
+      <c r="L338" s="98" t="s">
+        <v>239</v>
+      </c>
       <c r="M338" s="70"/>
       <c r="N338" s="70"/>
-      <c r="O338" s="71"/>
-      <c r="P338" s="26" t="s">
-        <v>238</v>
+      <c r="O338" s="100"/>
+      <c r="P338" s="98" t="s">
+        <v>236</v>
       </c>
       <c r="Q338" s="70"/>
       <c r="R338" s="70"/>
@@ -13656,7 +13651,9 @@
       <c r="AH338" s="94"/>
     </row>
     <row r="339" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E339" s="109"/>
+      <c r="E339" s="109" t="s">
+        <v>211</v>
+      </c>
       <c r="F339" s="26"/>
       <c r="G339" s="26"/>
       <c r="H339" s="70"/>
@@ -13668,7 +13665,7 @@
       <c r="N339" s="70"/>
       <c r="O339" s="71"/>
       <c r="P339" s="26" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="Q339" s="70"/>
       <c r="R339" s="70"/>
@@ -13702,7 +13699,7 @@
       <c r="N340" s="70"/>
       <c r="O340" s="71"/>
       <c r="P340" s="26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q340" s="70"/>
       <c r="R340" s="70"/>
@@ -13724,72 +13721,106 @@
       <c r="AH340" s="94"/>
     </row>
     <row r="341" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E341" s="81"/>
-      <c r="F341" s="76"/>
-      <c r="G341" s="76"/>
-      <c r="H341" s="102"/>
-      <c r="I341" s="102"/>
-      <c r="J341" s="102"/>
-      <c r="K341" s="90"/>
-      <c r="L341" s="76"/>
-      <c r="M341" s="102"/>
-      <c r="N341" s="102"/>
-      <c r="O341" s="90"/>
-      <c r="P341" s="76" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q341" s="102"/>
-      <c r="R341" s="102"/>
-      <c r="S341" s="102"/>
-      <c r="T341" s="102"/>
-      <c r="U341" s="102"/>
-      <c r="V341" s="102"/>
-      <c r="W341" s="102"/>
-      <c r="X341" s="102"/>
-      <c r="Y341" s="102"/>
-      <c r="Z341" s="102"/>
-      <c r="AA341" s="102"/>
-      <c r="AB341" s="102"/>
-      <c r="AC341" s="102"/>
-      <c r="AD341" s="102"/>
-      <c r="AE341" s="102"/>
-      <c r="AF341" s="102"/>
-      <c r="AG341" s="102"/>
-      <c r="AH341" s="103"/>
+      <c r="E341" s="109"/>
+      <c r="F341" s="26"/>
+      <c r="G341" s="26"/>
+      <c r="H341" s="70"/>
+      <c r="I341" s="70"/>
+      <c r="J341" s="70"/>
+      <c r="K341" s="71"/>
+      <c r="L341" s="26"/>
+      <c r="M341" s="70"/>
+      <c r="N341" s="70"/>
+      <c r="O341" s="71"/>
+      <c r="P341" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q341" s="70"/>
+      <c r="R341" s="70"/>
+      <c r="S341" s="70"/>
+      <c r="T341" s="70"/>
+      <c r="U341" s="70"/>
+      <c r="V341" s="70"/>
+      <c r="W341" s="70"/>
+      <c r="X341" s="70"/>
+      <c r="Y341" s="70"/>
+      <c r="Z341" s="70"/>
+      <c r="AA341" s="70"/>
+      <c r="AB341" s="70"/>
+      <c r="AC341" s="70"/>
+      <c r="AD341" s="70"/>
+      <c r="AE341" s="70"/>
+      <c r="AF341" s="70"/>
+      <c r="AG341" s="70"/>
+      <c r="AH341" s="94"/>
     </row>
     <row r="342" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F342" s="70"/>
-      <c r="G342" s="70"/>
-      <c r="H342" s="70"/>
-      <c r="I342" s="70"/>
-      <c r="J342" s="70"/>
-      <c r="K342" s="70"/>
-      <c r="L342" s="70"/>
-      <c r="M342" s="44"/>
-      <c r="N342" s="44"/>
-      <c r="O342" s="44"/>
-      <c r="P342" s="44"/>
-      <c r="Q342" s="44"/>
-      <c r="R342" s="44"/>
-      <c r="S342" s="44"/>
-      <c r="T342" s="44"/>
-      <c r="U342" s="44"/>
-      <c r="V342" s="44"/>
-      <c r="W342" s="44"/>
-      <c r="X342" s="44"/>
-      <c r="Y342" s="44"/>
-      <c r="Z342" s="44"/>
-      <c r="AA342" s="44"/>
-      <c r="AB342" s="44"/>
-      <c r="AC342" s="44"/>
-      <c r="AD342" s="44"/>
-      <c r="AE342" s="44"/>
-      <c r="AF342" s="44"/>
-      <c r="AG342" s="44"/>
-      <c r="AH342" s="44"/>
-    </row>
-    <row r="343" spans="5:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F343" s="91"/>
+      <c r="E342" s="81"/>
+      <c r="F342" s="76"/>
+      <c r="G342" s="76"/>
+      <c r="H342" s="102"/>
+      <c r="I342" s="102"/>
+      <c r="J342" s="102"/>
+      <c r="K342" s="90"/>
+      <c r="L342" s="76"/>
+      <c r="M342" s="102"/>
+      <c r="N342" s="102"/>
+      <c r="O342" s="90"/>
+      <c r="P342" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q342" s="102"/>
+      <c r="R342" s="102"/>
+      <c r="S342" s="102"/>
+      <c r="T342" s="102"/>
+      <c r="U342" s="102"/>
+      <c r="V342" s="102"/>
+      <c r="W342" s="102"/>
+      <c r="X342" s="102"/>
+      <c r="Y342" s="102"/>
+      <c r="Z342" s="102"/>
+      <c r="AA342" s="102"/>
+      <c r="AB342" s="102"/>
+      <c r="AC342" s="102"/>
+      <c r="AD342" s="102"/>
+      <c r="AE342" s="102"/>
+      <c r="AF342" s="102"/>
+      <c r="AG342" s="102"/>
+      <c r="AH342" s="103"/>
+    </row>
+    <row r="343" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F343" s="70"/>
+      <c r="G343" s="70"/>
+      <c r="H343" s="70"/>
+      <c r="I343" s="70"/>
+      <c r="J343" s="70"/>
+      <c r="K343" s="70"/>
+      <c r="L343" s="70"/>
+      <c r="M343" s="44"/>
+      <c r="N343" s="44"/>
+      <c r="O343" s="44"/>
+      <c r="P343" s="44"/>
+      <c r="Q343" s="44"/>
+      <c r="R343" s="44"/>
+      <c r="S343" s="44"/>
+      <c r="T343" s="44"/>
+      <c r="U343" s="44"/>
+      <c r="V343" s="44"/>
+      <c r="W343" s="44"/>
+      <c r="X343" s="44"/>
+      <c r="Y343" s="44"/>
+      <c r="Z343" s="44"/>
+      <c r="AA343" s="44"/>
+      <c r="AB343" s="44"/>
+      <c r="AC343" s="44"/>
+      <c r="AD343" s="44"/>
+      <c r="AE343" s="44"/>
+      <c r="AF343" s="44"/>
+      <c r="AG343" s="44"/>
+      <c r="AH343" s="44"/>
+    </row>
+    <row r="344" spans="5:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F344" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13814,14 +13845,14 @@
   <rowBreaks count="10" manualBreakCount="10">
     <brk id="42" max="16383" man="1"/>
     <brk id="75" max="16383" man="1"/>
-    <brk id="99" max="16383" man="1"/>
-    <brk id="123" max="16383" man="1"/>
-    <brk id="147" max="16383" man="1"/>
-    <brk id="194" max="16383" man="1"/>
-    <brk id="229" max="16383" man="1"/>
-    <brk id="262" max="16383" man="1"/>
-    <brk id="302" max="16383" man="1"/>
-    <brk id="325" max="16383" man="1"/>
+    <brk id="100" max="16383" man="1"/>
+    <brk id="124" max="16383" man="1"/>
+    <brk id="148" max="16383" man="1"/>
+    <brk id="195" max="16383" man="1"/>
+    <brk id="230" max="16383" man="1"/>
+    <brk id="263" max="16383" man="1"/>
+    <brk id="303" max="16383" man="1"/>
+    <brk id="326" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="B5" numberStoredAsText="1"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22334BB9-965B-44B2-A548-D4DFC0528434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC25881B-FEE0-4C6D-8DC4-3AB5AA47AD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.1.同期処理方式'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$343</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$344</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$263</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$263</definedName>
   </definedNames>
@@ -858,28 +858,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コンテンツが存在しない場合、コンテンツの表示領域を詰めて表示する。</t>
-    <rPh sb="6" eb="8">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>リョウイキ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -901,53 +879,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>APサーバを再起動せず、担当者自身で作成したコンテンツを更新することができるように画面に差込枠を設け、</t>
-    <rPh sb="6" eb="7">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>モウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>差込用ファイル(お知らせなどの文言や画像のリンクを記載したHTML)を読み込ませる。</t>
-    <rPh sb="35" eb="36">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コンテンツが存在する場合：div要素の位置にiframe要素を差込み、対応するコンテンツを表示</t>
     <rPh sb="6" eb="8">
       <t>ソンザイ</t>
@@ -3289,6 +3220,78 @@
     <t>サーバ側と比較すると、すでにリクエストを送信したことが視覚的に分かりやすく、かつ送信自体を防止できるので、</t>
     <rPh sb="20" eb="22">
       <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面上にコンテンツ差込枠を設け、WEBサーバ上の差込用ファイル（お知らせなどの文言や画像のリンクを記載したHTML）を</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サシコミワク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>サシコミヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>読み込ませることで、APサーバを再起動させることなく担当者がコンテンツの更新をできるようにする。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンテンツが存在しない場合、コンテンツの表示領域は詰めて表示する。</t>
+    <rPh sb="6" eb="8">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5066,7 +5069,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI344"/>
+  <dimension ref="A1:AI345"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
@@ -5083,7 +5086,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="119" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F1" s="120"/>
       <c r="G1" s="120"/>
@@ -5100,7 +5103,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="122" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S1" s="123"/>
       <c r="T1" s="123"/>
@@ -5360,13 +5363,13 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="52" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="54"/>
       <c r="J14" s="110" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K14" s="111"/>
       <c r="L14" s="111"/>
@@ -5404,7 +5407,7 @@
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="56" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -5442,7 +5445,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -5478,7 +5481,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="31"/>
       <c r="J17" s="30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -5506,7 +5509,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -5605,7 +5608,7 @@
     </row>
     <row r="26" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5662,7 +5665,7 @@
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="56" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K30" s="57"/>
       <c r="L30" s="93"/>
@@ -5691,13 +5694,13 @@
     </row>
     <row r="31" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="35" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
       <c r="J31" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="98"/>
@@ -5730,7 +5733,7 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="J32" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K32" s="33"/>
       <c r="L32" s="76"/>
@@ -5794,19 +5797,19 @@
         <v>3.1.3.3.</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="24"/>
       <c r="F35" s="74" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E36" s="24"/>
       <c r="F36" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5815,13 +5818,13 @@
     <row r="38" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="24"/>
       <c r="F38" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E39" s="24"/>
       <c r="F39" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5830,7 +5833,7 @@
     <row r="41" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E41" s="24"/>
       <c r="F41" s="115" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="45" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5872,7 +5875,7 @@
     </row>
     <row r="48" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F48" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5884,7 +5887,7 @@
       <c r="I49" s="53"/>
       <c r="J49" s="54"/>
       <c r="K49" s="53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L49" s="53"/>
       <c r="M49" s="53"/>
@@ -5919,7 +5922,7 @@
       <c r="I50" s="99"/>
       <c r="J50" s="100"/>
       <c r="K50" s="98" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L50" s="98"/>
       <c r="M50" s="98"/>
@@ -5952,7 +5955,7 @@
       <c r="I51" s="102"/>
       <c r="J51" s="90"/>
       <c r="K51" s="76" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L51" s="76"/>
       <c r="M51" s="76"/>
@@ -5987,7 +5990,7 @@
       <c r="I52" s="70"/>
       <c r="J52" s="71"/>
       <c r="K52" s="26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L52" s="26"/>
       <c r="M52" s="26"/>
@@ -6020,7 +6023,7 @@
       <c r="I53" s="70"/>
       <c r="J53" s="71"/>
       <c r="K53" s="26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L53" s="26"/>
       <c r="M53" s="26"/>
@@ -6053,7 +6056,7 @@
       <c r="I54" s="102"/>
       <c r="J54" s="90"/>
       <c r="K54" s="76" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L54" s="76"/>
       <c r="M54" s="76"/>
@@ -6086,19 +6089,19 @@
         <v>3.1.4.3.</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="66"/>
       <c r="F57" s="36" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="66"/>
       <c r="F58" s="36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6124,17 +6127,17 @@
     </row>
     <row r="62" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F64" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6150,12 +6153,12 @@
     </row>
     <row r="67" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F67" s="52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="53"/>
       <c r="I67" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
@@ -6170,7 +6173,7 @@
       <c r="T67" s="53"/>
       <c r="U67" s="54"/>
       <c r="V67" s="53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="W67" s="53"/>
       <c r="X67" s="53"/>
@@ -6189,12 +6192,12 @@
     </row>
     <row r="68" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="97" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G68" s="99"/>
       <c r="H68" s="104"/>
       <c r="I68" s="105" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J68" s="106"/>
       <c r="K68" s="93"/>
@@ -6209,7 +6212,7 @@
       <c r="T68" s="68"/>
       <c r="U68" s="107"/>
       <c r="V68" s="93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="W68" s="106"/>
       <c r="X68" s="106"/>
@@ -6218,7 +6221,7 @@
       <c r="AA68" s="68"/>
       <c r="AB68" s="72"/>
       <c r="AC68" s="93" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AD68" s="68"/>
       <c r="AE68" s="68"/>
@@ -6246,7 +6249,7 @@
       <c r="T69" s="68"/>
       <c r="U69" s="107"/>
       <c r="V69" s="93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="W69" s="106"/>
       <c r="X69" s="106"/>
@@ -6255,7 +6258,7 @@
       <c r="AA69" s="68"/>
       <c r="AB69" s="72"/>
       <c r="AC69" s="93" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AD69" s="68"/>
       <c r="AE69" s="68"/>
@@ -6265,12 +6268,12 @@
     </row>
     <row r="70" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="95" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G70" s="68"/>
       <c r="H70" s="106"/>
       <c r="I70" s="105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J70" s="106"/>
       <c r="K70" s="93"/>
@@ -6285,7 +6288,7 @@
       <c r="T70" s="68"/>
       <c r="U70" s="107"/>
       <c r="V70" s="93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="W70" s="106"/>
       <c r="X70" s="106"/>
@@ -6294,7 +6297,7 @@
       <c r="AA70" s="68"/>
       <c r="AB70" s="72"/>
       <c r="AC70" s="93" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AD70" s="68"/>
       <c r="AE70" s="68"/>
@@ -6374,7 +6377,7 @@
     <row r="73" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="42"/>
       <c r="F73" s="44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G73" s="44"/>
       <c r="H73" s="44"/>
@@ -6408,7 +6411,7 @@
     <row r="74" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="42"/>
       <c r="F74" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H74" s="44"/>
       <c r="I74" s="44"/>
@@ -6462,7 +6465,7 @@
     <row r="78" spans="4:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D78" s="29"/>
       <c r="F78" s="41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="V78" s="29"/>
       <c r="W78" s="29"/>
@@ -6482,7 +6485,7 @@
     <row r="79" spans="4:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D79" s="29"/>
       <c r="F79" s="41" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="V79" s="29"/>
       <c r="W79" s="29"/>
@@ -6502,7 +6505,7 @@
     <row r="80" spans="4:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D80" s="29"/>
       <c r="F80" s="41" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V80" s="29"/>
       <c r="W80" s="29"/>
@@ -6532,7 +6535,7 @@
     </row>
     <row r="83" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F83" s="36" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6543,7 +6546,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="18"/>
       <c r="J84" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K84" s="17"/>
       <c r="L84" s="53"/>
@@ -6581,7 +6584,7 @@
       <c r="H85" s="26"/>
       <c r="I85" s="71"/>
       <c r="J85" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K85" s="26"/>
       <c r="L85" s="26"/>
@@ -6617,7 +6620,7 @@
       <c r="H86" s="26"/>
       <c r="I86" s="71"/>
       <c r="J86" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K86" s="26"/>
       <c r="L86" s="26"/>
@@ -6653,7 +6656,7 @@
       <c r="H87" s="26"/>
       <c r="I87" s="71"/>
       <c r="J87" s="26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K87" s="26"/>
       <c r="L87" s="26"/>
@@ -6689,7 +6692,7 @@
       <c r="H88" s="26"/>
       <c r="I88" s="26"/>
       <c r="J88" s="92" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K88" s="26"/>
       <c r="L88" s="26"/>
@@ -6725,7 +6728,7 @@
       <c r="H89" s="26"/>
       <c r="I89" s="26"/>
       <c r="J89" s="75" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K89" s="26"/>
       <c r="L89" s="26"/>
@@ -6763,7 +6766,7 @@
       <c r="H90" s="98"/>
       <c r="I90" s="98"/>
       <c r="J90" s="97" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K90" s="98"/>
       <c r="L90" s="98"/>
@@ -6799,7 +6802,7 @@
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
       <c r="J91" s="92" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K91" s="26"/>
       <c r="L91" s="26"/>
@@ -6835,7 +6838,7 @@
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
       <c r="J92" s="92" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K92" s="26"/>
       <c r="L92" s="26"/>
@@ -6871,7 +6874,7 @@
       <c r="H93" s="76"/>
       <c r="I93" s="76"/>
       <c r="J93" s="75" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K93" s="76"/>
       <c r="L93" s="76"/>
@@ -6940,7 +6943,7 @@
         <v>3.1.6.3.</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
@@ -6969,7 +6972,7 @@
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
       <c r="F96" s="65" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
@@ -6998,7 +7001,7 @@
       <c r="D97" s="29"/>
       <c r="E97" s="29"/>
       <c r="F97" s="65" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
@@ -7054,7 +7057,7 @@
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
       <c r="F99" s="113" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
@@ -7117,7 +7120,7 @@
     </row>
     <row r="106" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F106" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7165,7 +7168,7 @@
       <c r="I108" s="70"/>
       <c r="J108" s="71"/>
       <c r="K108" s="26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L108" s="26"/>
       <c r="M108" s="26"/>
@@ -7198,7 +7201,7 @@
       <c r="I109" s="102"/>
       <c r="J109" s="90"/>
       <c r="K109" s="76" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L109" s="76"/>
       <c r="M109" s="76"/>
@@ -7233,7 +7236,7 @@
       <c r="I110" s="70"/>
       <c r="J110" s="71"/>
       <c r="K110" s="26" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L110" s="26"/>
       <c r="M110" s="26"/>
@@ -7266,7 +7269,7 @@
       <c r="I111" s="102"/>
       <c r="J111" s="90"/>
       <c r="K111" s="76" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L111" s="76"/>
       <c r="M111" s="76"/>
@@ -7325,7 +7328,7 @@
     </row>
     <row r="113" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F113" s="70" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G113" s="70"/>
       <c r="H113" s="70"/>
@@ -7430,7 +7433,7 @@
       <c r="H116" s="99"/>
       <c r="I116" s="101"/>
       <c r="J116" s="99" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K116" s="99"/>
       <c r="L116" s="99"/>
@@ -7463,7 +7466,7 @@
       <c r="H117" s="70"/>
       <c r="I117" s="94"/>
       <c r="J117" s="70" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K117" s="70"/>
       <c r="L117" s="70"/>
@@ -7496,7 +7499,7 @@
       <c r="H118" s="102"/>
       <c r="I118" s="103"/>
       <c r="J118" s="102" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K118" s="102"/>
       <c r="L118" s="102"/>
@@ -7531,7 +7534,7 @@
       <c r="H119" s="70"/>
       <c r="I119" s="94"/>
       <c r="J119" s="70" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K119" s="70"/>
       <c r="L119" s="70"/>
@@ -7564,7 +7567,7 @@
       <c r="H120" s="70"/>
       <c r="I120" s="94"/>
       <c r="J120" s="70" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K120" s="70"/>
       <c r="L120" s="70"/>
@@ -7599,7 +7602,7 @@
       <c r="H121" s="99"/>
       <c r="I121" s="101"/>
       <c r="J121" s="99" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K121" s="99"/>
       <c r="L121" s="99"/>
@@ -7634,7 +7637,7 @@
       <c r="H122" s="70"/>
       <c r="I122" s="70"/>
       <c r="J122" s="109" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K122" s="70"/>
       <c r="L122" s="70"/>
@@ -7667,7 +7670,7 @@
       <c r="H123" s="102"/>
       <c r="I123" s="102"/>
       <c r="J123" s="75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K123" s="76"/>
       <c r="L123" s="76"/>
@@ -7731,7 +7734,7 @@
         <v>3.1.7.3.</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7739,19 +7742,19 @@
         <v>54</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="127" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F127" s="24"/>
       <c r="G127" s="41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F128" s="24"/>
       <c r="G128" s="41" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7760,13 +7763,13 @@
     <row r="130" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F130" s="24"/>
       <c r="G130" s="41" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F131" s="24"/>
       <c r="G131" s="41" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7828,14 +7831,14 @@
       <c r="I134" s="99"/>
       <c r="J134" s="101"/>
       <c r="K134" s="99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L134" s="99"/>
       <c r="M134" s="99"/>
       <c r="N134" s="99"/>
       <c r="O134" s="101"/>
       <c r="P134" s="99" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q134" s="99"/>
       <c r="R134" s="99"/>
@@ -7937,14 +7940,14 @@
       <c r="I137" s="70"/>
       <c r="J137" s="94"/>
       <c r="K137" s="70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L137" s="70"/>
       <c r="M137" s="70"/>
       <c r="N137" s="70"/>
       <c r="O137" s="94"/>
       <c r="P137" s="70" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q137" s="70"/>
       <c r="R137" s="70"/>
@@ -8003,14 +8006,14 @@
       <c r="I139" s="70"/>
       <c r="J139" s="94"/>
       <c r="K139" s="70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L139" s="70"/>
       <c r="M139" s="70"/>
       <c r="N139" s="70"/>
       <c r="O139" s="94"/>
       <c r="P139" s="26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q139" s="70"/>
       <c r="R139" s="70"/>
@@ -8069,7 +8072,7 @@
         <v>53</v>
       </c>
       <c r="G142" s="41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8078,7 +8081,7 @@
       <c r="D143" s="36"/>
       <c r="E143" s="36"/>
       <c r="G143" s="41" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8139,14 +8142,14 @@
       <c r="I146" s="99"/>
       <c r="J146" s="101"/>
       <c r="K146" s="99" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L146" s="99"/>
       <c r="M146" s="99"/>
       <c r="N146" s="99"/>
       <c r="O146" s="101"/>
       <c r="P146" s="99" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q146" s="99"/>
       <c r="R146" s="99"/>
@@ -8466,7 +8469,7 @@
         <v>55</v>
       </c>
       <c r="G157" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H157" s="29"/>
       <c r="I157" s="29"/>
@@ -8614,7 +8617,7 @@
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
       <c r="F162" s="61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G162" s="38"/>
       <c r="H162" s="38"/>
@@ -8660,7 +8663,7 @@
       <c r="J163" s="98"/>
       <c r="K163" s="98"/>
       <c r="L163" s="92" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M163" s="98"/>
       <c r="N163" s="98"/>
@@ -8698,7 +8701,7 @@
       <c r="J164" s="98"/>
       <c r="K164" s="98"/>
       <c r="L164" s="97" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M164" s="98"/>
       <c r="N164" s="98"/>
@@ -8734,7 +8737,7 @@
       <c r="J165" s="76"/>
       <c r="K165" s="76"/>
       <c r="L165" s="75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M165" s="76"/>
       <c r="N165" s="76"/>
@@ -8795,7 +8798,7 @@
         <v>3.1.8.3.</v>
       </c>
       <c r="F167" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G167" s="29"/>
       <c r="H167" s="29"/>
@@ -8858,7 +8861,7 @@
       <c r="E169" s="77"/>
       <c r="F169" s="24"/>
       <c r="G169" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H169" s="29"/>
       <c r="I169" s="29"/>
@@ -8918,7 +8921,7 @@
       <c r="E171" s="77"/>
       <c r="F171" s="24"/>
       <c r="G171" s="64" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H171" s="29"/>
       <c r="I171" s="29"/>
@@ -8948,7 +8951,7 @@
       <c r="E172" s="77"/>
       <c r="F172" s="24"/>
       <c r="G172" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H172" s="29"/>
       <c r="I172" s="29"/>
@@ -9092,13 +9095,13 @@
       <c r="K176" s="55"/>
       <c r="L176" s="31"/>
       <c r="M176" s="55" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N176" s="55"/>
       <c r="O176" s="55"/>
       <c r="P176" s="31"/>
       <c r="Q176" s="26" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R176" s="55"/>
       <c r="S176" s="55"/>
@@ -9134,13 +9137,13 @@
       <c r="K177" s="57"/>
       <c r="L177" s="58"/>
       <c r="M177" s="57" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N177" s="57"/>
       <c r="O177" s="57"/>
       <c r="P177" s="58"/>
       <c r="Q177" s="57" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R177" s="57"/>
       <c r="S177" s="57"/>
@@ -9289,7 +9292,7 @@
       <c r="O181" s="33"/>
       <c r="P181" s="34"/>
       <c r="Q181" s="76" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R181" s="33"/>
       <c r="S181" s="33"/>
@@ -9434,7 +9437,7 @@
       <c r="R185" s="39"/>
       <c r="S185" s="40"/>
       <c r="T185" s="35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="U185" s="39"/>
       <c r="V185" s="39"/>
@@ -9472,7 +9475,7 @@
       <c r="R186" s="55"/>
       <c r="S186" s="31"/>
       <c r="T186" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="U186" s="55"/>
       <c r="V186" s="55"/>
@@ -9673,7 +9676,7 @@
       <c r="D192" s="29"/>
       <c r="E192" s="74"/>
       <c r="F192" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G192" s="55" t="str">
         <f>G157</f>
@@ -9713,7 +9716,7 @@
       <c r="E193" s="74"/>
       <c r="F193" s="29"/>
       <c r="G193" s="55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H193" s="55"/>
       <c r="I193" s="55"/>
@@ -9749,7 +9752,7 @@
       <c r="E194" s="74"/>
       <c r="F194" s="29"/>
       <c r="G194" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H194" s="29"/>
       <c r="I194" s="29"/>
@@ -9779,7 +9782,7 @@
       <c r="E195" s="74"/>
       <c r="F195" s="29"/>
       <c r="G195" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H195" s="29"/>
       <c r="I195" s="29"/>
@@ -10118,7 +10121,7 @@
       <c r="E204" s="29"/>
       <c r="F204" s="29"/>
       <c r="G204" s="65" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H204" s="29"/>
       <c r="I204" s="29"/>
@@ -10157,7 +10160,7 @@
       <c r="E205" s="29"/>
       <c r="F205" s="29"/>
       <c r="G205" s="78" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H205" s="29"/>
       <c r="I205" s="29"/>
@@ -10196,7 +10199,7 @@
       <c r="E206" s="29"/>
       <c r="F206" s="29"/>
       <c r="G206" s="78" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H206" s="29"/>
       <c r="I206" s="29"/>
@@ -10627,7 +10630,7 @@
       <c r="E217" s="29"/>
       <c r="F217" s="29"/>
       <c r="G217" s="30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H217" s="55"/>
       <c r="I217" s="55"/>
@@ -10639,7 +10642,7 @@
       <c r="O217" s="55"/>
       <c r="P217" s="31"/>
       <c r="Q217" s="55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R217" s="55"/>
       <c r="S217" s="55"/>
@@ -10678,7 +10681,7 @@
       <c r="O218" s="55"/>
       <c r="P218" s="31"/>
       <c r="Q218" s="55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R218" s="55"/>
       <c r="S218" s="55"/>
@@ -10717,7 +10720,7 @@
       <c r="O219" s="33"/>
       <c r="P219" s="34"/>
       <c r="Q219" s="33" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R219" s="33"/>
       <c r="S219" s="33"/>
@@ -10783,7 +10786,7 @@
       <c r="E221" s="29"/>
       <c r="F221" s="29"/>
       <c r="G221" s="55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H221" s="55"/>
       <c r="I221" s="55"/>
@@ -10859,7 +10862,7 @@
       <c r="E223" s="29"/>
       <c r="F223" s="29"/>
       <c r="G223" s="55" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H223" s="55"/>
       <c r="I223" s="55"/>
@@ -10898,7 +10901,7 @@
       <c r="E224" s="29"/>
       <c r="F224" s="29"/>
       <c r="G224" s="55" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H224" s="55"/>
       <c r="I224" s="55"/>
@@ -10974,7 +10977,7 @@
       <c r="E226" s="29"/>
       <c r="F226" s="29"/>
       <c r="G226" s="55" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H226" s="55"/>
       <c r="I226" s="55"/>
@@ -11013,7 +11016,7 @@
       <c r="E227" s="29"/>
       <c r="F227" s="29"/>
       <c r="G227" s="55" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H227" s="55"/>
       <c r="I227" s="55"/>
@@ -11052,7 +11055,7 @@
       <c r="E228" s="29"/>
       <c r="F228" s="29"/>
       <c r="G228" s="55" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H228" s="55"/>
       <c r="I228" s="55"/>
@@ -11091,7 +11094,7 @@
       <c r="E229" s="29"/>
       <c r="F229" s="29"/>
       <c r="G229" s="55" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H229" s="55"/>
       <c r="I229" s="55"/>
@@ -11434,7 +11437,7 @@
       <c r="AA237" s="26"/>
       <c r="AB237" s="71"/>
       <c r="AC237" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AD237" s="26"/>
       <c r="AE237" s="26"/>
@@ -11492,7 +11495,7 @@
       <c r="E239" s="29"/>
       <c r="F239" s="24"/>
       <c r="G239" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H239" s="55"/>
       <c r="I239" s="55"/>
@@ -11531,7 +11534,7 @@
       <c r="E240" s="29"/>
       <c r="F240" s="24"/>
       <c r="G240" s="32" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H240" s="33"/>
       <c r="I240" s="33"/>
@@ -11596,7 +11599,7 @@
       <c r="AA241" s="26"/>
       <c r="AB241" s="71"/>
       <c r="AC241" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AD241" s="26"/>
       <c r="AE241" s="26"/>
@@ -11637,7 +11640,7 @@
       <c r="AA242" s="26"/>
       <c r="AB242" s="71"/>
       <c r="AC242" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AD242" s="26"/>
       <c r="AE242" s="26"/>
@@ -12051,7 +12054,7 @@
       <c r="J253" s="55"/>
       <c r="K253" s="31"/>
       <c r="L253" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M253" s="26"/>
       <c r="N253" s="26"/>
@@ -12209,7 +12212,7 @@
       <c r="J257" s="55"/>
       <c r="K257" s="31"/>
       <c r="L257" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M257" s="26"/>
       <c r="N257" s="26"/>
@@ -12252,7 +12255,7 @@
       <c r="J258" s="33"/>
       <c r="K258" s="34"/>
       <c r="L258" s="76" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M258" s="76"/>
       <c r="N258" s="76"/>
@@ -12475,7 +12478,7 @@
         <v>3.1.10.</v>
       </c>
       <c r="E264" s="41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="265" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12495,16 +12498,16 @@
     <row r="267" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D267" s="42"/>
       <c r="F267" s="41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="268" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D268" s="42"/>
       <c r="F268" s="41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G268" s="41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="269" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12524,13 +12527,13 @@
     <row r="271" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D271" s="42"/>
       <c r="F271" s="41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="272" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D272" s="42"/>
       <c r="F272" s="52" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G272" s="53"/>
       <c r="H272" s="53"/>
@@ -12565,7 +12568,7 @@
     <row r="273" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="42"/>
       <c r="F273" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G273" s="99"/>
       <c r="H273" s="99"/>
@@ -12573,7 +12576,7 @@
       <c r="J273" s="99"/>
       <c r="K273" s="101"/>
       <c r="L273" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M273" s="99"/>
       <c r="N273" s="99"/>
@@ -12606,7 +12609,7 @@
       <c r="J274" s="102"/>
       <c r="K274" s="103"/>
       <c r="L274" s="81" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M274" s="102"/>
       <c r="N274" s="102"/>
@@ -12647,7 +12650,7 @@
     <row r="277" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="42"/>
       <c r="F277" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G277" s="29"/>
       <c r="H277" s="29"/>
@@ -12701,7 +12704,7 @@
       <c r="E287" s="42"/>
       <c r="F287" s="87"/>
       <c r="G287" s="52" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H287" s="53"/>
       <c r="I287" s="53"/>
@@ -12709,7 +12712,7 @@
       <c r="K287" s="53"/>
       <c r="L287" s="54"/>
       <c r="M287" s="53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N287" s="53"/>
       <c r="O287" s="53"/>
@@ -12734,10 +12737,10 @@
     <row r="288" spans="4:33" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E288" s="42"/>
       <c r="F288" s="86" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G288" s="48" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H288" s="49"/>
       <c r="I288" s="49"/>
@@ -12745,7 +12748,7 @@
       <c r="K288" s="49"/>
       <c r="L288" s="50"/>
       <c r="M288" s="48" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N288" s="49"/>
       <c r="O288" s="49"/>
@@ -12800,10 +12803,10 @@
     <row r="290" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E290" s="42"/>
       <c r="F290" s="86" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G290" s="48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H290" s="49"/>
       <c r="I290" s="49"/>
@@ -12811,7 +12814,7 @@
       <c r="K290" s="49"/>
       <c r="L290" s="50"/>
       <c r="M290" s="48" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N290" s="49"/>
       <c r="O290" s="49"/>
@@ -12866,10 +12869,10 @@
     <row r="292" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E292" s="42"/>
       <c r="F292" s="86" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G292" s="48" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H292" s="49"/>
       <c r="I292" s="49"/>
@@ -12877,7 +12880,7 @@
       <c r="K292" s="49"/>
       <c r="L292" s="50"/>
       <c r="M292" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N292" s="49"/>
       <c r="O292" s="49"/>
@@ -12932,10 +12935,10 @@
     <row r="294" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E294" s="42"/>
       <c r="F294" s="86" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G294" s="48" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H294" s="49"/>
       <c r="I294" s="49"/>
@@ -12943,7 +12946,7 @@
       <c r="K294" s="49"/>
       <c r="L294" s="50"/>
       <c r="M294" s="48" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N294" s="49"/>
       <c r="O294" s="49"/>
@@ -12975,7 +12978,7 @@
       <c r="K295" s="44"/>
       <c r="L295" s="45"/>
       <c r="M295" s="43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N295" s="44"/>
       <c r="O295" s="44"/>
@@ -13030,10 +13033,10 @@
     <row r="297" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E297" s="42"/>
       <c r="F297" s="85" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G297" s="48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H297" s="49"/>
       <c r="I297" s="49"/>
@@ -13041,7 +13044,7 @@
       <c r="K297" s="49"/>
       <c r="L297" s="50"/>
       <c r="M297" s="48" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N297" s="49"/>
       <c r="O297" s="49"/>
@@ -13103,7 +13106,7 @@
       <c r="D300" s="42"/>
       <c r="E300" s="36"/>
       <c r="F300" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G300" s="36"/>
     </row>
@@ -13111,7 +13114,7 @@
       <c r="D301" s="42"/>
       <c r="E301" s="36"/>
       <c r="F301" s="36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G301" s="36"/>
     </row>
@@ -13143,236 +13146,228 @@
     <row r="307" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="42"/>
       <c r="E307" s="42"/>
-      <c r="F307" s="36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="308" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F308" s="36" t="s">
-        <v>130</v>
+      <c r="F307" s="41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="308" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D308" s="42"/>
+      <c r="E308" s="42"/>
+      <c r="F308" s="41" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="309" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F309" s="36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="310" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F310" s="19"/>
-      <c r="G310" s="19"/>
-      <c r="H310" s="19"/>
-      <c r="I310" s="19"/>
-      <c r="J310" s="19"/>
-      <c r="K310" s="19"/>
-      <c r="L310" s="19"/>
-      <c r="M310" s="19"/>
-      <c r="N310" s="19"/>
-      <c r="O310" s="19"/>
-      <c r="P310" s="19"/>
-      <c r="Q310" s="19"/>
-      <c r="R310" s="19"/>
-      <c r="S310" s="19"/>
-      <c r="T310" s="19"/>
-      <c r="U310" s="19"/>
-      <c r="V310" s="19"/>
-      <c r="W310" s="19"/>
-      <c r="X310" s="19"/>
-      <c r="Y310" s="19"/>
-      <c r="Z310" s="19"/>
-      <c r="AA310" s="19"/>
-      <c r="AB310" s="19"/>
-      <c r="AC310" s="19"/>
-      <c r="AD310" s="19"/>
-      <c r="AE310" s="19"/>
-      <c r="AF310" s="19"/>
-      <c r="AG310" s="19"/>
-      <c r="AH310" s="19"/>
-    </row>
-    <row r="311" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E311" s="42" t="str">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="310" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F310" s="36"/>
+    </row>
+    <row r="311" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F311" s="19"/>
+      <c r="G311" s="19"/>
+      <c r="H311" s="19"/>
+      <c r="I311" s="19"/>
+      <c r="J311" s="19"/>
+      <c r="K311" s="19"/>
+      <c r="L311" s="19"/>
+      <c r="M311" s="19"/>
+      <c r="N311" s="19"/>
+      <c r="O311" s="19"/>
+      <c r="P311" s="19"/>
+      <c r="Q311" s="19"/>
+      <c r="R311" s="19"/>
+      <c r="S311" s="19"/>
+      <c r="T311" s="19"/>
+      <c r="U311" s="19"/>
+      <c r="V311" s="19"/>
+      <c r="W311" s="19"/>
+      <c r="X311" s="19"/>
+      <c r="Y311" s="19"/>
+      <c r="Z311" s="19"/>
+      <c r="AA311" s="19"/>
+      <c r="AB311" s="19"/>
+      <c r="AC311" s="19"/>
+      <c r="AD311" s="19"/>
+      <c r="AE311" s="19"/>
+      <c r="AF311" s="19"/>
+      <c r="AG311" s="19"/>
+      <c r="AH311" s="19"/>
+    </row>
+    <row r="312" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E312" s="42" t="str">
         <f>D305&amp;"2."</f>
         <v>3.1.11.2.</v>
       </c>
-      <c r="F311" s="41" t="str">
+      <c r="F312" s="41" t="str">
         <f>E305&amp;"方法"</f>
         <v>コンテンツ更新方法</v>
       </c>
-      <c r="G311" s="44"/>
-      <c r="H311" s="44"/>
-      <c r="I311" s="44"/>
-      <c r="J311" s="44"/>
-      <c r="K311" s="44"/>
-      <c r="L311" s="44"/>
-      <c r="M311" s="44"/>
-      <c r="N311" s="44"/>
-      <c r="O311" s="44"/>
-      <c r="P311" s="44"/>
-      <c r="Q311" s="44"/>
-      <c r="R311" s="44"/>
-      <c r="S311" s="44"/>
-      <c r="T311" s="44"/>
-      <c r="U311" s="44"/>
-      <c r="V311" s="44"/>
-      <c r="W311" s="44"/>
-      <c r="X311" s="44"/>
-      <c r="Y311" s="44"/>
-      <c r="Z311" s="44"/>
-      <c r="AA311" s="44"/>
-      <c r="AB311" s="44"/>
-      <c r="AC311" s="44"/>
-      <c r="AD311" s="44"/>
-      <c r="AE311" s="44"/>
-      <c r="AF311" s="44"/>
-      <c r="AG311" s="44"/>
-      <c r="AH311" s="44"/>
-    </row>
-    <row r="312" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F312" s="41" t="s">
-        <v>306</v>
-      </c>
+      <c r="G312" s="44"/>
+      <c r="H312" s="44"/>
+      <c r="I312" s="44"/>
+      <c r="J312" s="44"/>
+      <c r="K312" s="44"/>
+      <c r="L312" s="44"/>
+      <c r="M312" s="44"/>
+      <c r="N312" s="44"/>
+      <c r="O312" s="44"/>
+      <c r="P312" s="44"/>
+      <c r="Q312" s="44"/>
+      <c r="R312" s="44"/>
+      <c r="S312" s="44"/>
+      <c r="T312" s="44"/>
+      <c r="U312" s="44"/>
+      <c r="V312" s="44"/>
+      <c r="W312" s="44"/>
+      <c r="X312" s="44"/>
+      <c r="Y312" s="44"/>
+      <c r="Z312" s="44"/>
+      <c r="AA312" s="44"/>
+      <c r="AB312" s="44"/>
+      <c r="AC312" s="44"/>
+      <c r="AD312" s="44"/>
+      <c r="AE312" s="44"/>
+      <c r="AF312" s="44"/>
+      <c r="AG312" s="44"/>
+      <c r="AH312" s="44"/>
     </row>
     <row r="313" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F313" s="52" t="s">
+      <c r="F313" s="41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F314" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G313" s="53"/>
-      <c r="H313" s="53"/>
-      <c r="I313" s="53"/>
-      <c r="J313" s="53"/>
-      <c r="K313" s="54"/>
-      <c r="L313" s="53" t="s">
+      <c r="G314" s="53"/>
+      <c r="H314" s="53"/>
+      <c r="I314" s="53"/>
+      <c r="J314" s="53"/>
+      <c r="K314" s="54"/>
+      <c r="L314" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M313" s="53"/>
-      <c r="N313" s="53"/>
-      <c r="O313" s="53"/>
-      <c r="P313" s="53"/>
-      <c r="Q313" s="53"/>
-      <c r="R313" s="54"/>
-      <c r="S313" s="53" t="s">
+      <c r="M314" s="53"/>
+      <c r="N314" s="53"/>
+      <c r="O314" s="53"/>
+      <c r="P314" s="53"/>
+      <c r="Q314" s="53"/>
+      <c r="R314" s="54"/>
+      <c r="S314" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T313" s="53"/>
-      <c r="U313" s="53"/>
-      <c r="V313" s="53"/>
-      <c r="W313" s="53"/>
-      <c r="X313" s="53"/>
-      <c r="Y313" s="53"/>
-      <c r="Z313" s="53"/>
-      <c r="AA313" s="53"/>
-      <c r="AB313" s="53"/>
-      <c r="AC313" s="53"/>
-      <c r="AD313" s="53"/>
-      <c r="AE313" s="53"/>
-      <c r="AF313" s="53"/>
-      <c r="AG313" s="53"/>
-      <c r="AH313" s="54"/>
-    </row>
-    <row r="314" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F314" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="G314" s="93"/>
-      <c r="H314" s="93"/>
-      <c r="I314" s="102"/>
-      <c r="J314" s="102"/>
-      <c r="K314" s="103"/>
-      <c r="L314" s="67" t="s">
+      <c r="T314" s="53"/>
+      <c r="U314" s="53"/>
+      <c r="V314" s="53"/>
+      <c r="W314" s="53"/>
+      <c r="X314" s="53"/>
+      <c r="Y314" s="53"/>
+      <c r="Z314" s="53"/>
+      <c r="AA314" s="53"/>
+      <c r="AB314" s="53"/>
+      <c r="AC314" s="53"/>
+      <c r="AD314" s="53"/>
+      <c r="AE314" s="53"/>
+      <c r="AF314" s="53"/>
+      <c r="AG314" s="53"/>
+      <c r="AH314" s="54"/>
+    </row>
+    <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F315" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="G315" s="93"/>
+      <c r="H315" s="93"/>
+      <c r="I315" s="102"/>
+      <c r="J315" s="102"/>
+      <c r="K315" s="103"/>
+      <c r="L315" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="M314" s="68"/>
-      <c r="N314" s="68"/>
-      <c r="O314" s="93"/>
-      <c r="P314" s="93"/>
-      <c r="Q314" s="93"/>
-      <c r="R314" s="72"/>
-      <c r="S314" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="T314" s="102"/>
-      <c r="U314" s="102"/>
-      <c r="V314" s="102"/>
-      <c r="W314" s="102"/>
-      <c r="X314" s="102"/>
-      <c r="Y314" s="102"/>
-      <c r="Z314" s="102"/>
-      <c r="AA314" s="102"/>
-      <c r="AB314" s="102"/>
-      <c r="AC314" s="102"/>
-      <c r="AD314" s="102"/>
-      <c r="AE314" s="102"/>
-      <c r="AF314" s="102"/>
-      <c r="AG314" s="102"/>
-      <c r="AH314" s="103"/>
-    </row>
-    <row r="315" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F315" s="70"/>
-      <c r="G315" s="70"/>
-      <c r="H315" s="70"/>
-      <c r="I315" s="70"/>
-      <c r="J315" s="70"/>
-      <c r="K315" s="70"/>
-      <c r="L315" s="70"/>
-      <c r="M315" s="44"/>
-      <c r="N315" s="44"/>
-      <c r="O315" s="44"/>
-      <c r="P315" s="44"/>
-      <c r="Q315" s="44"/>
-      <c r="R315" s="44"/>
-      <c r="S315" s="44"/>
-      <c r="T315" s="44"/>
-      <c r="U315" s="44"/>
-      <c r="V315" s="44"/>
-      <c r="W315" s="44"/>
-      <c r="X315" s="44"/>
-      <c r="Y315" s="44"/>
-      <c r="Z315" s="44"/>
-      <c r="AA315" s="44"/>
-      <c r="AB315" s="44"/>
-      <c r="AC315" s="44"/>
-      <c r="AD315" s="44"/>
-      <c r="AE315" s="44"/>
-      <c r="AF315" s="44"/>
-      <c r="AG315" s="44"/>
-      <c r="AH315" s="44"/>
-    </row>
-    <row r="316" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E316" s="28" t="str">
+      <c r="M315" s="68"/>
+      <c r="N315" s="68"/>
+      <c r="O315" s="93"/>
+      <c r="P315" s="93"/>
+      <c r="Q315" s="93"/>
+      <c r="R315" s="72"/>
+      <c r="S315" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="T315" s="102"/>
+      <c r="U315" s="102"/>
+      <c r="V315" s="102"/>
+      <c r="W315" s="102"/>
+      <c r="X315" s="102"/>
+      <c r="Y315" s="102"/>
+      <c r="Z315" s="102"/>
+      <c r="AA315" s="102"/>
+      <c r="AB315" s="102"/>
+      <c r="AC315" s="102"/>
+      <c r="AD315" s="102"/>
+      <c r="AE315" s="102"/>
+      <c r="AF315" s="102"/>
+      <c r="AG315" s="102"/>
+      <c r="AH315" s="103"/>
+    </row>
+    <row r="316" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F316" s="70"/>
+      <c r="G316" s="70"/>
+      <c r="H316" s="70"/>
+      <c r="I316" s="70"/>
+      <c r="J316" s="70"/>
+      <c r="K316" s="70"/>
+      <c r="L316" s="70"/>
+      <c r="M316" s="44"/>
+      <c r="N316" s="44"/>
+      <c r="O316" s="44"/>
+      <c r="P316" s="44"/>
+      <c r="Q316" s="44"/>
+      <c r="R316" s="44"/>
+      <c r="S316" s="44"/>
+      <c r="T316" s="44"/>
+      <c r="U316" s="44"/>
+      <c r="V316" s="44"/>
+      <c r="W316" s="44"/>
+      <c r="X316" s="44"/>
+      <c r="Y316" s="44"/>
+      <c r="Z316" s="44"/>
+      <c r="AA316" s="44"/>
+      <c r="AB316" s="44"/>
+      <c r="AC316" s="44"/>
+      <c r="AD316" s="44"/>
+      <c r="AE316" s="44"/>
+      <c r="AF316" s="44"/>
+      <c r="AG316" s="44"/>
+      <c r="AH316" s="44"/>
+    </row>
+    <row r="317" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E317" s="28" t="str">
         <f>D305&amp;"3."</f>
         <v>3.1.11.3.</v>
       </c>
-      <c r="F316" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="G316" s="36"/>
-      <c r="H316" s="36"/>
-      <c r="I316" s="36"/>
-      <c r="J316" s="36"/>
-      <c r="K316" s="36"/>
-      <c r="L316" s="36"/>
-    </row>
-    <row r="317" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F317" s="77" t="s">
+      <c r="F317" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G317" s="36"/>
+      <c r="H317" s="36"/>
+      <c r="I317" s="36"/>
+      <c r="J317" s="36"/>
+      <c r="K317" s="36"/>
+      <c r="L317" s="36"/>
+    </row>
+    <row r="318" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F318" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="G317" s="74" t="str">
+      <c r="G318" s="74" t="str">
         <f>E305&amp;"方法詳細"</f>
         <v>コンテンツ更新方法詳細</v>
       </c>
-      <c r="H317" s="74"/>
-      <c r="I317" s="74"/>
-      <c r="J317" s="74"/>
-      <c r="K317" s="74"/>
-      <c r="L317" s="74"/>
-    </row>
-    <row r="318" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F318" s="77"/>
-      <c r="G318" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="H318" s="74" t="s">
-        <v>137</v>
-      </c>
+      <c r="H318" s="74"/>
       <c r="I318" s="74"/>
       <c r="J318" s="74"/>
       <c r="K318" s="74"/>
@@ -13380,39 +13375,39 @@
     </row>
     <row r="319" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F319" s="77"/>
-      <c r="G319" s="79"/>
-      <c r="H319" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="I319" s="74" t="s">
-        <v>138</v>
-      </c>
+      <c r="G319" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="H319" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="I319" s="74"/>
       <c r="J319" s="74"/>
       <c r="K319" s="74"/>
       <c r="L319" s="74"/>
     </row>
     <row r="320" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F320" s="77"/>
-      <c r="G320" s="79" t="s">
+      <c r="G320" s="79"/>
+      <c r="H320" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="H320" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="I320" s="74"/>
+      <c r="I320" s="74" t="s">
+        <v>135</v>
+      </c>
       <c r="J320" s="74"/>
       <c r="K320" s="74"/>
       <c r="L320" s="74"/>
     </row>
     <row r="321" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F321" s="77"/>
-      <c r="G321" s="74"/>
-      <c r="H321" s="79" t="s">
+      <c r="G321" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="I321" s="74" t="s">
-        <v>132</v>
-      </c>
+      <c r="H321" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="I321" s="74"/>
       <c r="J321" s="74"/>
       <c r="K321" s="74"/>
       <c r="L321" s="74"/>
@@ -13421,45 +13416,45 @@
       <c r="F322" s="77"/>
       <c r="G322" s="74"/>
       <c r="H322" s="79" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="I322" s="74" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J322" s="74"/>
       <c r="K322" s="74"/>
       <c r="L322" s="74"/>
     </row>
     <row r="323" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F323" s="74"/>
-      <c r="G323" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="H323" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="I323" s="74"/>
+      <c r="F323" s="77"/>
+      <c r="G323" s="74"/>
+      <c r="H323" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="I323" s="74" t="s">
+        <v>131</v>
+      </c>
       <c r="J323" s="74"/>
       <c r="K323" s="74"/>
       <c r="L323" s="74"/>
     </row>
-    <row r="324" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F324" s="36"/>
-      <c r="G324" s="36"/>
-      <c r="H324" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="I324" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="J324" s="36"/>
-      <c r="K324" s="36"/>
-      <c r="L324" s="36"/>
+    <row r="324" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F324" s="74"/>
+      <c r="G324" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="H324" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="I324" s="74"/>
+      <c r="J324" s="74"/>
+      <c r="K324" s="74"/>
+      <c r="L324" s="74"/>
     </row>
     <row r="325" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F325" s="36"/>
-      <c r="G325" s="83"/>
-      <c r="H325" s="73" t="s">
+      <c r="G325" s="36"/>
+      <c r="H325" s="82" t="s">
         <v>126</v>
       </c>
       <c r="I325" s="36" t="s">
@@ -13469,203 +13464,180 @@
       <c r="K325" s="36"/>
       <c r="L325" s="36"/>
     </row>
-    <row r="326" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F326" s="36"/>
       <c r="G326" s="83"/>
-      <c r="H326" s="36"/>
-      <c r="I326" s="36"/>
+      <c r="H326" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="I326" s="36" t="s">
+        <v>127</v>
+      </c>
       <c r="J326" s="36"/>
       <c r="K326" s="36"/>
       <c r="L326" s="36"/>
     </row>
-    <row r="327" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D327" s="28" t="str">
+    <row r="327" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F327" s="36"/>
+      <c r="G327" s="83"/>
+      <c r="H327" s="36"/>
+      <c r="I327" s="36"/>
+      <c r="J327" s="36"/>
+      <c r="K327" s="36"/>
+      <c r="L327" s="36"/>
+    </row>
+    <row r="328" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D328" s="28" t="str">
         <f>$C$7&amp;"12."</f>
         <v>3.1.12.</v>
       </c>
-      <c r="E327" s="4" t="s">
+      <c r="E328" s="4" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="328" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D328" s="42"/>
-      <c r="E328" s="42" t="str">
-        <f>D327&amp;"1."</f>
-        <v>3.1.12.1.</v>
-      </c>
-      <c r="F328" s="41" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="329" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D329" s="42"/>
-      <c r="E329" s="41" t="s">
-        <v>242</v>
+      <c r="E329" s="42" t="str">
+        <f>D328&amp;"1."</f>
+        <v>3.1.12.1.</v>
+      </c>
+      <c r="F329" s="41" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="330" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D330" s="42"/>
       <c r="E330" s="41" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="331" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D331" s="42"/>
+      <c r="E331" s="41" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="332" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D332" s="42"/>
-      <c r="E332" s="42" t="str">
-        <f>D327&amp;"2."</f>
-        <v>3.1.12.2.</v>
-      </c>
-      <c r="F332" s="41" t="s">
-        <v>241</v>
-      </c>
     </row>
     <row r="333" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D333" s="42"/>
-      <c r="E333" s="41" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="334" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F334" s="19"/>
-      <c r="G334" s="19"/>
-      <c r="H334" s="19"/>
-      <c r="I334" s="19"/>
-      <c r="J334" s="19"/>
-      <c r="K334" s="19"/>
-      <c r="L334" s="19"/>
-      <c r="M334" s="19"/>
-      <c r="N334" s="19"/>
-      <c r="O334" s="19"/>
-      <c r="P334" s="19"/>
-      <c r="Q334" s="19"/>
-      <c r="R334" s="19"/>
-      <c r="S334" s="19"/>
-      <c r="T334" s="19"/>
-      <c r="U334" s="19"/>
-      <c r="V334" s="19"/>
-      <c r="W334" s="19"/>
-      <c r="X334" s="19"/>
-      <c r="Y334" s="19"/>
-      <c r="Z334" s="19"/>
-      <c r="AA334" s="19"/>
-      <c r="AB334" s="19"/>
-      <c r="AC334" s="19"/>
-      <c r="AD334" s="19"/>
-      <c r="AE334" s="19"/>
-      <c r="AF334" s="19"/>
-      <c r="AG334" s="19"/>
-      <c r="AH334" s="19"/>
-    </row>
-    <row r="335" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D335" s="42" t="str">
+      <c r="E333" s="42" t="str">
+        <f>D328&amp;"2."</f>
+        <v>3.1.12.2.</v>
+      </c>
+      <c r="F333" s="41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="334" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D334" s="42"/>
+      <c r="E334" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="335" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F335" s="19"/>
+      <c r="G335" s="19"/>
+      <c r="H335" s="19"/>
+      <c r="I335" s="19"/>
+      <c r="J335" s="19"/>
+      <c r="K335" s="19"/>
+      <c r="L335" s="19"/>
+      <c r="M335" s="19"/>
+      <c r="N335" s="19"/>
+      <c r="O335" s="19"/>
+      <c r="P335" s="19"/>
+      <c r="Q335" s="19"/>
+      <c r="R335" s="19"/>
+      <c r="S335" s="19"/>
+      <c r="T335" s="19"/>
+      <c r="U335" s="19"/>
+      <c r="V335" s="19"/>
+      <c r="W335" s="19"/>
+      <c r="X335" s="19"/>
+      <c r="Y335" s="19"/>
+      <c r="Z335" s="19"/>
+      <c r="AA335" s="19"/>
+      <c r="AB335" s="19"/>
+      <c r="AC335" s="19"/>
+      <c r="AD335" s="19"/>
+      <c r="AE335" s="19"/>
+      <c r="AF335" s="19"/>
+      <c r="AG335" s="19"/>
+      <c r="AH335" s="19"/>
+    </row>
+    <row r="336" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D336" s="42" t="str">
         <f>$C$7&amp;"13."</f>
         <v>3.1.13.</v>
       </c>
-      <c r="E335" s="41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="336" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D336" s="42"/>
       <c r="E336" s="41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="337" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E337" s="52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="337" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D337" s="42"/>
+      <c r="E337" s="41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="338" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E338" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F337" s="53"/>
-      <c r="G337" s="53"/>
-      <c r="H337" s="53"/>
-      <c r="I337" s="53"/>
-      <c r="J337" s="53"/>
-      <c r="K337" s="54"/>
-      <c r="L337" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="M337" s="53"/>
-      <c r="N337" s="53"/>
-      <c r="O337" s="54"/>
-      <c r="P337" s="53" t="s">
+      <c r="F338" s="53"/>
+      <c r="G338" s="53"/>
+      <c r="H338" s="53"/>
+      <c r="I338" s="53"/>
+      <c r="J338" s="53"/>
+      <c r="K338" s="54"/>
+      <c r="L338" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="M338" s="53"/>
+      <c r="N338" s="53"/>
+      <c r="O338" s="54"/>
+      <c r="P338" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Q337" s="53"/>
-      <c r="R337" s="53"/>
-      <c r="S337" s="53"/>
-      <c r="T337" s="53"/>
-      <c r="U337" s="53"/>
-      <c r="V337" s="53"/>
-      <c r="W337" s="53"/>
-      <c r="X337" s="53"/>
-      <c r="Y337" s="53"/>
-      <c r="Z337" s="53"/>
-      <c r="AA337" s="53"/>
-      <c r="AB337" s="53"/>
-      <c r="AC337" s="53"/>
-      <c r="AD337" s="53"/>
-      <c r="AE337" s="53"/>
-      <c r="AF337" s="53"/>
-      <c r="AG337" s="53"/>
-      <c r="AH337" s="54"/>
-    </row>
-    <row r="338" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E338" s="109" t="s">
-        <v>237</v>
-      </c>
-      <c r="F338" s="98"/>
-      <c r="G338" s="98"/>
-      <c r="H338" s="70"/>
-      <c r="I338" s="70"/>
-      <c r="J338" s="70"/>
-      <c r="K338" s="100"/>
-      <c r="L338" s="98" t="s">
-        <v>239</v>
-      </c>
-      <c r="M338" s="70"/>
-      <c r="N338" s="70"/>
-      <c r="O338" s="100"/>
-      <c r="P338" s="98" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q338" s="70"/>
-      <c r="R338" s="70"/>
-      <c r="S338" s="70"/>
-      <c r="T338" s="70"/>
-      <c r="U338" s="70"/>
-      <c r="V338" s="70"/>
-      <c r="W338" s="70"/>
-      <c r="X338" s="70"/>
-      <c r="Y338" s="70"/>
-      <c r="Z338" s="70"/>
-      <c r="AA338" s="70"/>
-      <c r="AB338" s="70"/>
-      <c r="AC338" s="70"/>
-      <c r="AD338" s="70"/>
-      <c r="AE338" s="70"/>
-      <c r="AF338" s="70"/>
-      <c r="AG338" s="70"/>
-      <c r="AH338" s="94"/>
-    </row>
-    <row r="339" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q338" s="53"/>
+      <c r="R338" s="53"/>
+      <c r="S338" s="53"/>
+      <c r="T338" s="53"/>
+      <c r="U338" s="53"/>
+      <c r="V338" s="53"/>
+      <c r="W338" s="53"/>
+      <c r="X338" s="53"/>
+      <c r="Y338" s="53"/>
+      <c r="Z338" s="53"/>
+      <c r="AA338" s="53"/>
+      <c r="AB338" s="53"/>
+      <c r="AC338" s="53"/>
+      <c r="AD338" s="53"/>
+      <c r="AE338" s="53"/>
+      <c r="AF338" s="53"/>
+      <c r="AG338" s="53"/>
+      <c r="AH338" s="54"/>
+    </row>
+    <row r="339" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E339" s="109" t="s">
-        <v>211</v>
-      </c>
-      <c r="F339" s="26"/>
-      <c r="G339" s="26"/>
+        <v>234</v>
+      </c>
+      <c r="F339" s="98"/>
+      <c r="G339" s="98"/>
       <c r="H339" s="70"/>
       <c r="I339" s="70"/>
       <c r="J339" s="70"/>
-      <c r="K339" s="71"/>
-      <c r="L339" s="26"/>
+      <c r="K339" s="100"/>
+      <c r="L339" s="98" t="s">
+        <v>236</v>
+      </c>
       <c r="M339" s="70"/>
       <c r="N339" s="70"/>
-      <c r="O339" s="71"/>
-      <c r="P339" s="26" t="s">
-        <v>238</v>
+      <c r="O339" s="100"/>
+      <c r="P339" s="98" t="s">
+        <v>233</v>
       </c>
       <c r="Q339" s="70"/>
       <c r="R339" s="70"/>
@@ -13686,8 +13658,10 @@
       <c r="AG339" s="70"/>
       <c r="AH339" s="94"/>
     </row>
-    <row r="340" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E340" s="109"/>
+    <row r="340" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E340" s="109" t="s">
+        <v>208</v>
+      </c>
       <c r="F340" s="26"/>
       <c r="G340" s="26"/>
       <c r="H340" s="70"/>
@@ -13699,7 +13673,7 @@
       <c r="N340" s="70"/>
       <c r="O340" s="71"/>
       <c r="P340" s="26" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="Q340" s="70"/>
       <c r="R340" s="70"/>
@@ -13720,7 +13694,7 @@
       <c r="AG340" s="70"/>
       <c r="AH340" s="94"/>
     </row>
-    <row r="341" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E341" s="109"/>
       <c r="F341" s="26"/>
       <c r="G341" s="26"/>
@@ -13733,7 +13707,7 @@
       <c r="N341" s="70"/>
       <c r="O341" s="71"/>
       <c r="P341" s="26" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q341" s="70"/>
       <c r="R341" s="70"/>
@@ -13754,73 +13728,107 @@
       <c r="AG341" s="70"/>
       <c r="AH341" s="94"/>
     </row>
-    <row r="342" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E342" s="81"/>
-      <c r="F342" s="76"/>
-      <c r="G342" s="76"/>
-      <c r="H342" s="102"/>
-      <c r="I342" s="102"/>
-      <c r="J342" s="102"/>
-      <c r="K342" s="90"/>
-      <c r="L342" s="76"/>
-      <c r="M342" s="102"/>
-      <c r="N342" s="102"/>
-      <c r="O342" s="90"/>
-      <c r="P342" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q342" s="102"/>
-      <c r="R342" s="102"/>
-      <c r="S342" s="102"/>
-      <c r="T342" s="102"/>
-      <c r="U342" s="102"/>
-      <c r="V342" s="102"/>
-      <c r="W342" s="102"/>
-      <c r="X342" s="102"/>
-      <c r="Y342" s="102"/>
-      <c r="Z342" s="102"/>
-      <c r="AA342" s="102"/>
-      <c r="AB342" s="102"/>
-      <c r="AC342" s="102"/>
-      <c r="AD342" s="102"/>
-      <c r="AE342" s="102"/>
-      <c r="AF342" s="102"/>
-      <c r="AG342" s="102"/>
-      <c r="AH342" s="103"/>
-    </row>
-    <row r="343" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F343" s="70"/>
-      <c r="G343" s="70"/>
-      <c r="H343" s="70"/>
-      <c r="I343" s="70"/>
-      <c r="J343" s="70"/>
-      <c r="K343" s="70"/>
-      <c r="L343" s="70"/>
-      <c r="M343" s="44"/>
-      <c r="N343" s="44"/>
-      <c r="O343" s="44"/>
-      <c r="P343" s="44"/>
-      <c r="Q343" s="44"/>
-      <c r="R343" s="44"/>
-      <c r="S343" s="44"/>
-      <c r="T343" s="44"/>
-      <c r="U343" s="44"/>
-      <c r="V343" s="44"/>
-      <c r="W343" s="44"/>
-      <c r="X343" s="44"/>
-      <c r="Y343" s="44"/>
-      <c r="Z343" s="44"/>
-      <c r="AA343" s="44"/>
-      <c r="AB343" s="44"/>
-      <c r="AC343" s="44"/>
-      <c r="AD343" s="44"/>
-      <c r="AE343" s="44"/>
-      <c r="AF343" s="44"/>
-      <c r="AG343" s="44"/>
-      <c r="AH343" s="44"/>
-    </row>
-    <row r="344" spans="5:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F344" s="91"/>
+    <row r="342" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E342" s="109"/>
+      <c r="F342" s="26"/>
+      <c r="G342" s="26"/>
+      <c r="H342" s="70"/>
+      <c r="I342" s="70"/>
+      <c r="J342" s="70"/>
+      <c r="K342" s="71"/>
+      <c r="L342" s="26"/>
+      <c r="M342" s="70"/>
+      <c r="N342" s="70"/>
+      <c r="O342" s="71"/>
+      <c r="P342" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q342" s="70"/>
+      <c r="R342" s="70"/>
+      <c r="S342" s="70"/>
+      <c r="T342" s="70"/>
+      <c r="U342" s="70"/>
+      <c r="V342" s="70"/>
+      <c r="W342" s="70"/>
+      <c r="X342" s="70"/>
+      <c r="Y342" s="70"/>
+      <c r="Z342" s="70"/>
+      <c r="AA342" s="70"/>
+      <c r="AB342" s="70"/>
+      <c r="AC342" s="70"/>
+      <c r="AD342" s="70"/>
+      <c r="AE342" s="70"/>
+      <c r="AF342" s="70"/>
+      <c r="AG342" s="70"/>
+      <c r="AH342" s="94"/>
+    </row>
+    <row r="343" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E343" s="81"/>
+      <c r="F343" s="76"/>
+      <c r="G343" s="76"/>
+      <c r="H343" s="102"/>
+      <c r="I343" s="102"/>
+      <c r="J343" s="102"/>
+      <c r="K343" s="90"/>
+      <c r="L343" s="76"/>
+      <c r="M343" s="102"/>
+      <c r="N343" s="102"/>
+      <c r="O343" s="90"/>
+      <c r="P343" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q343" s="102"/>
+      <c r="R343" s="102"/>
+      <c r="S343" s="102"/>
+      <c r="T343" s="102"/>
+      <c r="U343" s="102"/>
+      <c r="V343" s="102"/>
+      <c r="W343" s="102"/>
+      <c r="X343" s="102"/>
+      <c r="Y343" s="102"/>
+      <c r="Z343" s="102"/>
+      <c r="AA343" s="102"/>
+      <c r="AB343" s="102"/>
+      <c r="AC343" s="102"/>
+      <c r="AD343" s="102"/>
+      <c r="AE343" s="102"/>
+      <c r="AF343" s="102"/>
+      <c r="AG343" s="102"/>
+      <c r="AH343" s="103"/>
+    </row>
+    <row r="344" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F344" s="70"/>
+      <c r="G344" s="70"/>
+      <c r="H344" s="70"/>
+      <c r="I344" s="70"/>
+      <c r="J344" s="70"/>
+      <c r="K344" s="70"/>
+      <c r="L344" s="70"/>
+      <c r="M344" s="44"/>
+      <c r="N344" s="44"/>
+      <c r="O344" s="44"/>
+      <c r="P344" s="44"/>
+      <c r="Q344" s="44"/>
+      <c r="R344" s="44"/>
+      <c r="S344" s="44"/>
+      <c r="T344" s="44"/>
+      <c r="U344" s="44"/>
+      <c r="V344" s="44"/>
+      <c r="W344" s="44"/>
+      <c r="X344" s="44"/>
+      <c r="Y344" s="44"/>
+      <c r="Z344" s="44"/>
+      <c r="AA344" s="44"/>
+      <c r="AB344" s="44"/>
+      <c r="AC344" s="44"/>
+      <c r="AD344" s="44"/>
+      <c r="AE344" s="44"/>
+      <c r="AF344" s="44"/>
+      <c r="AG344" s="44"/>
+      <c r="AH344" s="44"/>
+    </row>
+    <row r="345" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F345" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13852,7 +13860,7 @@
     <brk id="230" max="16383" man="1"/>
     <brk id="263" max="16383" man="1"/>
     <brk id="303" max="16383" man="1"/>
-    <brk id="326" max="16383" man="1"/>
+    <brk id="327" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="B5" numberStoredAsText="1"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDF6D5F-D24C-4422-B085-C4D691FB8DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFBA7DB-6AE1-41A2-B95E-6CCDCE9FF4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,58 +766,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>閉局状態にしておく必要がある。これら対外接続先の開局時間に合わせ、機能単位・対外接続先単位の開閉局制御を行う。</t>
-    <rPh sb="18" eb="20">
-      <t>タイガイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイキョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>タイガイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カイヘイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>キョク</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>よって、業務コンポーネントで特別な対処は行わない。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1465,28 +1413,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>特定の画面については対外接続先システムにメンテナンス時間があるため、その時間はAPIの呼び出しを</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイガイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>閉局タイミングは接続先システム側の営業日カレンダーに依存するため、本システムでもカレンダーマスタを保持し、</t>
     <rPh sb="8" eb="10">
       <t>セツゾク</t>
@@ -3431,6 +3357,68 @@
     </rPh>
     <rPh sb="63" eb="65">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のリクエストについては対外接続先システムにメンテナンス時間があるため、その時間は対外システムのAPIを呼び出すリクエストを</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>タイガイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>閉局状態にしておく必要がある。これら対外接続先の開局時間に合わせ、リクエスト単位の開閉局制御を行う。</t>
+    <rPh sb="18" eb="20">
+      <t>タイガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイキョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>キョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4097,6 +4085,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4162,9 +4153,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5227,45 +5215,45 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="119" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="121"/>
+      <c r="E1" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="122"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="124"/>
+      <c r="R1" s="123" t="s">
+        <v>164</v>
+      </c>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="125"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="117"/>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="118"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="119"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -5274,43 +5262,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="130"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="131"/>
       <c r="P2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="131" t="s">
+      <c r="R2" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="134"/>
       <c r="Y2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="118"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="119"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -5319,39 +5307,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="136"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="137"/>
       <c r="Y3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="118"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="118"/>
+      <c r="AI3" s="119"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5391,7 +5379,7 @@
     <row r="11" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="42"/>
       <c r="E11" s="41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5511,13 +5499,13 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
       <c r="I15" s="54"/>
       <c r="J15" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K15" s="111"/>
       <c r="L15" s="111"/>
@@ -5555,7 +5543,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K16" s="59"/>
       <c r="L16" s="59"/>
@@ -5593,7 +5581,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
       <c r="J17" s="35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -5629,7 +5617,7 @@
       <c r="H18" s="29"/>
       <c r="I18" s="31"/>
       <c r="J18" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -5657,7 +5645,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
       <c r="J19" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
@@ -5756,7 +5744,7 @@
     </row>
     <row r="27" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5813,7 +5801,7 @@
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
       <c r="J31" s="56" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K31" s="57"/>
       <c r="L31" s="93"/>
@@ -5842,13 +5830,13 @@
     </row>
     <row r="32" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
       <c r="J32" s="35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K32" s="39"/>
       <c r="L32" s="98"/>
@@ -5881,7 +5869,7 @@
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
       <c r="J33" s="32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="76"/>
@@ -5945,19 +5933,19 @@
         <v>3.1.3.3.</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E36" s="24"/>
       <c r="F36" s="74" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="24"/>
       <c r="F37" s="29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5966,13 +5954,13 @@
     <row r="39" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E39" s="24"/>
       <c r="F39" s="29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E40" s="24"/>
       <c r="F40" s="29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5981,7 +5969,7 @@
     <row r="42" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E42" s="24"/>
       <c r="F42" s="115" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6007,7 +5995,7 @@
     </row>
     <row r="46" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6023,7 +6011,7 @@
     </row>
     <row r="49" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6035,7 +6023,7 @@
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
       <c r="K50" s="53" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
@@ -6070,7 +6058,7 @@
       <c r="I51" s="99"/>
       <c r="J51" s="100"/>
       <c r="K51" s="98" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L51" s="98"/>
       <c r="M51" s="98"/>
@@ -6103,7 +6091,7 @@
       <c r="I52" s="102"/>
       <c r="J52" s="90"/>
       <c r="K52" s="76" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L52" s="76"/>
       <c r="M52" s="76"/>
@@ -6138,7 +6126,7 @@
       <c r="I53" s="70"/>
       <c r="J53" s="71"/>
       <c r="K53" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L53" s="26"/>
       <c r="M53" s="26"/>
@@ -6171,7 +6159,7 @@
       <c r="I54" s="70"/>
       <c r="J54" s="71"/>
       <c r="K54" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L54" s="26"/>
       <c r="M54" s="26"/>
@@ -6204,7 +6192,7 @@
       <c r="I55" s="102"/>
       <c r="J55" s="90"/>
       <c r="K55" s="76" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L55" s="76"/>
       <c r="M55" s="76"/>
@@ -6237,53 +6225,53 @@
         <v>3.1.4.3.</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="66"/>
       <c r="F58" s="36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="66"/>
       <c r="F59" s="36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="61" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="66"/>
       <c r="F61" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F64" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F66" s="138" t="s">
-        <v>322</v>
+      <c r="F66" s="116" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6309,17 +6297,17 @@
     </row>
     <row r="72" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F72" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F73" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F74" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6335,12 +6323,12 @@
     </row>
     <row r="77" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F77" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="53"/>
       <c r="I77" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
@@ -6355,7 +6343,7 @@
       <c r="T77" s="53"/>
       <c r="U77" s="54"/>
       <c r="V77" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W77" s="53"/>
       <c r="X77" s="53"/>
@@ -6374,12 +6362,12 @@
     </row>
     <row r="78" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F78" s="97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G78" s="99"/>
       <c r="H78" s="104"/>
       <c r="I78" s="105" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J78" s="106"/>
       <c r="K78" s="93"/>
@@ -6394,7 +6382,7 @@
       <c r="T78" s="68"/>
       <c r="U78" s="107"/>
       <c r="V78" s="93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W78" s="106"/>
       <c r="X78" s="106"/>
@@ -6403,7 +6391,7 @@
       <c r="AA78" s="68"/>
       <c r="AB78" s="72"/>
       <c r="AC78" s="93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD78" s="68"/>
       <c r="AE78" s="68"/>
@@ -6416,7 +6404,7 @@
       <c r="G79" s="102"/>
       <c r="H79" s="108"/>
       <c r="I79" s="105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J79" s="106"/>
       <c r="K79" s="93"/>
@@ -6431,7 +6419,7 @@
       <c r="T79" s="68"/>
       <c r="U79" s="107"/>
       <c r="V79" s="93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W79" s="106"/>
       <c r="X79" s="106"/>
@@ -6440,7 +6428,7 @@
       <c r="AA79" s="68"/>
       <c r="AB79" s="72"/>
       <c r="AC79" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD79" s="68"/>
       <c r="AE79" s="68"/>
@@ -6450,12 +6438,12 @@
     </row>
     <row r="80" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F80" s="95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G80" s="68"/>
       <c r="H80" s="106"/>
       <c r="I80" s="105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J80" s="106"/>
       <c r="K80" s="93"/>
@@ -6470,7 +6458,7 @@
       <c r="T80" s="68"/>
       <c r="U80" s="107"/>
       <c r="V80" s="93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W80" s="106"/>
       <c r="X80" s="106"/>
@@ -6479,7 +6467,7 @@
       <c r="AA80" s="68"/>
       <c r="AB80" s="72"/>
       <c r="AC80" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD80" s="68"/>
       <c r="AE80" s="68"/>
@@ -6559,7 +6547,7 @@
     <row r="83" spans="3:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="42"/>
       <c r="F83" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G83" s="44"/>
       <c r="H83" s="44"/>
@@ -6593,7 +6581,7 @@
     <row r="84" spans="3:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="42"/>
       <c r="F84" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H84" s="44"/>
       <c r="I84" s="44"/>
@@ -6647,7 +6635,7 @@
     <row r="88" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D88" s="29"/>
       <c r="F88" s="41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="V88" s="29"/>
       <c r="W88" s="29"/>
@@ -6667,7 +6655,7 @@
     <row r="89" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D89" s="29"/>
       <c r="F89" s="41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V89" s="29"/>
       <c r="W89" s="29"/>
@@ -6687,7 +6675,7 @@
     <row r="90" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D90" s="29"/>
       <c r="F90" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V90" s="29"/>
       <c r="W90" s="29"/>
@@ -6717,7 +6705,7 @@
     </row>
     <row r="93" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F93" s="36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6728,7 +6716,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="18"/>
       <c r="J94" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K94" s="17"/>
       <c r="L94" s="53"/>
@@ -6766,7 +6754,7 @@
       <c r="H95" s="26"/>
       <c r="I95" s="71"/>
       <c r="J95" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K95" s="26"/>
       <c r="L95" s="26"/>
@@ -6802,7 +6790,7 @@
       <c r="H96" s="26"/>
       <c r="I96" s="71"/>
       <c r="J96" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K96" s="26"/>
       <c r="L96" s="26"/>
@@ -6838,7 +6826,7 @@
       <c r="H97" s="26"/>
       <c r="I97" s="71"/>
       <c r="J97" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K97" s="26"/>
       <c r="L97" s="26"/>
@@ -6874,7 +6862,7 @@
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="92" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K98" s="26"/>
       <c r="L98" s="26"/>
@@ -6910,7 +6898,7 @@
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
       <c r="J99" s="75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K99" s="26"/>
       <c r="L99" s="26"/>
@@ -6948,7 +6936,7 @@
       <c r="H100" s="98"/>
       <c r="I100" s="98"/>
       <c r="J100" s="97" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K100" s="98"/>
       <c r="L100" s="98"/>
@@ -6984,7 +6972,7 @@
       <c r="H101" s="26"/>
       <c r="I101" s="26"/>
       <c r="J101" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K101" s="26"/>
       <c r="L101" s="26"/>
@@ -7020,7 +7008,7 @@
       <c r="H102" s="26"/>
       <c r="I102" s="26"/>
       <c r="J102" s="92" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K102" s="26"/>
       <c r="L102" s="26"/>
@@ -7056,7 +7044,7 @@
       <c r="H103" s="76"/>
       <c r="I103" s="76"/>
       <c r="J103" s="75" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K103" s="76"/>
       <c r="L103" s="76"/>
@@ -7125,7 +7113,7 @@
         <v>3.1.6.3.</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
@@ -7154,7 +7142,7 @@
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
       <c r="F106" s="65" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
@@ -7183,7 +7171,7 @@
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
       <c r="F107" s="65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
@@ -7239,7 +7227,7 @@
       <c r="D109" s="29"/>
       <c r="E109" s="29"/>
       <c r="F109" s="113" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G109" s="29"/>
       <c r="H109" s="29"/>
@@ -7302,7 +7290,7 @@
     </row>
     <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7350,7 +7338,7 @@
       <c r="I118" s="70"/>
       <c r="J118" s="71"/>
       <c r="K118" s="26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L118" s="26"/>
       <c r="M118" s="26"/>
@@ -7383,7 +7371,7 @@
       <c r="I119" s="102"/>
       <c r="J119" s="90"/>
       <c r="K119" s="76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L119" s="76"/>
       <c r="M119" s="76"/>
@@ -7418,7 +7406,7 @@
       <c r="I120" s="70"/>
       <c r="J120" s="71"/>
       <c r="K120" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L120" s="26"/>
       <c r="M120" s="26"/>
@@ -7451,7 +7439,7 @@
       <c r="I121" s="102"/>
       <c r="J121" s="90"/>
       <c r="K121" s="76" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L121" s="76"/>
       <c r="M121" s="76"/>
@@ -7510,7 +7498,7 @@
     </row>
     <row r="123" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F123" s="70" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G123" s="70"/>
       <c r="H123" s="70"/>
@@ -7615,7 +7603,7 @@
       <c r="H126" s="99"/>
       <c r="I126" s="101"/>
       <c r="J126" s="99" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K126" s="99"/>
       <c r="L126" s="99"/>
@@ -7648,7 +7636,7 @@
       <c r="H127" s="70"/>
       <c r="I127" s="94"/>
       <c r="J127" s="70" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K127" s="70"/>
       <c r="L127" s="70"/>
@@ -7681,7 +7669,7 @@
       <c r="H128" s="102"/>
       <c r="I128" s="103"/>
       <c r="J128" s="102" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K128" s="102"/>
       <c r="L128" s="102"/>
@@ -7716,7 +7704,7 @@
       <c r="H129" s="70"/>
       <c r="I129" s="94"/>
       <c r="J129" s="70" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K129" s="70"/>
       <c r="L129" s="70"/>
@@ -7749,7 +7737,7 @@
       <c r="H130" s="70"/>
       <c r="I130" s="94"/>
       <c r="J130" s="70" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K130" s="70"/>
       <c r="L130" s="70"/>
@@ -7784,7 +7772,7 @@
       <c r="H131" s="99"/>
       <c r="I131" s="101"/>
       <c r="J131" s="99" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K131" s="99"/>
       <c r="L131" s="99"/>
@@ -7819,7 +7807,7 @@
       <c r="H132" s="70"/>
       <c r="I132" s="70"/>
       <c r="J132" s="109" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K132" s="70"/>
       <c r="L132" s="70"/>
@@ -7852,7 +7840,7 @@
       <c r="H133" s="102"/>
       <c r="I133" s="102"/>
       <c r="J133" s="75" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K133" s="76"/>
       <c r="L133" s="76"/>
@@ -7916,7 +7904,7 @@
         <v>3.1.7.3.</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7924,19 +7912,19 @@
         <v>54</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="137" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F137" s="24"/>
       <c r="G137" s="41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="138" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="24"/>
       <c r="G138" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7945,13 +7933,13 @@
     <row r="140" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F140" s="24"/>
       <c r="G140" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="141" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F141" s="24"/>
       <c r="G141" s="41" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8013,14 +8001,14 @@
       <c r="I144" s="99"/>
       <c r="J144" s="101"/>
       <c r="K144" s="99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L144" s="99"/>
       <c r="M144" s="99"/>
       <c r="N144" s="99"/>
       <c r="O144" s="101"/>
       <c r="P144" s="99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q144" s="99"/>
       <c r="R144" s="99"/>
@@ -8122,14 +8110,14 @@
       <c r="I147" s="70"/>
       <c r="J147" s="94"/>
       <c r="K147" s="70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L147" s="70"/>
       <c r="M147" s="70"/>
       <c r="N147" s="70"/>
       <c r="O147" s="94"/>
       <c r="P147" s="70" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q147" s="70"/>
       <c r="R147" s="70"/>
@@ -8188,14 +8176,14 @@
       <c r="I149" s="70"/>
       <c r="J149" s="94"/>
       <c r="K149" s="70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L149" s="70"/>
       <c r="M149" s="70"/>
       <c r="N149" s="70"/>
       <c r="O149" s="94"/>
       <c r="P149" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q149" s="70"/>
       <c r="R149" s="70"/>
@@ -8254,7 +8242,7 @@
         <v>53</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8263,7 +8251,7 @@
       <c r="D153" s="36"/>
       <c r="E153" s="36"/>
       <c r="G153" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8324,14 +8312,14 @@
       <c r="I156" s="99"/>
       <c r="J156" s="101"/>
       <c r="K156" s="99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L156" s="99"/>
       <c r="M156" s="99"/>
       <c r="N156" s="99"/>
       <c r="O156" s="101"/>
       <c r="P156" s="99" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q156" s="99"/>
       <c r="R156" s="99"/>
@@ -8651,7 +8639,7 @@
         <v>55</v>
       </c>
       <c r="G167" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H167" s="29"/>
       <c r="I167" s="29"/>
@@ -8799,7 +8787,7 @@
       <c r="D172" s="29"/>
       <c r="E172" s="29"/>
       <c r="F172" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G172" s="38"/>
       <c r="H172" s="38"/>
@@ -8845,7 +8833,7 @@
       <c r="J173" s="98"/>
       <c r="K173" s="98"/>
       <c r="L173" s="92" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M173" s="98"/>
       <c r="N173" s="98"/>
@@ -8883,7 +8871,7 @@
       <c r="J174" s="98"/>
       <c r="K174" s="98"/>
       <c r="L174" s="97" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M174" s="98"/>
       <c r="N174" s="98"/>
@@ -8919,7 +8907,7 @@
       <c r="J175" s="76"/>
       <c r="K175" s="76"/>
       <c r="L175" s="75" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M175" s="76"/>
       <c r="N175" s="76"/>
@@ -8980,7 +8968,7 @@
         <v>3.1.8.3.</v>
       </c>
       <c r="F177" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G177" s="29"/>
       <c r="H177" s="29"/>
@@ -9043,7 +9031,7 @@
       <c r="E179" s="77"/>
       <c r="F179" s="24"/>
       <c r="G179" s="29" t="s">
-        <v>195</v>
+        <v>324</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -9073,7 +9061,7 @@
       <c r="E180" s="77"/>
       <c r="F180" s="24"/>
       <c r="G180" s="29" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="H180" s="29"/>
       <c r="I180" s="29"/>
@@ -9103,7 +9091,7 @@
       <c r="E181" s="77"/>
       <c r="F181" s="24"/>
       <c r="G181" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H181" s="29"/>
       <c r="I181" s="29"/>
@@ -9133,7 +9121,7 @@
       <c r="E182" s="77"/>
       <c r="F182" s="24"/>
       <c r="G182" s="64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H182" s="29"/>
       <c r="I182" s="29"/>
@@ -9277,13 +9265,13 @@
       <c r="K186" s="55"/>
       <c r="L186" s="31"/>
       <c r="M186" s="55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N186" s="55"/>
       <c r="O186" s="55"/>
       <c r="P186" s="31"/>
       <c r="Q186" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="R186" s="55"/>
       <c r="S186" s="55"/>
@@ -9319,13 +9307,13 @@
       <c r="K187" s="57"/>
       <c r="L187" s="58"/>
       <c r="M187" s="57" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N187" s="57"/>
       <c r="O187" s="57"/>
       <c r="P187" s="58"/>
       <c r="Q187" s="57" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R187" s="57"/>
       <c r="S187" s="57"/>
@@ -9474,7 +9462,7 @@
       <c r="O191" s="33"/>
       <c r="P191" s="34"/>
       <c r="Q191" s="76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R191" s="33"/>
       <c r="S191" s="33"/>
@@ -9619,7 +9607,7 @@
       <c r="R195" s="39"/>
       <c r="S195" s="40"/>
       <c r="T195" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U195" s="39"/>
       <c r="V195" s="39"/>
@@ -9657,7 +9645,7 @@
       <c r="R196" s="55"/>
       <c r="S196" s="31"/>
       <c r="T196" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U196" s="55"/>
       <c r="V196" s="55"/>
@@ -9858,7 +9846,7 @@
       <c r="D202" s="29"/>
       <c r="E202" s="74"/>
       <c r="F202" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G202" s="55" t="str">
         <f>G167</f>
@@ -9898,7 +9886,7 @@
       <c r="E203" s="74"/>
       <c r="F203" s="29"/>
       <c r="G203" s="55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H203" s="55"/>
       <c r="I203" s="55"/>
@@ -9934,7 +9922,7 @@
       <c r="E204" s="74"/>
       <c r="F204" s="29"/>
       <c r="G204" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H204" s="29"/>
       <c r="I204" s="29"/>
@@ -9964,7 +9952,7 @@
       <c r="E205" s="74"/>
       <c r="F205" s="29"/>
       <c r="G205" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H205" s="29"/>
       <c r="I205" s="29"/>
@@ -10068,7 +10056,7 @@
         <v>3.1.9.1.</v>
       </c>
       <c r="F208" s="74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G208" s="29"/>
       <c r="H208" s="29"/>
@@ -10107,7 +10095,7 @@
       <c r="D209" s="29"/>
       <c r="E209" s="24"/>
       <c r="F209" s="74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G209" s="29"/>
       <c r="H209" s="29"/>
@@ -10303,7 +10291,7 @@
       <c r="E214" s="29"/>
       <c r="F214" s="29"/>
       <c r="G214" s="65" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H214" s="29"/>
       <c r="I214" s="29"/>
@@ -10342,7 +10330,7 @@
       <c r="E215" s="29"/>
       <c r="F215" s="29"/>
       <c r="G215" s="78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H215" s="29"/>
       <c r="I215" s="29"/>
@@ -10381,7 +10369,7 @@
       <c r="E216" s="29"/>
       <c r="F216" s="29"/>
       <c r="G216" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H216" s="29"/>
       <c r="I216" s="29"/>
@@ -10812,7 +10800,7 @@
       <c r="E227" s="29"/>
       <c r="F227" s="29"/>
       <c r="G227" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H227" s="55"/>
       <c r="I227" s="55"/>
@@ -10824,7 +10812,7 @@
       <c r="O227" s="55"/>
       <c r="P227" s="31"/>
       <c r="Q227" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R227" s="55"/>
       <c r="S227" s="55"/>
@@ -10863,7 +10851,7 @@
       <c r="O228" s="55"/>
       <c r="P228" s="31"/>
       <c r="Q228" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R228" s="55"/>
       <c r="S228" s="55"/>
@@ -10902,7 +10890,7 @@
       <c r="O229" s="33"/>
       <c r="P229" s="34"/>
       <c r="Q229" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R229" s="33"/>
       <c r="S229" s="33"/>
@@ -10968,7 +10956,7 @@
       <c r="E231" s="29"/>
       <c r="F231" s="29"/>
       <c r="G231" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H231" s="55"/>
       <c r="I231" s="55"/>
@@ -11044,7 +11032,7 @@
       <c r="E233" s="29"/>
       <c r="F233" s="29"/>
       <c r="G233" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H233" s="55"/>
       <c r="I233" s="55"/>
@@ -11083,7 +11071,7 @@
       <c r="E234" s="29"/>
       <c r="F234" s="29"/>
       <c r="G234" s="55" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H234" s="55"/>
       <c r="I234" s="55"/>
@@ -11159,7 +11147,7 @@
       <c r="E236" s="29"/>
       <c r="F236" s="29"/>
       <c r="G236" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H236" s="55"/>
       <c r="I236" s="55"/>
@@ -11198,7 +11186,7 @@
       <c r="E237" s="29"/>
       <c r="F237" s="29"/>
       <c r="G237" s="55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H237" s="55"/>
       <c r="I237" s="55"/>
@@ -11237,7 +11225,7 @@
       <c r="E238" s="29"/>
       <c r="F238" s="29"/>
       <c r="G238" s="55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H238" s="55"/>
       <c r="I238" s="55"/>
@@ -11276,7 +11264,7 @@
       <c r="E239" s="29"/>
       <c r="F239" s="29"/>
       <c r="G239" s="55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H239" s="55"/>
       <c r="I239" s="55"/>
@@ -11619,7 +11607,7 @@
       <c r="AA247" s="26"/>
       <c r="AB247" s="71"/>
       <c r="AC247" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AD247" s="26"/>
       <c r="AE247" s="26"/>
@@ -11677,7 +11665,7 @@
       <c r="E249" s="29"/>
       <c r="F249" s="24"/>
       <c r="G249" s="30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H249" s="55"/>
       <c r="I249" s="55"/>
@@ -11716,7 +11704,7 @@
       <c r="E250" s="29"/>
       <c r="F250" s="24"/>
       <c r="G250" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H250" s="33"/>
       <c r="I250" s="33"/>
@@ -11781,7 +11769,7 @@
       <c r="AA251" s="26"/>
       <c r="AB251" s="71"/>
       <c r="AC251" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AD251" s="26"/>
       <c r="AE251" s="26"/>
@@ -11822,7 +11810,7 @@
       <c r="AA252" s="26"/>
       <c r="AB252" s="71"/>
       <c r="AC252" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AD252" s="26"/>
       <c r="AE252" s="26"/>
@@ -12197,7 +12185,7 @@
       <c r="J262" s="55"/>
       <c r="K262" s="31"/>
       <c r="L262" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M262" s="26"/>
       <c r="N262" s="26"/>
@@ -12236,7 +12224,7 @@
       <c r="J263" s="55"/>
       <c r="K263" s="31"/>
       <c r="L263" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M263" s="26"/>
       <c r="N263" s="26"/>
@@ -12394,7 +12382,7 @@
       <c r="J267" s="55"/>
       <c r="K267" s="31"/>
       <c r="L267" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M267" s="26"/>
       <c r="N267" s="26"/>
@@ -12437,7 +12425,7 @@
       <c r="J268" s="33"/>
       <c r="K268" s="34"/>
       <c r="L268" s="76" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M268" s="76"/>
       <c r="N268" s="76"/>
@@ -12660,7 +12648,7 @@
         <v>3.1.10.</v>
       </c>
       <c r="E274" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="275" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12680,16 +12668,16 @@
     <row r="277" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="42"/>
       <c r="F277" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="278" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="42"/>
       <c r="F278" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G278" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="279" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12709,13 +12697,13 @@
     <row r="281" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="42"/>
       <c r="F281" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="282" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="42"/>
       <c r="F282" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G282" s="53"/>
       <c r="H282" s="53"/>
@@ -12750,7 +12738,7 @@
     <row r="283" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="42"/>
       <c r="F283" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G283" s="99"/>
       <c r="H283" s="99"/>
@@ -12758,7 +12746,7 @@
       <c r="J283" s="99"/>
       <c r="K283" s="101"/>
       <c r="L283" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M283" s="99"/>
       <c r="N283" s="99"/>
@@ -12791,7 +12779,7 @@
       <c r="J284" s="102"/>
       <c r="K284" s="103"/>
       <c r="L284" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M284" s="102"/>
       <c r="N284" s="102"/>
@@ -12832,7 +12820,7 @@
     <row r="287" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="42"/>
       <c r="F287" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G287" s="29"/>
       <c r="H287" s="29"/>
@@ -12886,7 +12874,7 @@
       <c r="E297" s="42"/>
       <c r="F297" s="87"/>
       <c r="G297" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H297" s="53"/>
       <c r="I297" s="53"/>
@@ -12894,7 +12882,7 @@
       <c r="K297" s="53"/>
       <c r="L297" s="54"/>
       <c r="M297" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N297" s="53"/>
       <c r="O297" s="53"/>
@@ -12919,10 +12907,10 @@
     <row r="298" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E298" s="42"/>
       <c r="F298" s="86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G298" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H298" s="49"/>
       <c r="I298" s="49"/>
@@ -12930,7 +12918,7 @@
       <c r="K298" s="49"/>
       <c r="L298" s="50"/>
       <c r="M298" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N298" s="49"/>
       <c r="O298" s="49"/>
@@ -12985,10 +12973,10 @@
     <row r="300" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E300" s="42"/>
       <c r="F300" s="86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G300" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H300" s="49"/>
       <c r="I300" s="49"/>
@@ -12996,7 +12984,7 @@
       <c r="K300" s="49"/>
       <c r="L300" s="50"/>
       <c r="M300" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N300" s="49"/>
       <c r="O300" s="49"/>
@@ -13051,10 +13039,10 @@
     <row r="302" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E302" s="42"/>
       <c r="F302" s="86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G302" s="48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H302" s="49"/>
       <c r="I302" s="49"/>
@@ -13062,7 +13050,7 @@
       <c r="K302" s="49"/>
       <c r="L302" s="50"/>
       <c r="M302" s="48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N302" s="49"/>
       <c r="O302" s="49"/>
@@ -13117,10 +13105,10 @@
     <row r="304" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E304" s="42"/>
       <c r="F304" s="86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G304" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H304" s="49"/>
       <c r="I304" s="49"/>
@@ -13128,7 +13116,7 @@
       <c r="K304" s="49"/>
       <c r="L304" s="50"/>
       <c r="M304" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N304" s="49"/>
       <c r="O304" s="49"/>
@@ -13160,7 +13148,7 @@
       <c r="K305" s="44"/>
       <c r="L305" s="45"/>
       <c r="M305" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N305" s="44"/>
       <c r="O305" s="44"/>
@@ -13215,10 +13203,10 @@
     <row r="307" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E307" s="42"/>
       <c r="F307" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G307" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H307" s="49"/>
       <c r="I307" s="49"/>
@@ -13226,7 +13214,7 @@
       <c r="K307" s="49"/>
       <c r="L307" s="50"/>
       <c r="M307" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N307" s="49"/>
       <c r="O307" s="49"/>
@@ -13288,7 +13276,7 @@
       <c r="D310" s="42"/>
       <c r="E310" s="36"/>
       <c r="F310" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G310" s="36"/>
     </row>
@@ -13296,7 +13284,7 @@
       <c r="D311" s="42"/>
       <c r="E311" s="36"/>
       <c r="F311" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G311" s="36"/>
     </row>
@@ -13329,19 +13317,19 @@
       <c r="D317" s="42"/>
       <c r="E317" s="42"/>
       <c r="F317" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="318" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D318" s="42"/>
       <c r="E318" s="42"/>
       <c r="F318" s="41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="319" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F319" s="36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="320" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13418,7 +13406,7 @@
     </row>
     <row r="323" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F323" s="41" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="324" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13460,7 +13448,7 @@
     </row>
     <row r="325" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F325" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G325" s="93"/>
       <c r="H325" s="93"/>
@@ -13477,7 +13465,7 @@
       <c r="Q325" s="93"/>
       <c r="R325" s="72"/>
       <c r="S325" s="93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T325" s="102"/>
       <c r="U325" s="102"/>
@@ -13532,7 +13520,7 @@
         <v>3.1.11.3.</v>
       </c>
       <c r="F327" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G327" s="36"/>
       <c r="H327" s="36"/>
@@ -13558,10 +13546,10 @@
     <row r="329" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F329" s="77"/>
       <c r="G329" s="79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H329" s="74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I329" s="74"/>
       <c r="J329" s="74"/>
@@ -13575,7 +13563,7 @@
         <v>55</v>
       </c>
       <c r="I330" s="74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J330" s="74"/>
       <c r="K330" s="74"/>
@@ -13587,7 +13575,7 @@
         <v>55</v>
       </c>
       <c r="H331" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I331" s="74"/>
       <c r="J331" s="74"/>
@@ -13601,7 +13589,7 @@
         <v>55</v>
       </c>
       <c r="I332" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J332" s="74"/>
       <c r="K332" s="74"/>
@@ -13611,10 +13599,10 @@
       <c r="F333" s="77"/>
       <c r="G333" s="74"/>
       <c r="H333" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="I333" s="74" t="s">
         <v>130</v>
-      </c>
-      <c r="I333" s="74" t="s">
-        <v>131</v>
       </c>
       <c r="J333" s="74"/>
       <c r="K333" s="74"/>
@@ -13623,10 +13611,10 @@
     <row r="334" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F334" s="74"/>
       <c r="G334" s="79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H334" s="74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I334" s="74"/>
       <c r="J334" s="74"/>
@@ -13637,10 +13625,10 @@
       <c r="F335" s="36"/>
       <c r="G335" s="36"/>
       <c r="H335" s="82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I335" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J335" s="36"/>
       <c r="K335" s="36"/>
@@ -13650,10 +13638,10 @@
       <c r="F336" s="36"/>
       <c r="G336" s="83"/>
       <c r="H336" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I336" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J336" s="36"/>
       <c r="K336" s="36"/>
@@ -13684,19 +13672,19 @@
         <v>3.1.12.1.</v>
       </c>
       <c r="F339" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="340" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D340" s="42"/>
       <c r="E340" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="341" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D341" s="42"/>
       <c r="E341" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="342" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13709,13 +13697,13 @@
         <v>3.1.12.2.</v>
       </c>
       <c r="F343" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="344" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D344" s="42"/>
       <c r="E344" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="345" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13755,13 +13743,13 @@
         <v>3.1.13.</v>
       </c>
       <c r="E346" s="41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="347" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D347" s="42"/>
       <c r="E347" s="41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="348" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13775,7 +13763,7 @@
       <c r="J348" s="53"/>
       <c r="K348" s="54"/>
       <c r="L348" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M348" s="53"/>
       <c r="N348" s="53"/>
@@ -13804,7 +13792,7 @@
     </row>
     <row r="349" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E349" s="109" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F349" s="98"/>
       <c r="G349" s="98"/>
@@ -13813,13 +13801,13 @@
       <c r="J349" s="70"/>
       <c r="K349" s="100"/>
       <c r="L349" s="98" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M349" s="70"/>
       <c r="N349" s="70"/>
       <c r="O349" s="100"/>
       <c r="P349" s="98" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q349" s="70"/>
       <c r="R349" s="70"/>
@@ -13842,7 +13830,7 @@
     </row>
     <row r="350" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E350" s="109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F350" s="26"/>
       <c r="G350" s="26"/>
@@ -13855,7 +13843,7 @@
       <c r="N350" s="70"/>
       <c r="O350" s="71"/>
       <c r="P350" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q350" s="70"/>
       <c r="R350" s="70"/>
@@ -13889,7 +13877,7 @@
       <c r="N351" s="70"/>
       <c r="O351" s="71"/>
       <c r="P351" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q351" s="70"/>
       <c r="R351" s="70"/>
@@ -13923,7 +13911,7 @@
       <c r="N352" s="70"/>
       <c r="O352" s="71"/>
       <c r="P352" s="26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q352" s="70"/>
       <c r="R352" s="70"/>
@@ -13957,7 +13945,7 @@
       <c r="N353" s="102"/>
       <c r="O353" s="90"/>
       <c r="P353" s="76" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q353" s="102"/>
       <c r="R353" s="102"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFBA7DB-6AE1-41A2-B95E-6CCDCE9FF4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B509F912-7B14-47A1-9A22-C0754695F0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.1.同期処理方式'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$354</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$273</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$273</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$355</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$274</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$274</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="327">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -1577,40 +1577,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>対外接続の閉局タイミングに合わせるため、閉局時刻になったタイミングで即アクセス遮断などの切り替え処理を実行する。</t>
-    <rPh sb="0" eb="2">
-      <t>タイガイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘイキョク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘイキョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>同時起動して並列に操作</t>
     <rPh sb="9" eb="11">
       <t>ソウサ</t>
@@ -1647,17 +1613,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新規のリクエストの受付は行われない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>停止時刻をまたぐリクエストの挙動としては、閉局時点で既にサーバサイドで受け付けたリクエストについては処理を行うが、</t>
-    <rPh sb="14" eb="16">
-      <t>キョドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>会員機能のTOP・検索・一覧・詳細画面間の画面遷移</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -3419,6 +3374,70 @@
     </rPh>
     <rPh sb="47" eb="48">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>閉局時点で既にサーバーサイドで処理を開始しているリクエストについては、処理を継続する。</t>
+    <rPh sb="0" eb="4">
+      <t>ヘイキョクジテン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これを回避するため、対外接続先システムに依存するリクエストに関しては、対外接続先システムの閉局時間よりも</t>
+    <rPh sb="3" eb="5">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイガイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>早い時間を本システム側の閉局時間に設定することとする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このとき、対外接続先システムが閉局しているとリクエストの処理がエラーとなる可能性がある。</t>
+    <rPh sb="5" eb="7">
+      <t>タイガイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘイキョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>カノウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4190,13 +4209,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4212,7 +4231,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1350479" y="40783565"/>
+          <a:off x="1350479" y="40924370"/>
           <a:ext cx="7726431" cy="775252"/>
           <a:chOff x="1362075" y="5760869"/>
           <a:chExt cx="7810499" cy="820906"/>
@@ -5199,7 +5218,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI355"/>
+  <dimension ref="A1:AI356"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
@@ -5379,7 +5398,7 @@
     <row r="11" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="42"/>
       <c r="E11" s="41" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5499,7 +5518,7 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="52" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
@@ -5543,7 +5562,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="56" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K16" s="59"/>
       <c r="L16" s="59"/>
@@ -5581,7 +5600,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
       <c r="J17" s="35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -5617,7 +5636,7 @@
       <c r="H18" s="29"/>
       <c r="I18" s="31"/>
       <c r="J18" s="30" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -5645,7 +5664,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
       <c r="J19" s="32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
@@ -5801,7 +5820,7 @@
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
       <c r="J31" s="56" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K31" s="57"/>
       <c r="L31" s="93"/>
@@ -5830,13 +5849,13 @@
     </row>
     <row r="32" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
       <c r="J32" s="35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K32" s="39"/>
       <c r="L32" s="98"/>
@@ -5869,7 +5888,7 @@
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
       <c r="J33" s="32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="76"/>
@@ -5933,19 +5952,19 @@
         <v>3.1.3.3.</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E36" s="24"/>
       <c r="F36" s="74" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="24"/>
       <c r="F37" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5954,13 +5973,13 @@
     <row r="39" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E39" s="24"/>
       <c r="F39" s="29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E40" s="24"/>
       <c r="F40" s="29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5969,7 +5988,7 @@
     <row r="42" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E42" s="24"/>
       <c r="F42" s="115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6011,7 +6030,7 @@
     </row>
     <row r="49" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6023,7 +6042,7 @@
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
       <c r="K50" s="53" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
@@ -6058,7 +6077,7 @@
       <c r="I51" s="99"/>
       <c r="J51" s="100"/>
       <c r="K51" s="98" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L51" s="98"/>
       <c r="M51" s="98"/>
@@ -6091,7 +6110,7 @@
       <c r="I52" s="102"/>
       <c r="J52" s="90"/>
       <c r="K52" s="76" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L52" s="76"/>
       <c r="M52" s="76"/>
@@ -6126,7 +6145,7 @@
       <c r="I53" s="70"/>
       <c r="J53" s="71"/>
       <c r="K53" s="26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L53" s="26"/>
       <c r="M53" s="26"/>
@@ -6159,7 +6178,7 @@
       <c r="I54" s="70"/>
       <c r="J54" s="71"/>
       <c r="K54" s="26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L54" s="26"/>
       <c r="M54" s="26"/>
@@ -6192,7 +6211,7 @@
       <c r="I55" s="102"/>
       <c r="J55" s="90"/>
       <c r="K55" s="76" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L55" s="76"/>
       <c r="M55" s="76"/>
@@ -6225,53 +6244,53 @@
         <v>3.1.4.3.</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="66"/>
       <c r="F58" s="36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="66"/>
       <c r="F59" s="36" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="61" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="66"/>
       <c r="F61" s="36" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="36" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="36" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F64" s="36" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="116" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6367,7 +6386,7 @@
       <c r="G78" s="99"/>
       <c r="H78" s="104"/>
       <c r="I78" s="105" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J78" s="106"/>
       <c r="K78" s="93"/>
@@ -6635,7 +6654,7 @@
     <row r="88" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D88" s="29"/>
       <c r="F88" s="41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="V88" s="29"/>
       <c r="W88" s="29"/>
@@ -6655,7 +6674,7 @@
     <row r="89" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D89" s="29"/>
       <c r="F89" s="41" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V89" s="29"/>
       <c r="W89" s="29"/>
@@ -6675,7 +6694,7 @@
     <row r="90" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D90" s="29"/>
       <c r="F90" s="41" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="V90" s="29"/>
       <c r="W90" s="29"/>
@@ -6705,7 +6724,7 @@
     </row>
     <row r="93" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F93" s="36" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6716,7 +6735,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="18"/>
       <c r="J94" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K94" s="17"/>
       <c r="L94" s="53"/>
@@ -6754,7 +6773,7 @@
       <c r="H95" s="26"/>
       <c r="I95" s="71"/>
       <c r="J95" s="26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K95" s="26"/>
       <c r="L95" s="26"/>
@@ -6790,7 +6809,7 @@
       <c r="H96" s="26"/>
       <c r="I96" s="71"/>
       <c r="J96" s="26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K96" s="26"/>
       <c r="L96" s="26"/>
@@ -6826,7 +6845,7 @@
       <c r="H97" s="26"/>
       <c r="I97" s="71"/>
       <c r="J97" s="26" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K97" s="26"/>
       <c r="L97" s="26"/>
@@ -6862,7 +6881,7 @@
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="92" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K98" s="26"/>
       <c r="L98" s="26"/>
@@ -6898,7 +6917,7 @@
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
       <c r="J99" s="75" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K99" s="26"/>
       <c r="L99" s="26"/>
@@ -6936,7 +6955,7 @@
       <c r="H100" s="98"/>
       <c r="I100" s="98"/>
       <c r="J100" s="97" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K100" s="98"/>
       <c r="L100" s="98"/>
@@ -6972,7 +6991,7 @@
       <c r="H101" s="26"/>
       <c r="I101" s="26"/>
       <c r="J101" s="92" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K101" s="26"/>
       <c r="L101" s="26"/>
@@ -7008,7 +7027,7 @@
       <c r="H102" s="26"/>
       <c r="I102" s="26"/>
       <c r="J102" s="92" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K102" s="26"/>
       <c r="L102" s="26"/>
@@ -7044,7 +7063,7 @@
       <c r="H103" s="76"/>
       <c r="I103" s="76"/>
       <c r="J103" s="75" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K103" s="76"/>
       <c r="L103" s="76"/>
@@ -7113,7 +7132,7 @@
         <v>3.1.6.3.</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
@@ -7142,7 +7161,7 @@
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
       <c r="F106" s="65" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
@@ -7171,7 +7190,7 @@
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
       <c r="F107" s="65" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
@@ -7227,7 +7246,7 @@
       <c r="D109" s="29"/>
       <c r="E109" s="29"/>
       <c r="F109" s="113" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G109" s="29"/>
       <c r="H109" s="29"/>
@@ -7290,7 +7309,7 @@
     </row>
     <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7338,7 +7357,7 @@
       <c r="I118" s="70"/>
       <c r="J118" s="71"/>
       <c r="K118" s="26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L118" s="26"/>
       <c r="M118" s="26"/>
@@ -7371,7 +7390,7 @@
       <c r="I119" s="102"/>
       <c r="J119" s="90"/>
       <c r="K119" s="76" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L119" s="76"/>
       <c r="M119" s="76"/>
@@ -7406,7 +7425,7 @@
       <c r="I120" s="70"/>
       <c r="J120" s="71"/>
       <c r="K120" s="26" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L120" s="26"/>
       <c r="M120" s="26"/>
@@ -7439,7 +7458,7 @@
       <c r="I121" s="102"/>
       <c r="J121" s="90"/>
       <c r="K121" s="76" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L121" s="76"/>
       <c r="M121" s="76"/>
@@ -7498,7 +7517,7 @@
     </row>
     <row r="123" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F123" s="70" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G123" s="70"/>
       <c r="H123" s="70"/>
@@ -7603,7 +7622,7 @@
       <c r="H126" s="99"/>
       <c r="I126" s="101"/>
       <c r="J126" s="99" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K126" s="99"/>
       <c r="L126" s="99"/>
@@ -7636,7 +7655,7 @@
       <c r="H127" s="70"/>
       <c r="I127" s="94"/>
       <c r="J127" s="70" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K127" s="70"/>
       <c r="L127" s="70"/>
@@ -7669,7 +7688,7 @@
       <c r="H128" s="102"/>
       <c r="I128" s="103"/>
       <c r="J128" s="102" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K128" s="102"/>
       <c r="L128" s="102"/>
@@ -7704,7 +7723,7 @@
       <c r="H129" s="70"/>
       <c r="I129" s="94"/>
       <c r="J129" s="70" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K129" s="70"/>
       <c r="L129" s="70"/>
@@ -7737,7 +7756,7 @@
       <c r="H130" s="70"/>
       <c r="I130" s="94"/>
       <c r="J130" s="70" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K130" s="70"/>
       <c r="L130" s="70"/>
@@ -7772,7 +7791,7 @@
       <c r="H131" s="99"/>
       <c r="I131" s="101"/>
       <c r="J131" s="99" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K131" s="99"/>
       <c r="L131" s="99"/>
@@ -7807,7 +7826,7 @@
       <c r="H132" s="70"/>
       <c r="I132" s="70"/>
       <c r="J132" s="109" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K132" s="70"/>
       <c r="L132" s="70"/>
@@ -7840,7 +7859,7 @@
       <c r="H133" s="102"/>
       <c r="I133" s="102"/>
       <c r="J133" s="75" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K133" s="76"/>
       <c r="L133" s="76"/>
@@ -7904,7 +7923,7 @@
         <v>3.1.7.3.</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7912,19 +7931,19 @@
         <v>54</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F137" s="24"/>
       <c r="G137" s="41" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="138" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="24"/>
       <c r="G138" s="41" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7933,13 +7952,13 @@
     <row r="140" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F140" s="24"/>
       <c r="G140" s="41" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F141" s="24"/>
       <c r="G141" s="41" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="142" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8117,7 +8136,7 @@
       <c r="N147" s="70"/>
       <c r="O147" s="94"/>
       <c r="P147" s="70" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q147" s="70"/>
       <c r="R147" s="70"/>
@@ -8251,7 +8270,7 @@
       <c r="D153" s="36"/>
       <c r="E153" s="36"/>
       <c r="G153" s="41" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8833,7 +8852,7 @@
       <c r="J173" s="98"/>
       <c r="K173" s="98"/>
       <c r="L173" s="92" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M173" s="98"/>
       <c r="N173" s="98"/>
@@ -8871,7 +8890,7 @@
       <c r="J174" s="98"/>
       <c r="K174" s="98"/>
       <c r="L174" s="97" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M174" s="98"/>
       <c r="N174" s="98"/>
@@ -8907,7 +8926,7 @@
       <c r="J175" s="76"/>
       <c r="K175" s="76"/>
       <c r="L175" s="75" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M175" s="76"/>
       <c r="N175" s="76"/>
@@ -8968,7 +8987,7 @@
         <v>3.1.8.3.</v>
       </c>
       <c r="F177" s="29" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G177" s="29"/>
       <c r="H177" s="29"/>
@@ -9031,7 +9050,7 @@
       <c r="E179" s="77"/>
       <c r="F179" s="24"/>
       <c r="G179" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -9061,7 +9080,7 @@
       <c r="E180" s="77"/>
       <c r="F180" s="24"/>
       <c r="G180" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H180" s="29"/>
       <c r="I180" s="29"/>
@@ -9265,13 +9284,13 @@
       <c r="K186" s="55"/>
       <c r="L186" s="31"/>
       <c r="M186" s="55" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N186" s="55"/>
       <c r="O186" s="55"/>
       <c r="P186" s="31"/>
       <c r="Q186" s="26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R186" s="55"/>
       <c r="S186" s="55"/>
@@ -9307,7 +9326,7 @@
       <c r="K187" s="57"/>
       <c r="L187" s="58"/>
       <c r="M187" s="57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N187" s="57"/>
       <c r="O187" s="57"/>
@@ -9884,9 +9903,9 @@
       <c r="C203" s="29"/>
       <c r="D203" s="29"/>
       <c r="E203" s="74"/>
-      <c r="F203" s="29"/>
+      <c r="F203" s="24"/>
       <c r="G203" s="55" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="H203" s="55"/>
       <c r="I203" s="55"/>
@@ -9916,105 +9935,118 @@
       <c r="AG203" s="44"/>
       <c r="AH203" s="44"/>
     </row>
-    <row r="204" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C204" s="29"/>
       <c r="D204" s="29"/>
       <c r="E204" s="74"/>
-      <c r="F204" s="29"/>
-      <c r="G204" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="H204" s="29"/>
-      <c r="I204" s="29"/>
-      <c r="J204" s="29"/>
-      <c r="K204" s="29"/>
-      <c r="L204" s="29"/>
-      <c r="M204" s="29"/>
-      <c r="N204" s="29"/>
-      <c r="O204" s="29"/>
-      <c r="P204" s="29"/>
-      <c r="Q204" s="29"/>
-      <c r="R204" s="29"/>
-      <c r="S204" s="29"/>
-      <c r="T204" s="29"/>
-      <c r="U204" s="29"/>
-      <c r="V204" s="29"/>
-      <c r="W204" s="29"/>
-      <c r="X204" s="29"/>
-      <c r="Y204" s="29"/>
-      <c r="Z204" s="29"/>
-      <c r="AA204" s="29"/>
-      <c r="AB204" s="29"/>
+      <c r="F204" s="24"/>
+      <c r="G204" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="H204" s="55"/>
+      <c r="I204" s="55"/>
+      <c r="J204" s="55"/>
+      <c r="K204" s="55"/>
+      <c r="L204" s="55"/>
+      <c r="M204" s="55"/>
+      <c r="N204" s="55"/>
+      <c r="O204" s="55"/>
+      <c r="P204" s="55"/>
+      <c r="Q204" s="55"/>
+      <c r="R204" s="55"/>
+      <c r="S204" s="55"/>
+      <c r="T204" s="55"/>
+      <c r="U204" s="55"/>
+      <c r="V204" s="55"/>
+      <c r="W204" s="55"/>
+      <c r="X204" s="55"/>
+      <c r="Y204" s="55"/>
+      <c r="Z204" s="55"/>
+      <c r="AA204" s="55"/>
+      <c r="AB204" s="55"/>
+      <c r="AC204" s="44"/>
+      <c r="AD204" s="44"/>
+      <c r="AE204" s="44"/>
+      <c r="AF204" s="44"/>
+      <c r="AG204" s="44"/>
+      <c r="AH204" s="44"/>
     </row>
     <row r="205" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C205" s="29"/>
       <c r="D205" s="29"/>
       <c r="E205" s="74"/>
-      <c r="F205" s="29"/>
-      <c r="G205" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="H205" s="29"/>
-      <c r="I205" s="29"/>
-      <c r="J205" s="29"/>
-      <c r="K205" s="29"/>
-      <c r="L205" s="29"/>
-      <c r="M205" s="29"/>
-      <c r="N205" s="29"/>
-      <c r="O205" s="29"/>
-      <c r="P205" s="29"/>
-      <c r="Q205" s="29"/>
-      <c r="R205" s="29"/>
-      <c r="S205" s="29"/>
-      <c r="T205" s="29"/>
-      <c r="U205" s="29"/>
-      <c r="V205" s="29"/>
-      <c r="W205" s="29"/>
-      <c r="X205" s="29"/>
-      <c r="Y205" s="29"/>
-      <c r="Z205" s="29"/>
-      <c r="AA205" s="29"/>
-      <c r="AB205" s="29"/>
+      <c r="F205" s="24"/>
+      <c r="G205" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="H205" s="55"/>
+      <c r="I205" s="55"/>
+      <c r="J205" s="55"/>
+      <c r="K205" s="55"/>
+      <c r="L205" s="55"/>
+      <c r="M205" s="55"/>
+      <c r="N205" s="55"/>
+      <c r="O205" s="55"/>
+      <c r="P205" s="55"/>
+      <c r="Q205" s="55"/>
+      <c r="R205" s="55"/>
+      <c r="S205" s="55"/>
+      <c r="T205" s="55"/>
+      <c r="U205" s="55"/>
+      <c r="V205" s="55"/>
+      <c r="W205" s="55"/>
+      <c r="X205" s="55"/>
+      <c r="Y205" s="55"/>
+      <c r="Z205" s="55"/>
+      <c r="AA205" s="55"/>
+      <c r="AB205" s="55"/>
+      <c r="AC205" s="44"/>
+      <c r="AD205" s="44"/>
+      <c r="AE205" s="44"/>
+      <c r="AF205" s="44"/>
+      <c r="AG205" s="44"/>
+      <c r="AH205" s="44"/>
     </row>
     <row r="206" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C206" s="29"/>
       <c r="D206" s="29"/>
-      <c r="E206" s="29"/>
-      <c r="F206" s="29"/>
-      <c r="G206" s="29"/>
-      <c r="H206" s="29"/>
-      <c r="I206" s="29"/>
-      <c r="J206" s="29"/>
-      <c r="K206" s="29"/>
-      <c r="L206" s="29"/>
-      <c r="M206" s="29"/>
-      <c r="N206" s="29"/>
-      <c r="O206" s="29"/>
-      <c r="P206" s="29"/>
-      <c r="Q206" s="29"/>
-      <c r="R206" s="29"/>
-      <c r="S206" s="29"/>
-      <c r="T206" s="29"/>
-      <c r="U206" s="29"/>
-      <c r="V206" s="29"/>
-      <c r="W206" s="29"/>
-      <c r="X206" s="29"/>
-      <c r="Y206" s="29"/>
-      <c r="Z206" s="29"/>
-      <c r="AA206" s="29"/>
-      <c r="AB206" s="29"/>
-    </row>
-    <row r="207" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="29"/>
-      <c r="B207" s="29"/>
+      <c r="E206" s="74"/>
+      <c r="F206" s="24"/>
+      <c r="G206" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="H206" s="55"/>
+      <c r="I206" s="55"/>
+      <c r="J206" s="55"/>
+      <c r="K206" s="55"/>
+      <c r="L206" s="55"/>
+      <c r="M206" s="55"/>
+      <c r="N206" s="55"/>
+      <c r="O206" s="55"/>
+      <c r="P206" s="55"/>
+      <c r="Q206" s="55"/>
+      <c r="R206" s="55"/>
+      <c r="S206" s="55"/>
+      <c r="T206" s="55"/>
+      <c r="U206" s="55"/>
+      <c r="V206" s="55"/>
+      <c r="W206" s="55"/>
+      <c r="X206" s="55"/>
+      <c r="Y206" s="55"/>
+      <c r="Z206" s="55"/>
+      <c r="AA206" s="55"/>
+      <c r="AB206" s="55"/>
+      <c r="AC206" s="44"/>
+      <c r="AD206" s="44"/>
+      <c r="AE206" s="44"/>
+      <c r="AF206" s="44"/>
+      <c r="AG206" s="44"/>
+      <c r="AH206" s="44"/>
+    </row>
+    <row r="207" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C207" s="29"/>
-      <c r="D207" s="77" t="str">
-        <f>$C$7&amp;"9."</f>
-        <v>3.1.9.</v>
-      </c>
-      <c r="E207" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="D207" s="29"/>
+      <c r="E207" s="29"/>
       <c r="F207" s="29"/>
       <c r="G207" s="29"/>
       <c r="H207" s="29"/>
@@ -10038,26 +10070,19 @@
       <c r="Z207" s="29"/>
       <c r="AA207" s="29"/>
       <c r="AB207" s="29"/>
-      <c r="AC207" s="29"/>
-      <c r="AD207" s="29"/>
-      <c r="AE207" s="29"/>
-      <c r="AF207" s="29"/>
-      <c r="AG207" s="29"/>
-      <c r="AH207" s="29"/>
-      <c r="AI207" s="29"/>
     </row>
     <row r="208" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="29"/>
       <c r="B208" s="29"/>
       <c r="C208" s="29"/>
-      <c r="D208" s="29"/>
-      <c r="E208" s="24" t="str">
-        <f>D207&amp;"1."</f>
-        <v>3.1.9.1.</v>
-      </c>
-      <c r="F208" s="74" t="s">
-        <v>121</v>
-      </c>
+      <c r="D208" s="77" t="str">
+        <f>$C$7&amp;"9."</f>
+        <v>3.1.9.</v>
+      </c>
+      <c r="E208" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F208" s="29"/>
       <c r="G208" s="29"/>
       <c r="H208" s="29"/>
       <c r="I208" s="29"/>
@@ -10088,14 +10113,17 @@
       <c r="AH208" s="29"/>
       <c r="AI208" s="29"/>
     </row>
-    <row r="209" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="29"/>
       <c r="B209" s="29"/>
       <c r="C209" s="29"/>
       <c r="D209" s="29"/>
-      <c r="E209" s="24"/>
+      <c r="E209" s="24" t="str">
+        <f>D208&amp;"1."</f>
+        <v>3.1.9.1.</v>
+      </c>
       <c r="F209" s="74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G209" s="29"/>
       <c r="H209" s="29"/>
@@ -10127,13 +10155,15 @@
       <c r="AH209" s="29"/>
       <c r="AI209" s="29"/>
     </row>
-    <row r="210" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="29"/>
       <c r="B210" s="29"/>
       <c r="C210" s="29"/>
       <c r="D210" s="29"/>
-      <c r="E210" s="29"/>
-      <c r="F210" s="29"/>
+      <c r="E210" s="24"/>
+      <c r="F210" s="74" t="s">
+        <v>122</v>
+      </c>
       <c r="G210" s="29"/>
       <c r="H210" s="29"/>
       <c r="I210" s="29"/>
@@ -10164,18 +10194,14 @@
       <c r="AH210" s="29"/>
       <c r="AI210" s="29"/>
     </row>
-    <row r="211" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="29"/>
       <c r="B211" s="29"/>
       <c r="C211" s="29"/>
       <c r="D211" s="29"/>
       <c r="E211" s="29"/>
-      <c r="F211" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="G211" s="65" t="s">
-        <v>75</v>
-      </c>
+      <c r="F211" s="29"/>
+      <c r="G211" s="29"/>
       <c r="H211" s="29"/>
       <c r="I211" s="29"/>
       <c r="J211" s="29"/>
@@ -10211,9 +10237,11 @@
       <c r="C212" s="29"/>
       <c r="D212" s="29"/>
       <c r="E212" s="29"/>
-      <c r="F212" s="29"/>
+      <c r="F212" s="77" t="s">
+        <v>76</v>
+      </c>
       <c r="G212" s="65" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H212" s="29"/>
       <c r="I212" s="29"/>
@@ -10252,7 +10280,7 @@
       <c r="E213" s="29"/>
       <c r="F213" s="29"/>
       <c r="G213" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H213" s="29"/>
       <c r="I213" s="29"/>
@@ -10291,7 +10319,7 @@
       <c r="E214" s="29"/>
       <c r="F214" s="29"/>
       <c r="G214" s="65" t="s">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="H214" s="29"/>
       <c r="I214" s="29"/>
@@ -10329,8 +10357,8 @@
       <c r="D215" s="29"/>
       <c r="E215" s="29"/>
       <c r="F215" s="29"/>
-      <c r="G215" s="78" t="s">
-        <v>192</v>
+      <c r="G215" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="H215" s="29"/>
       <c r="I215" s="29"/>
@@ -10369,7 +10397,7 @@
       <c r="E216" s="29"/>
       <c r="F216" s="29"/>
       <c r="G216" s="78" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="H216" s="29"/>
       <c r="I216" s="29"/>
@@ -10400,14 +10428,16 @@
       <c r="AH216" s="29"/>
       <c r="AI216" s="29"/>
     </row>
-    <row r="217" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="29"/>
       <c r="B217" s="29"/>
       <c r="C217" s="29"/>
       <c r="D217" s="29"/>
       <c r="E217" s="29"/>
       <c r="F217" s="29"/>
-      <c r="G217" s="29"/>
+      <c r="G217" s="78" t="s">
+        <v>224</v>
+      </c>
       <c r="H217" s="29"/>
       <c r="I217" s="29"/>
       <c r="J217" s="29"/>
@@ -10443,12 +10473,8 @@
       <c r="C218" s="29"/>
       <c r="D218" s="29"/>
       <c r="E218" s="29"/>
-      <c r="F218" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="G218" s="29" t="s">
-        <v>85</v>
-      </c>
+      <c r="F218" s="29"/>
+      <c r="G218" s="29"/>
       <c r="H218" s="29"/>
       <c r="I218" s="29"/>
       <c r="J218" s="29"/>
@@ -10484,9 +10510,11 @@
       <c r="C219" s="29"/>
       <c r="D219" s="29"/>
       <c r="E219" s="29"/>
-      <c r="F219" s="29"/>
+      <c r="F219" s="77" t="s">
+        <v>43</v>
+      </c>
       <c r="G219" s="29" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H219" s="29"/>
       <c r="I219" s="29"/>
@@ -10525,7 +10553,7 @@
       <c r="E220" s="29"/>
       <c r="F220" s="29"/>
       <c r="G220" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H220" s="29"/>
       <c r="I220" s="29"/>
@@ -10564,7 +10592,7 @@
       <c r="E221" s="29"/>
       <c r="F221" s="29"/>
       <c r="G221" s="29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H221" s="29"/>
       <c r="I221" s="29"/>
@@ -10602,7 +10630,9 @@
       <c r="D222" s="29"/>
       <c r="E222" s="29"/>
       <c r="F222" s="29"/>
-      <c r="G222" s="29"/>
+      <c r="G222" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="H222" s="29"/>
       <c r="I222" s="29"/>
       <c r="J222" s="29"/>
@@ -10639,9 +10669,7 @@
       <c r="D223" s="29"/>
       <c r="E223" s="29"/>
       <c r="F223" s="29"/>
-      <c r="G223" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="G223" s="29"/>
       <c r="H223" s="29"/>
       <c r="I223" s="29"/>
       <c r="J223" s="29"/>
@@ -10671,45 +10699,43 @@
       <c r="AH223" s="29"/>
       <c r="AI223" s="29"/>
     </row>
-    <row r="224" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="29"/>
       <c r="B224" s="29"/>
       <c r="C224" s="29"/>
       <c r="D224" s="29"/>
       <c r="E224" s="29"/>
       <c r="F224" s="29"/>
-      <c r="G224" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H224" s="38"/>
-      <c r="I224" s="38"/>
-      <c r="J224" s="38"/>
-      <c r="K224" s="38"/>
-      <c r="L224" s="38"/>
-      <c r="M224" s="38"/>
-      <c r="N224" s="38"/>
-      <c r="O224" s="38"/>
-      <c r="P224" s="37"/>
-      <c r="Q224" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="R224" s="38"/>
-      <c r="S224" s="38"/>
-      <c r="T224" s="38"/>
-      <c r="U224" s="38"/>
-      <c r="V224" s="38"/>
-      <c r="W224" s="38"/>
-      <c r="X224" s="38"/>
-      <c r="Y224" s="38"/>
-      <c r="Z224" s="38"/>
-      <c r="AA224" s="38"/>
-      <c r="AB224" s="38"/>
-      <c r="AC224" s="38"/>
-      <c r="AD224" s="38"/>
-      <c r="AE224" s="38"/>
-      <c r="AF224" s="38"/>
-      <c r="AG224" s="38"/>
-      <c r="AH224" s="37"/>
+      <c r="G224" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H224" s="29"/>
+      <c r="I224" s="29"/>
+      <c r="J224" s="29"/>
+      <c r="K224" s="29"/>
+      <c r="L224" s="29"/>
+      <c r="M224" s="29"/>
+      <c r="N224" s="29"/>
+      <c r="O224" s="29"/>
+      <c r="P224" s="29"/>
+      <c r="Q224" s="29"/>
+      <c r="R224" s="29"/>
+      <c r="S224" s="29"/>
+      <c r="T224" s="29"/>
+      <c r="U224" s="29"/>
+      <c r="V224" s="29"/>
+      <c r="W224" s="29"/>
+      <c r="X224" s="29"/>
+      <c r="Y224" s="29"/>
+      <c r="Z224" s="29"/>
+      <c r="AA224" s="29"/>
+      <c r="AB224" s="29"/>
+      <c r="AC224" s="29"/>
+      <c r="AD224" s="29"/>
+      <c r="AE224" s="29"/>
+      <c r="AF224" s="29"/>
+      <c r="AG224" s="29"/>
+      <c r="AH224" s="29"/>
       <c r="AI224" s="29"/>
     </row>
     <row r="225" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10719,38 +10745,38 @@
       <c r="D225" s="29"/>
       <c r="E225" s="29"/>
       <c r="F225" s="29"/>
-      <c r="G225" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="H225" s="55"/>
-      <c r="I225" s="55"/>
-      <c r="J225" s="55"/>
-      <c r="K225" s="55"/>
-      <c r="L225" s="55"/>
-      <c r="M225" s="55"/>
-      <c r="N225" s="55"/>
-      <c r="O225" s="55"/>
-      <c r="P225" s="31"/>
-      <c r="Q225" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="R225" s="55"/>
-      <c r="S225" s="55"/>
-      <c r="T225" s="55"/>
-      <c r="U225" s="55"/>
-      <c r="V225" s="55"/>
-      <c r="W225" s="55"/>
-      <c r="X225" s="55"/>
-      <c r="Y225" s="55"/>
-      <c r="Z225" s="55"/>
-      <c r="AA225" s="55"/>
-      <c r="AB225" s="55"/>
-      <c r="AC225" s="55"/>
-      <c r="AD225" s="55"/>
-      <c r="AE225" s="55"/>
-      <c r="AF225" s="55"/>
-      <c r="AG225" s="55"/>
-      <c r="AH225" s="31"/>
+      <c r="G225" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H225" s="38"/>
+      <c r="I225" s="38"/>
+      <c r="J225" s="38"/>
+      <c r="K225" s="38"/>
+      <c r="L225" s="38"/>
+      <c r="M225" s="38"/>
+      <c r="N225" s="38"/>
+      <c r="O225" s="38"/>
+      <c r="P225" s="37"/>
+      <c r="Q225" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="R225" s="38"/>
+      <c r="S225" s="38"/>
+      <c r="T225" s="38"/>
+      <c r="U225" s="38"/>
+      <c r="V225" s="38"/>
+      <c r="W225" s="38"/>
+      <c r="X225" s="38"/>
+      <c r="Y225" s="38"/>
+      <c r="Z225" s="38"/>
+      <c r="AA225" s="38"/>
+      <c r="AB225" s="38"/>
+      <c r="AC225" s="38"/>
+      <c r="AD225" s="38"/>
+      <c r="AE225" s="38"/>
+      <c r="AF225" s="38"/>
+      <c r="AG225" s="38"/>
+      <c r="AH225" s="37"/>
       <c r="AI225" s="29"/>
     </row>
     <row r="226" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10760,36 +10786,38 @@
       <c r="D226" s="29"/>
       <c r="E226" s="29"/>
       <c r="F226" s="29"/>
-      <c r="G226" s="32"/>
-      <c r="H226" s="33"/>
-      <c r="I226" s="33"/>
-      <c r="J226" s="33"/>
-      <c r="K226" s="33"/>
-      <c r="L226" s="33"/>
-      <c r="M226" s="33"/>
-      <c r="N226" s="33"/>
-      <c r="O226" s="33"/>
-      <c r="P226" s="34"/>
-      <c r="Q226" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="R226" s="33"/>
-      <c r="S226" s="33"/>
-      <c r="T226" s="33"/>
-      <c r="U226" s="33"/>
-      <c r="V226" s="33"/>
-      <c r="W226" s="33"/>
-      <c r="X226" s="33"/>
-      <c r="Y226" s="33"/>
-      <c r="Z226" s="33"/>
-      <c r="AA226" s="33"/>
-      <c r="AB226" s="33"/>
-      <c r="AC226" s="33"/>
-      <c r="AD226" s="33"/>
-      <c r="AE226" s="33"/>
-      <c r="AF226" s="33"/>
-      <c r="AG226" s="33"/>
-      <c r="AH226" s="34"/>
+      <c r="G226" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H226" s="55"/>
+      <c r="I226" s="55"/>
+      <c r="J226" s="55"/>
+      <c r="K226" s="55"/>
+      <c r="L226" s="55"/>
+      <c r="M226" s="55"/>
+      <c r="N226" s="55"/>
+      <c r="O226" s="55"/>
+      <c r="P226" s="31"/>
+      <c r="Q226" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="R226" s="55"/>
+      <c r="S226" s="55"/>
+      <c r="T226" s="55"/>
+      <c r="U226" s="55"/>
+      <c r="V226" s="55"/>
+      <c r="W226" s="55"/>
+      <c r="X226" s="55"/>
+      <c r="Y226" s="55"/>
+      <c r="Z226" s="55"/>
+      <c r="AA226" s="55"/>
+      <c r="AB226" s="55"/>
+      <c r="AC226" s="55"/>
+      <c r="AD226" s="55"/>
+      <c r="AE226" s="55"/>
+      <c r="AF226" s="55"/>
+      <c r="AG226" s="55"/>
+      <c r="AH226" s="31"/>
       <c r="AI226" s="29"/>
     </row>
     <row r="227" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10799,38 +10827,36 @@
       <c r="D227" s="29"/>
       <c r="E227" s="29"/>
       <c r="F227" s="29"/>
-      <c r="G227" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="H227" s="55"/>
-      <c r="I227" s="55"/>
-      <c r="J227" s="55"/>
-      <c r="K227" s="55"/>
-      <c r="L227" s="55"/>
-      <c r="M227" s="55"/>
-      <c r="N227" s="55"/>
-      <c r="O227" s="55"/>
-      <c r="P227" s="31"/>
-      <c r="Q227" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="R227" s="55"/>
-      <c r="S227" s="55"/>
-      <c r="T227" s="55"/>
-      <c r="U227" s="55"/>
-      <c r="V227" s="55"/>
-      <c r="W227" s="55"/>
-      <c r="X227" s="55"/>
-      <c r="Y227" s="55"/>
-      <c r="Z227" s="55"/>
-      <c r="AA227" s="55"/>
-      <c r="AB227" s="55"/>
-      <c r="AC227" s="55"/>
-      <c r="AD227" s="55"/>
-      <c r="AE227" s="55"/>
-      <c r="AF227" s="55"/>
-      <c r="AG227" s="55"/>
-      <c r="AH227" s="31"/>
+      <c r="G227" s="32"/>
+      <c r="H227" s="33"/>
+      <c r="I227" s="33"/>
+      <c r="J227" s="33"/>
+      <c r="K227" s="33"/>
+      <c r="L227" s="33"/>
+      <c r="M227" s="33"/>
+      <c r="N227" s="33"/>
+      <c r="O227" s="33"/>
+      <c r="P227" s="34"/>
+      <c r="Q227" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="R227" s="33"/>
+      <c r="S227" s="33"/>
+      <c r="T227" s="33"/>
+      <c r="U227" s="33"/>
+      <c r="V227" s="33"/>
+      <c r="W227" s="33"/>
+      <c r="X227" s="33"/>
+      <c r="Y227" s="33"/>
+      <c r="Z227" s="33"/>
+      <c r="AA227" s="33"/>
+      <c r="AB227" s="33"/>
+      <c r="AC227" s="33"/>
+      <c r="AD227" s="33"/>
+      <c r="AE227" s="33"/>
+      <c r="AF227" s="33"/>
+      <c r="AG227" s="33"/>
+      <c r="AH227" s="34"/>
       <c r="AI227" s="29"/>
     </row>
     <row r="228" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10840,7 +10866,9 @@
       <c r="D228" s="29"/>
       <c r="E228" s="29"/>
       <c r="F228" s="29"/>
-      <c r="G228" s="30"/>
+      <c r="G228" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="H228" s="55"/>
       <c r="I228" s="55"/>
       <c r="J228" s="55"/>
@@ -10851,7 +10879,7 @@
       <c r="O228" s="55"/>
       <c r="P228" s="31"/>
       <c r="Q228" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R228" s="55"/>
       <c r="S228" s="55"/>
@@ -10879,36 +10907,36 @@
       <c r="D229" s="29"/>
       <c r="E229" s="29"/>
       <c r="F229" s="29"/>
-      <c r="G229" s="32"/>
-      <c r="H229" s="33"/>
-      <c r="I229" s="33"/>
-      <c r="J229" s="33"/>
-      <c r="K229" s="33"/>
-      <c r="L229" s="33"/>
-      <c r="M229" s="33"/>
-      <c r="N229" s="33"/>
-      <c r="O229" s="33"/>
-      <c r="P229" s="34"/>
-      <c r="Q229" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="R229" s="33"/>
-      <c r="S229" s="33"/>
-      <c r="T229" s="33"/>
-      <c r="U229" s="33"/>
-      <c r="V229" s="33"/>
-      <c r="W229" s="33"/>
-      <c r="X229" s="33"/>
-      <c r="Y229" s="33"/>
-      <c r="Z229" s="33"/>
-      <c r="AA229" s="33"/>
-      <c r="AB229" s="33"/>
-      <c r="AC229" s="33"/>
-      <c r="AD229" s="33"/>
-      <c r="AE229" s="33"/>
-      <c r="AF229" s="33"/>
-      <c r="AG229" s="33"/>
-      <c r="AH229" s="34"/>
+      <c r="G229" s="30"/>
+      <c r="H229" s="55"/>
+      <c r="I229" s="55"/>
+      <c r="J229" s="55"/>
+      <c r="K229" s="55"/>
+      <c r="L229" s="55"/>
+      <c r="M229" s="55"/>
+      <c r="N229" s="55"/>
+      <c r="O229" s="55"/>
+      <c r="P229" s="31"/>
+      <c r="Q229" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="R229" s="55"/>
+      <c r="S229" s="55"/>
+      <c r="T229" s="55"/>
+      <c r="U229" s="55"/>
+      <c r="V229" s="55"/>
+      <c r="W229" s="55"/>
+      <c r="X229" s="55"/>
+      <c r="Y229" s="55"/>
+      <c r="Z229" s="55"/>
+      <c r="AA229" s="55"/>
+      <c r="AB229" s="55"/>
+      <c r="AC229" s="55"/>
+      <c r="AD229" s="55"/>
+      <c r="AE229" s="55"/>
+      <c r="AF229" s="55"/>
+      <c r="AG229" s="55"/>
+      <c r="AH229" s="31"/>
       <c r="AI229" s="29"/>
     </row>
     <row r="230" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10918,34 +10946,36 @@
       <c r="D230" s="29"/>
       <c r="E230" s="29"/>
       <c r="F230" s="29"/>
-      <c r="G230" s="55"/>
-      <c r="H230" s="55"/>
-      <c r="I230" s="55"/>
-      <c r="J230" s="55"/>
-      <c r="K230" s="55"/>
-      <c r="L230" s="55"/>
-      <c r="M230" s="55"/>
-      <c r="N230" s="55"/>
-      <c r="O230" s="55"/>
-      <c r="P230" s="55"/>
-      <c r="Q230" s="55"/>
-      <c r="R230" s="55"/>
-      <c r="S230" s="55"/>
-      <c r="T230" s="55"/>
-      <c r="U230" s="55"/>
-      <c r="V230" s="55"/>
-      <c r="W230" s="55"/>
-      <c r="X230" s="55"/>
-      <c r="Y230" s="55"/>
-      <c r="Z230" s="55"/>
-      <c r="AA230" s="55"/>
-      <c r="AB230" s="55"/>
-      <c r="AC230" s="55"/>
-      <c r="AD230" s="55"/>
-      <c r="AE230" s="55"/>
-      <c r="AF230" s="55"/>
-      <c r="AG230" s="55"/>
-      <c r="AH230" s="55"/>
+      <c r="G230" s="32"/>
+      <c r="H230" s="33"/>
+      <c r="I230" s="33"/>
+      <c r="J230" s="33"/>
+      <c r="K230" s="33"/>
+      <c r="L230" s="33"/>
+      <c r="M230" s="33"/>
+      <c r="N230" s="33"/>
+      <c r="O230" s="33"/>
+      <c r="P230" s="34"/>
+      <c r="Q230" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="R230" s="33"/>
+      <c r="S230" s="33"/>
+      <c r="T230" s="33"/>
+      <c r="U230" s="33"/>
+      <c r="V230" s="33"/>
+      <c r="W230" s="33"/>
+      <c r="X230" s="33"/>
+      <c r="Y230" s="33"/>
+      <c r="Z230" s="33"/>
+      <c r="AA230" s="33"/>
+      <c r="AB230" s="33"/>
+      <c r="AC230" s="33"/>
+      <c r="AD230" s="33"/>
+      <c r="AE230" s="33"/>
+      <c r="AF230" s="33"/>
+      <c r="AG230" s="33"/>
+      <c r="AH230" s="34"/>
       <c r="AI230" s="29"/>
     </row>
     <row r="231" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10955,9 +10985,7 @@
       <c r="D231" s="29"/>
       <c r="E231" s="29"/>
       <c r="F231" s="29"/>
-      <c r="G231" s="55" t="s">
-        <v>242</v>
-      </c>
+      <c r="G231" s="55"/>
       <c r="H231" s="55"/>
       <c r="I231" s="55"/>
       <c r="J231" s="55"/>
@@ -10994,7 +11022,9 @@
       <c r="D232" s="29"/>
       <c r="E232" s="29"/>
       <c r="F232" s="29"/>
-      <c r="G232" s="55"/>
+      <c r="G232" s="55" t="s">
+        <v>239</v>
+      </c>
       <c r="H232" s="55"/>
       <c r="I232" s="55"/>
       <c r="J232" s="55"/>
@@ -11031,9 +11061,7 @@
       <c r="D233" s="29"/>
       <c r="E233" s="29"/>
       <c r="F233" s="29"/>
-      <c r="G233" s="55" t="s">
-        <v>244</v>
-      </c>
+      <c r="G233" s="55"/>
       <c r="H233" s="55"/>
       <c r="I233" s="55"/>
       <c r="J233" s="55"/>
@@ -11071,7 +11099,7 @@
       <c r="E234" s="29"/>
       <c r="F234" s="29"/>
       <c r="G234" s="55" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H234" s="55"/>
       <c r="I234" s="55"/>
@@ -11109,7 +11137,9 @@
       <c r="D235" s="29"/>
       <c r="E235" s="29"/>
       <c r="F235" s="29"/>
-      <c r="G235" s="55"/>
+      <c r="G235" s="55" t="s">
+        <v>246</v>
+      </c>
       <c r="H235" s="55"/>
       <c r="I235" s="55"/>
       <c r="J235" s="55"/>
@@ -11146,9 +11176,7 @@
       <c r="D236" s="29"/>
       <c r="E236" s="29"/>
       <c r="F236" s="29"/>
-      <c r="G236" s="55" t="s">
-        <v>245</v>
-      </c>
+      <c r="G236" s="55"/>
       <c r="H236" s="55"/>
       <c r="I236" s="55"/>
       <c r="J236" s="55"/>
@@ -11186,7 +11214,7 @@
       <c r="E237" s="29"/>
       <c r="F237" s="29"/>
       <c r="G237" s="55" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H237" s="55"/>
       <c r="I237" s="55"/>
@@ -11225,7 +11253,7 @@
       <c r="E238" s="29"/>
       <c r="F238" s="29"/>
       <c r="G238" s="55" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H238" s="55"/>
       <c r="I238" s="55"/>
@@ -11264,7 +11292,7 @@
       <c r="E239" s="29"/>
       <c r="F239" s="29"/>
       <c r="G239" s="55" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H239" s="55"/>
       <c r="I239" s="55"/>
@@ -11302,48 +11330,45 @@
       <c r="D240" s="29"/>
       <c r="E240" s="29"/>
       <c r="F240" s="29"/>
-      <c r="G240" s="29"/>
-      <c r="H240" s="29"/>
-      <c r="I240" s="29"/>
-      <c r="J240" s="29"/>
-      <c r="K240" s="29"/>
-      <c r="L240" s="29"/>
-      <c r="M240" s="29"/>
-      <c r="N240" s="29"/>
-      <c r="O240" s="29"/>
-      <c r="P240" s="29"/>
-      <c r="Q240" s="29"/>
-      <c r="R240" s="29"/>
-      <c r="S240" s="29"/>
-      <c r="T240" s="29"/>
-      <c r="U240" s="29"/>
-      <c r="V240" s="29"/>
-      <c r="W240" s="29"/>
-      <c r="X240" s="29"/>
-      <c r="Y240" s="29"/>
-      <c r="Z240" s="29"/>
-      <c r="AA240" s="29"/>
-      <c r="AB240" s="29"/>
-      <c r="AC240" s="29"/>
-      <c r="AD240" s="29"/>
-      <c r="AE240" s="29"/>
-      <c r="AF240" s="29"/>
-      <c r="AG240" s="29"/>
-      <c r="AH240" s="29"/>
+      <c r="G240" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="H240" s="55"/>
+      <c r="I240" s="55"/>
+      <c r="J240" s="55"/>
+      <c r="K240" s="55"/>
+      <c r="L240" s="55"/>
+      <c r="M240" s="55"/>
+      <c r="N240" s="55"/>
+      <c r="O240" s="55"/>
+      <c r="P240" s="55"/>
+      <c r="Q240" s="55"/>
+      <c r="R240" s="55"/>
+      <c r="S240" s="55"/>
+      <c r="T240" s="55"/>
+      <c r="U240" s="55"/>
+      <c r="V240" s="55"/>
+      <c r="W240" s="55"/>
+      <c r="X240" s="55"/>
+      <c r="Y240" s="55"/>
+      <c r="Z240" s="55"/>
+      <c r="AA240" s="55"/>
+      <c r="AB240" s="55"/>
+      <c r="AC240" s="55"/>
+      <c r="AD240" s="55"/>
+      <c r="AE240" s="55"/>
+      <c r="AF240" s="55"/>
+      <c r="AG240" s="55"/>
+      <c r="AH240" s="55"/>
       <c r="AI240" s="29"/>
     </row>
-    <row r="241" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
       <c r="C241" s="29"/>
       <c r="D241" s="29"/>
-      <c r="E241" s="24" t="str">
-        <f>D207&amp;"2."</f>
-        <v>3.1.9.2.</v>
-      </c>
-      <c r="F241" s="29" t="s">
-        <v>88</v>
-      </c>
+      <c r="E241" s="29"/>
+      <c r="F241" s="29"/>
       <c r="G241" s="29"/>
       <c r="H241" s="29"/>
       <c r="I241" s="29"/>
@@ -11374,14 +11399,17 @@
       <c r="AH241" s="29"/>
       <c r="AI241" s="29"/>
     </row>
-    <row r="242" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="29"/>
       <c r="B242" s="29"/>
       <c r="C242" s="29"/>
       <c r="D242" s="29"/>
-      <c r="E242" s="24"/>
+      <c r="E242" s="24" t="str">
+        <f>D208&amp;"2."</f>
+        <v>3.1.9.2.</v>
+      </c>
       <c r="F242" s="29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G242" s="29"/>
       <c r="H242" s="29"/>
@@ -11419,7 +11447,9 @@
       <c r="C243" s="29"/>
       <c r="D243" s="29"/>
       <c r="E243" s="24"/>
-      <c r="F243" s="29"/>
+      <c r="F243" s="29" t="s">
+        <v>86</v>
+      </c>
       <c r="G243" s="29"/>
       <c r="H243" s="29"/>
       <c r="I243" s="29"/>
@@ -11455,13 +11485,9 @@
       <c r="B244" s="29"/>
       <c r="C244" s="29"/>
       <c r="D244" s="29"/>
-      <c r="E244" s="29"/>
-      <c r="F244" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G244" s="29" t="s">
-        <v>89</v>
-      </c>
+      <c r="E244" s="24"/>
+      <c r="F244" s="29"/>
+      <c r="G244" s="29"/>
       <c r="H244" s="29"/>
       <c r="I244" s="29"/>
       <c r="J244" s="29"/>
@@ -11497,9 +11523,11 @@
       <c r="C245" s="29"/>
       <c r="D245" s="29"/>
       <c r="E245" s="29"/>
-      <c r="F245" s="24"/>
+      <c r="F245" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="G245" s="29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H245" s="29"/>
       <c r="I245" s="29"/>
@@ -11537,40 +11565,36 @@
       <c r="D246" s="29"/>
       <c r="E246" s="29"/>
       <c r="F246" s="24"/>
-      <c r="G246" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="H246" s="38"/>
-      <c r="I246" s="38"/>
-      <c r="J246" s="38"/>
-      <c r="K246" s="37"/>
-      <c r="L246" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="M246" s="38"/>
-      <c r="N246" s="38"/>
-      <c r="O246" s="38"/>
-      <c r="P246" s="38"/>
-      <c r="Q246" s="38"/>
-      <c r="R246" s="38"/>
-      <c r="S246" s="38"/>
-      <c r="T246" s="38"/>
-      <c r="U246" s="38"/>
-      <c r="V246" s="38"/>
-      <c r="W246" s="38"/>
-      <c r="X246" s="38"/>
-      <c r="Y246" s="38"/>
-      <c r="Z246" s="38"/>
-      <c r="AA246" s="38"/>
-      <c r="AB246" s="37"/>
-      <c r="AC246" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD246" s="38"/>
-      <c r="AE246" s="38"/>
-      <c r="AF246" s="38"/>
-      <c r="AG246" s="38"/>
-      <c r="AH246" s="37"/>
+      <c r="G246" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H246" s="29"/>
+      <c r="I246" s="29"/>
+      <c r="J246" s="29"/>
+      <c r="K246" s="29"/>
+      <c r="L246" s="29"/>
+      <c r="M246" s="29"/>
+      <c r="N246" s="29"/>
+      <c r="O246" s="29"/>
+      <c r="P246" s="29"/>
+      <c r="Q246" s="29"/>
+      <c r="R246" s="29"/>
+      <c r="S246" s="29"/>
+      <c r="T246" s="29"/>
+      <c r="U246" s="29"/>
+      <c r="V246" s="29"/>
+      <c r="W246" s="29"/>
+      <c r="X246" s="29"/>
+      <c r="Y246" s="29"/>
+      <c r="Z246" s="29"/>
+      <c r="AA246" s="29"/>
+      <c r="AB246" s="29"/>
+      <c r="AC246" s="29"/>
+      <c r="AD246" s="29"/>
+      <c r="AE246" s="29"/>
+      <c r="AF246" s="29"/>
+      <c r="AG246" s="29"/>
+      <c r="AH246" s="29"/>
       <c r="AI246" s="29"/>
     </row>
     <row r="247" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11580,40 +11604,40 @@
       <c r="D247" s="29"/>
       <c r="E247" s="29"/>
       <c r="F247" s="24"/>
-      <c r="G247" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H247" s="55"/>
-      <c r="I247" s="55"/>
-      <c r="J247" s="55"/>
-      <c r="K247" s="31"/>
-      <c r="L247" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M247" s="26"/>
-      <c r="N247" s="26"/>
-      <c r="O247" s="26"/>
-      <c r="P247" s="26"/>
-      <c r="Q247" s="26"/>
-      <c r="R247" s="26"/>
-      <c r="S247" s="26"/>
-      <c r="T247" s="26"/>
-      <c r="U247" s="26"/>
-      <c r="V247" s="26"/>
-      <c r="W247" s="26"/>
-      <c r="X247" s="26"/>
-      <c r="Y247" s="26"/>
-      <c r="Z247" s="26"/>
-      <c r="AA247" s="26"/>
-      <c r="AB247" s="71"/>
-      <c r="AC247" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD247" s="26"/>
-      <c r="AE247" s="26"/>
-      <c r="AF247" s="26"/>
-      <c r="AG247" s="26"/>
-      <c r="AH247" s="71"/>
+      <c r="G247" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H247" s="38"/>
+      <c r="I247" s="38"/>
+      <c r="J247" s="38"/>
+      <c r="K247" s="37"/>
+      <c r="L247" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="M247" s="38"/>
+      <c r="N247" s="38"/>
+      <c r="O247" s="38"/>
+      <c r="P247" s="38"/>
+      <c r="Q247" s="38"/>
+      <c r="R247" s="38"/>
+      <c r="S247" s="38"/>
+      <c r="T247" s="38"/>
+      <c r="U247" s="38"/>
+      <c r="V247" s="38"/>
+      <c r="W247" s="38"/>
+      <c r="X247" s="38"/>
+      <c r="Y247" s="38"/>
+      <c r="Z247" s="38"/>
+      <c r="AA247" s="38"/>
+      <c r="AB247" s="37"/>
+      <c r="AC247" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD247" s="38"/>
+      <c r="AE247" s="38"/>
+      <c r="AF247" s="38"/>
+      <c r="AG247" s="38"/>
+      <c r="AH247" s="37"/>
       <c r="AI247" s="29"/>
     </row>
     <row r="248" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11623,15 +11647,15 @@
       <c r="D248" s="29"/>
       <c r="E248" s="29"/>
       <c r="F248" s="24"/>
-      <c r="G248" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="H248" s="57"/>
-      <c r="I248" s="57"/>
-      <c r="J248" s="57"/>
-      <c r="K248" s="58"/>
+      <c r="G248" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H248" s="55"/>
+      <c r="I248" s="55"/>
+      <c r="J248" s="55"/>
+      <c r="K248" s="31"/>
       <c r="L248" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M248" s="26"/>
       <c r="N248" s="26"/>
@@ -11649,7 +11673,9 @@
       <c r="Z248" s="26"/>
       <c r="AA248" s="26"/>
       <c r="AB248" s="71"/>
-      <c r="AC248" s="26"/>
+      <c r="AC248" s="26" t="s">
+        <v>209</v>
+      </c>
       <c r="AD248" s="26"/>
       <c r="AE248" s="26"/>
       <c r="AF248" s="26"/>
@@ -11664,14 +11690,16 @@
       <c r="D249" s="29"/>
       <c r="E249" s="29"/>
       <c r="F249" s="24"/>
-      <c r="G249" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="H249" s="55"/>
-      <c r="I249" s="55"/>
-      <c r="J249" s="55"/>
-      <c r="K249" s="31"/>
-      <c r="L249" s="92"/>
+      <c r="G249" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H249" s="57"/>
+      <c r="I249" s="57"/>
+      <c r="J249" s="57"/>
+      <c r="K249" s="58"/>
+      <c r="L249" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="M249" s="26"/>
       <c r="N249" s="26"/>
       <c r="O249" s="26"/>
@@ -11703,36 +11731,36 @@
       <c r="D250" s="29"/>
       <c r="E250" s="29"/>
       <c r="F250" s="24"/>
-      <c r="G250" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="H250" s="33"/>
-      <c r="I250" s="33"/>
-      <c r="J250" s="33"/>
-      <c r="K250" s="34"/>
-      <c r="L250" s="76"/>
-      <c r="M250" s="76"/>
-      <c r="N250" s="76"/>
-      <c r="O250" s="76"/>
-      <c r="P250" s="76"/>
-      <c r="Q250" s="76"/>
-      <c r="R250" s="76"/>
-      <c r="S250" s="76"/>
-      <c r="T250" s="76"/>
-      <c r="U250" s="76"/>
-      <c r="V250" s="76"/>
-      <c r="W250" s="76"/>
-      <c r="X250" s="76"/>
-      <c r="Y250" s="76"/>
-      <c r="Z250" s="76"/>
-      <c r="AA250" s="76"/>
-      <c r="AB250" s="90"/>
-      <c r="AC250" s="76"/>
-      <c r="AD250" s="76"/>
-      <c r="AE250" s="76"/>
-      <c r="AF250" s="76"/>
-      <c r="AG250" s="76"/>
-      <c r="AH250" s="90"/>
+      <c r="G250" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="H250" s="55"/>
+      <c r="I250" s="55"/>
+      <c r="J250" s="55"/>
+      <c r="K250" s="31"/>
+      <c r="L250" s="92"/>
+      <c r="M250" s="26"/>
+      <c r="N250" s="26"/>
+      <c r="O250" s="26"/>
+      <c r="P250" s="26"/>
+      <c r="Q250" s="26"/>
+      <c r="R250" s="26"/>
+      <c r="S250" s="26"/>
+      <c r="T250" s="26"/>
+      <c r="U250" s="26"/>
+      <c r="V250" s="26"/>
+      <c r="W250" s="26"/>
+      <c r="X250" s="26"/>
+      <c r="Y250" s="26"/>
+      <c r="Z250" s="26"/>
+      <c r="AA250" s="26"/>
+      <c r="AB250" s="71"/>
+      <c r="AC250" s="26"/>
+      <c r="AD250" s="26"/>
+      <c r="AE250" s="26"/>
+      <c r="AF250" s="26"/>
+      <c r="AG250" s="26"/>
+      <c r="AH250" s="71"/>
       <c r="AI250" s="29"/>
     </row>
     <row r="251" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11742,40 +11770,36 @@
       <c r="D251" s="29"/>
       <c r="E251" s="29"/>
       <c r="F251" s="24"/>
-      <c r="G251" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H251" s="55"/>
-      <c r="I251" s="55"/>
-      <c r="J251" s="55"/>
-      <c r="K251" s="31"/>
-      <c r="L251" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="M251" s="26"/>
-      <c r="N251" s="26"/>
-      <c r="O251" s="26"/>
-      <c r="P251" s="26"/>
-      <c r="Q251" s="26"/>
-      <c r="R251" s="26"/>
-      <c r="S251" s="26"/>
-      <c r="T251" s="26"/>
-      <c r="U251" s="26"/>
-      <c r="V251" s="26"/>
-      <c r="W251" s="26"/>
-      <c r="X251" s="26"/>
-      <c r="Y251" s="26"/>
-      <c r="Z251" s="26"/>
-      <c r="AA251" s="26"/>
-      <c r="AB251" s="71"/>
-      <c r="AC251" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD251" s="26"/>
-      <c r="AE251" s="26"/>
-      <c r="AF251" s="26"/>
-      <c r="AG251" s="26"/>
-      <c r="AH251" s="71"/>
+      <c r="G251" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="H251" s="33"/>
+      <c r="I251" s="33"/>
+      <c r="J251" s="33"/>
+      <c r="K251" s="34"/>
+      <c r="L251" s="76"/>
+      <c r="M251" s="76"/>
+      <c r="N251" s="76"/>
+      <c r="O251" s="76"/>
+      <c r="P251" s="76"/>
+      <c r="Q251" s="76"/>
+      <c r="R251" s="76"/>
+      <c r="S251" s="76"/>
+      <c r="T251" s="76"/>
+      <c r="U251" s="76"/>
+      <c r="V251" s="76"/>
+      <c r="W251" s="76"/>
+      <c r="X251" s="76"/>
+      <c r="Y251" s="76"/>
+      <c r="Z251" s="76"/>
+      <c r="AA251" s="76"/>
+      <c r="AB251" s="90"/>
+      <c r="AC251" s="76"/>
+      <c r="AD251" s="76"/>
+      <c r="AE251" s="76"/>
+      <c r="AF251" s="76"/>
+      <c r="AG251" s="76"/>
+      <c r="AH251" s="90"/>
       <c r="AI251" s="29"/>
     </row>
     <row r="252" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11785,13 +11809,15 @@
       <c r="D252" s="29"/>
       <c r="E252" s="29"/>
       <c r="F252" s="24"/>
-      <c r="G252" s="30"/>
+      <c r="G252" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="H252" s="55"/>
       <c r="I252" s="55"/>
       <c r="J252" s="55"/>
       <c r="K252" s="31"/>
       <c r="L252" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M252" s="26"/>
       <c r="N252" s="26"/>
@@ -11810,7 +11836,7 @@
       <c r="AA252" s="26"/>
       <c r="AB252" s="71"/>
       <c r="AC252" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AD252" s="26"/>
       <c r="AE252" s="26"/>
@@ -11832,7 +11858,7 @@
       <c r="J253" s="55"/>
       <c r="K253" s="31"/>
       <c r="L253" s="26" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="M253" s="26"/>
       <c r="N253" s="26"/>
@@ -11850,7 +11876,9 @@
       <c r="Z253" s="26"/>
       <c r="AA253" s="26"/>
       <c r="AB253" s="71"/>
-      <c r="AC253" s="26"/>
+      <c r="AC253" s="26" t="s">
+        <v>211</v>
+      </c>
       <c r="AD253" s="26"/>
       <c r="AE253" s="26"/>
       <c r="AF253" s="26"/>
@@ -11865,34 +11893,36 @@
       <c r="D254" s="29"/>
       <c r="E254" s="29"/>
       <c r="F254" s="24"/>
-      <c r="G254" s="32"/>
-      <c r="H254" s="33"/>
-      <c r="I254" s="33"/>
-      <c r="J254" s="33"/>
-      <c r="K254" s="34"/>
-      <c r="L254" s="76"/>
-      <c r="M254" s="76"/>
-      <c r="N254" s="76"/>
-      <c r="O254" s="76"/>
-      <c r="P254" s="76"/>
-      <c r="Q254" s="76"/>
-      <c r="R254" s="76"/>
-      <c r="S254" s="76"/>
-      <c r="T254" s="76"/>
-      <c r="U254" s="76"/>
-      <c r="V254" s="76"/>
-      <c r="W254" s="76"/>
-      <c r="X254" s="76"/>
-      <c r="Y254" s="76"/>
-      <c r="Z254" s="76"/>
-      <c r="AA254" s="76"/>
-      <c r="AB254" s="90"/>
-      <c r="AC254" s="76"/>
-      <c r="AD254" s="76"/>
-      <c r="AE254" s="76"/>
-      <c r="AF254" s="76"/>
-      <c r="AG254" s="76"/>
-      <c r="AH254" s="90"/>
+      <c r="G254" s="30"/>
+      <c r="H254" s="55"/>
+      <c r="I254" s="55"/>
+      <c r="J254" s="55"/>
+      <c r="K254" s="31"/>
+      <c r="L254" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="M254" s="26"/>
+      <c r="N254" s="26"/>
+      <c r="O254" s="26"/>
+      <c r="P254" s="26"/>
+      <c r="Q254" s="26"/>
+      <c r="R254" s="26"/>
+      <c r="S254" s="26"/>
+      <c r="T254" s="26"/>
+      <c r="U254" s="26"/>
+      <c r="V254" s="26"/>
+      <c r="W254" s="26"/>
+      <c r="X254" s="26"/>
+      <c r="Y254" s="26"/>
+      <c r="Z254" s="26"/>
+      <c r="AA254" s="26"/>
+      <c r="AB254" s="71"/>
+      <c r="AC254" s="26"/>
+      <c r="AD254" s="26"/>
+      <c r="AE254" s="26"/>
+      <c r="AF254" s="26"/>
+      <c r="AG254" s="26"/>
+      <c r="AH254" s="71"/>
       <c r="AI254" s="29"/>
     </row>
     <row r="255" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11902,40 +11932,34 @@
       <c r="D255" s="29"/>
       <c r="E255" s="29"/>
       <c r="F255" s="24"/>
-      <c r="G255" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H255" s="55"/>
-      <c r="I255" s="55"/>
-      <c r="J255" s="55"/>
-      <c r="K255" s="31"/>
-      <c r="L255" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="M255" s="26"/>
-      <c r="N255" s="26"/>
-      <c r="O255" s="26"/>
-      <c r="P255" s="26"/>
-      <c r="Q255" s="26"/>
-      <c r="R255" s="26"/>
-      <c r="S255" s="26"/>
-      <c r="T255" s="26"/>
-      <c r="U255" s="26"/>
-      <c r="V255" s="26"/>
-      <c r="W255" s="26"/>
-      <c r="X255" s="26"/>
-      <c r="Y255" s="26"/>
-      <c r="Z255" s="26"/>
-      <c r="AA255" s="26"/>
-      <c r="AB255" s="71"/>
-      <c r="AC255" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD255" s="26"/>
-      <c r="AE255" s="26"/>
-      <c r="AF255" s="26"/>
-      <c r="AG255" s="26"/>
-      <c r="AH255" s="71"/>
+      <c r="G255" s="32"/>
+      <c r="H255" s="33"/>
+      <c r="I255" s="33"/>
+      <c r="J255" s="33"/>
+      <c r="K255" s="34"/>
+      <c r="L255" s="76"/>
+      <c r="M255" s="76"/>
+      <c r="N255" s="76"/>
+      <c r="O255" s="76"/>
+      <c r="P255" s="76"/>
+      <c r="Q255" s="76"/>
+      <c r="R255" s="76"/>
+      <c r="S255" s="76"/>
+      <c r="T255" s="76"/>
+      <c r="U255" s="76"/>
+      <c r="V255" s="76"/>
+      <c r="W255" s="76"/>
+      <c r="X255" s="76"/>
+      <c r="Y255" s="76"/>
+      <c r="Z255" s="76"/>
+      <c r="AA255" s="76"/>
+      <c r="AB255" s="90"/>
+      <c r="AC255" s="76"/>
+      <c r="AD255" s="76"/>
+      <c r="AE255" s="76"/>
+      <c r="AF255" s="76"/>
+      <c r="AG255" s="76"/>
+      <c r="AH255" s="90"/>
       <c r="AI255" s="29"/>
     </row>
     <row r="256" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11946,14 +11970,14 @@
       <c r="E256" s="29"/>
       <c r="F256" s="24"/>
       <c r="G256" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H256" s="55"/>
       <c r="I256" s="55"/>
       <c r="J256" s="55"/>
       <c r="K256" s="31"/>
       <c r="L256" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M256" s="26"/>
       <c r="N256" s="26"/>
@@ -11971,7 +11995,9 @@
       <c r="Z256" s="26"/>
       <c r="AA256" s="26"/>
       <c r="AB256" s="71"/>
-      <c r="AC256" s="26"/>
+      <c r="AC256" s="26" t="s">
+        <v>101</v>
+      </c>
       <c r="AD256" s="26"/>
       <c r="AE256" s="26"/>
       <c r="AF256" s="26"/>
@@ -11986,13 +12012,15 @@
       <c r="D257" s="29"/>
       <c r="E257" s="29"/>
       <c r="F257" s="24"/>
-      <c r="G257" s="30"/>
+      <c r="G257" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="H257" s="55"/>
       <c r="I257" s="55"/>
       <c r="J257" s="55"/>
       <c r="K257" s="31"/>
       <c r="L257" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M257" s="26"/>
       <c r="N257" s="26"/>
@@ -12031,7 +12059,7 @@
       <c r="J258" s="55"/>
       <c r="K258" s="31"/>
       <c r="L258" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M258" s="26"/>
       <c r="N258" s="26"/>
@@ -12069,7 +12097,9 @@
       <c r="I259" s="55"/>
       <c r="J259" s="55"/>
       <c r="K259" s="31"/>
-      <c r="L259" s="26"/>
+      <c r="L259" s="26" t="s">
+        <v>100</v>
+      </c>
       <c r="M259" s="26"/>
       <c r="N259" s="26"/>
       <c r="O259" s="26"/>
@@ -12106,9 +12136,7 @@
       <c r="I260" s="55"/>
       <c r="J260" s="55"/>
       <c r="K260" s="31"/>
-      <c r="L260" s="26" t="s">
-        <v>108</v>
-      </c>
+      <c r="L260" s="26"/>
       <c r="M260" s="26"/>
       <c r="N260" s="26"/>
       <c r="O260" s="26"/>
@@ -12146,7 +12174,7 @@
       <c r="J261" s="55"/>
       <c r="K261" s="31"/>
       <c r="L261" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M261" s="26"/>
       <c r="N261" s="26"/>
@@ -12185,7 +12213,7 @@
       <c r="J262" s="55"/>
       <c r="K262" s="31"/>
       <c r="L262" s="26" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="M262" s="26"/>
       <c r="N262" s="26"/>
@@ -12224,7 +12252,7 @@
       <c r="J263" s="55"/>
       <c r="K263" s="31"/>
       <c r="L263" s="26" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="M263" s="26"/>
       <c r="N263" s="26"/>
@@ -12263,7 +12291,7 @@
       <c r="J264" s="55"/>
       <c r="K264" s="31"/>
       <c r="L264" s="26" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="M264" s="26"/>
       <c r="N264" s="26"/>
@@ -12302,7 +12330,7 @@
       <c r="J265" s="55"/>
       <c r="K265" s="31"/>
       <c r="L265" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M265" s="26"/>
       <c r="N265" s="26"/>
@@ -12335,36 +12363,36 @@
       <c r="D266" s="29"/>
       <c r="E266" s="29"/>
       <c r="F266" s="24"/>
-      <c r="G266" s="32"/>
-      <c r="H266" s="33"/>
-      <c r="I266" s="33"/>
-      <c r="J266" s="33"/>
-      <c r="K266" s="34"/>
-      <c r="L266" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="M266" s="76"/>
-      <c r="N266" s="76"/>
-      <c r="O266" s="76"/>
-      <c r="P266" s="76"/>
-      <c r="Q266" s="76"/>
-      <c r="R266" s="76"/>
-      <c r="S266" s="76"/>
-      <c r="T266" s="76"/>
-      <c r="U266" s="76"/>
-      <c r="V266" s="76"/>
-      <c r="W266" s="76"/>
-      <c r="X266" s="76"/>
-      <c r="Y266" s="76"/>
-      <c r="Z266" s="76"/>
-      <c r="AA266" s="76"/>
-      <c r="AB266" s="90"/>
-      <c r="AC266" s="76"/>
-      <c r="AD266" s="76"/>
-      <c r="AE266" s="76"/>
-      <c r="AF266" s="76"/>
-      <c r="AG266" s="76"/>
-      <c r="AH266" s="90"/>
+      <c r="G266" s="30"/>
+      <c r="H266" s="55"/>
+      <c r="I266" s="55"/>
+      <c r="J266" s="55"/>
+      <c r="K266" s="31"/>
+      <c r="L266" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M266" s="26"/>
+      <c r="N266" s="26"/>
+      <c r="O266" s="26"/>
+      <c r="P266" s="26"/>
+      <c r="Q266" s="26"/>
+      <c r="R266" s="26"/>
+      <c r="S266" s="26"/>
+      <c r="T266" s="26"/>
+      <c r="U266" s="26"/>
+      <c r="V266" s="26"/>
+      <c r="W266" s="26"/>
+      <c r="X266" s="26"/>
+      <c r="Y266" s="26"/>
+      <c r="Z266" s="26"/>
+      <c r="AA266" s="26"/>
+      <c r="AB266" s="71"/>
+      <c r="AC266" s="26"/>
+      <c r="AD266" s="26"/>
+      <c r="AE266" s="26"/>
+      <c r="AF266" s="26"/>
+      <c r="AG266" s="26"/>
+      <c r="AH266" s="71"/>
       <c r="AI266" s="29"/>
     </row>
     <row r="267" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12374,40 +12402,36 @@
       <c r="D267" s="29"/>
       <c r="E267" s="29"/>
       <c r="F267" s="24"/>
-      <c r="G267" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H267" s="55"/>
-      <c r="I267" s="55"/>
-      <c r="J267" s="55"/>
-      <c r="K267" s="31"/>
-      <c r="L267" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="M267" s="26"/>
-      <c r="N267" s="26"/>
-      <c r="O267" s="26"/>
-      <c r="P267" s="26"/>
-      <c r="Q267" s="26"/>
-      <c r="R267" s="26"/>
-      <c r="S267" s="26"/>
-      <c r="T267" s="26"/>
-      <c r="U267" s="26"/>
-      <c r="V267" s="26"/>
-      <c r="W267" s="26"/>
-      <c r="X267" s="26"/>
-      <c r="Y267" s="26"/>
-      <c r="Z267" s="26"/>
-      <c r="AA267" s="26"/>
-      <c r="AB267" s="71"/>
-      <c r="AC267" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD267" s="26"/>
-      <c r="AE267" s="26"/>
-      <c r="AF267" s="26"/>
-      <c r="AG267" s="26"/>
-      <c r="AH267" s="71"/>
+      <c r="G267" s="32"/>
+      <c r="H267" s="33"/>
+      <c r="I267" s="33"/>
+      <c r="J267" s="33"/>
+      <c r="K267" s="34"/>
+      <c r="L267" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="M267" s="76"/>
+      <c r="N267" s="76"/>
+      <c r="O267" s="76"/>
+      <c r="P267" s="76"/>
+      <c r="Q267" s="76"/>
+      <c r="R267" s="76"/>
+      <c r="S267" s="76"/>
+      <c r="T267" s="76"/>
+      <c r="U267" s="76"/>
+      <c r="V267" s="76"/>
+      <c r="W267" s="76"/>
+      <c r="X267" s="76"/>
+      <c r="Y267" s="76"/>
+      <c r="Z267" s="76"/>
+      <c r="AA267" s="76"/>
+      <c r="AB267" s="90"/>
+      <c r="AC267" s="76"/>
+      <c r="AD267" s="76"/>
+      <c r="AE267" s="76"/>
+      <c r="AF267" s="76"/>
+      <c r="AG267" s="76"/>
+      <c r="AH267" s="90"/>
       <c r="AI267" s="29"/>
     </row>
     <row r="268" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12417,38 +12441,40 @@
       <c r="D268" s="29"/>
       <c r="E268" s="29"/>
       <c r="F268" s="24"/>
-      <c r="G268" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H268" s="33"/>
-      <c r="I268" s="33"/>
-      <c r="J268" s="33"/>
-      <c r="K268" s="34"/>
-      <c r="L268" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="M268" s="76"/>
-      <c r="N268" s="76"/>
-      <c r="O268" s="76"/>
-      <c r="P268" s="76"/>
-      <c r="Q268" s="76"/>
-      <c r="R268" s="76"/>
-      <c r="S268" s="76"/>
-      <c r="T268" s="76"/>
-      <c r="U268" s="76"/>
-      <c r="V268" s="76"/>
-      <c r="W268" s="76"/>
-      <c r="X268" s="76"/>
-      <c r="Y268" s="76"/>
-      <c r="Z268" s="76"/>
-      <c r="AA268" s="76"/>
-      <c r="AB268" s="90"/>
-      <c r="AC268" s="76"/>
-      <c r="AD268" s="76"/>
-      <c r="AE268" s="76"/>
-      <c r="AF268" s="76"/>
-      <c r="AG268" s="76"/>
-      <c r="AH268" s="90"/>
+      <c r="G268" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H268" s="55"/>
+      <c r="I268" s="55"/>
+      <c r="J268" s="55"/>
+      <c r="K268" s="31"/>
+      <c r="L268" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="M268" s="26"/>
+      <c r="N268" s="26"/>
+      <c r="O268" s="26"/>
+      <c r="P268" s="26"/>
+      <c r="Q268" s="26"/>
+      <c r="R268" s="26"/>
+      <c r="S268" s="26"/>
+      <c r="T268" s="26"/>
+      <c r="U268" s="26"/>
+      <c r="V268" s="26"/>
+      <c r="W268" s="26"/>
+      <c r="X268" s="26"/>
+      <c r="Y268" s="26"/>
+      <c r="Z268" s="26"/>
+      <c r="AA268" s="26"/>
+      <c r="AB268" s="71"/>
+      <c r="AC268" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD268" s="26"/>
+      <c r="AE268" s="26"/>
+      <c r="AF268" s="26"/>
+      <c r="AG268" s="26"/>
+      <c r="AH268" s="71"/>
       <c r="AI268" s="29"/>
     </row>
     <row r="269" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12456,36 +12482,40 @@
       <c r="B269" s="29"/>
       <c r="C269" s="29"/>
       <c r="D269" s="29"/>
-      <c r="E269" s="24"/>
-      <c r="F269" s="29"/>
-      <c r="G269" s="29"/>
-      <c r="H269" s="29"/>
-      <c r="I269" s="29"/>
-      <c r="J269" s="29"/>
-      <c r="K269" s="29"/>
-      <c r="L269" s="29"/>
-      <c r="M269" s="29"/>
-      <c r="N269" s="29"/>
-      <c r="O269" s="29"/>
-      <c r="P269" s="29"/>
-      <c r="Q269" s="29"/>
-      <c r="R269" s="29"/>
-      <c r="S269" s="29"/>
-      <c r="T269" s="29"/>
-      <c r="U269" s="29"/>
-      <c r="V269" s="29"/>
-      <c r="W269" s="29"/>
-      <c r="X269" s="29"/>
-      <c r="Y269" s="29"/>
-      <c r="Z269" s="29"/>
-      <c r="AA269" s="29"/>
-      <c r="AB269" s="29"/>
-      <c r="AC269" s="29"/>
-      <c r="AD269" s="29"/>
-      <c r="AE269" s="29"/>
-      <c r="AF269" s="29"/>
-      <c r="AG269" s="29"/>
-      <c r="AH269" s="29"/>
+      <c r="E269" s="29"/>
+      <c r="F269" s="24"/>
+      <c r="G269" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H269" s="33"/>
+      <c r="I269" s="33"/>
+      <c r="J269" s="33"/>
+      <c r="K269" s="34"/>
+      <c r="L269" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="M269" s="76"/>
+      <c r="N269" s="76"/>
+      <c r="O269" s="76"/>
+      <c r="P269" s="76"/>
+      <c r="Q269" s="76"/>
+      <c r="R269" s="76"/>
+      <c r="S269" s="76"/>
+      <c r="T269" s="76"/>
+      <c r="U269" s="76"/>
+      <c r="V269" s="76"/>
+      <c r="W269" s="76"/>
+      <c r="X269" s="76"/>
+      <c r="Y269" s="76"/>
+      <c r="Z269" s="76"/>
+      <c r="AA269" s="76"/>
+      <c r="AB269" s="90"/>
+      <c r="AC269" s="76"/>
+      <c r="AD269" s="76"/>
+      <c r="AE269" s="76"/>
+      <c r="AF269" s="76"/>
+      <c r="AG269" s="76"/>
+      <c r="AH269" s="90"/>
       <c r="AI269" s="29"/>
     </row>
     <row r="270" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12494,12 +12524,8 @@
       <c r="C270" s="29"/>
       <c r="D270" s="29"/>
       <c r="E270" s="24"/>
-      <c r="F270" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G270" s="29" t="s">
-        <v>114</v>
-      </c>
+      <c r="F270" s="29"/>
+      <c r="G270" s="29"/>
       <c r="H270" s="29"/>
       <c r="I270" s="29"/>
       <c r="J270" s="29"/>
@@ -12535,9 +12561,11 @@
       <c r="C271" s="29"/>
       <c r="D271" s="29"/>
       <c r="E271" s="24"/>
-      <c r="F271" s="29"/>
+      <c r="F271" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="G271" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H271" s="29"/>
       <c r="I271" s="29"/>
@@ -12568,14 +12596,16 @@
       <c r="AH271" s="29"/>
       <c r="AI271" s="29"/>
     </row>
-    <row r="272" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="29"/>
       <c r="B272" s="29"/>
       <c r="C272" s="29"/>
       <c r="D272" s="29"/>
-      <c r="E272" s="29"/>
+      <c r="E272" s="24"/>
       <c r="F272" s="29"/>
-      <c r="G272" s="29"/>
+      <c r="G272" s="29" t="s">
+        <v>113</v>
+      </c>
       <c r="H272" s="29"/>
       <c r="I272" s="29"/>
       <c r="J272" s="29"/>
@@ -12642,192 +12672,223 @@
       <c r="AH273" s="29"/>
       <c r="AI273" s="29"/>
     </row>
-    <row r="274" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D274" s="42" t="str">
+    <row r="274" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="29"/>
+      <c r="B274" s="29"/>
+      <c r="C274" s="29"/>
+      <c r="D274" s="29"/>
+      <c r="E274" s="29"/>
+      <c r="F274" s="29"/>
+      <c r="G274" s="29"/>
+      <c r="H274" s="29"/>
+      <c r="I274" s="29"/>
+      <c r="J274" s="29"/>
+      <c r="K274" s="29"/>
+      <c r="L274" s="29"/>
+      <c r="M274" s="29"/>
+      <c r="N274" s="29"/>
+      <c r="O274" s="29"/>
+      <c r="P274" s="29"/>
+      <c r="Q274" s="29"/>
+      <c r="R274" s="29"/>
+      <c r="S274" s="29"/>
+      <c r="T274" s="29"/>
+      <c r="U274" s="29"/>
+      <c r="V274" s="29"/>
+      <c r="W274" s="29"/>
+      <c r="X274" s="29"/>
+      <c r="Y274" s="29"/>
+      <c r="Z274" s="29"/>
+      <c r="AA274" s="29"/>
+      <c r="AB274" s="29"/>
+      <c r="AC274" s="29"/>
+      <c r="AD274" s="29"/>
+      <c r="AE274" s="29"/>
+      <c r="AF274" s="29"/>
+      <c r="AG274" s="29"/>
+      <c r="AH274" s="29"/>
+      <c r="AI274" s="29"/>
+    </row>
+    <row r="275" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D275" s="42" t="str">
         <f>$C$7&amp;"10."</f>
         <v>3.1.10.</v>
       </c>
-      <c r="E274" s="41" t="s">
+      <c r="E275" s="41" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="275" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D275" s="42"/>
     </row>
     <row r="276" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="42"/>
-      <c r="E276" s="42" t="str">
-        <f>$D$274&amp;"1."</f>
-        <v>3.1.10.1.</v>
-      </c>
-      <c r="F276" s="41" t="str">
-        <f>$E$274&amp;"概要"</f>
-        <v>URL設計概要</v>
-      </c>
     </row>
     <row r="277" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="42"/>
-      <c r="F277" s="41" t="s">
-        <v>158</v>
+      <c r="E277" s="42" t="str">
+        <f>$D$275&amp;"1."</f>
+        <v>3.1.10.1.</v>
+      </c>
+      <c r="F277" s="41" t="str">
+        <f>$E$275&amp;"概要"</f>
+        <v>URL設計概要</v>
       </c>
     </row>
     <row r="278" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="42"/>
       <c r="F278" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="G278" s="41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="279" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="42"/>
+      <c r="F279" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G279" s="41" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="280" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="42"/>
-      <c r="E280" s="42" t="str">
-        <f>$D$274&amp;"2."</f>
-        <v>3.1.10.2.</v>
-      </c>
-      <c r="F280" s="41" t="str">
-        <f>$E$274&amp;"方針"</f>
-        <v>URL設計方針</v>
-      </c>
     </row>
     <row r="281" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="42"/>
-      <c r="F281" s="41" t="s">
-        <v>183</v>
+      <c r="E281" s="42" t="str">
+        <f>$D$275&amp;"2."</f>
+        <v>3.1.10.2.</v>
+      </c>
+      <c r="F281" s="41" t="str">
+        <f>$E$275&amp;"方針"</f>
+        <v>URL設計方針</v>
       </c>
     </row>
     <row r="282" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="42"/>
-      <c r="F282" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G282" s="53"/>
-      <c r="H282" s="53"/>
-      <c r="I282" s="53"/>
-      <c r="J282" s="53"/>
-      <c r="K282" s="54"/>
-      <c r="L282" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="M282" s="53"/>
-      <c r="N282" s="53"/>
-      <c r="O282" s="53"/>
-      <c r="P282" s="53"/>
-      <c r="Q282" s="53"/>
-      <c r="R282" s="53"/>
-      <c r="S282" s="53"/>
-      <c r="T282" s="53"/>
-      <c r="U282" s="53"/>
-      <c r="V282" s="53"/>
-      <c r="W282" s="53"/>
-      <c r="X282" s="53"/>
-      <c r="Y282" s="53"/>
-      <c r="Z282" s="53"/>
-      <c r="AA282" s="53"/>
-      <c r="AB282" s="53"/>
-      <c r="AC282" s="53"/>
-      <c r="AD282" s="53"/>
-      <c r="AE282" s="53"/>
-      <c r="AF282" s="53"/>
-      <c r="AG282" s="54"/>
+      <c r="F282" s="41" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="283" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="42"/>
-      <c r="F283" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="G283" s="99"/>
-      <c r="H283" s="99"/>
-      <c r="I283" s="99"/>
-      <c r="J283" s="99"/>
-      <c r="K283" s="101"/>
-      <c r="L283" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="M283" s="99"/>
-      <c r="N283" s="99"/>
-      <c r="O283" s="99"/>
-      <c r="P283" s="99"/>
-      <c r="Q283" s="99"/>
-      <c r="R283" s="99"/>
-      <c r="S283" s="99"/>
-      <c r="T283" s="99"/>
-      <c r="U283" s="99"/>
-      <c r="V283" s="99"/>
-      <c r="W283" s="99"/>
-      <c r="X283" s="99"/>
-      <c r="Y283" s="99"/>
-      <c r="Z283" s="99"/>
-      <c r="AA283" s="99"/>
-      <c r="AB283" s="99"/>
-      <c r="AC283" s="99"/>
-      <c r="AD283" s="99"/>
-      <c r="AE283" s="99"/>
-      <c r="AF283" s="99"/>
-      <c r="AG283" s="101"/>
+      <c r="F283" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G283" s="53"/>
+      <c r="H283" s="53"/>
+      <c r="I283" s="53"/>
+      <c r="J283" s="53"/>
+      <c r="K283" s="54"/>
+      <c r="L283" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M283" s="53"/>
+      <c r="N283" s="53"/>
+      <c r="O283" s="53"/>
+      <c r="P283" s="53"/>
+      <c r="Q283" s="53"/>
+      <c r="R283" s="53"/>
+      <c r="S283" s="53"/>
+      <c r="T283" s="53"/>
+      <c r="U283" s="53"/>
+      <c r="V283" s="53"/>
+      <c r="W283" s="53"/>
+      <c r="X283" s="53"/>
+      <c r="Y283" s="53"/>
+      <c r="Z283" s="53"/>
+      <c r="AA283" s="53"/>
+      <c r="AB283" s="53"/>
+      <c r="AC283" s="53"/>
+      <c r="AD283" s="53"/>
+      <c r="AE283" s="53"/>
+      <c r="AF283" s="53"/>
+      <c r="AG283" s="54"/>
     </row>
     <row r="284" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D284" s="42"/>
-      <c r="F284" s="81"/>
-      <c r="G284" s="102"/>
-      <c r="H284" s="102"/>
-      <c r="I284" s="102"/>
-      <c r="J284" s="102"/>
-      <c r="K284" s="103"/>
-      <c r="L284" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="M284" s="102"/>
-      <c r="N284" s="102"/>
-      <c r="O284" s="102"/>
-      <c r="P284" s="102"/>
-      <c r="Q284" s="102"/>
-      <c r="R284" s="102"/>
-      <c r="S284" s="102"/>
-      <c r="T284" s="102"/>
-      <c r="U284" s="102"/>
-      <c r="V284" s="102"/>
-      <c r="W284" s="102"/>
-      <c r="X284" s="102"/>
-      <c r="Y284" s="102"/>
-      <c r="Z284" s="102"/>
-      <c r="AA284" s="102"/>
-      <c r="AB284" s="102"/>
-      <c r="AC284" s="102"/>
-      <c r="AD284" s="102"/>
-      <c r="AE284" s="102"/>
-      <c r="AF284" s="102"/>
-      <c r="AG284" s="103"/>
+      <c r="F284" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="G284" s="99"/>
+      <c r="H284" s="99"/>
+      <c r="I284" s="99"/>
+      <c r="J284" s="99"/>
+      <c r="K284" s="101"/>
+      <c r="L284" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="M284" s="99"/>
+      <c r="N284" s="99"/>
+      <c r="O284" s="99"/>
+      <c r="P284" s="99"/>
+      <c r="Q284" s="99"/>
+      <c r="R284" s="99"/>
+      <c r="S284" s="99"/>
+      <c r="T284" s="99"/>
+      <c r="U284" s="99"/>
+      <c r="V284" s="99"/>
+      <c r="W284" s="99"/>
+      <c r="X284" s="99"/>
+      <c r="Y284" s="99"/>
+      <c r="Z284" s="99"/>
+      <c r="AA284" s="99"/>
+      <c r="AB284" s="99"/>
+      <c r="AC284" s="99"/>
+      <c r="AD284" s="99"/>
+      <c r="AE284" s="99"/>
+      <c r="AF284" s="99"/>
+      <c r="AG284" s="101"/>
     </row>
     <row r="285" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D285" s="42"/>
+      <c r="F285" s="81"/>
+      <c r="G285" s="102"/>
+      <c r="H285" s="102"/>
+      <c r="I285" s="102"/>
+      <c r="J285" s="102"/>
+      <c r="K285" s="103"/>
+      <c r="L285" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="M285" s="102"/>
+      <c r="N285" s="102"/>
+      <c r="O285" s="102"/>
+      <c r="P285" s="102"/>
+      <c r="Q285" s="102"/>
+      <c r="R285" s="102"/>
+      <c r="S285" s="102"/>
+      <c r="T285" s="102"/>
+      <c r="U285" s="102"/>
+      <c r="V285" s="102"/>
+      <c r="W285" s="102"/>
+      <c r="X285" s="102"/>
+      <c r="Y285" s="102"/>
+      <c r="Z285" s="102"/>
+      <c r="AA285" s="102"/>
+      <c r="AB285" s="102"/>
+      <c r="AC285" s="102"/>
+      <c r="AD285" s="102"/>
+      <c r="AE285" s="102"/>
+      <c r="AF285" s="102"/>
+      <c r="AG285" s="103"/>
     </row>
     <row r="286" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D286" s="42"/>
-      <c r="E286" s="42" t="str">
-        <f>$D$274&amp;"3."</f>
-        <v>3.1.10.3.</v>
-      </c>
-      <c r="F286" s="41" t="str">
-        <f>$E$274&amp;"詳細"</f>
-        <v>URL設計詳細</v>
-      </c>
     </row>
     <row r="287" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="42"/>
-      <c r="F287" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="G287" s="29"/>
-      <c r="H287" s="29"/>
+      <c r="E287" s="42" t="str">
+        <f>$D$275&amp;"3."</f>
+        <v>3.1.10.3.</v>
+      </c>
+      <c r="F287" s="41" t="str">
+        <f>$E$275&amp;"詳細"</f>
+        <v>URL設計詳細</v>
+      </c>
     </row>
     <row r="288" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D288" s="42"/>
-      <c r="F288" s="29"/>
+      <c r="F288" s="29" t="s">
+        <v>215</v>
+      </c>
       <c r="G288" s="29"/>
       <c r="H288" s="29"/>
     </row>
@@ -12863,6 +12924,9 @@
     </row>
     <row r="294" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D294" s="42"/>
+      <c r="F294" s="29"/>
+      <c r="G294" s="29"/>
+      <c r="H294" s="29"/>
     </row>
     <row r="295" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D295" s="42"/>
@@ -12871,686 +12935,676 @@
       <c r="D296" s="42"/>
     </row>
     <row r="297" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E297" s="42"/>
-      <c r="F297" s="87"/>
-      <c r="G297" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="H297" s="53"/>
-      <c r="I297" s="53"/>
-      <c r="J297" s="53"/>
-      <c r="K297" s="53"/>
-      <c r="L297" s="54"/>
-      <c r="M297" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="N297" s="53"/>
-      <c r="O297" s="53"/>
-      <c r="P297" s="53"/>
-      <c r="Q297" s="53"/>
-      <c r="R297" s="53"/>
-      <c r="S297" s="53"/>
-      <c r="T297" s="53"/>
-      <c r="U297" s="53"/>
-      <c r="V297" s="53"/>
-      <c r="W297" s="53"/>
-      <c r="X297" s="53"/>
-      <c r="Y297" s="53"/>
-      <c r="Z297" s="53"/>
-      <c r="AA297" s="53"/>
-      <c r="AB297" s="53"/>
-      <c r="AC297" s="53"/>
-      <c r="AD297" s="53"/>
-      <c r="AE297" s="53"/>
-      <c r="AF297" s="54"/>
+      <c r="D297" s="42"/>
     </row>
     <row r="298" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E298" s="42"/>
-      <c r="F298" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="G298" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="H298" s="49"/>
-      <c r="I298" s="49"/>
-      <c r="J298" s="49"/>
-      <c r="K298" s="49"/>
-      <c r="L298" s="50"/>
-      <c r="M298" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="N298" s="49"/>
-      <c r="O298" s="49"/>
-      <c r="P298" s="49"/>
-      <c r="Q298" s="49"/>
-      <c r="R298" s="49"/>
-      <c r="S298" s="49"/>
-      <c r="T298" s="49"/>
-      <c r="U298" s="49"/>
-      <c r="V298" s="49"/>
-      <c r="W298" s="49"/>
-      <c r="X298" s="49"/>
-      <c r="Y298" s="49"/>
-      <c r="Z298" s="49"/>
-      <c r="AA298" s="49"/>
-      <c r="AB298" s="49"/>
-      <c r="AC298" s="49"/>
-      <c r="AD298" s="49"/>
-      <c r="AE298" s="49"/>
-      <c r="AF298" s="50"/>
+      <c r="F298" s="87"/>
+      <c r="G298" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H298" s="53"/>
+      <c r="I298" s="53"/>
+      <c r="J298" s="53"/>
+      <c r="K298" s="53"/>
+      <c r="L298" s="54"/>
+      <c r="M298" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="N298" s="53"/>
+      <c r="O298" s="53"/>
+      <c r="P298" s="53"/>
+      <c r="Q298" s="53"/>
+      <c r="R298" s="53"/>
+      <c r="S298" s="53"/>
+      <c r="T298" s="53"/>
+      <c r="U298" s="53"/>
+      <c r="V298" s="53"/>
+      <c r="W298" s="53"/>
+      <c r="X298" s="53"/>
+      <c r="Y298" s="53"/>
+      <c r="Z298" s="53"/>
+      <c r="AA298" s="53"/>
+      <c r="AB298" s="53"/>
+      <c r="AC298" s="53"/>
+      <c r="AD298" s="53"/>
+      <c r="AE298" s="53"/>
+      <c r="AF298" s="54"/>
     </row>
     <row r="299" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E299" s="42"/>
-      <c r="F299" s="84"/>
-      <c r="G299" s="46"/>
-      <c r="H299" s="47"/>
-      <c r="I299" s="47"/>
-      <c r="J299" s="47"/>
-      <c r="K299" s="47"/>
-      <c r="L299" s="51"/>
-      <c r="M299" s="46"/>
-      <c r="N299" s="47"/>
-      <c r="O299" s="47"/>
-      <c r="P299" s="47"/>
-      <c r="Q299" s="47"/>
-      <c r="R299" s="47"/>
-      <c r="S299" s="47"/>
-      <c r="T299" s="47"/>
-      <c r="U299" s="47"/>
-      <c r="V299" s="47"/>
-      <c r="W299" s="47"/>
-      <c r="X299" s="47"/>
-      <c r="Y299" s="47"/>
-      <c r="Z299" s="47"/>
-      <c r="AA299" s="47"/>
-      <c r="AB299" s="47"/>
-      <c r="AC299" s="47"/>
-      <c r="AD299" s="47"/>
-      <c r="AE299" s="47"/>
-      <c r="AF299" s="51"/>
+      <c r="F299" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="G299" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="H299" s="49"/>
+      <c r="I299" s="49"/>
+      <c r="J299" s="49"/>
+      <c r="K299" s="49"/>
+      <c r="L299" s="50"/>
+      <c r="M299" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="N299" s="49"/>
+      <c r="O299" s="49"/>
+      <c r="P299" s="49"/>
+      <c r="Q299" s="49"/>
+      <c r="R299" s="49"/>
+      <c r="S299" s="49"/>
+      <c r="T299" s="49"/>
+      <c r="U299" s="49"/>
+      <c r="V299" s="49"/>
+      <c r="W299" s="49"/>
+      <c r="X299" s="49"/>
+      <c r="Y299" s="49"/>
+      <c r="Z299" s="49"/>
+      <c r="AA299" s="49"/>
+      <c r="AB299" s="49"/>
+      <c r="AC299" s="49"/>
+      <c r="AD299" s="49"/>
+      <c r="AE299" s="49"/>
+      <c r="AF299" s="50"/>
     </row>
     <row r="300" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E300" s="42"/>
-      <c r="F300" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="G300" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="H300" s="49"/>
-      <c r="I300" s="49"/>
-      <c r="J300" s="49"/>
-      <c r="K300" s="49"/>
-      <c r="L300" s="50"/>
-      <c r="M300" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="N300" s="49"/>
-      <c r="O300" s="49"/>
-      <c r="P300" s="49"/>
-      <c r="Q300" s="49"/>
-      <c r="R300" s="49"/>
-      <c r="S300" s="49"/>
-      <c r="T300" s="49"/>
-      <c r="U300" s="49"/>
-      <c r="V300" s="49"/>
-      <c r="W300" s="49"/>
-      <c r="X300" s="49"/>
-      <c r="Y300" s="49"/>
-      <c r="Z300" s="49"/>
-      <c r="AA300" s="49"/>
-      <c r="AB300" s="49"/>
-      <c r="AC300" s="49"/>
-      <c r="AD300" s="49"/>
-      <c r="AE300" s="49"/>
-      <c r="AF300" s="50"/>
+      <c r="F300" s="84"/>
+      <c r="G300" s="46"/>
+      <c r="H300" s="47"/>
+      <c r="I300" s="47"/>
+      <c r="J300" s="47"/>
+      <c r="K300" s="47"/>
+      <c r="L300" s="51"/>
+      <c r="M300" s="46"/>
+      <c r="N300" s="47"/>
+      <c r="O300" s="47"/>
+      <c r="P300" s="47"/>
+      <c r="Q300" s="47"/>
+      <c r="R300" s="47"/>
+      <c r="S300" s="47"/>
+      <c r="T300" s="47"/>
+      <c r="U300" s="47"/>
+      <c r="V300" s="47"/>
+      <c r="W300" s="47"/>
+      <c r="X300" s="47"/>
+      <c r="Y300" s="47"/>
+      <c r="Z300" s="47"/>
+      <c r="AA300" s="47"/>
+      <c r="AB300" s="47"/>
+      <c r="AC300" s="47"/>
+      <c r="AD300" s="47"/>
+      <c r="AE300" s="47"/>
+      <c r="AF300" s="51"/>
     </row>
     <row r="301" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E301" s="42"/>
-      <c r="F301" s="84"/>
-      <c r="G301" s="46"/>
-      <c r="H301" s="47"/>
-      <c r="I301" s="47"/>
-      <c r="J301" s="47"/>
-      <c r="K301" s="47"/>
-      <c r="L301" s="51"/>
-      <c r="M301" s="46"/>
-      <c r="N301" s="47"/>
-      <c r="O301" s="47"/>
-      <c r="P301" s="47"/>
-      <c r="Q301" s="47"/>
-      <c r="R301" s="47"/>
-      <c r="S301" s="47"/>
-      <c r="T301" s="47"/>
-      <c r="U301" s="47"/>
-      <c r="V301" s="47"/>
-      <c r="W301" s="47"/>
-      <c r="X301" s="47"/>
-      <c r="Y301" s="47"/>
-      <c r="Z301" s="47"/>
-      <c r="AA301" s="47"/>
-      <c r="AB301" s="47"/>
-      <c r="AC301" s="47"/>
-      <c r="AD301" s="47"/>
-      <c r="AE301" s="47"/>
-      <c r="AF301" s="51"/>
+      <c r="F301" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="G301" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="H301" s="49"/>
+      <c r="I301" s="49"/>
+      <c r="J301" s="49"/>
+      <c r="K301" s="49"/>
+      <c r="L301" s="50"/>
+      <c r="M301" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="N301" s="49"/>
+      <c r="O301" s="49"/>
+      <c r="P301" s="49"/>
+      <c r="Q301" s="49"/>
+      <c r="R301" s="49"/>
+      <c r="S301" s="49"/>
+      <c r="T301" s="49"/>
+      <c r="U301" s="49"/>
+      <c r="V301" s="49"/>
+      <c r="W301" s="49"/>
+      <c r="X301" s="49"/>
+      <c r="Y301" s="49"/>
+      <c r="Z301" s="49"/>
+      <c r="AA301" s="49"/>
+      <c r="AB301" s="49"/>
+      <c r="AC301" s="49"/>
+      <c r="AD301" s="49"/>
+      <c r="AE301" s="49"/>
+      <c r="AF301" s="50"/>
     </row>
     <row r="302" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E302" s="42"/>
-      <c r="F302" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="G302" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="H302" s="49"/>
-      <c r="I302" s="49"/>
-      <c r="J302" s="49"/>
-      <c r="K302" s="49"/>
-      <c r="L302" s="50"/>
-      <c r="M302" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="N302" s="49"/>
-      <c r="O302" s="49"/>
-      <c r="P302" s="49"/>
-      <c r="Q302" s="49"/>
-      <c r="R302" s="49"/>
-      <c r="S302" s="49"/>
-      <c r="T302" s="49"/>
-      <c r="U302" s="49"/>
-      <c r="V302" s="49"/>
-      <c r="W302" s="49"/>
-      <c r="X302" s="49"/>
-      <c r="Y302" s="49"/>
-      <c r="Z302" s="49"/>
-      <c r="AA302" s="49"/>
-      <c r="AB302" s="49"/>
-      <c r="AC302" s="49"/>
-      <c r="AD302" s="49"/>
-      <c r="AE302" s="49"/>
-      <c r="AF302" s="50"/>
+      <c r="F302" s="84"/>
+      <c r="G302" s="46"/>
+      <c r="H302" s="47"/>
+      <c r="I302" s="47"/>
+      <c r="J302" s="47"/>
+      <c r="K302" s="47"/>
+      <c r="L302" s="51"/>
+      <c r="M302" s="46"/>
+      <c r="N302" s="47"/>
+      <c r="O302" s="47"/>
+      <c r="P302" s="47"/>
+      <c r="Q302" s="47"/>
+      <c r="R302" s="47"/>
+      <c r="S302" s="47"/>
+      <c r="T302" s="47"/>
+      <c r="U302" s="47"/>
+      <c r="V302" s="47"/>
+      <c r="W302" s="47"/>
+      <c r="X302" s="47"/>
+      <c r="Y302" s="47"/>
+      <c r="Z302" s="47"/>
+      <c r="AA302" s="47"/>
+      <c r="AB302" s="47"/>
+      <c r="AC302" s="47"/>
+      <c r="AD302" s="47"/>
+      <c r="AE302" s="47"/>
+      <c r="AF302" s="51"/>
     </row>
     <row r="303" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E303" s="42"/>
-      <c r="F303" s="84"/>
-      <c r="G303" s="46"/>
-      <c r="H303" s="47"/>
-      <c r="I303" s="47"/>
-      <c r="J303" s="47"/>
-      <c r="K303" s="47"/>
-      <c r="L303" s="51"/>
-      <c r="M303" s="46"/>
-      <c r="N303" s="47"/>
-      <c r="O303" s="47"/>
-      <c r="P303" s="47"/>
-      <c r="Q303" s="47"/>
-      <c r="R303" s="47"/>
-      <c r="S303" s="47"/>
-      <c r="T303" s="47"/>
-      <c r="U303" s="47"/>
-      <c r="V303" s="47"/>
-      <c r="W303" s="47"/>
-      <c r="X303" s="47"/>
-      <c r="Y303" s="47"/>
-      <c r="Z303" s="47"/>
-      <c r="AA303" s="47"/>
-      <c r="AB303" s="47"/>
-      <c r="AC303" s="47"/>
-      <c r="AD303" s="47"/>
-      <c r="AE303" s="47"/>
-      <c r="AF303" s="51"/>
+      <c r="F303" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="G303" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="H303" s="49"/>
+      <c r="I303" s="49"/>
+      <c r="J303" s="49"/>
+      <c r="K303" s="49"/>
+      <c r="L303" s="50"/>
+      <c r="M303" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="N303" s="49"/>
+      <c r="O303" s="49"/>
+      <c r="P303" s="49"/>
+      <c r="Q303" s="49"/>
+      <c r="R303" s="49"/>
+      <c r="S303" s="49"/>
+      <c r="T303" s="49"/>
+      <c r="U303" s="49"/>
+      <c r="V303" s="49"/>
+      <c r="W303" s="49"/>
+      <c r="X303" s="49"/>
+      <c r="Y303" s="49"/>
+      <c r="Z303" s="49"/>
+      <c r="AA303" s="49"/>
+      <c r="AB303" s="49"/>
+      <c r="AC303" s="49"/>
+      <c r="AD303" s="49"/>
+      <c r="AE303" s="49"/>
+      <c r="AF303" s="50"/>
     </row>
     <row r="304" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E304" s="42"/>
-      <c r="F304" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="G304" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="H304" s="49"/>
-      <c r="I304" s="49"/>
-      <c r="J304" s="49"/>
-      <c r="K304" s="49"/>
-      <c r="L304" s="50"/>
-      <c r="M304" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="N304" s="49"/>
-      <c r="O304" s="49"/>
-      <c r="P304" s="49"/>
-      <c r="Q304" s="49"/>
-      <c r="R304" s="49"/>
-      <c r="S304" s="49"/>
-      <c r="T304" s="49"/>
-      <c r="U304" s="49"/>
-      <c r="V304" s="49"/>
-      <c r="W304" s="49"/>
-      <c r="X304" s="49"/>
-      <c r="Y304" s="49"/>
-      <c r="Z304" s="49"/>
-      <c r="AA304" s="49"/>
-      <c r="AB304" s="49"/>
-      <c r="AC304" s="49"/>
-      <c r="AD304" s="49"/>
-      <c r="AE304" s="49"/>
-      <c r="AF304" s="50"/>
+      <c r="F304" s="84"/>
+      <c r="G304" s="46"/>
+      <c r="H304" s="47"/>
+      <c r="I304" s="47"/>
+      <c r="J304" s="47"/>
+      <c r="K304" s="47"/>
+      <c r="L304" s="51"/>
+      <c r="M304" s="46"/>
+      <c r="N304" s="47"/>
+      <c r="O304" s="47"/>
+      <c r="P304" s="47"/>
+      <c r="Q304" s="47"/>
+      <c r="R304" s="47"/>
+      <c r="S304" s="47"/>
+      <c r="T304" s="47"/>
+      <c r="U304" s="47"/>
+      <c r="V304" s="47"/>
+      <c r="W304" s="47"/>
+      <c r="X304" s="47"/>
+      <c r="Y304" s="47"/>
+      <c r="Z304" s="47"/>
+      <c r="AA304" s="47"/>
+      <c r="AB304" s="47"/>
+      <c r="AC304" s="47"/>
+      <c r="AD304" s="47"/>
+      <c r="AE304" s="47"/>
+      <c r="AF304" s="51"/>
     </row>
     <row r="305" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E305" s="42"/>
-      <c r="F305" s="89"/>
-      <c r="G305" s="43"/>
-      <c r="H305" s="44"/>
-      <c r="I305" s="44"/>
-      <c r="J305" s="44"/>
-      <c r="K305" s="44"/>
-      <c r="L305" s="45"/>
-      <c r="M305" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="N305" s="44"/>
-      <c r="O305" s="44"/>
-      <c r="P305" s="44"/>
-      <c r="Q305" s="44"/>
-      <c r="R305" s="44"/>
-      <c r="S305" s="44"/>
-      <c r="T305" s="44"/>
-      <c r="U305" s="44"/>
-      <c r="V305" s="44"/>
-      <c r="W305" s="44"/>
-      <c r="X305" s="44"/>
-      <c r="Y305" s="44"/>
-      <c r="Z305" s="44"/>
-      <c r="AA305" s="44"/>
-      <c r="AB305" s="44"/>
-      <c r="AC305" s="44"/>
-      <c r="AD305" s="44"/>
-      <c r="AE305" s="44"/>
-      <c r="AF305" s="45"/>
+      <c r="F305" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="G305" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="H305" s="49"/>
+      <c r="I305" s="49"/>
+      <c r="J305" s="49"/>
+      <c r="K305" s="49"/>
+      <c r="L305" s="50"/>
+      <c r="M305" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="N305" s="49"/>
+      <c r="O305" s="49"/>
+      <c r="P305" s="49"/>
+      <c r="Q305" s="49"/>
+      <c r="R305" s="49"/>
+      <c r="S305" s="49"/>
+      <c r="T305" s="49"/>
+      <c r="U305" s="49"/>
+      <c r="V305" s="49"/>
+      <c r="W305" s="49"/>
+      <c r="X305" s="49"/>
+      <c r="Y305" s="49"/>
+      <c r="Z305" s="49"/>
+      <c r="AA305" s="49"/>
+      <c r="AB305" s="49"/>
+      <c r="AC305" s="49"/>
+      <c r="AD305" s="49"/>
+      <c r="AE305" s="49"/>
+      <c r="AF305" s="50"/>
     </row>
     <row r="306" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E306" s="42"/>
-      <c r="F306" s="84"/>
-      <c r="G306" s="46"/>
-      <c r="H306" s="47"/>
-      <c r="I306" s="47"/>
-      <c r="J306" s="47"/>
-      <c r="K306" s="47"/>
-      <c r="L306" s="51"/>
-      <c r="M306" s="46"/>
-      <c r="N306" s="47"/>
-      <c r="O306" s="47"/>
-      <c r="P306" s="47"/>
-      <c r="Q306" s="47"/>
-      <c r="R306" s="47"/>
-      <c r="S306" s="47"/>
-      <c r="T306" s="47"/>
-      <c r="U306" s="47"/>
-      <c r="V306" s="47"/>
-      <c r="W306" s="47"/>
-      <c r="X306" s="47"/>
-      <c r="Y306" s="47"/>
-      <c r="Z306" s="47"/>
-      <c r="AA306" s="47"/>
-      <c r="AB306" s="47"/>
-      <c r="AC306" s="47"/>
-      <c r="AD306" s="47"/>
-      <c r="AE306" s="47"/>
-      <c r="AF306" s="51"/>
+      <c r="F306" s="89"/>
+      <c r="G306" s="43"/>
+      <c r="H306" s="44"/>
+      <c r="I306" s="44"/>
+      <c r="J306" s="44"/>
+      <c r="K306" s="44"/>
+      <c r="L306" s="45"/>
+      <c r="M306" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="N306" s="44"/>
+      <c r="O306" s="44"/>
+      <c r="P306" s="44"/>
+      <c r="Q306" s="44"/>
+      <c r="R306" s="44"/>
+      <c r="S306" s="44"/>
+      <c r="T306" s="44"/>
+      <c r="U306" s="44"/>
+      <c r="V306" s="44"/>
+      <c r="W306" s="44"/>
+      <c r="X306" s="44"/>
+      <c r="Y306" s="44"/>
+      <c r="Z306" s="44"/>
+      <c r="AA306" s="44"/>
+      <c r="AB306" s="44"/>
+      <c r="AC306" s="44"/>
+      <c r="AD306" s="44"/>
+      <c r="AE306" s="44"/>
+      <c r="AF306" s="45"/>
     </row>
     <row r="307" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E307" s="42"/>
-      <c r="F307" s="85" t="s">
+      <c r="F307" s="84"/>
+      <c r="G307" s="46"/>
+      <c r="H307" s="47"/>
+      <c r="I307" s="47"/>
+      <c r="J307" s="47"/>
+      <c r="K307" s="47"/>
+      <c r="L307" s="51"/>
+      <c r="M307" s="46"/>
+      <c r="N307" s="47"/>
+      <c r="O307" s="47"/>
+      <c r="P307" s="47"/>
+      <c r="Q307" s="47"/>
+      <c r="R307" s="47"/>
+      <c r="S307" s="47"/>
+      <c r="T307" s="47"/>
+      <c r="U307" s="47"/>
+      <c r="V307" s="47"/>
+      <c r="W307" s="47"/>
+      <c r="X307" s="47"/>
+      <c r="Y307" s="47"/>
+      <c r="Z307" s="47"/>
+      <c r="AA307" s="47"/>
+      <c r="AB307" s="47"/>
+      <c r="AC307" s="47"/>
+      <c r="AD307" s="47"/>
+      <c r="AE307" s="47"/>
+      <c r="AF307" s="51"/>
+    </row>
+    <row r="308" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E308" s="42"/>
+      <c r="F308" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="G307" s="48" t="s">
+      <c r="G308" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="H307" s="49"/>
-      <c r="I307" s="49"/>
-      <c r="J307" s="49"/>
-      <c r="K307" s="49"/>
-      <c r="L307" s="50"/>
-      <c r="M307" s="48" t="s">
+      <c r="H308" s="49"/>
+      <c r="I308" s="49"/>
+      <c r="J308" s="49"/>
+      <c r="K308" s="49"/>
+      <c r="L308" s="50"/>
+      <c r="M308" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="N307" s="49"/>
-      <c r="O307" s="49"/>
-      <c r="P307" s="49"/>
-      <c r="Q307" s="49"/>
-      <c r="R307" s="49"/>
-      <c r="S307" s="49"/>
-      <c r="T307" s="49"/>
-      <c r="U307" s="49"/>
-      <c r="V307" s="49"/>
-      <c r="W307" s="49"/>
-      <c r="X307" s="49"/>
-      <c r="Y307" s="49"/>
-      <c r="Z307" s="49"/>
-      <c r="AA307" s="49"/>
-      <c r="AB307" s="49"/>
-      <c r="AC307" s="49"/>
-      <c r="AD307" s="49"/>
-      <c r="AE307" s="49"/>
-      <c r="AF307" s="50"/>
-    </row>
-    <row r="308" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E308" s="66"/>
-      <c r="F308" s="88"/>
-      <c r="G308" s="81"/>
-      <c r="H308" s="47"/>
-      <c r="I308" s="47"/>
-      <c r="J308" s="47"/>
-      <c r="K308" s="47"/>
-      <c r="L308" s="51"/>
-      <c r="M308" s="46"/>
-      <c r="N308" s="47"/>
-      <c r="O308" s="47"/>
-      <c r="P308" s="47"/>
-      <c r="Q308" s="47"/>
-      <c r="R308" s="47"/>
-      <c r="S308" s="47"/>
-      <c r="T308" s="47"/>
-      <c r="U308" s="47"/>
-      <c r="V308" s="47"/>
-      <c r="W308" s="47"/>
-      <c r="X308" s="47"/>
-      <c r="Y308" s="47"/>
-      <c r="Z308" s="47"/>
-      <c r="AA308" s="47"/>
-      <c r="AB308" s="47"/>
-      <c r="AC308" s="47"/>
-      <c r="AD308" s="47"/>
-      <c r="AE308" s="47"/>
-      <c r="AF308" s="51"/>
+      <c r="N308" s="49"/>
+      <c r="O308" s="49"/>
+      <c r="P308" s="49"/>
+      <c r="Q308" s="49"/>
+      <c r="R308" s="49"/>
+      <c r="S308" s="49"/>
+      <c r="T308" s="49"/>
+      <c r="U308" s="49"/>
+      <c r="V308" s="49"/>
+      <c r="W308" s="49"/>
+      <c r="X308" s="49"/>
+      <c r="Y308" s="49"/>
+      <c r="Z308" s="49"/>
+      <c r="AA308" s="49"/>
+      <c r="AB308" s="49"/>
+      <c r="AC308" s="49"/>
+      <c r="AD308" s="49"/>
+      <c r="AE308" s="49"/>
+      <c r="AF308" s="50"/>
     </row>
     <row r="309" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D309" s="42"/>
-      <c r="E309" s="36"/>
-      <c r="F309" s="36"/>
-      <c r="G309" s="36"/>
+      <c r="E309" s="66"/>
+      <c r="F309" s="88"/>
+      <c r="G309" s="81"/>
+      <c r="H309" s="47"/>
+      <c r="I309" s="47"/>
+      <c r="J309" s="47"/>
+      <c r="K309" s="47"/>
+      <c r="L309" s="51"/>
+      <c r="M309" s="46"/>
+      <c r="N309" s="47"/>
+      <c r="O309" s="47"/>
+      <c r="P309" s="47"/>
+      <c r="Q309" s="47"/>
+      <c r="R309" s="47"/>
+      <c r="S309" s="47"/>
+      <c r="T309" s="47"/>
+      <c r="U309" s="47"/>
+      <c r="V309" s="47"/>
+      <c r="W309" s="47"/>
+      <c r="X309" s="47"/>
+      <c r="Y309" s="47"/>
+      <c r="Z309" s="47"/>
+      <c r="AA309" s="47"/>
+      <c r="AB309" s="47"/>
+      <c r="AC309" s="47"/>
+      <c r="AD309" s="47"/>
+      <c r="AE309" s="47"/>
+      <c r="AF309" s="51"/>
     </row>
     <row r="310" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D310" s="42"/>
       <c r="E310" s="36"/>
-      <c r="F310" s="36" t="s">
-        <v>145</v>
-      </c>
+      <c r="F310" s="36"/>
       <c r="G310" s="36"/>
     </row>
     <row r="311" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D311" s="42"/>
       <c r="E311" s="36"/>
       <c r="F311" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G311" s="36"/>
     </row>
     <row r="312" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D312" s="42"/>
-    </row>
-    <row r="313" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E312" s="36"/>
+      <c r="F312" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G312" s="36"/>
+    </row>
+    <row r="313" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D313" s="42"/>
+    </row>
     <row r="314" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D315" s="28" t="str">
+    <row r="315" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D316" s="28" t="str">
         <f>$C$7&amp;"11."</f>
         <v>3.1.11.</v>
       </c>
-      <c r="E315" s="4" t="s">
+      <c r="E316" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D316" s="28"/>
-      <c r="E316" s="28" t="str">
-        <f>D315&amp;"1."</f>
+    <row r="317" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D317" s="28"/>
+      <c r="E317" s="28" t="str">
+        <f>D316&amp;"1."</f>
         <v>3.1.11.1.</v>
       </c>
-      <c r="F316" s="4" t="str">
-        <f>E315&amp;"機能概要"</f>
+      <c r="F317" s="4" t="str">
+        <f>E316&amp;"機能概要"</f>
         <v>コンテンツ更新機能概要</v>
-      </c>
-    </row>
-    <row r="317" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D317" s="42"/>
-      <c r="E317" s="42"/>
-      <c r="F317" s="41" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="318" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D318" s="42"/>
       <c r="E318" s="42"/>
       <c r="F318" s="41" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="319" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F319" s="36" t="s">
-        <v>316</v>
+      <c r="D319" s="42"/>
+      <c r="E319" s="42"/>
+      <c r="F319" s="41" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="320" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F320" s="36"/>
-    </row>
-    <row r="321" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F321" s="19"/>
-      <c r="G321" s="19"/>
-      <c r="H321" s="19"/>
-      <c r="I321" s="19"/>
-      <c r="J321" s="19"/>
-      <c r="K321" s="19"/>
-      <c r="L321" s="19"/>
-      <c r="M321" s="19"/>
-      <c r="N321" s="19"/>
-      <c r="O321" s="19"/>
-      <c r="P321" s="19"/>
-      <c r="Q321" s="19"/>
-      <c r="R321" s="19"/>
-      <c r="S321" s="19"/>
-      <c r="T321" s="19"/>
-      <c r="U321" s="19"/>
-      <c r="V321" s="19"/>
-      <c r="W321" s="19"/>
-      <c r="X321" s="19"/>
-      <c r="Y321" s="19"/>
-      <c r="Z321" s="19"/>
-      <c r="AA321" s="19"/>
-      <c r="AB321" s="19"/>
-      <c r="AC321" s="19"/>
-      <c r="AD321" s="19"/>
-      <c r="AE321" s="19"/>
-      <c r="AF321" s="19"/>
-      <c r="AG321" s="19"/>
-      <c r="AH321" s="19"/>
-    </row>
-    <row r="322" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E322" s="42" t="str">
-        <f>D315&amp;"2."</f>
+      <c r="F320" s="36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="321" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F321" s="36"/>
+    </row>
+    <row r="322" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F322" s="19"/>
+      <c r="G322" s="19"/>
+      <c r="H322" s="19"/>
+      <c r="I322" s="19"/>
+      <c r="J322" s="19"/>
+      <c r="K322" s="19"/>
+      <c r="L322" s="19"/>
+      <c r="M322" s="19"/>
+      <c r="N322" s="19"/>
+      <c r="O322" s="19"/>
+      <c r="P322" s="19"/>
+      <c r="Q322" s="19"/>
+      <c r="R322" s="19"/>
+      <c r="S322" s="19"/>
+      <c r="T322" s="19"/>
+      <c r="U322" s="19"/>
+      <c r="V322" s="19"/>
+      <c r="W322" s="19"/>
+      <c r="X322" s="19"/>
+      <c r="Y322" s="19"/>
+      <c r="Z322" s="19"/>
+      <c r="AA322" s="19"/>
+      <c r="AB322" s="19"/>
+      <c r="AC322" s="19"/>
+      <c r="AD322" s="19"/>
+      <c r="AE322" s="19"/>
+      <c r="AF322" s="19"/>
+      <c r="AG322" s="19"/>
+      <c r="AH322" s="19"/>
+    </row>
+    <row r="323" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E323" s="42" t="str">
+        <f>D316&amp;"2."</f>
         <v>3.1.11.2.</v>
       </c>
-      <c r="F322" s="41" t="str">
-        <f>E315&amp;"方法"</f>
+      <c r="F323" s="41" t="str">
+        <f>E316&amp;"方法"</f>
         <v>コンテンツ更新方法</v>
       </c>
-      <c r="G322" s="44"/>
-      <c r="H322" s="44"/>
-      <c r="I322" s="44"/>
-      <c r="J322" s="44"/>
-      <c r="K322" s="44"/>
-      <c r="L322" s="44"/>
-      <c r="M322" s="44"/>
-      <c r="N322" s="44"/>
-      <c r="O322" s="44"/>
-      <c r="P322" s="44"/>
-      <c r="Q322" s="44"/>
-      <c r="R322" s="44"/>
-      <c r="S322" s="44"/>
-      <c r="T322" s="44"/>
-      <c r="U322" s="44"/>
-      <c r="V322" s="44"/>
-      <c r="W322" s="44"/>
-      <c r="X322" s="44"/>
-      <c r="Y322" s="44"/>
-      <c r="Z322" s="44"/>
-      <c r="AA322" s="44"/>
-      <c r="AB322" s="44"/>
-      <c r="AC322" s="44"/>
-      <c r="AD322" s="44"/>
-      <c r="AE322" s="44"/>
-      <c r="AF322" s="44"/>
-      <c r="AG322" s="44"/>
-      <c r="AH322" s="44"/>
-    </row>
-    <row r="323" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F323" s="41" t="s">
-        <v>301</v>
-      </c>
+      <c r="G323" s="44"/>
+      <c r="H323" s="44"/>
+      <c r="I323" s="44"/>
+      <c r="J323" s="44"/>
+      <c r="K323" s="44"/>
+      <c r="L323" s="44"/>
+      <c r="M323" s="44"/>
+      <c r="N323" s="44"/>
+      <c r="O323" s="44"/>
+      <c r="P323" s="44"/>
+      <c r="Q323" s="44"/>
+      <c r="R323" s="44"/>
+      <c r="S323" s="44"/>
+      <c r="T323" s="44"/>
+      <c r="U323" s="44"/>
+      <c r="V323" s="44"/>
+      <c r="W323" s="44"/>
+      <c r="X323" s="44"/>
+      <c r="Y323" s="44"/>
+      <c r="Z323" s="44"/>
+      <c r="AA323" s="44"/>
+      <c r="AB323" s="44"/>
+      <c r="AC323" s="44"/>
+      <c r="AD323" s="44"/>
+      <c r="AE323" s="44"/>
+      <c r="AF323" s="44"/>
+      <c r="AG323" s="44"/>
+      <c r="AH323" s="44"/>
     </row>
     <row r="324" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F324" s="52" t="s">
+      <c r="F324" s="41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="325" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F325" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G324" s="53"/>
-      <c r="H324" s="53"/>
-      <c r="I324" s="53"/>
-      <c r="J324" s="53"/>
-      <c r="K324" s="54"/>
-      <c r="L324" s="53" t="s">
+      <c r="G325" s="53"/>
+      <c r="H325" s="53"/>
+      <c r="I325" s="53"/>
+      <c r="J325" s="53"/>
+      <c r="K325" s="54"/>
+      <c r="L325" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M324" s="53"/>
-      <c r="N324" s="53"/>
-      <c r="O324" s="53"/>
-      <c r="P324" s="53"/>
-      <c r="Q324" s="53"/>
-      <c r="R324" s="54"/>
-      <c r="S324" s="53" t="s">
+      <c r="M325" s="53"/>
+      <c r="N325" s="53"/>
+      <c r="O325" s="53"/>
+      <c r="P325" s="53"/>
+      <c r="Q325" s="53"/>
+      <c r="R325" s="54"/>
+      <c r="S325" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T324" s="53"/>
-      <c r="U324" s="53"/>
-      <c r="V324" s="53"/>
-      <c r="W324" s="53"/>
-      <c r="X324" s="53"/>
-      <c r="Y324" s="53"/>
-      <c r="Z324" s="53"/>
-      <c r="AA324" s="53"/>
-      <c r="AB324" s="53"/>
-      <c r="AC324" s="53"/>
-      <c r="AD324" s="53"/>
-      <c r="AE324" s="53"/>
-      <c r="AF324" s="53"/>
-      <c r="AG324" s="53"/>
-      <c r="AH324" s="54"/>
-    </row>
-    <row r="325" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F325" s="81" t="s">
+      <c r="T325" s="53"/>
+      <c r="U325" s="53"/>
+      <c r="V325" s="53"/>
+      <c r="W325" s="53"/>
+      <c r="X325" s="53"/>
+      <c r="Y325" s="53"/>
+      <c r="Z325" s="53"/>
+      <c r="AA325" s="53"/>
+      <c r="AB325" s="53"/>
+      <c r="AC325" s="53"/>
+      <c r="AD325" s="53"/>
+      <c r="AE325" s="53"/>
+      <c r="AF325" s="53"/>
+      <c r="AG325" s="53"/>
+      <c r="AH325" s="54"/>
+    </row>
+    <row r="326" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F326" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="G325" s="93"/>
-      <c r="H325" s="93"/>
-      <c r="I325" s="102"/>
-      <c r="J325" s="102"/>
-      <c r="K325" s="103"/>
-      <c r="L325" s="67" t="s">
+      <c r="G326" s="93"/>
+      <c r="H326" s="93"/>
+      <c r="I326" s="102"/>
+      <c r="J326" s="102"/>
+      <c r="K326" s="103"/>
+      <c r="L326" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="M325" s="68"/>
-      <c r="N325" s="68"/>
-      <c r="O325" s="93"/>
-      <c r="P325" s="93"/>
-      <c r="Q325" s="93"/>
-      <c r="R325" s="72"/>
-      <c r="S325" s="93" t="s">
+      <c r="M326" s="68"/>
+      <c r="N326" s="68"/>
+      <c r="O326" s="93"/>
+      <c r="P326" s="93"/>
+      <c r="Q326" s="93"/>
+      <c r="R326" s="72"/>
+      <c r="S326" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="T325" s="102"/>
-      <c r="U325" s="102"/>
-      <c r="V325" s="102"/>
-      <c r="W325" s="102"/>
-      <c r="X325" s="102"/>
-      <c r="Y325" s="102"/>
-      <c r="Z325" s="102"/>
-      <c r="AA325" s="102"/>
-      <c r="AB325" s="102"/>
-      <c r="AC325" s="102"/>
-      <c r="AD325" s="102"/>
-      <c r="AE325" s="102"/>
-      <c r="AF325" s="102"/>
-      <c r="AG325" s="102"/>
-      <c r="AH325" s="103"/>
-    </row>
-    <row r="326" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F326" s="70"/>
-      <c r="G326" s="70"/>
-      <c r="H326" s="70"/>
-      <c r="I326" s="70"/>
-      <c r="J326" s="70"/>
-      <c r="K326" s="70"/>
-      <c r="L326" s="70"/>
-      <c r="M326" s="44"/>
-      <c r="N326" s="44"/>
-      <c r="O326" s="44"/>
-      <c r="P326" s="44"/>
-      <c r="Q326" s="44"/>
-      <c r="R326" s="44"/>
-      <c r="S326" s="44"/>
-      <c r="T326" s="44"/>
-      <c r="U326" s="44"/>
-      <c r="V326" s="44"/>
-      <c r="W326" s="44"/>
-      <c r="X326" s="44"/>
-      <c r="Y326" s="44"/>
-      <c r="Z326" s="44"/>
-      <c r="AA326" s="44"/>
-      <c r="AB326" s="44"/>
-      <c r="AC326" s="44"/>
-      <c r="AD326" s="44"/>
-      <c r="AE326" s="44"/>
-      <c r="AF326" s="44"/>
-      <c r="AG326" s="44"/>
-      <c r="AH326" s="44"/>
-    </row>
-    <row r="327" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E327" s="28" t="str">
-        <f>D315&amp;"3."</f>
+      <c r="T326" s="102"/>
+      <c r="U326" s="102"/>
+      <c r="V326" s="102"/>
+      <c r="W326" s="102"/>
+      <c r="X326" s="102"/>
+      <c r="Y326" s="102"/>
+      <c r="Z326" s="102"/>
+      <c r="AA326" s="102"/>
+      <c r="AB326" s="102"/>
+      <c r="AC326" s="102"/>
+      <c r="AD326" s="102"/>
+      <c r="AE326" s="102"/>
+      <c r="AF326" s="102"/>
+      <c r="AG326" s="102"/>
+      <c r="AH326" s="103"/>
+    </row>
+    <row r="327" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F327" s="70"/>
+      <c r="G327" s="70"/>
+      <c r="H327" s="70"/>
+      <c r="I327" s="70"/>
+      <c r="J327" s="70"/>
+      <c r="K327" s="70"/>
+      <c r="L327" s="70"/>
+      <c r="M327" s="44"/>
+      <c r="N327" s="44"/>
+      <c r="O327" s="44"/>
+      <c r="P327" s="44"/>
+      <c r="Q327" s="44"/>
+      <c r="R327" s="44"/>
+      <c r="S327" s="44"/>
+      <c r="T327" s="44"/>
+      <c r="U327" s="44"/>
+      <c r="V327" s="44"/>
+      <c r="W327" s="44"/>
+      <c r="X327" s="44"/>
+      <c r="Y327" s="44"/>
+      <c r="Z327" s="44"/>
+      <c r="AA327" s="44"/>
+      <c r="AB327" s="44"/>
+      <c r="AC327" s="44"/>
+      <c r="AD327" s="44"/>
+      <c r="AE327" s="44"/>
+      <c r="AF327" s="44"/>
+      <c r="AG327" s="44"/>
+      <c r="AH327" s="44"/>
+    </row>
+    <row r="328" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E328" s="28" t="str">
+        <f>D316&amp;"3."</f>
         <v>3.1.11.3.</v>
       </c>
-      <c r="F327" s="36" t="s">
+      <c r="F328" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G327" s="36"/>
-      <c r="H327" s="36"/>
-      <c r="I327" s="36"/>
-      <c r="J327" s="36"/>
-      <c r="K327" s="36"/>
-      <c r="L327" s="36"/>
-    </row>
-    <row r="328" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F328" s="77" t="s">
+      <c r="G328" s="36"/>
+      <c r="H328" s="36"/>
+      <c r="I328" s="36"/>
+      <c r="J328" s="36"/>
+      <c r="K328" s="36"/>
+      <c r="L328" s="36"/>
+    </row>
+    <row r="329" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F329" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="G328" s="74" t="str">
-        <f>E315&amp;"方法詳細"</f>
+      <c r="G329" s="74" t="str">
+        <f>E316&amp;"方法詳細"</f>
         <v>コンテンツ更新方法詳細</v>
       </c>
-      <c r="H328" s="74"/>
-      <c r="I328" s="74"/>
-      <c r="J328" s="74"/>
-      <c r="K328" s="74"/>
-      <c r="L328" s="74"/>
-    </row>
-    <row r="329" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F329" s="77"/>
-      <c r="G329" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="H329" s="74" t="s">
-        <v>133</v>
-      </c>
+      <c r="H329" s="74"/>
       <c r="I329" s="74"/>
       <c r="J329" s="74"/>
       <c r="K329" s="74"/>
@@ -13558,39 +13612,39 @@
     </row>
     <row r="330" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F330" s="77"/>
-      <c r="G330" s="79"/>
-      <c r="H330" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="I330" s="74" t="s">
-        <v>134</v>
-      </c>
+      <c r="G330" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="H330" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="I330" s="74"/>
       <c r="J330" s="74"/>
       <c r="K330" s="74"/>
       <c r="L330" s="74"/>
     </row>
     <row r="331" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F331" s="77"/>
-      <c r="G331" s="79" t="s">
+      <c r="G331" s="79"/>
+      <c r="H331" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="H331" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="I331" s="74"/>
+      <c r="I331" s="74" t="s">
+        <v>134</v>
+      </c>
       <c r="J331" s="74"/>
       <c r="K331" s="74"/>
       <c r="L331" s="74"/>
     </row>
     <row r="332" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F332" s="77"/>
-      <c r="G332" s="74"/>
-      <c r="H332" s="79" t="s">
+      <c r="G332" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="I332" s="74" t="s">
-        <v>128</v>
-      </c>
+      <c r="H332" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="I332" s="74"/>
       <c r="J332" s="74"/>
       <c r="K332" s="74"/>
       <c r="L332" s="74"/>
@@ -13599,251 +13653,228 @@
       <c r="F333" s="77"/>
       <c r="G333" s="74"/>
       <c r="H333" s="79" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="I333" s="74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J333" s="74"/>
       <c r="K333" s="74"/>
       <c r="L333" s="74"/>
     </row>
     <row r="334" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F334" s="74"/>
-      <c r="G334" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="H334" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="I334" s="74"/>
+      <c r="F334" s="77"/>
+      <c r="G334" s="74"/>
+      <c r="H334" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="I334" s="74" t="s">
+        <v>130</v>
+      </c>
       <c r="J334" s="74"/>
       <c r="K334" s="74"/>
       <c r="L334" s="74"/>
     </row>
-    <row r="335" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F335" s="36"/>
-      <c r="G335" s="36"/>
-      <c r="H335" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="I335" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="J335" s="36"/>
-      <c r="K335" s="36"/>
-      <c r="L335" s="36"/>
+    <row r="335" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F335" s="74"/>
+      <c r="G335" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="H335" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="I335" s="74"/>
+      <c r="J335" s="74"/>
+      <c r="K335" s="74"/>
+      <c r="L335" s="74"/>
     </row>
     <row r="336" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F336" s="36"/>
-      <c r="G336" s="83"/>
-      <c r="H336" s="73" t="s">
-        <v>124</v>
+      <c r="G336" s="36"/>
+      <c r="H336" s="82" t="s">
+        <v>125</v>
       </c>
       <c r="I336" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J336" s="36"/>
       <c r="K336" s="36"/>
       <c r="L336" s="36"/>
     </row>
-    <row r="337" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F337" s="36"/>
       <c r="G337" s="83"/>
-      <c r="H337" s="36"/>
-      <c r="I337" s="36"/>
+      <c r="H337" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="I337" s="36" t="s">
+        <v>126</v>
+      </c>
       <c r="J337" s="36"/>
       <c r="K337" s="36"/>
       <c r="L337" s="36"/>
     </row>
-    <row r="338" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D338" s="28" t="str">
+    <row r="338" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F338" s="36"/>
+      <c r="G338" s="83"/>
+      <c r="H338" s="36"/>
+      <c r="I338" s="36"/>
+      <c r="J338" s="36"/>
+      <c r="K338" s="36"/>
+      <c r="L338" s="36"/>
+    </row>
+    <row r="339" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D339" s="28" t="str">
         <f>$C$7&amp;"12."</f>
         <v>3.1.12.</v>
       </c>
-      <c r="E338" s="4" t="s">
+      <c r="E339" s="4" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="339" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D339" s="42"/>
-      <c r="E339" s="42" t="str">
-        <f>D338&amp;"1."</f>
-        <v>3.1.12.1.</v>
-      </c>
-      <c r="F339" s="41" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="340" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D340" s="42"/>
-      <c r="E340" s="41" t="s">
-        <v>237</v>
+      <c r="E340" s="42" t="str">
+        <f>D339&amp;"1."</f>
+        <v>3.1.12.1.</v>
+      </c>
+      <c r="F340" s="41" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="341" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D341" s="42"/>
       <c r="E341" s="41" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="342" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D342" s="42"/>
+      <c r="E342" s="41" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="343" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D343" s="42"/>
-      <c r="E343" s="42" t="str">
-        <f>D338&amp;"2."</f>
-        <v>3.1.12.2.</v>
-      </c>
-      <c r="F343" s="41" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="344" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D344" s="42"/>
-      <c r="E344" s="41" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="345" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F345" s="19"/>
-      <c r="G345" s="19"/>
-      <c r="H345" s="19"/>
-      <c r="I345" s="19"/>
-      <c r="J345" s="19"/>
-      <c r="K345" s="19"/>
-      <c r="L345" s="19"/>
-      <c r="M345" s="19"/>
-      <c r="N345" s="19"/>
-      <c r="O345" s="19"/>
-      <c r="P345" s="19"/>
-      <c r="Q345" s="19"/>
-      <c r="R345" s="19"/>
-      <c r="S345" s="19"/>
-      <c r="T345" s="19"/>
-      <c r="U345" s="19"/>
-      <c r="V345" s="19"/>
-      <c r="W345" s="19"/>
-      <c r="X345" s="19"/>
-      <c r="Y345" s="19"/>
-      <c r="Z345" s="19"/>
-      <c r="AA345" s="19"/>
-      <c r="AB345" s="19"/>
-      <c r="AC345" s="19"/>
-      <c r="AD345" s="19"/>
-      <c r="AE345" s="19"/>
-      <c r="AF345" s="19"/>
-      <c r="AG345" s="19"/>
-      <c r="AH345" s="19"/>
-    </row>
-    <row r="346" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D346" s="42" t="str">
+      <c r="E344" s="42" t="str">
+        <f>D339&amp;"2."</f>
+        <v>3.1.12.2.</v>
+      </c>
+      <c r="F344" s="41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="345" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D345" s="42"/>
+      <c r="E345" s="41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="346" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F346" s="19"/>
+      <c r="G346" s="19"/>
+      <c r="H346" s="19"/>
+      <c r="I346" s="19"/>
+      <c r="J346" s="19"/>
+      <c r="K346" s="19"/>
+      <c r="L346" s="19"/>
+      <c r="M346" s="19"/>
+      <c r="N346" s="19"/>
+      <c r="O346" s="19"/>
+      <c r="P346" s="19"/>
+      <c r="Q346" s="19"/>
+      <c r="R346" s="19"/>
+      <c r="S346" s="19"/>
+      <c r="T346" s="19"/>
+      <c r="U346" s="19"/>
+      <c r="V346" s="19"/>
+      <c r="W346" s="19"/>
+      <c r="X346" s="19"/>
+      <c r="Y346" s="19"/>
+      <c r="Z346" s="19"/>
+      <c r="AA346" s="19"/>
+      <c r="AB346" s="19"/>
+      <c r="AC346" s="19"/>
+      <c r="AD346" s="19"/>
+      <c r="AE346" s="19"/>
+      <c r="AF346" s="19"/>
+      <c r="AG346" s="19"/>
+      <c r="AH346" s="19"/>
+    </row>
+    <row r="347" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D347" s="42" t="str">
         <f>$C$7&amp;"13."</f>
         <v>3.1.13.</v>
       </c>
-      <c r="E346" s="41" t="s">
+      <c r="E347" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="348" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D348" s="42"/>
+      <c r="E348" s="41" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="347" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D347" s="42"/>
-      <c r="E347" s="41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="348" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E348" s="52" t="s">
+    <row r="349" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E349" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F348" s="53"/>
-      <c r="G348" s="53"/>
-      <c r="H348" s="53"/>
-      <c r="I348" s="53"/>
-      <c r="J348" s="53"/>
-      <c r="K348" s="54"/>
-      <c r="L348" s="53" t="s">
+      <c r="F349" s="53"/>
+      <c r="G349" s="53"/>
+      <c r="H349" s="53"/>
+      <c r="I349" s="53"/>
+      <c r="J349" s="53"/>
+      <c r="K349" s="54"/>
+      <c r="L349" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="M348" s="53"/>
-      <c r="N348" s="53"/>
-      <c r="O348" s="54"/>
-      <c r="P348" s="53" t="s">
+      <c r="M349" s="53"/>
+      <c r="N349" s="53"/>
+      <c r="O349" s="54"/>
+      <c r="P349" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Q348" s="53"/>
-      <c r="R348" s="53"/>
-      <c r="S348" s="53"/>
-      <c r="T348" s="53"/>
-      <c r="U348" s="53"/>
-      <c r="V348" s="53"/>
-      <c r="W348" s="53"/>
-      <c r="X348" s="53"/>
-      <c r="Y348" s="53"/>
-      <c r="Z348" s="53"/>
-      <c r="AA348" s="53"/>
-      <c r="AB348" s="53"/>
-      <c r="AC348" s="53"/>
-      <c r="AD348" s="53"/>
-      <c r="AE348" s="53"/>
-      <c r="AF348" s="53"/>
-      <c r="AG348" s="53"/>
-      <c r="AH348" s="54"/>
-    </row>
-    <row r="349" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E349" s="109" t="s">
-        <v>232</v>
-      </c>
-      <c r="F349" s="98"/>
-      <c r="G349" s="98"/>
-      <c r="H349" s="70"/>
-      <c r="I349" s="70"/>
-      <c r="J349" s="70"/>
-      <c r="K349" s="100"/>
-      <c r="L349" s="98" t="s">
-        <v>234</v>
-      </c>
-      <c r="M349" s="70"/>
-      <c r="N349" s="70"/>
-      <c r="O349" s="100"/>
-      <c r="P349" s="98" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q349" s="70"/>
-      <c r="R349" s="70"/>
-      <c r="S349" s="70"/>
-      <c r="T349" s="70"/>
-      <c r="U349" s="70"/>
-      <c r="V349" s="70"/>
-      <c r="W349" s="70"/>
-      <c r="X349" s="70"/>
-      <c r="Y349" s="70"/>
-      <c r="Z349" s="70"/>
-      <c r="AA349" s="70"/>
-      <c r="AB349" s="70"/>
-      <c r="AC349" s="70"/>
-      <c r="AD349" s="70"/>
-      <c r="AE349" s="70"/>
-      <c r="AF349" s="70"/>
-      <c r="AG349" s="70"/>
-      <c r="AH349" s="94"/>
+      <c r="Q349" s="53"/>
+      <c r="R349" s="53"/>
+      <c r="S349" s="53"/>
+      <c r="T349" s="53"/>
+      <c r="U349" s="53"/>
+      <c r="V349" s="53"/>
+      <c r="W349" s="53"/>
+      <c r="X349" s="53"/>
+      <c r="Y349" s="53"/>
+      <c r="Z349" s="53"/>
+      <c r="AA349" s="53"/>
+      <c r="AB349" s="53"/>
+      <c r="AC349" s="53"/>
+      <c r="AD349" s="53"/>
+      <c r="AE349" s="53"/>
+      <c r="AF349" s="53"/>
+      <c r="AG349" s="53"/>
+      <c r="AH349" s="54"/>
     </row>
     <row r="350" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E350" s="109" t="s">
-        <v>206</v>
-      </c>
-      <c r="F350" s="26"/>
-      <c r="G350" s="26"/>
+        <v>229</v>
+      </c>
+      <c r="F350" s="98"/>
+      <c r="G350" s="98"/>
       <c r="H350" s="70"/>
       <c r="I350" s="70"/>
       <c r="J350" s="70"/>
-      <c r="K350" s="71"/>
-      <c r="L350" s="26"/>
+      <c r="K350" s="100"/>
+      <c r="L350" s="98" t="s">
+        <v>231</v>
+      </c>
       <c r="M350" s="70"/>
       <c r="N350" s="70"/>
-      <c r="O350" s="71"/>
-      <c r="P350" s="26" t="s">
-        <v>233</v>
+      <c r="O350" s="100"/>
+      <c r="P350" s="98" t="s">
+        <v>228</v>
       </c>
       <c r="Q350" s="70"/>
       <c r="R350" s="70"/>
@@ -13865,7 +13896,9 @@
       <c r="AH350" s="94"/>
     </row>
     <row r="351" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E351" s="109"/>
+      <c r="E351" s="109" t="s">
+        <v>205</v>
+      </c>
       <c r="F351" s="26"/>
       <c r="G351" s="26"/>
       <c r="H351" s="70"/>
@@ -13877,7 +13910,7 @@
       <c r="N351" s="70"/>
       <c r="O351" s="71"/>
       <c r="P351" s="26" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="Q351" s="70"/>
       <c r="R351" s="70"/>
@@ -13911,7 +13944,7 @@
       <c r="N352" s="70"/>
       <c r="O352" s="71"/>
       <c r="P352" s="26" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q352" s="70"/>
       <c r="R352" s="70"/>
@@ -13933,72 +13966,106 @@
       <c r="AH352" s="94"/>
     </row>
     <row r="353" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E353" s="81"/>
-      <c r="F353" s="76"/>
-      <c r="G353" s="76"/>
-      <c r="H353" s="102"/>
-      <c r="I353" s="102"/>
-      <c r="J353" s="102"/>
-      <c r="K353" s="90"/>
-      <c r="L353" s="76"/>
-      <c r="M353" s="102"/>
-      <c r="N353" s="102"/>
-      <c r="O353" s="90"/>
-      <c r="P353" s="76" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q353" s="102"/>
-      <c r="R353" s="102"/>
-      <c r="S353" s="102"/>
-      <c r="T353" s="102"/>
-      <c r="U353" s="102"/>
-      <c r="V353" s="102"/>
-      <c r="W353" s="102"/>
-      <c r="X353" s="102"/>
-      <c r="Y353" s="102"/>
-      <c r="Z353" s="102"/>
-      <c r="AA353" s="102"/>
-      <c r="AB353" s="102"/>
-      <c r="AC353" s="102"/>
-      <c r="AD353" s="102"/>
-      <c r="AE353" s="102"/>
-      <c r="AF353" s="102"/>
-      <c r="AG353" s="102"/>
-      <c r="AH353" s="103"/>
+      <c r="E353" s="109"/>
+      <c r="F353" s="26"/>
+      <c r="G353" s="26"/>
+      <c r="H353" s="70"/>
+      <c r="I353" s="70"/>
+      <c r="J353" s="70"/>
+      <c r="K353" s="71"/>
+      <c r="L353" s="26"/>
+      <c r="M353" s="70"/>
+      <c r="N353" s="70"/>
+      <c r="O353" s="71"/>
+      <c r="P353" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q353" s="70"/>
+      <c r="R353" s="70"/>
+      <c r="S353" s="70"/>
+      <c r="T353" s="70"/>
+      <c r="U353" s="70"/>
+      <c r="V353" s="70"/>
+      <c r="W353" s="70"/>
+      <c r="X353" s="70"/>
+      <c r="Y353" s="70"/>
+      <c r="Z353" s="70"/>
+      <c r="AA353" s="70"/>
+      <c r="AB353" s="70"/>
+      <c r="AC353" s="70"/>
+      <c r="AD353" s="70"/>
+      <c r="AE353" s="70"/>
+      <c r="AF353" s="70"/>
+      <c r="AG353" s="70"/>
+      <c r="AH353" s="94"/>
     </row>
     <row r="354" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F354" s="70"/>
-      <c r="G354" s="70"/>
-      <c r="H354" s="70"/>
-      <c r="I354" s="70"/>
-      <c r="J354" s="70"/>
-      <c r="K354" s="70"/>
-      <c r="L354" s="70"/>
-      <c r="M354" s="44"/>
-      <c r="N354" s="44"/>
-      <c r="O354" s="44"/>
-      <c r="P354" s="44"/>
-      <c r="Q354" s="44"/>
-      <c r="R354" s="44"/>
-      <c r="S354" s="44"/>
-      <c r="T354" s="44"/>
-      <c r="U354" s="44"/>
-      <c r="V354" s="44"/>
-      <c r="W354" s="44"/>
-      <c r="X354" s="44"/>
-      <c r="Y354" s="44"/>
-      <c r="Z354" s="44"/>
-      <c r="AA354" s="44"/>
-      <c r="AB354" s="44"/>
-      <c r="AC354" s="44"/>
-      <c r="AD354" s="44"/>
-      <c r="AE354" s="44"/>
-      <c r="AF354" s="44"/>
-      <c r="AG354" s="44"/>
-      <c r="AH354" s="44"/>
-    </row>
-    <row r="355" spans="5:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F355" s="91"/>
+      <c r="E354" s="81"/>
+      <c r="F354" s="76"/>
+      <c r="G354" s="76"/>
+      <c r="H354" s="102"/>
+      <c r="I354" s="102"/>
+      <c r="J354" s="102"/>
+      <c r="K354" s="90"/>
+      <c r="L354" s="76"/>
+      <c r="M354" s="102"/>
+      <c r="N354" s="102"/>
+      <c r="O354" s="90"/>
+      <c r="P354" s="76" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q354" s="102"/>
+      <c r="R354" s="102"/>
+      <c r="S354" s="102"/>
+      <c r="T354" s="102"/>
+      <c r="U354" s="102"/>
+      <c r="V354" s="102"/>
+      <c r="W354" s="102"/>
+      <c r="X354" s="102"/>
+      <c r="Y354" s="102"/>
+      <c r="Z354" s="102"/>
+      <c r="AA354" s="102"/>
+      <c r="AB354" s="102"/>
+      <c r="AC354" s="102"/>
+      <c r="AD354" s="102"/>
+      <c r="AE354" s="102"/>
+      <c r="AF354" s="102"/>
+      <c r="AG354" s="102"/>
+      <c r="AH354" s="103"/>
+    </row>
+    <row r="355" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F355" s="70"/>
+      <c r="G355" s="70"/>
+      <c r="H355" s="70"/>
+      <c r="I355" s="70"/>
+      <c r="J355" s="70"/>
+      <c r="K355" s="70"/>
+      <c r="L355" s="70"/>
+      <c r="M355" s="44"/>
+      <c r="N355" s="44"/>
+      <c r="O355" s="44"/>
+      <c r="P355" s="44"/>
+      <c r="Q355" s="44"/>
+      <c r="R355" s="44"/>
+      <c r="S355" s="44"/>
+      <c r="T355" s="44"/>
+      <c r="U355" s="44"/>
+      <c r="V355" s="44"/>
+      <c r="W355" s="44"/>
+      <c r="X355" s="44"/>
+      <c r="Y355" s="44"/>
+      <c r="Z355" s="44"/>
+      <c r="AA355" s="44"/>
+      <c r="AB355" s="44"/>
+      <c r="AC355" s="44"/>
+      <c r="AD355" s="44"/>
+      <c r="AE355" s="44"/>
+      <c r="AF355" s="44"/>
+      <c r="AG355" s="44"/>
+      <c r="AH355" s="44"/>
+    </row>
+    <row r="356" spans="5:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F356" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14021,17 +14088,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId3"/>
-  <rowBreaks count="10" manualBreakCount="10">
+  <rowBreaks count="11" manualBreakCount="11">
     <brk id="43" max="16383" man="1"/>
     <brk id="85" max="16383" man="1"/>
     <brk id="110" max="16383" man="1"/>
     <brk id="134" max="16383" man="1"/>
     <brk id="158" max="16383" man="1"/>
-    <brk id="205" max="16383" man="1"/>
-    <brk id="240" max="16383" man="1"/>
-    <brk id="273" max="16383" man="1"/>
-    <brk id="313" max="16383" man="1"/>
-    <brk id="337" max="16383" man="1"/>
+    <brk id="176" max="34" man="1"/>
+    <brk id="207" max="34" man="1"/>
+    <brk id="241" max="16383" man="1"/>
+    <brk id="274" max="16383" man="1"/>
+    <brk id="314" max="16383" man="1"/>
+    <brk id="338" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="B5" numberStoredAsText="1"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B509F912-7B14-47A1-9A22-C0754695F0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D6F956-A7EB-4662-B470-9F3C2F91AC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.1.同期処理方式'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$355</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$274</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$274</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.1.同期処理方式'!$A$1:$AI$354</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$273</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.1.同期処理方式'!$A$1:$AI$273</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4209,13 +4209,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4231,7 +4231,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1350479" y="40924370"/>
+          <a:off x="1350479" y="40783565"/>
           <a:ext cx="7726431" cy="775252"/>
           <a:chOff x="1362075" y="5760869"/>
           <a:chExt cx="7810499" cy="820906"/>
@@ -5218,7 +5218,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI356"/>
+  <dimension ref="A1:AI355"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
@@ -10122,8 +10122,8 @@
         <f>D208&amp;"1."</f>
         <v>3.1.9.1.</v>
       </c>
-      <c r="F209" s="74" t="s">
-        <v>121</v>
+      <c r="F209" s="29" t="s">
+        <v>88</v>
       </c>
       <c r="G209" s="29"/>
       <c r="H209" s="29"/>
@@ -10161,8 +10161,8 @@
       <c r="C210" s="29"/>
       <c r="D210" s="29"/>
       <c r="E210" s="24"/>
-      <c r="F210" s="74" t="s">
-        <v>122</v>
+      <c r="F210" s="29" t="s">
+        <v>86</v>
       </c>
       <c r="G210" s="29"/>
       <c r="H210" s="29"/>
@@ -10194,12 +10194,12 @@
       <c r="AH210" s="29"/>
       <c r="AI210" s="29"/>
     </row>
-    <row r="211" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="29"/>
       <c r="B211" s="29"/>
       <c r="C211" s="29"/>
       <c r="D211" s="29"/>
-      <c r="E211" s="29"/>
+      <c r="E211" s="24"/>
       <c r="F211" s="29"/>
       <c r="G211" s="29"/>
       <c r="H211" s="29"/>
@@ -10237,11 +10237,11 @@
       <c r="C212" s="29"/>
       <c r="D212" s="29"/>
       <c r="E212" s="29"/>
-      <c r="F212" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="G212" s="65" t="s">
-        <v>75</v>
+      <c r="F212" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G212" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="H212" s="29"/>
       <c r="I212" s="29"/>
@@ -10278,9 +10278,9 @@
       <c r="C213" s="29"/>
       <c r="D213" s="29"/>
       <c r="E213" s="29"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="65" t="s">
-        <v>73</v>
+      <c r="F213" s="24"/>
+      <c r="G213" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="H213" s="29"/>
       <c r="I213" s="29"/>
@@ -10317,37 +10317,41 @@
       <c r="C214" s="29"/>
       <c r="D214" s="29"/>
       <c r="E214" s="29"/>
-      <c r="F214" s="29"/>
-      <c r="G214" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="H214" s="29"/>
-      <c r="I214" s="29"/>
-      <c r="J214" s="29"/>
-      <c r="K214" s="29"/>
-      <c r="L214" s="29"/>
-      <c r="M214" s="29"/>
-      <c r="N214" s="29"/>
-      <c r="O214" s="29"/>
-      <c r="P214" s="29"/>
-      <c r="Q214" s="29"/>
-      <c r="R214" s="29"/>
-      <c r="S214" s="29"/>
-      <c r="T214" s="29"/>
-      <c r="U214" s="29"/>
-      <c r="V214" s="29"/>
-      <c r="W214" s="29"/>
-      <c r="X214" s="29"/>
-      <c r="Y214" s="29"/>
-      <c r="Z214" s="29"/>
-      <c r="AA214" s="29"/>
-      <c r="AB214" s="29"/>
-      <c r="AC214" s="29"/>
-      <c r="AD214" s="29"/>
-      <c r="AE214" s="29"/>
-      <c r="AF214" s="29"/>
-      <c r="AG214" s="29"/>
-      <c r="AH214" s="29"/>
+      <c r="F214" s="24"/>
+      <c r="G214" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H214" s="38"/>
+      <c r="I214" s="38"/>
+      <c r="J214" s="38"/>
+      <c r="K214" s="37"/>
+      <c r="L214" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="M214" s="38"/>
+      <c r="N214" s="38"/>
+      <c r="O214" s="38"/>
+      <c r="P214" s="38"/>
+      <c r="Q214" s="38"/>
+      <c r="R214" s="38"/>
+      <c r="S214" s="38"/>
+      <c r="T214" s="38"/>
+      <c r="U214" s="38"/>
+      <c r="V214" s="38"/>
+      <c r="W214" s="38"/>
+      <c r="X214" s="38"/>
+      <c r="Y214" s="38"/>
+      <c r="Z214" s="38"/>
+      <c r="AA214" s="38"/>
+      <c r="AB214" s="37"/>
+      <c r="AC214" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD214" s="38"/>
+      <c r="AE214" s="38"/>
+      <c r="AF214" s="38"/>
+      <c r="AG214" s="38"/>
+      <c r="AH214" s="37"/>
       <c r="AI214" s="29"/>
     </row>
     <row r="215" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10356,37 +10360,41 @@
       <c r="C215" s="29"/>
       <c r="D215" s="29"/>
       <c r="E215" s="29"/>
-      <c r="F215" s="29"/>
-      <c r="G215" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="H215" s="29"/>
-      <c r="I215" s="29"/>
-      <c r="J215" s="29"/>
-      <c r="K215" s="29"/>
-      <c r="L215" s="29"/>
-      <c r="M215" s="29"/>
-      <c r="N215" s="29"/>
-      <c r="O215" s="29"/>
-      <c r="P215" s="29"/>
-      <c r="Q215" s="29"/>
-      <c r="R215" s="29"/>
-      <c r="S215" s="29"/>
-      <c r="T215" s="29"/>
-      <c r="U215" s="29"/>
-      <c r="V215" s="29"/>
-      <c r="W215" s="29"/>
-      <c r="X215" s="29"/>
-      <c r="Y215" s="29"/>
-      <c r="Z215" s="29"/>
-      <c r="AA215" s="29"/>
-      <c r="AB215" s="29"/>
-      <c r="AC215" s="29"/>
-      <c r="AD215" s="29"/>
-      <c r="AE215" s="29"/>
-      <c r="AF215" s="29"/>
-      <c r="AG215" s="29"/>
-      <c r="AH215" s="29"/>
+      <c r="F215" s="24"/>
+      <c r="G215" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H215" s="55"/>
+      <c r="I215" s="55"/>
+      <c r="J215" s="55"/>
+      <c r="K215" s="31"/>
+      <c r="L215" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="M215" s="26"/>
+      <c r="N215" s="26"/>
+      <c r="O215" s="26"/>
+      <c r="P215" s="26"/>
+      <c r="Q215" s="26"/>
+      <c r="R215" s="26"/>
+      <c r="S215" s="26"/>
+      <c r="T215" s="26"/>
+      <c r="U215" s="26"/>
+      <c r="V215" s="26"/>
+      <c r="W215" s="26"/>
+      <c r="X215" s="26"/>
+      <c r="Y215" s="26"/>
+      <c r="Z215" s="26"/>
+      <c r="AA215" s="26"/>
+      <c r="AB215" s="71"/>
+      <c r="AC215" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD215" s="26"/>
+      <c r="AE215" s="26"/>
+      <c r="AF215" s="26"/>
+      <c r="AG215" s="26"/>
+      <c r="AH215" s="71"/>
       <c r="AI215" s="29"/>
     </row>
     <row r="216" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10395,37 +10403,39 @@
       <c r="C216" s="29"/>
       <c r="D216" s="29"/>
       <c r="E216" s="29"/>
-      <c r="F216" s="29"/>
-      <c r="G216" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="H216" s="29"/>
-      <c r="I216" s="29"/>
-      <c r="J216" s="29"/>
-      <c r="K216" s="29"/>
-      <c r="L216" s="29"/>
-      <c r="M216" s="29"/>
-      <c r="N216" s="29"/>
-      <c r="O216" s="29"/>
-      <c r="P216" s="29"/>
-      <c r="Q216" s="29"/>
-      <c r="R216" s="29"/>
-      <c r="S216" s="29"/>
-      <c r="T216" s="29"/>
-      <c r="U216" s="29"/>
-      <c r="V216" s="29"/>
-      <c r="W216" s="29"/>
-      <c r="X216" s="29"/>
-      <c r="Y216" s="29"/>
-      <c r="Z216" s="29"/>
-      <c r="AA216" s="29"/>
-      <c r="AB216" s="29"/>
-      <c r="AC216" s="29"/>
-      <c r="AD216" s="29"/>
-      <c r="AE216" s="29"/>
-      <c r="AF216" s="29"/>
-      <c r="AG216" s="29"/>
-      <c r="AH216" s="29"/>
+      <c r="F216" s="24"/>
+      <c r="G216" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H216" s="57"/>
+      <c r="I216" s="57"/>
+      <c r="J216" s="57"/>
+      <c r="K216" s="58"/>
+      <c r="L216" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="M216" s="26"/>
+      <c r="N216" s="26"/>
+      <c r="O216" s="26"/>
+      <c r="P216" s="26"/>
+      <c r="Q216" s="26"/>
+      <c r="R216" s="26"/>
+      <c r="S216" s="26"/>
+      <c r="T216" s="26"/>
+      <c r="U216" s="26"/>
+      <c r="V216" s="26"/>
+      <c r="W216" s="26"/>
+      <c r="X216" s="26"/>
+      <c r="Y216" s="26"/>
+      <c r="Z216" s="26"/>
+      <c r="AA216" s="26"/>
+      <c r="AB216" s="71"/>
+      <c r="AC216" s="26"/>
+      <c r="AD216" s="26"/>
+      <c r="AE216" s="26"/>
+      <c r="AF216" s="26"/>
+      <c r="AG216" s="26"/>
+      <c r="AH216" s="71"/>
       <c r="AI216" s="29"/>
     </row>
     <row r="217" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10434,308 +10444,320 @@
       <c r="C217" s="29"/>
       <c r="D217" s="29"/>
       <c r="E217" s="29"/>
-      <c r="F217" s="29"/>
-      <c r="G217" s="78" t="s">
-        <v>224</v>
-      </c>
-      <c r="H217" s="29"/>
-      <c r="I217" s="29"/>
-      <c r="J217" s="29"/>
-      <c r="K217" s="29"/>
-      <c r="L217" s="29"/>
-      <c r="M217" s="29"/>
-      <c r="N217" s="29"/>
-      <c r="O217" s="29"/>
-      <c r="P217" s="29"/>
-      <c r="Q217" s="29"/>
-      <c r="R217" s="29"/>
-      <c r="S217" s="29"/>
-      <c r="T217" s="29"/>
-      <c r="U217" s="29"/>
-      <c r="V217" s="29"/>
-      <c r="W217" s="29"/>
-      <c r="X217" s="29"/>
-      <c r="Y217" s="29"/>
-      <c r="Z217" s="29"/>
-      <c r="AA217" s="29"/>
-      <c r="AB217" s="29"/>
-      <c r="AC217" s="29"/>
-      <c r="AD217" s="29"/>
-      <c r="AE217" s="29"/>
-      <c r="AF217" s="29"/>
-      <c r="AG217" s="29"/>
-      <c r="AH217" s="29"/>
+      <c r="F217" s="24"/>
+      <c r="G217" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="H217" s="55"/>
+      <c r="I217" s="55"/>
+      <c r="J217" s="55"/>
+      <c r="K217" s="31"/>
+      <c r="L217" s="92"/>
+      <c r="M217" s="26"/>
+      <c r="N217" s="26"/>
+      <c r="O217" s="26"/>
+      <c r="P217" s="26"/>
+      <c r="Q217" s="26"/>
+      <c r="R217" s="26"/>
+      <c r="S217" s="26"/>
+      <c r="T217" s="26"/>
+      <c r="U217" s="26"/>
+      <c r="V217" s="26"/>
+      <c r="W217" s="26"/>
+      <c r="X217" s="26"/>
+      <c r="Y217" s="26"/>
+      <c r="Z217" s="26"/>
+      <c r="AA217" s="26"/>
+      <c r="AB217" s="71"/>
+      <c r="AC217" s="26"/>
+      <c r="AD217" s="26"/>
+      <c r="AE217" s="26"/>
+      <c r="AF217" s="26"/>
+      <c r="AG217" s="26"/>
+      <c r="AH217" s="71"/>
       <c r="AI217" s="29"/>
     </row>
-    <row r="218" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="29"/>
       <c r="B218" s="29"/>
       <c r="C218" s="29"/>
       <c r="D218" s="29"/>
       <c r="E218" s="29"/>
-      <c r="F218" s="29"/>
-      <c r="G218" s="29"/>
-      <c r="H218" s="29"/>
-      <c r="I218" s="29"/>
-      <c r="J218" s="29"/>
-      <c r="K218" s="29"/>
-      <c r="L218" s="29"/>
-      <c r="M218" s="29"/>
-      <c r="N218" s="29"/>
-      <c r="O218" s="29"/>
-      <c r="P218" s="29"/>
-      <c r="Q218" s="29"/>
-      <c r="R218" s="29"/>
-      <c r="S218" s="29"/>
-      <c r="T218" s="29"/>
-      <c r="U218" s="29"/>
-      <c r="V218" s="29"/>
-      <c r="W218" s="29"/>
-      <c r="X218" s="29"/>
-      <c r="Y218" s="29"/>
-      <c r="Z218" s="29"/>
-      <c r="AA218" s="29"/>
-      <c r="AB218" s="29"/>
-      <c r="AC218" s="29"/>
-      <c r="AD218" s="29"/>
-      <c r="AE218" s="29"/>
-      <c r="AF218" s="29"/>
-      <c r="AG218" s="29"/>
-      <c r="AH218" s="29"/>
+      <c r="F218" s="24"/>
+      <c r="G218" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="H218" s="33"/>
+      <c r="I218" s="33"/>
+      <c r="J218" s="33"/>
+      <c r="K218" s="34"/>
+      <c r="L218" s="76"/>
+      <c r="M218" s="76"/>
+      <c r="N218" s="76"/>
+      <c r="O218" s="76"/>
+      <c r="P218" s="76"/>
+      <c r="Q218" s="76"/>
+      <c r="R218" s="76"/>
+      <c r="S218" s="76"/>
+      <c r="T218" s="76"/>
+      <c r="U218" s="76"/>
+      <c r="V218" s="76"/>
+      <c r="W218" s="76"/>
+      <c r="X218" s="76"/>
+      <c r="Y218" s="76"/>
+      <c r="Z218" s="76"/>
+      <c r="AA218" s="76"/>
+      <c r="AB218" s="90"/>
+      <c r="AC218" s="76"/>
+      <c r="AD218" s="76"/>
+      <c r="AE218" s="76"/>
+      <c r="AF218" s="76"/>
+      <c r="AG218" s="76"/>
+      <c r="AH218" s="90"/>
       <c r="AI218" s="29"/>
     </row>
-    <row r="219" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="29"/>
       <c r="B219" s="29"/>
       <c r="C219" s="29"/>
       <c r="D219" s="29"/>
       <c r="E219" s="29"/>
-      <c r="F219" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="G219" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="H219" s="29"/>
-      <c r="I219" s="29"/>
-      <c r="J219" s="29"/>
-      <c r="K219" s="29"/>
-      <c r="L219" s="29"/>
-      <c r="M219" s="29"/>
-      <c r="N219" s="29"/>
-      <c r="O219" s="29"/>
-      <c r="P219" s="29"/>
-      <c r="Q219" s="29"/>
-      <c r="R219" s="29"/>
-      <c r="S219" s="29"/>
-      <c r="T219" s="29"/>
-      <c r="U219" s="29"/>
-      <c r="V219" s="29"/>
-      <c r="W219" s="29"/>
-      <c r="X219" s="29"/>
-      <c r="Y219" s="29"/>
-      <c r="Z219" s="29"/>
-      <c r="AA219" s="29"/>
-      <c r="AB219" s="29"/>
-      <c r="AC219" s="29"/>
-      <c r="AD219" s="29"/>
-      <c r="AE219" s="29"/>
-      <c r="AF219" s="29"/>
-      <c r="AG219" s="29"/>
-      <c r="AH219" s="29"/>
+      <c r="F219" s="24"/>
+      <c r="G219" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H219" s="55"/>
+      <c r="I219" s="55"/>
+      <c r="J219" s="55"/>
+      <c r="K219" s="31"/>
+      <c r="L219" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M219" s="26"/>
+      <c r="N219" s="26"/>
+      <c r="O219" s="26"/>
+      <c r="P219" s="26"/>
+      <c r="Q219" s="26"/>
+      <c r="R219" s="26"/>
+      <c r="S219" s="26"/>
+      <c r="T219" s="26"/>
+      <c r="U219" s="26"/>
+      <c r="V219" s="26"/>
+      <c r="W219" s="26"/>
+      <c r="X219" s="26"/>
+      <c r="Y219" s="26"/>
+      <c r="Z219" s="26"/>
+      <c r="AA219" s="26"/>
+      <c r="AB219" s="71"/>
+      <c r="AC219" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD219" s="26"/>
+      <c r="AE219" s="26"/>
+      <c r="AF219" s="26"/>
+      <c r="AG219" s="26"/>
+      <c r="AH219" s="71"/>
       <c r="AI219" s="29"/>
     </row>
-    <row r="220" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="29"/>
       <c r="B220" s="29"/>
       <c r="C220" s="29"/>
       <c r="D220" s="29"/>
       <c r="E220" s="29"/>
-      <c r="F220" s="29"/>
-      <c r="G220" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H220" s="29"/>
-      <c r="I220" s="29"/>
-      <c r="J220" s="29"/>
-      <c r="K220" s="29"/>
-      <c r="L220" s="29"/>
-      <c r="M220" s="29"/>
-      <c r="N220" s="29"/>
-      <c r="O220" s="29"/>
-      <c r="P220" s="29"/>
-      <c r="Q220" s="29"/>
-      <c r="R220" s="29"/>
-      <c r="S220" s="29"/>
-      <c r="T220" s="29"/>
-      <c r="U220" s="29"/>
-      <c r="V220" s="29"/>
-      <c r="W220" s="29"/>
-      <c r="X220" s="29"/>
-      <c r="Y220" s="29"/>
-      <c r="Z220" s="29"/>
-      <c r="AA220" s="29"/>
-      <c r="AB220" s="29"/>
-      <c r="AC220" s="29"/>
-      <c r="AD220" s="29"/>
-      <c r="AE220" s="29"/>
-      <c r="AF220" s="29"/>
-      <c r="AG220" s="29"/>
-      <c r="AH220" s="29"/>
+      <c r="F220" s="24"/>
+      <c r="G220" s="30"/>
+      <c r="H220" s="55"/>
+      <c r="I220" s="55"/>
+      <c r="J220" s="55"/>
+      <c r="K220" s="31"/>
+      <c r="L220" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="M220" s="26"/>
+      <c r="N220" s="26"/>
+      <c r="O220" s="26"/>
+      <c r="P220" s="26"/>
+      <c r="Q220" s="26"/>
+      <c r="R220" s="26"/>
+      <c r="S220" s="26"/>
+      <c r="T220" s="26"/>
+      <c r="U220" s="26"/>
+      <c r="V220" s="26"/>
+      <c r="W220" s="26"/>
+      <c r="X220" s="26"/>
+      <c r="Y220" s="26"/>
+      <c r="Z220" s="26"/>
+      <c r="AA220" s="26"/>
+      <c r="AB220" s="71"/>
+      <c r="AC220" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD220" s="26"/>
+      <c r="AE220" s="26"/>
+      <c r="AF220" s="26"/>
+      <c r="AG220" s="26"/>
+      <c r="AH220" s="71"/>
       <c r="AI220" s="29"/>
     </row>
-    <row r="221" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="29"/>
       <c r="B221" s="29"/>
       <c r="C221" s="29"/>
       <c r="D221" s="29"/>
       <c r="E221" s="29"/>
-      <c r="F221" s="29"/>
-      <c r="G221" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H221" s="29"/>
-      <c r="I221" s="29"/>
-      <c r="J221" s="29"/>
-      <c r="K221" s="29"/>
-      <c r="L221" s="29"/>
-      <c r="M221" s="29"/>
-      <c r="N221" s="29"/>
-      <c r="O221" s="29"/>
-      <c r="P221" s="29"/>
-      <c r="Q221" s="29"/>
-      <c r="R221" s="29"/>
-      <c r="S221" s="29"/>
-      <c r="T221" s="29"/>
-      <c r="U221" s="29"/>
-      <c r="V221" s="29"/>
-      <c r="W221" s="29"/>
-      <c r="X221" s="29"/>
-      <c r="Y221" s="29"/>
-      <c r="Z221" s="29"/>
-      <c r="AA221" s="29"/>
-      <c r="AB221" s="29"/>
-      <c r="AC221" s="29"/>
-      <c r="AD221" s="29"/>
-      <c r="AE221" s="29"/>
-      <c r="AF221" s="29"/>
-      <c r="AG221" s="29"/>
-      <c r="AH221" s="29"/>
+      <c r="F221" s="24"/>
+      <c r="G221" s="30"/>
+      <c r="H221" s="55"/>
+      <c r="I221" s="55"/>
+      <c r="J221" s="55"/>
+      <c r="K221" s="31"/>
+      <c r="L221" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="M221" s="26"/>
+      <c r="N221" s="26"/>
+      <c r="O221" s="26"/>
+      <c r="P221" s="26"/>
+      <c r="Q221" s="26"/>
+      <c r="R221" s="26"/>
+      <c r="S221" s="26"/>
+      <c r="T221" s="26"/>
+      <c r="U221" s="26"/>
+      <c r="V221" s="26"/>
+      <c r="W221" s="26"/>
+      <c r="X221" s="26"/>
+      <c r="Y221" s="26"/>
+      <c r="Z221" s="26"/>
+      <c r="AA221" s="26"/>
+      <c r="AB221" s="71"/>
+      <c r="AC221" s="26"/>
+      <c r="AD221" s="26"/>
+      <c r="AE221" s="26"/>
+      <c r="AF221" s="26"/>
+      <c r="AG221" s="26"/>
+      <c r="AH221" s="71"/>
       <c r="AI221" s="29"/>
     </row>
-    <row r="222" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="29"/>
       <c r="B222" s="29"/>
       <c r="C222" s="29"/>
       <c r="D222" s="29"/>
       <c r="E222" s="29"/>
-      <c r="F222" s="29"/>
-      <c r="G222" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="H222" s="29"/>
-      <c r="I222" s="29"/>
-      <c r="J222" s="29"/>
-      <c r="K222" s="29"/>
-      <c r="L222" s="29"/>
-      <c r="M222" s="29"/>
-      <c r="N222" s="29"/>
-      <c r="O222" s="29"/>
-      <c r="P222" s="29"/>
-      <c r="Q222" s="29"/>
-      <c r="R222" s="29"/>
-      <c r="S222" s="29"/>
-      <c r="T222" s="29"/>
-      <c r="U222" s="29"/>
-      <c r="V222" s="29"/>
-      <c r="W222" s="29"/>
-      <c r="X222" s="29"/>
-      <c r="Y222" s="29"/>
-      <c r="Z222" s="29"/>
-      <c r="AA222" s="29"/>
-      <c r="AB222" s="29"/>
-      <c r="AC222" s="29"/>
-      <c r="AD222" s="29"/>
-      <c r="AE222" s="29"/>
-      <c r="AF222" s="29"/>
-      <c r="AG222" s="29"/>
-      <c r="AH222" s="29"/>
+      <c r="F222" s="24"/>
+      <c r="G222" s="32"/>
+      <c r="H222" s="33"/>
+      <c r="I222" s="33"/>
+      <c r="J222" s="33"/>
+      <c r="K222" s="34"/>
+      <c r="L222" s="76"/>
+      <c r="M222" s="76"/>
+      <c r="N222" s="76"/>
+      <c r="O222" s="76"/>
+      <c r="P222" s="76"/>
+      <c r="Q222" s="76"/>
+      <c r="R222" s="76"/>
+      <c r="S222" s="76"/>
+      <c r="T222" s="76"/>
+      <c r="U222" s="76"/>
+      <c r="V222" s="76"/>
+      <c r="W222" s="76"/>
+      <c r="X222" s="76"/>
+      <c r="Y222" s="76"/>
+      <c r="Z222" s="76"/>
+      <c r="AA222" s="76"/>
+      <c r="AB222" s="90"/>
+      <c r="AC222" s="76"/>
+      <c r="AD222" s="76"/>
+      <c r="AE222" s="76"/>
+      <c r="AF222" s="76"/>
+      <c r="AG222" s="76"/>
+      <c r="AH222" s="90"/>
       <c r="AI222" s="29"/>
     </row>
-    <row r="223" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="29"/>
       <c r="B223" s="29"/>
       <c r="C223" s="29"/>
       <c r="D223" s="29"/>
       <c r="E223" s="29"/>
-      <c r="F223" s="29"/>
-      <c r="G223" s="29"/>
-      <c r="H223" s="29"/>
-      <c r="I223" s="29"/>
-      <c r="J223" s="29"/>
-      <c r="K223" s="29"/>
-      <c r="L223" s="29"/>
-      <c r="M223" s="29"/>
-      <c r="N223" s="29"/>
-      <c r="O223" s="29"/>
-      <c r="P223" s="29"/>
-      <c r="Q223" s="29"/>
-      <c r="R223" s="29"/>
-      <c r="S223" s="29"/>
-      <c r="T223" s="29"/>
-      <c r="U223" s="29"/>
-      <c r="V223" s="29"/>
-      <c r="W223" s="29"/>
-      <c r="X223" s="29"/>
-      <c r="Y223" s="29"/>
-      <c r="Z223" s="29"/>
-      <c r="AA223" s="29"/>
-      <c r="AB223" s="29"/>
-      <c r="AC223" s="29"/>
-      <c r="AD223" s="29"/>
-      <c r="AE223" s="29"/>
-      <c r="AF223" s="29"/>
-      <c r="AG223" s="29"/>
-      <c r="AH223" s="29"/>
+      <c r="F223" s="24"/>
+      <c r="G223" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H223" s="55"/>
+      <c r="I223" s="55"/>
+      <c r="J223" s="55"/>
+      <c r="K223" s="31"/>
+      <c r="L223" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M223" s="26"/>
+      <c r="N223" s="26"/>
+      <c r="O223" s="26"/>
+      <c r="P223" s="26"/>
+      <c r="Q223" s="26"/>
+      <c r="R223" s="26"/>
+      <c r="S223" s="26"/>
+      <c r="T223" s="26"/>
+      <c r="U223" s="26"/>
+      <c r="V223" s="26"/>
+      <c r="W223" s="26"/>
+      <c r="X223" s="26"/>
+      <c r="Y223" s="26"/>
+      <c r="Z223" s="26"/>
+      <c r="AA223" s="26"/>
+      <c r="AB223" s="71"/>
+      <c r="AC223" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD223" s="26"/>
+      <c r="AE223" s="26"/>
+      <c r="AF223" s="26"/>
+      <c r="AG223" s="26"/>
+      <c r="AH223" s="71"/>
       <c r="AI223" s="29"/>
     </row>
-    <row r="224" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="29"/>
       <c r="B224" s="29"/>
       <c r="C224" s="29"/>
       <c r="D224" s="29"/>
       <c r="E224" s="29"/>
-      <c r="F224" s="29"/>
-      <c r="G224" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="H224" s="29"/>
-      <c r="I224" s="29"/>
-      <c r="J224" s="29"/>
-      <c r="K224" s="29"/>
-      <c r="L224" s="29"/>
-      <c r="M224" s="29"/>
-      <c r="N224" s="29"/>
-      <c r="O224" s="29"/>
-      <c r="P224" s="29"/>
-      <c r="Q224" s="29"/>
-      <c r="R224" s="29"/>
-      <c r="S224" s="29"/>
-      <c r="T224" s="29"/>
-      <c r="U224" s="29"/>
-      <c r="V224" s="29"/>
-      <c r="W224" s="29"/>
-      <c r="X224" s="29"/>
-      <c r="Y224" s="29"/>
-      <c r="Z224" s="29"/>
-      <c r="AA224" s="29"/>
-      <c r="AB224" s="29"/>
-      <c r="AC224" s="29"/>
-      <c r="AD224" s="29"/>
-      <c r="AE224" s="29"/>
-      <c r="AF224" s="29"/>
-      <c r="AG224" s="29"/>
-      <c r="AH224" s="29"/>
+      <c r="F224" s="24"/>
+      <c r="G224" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="H224" s="55"/>
+      <c r="I224" s="55"/>
+      <c r="J224" s="55"/>
+      <c r="K224" s="31"/>
+      <c r="L224" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M224" s="26"/>
+      <c r="N224" s="26"/>
+      <c r="O224" s="26"/>
+      <c r="P224" s="26"/>
+      <c r="Q224" s="26"/>
+      <c r="R224" s="26"/>
+      <c r="S224" s="26"/>
+      <c r="T224" s="26"/>
+      <c r="U224" s="26"/>
+      <c r="V224" s="26"/>
+      <c r="W224" s="26"/>
+      <c r="X224" s="26"/>
+      <c r="Y224" s="26"/>
+      <c r="Z224" s="26"/>
+      <c r="AA224" s="26"/>
+      <c r="AB224" s="71"/>
+      <c r="AC224" s="26"/>
+      <c r="AD224" s="26"/>
+      <c r="AE224" s="26"/>
+      <c r="AF224" s="26"/>
+      <c r="AG224" s="26"/>
+      <c r="AH224" s="71"/>
       <c r="AI224" s="29"/>
     </row>
     <row r="225" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10744,39 +10766,37 @@
       <c r="C225" s="29"/>
       <c r="D225" s="29"/>
       <c r="E225" s="29"/>
-      <c r="F225" s="29"/>
-      <c r="G225" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H225" s="38"/>
-      <c r="I225" s="38"/>
-      <c r="J225" s="38"/>
-      <c r="K225" s="38"/>
-      <c r="L225" s="38"/>
-      <c r="M225" s="38"/>
-      <c r="N225" s="38"/>
-      <c r="O225" s="38"/>
-      <c r="P225" s="37"/>
-      <c r="Q225" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="R225" s="38"/>
-      <c r="S225" s="38"/>
-      <c r="T225" s="38"/>
-      <c r="U225" s="38"/>
-      <c r="V225" s="38"/>
-      <c r="W225" s="38"/>
-      <c r="X225" s="38"/>
-      <c r="Y225" s="38"/>
-      <c r="Z225" s="38"/>
-      <c r="AA225" s="38"/>
-      <c r="AB225" s="38"/>
-      <c r="AC225" s="38"/>
-      <c r="AD225" s="38"/>
-      <c r="AE225" s="38"/>
-      <c r="AF225" s="38"/>
-      <c r="AG225" s="38"/>
-      <c r="AH225" s="37"/>
+      <c r="F225" s="24"/>
+      <c r="G225" s="30"/>
+      <c r="H225" s="55"/>
+      <c r="I225" s="55"/>
+      <c r="J225" s="55"/>
+      <c r="K225" s="31"/>
+      <c r="L225" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="M225" s="26"/>
+      <c r="N225" s="26"/>
+      <c r="O225" s="26"/>
+      <c r="P225" s="26"/>
+      <c r="Q225" s="26"/>
+      <c r="R225" s="26"/>
+      <c r="S225" s="26"/>
+      <c r="T225" s="26"/>
+      <c r="U225" s="26"/>
+      <c r="V225" s="26"/>
+      <c r="W225" s="26"/>
+      <c r="X225" s="26"/>
+      <c r="Y225" s="26"/>
+      <c r="Z225" s="26"/>
+      <c r="AA225" s="26"/>
+      <c r="AB225" s="71"/>
+      <c r="AC225" s="26"/>
+      <c r="AD225" s="26"/>
+      <c r="AE225" s="26"/>
+      <c r="AF225" s="26"/>
+      <c r="AG225" s="26"/>
+      <c r="AH225" s="71"/>
       <c r="AI225" s="29"/>
     </row>
     <row r="226" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10785,39 +10805,37 @@
       <c r="C226" s="29"/>
       <c r="D226" s="29"/>
       <c r="E226" s="29"/>
-      <c r="F226" s="29"/>
-      <c r="G226" s="30" t="s">
-        <v>82</v>
-      </c>
+      <c r="F226" s="24"/>
+      <c r="G226" s="30"/>
       <c r="H226" s="55"/>
       <c r="I226" s="55"/>
       <c r="J226" s="55"/>
-      <c r="K226" s="55"/>
-      <c r="L226" s="55"/>
-      <c r="M226" s="55"/>
-      <c r="N226" s="55"/>
-      <c r="O226" s="55"/>
-      <c r="P226" s="31"/>
-      <c r="Q226" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="R226" s="55"/>
-      <c r="S226" s="55"/>
-      <c r="T226" s="55"/>
-      <c r="U226" s="55"/>
-      <c r="V226" s="55"/>
-      <c r="W226" s="55"/>
-      <c r="X226" s="55"/>
-      <c r="Y226" s="55"/>
-      <c r="Z226" s="55"/>
-      <c r="AA226" s="55"/>
-      <c r="AB226" s="55"/>
-      <c r="AC226" s="55"/>
-      <c r="AD226" s="55"/>
-      <c r="AE226" s="55"/>
-      <c r="AF226" s="55"/>
-      <c r="AG226" s="55"/>
-      <c r="AH226" s="31"/>
+      <c r="K226" s="31"/>
+      <c r="L226" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M226" s="26"/>
+      <c r="N226" s="26"/>
+      <c r="O226" s="26"/>
+      <c r="P226" s="26"/>
+      <c r="Q226" s="26"/>
+      <c r="R226" s="26"/>
+      <c r="S226" s="26"/>
+      <c r="T226" s="26"/>
+      <c r="U226" s="26"/>
+      <c r="V226" s="26"/>
+      <c r="W226" s="26"/>
+      <c r="X226" s="26"/>
+      <c r="Y226" s="26"/>
+      <c r="Z226" s="26"/>
+      <c r="AA226" s="26"/>
+      <c r="AB226" s="71"/>
+      <c r="AC226" s="26"/>
+      <c r="AD226" s="26"/>
+      <c r="AE226" s="26"/>
+      <c r="AF226" s="26"/>
+      <c r="AG226" s="26"/>
+      <c r="AH226" s="71"/>
       <c r="AI226" s="29"/>
     </row>
     <row r="227" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10826,37 +10844,35 @@
       <c r="C227" s="29"/>
       <c r="D227" s="29"/>
       <c r="E227" s="29"/>
-      <c r="F227" s="29"/>
-      <c r="G227" s="32"/>
-      <c r="H227" s="33"/>
-      <c r="I227" s="33"/>
-      <c r="J227" s="33"/>
-      <c r="K227" s="33"/>
-      <c r="L227" s="33"/>
-      <c r="M227" s="33"/>
-      <c r="N227" s="33"/>
-      <c r="O227" s="33"/>
-      <c r="P227" s="34"/>
-      <c r="Q227" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="R227" s="33"/>
-      <c r="S227" s="33"/>
-      <c r="T227" s="33"/>
-      <c r="U227" s="33"/>
-      <c r="V227" s="33"/>
-      <c r="W227" s="33"/>
-      <c r="X227" s="33"/>
-      <c r="Y227" s="33"/>
-      <c r="Z227" s="33"/>
-      <c r="AA227" s="33"/>
-      <c r="AB227" s="33"/>
-      <c r="AC227" s="33"/>
-      <c r="AD227" s="33"/>
-      <c r="AE227" s="33"/>
-      <c r="AF227" s="33"/>
-      <c r="AG227" s="33"/>
-      <c r="AH227" s="34"/>
+      <c r="F227" s="24"/>
+      <c r="G227" s="30"/>
+      <c r="H227" s="55"/>
+      <c r="I227" s="55"/>
+      <c r="J227" s="55"/>
+      <c r="K227" s="31"/>
+      <c r="L227" s="26"/>
+      <c r="M227" s="26"/>
+      <c r="N227" s="26"/>
+      <c r="O227" s="26"/>
+      <c r="P227" s="26"/>
+      <c r="Q227" s="26"/>
+      <c r="R227" s="26"/>
+      <c r="S227" s="26"/>
+      <c r="T227" s="26"/>
+      <c r="U227" s="26"/>
+      <c r="V227" s="26"/>
+      <c r="W227" s="26"/>
+      <c r="X227" s="26"/>
+      <c r="Y227" s="26"/>
+      <c r="Z227" s="26"/>
+      <c r="AA227" s="26"/>
+      <c r="AB227" s="71"/>
+      <c r="AC227" s="26"/>
+      <c r="AD227" s="26"/>
+      <c r="AE227" s="26"/>
+      <c r="AF227" s="26"/>
+      <c r="AG227" s="26"/>
+      <c r="AH227" s="71"/>
       <c r="AI227" s="29"/>
     </row>
     <row r="228" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10865,39 +10881,37 @@
       <c r="C228" s="29"/>
       <c r="D228" s="29"/>
       <c r="E228" s="29"/>
-      <c r="F228" s="29"/>
-      <c r="G228" s="30" t="s">
-        <v>240</v>
-      </c>
+      <c r="F228" s="24"/>
+      <c r="G228" s="30"/>
       <c r="H228" s="55"/>
       <c r="I228" s="55"/>
       <c r="J228" s="55"/>
-      <c r="K228" s="55"/>
-      <c r="L228" s="55"/>
-      <c r="M228" s="55"/>
-      <c r="N228" s="55"/>
-      <c r="O228" s="55"/>
-      <c r="P228" s="31"/>
-      <c r="Q228" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="R228" s="55"/>
-      <c r="S228" s="55"/>
-      <c r="T228" s="55"/>
-      <c r="U228" s="55"/>
-      <c r="V228" s="55"/>
-      <c r="W228" s="55"/>
-      <c r="X228" s="55"/>
-      <c r="Y228" s="55"/>
-      <c r="Z228" s="55"/>
-      <c r="AA228" s="55"/>
-      <c r="AB228" s="55"/>
-      <c r="AC228" s="55"/>
-      <c r="AD228" s="55"/>
-      <c r="AE228" s="55"/>
-      <c r="AF228" s="55"/>
-      <c r="AG228" s="55"/>
-      <c r="AH228" s="31"/>
+      <c r="K228" s="31"/>
+      <c r="L228" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M228" s="26"/>
+      <c r="N228" s="26"/>
+      <c r="O228" s="26"/>
+      <c r="P228" s="26"/>
+      <c r="Q228" s="26"/>
+      <c r="R228" s="26"/>
+      <c r="S228" s="26"/>
+      <c r="T228" s="26"/>
+      <c r="U228" s="26"/>
+      <c r="V228" s="26"/>
+      <c r="W228" s="26"/>
+      <c r="X228" s="26"/>
+      <c r="Y228" s="26"/>
+      <c r="Z228" s="26"/>
+      <c r="AA228" s="26"/>
+      <c r="AB228" s="71"/>
+      <c r="AC228" s="26"/>
+      <c r="AD228" s="26"/>
+      <c r="AE228" s="26"/>
+      <c r="AF228" s="26"/>
+      <c r="AG228" s="26"/>
+      <c r="AH228" s="71"/>
       <c r="AI228" s="29"/>
     </row>
     <row r="229" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10906,37 +10920,37 @@
       <c r="C229" s="29"/>
       <c r="D229" s="29"/>
       <c r="E229" s="29"/>
-      <c r="F229" s="29"/>
+      <c r="F229" s="24"/>
       <c r="G229" s="30"/>
       <c r="H229" s="55"/>
       <c r="I229" s="55"/>
       <c r="J229" s="55"/>
-      <c r="K229" s="55"/>
-      <c r="L229" s="55"/>
-      <c r="M229" s="55"/>
-      <c r="N229" s="55"/>
-      <c r="O229" s="55"/>
-      <c r="P229" s="31"/>
-      <c r="Q229" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="R229" s="55"/>
-      <c r="S229" s="55"/>
-      <c r="T229" s="55"/>
-      <c r="U229" s="55"/>
-      <c r="V229" s="55"/>
-      <c r="W229" s="55"/>
-      <c r="X229" s="55"/>
-      <c r="Y229" s="55"/>
-      <c r="Z229" s="55"/>
-      <c r="AA229" s="55"/>
-      <c r="AB229" s="55"/>
-      <c r="AC229" s="55"/>
-      <c r="AD229" s="55"/>
-      <c r="AE229" s="55"/>
-      <c r="AF229" s="55"/>
-      <c r="AG229" s="55"/>
-      <c r="AH229" s="31"/>
+      <c r="K229" s="31"/>
+      <c r="L229" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="M229" s="26"/>
+      <c r="N229" s="26"/>
+      <c r="O229" s="26"/>
+      <c r="P229" s="26"/>
+      <c r="Q229" s="26"/>
+      <c r="R229" s="26"/>
+      <c r="S229" s="26"/>
+      <c r="T229" s="26"/>
+      <c r="U229" s="26"/>
+      <c r="V229" s="26"/>
+      <c r="W229" s="26"/>
+      <c r="X229" s="26"/>
+      <c r="Y229" s="26"/>
+      <c r="Z229" s="26"/>
+      <c r="AA229" s="26"/>
+      <c r="AB229" s="71"/>
+      <c r="AC229" s="26"/>
+      <c r="AD229" s="26"/>
+      <c r="AE229" s="26"/>
+      <c r="AF229" s="26"/>
+      <c r="AG229" s="26"/>
+      <c r="AH229" s="71"/>
       <c r="AI229" s="29"/>
     </row>
     <row r="230" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10945,37 +10959,37 @@
       <c r="C230" s="29"/>
       <c r="D230" s="29"/>
       <c r="E230" s="29"/>
-      <c r="F230" s="29"/>
-      <c r="G230" s="32"/>
-      <c r="H230" s="33"/>
-      <c r="I230" s="33"/>
-      <c r="J230" s="33"/>
-      <c r="K230" s="33"/>
-      <c r="L230" s="33"/>
-      <c r="M230" s="33"/>
-      <c r="N230" s="33"/>
-      <c r="O230" s="33"/>
-      <c r="P230" s="34"/>
-      <c r="Q230" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="R230" s="33"/>
-      <c r="S230" s="33"/>
-      <c r="T230" s="33"/>
-      <c r="U230" s="33"/>
-      <c r="V230" s="33"/>
-      <c r="W230" s="33"/>
-      <c r="X230" s="33"/>
-      <c r="Y230" s="33"/>
-      <c r="Z230" s="33"/>
-      <c r="AA230" s="33"/>
-      <c r="AB230" s="33"/>
-      <c r="AC230" s="33"/>
-      <c r="AD230" s="33"/>
-      <c r="AE230" s="33"/>
-      <c r="AF230" s="33"/>
-      <c r="AG230" s="33"/>
-      <c r="AH230" s="34"/>
+      <c r="F230" s="24"/>
+      <c r="G230" s="30"/>
+      <c r="H230" s="55"/>
+      <c r="I230" s="55"/>
+      <c r="J230" s="55"/>
+      <c r="K230" s="31"/>
+      <c r="L230" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="M230" s="26"/>
+      <c r="N230" s="26"/>
+      <c r="O230" s="26"/>
+      <c r="P230" s="26"/>
+      <c r="Q230" s="26"/>
+      <c r="R230" s="26"/>
+      <c r="S230" s="26"/>
+      <c r="T230" s="26"/>
+      <c r="U230" s="26"/>
+      <c r="V230" s="26"/>
+      <c r="W230" s="26"/>
+      <c r="X230" s="26"/>
+      <c r="Y230" s="26"/>
+      <c r="Z230" s="26"/>
+      <c r="AA230" s="26"/>
+      <c r="AB230" s="71"/>
+      <c r="AC230" s="26"/>
+      <c r="AD230" s="26"/>
+      <c r="AE230" s="26"/>
+      <c r="AF230" s="26"/>
+      <c r="AG230" s="26"/>
+      <c r="AH230" s="71"/>
       <c r="AI230" s="29"/>
     </row>
     <row r="231" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10984,35 +10998,37 @@
       <c r="C231" s="29"/>
       <c r="D231" s="29"/>
       <c r="E231" s="29"/>
-      <c r="F231" s="29"/>
-      <c r="G231" s="55"/>
+      <c r="F231" s="24"/>
+      <c r="G231" s="30"/>
       <c r="H231" s="55"/>
       <c r="I231" s="55"/>
       <c r="J231" s="55"/>
-      <c r="K231" s="55"/>
-      <c r="L231" s="55"/>
-      <c r="M231" s="55"/>
-      <c r="N231" s="55"/>
-      <c r="O231" s="55"/>
-      <c r="P231" s="55"/>
-      <c r="Q231" s="55"/>
-      <c r="R231" s="55"/>
-      <c r="S231" s="55"/>
-      <c r="T231" s="55"/>
-      <c r="U231" s="55"/>
-      <c r="V231" s="55"/>
-      <c r="W231" s="55"/>
-      <c r="X231" s="55"/>
-      <c r="Y231" s="55"/>
-      <c r="Z231" s="55"/>
-      <c r="AA231" s="55"/>
-      <c r="AB231" s="55"/>
-      <c r="AC231" s="55"/>
-      <c r="AD231" s="55"/>
-      <c r="AE231" s="55"/>
-      <c r="AF231" s="55"/>
-      <c r="AG231" s="55"/>
-      <c r="AH231" s="55"/>
+      <c r="K231" s="31"/>
+      <c r="L231" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M231" s="26"/>
+      <c r="N231" s="26"/>
+      <c r="O231" s="26"/>
+      <c r="P231" s="26"/>
+      <c r="Q231" s="26"/>
+      <c r="R231" s="26"/>
+      <c r="S231" s="26"/>
+      <c r="T231" s="26"/>
+      <c r="U231" s="26"/>
+      <c r="V231" s="26"/>
+      <c r="W231" s="26"/>
+      <c r="X231" s="26"/>
+      <c r="Y231" s="26"/>
+      <c r="Z231" s="26"/>
+      <c r="AA231" s="26"/>
+      <c r="AB231" s="71"/>
+      <c r="AC231" s="26"/>
+      <c r="AD231" s="26"/>
+      <c r="AE231" s="26"/>
+      <c r="AF231" s="26"/>
+      <c r="AG231" s="26"/>
+      <c r="AH231" s="71"/>
       <c r="AI231" s="29"/>
     </row>
     <row r="232" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11021,37 +11037,37 @@
       <c r="C232" s="29"/>
       <c r="D232" s="29"/>
       <c r="E232" s="29"/>
-      <c r="F232" s="29"/>
-      <c r="G232" s="55" t="s">
-        <v>239</v>
-      </c>
+      <c r="F232" s="24"/>
+      <c r="G232" s="30"/>
       <c r="H232" s="55"/>
       <c r="I232" s="55"/>
       <c r="J232" s="55"/>
-      <c r="K232" s="55"/>
-      <c r="L232" s="55"/>
-      <c r="M232" s="55"/>
-      <c r="N232" s="55"/>
-      <c r="O232" s="55"/>
-      <c r="P232" s="55"/>
-      <c r="Q232" s="55"/>
-      <c r="R232" s="55"/>
-      <c r="S232" s="55"/>
-      <c r="T232" s="55"/>
-      <c r="U232" s="55"/>
-      <c r="V232" s="55"/>
-      <c r="W232" s="55"/>
-      <c r="X232" s="55"/>
-      <c r="Y232" s="55"/>
-      <c r="Z232" s="55"/>
-      <c r="AA232" s="55"/>
-      <c r="AB232" s="55"/>
-      <c r="AC232" s="55"/>
-      <c r="AD232" s="55"/>
-      <c r="AE232" s="55"/>
-      <c r="AF232" s="55"/>
-      <c r="AG232" s="55"/>
-      <c r="AH232" s="55"/>
+      <c r="K232" s="31"/>
+      <c r="L232" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="M232" s="26"/>
+      <c r="N232" s="26"/>
+      <c r="O232" s="26"/>
+      <c r="P232" s="26"/>
+      <c r="Q232" s="26"/>
+      <c r="R232" s="26"/>
+      <c r="S232" s="26"/>
+      <c r="T232" s="26"/>
+      <c r="U232" s="26"/>
+      <c r="V232" s="26"/>
+      <c r="W232" s="26"/>
+      <c r="X232" s="26"/>
+      <c r="Y232" s="26"/>
+      <c r="Z232" s="26"/>
+      <c r="AA232" s="26"/>
+      <c r="AB232" s="71"/>
+      <c r="AC232" s="26"/>
+      <c r="AD232" s="26"/>
+      <c r="AE232" s="26"/>
+      <c r="AF232" s="26"/>
+      <c r="AG232" s="26"/>
+      <c r="AH232" s="71"/>
       <c r="AI232" s="29"/>
     </row>
     <row r="233" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11060,35 +11076,37 @@
       <c r="C233" s="29"/>
       <c r="D233" s="29"/>
       <c r="E233" s="29"/>
-      <c r="F233" s="29"/>
-      <c r="G233" s="55"/>
+      <c r="F233" s="24"/>
+      <c r="G233" s="30"/>
       <c r="H233" s="55"/>
       <c r="I233" s="55"/>
       <c r="J233" s="55"/>
-      <c r="K233" s="55"/>
-      <c r="L233" s="55"/>
-      <c r="M233" s="55"/>
-      <c r="N233" s="55"/>
-      <c r="O233" s="55"/>
-      <c r="P233" s="55"/>
-      <c r="Q233" s="55"/>
-      <c r="R233" s="55"/>
-      <c r="S233" s="55"/>
-      <c r="T233" s="55"/>
-      <c r="U233" s="55"/>
-      <c r="V233" s="55"/>
-      <c r="W233" s="55"/>
-      <c r="X233" s="55"/>
-      <c r="Y233" s="55"/>
-      <c r="Z233" s="55"/>
-      <c r="AA233" s="55"/>
-      <c r="AB233" s="55"/>
-      <c r="AC233" s="55"/>
-      <c r="AD233" s="55"/>
-      <c r="AE233" s="55"/>
-      <c r="AF233" s="55"/>
-      <c r="AG233" s="55"/>
-      <c r="AH233" s="55"/>
+      <c r="K233" s="31"/>
+      <c r="L233" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M233" s="26"/>
+      <c r="N233" s="26"/>
+      <c r="O233" s="26"/>
+      <c r="P233" s="26"/>
+      <c r="Q233" s="26"/>
+      <c r="R233" s="26"/>
+      <c r="S233" s="26"/>
+      <c r="T233" s="26"/>
+      <c r="U233" s="26"/>
+      <c r="V233" s="26"/>
+      <c r="W233" s="26"/>
+      <c r="X233" s="26"/>
+      <c r="Y233" s="26"/>
+      <c r="Z233" s="26"/>
+      <c r="AA233" s="26"/>
+      <c r="AB233" s="71"/>
+      <c r="AC233" s="26"/>
+      <c r="AD233" s="26"/>
+      <c r="AE233" s="26"/>
+      <c r="AF233" s="26"/>
+      <c r="AG233" s="26"/>
+      <c r="AH233" s="71"/>
       <c r="AI233" s="29"/>
     </row>
     <row r="234" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11097,37 +11115,37 @@
       <c r="C234" s="29"/>
       <c r="D234" s="29"/>
       <c r="E234" s="29"/>
-      <c r="F234" s="29"/>
-      <c r="G234" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="H234" s="55"/>
-      <c r="I234" s="55"/>
-      <c r="J234" s="55"/>
-      <c r="K234" s="55"/>
-      <c r="L234" s="55"/>
-      <c r="M234" s="55"/>
-      <c r="N234" s="55"/>
-      <c r="O234" s="55"/>
-      <c r="P234" s="55"/>
-      <c r="Q234" s="55"/>
-      <c r="R234" s="55"/>
-      <c r="S234" s="55"/>
-      <c r="T234" s="55"/>
-      <c r="U234" s="55"/>
-      <c r="V234" s="55"/>
-      <c r="W234" s="55"/>
-      <c r="X234" s="55"/>
-      <c r="Y234" s="55"/>
-      <c r="Z234" s="55"/>
-      <c r="AA234" s="55"/>
-      <c r="AB234" s="55"/>
-      <c r="AC234" s="55"/>
-      <c r="AD234" s="55"/>
-      <c r="AE234" s="55"/>
-      <c r="AF234" s="55"/>
-      <c r="AG234" s="55"/>
-      <c r="AH234" s="55"/>
+      <c r="F234" s="24"/>
+      <c r="G234" s="32"/>
+      <c r="H234" s="33"/>
+      <c r="I234" s="33"/>
+      <c r="J234" s="33"/>
+      <c r="K234" s="34"/>
+      <c r="L234" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="M234" s="76"/>
+      <c r="N234" s="76"/>
+      <c r="O234" s="76"/>
+      <c r="P234" s="76"/>
+      <c r="Q234" s="76"/>
+      <c r="R234" s="76"/>
+      <c r="S234" s="76"/>
+      <c r="T234" s="76"/>
+      <c r="U234" s="76"/>
+      <c r="V234" s="76"/>
+      <c r="W234" s="76"/>
+      <c r="X234" s="76"/>
+      <c r="Y234" s="76"/>
+      <c r="Z234" s="76"/>
+      <c r="AA234" s="76"/>
+      <c r="AB234" s="90"/>
+      <c r="AC234" s="76"/>
+      <c r="AD234" s="76"/>
+      <c r="AE234" s="76"/>
+      <c r="AF234" s="76"/>
+      <c r="AG234" s="76"/>
+      <c r="AH234" s="90"/>
       <c r="AI234" s="29"/>
     </row>
     <row r="235" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11136,37 +11154,41 @@
       <c r="C235" s="29"/>
       <c r="D235" s="29"/>
       <c r="E235" s="29"/>
-      <c r="F235" s="29"/>
-      <c r="G235" s="55" t="s">
-        <v>246</v>
+      <c r="F235" s="24"/>
+      <c r="G235" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="H235" s="55"/>
       <c r="I235" s="55"/>
       <c r="J235" s="55"/>
-      <c r="K235" s="55"/>
-      <c r="L235" s="55"/>
-      <c r="M235" s="55"/>
-      <c r="N235" s="55"/>
-      <c r="O235" s="55"/>
-      <c r="P235" s="55"/>
-      <c r="Q235" s="55"/>
-      <c r="R235" s="55"/>
-      <c r="S235" s="55"/>
-      <c r="T235" s="55"/>
-      <c r="U235" s="55"/>
-      <c r="V235" s="55"/>
-      <c r="W235" s="55"/>
-      <c r="X235" s="55"/>
-      <c r="Y235" s="55"/>
-      <c r="Z235" s="55"/>
-      <c r="AA235" s="55"/>
-      <c r="AB235" s="55"/>
-      <c r="AC235" s="55"/>
-      <c r="AD235" s="55"/>
-      <c r="AE235" s="55"/>
-      <c r="AF235" s="55"/>
-      <c r="AG235" s="55"/>
-      <c r="AH235" s="55"/>
+      <c r="K235" s="31"/>
+      <c r="L235" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="M235" s="26"/>
+      <c r="N235" s="26"/>
+      <c r="O235" s="26"/>
+      <c r="P235" s="26"/>
+      <c r="Q235" s="26"/>
+      <c r="R235" s="26"/>
+      <c r="S235" s="26"/>
+      <c r="T235" s="26"/>
+      <c r="U235" s="26"/>
+      <c r="V235" s="26"/>
+      <c r="W235" s="26"/>
+      <c r="X235" s="26"/>
+      <c r="Y235" s="26"/>
+      <c r="Z235" s="26"/>
+      <c r="AA235" s="26"/>
+      <c r="AB235" s="71"/>
+      <c r="AC235" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD235" s="26"/>
+      <c r="AE235" s="26"/>
+      <c r="AF235" s="26"/>
+      <c r="AG235" s="26"/>
+      <c r="AH235" s="71"/>
       <c r="AI235" s="29"/>
     </row>
     <row r="236" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11175,35 +11197,39 @@
       <c r="C236" s="29"/>
       <c r="D236" s="29"/>
       <c r="E236" s="29"/>
-      <c r="F236" s="29"/>
-      <c r="G236" s="55"/>
-      <c r="H236" s="55"/>
-      <c r="I236" s="55"/>
-      <c r="J236" s="55"/>
-      <c r="K236" s="55"/>
-      <c r="L236" s="55"/>
-      <c r="M236" s="55"/>
-      <c r="N236" s="55"/>
-      <c r="O236" s="55"/>
-      <c r="P236" s="55"/>
-      <c r="Q236" s="55"/>
-      <c r="R236" s="55"/>
-      <c r="S236" s="55"/>
-      <c r="T236" s="55"/>
-      <c r="U236" s="55"/>
-      <c r="V236" s="55"/>
-      <c r="W236" s="55"/>
-      <c r="X236" s="55"/>
-      <c r="Y236" s="55"/>
-      <c r="Z236" s="55"/>
-      <c r="AA236" s="55"/>
-      <c r="AB236" s="55"/>
-      <c r="AC236" s="55"/>
-      <c r="AD236" s="55"/>
-      <c r="AE236" s="55"/>
-      <c r="AF236" s="55"/>
-      <c r="AG236" s="55"/>
-      <c r="AH236" s="55"/>
+      <c r="F236" s="24"/>
+      <c r="G236" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H236" s="33"/>
+      <c r="I236" s="33"/>
+      <c r="J236" s="33"/>
+      <c r="K236" s="34"/>
+      <c r="L236" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="M236" s="76"/>
+      <c r="N236" s="76"/>
+      <c r="O236" s="76"/>
+      <c r="P236" s="76"/>
+      <c r="Q236" s="76"/>
+      <c r="R236" s="76"/>
+      <c r="S236" s="76"/>
+      <c r="T236" s="76"/>
+      <c r="U236" s="76"/>
+      <c r="V236" s="76"/>
+      <c r="W236" s="76"/>
+      <c r="X236" s="76"/>
+      <c r="Y236" s="76"/>
+      <c r="Z236" s="76"/>
+      <c r="AA236" s="76"/>
+      <c r="AB236" s="90"/>
+      <c r="AC236" s="76"/>
+      <c r="AD236" s="76"/>
+      <c r="AE236" s="76"/>
+      <c r="AF236" s="76"/>
+      <c r="AG236" s="76"/>
+      <c r="AH236" s="90"/>
       <c r="AI236" s="29"/>
     </row>
     <row r="237" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11211,38 +11237,36 @@
       <c r="B237" s="29"/>
       <c r="C237" s="29"/>
       <c r="D237" s="29"/>
-      <c r="E237" s="29"/>
+      <c r="E237" s="24"/>
       <c r="F237" s="29"/>
-      <c r="G237" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="H237" s="55"/>
-      <c r="I237" s="55"/>
-      <c r="J237" s="55"/>
-      <c r="K237" s="55"/>
-      <c r="L237" s="55"/>
-      <c r="M237" s="55"/>
-      <c r="N237" s="55"/>
-      <c r="O237" s="55"/>
-      <c r="P237" s="55"/>
-      <c r="Q237" s="55"/>
-      <c r="R237" s="55"/>
-      <c r="S237" s="55"/>
-      <c r="T237" s="55"/>
-      <c r="U237" s="55"/>
-      <c r="V237" s="55"/>
-      <c r="W237" s="55"/>
-      <c r="X237" s="55"/>
-      <c r="Y237" s="55"/>
-      <c r="Z237" s="55"/>
-      <c r="AA237" s="55"/>
-      <c r="AB237" s="55"/>
-      <c r="AC237" s="55"/>
-      <c r="AD237" s="55"/>
-      <c r="AE237" s="55"/>
-      <c r="AF237" s="55"/>
-      <c r="AG237" s="55"/>
-      <c r="AH237" s="55"/>
+      <c r="G237" s="29"/>
+      <c r="H237" s="29"/>
+      <c r="I237" s="29"/>
+      <c r="J237" s="29"/>
+      <c r="K237" s="29"/>
+      <c r="L237" s="29"/>
+      <c r="M237" s="29"/>
+      <c r="N237" s="29"/>
+      <c r="O237" s="29"/>
+      <c r="P237" s="29"/>
+      <c r="Q237" s="29"/>
+      <c r="R237" s="29"/>
+      <c r="S237" s="29"/>
+      <c r="T237" s="29"/>
+      <c r="U237" s="29"/>
+      <c r="V237" s="29"/>
+      <c r="W237" s="29"/>
+      <c r="X237" s="29"/>
+      <c r="Y237" s="29"/>
+      <c r="Z237" s="29"/>
+      <c r="AA237" s="29"/>
+      <c r="AB237" s="29"/>
+      <c r="AC237" s="29"/>
+      <c r="AD237" s="29"/>
+      <c r="AE237" s="29"/>
+      <c r="AF237" s="29"/>
+      <c r="AG237" s="29"/>
+      <c r="AH237" s="29"/>
       <c r="AI237" s="29"/>
     </row>
     <row r="238" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11250,38 +11274,40 @@
       <c r="B238" s="29"/>
       <c r="C238" s="29"/>
       <c r="D238" s="29"/>
-      <c r="E238" s="29"/>
-      <c r="F238" s="29"/>
-      <c r="G238" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="H238" s="55"/>
-      <c r="I238" s="55"/>
-      <c r="J238" s="55"/>
-      <c r="K238" s="55"/>
-      <c r="L238" s="55"/>
-      <c r="M238" s="55"/>
-      <c r="N238" s="55"/>
-      <c r="O238" s="55"/>
-      <c r="P238" s="55"/>
-      <c r="Q238" s="55"/>
-      <c r="R238" s="55"/>
-      <c r="S238" s="55"/>
-      <c r="T238" s="55"/>
-      <c r="U238" s="55"/>
-      <c r="V238" s="55"/>
-      <c r="W238" s="55"/>
-      <c r="X238" s="55"/>
-      <c r="Y238" s="55"/>
-      <c r="Z238" s="55"/>
-      <c r="AA238" s="55"/>
-      <c r="AB238" s="55"/>
-      <c r="AC238" s="55"/>
-      <c r="AD238" s="55"/>
-      <c r="AE238" s="55"/>
-      <c r="AF238" s="55"/>
-      <c r="AG238" s="55"/>
-      <c r="AH238" s="55"/>
+      <c r="E238" s="24"/>
+      <c r="F238" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G238" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H238" s="29"/>
+      <c r="I238" s="29"/>
+      <c r="J238" s="29"/>
+      <c r="K238" s="29"/>
+      <c r="L238" s="29"/>
+      <c r="M238" s="29"/>
+      <c r="N238" s="29"/>
+      <c r="O238" s="29"/>
+      <c r="P238" s="29"/>
+      <c r="Q238" s="29"/>
+      <c r="R238" s="29"/>
+      <c r="S238" s="29"/>
+      <c r="T238" s="29"/>
+      <c r="U238" s="29"/>
+      <c r="V238" s="29"/>
+      <c r="W238" s="29"/>
+      <c r="X238" s="29"/>
+      <c r="Y238" s="29"/>
+      <c r="Z238" s="29"/>
+      <c r="AA238" s="29"/>
+      <c r="AB238" s="29"/>
+      <c r="AC238" s="29"/>
+      <c r="AD238" s="29"/>
+      <c r="AE238" s="29"/>
+      <c r="AF238" s="29"/>
+      <c r="AG238" s="29"/>
+      <c r="AH238" s="29"/>
       <c r="AI238" s="29"/>
     </row>
     <row r="239" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11289,86 +11315,89 @@
       <c r="B239" s="29"/>
       <c r="C239" s="29"/>
       <c r="D239" s="29"/>
-      <c r="E239" s="29"/>
+      <c r="E239" s="24"/>
       <c r="F239" s="29"/>
-      <c r="G239" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="H239" s="55"/>
-      <c r="I239" s="55"/>
-      <c r="J239" s="55"/>
-      <c r="K239" s="55"/>
-      <c r="L239" s="55"/>
-      <c r="M239" s="55"/>
-      <c r="N239" s="55"/>
-      <c r="O239" s="55"/>
-      <c r="P239" s="55"/>
-      <c r="Q239" s="55"/>
-      <c r="R239" s="55"/>
-      <c r="S239" s="55"/>
-      <c r="T239" s="55"/>
-      <c r="U239" s="55"/>
-      <c r="V239" s="55"/>
-      <c r="W239" s="55"/>
-      <c r="X239" s="55"/>
-      <c r="Y239" s="55"/>
-      <c r="Z239" s="55"/>
-      <c r="AA239" s="55"/>
-      <c r="AB239" s="55"/>
-      <c r="AC239" s="55"/>
-      <c r="AD239" s="55"/>
-      <c r="AE239" s="55"/>
-      <c r="AF239" s="55"/>
-      <c r="AG239" s="55"/>
-      <c r="AH239" s="55"/>
+      <c r="G239" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H239" s="29"/>
+      <c r="I239" s="29"/>
+      <c r="J239" s="29"/>
+      <c r="K239" s="29"/>
+      <c r="L239" s="29"/>
+      <c r="M239" s="29"/>
+      <c r="N239" s="29"/>
+      <c r="O239" s="29"/>
+      <c r="P239" s="29"/>
+      <c r="Q239" s="29"/>
+      <c r="R239" s="29"/>
+      <c r="S239" s="29"/>
+      <c r="T239" s="29"/>
+      <c r="U239" s="29"/>
+      <c r="V239" s="29"/>
+      <c r="W239" s="29"/>
+      <c r="X239" s="29"/>
+      <c r="Y239" s="29"/>
+      <c r="Z239" s="29"/>
+      <c r="AA239" s="29"/>
+      <c r="AB239" s="29"/>
+      <c r="AC239" s="29"/>
+      <c r="AD239" s="29"/>
+      <c r="AE239" s="29"/>
+      <c r="AF239" s="29"/>
+      <c r="AG239" s="29"/>
+      <c r="AH239" s="29"/>
       <c r="AI239" s="29"/>
     </row>
-    <row r="240" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="29"/>
       <c r="B240" s="29"/>
       <c r="C240" s="29"/>
       <c r="D240" s="29"/>
       <c r="E240" s="29"/>
       <c r="F240" s="29"/>
-      <c r="G240" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="H240" s="55"/>
-      <c r="I240" s="55"/>
-      <c r="J240" s="55"/>
-      <c r="K240" s="55"/>
-      <c r="L240" s="55"/>
-      <c r="M240" s="55"/>
-      <c r="N240" s="55"/>
-      <c r="O240" s="55"/>
-      <c r="P240" s="55"/>
-      <c r="Q240" s="55"/>
-      <c r="R240" s="55"/>
-      <c r="S240" s="55"/>
-      <c r="T240" s="55"/>
-      <c r="U240" s="55"/>
-      <c r="V240" s="55"/>
-      <c r="W240" s="55"/>
-      <c r="X240" s="55"/>
-      <c r="Y240" s="55"/>
-      <c r="Z240" s="55"/>
-      <c r="AA240" s="55"/>
-      <c r="AB240" s="55"/>
-      <c r="AC240" s="55"/>
-      <c r="AD240" s="55"/>
-      <c r="AE240" s="55"/>
-      <c r="AF240" s="55"/>
-      <c r="AG240" s="55"/>
-      <c r="AH240" s="55"/>
+      <c r="G240" s="29"/>
+      <c r="H240" s="29"/>
+      <c r="I240" s="29"/>
+      <c r="J240" s="29"/>
+      <c r="K240" s="29"/>
+      <c r="L240" s="29"/>
+      <c r="M240" s="29"/>
+      <c r="N240" s="29"/>
+      <c r="O240" s="29"/>
+      <c r="P240" s="29"/>
+      <c r="Q240" s="29"/>
+      <c r="R240" s="29"/>
+      <c r="S240" s="29"/>
+      <c r="T240" s="29"/>
+      <c r="U240" s="29"/>
+      <c r="V240" s="29"/>
+      <c r="W240" s="29"/>
+      <c r="X240" s="29"/>
+      <c r="Y240" s="29"/>
+      <c r="Z240" s="29"/>
+      <c r="AA240" s="29"/>
+      <c r="AB240" s="29"/>
+      <c r="AC240" s="29"/>
+      <c r="AD240" s="29"/>
+      <c r="AE240" s="29"/>
+      <c r="AF240" s="29"/>
+      <c r="AG240" s="29"/>
+      <c r="AH240" s="29"/>
       <c r="AI240" s="29"/>
     </row>
-    <row r="241" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
       <c r="C241" s="29"/>
       <c r="D241" s="29"/>
-      <c r="E241" s="29"/>
-      <c r="F241" s="29"/>
+      <c r="E241" s="24" t="str">
+        <f>D208&amp;"2."</f>
+        <v>3.1.9.2.</v>
+      </c>
+      <c r="F241" s="74" t="s">
+        <v>121</v>
+      </c>
       <c r="G241" s="29"/>
       <c r="H241" s="29"/>
       <c r="I241" s="29"/>
@@ -11399,17 +11428,14 @@
       <c r="AH241" s="29"/>
       <c r="AI241" s="29"/>
     </row>
-    <row r="242" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="29"/>
       <c r="B242" s="29"/>
       <c r="C242" s="29"/>
       <c r="D242" s="29"/>
-      <c r="E242" s="24" t="str">
-        <f>D208&amp;"2."</f>
-        <v>3.1.9.2.</v>
-      </c>
-      <c r="F242" s="29" t="s">
-        <v>88</v>
+      <c r="E242" s="24"/>
+      <c r="F242" s="74" t="s">
+        <v>122</v>
       </c>
       <c r="G242" s="29"/>
       <c r="H242" s="29"/>
@@ -11441,15 +11467,13 @@
       <c r="AH242" s="29"/>
       <c r="AI242" s="29"/>
     </row>
-    <row r="243" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="29"/>
       <c r="B243" s="29"/>
       <c r="C243" s="29"/>
       <c r="D243" s="29"/>
-      <c r="E243" s="24"/>
-      <c r="F243" s="29" t="s">
-        <v>86</v>
-      </c>
+      <c r="E243" s="29"/>
+      <c r="F243" s="29"/>
       <c r="G243" s="29"/>
       <c r="H243" s="29"/>
       <c r="I243" s="29"/>
@@ -11485,9 +11509,13 @@
       <c r="B244" s="29"/>
       <c r="C244" s="29"/>
       <c r="D244" s="29"/>
-      <c r="E244" s="24"/>
-      <c r="F244" s="29"/>
-      <c r="G244" s="29"/>
+      <c r="E244" s="29"/>
+      <c r="F244" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="G244" s="65" t="s">
+        <v>75</v>
+      </c>
       <c r="H244" s="29"/>
       <c r="I244" s="29"/>
       <c r="J244" s="29"/>
@@ -11523,11 +11551,9 @@
       <c r="C245" s="29"/>
       <c r="D245" s="29"/>
       <c r="E245" s="29"/>
-      <c r="F245" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G245" s="29" t="s">
-        <v>89</v>
+      <c r="F245" s="29"/>
+      <c r="G245" s="65" t="s">
+        <v>73</v>
       </c>
       <c r="H245" s="29"/>
       <c r="I245" s="29"/>
@@ -11564,9 +11590,9 @@
       <c r="C246" s="29"/>
       <c r="D246" s="29"/>
       <c r="E246" s="29"/>
-      <c r="F246" s="24"/>
-      <c r="G246" s="29" t="s">
-        <v>87</v>
+      <c r="F246" s="29"/>
+      <c r="G246" s="65" t="s">
+        <v>74</v>
       </c>
       <c r="H246" s="29"/>
       <c r="I246" s="29"/>
@@ -11603,41 +11629,37 @@
       <c r="C247" s="29"/>
       <c r="D247" s="29"/>
       <c r="E247" s="29"/>
-      <c r="F247" s="24"/>
-      <c r="G247" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="H247" s="38"/>
-      <c r="I247" s="38"/>
-      <c r="J247" s="38"/>
-      <c r="K247" s="37"/>
-      <c r="L247" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="M247" s="38"/>
-      <c r="N247" s="38"/>
-      <c r="O247" s="38"/>
-      <c r="P247" s="38"/>
-      <c r="Q247" s="38"/>
-      <c r="R247" s="38"/>
-      <c r="S247" s="38"/>
-      <c r="T247" s="38"/>
-      <c r="U247" s="38"/>
-      <c r="V247" s="38"/>
-      <c r="W247" s="38"/>
-      <c r="X247" s="38"/>
-      <c r="Y247" s="38"/>
-      <c r="Z247" s="38"/>
-      <c r="AA247" s="38"/>
-      <c r="AB247" s="37"/>
-      <c r="AC247" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD247" s="38"/>
-      <c r="AE247" s="38"/>
-      <c r="AF247" s="38"/>
-      <c r="AG247" s="38"/>
-      <c r="AH247" s="37"/>
+      <c r="F247" s="29"/>
+      <c r="G247" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="H247" s="29"/>
+      <c r="I247" s="29"/>
+      <c r="J247" s="29"/>
+      <c r="K247" s="29"/>
+      <c r="L247" s="29"/>
+      <c r="M247" s="29"/>
+      <c r="N247" s="29"/>
+      <c r="O247" s="29"/>
+      <c r="P247" s="29"/>
+      <c r="Q247" s="29"/>
+      <c r="R247" s="29"/>
+      <c r="S247" s="29"/>
+      <c r="T247" s="29"/>
+      <c r="U247" s="29"/>
+      <c r="V247" s="29"/>
+      <c r="W247" s="29"/>
+      <c r="X247" s="29"/>
+      <c r="Y247" s="29"/>
+      <c r="Z247" s="29"/>
+      <c r="AA247" s="29"/>
+      <c r="AB247" s="29"/>
+      <c r="AC247" s="29"/>
+      <c r="AD247" s="29"/>
+      <c r="AE247" s="29"/>
+      <c r="AF247" s="29"/>
+      <c r="AG247" s="29"/>
+      <c r="AH247" s="29"/>
       <c r="AI247" s="29"/>
     </row>
     <row r="248" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11646,41 +11668,37 @@
       <c r="C248" s="29"/>
       <c r="D248" s="29"/>
       <c r="E248" s="29"/>
-      <c r="F248" s="24"/>
-      <c r="G248" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H248" s="55"/>
-      <c r="I248" s="55"/>
-      <c r="J248" s="55"/>
-      <c r="K248" s="31"/>
-      <c r="L248" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M248" s="26"/>
-      <c r="N248" s="26"/>
-      <c r="O248" s="26"/>
-      <c r="P248" s="26"/>
-      <c r="Q248" s="26"/>
-      <c r="R248" s="26"/>
-      <c r="S248" s="26"/>
-      <c r="T248" s="26"/>
-      <c r="U248" s="26"/>
-      <c r="V248" s="26"/>
-      <c r="W248" s="26"/>
-      <c r="X248" s="26"/>
-      <c r="Y248" s="26"/>
-      <c r="Z248" s="26"/>
-      <c r="AA248" s="26"/>
-      <c r="AB248" s="71"/>
-      <c r="AC248" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD248" s="26"/>
-      <c r="AE248" s="26"/>
-      <c r="AF248" s="26"/>
-      <c r="AG248" s="26"/>
-      <c r="AH248" s="71"/>
+      <c r="F248" s="29"/>
+      <c r="G248" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="H248" s="29"/>
+      <c r="I248" s="29"/>
+      <c r="J248" s="29"/>
+      <c r="K248" s="29"/>
+      <c r="L248" s="29"/>
+      <c r="M248" s="29"/>
+      <c r="N248" s="29"/>
+      <c r="O248" s="29"/>
+      <c r="P248" s="29"/>
+      <c r="Q248" s="29"/>
+      <c r="R248" s="29"/>
+      <c r="S248" s="29"/>
+      <c r="T248" s="29"/>
+      <c r="U248" s="29"/>
+      <c r="V248" s="29"/>
+      <c r="W248" s="29"/>
+      <c r="X248" s="29"/>
+      <c r="Y248" s="29"/>
+      <c r="Z248" s="29"/>
+      <c r="AA248" s="29"/>
+      <c r="AB248" s="29"/>
+      <c r="AC248" s="29"/>
+      <c r="AD248" s="29"/>
+      <c r="AE248" s="29"/>
+      <c r="AF248" s="29"/>
+      <c r="AG248" s="29"/>
+      <c r="AH248" s="29"/>
       <c r="AI248" s="29"/>
     </row>
     <row r="249" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11689,320 +11707,308 @@
       <c r="C249" s="29"/>
       <c r="D249" s="29"/>
       <c r="E249" s="29"/>
-      <c r="F249" s="24"/>
-      <c r="G249" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="H249" s="57"/>
-      <c r="I249" s="57"/>
-      <c r="J249" s="57"/>
-      <c r="K249" s="58"/>
-      <c r="L249" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="M249" s="26"/>
-      <c r="N249" s="26"/>
-      <c r="O249" s="26"/>
-      <c r="P249" s="26"/>
-      <c r="Q249" s="26"/>
-      <c r="R249" s="26"/>
-      <c r="S249" s="26"/>
-      <c r="T249" s="26"/>
-      <c r="U249" s="26"/>
-      <c r="V249" s="26"/>
-      <c r="W249" s="26"/>
-      <c r="X249" s="26"/>
-      <c r="Y249" s="26"/>
-      <c r="Z249" s="26"/>
-      <c r="AA249" s="26"/>
-      <c r="AB249" s="71"/>
-      <c r="AC249" s="26"/>
-      <c r="AD249" s="26"/>
-      <c r="AE249" s="26"/>
-      <c r="AF249" s="26"/>
-      <c r="AG249" s="26"/>
-      <c r="AH249" s="71"/>
+      <c r="F249" s="29"/>
+      <c r="G249" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="H249" s="29"/>
+      <c r="I249" s="29"/>
+      <c r="J249" s="29"/>
+      <c r="K249" s="29"/>
+      <c r="L249" s="29"/>
+      <c r="M249" s="29"/>
+      <c r="N249" s="29"/>
+      <c r="O249" s="29"/>
+      <c r="P249" s="29"/>
+      <c r="Q249" s="29"/>
+      <c r="R249" s="29"/>
+      <c r="S249" s="29"/>
+      <c r="T249" s="29"/>
+      <c r="U249" s="29"/>
+      <c r="V249" s="29"/>
+      <c r="W249" s="29"/>
+      <c r="X249" s="29"/>
+      <c r="Y249" s="29"/>
+      <c r="Z249" s="29"/>
+      <c r="AA249" s="29"/>
+      <c r="AB249" s="29"/>
+      <c r="AC249" s="29"/>
+      <c r="AD249" s="29"/>
+      <c r="AE249" s="29"/>
+      <c r="AF249" s="29"/>
+      <c r="AG249" s="29"/>
+      <c r="AH249" s="29"/>
       <c r="AI249" s="29"/>
     </row>
-    <row r="250" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="29"/>
       <c r="B250" s="29"/>
       <c r="C250" s="29"/>
       <c r="D250" s="29"/>
       <c r="E250" s="29"/>
-      <c r="F250" s="24"/>
-      <c r="G250" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="H250" s="55"/>
-      <c r="I250" s="55"/>
-      <c r="J250" s="55"/>
-      <c r="K250" s="31"/>
-      <c r="L250" s="92"/>
-      <c r="M250" s="26"/>
-      <c r="N250" s="26"/>
-      <c r="O250" s="26"/>
-      <c r="P250" s="26"/>
-      <c r="Q250" s="26"/>
-      <c r="R250" s="26"/>
-      <c r="S250" s="26"/>
-      <c r="T250" s="26"/>
-      <c r="U250" s="26"/>
-      <c r="V250" s="26"/>
-      <c r="W250" s="26"/>
-      <c r="X250" s="26"/>
-      <c r="Y250" s="26"/>
-      <c r="Z250" s="26"/>
-      <c r="AA250" s="26"/>
-      <c r="AB250" s="71"/>
-      <c r="AC250" s="26"/>
-      <c r="AD250" s="26"/>
-      <c r="AE250" s="26"/>
-      <c r="AF250" s="26"/>
-      <c r="AG250" s="26"/>
-      <c r="AH250" s="71"/>
+      <c r="F250" s="29"/>
+      <c r="G250" s="29"/>
+      <c r="H250" s="29"/>
+      <c r="I250" s="29"/>
+      <c r="J250" s="29"/>
+      <c r="K250" s="29"/>
+      <c r="L250" s="29"/>
+      <c r="M250" s="29"/>
+      <c r="N250" s="29"/>
+      <c r="O250" s="29"/>
+      <c r="P250" s="29"/>
+      <c r="Q250" s="29"/>
+      <c r="R250" s="29"/>
+      <c r="S250" s="29"/>
+      <c r="T250" s="29"/>
+      <c r="U250" s="29"/>
+      <c r="V250" s="29"/>
+      <c r="W250" s="29"/>
+      <c r="X250" s="29"/>
+      <c r="Y250" s="29"/>
+      <c r="Z250" s="29"/>
+      <c r="AA250" s="29"/>
+      <c r="AB250" s="29"/>
+      <c r="AC250" s="29"/>
+      <c r="AD250" s="29"/>
+      <c r="AE250" s="29"/>
+      <c r="AF250" s="29"/>
+      <c r="AG250" s="29"/>
+      <c r="AH250" s="29"/>
       <c r="AI250" s="29"/>
     </row>
-    <row r="251" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="29"/>
       <c r="B251" s="29"/>
       <c r="C251" s="29"/>
       <c r="D251" s="29"/>
       <c r="E251" s="29"/>
-      <c r="F251" s="24"/>
-      <c r="G251" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="H251" s="33"/>
-      <c r="I251" s="33"/>
-      <c r="J251" s="33"/>
-      <c r="K251" s="34"/>
-      <c r="L251" s="76"/>
-      <c r="M251" s="76"/>
-      <c r="N251" s="76"/>
-      <c r="O251" s="76"/>
-      <c r="P251" s="76"/>
-      <c r="Q251" s="76"/>
-      <c r="R251" s="76"/>
-      <c r="S251" s="76"/>
-      <c r="T251" s="76"/>
-      <c r="U251" s="76"/>
-      <c r="V251" s="76"/>
-      <c r="W251" s="76"/>
-      <c r="X251" s="76"/>
-      <c r="Y251" s="76"/>
-      <c r="Z251" s="76"/>
-      <c r="AA251" s="76"/>
-      <c r="AB251" s="90"/>
-      <c r="AC251" s="76"/>
-      <c r="AD251" s="76"/>
-      <c r="AE251" s="76"/>
-      <c r="AF251" s="76"/>
-      <c r="AG251" s="76"/>
-      <c r="AH251" s="90"/>
+      <c r="F251" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="G251" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H251" s="29"/>
+      <c r="I251" s="29"/>
+      <c r="J251" s="29"/>
+      <c r="K251" s="29"/>
+      <c r="L251" s="29"/>
+      <c r="M251" s="29"/>
+      <c r="N251" s="29"/>
+      <c r="O251" s="29"/>
+      <c r="P251" s="29"/>
+      <c r="Q251" s="29"/>
+      <c r="R251" s="29"/>
+      <c r="S251" s="29"/>
+      <c r="T251" s="29"/>
+      <c r="U251" s="29"/>
+      <c r="V251" s="29"/>
+      <c r="W251" s="29"/>
+      <c r="X251" s="29"/>
+      <c r="Y251" s="29"/>
+      <c r="Z251" s="29"/>
+      <c r="AA251" s="29"/>
+      <c r="AB251" s="29"/>
+      <c r="AC251" s="29"/>
+      <c r="AD251" s="29"/>
+      <c r="AE251" s="29"/>
+      <c r="AF251" s="29"/>
+      <c r="AG251" s="29"/>
+      <c r="AH251" s="29"/>
       <c r="AI251" s="29"/>
     </row>
-    <row r="252" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="29"/>
       <c r="B252" s="29"/>
       <c r="C252" s="29"/>
       <c r="D252" s="29"/>
       <c r="E252" s="29"/>
-      <c r="F252" s="24"/>
-      <c r="G252" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H252" s="55"/>
-      <c r="I252" s="55"/>
-      <c r="J252" s="55"/>
-      <c r="K252" s="31"/>
-      <c r="L252" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="M252" s="26"/>
-      <c r="N252" s="26"/>
-      <c r="O252" s="26"/>
-      <c r="P252" s="26"/>
-      <c r="Q252" s="26"/>
-      <c r="R252" s="26"/>
-      <c r="S252" s="26"/>
-      <c r="T252" s="26"/>
-      <c r="U252" s="26"/>
-      <c r="V252" s="26"/>
-      <c r="W252" s="26"/>
-      <c r="X252" s="26"/>
-      <c r="Y252" s="26"/>
-      <c r="Z252" s="26"/>
-      <c r="AA252" s="26"/>
-      <c r="AB252" s="71"/>
-      <c r="AC252" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD252" s="26"/>
-      <c r="AE252" s="26"/>
-      <c r="AF252" s="26"/>
-      <c r="AG252" s="26"/>
-      <c r="AH252" s="71"/>
+      <c r="F252" s="29"/>
+      <c r="G252" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H252" s="29"/>
+      <c r="I252" s="29"/>
+      <c r="J252" s="29"/>
+      <c r="K252" s="29"/>
+      <c r="L252" s="29"/>
+      <c r="M252" s="29"/>
+      <c r="N252" s="29"/>
+      <c r="O252" s="29"/>
+      <c r="P252" s="29"/>
+      <c r="Q252" s="29"/>
+      <c r="R252" s="29"/>
+      <c r="S252" s="29"/>
+      <c r="T252" s="29"/>
+      <c r="U252" s="29"/>
+      <c r="V252" s="29"/>
+      <c r="W252" s="29"/>
+      <c r="X252" s="29"/>
+      <c r="Y252" s="29"/>
+      <c r="Z252" s="29"/>
+      <c r="AA252" s="29"/>
+      <c r="AB252" s="29"/>
+      <c r="AC252" s="29"/>
+      <c r="AD252" s="29"/>
+      <c r="AE252" s="29"/>
+      <c r="AF252" s="29"/>
+      <c r="AG252" s="29"/>
+      <c r="AH252" s="29"/>
       <c r="AI252" s="29"/>
     </row>
-    <row r="253" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="29"/>
       <c r="B253" s="29"/>
       <c r="C253" s="29"/>
       <c r="D253" s="29"/>
       <c r="E253" s="29"/>
-      <c r="F253" s="24"/>
-      <c r="G253" s="30"/>
-      <c r="H253" s="55"/>
-      <c r="I253" s="55"/>
-      <c r="J253" s="55"/>
-      <c r="K253" s="31"/>
-      <c r="L253" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M253" s="26"/>
-      <c r="N253" s="26"/>
-      <c r="O253" s="26"/>
-      <c r="P253" s="26"/>
-      <c r="Q253" s="26"/>
-      <c r="R253" s="26"/>
-      <c r="S253" s="26"/>
-      <c r="T253" s="26"/>
-      <c r="U253" s="26"/>
-      <c r="V253" s="26"/>
-      <c r="W253" s="26"/>
-      <c r="X253" s="26"/>
-      <c r="Y253" s="26"/>
-      <c r="Z253" s="26"/>
-      <c r="AA253" s="26"/>
-      <c r="AB253" s="71"/>
-      <c r="AC253" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD253" s="26"/>
-      <c r="AE253" s="26"/>
-      <c r="AF253" s="26"/>
-      <c r="AG253" s="26"/>
-      <c r="AH253" s="71"/>
+      <c r="F253" s="29"/>
+      <c r="G253" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H253" s="29"/>
+      <c r="I253" s="29"/>
+      <c r="J253" s="29"/>
+      <c r="K253" s="29"/>
+      <c r="L253" s="29"/>
+      <c r="M253" s="29"/>
+      <c r="N253" s="29"/>
+      <c r="O253" s="29"/>
+      <c r="P253" s="29"/>
+      <c r="Q253" s="29"/>
+      <c r="R253" s="29"/>
+      <c r="S253" s="29"/>
+      <c r="T253" s="29"/>
+      <c r="U253" s="29"/>
+      <c r="V253" s="29"/>
+      <c r="W253" s="29"/>
+      <c r="X253" s="29"/>
+      <c r="Y253" s="29"/>
+      <c r="Z253" s="29"/>
+      <c r="AA253" s="29"/>
+      <c r="AB253" s="29"/>
+      <c r="AC253" s="29"/>
+      <c r="AD253" s="29"/>
+      <c r="AE253" s="29"/>
+      <c r="AF253" s="29"/>
+      <c r="AG253" s="29"/>
+      <c r="AH253" s="29"/>
       <c r="AI253" s="29"/>
     </row>
-    <row r="254" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="29"/>
       <c r="B254" s="29"/>
       <c r="C254" s="29"/>
       <c r="D254" s="29"/>
       <c r="E254" s="29"/>
-      <c r="F254" s="24"/>
-      <c r="G254" s="30"/>
-      <c r="H254" s="55"/>
-      <c r="I254" s="55"/>
-      <c r="J254" s="55"/>
-      <c r="K254" s="31"/>
-      <c r="L254" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="M254" s="26"/>
-      <c r="N254" s="26"/>
-      <c r="O254" s="26"/>
-      <c r="P254" s="26"/>
-      <c r="Q254" s="26"/>
-      <c r="R254" s="26"/>
-      <c r="S254" s="26"/>
-      <c r="T254" s="26"/>
-      <c r="U254" s="26"/>
-      <c r="V254" s="26"/>
-      <c r="W254" s="26"/>
-      <c r="X254" s="26"/>
-      <c r="Y254" s="26"/>
-      <c r="Z254" s="26"/>
-      <c r="AA254" s="26"/>
-      <c r="AB254" s="71"/>
-      <c r="AC254" s="26"/>
-      <c r="AD254" s="26"/>
-      <c r="AE254" s="26"/>
-      <c r="AF254" s="26"/>
-      <c r="AG254" s="26"/>
-      <c r="AH254" s="71"/>
+      <c r="F254" s="29"/>
+      <c r="G254" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H254" s="29"/>
+      <c r="I254" s="29"/>
+      <c r="J254" s="29"/>
+      <c r="K254" s="29"/>
+      <c r="L254" s="29"/>
+      <c r="M254" s="29"/>
+      <c r="N254" s="29"/>
+      <c r="O254" s="29"/>
+      <c r="P254" s="29"/>
+      <c r="Q254" s="29"/>
+      <c r="R254" s="29"/>
+      <c r="S254" s="29"/>
+      <c r="T254" s="29"/>
+      <c r="U254" s="29"/>
+      <c r="V254" s="29"/>
+      <c r="W254" s="29"/>
+      <c r="X254" s="29"/>
+      <c r="Y254" s="29"/>
+      <c r="Z254" s="29"/>
+      <c r="AA254" s="29"/>
+      <c r="AB254" s="29"/>
+      <c r="AC254" s="29"/>
+      <c r="AD254" s="29"/>
+      <c r="AE254" s="29"/>
+      <c r="AF254" s="29"/>
+      <c r="AG254" s="29"/>
+      <c r="AH254" s="29"/>
       <c r="AI254" s="29"/>
     </row>
-    <row r="255" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="29"/>
       <c r="B255" s="29"/>
       <c r="C255" s="29"/>
       <c r="D255" s="29"/>
       <c r="E255" s="29"/>
-      <c r="F255" s="24"/>
-      <c r="G255" s="32"/>
-      <c r="H255" s="33"/>
-      <c r="I255" s="33"/>
-      <c r="J255" s="33"/>
-      <c r="K255" s="34"/>
-      <c r="L255" s="76"/>
-      <c r="M255" s="76"/>
-      <c r="N255" s="76"/>
-      <c r="O255" s="76"/>
-      <c r="P255" s="76"/>
-      <c r="Q255" s="76"/>
-      <c r="R255" s="76"/>
-      <c r="S255" s="76"/>
-      <c r="T255" s="76"/>
-      <c r="U255" s="76"/>
-      <c r="V255" s="76"/>
-      <c r="W255" s="76"/>
-      <c r="X255" s="76"/>
-      <c r="Y255" s="76"/>
-      <c r="Z255" s="76"/>
-      <c r="AA255" s="76"/>
-      <c r="AB255" s="90"/>
-      <c r="AC255" s="76"/>
-      <c r="AD255" s="76"/>
-      <c r="AE255" s="76"/>
-      <c r="AF255" s="76"/>
-      <c r="AG255" s="76"/>
-      <c r="AH255" s="90"/>
+      <c r="F255" s="29"/>
+      <c r="G255" s="29"/>
+      <c r="H255" s="29"/>
+      <c r="I255" s="29"/>
+      <c r="J255" s="29"/>
+      <c r="K255" s="29"/>
+      <c r="L255" s="29"/>
+      <c r="M255" s="29"/>
+      <c r="N255" s="29"/>
+      <c r="O255" s="29"/>
+      <c r="P255" s="29"/>
+      <c r="Q255" s="29"/>
+      <c r="R255" s="29"/>
+      <c r="S255" s="29"/>
+      <c r="T255" s="29"/>
+      <c r="U255" s="29"/>
+      <c r="V255" s="29"/>
+      <c r="W255" s="29"/>
+      <c r="X255" s="29"/>
+      <c r="Y255" s="29"/>
+      <c r="Z255" s="29"/>
+      <c r="AA255" s="29"/>
+      <c r="AB255" s="29"/>
+      <c r="AC255" s="29"/>
+      <c r="AD255" s="29"/>
+      <c r="AE255" s="29"/>
+      <c r="AF255" s="29"/>
+      <c r="AG255" s="29"/>
+      <c r="AH255" s="29"/>
       <c r="AI255" s="29"/>
     </row>
-    <row r="256" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="29"/>
       <c r="B256" s="29"/>
       <c r="C256" s="29"/>
       <c r="D256" s="29"/>
       <c r="E256" s="29"/>
-      <c r="F256" s="24"/>
-      <c r="G256" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H256" s="55"/>
-      <c r="I256" s="55"/>
-      <c r="J256" s="55"/>
-      <c r="K256" s="31"/>
-      <c r="L256" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="M256" s="26"/>
-      <c r="N256" s="26"/>
-      <c r="O256" s="26"/>
-      <c r="P256" s="26"/>
-      <c r="Q256" s="26"/>
-      <c r="R256" s="26"/>
-      <c r="S256" s="26"/>
-      <c r="T256" s="26"/>
-      <c r="U256" s="26"/>
-      <c r="V256" s="26"/>
-      <c r="W256" s="26"/>
-      <c r="X256" s="26"/>
-      <c r="Y256" s="26"/>
-      <c r="Z256" s="26"/>
-      <c r="AA256" s="26"/>
-      <c r="AB256" s="71"/>
-      <c r="AC256" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD256" s="26"/>
-      <c r="AE256" s="26"/>
-      <c r="AF256" s="26"/>
-      <c r="AG256" s="26"/>
-      <c r="AH256" s="71"/>
+      <c r="F256" s="29"/>
+      <c r="G256" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H256" s="29"/>
+      <c r="I256" s="29"/>
+      <c r="J256" s="29"/>
+      <c r="K256" s="29"/>
+      <c r="L256" s="29"/>
+      <c r="M256" s="29"/>
+      <c r="N256" s="29"/>
+      <c r="O256" s="29"/>
+      <c r="P256" s="29"/>
+      <c r="Q256" s="29"/>
+      <c r="R256" s="29"/>
+      <c r="S256" s="29"/>
+      <c r="T256" s="29"/>
+      <c r="U256" s="29"/>
+      <c r="V256" s="29"/>
+      <c r="W256" s="29"/>
+      <c r="X256" s="29"/>
+      <c r="Y256" s="29"/>
+      <c r="Z256" s="29"/>
+      <c r="AA256" s="29"/>
+      <c r="AB256" s="29"/>
+      <c r="AC256" s="29"/>
+      <c r="AD256" s="29"/>
+      <c r="AE256" s="29"/>
+      <c r="AF256" s="29"/>
+      <c r="AG256" s="29"/>
+      <c r="AH256" s="29"/>
       <c r="AI256" s="29"/>
     </row>
     <row r="257" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12011,39 +12017,39 @@
       <c r="C257" s="29"/>
       <c r="D257" s="29"/>
       <c r="E257" s="29"/>
-      <c r="F257" s="24"/>
-      <c r="G257" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H257" s="55"/>
-      <c r="I257" s="55"/>
-      <c r="J257" s="55"/>
-      <c r="K257" s="31"/>
-      <c r="L257" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="M257" s="26"/>
-      <c r="N257" s="26"/>
-      <c r="O257" s="26"/>
-      <c r="P257" s="26"/>
-      <c r="Q257" s="26"/>
-      <c r="R257" s="26"/>
-      <c r="S257" s="26"/>
-      <c r="T257" s="26"/>
-      <c r="U257" s="26"/>
-      <c r="V257" s="26"/>
-      <c r="W257" s="26"/>
-      <c r="X257" s="26"/>
-      <c r="Y257" s="26"/>
-      <c r="Z257" s="26"/>
-      <c r="AA257" s="26"/>
-      <c r="AB257" s="71"/>
-      <c r="AC257" s="26"/>
-      <c r="AD257" s="26"/>
-      <c r="AE257" s="26"/>
-      <c r="AF257" s="26"/>
-      <c r="AG257" s="26"/>
-      <c r="AH257" s="71"/>
+      <c r="F257" s="29"/>
+      <c r="G257" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H257" s="38"/>
+      <c r="I257" s="38"/>
+      <c r="J257" s="38"/>
+      <c r="K257" s="38"/>
+      <c r="L257" s="38"/>
+      <c r="M257" s="38"/>
+      <c r="N257" s="38"/>
+      <c r="O257" s="38"/>
+      <c r="P257" s="37"/>
+      <c r="Q257" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="R257" s="38"/>
+      <c r="S257" s="38"/>
+      <c r="T257" s="38"/>
+      <c r="U257" s="38"/>
+      <c r="V257" s="38"/>
+      <c r="W257" s="38"/>
+      <c r="X257" s="38"/>
+      <c r="Y257" s="38"/>
+      <c r="Z257" s="38"/>
+      <c r="AA257" s="38"/>
+      <c r="AB257" s="38"/>
+      <c r="AC257" s="38"/>
+      <c r="AD257" s="38"/>
+      <c r="AE257" s="38"/>
+      <c r="AF257" s="38"/>
+      <c r="AG257" s="38"/>
+      <c r="AH257" s="37"/>
       <c r="AI257" s="29"/>
     </row>
     <row r="258" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12052,37 +12058,39 @@
       <c r="C258" s="29"/>
       <c r="D258" s="29"/>
       <c r="E258" s="29"/>
-      <c r="F258" s="24"/>
-      <c r="G258" s="30"/>
+      <c r="F258" s="29"/>
+      <c r="G258" s="30" t="s">
+        <v>82</v>
+      </c>
       <c r="H258" s="55"/>
       <c r="I258" s="55"/>
       <c r="J258" s="55"/>
-      <c r="K258" s="31"/>
-      <c r="L258" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="M258" s="26"/>
-      <c r="N258" s="26"/>
-      <c r="O258" s="26"/>
-      <c r="P258" s="26"/>
-      <c r="Q258" s="26"/>
-      <c r="R258" s="26"/>
-      <c r="S258" s="26"/>
-      <c r="T258" s="26"/>
-      <c r="U258" s="26"/>
-      <c r="V258" s="26"/>
-      <c r="W258" s="26"/>
-      <c r="X258" s="26"/>
-      <c r="Y258" s="26"/>
-      <c r="Z258" s="26"/>
-      <c r="AA258" s="26"/>
-      <c r="AB258" s="71"/>
-      <c r="AC258" s="26"/>
-      <c r="AD258" s="26"/>
-      <c r="AE258" s="26"/>
-      <c r="AF258" s="26"/>
-      <c r="AG258" s="26"/>
-      <c r="AH258" s="71"/>
+      <c r="K258" s="55"/>
+      <c r="L258" s="55"/>
+      <c r="M258" s="55"/>
+      <c r="N258" s="55"/>
+      <c r="O258" s="55"/>
+      <c r="P258" s="31"/>
+      <c r="Q258" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="R258" s="55"/>
+      <c r="S258" s="55"/>
+      <c r="T258" s="55"/>
+      <c r="U258" s="55"/>
+      <c r="V258" s="55"/>
+      <c r="W258" s="55"/>
+      <c r="X258" s="55"/>
+      <c r="Y258" s="55"/>
+      <c r="Z258" s="55"/>
+      <c r="AA258" s="55"/>
+      <c r="AB258" s="55"/>
+      <c r="AC258" s="55"/>
+      <c r="AD258" s="55"/>
+      <c r="AE258" s="55"/>
+      <c r="AF258" s="55"/>
+      <c r="AG258" s="55"/>
+      <c r="AH258" s="31"/>
       <c r="AI258" s="29"/>
     </row>
     <row r="259" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12091,37 +12099,37 @@
       <c r="C259" s="29"/>
       <c r="D259" s="29"/>
       <c r="E259" s="29"/>
-      <c r="F259" s="24"/>
-      <c r="G259" s="30"/>
-      <c r="H259" s="55"/>
-      <c r="I259" s="55"/>
-      <c r="J259" s="55"/>
-      <c r="K259" s="31"/>
-      <c r="L259" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="M259" s="26"/>
-      <c r="N259" s="26"/>
-      <c r="O259" s="26"/>
-      <c r="P259" s="26"/>
-      <c r="Q259" s="26"/>
-      <c r="R259" s="26"/>
-      <c r="S259" s="26"/>
-      <c r="T259" s="26"/>
-      <c r="U259" s="26"/>
-      <c r="V259" s="26"/>
-      <c r="W259" s="26"/>
-      <c r="X259" s="26"/>
-      <c r="Y259" s="26"/>
-      <c r="Z259" s="26"/>
-      <c r="AA259" s="26"/>
-      <c r="AB259" s="71"/>
-      <c r="AC259" s="26"/>
-      <c r="AD259" s="26"/>
-      <c r="AE259" s="26"/>
-      <c r="AF259" s="26"/>
-      <c r="AG259" s="26"/>
-      <c r="AH259" s="71"/>
+      <c r="F259" s="29"/>
+      <c r="G259" s="32"/>
+      <c r="H259" s="33"/>
+      <c r="I259" s="33"/>
+      <c r="J259" s="33"/>
+      <c r="K259" s="33"/>
+      <c r="L259" s="33"/>
+      <c r="M259" s="33"/>
+      <c r="N259" s="33"/>
+      <c r="O259" s="33"/>
+      <c r="P259" s="34"/>
+      <c r="Q259" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="R259" s="33"/>
+      <c r="S259" s="33"/>
+      <c r="T259" s="33"/>
+      <c r="U259" s="33"/>
+      <c r="V259" s="33"/>
+      <c r="W259" s="33"/>
+      <c r="X259" s="33"/>
+      <c r="Y259" s="33"/>
+      <c r="Z259" s="33"/>
+      <c r="AA259" s="33"/>
+      <c r="AB259" s="33"/>
+      <c r="AC259" s="33"/>
+      <c r="AD259" s="33"/>
+      <c r="AE259" s="33"/>
+      <c r="AF259" s="33"/>
+      <c r="AG259" s="33"/>
+      <c r="AH259" s="34"/>
       <c r="AI259" s="29"/>
     </row>
     <row r="260" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12130,35 +12138,39 @@
       <c r="C260" s="29"/>
       <c r="D260" s="29"/>
       <c r="E260" s="29"/>
-      <c r="F260" s="24"/>
-      <c r="G260" s="30"/>
+      <c r="F260" s="29"/>
+      <c r="G260" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="H260" s="55"/>
       <c r="I260" s="55"/>
       <c r="J260" s="55"/>
-      <c r="K260" s="31"/>
-      <c r="L260" s="26"/>
-      <c r="M260" s="26"/>
-      <c r="N260" s="26"/>
-      <c r="O260" s="26"/>
-      <c r="P260" s="26"/>
-      <c r="Q260" s="26"/>
-      <c r="R260" s="26"/>
-      <c r="S260" s="26"/>
-      <c r="T260" s="26"/>
-      <c r="U260" s="26"/>
-      <c r="V260" s="26"/>
-      <c r="W260" s="26"/>
-      <c r="X260" s="26"/>
-      <c r="Y260" s="26"/>
-      <c r="Z260" s="26"/>
-      <c r="AA260" s="26"/>
-      <c r="AB260" s="71"/>
-      <c r="AC260" s="26"/>
-      <c r="AD260" s="26"/>
-      <c r="AE260" s="26"/>
-      <c r="AF260" s="26"/>
-      <c r="AG260" s="26"/>
-      <c r="AH260" s="71"/>
+      <c r="K260" s="55"/>
+      <c r="L260" s="55"/>
+      <c r="M260" s="55"/>
+      <c r="N260" s="55"/>
+      <c r="O260" s="55"/>
+      <c r="P260" s="31"/>
+      <c r="Q260" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="R260" s="55"/>
+      <c r="S260" s="55"/>
+      <c r="T260" s="55"/>
+      <c r="U260" s="55"/>
+      <c r="V260" s="55"/>
+      <c r="W260" s="55"/>
+      <c r="X260" s="55"/>
+      <c r="Y260" s="55"/>
+      <c r="Z260" s="55"/>
+      <c r="AA260" s="55"/>
+      <c r="AB260" s="55"/>
+      <c r="AC260" s="55"/>
+      <c r="AD260" s="55"/>
+      <c r="AE260" s="55"/>
+      <c r="AF260" s="55"/>
+      <c r="AG260" s="55"/>
+      <c r="AH260" s="31"/>
       <c r="AI260" s="29"/>
     </row>
     <row r="261" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12167,37 +12179,37 @@
       <c r="C261" s="29"/>
       <c r="D261" s="29"/>
       <c r="E261" s="29"/>
-      <c r="F261" s="24"/>
+      <c r="F261" s="29"/>
       <c r="G261" s="30"/>
       <c r="H261" s="55"/>
       <c r="I261" s="55"/>
       <c r="J261" s="55"/>
-      <c r="K261" s="31"/>
-      <c r="L261" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="M261" s="26"/>
-      <c r="N261" s="26"/>
-      <c r="O261" s="26"/>
-      <c r="P261" s="26"/>
-      <c r="Q261" s="26"/>
-      <c r="R261" s="26"/>
-      <c r="S261" s="26"/>
-      <c r="T261" s="26"/>
-      <c r="U261" s="26"/>
-      <c r="V261" s="26"/>
-      <c r="W261" s="26"/>
-      <c r="X261" s="26"/>
-      <c r="Y261" s="26"/>
-      <c r="Z261" s="26"/>
-      <c r="AA261" s="26"/>
-      <c r="AB261" s="71"/>
-      <c r="AC261" s="26"/>
-      <c r="AD261" s="26"/>
-      <c r="AE261" s="26"/>
-      <c r="AF261" s="26"/>
-      <c r="AG261" s="26"/>
-      <c r="AH261" s="71"/>
+      <c r="K261" s="55"/>
+      <c r="L261" s="55"/>
+      <c r="M261" s="55"/>
+      <c r="N261" s="55"/>
+      <c r="O261" s="55"/>
+      <c r="P261" s="31"/>
+      <c r="Q261" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="R261" s="55"/>
+      <c r="S261" s="55"/>
+      <c r="T261" s="55"/>
+      <c r="U261" s="55"/>
+      <c r="V261" s="55"/>
+      <c r="W261" s="55"/>
+      <c r="X261" s="55"/>
+      <c r="Y261" s="55"/>
+      <c r="Z261" s="55"/>
+      <c r="AA261" s="55"/>
+      <c r="AB261" s="55"/>
+      <c r="AC261" s="55"/>
+      <c r="AD261" s="55"/>
+      <c r="AE261" s="55"/>
+      <c r="AF261" s="55"/>
+      <c r="AG261" s="55"/>
+      <c r="AH261" s="31"/>
       <c r="AI261" s="29"/>
     </row>
     <row r="262" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12206,37 +12218,37 @@
       <c r="C262" s="29"/>
       <c r="D262" s="29"/>
       <c r="E262" s="29"/>
-      <c r="F262" s="24"/>
-      <c r="G262" s="30"/>
-      <c r="H262" s="55"/>
-      <c r="I262" s="55"/>
-      <c r="J262" s="55"/>
-      <c r="K262" s="31"/>
-      <c r="L262" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="M262" s="26"/>
-      <c r="N262" s="26"/>
-      <c r="O262" s="26"/>
-      <c r="P262" s="26"/>
-      <c r="Q262" s="26"/>
-      <c r="R262" s="26"/>
-      <c r="S262" s="26"/>
-      <c r="T262" s="26"/>
-      <c r="U262" s="26"/>
-      <c r="V262" s="26"/>
-      <c r="W262" s="26"/>
-      <c r="X262" s="26"/>
-      <c r="Y262" s="26"/>
-      <c r="Z262" s="26"/>
-      <c r="AA262" s="26"/>
-      <c r="AB262" s="71"/>
-      <c r="AC262" s="26"/>
-      <c r="AD262" s="26"/>
-      <c r="AE262" s="26"/>
-      <c r="AF262" s="26"/>
-      <c r="AG262" s="26"/>
-      <c r="AH262" s="71"/>
+      <c r="F262" s="29"/>
+      <c r="G262" s="32"/>
+      <c r="H262" s="33"/>
+      <c r="I262" s="33"/>
+      <c r="J262" s="33"/>
+      <c r="K262" s="33"/>
+      <c r="L262" s="33"/>
+      <c r="M262" s="33"/>
+      <c r="N262" s="33"/>
+      <c r="O262" s="33"/>
+      <c r="P262" s="34"/>
+      <c r="Q262" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="R262" s="33"/>
+      <c r="S262" s="33"/>
+      <c r="T262" s="33"/>
+      <c r="U262" s="33"/>
+      <c r="V262" s="33"/>
+      <c r="W262" s="33"/>
+      <c r="X262" s="33"/>
+      <c r="Y262" s="33"/>
+      <c r="Z262" s="33"/>
+      <c r="AA262" s="33"/>
+      <c r="AB262" s="33"/>
+      <c r="AC262" s="33"/>
+      <c r="AD262" s="33"/>
+      <c r="AE262" s="33"/>
+      <c r="AF262" s="33"/>
+      <c r="AG262" s="33"/>
+      <c r="AH262" s="34"/>
       <c r="AI262" s="29"/>
     </row>
     <row r="263" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12245,37 +12257,35 @@
       <c r="C263" s="29"/>
       <c r="D263" s="29"/>
       <c r="E263" s="29"/>
-      <c r="F263" s="24"/>
-      <c r="G263" s="30"/>
+      <c r="F263" s="29"/>
+      <c r="G263" s="55"/>
       <c r="H263" s="55"/>
       <c r="I263" s="55"/>
       <c r="J263" s="55"/>
-      <c r="K263" s="31"/>
-      <c r="L263" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="M263" s="26"/>
-      <c r="N263" s="26"/>
-      <c r="O263" s="26"/>
-      <c r="P263" s="26"/>
-      <c r="Q263" s="26"/>
-      <c r="R263" s="26"/>
-      <c r="S263" s="26"/>
-      <c r="T263" s="26"/>
-      <c r="U263" s="26"/>
-      <c r="V263" s="26"/>
-      <c r="W263" s="26"/>
-      <c r="X263" s="26"/>
-      <c r="Y263" s="26"/>
-      <c r="Z263" s="26"/>
-      <c r="AA263" s="26"/>
-      <c r="AB263" s="71"/>
-      <c r="AC263" s="26"/>
-      <c r="AD263" s="26"/>
-      <c r="AE263" s="26"/>
-      <c r="AF263" s="26"/>
-      <c r="AG263" s="26"/>
-      <c r="AH263" s="71"/>
+      <c r="K263" s="55"/>
+      <c r="L263" s="55"/>
+      <c r="M263" s="55"/>
+      <c r="N263" s="55"/>
+      <c r="O263" s="55"/>
+      <c r="P263" s="55"/>
+      <c r="Q263" s="55"/>
+      <c r="R263" s="55"/>
+      <c r="S263" s="55"/>
+      <c r="T263" s="55"/>
+      <c r="U263" s="55"/>
+      <c r="V263" s="55"/>
+      <c r="W263" s="55"/>
+      <c r="X263" s="55"/>
+      <c r="Y263" s="55"/>
+      <c r="Z263" s="55"/>
+      <c r="AA263" s="55"/>
+      <c r="AB263" s="55"/>
+      <c r="AC263" s="55"/>
+      <c r="AD263" s="55"/>
+      <c r="AE263" s="55"/>
+      <c r="AF263" s="55"/>
+      <c r="AG263" s="55"/>
+      <c r="AH263" s="55"/>
       <c r="AI263" s="29"/>
     </row>
     <row r="264" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12284,37 +12294,37 @@
       <c r="C264" s="29"/>
       <c r="D264" s="29"/>
       <c r="E264" s="29"/>
-      <c r="F264" s="24"/>
-      <c r="G264" s="30"/>
+      <c r="F264" s="29"/>
+      <c r="G264" s="55" t="s">
+        <v>239</v>
+      </c>
       <c r="H264" s="55"/>
       <c r="I264" s="55"/>
       <c r="J264" s="55"/>
-      <c r="K264" s="31"/>
-      <c r="L264" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="M264" s="26"/>
-      <c r="N264" s="26"/>
-      <c r="O264" s="26"/>
-      <c r="P264" s="26"/>
-      <c r="Q264" s="26"/>
-      <c r="R264" s="26"/>
-      <c r="S264" s="26"/>
-      <c r="T264" s="26"/>
-      <c r="U264" s="26"/>
-      <c r="V264" s="26"/>
-      <c r="W264" s="26"/>
-      <c r="X264" s="26"/>
-      <c r="Y264" s="26"/>
-      <c r="Z264" s="26"/>
-      <c r="AA264" s="26"/>
-      <c r="AB264" s="71"/>
-      <c r="AC264" s="26"/>
-      <c r="AD264" s="26"/>
-      <c r="AE264" s="26"/>
-      <c r="AF264" s="26"/>
-      <c r="AG264" s="26"/>
-      <c r="AH264" s="71"/>
+      <c r="K264" s="55"/>
+      <c r="L264" s="55"/>
+      <c r="M264" s="55"/>
+      <c r="N264" s="55"/>
+      <c r="O264" s="55"/>
+      <c r="P264" s="55"/>
+      <c r="Q264" s="55"/>
+      <c r="R264" s="55"/>
+      <c r="S264" s="55"/>
+      <c r="T264" s="55"/>
+      <c r="U264" s="55"/>
+      <c r="V264" s="55"/>
+      <c r="W264" s="55"/>
+      <c r="X264" s="55"/>
+      <c r="Y264" s="55"/>
+      <c r="Z264" s="55"/>
+      <c r="AA264" s="55"/>
+      <c r="AB264" s="55"/>
+      <c r="AC264" s="55"/>
+      <c r="AD264" s="55"/>
+      <c r="AE264" s="55"/>
+      <c r="AF264" s="55"/>
+      <c r="AG264" s="55"/>
+      <c r="AH264" s="55"/>
       <c r="AI264" s="29"/>
     </row>
     <row r="265" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12323,37 +12333,35 @@
       <c r="C265" s="29"/>
       <c r="D265" s="29"/>
       <c r="E265" s="29"/>
-      <c r="F265" s="24"/>
-      <c r="G265" s="30"/>
+      <c r="F265" s="29"/>
+      <c r="G265" s="55"/>
       <c r="H265" s="55"/>
       <c r="I265" s="55"/>
       <c r="J265" s="55"/>
-      <c r="K265" s="31"/>
-      <c r="L265" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="M265" s="26"/>
-      <c r="N265" s="26"/>
-      <c r="O265" s="26"/>
-      <c r="P265" s="26"/>
-      <c r="Q265" s="26"/>
-      <c r="R265" s="26"/>
-      <c r="S265" s="26"/>
-      <c r="T265" s="26"/>
-      <c r="U265" s="26"/>
-      <c r="V265" s="26"/>
-      <c r="W265" s="26"/>
-      <c r="X265" s="26"/>
-      <c r="Y265" s="26"/>
-      <c r="Z265" s="26"/>
-      <c r="AA265" s="26"/>
-      <c r="AB265" s="71"/>
-      <c r="AC265" s="26"/>
-      <c r="AD265" s="26"/>
-      <c r="AE265" s="26"/>
-      <c r="AF265" s="26"/>
-      <c r="AG265" s="26"/>
-      <c r="AH265" s="71"/>
+      <c r="K265" s="55"/>
+      <c r="L265" s="55"/>
+      <c r="M265" s="55"/>
+      <c r="N265" s="55"/>
+      <c r="O265" s="55"/>
+      <c r="P265" s="55"/>
+      <c r="Q265" s="55"/>
+      <c r="R265" s="55"/>
+      <c r="S265" s="55"/>
+      <c r="T265" s="55"/>
+      <c r="U265" s="55"/>
+      <c r="V265" s="55"/>
+      <c r="W265" s="55"/>
+      <c r="X265" s="55"/>
+      <c r="Y265" s="55"/>
+      <c r="Z265" s="55"/>
+      <c r="AA265" s="55"/>
+      <c r="AB265" s="55"/>
+      <c r="AC265" s="55"/>
+      <c r="AD265" s="55"/>
+      <c r="AE265" s="55"/>
+      <c r="AF265" s="55"/>
+      <c r="AG265" s="55"/>
+      <c r="AH265" s="55"/>
       <c r="AI265" s="29"/>
     </row>
     <row r="266" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12362,37 +12370,37 @@
       <c r="C266" s="29"/>
       <c r="D266" s="29"/>
       <c r="E266" s="29"/>
-      <c r="F266" s="24"/>
-      <c r="G266" s="30"/>
+      <c r="F266" s="29"/>
+      <c r="G266" s="55" t="s">
+        <v>241</v>
+      </c>
       <c r="H266" s="55"/>
       <c r="I266" s="55"/>
       <c r="J266" s="55"/>
-      <c r="K266" s="31"/>
-      <c r="L266" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="M266" s="26"/>
-      <c r="N266" s="26"/>
-      <c r="O266" s="26"/>
-      <c r="P266" s="26"/>
-      <c r="Q266" s="26"/>
-      <c r="R266" s="26"/>
-      <c r="S266" s="26"/>
-      <c r="T266" s="26"/>
-      <c r="U266" s="26"/>
-      <c r="V266" s="26"/>
-      <c r="W266" s="26"/>
-      <c r="X266" s="26"/>
-      <c r="Y266" s="26"/>
-      <c r="Z266" s="26"/>
-      <c r="AA266" s="26"/>
-      <c r="AB266" s="71"/>
-      <c r="AC266" s="26"/>
-      <c r="AD266" s="26"/>
-      <c r="AE266" s="26"/>
-      <c r="AF266" s="26"/>
-      <c r="AG266" s="26"/>
-      <c r="AH266" s="71"/>
+      <c r="K266" s="55"/>
+      <c r="L266" s="55"/>
+      <c r="M266" s="55"/>
+      <c r="N266" s="55"/>
+      <c r="O266" s="55"/>
+      <c r="P266" s="55"/>
+      <c r="Q266" s="55"/>
+      <c r="R266" s="55"/>
+      <c r="S266" s="55"/>
+      <c r="T266" s="55"/>
+      <c r="U266" s="55"/>
+      <c r="V266" s="55"/>
+      <c r="W266" s="55"/>
+      <c r="X266" s="55"/>
+      <c r="Y266" s="55"/>
+      <c r="Z266" s="55"/>
+      <c r="AA266" s="55"/>
+      <c r="AB266" s="55"/>
+      <c r="AC266" s="55"/>
+      <c r="AD266" s="55"/>
+      <c r="AE266" s="55"/>
+      <c r="AF266" s="55"/>
+      <c r="AG266" s="55"/>
+      <c r="AH266" s="55"/>
       <c r="AI266" s="29"/>
     </row>
     <row r="267" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12401,37 +12409,37 @@
       <c r="C267" s="29"/>
       <c r="D267" s="29"/>
       <c r="E267" s="29"/>
-      <c r="F267" s="24"/>
-      <c r="G267" s="32"/>
-      <c r="H267" s="33"/>
-      <c r="I267" s="33"/>
-      <c r="J267" s="33"/>
-      <c r="K267" s="34"/>
-      <c r="L267" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="M267" s="76"/>
-      <c r="N267" s="76"/>
-      <c r="O267" s="76"/>
-      <c r="P267" s="76"/>
-      <c r="Q267" s="76"/>
-      <c r="R267" s="76"/>
-      <c r="S267" s="76"/>
-      <c r="T267" s="76"/>
-      <c r="U267" s="76"/>
-      <c r="V267" s="76"/>
-      <c r="W267" s="76"/>
-      <c r="X267" s="76"/>
-      <c r="Y267" s="76"/>
-      <c r="Z267" s="76"/>
-      <c r="AA267" s="76"/>
-      <c r="AB267" s="90"/>
-      <c r="AC267" s="76"/>
-      <c r="AD267" s="76"/>
-      <c r="AE267" s="76"/>
-      <c r="AF267" s="76"/>
-      <c r="AG267" s="76"/>
-      <c r="AH267" s="90"/>
+      <c r="F267" s="29"/>
+      <c r="G267" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="H267" s="55"/>
+      <c r="I267" s="55"/>
+      <c r="J267" s="55"/>
+      <c r="K267" s="55"/>
+      <c r="L267" s="55"/>
+      <c r="M267" s="55"/>
+      <c r="N267" s="55"/>
+      <c r="O267" s="55"/>
+      <c r="P267" s="55"/>
+      <c r="Q267" s="55"/>
+      <c r="R267" s="55"/>
+      <c r="S267" s="55"/>
+      <c r="T267" s="55"/>
+      <c r="U267" s="55"/>
+      <c r="V267" s="55"/>
+      <c r="W267" s="55"/>
+      <c r="X267" s="55"/>
+      <c r="Y267" s="55"/>
+      <c r="Z267" s="55"/>
+      <c r="AA267" s="55"/>
+      <c r="AB267" s="55"/>
+      <c r="AC267" s="55"/>
+      <c r="AD267" s="55"/>
+      <c r="AE267" s="55"/>
+      <c r="AF267" s="55"/>
+      <c r="AG267" s="55"/>
+      <c r="AH267" s="55"/>
       <c r="AI267" s="29"/>
     </row>
     <row r="268" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12440,41 +12448,35 @@
       <c r="C268" s="29"/>
       <c r="D268" s="29"/>
       <c r="E268" s="29"/>
-      <c r="F268" s="24"/>
-      <c r="G268" s="30" t="s">
-        <v>104</v>
-      </c>
+      <c r="F268" s="29"/>
+      <c r="G268" s="55"/>
       <c r="H268" s="55"/>
       <c r="I268" s="55"/>
       <c r="J268" s="55"/>
-      <c r="K268" s="31"/>
-      <c r="L268" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="M268" s="26"/>
-      <c r="N268" s="26"/>
-      <c r="O268" s="26"/>
-      <c r="P268" s="26"/>
-      <c r="Q268" s="26"/>
-      <c r="R268" s="26"/>
-      <c r="S268" s="26"/>
-      <c r="T268" s="26"/>
-      <c r="U268" s="26"/>
-      <c r="V268" s="26"/>
-      <c r="W268" s="26"/>
-      <c r="X268" s="26"/>
-      <c r="Y268" s="26"/>
-      <c r="Z268" s="26"/>
-      <c r="AA268" s="26"/>
-      <c r="AB268" s="71"/>
-      <c r="AC268" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD268" s="26"/>
-      <c r="AE268" s="26"/>
-      <c r="AF268" s="26"/>
-      <c r="AG268" s="26"/>
-      <c r="AH268" s="71"/>
+      <c r="K268" s="55"/>
+      <c r="L268" s="55"/>
+      <c r="M268" s="55"/>
+      <c r="N268" s="55"/>
+      <c r="O268" s="55"/>
+      <c r="P268" s="55"/>
+      <c r="Q268" s="55"/>
+      <c r="R268" s="55"/>
+      <c r="S268" s="55"/>
+      <c r="T268" s="55"/>
+      <c r="U268" s="55"/>
+      <c r="V268" s="55"/>
+      <c r="W268" s="55"/>
+      <c r="X268" s="55"/>
+      <c r="Y268" s="55"/>
+      <c r="Z268" s="55"/>
+      <c r="AA268" s="55"/>
+      <c r="AB268" s="55"/>
+      <c r="AC268" s="55"/>
+      <c r="AD268" s="55"/>
+      <c r="AE268" s="55"/>
+      <c r="AF268" s="55"/>
+      <c r="AG268" s="55"/>
+      <c r="AH268" s="55"/>
       <c r="AI268" s="29"/>
     </row>
     <row r="269" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12483,39 +12485,37 @@
       <c r="C269" s="29"/>
       <c r="D269" s="29"/>
       <c r="E269" s="29"/>
-      <c r="F269" s="24"/>
-      <c r="G269" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H269" s="33"/>
-      <c r="I269" s="33"/>
-      <c r="J269" s="33"/>
-      <c r="K269" s="34"/>
-      <c r="L269" s="76" t="s">
-        <v>213</v>
-      </c>
-      <c r="M269" s="76"/>
-      <c r="N269" s="76"/>
-      <c r="O269" s="76"/>
-      <c r="P269" s="76"/>
-      <c r="Q269" s="76"/>
-      <c r="R269" s="76"/>
-      <c r="S269" s="76"/>
-      <c r="T269" s="76"/>
-      <c r="U269" s="76"/>
-      <c r="V269" s="76"/>
-      <c r="W269" s="76"/>
-      <c r="X269" s="76"/>
-      <c r="Y269" s="76"/>
-      <c r="Z269" s="76"/>
-      <c r="AA269" s="76"/>
-      <c r="AB269" s="90"/>
-      <c r="AC269" s="76"/>
-      <c r="AD269" s="76"/>
-      <c r="AE269" s="76"/>
-      <c r="AF269" s="76"/>
-      <c r="AG269" s="76"/>
-      <c r="AH269" s="90"/>
+      <c r="F269" s="29"/>
+      <c r="G269" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="H269" s="55"/>
+      <c r="I269" s="55"/>
+      <c r="J269" s="55"/>
+      <c r="K269" s="55"/>
+      <c r="L269" s="55"/>
+      <c r="M269" s="55"/>
+      <c r="N269" s="55"/>
+      <c r="O269" s="55"/>
+      <c r="P269" s="55"/>
+      <c r="Q269" s="55"/>
+      <c r="R269" s="55"/>
+      <c r="S269" s="55"/>
+      <c r="T269" s="55"/>
+      <c r="U269" s="55"/>
+      <c r="V269" s="55"/>
+      <c r="W269" s="55"/>
+      <c r="X269" s="55"/>
+      <c r="Y269" s="55"/>
+      <c r="Z269" s="55"/>
+      <c r="AA269" s="55"/>
+      <c r="AB269" s="55"/>
+      <c r="AC269" s="55"/>
+      <c r="AD269" s="55"/>
+      <c r="AE269" s="55"/>
+      <c r="AF269" s="55"/>
+      <c r="AG269" s="55"/>
+      <c r="AH269" s="55"/>
       <c r="AI269" s="29"/>
     </row>
     <row r="270" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12523,36 +12523,38 @@
       <c r="B270" s="29"/>
       <c r="C270" s="29"/>
       <c r="D270" s="29"/>
-      <c r="E270" s="24"/>
+      <c r="E270" s="29"/>
       <c r="F270" s="29"/>
-      <c r="G270" s="29"/>
-      <c r="H270" s="29"/>
-      <c r="I270" s="29"/>
-      <c r="J270" s="29"/>
-      <c r="K270" s="29"/>
-      <c r="L270" s="29"/>
-      <c r="M270" s="29"/>
-      <c r="N270" s="29"/>
-      <c r="O270" s="29"/>
-      <c r="P270" s="29"/>
-      <c r="Q270" s="29"/>
-      <c r="R270" s="29"/>
-      <c r="S270" s="29"/>
-      <c r="T270" s="29"/>
-      <c r="U270" s="29"/>
-      <c r="V270" s="29"/>
-      <c r="W270" s="29"/>
-      <c r="X270" s="29"/>
-      <c r="Y270" s="29"/>
-      <c r="Z270" s="29"/>
-      <c r="AA270" s="29"/>
-      <c r="AB270" s="29"/>
-      <c r="AC270" s="29"/>
-      <c r="AD270" s="29"/>
-      <c r="AE270" s="29"/>
-      <c r="AF270" s="29"/>
-      <c r="AG270" s="29"/>
-      <c r="AH270" s="29"/>
+      <c r="G270" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="H270" s="55"/>
+      <c r="I270" s="55"/>
+      <c r="J270" s="55"/>
+      <c r="K270" s="55"/>
+      <c r="L270" s="55"/>
+      <c r="M270" s="55"/>
+      <c r="N270" s="55"/>
+      <c r="O270" s="55"/>
+      <c r="P270" s="55"/>
+      <c r="Q270" s="55"/>
+      <c r="R270" s="55"/>
+      <c r="S270" s="55"/>
+      <c r="T270" s="55"/>
+      <c r="U270" s="55"/>
+      <c r="V270" s="55"/>
+      <c r="W270" s="55"/>
+      <c r="X270" s="55"/>
+      <c r="Y270" s="55"/>
+      <c r="Z270" s="55"/>
+      <c r="AA270" s="55"/>
+      <c r="AB270" s="55"/>
+      <c r="AC270" s="55"/>
+      <c r="AD270" s="55"/>
+      <c r="AE270" s="55"/>
+      <c r="AF270" s="55"/>
+      <c r="AG270" s="55"/>
+      <c r="AH270" s="55"/>
       <c r="AI270" s="29"/>
     </row>
     <row r="271" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12560,40 +12562,38 @@
       <c r="B271" s="29"/>
       <c r="C271" s="29"/>
       <c r="D271" s="29"/>
-      <c r="E271" s="24"/>
-      <c r="F271" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G271" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="H271" s="29"/>
-      <c r="I271" s="29"/>
-      <c r="J271" s="29"/>
-      <c r="K271" s="29"/>
-      <c r="L271" s="29"/>
-      <c r="M271" s="29"/>
-      <c r="N271" s="29"/>
-      <c r="O271" s="29"/>
-      <c r="P271" s="29"/>
-      <c r="Q271" s="29"/>
-      <c r="R271" s="29"/>
-      <c r="S271" s="29"/>
-      <c r="T271" s="29"/>
-      <c r="U271" s="29"/>
-      <c r="V271" s="29"/>
-      <c r="W271" s="29"/>
-      <c r="X271" s="29"/>
-      <c r="Y271" s="29"/>
-      <c r="Z271" s="29"/>
-      <c r="AA271" s="29"/>
-      <c r="AB271" s="29"/>
-      <c r="AC271" s="29"/>
-      <c r="AD271" s="29"/>
-      <c r="AE271" s="29"/>
-      <c r="AF271" s="29"/>
-      <c r="AG271" s="29"/>
-      <c r="AH271" s="29"/>
+      <c r="E271" s="29"/>
+      <c r="F271" s="29"/>
+      <c r="G271" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="H271" s="55"/>
+      <c r="I271" s="55"/>
+      <c r="J271" s="55"/>
+      <c r="K271" s="55"/>
+      <c r="L271" s="55"/>
+      <c r="M271" s="55"/>
+      <c r="N271" s="55"/>
+      <c r="O271" s="55"/>
+      <c r="P271" s="55"/>
+      <c r="Q271" s="55"/>
+      <c r="R271" s="55"/>
+      <c r="S271" s="55"/>
+      <c r="T271" s="55"/>
+      <c r="U271" s="55"/>
+      <c r="V271" s="55"/>
+      <c r="W271" s="55"/>
+      <c r="X271" s="55"/>
+      <c r="Y271" s="55"/>
+      <c r="Z271" s="55"/>
+      <c r="AA271" s="55"/>
+      <c r="AB271" s="55"/>
+      <c r="AC271" s="55"/>
+      <c r="AD271" s="55"/>
+      <c r="AE271" s="55"/>
+      <c r="AF271" s="55"/>
+      <c r="AG271" s="55"/>
+      <c r="AH271" s="55"/>
       <c r="AI271" s="29"/>
     </row>
     <row r="272" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12601,38 +12601,38 @@
       <c r="B272" s="29"/>
       <c r="C272" s="29"/>
       <c r="D272" s="29"/>
-      <c r="E272" s="24"/>
+      <c r="E272" s="29"/>
       <c r="F272" s="29"/>
-      <c r="G272" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H272" s="29"/>
-      <c r="I272" s="29"/>
-      <c r="J272" s="29"/>
-      <c r="K272" s="29"/>
-      <c r="L272" s="29"/>
-      <c r="M272" s="29"/>
-      <c r="N272" s="29"/>
-      <c r="O272" s="29"/>
-      <c r="P272" s="29"/>
-      <c r="Q272" s="29"/>
-      <c r="R272" s="29"/>
-      <c r="S272" s="29"/>
-      <c r="T272" s="29"/>
-      <c r="U272" s="29"/>
-      <c r="V272" s="29"/>
-      <c r="W272" s="29"/>
-      <c r="X272" s="29"/>
-      <c r="Y272" s="29"/>
-      <c r="Z272" s="29"/>
-      <c r="AA272" s="29"/>
-      <c r="AB272" s="29"/>
-      <c r="AC272" s="29"/>
-      <c r="AD272" s="29"/>
-      <c r="AE272" s="29"/>
-      <c r="AF272" s="29"/>
-      <c r="AG272" s="29"/>
-      <c r="AH272" s="29"/>
+      <c r="G272" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="H272" s="55"/>
+      <c r="I272" s="55"/>
+      <c r="J272" s="55"/>
+      <c r="K272" s="55"/>
+      <c r="L272" s="55"/>
+      <c r="M272" s="55"/>
+      <c r="N272" s="55"/>
+      <c r="O272" s="55"/>
+      <c r="P272" s="55"/>
+      <c r="Q272" s="55"/>
+      <c r="R272" s="55"/>
+      <c r="S272" s="55"/>
+      <c r="T272" s="55"/>
+      <c r="U272" s="55"/>
+      <c r="V272" s="55"/>
+      <c r="W272" s="55"/>
+      <c r="X272" s="55"/>
+      <c r="Y272" s="55"/>
+      <c r="Z272" s="55"/>
+      <c r="AA272" s="55"/>
+      <c r="AB272" s="55"/>
+      <c r="AC272" s="55"/>
+      <c r="AD272" s="55"/>
+      <c r="AE272" s="55"/>
+      <c r="AF272" s="55"/>
+      <c r="AG272" s="55"/>
+      <c r="AH272" s="55"/>
       <c r="AI272" s="29"/>
     </row>
     <row r="273" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12672,223 +12672,192 @@
       <c r="AH273" s="29"/>
       <c r="AI273" s="29"/>
     </row>
-    <row r="274" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="29"/>
-      <c r="B274" s="29"/>
-      <c r="C274" s="29"/>
-      <c r="D274" s="29"/>
-      <c r="E274" s="29"/>
-      <c r="F274" s="29"/>
-      <c r="G274" s="29"/>
-      <c r="H274" s="29"/>
-      <c r="I274" s="29"/>
-      <c r="J274" s="29"/>
-      <c r="K274" s="29"/>
-      <c r="L274" s="29"/>
-      <c r="M274" s="29"/>
-      <c r="N274" s="29"/>
-      <c r="O274" s="29"/>
-      <c r="P274" s="29"/>
-      <c r="Q274" s="29"/>
-      <c r="R274" s="29"/>
-      <c r="S274" s="29"/>
-      <c r="T274" s="29"/>
-      <c r="U274" s="29"/>
-      <c r="V274" s="29"/>
-      <c r="W274" s="29"/>
-      <c r="X274" s="29"/>
-      <c r="Y274" s="29"/>
-      <c r="Z274" s="29"/>
-      <c r="AA274" s="29"/>
-      <c r="AB274" s="29"/>
-      <c r="AC274" s="29"/>
-      <c r="AD274" s="29"/>
-      <c r="AE274" s="29"/>
-      <c r="AF274" s="29"/>
-      <c r="AG274" s="29"/>
-      <c r="AH274" s="29"/>
-      <c r="AI274" s="29"/>
-    </row>
-    <row r="275" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D275" s="42" t="str">
+    <row r="274" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D274" s="42" t="str">
         <f>$C$7&amp;"10."</f>
         <v>3.1.10.</v>
       </c>
-      <c r="E275" s="41" t="s">
+      <c r="E274" s="41" t="s">
         <v>159</v>
       </c>
+    </row>
+    <row r="275" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D275" s="42"/>
     </row>
     <row r="276" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="42"/>
+      <c r="E276" s="42" t="str">
+        <f>$D$274&amp;"1."</f>
+        <v>3.1.10.1.</v>
+      </c>
+      <c r="F276" s="41" t="str">
+        <f>$E$274&amp;"概要"</f>
+        <v>URL設計概要</v>
+      </c>
     </row>
     <row r="277" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="42"/>
-      <c r="E277" s="42" t="str">
-        <f>$D$275&amp;"1."</f>
-        <v>3.1.10.1.</v>
-      </c>
-      <c r="F277" s="41" t="str">
-        <f>$E$275&amp;"概要"</f>
-        <v>URL設計概要</v>
+      <c r="F277" s="41" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="278" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="42"/>
       <c r="F278" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="G278" s="41" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="279" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="42"/>
-      <c r="F279" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="G279" s="41" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="280" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="42"/>
+      <c r="E280" s="42" t="str">
+        <f>$D$274&amp;"2."</f>
+        <v>3.1.10.2.</v>
+      </c>
+      <c r="F280" s="41" t="str">
+        <f>$E$274&amp;"方針"</f>
+        <v>URL設計方針</v>
+      </c>
     </row>
     <row r="281" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="42"/>
-      <c r="E281" s="42" t="str">
-        <f>$D$275&amp;"2."</f>
-        <v>3.1.10.2.</v>
-      </c>
-      <c r="F281" s="41" t="str">
-        <f>$E$275&amp;"方針"</f>
-        <v>URL設計方針</v>
+      <c r="F281" s="41" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="282" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="42"/>
-      <c r="F282" s="41" t="s">
-        <v>183</v>
-      </c>
+      <c r="F282" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G282" s="53"/>
+      <c r="H282" s="53"/>
+      <c r="I282" s="53"/>
+      <c r="J282" s="53"/>
+      <c r="K282" s="54"/>
+      <c r="L282" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M282" s="53"/>
+      <c r="N282" s="53"/>
+      <c r="O282" s="53"/>
+      <c r="P282" s="53"/>
+      <c r="Q282" s="53"/>
+      <c r="R282" s="53"/>
+      <c r="S282" s="53"/>
+      <c r="T282" s="53"/>
+      <c r="U282" s="53"/>
+      <c r="V282" s="53"/>
+      <c r="W282" s="53"/>
+      <c r="X282" s="53"/>
+      <c r="Y282" s="53"/>
+      <c r="Z282" s="53"/>
+      <c r="AA282" s="53"/>
+      <c r="AB282" s="53"/>
+      <c r="AC282" s="53"/>
+      <c r="AD282" s="53"/>
+      <c r="AE282" s="53"/>
+      <c r="AF282" s="53"/>
+      <c r="AG282" s="54"/>
     </row>
     <row r="283" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="42"/>
-      <c r="F283" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G283" s="53"/>
-      <c r="H283" s="53"/>
-      <c r="I283" s="53"/>
-      <c r="J283" s="53"/>
-      <c r="K283" s="54"/>
-      <c r="L283" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="M283" s="53"/>
-      <c r="N283" s="53"/>
-      <c r="O283" s="53"/>
-      <c r="P283" s="53"/>
-      <c r="Q283" s="53"/>
-      <c r="R283" s="53"/>
-      <c r="S283" s="53"/>
-      <c r="T283" s="53"/>
-      <c r="U283" s="53"/>
-      <c r="V283" s="53"/>
-      <c r="W283" s="53"/>
-      <c r="X283" s="53"/>
-      <c r="Y283" s="53"/>
-      <c r="Z283" s="53"/>
-      <c r="AA283" s="53"/>
-      <c r="AB283" s="53"/>
-      <c r="AC283" s="53"/>
-      <c r="AD283" s="53"/>
-      <c r="AE283" s="53"/>
-      <c r="AF283" s="53"/>
-      <c r="AG283" s="54"/>
+      <c r="F283" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="G283" s="99"/>
+      <c r="H283" s="99"/>
+      <c r="I283" s="99"/>
+      <c r="J283" s="99"/>
+      <c r="K283" s="101"/>
+      <c r="L283" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="M283" s="99"/>
+      <c r="N283" s="99"/>
+      <c r="O283" s="99"/>
+      <c r="P283" s="99"/>
+      <c r="Q283" s="99"/>
+      <c r="R283" s="99"/>
+      <c r="S283" s="99"/>
+      <c r="T283" s="99"/>
+      <c r="U283" s="99"/>
+      <c r="V283" s="99"/>
+      <c r="W283" s="99"/>
+      <c r="X283" s="99"/>
+      <c r="Y283" s="99"/>
+      <c r="Z283" s="99"/>
+      <c r="AA283" s="99"/>
+      <c r="AB283" s="99"/>
+      <c r="AC283" s="99"/>
+      <c r="AD283" s="99"/>
+      <c r="AE283" s="99"/>
+      <c r="AF283" s="99"/>
+      <c r="AG283" s="101"/>
     </row>
     <row r="284" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D284" s="42"/>
-      <c r="F284" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="G284" s="99"/>
-      <c r="H284" s="99"/>
-      <c r="I284" s="99"/>
-      <c r="J284" s="99"/>
-      <c r="K284" s="101"/>
-      <c r="L284" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="M284" s="99"/>
-      <c r="N284" s="99"/>
-      <c r="O284" s="99"/>
-      <c r="P284" s="99"/>
-      <c r="Q284" s="99"/>
-      <c r="R284" s="99"/>
-      <c r="S284" s="99"/>
-      <c r="T284" s="99"/>
-      <c r="U284" s="99"/>
-      <c r="V284" s="99"/>
-      <c r="W284" s="99"/>
-      <c r="X284" s="99"/>
-      <c r="Y284" s="99"/>
-      <c r="Z284" s="99"/>
-      <c r="AA284" s="99"/>
-      <c r="AB284" s="99"/>
-      <c r="AC284" s="99"/>
-      <c r="AD284" s="99"/>
-      <c r="AE284" s="99"/>
-      <c r="AF284" s="99"/>
-      <c r="AG284" s="101"/>
+      <c r="F284" s="81"/>
+      <c r="G284" s="102"/>
+      <c r="H284" s="102"/>
+      <c r="I284" s="102"/>
+      <c r="J284" s="102"/>
+      <c r="K284" s="103"/>
+      <c r="L284" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="M284" s="102"/>
+      <c r="N284" s="102"/>
+      <c r="O284" s="102"/>
+      <c r="P284" s="102"/>
+      <c r="Q284" s="102"/>
+      <c r="R284" s="102"/>
+      <c r="S284" s="102"/>
+      <c r="T284" s="102"/>
+      <c r="U284" s="102"/>
+      <c r="V284" s="102"/>
+      <c r="W284" s="102"/>
+      <c r="X284" s="102"/>
+      <c r="Y284" s="102"/>
+      <c r="Z284" s="102"/>
+      <c r="AA284" s="102"/>
+      <c r="AB284" s="102"/>
+      <c r="AC284" s="102"/>
+      <c r="AD284" s="102"/>
+      <c r="AE284" s="102"/>
+      <c r="AF284" s="102"/>
+      <c r="AG284" s="103"/>
     </row>
     <row r="285" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D285" s="42"/>
-      <c r="F285" s="81"/>
-      <c r="G285" s="102"/>
-      <c r="H285" s="102"/>
-      <c r="I285" s="102"/>
-      <c r="J285" s="102"/>
-      <c r="K285" s="103"/>
-      <c r="L285" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="M285" s="102"/>
-      <c r="N285" s="102"/>
-      <c r="O285" s="102"/>
-      <c r="P285" s="102"/>
-      <c r="Q285" s="102"/>
-      <c r="R285" s="102"/>
-      <c r="S285" s="102"/>
-      <c r="T285" s="102"/>
-      <c r="U285" s="102"/>
-      <c r="V285" s="102"/>
-      <c r="W285" s="102"/>
-      <c r="X285" s="102"/>
-      <c r="Y285" s="102"/>
-      <c r="Z285" s="102"/>
-      <c r="AA285" s="102"/>
-      <c r="AB285" s="102"/>
-      <c r="AC285" s="102"/>
-      <c r="AD285" s="102"/>
-      <c r="AE285" s="102"/>
-      <c r="AF285" s="102"/>
-      <c r="AG285" s="103"/>
     </row>
     <row r="286" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D286" s="42"/>
+      <c r="E286" s="42" t="str">
+        <f>$D$274&amp;"3."</f>
+        <v>3.1.10.3.</v>
+      </c>
+      <c r="F286" s="41" t="str">
+        <f>$E$274&amp;"詳細"</f>
+        <v>URL設計詳細</v>
+      </c>
     </row>
     <row r="287" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="42"/>
-      <c r="E287" s="42" t="str">
-        <f>$D$275&amp;"3."</f>
-        <v>3.1.10.3.</v>
-      </c>
-      <c r="F287" s="41" t="str">
-        <f>$E$275&amp;"詳細"</f>
-        <v>URL設計詳細</v>
-      </c>
+      <c r="F287" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G287" s="29"/>
+      <c r="H287" s="29"/>
     </row>
     <row r="288" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D288" s="42"/>
-      <c r="F288" s="29" t="s">
-        <v>215</v>
-      </c>
+      <c r="F288" s="29"/>
       <c r="G288" s="29"/>
       <c r="H288" s="29"/>
     </row>
@@ -12924,9 +12893,6 @@
     </row>
     <row r="294" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D294" s="42"/>
-      <c r="F294" s="29"/>
-      <c r="G294" s="29"/>
-      <c r="H294" s="29"/>
     </row>
     <row r="295" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D295" s="42"/>
@@ -12935,676 +12901,686 @@
       <c r="D296" s="42"/>
     </row>
     <row r="297" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D297" s="42"/>
+      <c r="E297" s="42"/>
+      <c r="F297" s="87"/>
+      <c r="G297" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H297" s="53"/>
+      <c r="I297" s="53"/>
+      <c r="J297" s="53"/>
+      <c r="K297" s="53"/>
+      <c r="L297" s="54"/>
+      <c r="M297" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="N297" s="53"/>
+      <c r="O297" s="53"/>
+      <c r="P297" s="53"/>
+      <c r="Q297" s="53"/>
+      <c r="R297" s="53"/>
+      <c r="S297" s="53"/>
+      <c r="T297" s="53"/>
+      <c r="U297" s="53"/>
+      <c r="V297" s="53"/>
+      <c r="W297" s="53"/>
+      <c r="X297" s="53"/>
+      <c r="Y297" s="53"/>
+      <c r="Z297" s="53"/>
+      <c r="AA297" s="53"/>
+      <c r="AB297" s="53"/>
+      <c r="AC297" s="53"/>
+      <c r="AD297" s="53"/>
+      <c r="AE297" s="53"/>
+      <c r="AF297" s="54"/>
     </row>
     <row r="298" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E298" s="42"/>
-      <c r="F298" s="87"/>
-      <c r="G298" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="H298" s="53"/>
-      <c r="I298" s="53"/>
-      <c r="J298" s="53"/>
-      <c r="K298" s="53"/>
-      <c r="L298" s="54"/>
-      <c r="M298" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="N298" s="53"/>
-      <c r="O298" s="53"/>
-      <c r="P298" s="53"/>
-      <c r="Q298" s="53"/>
-      <c r="R298" s="53"/>
-      <c r="S298" s="53"/>
-      <c r="T298" s="53"/>
-      <c r="U298" s="53"/>
-      <c r="V298" s="53"/>
-      <c r="W298" s="53"/>
-      <c r="X298" s="53"/>
-      <c r="Y298" s="53"/>
-      <c r="Z298" s="53"/>
-      <c r="AA298" s="53"/>
-      <c r="AB298" s="53"/>
-      <c r="AC298" s="53"/>
-      <c r="AD298" s="53"/>
-      <c r="AE298" s="53"/>
-      <c r="AF298" s="54"/>
+      <c r="F298" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="G298" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="H298" s="49"/>
+      <c r="I298" s="49"/>
+      <c r="J298" s="49"/>
+      <c r="K298" s="49"/>
+      <c r="L298" s="50"/>
+      <c r="M298" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="N298" s="49"/>
+      <c r="O298" s="49"/>
+      <c r="P298" s="49"/>
+      <c r="Q298" s="49"/>
+      <c r="R298" s="49"/>
+      <c r="S298" s="49"/>
+      <c r="T298" s="49"/>
+      <c r="U298" s="49"/>
+      <c r="V298" s="49"/>
+      <c r="W298" s="49"/>
+      <c r="X298" s="49"/>
+      <c r="Y298" s="49"/>
+      <c r="Z298" s="49"/>
+      <c r="AA298" s="49"/>
+      <c r="AB298" s="49"/>
+      <c r="AC298" s="49"/>
+      <c r="AD298" s="49"/>
+      <c r="AE298" s="49"/>
+      <c r="AF298" s="50"/>
     </row>
     <row r="299" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E299" s="42"/>
-      <c r="F299" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="G299" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="H299" s="49"/>
-      <c r="I299" s="49"/>
-      <c r="J299" s="49"/>
-      <c r="K299" s="49"/>
-      <c r="L299" s="50"/>
-      <c r="M299" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="N299" s="49"/>
-      <c r="O299" s="49"/>
-      <c r="P299" s="49"/>
-      <c r="Q299" s="49"/>
-      <c r="R299" s="49"/>
-      <c r="S299" s="49"/>
-      <c r="T299" s="49"/>
-      <c r="U299" s="49"/>
-      <c r="V299" s="49"/>
-      <c r="W299" s="49"/>
-      <c r="X299" s="49"/>
-      <c r="Y299" s="49"/>
-      <c r="Z299" s="49"/>
-      <c r="AA299" s="49"/>
-      <c r="AB299" s="49"/>
-      <c r="AC299" s="49"/>
-      <c r="AD299" s="49"/>
-      <c r="AE299" s="49"/>
-      <c r="AF299" s="50"/>
+      <c r="F299" s="84"/>
+      <c r="G299" s="46"/>
+      <c r="H299" s="47"/>
+      <c r="I299" s="47"/>
+      <c r="J299" s="47"/>
+      <c r="K299" s="47"/>
+      <c r="L299" s="51"/>
+      <c r="M299" s="46"/>
+      <c r="N299" s="47"/>
+      <c r="O299" s="47"/>
+      <c r="P299" s="47"/>
+      <c r="Q299" s="47"/>
+      <c r="R299" s="47"/>
+      <c r="S299" s="47"/>
+      <c r="T299" s="47"/>
+      <c r="U299" s="47"/>
+      <c r="V299" s="47"/>
+      <c r="W299" s="47"/>
+      <c r="X299" s="47"/>
+      <c r="Y299" s="47"/>
+      <c r="Z299" s="47"/>
+      <c r="AA299" s="47"/>
+      <c r="AB299" s="47"/>
+      <c r="AC299" s="47"/>
+      <c r="AD299" s="47"/>
+      <c r="AE299" s="47"/>
+      <c r="AF299" s="51"/>
     </row>
     <row r="300" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E300" s="42"/>
-      <c r="F300" s="84"/>
-      <c r="G300" s="46"/>
-      <c r="H300" s="47"/>
-      <c r="I300" s="47"/>
-      <c r="J300" s="47"/>
-      <c r="K300" s="47"/>
-      <c r="L300" s="51"/>
-      <c r="M300" s="46"/>
-      <c r="N300" s="47"/>
-      <c r="O300" s="47"/>
-      <c r="P300" s="47"/>
-      <c r="Q300" s="47"/>
-      <c r="R300" s="47"/>
-      <c r="S300" s="47"/>
-      <c r="T300" s="47"/>
-      <c r="U300" s="47"/>
-      <c r="V300" s="47"/>
-      <c r="W300" s="47"/>
-      <c r="X300" s="47"/>
-      <c r="Y300" s="47"/>
-      <c r="Z300" s="47"/>
-      <c r="AA300" s="47"/>
-      <c r="AB300" s="47"/>
-      <c r="AC300" s="47"/>
-      <c r="AD300" s="47"/>
-      <c r="AE300" s="47"/>
-      <c r="AF300" s="51"/>
+      <c r="F300" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="G300" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="H300" s="49"/>
+      <c r="I300" s="49"/>
+      <c r="J300" s="49"/>
+      <c r="K300" s="49"/>
+      <c r="L300" s="50"/>
+      <c r="M300" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="N300" s="49"/>
+      <c r="O300" s="49"/>
+      <c r="P300" s="49"/>
+      <c r="Q300" s="49"/>
+      <c r="R300" s="49"/>
+      <c r="S300" s="49"/>
+      <c r="T300" s="49"/>
+      <c r="U300" s="49"/>
+      <c r="V300" s="49"/>
+      <c r="W300" s="49"/>
+      <c r="X300" s="49"/>
+      <c r="Y300" s="49"/>
+      <c r="Z300" s="49"/>
+      <c r="AA300" s="49"/>
+      <c r="AB300" s="49"/>
+      <c r="AC300" s="49"/>
+      <c r="AD300" s="49"/>
+      <c r="AE300" s="49"/>
+      <c r="AF300" s="50"/>
     </row>
     <row r="301" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E301" s="42"/>
-      <c r="F301" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="G301" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="H301" s="49"/>
-      <c r="I301" s="49"/>
-      <c r="J301" s="49"/>
-      <c r="K301" s="49"/>
-      <c r="L301" s="50"/>
-      <c r="M301" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="N301" s="49"/>
-      <c r="O301" s="49"/>
-      <c r="P301" s="49"/>
-      <c r="Q301" s="49"/>
-      <c r="R301" s="49"/>
-      <c r="S301" s="49"/>
-      <c r="T301" s="49"/>
-      <c r="U301" s="49"/>
-      <c r="V301" s="49"/>
-      <c r="W301" s="49"/>
-      <c r="X301" s="49"/>
-      <c r="Y301" s="49"/>
-      <c r="Z301" s="49"/>
-      <c r="AA301" s="49"/>
-      <c r="AB301" s="49"/>
-      <c r="AC301" s="49"/>
-      <c r="AD301" s="49"/>
-      <c r="AE301" s="49"/>
-      <c r="AF301" s="50"/>
+      <c r="F301" s="84"/>
+      <c r="G301" s="46"/>
+      <c r="H301" s="47"/>
+      <c r="I301" s="47"/>
+      <c r="J301" s="47"/>
+      <c r="K301" s="47"/>
+      <c r="L301" s="51"/>
+      <c r="M301" s="46"/>
+      <c r="N301" s="47"/>
+      <c r="O301" s="47"/>
+      <c r="P301" s="47"/>
+      <c r="Q301" s="47"/>
+      <c r="R301" s="47"/>
+      <c r="S301" s="47"/>
+      <c r="T301" s="47"/>
+      <c r="U301" s="47"/>
+      <c r="V301" s="47"/>
+      <c r="W301" s="47"/>
+      <c r="X301" s="47"/>
+      <c r="Y301" s="47"/>
+      <c r="Z301" s="47"/>
+      <c r="AA301" s="47"/>
+      <c r="AB301" s="47"/>
+      <c r="AC301" s="47"/>
+      <c r="AD301" s="47"/>
+      <c r="AE301" s="47"/>
+      <c r="AF301" s="51"/>
     </row>
     <row r="302" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E302" s="42"/>
-      <c r="F302" s="84"/>
-      <c r="G302" s="46"/>
-      <c r="H302" s="47"/>
-      <c r="I302" s="47"/>
-      <c r="J302" s="47"/>
-      <c r="K302" s="47"/>
-      <c r="L302" s="51"/>
-      <c r="M302" s="46"/>
-      <c r="N302" s="47"/>
-      <c r="O302" s="47"/>
-      <c r="P302" s="47"/>
-      <c r="Q302" s="47"/>
-      <c r="R302" s="47"/>
-      <c r="S302" s="47"/>
-      <c r="T302" s="47"/>
-      <c r="U302" s="47"/>
-      <c r="V302" s="47"/>
-      <c r="W302" s="47"/>
-      <c r="X302" s="47"/>
-      <c r="Y302" s="47"/>
-      <c r="Z302" s="47"/>
-      <c r="AA302" s="47"/>
-      <c r="AB302" s="47"/>
-      <c r="AC302" s="47"/>
-      <c r="AD302" s="47"/>
-      <c r="AE302" s="47"/>
-      <c r="AF302" s="51"/>
+      <c r="F302" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="G302" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="H302" s="49"/>
+      <c r="I302" s="49"/>
+      <c r="J302" s="49"/>
+      <c r="K302" s="49"/>
+      <c r="L302" s="50"/>
+      <c r="M302" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="N302" s="49"/>
+      <c r="O302" s="49"/>
+      <c r="P302" s="49"/>
+      <c r="Q302" s="49"/>
+      <c r="R302" s="49"/>
+      <c r="S302" s="49"/>
+      <c r="T302" s="49"/>
+      <c r="U302" s="49"/>
+      <c r="V302" s="49"/>
+      <c r="W302" s="49"/>
+      <c r="X302" s="49"/>
+      <c r="Y302" s="49"/>
+      <c r="Z302" s="49"/>
+      <c r="AA302" s="49"/>
+      <c r="AB302" s="49"/>
+      <c r="AC302" s="49"/>
+      <c r="AD302" s="49"/>
+      <c r="AE302" s="49"/>
+      <c r="AF302" s="50"/>
     </row>
     <row r="303" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E303" s="42"/>
-      <c r="F303" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="G303" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="H303" s="49"/>
-      <c r="I303" s="49"/>
-      <c r="J303" s="49"/>
-      <c r="K303" s="49"/>
-      <c r="L303" s="50"/>
-      <c r="M303" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="N303" s="49"/>
-      <c r="O303" s="49"/>
-      <c r="P303" s="49"/>
-      <c r="Q303" s="49"/>
-      <c r="R303" s="49"/>
-      <c r="S303" s="49"/>
-      <c r="T303" s="49"/>
-      <c r="U303" s="49"/>
-      <c r="V303" s="49"/>
-      <c r="W303" s="49"/>
-      <c r="X303" s="49"/>
-      <c r="Y303" s="49"/>
-      <c r="Z303" s="49"/>
-      <c r="AA303" s="49"/>
-      <c r="AB303" s="49"/>
-      <c r="AC303" s="49"/>
-      <c r="AD303" s="49"/>
-      <c r="AE303" s="49"/>
-      <c r="AF303" s="50"/>
+      <c r="F303" s="84"/>
+      <c r="G303" s="46"/>
+      <c r="H303" s="47"/>
+      <c r="I303" s="47"/>
+      <c r="J303" s="47"/>
+      <c r="K303" s="47"/>
+      <c r="L303" s="51"/>
+      <c r="M303" s="46"/>
+      <c r="N303" s="47"/>
+      <c r="O303" s="47"/>
+      <c r="P303" s="47"/>
+      <c r="Q303" s="47"/>
+      <c r="R303" s="47"/>
+      <c r="S303" s="47"/>
+      <c r="T303" s="47"/>
+      <c r="U303" s="47"/>
+      <c r="V303" s="47"/>
+      <c r="W303" s="47"/>
+      <c r="X303" s="47"/>
+      <c r="Y303" s="47"/>
+      <c r="Z303" s="47"/>
+      <c r="AA303" s="47"/>
+      <c r="AB303" s="47"/>
+      <c r="AC303" s="47"/>
+      <c r="AD303" s="47"/>
+      <c r="AE303" s="47"/>
+      <c r="AF303" s="51"/>
     </row>
     <row r="304" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E304" s="42"/>
-      <c r="F304" s="84"/>
-      <c r="G304" s="46"/>
-      <c r="H304" s="47"/>
-      <c r="I304" s="47"/>
-      <c r="J304" s="47"/>
-      <c r="K304" s="47"/>
-      <c r="L304" s="51"/>
-      <c r="M304" s="46"/>
-      <c r="N304" s="47"/>
-      <c r="O304" s="47"/>
-      <c r="P304" s="47"/>
-      <c r="Q304" s="47"/>
-      <c r="R304" s="47"/>
-      <c r="S304" s="47"/>
-      <c r="T304" s="47"/>
-      <c r="U304" s="47"/>
-      <c r="V304" s="47"/>
-      <c r="W304" s="47"/>
-      <c r="X304" s="47"/>
-      <c r="Y304" s="47"/>
-      <c r="Z304" s="47"/>
-      <c r="AA304" s="47"/>
-      <c r="AB304" s="47"/>
-      <c r="AC304" s="47"/>
-      <c r="AD304" s="47"/>
-      <c r="AE304" s="47"/>
-      <c r="AF304" s="51"/>
+      <c r="F304" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="G304" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="H304" s="49"/>
+      <c r="I304" s="49"/>
+      <c r="J304" s="49"/>
+      <c r="K304" s="49"/>
+      <c r="L304" s="50"/>
+      <c r="M304" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="N304" s="49"/>
+      <c r="O304" s="49"/>
+      <c r="P304" s="49"/>
+      <c r="Q304" s="49"/>
+      <c r="R304" s="49"/>
+      <c r="S304" s="49"/>
+      <c r="T304" s="49"/>
+      <c r="U304" s="49"/>
+      <c r="V304" s="49"/>
+      <c r="W304" s="49"/>
+      <c r="X304" s="49"/>
+      <c r="Y304" s="49"/>
+      <c r="Z304" s="49"/>
+      <c r="AA304" s="49"/>
+      <c r="AB304" s="49"/>
+      <c r="AC304" s="49"/>
+      <c r="AD304" s="49"/>
+      <c r="AE304" s="49"/>
+      <c r="AF304" s="50"/>
     </row>
     <row r="305" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E305" s="42"/>
-      <c r="F305" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="G305" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="H305" s="49"/>
-      <c r="I305" s="49"/>
-      <c r="J305" s="49"/>
-      <c r="K305" s="49"/>
-      <c r="L305" s="50"/>
-      <c r="M305" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="N305" s="49"/>
-      <c r="O305" s="49"/>
-      <c r="P305" s="49"/>
-      <c r="Q305" s="49"/>
-      <c r="R305" s="49"/>
-      <c r="S305" s="49"/>
-      <c r="T305" s="49"/>
-      <c r="U305" s="49"/>
-      <c r="V305" s="49"/>
-      <c r="W305" s="49"/>
-      <c r="X305" s="49"/>
-      <c r="Y305" s="49"/>
-      <c r="Z305" s="49"/>
-      <c r="AA305" s="49"/>
-      <c r="AB305" s="49"/>
-      <c r="AC305" s="49"/>
-      <c r="AD305" s="49"/>
-      <c r="AE305" s="49"/>
-      <c r="AF305" s="50"/>
+      <c r="F305" s="89"/>
+      <c r="G305" s="43"/>
+      <c r="H305" s="44"/>
+      <c r="I305" s="44"/>
+      <c r="J305" s="44"/>
+      <c r="K305" s="44"/>
+      <c r="L305" s="45"/>
+      <c r="M305" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="N305" s="44"/>
+      <c r="O305" s="44"/>
+      <c r="P305" s="44"/>
+      <c r="Q305" s="44"/>
+      <c r="R305" s="44"/>
+      <c r="S305" s="44"/>
+      <c r="T305" s="44"/>
+      <c r="U305" s="44"/>
+      <c r="V305" s="44"/>
+      <c r="W305" s="44"/>
+      <c r="X305" s="44"/>
+      <c r="Y305" s="44"/>
+      <c r="Z305" s="44"/>
+      <c r="AA305" s="44"/>
+      <c r="AB305" s="44"/>
+      <c r="AC305" s="44"/>
+      <c r="AD305" s="44"/>
+      <c r="AE305" s="44"/>
+      <c r="AF305" s="45"/>
     </row>
     <row r="306" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E306" s="42"/>
-      <c r="F306" s="89"/>
-      <c r="G306" s="43"/>
-      <c r="H306" s="44"/>
-      <c r="I306" s="44"/>
-      <c r="J306" s="44"/>
-      <c r="K306" s="44"/>
-      <c r="L306" s="45"/>
-      <c r="M306" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="N306" s="44"/>
-      <c r="O306" s="44"/>
-      <c r="P306" s="44"/>
-      <c r="Q306" s="44"/>
-      <c r="R306" s="44"/>
-      <c r="S306" s="44"/>
-      <c r="T306" s="44"/>
-      <c r="U306" s="44"/>
-      <c r="V306" s="44"/>
-      <c r="W306" s="44"/>
-      <c r="X306" s="44"/>
-      <c r="Y306" s="44"/>
-      <c r="Z306" s="44"/>
-      <c r="AA306" s="44"/>
-      <c r="AB306" s="44"/>
-      <c r="AC306" s="44"/>
-      <c r="AD306" s="44"/>
-      <c r="AE306" s="44"/>
-      <c r="AF306" s="45"/>
+      <c r="F306" s="84"/>
+      <c r="G306" s="46"/>
+      <c r="H306" s="47"/>
+      <c r="I306" s="47"/>
+      <c r="J306" s="47"/>
+      <c r="K306" s="47"/>
+      <c r="L306" s="51"/>
+      <c r="M306" s="46"/>
+      <c r="N306" s="47"/>
+      <c r="O306" s="47"/>
+      <c r="P306" s="47"/>
+      <c r="Q306" s="47"/>
+      <c r="R306" s="47"/>
+      <c r="S306" s="47"/>
+      <c r="T306" s="47"/>
+      <c r="U306" s="47"/>
+      <c r="V306" s="47"/>
+      <c r="W306" s="47"/>
+      <c r="X306" s="47"/>
+      <c r="Y306" s="47"/>
+      <c r="Z306" s="47"/>
+      <c r="AA306" s="47"/>
+      <c r="AB306" s="47"/>
+      <c r="AC306" s="47"/>
+      <c r="AD306" s="47"/>
+      <c r="AE306" s="47"/>
+      <c r="AF306" s="51"/>
     </row>
     <row r="307" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E307" s="42"/>
-      <c r="F307" s="84"/>
-      <c r="G307" s="46"/>
-      <c r="H307" s="47"/>
-      <c r="I307" s="47"/>
-      <c r="J307" s="47"/>
-      <c r="K307" s="47"/>
-      <c r="L307" s="51"/>
-      <c r="M307" s="46"/>
-      <c r="N307" s="47"/>
-      <c r="O307" s="47"/>
-      <c r="P307" s="47"/>
-      <c r="Q307" s="47"/>
-      <c r="R307" s="47"/>
-      <c r="S307" s="47"/>
-      <c r="T307" s="47"/>
-      <c r="U307" s="47"/>
-      <c r="V307" s="47"/>
-      <c r="W307" s="47"/>
-      <c r="X307" s="47"/>
-      <c r="Y307" s="47"/>
-      <c r="Z307" s="47"/>
-      <c r="AA307" s="47"/>
-      <c r="AB307" s="47"/>
-      <c r="AC307" s="47"/>
-      <c r="AD307" s="47"/>
-      <c r="AE307" s="47"/>
-      <c r="AF307" s="51"/>
+      <c r="F307" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="G307" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H307" s="49"/>
+      <c r="I307" s="49"/>
+      <c r="J307" s="49"/>
+      <c r="K307" s="49"/>
+      <c r="L307" s="50"/>
+      <c r="M307" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="N307" s="49"/>
+      <c r="O307" s="49"/>
+      <c r="P307" s="49"/>
+      <c r="Q307" s="49"/>
+      <c r="R307" s="49"/>
+      <c r="S307" s="49"/>
+      <c r="T307" s="49"/>
+      <c r="U307" s="49"/>
+      <c r="V307" s="49"/>
+      <c r="W307" s="49"/>
+      <c r="X307" s="49"/>
+      <c r="Y307" s="49"/>
+      <c r="Z307" s="49"/>
+      <c r="AA307" s="49"/>
+      <c r="AB307" s="49"/>
+      <c r="AC307" s="49"/>
+      <c r="AD307" s="49"/>
+      <c r="AE307" s="49"/>
+      <c r="AF307" s="50"/>
     </row>
     <row r="308" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E308" s="42"/>
-      <c r="F308" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="G308" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="H308" s="49"/>
-      <c r="I308" s="49"/>
-      <c r="J308" s="49"/>
-      <c r="K308" s="49"/>
-      <c r="L308" s="50"/>
-      <c r="M308" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="N308" s="49"/>
-      <c r="O308" s="49"/>
-      <c r="P308" s="49"/>
-      <c r="Q308" s="49"/>
-      <c r="R308" s="49"/>
-      <c r="S308" s="49"/>
-      <c r="T308" s="49"/>
-      <c r="U308" s="49"/>
-      <c r="V308" s="49"/>
-      <c r="W308" s="49"/>
-      <c r="X308" s="49"/>
-      <c r="Y308" s="49"/>
-      <c r="Z308" s="49"/>
-      <c r="AA308" s="49"/>
-      <c r="AB308" s="49"/>
-      <c r="AC308" s="49"/>
-      <c r="AD308" s="49"/>
-      <c r="AE308" s="49"/>
-      <c r="AF308" s="50"/>
+      <c r="E308" s="66"/>
+      <c r="F308" s="88"/>
+      <c r="G308" s="81"/>
+      <c r="H308" s="47"/>
+      <c r="I308" s="47"/>
+      <c r="J308" s="47"/>
+      <c r="K308" s="47"/>
+      <c r="L308" s="51"/>
+      <c r="M308" s="46"/>
+      <c r="N308" s="47"/>
+      <c r="O308" s="47"/>
+      <c r="P308" s="47"/>
+      <c r="Q308" s="47"/>
+      <c r="R308" s="47"/>
+      <c r="S308" s="47"/>
+      <c r="T308" s="47"/>
+      <c r="U308" s="47"/>
+      <c r="V308" s="47"/>
+      <c r="W308" s="47"/>
+      <c r="X308" s="47"/>
+      <c r="Y308" s="47"/>
+      <c r="Z308" s="47"/>
+      <c r="AA308" s="47"/>
+      <c r="AB308" s="47"/>
+      <c r="AC308" s="47"/>
+      <c r="AD308" s="47"/>
+      <c r="AE308" s="47"/>
+      <c r="AF308" s="51"/>
     </row>
     <row r="309" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E309" s="66"/>
-      <c r="F309" s="88"/>
-      <c r="G309" s="81"/>
-      <c r="H309" s="47"/>
-      <c r="I309" s="47"/>
-      <c r="J309" s="47"/>
-      <c r="K309" s="47"/>
-      <c r="L309" s="51"/>
-      <c r="M309" s="46"/>
-      <c r="N309" s="47"/>
-      <c r="O309" s="47"/>
-      <c r="P309" s="47"/>
-      <c r="Q309" s="47"/>
-      <c r="R309" s="47"/>
-      <c r="S309" s="47"/>
-      <c r="T309" s="47"/>
-      <c r="U309" s="47"/>
-      <c r="V309" s="47"/>
-      <c r="W309" s="47"/>
-      <c r="X309" s="47"/>
-      <c r="Y309" s="47"/>
-      <c r="Z309" s="47"/>
-      <c r="AA309" s="47"/>
-      <c r="AB309" s="47"/>
-      <c r="AC309" s="47"/>
-      <c r="AD309" s="47"/>
-      <c r="AE309" s="47"/>
-      <c r="AF309" s="51"/>
+      <c r="D309" s="42"/>
+      <c r="E309" s="36"/>
+      <c r="F309" s="36"/>
+      <c r="G309" s="36"/>
     </row>
     <row r="310" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D310" s="42"/>
       <c r="E310" s="36"/>
-      <c r="F310" s="36"/>
+      <c r="F310" s="36" t="s">
+        <v>145</v>
+      </c>
       <c r="G310" s="36"/>
     </row>
     <row r="311" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D311" s="42"/>
       <c r="E311" s="36"/>
       <c r="F311" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G311" s="36"/>
     </row>
     <row r="312" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D312" s="42"/>
-      <c r="E312" s="36"/>
-      <c r="F312" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="G312" s="36"/>
-    </row>
-    <row r="313" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D313" s="42"/>
-    </row>
+    </row>
+    <row r="313" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="314" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D316" s="28" t="str">
+    <row r="315" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D315" s="28" t="str">
         <f>$C$7&amp;"11."</f>
         <v>3.1.11.</v>
       </c>
-      <c r="E316" s="4" t="s">
+      <c r="E315" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="317" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D317" s="28"/>
-      <c r="E317" s="28" t="str">
-        <f>D316&amp;"1."</f>
+    <row r="316" spans="4:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D316" s="28"/>
+      <c r="E316" s="28" t="str">
+        <f>D315&amp;"1."</f>
         <v>3.1.11.1.</v>
       </c>
-      <c r="F317" s="4" t="str">
-        <f>E316&amp;"機能概要"</f>
+      <c r="F316" s="4" t="str">
+        <f>E315&amp;"機能概要"</f>
         <v>コンテンツ更新機能概要</v>
+      </c>
+    </row>
+    <row r="317" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D317" s="42"/>
+      <c r="E317" s="42"/>
+      <c r="F317" s="41" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="318" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D318" s="42"/>
       <c r="E318" s="42"/>
       <c r="F318" s="41" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="319" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D319" s="42"/>
-      <c r="E319" s="42"/>
-      <c r="F319" s="41" t="s">
-        <v>312</v>
+      <c r="F319" s="36" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="320" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F320" s="36" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="321" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F321" s="36"/>
-    </row>
-    <row r="322" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F322" s="19"/>
-      <c r="G322" s="19"/>
-      <c r="H322" s="19"/>
-      <c r="I322" s="19"/>
-      <c r="J322" s="19"/>
-      <c r="K322" s="19"/>
-      <c r="L322" s="19"/>
-      <c r="M322" s="19"/>
-      <c r="N322" s="19"/>
-      <c r="O322" s="19"/>
-      <c r="P322" s="19"/>
-      <c r="Q322" s="19"/>
-      <c r="R322" s="19"/>
-      <c r="S322" s="19"/>
-      <c r="T322" s="19"/>
-      <c r="U322" s="19"/>
-      <c r="V322" s="19"/>
-      <c r="W322" s="19"/>
-      <c r="X322" s="19"/>
-      <c r="Y322" s="19"/>
-      <c r="Z322" s="19"/>
-      <c r="AA322" s="19"/>
-      <c r="AB322" s="19"/>
-      <c r="AC322" s="19"/>
-      <c r="AD322" s="19"/>
-      <c r="AE322" s="19"/>
-      <c r="AF322" s="19"/>
-      <c r="AG322" s="19"/>
-      <c r="AH322" s="19"/>
+      <c r="F320" s="36"/>
+    </row>
+    <row r="321" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F321" s="19"/>
+      <c r="G321" s="19"/>
+      <c r="H321" s="19"/>
+      <c r="I321" s="19"/>
+      <c r="J321" s="19"/>
+      <c r="K321" s="19"/>
+      <c r="L321" s="19"/>
+      <c r="M321" s="19"/>
+      <c r="N321" s="19"/>
+      <c r="O321" s="19"/>
+      <c r="P321" s="19"/>
+      <c r="Q321" s="19"/>
+      <c r="R321" s="19"/>
+      <c r="S321" s="19"/>
+      <c r="T321" s="19"/>
+      <c r="U321" s="19"/>
+      <c r="V321" s="19"/>
+      <c r="W321" s="19"/>
+      <c r="X321" s="19"/>
+      <c r="Y321" s="19"/>
+      <c r="Z321" s="19"/>
+      <c r="AA321" s="19"/>
+      <c r="AB321" s="19"/>
+      <c r="AC321" s="19"/>
+      <c r="AD321" s="19"/>
+      <c r="AE321" s="19"/>
+      <c r="AF321" s="19"/>
+      <c r="AG321" s="19"/>
+      <c r="AH321" s="19"/>
+    </row>
+    <row r="322" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E322" s="42" t="str">
+        <f>D315&amp;"2."</f>
+        <v>3.1.11.2.</v>
+      </c>
+      <c r="F322" s="41" t="str">
+        <f>E315&amp;"方法"</f>
+        <v>コンテンツ更新方法</v>
+      </c>
+      <c r="G322" s="44"/>
+      <c r="H322" s="44"/>
+      <c r="I322" s="44"/>
+      <c r="J322" s="44"/>
+      <c r="K322" s="44"/>
+      <c r="L322" s="44"/>
+      <c r="M322" s="44"/>
+      <c r="N322" s="44"/>
+      <c r="O322" s="44"/>
+      <c r="P322" s="44"/>
+      <c r="Q322" s="44"/>
+      <c r="R322" s="44"/>
+      <c r="S322" s="44"/>
+      <c r="T322" s="44"/>
+      <c r="U322" s="44"/>
+      <c r="V322" s="44"/>
+      <c r="W322" s="44"/>
+      <c r="X322" s="44"/>
+      <c r="Y322" s="44"/>
+      <c r="Z322" s="44"/>
+      <c r="AA322" s="44"/>
+      <c r="AB322" s="44"/>
+      <c r="AC322" s="44"/>
+      <c r="AD322" s="44"/>
+      <c r="AE322" s="44"/>
+      <c r="AF322" s="44"/>
+      <c r="AG322" s="44"/>
+      <c r="AH322" s="44"/>
     </row>
     <row r="323" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E323" s="42" t="str">
-        <f>D316&amp;"2."</f>
-        <v>3.1.11.2.</v>
-      </c>
-      <c r="F323" s="41" t="str">
-        <f>E316&amp;"方法"</f>
-        <v>コンテンツ更新方法</v>
-      </c>
-      <c r="G323" s="44"/>
-      <c r="H323" s="44"/>
-      <c r="I323" s="44"/>
-      <c r="J323" s="44"/>
-      <c r="K323" s="44"/>
-      <c r="L323" s="44"/>
-      <c r="M323" s="44"/>
-      <c r="N323" s="44"/>
-      <c r="O323" s="44"/>
-      <c r="P323" s="44"/>
-      <c r="Q323" s="44"/>
-      <c r="R323" s="44"/>
-      <c r="S323" s="44"/>
-      <c r="T323" s="44"/>
-      <c r="U323" s="44"/>
-      <c r="V323" s="44"/>
-      <c r="W323" s="44"/>
-      <c r="X323" s="44"/>
-      <c r="Y323" s="44"/>
-      <c r="Z323" s="44"/>
-      <c r="AA323" s="44"/>
-      <c r="AB323" s="44"/>
-      <c r="AC323" s="44"/>
-      <c r="AD323" s="44"/>
-      <c r="AE323" s="44"/>
-      <c r="AF323" s="44"/>
-      <c r="AG323" s="44"/>
-      <c r="AH323" s="44"/>
+      <c r="F323" s="41" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="324" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F324" s="41" t="s">
-        <v>298</v>
-      </c>
+      <c r="F324" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G324" s="53"/>
+      <c r="H324" s="53"/>
+      <c r="I324" s="53"/>
+      <c r="J324" s="53"/>
+      <c r="K324" s="54"/>
+      <c r="L324" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M324" s="53"/>
+      <c r="N324" s="53"/>
+      <c r="O324" s="53"/>
+      <c r="P324" s="53"/>
+      <c r="Q324" s="53"/>
+      <c r="R324" s="54"/>
+      <c r="S324" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="T324" s="53"/>
+      <c r="U324" s="53"/>
+      <c r="V324" s="53"/>
+      <c r="W324" s="53"/>
+      <c r="X324" s="53"/>
+      <c r="Y324" s="53"/>
+      <c r="Z324" s="53"/>
+      <c r="AA324" s="53"/>
+      <c r="AB324" s="53"/>
+      <c r="AC324" s="53"/>
+      <c r="AD324" s="53"/>
+      <c r="AE324" s="53"/>
+      <c r="AF324" s="53"/>
+      <c r="AG324" s="53"/>
+      <c r="AH324" s="54"/>
     </row>
     <row r="325" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F325" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="G325" s="53"/>
-      <c r="H325" s="53"/>
-      <c r="I325" s="53"/>
-      <c r="J325" s="53"/>
-      <c r="K325" s="54"/>
-      <c r="L325" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="M325" s="53"/>
-      <c r="N325" s="53"/>
-      <c r="O325" s="53"/>
-      <c r="P325" s="53"/>
-      <c r="Q325" s="53"/>
-      <c r="R325" s="54"/>
-      <c r="S325" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="T325" s="53"/>
-      <c r="U325" s="53"/>
-      <c r="V325" s="53"/>
-      <c r="W325" s="53"/>
-      <c r="X325" s="53"/>
-      <c r="Y325" s="53"/>
-      <c r="Z325" s="53"/>
-      <c r="AA325" s="53"/>
-      <c r="AB325" s="53"/>
-      <c r="AC325" s="53"/>
-      <c r="AD325" s="53"/>
-      <c r="AE325" s="53"/>
-      <c r="AF325" s="53"/>
-      <c r="AG325" s="53"/>
-      <c r="AH325" s="54"/>
+      <c r="F325" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="G325" s="93"/>
+      <c r="H325" s="93"/>
+      <c r="I325" s="102"/>
+      <c r="J325" s="102"/>
+      <c r="K325" s="103"/>
+      <c r="L325" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="M325" s="68"/>
+      <c r="N325" s="68"/>
+      <c r="O325" s="93"/>
+      <c r="P325" s="93"/>
+      <c r="Q325" s="93"/>
+      <c r="R325" s="72"/>
+      <c r="S325" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="T325" s="102"/>
+      <c r="U325" s="102"/>
+      <c r="V325" s="102"/>
+      <c r="W325" s="102"/>
+      <c r="X325" s="102"/>
+      <c r="Y325" s="102"/>
+      <c r="Z325" s="102"/>
+      <c r="AA325" s="102"/>
+      <c r="AB325" s="102"/>
+      <c r="AC325" s="102"/>
+      <c r="AD325" s="102"/>
+      <c r="AE325" s="102"/>
+      <c r="AF325" s="102"/>
+      <c r="AG325" s="102"/>
+      <c r="AH325" s="103"/>
     </row>
     <row r="326" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F326" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="G326" s="93"/>
-      <c r="H326" s="93"/>
-      <c r="I326" s="102"/>
-      <c r="J326" s="102"/>
-      <c r="K326" s="103"/>
-      <c r="L326" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="M326" s="68"/>
-      <c r="N326" s="68"/>
-      <c r="O326" s="93"/>
-      <c r="P326" s="93"/>
-      <c r="Q326" s="93"/>
-      <c r="R326" s="72"/>
-      <c r="S326" s="93" t="s">
-        <v>182</v>
-      </c>
-      <c r="T326" s="102"/>
-      <c r="U326" s="102"/>
-      <c r="V326" s="102"/>
-      <c r="W326" s="102"/>
-      <c r="X326" s="102"/>
-      <c r="Y326" s="102"/>
-      <c r="Z326" s="102"/>
-      <c r="AA326" s="102"/>
-      <c r="AB326" s="102"/>
-      <c r="AC326" s="102"/>
-      <c r="AD326" s="102"/>
-      <c r="AE326" s="102"/>
-      <c r="AF326" s="102"/>
-      <c r="AG326" s="102"/>
-      <c r="AH326" s="103"/>
-    </row>
-    <row r="327" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F327" s="70"/>
-      <c r="G327" s="70"/>
-      <c r="H327" s="70"/>
-      <c r="I327" s="70"/>
-      <c r="J327" s="70"/>
-      <c r="K327" s="70"/>
-      <c r="L327" s="70"/>
-      <c r="M327" s="44"/>
-      <c r="N327" s="44"/>
-      <c r="O327" s="44"/>
-      <c r="P327" s="44"/>
-      <c r="Q327" s="44"/>
-      <c r="R327" s="44"/>
-      <c r="S327" s="44"/>
-      <c r="T327" s="44"/>
-      <c r="U327" s="44"/>
-      <c r="V327" s="44"/>
-      <c r="W327" s="44"/>
-      <c r="X327" s="44"/>
-      <c r="Y327" s="44"/>
-      <c r="Z327" s="44"/>
-      <c r="AA327" s="44"/>
-      <c r="AB327" s="44"/>
-      <c r="AC327" s="44"/>
-      <c r="AD327" s="44"/>
-      <c r="AE327" s="44"/>
-      <c r="AF327" s="44"/>
-      <c r="AG327" s="44"/>
-      <c r="AH327" s="44"/>
-    </row>
-    <row r="328" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E328" s="28" t="str">
-        <f>D316&amp;"3."</f>
+      <c r="F326" s="70"/>
+      <c r="G326" s="70"/>
+      <c r="H326" s="70"/>
+      <c r="I326" s="70"/>
+      <c r="J326" s="70"/>
+      <c r="K326" s="70"/>
+      <c r="L326" s="70"/>
+      <c r="M326" s="44"/>
+      <c r="N326" s="44"/>
+      <c r="O326" s="44"/>
+      <c r="P326" s="44"/>
+      <c r="Q326" s="44"/>
+      <c r="R326" s="44"/>
+      <c r="S326" s="44"/>
+      <c r="T326" s="44"/>
+      <c r="U326" s="44"/>
+      <c r="V326" s="44"/>
+      <c r="W326" s="44"/>
+      <c r="X326" s="44"/>
+      <c r="Y326" s="44"/>
+      <c r="Z326" s="44"/>
+      <c r="AA326" s="44"/>
+      <c r="AB326" s="44"/>
+      <c r="AC326" s="44"/>
+      <c r="AD326" s="44"/>
+      <c r="AE326" s="44"/>
+      <c r="AF326" s="44"/>
+      <c r="AG326" s="44"/>
+      <c r="AH326" s="44"/>
+    </row>
+    <row r="327" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E327" s="28" t="str">
+        <f>D315&amp;"3."</f>
         <v>3.1.11.3.</v>
       </c>
-      <c r="F328" s="36" t="s">
+      <c r="F327" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G328" s="36"/>
-      <c r="H328" s="36"/>
-      <c r="I328" s="36"/>
-      <c r="J328" s="36"/>
-      <c r="K328" s="36"/>
-      <c r="L328" s="36"/>
+      <c r="G327" s="36"/>
+      <c r="H327" s="36"/>
+      <c r="I327" s="36"/>
+      <c r="J327" s="36"/>
+      <c r="K327" s="36"/>
+      <c r="L327" s="36"/>
+    </row>
+    <row r="328" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F328" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G328" s="74" t="str">
+        <f>E315&amp;"方法詳細"</f>
+        <v>コンテンツ更新方法詳細</v>
+      </c>
+      <c r="H328" s="74"/>
+      <c r="I328" s="74"/>
+      <c r="J328" s="74"/>
+      <c r="K328" s="74"/>
+      <c r="L328" s="74"/>
     </row>
     <row r="329" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F329" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="G329" s="74" t="str">
-        <f>E316&amp;"方法詳細"</f>
-        <v>コンテンツ更新方法詳細</v>
-      </c>
-      <c r="H329" s="74"/>
+      <c r="F329" s="77"/>
+      <c r="G329" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="H329" s="74" t="s">
+        <v>133</v>
+      </c>
       <c r="I329" s="74"/>
       <c r="J329" s="74"/>
       <c r="K329" s="74"/>
@@ -13612,39 +13588,39 @@
     </row>
     <row r="330" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F330" s="77"/>
-      <c r="G330" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="H330" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="I330" s="74"/>
+      <c r="G330" s="79"/>
+      <c r="H330" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="I330" s="74" t="s">
+        <v>134</v>
+      </c>
       <c r="J330" s="74"/>
       <c r="K330" s="74"/>
       <c r="L330" s="74"/>
     </row>
     <row r="331" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F331" s="77"/>
-      <c r="G331" s="79"/>
-      <c r="H331" s="79" t="s">
+      <c r="G331" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="I331" s="74" t="s">
-        <v>134</v>
-      </c>
+      <c r="H331" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="I331" s="74"/>
       <c r="J331" s="74"/>
       <c r="K331" s="74"/>
       <c r="L331" s="74"/>
     </row>
     <row r="332" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F332" s="77"/>
-      <c r="G332" s="79" t="s">
+      <c r="G332" s="74"/>
+      <c r="H332" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="H332" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="I332" s="74"/>
+      <c r="I332" s="74" t="s">
+        <v>128</v>
+      </c>
       <c r="J332" s="74"/>
       <c r="K332" s="74"/>
       <c r="L332" s="74"/>
@@ -13653,228 +13629,251 @@
       <c r="F333" s="77"/>
       <c r="G333" s="74"/>
       <c r="H333" s="79" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="I333" s="74" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J333" s="74"/>
       <c r="K333" s="74"/>
       <c r="L333" s="74"/>
     </row>
     <row r="334" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F334" s="77"/>
-      <c r="G334" s="74"/>
-      <c r="H334" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="I334" s="74" t="s">
-        <v>130</v>
-      </c>
+      <c r="F334" s="74"/>
+      <c r="G334" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="H334" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="I334" s="74"/>
       <c r="J334" s="74"/>
       <c r="K334" s="74"/>
       <c r="L334" s="74"/>
     </row>
-    <row r="335" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F335" s="74"/>
-      <c r="G335" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="H335" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="I335" s="74"/>
-      <c r="J335" s="74"/>
-      <c r="K335" s="74"/>
-      <c r="L335" s="74"/>
+    <row r="335" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F335" s="36"/>
+      <c r="G335" s="36"/>
+      <c r="H335" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="I335" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="J335" s="36"/>
+      <c r="K335" s="36"/>
+      <c r="L335" s="36"/>
     </row>
     <row r="336" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F336" s="36"/>
-      <c r="G336" s="36"/>
-      <c r="H336" s="82" t="s">
-        <v>125</v>
+      <c r="G336" s="83"/>
+      <c r="H336" s="73" t="s">
+        <v>124</v>
       </c>
       <c r="I336" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J336" s="36"/>
       <c r="K336" s="36"/>
       <c r="L336" s="36"/>
     </row>
-    <row r="337" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F337" s="36"/>
       <c r="G337" s="83"/>
-      <c r="H337" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="I337" s="36" t="s">
-        <v>126</v>
-      </c>
+      <c r="H337" s="36"/>
+      <c r="I337" s="36"/>
       <c r="J337" s="36"/>
       <c r="K337" s="36"/>
       <c r="L337" s="36"/>
     </row>
-    <row r="338" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F338" s="36"/>
-      <c r="G338" s="83"/>
-      <c r="H338" s="36"/>
-      <c r="I338" s="36"/>
-      <c r="J338" s="36"/>
-      <c r="K338" s="36"/>
-      <c r="L338" s="36"/>
-    </row>
-    <row r="339" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D339" s="28" t="str">
+    <row r="338" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D338" s="28" t="str">
         <f>$C$7&amp;"12."</f>
         <v>3.1.12.</v>
       </c>
-      <c r="E339" s="4" t="s">
+      <c r="E338" s="4" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="339" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D339" s="42"/>
+      <c r="E339" s="42" t="str">
+        <f>D338&amp;"1."</f>
+        <v>3.1.12.1.</v>
+      </c>
+      <c r="F339" s="41" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="340" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D340" s="42"/>
-      <c r="E340" s="42" t="str">
-        <f>D339&amp;"1."</f>
-        <v>3.1.12.1.</v>
-      </c>
-      <c r="F340" s="41" t="s">
-        <v>232</v>
+      <c r="E340" s="41" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="341" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D341" s="42"/>
       <c r="E341" s="41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="342" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D342" s="42"/>
-      <c r="E342" s="41" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="343" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D343" s="42"/>
+      <c r="E343" s="42" t="str">
+        <f>D338&amp;"2."</f>
+        <v>3.1.12.2.</v>
+      </c>
+      <c r="F343" s="41" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="344" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D344" s="42"/>
-      <c r="E344" s="42" t="str">
-        <f>D339&amp;"2."</f>
-        <v>3.1.12.2.</v>
-      </c>
-      <c r="F344" s="41" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="345" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D345" s="42"/>
-      <c r="E345" s="41" t="s">
+      <c r="E344" s="41" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="346" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F346" s="19"/>
-      <c r="G346" s="19"/>
-      <c r="H346" s="19"/>
-      <c r="I346" s="19"/>
-      <c r="J346" s="19"/>
-      <c r="K346" s="19"/>
-      <c r="L346" s="19"/>
-      <c r="M346" s="19"/>
-      <c r="N346" s="19"/>
-      <c r="O346" s="19"/>
-      <c r="P346" s="19"/>
-      <c r="Q346" s="19"/>
-      <c r="R346" s="19"/>
-      <c r="S346" s="19"/>
-      <c r="T346" s="19"/>
-      <c r="U346" s="19"/>
-      <c r="V346" s="19"/>
-      <c r="W346" s="19"/>
-      <c r="X346" s="19"/>
-      <c r="Y346" s="19"/>
-      <c r="Z346" s="19"/>
-      <c r="AA346" s="19"/>
-      <c r="AB346" s="19"/>
-      <c r="AC346" s="19"/>
-      <c r="AD346" s="19"/>
-      <c r="AE346" s="19"/>
-      <c r="AF346" s="19"/>
-      <c r="AG346" s="19"/>
-      <c r="AH346" s="19"/>
-    </row>
-    <row r="347" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D347" s="42" t="str">
+    <row r="345" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F345" s="19"/>
+      <c r="G345" s="19"/>
+      <c r="H345" s="19"/>
+      <c r="I345" s="19"/>
+      <c r="J345" s="19"/>
+      <c r="K345" s="19"/>
+      <c r="L345" s="19"/>
+      <c r="M345" s="19"/>
+      <c r="N345" s="19"/>
+      <c r="O345" s="19"/>
+      <c r="P345" s="19"/>
+      <c r="Q345" s="19"/>
+      <c r="R345" s="19"/>
+      <c r="S345" s="19"/>
+      <c r="T345" s="19"/>
+      <c r="U345" s="19"/>
+      <c r="V345" s="19"/>
+      <c r="W345" s="19"/>
+      <c r="X345" s="19"/>
+      <c r="Y345" s="19"/>
+      <c r="Z345" s="19"/>
+      <c r="AA345" s="19"/>
+      <c r="AB345" s="19"/>
+      <c r="AC345" s="19"/>
+      <c r="AD345" s="19"/>
+      <c r="AE345" s="19"/>
+      <c r="AF345" s="19"/>
+      <c r="AG345" s="19"/>
+      <c r="AH345" s="19"/>
+    </row>
+    <row r="346" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D346" s="42" t="str">
         <f>$C$7&amp;"13."</f>
         <v>3.1.13.</v>
       </c>
+      <c r="E346" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="347" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D347" s="42"/>
       <c r="E347" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="348" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D348" s="42"/>
-      <c r="E348" s="41" t="s">
-        <v>207</v>
-      </c>
+      <c r="E348" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F348" s="53"/>
+      <c r="G348" s="53"/>
+      <c r="H348" s="53"/>
+      <c r="I348" s="53"/>
+      <c r="J348" s="53"/>
+      <c r="K348" s="54"/>
+      <c r="L348" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="M348" s="53"/>
+      <c r="N348" s="53"/>
+      <c r="O348" s="54"/>
+      <c r="P348" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q348" s="53"/>
+      <c r="R348" s="53"/>
+      <c r="S348" s="53"/>
+      <c r="T348" s="53"/>
+      <c r="U348" s="53"/>
+      <c r="V348" s="53"/>
+      <c r="W348" s="53"/>
+      <c r="X348" s="53"/>
+      <c r="Y348" s="53"/>
+      <c r="Z348" s="53"/>
+      <c r="AA348" s="53"/>
+      <c r="AB348" s="53"/>
+      <c r="AC348" s="53"/>
+      <c r="AD348" s="53"/>
+      <c r="AE348" s="53"/>
+      <c r="AF348" s="53"/>
+      <c r="AG348" s="53"/>
+      <c r="AH348" s="54"/>
     </row>
     <row r="349" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E349" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="F349" s="53"/>
-      <c r="G349" s="53"/>
-      <c r="H349" s="53"/>
-      <c r="I349" s="53"/>
-      <c r="J349" s="53"/>
-      <c r="K349" s="54"/>
-      <c r="L349" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="M349" s="53"/>
-      <c r="N349" s="53"/>
-      <c r="O349" s="54"/>
-      <c r="P349" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q349" s="53"/>
-      <c r="R349" s="53"/>
-      <c r="S349" s="53"/>
-      <c r="T349" s="53"/>
-      <c r="U349" s="53"/>
-      <c r="V349" s="53"/>
-      <c r="W349" s="53"/>
-      <c r="X349" s="53"/>
-      <c r="Y349" s="53"/>
-      <c r="Z349" s="53"/>
-      <c r="AA349" s="53"/>
-      <c r="AB349" s="53"/>
-      <c r="AC349" s="53"/>
-      <c r="AD349" s="53"/>
-      <c r="AE349" s="53"/>
-      <c r="AF349" s="53"/>
-      <c r="AG349" s="53"/>
-      <c r="AH349" s="54"/>
+      <c r="E349" s="109" t="s">
+        <v>229</v>
+      </c>
+      <c r="F349" s="98"/>
+      <c r="G349" s="98"/>
+      <c r="H349" s="70"/>
+      <c r="I349" s="70"/>
+      <c r="J349" s="70"/>
+      <c r="K349" s="100"/>
+      <c r="L349" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="M349" s="70"/>
+      <c r="N349" s="70"/>
+      <c r="O349" s="100"/>
+      <c r="P349" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q349" s="70"/>
+      <c r="R349" s="70"/>
+      <c r="S349" s="70"/>
+      <c r="T349" s="70"/>
+      <c r="U349" s="70"/>
+      <c r="V349" s="70"/>
+      <c r="W349" s="70"/>
+      <c r="X349" s="70"/>
+      <c r="Y349" s="70"/>
+      <c r="Z349" s="70"/>
+      <c r="AA349" s="70"/>
+      <c r="AB349" s="70"/>
+      <c r="AC349" s="70"/>
+      <c r="AD349" s="70"/>
+      <c r="AE349" s="70"/>
+      <c r="AF349" s="70"/>
+      <c r="AG349" s="70"/>
+      <c r="AH349" s="94"/>
     </row>
     <row r="350" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E350" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="F350" s="98"/>
-      <c r="G350" s="98"/>
+        <v>205</v>
+      </c>
+      <c r="F350" s="26"/>
+      <c r="G350" s="26"/>
       <c r="H350" s="70"/>
       <c r="I350" s="70"/>
       <c r="J350" s="70"/>
-      <c r="K350" s="100"/>
-      <c r="L350" s="98" t="s">
-        <v>231</v>
-      </c>
+      <c r="K350" s="71"/>
+      <c r="L350" s="26"/>
       <c r="M350" s="70"/>
       <c r="N350" s="70"/>
-      <c r="O350" s="100"/>
-      <c r="P350" s="98" t="s">
-        <v>228</v>
+      <c r="O350" s="71"/>
+      <c r="P350" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="Q350" s="70"/>
       <c r="R350" s="70"/>
@@ -13896,9 +13895,7 @@
       <c r="AH350" s="94"/>
     </row>
     <row r="351" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E351" s="109" t="s">
-        <v>205</v>
-      </c>
+      <c r="E351" s="109"/>
       <c r="F351" s="26"/>
       <c r="G351" s="26"/>
       <c r="H351" s="70"/>
@@ -13910,7 +13907,7 @@
       <c r="N351" s="70"/>
       <c r="O351" s="71"/>
       <c r="P351" s="26" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="Q351" s="70"/>
       <c r="R351" s="70"/>
@@ -13944,7 +13941,7 @@
       <c r="N352" s="70"/>
       <c r="O352" s="71"/>
       <c r="P352" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q352" s="70"/>
       <c r="R352" s="70"/>
@@ -13966,106 +13963,72 @@
       <c r="AH352" s="94"/>
     </row>
     <row r="353" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E353" s="109"/>
-      <c r="F353" s="26"/>
-      <c r="G353" s="26"/>
-      <c r="H353" s="70"/>
-      <c r="I353" s="70"/>
-      <c r="J353" s="70"/>
-      <c r="K353" s="71"/>
-      <c r="L353" s="26"/>
-      <c r="M353" s="70"/>
-      <c r="N353" s="70"/>
-      <c r="O353" s="71"/>
-      <c r="P353" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q353" s="70"/>
-      <c r="R353" s="70"/>
-      <c r="S353" s="70"/>
-      <c r="T353" s="70"/>
-      <c r="U353" s="70"/>
-      <c r="V353" s="70"/>
-      <c r="W353" s="70"/>
-      <c r="X353" s="70"/>
-      <c r="Y353" s="70"/>
-      <c r="Z353" s="70"/>
-      <c r="AA353" s="70"/>
-      <c r="AB353" s="70"/>
-      <c r="AC353" s="70"/>
-      <c r="AD353" s="70"/>
-      <c r="AE353" s="70"/>
-      <c r="AF353" s="70"/>
-      <c r="AG353" s="70"/>
-      <c r="AH353" s="94"/>
+      <c r="E353" s="81"/>
+      <c r="F353" s="76"/>
+      <c r="G353" s="76"/>
+      <c r="H353" s="102"/>
+      <c r="I353" s="102"/>
+      <c r="J353" s="102"/>
+      <c r="K353" s="90"/>
+      <c r="L353" s="76"/>
+      <c r="M353" s="102"/>
+      <c r="N353" s="102"/>
+      <c r="O353" s="90"/>
+      <c r="P353" s="76" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q353" s="102"/>
+      <c r="R353" s="102"/>
+      <c r="S353" s="102"/>
+      <c r="T353" s="102"/>
+      <c r="U353" s="102"/>
+      <c r="V353" s="102"/>
+      <c r="W353" s="102"/>
+      <c r="X353" s="102"/>
+      <c r="Y353" s="102"/>
+      <c r="Z353" s="102"/>
+      <c r="AA353" s="102"/>
+      <c r="AB353" s="102"/>
+      <c r="AC353" s="102"/>
+      <c r="AD353" s="102"/>
+      <c r="AE353" s="102"/>
+      <c r="AF353" s="102"/>
+      <c r="AG353" s="102"/>
+      <c r="AH353" s="103"/>
     </row>
     <row r="354" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E354" s="81"/>
-      <c r="F354" s="76"/>
-      <c r="G354" s="76"/>
-      <c r="H354" s="102"/>
-      <c r="I354" s="102"/>
-      <c r="J354" s="102"/>
-      <c r="K354" s="90"/>
-      <c r="L354" s="76"/>
-      <c r="M354" s="102"/>
-      <c r="N354" s="102"/>
-      <c r="O354" s="90"/>
-      <c r="P354" s="76" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q354" s="102"/>
-      <c r="R354" s="102"/>
-      <c r="S354" s="102"/>
-      <c r="T354" s="102"/>
-      <c r="U354" s="102"/>
-      <c r="V354" s="102"/>
-      <c r="W354" s="102"/>
-      <c r="X354" s="102"/>
-      <c r="Y354" s="102"/>
-      <c r="Z354" s="102"/>
-      <c r="AA354" s="102"/>
-      <c r="AB354" s="102"/>
-      <c r="AC354" s="102"/>
-      <c r="AD354" s="102"/>
-      <c r="AE354" s="102"/>
-      <c r="AF354" s="102"/>
-      <c r="AG354" s="102"/>
-      <c r="AH354" s="103"/>
-    </row>
-    <row r="355" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F355" s="70"/>
-      <c r="G355" s="70"/>
-      <c r="H355" s="70"/>
-      <c r="I355" s="70"/>
-      <c r="J355" s="70"/>
-      <c r="K355" s="70"/>
-      <c r="L355" s="70"/>
-      <c r="M355" s="44"/>
-      <c r="N355" s="44"/>
-      <c r="O355" s="44"/>
-      <c r="P355" s="44"/>
-      <c r="Q355" s="44"/>
-      <c r="R355" s="44"/>
-      <c r="S355" s="44"/>
-      <c r="T355" s="44"/>
-      <c r="U355" s="44"/>
-      <c r="V355" s="44"/>
-      <c r="W355" s="44"/>
-      <c r="X355" s="44"/>
-      <c r="Y355" s="44"/>
-      <c r="Z355" s="44"/>
-      <c r="AA355" s="44"/>
-      <c r="AB355" s="44"/>
-      <c r="AC355" s="44"/>
-      <c r="AD355" s="44"/>
-      <c r="AE355" s="44"/>
-      <c r="AF355" s="44"/>
-      <c r="AG355" s="44"/>
-      <c r="AH355" s="44"/>
-    </row>
-    <row r="356" spans="5:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F356" s="91"/>
+      <c r="F354" s="70"/>
+      <c r="G354" s="70"/>
+      <c r="H354" s="70"/>
+      <c r="I354" s="70"/>
+      <c r="J354" s="70"/>
+      <c r="K354" s="70"/>
+      <c r="L354" s="70"/>
+      <c r="M354" s="44"/>
+      <c r="N354" s="44"/>
+      <c r="O354" s="44"/>
+      <c r="P354" s="44"/>
+      <c r="Q354" s="44"/>
+      <c r="R354" s="44"/>
+      <c r="S354" s="44"/>
+      <c r="T354" s="44"/>
+      <c r="U354" s="44"/>
+      <c r="V354" s="44"/>
+      <c r="W354" s="44"/>
+      <c r="X354" s="44"/>
+      <c r="Y354" s="44"/>
+      <c r="Z354" s="44"/>
+      <c r="AA354" s="44"/>
+      <c r="AB354" s="44"/>
+      <c r="AC354" s="44"/>
+      <c r="AD354" s="44"/>
+      <c r="AE354" s="44"/>
+      <c r="AF354" s="44"/>
+      <c r="AG354" s="44"/>
+      <c r="AH354" s="44"/>
+    </row>
+    <row r="355" spans="5:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F355" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14096,10 +14059,10 @@
     <brk id="158" max="16383" man="1"/>
     <brk id="176" max="34" man="1"/>
     <brk id="207" max="34" man="1"/>
-    <brk id="241" max="16383" man="1"/>
-    <brk id="274" max="16383" man="1"/>
-    <brk id="314" max="16383" man="1"/>
-    <brk id="338" max="16383" man="1"/>
+    <brk id="240" max="34" man="1"/>
+    <brk id="273" max="16383" man="1"/>
+    <brk id="313" max="16383" man="1"/>
+    <brk id="337" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="B5" numberStoredAsText="1"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.1同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D6F956-A7EB-4662-B470-9F3C2F91AC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693C7278-041A-4B7E-B9D7-3433943B0979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,9 +632,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務コンポーネントの構成要素である、ActionおよびJSPで発生するエラーの処理方針を示す。</t>
-  </si>
-  <si>
     <t>Action内で処理するエラーの種類と、処理方針および表示する画面を記す。</t>
   </si>
   <si>
@@ -722,10 +719,6 @@
   </si>
   <si>
     <t>JSPでは、Nablarchが提供するカスタムタグ（n:errorsタグおよびn:errorタグ）を使用して、エラー画面にエラーメッセージを表示する。</t>
-  </si>
-  <si>
-    <t>JSPにおけるエラー処理方針</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>エラー画面にフォワードせず、固定画面を表示する理由</t>
@@ -3438,6 +3431,26 @@
     </rPh>
     <rPh sb="37" eb="40">
       <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務コンポーネントの構成要素であるActionで発生するエラーの処理方針と、JSPでエラーメッセージを表示する方法を示す。</t>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JSPでのエラーメッセージの表示方法</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5235,7 +5248,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F1" s="121"/>
       <c r="G1" s="121"/>
@@ -5252,7 +5265,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="123" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S1" s="124"/>
       <c r="T1" s="124"/>
@@ -5398,7 +5411,7 @@
     <row r="11" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="42"/>
       <c r="E11" s="41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5518,13 +5531,13 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
       <c r="I15" s="54"/>
       <c r="J15" s="110" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K15" s="111"/>
       <c r="L15" s="111"/>
@@ -5556,13 +5569,13 @@
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K16" s="59"/>
       <c r="L16" s="59"/>
@@ -5600,7 +5613,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
       <c r="J17" s="35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -5636,7 +5649,7 @@
       <c r="H18" s="29"/>
       <c r="I18" s="31"/>
       <c r="J18" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -5664,7 +5677,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
       <c r="J19" s="32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
@@ -5758,12 +5771,12 @@
     </row>
     <row r="26" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5820,7 +5833,7 @@
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
       <c r="J31" s="56" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K31" s="57"/>
       <c r="L31" s="93"/>
@@ -5849,13 +5862,13 @@
     </row>
     <row r="32" spans="4:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
       <c r="J32" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K32" s="39"/>
       <c r="L32" s="98"/>
@@ -5888,7 +5901,7 @@
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
       <c r="J33" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="76"/>
@@ -5952,19 +5965,19 @@
         <v>3.1.3.3.</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E36" s="24"/>
       <c r="F36" s="74" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="24"/>
       <c r="F37" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5973,13 +5986,13 @@
     <row r="39" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E39" s="24"/>
       <c r="F39" s="29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E40" s="24"/>
       <c r="F40" s="29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5988,7 +6001,7 @@
     <row r="42" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E42" s="24"/>
       <c r="F42" s="115" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6014,7 +6027,7 @@
     </row>
     <row r="46" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6030,7 +6043,7 @@
     </row>
     <row r="49" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6042,7 +6055,7 @@
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
       <c r="K50" s="53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
@@ -6077,7 +6090,7 @@
       <c r="I51" s="99"/>
       <c r="J51" s="100"/>
       <c r="K51" s="98" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L51" s="98"/>
       <c r="M51" s="98"/>
@@ -6110,7 +6123,7 @@
       <c r="I52" s="102"/>
       <c r="J52" s="90"/>
       <c r="K52" s="76" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L52" s="76"/>
       <c r="M52" s="76"/>
@@ -6145,7 +6158,7 @@
       <c r="I53" s="70"/>
       <c r="J53" s="71"/>
       <c r="K53" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L53" s="26"/>
       <c r="M53" s="26"/>
@@ -6178,7 +6191,7 @@
       <c r="I54" s="70"/>
       <c r="J54" s="71"/>
       <c r="K54" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L54" s="26"/>
       <c r="M54" s="26"/>
@@ -6211,7 +6224,7 @@
       <c r="I55" s="102"/>
       <c r="J55" s="90"/>
       <c r="K55" s="76" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L55" s="76"/>
       <c r="M55" s="76"/>
@@ -6244,53 +6257,53 @@
         <v>3.1.4.3.</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="66"/>
       <c r="F58" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="66"/>
       <c r="F59" s="36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="61" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="66"/>
       <c r="F61" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="5:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F64" s="36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="116" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="4:34" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6316,17 +6329,17 @@
     </row>
     <row r="72" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F72" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F73" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F74" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6342,12 +6355,12 @@
     </row>
     <row r="77" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F77" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="53"/>
       <c r="I77" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
@@ -6362,7 +6375,7 @@
       <c r="T77" s="53"/>
       <c r="U77" s="54"/>
       <c r="V77" s="53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W77" s="53"/>
       <c r="X77" s="53"/>
@@ -6381,12 +6394,12 @@
     </row>
     <row r="78" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F78" s="97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G78" s="99"/>
       <c r="H78" s="104"/>
       <c r="I78" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J78" s="106"/>
       <c r="K78" s="93"/>
@@ -6401,7 +6414,7 @@
       <c r="T78" s="68"/>
       <c r="U78" s="107"/>
       <c r="V78" s="93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="W78" s="106"/>
       <c r="X78" s="106"/>
@@ -6410,7 +6423,7 @@
       <c r="AA78" s="68"/>
       <c r="AB78" s="72"/>
       <c r="AC78" s="93" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AD78" s="68"/>
       <c r="AE78" s="68"/>
@@ -6423,7 +6436,7 @@
       <c r="G79" s="102"/>
       <c r="H79" s="108"/>
       <c r="I79" s="105" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J79" s="106"/>
       <c r="K79" s="93"/>
@@ -6438,7 +6451,7 @@
       <c r="T79" s="68"/>
       <c r="U79" s="107"/>
       <c r="V79" s="93" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W79" s="106"/>
       <c r="X79" s="106"/>
@@ -6447,7 +6460,7 @@
       <c r="AA79" s="68"/>
       <c r="AB79" s="72"/>
       <c r="AC79" s="93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AD79" s="68"/>
       <c r="AE79" s="68"/>
@@ -6457,12 +6470,12 @@
     </row>
     <row r="80" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F80" s="95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G80" s="68"/>
       <c r="H80" s="106"/>
       <c r="I80" s="105" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J80" s="106"/>
       <c r="K80" s="93"/>
@@ -6477,7 +6490,7 @@
       <c r="T80" s="68"/>
       <c r="U80" s="107"/>
       <c r="V80" s="93" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W80" s="106"/>
       <c r="X80" s="106"/>
@@ -6486,7 +6499,7 @@
       <c r="AA80" s="68"/>
       <c r="AB80" s="72"/>
       <c r="AC80" s="93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AD80" s="68"/>
       <c r="AE80" s="68"/>
@@ -6566,7 +6579,7 @@
     <row r="83" spans="3:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="42"/>
       <c r="F83" s="44" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G83" s="44"/>
       <c r="H83" s="44"/>
@@ -6600,7 +6613,7 @@
     <row r="84" spans="3:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="42"/>
       <c r="F84" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H84" s="44"/>
       <c r="I84" s="44"/>
@@ -6654,7 +6667,7 @@
     <row r="88" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D88" s="29"/>
       <c r="F88" s="41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V88" s="29"/>
       <c r="W88" s="29"/>
@@ -6674,7 +6687,7 @@
     <row r="89" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D89" s="29"/>
       <c r="F89" s="41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="V89" s="29"/>
       <c r="W89" s="29"/>
@@ -6694,7 +6707,7 @@
     <row r="90" spans="3:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D90" s="29"/>
       <c r="F90" s="41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V90" s="29"/>
       <c r="W90" s="29"/>
@@ -6724,7 +6737,7 @@
     </row>
     <row r="93" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F93" s="36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6735,7 +6748,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="18"/>
       <c r="J94" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K94" s="17"/>
       <c r="L94" s="53"/>
@@ -6773,7 +6786,7 @@
       <c r="H95" s="26"/>
       <c r="I95" s="71"/>
       <c r="J95" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K95" s="26"/>
       <c r="L95" s="26"/>
@@ -6809,7 +6822,7 @@
       <c r="H96" s="26"/>
       <c r="I96" s="71"/>
       <c r="J96" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K96" s="26"/>
       <c r="L96" s="26"/>
@@ -6845,7 +6858,7 @@
       <c r="H97" s="26"/>
       <c r="I97" s="71"/>
       <c r="J97" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K97" s="26"/>
       <c r="L97" s="26"/>
@@ -6881,7 +6894,7 @@
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="92" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K98" s="26"/>
       <c r="L98" s="26"/>
@@ -6917,7 +6930,7 @@
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
       <c r="J99" s="75" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K99" s="26"/>
       <c r="L99" s="26"/>
@@ -6955,7 +6968,7 @@
       <c r="H100" s="98"/>
       <c r="I100" s="98"/>
       <c r="J100" s="97" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K100" s="98"/>
       <c r="L100" s="98"/>
@@ -6991,7 +7004,7 @@
       <c r="H101" s="26"/>
       <c r="I101" s="26"/>
       <c r="J101" s="92" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K101" s="26"/>
       <c r="L101" s="26"/>
@@ -7027,7 +7040,7 @@
       <c r="H102" s="26"/>
       <c r="I102" s="26"/>
       <c r="J102" s="92" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K102" s="26"/>
       <c r="L102" s="26"/>
@@ -7063,7 +7076,7 @@
       <c r="H103" s="76"/>
       <c r="I103" s="76"/>
       <c r="J103" s="75" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K103" s="76"/>
       <c r="L103" s="76"/>
@@ -7132,7 +7145,7 @@
         <v>3.1.6.3.</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
@@ -7161,7 +7174,7 @@
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
       <c r="F106" s="65" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
@@ -7190,7 +7203,7 @@
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
       <c r="F107" s="65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
@@ -7246,7 +7259,7 @@
       <c r="D109" s="29"/>
       <c r="E109" s="29"/>
       <c r="F109" s="113" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G109" s="29"/>
       <c r="H109" s="29"/>
@@ -7309,7 +7322,7 @@
     </row>
     <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7357,7 +7370,7 @@
       <c r="I118" s="70"/>
       <c r="J118" s="71"/>
       <c r="K118" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L118" s="26"/>
       <c r="M118" s="26"/>
@@ -7390,7 +7403,7 @@
       <c r="I119" s="102"/>
       <c r="J119" s="90"/>
       <c r="K119" s="76" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L119" s="76"/>
       <c r="M119" s="76"/>
@@ -7425,7 +7438,7 @@
       <c r="I120" s="70"/>
       <c r="J120" s="71"/>
       <c r="K120" s="26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L120" s="26"/>
       <c r="M120" s="26"/>
@@ -7458,7 +7471,7 @@
       <c r="I121" s="102"/>
       <c r="J121" s="90"/>
       <c r="K121" s="76" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L121" s="76"/>
       <c r="M121" s="76"/>
@@ -7517,7 +7530,7 @@
     </row>
     <row r="123" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F123" s="70" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G123" s="70"/>
       <c r="H123" s="70"/>
@@ -7622,7 +7635,7 @@
       <c r="H126" s="99"/>
       <c r="I126" s="101"/>
       <c r="J126" s="99" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K126" s="99"/>
       <c r="L126" s="99"/>
@@ -7655,7 +7668,7 @@
       <c r="H127" s="70"/>
       <c r="I127" s="94"/>
       <c r="J127" s="70" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K127" s="70"/>
       <c r="L127" s="70"/>
@@ -7688,7 +7701,7 @@
       <c r="H128" s="102"/>
       <c r="I128" s="103"/>
       <c r="J128" s="102" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K128" s="102"/>
       <c r="L128" s="102"/>
@@ -7723,7 +7736,7 @@
       <c r="H129" s="70"/>
       <c r="I129" s="94"/>
       <c r="J129" s="70" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K129" s="70"/>
       <c r="L129" s="70"/>
@@ -7756,7 +7769,7 @@
       <c r="H130" s="70"/>
       <c r="I130" s="94"/>
       <c r="J130" s="70" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K130" s="70"/>
       <c r="L130" s="70"/>
@@ -7791,7 +7804,7 @@
       <c r="H131" s="99"/>
       <c r="I131" s="101"/>
       <c r="J131" s="99" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K131" s="99"/>
       <c r="L131" s="99"/>
@@ -7826,7 +7839,7 @@
       <c r="H132" s="70"/>
       <c r="I132" s="70"/>
       <c r="J132" s="109" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K132" s="70"/>
       <c r="L132" s="70"/>
@@ -7859,7 +7872,7 @@
       <c r="H133" s="102"/>
       <c r="I133" s="102"/>
       <c r="J133" s="75" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K133" s="76"/>
       <c r="L133" s="76"/>
@@ -7923,7 +7936,7 @@
         <v>3.1.7.3.</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7931,19 +7944,19 @@
         <v>54</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="137" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F137" s="24"/>
       <c r="G137" s="41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="138" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="24"/>
       <c r="G138" s="41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7952,13 +7965,13 @@
     <row r="140" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F140" s="24"/>
       <c r="G140" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F141" s="24"/>
       <c r="G141" s="41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="142" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8020,14 +8033,14 @@
       <c r="I144" s="99"/>
       <c r="J144" s="101"/>
       <c r="K144" s="99" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L144" s="99"/>
       <c r="M144" s="99"/>
       <c r="N144" s="99"/>
       <c r="O144" s="101"/>
       <c r="P144" s="99" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q144" s="99"/>
       <c r="R144" s="99"/>
@@ -8100,7 +8113,7 @@
       <c r="N146" s="102"/>
       <c r="O146" s="103"/>
       <c r="P146" s="102" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q146" s="102"/>
       <c r="R146" s="102"/>
@@ -8129,14 +8142,14 @@
       <c r="I147" s="70"/>
       <c r="J147" s="94"/>
       <c r="K147" s="70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L147" s="70"/>
       <c r="M147" s="70"/>
       <c r="N147" s="70"/>
       <c r="O147" s="94"/>
       <c r="P147" s="70" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q147" s="70"/>
       <c r="R147" s="70"/>
@@ -8195,14 +8208,14 @@
       <c r="I149" s="70"/>
       <c r="J149" s="94"/>
       <c r="K149" s="70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L149" s="70"/>
       <c r="M149" s="70"/>
       <c r="N149" s="70"/>
       <c r="O149" s="94"/>
       <c r="P149" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q149" s="70"/>
       <c r="R149" s="70"/>
@@ -8261,7 +8274,7 @@
         <v>53</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8270,7 +8283,7 @@
       <c r="D153" s="36"/>
       <c r="E153" s="36"/>
       <c r="G153" s="41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="2:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8331,14 +8344,14 @@
       <c r="I156" s="99"/>
       <c r="J156" s="101"/>
       <c r="K156" s="99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L156" s="99"/>
       <c r="M156" s="99"/>
       <c r="N156" s="99"/>
       <c r="O156" s="101"/>
       <c r="P156" s="99" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q156" s="99"/>
       <c r="R156" s="99"/>
@@ -8658,7 +8671,7 @@
         <v>55</v>
       </c>
       <c r="G167" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H167" s="29"/>
       <c r="I167" s="29"/>
@@ -8806,7 +8819,7 @@
       <c r="D172" s="29"/>
       <c r="E172" s="29"/>
       <c r="F172" s="61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G172" s="38"/>
       <c r="H172" s="38"/>
@@ -8852,7 +8865,7 @@
       <c r="J173" s="98"/>
       <c r="K173" s="98"/>
       <c r="L173" s="92" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M173" s="98"/>
       <c r="N173" s="98"/>
@@ -8882,7 +8895,7 @@
       <c r="D174" s="29"/>
       <c r="E174" s="29"/>
       <c r="F174" s="97" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G174" s="98"/>
       <c r="H174" s="98"/>
@@ -8890,7 +8903,7 @@
       <c r="J174" s="98"/>
       <c r="K174" s="98"/>
       <c r="L174" s="97" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M174" s="98"/>
       <c r="N174" s="98"/>
@@ -8926,7 +8939,7 @@
       <c r="J175" s="76"/>
       <c r="K175" s="76"/>
       <c r="L175" s="75" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M175" s="76"/>
       <c r="N175" s="76"/>
@@ -8987,7 +9000,7 @@
         <v>3.1.8.3.</v>
       </c>
       <c r="F177" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G177" s="29"/>
       <c r="H177" s="29"/>
@@ -9050,7 +9063,7 @@
       <c r="E179" s="77"/>
       <c r="F179" s="24"/>
       <c r="G179" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
@@ -9080,7 +9093,7 @@
       <c r="E180" s="77"/>
       <c r="F180" s="24"/>
       <c r="G180" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H180" s="29"/>
       <c r="I180" s="29"/>
@@ -9110,7 +9123,7 @@
       <c r="E181" s="77"/>
       <c r="F181" s="24"/>
       <c r="G181" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H181" s="29"/>
       <c r="I181" s="29"/>
@@ -9140,7 +9153,7 @@
       <c r="E182" s="77"/>
       <c r="F182" s="24"/>
       <c r="G182" s="64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H182" s="29"/>
       <c r="I182" s="29"/>
@@ -9284,13 +9297,13 @@
       <c r="K186" s="55"/>
       <c r="L186" s="31"/>
       <c r="M186" s="55" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N186" s="55"/>
       <c r="O186" s="55"/>
       <c r="P186" s="31"/>
       <c r="Q186" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R186" s="55"/>
       <c r="S186" s="55"/>
@@ -9326,13 +9339,13 @@
       <c r="K187" s="57"/>
       <c r="L187" s="58"/>
       <c r="M187" s="57" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N187" s="57"/>
       <c r="O187" s="57"/>
       <c r="P187" s="58"/>
       <c r="Q187" s="57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R187" s="57"/>
       <c r="S187" s="57"/>
@@ -9481,7 +9494,7 @@
       <c r="O191" s="33"/>
       <c r="P191" s="34"/>
       <c r="Q191" s="76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R191" s="33"/>
       <c r="S191" s="33"/>
@@ -9626,7 +9639,7 @@
       <c r="R195" s="39"/>
       <c r="S195" s="40"/>
       <c r="T195" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U195" s="39"/>
       <c r="V195" s="39"/>
@@ -9664,7 +9677,7 @@
       <c r="R196" s="55"/>
       <c r="S196" s="31"/>
       <c r="T196" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U196" s="55"/>
       <c r="V196" s="55"/>
@@ -9865,7 +9878,7 @@
       <c r="D202" s="29"/>
       <c r="E202" s="74"/>
       <c r="F202" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G202" s="55" t="str">
         <f>G167</f>
@@ -9905,7 +9918,7 @@
       <c r="E203" s="74"/>
       <c r="F203" s="24"/>
       <c r="G203" s="55" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H203" s="55"/>
       <c r="I203" s="55"/>
@@ -9941,7 +9954,7 @@
       <c r="E204" s="74"/>
       <c r="F204" s="24"/>
       <c r="G204" s="55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H204" s="55"/>
       <c r="I204" s="55"/>
@@ -9977,7 +9990,7 @@
       <c r="E205" s="74"/>
       <c r="F205" s="24"/>
       <c r="G205" s="55" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H205" s="55"/>
       <c r="I205" s="55"/>
@@ -10013,7 +10026,7 @@
       <c r="E206" s="74"/>
       <c r="F206" s="24"/>
       <c r="G206" s="55" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H206" s="55"/>
       <c r="I206" s="55"/>
@@ -10123,7 +10136,7 @@
         <v>3.1.9.1.</v>
       </c>
       <c r="F209" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G209" s="29"/>
       <c r="H209" s="29"/>
@@ -10162,7 +10175,7 @@
       <c r="D210" s="29"/>
       <c r="E210" s="24"/>
       <c r="F210" s="29" t="s">
-        <v>86</v>
+        <v>325</v>
       </c>
       <c r="G210" s="29"/>
       <c r="H210" s="29"/>
@@ -10238,10 +10251,10 @@
       <c r="D212" s="29"/>
       <c r="E212" s="29"/>
       <c r="F212" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G212" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H212" s="29"/>
       <c r="I212" s="29"/>
@@ -10280,7 +10293,7 @@
       <c r="E213" s="29"/>
       <c r="F213" s="24"/>
       <c r="G213" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H213" s="29"/>
       <c r="I213" s="29"/>
@@ -10326,7 +10339,7 @@
       <c r="J214" s="38"/>
       <c r="K214" s="37"/>
       <c r="L214" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M214" s="38"/>
       <c r="N214" s="38"/>
@@ -10345,7 +10358,7 @@
       <c r="AA214" s="38"/>
       <c r="AB214" s="37"/>
       <c r="AC214" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD214" s="38"/>
       <c r="AE214" s="38"/>
@@ -10362,14 +10375,14 @@
       <c r="E215" s="29"/>
       <c r="F215" s="24"/>
       <c r="G215" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H215" s="55"/>
       <c r="I215" s="55"/>
       <c r="J215" s="55"/>
       <c r="K215" s="31"/>
       <c r="L215" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M215" s="26"/>
       <c r="N215" s="26"/>
@@ -10388,7 +10401,7 @@
       <c r="AA215" s="26"/>
       <c r="AB215" s="71"/>
       <c r="AC215" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AD215" s="26"/>
       <c r="AE215" s="26"/>
@@ -10405,14 +10418,14 @@
       <c r="E216" s="29"/>
       <c r="F216" s="24"/>
       <c r="G216" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H216" s="57"/>
       <c r="I216" s="57"/>
       <c r="J216" s="57"/>
       <c r="K216" s="58"/>
       <c r="L216" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M216" s="26"/>
       <c r="N216" s="26"/>
@@ -10446,7 +10459,7 @@
       <c r="E217" s="29"/>
       <c r="F217" s="24"/>
       <c r="G217" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H217" s="55"/>
       <c r="I217" s="55"/>
@@ -10485,7 +10498,7 @@
       <c r="E218" s="29"/>
       <c r="F218" s="24"/>
       <c r="G218" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H218" s="33"/>
       <c r="I218" s="33"/>
@@ -10531,7 +10544,7 @@
       <c r="J219" s="55"/>
       <c r="K219" s="31"/>
       <c r="L219" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M219" s="26"/>
       <c r="N219" s="26"/>
@@ -10550,7 +10563,7 @@
       <c r="AA219" s="26"/>
       <c r="AB219" s="71"/>
       <c r="AC219" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AD219" s="26"/>
       <c r="AE219" s="26"/>
@@ -10572,7 +10585,7 @@
       <c r="J220" s="55"/>
       <c r="K220" s="31"/>
       <c r="L220" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M220" s="26"/>
       <c r="N220" s="26"/>
@@ -10591,7 +10604,7 @@
       <c r="AA220" s="26"/>
       <c r="AB220" s="71"/>
       <c r="AC220" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AD220" s="26"/>
       <c r="AE220" s="26"/>
@@ -10613,7 +10626,7 @@
       <c r="J221" s="55"/>
       <c r="K221" s="31"/>
       <c r="L221" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M221" s="26"/>
       <c r="N221" s="26"/>
@@ -10684,14 +10697,14 @@
       <c r="E223" s="29"/>
       <c r="F223" s="24"/>
       <c r="G223" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H223" s="55"/>
       <c r="I223" s="55"/>
       <c r="J223" s="55"/>
       <c r="K223" s="31"/>
       <c r="L223" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M223" s="26"/>
       <c r="N223" s="26"/>
@@ -10710,7 +10723,7 @@
       <c r="AA223" s="26"/>
       <c r="AB223" s="71"/>
       <c r="AC223" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD223" s="26"/>
       <c r="AE223" s="26"/>
@@ -10727,14 +10740,14 @@
       <c r="E224" s="29"/>
       <c r="F224" s="24"/>
       <c r="G224" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H224" s="55"/>
       <c r="I224" s="55"/>
       <c r="J224" s="55"/>
       <c r="K224" s="31"/>
       <c r="L224" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M224" s="26"/>
       <c r="N224" s="26"/>
@@ -10773,7 +10786,7 @@
       <c r="J225" s="55"/>
       <c r="K225" s="31"/>
       <c r="L225" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M225" s="26"/>
       <c r="N225" s="26"/>
@@ -10812,7 +10825,7 @@
       <c r="J226" s="55"/>
       <c r="K226" s="31"/>
       <c r="L226" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M226" s="26"/>
       <c r="N226" s="26"/>
@@ -10888,7 +10901,7 @@
       <c r="J228" s="55"/>
       <c r="K228" s="31"/>
       <c r="L228" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M228" s="26"/>
       <c r="N228" s="26"/>
@@ -10927,7 +10940,7 @@
       <c r="J229" s="55"/>
       <c r="K229" s="31"/>
       <c r="L229" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M229" s="26"/>
       <c r="N229" s="26"/>
@@ -10966,7 +10979,7 @@
       <c r="J230" s="55"/>
       <c r="K230" s="31"/>
       <c r="L230" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M230" s="26"/>
       <c r="N230" s="26"/>
@@ -11005,7 +11018,7 @@
       <c r="J231" s="55"/>
       <c r="K231" s="31"/>
       <c r="L231" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M231" s="26"/>
       <c r="N231" s="26"/>
@@ -11044,7 +11057,7 @@
       <c r="J232" s="55"/>
       <c r="K232" s="31"/>
       <c r="L232" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M232" s="26"/>
       <c r="N232" s="26"/>
@@ -11083,7 +11096,7 @@
       <c r="J233" s="55"/>
       <c r="K233" s="31"/>
       <c r="L233" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M233" s="26"/>
       <c r="N233" s="26"/>
@@ -11122,7 +11135,7 @@
       <c r="J234" s="33"/>
       <c r="K234" s="34"/>
       <c r="L234" s="76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M234" s="76"/>
       <c r="N234" s="76"/>
@@ -11156,14 +11169,14 @@
       <c r="E235" s="29"/>
       <c r="F235" s="24"/>
       <c r="G235" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H235" s="55"/>
       <c r="I235" s="55"/>
       <c r="J235" s="55"/>
       <c r="K235" s="31"/>
       <c r="L235" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M235" s="26"/>
       <c r="N235" s="26"/>
@@ -11182,7 +11195,7 @@
       <c r="AA235" s="26"/>
       <c r="AB235" s="71"/>
       <c r="AC235" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD235" s="26"/>
       <c r="AE235" s="26"/>
@@ -11199,14 +11212,14 @@
       <c r="E236" s="29"/>
       <c r="F236" s="24"/>
       <c r="G236" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H236" s="33"/>
       <c r="I236" s="33"/>
       <c r="J236" s="33"/>
       <c r="K236" s="34"/>
       <c r="L236" s="76" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M236" s="76"/>
       <c r="N236" s="76"/>
@@ -11279,7 +11292,7 @@
         <v>53</v>
       </c>
       <c r="G238" s="29" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
       <c r="H238" s="29"/>
       <c r="I238" s="29"/>
@@ -11318,7 +11331,7 @@
       <c r="E239" s="24"/>
       <c r="F239" s="29"/>
       <c r="G239" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H239" s="29"/>
       <c r="I239" s="29"/>
@@ -11396,7 +11409,7 @@
         <v>3.1.9.2.</v>
       </c>
       <c r="F241" s="74" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G241" s="29"/>
       <c r="H241" s="29"/>
@@ -11435,7 +11448,7 @@
       <c r="D242" s="29"/>
       <c r="E242" s="24"/>
       <c r="F242" s="74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G242" s="29"/>
       <c r="H242" s="29"/>
@@ -11631,7 +11644,7 @@
       <c r="E247" s="29"/>
       <c r="F247" s="29"/>
       <c r="G247" s="65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H247" s="29"/>
       <c r="I247" s="29"/>
@@ -11670,7 +11683,7 @@
       <c r="E248" s="29"/>
       <c r="F248" s="29"/>
       <c r="G248" s="78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H248" s="29"/>
       <c r="I248" s="29"/>
@@ -11709,7 +11722,7 @@
       <c r="E249" s="29"/>
       <c r="F249" s="29"/>
       <c r="G249" s="78" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H249" s="29"/>
       <c r="I249" s="29"/>
@@ -12031,7 +12044,7 @@
       <c r="O257" s="38"/>
       <c r="P257" s="37"/>
       <c r="Q257" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R257" s="38"/>
       <c r="S257" s="38"/>
@@ -12140,7 +12153,7 @@
       <c r="E260" s="29"/>
       <c r="F260" s="29"/>
       <c r="G260" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H260" s="55"/>
       <c r="I260" s="55"/>
@@ -12152,7 +12165,7 @@
       <c r="O260" s="55"/>
       <c r="P260" s="31"/>
       <c r="Q260" s="55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R260" s="55"/>
       <c r="S260" s="55"/>
@@ -12191,7 +12204,7 @@
       <c r="O261" s="55"/>
       <c r="P261" s="31"/>
       <c r="Q261" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R261" s="55"/>
       <c r="S261" s="55"/>
@@ -12230,7 +12243,7 @@
       <c r="O262" s="33"/>
       <c r="P262" s="34"/>
       <c r="Q262" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R262" s="33"/>
       <c r="S262" s="33"/>
@@ -12296,7 +12309,7 @@
       <c r="E264" s="29"/>
       <c r="F264" s="29"/>
       <c r="G264" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H264" s="55"/>
       <c r="I264" s="55"/>
@@ -12372,7 +12385,7 @@
       <c r="E266" s="29"/>
       <c r="F266" s="29"/>
       <c r="G266" s="55" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H266" s="55"/>
       <c r="I266" s="55"/>
@@ -12411,7 +12424,7 @@
       <c r="E267" s="29"/>
       <c r="F267" s="29"/>
       <c r="G267" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H267" s="55"/>
       <c r="I267" s="55"/>
@@ -12487,7 +12500,7 @@
       <c r="E269" s="29"/>
       <c r="F269" s="29"/>
       <c r="G269" s="55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H269" s="55"/>
       <c r="I269" s="55"/>
@@ -12526,7 +12539,7 @@
       <c r="E270" s="29"/>
       <c r="F270" s="29"/>
       <c r="G270" s="55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H270" s="55"/>
       <c r="I270" s="55"/>
@@ -12565,7 +12578,7 @@
       <c r="E271" s="29"/>
       <c r="F271" s="29"/>
       <c r="G271" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H271" s="55"/>
       <c r="I271" s="55"/>
@@ -12604,7 +12617,7 @@
       <c r="E272" s="29"/>
       <c r="F272" s="29"/>
       <c r="G272" s="55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H272" s="55"/>
       <c r="I272" s="55"/>
@@ -12678,7 +12691,7 @@
         <v>3.1.10.</v>
       </c>
       <c r="E274" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="275" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12698,16 +12711,16 @@
     <row r="277" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="42"/>
       <c r="F277" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="278" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="42"/>
       <c r="F278" s="41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G278" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="279" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12727,13 +12740,13 @@
     <row r="281" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="42"/>
       <c r="F281" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="282" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="42"/>
       <c r="F282" s="52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G282" s="53"/>
       <c r="H282" s="53"/>
@@ -12768,7 +12781,7 @@
     <row r="283" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="42"/>
       <c r="F283" s="69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G283" s="99"/>
       <c r="H283" s="99"/>
@@ -12776,7 +12789,7 @@
       <c r="J283" s="99"/>
       <c r="K283" s="101"/>
       <c r="L283" s="69" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M283" s="99"/>
       <c r="N283" s="99"/>
@@ -12809,7 +12822,7 @@
       <c r="J284" s="102"/>
       <c r="K284" s="103"/>
       <c r="L284" s="81" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M284" s="102"/>
       <c r="N284" s="102"/>
@@ -12850,7 +12863,7 @@
     <row r="287" spans="1:35" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="42"/>
       <c r="F287" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G287" s="29"/>
       <c r="H287" s="29"/>
@@ -12904,7 +12917,7 @@
       <c r="E297" s="42"/>
       <c r="F297" s="87"/>
       <c r="G297" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H297" s="53"/>
       <c r="I297" s="53"/>
@@ -12912,7 +12925,7 @@
       <c r="K297" s="53"/>
       <c r="L297" s="54"/>
       <c r="M297" s="53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N297" s="53"/>
       <c r="O297" s="53"/>
@@ -12937,10 +12950,10 @@
     <row r="298" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E298" s="42"/>
       <c r="F298" s="86" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G298" s="48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H298" s="49"/>
       <c r="I298" s="49"/>
@@ -12948,7 +12961,7 @@
       <c r="K298" s="49"/>
       <c r="L298" s="50"/>
       <c r="M298" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N298" s="49"/>
       <c r="O298" s="49"/>
@@ -13003,10 +13016,10 @@
     <row r="300" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E300" s="42"/>
       <c r="F300" s="86" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G300" s="48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H300" s="49"/>
       <c r="I300" s="49"/>
@@ -13014,7 +13027,7 @@
       <c r="K300" s="49"/>
       <c r="L300" s="50"/>
       <c r="M300" s="48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N300" s="49"/>
       <c r="O300" s="49"/>
@@ -13069,10 +13082,10 @@
     <row r="302" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E302" s="42"/>
       <c r="F302" s="86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G302" s="48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H302" s="49"/>
       <c r="I302" s="49"/>
@@ -13080,7 +13093,7 @@
       <c r="K302" s="49"/>
       <c r="L302" s="50"/>
       <c r="M302" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N302" s="49"/>
       <c r="O302" s="49"/>
@@ -13135,10 +13148,10 @@
     <row r="304" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E304" s="42"/>
       <c r="F304" s="86" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G304" s="48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H304" s="49"/>
       <c r="I304" s="49"/>
@@ -13146,7 +13159,7 @@
       <c r="K304" s="49"/>
       <c r="L304" s="50"/>
       <c r="M304" s="48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N304" s="49"/>
       <c r="O304" s="49"/>
@@ -13178,7 +13191,7 @@
       <c r="K305" s="44"/>
       <c r="L305" s="45"/>
       <c r="M305" s="43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N305" s="44"/>
       <c r="O305" s="44"/>
@@ -13233,10 +13246,10 @@
     <row r="307" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E307" s="42"/>
       <c r="F307" s="85" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G307" s="48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H307" s="49"/>
       <c r="I307" s="49"/>
@@ -13244,7 +13257,7 @@
       <c r="K307" s="49"/>
       <c r="L307" s="50"/>
       <c r="M307" s="48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N307" s="49"/>
       <c r="O307" s="49"/>
@@ -13306,7 +13319,7 @@
       <c r="D310" s="42"/>
       <c r="E310" s="36"/>
       <c r="F310" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G310" s="36"/>
     </row>
@@ -13314,7 +13327,7 @@
       <c r="D311" s="42"/>
       <c r="E311" s="36"/>
       <c r="F311" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G311" s="36"/>
     </row>
@@ -13347,19 +13360,19 @@
       <c r="D317" s="42"/>
       <c r="E317" s="42"/>
       <c r="F317" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="318" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D318" s="42"/>
       <c r="E318" s="42"/>
       <c r="F318" s="41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="319" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F319" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="320" spans="4:32" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13436,7 +13449,7 @@
     </row>
     <row r="323" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F323" s="41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="324" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13478,7 +13491,7 @@
     </row>
     <row r="325" spans="5:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F325" s="81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G325" s="93"/>
       <c r="H325" s="93"/>
@@ -13495,7 +13508,7 @@
       <c r="Q325" s="93"/>
       <c r="R325" s="72"/>
       <c r="S325" s="93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="T325" s="102"/>
       <c r="U325" s="102"/>
@@ -13550,7 +13563,7 @@
         <v>3.1.11.3.</v>
       </c>
       <c r="F327" s="36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G327" s="36"/>
       <c r="H327" s="36"/>
@@ -13576,10 +13589,10 @@
     <row r="329" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F329" s="77"/>
       <c r="G329" s="79" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H329" s="74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I329" s="74"/>
       <c r="J329" s="74"/>
@@ -13593,7 +13606,7 @@
         <v>55</v>
       </c>
       <c r="I330" s="74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J330" s="74"/>
       <c r="K330" s="74"/>
@@ -13605,7 +13618,7 @@
         <v>55</v>
       </c>
       <c r="H331" s="80" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I331" s="74"/>
       <c r="J331" s="74"/>
@@ -13619,7 +13632,7 @@
         <v>55</v>
       </c>
       <c r="I332" s="74" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J332" s="74"/>
       <c r="K332" s="74"/>
@@ -13629,10 +13642,10 @@
       <c r="F333" s="77"/>
       <c r="G333" s="74"/>
       <c r="H333" s="79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I333" s="74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J333" s="74"/>
       <c r="K333" s="74"/>
@@ -13641,10 +13654,10 @@
     <row r="334" spans="5:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F334" s="74"/>
       <c r="G334" s="79" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H334" s="74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I334" s="74"/>
       <c r="J334" s="74"/>
@@ -13655,10 +13668,10 @@
       <c r="F335" s="36"/>
       <c r="G335" s="36"/>
       <c r="H335" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="I335" s="36" t="s">
         <v>125</v>
-      </c>
-      <c r="I335" s="36" t="s">
-        <v>127</v>
       </c>
       <c r="J335" s="36"/>
       <c r="K335" s="36"/>
@@ -13668,10 +13681,10 @@
       <c r="F336" s="36"/>
       <c r="G336" s="83"/>
       <c r="H336" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="I336" s="36" t="s">
         <v>124</v>
-      </c>
-      <c r="I336" s="36" t="s">
-        <v>126</v>
       </c>
       <c r="J336" s="36"/>
       <c r="K336" s="36"/>
@@ -13702,19 +13715,19 @@
         <v>3.1.12.1.</v>
       </c>
       <c r="F339" s="41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="340" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D340" s="42"/>
       <c r="E340" s="41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="341" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D341" s="42"/>
       <c r="E341" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="342" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13727,13 +13740,13 @@
         <v>3.1.12.2.</v>
       </c>
       <c r="F343" s="41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="344" spans="4:34" s="41" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D344" s="42"/>
       <c r="E344" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="345" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13773,13 +13786,13 @@
         <v>3.1.13.</v>
       </c>
       <c r="E346" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
  